--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0625913-6852-41F6-B7D3-A5C1F21FD45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA57FA6-838B-4A56-A8CE-BA2A9E2D6240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12060" yWindow="3705" windowWidth="23925" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1995" yWindow="2685" windowWidth="23925" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="1050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="1070">
   <si>
     <t>缪尔赛思</t>
   </si>
@@ -1239,9 +1239,6 @@
     <t>**maa://20990 (50.0)</t>
   </si>
   <si>
-    <t>**maa://20903 (50.0)</t>
-  </si>
-  <si>
     <t>maa://20925 (100.0)</t>
   </si>
   <si>
@@ -1272,9 +1269,6 @@
     <t>maa://20900 (100.0)</t>
   </si>
   <si>
-    <t>maa://20876 (100.0)</t>
-  </si>
-  <si>
     <t>maa://20951 (100.0)</t>
   </si>
   <si>
@@ -1311,9 +1305,6 @@
     <t>maa://20938 (100.0)</t>
   </si>
   <si>
-    <t>maa://20954 (100.0)</t>
-  </si>
-  <si>
     <t>maa://30503 (100.0)</t>
   </si>
   <si>
@@ -1326,9 +1317,6 @@
     <t>maa://20993 (100.0), maa://20829 (100.0)</t>
   </si>
   <si>
-    <t>maa://20943 (100.0)</t>
-  </si>
-  <si>
     <t>maa://20989 (100.0)</t>
   </si>
   <si>
@@ -1389,9 +1377,6 @@
     <t>maa://20904 (100.0)</t>
   </si>
   <si>
-    <t>maa://20986 (92.31)</t>
-  </si>
-  <si>
     <t>maa://20949 (100.0)</t>
   </si>
   <si>
@@ -1428,9 +1413,6 @@
     <t>maa://20898 (100.0)</t>
   </si>
   <si>
-    <t>maa://20846 (100.0)</t>
-  </si>
-  <si>
     <t>maa://20961 (100.0)</t>
   </si>
   <si>
@@ -1452,9 +1434,6 @@
     <t>maa://29059 (100.0)</t>
   </si>
   <si>
-    <t>maa://20842 (100.0)</t>
-  </si>
-  <si>
     <t>maa://20912 (100.0)</t>
   </si>
   <si>
@@ -1512,9 +1491,6 @@
     <t>maa://24636 (100.0), maa://25778 (100.0)</t>
   </si>
   <si>
-    <t>maa://26499 (100.0), ***maa://20998 (14.29)</t>
-  </si>
-  <si>
     <t>maa://20858 (100.0)</t>
   </si>
   <si>
@@ -1551,9 +1527,6 @@
     <t>maa://20977 (100.0)</t>
   </si>
   <si>
-    <t>**maa://30678 (50.0)</t>
-  </si>
-  <si>
     <t>maa://29061 (100.0)</t>
   </si>
   <si>
@@ -1656,9 +1629,6 @@
     <t>*maa://31560 (80.0), **maa://20968 (50.0)</t>
   </si>
   <si>
-    <t>maa://30674 (83.33)</t>
-  </si>
-  <si>
     <t>maa://20919 (100.0), **maa://24873 (42.86)</t>
   </si>
   <si>
@@ -1692,99 +1662,48 @@
     <t>maa://20889 (85.71)</t>
   </si>
   <si>
-    <t>maa://20923 (85.71)</t>
-  </si>
-  <si>
     <t>maa://32845 (100.0), *maa://20982 (66.67)</t>
   </si>
   <si>
-    <t>maa://20958 (91.67)</t>
-  </si>
-  <si>
     <t>*maa://20926 (66.67)</t>
   </si>
   <si>
-    <t>maa://20909 (86.67)</t>
-  </si>
-  <si>
-    <t>maa://23019 (100.0), maa://20837 (100.0), maa://37113 (100.0), **maa://37666 (50.0)</t>
-  </si>
-  <si>
     <t>maa://20905 (85.71)</t>
   </si>
   <si>
     <t>maa://20911 (90.91), *maa://29012 (66.67)</t>
   </si>
   <si>
-    <t>**maa://20995 (50.0)</t>
-  </si>
-  <si>
-    <t>maa://20878 (86.67)</t>
-  </si>
-  <si>
-    <t>*maa://31560 (80.0), maa://20884 (91.67)</t>
-  </si>
-  <si>
     <t>maa://36005 (100.0)</t>
   </si>
   <si>
     <t>*maa://20965 (63.64)</t>
   </si>
   <si>
-    <t>maa://20826 (83.33), maa://20865 (83.33)</t>
-  </si>
-  <si>
     <t>CW-3</t>
   </si>
   <si>
-    <t>maa://20841 (100.0), maa://24093 (100.0), maa://31559 (90.0), maa://25777 (100.0), maa://20631 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://20844 (95.45)</t>
-  </si>
-  <si>
     <t>maa://20944 (94.29), maa://35393 (100.0)</t>
   </si>
   <si>
     <t>maa://30525 (100.0), maa://20859 (100.0), *maa://28188 (75.0), maa://30524 (100.0)</t>
   </si>
   <si>
-    <t>*maa://28190 (61.54), maa://20880 (88.24)</t>
-  </si>
-  <si>
-    <t>*maa://29094 (62.07), **maa://20931 (42.31), maa://28904 (89.47)</t>
-  </si>
-  <si>
     <t>maa://29659 (82.14), maa://29031 (100.0)</t>
   </si>
   <si>
-    <t>*maa://28190 (61.54), maa://20994 (100.0)</t>
-  </si>
-  <si>
     <t>SN-EX-3</t>
   </si>
   <si>
     <t>maa://20988 (83.33)</t>
   </si>
   <si>
-    <t>maa://20987 (90.16), *maa://35801 (71.43)</t>
-  </si>
-  <si>
-    <t>maa://20867 (92.86), *maa://32202 (80.0), maa://38485 (100.0)</t>
-  </si>
-  <si>
-    <t>*maa://20939 (60.0)</t>
-  </si>
-  <si>
     <t>IS-7</t>
   </si>
   <si>
     <t>maa://38296 (100.0)</t>
   </si>
   <si>
-    <t>maa://31559 (90.0), maa://28241 (100.0)</t>
-  </si>
-  <si>
     <t>冰酿</t>
   </si>
   <si>
@@ -1821,51 +1740,18 @@
     <t>maa://39023 (100.0)</t>
   </si>
   <si>
-    <t>*maa://20849 (58.62), **maa://28758 (36.84), maa://29036 (90.0), maa://30285 (100.0)</t>
-  </si>
-  <si>
     <t>maa://39024 (100.0)</t>
   </si>
   <si>
-    <t>maa://30500 (97.78), *maa://27290 (70.59)</t>
-  </si>
-  <si>
     <t>maa://39025 (100.0)</t>
   </si>
   <si>
-    <t>maa://20932 (96.5)</t>
-  </si>
-  <si>
-    <t>maa://20845 (80.95), maa://38727 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://28567 (100.0), **maa://20947 (44.12), maa://30525 (100.0), *maa://28188 (75.0), maa://30524 (100.0), maa://38735 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://20976 (97.97), maa://20815 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://20886 (85.71), maa://25136 (90.0)</t>
-  </si>
-  <si>
-    <t>maa://24472 (84.25), *maa://35841 (55.56)</t>
-  </si>
-  <si>
     <t>maa://24609 (86.67)</t>
   </si>
   <si>
     <t>maa://20927 (90.0)</t>
   </si>
   <si>
-    <t>*maa://20933 (74.42), maa://20822 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://20908 (98.14), *maa://23346 (77.78), maa://35723 (95.83), maa://38822 (100.0)</t>
-  </si>
-  <si>
-    <t>**maa://21000 (44.44), *maa://29025 (78.57)</t>
-  </si>
-  <si>
     <t>maa://37689 (100.0)</t>
   </si>
   <si>
@@ -1875,46 +1761,13 @@
     <t>maa://20975 (90.0), maa://30806 (100.0)</t>
   </si>
   <si>
-    <t>maa://32418 (99.63)</t>
-  </si>
-  <si>
     <t>maa://37690 (100.0)</t>
   </si>
   <si>
-    <t>maa://27823 (81.82), *maa://28190 (61.54), maa://22894 (88.89), *maa://20906 (76.47), **maa://20907 (33.33)</t>
-  </si>
-  <si>
-    <t>maa://24556 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://30714 (96.55), maa://30675 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://20922 (93.75), *maa://32623 (70.0), maa://34242 (100.0), *maa://34900 (80.0)</t>
-  </si>
-  <si>
-    <t>maa://20877 (98.04), maa://20836 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://20879 (85.29), maa://20834 (100.0)</t>
-  </si>
-  <si>
-    <t>*maa://20883 (60.0)</t>
-  </si>
-  <si>
     <t>*maa://20825 (72.73), *maa://21445 (76.92), ***maa://20891 (30.0), *maa://35726 (60.0)</t>
   </si>
   <si>
-    <t>maa://25769 (97.06)</t>
-  </si>
-  <si>
     <t>*maa://20862 (66.67)</t>
-  </si>
-  <si>
-    <t>maa://29005 (97.3), *maa://31560 (80.0)</t>
-  </si>
-  <si>
-    <t>maa://25367 (98.82)</t>
   </si>
   <si>
     <t>maa://28070 (100.0)</t>
@@ -2773,9 +2626,6 @@
     <t>maa://39142 (100.0)</t>
   </si>
   <si>
-    <t>*maa://20893 (80.0)</t>
-  </si>
-  <si>
     <t>maa://39143 (100.0)</t>
   </si>
   <si>
@@ -2791,9 +2641,6 @@
     <t>maa://39148 (100.0)</t>
   </si>
   <si>
-    <t>maa://39149 (100.0)</t>
-  </si>
-  <si>
     <t>maa://39150 (100.0)</t>
   </si>
   <si>
@@ -2803,84 +2650,18 @@
     <t>maa://39153 (100.0)</t>
   </si>
   <si>
-    <t>*maa://34866 (80.0), maa://34714 (94.12)</t>
-  </si>
-  <si>
-    <t>**maa://38297 (33.33), maa://39156 (100.0)</t>
-  </si>
-  <si>
     <t>maa://39154 (100.0)</t>
   </si>
   <si>
-    <t>maa://20863 (85.52), maa://20832 (97.44), maa://20727 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://36644 (88.04), maa://36866 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://20916 (82.35)</t>
-  </si>
-  <si>
-    <t>maa://27376 (86.67), **maa://20838 (50.0), **maa://39182 (50.0)</t>
-  </si>
-  <si>
     <t>*maa://20892 (75.38)</t>
   </si>
   <si>
-    <t>maa://28900 (95.35), maa://30126 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://27970 (97.87)</t>
-  </si>
-  <si>
-    <t>*maa://38298 (66.67)</t>
-  </si>
-  <si>
-    <t>maa://28187 (96.67), maa://33504 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://28784 (93.54), maa://29088 (91.62), maa://20974 (94.74), maa://31124 (94.38), maa://28950 (90.0), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67)</t>
-  </si>
-  <si>
-    <t>maa://36643 (96.99), maa://36864 (100.0), maa://39140 (100.0)</t>
-  </si>
-  <si>
     <t>送葬人</t>
   </si>
   <si>
     <t>IW-8</t>
   </si>
   <si>
-    <t>maa://25018 (95.22), maa://25776 (89.47), maa://28361 (95.83), maa://25772 (91.67), *maa://25161 (78.57), maa://32653 (84.62)</t>
-  </si>
-  <si>
-    <t>maa://29037 (96.3)</t>
-  </si>
-  <si>
-    <t>maa://29650 (96.88)</t>
-  </si>
-  <si>
-    <t>maa://37484 (92.31), maa://24611 (85.71)</t>
-  </si>
-  <si>
-    <t>maa://21422 (97.92)</t>
-  </si>
-  <si>
-    <t>maa://23020 (96.55), maa://29023 (100.0), maa://34319 (100.0)</t>
-  </si>
-  <si>
-    <t>*maa://30679 (54.55)</t>
-  </si>
-  <si>
-    <t>maa://28484 (98.0), **maa://23736 (41.27), *maa://31185 (75.0), maa://30306 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://30670 (98.44), maa://31470 (93.33), ***maa://30867 (25.0)</t>
-  </si>
-  <si>
-    <t>maa://36641 (97.78), maa://36865 (94.19), maa://37300 (100.0)</t>
-  </si>
-  <si>
     <t>maa://20945 (89.47)</t>
   </si>
   <si>
@@ -2890,27 +2671,12 @@
     <t>6-8</t>
   </si>
   <si>
-    <t>maa://29627 (92.31), maa://29633 (91.03), maa://29659 (82.14), maa://29861 (100.0)</t>
-  </si>
-  <si>
     <t>松果</t>
   </si>
   <si>
     <t>maa://20969 (87.5)</t>
   </si>
   <si>
-    <t>maa://25760 (81.13), *maa://20872 (52.17), *maa://35854 (66.67)</t>
-  </si>
-  <si>
-    <t>maa://28133 (89.19), *maa://28277 (78.26), maa://25369 (92.31), *maa://33132 (60.0), maa://39217 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://20956 (94.26), *maa://20830 (77.78)</t>
-  </si>
-  <si>
-    <t>maa://20955 (81.82)</t>
-  </si>
-  <si>
     <t>假日威龙陈</t>
   </si>
   <si>
@@ -2923,45 +2689,15 @@
     <t>maa://39158 (100.0)</t>
   </si>
   <si>
-    <t>maa://28187 (96.67)</t>
-  </si>
-  <si>
-    <t>maa://39159 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://30677 (100.0), maa://39140 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://29058 (95.12), maa://38723 (100.0), maa://39140 (100.0)</t>
-  </si>
-  <si>
     <t>maa://39160 (100.0)</t>
   </si>
   <si>
-    <t>maa://20917 (96.67)</t>
-  </si>
-  <si>
-    <t>*maa://30667 (74.31), maa://30666 (84.3), *maa://26836 (74.02), **maa://30739 (43.75), **maa://30723 (45.45), *maa://34428 (67.24), maa://37607 (84.44), maa://37850 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://28923 (91.79), maa://28906 (96.0), ***maa://28825 (12.5)</t>
-  </si>
-  <si>
     <t>maa://39161 (100.0)</t>
   </si>
   <si>
-    <t>maa://24093 (100.0), maa://20924 (92.31), maa://31559 (90.0)</t>
-  </si>
-  <si>
-    <t>maa://29027 (96.88)</t>
-  </si>
-  <si>
     <t>maa://39162 (100.0)</t>
   </si>
   <si>
-    <t>maa://22467 (95.65)</t>
-  </si>
-  <si>
     <t>maa://39163 (100.0)</t>
   </si>
   <si>
@@ -2974,21 +2710,6 @@
     <t>**maa://35860 (38.46), **maa://39165 (50.0)</t>
   </si>
   <si>
-    <t>maa://20899 (90.84)</t>
-  </si>
-  <si>
-    <t>maa://30710 (96.3), maa://36845 (92.98), maa://31558 (96.0), maa://30668 (83.33), maa://39217 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://25774 (100.0), maa://28133 (89.19), maa://22469 (92.5), **maa://31349 (50.0), maa://39217 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://32414 (98.16), maa://32505 (100.0), maa://39155 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://36642 (100.0), maa://36867 (100.0), maa://39155 (100.0)</t>
-  </si>
-  <si>
     <t>maa://39166 (100.0), maa://39167 (100.0)</t>
   </si>
   <si>
@@ -3004,18 +2725,9 @@
     <t>maa://39171 (100.0)</t>
   </si>
   <si>
-    <t>maa://35859 (95.24)</t>
-  </si>
-  <si>
-    <t>maa://39172 (100.0)</t>
-  </si>
-  <si>
     <t>maa://39173 (100.0)</t>
   </si>
   <si>
-    <t>maa://25775 (91.84), maa://25393 (81.82)</t>
-  </si>
-  <si>
     <t>11-16</t>
   </si>
   <si>
@@ -3031,51 +2743,18 @@
     <t>maa://39176 (100.0)</t>
   </si>
   <si>
-    <t>maa://39177 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://39178 (100.0)</t>
-  </si>
-  <si>
     <t>*maa://34205 (75.0)</t>
   </si>
   <si>
-    <t>maa://30671 (80.87), maa://30669 (97.73), maa://37275 (84.62), *maa://32410 (63.64), maa://33671 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://38295 (95.0)</t>
-  </si>
-  <si>
-    <t>maa://32416 (83.33)</t>
-  </si>
-  <si>
-    <t>maa://32647 (96.95), maa://32415 (95.88), maa://34677 (100.0), maa://32892 (100.0)</t>
-  </si>
-  <si>
     <t>maa://34716 (85.71)</t>
   </si>
   <si>
     <t>maa://39179 (100.0)</t>
   </si>
   <si>
-    <t>maa://34865 (95.61), maa://34717 (94.23)</t>
-  </si>
-  <si>
     <t>maa://39180 (100.0)</t>
   </si>
   <si>
-    <t>maa://39181 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://36868 (100.0), maa://35996 (93.75), maa://39217 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://36646 (97.54), maa://36845 (92.98), maa://39217 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://36645 (98.6), maa://36841 (94.87), maa://37484 (92.31), maa://37858 (92.86)</t>
-  </si>
-  <si>
     <t>maa://39183 (100.0)</t>
   </si>
   <si>
@@ -3184,7 +2863,388 @@
     <t>&gt; 战斗中非助战渡桥累计使用承压功率8次&gt; 3星通关主题曲3-1；必须编入非助战渡桥并上场，且至少使用3次承压功率</t>
   </si>
   <si>
-    <t>更新日期：2024.07.10</t>
+    <t>**maa://20903 (33.33)</t>
+  </si>
+  <si>
+    <t>maa://20865 (83.33), maa://20826 (83.33)</t>
+  </si>
+  <si>
+    <t>maa://20876 (87.5)</t>
+  </si>
+  <si>
+    <t>*maa://20849 (58.06), **maa://28758 (35.0), maa://29036 (90.0), maa://30285 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://20863 (86.0), maa://20832 (97.44), maa://20727 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://36644 (88.54), maa://36866 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://30500 (97.92), *maa://27290 (70.59)</t>
+  </si>
+  <si>
+    <t>*maa://20916 (78.95)</t>
+  </si>
+  <si>
+    <t>maa://27376 (82.35), **maa://20838 (50.0), ***maa://39182 (8.33)</t>
+  </si>
+  <si>
+    <t>maa://20954 (92.31)</t>
+  </si>
+  <si>
+    <t>maa://20932 (96.55)</t>
+  </si>
+  <si>
+    <t>maa://28900 (95.65), maa://30126 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://27970 (97.92)</t>
+  </si>
+  <si>
+    <t>*maa://38298 (72.22)</t>
+  </si>
+  <si>
+    <t>maa://20841 (100.0), maa://24093 (100.0), maa://31559 (91.67), maa://25777 (100.0), maa://20631 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://20844 (95.65)</t>
+  </si>
+  <si>
+    <t>*maa://20845 (77.27), maa://38727 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://28187 (96.67), maa://33504 (100.0), maa://39520 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://28567 (96.77), **maa://20947 (44.12), maa://30525 (100.0), *maa://28188 (75.0), maa://38735 (100.0), maa://30524 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://39693 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://20976 (97.99), maa://20815 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://28784 (93.65), maa://29088 (91.72), maa://20974 (94.87), maa://31124 (95.37), maa://28950 (90.91), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67)</t>
+  </si>
+  <si>
+    <t>maa://20943 (99.56)</t>
+  </si>
+  <si>
+    <t>maa://36643 (96.94), maa://36864 (100.0), maa://39140 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://20958 (92.31)</t>
+  </si>
+  <si>
+    <t>maa://20886 (86.67), maa://25136 (90.0)</t>
+  </si>
+  <si>
+    <t>maa://24472 (84.85), *maa://35841 (60.0)</t>
+  </si>
+  <si>
+    <t>*maa://28190 (59.26), maa://20880 (88.24)</t>
+  </si>
+  <si>
+    <t>*maa://20893 (75.0)</t>
+  </si>
+  <si>
+    <t>*maa://39240 (60.0)</t>
+  </si>
+  <si>
+    <t>*maa://29094 (63.33), maa://28904 (89.47), **maa://20931 (42.31)</t>
+  </si>
+  <si>
+    <t>maa://25018 (95.58), maa://25776 (89.66), maa://28361 (96.3), maa://25772 (91.67), *maa://25161 (78.57), maa://32653 (84.62)</t>
+  </si>
+  <si>
+    <t>*maa://20933 (75.0), maa://20822 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://29037 (96.43)</t>
+  </si>
+  <si>
+    <t>maa://20908 (98.14), *maa://23346 (77.78), maa://35723 (96.3), maa://38822 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://20986 (92.86)</t>
+  </si>
+  <si>
+    <t>maa://29650 (97.06)</t>
+  </si>
+  <si>
+    <t>*maa://20909 (76.47)</t>
+  </si>
+  <si>
+    <t>maa://37484 (92.86), maa://24611 (86.36)</t>
+  </si>
+  <si>
+    <t>maa://21422 (98.11)</t>
+  </si>
+  <si>
+    <t>maa://23019 (100.0), maa://20837 (100.0), maa://37113 (100.0), *maa://37666 (75.0)</t>
+  </si>
+  <si>
+    <t>maa://23020 (96.67), maa://29023 (100.0), maa://34319 (100.0), **maa://39515 (50.0)</t>
+  </si>
+  <si>
+    <t>**maa://21000 (42.86), *maa://29025 (73.33)</t>
+  </si>
+  <si>
+    <t>*maa://30679 (53.33)</t>
+  </si>
+  <si>
+    <t>maa://28484 (98.15), **maa://23736 (42.19), *maa://31185 (75.0), maa://30306 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://30670 (98.48), maa://31470 (93.75), ***maa://30867 (25.0)</t>
+  </si>
+  <si>
+    <t>maa://20846 (94.74)</t>
+  </si>
+  <si>
+    <t>maa://36641 (97.88), maa://36865 (94.68), maa://37300 (100.0)</t>
+  </si>
+  <si>
+    <t>**maa://39149 (50.0)</t>
+  </si>
+  <si>
+    <t>maa://29627 (92.62), maa://29633 (91.41), maa://29659 (82.14), maa://29861 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://32418 (99.66)</t>
+  </si>
+  <si>
+    <t>maa://20842 (92.31)</t>
+  </si>
+  <si>
+    <t>maa://34866 (82.35), maa://34714 (94.74)</t>
+  </si>
+  <si>
+    <t>*maa://28190 (59.26), maa://20994 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://25760 (81.48), *maa://35854 (64.29), *maa://20872 (52.17)</t>
+  </si>
+  <si>
+    <t>***maa://38297 (25.0), maa://39156 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://27823 (80.43), *maa://28190 (59.26), maa://22894 (88.89), *maa://20906 (72.22), **maa://20907 (33.33)</t>
+  </si>
+  <si>
+    <t>maa://28133 (89.19), *maa://28277 (78.26), maa://25369 (92.31), **maa://39217 (40.0), *maa://33132 (66.67)</t>
+  </si>
+  <si>
+    <t>maa://20956 (94.66), *maa://20830 (77.78)</t>
+  </si>
+  <si>
+    <t>*maa://20955 (78.26)</t>
+  </si>
+  <si>
+    <t>**maa://24556 (50.0)</t>
+  </si>
+  <si>
+    <t>桑葚</t>
+  </si>
+  <si>
+    <t>**maa://20995 (44.44)</t>
+  </si>
+  <si>
+    <t>maa://26499 (100.0), ***maa://20998 (12.5)</t>
+  </si>
+  <si>
+    <t>蜜莓</t>
+  </si>
+  <si>
+    <t>GA-2</t>
+  </si>
+  <si>
+    <t>maa://28187 (96.67), maa://39520 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://20987 (90.77), *maa://35801 (75.0)</t>
+  </si>
+  <si>
+    <t>maa://39159 (88.89)</t>
+  </si>
+  <si>
+    <t>maa://39140 (100.0), maa://30677 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://29058 (93.02), maa://39140 (100.0), maa://38723 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://20878 (87.5)</t>
+  </si>
+  <si>
+    <t>maa://20917 (96.97)</t>
+  </si>
+  <si>
+    <t>maa://30714 (96.88), maa://30675 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://20922 (93.88), *maa://32623 (58.33), *maa://34242 (80.0), maa://34900 (85.71)</t>
+  </si>
+  <si>
+    <t>*maa://30667 (74.92), maa://30666 (82.78), *maa://26836 (74.62), **maa://30739 (45.71), **maa://30723 (47.92), *maa://34428 (65.57), maa://37607 (88.31), maa://37850 (100.0), maa://39588 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://20867 (92.86), *maa://32202 (80.0), **maa://38485 (50.0)</t>
+  </si>
+  <si>
+    <t>褐果</t>
+  </si>
+  <si>
+    <t>SV-3</t>
+  </si>
+  <si>
+    <t>maa://30674 (85.71)</t>
+  </si>
+  <si>
+    <t>maa://28923 (92.03), maa://28906 (96.15), ***maa://28825 (12.5)</t>
+  </si>
+  <si>
+    <t>maa://20923 (87.5)</t>
+  </si>
+  <si>
+    <t>maa://24093 (100.0), maa://20924 (93.33), maa://31559 (91.67)</t>
+  </si>
+  <si>
+    <t>maa://20877 (98.11), maa://20836 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://20879 (85.71), maa://20834 (100.0)</t>
+  </si>
+  <si>
+    <t>*maa://31560 (80.0), maa://20884 (92.31)</t>
+  </si>
+  <si>
+    <t>*maa://20883 (54.55)</t>
+  </si>
+  <si>
+    <t>maa://29027 (96.97)</t>
+  </si>
+  <si>
+    <t>maa://22467 (92.31)</t>
+  </si>
+  <si>
+    <t>**maa://30678 (42.86)</t>
+  </si>
+  <si>
+    <t>maa://25769 (96.19)</t>
+  </si>
+  <si>
+    <t>*maa://20939 (71.43)</t>
+  </si>
+  <si>
+    <t>maa://20899 (91.11)</t>
+  </si>
+  <si>
+    <t>maa://30710 (96.47), maa://36845 (93.85), maa://31558 (96.0), maa://30668 (83.33), **maa://39217 (40.0)</t>
+  </si>
+  <si>
+    <t>maa://25774 (100.0), maa://28133 (89.19), maa://22469 (92.5), **maa://31349 (50.0), **maa://39217 (40.0)</t>
+  </si>
+  <si>
+    <t>maa://32414 (98.26), maa://32505 (100.0), maa://39155 (92.31)</t>
+  </si>
+  <si>
+    <t>maa://36642 (100.0), maa://36867 (100.0), maa://39155 (92.31)</t>
+  </si>
+  <si>
+    <t>maa://29005 (97.5), *maa://31560 (80.0)</t>
+  </si>
+  <si>
+    <t>maa://35859 (95.45)</t>
+  </si>
+  <si>
+    <t>**maa://39172 (50.0)</t>
+  </si>
+  <si>
+    <t>maa://25775 (92.31), maa://25393 (83.33)</t>
+  </si>
+  <si>
+    <t>maa://25367 (98.86)</t>
+  </si>
+  <si>
+    <t>maa://31559 (91.67), maa://28241 (100.0)</t>
+  </si>
+  <si>
+    <t>纯烬艾雅法拉</t>
+  </si>
+  <si>
+    <t>FC-5</t>
+  </si>
+  <si>
+    <t>maa://39692 (100.0), **maa://39810 (50.0)</t>
+  </si>
+  <si>
+    <t>**maa://39177 (50.0)</t>
+  </si>
+  <si>
+    <t>**maa://39178 (50.0)</t>
+  </si>
+  <si>
+    <t>哈洛德</t>
+  </si>
+  <si>
+    <t>*maa://30671 (80.0), maa://30669 (98.04), maa://37275 (81.25), *maa://32410 (63.64), maa://33671 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://38295 (96.15)</t>
+  </si>
+  <si>
+    <t>maa://32416 (83.87)</t>
+  </si>
+  <si>
+    <t>maa://32647 (97.12), maa://32415 (96.04), maa://34677 (100.0), maa://32892 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://34865 (95.87), maa://34717 (94.23)</t>
+  </si>
+  <si>
+    <t>*maa://39181 (66.67)</t>
+  </si>
+  <si>
+    <t>maa://36868 (100.0), maa://35996 (94.12), **maa://39217 (40.0)</t>
+  </si>
+  <si>
+    <t>maa://36646 (97.86), maa://36845 (93.85), **maa://39217 (40.0)</t>
+  </si>
+  <si>
+    <t>maa://36645 (98.34), maa://36841 (95.12), maa://37484 (92.86), maa://37858 (93.75)</t>
+  </si>
+  <si>
+    <t>衡沙</t>
+  </si>
+  <si>
+    <t>DV-2</t>
+  </si>
+  <si>
+    <t>&gt; 战斗中非助战夜莺累计使用圣域6次&gt; 3星通关别传TW-3；必须编入非助战夜莺并上场，且所有干员不被击倒</t>
+  </si>
+  <si>
+    <t>&gt; 完成5次战斗；必须编入非助战桑葚并上场，且每次战斗至少释放1次安全区域&gt; 3星通关插曲SV-5；必须编入非助战桑葚并上场，其他成员仅可编入7名干员</t>
+  </si>
+  <si>
+    <t>&gt; 战斗中非助战蜜莓累计使用振奋8次&gt; 3星通关别传GA-2；必须编入非助战蜜莓并上场，且不编入其他医疗干员</t>
+  </si>
+  <si>
+    <t>&gt; 完成5次战斗；必须编入非助战褐果并上场，且每次战斗至少释放1次厚土迸发&gt; 3星通关插曲SV-3；必须编入非助战褐果并上场，且不编入其他医疗干员</t>
+  </si>
+  <si>
+    <t>&gt; 完成5次战斗；必须编入非助战纯烬艾雅法拉并上场，且每次战斗至少释放1次火山回响&gt; 3星通关别传FC-5；必须编入非助战纯烬艾雅法拉并上场，且不编入其他医疗干员</t>
+  </si>
+  <si>
+    <t>&gt; 战斗中非助战哈洛德累计使用重症优先8次&gt; 3星通关主题曲9-13标准实战环境；必须编入非助战哈洛德并上场，且所有干员不被击倒</t>
+  </si>
+  <si>
+    <t>&gt; 战斗中累计召唤非助战衡沙的召唤物20回&gt; 3星通关别传DV-2；必须编入非助战衡沙并上场，其他成员仅可编入4名干员</t>
+  </si>
+  <si>
+    <t>更新日期：2024.08.04</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3545,10 +3605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF314"/>
+  <dimension ref="A1:AF320"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3557,7 +3617,7 @@
     <col min="2" max="2" width="10.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="5.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="27.625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="117.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="145.625" style="4" customWidth="1"/>
     <col min="6" max="6" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.75" style="2" customWidth="1"/>
@@ -3602,7 +3662,7 @@
         <v>36</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>630</v>
+        <v>581</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -3636,7 +3696,7 @@
         <v>400</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>631</v>
+        <v>582</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -3667,10 +3727,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>632</v>
+        <v>583</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -3701,10 +3761,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>401</v>
+        <v>942</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>633</v>
+        <v>584</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>246</v>
@@ -3737,10 +3797,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>634</v>
+        <v>585</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -3771,10 +3831,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>635</v>
+        <v>586</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -3805,14 +3865,14 @@
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>636</v>
+        <v>587</v>
       </c>
       <c r="F7" s="2"/>
       <c r="H7" s="7" t="s">
-        <v>1049</v>
+        <v>1069</v>
       </c>
       <c r="J7" s="2"/>
       <c r="L7" s="1"/>
@@ -3839,10 +3899,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>637</v>
+        <v>588</v>
       </c>
       <c r="F8" s="2"/>
       <c r="H8" s="7"/>
@@ -3871,10 +3931,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>592</v>
+        <v>565</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>638</v>
+        <v>589</v>
       </c>
       <c r="F9" s="2"/>
       <c r="H9" s="7"/>
@@ -3903,10 +3963,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>639</v>
+        <v>590</v>
       </c>
       <c r="F10" s="2"/>
       <c r="H10" s="1"/>
@@ -3935,10 +3995,10 @@
         <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>640</v>
+        <v>591</v>
       </c>
       <c r="F11" s="2"/>
       <c r="H11" s="1"/>
@@ -3958,7 +4018,7 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>343</v>
@@ -3967,10 +4027,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>593</v>
+        <v>566</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>641</v>
+        <v>592</v>
       </c>
       <c r="F12" s="2"/>
       <c r="H12" s="1"/>
@@ -3999,10 +4059,10 @@
         <v>1</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>594</v>
+        <v>567</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>642</v>
+        <v>593</v>
       </c>
       <c r="F13" s="2"/>
       <c r="H13" s="1"/>
@@ -4031,10 +4091,10 @@
         <v>2</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>643</v>
+        <v>594</v>
       </c>
       <c r="F14" s="2"/>
       <c r="H14" s="1"/>
@@ -4063,10 +4123,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>644</v>
+        <v>595</v>
       </c>
       <c r="F15" s="2"/>
       <c r="H15" s="1"/>
@@ -4095,10 +4155,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>645</v>
+        <v>596</v>
       </c>
       <c r="F16" s="2"/>
       <c r="H16" s="1"/>
@@ -4127,10 +4187,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>646</v>
+        <v>597</v>
       </c>
       <c r="F17" s="2"/>
       <c r="H17" s="1"/>
@@ -4159,10 +4219,10 @@
         <v>2</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>565</v>
+        <v>943</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>647</v>
+        <v>598</v>
       </c>
       <c r="F18" s="2"/>
       <c r="H18" s="1"/>
@@ -4191,10 +4251,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>648</v>
+        <v>599</v>
       </c>
       <c r="F19" s="2"/>
       <c r="H19" s="1"/>
@@ -4223,10 +4283,10 @@
         <v>2</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>649</v>
+        <v>600</v>
       </c>
       <c r="F20" s="2"/>
       <c r="H20" s="1"/>
@@ -4255,10 +4315,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>412</v>
+        <v>944</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>650</v>
+        <v>601</v>
       </c>
       <c r="F21" s="2"/>
       <c r="H21" s="1"/>
@@ -4287,10 +4347,10 @@
         <v>1</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>651</v>
+        <v>602</v>
       </c>
       <c r="F22" s="2"/>
       <c r="H22" s="1"/>
@@ -4319,10 +4379,10 @@
         <v>1</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>652</v>
+        <v>603</v>
       </c>
       <c r="F23" s="2"/>
       <c r="H23" s="1"/>
@@ -4354,7 +4414,7 @@
         <v>35</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>653</v>
+        <v>604</v>
       </c>
       <c r="F24" s="2"/>
       <c r="H24" s="1"/>
@@ -4383,10 +4443,10 @@
         <v>4</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>595</v>
+        <v>945</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>654</v>
+        <v>605</v>
       </c>
       <c r="F25" s="2"/>
       <c r="H25" s="1"/>
@@ -4415,10 +4475,10 @@
         <v>1</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>655</v>
+        <v>606</v>
       </c>
       <c r="F26" s="2"/>
       <c r="H26" s="1"/>
@@ -4447,10 +4507,10 @@
         <v>3</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>925</v>
+        <v>946</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>656</v>
+        <v>607</v>
       </c>
       <c r="F27" s="2"/>
       <c r="H27" s="1"/>
@@ -4479,10 +4539,10 @@
         <v>1</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>657</v>
+        <v>608</v>
       </c>
       <c r="F28" s="2"/>
       <c r="H28" s="1"/>
@@ -4511,10 +4571,10 @@
         <v>1</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>596</v>
+        <v>568</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>658</v>
+        <v>609</v>
       </c>
       <c r="F29" s="2"/>
       <c r="H29" s="1"/>
@@ -4534,7 +4594,7 @@
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>365</v>
@@ -4543,10 +4603,10 @@
         <v>2</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>926</v>
+        <v>947</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>659</v>
+        <v>610</v>
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.2">
@@ -4560,10 +4620,10 @@
         <v>2</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>597</v>
+        <v>948</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>660</v>
+        <v>611</v>
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.2">
@@ -4577,10 +4637,10 @@
         <v>1</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>927</v>
+        <v>949</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>661</v>
+        <v>612</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -4594,10 +4654,10 @@
         <v>1</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>662</v>
+        <v>613</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -4611,10 +4671,10 @@
         <v>1</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>663</v>
+        <v>614</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -4628,10 +4688,10 @@
         <v>3</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>928</v>
+        <v>950</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>664</v>
+        <v>615</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -4645,10 +4705,10 @@
         <v>1</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>665</v>
+        <v>616</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -4662,10 +4722,10 @@
         <v>2</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>666</v>
+        <v>617</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4679,10 +4739,10 @@
         <v>1</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>667</v>
+        <v>618</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4696,10 +4756,10 @@
         <v>1</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>929</v>
+        <v>872</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>668</v>
+        <v>619</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4713,10 +4773,10 @@
         <v>4</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>669</v>
+        <v>620</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4730,10 +4790,10 @@
         <v>1</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>670</v>
+        <v>621</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4747,10 +4807,10 @@
         <v>1</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>671</v>
+        <v>622</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4764,10 +4824,10 @@
         <v>1</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>672</v>
+        <v>623</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -4781,10 +4841,10 @@
         <v>1</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>598</v>
+        <v>569</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>673</v>
+        <v>624</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -4798,10 +4858,10 @@
         <v>1</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>674</v>
+        <v>625</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -4815,10 +4875,10 @@
         <v>1</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>425</v>
+        <v>951</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>675</v>
+        <v>626</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -4832,10 +4892,10 @@
         <v>2</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>676</v>
+        <v>627</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -4849,10 +4909,10 @@
         <v>1</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>677</v>
+        <v>628</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -4866,10 +4926,10 @@
         <v>1</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>678</v>
+        <v>629</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -4883,10 +4943,10 @@
         <v>2</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>679</v>
+        <v>630</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -4900,10 +4960,10 @@
         <v>1</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>680</v>
+        <v>631</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -4917,10 +4977,10 @@
         <v>1</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>599</v>
+        <v>952</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>681</v>
+        <v>632</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -4934,10 +4994,10 @@
         <v>1</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>682</v>
+        <v>633</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -4951,10 +5011,10 @@
         <v>2</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>930</v>
+        <v>953</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>683</v>
+        <v>634</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -4968,10 +5028,10 @@
         <v>1</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>931</v>
+        <v>954</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>684</v>
+        <v>635</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -4979,16 +5039,16 @@
         <v>136</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>566</v>
+        <v>548</v>
       </c>
       <c r="C56" s="1">
         <v>1</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>932</v>
+        <v>955</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>685</v>
+        <v>636</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -5002,10 +5062,10 @@
         <v>5</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>567</v>
+        <v>956</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>686</v>
+        <v>637</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -5019,10 +5079,10 @@
         <v>1</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>568</v>
+        <v>957</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>687</v>
+        <v>638</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -5036,10 +5096,10 @@
         <v>2</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>600</v>
+        <v>958</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>688</v>
+        <v>639</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -5050,13 +5110,13 @@
         <v>266</v>
       </c>
       <c r="C60" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>933</v>
+        <v>959</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>689</v>
+        <v>640</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -5070,10 +5130,10 @@
         <v>6</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>601</v>
+        <v>960</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>690</v>
+        <v>641</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -5087,27 +5147,27 @@
         <v>2</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>691</v>
+        <v>642</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>361</v>
+        <v>275</v>
       </c>
       <c r="C63" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>602</v>
+        <v>961</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>692</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -5115,33 +5175,33 @@
         <v>80</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C64" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>934</v>
+        <v>962</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>693</v>
+        <v>643</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>267</v>
+        <v>362</v>
       </c>
       <c r="C65" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>569</v>
+        <v>963</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>694</v>
+        <v>644</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -5149,118 +5209,118 @@
         <v>81</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>353</v>
+        <v>267</v>
       </c>
       <c r="C66" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>430</v>
+        <v>549</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>695</v>
+        <v>645</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>523</v>
+        <v>81</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="C67" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>935</v>
+        <v>964</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>696</v>
+        <v>646</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>42</v>
+        <v>514</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>363</v>
+        <v>310</v>
       </c>
       <c r="C68" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>910</v>
+        <v>965</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>697</v>
+        <v>647</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="C69" s="1">
         <v>1</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>911</v>
+        <v>861</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>698</v>
+        <v>648</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>268</v>
+        <v>337</v>
       </c>
       <c r="C70" s="1">
         <v>1</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>431</v>
+        <v>862</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>699</v>
+        <v>649</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C71" s="1">
         <v>1</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>700</v>
+        <v>650</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C72" s="1">
         <v>1</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>554</v>
+        <v>428</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>701</v>
+        <v>651</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -5268,67 +5328,67 @@
         <v>44</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C73" s="1">
         <v>1</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>433</v>
+        <v>966</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>702</v>
+        <v>652</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>354</v>
+        <v>269</v>
       </c>
       <c r="C74" s="1">
         <v>1</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>703</v>
+        <v>653</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>271</v>
+        <v>354</v>
       </c>
       <c r="C75" s="1">
         <v>1</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>704</v>
+        <v>654</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>360</v>
+        <v>271</v>
       </c>
       <c r="C76" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>570</v>
+        <v>431</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>705</v>
+        <v>655</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -5336,84 +5396,84 @@
         <v>46</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C77" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>436</v>
+        <v>550</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>706</v>
+        <v>656</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>176</v>
+        <v>46</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C78" s="1">
         <v>1</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>707</v>
+        <v>657</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>272</v>
+        <v>365</v>
       </c>
       <c r="C79" s="1">
         <v>1</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>708</v>
+        <v>658</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>350</v>
+        <v>272</v>
       </c>
       <c r="C80" s="1">
         <v>1</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>709</v>
+        <v>659</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>106</v>
+        <v>193</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>273</v>
+        <v>350</v>
       </c>
       <c r="C81" s="1">
         <v>1</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>710</v>
+        <v>660</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -5421,50 +5481,50 @@
         <v>106</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>366</v>
+        <v>273</v>
       </c>
       <c r="C82" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>603</v>
+        <v>436</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>711</v>
+        <v>661</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C83" s="1">
         <v>2</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>604</v>
+        <v>967</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>712</v>
+        <v>662</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C84" s="1">
         <v>2</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>571</v>
+        <v>968</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>713</v>
+        <v>663</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -5472,84 +5532,84 @@
         <v>47</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C85" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>605</v>
+        <v>969</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>714</v>
+        <v>664</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="C86" s="1">
         <v>1</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>441</v>
+        <v>570</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>715</v>
+        <v>665</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>274</v>
+        <v>362</v>
       </c>
       <c r="C87" s="1">
         <v>1</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>716</v>
+        <v>666</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>936</v>
+        <v>48</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>937</v>
+        <v>274</v>
       </c>
       <c r="C88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>35</v>
+        <v>438</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>1016</v>
+        <v>667</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>194</v>
+        <v>873</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>370</v>
+        <v>874</v>
       </c>
       <c r="C89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>606</v>
+        <v>35</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>717</v>
+        <v>909</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -5557,115 +5617,118 @@
         <v>194</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C90" s="1">
         <v>1</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>555</v>
+        <v>571</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>718</v>
+        <v>668</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>275</v>
+        <v>371</v>
       </c>
       <c r="C91" s="1">
         <v>1</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>443</v>
+        <v>543</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>719</v>
+        <v>669</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>372</v>
+        <v>275</v>
       </c>
       <c r="C92" s="1">
         <v>1</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>720</v>
+        <v>670</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>108</v>
+        <v>178</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="C93" s="1">
         <v>1</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>721</v>
+        <v>671</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="C94" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>536</v>
+        <v>441</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>722</v>
+        <v>672</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>217</v>
+        <v>82</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="C95" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>912</v>
+        <v>527</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>723</v>
+        <v>673</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>140</v>
+        <v>217</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>284</v>
+        <v>365</v>
       </c>
       <c r="C96" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>970</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>1017</v>
+        <v>674</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -5673,169 +5736,169 @@
         <v>140</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="C97" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>572</v>
+        <v>971</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>724</v>
+        <v>910</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>374</v>
+        <v>276</v>
       </c>
       <c r="C98" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>446</v>
+        <v>972</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>725</v>
+        <v>675</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C99" s="1">
         <v>1</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>913</v>
+        <v>442</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>726</v>
+        <v>676</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="C100" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>545</v>
+        <v>863</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>727</v>
+        <v>677</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>342</v>
+        <v>365</v>
       </c>
       <c r="C101" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>447</v>
+        <v>535</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>728</v>
+        <v>678</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>376</v>
+        <v>342</v>
       </c>
       <c r="C102" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>938</v>
+        <v>443</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>729</v>
+        <v>679</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>218</v>
+        <v>50</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>353</v>
+        <v>376</v>
       </c>
       <c r="C103" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>448</v>
+        <v>973</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>730</v>
+        <v>680</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>83</v>
+        <v>218</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>250</v>
+        <v>353</v>
       </c>
       <c r="C104" s="1">
         <v>1</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>731</v>
+        <v>681</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>219</v>
+        <v>83</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>345</v>
+        <v>250</v>
       </c>
       <c r="C105" s="1">
         <v>1</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>914</v>
+        <v>445</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>732</v>
+        <v>682</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>84</v>
+        <v>219</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>277</v>
+        <v>345</v>
       </c>
       <c r="C106" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>607</v>
+        <v>864</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>733</v>
+        <v>683</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -5843,50 +5906,50 @@
         <v>84</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C107" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>939</v>
+        <v>974</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>734</v>
+        <v>684</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>141</v>
+        <v>84</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C108" s="1">
         <v>1</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>450</v>
+        <v>975</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>735</v>
+        <v>685</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C109" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>608</v>
+        <v>446</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>736</v>
+        <v>686</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -5894,101 +5957,101 @@
         <v>142</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>377</v>
+        <v>280</v>
       </c>
       <c r="C110" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>573</v>
+        <v>976</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>737</v>
+        <v>687</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>179</v>
+        <v>142</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C111" s="1">
         <v>2</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>537</v>
+        <v>551</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>738</v>
+        <v>688</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>51</v>
+        <v>179</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="C112" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>451</v>
+        <v>528</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>739</v>
+        <v>689</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>373</v>
+        <v>336</v>
       </c>
       <c r="C113" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>538</v>
+        <v>977</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>740</v>
+        <v>690</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>279</v>
+        <v>373</v>
       </c>
       <c r="C114" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>452</v>
+        <v>529</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>741</v>
+        <v>691</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>363</v>
+        <v>279</v>
       </c>
       <c r="C115" s="1">
         <v>1</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>742</v>
+        <v>692</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -5996,84 +6059,84 @@
         <v>25</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="C116" s="1">
         <v>1</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>940</v>
+        <v>448</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>743</v>
+        <v>693</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>344</v>
+        <v>374</v>
       </c>
       <c r="C117" s="1">
         <v>1</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>454</v>
+        <v>978</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>744</v>
+        <v>694</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="C118" s="1">
         <v>1</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>556</v>
+        <v>449</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>745</v>
+        <v>695</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>195</v>
+        <v>54</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="C119" s="1">
         <v>1</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>455</v>
+        <v>979</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>746</v>
+        <v>696</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="C120" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>546</v>
+        <v>450</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>747</v>
+        <v>697</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -6081,50 +6144,50 @@
         <v>220</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>281</v>
+        <v>341</v>
       </c>
       <c r="C121" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>941</v>
+        <v>536</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>748</v>
+        <v>698</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>26</v>
+        <v>220</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C122" s="1">
         <v>2</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>456</v>
+        <v>980</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>749</v>
+        <v>699</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>221</v>
+        <v>26</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C123" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>942</v>
+        <v>451</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>750</v>
+        <v>700</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -6132,33 +6195,33 @@
         <v>221</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C124" s="1">
         <v>1</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>457</v>
+        <v>981</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>751</v>
+        <v>701</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>112</v>
+        <v>221</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C125" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>557</v>
+        <v>452</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>752</v>
+        <v>702</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -6166,169 +6229,169 @@
         <v>112</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C126" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>943</v>
+        <v>982</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>753</v>
+        <v>703</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>196</v>
+        <v>112</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C127" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>915</v>
+        <v>983</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>754</v>
+        <v>704</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>353</v>
+        <v>279</v>
       </c>
       <c r="C128" s="1">
         <v>1</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>458</v>
+        <v>865</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>755</v>
+        <v>705</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="C129" s="1">
         <v>1</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="C130" s="1">
         <v>1</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>757</v>
+        <v>707</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C131" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>609</v>
+        <v>455</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>758</v>
+        <v>708</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C132" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>944</v>
+        <v>984</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>759</v>
+        <v>709</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C133" s="1">
         <v>1</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>461</v>
+        <v>985</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>760</v>
+        <v>710</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>524</v>
+        <v>180</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>360</v>
+        <v>381</v>
       </c>
       <c r="C134" s="1">
         <v>1</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>610</v>
+        <v>456</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>761</v>
+        <v>711</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>198</v>
+        <v>515</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>286</v>
+        <v>360</v>
       </c>
       <c r="C135" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>945</v>
+        <v>572</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>762</v>
+        <v>712</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -6336,186 +6399,186 @@
         <v>198</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C136" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>946</v>
+        <v>986</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>763</v>
+        <v>713</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>362</v>
+        <v>287</v>
       </c>
       <c r="C137" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>462</v>
+        <v>987</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>764</v>
+        <v>714</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>146</v>
+        <v>199</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>288</v>
+        <v>362</v>
       </c>
       <c r="C138" s="1">
         <v>1</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>916</v>
+        <v>457</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>765</v>
+        <v>715</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>382</v>
+        <v>288</v>
       </c>
       <c r="C139" s="1">
         <v>1</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>463</v>
+        <v>866</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>766</v>
+        <v>716</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>222</v>
+        <v>27</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>289</v>
+        <v>382</v>
       </c>
       <c r="C140" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>547</v>
+        <v>458</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>767</v>
+        <v>717</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>114</v>
+        <v>222</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>383</v>
+        <v>289</v>
       </c>
       <c r="C141" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>464</v>
+        <v>537</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>768</v>
+        <v>718</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>525</v>
+        <v>114</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>526</v>
+        <v>383</v>
       </c>
       <c r="C142" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>947</v>
+        <v>988</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>769</v>
+        <v>719</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>115</v>
+        <v>516</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>345</v>
+        <v>517</v>
       </c>
       <c r="C143" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>465</v>
+        <v>989</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>770</v>
+        <v>720</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>290</v>
+        <v>345</v>
       </c>
       <c r="C144" s="1">
         <v>1</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>771</v>
+        <v>721</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>55</v>
+        <v>147</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C145" s="1">
         <v>1</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>917</v>
+        <v>460</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>772</v>
+        <v>722</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C146" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>467</v>
+        <v>867</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>773</v>
+        <v>723</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
@@ -6523,135 +6586,135 @@
         <v>85</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C147" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>948</v>
+        <v>461</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>774</v>
+        <v>724</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>527</v>
+        <v>85</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>345</v>
+        <v>293</v>
       </c>
       <c r="C148" s="1">
         <v>1</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>611</v>
+        <v>875</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>775</v>
+        <v>725</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>148</v>
+        <v>518</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>294</v>
+        <v>345</v>
       </c>
       <c r="C149" s="1">
         <v>1</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>918</v>
+        <v>573</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>776</v>
+        <v>726</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>384</v>
+        <v>294</v>
       </c>
       <c r="C150" s="1">
         <v>1</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>468</v>
+        <v>990</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>777</v>
+        <v>727</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>353</v>
+        <v>384</v>
       </c>
       <c r="C151" s="1">
         <v>1</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>778</v>
+        <v>728</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>279</v>
+        <v>353</v>
       </c>
       <c r="C152" s="1">
         <v>1</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>528</v>
+        <v>463</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>779</v>
+        <v>729</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>949</v>
+        <v>56</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>950</v>
+        <v>279</v>
       </c>
       <c r="C153" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>35</v>
+        <v>519</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>1018</v>
+        <v>730</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>87</v>
+        <v>876</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>263</v>
+        <v>877</v>
       </c>
       <c r="C154" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>548</v>
+        <v>35</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>780</v>
+        <v>911</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
@@ -6659,203 +6722,203 @@
         <v>87</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="C155" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>470</v>
+        <v>538</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>781</v>
+        <v>731</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C156" s="1">
         <v>1</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>919</v>
+        <v>464</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>782</v>
+        <v>732</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>181</v>
+        <v>57</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>370</v>
+        <v>296</v>
       </c>
       <c r="C157" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>612</v>
+        <v>868</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>783</v>
+        <v>733</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>88</v>
+        <v>181</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C158" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>951</v>
+        <v>574</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>784</v>
+        <v>734</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C159" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>471</v>
+        <v>991</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>785</v>
+        <v>735</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>952</v>
+        <v>117</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>341</v>
+        <v>372</v>
       </c>
       <c r="C160" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>35</v>
+        <v>465</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>1019</v>
+        <v>736</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>223</v>
+        <v>878</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>297</v>
+        <v>341</v>
       </c>
       <c r="C161" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>920</v>
+        <v>35</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>786</v>
+        <v>912</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>333</v>
+        <v>297</v>
       </c>
       <c r="C162" s="1">
         <v>1</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>558</v>
+        <v>869</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>787</v>
+        <v>737</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>58</v>
+        <v>224</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="C163" s="1">
         <v>1</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>613</v>
+        <v>544</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>788</v>
+        <v>738</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C164" s="1">
         <v>1</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>614</v>
+        <v>992</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>789</v>
+        <v>739</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>149</v>
+        <v>28</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>371</v>
+        <v>299</v>
       </c>
       <c r="C165" s="1">
         <v>1</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>472</v>
+        <v>575</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>790</v>
+        <v>740</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>251</v>
+        <v>371</v>
       </c>
       <c r="C166" s="1">
         <v>1</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>473</v>
+        <v>993</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>791</v>
+        <v>741</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
@@ -6863,84 +6926,84 @@
         <v>118</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>352</v>
+        <v>251</v>
       </c>
       <c r="C167" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>559</v>
+        <v>466</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>792</v>
+        <v>742</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C168" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>474</v>
+        <v>545</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>793</v>
+        <v>743</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>300</v>
+        <v>353</v>
       </c>
       <c r="C169" s="1">
         <v>1</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>794</v>
+        <v>744</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>225</v>
+        <v>150</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>373</v>
+        <v>300</v>
       </c>
       <c r="C170" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>539</v>
+        <v>468</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>795</v>
+        <v>745</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>29</v>
+        <v>225</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>301</v>
+        <v>373</v>
       </c>
       <c r="C171" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>476</v>
+        <v>530</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>796</v>
+        <v>746</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
@@ -6948,33 +7011,33 @@
         <v>29</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C172" s="1">
         <v>1</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>797</v>
+        <v>747</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>151</v>
+        <v>29</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>385</v>
+        <v>302</v>
       </c>
       <c r="C173" s="1">
         <v>1</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>798</v>
+        <v>748</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
@@ -6982,84 +7045,84 @@
         <v>151</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C174" s="1">
         <v>1</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>953</v>
+        <v>471</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>799</v>
+        <v>749</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>59</v>
+        <v>151</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>271</v>
+        <v>386</v>
       </c>
       <c r="C175" s="1">
         <v>1</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>479</v>
+        <v>879</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>800</v>
+        <v>750</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>340</v>
+        <v>271</v>
       </c>
       <c r="C176" s="1">
         <v>1</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>801</v>
+        <v>751</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>226</v>
+        <v>89</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="C177" s="1">
         <v>1</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>921</v>
+        <v>473</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>802</v>
+        <v>752</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>119</v>
+        <v>226</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>303</v>
+        <v>359</v>
       </c>
       <c r="C178" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>922</v>
+        <v>870</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>803</v>
+        <v>753</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
@@ -7067,67 +7130,67 @@
         <v>119</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>336</v>
+        <v>303</v>
       </c>
       <c r="C179" s="1">
         <v>2</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>549</v>
+        <v>994</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>804</v>
+        <v>754</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C180" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>481</v>
+        <v>539</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>805</v>
+        <v>755</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="C181" s="1">
         <v>1</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>806</v>
+        <v>756</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="C182" s="1">
         <v>1</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>807</v>
+        <v>757</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
@@ -7135,50 +7198,50 @@
         <v>152</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C183" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>574</v>
+        <v>476</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>808</v>
+        <v>758</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>60</v>
+        <v>152</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="C184" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>484</v>
+        <v>995</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>809</v>
+        <v>759</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>227</v>
+        <v>60</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>304</v>
+        <v>351</v>
       </c>
       <c r="C185" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>954</v>
+        <v>477</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>810</v>
+        <v>760</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
@@ -7186,33 +7249,33 @@
         <v>227</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>575</v>
+        <v>304</v>
       </c>
       <c r="C186" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>923</v>
+        <v>996</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>811</v>
+        <v>761</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>183</v>
+        <v>227</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>368</v>
+        <v>552</v>
       </c>
       <c r="C187" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>615</v>
+        <v>997</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>812</v>
+        <v>762</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
@@ -7226,78 +7289,78 @@
         <v>5</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>615</v>
+        <v>998</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>813</v>
+        <v>763</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>305</v>
+        <v>368</v>
       </c>
       <c r="C189" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>924</v>
+        <v>998</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>814</v>
+        <v>764</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>228</v>
+        <v>153</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>354</v>
+        <v>305</v>
       </c>
       <c r="C190" s="1">
         <v>1</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>485</v>
+        <v>871</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>815</v>
+        <v>765</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="C191" s="1">
         <v>1</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>816</v>
+        <v>766</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>154</v>
+        <v>229</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="C192" s="1">
         <v>1</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>817</v>
+        <v>767</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
@@ -7305,33 +7368,33 @@
         <v>154</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>353</v>
+        <v>387</v>
       </c>
       <c r="C193" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>818</v>
+        <v>768</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>61</v>
+        <v>154</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="C194" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>819</v>
+        <v>769</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
@@ -7339,50 +7402,50 @@
         <v>61</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>386</v>
+        <v>341</v>
       </c>
       <c r="C195" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>820</v>
+        <v>770</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C196" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>955</v>
+        <v>483</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>821</v>
+        <v>771</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>230</v>
+        <v>62</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C197" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>956</v>
+        <v>999</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>822</v>
+        <v>772</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
@@ -7390,310 +7453,304 @@
         <v>230</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="C198" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>957</v>
+        <v>1000</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>823</v>
+        <v>773</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>958</v>
+        <v>230</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>396</v>
+        <v>363</v>
       </c>
       <c r="C199" s="1">
         <v>1</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>959</v>
+        <v>1001</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>1020</v>
+        <v>774</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>200</v>
+        <v>880</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>351</v>
+        <v>396</v>
       </c>
       <c r="C200" s="1">
         <v>1</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>616</v>
+        <v>881</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>824</v>
+        <v>913</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>389</v>
+        <v>351</v>
       </c>
       <c r="C201" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>491</v>
+        <v>1002</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>825</v>
+        <v>775</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>91</v>
+        <v>1003</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>380</v>
+        <v>305</v>
       </c>
       <c r="C202" s="1">
-        <v>1</v>
-      </c>
-      <c r="D202" s="5" t="s">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>1021</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>253</v>
+        <v>389</v>
       </c>
       <c r="C203" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>560</v>
+        <v>484</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>826</v>
+        <v>776</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="C204" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>492</v>
+        <v>882</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>827</v>
+        <v>914</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>342</v>
+        <v>253</v>
       </c>
       <c r="C205" s="1">
         <v>1</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>493</v>
+        <v>1004</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>828</v>
+        <v>777</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>295</v>
+        <v>370</v>
       </c>
       <c r="C206" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>576</v>
+        <v>1005</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>829</v>
+        <v>778</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="C207" s="1">
         <v>1</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>961</v>
+        <v>485</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>1022</v>
+        <v>779</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>32</v>
+        <v>1006</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>266</v>
+        <v>1007</v>
       </c>
       <c r="C208" s="1">
-        <v>1</v>
-      </c>
-      <c r="D208" s="5" t="s">
-        <v>962</v>
+        <v>0</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>830</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="C209" s="1">
         <v>1</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>494</v>
+        <v>553</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>831</v>
+        <v>780</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>63</v>
+        <v>156</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C210" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>577</v>
+        <v>883</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>832</v>
+        <v>915</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>309</v>
+        <v>266</v>
       </c>
       <c r="C211" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>963</v>
+        <v>1008</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>1023</v>
+        <v>781</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>157</v>
+        <v>32</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C212" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>964</v>
+        <v>486</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>833</v>
+        <v>782</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>351</v>
+        <v>308</v>
       </c>
       <c r="C213" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>495</v>
+        <v>1009</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>834</v>
+        <v>783</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
-        <v>201</v>
+        <v>63</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C214" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>965</v>
+        <v>1010</v>
       </c>
       <c r="E214" s="4" t="s">
-        <v>835</v>
+        <v>916</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C215" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>966</v>
+        <v>1011</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>1024</v>
+        <v>784</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
-        <v>312</v>
+        <v>92</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>351</v>
@@ -7702,797 +7759,797 @@
         <v>1</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>561</v>
+        <v>487</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>836</v>
+        <v>785</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
-        <v>33</v>
+        <v>201</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>362</v>
+        <v>310</v>
       </c>
       <c r="C217" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>496</v>
+        <v>1012</v>
       </c>
       <c r="E217" s="4" t="s">
-        <v>837</v>
+        <v>786</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>362</v>
+        <v>311</v>
       </c>
       <c r="C218" s="1">
         <v>1</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>967</v>
+        <v>884</v>
       </c>
       <c r="E218" s="4" t="s">
-        <v>838</v>
+        <v>917</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
-        <v>231</v>
+        <v>312</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="C219" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>617</v>
+        <v>1013</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>839</v>
+        <v>787</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
-        <v>203</v>
+        <v>33</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="C220" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>618</v>
+        <v>488</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>840</v>
+        <v>788</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>389</v>
+        <v>362</v>
       </c>
       <c r="C221" s="1">
         <v>1</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>497</v>
+        <v>1014</v>
       </c>
       <c r="E221" s="4" t="s">
-        <v>841</v>
+        <v>789</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
-        <v>158</v>
+        <v>231</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C222" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D222" s="5" t="s">
-        <v>968</v>
+        <v>1015</v>
       </c>
       <c r="E222" s="4" t="s">
-        <v>842</v>
+        <v>790</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="C223" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D223" s="5" t="s">
-        <v>498</v>
+        <v>1016</v>
       </c>
       <c r="E223" s="4" t="s">
-        <v>843</v>
+        <v>791</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>362</v>
+        <v>389</v>
       </c>
       <c r="C224" s="1">
         <v>1</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="E224" s="4" t="s">
-        <v>844</v>
+        <v>792</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C225" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D225" s="5" t="s">
-        <v>500</v>
+        <v>1017</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>845</v>
+        <v>793</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>122</v>
+        <v>232</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C226" s="1">
         <v>1</v>
       </c>
       <c r="D226" s="5" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>845</v>
+        <v>794</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>122</v>
+        <v>233</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>317</v>
+        <v>362</v>
       </c>
       <c r="C227" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D227" s="5" t="s">
-        <v>578</v>
+        <v>491</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>846</v>
+        <v>795</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="C228" s="1">
         <v>1</v>
       </c>
       <c r="D228" s="5" t="s">
-        <v>540</v>
+        <v>492</v>
       </c>
       <c r="E228" s="4" t="s">
-        <v>847</v>
+        <v>796</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>390</v>
+        <v>317</v>
       </c>
       <c r="C229" s="1">
         <v>3</v>
       </c>
       <c r="D229" s="5" t="s">
-        <v>969</v>
+        <v>1018</v>
       </c>
       <c r="E229" s="4" t="s">
-        <v>848</v>
+        <v>797</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>205</v>
+        <v>1019</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>391</v>
+        <v>1020</v>
       </c>
       <c r="C230" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D230" s="5" t="s">
-        <v>970</v>
+        <v>35</v>
       </c>
       <c r="E230" s="4" t="s">
-        <v>1025</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>392</v>
+        <v>292</v>
       </c>
       <c r="C231" s="1">
         <v>1</v>
       </c>
       <c r="D231" s="5" t="s">
-        <v>552</v>
+        <v>1021</v>
       </c>
       <c r="E231" s="4" t="s">
-        <v>849</v>
+        <v>798</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
-        <v>184</v>
+        <v>93</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>265</v>
+        <v>390</v>
       </c>
       <c r="C232" s="1">
         <v>3</v>
       </c>
       <c r="D232" s="5" t="s">
-        <v>971</v>
+        <v>1022</v>
       </c>
       <c r="E232" s="4" t="s">
-        <v>850</v>
+        <v>799</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
-        <v>64</v>
+        <v>205</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>251</v>
+        <v>391</v>
       </c>
       <c r="C233" s="1">
         <v>1</v>
       </c>
       <c r="D233" s="5" t="s">
-        <v>501</v>
+        <v>885</v>
       </c>
       <c r="E233" s="4" t="s">
-        <v>851</v>
+        <v>918</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
-        <v>234</v>
+        <v>184</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>318</v>
+        <v>392</v>
       </c>
       <c r="C234" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D234" s="5" t="s">
-        <v>619</v>
+        <v>1023</v>
       </c>
       <c r="E234" s="4" t="s">
-        <v>852</v>
+        <v>800</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>234</v>
+        <v>184</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C235" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D235" s="5" t="s">
-        <v>620</v>
+        <v>1024</v>
       </c>
       <c r="E235" s="4" t="s">
-        <v>853</v>
+        <v>801</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>317</v>
+        <v>251</v>
       </c>
       <c r="C236" s="1">
         <v>1</v>
       </c>
       <c r="D236" s="5" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="E236" s="4" t="s">
-        <v>854</v>
+        <v>802</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
-        <v>185</v>
+        <v>234</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C237" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D237" s="5" t="s">
-        <v>503</v>
+        <v>1025</v>
       </c>
       <c r="E237" s="4" t="s">
-        <v>855</v>
+        <v>803</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
-        <v>160</v>
+        <v>234</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>373</v>
+        <v>268</v>
       </c>
       <c r="C238" s="1">
         <v>2</v>
       </c>
       <c r="D238" s="5" t="s">
-        <v>562</v>
+        <v>1026</v>
       </c>
       <c r="E238" s="4" t="s">
-        <v>856</v>
+        <v>804</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="C239" s="1">
         <v>1</v>
       </c>
       <c r="D239" s="5" t="s">
-        <v>621</v>
+        <v>494</v>
       </c>
       <c r="E239" s="4" t="s">
-        <v>857</v>
+        <v>805</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>393</v>
+        <v>319</v>
       </c>
       <c r="C240" s="1">
         <v>1</v>
       </c>
       <c r="D240" s="5" t="s">
-        <v>972</v>
+        <v>495</v>
       </c>
       <c r="E240" s="4" t="s">
-        <v>858</v>
+        <v>806</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C241" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D241" s="5" t="s">
-        <v>504</v>
+        <v>1027</v>
       </c>
       <c r="E241" s="4" t="s">
-        <v>859</v>
+        <v>807</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="C242" s="1">
         <v>1</v>
       </c>
       <c r="D242" s="5" t="s">
-        <v>973</v>
+        <v>1028</v>
       </c>
       <c r="E242" s="4" t="s">
-        <v>1026</v>
+        <v>808</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
-        <v>235</v>
+        <v>160</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="C243" s="1">
         <v>1</v>
       </c>
       <c r="D243" s="5" t="s">
-        <v>974</v>
+        <v>1029</v>
       </c>
       <c r="E243" s="4" t="s">
-        <v>860</v>
+        <v>809</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>320</v>
+        <v>386</v>
       </c>
       <c r="C244" s="1">
         <v>1</v>
       </c>
       <c r="D244" s="5" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="E244" s="4" t="s">
-        <v>861</v>
+        <v>810</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="C245" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D245" s="5" t="s">
-        <v>622</v>
+        <v>886</v>
       </c>
       <c r="E245" s="4" t="s">
-        <v>862</v>
+        <v>919</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
-        <v>65</v>
+        <v>235</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>389</v>
+        <v>363</v>
       </c>
       <c r="C246" s="1">
         <v>1</v>
       </c>
       <c r="D246" s="5" t="s">
-        <v>623</v>
+        <v>1030</v>
       </c>
       <c r="E246" s="4" t="s">
-        <v>863</v>
+        <v>811</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="C247" s="1">
         <v>1</v>
       </c>
       <c r="D247" s="5" t="s">
-        <v>624</v>
+        <v>1031</v>
       </c>
       <c r="E247" s="4" t="s">
-        <v>864</v>
+        <v>812</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
-        <v>529</v>
+        <v>125</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>530</v>
+        <v>342</v>
       </c>
       <c r="C248" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>975</v>
+        <v>576</v>
       </c>
       <c r="E248" s="4" t="s">
-        <v>1027</v>
+        <v>813</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>321</v>
+        <v>389</v>
       </c>
       <c r="C249" s="1">
         <v>1</v>
       </c>
       <c r="D249" s="5" t="s">
-        <v>506</v>
+        <v>1032</v>
       </c>
       <c r="E249" s="4" t="s">
-        <v>865</v>
+        <v>814</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
-        <v>126</v>
+        <v>206</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>260</v>
+        <v>365</v>
       </c>
       <c r="C250" s="1">
         <v>1</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E250" s="4" t="s">
-        <v>866</v>
+        <v>815</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>67</v>
+        <v>520</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>349</v>
+        <v>521</v>
       </c>
       <c r="C251" s="1">
         <v>1</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>976</v>
+        <v>887</v>
       </c>
       <c r="E251" s="4" t="s">
-        <v>1028</v>
+        <v>920</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
-        <v>207</v>
+        <v>66</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>388</v>
+        <v>321</v>
       </c>
       <c r="C252" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>977</v>
+        <v>497</v>
       </c>
       <c r="E252" s="4" t="s">
-        <v>867</v>
+        <v>816</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>354</v>
+        <v>260</v>
       </c>
       <c r="C253" s="1">
         <v>1</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>507</v>
+        <v>1033</v>
       </c>
       <c r="E253" s="4" t="s">
-        <v>868</v>
+        <v>817</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="C254" s="1">
         <v>1</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>508</v>
+        <v>888</v>
       </c>
       <c r="E254" s="4" t="s">
-        <v>869</v>
+        <v>921</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
-        <v>34</v>
+        <v>207</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="C255" s="1">
         <v>2</v>
       </c>
       <c r="D255" s="5" t="s">
-        <v>978</v>
+        <v>889</v>
       </c>
       <c r="E255" s="4" t="s">
-        <v>870</v>
+        <v>818</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
-        <v>94</v>
+        <v>163</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>296</v>
+        <v>354</v>
       </c>
       <c r="C256" s="1">
         <v>1</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="E256" s="4" t="s">
-        <v>871</v>
+        <v>819</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>580</v>
+        <v>370</v>
       </c>
       <c r="C257" s="1">
         <v>1</v>
       </c>
       <c r="D257" s="5" t="s">
-        <v>581</v>
+        <v>499</v>
       </c>
       <c r="E257" s="4" t="s">
-        <v>872</v>
+        <v>820</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
-        <v>236</v>
+        <v>34</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>322</v>
+        <v>351</v>
       </c>
       <c r="C258" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D258" s="5" t="s">
-        <v>979</v>
+        <v>890</v>
       </c>
       <c r="E258" s="4" t="s">
-        <v>873</v>
+        <v>821</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
-        <v>164</v>
+        <v>94</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>378</v>
+        <v>296</v>
       </c>
       <c r="C259" s="1">
         <v>1</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="E259" s="4" t="s">
-        <v>874</v>
+        <v>822</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
-        <v>186</v>
+        <v>94</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>388</v>
+        <v>554</v>
       </c>
       <c r="C260" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>980</v>
+        <v>555</v>
       </c>
       <c r="E260" s="4" t="s">
-        <v>875</v>
+        <v>823</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
-        <v>128</v>
+        <v>236</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="C261" s="1">
         <v>1</v>
       </c>
       <c r="D261" s="5" t="s">
-        <v>511</v>
+        <v>1034</v>
       </c>
       <c r="E261" s="4" t="s">
-        <v>876</v>
+        <v>824</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
-        <v>95</v>
+        <v>164</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>323</v>
+        <v>378</v>
       </c>
       <c r="C262" s="1">
         <v>1</v>
       </c>
       <c r="D262" s="5" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="E262" s="4" t="s">
-        <v>877</v>
+        <v>825</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>388</v>
@@ -8501,877 +8558,979 @@
         <v>5</v>
       </c>
       <c r="D263" s="5" t="s">
-        <v>981</v>
+        <v>1035</v>
       </c>
       <c r="E263" s="4" t="s">
-        <v>878</v>
+        <v>826</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>324</v>
+        <v>253</v>
       </c>
       <c r="C264" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D264" s="5" t="s">
-        <v>982</v>
+        <v>502</v>
       </c>
       <c r="E264" s="4" t="s">
-        <v>879</v>
+        <v>827</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
-        <v>531</v>
+        <v>95</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C265" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D265" s="5" t="s">
-        <v>983</v>
+        <v>503</v>
       </c>
       <c r="E265" s="4" t="s">
-        <v>880</v>
+        <v>828</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
-        <v>69</v>
+        <v>165</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="C266" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>984</v>
+        <v>1036</v>
       </c>
       <c r="E266" s="4" t="s">
-        <v>1029</v>
+        <v>829</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
-        <v>325</v>
+        <v>68</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>373</v>
+        <v>324</v>
       </c>
       <c r="C267" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D267" s="5" t="s">
-        <v>625</v>
+        <v>1037</v>
       </c>
       <c r="E267" s="4" t="s">
-        <v>881</v>
+        <v>830</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
-        <v>70</v>
+        <v>522</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>375</v>
+        <v>324</v>
       </c>
       <c r="C268" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D268" s="5" t="s">
-        <v>985</v>
+        <v>1038</v>
       </c>
       <c r="E268" s="4" t="s">
-        <v>1030</v>
+        <v>831</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="C269" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D269" s="5" t="s">
-        <v>986</v>
+        <v>891</v>
       </c>
       <c r="E269" s="4" t="s">
-        <v>1031</v>
+        <v>922</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
-        <v>96</v>
+        <v>325</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>326</v>
+        <v>373</v>
       </c>
       <c r="C270" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D270" s="5" t="s">
-        <v>987</v>
+        <v>1039</v>
       </c>
       <c r="E270" s="4" t="s">
-        <v>1032</v>
+        <v>832</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>260</v>
+        <v>375</v>
       </c>
       <c r="C271" s="1">
         <v>1</v>
       </c>
       <c r="D271" s="5" t="s">
-        <v>988</v>
+        <v>892</v>
       </c>
       <c r="E271" s="4" t="s">
-        <v>1033</v>
+        <v>923</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
-        <v>208</v>
+        <v>71</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C272" s="1">
         <v>1</v>
       </c>
       <c r="D272" s="5" t="s">
-        <v>513</v>
+        <v>893</v>
       </c>
       <c r="E272" s="4" t="s">
-        <v>882</v>
+        <v>924</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
-        <v>166</v>
+        <v>96</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>273</v>
+        <v>326</v>
       </c>
       <c r="C273" s="1">
         <v>1</v>
       </c>
       <c r="D273" s="5" t="s">
-        <v>514</v>
+        <v>894</v>
       </c>
       <c r="E273" s="4" t="s">
-        <v>883</v>
+        <v>925</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>386</v>
+        <v>260</v>
       </c>
       <c r="C274" s="1">
         <v>1</v>
       </c>
       <c r="D274" s="5" t="s">
-        <v>563</v>
+        <v>895</v>
       </c>
       <c r="E274" s="4" t="s">
-        <v>884</v>
+        <v>926</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>340</v>
+        <v>367</v>
       </c>
       <c r="C275" s="1">
         <v>1</v>
       </c>
       <c r="D275" s="5" t="s">
-        <v>989</v>
+        <v>504</v>
       </c>
       <c r="E275" s="4" t="s">
-        <v>885</v>
+        <v>833</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>340</v>
+        <v>273</v>
       </c>
       <c r="C276" s="1">
         <v>1</v>
       </c>
       <c r="D276" s="5" t="s">
-        <v>990</v>
+        <v>505</v>
       </c>
       <c r="E276" s="4" t="s">
-        <v>1034</v>
+        <v>834</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
-        <v>237</v>
+        <v>166</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>257</v>
+        <v>386</v>
       </c>
       <c r="C277" s="1">
         <v>1</v>
       </c>
       <c r="D277" s="5" t="s">
-        <v>991</v>
+        <v>546</v>
       </c>
       <c r="E277" s="4" t="s">
-        <v>1035</v>
+        <v>835</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>394</v>
+        <v>340</v>
       </c>
       <c r="C278" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D278" s="5" t="s">
-        <v>992</v>
+        <v>1040</v>
       </c>
       <c r="E278" s="4" t="s">
-        <v>886</v>
+        <v>836</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>294</v>
+        <v>340</v>
       </c>
       <c r="C279" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D279" s="5" t="s">
-        <v>35</v>
+        <v>1041</v>
       </c>
       <c r="E279" s="4" t="s">
-        <v>887</v>
+        <v>927</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
-        <v>131</v>
+        <v>237</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>327</v>
+        <v>257</v>
       </c>
       <c r="C280" s="1">
         <v>1</v>
       </c>
       <c r="D280" s="5" t="s">
-        <v>626</v>
+        <v>896</v>
       </c>
       <c r="E280" s="4" t="s">
-        <v>888</v>
+        <v>928</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C281" s="1">
         <v>2</v>
       </c>
-      <c r="B281" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="C281" s="1">
-        <v>1</v>
-      </c>
       <c r="D281" s="5" t="s">
-        <v>627</v>
+        <v>1042</v>
       </c>
       <c r="E281" s="4" t="s">
-        <v>889</v>
+        <v>837</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
-        <v>3</v>
+        <v>167</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="C282" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D282" s="5" t="s">
-        <v>582</v>
+        <v>35</v>
       </c>
       <c r="E282" s="4" t="s">
-        <v>890</v>
+        <v>838</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>381</v>
+        <v>327</v>
       </c>
       <c r="C283" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D283" s="5" t="s">
-        <v>515</v>
+        <v>1043</v>
       </c>
       <c r="E283" s="4" t="s">
-        <v>891</v>
+        <v>839</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>993</v>
+        <v>348</v>
       </c>
       <c r="C284" s="1">
         <v>1</v>
       </c>
       <c r="D284" s="5" t="s">
-        <v>994</v>
+        <v>578</v>
       </c>
       <c r="E284" s="4" t="s">
-        <v>1036</v>
+        <v>840</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
-        <v>583</v>
+        <v>3</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>584</v>
+        <v>265</v>
       </c>
       <c r="C285" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D285" s="5" t="s">
-        <v>995</v>
+        <v>1044</v>
       </c>
       <c r="E285" s="4" t="s">
-        <v>1037</v>
+        <v>841</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>294</v>
+        <v>381</v>
       </c>
       <c r="C286" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D286" s="5" t="s">
-        <v>996</v>
+        <v>506</v>
       </c>
       <c r="E286" s="4" t="s">
-        <v>1038</v>
+        <v>842</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>351</v>
+        <v>897</v>
       </c>
       <c r="C287" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D287" s="5" t="s">
-        <v>516</v>
+        <v>898</v>
       </c>
       <c r="E287" s="4" t="s">
-        <v>892</v>
+        <v>929</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
-        <v>242</v>
+        <v>1045</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>348</v>
+        <v>1046</v>
       </c>
       <c r="C288" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D288" s="5" t="s">
-        <v>997</v>
+        <v>1047</v>
       </c>
       <c r="E288" s="4" t="s">
-        <v>1039</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
-        <v>7</v>
+        <v>556</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>328</v>
+        <v>557</v>
       </c>
       <c r="C289" s="1">
         <v>1</v>
       </c>
       <c r="D289" s="5" t="s">
-        <v>998</v>
+        <v>899</v>
       </c>
       <c r="E289" s="4" t="s">
-        <v>1040</v>
+        <v>930</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="C290" s="1">
         <v>1</v>
       </c>
       <c r="D290" s="5" t="s">
-        <v>517</v>
+        <v>900</v>
       </c>
       <c r="E290" s="4" t="s">
-        <v>893</v>
+        <v>931</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="C291" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D291" s="5" t="s">
-        <v>999</v>
+        <v>507</v>
       </c>
       <c r="E291" s="4" t="s">
-        <v>1041</v>
+        <v>843</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
-        <v>10</v>
+        <v>242</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>395</v>
+        <v>348</v>
       </c>
       <c r="C292" s="1">
         <v>1</v>
       </c>
       <c r="D292" s="5" t="s">
-        <v>1000</v>
+        <v>901</v>
       </c>
       <c r="E292" s="4" t="s">
-        <v>894</v>
+        <v>932</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
-        <v>532</v>
+        <v>7</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>386</v>
+        <v>328</v>
       </c>
       <c r="C293" s="1">
         <v>1</v>
       </c>
       <c r="D293" s="5" t="s">
-        <v>628</v>
+        <v>1048</v>
       </c>
       <c r="E293" s="4" t="s">
-        <v>895</v>
+        <v>933</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="C294" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D294" s="5" t="s">
-        <v>1001</v>
+        <v>508</v>
       </c>
       <c r="E294" s="4" t="s">
-        <v>896</v>
+        <v>844</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
-        <v>585</v>
+        <v>9</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>586</v>
+        <v>319</v>
       </c>
       <c r="C295" s="1">
         <v>1</v>
       </c>
       <c r="D295" s="5" t="s">
-        <v>1002</v>
+        <v>1049</v>
       </c>
       <c r="E295" s="4" t="s">
-        <v>897</v>
+        <v>934</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C296" s="1">
         <v>1</v>
       </c>
       <c r="D296" s="5" t="s">
-        <v>518</v>
+        <v>902</v>
       </c>
       <c r="E296" s="4" t="s">
-        <v>898</v>
+        <v>845</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
-        <v>13</v>
+        <v>1050</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C297" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D297" s="5" t="s">
-        <v>519</v>
+        <v>35</v>
       </c>
       <c r="E297" s="4" t="s">
-        <v>899</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
-        <v>14</v>
+        <v>523</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>330</v>
+        <v>386</v>
       </c>
       <c r="C298" s="1">
         <v>1</v>
       </c>
       <c r="D298" s="5" t="s">
-        <v>1003</v>
+        <v>579</v>
       </c>
       <c r="E298" s="4" t="s">
-        <v>900</v>
+        <v>846</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>398</v>
+        <v>306</v>
       </c>
       <c r="C299" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D299" s="5" t="s">
-        <v>1004</v>
+        <v>1051</v>
       </c>
       <c r="E299" s="4" t="s">
-        <v>901</v>
+        <v>847</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
-        <v>1</v>
+        <v>558</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>399</v>
+        <v>559</v>
       </c>
       <c r="C300" s="1">
         <v>1</v>
       </c>
       <c r="D300" s="5" t="s">
-        <v>520</v>
+        <v>1052</v>
       </c>
       <c r="E300" s="4" t="s">
-        <v>902</v>
+        <v>848</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
-        <v>238</v>
+        <v>12</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>362</v>
+        <v>396</v>
       </c>
       <c r="C301" s="1">
         <v>1</v>
       </c>
       <c r="D301" s="5" t="s">
-        <v>587</v>
+        <v>509</v>
       </c>
       <c r="E301" s="4" t="s">
-        <v>903</v>
+        <v>849</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
-        <v>243</v>
+        <v>13</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>373</v>
+        <v>397</v>
       </c>
       <c r="C302" s="1">
         <v>1</v>
       </c>
       <c r="D302" s="5" t="s">
-        <v>1005</v>
+        <v>510</v>
       </c>
       <c r="E302" s="4" t="s">
-        <v>904</v>
+        <v>850</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
-        <v>239</v>
+        <v>14</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="C303" s="1">
         <v>1</v>
       </c>
       <c r="D303" s="5" t="s">
-        <v>1006</v>
+        <v>1053</v>
       </c>
       <c r="E303" s="4" t="s">
-        <v>1042</v>
+        <v>851</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
-        <v>244</v>
+        <v>15</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>287</v>
+        <v>398</v>
       </c>
       <c r="C304" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D304" s="5" t="s">
-        <v>1007</v>
+        <v>1054</v>
       </c>
       <c r="E304" s="4" t="s">
-        <v>905</v>
+        <v>852</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
-        <v>240</v>
+        <v>1</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
       <c r="C305" s="1">
         <v>1</v>
       </c>
       <c r="D305" s="5" t="s">
-        <v>1008</v>
+        <v>511</v>
       </c>
       <c r="E305" s="4" t="s">
-        <v>1043</v>
+        <v>853</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>331</v>
+        <v>362</v>
       </c>
       <c r="C306" s="1">
         <v>1</v>
       </c>
       <c r="D306" s="5" t="s">
-        <v>1009</v>
+        <v>560</v>
       </c>
       <c r="E306" s="4" t="s">
-        <v>1044</v>
+        <v>854</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="C307" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D307" s="5" t="s">
-        <v>1010</v>
+        <v>903</v>
       </c>
       <c r="E307" s="4" t="s">
-        <v>906</v>
+        <v>855</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
-        <v>533</v>
+        <v>239</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>343</v>
+        <v>370</v>
       </c>
       <c r="C308" s="1">
         <v>1</v>
       </c>
       <c r="D308" s="5" t="s">
-        <v>629</v>
+        <v>904</v>
       </c>
       <c r="E308" s="4" t="s">
-        <v>907</v>
+        <v>935</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
-        <v>534</v>
+        <v>244</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>388</v>
+        <v>287</v>
       </c>
       <c r="C309" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D309" s="5" t="s">
-        <v>1011</v>
+        <v>1055</v>
       </c>
       <c r="E309" s="4" t="s">
-        <v>908</v>
+        <v>856</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
-        <v>535</v>
+        <v>240</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>281</v>
+        <v>362</v>
       </c>
       <c r="C310" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D310" s="5" t="s">
-        <v>1012</v>
+        <v>905</v>
       </c>
       <c r="E310" s="4" t="s">
-        <v>909</v>
+        <v>936</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
-        <v>588</v>
+        <v>241</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="C311" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D311" s="5" t="s">
-        <v>35</v>
+        <v>1056</v>
       </c>
       <c r="E311" s="4" t="s">
-        <v>1045</v>
+        <v>937</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
-        <v>589</v>
+        <v>245</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>590</v>
+        <v>388</v>
       </c>
       <c r="C312" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D312" s="5" t="s">
-        <v>1013</v>
+        <v>1057</v>
       </c>
       <c r="E312" s="4" t="s">
-        <v>1046</v>
+        <v>857</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
-        <v>591</v>
+        <v>524</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>251</v>
+        <v>343</v>
       </c>
       <c r="C313" s="1">
         <v>1</v>
       </c>
       <c r="D313" s="5" t="s">
-        <v>1014</v>
+        <v>580</v>
       </c>
       <c r="E313" s="4" t="s">
-        <v>1047</v>
+        <v>858</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
-        <v>1015</v>
+        <v>525</v>
       </c>
       <c r="B314" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C314" s="1">
+        <v>3</v>
+      </c>
+      <c r="D314" s="5" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E314" s="4" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A315" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C315" s="1">
+        <v>4</v>
+      </c>
+      <c r="D315" s="5" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E315" s="4" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A316" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C316" s="1">
+        <v>0</v>
+      </c>
+      <c r="D316" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E316" s="4" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A317" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C317" s="1">
+        <v>1</v>
+      </c>
+      <c r="D317" s="5" t="s">
+        <v>906</v>
+      </c>
+      <c r="E317" s="4" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A318" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C318" s="1">
+        <v>1</v>
+      </c>
+      <c r="D318" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="E318" s="4" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A319" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="B319" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C314" s="1">
+      <c r="C319" s="1">
         <v>0</v>
       </c>
-      <c r="D314" s="5" t="s">
+      <c r="D319" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E314" s="4" t="s">
-        <v>1048</v>
+      <c r="E319" s="4" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A320" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C320" s="1">
+        <v>0</v>
+      </c>
+      <c r="D320" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E320" s="4" t="s">
+        <v>1068</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA57FA6-838B-4A56-A8CE-BA2A9E2D6240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85166297-EBDB-45FB-815A-E48BC06342E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1995" yWindow="2685" windowWidth="23925" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11460" yWindow="3120" windowWidth="23925" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="1070">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="1071">
   <si>
     <t>缪尔赛思</t>
   </si>
@@ -1236,9 +1236,6 @@
     <t>11-18</t>
   </si>
   <si>
-    <t>**maa://20990 (50.0)</t>
-  </si>
-  <si>
     <t>maa://20925 (100.0)</t>
   </si>
   <si>
@@ -1677,9 +1674,6 @@
     <t>maa://36005 (100.0)</t>
   </si>
   <si>
-    <t>*maa://20965 (63.64)</t>
-  </si>
-  <si>
     <t>CW-3</t>
   </si>
   <si>
@@ -1740,9 +1734,6 @@
     <t>maa://39023 (100.0)</t>
   </si>
   <si>
-    <t>maa://39024 (100.0)</t>
-  </si>
-  <si>
     <t>maa://39025 (100.0)</t>
   </si>
   <si>
@@ -1762,9 +1753,6 @@
   </si>
   <si>
     <t>maa://37690 (100.0)</t>
-  </si>
-  <si>
-    <t>*maa://20825 (72.73), *maa://21445 (76.92), ***maa://20891 (30.0), *maa://35726 (60.0)</t>
   </si>
   <si>
     <t>*maa://20862 (66.67)</t>
@@ -2629,9 +2617,6 @@
     <t>maa://39143 (100.0)</t>
   </si>
   <si>
-    <t>maa://28554 (81.25)</t>
-  </si>
-  <si>
     <t>maa://39146 (100.0)</t>
   </si>
   <si>
@@ -2653,9 +2638,6 @@
     <t>maa://39154 (100.0)</t>
   </si>
   <si>
-    <t>*maa://20892 (75.38)</t>
-  </si>
-  <si>
     <t>送葬人</t>
   </si>
   <si>
@@ -2872,33 +2854,18 @@
     <t>maa://20876 (87.5)</t>
   </si>
   <si>
-    <t>*maa://20849 (58.06), **maa://28758 (35.0), maa://29036 (90.0), maa://30285 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://20863 (86.0), maa://20832 (97.44), maa://20727 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://36644 (88.54), maa://36866 (100.0)</t>
-  </si>
-  <si>
     <t>maa://30500 (97.92), *maa://27290 (70.59)</t>
   </si>
   <si>
     <t>*maa://20916 (78.95)</t>
   </si>
   <si>
-    <t>maa://27376 (82.35), **maa://20838 (50.0), ***maa://39182 (8.33)</t>
-  </si>
-  <si>
     <t>maa://20954 (92.31)</t>
   </si>
   <si>
     <t>maa://20932 (96.55)</t>
   </si>
   <si>
-    <t>maa://28900 (95.65), maa://30126 (100.0)</t>
-  </si>
-  <si>
     <t>maa://27970 (97.92)</t>
   </si>
   <si>
@@ -2926,27 +2893,15 @@
     <t>maa://20976 (97.99), maa://20815 (100.0)</t>
   </si>
   <si>
-    <t>maa://28784 (93.65), maa://29088 (91.72), maa://20974 (94.87), maa://31124 (95.37), maa://28950 (90.91), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67)</t>
-  </si>
-  <si>
     <t>maa://20943 (99.56)</t>
   </si>
   <si>
-    <t>maa://36643 (96.94), maa://36864 (100.0), maa://39140 (100.0)</t>
-  </si>
-  <si>
     <t>maa://20958 (92.31)</t>
   </si>
   <si>
     <t>maa://20886 (86.67), maa://25136 (90.0)</t>
   </si>
   <si>
-    <t>maa://24472 (84.85), *maa://35841 (60.0)</t>
-  </si>
-  <si>
-    <t>*maa://28190 (59.26), maa://20880 (88.24)</t>
-  </si>
-  <si>
     <t>*maa://20893 (75.0)</t>
   </si>
   <si>
@@ -2956,9 +2911,6 @@
     <t>*maa://29094 (63.33), maa://28904 (89.47), **maa://20931 (42.31)</t>
   </si>
   <si>
-    <t>maa://25018 (95.58), maa://25776 (89.66), maa://28361 (96.3), maa://25772 (91.67), *maa://25161 (78.57), maa://32653 (84.62)</t>
-  </si>
-  <si>
     <t>*maa://20933 (75.0), maa://20822 (100.0)</t>
   </si>
   <si>
@@ -2980,69 +2932,33 @@
     <t>maa://37484 (92.86), maa://24611 (86.36)</t>
   </si>
   <si>
-    <t>maa://21422 (98.11)</t>
-  </si>
-  <si>
     <t>maa://23019 (100.0), maa://20837 (100.0), maa://37113 (100.0), *maa://37666 (75.0)</t>
   </si>
   <si>
-    <t>maa://23020 (96.67), maa://29023 (100.0), maa://34319 (100.0), **maa://39515 (50.0)</t>
-  </si>
-  <si>
     <t>**maa://21000 (42.86), *maa://29025 (73.33)</t>
   </si>
   <si>
     <t>*maa://30679 (53.33)</t>
   </si>
   <si>
-    <t>maa://28484 (98.15), **maa://23736 (42.19), *maa://31185 (75.0), maa://30306 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://30670 (98.48), maa://31470 (93.75), ***maa://30867 (25.0)</t>
-  </si>
-  <si>
     <t>maa://20846 (94.74)</t>
   </si>
   <si>
-    <t>maa://36641 (97.88), maa://36865 (94.68), maa://37300 (100.0)</t>
-  </si>
-  <si>
     <t>**maa://39149 (50.0)</t>
   </si>
   <si>
-    <t>maa://29627 (92.62), maa://29633 (91.41), maa://29659 (82.14), maa://29861 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://32418 (99.66)</t>
-  </si>
-  <si>
     <t>maa://20842 (92.31)</t>
   </si>
   <si>
     <t>maa://34866 (82.35), maa://34714 (94.74)</t>
   </si>
   <si>
-    <t>*maa://28190 (59.26), maa://20994 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://25760 (81.48), *maa://35854 (64.29), *maa://20872 (52.17)</t>
-  </si>
-  <si>
     <t>***maa://38297 (25.0), maa://39156 (100.0)</t>
   </si>
   <si>
-    <t>maa://27823 (80.43), *maa://28190 (59.26), maa://22894 (88.89), *maa://20906 (72.22), **maa://20907 (33.33)</t>
-  </si>
-  <si>
     <t>maa://28133 (89.19), *maa://28277 (78.26), maa://25369 (92.31), **maa://39217 (40.0), *maa://33132 (66.67)</t>
   </si>
   <si>
-    <t>maa://20956 (94.66), *maa://20830 (77.78)</t>
-  </si>
-  <si>
-    <t>*maa://20955 (78.26)</t>
-  </si>
-  <si>
     <t>**maa://24556 (50.0)</t>
   </si>
   <si>
@@ -3067,9 +2983,6 @@
     <t>maa://20987 (90.77), *maa://35801 (75.0)</t>
   </si>
   <si>
-    <t>maa://39159 (88.89)</t>
-  </si>
-  <si>
     <t>maa://39140 (100.0), maa://30677 (100.0)</t>
   </si>
   <si>
@@ -3085,12 +2998,6 @@
     <t>maa://30714 (96.88), maa://30675 (100.0)</t>
   </si>
   <si>
-    <t>maa://20922 (93.88), *maa://32623 (58.33), *maa://34242 (80.0), maa://34900 (85.71)</t>
-  </si>
-  <si>
-    <t>*maa://30667 (74.92), maa://30666 (82.78), *maa://26836 (74.62), **maa://30739 (45.71), **maa://30723 (47.92), *maa://34428 (65.57), maa://37607 (88.31), maa://37850 (100.0), maa://39588 (100.0)</t>
-  </si>
-  <si>
     <t>maa://20867 (92.86), *maa://32202 (80.0), **maa://38485 (50.0)</t>
   </si>
   <si>
@@ -3133,42 +3040,24 @@
     <t>**maa://30678 (42.86)</t>
   </si>
   <si>
-    <t>maa://25769 (96.19)</t>
-  </si>
-  <si>
     <t>*maa://20939 (71.43)</t>
   </si>
   <si>
     <t>maa://20899 (91.11)</t>
   </si>
   <si>
-    <t>maa://30710 (96.47), maa://36845 (93.85), maa://31558 (96.0), maa://30668 (83.33), **maa://39217 (40.0)</t>
-  </si>
-  <si>
     <t>maa://25774 (100.0), maa://28133 (89.19), maa://22469 (92.5), **maa://31349 (50.0), **maa://39217 (40.0)</t>
   </si>
   <si>
-    <t>maa://32414 (98.26), maa://32505 (100.0), maa://39155 (92.31)</t>
-  </si>
-  <si>
-    <t>maa://36642 (100.0), maa://36867 (100.0), maa://39155 (92.31)</t>
-  </si>
-  <si>
     <t>maa://29005 (97.5), *maa://31560 (80.0)</t>
   </si>
   <si>
-    <t>maa://35859 (95.45)</t>
-  </si>
-  <si>
     <t>**maa://39172 (50.0)</t>
   </si>
   <si>
     <t>maa://25775 (92.31), maa://25393 (83.33)</t>
   </si>
   <si>
-    <t>maa://25367 (98.86)</t>
-  </si>
-  <si>
     <t>maa://31559 (91.67), maa://28241 (100.0)</t>
   </si>
   <si>
@@ -3178,9 +3067,6 @@
     <t>FC-5</t>
   </si>
   <si>
-    <t>maa://39692 (100.0), **maa://39810 (50.0)</t>
-  </si>
-  <si>
     <t>**maa://39177 (50.0)</t>
   </si>
   <si>
@@ -3190,33 +3076,12 @@
     <t>哈洛德</t>
   </si>
   <si>
-    <t>*maa://30671 (80.0), maa://30669 (98.04), maa://37275 (81.25), *maa://32410 (63.64), maa://33671 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://38295 (96.15)</t>
-  </si>
-  <si>
-    <t>maa://32416 (83.87)</t>
-  </si>
-  <si>
-    <t>maa://32647 (97.12), maa://32415 (96.04), maa://34677 (100.0), maa://32892 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://34865 (95.87), maa://34717 (94.23)</t>
-  </si>
-  <si>
     <t>*maa://39181 (66.67)</t>
   </si>
   <si>
     <t>maa://36868 (100.0), maa://35996 (94.12), **maa://39217 (40.0)</t>
   </si>
   <si>
-    <t>maa://36646 (97.86), maa://36845 (93.85), **maa://39217 (40.0)</t>
-  </si>
-  <si>
-    <t>maa://36645 (98.34), maa://36841 (95.12), maa://37484 (92.86), maa://37858 (93.75)</t>
-  </si>
-  <si>
     <t>衡沙</t>
   </si>
   <si>
@@ -3244,7 +3109,145 @@
     <t>&gt; 战斗中累计召唤非助战衡沙的召唤物20回&gt; 3星通关别传DV-2；必须编入非助战衡沙并上场，其他成员仅可编入4名干员</t>
   </si>
   <si>
-    <t>更新日期：2024.08.04</t>
+    <t>*maa://20990 (66.67)</t>
+  </si>
+  <si>
+    <t>*maa://20849 (58.06), **maa://28758 (35.0), maa://29036 (90.91), maa://30285 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://20863 (86.09), maa://20832 (97.5), maa://20727 (100.0)</t>
+  </si>
+  <si>
+    <t>*maa://39024 (66.67)</t>
+  </si>
+  <si>
+    <t>maa://36644 (88.89), maa://36866 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://27376 (83.33), **maa://20838 (50.0), ***maa://39182 (8.33)</t>
+  </si>
+  <si>
+    <t>*maa://20892 (75.76)</t>
+  </si>
+  <si>
+    <t>*maa://20965 (65.22)</t>
+  </si>
+  <si>
+    <t>maa://28900 (95.83), maa://30126 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://28784 (93.66), maa://29088 (91.72), maa://20974 (94.87), maa://31124 (95.5), maa://28950 (90.91), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67)</t>
+  </si>
+  <si>
+    <t>maa://36643 (97.03), maa://36864 (100.0), maa://39140 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://24472 (84.96), *maa://35841 (60.0)</t>
+  </si>
+  <si>
+    <t>*maa://28190 (55.17), maa://20880 (88.24)</t>
+  </si>
+  <si>
+    <t>maa://25018 (95.67), maa://25776 (89.83), maa://28361 (96.43), maa://25772 (91.67), *maa://25161 (78.57), maa://32653 (84.62)</t>
+  </si>
+  <si>
+    <t>*maa://28554 (76.47)</t>
+  </si>
+  <si>
+    <t>maa://21422 (98.15)</t>
+  </si>
+  <si>
+    <t>maa://23020 (95.16), maa://29023 (100.0), maa://34319 (100.0), **maa://39515 (50.0)</t>
+  </si>
+  <si>
+    <t>maa://28484 (98.18), **maa://23736 (42.19), *maa://31185 (75.0), maa://30306 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://30670 (98.53), maa://31470 (93.75), ***maa://30867 (25.0)</t>
+  </si>
+  <si>
+    <t>maa://36641 (97.92), maa://36865 (94.68), maa://37300 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://29627 (92.67), maa://29633 (91.67), maa://29659 (82.14), maa://29861 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://32418 (99.67)</t>
+  </si>
+  <si>
+    <t>*maa://28190 (55.17), maa://20994 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://25760 (81.82), *maa://35854 (64.29), *maa://20872 (52.17)</t>
+  </si>
+  <si>
+    <t>*maa://27823 (78.72), *maa://28190 (55.17), maa://22894 (88.89), *maa://20906 (72.22), **maa://20907 (33.33)</t>
+  </si>
+  <si>
+    <t>maa://20956 (94.7), *maa://20830 (77.78)</t>
+  </si>
+  <si>
+    <t>*maa://20955 (80.0)</t>
+  </si>
+  <si>
+    <t>maa://39695 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://39159 (90.0)</t>
+  </si>
+  <si>
+    <t>maa://20922 (93.88), *maa://32623 (58.33), *maa://34242 (80.0), maa://34900 (87.5)</t>
+  </si>
+  <si>
+    <t>*maa://30667 (74.67), maa://30666 (82.78), *maa://26836 (74.62), **maa://30739 (45.71), **maa://30723 (47.92), *maa://34428 (65.57), maa://37607 (88.75), maa://37850 (100.0), maa://39588 (83.33)</t>
+  </si>
+  <si>
+    <t>*maa://20825 (69.57), *maa://21445 (76.92), ***maa://20891 (30.0), *maa://35726 (66.67)</t>
+  </si>
+  <si>
+    <t>maa://25769 (96.23)</t>
+  </si>
+  <si>
+    <t>maa://30710 (96.55), maa://36845 (93.94), maa://31558 (96.0), maa://30668 (83.33), **maa://39217 (40.0)</t>
+  </si>
+  <si>
+    <t>maa://32414 (98.3), maa://32505 (100.0), maa://39155 (92.86)</t>
+  </si>
+  <si>
+    <t>maa://36642 (100.0), maa://36867 (100.0), maa://39155 (92.86)</t>
+  </si>
+  <si>
+    <t>maa://35859 (95.56)</t>
+  </si>
+  <si>
+    <t>maa://25367 (98.88)</t>
+  </si>
+  <si>
+    <t>maa://39692 (100.0), *maa://39810 (60.0)</t>
+  </si>
+  <si>
+    <t>*maa://30671 (80.0), maa://30669 (98.11), maa://37275 (81.25), *maa://32410 (63.64), maa://33671 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://38295 (96.43)</t>
+  </si>
+  <si>
+    <t>maa://32416 (84.38)</t>
+  </si>
+  <si>
+    <t>maa://32647 (97.15), maa://32415 (96.04), maa://34677 (100.0), maa://32892 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://34865 (95.93), maa://34717 (94.23)</t>
+  </si>
+  <si>
+    <t>maa://36646 (97.92), maa://36845 (93.94), **maa://39217 (40.0)</t>
+  </si>
+  <si>
+    <t>maa://36645 (98.03), maa://36841 (92.86), maa://37484 (92.86), maa://37858 (88.24)</t>
+  </si>
+  <si>
+    <t>更新日期：2024.08.10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3608,7 +3611,7 @@
   <dimension ref="A1:AF320"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3662,7 +3665,7 @@
         <v>36</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -3693,10 +3696,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>400</v>
+        <v>1024</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -3727,10 +3730,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -3761,10 +3764,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>246</v>
@@ -3797,10 +3800,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -3831,10 +3834,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -3854,7 +3857,7 @@
       <c r="AE6" s="3"/>
       <c r="AF6" s="3"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -3865,15 +3868,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>587</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="H7" s="7" t="s">
-        <v>1069</v>
-      </c>
+        <v>583</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
       <c r="J7" s="2"/>
       <c r="L7" s="1"/>
       <c r="N7" s="2"/>
@@ -3888,7 +3892,7 @@
       <c r="AE7" s="3"/>
       <c r="AF7" s="3"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -3899,12 +3903,13 @@
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="F8" s="2"/>
+        <v>584</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="J8" s="2"/>
       <c r="L8" s="1"/>
@@ -3920,7 +3925,7 @@
       <c r="AE8" s="3"/>
       <c r="AF8" s="3"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -3931,12 +3936,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>589</v>
-      </c>
-      <c r="F9" s="2"/>
+        <v>585</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="J9" s="2"/>
       <c r="L9" s="1"/>
@@ -3963,10 +3969,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="F10" s="2"/>
       <c r="H10" s="1"/>
@@ -3995,10 +4001,10 @@
         <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F11" s="2"/>
       <c r="H11" s="1"/>
@@ -4018,7 +4024,7 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>343</v>
@@ -4027,10 +4033,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="F12" s="2"/>
       <c r="H12" s="1"/>
@@ -4059,10 +4065,10 @@
         <v>1</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="F13" s="2"/>
       <c r="H13" s="1"/>
@@ -4091,10 +4097,10 @@
         <v>2</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="F14" s="2"/>
       <c r="H14" s="1"/>
@@ -4123,10 +4129,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F15" s="2"/>
       <c r="H15" s="1"/>
@@ -4155,10 +4161,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="F16" s="2"/>
       <c r="H16" s="1"/>
@@ -4187,10 +4193,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F17" s="2"/>
       <c r="H17" s="1"/>
@@ -4219,10 +4225,10 @@
         <v>2</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="F18" s="2"/>
       <c r="H18" s="1"/>
@@ -4251,10 +4257,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F19" s="2"/>
       <c r="H19" s="1"/>
@@ -4283,10 +4289,10 @@
         <v>2</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="F20" s="2"/>
       <c r="H20" s="1"/>
@@ -4315,10 +4321,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="F21" s="2"/>
       <c r="H21" s="1"/>
@@ -4347,10 +4353,10 @@
         <v>1</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="F22" s="2"/>
       <c r="H22" s="1"/>
@@ -4379,10 +4385,10 @@
         <v>1</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="F23" s="2"/>
       <c r="H23" s="1"/>
@@ -4414,7 +4420,7 @@
         <v>35</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="F24" s="2"/>
       <c r="H24" s="1"/>
@@ -4443,10 +4449,10 @@
         <v>4</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>945</v>
+        <v>1025</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F25" s="2"/>
       <c r="H25" s="1"/>
@@ -4475,10 +4481,10 @@
         <v>1</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="F26" s="2"/>
       <c r="H26" s="1"/>
@@ -4507,10 +4513,10 @@
         <v>3</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>946</v>
+        <v>1026</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F27" s="2"/>
       <c r="H27" s="1"/>
@@ -4539,10 +4545,10 @@
         <v>1</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="F28" s="2"/>
       <c r="H28" s="1"/>
@@ -4571,10 +4577,10 @@
         <v>1</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>568</v>
+        <v>1027</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="F29" s="2"/>
       <c r="H29" s="1"/>
@@ -4594,7 +4600,7 @@
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>365</v>
@@ -4603,10 +4609,10 @@
         <v>2</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>947</v>
+        <v>1028</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.2">
@@ -4620,10 +4626,10 @@
         <v>2</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>948</v>
+        <v>939</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.2">
@@ -4637,10 +4643,10 @@
         <v>1</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>949</v>
+        <v>940</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -4654,10 +4660,10 @@
         <v>1</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -4671,10 +4677,10 @@
         <v>1</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -4688,10 +4694,10 @@
         <v>3</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>950</v>
+        <v>1029</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -4705,10 +4711,10 @@
         <v>1</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -4722,10 +4728,10 @@
         <v>2</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4739,10 +4745,10 @@
         <v>1</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4756,10 +4762,10 @@
         <v>1</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>872</v>
+        <v>1030</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4773,10 +4779,10 @@
         <v>4</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4790,10 +4796,10 @@
         <v>1</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4807,10 +4813,10 @@
         <v>1</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4824,10 +4830,10 @@
         <v>1</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -4841,10 +4847,10 @@
         <v>1</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -4858,10 +4864,10 @@
         <v>1</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -4875,10 +4881,10 @@
         <v>1</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>951</v>
+        <v>941</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -4892,10 +4898,10 @@
         <v>2</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -4909,10 +4915,10 @@
         <v>1</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -4926,10 +4932,10 @@
         <v>1</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -4943,10 +4949,10 @@
         <v>2</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -4960,10 +4966,10 @@
         <v>1</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -4977,10 +4983,10 @@
         <v>1</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>952</v>
+        <v>942</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -4994,10 +5000,10 @@
         <v>1</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>547</v>
+        <v>1031</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -5011,10 +5017,10 @@
         <v>2</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>953</v>
+        <v>1032</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -5028,10 +5034,10 @@
         <v>1</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>954</v>
+        <v>943</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -5039,16 +5045,16 @@
         <v>136</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C56" s="1">
         <v>1</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>955</v>
+        <v>944</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -5062,10 +5068,10 @@
         <v>5</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>956</v>
+        <v>945</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -5079,10 +5085,10 @@
         <v>1</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>957</v>
+        <v>946</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -5096,10 +5102,10 @@
         <v>2</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>958</v>
+        <v>947</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -5113,10 +5119,10 @@
         <v>3</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>959</v>
+        <v>948</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -5130,10 +5136,10 @@
         <v>6</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>960</v>
+        <v>949</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -5147,10 +5153,10 @@
         <v>2</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -5164,10 +5170,10 @@
         <v>1</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>961</v>
+        <v>950</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>1062</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -5181,10 +5187,10 @@
         <v>2</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>962</v>
+        <v>951</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -5198,10 +5204,10 @@
         <v>8</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>963</v>
+        <v>1033</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -5215,10 +5221,10 @@
         <v>2</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -5232,15 +5238,15 @@
         <v>1</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>964</v>
+        <v>952</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>310</v>
@@ -5249,10 +5255,10 @@
         <v>3</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>965</v>
+        <v>1034</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -5266,10 +5272,10 @@
         <v>1</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -5283,10 +5289,10 @@
         <v>1</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -5300,10 +5306,10 @@
         <v>1</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -5317,10 +5323,10 @@
         <v>1</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -5334,10 +5340,10 @@
         <v>1</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>966</v>
+        <v>953</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -5351,10 +5357,10 @@
         <v>1</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -5368,10 +5374,10 @@
         <v>1</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -5385,10 +5391,10 @@
         <v>1</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -5402,10 +5408,10 @@
         <v>4</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -5419,10 +5425,10 @@
         <v>1</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -5436,10 +5442,10 @@
         <v>1</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -5453,10 +5459,10 @@
         <v>1</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -5470,10 +5476,10 @@
         <v>1</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -5487,10 +5493,10 @@
         <v>1</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -5504,10 +5510,10 @@
         <v>2</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>967</v>
+        <v>954</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -5521,10 +5527,10 @@
         <v>2</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>968</v>
+        <v>1035</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -5538,10 +5544,10 @@
         <v>2</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>969</v>
+        <v>1036</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -5555,10 +5561,10 @@
         <v>1</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -5572,10 +5578,10 @@
         <v>1</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -5589,18 +5595,18 @@
         <v>1</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="C89" s="1">
         <v>0</v>
@@ -5609,7 +5615,7 @@
         <v>35</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -5623,10 +5629,10 @@
         <v>1</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -5640,10 +5646,10 @@
         <v>1</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -5657,10 +5663,10 @@
         <v>1</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -5674,10 +5680,10 @@
         <v>1</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -5691,10 +5697,10 @@
         <v>1</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -5708,10 +5714,10 @@
         <v>2</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -5725,10 +5731,10 @@
         <v>1</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>970</v>
+        <v>955</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -5742,10 +5748,10 @@
         <v>1</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>971</v>
+        <v>956</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -5759,10 +5765,10 @@
         <v>3</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>972</v>
+        <v>957</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -5776,10 +5782,10 @@
         <v>1</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -5793,10 +5799,10 @@
         <v>1</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -5810,10 +5816,10 @@
         <v>2</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -5827,10 +5833,10 @@
         <v>1</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -5844,10 +5850,10 @@
         <v>6</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>973</v>
+        <v>1037</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -5861,10 +5867,10 @@
         <v>1</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -5878,10 +5884,10 @@
         <v>1</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -5895,10 +5901,10 @@
         <v>1</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>864</v>
+        <v>1038</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -5912,10 +5918,10 @@
         <v>2</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>974</v>
+        <v>958</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -5929,10 +5935,10 @@
         <v>1</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>975</v>
+        <v>959</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -5946,10 +5952,10 @@
         <v>1</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -5963,10 +5969,10 @@
         <v>4</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>976</v>
+        <v>960</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -5980,10 +5986,10 @@
         <v>2</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -5997,10 +6003,10 @@
         <v>2</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -6014,10 +6020,10 @@
         <v>1</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>977</v>
+        <v>961</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -6031,10 +6037,10 @@
         <v>2</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -6048,10 +6054,10 @@
         <v>1</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -6065,10 +6071,10 @@
         <v>1</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -6082,10 +6088,10 @@
         <v>1</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>978</v>
+        <v>962</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -6099,10 +6105,10 @@
         <v>1</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -6116,10 +6122,10 @@
         <v>1</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>979</v>
+        <v>963</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -6133,10 +6139,10 @@
         <v>1</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -6150,10 +6156,10 @@
         <v>3</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -6167,10 +6173,10 @@
         <v>2</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>980</v>
+        <v>964</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -6184,10 +6190,10 @@
         <v>2</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -6201,10 +6207,10 @@
         <v>1</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>981</v>
+        <v>1039</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -6218,10 +6224,10 @@
         <v>1</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -6235,10 +6241,10 @@
         <v>4</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>982</v>
+        <v>965</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -6252,10 +6258,10 @@
         <v>4</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>983</v>
+        <v>1040</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -6269,10 +6275,10 @@
         <v>1</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -6286,10 +6292,10 @@
         <v>1</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -6303,10 +6309,10 @@
         <v>1</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -6320,10 +6326,10 @@
         <v>1</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -6337,10 +6343,10 @@
         <v>2</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>984</v>
+        <v>966</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -6354,10 +6360,10 @@
         <v>1</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>985</v>
+        <v>967</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -6371,15 +6377,15 @@
         <v>1</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>360</v>
@@ -6388,10 +6394,10 @@
         <v>1</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -6405,10 +6411,10 @@
         <v>4</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>986</v>
+        <v>1041</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -6422,10 +6428,10 @@
         <v>3</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>987</v>
+        <v>1042</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -6439,10 +6445,10 @@
         <v>1</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
@@ -6456,10 +6462,10 @@
         <v>1</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
@@ -6473,10 +6479,10 @@
         <v>1</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -6490,10 +6496,10 @@
         <v>2</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
@@ -6507,27 +6513,27 @@
         <v>1</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>988</v>
+        <v>968</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>516</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>517</v>
       </c>
       <c r="C143" s="1">
         <v>3</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>989</v>
+        <v>1043</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
@@ -6541,10 +6547,10 @@
         <v>1</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
@@ -6558,10 +6564,10 @@
         <v>1</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
@@ -6575,10 +6581,10 @@
         <v>1</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
@@ -6592,10 +6598,10 @@
         <v>2</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
@@ -6609,15 +6615,15 @@
         <v>1</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>345</v>
@@ -6626,10 +6632,10 @@
         <v>1</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
@@ -6643,10 +6649,10 @@
         <v>1</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>990</v>
+        <v>969</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
@@ -6660,10 +6666,10 @@
         <v>1</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
@@ -6677,10 +6683,10 @@
         <v>1</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
@@ -6694,18 +6700,18 @@
         <v>1</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="C154" s="1">
         <v>0</v>
@@ -6714,7 +6720,7 @@
         <v>35</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
@@ -6728,10 +6734,10 @@
         <v>2</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
@@ -6745,10 +6751,10 @@
         <v>1</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
@@ -6762,10 +6768,10 @@
         <v>1</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
@@ -6779,10 +6785,10 @@
         <v>2</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
@@ -6796,10 +6802,10 @@
         <v>4</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>991</v>
+        <v>1044</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
@@ -6813,15 +6819,15 @@
         <v>1</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>341</v>
@@ -6833,7 +6839,7 @@
         <v>35</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
@@ -6847,10 +6853,10 @@
         <v>1</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
@@ -6864,10 +6870,10 @@
         <v>1</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
@@ -6881,10 +6887,10 @@
         <v>1</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>992</v>
+        <v>1045</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
@@ -6898,10 +6904,10 @@
         <v>1</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
@@ -6915,10 +6921,10 @@
         <v>1</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>993</v>
+        <v>970</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
@@ -6932,10 +6938,10 @@
         <v>1</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
@@ -6949,10 +6955,10 @@
         <v>2</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
@@ -6966,10 +6972,10 @@
         <v>1</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
@@ -6983,10 +6989,10 @@
         <v>1</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
@@ -7000,10 +7006,10 @@
         <v>2</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
@@ -7017,10 +7023,10 @@
         <v>1</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
@@ -7034,10 +7040,10 @@
         <v>1</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
@@ -7051,10 +7057,10 @@
         <v>1</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
@@ -7068,10 +7074,10 @@
         <v>1</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
@@ -7085,10 +7091,10 @@
         <v>1</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
@@ -7102,10 +7108,10 @@
         <v>1</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
@@ -7119,10 +7125,10 @@
         <v>1</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
@@ -7136,10 +7142,10 @@
         <v>2</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>994</v>
+        <v>971</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
@@ -7153,10 +7159,10 @@
         <v>2</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
@@ -7170,10 +7176,10 @@
         <v>1</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
@@ -7187,10 +7193,10 @@
         <v>1</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
@@ -7204,10 +7210,10 @@
         <v>1</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
@@ -7221,10 +7227,10 @@
         <v>2</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>995</v>
+        <v>1046</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
@@ -7238,10 +7244,10 @@
         <v>1</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
@@ -7255,10 +7261,10 @@
         <v>3</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>996</v>
+        <v>1047</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
@@ -7266,16 +7272,16 @@
         <v>227</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C187" s="1">
         <v>2</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>997</v>
+        <v>972</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
@@ -7289,10 +7295,10 @@
         <v>5</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>998</v>
+        <v>1048</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
@@ -7306,10 +7312,10 @@
         <v>5</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>998</v>
+        <v>1048</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
@@ -7323,10 +7329,10 @@
         <v>1</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
@@ -7340,10 +7346,10 @@
         <v>1</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
@@ -7357,10 +7363,10 @@
         <v>1</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
@@ -7374,10 +7380,10 @@
         <v>1</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
@@ -7391,10 +7397,10 @@
         <v>2</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
@@ -7408,10 +7414,10 @@
         <v>3</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
@@ -7425,10 +7431,10 @@
         <v>1</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
@@ -7442,10 +7448,10 @@
         <v>5</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>999</v>
+        <v>973</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
@@ -7459,10 +7465,10 @@
         <v>2</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>1000</v>
+        <v>1049</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
@@ -7476,15 +7482,15 @@
         <v>1</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>1001</v>
+        <v>1050</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>396</v>
@@ -7493,10 +7499,10 @@
         <v>1</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
@@ -7510,15 +7516,15 @@
         <v>1</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>1002</v>
+        <v>974</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>1003</v>
+        <v>975</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>305</v>
@@ -7527,7 +7533,7 @@
         <v>0</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>1063</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
@@ -7541,10 +7547,10 @@
         <v>2</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
@@ -7558,10 +7564,10 @@
         <v>1</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
@@ -7575,10 +7581,10 @@
         <v>1</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>1004</v>
+        <v>976</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
@@ -7592,10 +7598,10 @@
         <v>2</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>1005</v>
+        <v>977</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
@@ -7609,24 +7615,27 @@
         <v>1</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>1006</v>
+        <v>978</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>1007</v>
+        <v>979</v>
       </c>
       <c r="C208" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D208" s="5" t="s">
+        <v>1051</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>1064</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
@@ -7640,10 +7649,10 @@
         <v>1</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
@@ -7657,10 +7666,10 @@
         <v>1</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
@@ -7674,10 +7683,10 @@
         <v>2</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>1008</v>
+        <v>980</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
@@ -7691,10 +7700,10 @@
         <v>1</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
@@ -7708,10 +7717,10 @@
         <v>2</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>1009</v>
+        <v>981</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
@@ -7725,10 +7734,10 @@
         <v>1</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>1010</v>
+        <v>1052</v>
       </c>
       <c r="E214" s="4" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
@@ -7742,10 +7751,10 @@
         <v>2</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>1011</v>
+        <v>982</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
@@ -7759,10 +7768,10 @@
         <v>1</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
@@ -7776,10 +7785,10 @@
         <v>3</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>1012</v>
+        <v>983</v>
       </c>
       <c r="E217" s="4" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
@@ -7793,10 +7802,10 @@
         <v>1</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="E218" s="4" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
@@ -7810,10 +7819,10 @@
         <v>1</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>1013</v>
+        <v>984</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
@@ -7827,10 +7836,10 @@
         <v>1</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
@@ -7844,10 +7853,10 @@
         <v>1</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>1014</v>
+        <v>985</v>
       </c>
       <c r="E221" s="4" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
@@ -7861,10 +7870,10 @@
         <v>2</v>
       </c>
       <c r="D222" s="5" t="s">
-        <v>1015</v>
+        <v>986</v>
       </c>
       <c r="E222" s="4" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
@@ -7878,10 +7887,10 @@
         <v>4</v>
       </c>
       <c r="D223" s="5" t="s">
-        <v>1016</v>
+        <v>1053</v>
       </c>
       <c r="E223" s="4" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
@@ -7895,10 +7904,10 @@
         <v>1</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E224" s="4" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
@@ -7912,10 +7921,10 @@
         <v>9</v>
       </c>
       <c r="D225" s="5" t="s">
-        <v>1017</v>
+        <v>1054</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
@@ -7929,10 +7938,10 @@
         <v>1</v>
       </c>
       <c r="D226" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
@@ -7946,10 +7955,10 @@
         <v>1</v>
       </c>
       <c r="D227" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
@@ -7963,10 +7972,10 @@
         <v>1</v>
       </c>
       <c r="D228" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E228" s="4" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
@@ -7980,18 +7989,18 @@
         <v>3</v>
       </c>
       <c r="D229" s="5" t="s">
-        <v>1018</v>
+        <v>987</v>
       </c>
       <c r="E229" s="4" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>1019</v>
+        <v>988</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>1020</v>
+        <v>989</v>
       </c>
       <c r="C230" s="1">
         <v>0</v>
@@ -8000,7 +8009,7 @@
         <v>35</v>
       </c>
       <c r="E230" s="4" t="s">
-        <v>1065</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
@@ -8014,10 +8023,10 @@
         <v>1</v>
       </c>
       <c r="D231" s="5" t="s">
-        <v>1021</v>
+        <v>990</v>
       </c>
       <c r="E231" s="4" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
@@ -8031,10 +8040,10 @@
         <v>3</v>
       </c>
       <c r="D232" s="5" t="s">
-        <v>1022</v>
+        <v>991</v>
       </c>
       <c r="E232" s="4" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
@@ -8048,10 +8057,10 @@
         <v>1</v>
       </c>
       <c r="D233" s="5" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="E233" s="4" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
@@ -8065,10 +8074,10 @@
         <v>1</v>
       </c>
       <c r="D234" s="5" t="s">
-        <v>1023</v>
+        <v>992</v>
       </c>
       <c r="E234" s="4" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
@@ -8082,10 +8091,10 @@
         <v>3</v>
       </c>
       <c r="D235" s="5" t="s">
-        <v>1024</v>
+        <v>993</v>
       </c>
       <c r="E235" s="4" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
@@ -8099,10 +8108,10 @@
         <v>1</v>
       </c>
       <c r="D236" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E236" s="4" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
@@ -8116,10 +8125,10 @@
         <v>2</v>
       </c>
       <c r="D237" s="5" t="s">
-        <v>1025</v>
+        <v>994</v>
       </c>
       <c r="E237" s="4" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
@@ -8133,10 +8142,10 @@
         <v>2</v>
       </c>
       <c r="D238" s="5" t="s">
-        <v>1026</v>
+        <v>995</v>
       </c>
       <c r="E238" s="4" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
@@ -8150,10 +8159,10 @@
         <v>1</v>
       </c>
       <c r="D239" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E239" s="4" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
@@ -8167,10 +8176,10 @@
         <v>1</v>
       </c>
       <c r="D240" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E240" s="4" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
@@ -8184,10 +8193,10 @@
         <v>2</v>
       </c>
       <c r="D241" s="5" t="s">
-        <v>1027</v>
+        <v>996</v>
       </c>
       <c r="E241" s="4" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
@@ -8201,10 +8210,10 @@
         <v>1</v>
       </c>
       <c r="D242" s="5" t="s">
-        <v>1028</v>
+        <v>997</v>
       </c>
       <c r="E242" s="4" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
@@ -8218,10 +8227,10 @@
         <v>1</v>
       </c>
       <c r="D243" s="5" t="s">
-        <v>1029</v>
+        <v>998</v>
       </c>
       <c r="E243" s="4" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
@@ -8235,10 +8244,10 @@
         <v>1</v>
       </c>
       <c r="D244" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E244" s="4" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
@@ -8252,10 +8261,10 @@
         <v>1</v>
       </c>
       <c r="D245" s="5" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="E245" s="4" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
@@ -8269,10 +8278,10 @@
         <v>1</v>
       </c>
       <c r="D246" s="5" t="s">
-        <v>1030</v>
+        <v>999</v>
       </c>
       <c r="E246" s="4" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
@@ -8286,10 +8295,10 @@
         <v>1</v>
       </c>
       <c r="D247" s="5" t="s">
-        <v>1031</v>
+        <v>1000</v>
       </c>
       <c r="E247" s="4" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
@@ -8303,10 +8312,10 @@
         <v>4</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>576</v>
+        <v>1055</v>
       </c>
       <c r="E248" s="4" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
@@ -8320,10 +8329,10 @@
         <v>1</v>
       </c>
       <c r="D249" s="5" t="s">
-        <v>1032</v>
+        <v>1056</v>
       </c>
       <c r="E249" s="4" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
@@ -8337,27 +8346,27 @@
         <v>1</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="E250" s="4" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B251" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="B251" s="2" t="s">
-        <v>521</v>
-      </c>
       <c r="C251" s="1">
         <v>1</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="E251" s="4" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
@@ -8371,10 +8380,10 @@
         <v>1</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E252" s="4" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
@@ -8388,10 +8397,10 @@
         <v>1</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>1033</v>
+        <v>1001</v>
       </c>
       <c r="E253" s="4" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
@@ -8405,10 +8414,10 @@
         <v>1</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="E254" s="4" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
@@ -8422,10 +8431,10 @@
         <v>2</v>
       </c>
       <c r="D255" s="5" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="E255" s="4" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
@@ -8439,10 +8448,10 @@
         <v>1</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E256" s="4" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
@@ -8456,10 +8465,10 @@
         <v>1</v>
       </c>
       <c r="D257" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E257" s="4" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
@@ -8473,10 +8482,10 @@
         <v>2</v>
       </c>
       <c r="D258" s="5" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="E258" s="4" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
@@ -8490,10 +8499,10 @@
         <v>1</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E259" s="4" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
@@ -8501,16 +8510,16 @@
         <v>94</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C260" s="1">
         <v>1</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E260" s="4" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
@@ -8524,10 +8533,10 @@
         <v>1</v>
       </c>
       <c r="D261" s="5" t="s">
-        <v>1034</v>
+        <v>1002</v>
       </c>
       <c r="E261" s="4" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
@@ -8541,10 +8550,10 @@
         <v>1</v>
       </c>
       <c r="D262" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E262" s="4" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
@@ -8558,10 +8567,10 @@
         <v>5</v>
       </c>
       <c r="D263" s="5" t="s">
-        <v>1035</v>
+        <v>1057</v>
       </c>
       <c r="E263" s="4" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
@@ -8575,10 +8584,10 @@
         <v>1</v>
       </c>
       <c r="D264" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E264" s="4" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
@@ -8592,10 +8601,10 @@
         <v>1</v>
       </c>
       <c r="D265" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E265" s="4" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
@@ -8609,10 +8618,10 @@
         <v>5</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>1036</v>
+        <v>1003</v>
       </c>
       <c r="E266" s="4" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
@@ -8626,15 +8635,15 @@
         <v>3</v>
       </c>
       <c r="D267" s="5" t="s">
-        <v>1037</v>
+        <v>1058</v>
       </c>
       <c r="E267" s="4" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>324</v>
@@ -8643,10 +8652,10 @@
         <v>3</v>
       </c>
       <c r="D268" s="5" t="s">
-        <v>1038</v>
+        <v>1059</v>
       </c>
       <c r="E268" s="4" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
@@ -8660,10 +8669,10 @@
         <v>2</v>
       </c>
       <c r="D269" s="5" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="E269" s="4" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
@@ -8677,10 +8686,10 @@
         <v>2</v>
       </c>
       <c r="D270" s="5" t="s">
-        <v>1039</v>
+        <v>1004</v>
       </c>
       <c r="E270" s="4" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
@@ -8694,10 +8703,10 @@
         <v>1</v>
       </c>
       <c r="D271" s="5" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="E271" s="4" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
@@ -8711,10 +8720,10 @@
         <v>1</v>
       </c>
       <c r="D272" s="5" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="E272" s="4" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
@@ -8728,10 +8737,10 @@
         <v>1</v>
       </c>
       <c r="D273" s="5" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="E273" s="4" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
@@ -8745,10 +8754,10 @@
         <v>1</v>
       </c>
       <c r="D274" s="5" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="E274" s="4" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
@@ -8762,10 +8771,10 @@
         <v>1</v>
       </c>
       <c r="D275" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E275" s="4" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
@@ -8779,10 +8788,10 @@
         <v>1</v>
       </c>
       <c r="D276" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E276" s="4" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
@@ -8796,10 +8805,10 @@
         <v>1</v>
       </c>
       <c r="D277" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E277" s="4" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
@@ -8813,10 +8822,10 @@
         <v>1</v>
       </c>
       <c r="D278" s="5" t="s">
-        <v>1040</v>
+        <v>1060</v>
       </c>
       <c r="E278" s="4" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
@@ -8830,10 +8839,10 @@
         <v>1</v>
       </c>
       <c r="D279" s="5" t="s">
-        <v>1041</v>
+        <v>1005</v>
       </c>
       <c r="E279" s="4" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
@@ -8847,10 +8856,10 @@
         <v>1</v>
       </c>
       <c r="D280" s="5" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="E280" s="4" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
@@ -8864,10 +8873,10 @@
         <v>2</v>
       </c>
       <c r="D281" s="5" t="s">
-        <v>1042</v>
+        <v>1006</v>
       </c>
       <c r="E281" s="4" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
@@ -8884,7 +8893,7 @@
         <v>35</v>
       </c>
       <c r="E282" s="4" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
@@ -8898,10 +8907,10 @@
         <v>1</v>
       </c>
       <c r="D283" s="5" t="s">
-        <v>1043</v>
+        <v>1061</v>
       </c>
       <c r="E283" s="4" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
@@ -8915,10 +8924,10 @@
         <v>1</v>
       </c>
       <c r="D284" s="5" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="E284" s="4" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
@@ -8932,10 +8941,10 @@
         <v>2</v>
       </c>
       <c r="D285" s="5" t="s">
-        <v>1044</v>
+        <v>1007</v>
       </c>
       <c r="E285" s="4" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
@@ -8949,10 +8958,10 @@
         <v>2</v>
       </c>
       <c r="D286" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E286" s="4" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
@@ -8960,50 +8969,50 @@
         <v>4</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="C287" s="1">
         <v>1</v>
       </c>
       <c r="D287" s="5" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="E287" s="4" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
-        <v>1045</v>
+        <v>1008</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>1046</v>
+        <v>1009</v>
       </c>
       <c r="C288" s="1">
         <v>2</v>
       </c>
       <c r="D288" s="5" t="s">
-        <v>1047</v>
+        <v>1062</v>
       </c>
       <c r="E288" s="4" t="s">
-        <v>1066</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C289" s="1">
         <v>1</v>
       </c>
       <c r="D289" s="5" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="E289" s="4" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
@@ -9017,10 +9026,10 @@
         <v>1</v>
       </c>
       <c r="D290" s="5" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="E290" s="4" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
@@ -9034,10 +9043,10 @@
         <v>2</v>
       </c>
       <c r="D291" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E291" s="4" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
@@ -9051,10 +9060,10 @@
         <v>1</v>
       </c>
       <c r="D292" s="5" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="E292" s="4" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
@@ -9068,10 +9077,10 @@
         <v>1</v>
       </c>
       <c r="D293" s="5" t="s">
-        <v>1048</v>
+        <v>1010</v>
       </c>
       <c r="E293" s="4" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
@@ -9085,10 +9094,10 @@
         <v>1</v>
       </c>
       <c r="D294" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E294" s="4" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
@@ -9102,10 +9111,10 @@
         <v>1</v>
       </c>
       <c r="D295" s="5" t="s">
-        <v>1049</v>
+        <v>1011</v>
       </c>
       <c r="E295" s="4" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
@@ -9119,15 +9128,15 @@
         <v>1</v>
       </c>
       <c r="D296" s="5" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="E296" s="4" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
-        <v>1050</v>
+        <v>1012</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>396</v>
@@ -9139,12 +9148,12 @@
         <v>35</v>
       </c>
       <c r="E297" s="4" t="s">
-        <v>1067</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>386</v>
@@ -9153,10 +9162,10 @@
         <v>1</v>
       </c>
       <c r="D298" s="5" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="E298" s="4" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
@@ -9170,27 +9179,27 @@
         <v>5</v>
       </c>
       <c r="D299" s="5" t="s">
-        <v>1051</v>
+        <v>1063</v>
       </c>
       <c r="E299" s="4" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C300" s="1">
         <v>1</v>
       </c>
       <c r="D300" s="5" t="s">
-        <v>1052</v>
+        <v>1064</v>
       </c>
       <c r="E300" s="4" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
@@ -9204,10 +9213,10 @@
         <v>1</v>
       </c>
       <c r="D301" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E301" s="4" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
@@ -9221,10 +9230,10 @@
         <v>1</v>
       </c>
       <c r="D302" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E302" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
@@ -9238,10 +9247,10 @@
         <v>1</v>
       </c>
       <c r="D303" s="5" t="s">
-        <v>1053</v>
+        <v>1065</v>
       </c>
       <c r="E303" s="4" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
@@ -9255,10 +9264,10 @@
         <v>4</v>
       </c>
       <c r="D304" s="5" t="s">
-        <v>1054</v>
+        <v>1066</v>
       </c>
       <c r="E304" s="4" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
@@ -9272,10 +9281,10 @@
         <v>1</v>
       </c>
       <c r="D305" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E305" s="4" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
@@ -9289,10 +9298,10 @@
         <v>1</v>
       </c>
       <c r="D306" s="5" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E306" s="4" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
@@ -9306,10 +9315,10 @@
         <v>1</v>
       </c>
       <c r="D307" s="5" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="E307" s="4" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
@@ -9323,10 +9332,10 @@
         <v>1</v>
       </c>
       <c r="D308" s="5" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="E308" s="4" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
@@ -9340,10 +9349,10 @@
         <v>2</v>
       </c>
       <c r="D309" s="5" t="s">
-        <v>1055</v>
+        <v>1067</v>
       </c>
       <c r="E309" s="4" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
@@ -9357,10 +9366,10 @@
         <v>1</v>
       </c>
       <c r="D310" s="5" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="E310" s="4" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
@@ -9374,10 +9383,10 @@
         <v>1</v>
       </c>
       <c r="D311" s="5" t="s">
-        <v>1056</v>
+        <v>1013</v>
       </c>
       <c r="E311" s="4" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
@@ -9391,15 +9400,15 @@
         <v>3</v>
       </c>
       <c r="D312" s="5" t="s">
-        <v>1057</v>
+        <v>1014</v>
       </c>
       <c r="E312" s="4" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>343</v>
@@ -9408,15 +9417,15 @@
         <v>1</v>
       </c>
       <c r="D313" s="5" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="E313" s="4" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>388</v>
@@ -9425,15 +9434,15 @@
         <v>3</v>
       </c>
       <c r="D314" s="5" t="s">
-        <v>1058</v>
+        <v>1068</v>
       </c>
       <c r="E314" s="4" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>281</v>
@@ -9442,15 +9451,15 @@
         <v>4</v>
       </c>
       <c r="D315" s="5" t="s">
-        <v>1059</v>
+        <v>1069</v>
       </c>
       <c r="E315" s="4" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>351</v>
@@ -9462,29 +9471,29 @@
         <v>35</v>
       </c>
       <c r="E316" s="4" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C317" s="1">
         <v>1</v>
       </c>
       <c r="D317" s="5" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="E317" s="4" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>251</v>
@@ -9493,15 +9502,15 @@
         <v>1</v>
       </c>
       <c r="D318" s="5" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="E318" s="4" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>362</v>
@@ -9513,15 +9522,15 @@
         <v>35</v>
       </c>
       <c r="E319" s="4" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
-        <v>1060</v>
+        <v>1015</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>1061</v>
+        <v>1016</v>
       </c>
       <c r="C320" s="1">
         <v>0</v>
@@ -9530,13 +9539,13 @@
         <v>35</v>
       </c>
       <c r="E320" s="4" t="s">
-        <v>1068</v>
+        <v>1023</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="F4:I6"/>
-    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="F7:H9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85166297-EBDB-45FB-815A-E48BC06342E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBAD90F-3C14-4F74-89E2-1E97B94068CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11460" yWindow="3120" windowWidth="23925" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="1071">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="1080">
   <si>
     <t>缪尔赛思</t>
   </si>
@@ -1626,9 +1626,6 @@
     <t>*maa://31560 (80.0), **maa://20968 (50.0)</t>
   </si>
   <si>
-    <t>maa://20919 (100.0), **maa://24873 (42.86)</t>
-  </si>
-  <si>
     <t>maa://20948 (100.0), maa://30844 (100.0)</t>
   </si>
   <si>
@@ -1677,9 +1674,6 @@
     <t>CW-3</t>
   </si>
   <si>
-    <t>maa://20944 (94.29), maa://35393 (100.0)</t>
-  </si>
-  <si>
     <t>maa://30525 (100.0), maa://20859 (100.0), *maa://28188 (75.0), maa://30524 (100.0)</t>
   </si>
   <si>
@@ -1695,9 +1689,6 @@
     <t>IS-7</t>
   </si>
   <si>
-    <t>maa://38296 (100.0)</t>
-  </si>
-  <si>
     <t>冰酿</t>
   </si>
   <si>
@@ -1750,9 +1741,6 @@
   </si>
   <si>
     <t>maa://20975 (90.0), maa://30806 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://37690 (100.0)</t>
   </si>
   <si>
     <t>*maa://20862 (66.67)</t>
@@ -2656,15 +2644,9 @@
     <t>松果</t>
   </si>
   <si>
-    <t>maa://20969 (87.5)</t>
-  </si>
-  <si>
     <t>假日威龙陈</t>
   </si>
   <si>
-    <t>maa://39238 (100.0)</t>
-  </si>
-  <si>
     <t>maa://39157 (100.0)</t>
   </si>
   <si>
@@ -2854,24 +2836,9 @@
     <t>maa://20876 (87.5)</t>
   </si>
   <si>
-    <t>maa://30500 (97.92), *maa://27290 (70.59)</t>
-  </si>
-  <si>
-    <t>*maa://20916 (78.95)</t>
-  </si>
-  <si>
     <t>maa://20954 (92.31)</t>
   </si>
   <si>
-    <t>maa://20932 (96.55)</t>
-  </si>
-  <si>
-    <t>maa://27970 (97.92)</t>
-  </si>
-  <si>
-    <t>*maa://38298 (72.22)</t>
-  </si>
-  <si>
     <t>maa://20841 (100.0), maa://24093 (100.0), maa://31559 (91.67), maa://25777 (100.0), maa://20631 (100.0)</t>
   </si>
   <si>
@@ -2884,81 +2851,33 @@
     <t>maa://28187 (96.67), maa://33504 (100.0), maa://39520 (100.0)</t>
   </si>
   <si>
-    <t>maa://28567 (96.77), **maa://20947 (44.12), maa://30525 (100.0), *maa://28188 (75.0), maa://38735 (100.0), maa://30524 (100.0)</t>
-  </si>
-  <si>
     <t>maa://39693 (100.0)</t>
   </si>
   <si>
-    <t>maa://20976 (97.99), maa://20815 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://20943 (99.56)</t>
-  </si>
-  <si>
-    <t>maa://20958 (92.31)</t>
-  </si>
-  <si>
     <t>maa://20886 (86.67), maa://25136 (90.0)</t>
   </si>
   <si>
     <t>*maa://20893 (75.0)</t>
   </si>
   <si>
-    <t>*maa://39240 (60.0)</t>
-  </si>
-  <si>
     <t>*maa://29094 (63.33), maa://28904 (89.47), **maa://20931 (42.31)</t>
   </si>
   <si>
-    <t>*maa://20933 (75.0), maa://20822 (100.0)</t>
-  </si>
-  <si>
     <t>maa://29037 (96.43)</t>
   </si>
   <si>
-    <t>maa://20908 (98.14), *maa://23346 (77.78), maa://35723 (96.3), maa://38822 (100.0)</t>
-  </si>
-  <si>
     <t>maa://20986 (92.86)</t>
   </si>
   <si>
-    <t>maa://29650 (97.06)</t>
-  </si>
-  <si>
-    <t>*maa://20909 (76.47)</t>
-  </si>
-  <si>
-    <t>maa://37484 (92.86), maa://24611 (86.36)</t>
-  </si>
-  <si>
     <t>maa://23019 (100.0), maa://20837 (100.0), maa://37113 (100.0), *maa://37666 (75.0)</t>
   </si>
   <si>
-    <t>**maa://21000 (42.86), *maa://29025 (73.33)</t>
-  </si>
-  <si>
-    <t>*maa://30679 (53.33)</t>
-  </si>
-  <si>
-    <t>maa://20846 (94.74)</t>
-  </si>
-  <si>
     <t>**maa://39149 (50.0)</t>
   </si>
   <si>
     <t>maa://20842 (92.31)</t>
   </si>
   <si>
-    <t>maa://34866 (82.35), maa://34714 (94.74)</t>
-  </si>
-  <si>
-    <t>***maa://38297 (25.0), maa://39156 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://28133 (89.19), *maa://28277 (78.26), maa://25369 (92.31), **maa://39217 (40.0), *maa://33132 (66.67)</t>
-  </si>
-  <si>
     <t>**maa://24556 (50.0)</t>
   </si>
   <si>
@@ -2980,9 +2899,6 @@
     <t>maa://28187 (96.67), maa://39520 (100.0)</t>
   </si>
   <si>
-    <t>maa://20987 (90.77), *maa://35801 (75.0)</t>
-  </si>
-  <si>
     <t>maa://39140 (100.0), maa://30677 (100.0)</t>
   </si>
   <si>
@@ -2995,9 +2911,6 @@
     <t>maa://20917 (96.97)</t>
   </si>
   <si>
-    <t>maa://30714 (96.88), maa://30675 (100.0)</t>
-  </si>
-  <si>
     <t>maa://20867 (92.86), *maa://32202 (80.0), **maa://38485 (50.0)</t>
   </si>
   <si>
@@ -3010,30 +2923,15 @@
     <t>maa://30674 (85.71)</t>
   </si>
   <si>
-    <t>maa://28923 (92.03), maa://28906 (96.15), ***maa://28825 (12.5)</t>
-  </si>
-  <si>
     <t>maa://20923 (87.5)</t>
   </si>
   <si>
-    <t>maa://24093 (100.0), maa://20924 (93.33), maa://31559 (91.67)</t>
-  </si>
-  <si>
     <t>maa://20877 (98.11), maa://20836 (100.0)</t>
   </si>
   <si>
-    <t>maa://20879 (85.71), maa://20834 (100.0)</t>
-  </si>
-  <si>
     <t>*maa://31560 (80.0), maa://20884 (92.31)</t>
   </si>
   <si>
-    <t>*maa://20883 (54.55)</t>
-  </si>
-  <si>
-    <t>maa://29027 (96.97)</t>
-  </si>
-  <si>
     <t>maa://22467 (92.31)</t>
   </si>
   <si>
@@ -3043,15 +2941,6 @@
     <t>*maa://20939 (71.43)</t>
   </si>
   <si>
-    <t>maa://20899 (91.11)</t>
-  </si>
-  <si>
-    <t>maa://25774 (100.0), maa://28133 (89.19), maa://22469 (92.5), **maa://31349 (50.0), **maa://39217 (40.0)</t>
-  </si>
-  <si>
-    <t>maa://29005 (97.5), *maa://31560 (80.0)</t>
-  </si>
-  <si>
     <t>**maa://39172 (50.0)</t>
   </si>
   <si>
@@ -3079,9 +2968,6 @@
     <t>*maa://39181 (66.67)</t>
   </si>
   <si>
-    <t>maa://36868 (100.0), maa://35996 (94.12), **maa://39217 (40.0)</t>
-  </si>
-  <si>
     <t>衡沙</t>
   </si>
   <si>
@@ -3112,84 +2998,21 @@
     <t>*maa://20990 (66.67)</t>
   </si>
   <si>
-    <t>*maa://20849 (58.06), **maa://28758 (35.0), maa://29036 (90.91), maa://30285 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://20863 (86.09), maa://20832 (97.5), maa://20727 (100.0)</t>
-  </si>
-  <si>
     <t>*maa://39024 (66.67)</t>
   </si>
   <si>
-    <t>maa://36644 (88.89), maa://36866 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://27376 (83.33), **maa://20838 (50.0), ***maa://39182 (8.33)</t>
-  </si>
-  <si>
-    <t>*maa://20892 (75.76)</t>
-  </si>
-  <si>
-    <t>*maa://20965 (65.22)</t>
-  </si>
-  <si>
-    <t>maa://28900 (95.83), maa://30126 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://28784 (93.66), maa://29088 (91.72), maa://20974 (94.87), maa://31124 (95.5), maa://28950 (90.91), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67)</t>
-  </si>
-  <si>
-    <t>maa://36643 (97.03), maa://36864 (100.0), maa://39140 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://24472 (84.96), *maa://35841 (60.0)</t>
-  </si>
-  <si>
     <t>*maa://28190 (55.17), maa://20880 (88.24)</t>
   </si>
   <si>
-    <t>maa://25018 (95.67), maa://25776 (89.83), maa://28361 (96.43), maa://25772 (91.67), *maa://25161 (78.57), maa://32653 (84.62)</t>
-  </si>
-  <si>
     <t>*maa://28554 (76.47)</t>
   </si>
   <si>
-    <t>maa://21422 (98.15)</t>
-  </si>
-  <si>
-    <t>maa://23020 (95.16), maa://29023 (100.0), maa://34319 (100.0), **maa://39515 (50.0)</t>
-  </si>
-  <si>
-    <t>maa://28484 (98.18), **maa://23736 (42.19), *maa://31185 (75.0), maa://30306 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://30670 (98.53), maa://31470 (93.75), ***maa://30867 (25.0)</t>
-  </si>
-  <si>
-    <t>maa://36641 (97.92), maa://36865 (94.68), maa://37300 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://29627 (92.67), maa://29633 (91.67), maa://29659 (82.14), maa://29861 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://32418 (99.67)</t>
-  </si>
-  <si>
     <t>*maa://28190 (55.17), maa://20994 (100.0)</t>
   </si>
   <si>
     <t>maa://25760 (81.82), *maa://35854 (64.29), *maa://20872 (52.17)</t>
   </si>
   <si>
-    <t>*maa://27823 (78.72), *maa://28190 (55.17), maa://22894 (88.89), *maa://20906 (72.22), **maa://20907 (33.33)</t>
-  </si>
-  <si>
-    <t>maa://20956 (94.7), *maa://20830 (77.78)</t>
-  </si>
-  <si>
-    <t>*maa://20955 (80.0)</t>
-  </si>
-  <si>
     <t>maa://39695 (100.0)</t>
   </si>
   <si>
@@ -3199,55 +3022,259 @@
     <t>maa://20922 (93.88), *maa://32623 (58.33), *maa://34242 (80.0), maa://34900 (87.5)</t>
   </si>
   <si>
-    <t>*maa://30667 (74.67), maa://30666 (82.78), *maa://26836 (74.62), **maa://30739 (45.71), **maa://30723 (47.92), *maa://34428 (65.57), maa://37607 (88.75), maa://37850 (100.0), maa://39588 (83.33)</t>
-  </si>
-  <si>
     <t>*maa://20825 (69.57), *maa://21445 (76.92), ***maa://20891 (30.0), *maa://35726 (66.67)</t>
   </si>
   <si>
-    <t>maa://25769 (96.23)</t>
-  </si>
-  <si>
-    <t>maa://30710 (96.55), maa://36845 (93.94), maa://31558 (96.0), maa://30668 (83.33), **maa://39217 (40.0)</t>
-  </si>
-  <si>
-    <t>maa://32414 (98.3), maa://32505 (100.0), maa://39155 (92.86)</t>
-  </si>
-  <si>
-    <t>maa://36642 (100.0), maa://36867 (100.0), maa://39155 (92.86)</t>
-  </si>
-  <si>
-    <t>maa://35859 (95.56)</t>
-  </si>
-  <si>
-    <t>maa://25367 (98.88)</t>
-  </si>
-  <si>
-    <t>maa://39692 (100.0), *maa://39810 (60.0)</t>
-  </si>
-  <si>
-    <t>*maa://30671 (80.0), maa://30669 (98.11), maa://37275 (81.25), *maa://32410 (63.64), maa://33671 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://38295 (96.43)</t>
-  </si>
-  <si>
     <t>maa://32416 (84.38)</t>
   </si>
   <si>
-    <t>maa://32647 (97.15), maa://32415 (96.04), maa://34677 (100.0), maa://32892 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://34865 (95.93), maa://34717 (94.23)</t>
-  </si>
-  <si>
-    <t>maa://36646 (97.92), maa://36845 (93.94), **maa://39217 (40.0)</t>
-  </si>
-  <si>
-    <t>maa://36645 (98.03), maa://36841 (92.86), maa://37484 (92.86), maa://37858 (88.24)</t>
-  </si>
-  <si>
-    <t>更新日期：2024.08.10</t>
+    <t>maa://20919 (100.0), **maa://24873 (50.0)</t>
+  </si>
+  <si>
+    <t>*maa://20849 (60.61), **maa://28758 (50.0), maa://29036 (91.67), maa://30285 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://20863 (86.5), maa://20832 (98.08), maa://20727 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://36644 (88.35), maa://36866 (96.0)</t>
+  </si>
+  <si>
+    <t>maa://30500 (97.96), *maa://27290 (70.59)</t>
+  </si>
+  <si>
+    <t>*maa://20916 (80.0)</t>
+  </si>
+  <si>
+    <t>maa://27376 (83.33), **maa://20838 (50.0), *maa://40163 (66.67)</t>
+  </si>
+  <si>
+    <t>*maa://20892 (76.47)</t>
+  </si>
+  <si>
+    <t>maa://20932 (96.69), maa://40838 (100.0)</t>
+  </si>
+  <si>
+    <t>*maa://20965 (68.0)</t>
+  </si>
+  <si>
+    <t>maa://28900 (96.55), maa://30126 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://27970 (98.11)</t>
+  </si>
+  <si>
+    <t>*maa://38298 (75.0)</t>
+  </si>
+  <si>
+    <t>maa://28567 (96.97), **maa://20947 (44.12), maa://30525 (100.0), *maa://28188 (75.0), maa://38735 (100.0), maa://30524 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://20976 (97.42), maa://20815 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://28784 (93.71), maa://29088 (91.91), maa://20974 (94.87), maa://31124 (95.73), maa://28950 (90.91), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67)</t>
+  </si>
+  <si>
+    <t>maa://20944 (94.44), maa://35393 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://20943 (99.57)</t>
+  </si>
+  <si>
+    <t>maa://36643 (97.16), maa://36864 (100.0), maa://39140 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://20958 (92.59)</t>
+  </si>
+  <si>
+    <t>maa://24472 (84.67), *maa://35841 (60.0)</t>
+  </si>
+  <si>
+    <t>maa://40157 (100.0)</t>
+  </si>
+  <si>
+    <t>*maa://39240 (57.14)</t>
+  </si>
+  <si>
+    <t>maa://25018 (95.83), maa://25776 (89.83), maa://28361 (96.55), maa://25772 (91.89), *maa://25161 (78.57), maa://32653 (85.71)</t>
+  </si>
+  <si>
+    <t>*maa://20933 (75.56), maa://20822 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://20908 (98.14), *maa://23346 (77.78), maa://35723 (96.67), maa://38822 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://29650 (97.22)</t>
+  </si>
+  <si>
+    <t>*maa://20909 (72.22)</t>
+  </si>
+  <si>
+    <t>maa://37484 (92.86), maa://24611 (87.5)</t>
+  </si>
+  <si>
+    <t>maa://21422 (98.28)</t>
+  </si>
+  <si>
+    <t>maa://23020 (95.45), maa://29023 (100.0), maa://34319 (100.0), *maa://39515 (66.67)</t>
+  </si>
+  <si>
+    <t>**maa://21000 (42.86), *maa://29025 (75.0)</t>
+  </si>
+  <si>
+    <t>*maa://30679 (52.94)</t>
+  </si>
+  <si>
+    <t>maa://28484 (96.72), **maa://23736 (42.19), *maa://31185 (75.0), maa://30306 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://30670 (97.4), maa://31470 (94.44), ***maa://30867 (25.0)</t>
+  </si>
+  <si>
+    <t>maa://20846 (95.0)</t>
+  </si>
+  <si>
+    <t>maa://36641 (98.02), maa://36865 (94.95), maa://37300 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://40158 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://29627 (92.99), maa://29633 (91.91), maa://29659 (82.14), maa://29861 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://40159 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://32418 (99.7)</t>
+  </si>
+  <si>
+    <t>*maa://37690 (75.0)</t>
+  </si>
+  <si>
+    <t>maa://20969 (85.19)</t>
+  </si>
+  <si>
+    <t>maa://34866 (83.33), maa://34714 (94.74)</t>
+  </si>
+  <si>
+    <t>**maa://38297 (40.0), maa://39156 (100.0), maa://39550 (100.0)</t>
+  </si>
+  <si>
+    <t>*maa://27823 (79.17), *maa://28190 (55.17), maa://22894 (89.29), *maa://20906 (72.22), **maa://20907 (33.33)</t>
+  </si>
+  <si>
+    <t>maa://28133 (89.19), *maa://28277 (78.26), maa://25369 (92.31), ***maa://39217 (28.57), *maa://33132 (66.67)</t>
+  </si>
+  <si>
+    <t>maa://20956 (94.74), *maa://20830 (77.78)</t>
+  </si>
+  <si>
+    <t>*maa://20955 (76.92)</t>
+  </si>
+  <si>
+    <t>maa://39238 (98.36)</t>
+  </si>
+  <si>
+    <t>maa://39694 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://20987 (90.91), *maa://35801 (75.0)</t>
+  </si>
+  <si>
+    <t>maa://30714 (96.97), maa://30675 (100.0)</t>
+  </si>
+  <si>
+    <t>*maa://30667 (75.4), maa://30666 (82.51), *maa://26836 (74.81), **maa://30739 (45.71), *maa://34428 (66.67), **maa://30723 (48.98), maa://37607 (90.43), maa://39588 (82.35), maa://37850 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://40160 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://28923 (92.25), maa://28906 (96.43), ***maa://28825 (12.5)</t>
+  </si>
+  <si>
+    <t>maa://24093 (100.0), maa://31559 (91.67), maa://20924 (93.75)</t>
+  </si>
+  <si>
+    <t>maa://20879 (83.33), maa://20834 (100.0)</t>
+  </si>
+  <si>
+    <t>**maa://20883 (50.0)</t>
+  </si>
+  <si>
+    <t>maa://29027 (97.06)</t>
+  </si>
+  <si>
+    <t>maa://25769 (96.33)</t>
+  </si>
+  <si>
+    <t>*maa://38296 (80.0)</t>
+  </si>
+  <si>
+    <t>maa://20899 (91.18)</t>
+  </si>
+  <si>
+    <t>maa://30710 (96.59), maa://36845 (94.2), maa://31558 (96.0), ***maa://39217 (28.57), maa://30668 (83.33)</t>
+  </si>
+  <si>
+    <t>maa://25774 (100.0), maa://28133 (89.19), maa://22469 (92.68), ***maa://39217 (28.57), **maa://31349 (50.0)</t>
+  </si>
+  <si>
+    <t>maa://32414 (98.34), maa://32505 (100.0), maa://39155 (93.33)</t>
+  </si>
+  <si>
+    <t>maa://36642 (100.0), maa://36867 (100.0), maa://39155 (93.33)</t>
+  </si>
+  <si>
+    <t>maa://29005 (97.67), *maa://31560 (80.0)</t>
+  </si>
+  <si>
+    <t>maa://35859 (95.74)</t>
+  </si>
+  <si>
+    <t>maa://40161 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://25367 (98.9)</t>
+  </si>
+  <si>
+    <t>maa://39692 (98.97), *maa://39810 (75.0)</t>
+  </si>
+  <si>
+    <t>maa://40162 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://30671 (80.33), maa://30669 (98.15), maa://37275 (81.82), *maa://32410 (63.64), maa://33671 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://38295 (96.77)</t>
+  </si>
+  <si>
+    <t>maa://32647 (96.97), maa://32415 (96.19), maa://34677 (100.0), maa://32892 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://34865 (95.97), maa://34717 (94.23)</t>
+  </si>
+  <si>
+    <t>maa://36868 (100.0), maa://35996 (94.29), ***maa://39217 (28.57)</t>
+  </si>
+  <si>
+    <t>maa://36646 (97.83), maa://36845 (94.2), ***maa://39217 (28.57)</t>
+  </si>
+  <si>
+    <t>maa://36645 (98.09), maa://36841 (93.02), maa://37484 (92.86), maa://37858 (90.48)</t>
+  </si>
+  <si>
+    <t>maa://40164 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://40165 (100.0)</t>
+  </si>
+  <si>
+    <t>更新日期：2024.08.31</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3665,7 +3692,7 @@
         <v>36</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -3696,10 +3723,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1024</v>
+        <v>986</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -3730,10 +3757,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -3764,10 +3791,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>246</v>
@@ -3803,7 +3830,7 @@
         <v>400</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -3837,7 +3864,7 @@
         <v>401</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -3871,10 +3898,10 @@
         <v>402</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>1070</v>
+        <v>1079</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -3906,7 +3933,7 @@
         <v>403</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -3936,10 +3963,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -3972,7 +3999,7 @@
         <v>404</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="F10" s="2"/>
       <c r="H10" s="1"/>
@@ -4004,7 +4031,7 @@
         <v>405</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="F11" s="2"/>
       <c r="H11" s="1"/>
@@ -4033,10 +4060,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="F12" s="2"/>
       <c r="H12" s="1"/>
@@ -4065,10 +4092,10 @@
         <v>1</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="F13" s="2"/>
       <c r="H13" s="1"/>
@@ -4097,10 +4124,10 @@
         <v>2</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>530</v>
+        <v>997</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="F14" s="2"/>
       <c r="H14" s="1"/>
@@ -4132,7 +4159,7 @@
         <v>406</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F15" s="2"/>
       <c r="H15" s="1"/>
@@ -4164,7 +4191,7 @@
         <v>407</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="F16" s="2"/>
       <c r="H16" s="1"/>
@@ -4196,7 +4223,7 @@
         <v>408</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="F17" s="2"/>
       <c r="H17" s="1"/>
@@ -4225,10 +4252,10 @@
         <v>2</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="F18" s="2"/>
       <c r="H18" s="1"/>
@@ -4260,7 +4287,7 @@
         <v>409</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F19" s="2"/>
       <c r="H19" s="1"/>
@@ -4289,10 +4316,10 @@
         <v>2</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="F20" s="2"/>
       <c r="H20" s="1"/>
@@ -4321,10 +4348,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F21" s="2"/>
       <c r="H21" s="1"/>
@@ -4356,7 +4383,7 @@
         <v>410</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="F22" s="2"/>
       <c r="H22" s="1"/>
@@ -4388,7 +4415,7 @@
         <v>411</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F23" s="2"/>
       <c r="H23" s="1"/>
@@ -4420,7 +4447,7 @@
         <v>35</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="F24" s="2"/>
       <c r="H24" s="1"/>
@@ -4449,10 +4476,10 @@
         <v>4</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>1025</v>
+        <v>998</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="F25" s="2"/>
       <c r="H25" s="1"/>
@@ -4484,7 +4511,7 @@
         <v>412</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="F26" s="2"/>
       <c r="H26" s="1"/>
@@ -4513,10 +4540,10 @@
         <v>3</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>1026</v>
+        <v>999</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="F27" s="2"/>
       <c r="H27" s="1"/>
@@ -4548,7 +4575,7 @@
         <v>413</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="F28" s="2"/>
       <c r="H28" s="1"/>
@@ -4577,10 +4604,10 @@
         <v>1</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>1027</v>
+        <v>987</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F29" s="2"/>
       <c r="H29" s="1"/>
@@ -4609,10 +4636,10 @@
         <v>2</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>1028</v>
+        <v>1000</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.2">
@@ -4626,10 +4653,10 @@
         <v>2</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>939</v>
+        <v>1001</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.2">
@@ -4643,10 +4670,10 @@
         <v>1</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>940</v>
+        <v>1002</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -4663,7 +4690,7 @@
         <v>414</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -4680,7 +4707,7 @@
         <v>415</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -4694,10 +4721,10 @@
         <v>3</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>1029</v>
+        <v>1003</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -4714,7 +4741,7 @@
         <v>416</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -4731,7 +4758,7 @@
         <v>417</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4748,7 +4775,7 @@
         <v>418</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4762,10 +4789,10 @@
         <v>1</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>1030</v>
+        <v>1004</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4779,10 +4806,10 @@
         <v>4</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4796,10 +4823,10 @@
         <v>1</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4816,7 +4843,7 @@
         <v>419</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4833,7 +4860,7 @@
         <v>420</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -4847,10 +4874,10 @@
         <v>1</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -4867,7 +4894,7 @@
         <v>421</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -4881,10 +4908,10 @@
         <v>1</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -4898,10 +4925,10 @@
         <v>2</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -4918,7 +4945,7 @@
         <v>422</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -4935,7 +4962,7 @@
         <v>423</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -4949,10 +4976,10 @@
         <v>2</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -4969,7 +4996,7 @@
         <v>424</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -4980,13 +5007,13 @@
         <v>356</v>
       </c>
       <c r="C52" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>942</v>
+        <v>1005</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -5000,10 +5027,10 @@
         <v>1</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>1031</v>
+        <v>1006</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -5017,10 +5044,10 @@
         <v>2</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>1032</v>
+        <v>1007</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -5034,10 +5061,10 @@
         <v>1</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>943</v>
+        <v>1008</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -5045,16 +5072,16 @@
         <v>136</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C56" s="1">
         <v>1</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>944</v>
+        <v>1009</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -5068,10 +5095,10 @@
         <v>5</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>945</v>
+        <v>934</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -5085,10 +5112,10 @@
         <v>1</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>946</v>
+        <v>935</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -5102,10 +5129,10 @@
         <v>2</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>947</v>
+        <v>936</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -5119,10 +5146,10 @@
         <v>3</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>948</v>
+        <v>937</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -5136,10 +5163,10 @@
         <v>6</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>949</v>
+        <v>1010</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -5156,7 +5183,7 @@
         <v>425</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -5170,10 +5197,10 @@
         <v>1</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>950</v>
+        <v>938</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>1017</v>
+        <v>979</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -5187,10 +5214,10 @@
         <v>2</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>951</v>
+        <v>1011</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -5204,10 +5231,10 @@
         <v>8</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>1033</v>
+        <v>1012</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -5221,10 +5248,10 @@
         <v>2</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>547</v>
+        <v>1013</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -5238,10 +5265,10 @@
         <v>1</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>952</v>
+        <v>1014</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -5255,10 +5282,10 @@
         <v>3</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>1034</v>
+        <v>1015</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -5272,10 +5299,10 @@
         <v>1</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -5289,10 +5316,10 @@
         <v>1</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -5309,7 +5336,7 @@
         <v>426</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -5326,7 +5353,7 @@
         <v>427</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -5340,10 +5367,10 @@
         <v>1</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>953</v>
+        <v>1016</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -5360,7 +5387,7 @@
         <v>428</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -5377,7 +5404,7 @@
         <v>429</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -5394,7 +5421,7 @@
         <v>430</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -5408,10 +5435,10 @@
         <v>4</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -5428,7 +5455,7 @@
         <v>431</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -5445,7 +5472,7 @@
         <v>432</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -5462,7 +5489,7 @@
         <v>433</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -5479,7 +5506,7 @@
         <v>434</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -5496,7 +5523,7 @@
         <v>435</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -5510,10 +5537,10 @@
         <v>2</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>954</v>
+        <v>939</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -5527,10 +5554,10 @@
         <v>2</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>1035</v>
+        <v>1017</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -5544,10 +5571,10 @@
         <v>2</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>1036</v>
+        <v>988</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -5561,10 +5588,10 @@
         <v>1</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -5581,7 +5608,7 @@
         <v>436</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -5598,24 +5625,24 @@
         <v>437</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="C89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>35</v>
+        <v>1018</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -5629,10 +5656,10 @@
         <v>1</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -5646,10 +5673,10 @@
         <v>1</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -5666,7 +5693,7 @@
         <v>438</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -5683,7 +5710,7 @@
         <v>439</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -5700,7 +5727,7 @@
         <v>440</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -5717,7 +5744,7 @@
         <v>526</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -5731,10 +5758,10 @@
         <v>1</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>955</v>
+        <v>940</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -5748,10 +5775,10 @@
         <v>1</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>956</v>
+        <v>1019</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -5765,10 +5792,10 @@
         <v>3</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>957</v>
+        <v>941</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -5785,7 +5812,7 @@
         <v>441</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -5799,10 +5826,10 @@
         <v>1</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -5816,10 +5843,10 @@
         <v>2</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -5836,7 +5863,7 @@
         <v>442</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -5850,10 +5877,10 @@
         <v>6</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>1037</v>
+        <v>1020</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -5870,7 +5897,7 @@
         <v>443</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -5887,7 +5914,7 @@
         <v>444</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -5901,10 +5928,10 @@
         <v>1</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>1038</v>
+        <v>989</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -5918,10 +5945,10 @@
         <v>2</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>958</v>
+        <v>1021</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -5935,10 +5962,10 @@
         <v>1</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>959</v>
+        <v>942</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -5955,7 +5982,7 @@
         <v>445</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -5969,10 +5996,10 @@
         <v>4</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>960</v>
+        <v>1022</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -5986,10 +6013,10 @@
         <v>2</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -6006,7 +6033,7 @@
         <v>527</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -6020,10 +6047,10 @@
         <v>1</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>961</v>
+        <v>943</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -6040,7 +6067,7 @@
         <v>528</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -6057,7 +6084,7 @@
         <v>446</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -6074,7 +6101,7 @@
         <v>447</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -6088,10 +6115,10 @@
         <v>1</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>962</v>
+        <v>1023</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -6108,7 +6135,7 @@
         <v>448</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -6122,10 +6149,10 @@
         <v>1</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>963</v>
+        <v>1024</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -6142,7 +6169,7 @@
         <v>449</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -6156,10 +6183,10 @@
         <v>3</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -6173,10 +6200,10 @@
         <v>2</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>964</v>
+        <v>1025</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -6193,7 +6220,7 @@
         <v>450</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -6207,10 +6234,10 @@
         <v>1</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>1039</v>
+        <v>1026</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -6227,7 +6254,7 @@
         <v>451</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -6241,10 +6268,10 @@
         <v>4</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>965</v>
+        <v>944</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -6258,10 +6285,10 @@
         <v>4</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>1040</v>
+        <v>1027</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -6275,10 +6302,10 @@
         <v>1</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -6295,7 +6322,7 @@
         <v>452</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -6312,7 +6339,7 @@
         <v>453</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -6329,7 +6356,7 @@
         <v>454</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -6343,10 +6370,10 @@
         <v>2</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>966</v>
+        <v>1028</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -6360,10 +6387,10 @@
         <v>1</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>967</v>
+        <v>1029</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -6380,7 +6407,7 @@
         <v>455</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -6394,10 +6421,10 @@
         <v>1</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -6411,10 +6438,10 @@
         <v>4</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>1041</v>
+        <v>1030</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -6428,10 +6455,10 @@
         <v>3</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>1042</v>
+        <v>1031</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -6448,7 +6475,7 @@
         <v>456</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
@@ -6462,10 +6489,10 @@
         <v>1</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
@@ -6482,7 +6509,7 @@
         <v>457</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -6496,10 +6523,10 @@
         <v>2</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
@@ -6513,10 +6540,10 @@
         <v>1</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>968</v>
+        <v>1032</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
@@ -6530,10 +6557,10 @@
         <v>3</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>1043</v>
+        <v>1033</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
@@ -6550,7 +6577,7 @@
         <v>458</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
@@ -6567,7 +6594,7 @@
         <v>459</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
@@ -6581,10 +6608,10 @@
         <v>1</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
@@ -6601,7 +6628,7 @@
         <v>460</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
@@ -6615,10 +6642,10 @@
         <v>1</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
@@ -6632,10 +6659,10 @@
         <v>1</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
@@ -6649,10 +6676,10 @@
         <v>1</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>969</v>
+        <v>945</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
@@ -6669,7 +6696,7 @@
         <v>461</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
@@ -6686,7 +6713,7 @@
         <v>462</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
@@ -6703,24 +6730,24 @@
         <v>518</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="C154" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>35</v>
+        <v>1034</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
@@ -6734,10 +6761,10 @@
         <v>2</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
@@ -6754,7 +6781,7 @@
         <v>463</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
@@ -6768,10 +6795,10 @@
         <v>1</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
@@ -6785,10 +6812,10 @@
         <v>2</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
@@ -6802,10 +6829,10 @@
         <v>4</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>1044</v>
+        <v>1035</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
@@ -6822,24 +6849,24 @@
         <v>464</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>341</v>
       </c>
       <c r="C161" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>35</v>
+        <v>1036</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
@@ -6853,10 +6880,10 @@
         <v>1</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
@@ -6870,10 +6897,10 @@
         <v>1</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
@@ -6887,10 +6914,10 @@
         <v>1</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>1045</v>
+        <v>1037</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
@@ -6904,10 +6931,10 @@
         <v>1</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>572</v>
+        <v>1038</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
@@ -6921,10 +6948,10 @@
         <v>1</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>970</v>
+        <v>946</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
@@ -6941,7 +6968,7 @@
         <v>465</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
@@ -6955,10 +6982,10 @@
         <v>2</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
@@ -6975,7 +7002,7 @@
         <v>466</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
@@ -6992,7 +7019,7 @@
         <v>467</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
@@ -7009,7 +7036,7 @@
         <v>529</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
@@ -7026,7 +7053,7 @@
         <v>468</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
@@ -7043,7 +7070,7 @@
         <v>469</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
@@ -7060,7 +7087,7 @@
         <v>470</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
@@ -7074,10 +7101,10 @@
         <v>1</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>873</v>
+        <v>1039</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
@@ -7094,7 +7121,7 @@
         <v>471</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
@@ -7111,7 +7138,7 @@
         <v>472</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
@@ -7125,10 +7152,10 @@
         <v>1</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
@@ -7142,10 +7169,10 @@
         <v>2</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>971</v>
+        <v>1040</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
@@ -7159,10 +7186,10 @@
         <v>2</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
@@ -7179,7 +7206,7 @@
         <v>473</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
@@ -7196,7 +7223,7 @@
         <v>474</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
@@ -7213,7 +7240,7 @@
         <v>475</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
@@ -7227,10 +7254,10 @@
         <v>2</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>1046</v>
+        <v>990</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
@@ -7247,7 +7274,7 @@
         <v>476</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
@@ -7261,10 +7288,10 @@
         <v>3</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>1047</v>
+        <v>991</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
@@ -7272,16 +7299,16 @@
         <v>227</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C187" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>972</v>
+        <v>1041</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
@@ -7295,10 +7322,10 @@
         <v>5</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
@@ -7312,10 +7339,10 @@
         <v>5</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
@@ -7329,10 +7356,10 @@
         <v>1</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
@@ -7349,7 +7376,7 @@
         <v>477</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
@@ -7366,7 +7393,7 @@
         <v>478</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
@@ -7383,7 +7410,7 @@
         <v>479</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
@@ -7400,7 +7427,7 @@
         <v>480</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
@@ -7417,7 +7444,7 @@
         <v>481</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
@@ -7434,7 +7461,7 @@
         <v>482</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
@@ -7448,10 +7475,10 @@
         <v>5</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>973</v>
+        <v>1043</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
@@ -7465,10 +7492,10 @@
         <v>2</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
@@ -7482,15 +7509,15 @@
         <v>1</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>396</v>
@@ -7499,10 +7526,10 @@
         <v>1</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>875</v>
+        <v>1046</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
@@ -7516,24 +7543,27 @@
         <v>1</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>974</v>
+        <v>947</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>975</v>
+        <v>948</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>305</v>
       </c>
       <c r="C202" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D202" s="5" t="s">
+        <v>1047</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>1018</v>
+        <v>980</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
@@ -7550,7 +7580,7 @@
         <v>483</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
@@ -7564,10 +7594,10 @@
         <v>1</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
@@ -7581,10 +7611,10 @@
         <v>1</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>976</v>
+        <v>949</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
@@ -7598,10 +7628,10 @@
         <v>2</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>977</v>
+        <v>950</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
@@ -7618,24 +7648,24 @@
         <v>484</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>978</v>
+        <v>951</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>979</v>
+        <v>952</v>
       </c>
       <c r="C208" s="1">
         <v>1</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>1051</v>
+        <v>992</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>1019</v>
+        <v>981</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
@@ -7649,10 +7679,10 @@
         <v>1</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
@@ -7666,10 +7696,10 @@
         <v>1</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
@@ -7683,10 +7713,10 @@
         <v>2</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>980</v>
+        <v>953</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
@@ -7703,7 +7733,7 @@
         <v>485</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
@@ -7717,10 +7747,10 @@
         <v>2</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>981</v>
+        <v>1048</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
@@ -7734,10 +7764,10 @@
         <v>1</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>1052</v>
+        <v>993</v>
       </c>
       <c r="E214" s="4" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
@@ -7751,10 +7781,10 @@
         <v>2</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>982</v>
+        <v>954</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
@@ -7771,7 +7801,7 @@
         <v>486</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
@@ -7785,10 +7815,10 @@
         <v>3</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>983</v>
+        <v>955</v>
       </c>
       <c r="E217" s="4" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
@@ -7802,10 +7832,10 @@
         <v>1</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="E218" s="4" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
@@ -7819,10 +7849,10 @@
         <v>1</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>984</v>
+        <v>956</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
@@ -7839,7 +7869,7 @@
         <v>487</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
@@ -7853,10 +7883,10 @@
         <v>1</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>985</v>
+        <v>957</v>
       </c>
       <c r="E221" s="4" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
@@ -7870,10 +7900,10 @@
         <v>2</v>
       </c>
       <c r="D222" s="5" t="s">
-        <v>986</v>
+        <v>1049</v>
       </c>
       <c r="E222" s="4" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
@@ -7887,10 +7917,10 @@
         <v>4</v>
       </c>
       <c r="D223" s="5" t="s">
-        <v>1053</v>
+        <v>994</v>
       </c>
       <c r="E223" s="4" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
@@ -7907,7 +7937,7 @@
         <v>488</v>
       </c>
       <c r="E224" s="4" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
@@ -7921,10 +7951,10 @@
         <v>9</v>
       </c>
       <c r="D225" s="5" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
@@ -7941,7 +7971,7 @@
         <v>489</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
@@ -7958,7 +7988,7 @@
         <v>490</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
@@ -7975,7 +8005,7 @@
         <v>491</v>
       </c>
       <c r="E228" s="4" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
@@ -7989,27 +8019,27 @@
         <v>3</v>
       </c>
       <c r="D229" s="5" t="s">
-        <v>987</v>
+        <v>958</v>
       </c>
       <c r="E229" s="4" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>988</v>
+        <v>959</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>989</v>
+        <v>960</v>
       </c>
       <c r="C230" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D230" s="5" t="s">
-        <v>35</v>
+        <v>1051</v>
       </c>
       <c r="E230" s="4" t="s">
-        <v>1020</v>
+        <v>982</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
@@ -8023,10 +8053,10 @@
         <v>1</v>
       </c>
       <c r="D231" s="5" t="s">
-        <v>990</v>
+        <v>961</v>
       </c>
       <c r="E231" s="4" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
@@ -8040,10 +8070,10 @@
         <v>3</v>
       </c>
       <c r="D232" s="5" t="s">
-        <v>991</v>
+        <v>1052</v>
       </c>
       <c r="E232" s="4" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
@@ -8057,10 +8087,10 @@
         <v>1</v>
       </c>
       <c r="D233" s="5" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="E233" s="4" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
@@ -8074,10 +8104,10 @@
         <v>1</v>
       </c>
       <c r="D234" s="5" t="s">
-        <v>992</v>
+        <v>962</v>
       </c>
       <c r="E234" s="4" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
@@ -8091,10 +8121,10 @@
         <v>3</v>
       </c>
       <c r="D235" s="5" t="s">
-        <v>993</v>
+        <v>1053</v>
       </c>
       <c r="E235" s="4" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
@@ -8111,7 +8141,7 @@
         <v>492</v>
       </c>
       <c r="E236" s="4" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
@@ -8125,10 +8155,10 @@
         <v>2</v>
       </c>
       <c r="D237" s="5" t="s">
-        <v>994</v>
+        <v>963</v>
       </c>
       <c r="E237" s="4" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
@@ -8142,10 +8172,10 @@
         <v>2</v>
       </c>
       <c r="D238" s="5" t="s">
-        <v>995</v>
+        <v>1054</v>
       </c>
       <c r="E238" s="4" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
@@ -8162,7 +8192,7 @@
         <v>493</v>
       </c>
       <c r="E239" s="4" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
@@ -8179,7 +8209,7 @@
         <v>494</v>
       </c>
       <c r="E240" s="4" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
@@ -8193,10 +8223,10 @@
         <v>2</v>
       </c>
       <c r="D241" s="5" t="s">
-        <v>996</v>
+        <v>964</v>
       </c>
       <c r="E241" s="4" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
@@ -8210,10 +8240,10 @@
         <v>1</v>
       </c>
       <c r="D242" s="5" t="s">
-        <v>997</v>
+        <v>1055</v>
       </c>
       <c r="E242" s="4" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
@@ -8227,10 +8257,10 @@
         <v>1</v>
       </c>
       <c r="D243" s="5" t="s">
-        <v>998</v>
+        <v>1056</v>
       </c>
       <c r="E243" s="4" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
@@ -8247,7 +8277,7 @@
         <v>495</v>
       </c>
       <c r="E244" s="4" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
@@ -8261,10 +8291,10 @@
         <v>1</v>
       </c>
       <c r="D245" s="5" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="E245" s="4" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
@@ -8278,10 +8308,10 @@
         <v>1</v>
       </c>
       <c r="D246" s="5" t="s">
-        <v>999</v>
+        <v>965</v>
       </c>
       <c r="E246" s="4" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
@@ -8295,10 +8325,10 @@
         <v>1</v>
       </c>
       <c r="D247" s="5" t="s">
-        <v>1000</v>
+        <v>966</v>
       </c>
       <c r="E247" s="4" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
@@ -8312,10 +8342,10 @@
         <v>4</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>1055</v>
+        <v>995</v>
       </c>
       <c r="E248" s="4" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
@@ -8329,10 +8359,10 @@
         <v>1</v>
       </c>
       <c r="D249" s="5" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="E249" s="4" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
@@ -8346,10 +8376,10 @@
         <v>1</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="E250" s="4" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
@@ -8363,10 +8393,10 @@
         <v>1</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="E251" s="4" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
@@ -8383,7 +8413,7 @@
         <v>496</v>
       </c>
       <c r="E252" s="4" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
@@ -8397,10 +8427,10 @@
         <v>1</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>1001</v>
+        <v>967</v>
       </c>
       <c r="E253" s="4" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
@@ -8414,10 +8444,10 @@
         <v>1</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="E254" s="4" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
@@ -8431,10 +8461,10 @@
         <v>2</v>
       </c>
       <c r="D255" s="5" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="E255" s="4" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
@@ -8451,7 +8481,7 @@
         <v>497</v>
       </c>
       <c r="E256" s="4" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
@@ -8468,7 +8498,7 @@
         <v>498</v>
       </c>
       <c r="E257" s="4" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
@@ -8482,10 +8512,10 @@
         <v>2</v>
       </c>
       <c r="D258" s="5" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="E258" s="4" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
@@ -8502,7 +8532,7 @@
         <v>499</v>
       </c>
       <c r="E259" s="4" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
@@ -8510,16 +8540,16 @@
         <v>94</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C260" s="1">
         <v>1</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>553</v>
+        <v>1058</v>
       </c>
       <c r="E260" s="4" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
@@ -8533,10 +8563,10 @@
         <v>1</v>
       </c>
       <c r="D261" s="5" t="s">
-        <v>1002</v>
+        <v>1059</v>
       </c>
       <c r="E261" s="4" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
@@ -8553,7 +8583,7 @@
         <v>500</v>
       </c>
       <c r="E262" s="4" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
@@ -8567,10 +8597,10 @@
         <v>5</v>
       </c>
       <c r="D263" s="5" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="E263" s="4" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
@@ -8587,7 +8617,7 @@
         <v>501</v>
       </c>
       <c r="E264" s="4" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
@@ -8604,7 +8634,7 @@
         <v>502</v>
       </c>
       <c r="E265" s="4" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
@@ -8618,10 +8648,10 @@
         <v>5</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>1003</v>
+        <v>1061</v>
       </c>
       <c r="E266" s="4" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
@@ -8635,10 +8665,10 @@
         <v>3</v>
       </c>
       <c r="D267" s="5" t="s">
-        <v>1058</v>
+        <v>1062</v>
       </c>
       <c r="E267" s="4" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
@@ -8652,10 +8682,10 @@
         <v>3</v>
       </c>
       <c r="D268" s="5" t="s">
-        <v>1059</v>
+        <v>1063</v>
       </c>
       <c r="E268" s="4" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
@@ -8669,10 +8699,10 @@
         <v>2</v>
       </c>
       <c r="D269" s="5" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="E269" s="4" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
@@ -8686,10 +8716,10 @@
         <v>2</v>
       </c>
       <c r="D270" s="5" t="s">
-        <v>1004</v>
+        <v>1064</v>
       </c>
       <c r="E270" s="4" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
@@ -8703,10 +8733,10 @@
         <v>1</v>
       </c>
       <c r="D271" s="5" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="E271" s="4" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
@@ -8720,10 +8750,10 @@
         <v>1</v>
       </c>
       <c r="D272" s="5" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="E272" s="4" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
@@ -8737,10 +8767,10 @@
         <v>1</v>
       </c>
       <c r="D273" s="5" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="E273" s="4" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
@@ -8754,10 +8784,10 @@
         <v>1</v>
       </c>
       <c r="D274" s="5" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="E274" s="4" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
@@ -8774,7 +8804,7 @@
         <v>503</v>
       </c>
       <c r="E275" s="4" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
@@ -8791,7 +8821,7 @@
         <v>504</v>
       </c>
       <c r="E276" s="4" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
@@ -8805,10 +8835,10 @@
         <v>1</v>
       </c>
       <c r="D277" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E277" s="4" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
@@ -8822,10 +8852,10 @@
         <v>1</v>
       </c>
       <c r="D278" s="5" t="s">
-        <v>1060</v>
+        <v>1065</v>
       </c>
       <c r="E278" s="4" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
@@ -8839,10 +8869,10 @@
         <v>1</v>
       </c>
       <c r="D279" s="5" t="s">
-        <v>1005</v>
+        <v>968</v>
       </c>
       <c r="E279" s="4" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
@@ -8856,10 +8886,10 @@
         <v>1</v>
       </c>
       <c r="D280" s="5" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="E280" s="4" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
@@ -8873,10 +8903,10 @@
         <v>2</v>
       </c>
       <c r="D281" s="5" t="s">
-        <v>1006</v>
+        <v>969</v>
       </c>
       <c r="E281" s="4" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
@@ -8887,13 +8917,13 @@
         <v>294</v>
       </c>
       <c r="C282" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D282" s="5" t="s">
-        <v>35</v>
+        <v>1066</v>
       </c>
       <c r="E282" s="4" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
@@ -8907,10 +8937,10 @@
         <v>1</v>
       </c>
       <c r="D283" s="5" t="s">
-        <v>1061</v>
+        <v>1067</v>
       </c>
       <c r="E283" s="4" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
@@ -8924,10 +8954,10 @@
         <v>1</v>
       </c>
       <c r="D284" s="5" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="E284" s="4" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
@@ -8941,10 +8971,10 @@
         <v>2</v>
       </c>
       <c r="D285" s="5" t="s">
-        <v>1007</v>
+        <v>970</v>
       </c>
       <c r="E285" s="4" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
@@ -8961,7 +8991,7 @@
         <v>505</v>
       </c>
       <c r="E286" s="4" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
@@ -8969,50 +8999,50 @@
         <v>4</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="C287" s="1">
         <v>1</v>
       </c>
       <c r="D287" s="5" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="E287" s="4" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
-        <v>1008</v>
+        <v>971</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>1009</v>
+        <v>972</v>
       </c>
       <c r="C288" s="1">
         <v>2</v>
       </c>
       <c r="D288" s="5" t="s">
-        <v>1062</v>
+        <v>1068</v>
       </c>
       <c r="E288" s="4" t="s">
-        <v>1021</v>
+        <v>983</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C289" s="1">
         <v>1</v>
       </c>
       <c r="D289" s="5" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="E289" s="4" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
@@ -9026,10 +9056,10 @@
         <v>1</v>
       </c>
       <c r="D290" s="5" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="E290" s="4" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
@@ -9046,7 +9076,7 @@
         <v>506</v>
       </c>
       <c r="E291" s="4" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
@@ -9060,10 +9090,10 @@
         <v>1</v>
       </c>
       <c r="D292" s="5" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="E292" s="4" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
@@ -9077,10 +9107,10 @@
         <v>1</v>
       </c>
       <c r="D293" s="5" t="s">
-        <v>1010</v>
+        <v>973</v>
       </c>
       <c r="E293" s="4" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
@@ -9097,7 +9127,7 @@
         <v>507</v>
       </c>
       <c r="E294" s="4" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
@@ -9111,10 +9141,10 @@
         <v>1</v>
       </c>
       <c r="D295" s="5" t="s">
-        <v>1011</v>
+        <v>974</v>
       </c>
       <c r="E295" s="4" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
@@ -9128,27 +9158,27 @@
         <v>1</v>
       </c>
       <c r="D296" s="5" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="E296" s="4" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
-        <v>1012</v>
+        <v>975</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>396</v>
       </c>
       <c r="C297" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D297" s="5" t="s">
-        <v>35</v>
+        <v>1069</v>
       </c>
       <c r="E297" s="4" t="s">
-        <v>1022</v>
+        <v>984</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
@@ -9162,10 +9192,10 @@
         <v>1</v>
       </c>
       <c r="D298" s="5" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="E298" s="4" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
@@ -9179,27 +9209,27 @@
         <v>5</v>
       </c>
       <c r="D299" s="5" t="s">
-        <v>1063</v>
+        <v>1070</v>
       </c>
       <c r="E299" s="4" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C300" s="1">
         <v>1</v>
       </c>
       <c r="D300" s="5" t="s">
-        <v>1064</v>
+        <v>1071</v>
       </c>
       <c r="E300" s="4" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
@@ -9216,7 +9246,7 @@
         <v>508</v>
       </c>
       <c r="E301" s="4" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
@@ -9233,7 +9263,7 @@
         <v>509</v>
       </c>
       <c r="E302" s="4" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
@@ -9247,10 +9277,10 @@
         <v>1</v>
       </c>
       <c r="D303" s="5" t="s">
-        <v>1065</v>
+        <v>996</v>
       </c>
       <c r="E303" s="4" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
@@ -9264,10 +9294,10 @@
         <v>4</v>
       </c>
       <c r="D304" s="5" t="s">
-        <v>1066</v>
+        <v>1072</v>
       </c>
       <c r="E304" s="4" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
@@ -9284,7 +9314,7 @@
         <v>510</v>
       </c>
       <c r="E305" s="4" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
@@ -9298,10 +9328,10 @@
         <v>1</v>
       </c>
       <c r="D306" s="5" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E306" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
@@ -9315,10 +9345,10 @@
         <v>1</v>
       </c>
       <c r="D307" s="5" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="E307" s="4" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
@@ -9332,10 +9362,10 @@
         <v>1</v>
       </c>
       <c r="D308" s="5" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="E308" s="4" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
@@ -9349,10 +9379,10 @@
         <v>2</v>
       </c>
       <c r="D309" s="5" t="s">
-        <v>1067</v>
+        <v>1073</v>
       </c>
       <c r="E309" s="4" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
@@ -9366,10 +9396,10 @@
         <v>1</v>
       </c>
       <c r="D310" s="5" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="E310" s="4" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
@@ -9383,10 +9413,10 @@
         <v>1</v>
       </c>
       <c r="D311" s="5" t="s">
-        <v>1013</v>
+        <v>976</v>
       </c>
       <c r="E311" s="4" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
@@ -9400,10 +9430,10 @@
         <v>3</v>
       </c>
       <c r="D312" s="5" t="s">
-        <v>1014</v>
+        <v>1074</v>
       </c>
       <c r="E312" s="4" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
@@ -9417,10 +9447,10 @@
         <v>1</v>
       </c>
       <c r="D313" s="5" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="E313" s="4" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
@@ -9434,10 +9464,10 @@
         <v>3</v>
       </c>
       <c r="D314" s="5" t="s">
-        <v>1068</v>
+        <v>1075</v>
       </c>
       <c r="E314" s="4" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
@@ -9451,15 +9481,15 @@
         <v>4</v>
       </c>
       <c r="D315" s="5" t="s">
-        <v>1069</v>
+        <v>1076</v>
       </c>
       <c r="E315" s="4" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>351</v>
@@ -9471,29 +9501,29 @@
         <v>35</v>
       </c>
       <c r="E316" s="4" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C317" s="1">
         <v>1</v>
       </c>
       <c r="D317" s="5" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="E317" s="4" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>251</v>
@@ -9502,44 +9532,44 @@
         <v>1</v>
       </c>
       <c r="D318" s="5" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="E318" s="4" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>362</v>
       </c>
       <c r="C319" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D319" s="5" t="s">
-        <v>35</v>
+        <v>1077</v>
       </c>
       <c r="E319" s="4" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
-        <v>1015</v>
+        <v>977</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>1016</v>
+        <v>978</v>
       </c>
       <c r="C320" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D320" s="5" t="s">
-        <v>35</v>
+        <v>1078</v>
       </c>
       <c r="E320" s="4" t="s">
-        <v>1023</v>
+        <v>985</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBAD90F-3C14-4F74-89E2-1E97B94068CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3633B1E1-4589-47EA-9028-E6D99198BCFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8280" yWindow="4335" windowWidth="23925" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="1080">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="1102">
   <si>
     <t>缪尔赛思</t>
   </si>
@@ -1239,9 +1239,6 @@
     <t>maa://20925 (100.0)</t>
   </si>
   <si>
-    <t>maa://20850 (92.31)</t>
-  </si>
-  <si>
     <t>maa://20980 (100.0)</t>
   </si>
   <si>
@@ -1257,9 +1254,6 @@
     <t>maa://20848 (100.0)</t>
   </si>
   <si>
-    <t>*maa://20930 (80.0)</t>
-  </si>
-  <si>
     <t>maa://20897 (100.0)</t>
   </si>
   <si>
@@ -1332,9 +1326,6 @@
     <t>maa://28072 (100.0)</t>
   </si>
   <si>
-    <t>maa://20960 (100.0)</t>
-  </si>
-  <si>
     <t>maa://20972 (100.0)</t>
   </si>
   <si>
@@ -1632,18 +1623,9 @@
     <t>*maa://22339 (66.67), maa://20918 (100.0), maa://34883 (100.0), maa://20824 (100.0)</t>
   </si>
   <si>
-    <t>maa://20953 (94.12), maa://31173 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://20843 (100.0), **maa://24483 (50.0)</t>
-  </si>
-  <si>
     <t>maa://20914 (100.0), maa://20829 (100.0), maa://31937 (100.0)</t>
   </si>
   <si>
-    <t>***maa://20901 (10.0), maa://29056 (100.0)</t>
-  </si>
-  <si>
     <t>maa://29054 (100.0), maa://32845 (100.0)</t>
   </si>
   <si>
@@ -1662,9 +1644,6 @@
     <t>*maa://20926 (66.67)</t>
   </si>
   <si>
-    <t>maa://20905 (85.71)</t>
-  </si>
-  <si>
     <t>maa://20911 (90.91), *maa://29012 (66.67)</t>
   </si>
   <si>
@@ -1741,9 +1720,6 @@
   </si>
   <si>
     <t>maa://20975 (90.0), maa://30806 (100.0)</t>
-  </si>
-  <si>
-    <t>*maa://20862 (66.67)</t>
   </si>
   <si>
     <t>maa://28070 (100.0)</t>
@@ -2668,9 +2644,6 @@
     <t>maa://39164 (100.0)</t>
   </si>
   <si>
-    <t>maa://28133 (89.19), maa://33394 (100.0)</t>
-  </si>
-  <si>
     <t>**maa://35860 (38.46), **maa://39165 (50.0)</t>
   </si>
   <si>
@@ -2707,9 +2680,6 @@
     <t>maa://39176 (100.0)</t>
   </si>
   <si>
-    <t>*maa://34205 (75.0)</t>
-  </si>
-  <si>
     <t>maa://34716 (85.71)</t>
   </si>
   <si>
@@ -2833,45 +2803,21 @@
     <t>maa://20865 (83.33), maa://20826 (83.33)</t>
   </si>
   <si>
-    <t>maa://20876 (87.5)</t>
-  </si>
-  <si>
     <t>maa://20954 (92.31)</t>
   </si>
   <si>
-    <t>maa://20841 (100.0), maa://24093 (100.0), maa://31559 (91.67), maa://25777 (100.0), maa://20631 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://20844 (95.65)</t>
-  </si>
-  <si>
-    <t>*maa://20845 (77.27), maa://38727 (100.0)</t>
-  </si>
-  <si>
     <t>maa://28187 (96.67), maa://33504 (100.0), maa://39520 (100.0)</t>
   </si>
   <si>
     <t>maa://39693 (100.0)</t>
   </si>
   <si>
-    <t>maa://20886 (86.67), maa://25136 (90.0)</t>
-  </si>
-  <si>
-    <t>*maa://20893 (75.0)</t>
-  </si>
-  <si>
-    <t>*maa://29094 (63.33), maa://28904 (89.47), **maa://20931 (42.31)</t>
-  </si>
-  <si>
     <t>maa://29037 (96.43)</t>
   </si>
   <si>
     <t>maa://20986 (92.86)</t>
   </si>
   <si>
-    <t>maa://23019 (100.0), maa://20837 (100.0), maa://37113 (100.0), *maa://37666 (75.0)</t>
-  </si>
-  <si>
     <t>**maa://39149 (50.0)</t>
   </si>
   <si>
@@ -2923,15 +2869,6 @@
     <t>maa://30674 (85.71)</t>
   </si>
   <si>
-    <t>maa://20923 (87.5)</t>
-  </si>
-  <si>
-    <t>maa://20877 (98.11), maa://20836 (100.0)</t>
-  </si>
-  <si>
-    <t>*maa://31560 (80.0), maa://20884 (92.31)</t>
-  </si>
-  <si>
     <t>maa://22467 (92.31)</t>
   </si>
   <si>
@@ -2944,12 +2881,6 @@
     <t>**maa://39172 (50.0)</t>
   </si>
   <si>
-    <t>maa://25775 (92.31), maa://25393 (83.33)</t>
-  </si>
-  <si>
-    <t>maa://31559 (91.67), maa://28241 (100.0)</t>
-  </si>
-  <si>
     <t>纯烬艾雅法拉</t>
   </si>
   <si>
@@ -2995,9 +2926,6 @@
     <t>&gt; 战斗中累计召唤非助战衡沙的召唤物20回&gt; 3星通关别传DV-2；必须编入非助战衡沙并上场，其他成员仅可编入4名干员</t>
   </si>
   <si>
-    <t>*maa://20990 (66.67)</t>
-  </si>
-  <si>
     <t>*maa://39024 (66.67)</t>
   </si>
   <si>
@@ -3010,45 +2938,15 @@
     <t>*maa://28190 (55.17), maa://20994 (100.0)</t>
   </si>
   <si>
-    <t>maa://25760 (81.82), *maa://35854 (64.29), *maa://20872 (52.17)</t>
-  </si>
-  <si>
     <t>maa://39695 (100.0)</t>
   </si>
   <si>
-    <t>maa://39159 (90.0)</t>
-  </si>
-  <si>
-    <t>maa://20922 (93.88), *maa://32623 (58.33), *maa://34242 (80.0), maa://34900 (87.5)</t>
-  </si>
-  <si>
     <t>*maa://20825 (69.57), *maa://21445 (76.92), ***maa://20891 (30.0), *maa://35726 (66.67)</t>
   </si>
   <si>
-    <t>maa://32416 (84.38)</t>
-  </si>
-  <si>
     <t>maa://20919 (100.0), **maa://24873 (50.0)</t>
   </si>
   <si>
-    <t>*maa://20849 (60.61), **maa://28758 (50.0), maa://29036 (91.67), maa://30285 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://20863 (86.5), maa://20832 (98.08), maa://20727 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://36644 (88.35), maa://36866 (96.0)</t>
-  </si>
-  <si>
-    <t>maa://30500 (97.96), *maa://27290 (70.59)</t>
-  </si>
-  <si>
-    <t>*maa://20916 (80.0)</t>
-  </si>
-  <si>
-    <t>maa://27376 (83.33), **maa://20838 (50.0), *maa://40163 (66.67)</t>
-  </si>
-  <si>
     <t>*maa://20892 (76.47)</t>
   </si>
   <si>
@@ -3058,33 +2956,9 @@
     <t>*maa://20965 (68.0)</t>
   </si>
   <si>
-    <t>maa://28900 (96.55), maa://30126 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://27970 (98.11)</t>
-  </si>
-  <si>
-    <t>*maa://38298 (75.0)</t>
-  </si>
-  <si>
-    <t>maa://28567 (96.97), **maa://20947 (44.12), maa://30525 (100.0), *maa://28188 (75.0), maa://38735 (100.0), maa://30524 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://20976 (97.42), maa://20815 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://28784 (93.71), maa://29088 (91.91), maa://20974 (94.87), maa://31124 (95.73), maa://28950 (90.91), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67)</t>
-  </si>
-  <si>
     <t>maa://20944 (94.44), maa://35393 (100.0)</t>
   </si>
   <si>
-    <t>maa://20943 (99.57)</t>
-  </si>
-  <si>
-    <t>maa://36643 (97.16), maa://36864 (100.0), maa://39140 (100.0)</t>
-  </si>
-  <si>
     <t>maa://20958 (92.59)</t>
   </si>
   <si>
@@ -3094,120 +2968,48 @@
     <t>maa://40157 (100.0)</t>
   </si>
   <si>
-    <t>*maa://39240 (57.14)</t>
-  </si>
-  <si>
-    <t>maa://25018 (95.83), maa://25776 (89.83), maa://28361 (96.55), maa://25772 (91.89), *maa://25161 (78.57), maa://32653 (85.71)</t>
-  </si>
-  <si>
     <t>*maa://20933 (75.56), maa://20822 (100.0)</t>
   </si>
   <si>
-    <t>maa://20908 (98.14), *maa://23346 (77.78), maa://35723 (96.67), maa://38822 (100.0)</t>
-  </si>
-  <si>
     <t>maa://29650 (97.22)</t>
   </si>
   <si>
     <t>*maa://20909 (72.22)</t>
   </si>
   <si>
-    <t>maa://37484 (92.86), maa://24611 (87.5)</t>
-  </si>
-  <si>
-    <t>maa://21422 (98.28)</t>
-  </si>
-  <si>
-    <t>maa://23020 (95.45), maa://29023 (100.0), maa://34319 (100.0), *maa://39515 (66.67)</t>
-  </si>
-  <si>
     <t>**maa://21000 (42.86), *maa://29025 (75.0)</t>
   </si>
   <si>
-    <t>*maa://30679 (52.94)</t>
-  </si>
-  <si>
-    <t>maa://28484 (96.72), **maa://23736 (42.19), *maa://31185 (75.0), maa://30306 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://30670 (97.4), maa://31470 (94.44), ***maa://30867 (25.0)</t>
-  </si>
-  <si>
     <t>maa://20846 (95.0)</t>
   </si>
   <si>
-    <t>maa://36641 (98.02), maa://36865 (94.95), maa://37300 (100.0)</t>
-  </si>
-  <si>
     <t>maa://40158 (100.0)</t>
   </si>
   <si>
-    <t>maa://29627 (92.99), maa://29633 (91.91), maa://29659 (82.14), maa://29861 (100.0)</t>
-  </si>
-  <si>
     <t>maa://40159 (100.0)</t>
   </si>
   <si>
     <t>maa://32418 (99.7)</t>
   </si>
   <si>
-    <t>*maa://37690 (75.0)</t>
-  </si>
-  <si>
-    <t>maa://20969 (85.19)</t>
-  </si>
-  <si>
-    <t>maa://34866 (83.33), maa://34714 (94.74)</t>
-  </si>
-  <si>
     <t>**maa://38297 (40.0), maa://39156 (100.0), maa://39550 (100.0)</t>
   </si>
   <si>
-    <t>*maa://27823 (79.17), *maa://28190 (55.17), maa://22894 (89.29), *maa://20906 (72.22), **maa://20907 (33.33)</t>
-  </si>
-  <si>
-    <t>maa://28133 (89.19), *maa://28277 (78.26), maa://25369 (92.31), ***maa://39217 (28.57), *maa://33132 (66.67)</t>
-  </si>
-  <si>
-    <t>maa://20956 (94.74), *maa://20830 (77.78)</t>
-  </si>
-  <si>
     <t>*maa://20955 (76.92)</t>
   </si>
   <si>
-    <t>maa://39238 (98.36)</t>
-  </si>
-  <si>
     <t>maa://39694 (100.0)</t>
   </si>
   <si>
-    <t>maa://20987 (90.91), *maa://35801 (75.0)</t>
-  </si>
-  <si>
     <t>maa://30714 (96.97), maa://30675 (100.0)</t>
   </si>
   <si>
-    <t>*maa://30667 (75.4), maa://30666 (82.51), *maa://26836 (74.81), **maa://30739 (45.71), *maa://34428 (66.67), **maa://30723 (48.98), maa://37607 (90.43), maa://39588 (82.35), maa://37850 (100.0)</t>
-  </si>
-  <si>
     <t>maa://40160 (100.0)</t>
   </si>
   <si>
-    <t>maa://28923 (92.25), maa://28906 (96.43), ***maa://28825 (12.5)</t>
-  </si>
-  <si>
-    <t>maa://24093 (100.0), maa://31559 (91.67), maa://20924 (93.75)</t>
-  </si>
-  <si>
     <t>maa://20879 (83.33), maa://20834 (100.0)</t>
   </si>
   <si>
-    <t>**maa://20883 (50.0)</t>
-  </si>
-  <si>
-    <t>maa://29027 (97.06)</t>
-  </si>
-  <si>
     <t>maa://25769 (96.33)</t>
   </si>
   <si>
@@ -3217,65 +3019,329 @@
     <t>maa://20899 (91.18)</t>
   </si>
   <si>
-    <t>maa://30710 (96.59), maa://36845 (94.2), maa://31558 (96.0), ***maa://39217 (28.57), maa://30668 (83.33)</t>
-  </si>
-  <si>
-    <t>maa://25774 (100.0), maa://28133 (89.19), maa://22469 (92.68), ***maa://39217 (28.57), **maa://31349 (50.0)</t>
-  </si>
-  <si>
-    <t>maa://32414 (98.34), maa://32505 (100.0), maa://39155 (93.33)</t>
-  </si>
-  <si>
-    <t>maa://36642 (100.0), maa://36867 (100.0), maa://39155 (93.33)</t>
-  </si>
-  <si>
     <t>maa://29005 (97.67), *maa://31560 (80.0)</t>
   </si>
   <si>
-    <t>maa://35859 (95.74)</t>
-  </si>
-  <si>
     <t>maa://40161 (100.0)</t>
   </si>
   <si>
-    <t>maa://25367 (98.9)</t>
-  </si>
-  <si>
-    <t>maa://39692 (98.97), *maa://39810 (75.0)</t>
-  </si>
-  <si>
     <t>maa://40162 (100.0)</t>
   </si>
   <si>
-    <t>maa://30671 (80.33), maa://30669 (98.15), maa://37275 (81.82), *maa://32410 (63.64), maa://33671 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://38295 (96.77)</t>
-  </si>
-  <si>
-    <t>maa://32647 (96.97), maa://32415 (96.19), maa://34677 (100.0), maa://32892 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://34865 (95.97), maa://34717 (94.23)</t>
-  </si>
-  <si>
-    <t>maa://36868 (100.0), maa://35996 (94.29), ***maa://39217 (28.57)</t>
-  </si>
-  <si>
-    <t>maa://36646 (97.83), maa://36845 (94.2), ***maa://39217 (28.57)</t>
-  </si>
-  <si>
-    <t>maa://36645 (98.09), maa://36841 (93.02), maa://37484 (92.86), maa://37858 (90.48)</t>
-  </si>
-  <si>
     <t>maa://40164 (100.0)</t>
   </si>
   <si>
     <t>maa://40165 (100.0)</t>
   </si>
   <si>
-    <t>更新日期：2024.08.31</t>
+    <t>&gt; 由非助战艾丽妮累计造成100000点伤害&gt; 3星通关插曲SV-EX-1；必须编入非助战艾丽妮并上场，且使用2次判决</t>
+  </si>
+  <si>
+    <t>&gt; 完成3次战斗；必须编入非助战石英并上场，且每次战斗至少释放1次全力相搏&gt; 3星通关别传DH-4；必须编入非助战石英并上场，并使用石英至少击败2名控潮术师</t>
+  </si>
+  <si>
+    <t>&gt; 战斗中非助战铎铃累计使用乡心无改6次&gt; 3星通关主题曲2-1；必须编入非助战铎铃并上场，且使用3次乡心无改</t>
+  </si>
+  <si>
+    <t>&gt; 由非助战赫德雷累计歼灭5个精英或领袖敌人&gt; 3星通关别传IW-7；必须编入非助战赫德雷并上场，并使用赫德雷至少击败2名沉沙</t>
+  </si>
+  <si>
+    <t>&gt; 战斗中非助战乌尔比安累计使用必须开辟的通路10次&gt; 3星通关插曲SV-6；必须编入非助战乌尔比安并上场，并使用乌尔比安至少击败2名囊海爬行者</t>
+  </si>
+  <si>
+    <t>&gt; 战斗中非助战森西累计使用团体魔物大餐6次&gt; 3星通关主题曲1-12；必须编入非助战森西并上场，且所有干员不被击倒</t>
+  </si>
+  <si>
+    <t>&gt; 战斗中非助战齐尔查克累计使用随机应变6次&gt; 3星通关主题曲4-3；必须编入非助战齐尔查克并上场，其他成员不可编入先锋干员</t>
+  </si>
+  <si>
+    <t>&gt; 完成5次战斗；必须编入非助战莱欧斯并上场，且每次战斗至少释放1次威吓战法&gt; 3星通关主题曲2-4；必须编入非助战莱欧斯并上场，并使用莱欧斯至少击败1名高阶术师</t>
+  </si>
+  <si>
+    <t>&gt; 由非助战玛露西尔累计造成100000点伤害&gt; 3星通关主题曲5-10；必须编入非助战玛露西尔并上场，且使用玛露西尔至少歼灭10名敌人</t>
+  </si>
+  <si>
+    <t>更新日期：2024.09.16</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*maa://20990 (75.0)</t>
+  </si>
+  <si>
+    <t>maa://20850 (92.86)</t>
+  </si>
+  <si>
+    <t>maa://20930 (83.33)</t>
+  </si>
+  <si>
+    <t>maa://20876 (88.89)</t>
+  </si>
+  <si>
+    <t>*maa://20849 (60.0), *maa://28758 (53.57), maa://29036 (93.33), maa://30285 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://20863 (86.06), maa://20832 (98.11), maa://20727 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://36644 (88.68), maa://36866 (96.3), maa://27794 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://30500 (98.04), *maa://27290 (70.59)</t>
+  </si>
+  <si>
+    <t>maa://20916 (80.95)</t>
+  </si>
+  <si>
+    <t>maa://27376 (85.0), **maa://20838 (50.0), **maa://40163 (50.0)</t>
+  </si>
+  <si>
+    <t>maa://20953 (94.12), maa://31173 (85.71)</t>
+  </si>
+  <si>
+    <t>maa://28900 (94.92), maa://30126 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://27970 (98.15), maa://41118 (100.0)</t>
+  </si>
+  <si>
+    <t>*maa://38298 (76.19)</t>
+  </si>
+  <si>
+    <t>maa://20841 (100.0), maa://24093 (100.0), maa://31559 (92.31), maa://25777 (100.0), maa://20631 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://20844 (95.83)</t>
+  </si>
+  <si>
+    <t>*maa://20845 (73.91), **maa://38727 (50.0)</t>
+  </si>
+  <si>
+    <t>maa://28567 (97.06), **maa://20947 (44.12), maa://30525 (100.0), *maa://28188 (75.0), maa://38735 (100.0), maa://30524 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://20976 (97.44), maa://20815 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://28784 (93.76), maa://29088 (91.62), maa://20974 (94.87), maa://31124 (95.8), maa://28950 (90.91), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67)</t>
+  </si>
+  <si>
+    <t>maa://20943 (99.58)</t>
+  </si>
+  <si>
+    <t>maa://36643 (97.25), maa://36864 (100.0), maa://39140 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://27794 (100.0), maa://20960 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://20886 (86.67), maa://25136 (92.31)</t>
+  </si>
+  <si>
+    <t>maa://27794 (100.0), *maa://20893 (75.0)</t>
+  </si>
+  <si>
+    <t>*maa://39240 (57.14), **maa://40517 (50.0)</t>
+  </si>
+  <si>
+    <t>*maa://29094 (61.29), maa://28904 (90.48), **maa://20931 (42.31)</t>
+  </si>
+  <si>
+    <t>maa://27794 (100.0), maa://20843 (100.0), **maa://24483 (50.0)</t>
+  </si>
+  <si>
+    <t>maa://25018 (95.92), maa://25776 (90.0), maa://28361 (96.55), maa://25772 (91.89), *maa://25161 (78.57), maa://32653 (85.71)</t>
+  </si>
+  <si>
+    <t>maa://20908 (98.15), *maa://23346 (77.78), maa://35723 (96.88), maa://38822 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://37484 (92.86), maa://24611 (88.0)</t>
+  </si>
+  <si>
+    <t>maa://21422 (98.36)</t>
+  </si>
+  <si>
+    <t>maa://23019 (100.0), maa://20837 (100.0), maa://37113 (100.0), **maa://40517 (50.0), *maa://37666 (75.0)</t>
+  </si>
+  <si>
+    <t>maa://23020 (95.59), maa://29023 (100.0), maa://34319 (100.0), *maa://39515 (66.67)</t>
+  </si>
+  <si>
+    <t>*maa://30679 (55.56)</t>
+  </si>
+  <si>
+    <t>maa://28484 (96.77), **maa://23736 (42.19), *maa://31185 (75.0), maa://30306 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://30670 (97.44), maa://31470 (94.44), ***maa://30867 (25.0)</t>
+  </si>
+  <si>
+    <t>maa://29056 (100.0), ***maa://20901 (9.09)</t>
+  </si>
+  <si>
+    <t>maa://36641 (98.07), maa://36865 (95.15), maa://37300 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://29627 (92.99), maa://29633 (91.95), maa://29659 (82.14), maa://29861 (100.0)</t>
+  </si>
+  <si>
+    <t>*maa://20905 (80.0)</t>
+  </si>
+  <si>
+    <t>*maa://37690 (80.0)</t>
+  </si>
+  <si>
+    <t>maa://20969 (85.19), maa://41303 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://34866 (83.33), maa://34714 (95.0)</t>
+  </si>
+  <si>
+    <t>maa://25760 (81.82), *maa://35854 (68.75), *maa://20872 (52.17)</t>
+  </si>
+  <si>
+    <t>maa://27823 (80.39), *maa://28190 (55.17), maa://22894 (90.32), *maa://20906 (72.22), **maa://20907 (33.33)</t>
+  </si>
+  <si>
+    <t>maa://28133 (89.47), *maa://28277 (79.17), maa://25369 (92.31), ***maa://39217 (25.0), *maa://33132 (66.67)</t>
+  </si>
+  <si>
+    <t>maa://20956 (94.85), *maa://20830 (77.78)</t>
+  </si>
+  <si>
+    <t>maa://39238 (98.59)</t>
+  </si>
+  <si>
+    <t>maa://20987 (91.04), *maa://35801 (75.0)</t>
+  </si>
+  <si>
+    <t>maa://39159 (90.91)</t>
+  </si>
+  <si>
+    <t>maa://20922 (92.0), *maa://32623 (58.33), *maa://34242 (80.0), maa://34900 (87.5)</t>
+  </si>
+  <si>
+    <t>*maa://30667 (75.0), maa://30666 (82.51), *maa://26836 (74.63), **maa://30739 (45.71), *maa://34428 (67.16), *maa://30723 (50.98), maa://37607 (90.1), maa://39588 (84.21), *maa://37850 (66.67)</t>
+  </si>
+  <si>
+    <t>maa://28923 (92.41), maa://28906 (96.67), ***maa://28825 (12.5)</t>
+  </si>
+  <si>
+    <t>maa://20923 (88.89)</t>
+  </si>
+  <si>
+    <t>maa://24093 (100.0), maa://31559 (92.31), maa://20924 (93.75)</t>
+  </si>
+  <si>
+    <t>maa://20877 (98.15), maa://20836 (100.0)</t>
+  </si>
+  <si>
+    <t>*maa://31560 (80.0), maa://20884 (92.86)</t>
+  </si>
+  <si>
+    <t>**maa://20883 (46.15)</t>
+  </si>
+  <si>
+    <t>maa://29027 (97.14)</t>
+  </si>
+  <si>
+    <t>maa://27794 (100.0), *maa://20862 (66.67)</t>
+  </si>
+  <si>
+    <t>maa://28133 (89.47), maa://33394 (100.0)</t>
+  </si>
+  <si>
+    <t>石英</t>
+  </si>
+  <si>
+    <t>DH-4</t>
+  </si>
+  <si>
+    <t>maa://30710 (96.67), maa://36845 (94.52), maa://31558 (96.15), ***maa://39217 (25.0), maa://30668 (83.33)</t>
+  </si>
+  <si>
+    <t>maa://25774 (100.0), maa://28133 (89.47), maa://22469 (93.02), ***maa://39217 (25.0), **maa://31349 (50.0)</t>
+  </si>
+  <si>
+    <t>maa://32414 (98.34), maa://32505 (100.0), maa://39155 (94.12)</t>
+  </si>
+  <si>
+    <t>铎铃</t>
+  </si>
+  <si>
+    <t>maa://36642 (100.0), maa://36867 (100.0), maa://39155 (94.12)</t>
+  </si>
+  <si>
+    <t>maa://35859 (95.92)</t>
+  </si>
+  <si>
+    <t>maa://25775 (92.45), maa://25393 (83.33)</t>
+  </si>
+  <si>
+    <t>maa://25367 (98.94)</t>
+  </si>
+  <si>
+    <t>maa://31559 (92.31), maa://28241 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://39692 (99.22), *maa://39810 (75.0)</t>
+  </si>
+  <si>
+    <t>赫德雷</t>
+  </si>
+  <si>
+    <t>IW-7</t>
+  </si>
+  <si>
+    <t>maa://40956 (100.0)</t>
+  </si>
+  <si>
+    <t>*maa://34205 (80.0)</t>
+  </si>
+  <si>
+    <t>maa://30671 (80.16), maa://30669 (98.15), maa://37275 (81.82), *maa://32410 (63.64), maa://33671 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://38295 (97.22)</t>
+  </si>
+  <si>
+    <t>maa://32416 (84.85)</t>
+  </si>
+  <si>
+    <t>maa://32647 (97.05), maa://32415 (96.23), maa://34677 (100.0), maa://32892 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://34865 (96.18), maa://34717 (94.23)</t>
+  </si>
+  <si>
+    <t>maa://36868 (100.0), maa://35996 (94.29), ***maa://39217 (25.0)</t>
+  </si>
+  <si>
+    <t>maa://36646 (97.95), maa://36845 (94.52), ***maa://39217 (25.0)</t>
+  </si>
+  <si>
+    <t>maa://36645 (98.15), maa://36841 (93.18), maa://37484 (92.86), maa://37858 (90.48)</t>
+  </si>
+  <si>
+    <t>乌尔比安</t>
+  </si>
+  <si>
+    <t>*maa://40957 (66.67), maa://41035 (100.0)</t>
+  </si>
+  <si>
+    <t>森西</t>
+  </si>
+  <si>
+    <t>齐尔查克</t>
+  </si>
+  <si>
+    <t>莱欧斯</t>
+  </si>
+  <si>
+    <t>玛露西尔</t>
+  </si>
+  <si>
+    <t>maa://41110 (91.67)</t>
   </si>
 </sst>
 </file>
@@ -3635,10 +3701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF320"/>
+  <dimension ref="A1:AF329"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A278" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="E317" sqref="E317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3647,7 +3713,7 @@
     <col min="2" max="2" width="10.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="5.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="27.625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="145.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="145.125" style="4" customWidth="1"/>
     <col min="6" max="6" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.75" style="2" customWidth="1"/>
@@ -3692,7 +3758,7 @@
         <v>36</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -3723,10 +3789,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>986</v>
+        <v>1009</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -3757,10 +3823,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -3791,10 +3857,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>930</v>
+        <v>920</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>246</v>
@@ -3830,7 +3896,7 @@
         <v>400</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -3861,10 +3927,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>401</v>
+        <v>1010</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -3895,13 +3961,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>1079</v>
+        <v>1008</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -3930,10 +3996,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -3963,10 +4029,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -3996,10 +4062,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="F10" s="2"/>
       <c r="H10" s="1"/>
@@ -4028,10 +4094,10 @@
         <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="F11" s="2"/>
       <c r="H11" s="1"/>
@@ -4051,7 +4117,7 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>343</v>
@@ -4060,10 +4126,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="F12" s="2"/>
       <c r="H12" s="1"/>
@@ -4092,10 +4158,10 @@
         <v>1</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="F13" s="2"/>
       <c r="H13" s="1"/>
@@ -4124,10 +4190,10 @@
         <v>2</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>997</v>
+        <v>969</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="F14" s="2"/>
       <c r="H14" s="1"/>
@@ -4156,10 +4222,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="F15" s="2"/>
       <c r="H15" s="1"/>
@@ -4188,10 +4254,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>407</v>
+        <v>1011</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="F16" s="2"/>
       <c r="H16" s="1"/>
@@ -4220,10 +4286,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="F17" s="2"/>
       <c r="H17" s="1"/>
@@ -4252,10 +4318,10 @@
         <v>2</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>931</v>
+        <v>921</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="F18" s="2"/>
       <c r="H18" s="1"/>
@@ -4284,10 +4350,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="F19" s="2"/>
       <c r="H19" s="1"/>
@@ -4316,10 +4382,10 @@
         <v>2</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="F20" s="2"/>
       <c r="H20" s="1"/>
@@ -4348,10 +4414,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>932</v>
+        <v>1012</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="F21" s="2"/>
       <c r="H21" s="1"/>
@@ -4380,10 +4446,10 @@
         <v>1</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="F22" s="2"/>
       <c r="H22" s="1"/>
@@ -4412,10 +4478,10 @@
         <v>1</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="F23" s="2"/>
       <c r="H23" s="1"/>
@@ -4447,7 +4513,7 @@
         <v>35</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="F24" s="2"/>
       <c r="H24" s="1"/>
@@ -4476,10 +4542,10 @@
         <v>4</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>998</v>
+        <v>1013</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="F25" s="2"/>
       <c r="H25" s="1"/>
@@ -4508,10 +4574,10 @@
         <v>1</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="F26" s="2"/>
       <c r="H26" s="1"/>
@@ -4540,10 +4606,10 @@
         <v>3</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>999</v>
+        <v>1014</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="F27" s="2"/>
       <c r="H27" s="1"/>
@@ -4572,10 +4638,10 @@
         <v>1</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="F28" s="2"/>
       <c r="H28" s="1"/>
@@ -4604,10 +4670,10 @@
         <v>1</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>987</v>
+        <v>963</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="F29" s="2"/>
       <c r="H29" s="1"/>
@@ -4627,19 +4693,19 @@
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>365</v>
       </c>
       <c r="C30" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.2">
@@ -4653,10 +4719,10 @@
         <v>2</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>1001</v>
+        <v>1016</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.2">
@@ -4670,10 +4736,10 @@
         <v>1</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>1002</v>
+        <v>1017</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -4687,10 +4753,10 @@
         <v>1</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -4704,10 +4770,10 @@
         <v>1</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -4721,10 +4787,10 @@
         <v>3</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>1003</v>
+        <v>1018</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -4738,10 +4804,10 @@
         <v>1</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -4755,10 +4821,10 @@
         <v>2</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4772,10 +4838,10 @@
         <v>1</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4789,10 +4855,10 @@
         <v>1</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>1004</v>
+        <v>970</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4806,10 +4872,10 @@
         <v>4</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4823,10 +4889,10 @@
         <v>1</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4840,10 +4906,10 @@
         <v>1</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4857,10 +4923,10 @@
         <v>1</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -4874,10 +4940,10 @@
         <v>1</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -4891,10 +4957,10 @@
         <v>1</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -4908,10 +4974,10 @@
         <v>1</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>933</v>
+        <v>922</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -4925,10 +4991,10 @@
         <v>2</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -4942,10 +5008,10 @@
         <v>1</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -4959,10 +5025,10 @@
         <v>1</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -4976,10 +5042,10 @@
         <v>2</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>532</v>
+        <v>1019</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -4993,10 +5059,10 @@
         <v>1</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -5010,10 +5076,10 @@
         <v>2</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>1005</v>
+        <v>971</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -5027,10 +5093,10 @@
         <v>1</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>1006</v>
+        <v>972</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -5044,10 +5110,10 @@
         <v>2</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>1007</v>
+        <v>1020</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -5058,13 +5124,13 @@
         <v>347</v>
       </c>
       <c r="C55" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>1008</v>
+        <v>1021</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -5072,16 +5138,16 @@
         <v>136</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="C56" s="1">
         <v>1</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>1009</v>
+        <v>1022</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -5095,10 +5161,10 @@
         <v>5</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>934</v>
+        <v>1023</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -5112,10 +5178,10 @@
         <v>1</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>935</v>
+        <v>1024</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -5129,10 +5195,10 @@
         <v>2</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>936</v>
+        <v>1025</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -5146,10 +5212,10 @@
         <v>3</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>937</v>
+        <v>923</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -5163,10 +5229,10 @@
         <v>6</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>1010</v>
+        <v>1026</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -5180,10 +5246,10 @@
         <v>2</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -5197,10 +5263,10 @@
         <v>1</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>938</v>
+        <v>924</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>979</v>
+        <v>956</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -5214,10 +5280,10 @@
         <v>2</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>1011</v>
+        <v>1027</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -5231,10 +5297,10 @@
         <v>8</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>1012</v>
+        <v>1028</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -5248,10 +5314,10 @@
         <v>2</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>1013</v>
+        <v>973</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -5265,15 +5331,15 @@
         <v>1</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>1014</v>
+        <v>1029</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>310</v>
@@ -5282,10 +5348,10 @@
         <v>3</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>1015</v>
+        <v>1030</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -5299,10 +5365,10 @@
         <v>1</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -5316,10 +5382,10 @@
         <v>1</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -5333,10 +5399,10 @@
         <v>1</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -5350,10 +5416,10 @@
         <v>1</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -5367,10 +5433,10 @@
         <v>1</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>1016</v>
+        <v>974</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -5384,10 +5450,10 @@
         <v>1</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -5401,10 +5467,10 @@
         <v>1</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -5418,10 +5484,10 @@
         <v>1</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -5435,10 +5501,10 @@
         <v>4</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -5452,10 +5518,10 @@
         <v>1</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -5466,13 +5532,13 @@
         <v>365</v>
       </c>
       <c r="C79" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>432</v>
+        <v>1031</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -5486,10 +5552,10 @@
         <v>1</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -5503,10 +5569,10 @@
         <v>1</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -5520,10 +5586,10 @@
         <v>1</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -5537,10 +5603,10 @@
         <v>2</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>939</v>
+        <v>1032</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -5554,10 +5620,10 @@
         <v>2</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>1017</v>
+        <v>975</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -5571,10 +5637,10 @@
         <v>2</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>988</v>
+        <v>964</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -5588,10 +5654,10 @@
         <v>1</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -5605,10 +5671,10 @@
         <v>1</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -5622,27 +5688,27 @@
         <v>1</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="C89" s="1">
         <v>1</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>1018</v>
+        <v>976</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -5656,10 +5722,10 @@
         <v>1</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -5673,10 +5739,10 @@
         <v>1</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -5690,10 +5756,10 @@
         <v>1</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -5707,10 +5773,10 @@
         <v>1</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -5724,10 +5790,10 @@
         <v>1</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -5741,10 +5807,10 @@
         <v>2</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -5755,13 +5821,13 @@
         <v>365</v>
       </c>
       <c r="C96" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>940</v>
+        <v>1033</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -5772,13 +5838,13 @@
         <v>284</v>
       </c>
       <c r="C97" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>1019</v>
+        <v>1034</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -5792,10 +5858,10 @@
         <v>3</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>941</v>
+        <v>1035</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -5809,10 +5875,10 @@
         <v>1</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -5826,10 +5892,10 @@
         <v>1</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -5840,13 +5906,13 @@
         <v>365</v>
       </c>
       <c r="C101" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>533</v>
+        <v>1036</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -5860,10 +5926,10 @@
         <v>1</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -5877,10 +5943,10 @@
         <v>6</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>1020</v>
+        <v>1037</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -5894,10 +5960,10 @@
         <v>1</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -5911,10 +5977,10 @@
         <v>1</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -5928,10 +5994,10 @@
         <v>1</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>989</v>
+        <v>965</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -5945,10 +6011,10 @@
         <v>2</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>1021</v>
+        <v>977</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -5962,10 +6028,10 @@
         <v>1</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>942</v>
+        <v>925</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -5979,10 +6045,10 @@
         <v>1</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -5996,10 +6062,10 @@
         <v>4</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>1022</v>
+        <v>1038</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -6013,10 +6079,10 @@
         <v>2</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -6030,10 +6096,10 @@
         <v>2</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -6047,10 +6113,10 @@
         <v>1</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>943</v>
+        <v>926</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -6064,10 +6130,10 @@
         <v>2</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -6081,10 +6147,10 @@
         <v>1</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -6098,10 +6164,10 @@
         <v>1</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -6115,10 +6181,10 @@
         <v>1</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>1023</v>
+        <v>978</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -6132,10 +6198,10 @@
         <v>1</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -6149,10 +6215,10 @@
         <v>1</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>1024</v>
+        <v>979</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -6166,10 +6232,10 @@
         <v>1</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -6183,10 +6249,10 @@
         <v>3</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -6200,10 +6266,10 @@
         <v>2</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>1025</v>
+        <v>1039</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -6217,10 +6283,10 @@
         <v>2</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -6234,10 +6300,10 @@
         <v>1</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>1026</v>
+        <v>1040</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -6251,10 +6317,10 @@
         <v>1</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -6265,13 +6331,13 @@
         <v>284</v>
       </c>
       <c r="C126" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>944</v>
+        <v>1041</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -6285,10 +6351,10 @@
         <v>4</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>1027</v>
+        <v>1042</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -6302,10 +6368,10 @@
         <v>1</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -6319,10 +6385,10 @@
         <v>1</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -6336,10 +6402,10 @@
         <v>1</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -6353,10 +6419,10 @@
         <v>1</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -6370,10 +6436,10 @@
         <v>2</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>1028</v>
+        <v>980</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -6387,10 +6453,10 @@
         <v>1</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>1029</v>
+        <v>1043</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -6404,15 +6470,15 @@
         <v>1</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>360</v>
@@ -6421,10 +6487,10 @@
         <v>1</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -6438,10 +6504,10 @@
         <v>4</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>1030</v>
+        <v>1044</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -6455,10 +6521,10 @@
         <v>3</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>1031</v>
+        <v>1045</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -6472,10 +6538,10 @@
         <v>1</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
@@ -6489,10 +6555,10 @@
         <v>1</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
@@ -6506,10 +6572,10 @@
         <v>1</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -6523,10 +6589,10 @@
         <v>2</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>535</v>
+        <v>1046</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
@@ -6540,27 +6606,27 @@
         <v>1</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>1032</v>
+        <v>981</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C143" s="1">
         <v>3</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>1033</v>
+        <v>1047</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
@@ -6574,10 +6640,10 @@
         <v>1</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
@@ -6591,10 +6657,10 @@
         <v>1</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
@@ -6608,10 +6674,10 @@
         <v>1</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
@@ -6625,10 +6691,10 @@
         <v>2</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
@@ -6642,15 +6708,15 @@
         <v>1</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>345</v>
@@ -6659,10 +6725,10 @@
         <v>1</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
@@ -6676,10 +6742,10 @@
         <v>1</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>945</v>
+        <v>927</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
@@ -6693,10 +6759,10 @@
         <v>1</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
@@ -6710,10 +6776,10 @@
         <v>1</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
@@ -6727,27 +6793,27 @@
         <v>1</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="C154" s="1">
         <v>1</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>1034</v>
+        <v>982</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
@@ -6761,10 +6827,10 @@
         <v>2</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
@@ -6778,10 +6844,10 @@
         <v>1</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
@@ -6795,10 +6861,10 @@
         <v>1</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
@@ -6812,10 +6878,10 @@
         <v>2</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
@@ -6829,10 +6895,10 @@
         <v>4</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>1035</v>
+        <v>1048</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
@@ -6846,15 +6912,15 @@
         <v>1</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>341</v>
@@ -6863,10 +6929,10 @@
         <v>1</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>1036</v>
+        <v>983</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
@@ -6880,10 +6946,10 @@
         <v>1</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
@@ -6897,10 +6963,10 @@
         <v>1</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>542</v>
+        <v>1049</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
@@ -6914,10 +6980,10 @@
         <v>1</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>1037</v>
+        <v>984</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
@@ -6931,10 +6997,10 @@
         <v>1</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>1038</v>
+        <v>1050</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
@@ -6948,10 +7014,10 @@
         <v>1</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>946</v>
+        <v>928</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
@@ -6965,10 +7031,10 @@
         <v>1</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
@@ -6982,10 +7048,10 @@
         <v>2</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
@@ -6999,10 +7065,10 @@
         <v>1</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
@@ -7016,10 +7082,10 @@
         <v>1</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
@@ -7033,10 +7099,10 @@
         <v>2</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
@@ -7050,10 +7116,10 @@
         <v>1</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
@@ -7067,10 +7133,10 @@
         <v>1</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
@@ -7084,10 +7150,10 @@
         <v>1</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
@@ -7098,13 +7164,13 @@
         <v>386</v>
       </c>
       <c r="C175" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>1039</v>
+        <v>1051</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
@@ -7118,10 +7184,10 @@
         <v>1</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
@@ -7135,10 +7201,10 @@
         <v>1</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
@@ -7152,10 +7218,10 @@
         <v>1</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
@@ -7169,10 +7235,10 @@
         <v>2</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>1040</v>
+        <v>1052</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
@@ -7186,10 +7252,10 @@
         <v>2</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
@@ -7203,10 +7269,10 @@
         <v>1</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
@@ -7220,10 +7286,10 @@
         <v>1</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
@@ -7237,10 +7303,10 @@
         <v>1</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
@@ -7254,10 +7320,10 @@
         <v>2</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>990</v>
+        <v>966</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
@@ -7271,10 +7337,10 @@
         <v>1</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
@@ -7288,10 +7354,10 @@
         <v>3</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>991</v>
+        <v>1053</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
@@ -7299,16 +7365,16 @@
         <v>227</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="C187" s="1">
         <v>3</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>1041</v>
+        <v>985</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
@@ -7322,10 +7388,10 @@
         <v>5</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>1042</v>
+        <v>1054</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
@@ -7339,10 +7405,10 @@
         <v>5</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>1042</v>
+        <v>1054</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
@@ -7356,10 +7422,10 @@
         <v>1</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
@@ -7373,10 +7439,10 @@
         <v>1</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
@@ -7390,10 +7456,10 @@
         <v>1</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
@@ -7407,10 +7473,10 @@
         <v>1</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
@@ -7424,10 +7490,10 @@
         <v>2</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
@@ -7441,10 +7507,10 @@
         <v>3</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
@@ -7458,10 +7524,10 @@
         <v>1</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
@@ -7475,10 +7541,10 @@
         <v>5</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>1043</v>
+        <v>1055</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
@@ -7492,10 +7558,10 @@
         <v>2</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>1044</v>
+        <v>1056</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
@@ -7509,15 +7575,15 @@
         <v>1</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>1045</v>
+        <v>986</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>396</v>
@@ -7526,10 +7592,10 @@
         <v>1</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>1046</v>
+        <v>1057</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
@@ -7543,15 +7609,15 @@
         <v>1</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>947</v>
+        <v>929</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>948</v>
+        <v>930</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>305</v>
@@ -7560,10 +7626,10 @@
         <v>1</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>1047</v>
+        <v>987</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>980</v>
+        <v>957</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
@@ -7577,10 +7643,10 @@
         <v>2</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
@@ -7594,10 +7660,10 @@
         <v>1</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
@@ -7611,10 +7677,10 @@
         <v>1</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>949</v>
+        <v>931</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
@@ -7628,10 +7694,10 @@
         <v>2</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>950</v>
+        <v>932</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
@@ -7645,27 +7711,27 @@
         <v>1</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>951</v>
+        <v>933</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>952</v>
+        <v>934</v>
       </c>
       <c r="C208" s="1">
         <v>1</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>992</v>
+        <v>967</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>981</v>
+        <v>958</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
@@ -7679,10 +7745,10 @@
         <v>1</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
@@ -7696,10 +7762,10 @@
         <v>1</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
@@ -7713,10 +7779,10 @@
         <v>2</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>953</v>
+        <v>935</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
@@ -7730,10 +7796,10 @@
         <v>1</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
@@ -7747,10 +7813,10 @@
         <v>2</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>1048</v>
+        <v>1058</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
@@ -7764,10 +7830,10 @@
         <v>1</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>993</v>
+        <v>1059</v>
       </c>
       <c r="E214" s="4" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
@@ -7781,10 +7847,10 @@
         <v>2</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>954</v>
+        <v>936</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
@@ -7798,10 +7864,10 @@
         <v>1</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
@@ -7815,10 +7881,10 @@
         <v>3</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>955</v>
+        <v>937</v>
       </c>
       <c r="E217" s="4" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
@@ -7832,10 +7898,10 @@
         <v>1</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="E218" s="4" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
@@ -7849,10 +7915,10 @@
         <v>1</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>956</v>
+        <v>938</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
@@ -7866,10 +7932,10 @@
         <v>1</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
@@ -7883,10 +7949,10 @@
         <v>1</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>957</v>
+        <v>939</v>
       </c>
       <c r="E221" s="4" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
@@ -7900,10 +7966,10 @@
         <v>2</v>
       </c>
       <c r="D222" s="5" t="s">
-        <v>1049</v>
+        <v>988</v>
       </c>
       <c r="E222" s="4" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
@@ -7917,10 +7983,10 @@
         <v>4</v>
       </c>
       <c r="D223" s="5" t="s">
-        <v>994</v>
+        <v>1060</v>
       </c>
       <c r="E223" s="4" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
@@ -7934,10 +8000,10 @@
         <v>1</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E224" s="4" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
@@ -7951,10 +8017,10 @@
         <v>9</v>
       </c>
       <c r="D225" s="5" t="s">
-        <v>1050</v>
+        <v>1061</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
@@ -7968,10 +8034,10 @@
         <v>1</v>
       </c>
       <c r="D226" s="5" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
@@ -7985,10 +8051,10 @@
         <v>1</v>
       </c>
       <c r="D227" s="5" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
@@ -8002,10 +8068,10 @@
         <v>1</v>
       </c>
       <c r="D228" s="5" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E228" s="4" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
@@ -8019,27 +8085,27 @@
         <v>3</v>
       </c>
       <c r="D229" s="5" t="s">
-        <v>958</v>
+        <v>940</v>
       </c>
       <c r="E229" s="4" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C230" s="1">
+        <v>1</v>
+      </c>
+      <c r="D230" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="E230" s="4" t="s">
         <v>959</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>960</v>
-      </c>
-      <c r="C230" s="1">
-        <v>1</v>
-      </c>
-      <c r="D230" s="5" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E230" s="4" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
@@ -8053,10 +8119,10 @@
         <v>1</v>
       </c>
       <c r="D231" s="5" t="s">
-        <v>961</v>
+        <v>943</v>
       </c>
       <c r="E231" s="4" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
@@ -8070,10 +8136,10 @@
         <v>3</v>
       </c>
       <c r="D232" s="5" t="s">
-        <v>1052</v>
+        <v>1062</v>
       </c>
       <c r="E232" s="4" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
@@ -8087,10 +8153,10 @@
         <v>1</v>
       </c>
       <c r="D233" s="5" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="E233" s="4" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
@@ -8104,10 +8170,10 @@
         <v>1</v>
       </c>
       <c r="D234" s="5" t="s">
-        <v>962</v>
+        <v>1063</v>
       </c>
       <c r="E234" s="4" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
@@ -8121,10 +8187,10 @@
         <v>3</v>
       </c>
       <c r="D235" s="5" t="s">
-        <v>1053</v>
+        <v>1064</v>
       </c>
       <c r="E235" s="4" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
@@ -8132,33 +8198,30 @@
         <v>64</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>251</v>
+        <v>318</v>
       </c>
       <c r="C236" s="1">
-        <v>1</v>
-      </c>
-      <c r="D236" s="5" t="s">
-        <v>492</v>
+        <v>0</v>
       </c>
       <c r="E236" s="4" t="s">
-        <v>794</v>
+        <v>999</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
-        <v>234</v>
+        <v>64</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>318</v>
+        <v>251</v>
       </c>
       <c r="C237" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D237" s="5" t="s">
-        <v>963</v>
+        <v>489</v>
       </c>
       <c r="E237" s="4" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
@@ -8166,67 +8229,67 @@
         <v>234</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>268</v>
+        <v>318</v>
       </c>
       <c r="C238" s="1">
         <v>2</v>
       </c>
       <c r="D238" s="5" t="s">
-        <v>1054</v>
+        <v>1065</v>
       </c>
       <c r="E238" s="4" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>317</v>
+        <v>268</v>
       </c>
       <c r="C239" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D239" s="5" t="s">
-        <v>493</v>
+        <v>990</v>
       </c>
       <c r="E239" s="4" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
-        <v>185</v>
+        <v>123</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C240" s="1">
         <v>1</v>
       </c>
       <c r="D240" s="5" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E240" s="4" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>373</v>
+        <v>319</v>
       </c>
       <c r="C241" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D241" s="5" t="s">
-        <v>964</v>
+        <v>491</v>
       </c>
       <c r="E241" s="4" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
@@ -8234,16 +8297,16 @@
         <v>160</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>341</v>
+        <v>373</v>
       </c>
       <c r="C242" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D242" s="5" t="s">
-        <v>1055</v>
+        <v>1066</v>
       </c>
       <c r="E242" s="4" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
@@ -8251,990 +8314,990 @@
         <v>160</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>393</v>
+        <v>341</v>
       </c>
       <c r="C243" s="1">
         <v>1</v>
       </c>
       <c r="D243" s="5" t="s">
-        <v>1056</v>
+        <v>1067</v>
       </c>
       <c r="E243" s="4" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="C244" s="1">
         <v>1</v>
       </c>
       <c r="D244" s="5" t="s">
-        <v>495</v>
+        <v>1068</v>
       </c>
       <c r="E244" s="4" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>334</v>
+        <v>386</v>
       </c>
       <c r="C245" s="1">
         <v>1</v>
       </c>
       <c r="D245" s="5" t="s">
-        <v>874</v>
+        <v>492</v>
       </c>
       <c r="E245" s="4" t="s">
-        <v>907</v>
+        <v>794</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
-        <v>235</v>
+        <v>124</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c r="C246" s="1">
         <v>1</v>
       </c>
       <c r="D246" s="5" t="s">
-        <v>965</v>
+        <v>866</v>
       </c>
       <c r="E246" s="4" t="s">
-        <v>803</v>
+        <v>897</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
-        <v>162</v>
+        <v>235</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>320</v>
+        <v>363</v>
       </c>
       <c r="C247" s="1">
         <v>1</v>
       </c>
       <c r="D247" s="5" t="s">
-        <v>966</v>
+        <v>944</v>
       </c>
       <c r="E247" s="4" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="C248" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>995</v>
+        <v>945</v>
       </c>
       <c r="E248" s="4" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>389</v>
+        <v>342</v>
       </c>
       <c r="C249" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D249" s="5" t="s">
-        <v>1057</v>
+        <v>968</v>
       </c>
       <c r="E249" s="4" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
-        <v>206</v>
+        <v>65</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>365</v>
+        <v>389</v>
       </c>
       <c r="C250" s="1">
         <v>1</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>569</v>
+        <v>991</v>
       </c>
       <c r="E250" s="4" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>519</v>
+        <v>206</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>520</v>
+        <v>365</v>
       </c>
       <c r="C251" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>875</v>
+        <v>1069</v>
       </c>
       <c r="E251" s="4" t="s">
-        <v>908</v>
+        <v>799</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
-        <v>66</v>
+        <v>516</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>321</v>
+        <v>517</v>
       </c>
       <c r="C252" s="1">
         <v>1</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>496</v>
+        <v>867</v>
       </c>
       <c r="E252" s="4" t="s">
-        <v>808</v>
+        <v>898</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>260</v>
+        <v>321</v>
       </c>
       <c r="C253" s="1">
         <v>1</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>967</v>
+        <v>493</v>
       </c>
       <c r="E253" s="4" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>349</v>
+        <v>260</v>
       </c>
       <c r="C254" s="1">
         <v>1</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>876</v>
+        <v>946</v>
       </c>
       <c r="E254" s="4" t="s">
-        <v>909</v>
+        <v>801</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
-        <v>207</v>
+        <v>67</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>388</v>
+        <v>349</v>
       </c>
       <c r="C255" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D255" s="5" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="E255" s="4" t="s">
-        <v>810</v>
+        <v>899</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
-        <v>163</v>
+        <v>207</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>354</v>
+        <v>388</v>
       </c>
       <c r="C256" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>497</v>
+        <v>1070</v>
       </c>
       <c r="E256" s="4" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
-        <v>127</v>
+        <v>1071</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>370</v>
+        <v>1072</v>
       </c>
       <c r="C257" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D257" s="5" t="s">
-        <v>498</v>
+        <v>35</v>
       </c>
       <c r="E257" s="4" t="s">
-        <v>812</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
-        <v>34</v>
+        <v>163</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C258" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D258" s="5" t="s">
-        <v>878</v>
+        <v>494</v>
       </c>
       <c r="E258" s="4" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>296</v>
+        <v>370</v>
       </c>
       <c r="C259" s="1">
         <v>1</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="E259" s="4" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>550</v>
+        <v>351</v>
       </c>
       <c r="C260" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>1058</v>
+        <v>869</v>
       </c>
       <c r="E260" s="4" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
-        <v>236</v>
+        <v>94</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="C261" s="1">
         <v>1</v>
       </c>
       <c r="D261" s="5" t="s">
-        <v>1059</v>
+        <v>496</v>
       </c>
       <c r="E261" s="4" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
-        <v>164</v>
+        <v>94</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>378</v>
+        <v>543</v>
       </c>
       <c r="C262" s="1">
         <v>1</v>
       </c>
       <c r="D262" s="5" t="s">
-        <v>500</v>
+        <v>992</v>
       </c>
       <c r="E262" s="4" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
-        <v>186</v>
+        <v>236</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>388</v>
+        <v>322</v>
       </c>
       <c r="C263" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D263" s="5" t="s">
-        <v>1060</v>
+        <v>993</v>
       </c>
       <c r="E263" s="4" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>253</v>
+        <v>378</v>
       </c>
       <c r="C264" s="1">
         <v>1</v>
       </c>
       <c r="D264" s="5" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="E264" s="4" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
-        <v>95</v>
+        <v>186</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>323</v>
+        <v>388</v>
       </c>
       <c r="C265" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D265" s="5" t="s">
-        <v>502</v>
+        <v>1073</v>
       </c>
       <c r="E265" s="4" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>388</v>
+        <v>253</v>
       </c>
       <c r="C266" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>1061</v>
+        <v>498</v>
       </c>
       <c r="E266" s="4" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C267" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D267" s="5" t="s">
-        <v>1062</v>
+        <v>499</v>
       </c>
       <c r="E267" s="4" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
-        <v>521</v>
+        <v>165</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>324</v>
+        <v>388</v>
       </c>
       <c r="C268" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D268" s="5" t="s">
-        <v>1063</v>
+        <v>1074</v>
       </c>
       <c r="E268" s="4" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>351</v>
+        <v>324</v>
       </c>
       <c r="C269" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D269" s="5" t="s">
-        <v>879</v>
+        <v>1075</v>
       </c>
       <c r="E269" s="4" t="s">
-        <v>910</v>
+        <v>814</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
-        <v>325</v>
+        <v>1076</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C270" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D270" s="5" t="s">
-        <v>1064</v>
+        <v>35</v>
       </c>
       <c r="E270" s="4" t="s">
-        <v>824</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
-        <v>70</v>
+        <v>518</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>375</v>
+        <v>324</v>
       </c>
       <c r="C271" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D271" s="5" t="s">
-        <v>880</v>
+        <v>1077</v>
       </c>
       <c r="E271" s="4" t="s">
-        <v>911</v>
+        <v>815</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="C272" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D272" s="5" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
       <c r="E272" s="4" t="s">
-        <v>912</v>
+        <v>900</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
-        <v>96</v>
+        <v>325</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>326</v>
+        <v>373</v>
       </c>
       <c r="C273" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D273" s="5" t="s">
-        <v>882</v>
+        <v>994</v>
       </c>
       <c r="E273" s="4" t="s">
-        <v>913</v>
+        <v>816</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>260</v>
+        <v>375</v>
       </c>
       <c r="C274" s="1">
         <v>1</v>
       </c>
       <c r="D274" s="5" t="s">
-        <v>883</v>
+        <v>871</v>
       </c>
       <c r="E274" s="4" t="s">
-        <v>914</v>
+        <v>901</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
-        <v>208</v>
+        <v>71</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C275" s="1">
         <v>1</v>
       </c>
       <c r="D275" s="5" t="s">
-        <v>503</v>
+        <v>872</v>
       </c>
       <c r="E275" s="4" t="s">
-        <v>825</v>
+        <v>902</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
-        <v>166</v>
+        <v>96</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>273</v>
+        <v>326</v>
       </c>
       <c r="C276" s="1">
         <v>1</v>
       </c>
       <c r="D276" s="5" t="s">
-        <v>504</v>
+        <v>873</v>
       </c>
       <c r="E276" s="4" t="s">
-        <v>826</v>
+        <v>903</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>386</v>
+        <v>260</v>
       </c>
       <c r="C277" s="1">
         <v>1</v>
       </c>
       <c r="D277" s="5" t="s">
-        <v>544</v>
+        <v>874</v>
       </c>
       <c r="E277" s="4" t="s">
-        <v>827</v>
+        <v>904</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>340</v>
+        <v>367</v>
       </c>
       <c r="C278" s="1">
         <v>1</v>
       </c>
       <c r="D278" s="5" t="s">
-        <v>1065</v>
+        <v>500</v>
       </c>
       <c r="E278" s="4" t="s">
-        <v>828</v>
+        <v>817</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>340</v>
+        <v>273</v>
       </c>
       <c r="C279" s="1">
         <v>1</v>
       </c>
       <c r="D279" s="5" t="s">
-        <v>968</v>
+        <v>501</v>
       </c>
       <c r="E279" s="4" t="s">
-        <v>915</v>
+        <v>818</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
-        <v>237</v>
+        <v>166</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>257</v>
+        <v>386</v>
       </c>
       <c r="C280" s="1">
         <v>1</v>
       </c>
       <c r="D280" s="5" t="s">
-        <v>884</v>
+        <v>537</v>
       </c>
       <c r="E280" s="4" t="s">
-        <v>916</v>
+        <v>819</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>394</v>
+        <v>340</v>
       </c>
       <c r="C281" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D281" s="5" t="s">
-        <v>969</v>
+        <v>1078</v>
       </c>
       <c r="E281" s="4" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>294</v>
+        <v>340</v>
       </c>
       <c r="C282" s="1">
         <v>1</v>
       </c>
       <c r="D282" s="5" t="s">
-        <v>1066</v>
+        <v>947</v>
       </c>
       <c r="E282" s="4" t="s">
-        <v>830</v>
+        <v>905</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
-        <v>131</v>
+        <v>237</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>327</v>
+        <v>257</v>
       </c>
       <c r="C283" s="1">
         <v>1</v>
       </c>
       <c r="D283" s="5" t="s">
-        <v>1067</v>
+        <v>875</v>
       </c>
       <c r="E283" s="4" t="s">
-        <v>831</v>
+        <v>906</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C284" s="1">
         <v>2</v>
       </c>
-      <c r="B284" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="C284" s="1">
-        <v>1</v>
-      </c>
       <c r="D284" s="5" t="s">
-        <v>570</v>
+        <v>1079</v>
       </c>
       <c r="E284" s="4" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
-        <v>3</v>
+        <v>167</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="C285" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D285" s="5" t="s">
-        <v>970</v>
+        <v>995</v>
       </c>
       <c r="E285" s="4" t="s">
-        <v>833</v>
+        <v>822</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>381</v>
+        <v>327</v>
       </c>
       <c r="C286" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D286" s="5" t="s">
-        <v>505</v>
+        <v>1080</v>
       </c>
       <c r="E286" s="4" t="s">
-        <v>834</v>
+        <v>823</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>885</v>
+        <v>348</v>
       </c>
       <c r="C287" s="1">
         <v>1</v>
       </c>
       <c r="D287" s="5" t="s">
-        <v>886</v>
+        <v>562</v>
       </c>
       <c r="E287" s="4" t="s">
-        <v>917</v>
+        <v>824</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
-        <v>971</v>
+        <v>3</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>972</v>
+        <v>265</v>
       </c>
       <c r="C288" s="1">
         <v>2</v>
       </c>
       <c r="D288" s="5" t="s">
-        <v>1068</v>
+        <v>1081</v>
       </c>
       <c r="E288" s="4" t="s">
-        <v>983</v>
+        <v>825</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
-        <v>551</v>
+        <v>4</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>552</v>
+        <v>381</v>
       </c>
       <c r="C289" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D289" s="5" t="s">
-        <v>887</v>
+        <v>502</v>
       </c>
       <c r="E289" s="4" t="s">
-        <v>918</v>
+        <v>826</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>294</v>
+        <v>876</v>
       </c>
       <c r="C290" s="1">
         <v>1</v>
       </c>
       <c r="D290" s="5" t="s">
-        <v>888</v>
+        <v>877</v>
       </c>
       <c r="E290" s="4" t="s">
-        <v>919</v>
+        <v>907</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
-        <v>6</v>
+        <v>948</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>351</v>
+        <v>949</v>
       </c>
       <c r="C291" s="1">
         <v>2</v>
       </c>
       <c r="D291" s="5" t="s">
-        <v>506</v>
+        <v>1082</v>
       </c>
       <c r="E291" s="4" t="s">
-        <v>835</v>
+        <v>960</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
-        <v>242</v>
+        <v>544</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>348</v>
+        <v>545</v>
       </c>
       <c r="C292" s="1">
         <v>1</v>
       </c>
       <c r="D292" s="5" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="E292" s="4" t="s">
-        <v>920</v>
+        <v>908</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>328</v>
+        <v>294</v>
       </c>
       <c r="C293" s="1">
         <v>1</v>
       </c>
       <c r="D293" s="5" t="s">
-        <v>973</v>
+        <v>879</v>
       </c>
       <c r="E293" s="4" t="s">
-        <v>921</v>
+        <v>909</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="C294" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D294" s="5" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E294" s="4" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
-        <v>9</v>
+        <v>242</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>319</v>
+        <v>348</v>
       </c>
       <c r="C295" s="1">
         <v>1</v>
       </c>
       <c r="D295" s="5" t="s">
-        <v>974</v>
+        <v>880</v>
       </c>
       <c r="E295" s="4" t="s">
-        <v>922</v>
+        <v>910</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>395</v>
+        <v>328</v>
       </c>
       <c r="C296" s="1">
         <v>1</v>
       </c>
       <c r="D296" s="5" t="s">
-        <v>890</v>
+        <v>950</v>
       </c>
       <c r="E296" s="4" t="s">
-        <v>837</v>
+        <v>911</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
-        <v>975</v>
+        <v>8</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>396</v>
+        <v>329</v>
       </c>
       <c r="C297" s="1">
         <v>1</v>
       </c>
       <c r="D297" s="5" t="s">
-        <v>1069</v>
+        <v>504</v>
       </c>
       <c r="E297" s="4" t="s">
-        <v>984</v>
+        <v>828</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
-        <v>522</v>
+        <v>1083</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>386</v>
+        <v>1084</v>
       </c>
       <c r="C298" s="1">
         <v>1</v>
       </c>
       <c r="D298" s="5" t="s">
-        <v>571</v>
+        <v>1085</v>
       </c>
       <c r="E298" s="4" t="s">
-        <v>838</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="C299" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D299" s="5" t="s">
-        <v>1070</v>
+        <v>951</v>
       </c>
       <c r="E299" s="4" t="s">
-        <v>839</v>
+        <v>912</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
-        <v>553</v>
+        <v>10</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>554</v>
+        <v>395</v>
       </c>
       <c r="C300" s="1">
         <v>1</v>
       </c>
       <c r="D300" s="5" t="s">
-        <v>1071</v>
+        <v>1086</v>
       </c>
       <c r="E300" s="4" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
-        <v>12</v>
+        <v>952</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>396</v>
@@ -9243,151 +9306,151 @@
         <v>1</v>
       </c>
       <c r="D301" s="5" t="s">
-        <v>508</v>
+        <v>996</v>
       </c>
       <c r="E301" s="4" t="s">
-        <v>841</v>
+        <v>961</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
-        <v>13</v>
+        <v>519</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="C302" s="1">
         <v>1</v>
       </c>
       <c r="D302" s="5" t="s">
-        <v>509</v>
+        <v>563</v>
       </c>
       <c r="E302" s="4" t="s">
-        <v>842</v>
+        <v>830</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="C303" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D303" s="5" t="s">
-        <v>996</v>
+        <v>1087</v>
       </c>
       <c r="E303" s="4" t="s">
-        <v>843</v>
+        <v>831</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
-        <v>15</v>
+        <v>546</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>398</v>
+        <v>547</v>
       </c>
       <c r="C304" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D304" s="5" t="s">
-        <v>1072</v>
+        <v>1088</v>
       </c>
       <c r="E304" s="4" t="s">
-        <v>844</v>
+        <v>832</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C305" s="1">
         <v>1</v>
       </c>
       <c r="D305" s="5" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="E305" s="4" t="s">
-        <v>845</v>
+        <v>833</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
-        <v>238</v>
+        <v>13</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>362</v>
+        <v>397</v>
       </c>
       <c r="C306" s="1">
         <v>1</v>
       </c>
       <c r="D306" s="5" t="s">
-        <v>555</v>
+        <v>506</v>
       </c>
       <c r="E306" s="4" t="s">
-        <v>846</v>
+        <v>834</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
-        <v>243</v>
+        <v>14</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>373</v>
+        <v>330</v>
       </c>
       <c r="C307" s="1">
         <v>1</v>
       </c>
       <c r="D307" s="5" t="s">
-        <v>891</v>
+        <v>1089</v>
       </c>
       <c r="E307" s="4" t="s">
-        <v>847</v>
+        <v>835</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
-        <v>239</v>
+        <v>15</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>370</v>
+        <v>398</v>
       </c>
       <c r="C308" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D308" s="5" t="s">
-        <v>892</v>
+        <v>1090</v>
       </c>
       <c r="E308" s="4" t="s">
-        <v>923</v>
+        <v>836</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
-        <v>244</v>
+        <v>1</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>287</v>
+        <v>399</v>
       </c>
       <c r="C309" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D309" s="5" t="s">
-        <v>1073</v>
+        <v>507</v>
       </c>
       <c r="E309" s="4" t="s">
-        <v>848</v>
+        <v>837</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>362</v>
@@ -9396,180 +9459,333 @@
         <v>1</v>
       </c>
       <c r="D310" s="5" t="s">
-        <v>893</v>
+        <v>548</v>
       </c>
       <c r="E310" s="4" t="s">
-        <v>924</v>
+        <v>838</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>331</v>
+        <v>373</v>
       </c>
       <c r="C311" s="1">
         <v>1</v>
       </c>
       <c r="D311" s="5" t="s">
-        <v>976</v>
+        <v>881</v>
       </c>
       <c r="E311" s="4" t="s">
-        <v>925</v>
+        <v>839</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="C312" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D312" s="5" t="s">
-        <v>1074</v>
+        <v>882</v>
       </c>
       <c r="E312" s="4" t="s">
-        <v>849</v>
+        <v>913</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
-        <v>523</v>
+        <v>244</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>343</v>
+        <v>287</v>
       </c>
       <c r="C313" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D313" s="5" t="s">
-        <v>572</v>
+        <v>1091</v>
       </c>
       <c r="E313" s="4" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
-        <v>524</v>
+        <v>240</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>388</v>
+        <v>362</v>
       </c>
       <c r="C314" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D314" s="5" t="s">
-        <v>1075</v>
+        <v>883</v>
       </c>
       <c r="E314" s="4" t="s">
-        <v>851</v>
+        <v>914</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
-        <v>525</v>
+        <v>241</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="C315" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D315" s="5" t="s">
-        <v>1076</v>
+        <v>953</v>
       </c>
       <c r="E315" s="4" t="s">
-        <v>852</v>
+        <v>915</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
-        <v>556</v>
+        <v>245</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="C316" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D316" s="5" t="s">
-        <v>35</v>
+        <v>1092</v>
       </c>
       <c r="E316" s="4" t="s">
-        <v>926</v>
+        <v>841</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
-        <v>557</v>
+        <v>520</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>558</v>
+        <v>343</v>
       </c>
       <c r="C317" s="1">
         <v>1</v>
       </c>
       <c r="D317" s="5" t="s">
-        <v>894</v>
+        <v>564</v>
       </c>
       <c r="E317" s="4" t="s">
-        <v>927</v>
+        <v>842</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
-        <v>559</v>
+        <v>521</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>251</v>
+        <v>388</v>
       </c>
       <c r="C318" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D318" s="5" t="s">
-        <v>895</v>
+        <v>1093</v>
       </c>
       <c r="E318" s="4" t="s">
-        <v>928</v>
+        <v>843</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
-        <v>896</v>
+        <v>522</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>362</v>
+        <v>281</v>
       </c>
       <c r="C319" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D319" s="5" t="s">
-        <v>1077</v>
+        <v>1094</v>
       </c>
       <c r="E319" s="4" t="s">
-        <v>929</v>
+        <v>844</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
-        <v>977</v>
+        <v>549</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>978</v>
+        <v>351</v>
       </c>
       <c r="C320" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D320" s="5" t="s">
-        <v>1078</v>
+        <v>35</v>
       </c>
       <c r="E320" s="4" t="s">
-        <v>985</v>
+        <v>916</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A321" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C321" s="1">
+        <v>1</v>
+      </c>
+      <c r="D321" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="E321" s="4" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A322" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C322" s="1">
+        <v>1</v>
+      </c>
+      <c r="D322" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="E322" s="4" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A323" s="2" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C323" s="1">
+        <v>2</v>
+      </c>
+      <c r="D323" s="5" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E323" s="4" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A324" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C324" s="1">
+        <v>1</v>
+      </c>
+      <c r="D324" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="E324" s="4" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A325" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="C325" s="1">
+        <v>1</v>
+      </c>
+      <c r="D325" s="5" t="s">
+        <v>998</v>
+      </c>
+      <c r="E325" s="4" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A326" s="2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C326" s="1">
+        <v>0</v>
+      </c>
+      <c r="D326" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E326" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A327" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C327" s="1">
+        <v>0</v>
+      </c>
+      <c r="D327" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E327" s="4" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A328" s="2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C328" s="1">
+        <v>0</v>
+      </c>
+      <c r="D328" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E328" s="4" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A329" s="2" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C329" s="1">
+        <v>1</v>
+      </c>
+      <c r="D329" s="5" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E329" s="4" t="s">
+        <v>1007</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3633B1E1-4589-47EA-9028-E6D99198BCFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2FBAF8-439B-41A7-86A3-C99B6B910AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8280" yWindow="4335" windowWidth="23925" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10275" yWindow="4155" windowWidth="23925" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="1102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="1101">
   <si>
     <t>缪尔赛思</t>
   </si>
@@ -770,10 +770,6 @@
     <t>阿斯卡纶</t>
   </si>
   <si>
-    <t>*为好评率不高于80%,**为好评率不高于50%，***为好评率不高于30%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>干员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3061,10 +3057,6 @@
     <t>&gt; 由非助战玛露西尔累计造成100000点伤害&gt; 3星通关主题曲5-10；必须编入非助战玛露西尔并上场，且使用玛露西尔至少歼灭10名敌人</t>
   </si>
   <si>
-    <t>更新日期：2024.09.16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>*maa://20990 (75.0)</t>
   </si>
   <si>
@@ -3342,13 +3334,16 @@
   </si>
   <si>
     <t>maa://41110 (91.67)</t>
+  </si>
+  <si>
+    <t>*为好评率不高于80%,**为好评率不高于50%，***为好评率不高于30%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3379,6 +3374,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3400,7 +3402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3415,11 +3417,20 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3701,10 +3712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF329"/>
+  <dimension ref="A1:AF330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A278" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="E317" sqref="E317"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3745,54 +3756,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>565</v>
-      </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="2"/>
-      <c r="L1" s="1"/>
-      <c r="N1" s="2"/>
-      <c r="P1" s="1"/>
-      <c r="R1" s="2"/>
-      <c r="T1" s="1"/>
-      <c r="V1" s="2"/>
-      <c r="X1" s="1"/>
-      <c r="Z1" s="2"/>
-      <c r="AB1" s="1"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="8" t="s">
+        <v>1100</v>
+      </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>132</v>
+        <v>246</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>1009</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>566</v>
+        <v>247</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>564</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -3814,19 +3800,19 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>332</v>
+        <v>249</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>532</v>
+        <v>1007</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -3848,27 +3834,25 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>251</v>
+        <v>331</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>920</v>
+        <v>531</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>568</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="3"/>
+        <v>566</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="2"/>
       <c r="L4" s="1"/>
       <c r="N4" s="2"/>
       <c r="P4" s="1"/>
@@ -3882,26 +3866,26 @@
       <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>333</v>
+        <v>250</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>400</v>
+        <v>919</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>569</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+        <v>567</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
       <c r="J5" s="3"/>
       <c r="L5" s="1"/>
       <c r="N5" s="2"/>
@@ -3916,26 +3900,26 @@
       <c r="AE5" s="3"/>
       <c r="AF5" s="3"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>252</v>
+        <v>332</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>1010</v>
+        <v>399</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+        <v>568</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
       <c r="J6" s="3"/>
       <c r="L6" s="1"/>
       <c r="N6" s="2"/>
@@ -3952,26 +3936,25 @@
     </row>
     <row r="7" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>401</v>
+        <v>1008</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>571</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>1008</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="J7" s="2"/>
+        <v>569</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="3"/>
       <c r="L7" s="1"/>
       <c r="N7" s="2"/>
       <c r="P7" s="1"/>
@@ -3987,23 +3970,23 @@
     </row>
     <row r="8" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>334</v>
+        <v>252</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+        <v>570</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
       <c r="J8" s="2"/>
       <c r="L8" s="1"/>
       <c r="N8" s="2"/>
@@ -4020,23 +4003,23 @@
     </row>
     <row r="9" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>553</v>
+        <v>401</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>573</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+        <v>571</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
       <c r="J9" s="2"/>
       <c r="L9" s="1"/>
       <c r="N9" s="2"/>
@@ -4051,24 +4034,25 @@
       <c r="AE9" s="3"/>
       <c r="AF9" s="3"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>403</v>
+        <v>552</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>574</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="H10" s="1"/>
+        <v>572</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
       <c r="J10" s="2"/>
       <c r="L10" s="1"/>
       <c r="N10" s="2"/>
@@ -4085,19 +4069,19 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>254</v>
+        <v>335</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F11" s="2"/>
       <c r="H11" s="1"/>
@@ -4117,19 +4101,19 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>508</v>
+        <v>38</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>343</v>
+        <v>253</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>554</v>
+        <v>403</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F12" s="2"/>
       <c r="H12" s="1"/>
@@ -4149,19 +4133,19 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>255</v>
+        <v>507</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F13" s="2"/>
       <c r="H13" s="1"/>
@@ -4181,19 +4165,19 @@
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>209</v>
+        <v>254</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>969</v>
+        <v>554</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F14" s="2"/>
       <c r="H14" s="1"/>
@@ -4213,19 +4197,19 @@
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>405</v>
+        <v>968</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F15" s="2"/>
       <c r="H15" s="1"/>
@@ -4245,19 +4229,19 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>1011</v>
+        <v>404</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F16" s="2"/>
       <c r="H16" s="1"/>
@@ -4277,19 +4261,19 @@
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>256</v>
+        <v>338</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>406</v>
+        <v>1009</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F17" s="2"/>
       <c r="H17" s="1"/>
@@ -4309,19 +4293,19 @@
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
       <c r="C18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>921</v>
+        <v>405</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F18" s="2"/>
       <c r="H18" s="1"/>
@@ -4341,19 +4325,19 @@
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>407</v>
+        <v>920</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F19" s="2"/>
       <c r="H19" s="1"/>
@@ -4373,19 +4357,19 @@
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>527</v>
+        <v>406</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F20" s="2"/>
       <c r="H20" s="1"/>
@@ -4405,19 +4389,19 @@
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>1012</v>
+        <v>526</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F21" s="2"/>
       <c r="H21" s="1"/>
@@ -4437,19 +4421,19 @@
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>187</v>
+        <v>75</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>408</v>
+        <v>1010</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F22" s="2"/>
       <c r="H22" s="1"/>
@@ -4469,19 +4453,19 @@
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>257</v>
+        <v>343</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F23" s="2"/>
       <c r="H23" s="1"/>
@@ -4501,19 +4485,19 @@
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>345</v>
+        <v>256</v>
       </c>
       <c r="C24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>35</v>
+        <v>408</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F24" s="2"/>
       <c r="H24" s="1"/>
@@ -4533,19 +4517,19 @@
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C25" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>1013</v>
+        <v>35</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F25" s="2"/>
       <c r="H25" s="1"/>
@@ -4565,19 +4549,19 @@
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C26" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>410</v>
+        <v>1011</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F26" s="2"/>
       <c r="H26" s="1"/>
@@ -4597,19 +4581,19 @@
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>258</v>
+        <v>346</v>
       </c>
       <c r="C27" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>1014</v>
+        <v>409</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F27" s="2"/>
       <c r="H27" s="1"/>
@@ -4629,19 +4613,19 @@
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>348</v>
+        <v>257</v>
       </c>
       <c r="C28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>411</v>
+        <v>1012</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F28" s="2"/>
       <c r="H28" s="1"/>
@@ -4661,19 +4645,19 @@
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>963</v>
+        <v>410</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F29" s="2"/>
       <c r="H29" s="1"/>
@@ -4693,410 +4677,425 @@
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>509</v>
+        <v>40</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="C30" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>1015</v>
+        <v>962</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>594</v>
-      </c>
+        <v>592</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="H30" s="1"/>
+      <c r="J30" s="2"/>
+      <c r="L30" s="1"/>
+      <c r="N30" s="2"/>
+      <c r="P30" s="1"/>
+      <c r="R30" s="2"/>
+      <c r="T30" s="1"/>
+      <c r="V30" s="2"/>
+      <c r="X30" s="1"/>
+      <c r="Z30" s="2"/>
+      <c r="AB30" s="1"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3"/>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>41</v>
+        <v>508</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>259</v>
+        <v>364</v>
       </c>
       <c r="C31" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>340</v>
+        <v>258</v>
       </c>
       <c r="C32" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>412</v>
+        <v>1015</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C35" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>1018</v>
+        <v>412</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>260</v>
+        <v>350</v>
       </c>
       <c r="C36" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>414</v>
+        <v>1016</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C37" s="1">
+      <c r="B38" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C38" s="1">
         <v>2</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
       <c r="D38" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>970</v>
+        <v>415</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="C40" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>528</v>
+        <v>969</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>212</v>
+        <v>76</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>256</v>
+        <v>335</v>
       </c>
       <c r="C41" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>353</v>
+        <v>255</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>417</v>
+        <v>532</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="C43" s="1">
-        <v>1</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="B44" s="2" t="s">
-        <v>261</v>
+        <v>344</v>
       </c>
       <c r="C44" s="1">
         <v>1</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>556</v>
+        <v>417</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>419</v>
+        <v>555</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>342</v>
+        <v>261</v>
       </c>
       <c r="C46" s="1">
         <v>1</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>922</v>
+        <v>418</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>213</v>
+        <v>104</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>263</v>
+        <v>341</v>
       </c>
       <c r="C47" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>534</v>
+        <v>921</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>354</v>
+        <v>262</v>
       </c>
       <c r="C48" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>420</v>
+        <v>533</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C49" s="1">
         <v>1</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C50" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>1019</v>
+        <v>420</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>264</v>
+        <v>354</v>
       </c>
       <c r="C51" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>422</v>
+        <v>1017</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>105</v>
+        <v>215</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>356</v>
+        <v>263</v>
       </c>
       <c r="C52" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>971</v>
+        <v>421</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C53" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -5104,33 +5103,33 @@
         <v>21</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C54" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>1020</v>
+        <v>971</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>136</v>
+        <v>21</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="C55" s="1">
         <v>2</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -5138,50 +5137,50 @@
         <v>136</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>538</v>
+        <v>346</v>
       </c>
       <c r="C56" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>265</v>
+        <v>537</v>
       </c>
       <c r="C57" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>192</v>
+        <v>137</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>333</v>
+        <v>264</v>
       </c>
       <c r="C58" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -5189,33 +5188,33 @@
         <v>192</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="C59" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>266</v>
+        <v>358</v>
       </c>
       <c r="C60" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>923</v>
+        <v>1023</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -5223,33 +5222,33 @@
         <v>174</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>360</v>
+        <v>265</v>
       </c>
       <c r="C61" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>1026</v>
+        <v>922</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="C62" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>423</v>
+        <v>1024</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -5257,33 +5256,33 @@
         <v>175</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>275</v>
+        <v>340</v>
       </c>
       <c r="C63" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>924</v>
+        <v>422</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>956</v>
+        <v>625</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>361</v>
+        <v>274</v>
       </c>
       <c r="C64" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>1027</v>
+        <v>923</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>627</v>
+        <v>955</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -5291,33 +5290,33 @@
         <v>80</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C65" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>267</v>
+        <v>361</v>
       </c>
       <c r="C66" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>973</v>
+        <v>1026</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -5325,118 +5324,118 @@
         <v>81</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>353</v>
+        <v>266</v>
       </c>
       <c r="C67" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>1029</v>
+        <v>972</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>510</v>
+        <v>81</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>310</v>
+        <v>352</v>
       </c>
       <c r="C68" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>42</v>
+        <v>509</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>363</v>
+        <v>309</v>
       </c>
       <c r="C69" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>845</v>
+        <v>1028</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="C70" s="1">
         <v>1</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>268</v>
+        <v>336</v>
       </c>
       <c r="C71" s="1">
         <v>1</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>424</v>
+        <v>845</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C72" s="1">
         <v>1</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C73" s="1">
         <v>1</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>974</v>
+        <v>424</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -5450,61 +5449,61 @@
         <v>1</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>426</v>
+        <v>973</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>354</v>
+        <v>268</v>
       </c>
       <c r="C75" s="1">
         <v>1</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>271</v>
+        <v>353</v>
       </c>
       <c r="C76" s="1">
         <v>1</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="C77" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>539</v>
+        <v>427</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -5512,84 +5511,84 @@
         <v>46</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C78" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>429</v>
+        <v>538</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>176</v>
+        <v>46</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C79" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>1031</v>
+        <v>428</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>272</v>
+        <v>364</v>
       </c>
       <c r="C80" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>430</v>
+        <v>1029</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>350</v>
+        <v>271</v>
       </c>
       <c r="C81" s="1">
         <v>1</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>106</v>
+        <v>193</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>273</v>
+        <v>349</v>
       </c>
       <c r="C82" s="1">
         <v>1</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -5597,50 +5596,50 @@
         <v>106</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>366</v>
+        <v>272</v>
       </c>
       <c r="C83" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>1032</v>
+        <v>431</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C84" s="1">
         <v>2</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>975</v>
+        <v>1030</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C85" s="1">
         <v>2</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>964</v>
+        <v>974</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -5648,84 +5647,84 @@
         <v>47</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C86" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>557</v>
+        <v>963</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="C87" s="1">
         <v>1</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>433</v>
+        <v>556</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>274</v>
+        <v>361</v>
       </c>
       <c r="C88" s="1">
         <v>1</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>855</v>
+        <v>48</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>856</v>
+        <v>273</v>
       </c>
       <c r="C89" s="1">
         <v>1</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>976</v>
+        <v>433</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>887</v>
+        <v>650</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>194</v>
+        <v>854</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>370</v>
+        <v>855</v>
       </c>
       <c r="C90" s="1">
         <v>1</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>558</v>
+        <v>975</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>652</v>
+        <v>886</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -5733,118 +5732,118 @@
         <v>194</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C91" s="1">
         <v>1</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>535</v>
+        <v>557</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>275</v>
+        <v>370</v>
       </c>
       <c r="C92" s="1">
         <v>1</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>435</v>
+        <v>534</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>372</v>
+        <v>274</v>
       </c>
       <c r="C93" s="1">
         <v>1</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>108</v>
+        <v>178</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="C94" s="1">
         <v>1</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="C95" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>523</v>
+        <v>436</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>217</v>
+        <v>82</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="C96" s="1">
         <v>2</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>1033</v>
+        <v>522</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>140</v>
+        <v>217</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>284</v>
+        <v>364</v>
       </c>
       <c r="C97" s="1">
         <v>2</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>888</v>
+        <v>657</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -5852,169 +5851,169 @@
         <v>140</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C98" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>659</v>
+        <v>887</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>374</v>
+        <v>275</v>
       </c>
       <c r="C99" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>438</v>
+        <v>1033</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C100" s="1">
         <v>1</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>847</v>
+        <v>437</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="C101" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>1036</v>
+        <v>846</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>342</v>
+        <v>364</v>
       </c>
       <c r="C102" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>439</v>
+        <v>1034</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>376</v>
+        <v>341</v>
       </c>
       <c r="C103" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>1037</v>
+        <v>438</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>218</v>
+        <v>50</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>353</v>
+        <v>375</v>
       </c>
       <c r="C104" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>440</v>
+        <v>1035</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>83</v>
+        <v>218</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>250</v>
+        <v>352</v>
       </c>
       <c r="C105" s="1">
         <v>1</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>219</v>
+        <v>83</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>345</v>
+        <v>249</v>
       </c>
       <c r="C106" s="1">
         <v>1</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>965</v>
+        <v>440</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>84</v>
+        <v>219</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>277</v>
+        <v>344</v>
       </c>
       <c r="C107" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>977</v>
+        <v>964</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -6022,50 +6021,50 @@
         <v>84</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C108" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>925</v>
+        <v>976</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>141</v>
+        <v>84</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C109" s="1">
         <v>1</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>442</v>
+        <v>924</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C110" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>1038</v>
+        <v>441</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -6073,101 +6072,101 @@
         <v>142</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>377</v>
+        <v>279</v>
       </c>
       <c r="C111" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>540</v>
+        <v>1036</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>179</v>
+        <v>142</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C112" s="1">
         <v>2</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>51</v>
+        <v>179</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="C113" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>926</v>
+        <v>523</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>373</v>
+        <v>335</v>
       </c>
       <c r="C114" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>525</v>
+        <v>925</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>279</v>
+        <v>372</v>
       </c>
       <c r="C115" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>443</v>
+        <v>524</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>363</v>
+        <v>278</v>
       </c>
       <c r="C116" s="1">
         <v>1</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -6175,84 +6174,84 @@
         <v>25</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="C117" s="1">
         <v>1</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>978</v>
+        <v>443</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>344</v>
+        <v>373</v>
       </c>
       <c r="C118" s="1">
         <v>1</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>445</v>
+        <v>977</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="C119" s="1">
         <v>1</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>979</v>
+        <v>444</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>195</v>
+        <v>54</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>378</v>
+        <v>332</v>
       </c>
       <c r="C120" s="1">
         <v>1</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>446</v>
+        <v>978</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="C121" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>529</v>
+        <v>445</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -6260,50 +6259,50 @@
         <v>220</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>281</v>
+        <v>340</v>
       </c>
       <c r="C122" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>1039</v>
+        <v>528</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>26</v>
+        <v>220</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C123" s="1">
         <v>2</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>447</v>
+        <v>1037</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>221</v>
+        <v>26</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C124" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>1040</v>
+        <v>446</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -6311,33 +6310,33 @@
         <v>221</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C125" s="1">
         <v>1</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>448</v>
+        <v>1038</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>112</v>
+        <v>221</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C126" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>1041</v>
+        <v>447</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -6345,169 +6344,169 @@
         <v>112</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C127" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>196</v>
+        <v>112</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C128" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>848</v>
+        <v>1040</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>353</v>
+        <v>278</v>
       </c>
       <c r="C129" s="1">
         <v>1</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>449</v>
+        <v>847</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="C130" s="1">
         <v>1</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>379</v>
+        <v>339</v>
       </c>
       <c r="C131" s="1">
         <v>1</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C132" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>980</v>
+        <v>450</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C133" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>1043</v>
+        <v>979</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C134" s="1">
         <v>1</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>452</v>
+        <v>1041</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>511</v>
+        <v>180</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="C135" s="1">
         <v>1</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>559</v>
+        <v>451</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>198</v>
+        <v>510</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>286</v>
+        <v>359</v>
       </c>
       <c r="C136" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>1044</v>
+        <v>558</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -6515,186 +6514,186 @@
         <v>198</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C137" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>362</v>
+        <v>286</v>
       </c>
       <c r="C138" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>453</v>
+        <v>1043</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>146</v>
+        <v>199</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>288</v>
+        <v>361</v>
       </c>
       <c r="C139" s="1">
         <v>1</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>849</v>
+        <v>452</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>382</v>
+        <v>287</v>
       </c>
       <c r="C140" s="1">
         <v>1</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>454</v>
+        <v>848</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>222</v>
+        <v>27</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>289</v>
+        <v>381</v>
       </c>
       <c r="C141" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>1046</v>
+        <v>453</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>114</v>
+        <v>222</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>383</v>
+        <v>288</v>
       </c>
       <c r="C142" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>981</v>
+        <v>1044</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>512</v>
+        <v>114</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>513</v>
+        <v>382</v>
       </c>
       <c r="C143" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>1047</v>
+        <v>980</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>115</v>
+        <v>511</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>345</v>
+        <v>512</v>
       </c>
       <c r="C144" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>455</v>
+        <v>1045</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>290</v>
+        <v>344</v>
       </c>
       <c r="C145" s="1">
         <v>1</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>55</v>
+        <v>147</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C146" s="1">
         <v>1</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>850</v>
+        <v>455</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C147" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>457</v>
+        <v>849</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
@@ -6702,135 +6701,135 @@
         <v>85</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C148" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>857</v>
+        <v>456</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>514</v>
+        <v>85</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>345</v>
+        <v>292</v>
       </c>
       <c r="C149" s="1">
         <v>1</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>560</v>
+        <v>856</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>148</v>
+        <v>513</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>294</v>
+        <v>344</v>
       </c>
       <c r="C150" s="1">
         <v>1</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>927</v>
+        <v>559</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>384</v>
+        <v>293</v>
       </c>
       <c r="C151" s="1">
         <v>1</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>458</v>
+        <v>926</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>353</v>
+        <v>383</v>
       </c>
       <c r="C152" s="1">
         <v>1</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>279</v>
+        <v>352</v>
       </c>
       <c r="C153" s="1">
         <v>1</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>515</v>
+        <v>458</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>858</v>
+        <v>56</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>859</v>
+        <v>278</v>
       </c>
       <c r="C154" s="1">
         <v>1</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>982</v>
+        <v>514</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>889</v>
+        <v>713</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>87</v>
+        <v>857</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>263</v>
+        <v>858</v>
       </c>
       <c r="C155" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>530</v>
+        <v>981</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>715</v>
+        <v>888</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
@@ -6838,203 +6837,203 @@
         <v>87</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="C156" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>460</v>
+        <v>529</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C157" s="1">
         <v>1</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>851</v>
+        <v>459</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>181</v>
+        <v>57</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>370</v>
+        <v>295</v>
       </c>
       <c r="C158" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>561</v>
+        <v>850</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>88</v>
+        <v>181</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C159" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>1048</v>
+        <v>560</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C160" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>461</v>
+        <v>1046</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>860</v>
+        <v>117</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>341</v>
+        <v>371</v>
       </c>
       <c r="C161" s="1">
         <v>1</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>983</v>
+        <v>460</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>890</v>
+        <v>719</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>223</v>
+        <v>859</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>297</v>
+        <v>340</v>
       </c>
       <c r="C162" s="1">
         <v>1</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>852</v>
+        <v>982</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>721</v>
+        <v>889</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
       <c r="C163" s="1">
         <v>1</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>1049</v>
+        <v>851</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>58</v>
+        <v>224</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>298</v>
+        <v>332</v>
       </c>
       <c r="C164" s="1">
         <v>1</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>984</v>
+        <v>1047</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C165" s="1">
         <v>1</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>1050</v>
+        <v>983</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>149</v>
+        <v>28</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="C166" s="1">
         <v>1</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>928</v>
+        <v>1048</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>251</v>
+        <v>370</v>
       </c>
       <c r="C167" s="1">
         <v>1</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>462</v>
+        <v>927</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
@@ -7042,84 +7041,84 @@
         <v>118</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>352</v>
+        <v>250</v>
       </c>
       <c r="C168" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>536</v>
+        <v>461</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C169" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>463</v>
+        <v>535</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>300</v>
+        <v>352</v>
       </c>
       <c r="C170" s="1">
         <v>1</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>225</v>
+        <v>150</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>373</v>
+        <v>299</v>
       </c>
       <c r="C171" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>526</v>
+        <v>463</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>29</v>
+        <v>225</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>301</v>
+        <v>372</v>
       </c>
       <c r="C172" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>465</v>
+        <v>525</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
@@ -7127,33 +7126,33 @@
         <v>29</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C173" s="1">
         <v>1</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>151</v>
+        <v>29</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>385</v>
+        <v>301</v>
       </c>
       <c r="C174" s="1">
         <v>1</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
@@ -7161,84 +7160,84 @@
         <v>151</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C175" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>1051</v>
+        <v>466</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>59</v>
+        <v>151</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>271</v>
+        <v>385</v>
       </c>
       <c r="C176" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>468</v>
+        <v>1049</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="C177" s="1">
         <v>1</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>226</v>
+        <v>89</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="C178" s="1">
         <v>1</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>853</v>
+        <v>468</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>119</v>
+        <v>226</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>303</v>
+        <v>358</v>
       </c>
       <c r="C179" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>1052</v>
+        <v>852</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
@@ -7246,67 +7245,67 @@
         <v>119</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>336</v>
+        <v>302</v>
       </c>
       <c r="C180" s="1">
         <v>2</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>531</v>
+        <v>1050</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C181" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="C182" s="1">
         <v>1</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="C183" s="1">
         <v>1</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
@@ -7314,50 +7313,50 @@
         <v>152</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C184" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>966</v>
+        <v>471</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>60</v>
+        <v>152</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="C185" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>473</v>
+        <v>965</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>227</v>
+        <v>60</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>304</v>
+        <v>350</v>
       </c>
       <c r="C186" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>1053</v>
+        <v>472</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
@@ -7365,33 +7364,33 @@
         <v>227</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>541</v>
+        <v>303</v>
       </c>
       <c r="C187" s="1">
         <v>3</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>985</v>
+        <v>1051</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>183</v>
+        <v>227</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>368</v>
+        <v>540</v>
       </c>
       <c r="C188" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>1054</v>
+        <v>984</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
@@ -7399,84 +7398,84 @@
         <v>183</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C189" s="1">
         <v>5</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>305</v>
+        <v>367</v>
       </c>
       <c r="C190" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>854</v>
+        <v>1052</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>228</v>
+        <v>153</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>354</v>
+        <v>304</v>
       </c>
       <c r="C191" s="1">
         <v>1</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>474</v>
+        <v>853</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="C192" s="1">
         <v>1</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
-        <v>154</v>
+        <v>229</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="C193" s="1">
         <v>1</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
@@ -7484,33 +7483,33 @@
         <v>154</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="C194" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>61</v>
+        <v>154</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="C195" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
@@ -7518,50 +7517,50 @@
         <v>61</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>386</v>
+        <v>340</v>
       </c>
       <c r="C196" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C197" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>1055</v>
+        <v>478</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>230</v>
+        <v>62</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C198" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
@@ -7569,118 +7568,118 @@
         <v>230</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>363</v>
+        <v>385</v>
       </c>
       <c r="C199" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>986</v>
+        <v>1054</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>861</v>
+        <v>230</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>396</v>
+        <v>362</v>
       </c>
       <c r="C200" s="1">
         <v>1</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>1057</v>
+        <v>985</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>891</v>
+        <v>757</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>200</v>
+        <v>860</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>351</v>
+        <v>395</v>
       </c>
       <c r="C201" s="1">
         <v>1</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>929</v>
+        <v>1055</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>759</v>
+        <v>890</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>930</v>
+        <v>200</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="C202" s="1">
         <v>1</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>987</v>
+        <v>928</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>957</v>
+        <v>758</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>30</v>
+        <v>929</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>389</v>
+        <v>304</v>
       </c>
       <c r="C203" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>480</v>
+        <v>986</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>760</v>
+        <v>956</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="C204" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>862</v>
+        <v>479</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>892</v>
+        <v>759</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>253</v>
+        <v>379</v>
       </c>
       <c r="C205" s="1">
         <v>1</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>931</v>
+        <v>861</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>761</v>
+        <v>891</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
@@ -7688,101 +7687,101 @@
         <v>121</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>370</v>
+        <v>252</v>
       </c>
       <c r="C206" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="C207" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>481</v>
+        <v>931</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>933</v>
+        <v>155</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>934</v>
+        <v>341</v>
       </c>
       <c r="C208" s="1">
         <v>1</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>967</v>
+        <v>480</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>958</v>
+        <v>762</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>31</v>
+        <v>932</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>295</v>
+        <v>933</v>
       </c>
       <c r="C209" s="1">
         <v>1</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>542</v>
+        <v>966</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>764</v>
+        <v>957</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="C210" s="1">
         <v>1</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>863</v>
+        <v>541</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>893</v>
+        <v>763</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>266</v>
+        <v>305</v>
       </c>
       <c r="C211" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>935</v>
+        <v>862</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>765</v>
+        <v>892</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
@@ -7790,33 +7789,33 @@
         <v>32</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>307</v>
+        <v>265</v>
       </c>
       <c r="C212" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>482</v>
+        <v>934</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C213" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>1058</v>
+        <v>481</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
@@ -7824,135 +7823,135 @@
         <v>63</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C214" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="E214" s="4" t="s">
-        <v>894</v>
+        <v>766</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
-        <v>157</v>
+        <v>63</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C215" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>936</v>
+        <v>1057</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>768</v>
+        <v>893</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>351</v>
+        <v>309</v>
       </c>
       <c r="C216" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>483</v>
+        <v>935</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
-        <v>201</v>
+        <v>92</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="C217" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>937</v>
+        <v>482</v>
       </c>
       <c r="E217" s="4" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C218" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>864</v>
+        <v>936</v>
       </c>
       <c r="E218" s="4" t="s">
-        <v>895</v>
+        <v>769</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
-        <v>312</v>
+        <v>202</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>351</v>
+        <v>310</v>
       </c>
       <c r="C219" s="1">
         <v>1</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>938</v>
+        <v>863</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>771</v>
+        <v>894</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
-        <v>33</v>
+        <v>311</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="C220" s="1">
         <v>1</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>484</v>
+        <v>937</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
-        <v>231</v>
+        <v>33</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C221" s="1">
         <v>1</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>939</v>
+        <v>483</v>
       </c>
       <c r="E221" s="4" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
@@ -7960,118 +7959,118 @@
         <v>231</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>313</v>
+        <v>361</v>
       </c>
       <c r="C222" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D222" s="5" t="s">
-        <v>988</v>
+        <v>938</v>
       </c>
       <c r="E222" s="4" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="C223" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D223" s="5" t="s">
-        <v>1060</v>
+        <v>987</v>
       </c>
       <c r="E223" s="4" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>389</v>
+        <v>339</v>
       </c>
       <c r="C224" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>485</v>
+        <v>1058</v>
       </c>
       <c r="E224" s="4" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>314</v>
+        <v>388</v>
       </c>
       <c r="C225" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D225" s="5" t="s">
-        <v>1061</v>
+        <v>484</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>232</v>
+        <v>158</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C226" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D226" s="5" t="s">
-        <v>486</v>
+        <v>1059</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>362</v>
+        <v>314</v>
       </c>
       <c r="C227" s="1">
         <v>1</v>
       </c>
       <c r="D227" s="5" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
-        <v>122</v>
+        <v>233</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>316</v>
+        <v>361</v>
       </c>
       <c r="C228" s="1">
         <v>1</v>
       </c>
       <c r="D228" s="5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E228" s="4" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
@@ -8079,101 +8078,101 @@
         <v>122</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C229" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D229" s="5" t="s">
-        <v>940</v>
+        <v>487</v>
       </c>
       <c r="E229" s="4" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>941</v>
+        <v>122</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>942</v>
+        <v>316</v>
       </c>
       <c r="C230" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D230" s="5" t="s">
-        <v>989</v>
+        <v>939</v>
       </c>
       <c r="E230" s="4" t="s">
-        <v>959</v>
+        <v>780</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
-        <v>159</v>
+        <v>940</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>292</v>
+        <v>941</v>
       </c>
       <c r="C231" s="1">
         <v>1</v>
       </c>
       <c r="D231" s="5" t="s">
-        <v>943</v>
+        <v>988</v>
       </c>
       <c r="E231" s="4" t="s">
-        <v>782</v>
+        <v>958</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>390</v>
+        <v>291</v>
       </c>
       <c r="C232" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D232" s="5" t="s">
-        <v>1062</v>
+        <v>942</v>
       </c>
       <c r="E232" s="4" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
-        <v>205</v>
+        <v>93</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C233" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D233" s="5" t="s">
-        <v>865</v>
+        <v>1060</v>
       </c>
       <c r="E233" s="4" t="s">
-        <v>896</v>
+        <v>782</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C234" s="1">
         <v>1</v>
       </c>
       <c r="D234" s="5" t="s">
-        <v>1063</v>
+        <v>864</v>
       </c>
       <c r="E234" s="4" t="s">
-        <v>784</v>
+        <v>895</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
@@ -8181,30 +8180,33 @@
         <v>184</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>265</v>
+        <v>391</v>
       </c>
       <c r="C235" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D235" s="5" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="E235" s="4" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
-        <v>64</v>
+        <v>184</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>318</v>
+        <v>264</v>
       </c>
       <c r="C236" s="1">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="D236" s="5" t="s">
+        <v>1062</v>
       </c>
       <c r="E236" s="4" t="s">
-        <v>999</v>
+        <v>784</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
@@ -8212,33 +8214,30 @@
         <v>64</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>251</v>
+        <v>317</v>
       </c>
       <c r="C237" s="1">
-        <v>1</v>
-      </c>
-      <c r="D237" s="5" t="s">
-        <v>489</v>
+        <v>0</v>
       </c>
       <c r="E237" s="4" t="s">
-        <v>786</v>
+        <v>998</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
-        <v>234</v>
+        <v>64</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>318</v>
+        <v>250</v>
       </c>
       <c r="C238" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D238" s="5" t="s">
-        <v>1065</v>
+        <v>488</v>
       </c>
       <c r="E238" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
@@ -8246,67 +8245,67 @@
         <v>234</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>268</v>
+        <v>317</v>
       </c>
       <c r="C239" s="1">
         <v>2</v>
       </c>
       <c r="D239" s="5" t="s">
-        <v>990</v>
+        <v>1063</v>
       </c>
       <c r="E239" s="4" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>317</v>
+        <v>267</v>
       </c>
       <c r="C240" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D240" s="5" t="s">
-        <v>490</v>
+        <v>989</v>
       </c>
       <c r="E240" s="4" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
-        <v>185</v>
+        <v>123</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C241" s="1">
         <v>1</v>
       </c>
       <c r="D241" s="5" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E241" s="4" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>373</v>
+        <v>318</v>
       </c>
       <c r="C242" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D242" s="5" t="s">
-        <v>1066</v>
+        <v>490</v>
       </c>
       <c r="E242" s="4" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
@@ -8314,16 +8313,16 @@
         <v>160</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>341</v>
+        <v>372</v>
       </c>
       <c r="C243" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D243" s="5" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="E243" s="4" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
@@ -8331,305 +8330,305 @@
         <v>160</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>393</v>
+        <v>340</v>
       </c>
       <c r="C244" s="1">
         <v>1</v>
       </c>
       <c r="D244" s="5" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="E244" s="4" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="C245" s="1">
         <v>1</v>
       </c>
       <c r="D245" s="5" t="s">
-        <v>492</v>
+        <v>1066</v>
       </c>
       <c r="E245" s="4" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>334</v>
+        <v>385</v>
       </c>
       <c r="C246" s="1">
         <v>1</v>
       </c>
       <c r="D246" s="5" t="s">
-        <v>866</v>
+        <v>491</v>
       </c>
       <c r="E246" s="4" t="s">
-        <v>897</v>
+        <v>793</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
-        <v>235</v>
+        <v>124</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>363</v>
+        <v>333</v>
       </c>
       <c r="C247" s="1">
         <v>1</v>
       </c>
       <c r="D247" s="5" t="s">
-        <v>944</v>
+        <v>865</v>
       </c>
       <c r="E247" s="4" t="s">
-        <v>795</v>
+        <v>896</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
-        <v>162</v>
+        <v>235</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>320</v>
+        <v>362</v>
       </c>
       <c r="C248" s="1">
         <v>1</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="E248" s="4" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="C249" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D249" s="5" t="s">
-        <v>968</v>
+        <v>944</v>
       </c>
       <c r="E249" s="4" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>389</v>
+        <v>341</v>
       </c>
       <c r="C250" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>991</v>
+        <v>967</v>
       </c>
       <c r="E250" s="4" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>206</v>
+        <v>65</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
       <c r="C251" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>1069</v>
+        <v>990</v>
       </c>
       <c r="E251" s="4" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
-        <v>516</v>
+        <v>206</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>517</v>
+        <v>364</v>
       </c>
       <c r="C252" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="E252" s="4" t="s">
-        <v>898</v>
+        <v>798</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
-        <v>66</v>
+        <v>515</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>321</v>
+        <v>516</v>
       </c>
       <c r="C253" s="1">
         <v>1</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>493</v>
+        <v>866</v>
       </c>
       <c r="E253" s="4" t="s">
-        <v>800</v>
+        <v>897</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>260</v>
+        <v>320</v>
       </c>
       <c r="C254" s="1">
         <v>1</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>946</v>
+        <v>492</v>
       </c>
       <c r="E254" s="4" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>349</v>
+        <v>259</v>
       </c>
       <c r="C255" s="1">
         <v>1</v>
       </c>
       <c r="D255" s="5" t="s">
-        <v>868</v>
+        <v>945</v>
       </c>
       <c r="E255" s="4" t="s">
-        <v>899</v>
+        <v>800</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
-        <v>207</v>
+        <v>67</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>388</v>
+        <v>348</v>
       </c>
       <c r="C256" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>1070</v>
+        <v>867</v>
       </c>
       <c r="E256" s="4" t="s">
-        <v>802</v>
+        <v>898</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
-        <v>1071</v>
+        <v>207</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>1072</v>
+        <v>387</v>
       </c>
       <c r="C257" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D257" s="5" t="s">
-        <v>35</v>
+        <v>1068</v>
       </c>
       <c r="E257" s="4" t="s">
-        <v>1000</v>
+        <v>801</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
-        <v>163</v>
+        <v>1069</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>354</v>
+        <v>1070</v>
       </c>
       <c r="C258" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D258" s="5" t="s">
-        <v>494</v>
+        <v>35</v>
       </c>
       <c r="E258" s="4" t="s">
-        <v>803</v>
+        <v>999</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="C259" s="1">
         <v>1</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E259" s="4" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="C260" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>869</v>
+        <v>494</v>
       </c>
       <c r="E260" s="4" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>296</v>
+        <v>350</v>
       </c>
       <c r="C261" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D261" s="5" t="s">
-        <v>496</v>
+        <v>868</v>
       </c>
       <c r="E261" s="4" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
@@ -8637,305 +8636,305 @@
         <v>94</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>543</v>
+        <v>295</v>
       </c>
       <c r="C262" s="1">
         <v>1</v>
       </c>
       <c r="D262" s="5" t="s">
-        <v>992</v>
+        <v>495</v>
       </c>
       <c r="E262" s="4" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
-        <v>236</v>
+        <v>94</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>322</v>
+        <v>542</v>
       </c>
       <c r="C263" s="1">
         <v>1</v>
       </c>
       <c r="D263" s="5" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="E263" s="4" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
-        <v>164</v>
+        <v>236</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>378</v>
+        <v>321</v>
       </c>
       <c r="C264" s="1">
         <v>1</v>
       </c>
       <c r="D264" s="5" t="s">
-        <v>497</v>
+        <v>992</v>
       </c>
       <c r="E264" s="4" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="C265" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D265" s="5" t="s">
-        <v>1073</v>
+        <v>496</v>
       </c>
       <c r="E265" s="4" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
-        <v>128</v>
+        <v>186</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>253</v>
+        <v>387</v>
       </c>
       <c r="C266" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>498</v>
+        <v>1071</v>
       </c>
       <c r="E266" s="4" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>323</v>
+        <v>252</v>
       </c>
       <c r="C267" s="1">
         <v>1</v>
       </c>
       <c r="D267" s="5" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E267" s="4" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>388</v>
+        <v>322</v>
       </c>
       <c r="C268" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D268" s="5" t="s">
-        <v>1074</v>
+        <v>498</v>
       </c>
       <c r="E268" s="4" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
-        <v>68</v>
+        <v>165</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>324</v>
+        <v>387</v>
       </c>
       <c r="C269" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D269" s="5" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="E269" s="4" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
-        <v>1076</v>
+        <v>68</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>366</v>
+        <v>323</v>
       </c>
       <c r="C270" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D270" s="5" t="s">
-        <v>35</v>
+        <v>1073</v>
       </c>
       <c r="E270" s="4" t="s">
-        <v>1001</v>
+        <v>813</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
-        <v>518</v>
+        <v>1074</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>324</v>
+        <v>365</v>
       </c>
       <c r="C271" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D271" s="5" t="s">
-        <v>1077</v>
+        <v>35</v>
       </c>
       <c r="E271" s="4" t="s">
-        <v>815</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
-        <v>69</v>
+        <v>517</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
       <c r="C272" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D272" s="5" t="s">
-        <v>870</v>
+        <v>1075</v>
       </c>
       <c r="E272" s="4" t="s">
-        <v>900</v>
+        <v>814</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
-        <v>325</v>
+        <v>69</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="C273" s="1">
         <v>2</v>
       </c>
       <c r="D273" s="5" t="s">
-        <v>994</v>
+        <v>869</v>
       </c>
       <c r="E273" s="4" t="s">
-        <v>816</v>
+        <v>899</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
-        <v>70</v>
+        <v>324</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C274" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D274" s="5" t="s">
-        <v>871</v>
+        <v>993</v>
       </c>
       <c r="E274" s="4" t="s">
-        <v>901</v>
+        <v>815</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="C275" s="1">
         <v>1</v>
       </c>
       <c r="D275" s="5" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="E275" s="4" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="C276" s="1">
         <v>1</v>
       </c>
       <c r="D276" s="5" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E276" s="4" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>260</v>
+        <v>325</v>
       </c>
       <c r="C277" s="1">
         <v>1</v>
       </c>
       <c r="D277" s="5" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="E277" s="4" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
-        <v>208</v>
+        <v>129</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>367</v>
+        <v>259</v>
       </c>
       <c r="C278" s="1">
         <v>1</v>
       </c>
       <c r="D278" s="5" t="s">
-        <v>500</v>
+        <v>873</v>
       </c>
       <c r="E278" s="4" t="s">
-        <v>817</v>
+        <v>903</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>273</v>
+        <v>366</v>
       </c>
       <c r="C279" s="1">
         <v>1</v>
       </c>
       <c r="D279" s="5" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E279" s="4" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
@@ -8943,169 +8942,169 @@
         <v>166</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>386</v>
+        <v>272</v>
       </c>
       <c r="C280" s="1">
         <v>1</v>
       </c>
       <c r="D280" s="5" t="s">
-        <v>537</v>
+        <v>500</v>
       </c>
       <c r="E280" s="4" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>340</v>
+        <v>385</v>
       </c>
       <c r="C281" s="1">
         <v>1</v>
       </c>
       <c r="D281" s="5" t="s">
-        <v>1078</v>
+        <v>536</v>
       </c>
       <c r="E281" s="4" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C282" s="1">
         <v>1</v>
       </c>
       <c r="D282" s="5" t="s">
-        <v>947</v>
+        <v>1076</v>
       </c>
       <c r="E282" s="4" t="s">
-        <v>905</v>
+        <v>819</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
-        <v>237</v>
+        <v>130</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>257</v>
+        <v>339</v>
       </c>
       <c r="C283" s="1">
         <v>1</v>
       </c>
       <c r="D283" s="5" t="s">
-        <v>875</v>
+        <v>946</v>
       </c>
       <c r="E283" s="4" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
-        <v>72</v>
+        <v>237</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>394</v>
+        <v>256</v>
       </c>
       <c r="C284" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D284" s="5" t="s">
-        <v>1079</v>
+        <v>874</v>
       </c>
       <c r="E284" s="4" t="s">
-        <v>821</v>
+        <v>905</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
-        <v>167</v>
+        <v>72</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>294</v>
+        <v>393</v>
       </c>
       <c r="C285" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D285" s="5" t="s">
-        <v>995</v>
+        <v>1077</v>
       </c>
       <c r="E285" s="4" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="C286" s="1">
         <v>1</v>
       </c>
       <c r="D286" s="5" t="s">
-        <v>1080</v>
+        <v>994</v>
       </c>
       <c r="E286" s="4" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
-        <v>2</v>
+        <v>131</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="C287" s="1">
         <v>1</v>
       </c>
       <c r="D287" s="5" t="s">
-        <v>562</v>
+        <v>1078</v>
       </c>
       <c r="E287" s="4" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>265</v>
+        <v>347</v>
       </c>
       <c r="C288" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D288" s="5" t="s">
-        <v>1081</v>
+        <v>561</v>
       </c>
       <c r="E288" s="4" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>381</v>
+        <v>264</v>
       </c>
       <c r="C289" s="1">
         <v>2</v>
       </c>
       <c r="D289" s="5" t="s">
-        <v>502</v>
+        <v>1079</v>
       </c>
       <c r="E289" s="4" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
@@ -9113,636 +9112,636 @@
         <v>4</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>876</v>
+        <v>380</v>
       </c>
       <c r="C290" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D290" s="5" t="s">
-        <v>877</v>
+        <v>501</v>
       </c>
       <c r="E290" s="4" t="s">
-        <v>907</v>
+        <v>825</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
-        <v>948</v>
+        <v>4</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>949</v>
+        <v>875</v>
       </c>
       <c r="C291" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D291" s="5" t="s">
-        <v>1082</v>
+        <v>876</v>
       </c>
       <c r="E291" s="4" t="s">
-        <v>960</v>
+        <v>906</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
-        <v>544</v>
+        <v>947</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>545</v>
+        <v>948</v>
       </c>
       <c r="C292" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D292" s="5" t="s">
-        <v>878</v>
+        <v>1080</v>
       </c>
       <c r="E292" s="4" t="s">
-        <v>908</v>
+        <v>959</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
-        <v>5</v>
+        <v>543</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>294</v>
+        <v>544</v>
       </c>
       <c r="C293" s="1">
         <v>1</v>
       </c>
       <c r="D293" s="5" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E293" s="4" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>351</v>
+        <v>293</v>
       </c>
       <c r="C294" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D294" s="5" t="s">
-        <v>503</v>
+        <v>878</v>
       </c>
       <c r="E294" s="4" t="s">
-        <v>827</v>
+        <v>908</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
-        <v>242</v>
+        <v>6</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C295" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D295" s="5" t="s">
-        <v>880</v>
+        <v>502</v>
       </c>
       <c r="E295" s="4" t="s">
-        <v>910</v>
+        <v>826</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="C296" s="1">
         <v>1</v>
       </c>
       <c r="D296" s="5" t="s">
-        <v>950</v>
+        <v>879</v>
       </c>
       <c r="E296" s="4" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C297" s="1">
         <v>1</v>
       </c>
       <c r="D297" s="5" t="s">
-        <v>504</v>
+        <v>949</v>
       </c>
       <c r="E297" s="4" t="s">
-        <v>828</v>
+        <v>910</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
-        <v>1083</v>
+        <v>8</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>1084</v>
+        <v>328</v>
       </c>
       <c r="C298" s="1">
         <v>1</v>
       </c>
       <c r="D298" s="5" t="s">
-        <v>1085</v>
+        <v>503</v>
       </c>
       <c r="E298" s="4" t="s">
-        <v>1002</v>
+        <v>827</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
-        <v>9</v>
+        <v>1081</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>319</v>
+        <v>1082</v>
       </c>
       <c r="C299" s="1">
         <v>1</v>
       </c>
       <c r="D299" s="5" t="s">
-        <v>951</v>
+        <v>1083</v>
       </c>
       <c r="E299" s="4" t="s">
-        <v>912</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>395</v>
+        <v>318</v>
       </c>
       <c r="C300" s="1">
         <v>1</v>
       </c>
       <c r="D300" s="5" t="s">
-        <v>1086</v>
+        <v>950</v>
       </c>
       <c r="E300" s="4" t="s">
-        <v>829</v>
+        <v>911</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
-        <v>952</v>
+        <v>10</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C301" s="1">
         <v>1</v>
       </c>
       <c r="D301" s="5" t="s">
-        <v>996</v>
+        <v>1084</v>
       </c>
       <c r="E301" s="4" t="s">
-        <v>961</v>
+        <v>828</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
-        <v>519</v>
+        <v>951</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="C302" s="1">
         <v>1</v>
       </c>
       <c r="D302" s="5" t="s">
-        <v>563</v>
+        <v>995</v>
       </c>
       <c r="E302" s="4" t="s">
-        <v>830</v>
+        <v>960</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
-        <v>11</v>
+        <v>518</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>306</v>
+        <v>385</v>
       </c>
       <c r="C303" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D303" s="5" t="s">
-        <v>1087</v>
+        <v>562</v>
       </c>
       <c r="E303" s="4" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
-        <v>546</v>
+        <v>11</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>547</v>
+        <v>305</v>
       </c>
       <c r="C304" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D304" s="5" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="E304" s="4" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
-        <v>12</v>
+        <v>545</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>396</v>
+        <v>546</v>
       </c>
       <c r="C305" s="1">
         <v>1</v>
       </c>
       <c r="D305" s="5" t="s">
-        <v>505</v>
+        <v>1086</v>
       </c>
       <c r="E305" s="4" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C306" s="1">
         <v>1</v>
       </c>
       <c r="D306" s="5" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E306" s="4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>330</v>
+        <v>396</v>
       </c>
       <c r="C307" s="1">
         <v>1</v>
       </c>
       <c r="D307" s="5" t="s">
-        <v>1089</v>
+        <v>505</v>
       </c>
       <c r="E307" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>398</v>
+        <v>329</v>
       </c>
       <c r="C308" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D308" s="5" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="E308" s="4" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C309" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D309" s="5" t="s">
-        <v>507</v>
+        <v>1088</v>
       </c>
       <c r="E309" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
-        <v>238</v>
+        <v>1</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>362</v>
+        <v>398</v>
       </c>
       <c r="C310" s="1">
         <v>1</v>
       </c>
       <c r="D310" s="5" t="s">
-        <v>548</v>
+        <v>506</v>
       </c>
       <c r="E310" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="C311" s="1">
         <v>1</v>
       </c>
       <c r="D311" s="5" t="s">
-        <v>881</v>
+        <v>547</v>
       </c>
       <c r="E311" s="4" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C312" s="1">
         <v>1</v>
       </c>
       <c r="D312" s="5" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="E312" s="4" t="s">
-        <v>913</v>
+        <v>838</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>287</v>
+        <v>369</v>
       </c>
       <c r="C313" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D313" s="5" t="s">
-        <v>1091</v>
+        <v>881</v>
       </c>
       <c r="E313" s="4" t="s">
-        <v>840</v>
+        <v>912</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>362</v>
+        <v>286</v>
       </c>
       <c r="C314" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D314" s="5" t="s">
-        <v>883</v>
+        <v>1089</v>
       </c>
       <c r="E314" s="4" t="s">
-        <v>914</v>
+        <v>839</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>331</v>
+        <v>361</v>
       </c>
       <c r="C315" s="1">
         <v>1</v>
       </c>
       <c r="D315" s="5" t="s">
-        <v>953</v>
+        <v>882</v>
       </c>
       <c r="E315" s="4" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>388</v>
+        <v>330</v>
       </c>
       <c r="C316" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D316" s="5" t="s">
-        <v>1092</v>
+        <v>952</v>
       </c>
       <c r="E316" s="4" t="s">
-        <v>841</v>
+        <v>914</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
-        <v>520</v>
+        <v>245</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>343</v>
+        <v>387</v>
       </c>
       <c r="C317" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D317" s="5" t="s">
-        <v>564</v>
+        <v>1090</v>
       </c>
       <c r="E317" s="4" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>388</v>
+        <v>342</v>
       </c>
       <c r="C318" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D318" s="5" t="s">
-        <v>1093</v>
+        <v>563</v>
       </c>
       <c r="E318" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>281</v>
+        <v>387</v>
       </c>
       <c r="C319" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D319" s="5" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="E319" s="4" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
-        <v>549</v>
+        <v>521</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>351</v>
+        <v>280</v>
       </c>
       <c r="C320" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D320" s="5" t="s">
-        <v>35</v>
+        <v>1092</v>
       </c>
       <c r="E320" s="4" t="s">
-        <v>916</v>
+        <v>843</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>551</v>
+        <v>350</v>
       </c>
       <c r="C321" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D321" s="5" t="s">
-        <v>884</v>
+        <v>35</v>
       </c>
       <c r="E321" s="4" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" s="2" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>251</v>
+        <v>550</v>
       </c>
       <c r="C322" s="1">
         <v>1</v>
       </c>
       <c r="D322" s="5" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="E322" s="4" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
-        <v>1095</v>
+        <v>551</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>513</v>
+        <v>250</v>
       </c>
       <c r="C323" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D323" s="5" t="s">
-        <v>1096</v>
+        <v>884</v>
       </c>
       <c r="E323" s="4" t="s">
-        <v>1003</v>
+        <v>917</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="s">
-        <v>886</v>
+        <v>1093</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>362</v>
+        <v>512</v>
       </c>
       <c r="C324" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D324" s="5" t="s">
-        <v>997</v>
+        <v>1094</v>
       </c>
       <c r="E324" s="4" t="s">
-        <v>919</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
-        <v>954</v>
+        <v>885</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>955</v>
+        <v>361</v>
       </c>
       <c r="C325" s="1">
         <v>1</v>
       </c>
       <c r="D325" s="5" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="E325" s="4" t="s">
-        <v>962</v>
+        <v>918</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
-        <v>1097</v>
+        <v>953</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>336</v>
+        <v>954</v>
       </c>
       <c r="C326" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D326" s="5" t="s">
-        <v>35</v>
+        <v>997</v>
       </c>
       <c r="E326" s="4" t="s">
-        <v>1004</v>
+        <v>961</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>386</v>
+        <v>335</v>
       </c>
       <c r="C327" s="1">
         <v>0</v>
@@ -9751,15 +9750,15 @@
         <v>35</v>
       </c>
       <c r="E327" s="4" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>344</v>
+        <v>385</v>
       </c>
       <c r="C328" s="1">
         <v>0</v>
@@ -9768,30 +9767,46 @@
         <v>35</v>
       </c>
       <c r="E328" s="4" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
       <c r="C329" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D329" s="5" t="s">
-        <v>1101</v>
+        <v>35</v>
       </c>
       <c r="E329" s="4" t="s">
-        <v>1007</v>
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A330" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C330" s="1">
+        <v>1</v>
+      </c>
+      <c r="D330" s="5" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E330" s="4" t="s">
+        <v>1006</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="F4:I6"/>
-    <mergeCell ref="F7:H9"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF330"/>
+  <dimension ref="A1:AB330"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -494,7 +494,7 @@
     <row r="1">
       <c r="A1" s="10" t="inlineStr">
         <is>
-          <t>更新日期：2024.09.22 01:35:26</t>
+          <t>更新日期：2024.09.22 08:01:38</t>
         </is>
       </c>
       <c r="E1" s="8" t="inlineStr">
@@ -6917,7 +6917,7 @@
       </c>
       <c r="D226" s="5" t="inlineStr">
         <is>
-          <t>*maa://30667 (75.0), maa://30666 (82.7), *maa://26836 (74.63), **maa://30739 (45.71), *maa://34428 (67.65), *maa://30723 (50.98), maa://37607 (90.48), maa://39588 (87.5), *maa://37850 (66.67)</t>
+          <t>*maa://30667 (75.0), maa://30666 (82.7), *maa://26836 (74.63), **maa://30739 (45.71), *maa://34428 (67.65), *maa://30723 (50.98), maa://37607 (90.48), maa://39588 (88.0), *maa://37850 (66.67)</t>
         </is>
       </c>
       <c r="E226" s="4" t="inlineStr">
@@ -8569,7 +8569,7 @@
       </c>
       <c r="E287" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战寒檀并上场，且每次战斗至少释放1次“女巫之泪”&gt; 3星通关别传别传BI-2；必须编入非助战寒檀并上场，且使用寒檀至少歼灭8个敌人</t>
+          <t>&gt; 完成5次战斗；必须编入非助战寒檀并上场，且每次战斗至少释放1次“女巫之泪”&gt; 3星通关别传BI-2；必须编入非助战寒檀并上场，且使用寒檀至少歼灭8个敌人</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -494,7 +494,7 @@
     <row r="1">
       <c r="A1" s="10" t="inlineStr">
         <is>
-          <t>更新日期：2024.09.22 08:01:38</t>
+          <t>更新日期：2024.09.28 13:17:02</t>
         </is>
       </c>
       <c r="E1" s="8" t="inlineStr">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="D21" s="5" t="inlineStr">
         <is>
-          <t>maa://20948 (100.0), maa://30844 (100.0)</t>
+          <t>maa://20948 (87.5), maa://30844 (100.0)</t>
         </is>
       </c>
       <c r="E21" s="4" t="inlineStr">
@@ -1652,7 +1652,7 @@
       </c>
       <c r="D31" s="5" t="inlineStr">
         <is>
-          <t>maa://36644 (88.07), maa://36866 (96.43), maa://27794 (100.0)</t>
+          <t>maa://36644 (88.18), maa://36866 (96.43), maa://27794 (100.0)</t>
         </is>
       </c>
       <c r="E31" s="4" t="inlineStr">
@@ -1706,7 +1706,7 @@
       </c>
       <c r="D33" s="5" t="inlineStr">
         <is>
-          <t>*maa://20916 (77.27)</t>
+          <t>*maa://20916 (79.17)</t>
         </is>
       </c>
       <c r="E33" s="4" t="inlineStr">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="D36" s="5" t="inlineStr">
         <is>
-          <t>maa://27376 (85.71), **maa://20838 (50.0), **maa://40163 (42.86)</t>
+          <t>maa://27376 (86.96), **maa://20838 (50.0), **maa://40163 (40.0)</t>
         </is>
       </c>
       <c r="E36" s="4" t="inlineStr">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="D55" s="5" t="inlineStr">
         <is>
-          <t>maa://28900 (95.16), maa://30126 (100.0)</t>
+          <t>maa://28900 (95.31), maa://30126 (100.0)</t>
         </is>
       </c>
       <c r="E55" s="4" t="inlineStr">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="D58" s="5" t="inlineStr">
         <is>
-          <t>maa://20841 (100.0), maa://24093 (100.0), maa://31559 (92.86), maa://25777 (100.0), maa://20631 (100.0)</t>
+          <t>maa://20841 (100.0), maa://24093 (100.0), maa://31559 (93.33), maa://25777 (100.0), maa://20631 (100.0)</t>
         </is>
       </c>
       <c r="E58" s="4" t="inlineStr">
@@ -2570,7 +2570,7 @@
       </c>
       <c r="D65" s="5" t="inlineStr">
         <is>
-          <t>maa://20976 (97.48), maa://20815 (100.0)</t>
+          <t>maa://20976 (97.5), maa://20815 (100.0)</t>
         </is>
       </c>
       <c r="E65" s="4" t="inlineStr">
@@ -2597,7 +2597,7 @@
       </c>
       <c r="D66" s="5" t="inlineStr">
         <is>
-          <t>maa://28784 (93.78), maa://29088 (91.67), maa://20974 (94.87), maa://31124 (95.9), maa://28950 (90.91), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67)</t>
+          <t>maa://28784 (93.78), maa://29088 (91.67), maa://20974 (94.87), maa://31124 (95.93), maa://28950 (90.91), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67)</t>
         </is>
       </c>
       <c r="E66" s="4" t="inlineStr">
@@ -2678,7 +2678,7 @@
       </c>
       <c r="D69" s="5" t="inlineStr">
         <is>
-          <t>maa://36643 (97.33), maa://36864 (100.0), maa://39140 (100.0)</t>
+          <t>maa://36643 (97.36), maa://36864 (100.0), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E69" s="4" t="inlineStr">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="D84" s="5" t="inlineStr">
         <is>
-          <t>maa://20886 (87.5), maa://25136 (92.31)</t>
+          <t>maa://20886 (88.24), maa://25136 (92.86)</t>
         </is>
       </c>
       <c r="E84" s="4" t="inlineStr">
@@ -3461,7 +3461,7 @@
       </c>
       <c r="D98" s="5" t="inlineStr">
         <is>
-          <t>*maa://39240 (57.14), maa://40517 (85.71)</t>
+          <t>*maa://39240 (57.14), maa://40517 (87.5)</t>
         </is>
       </c>
       <c r="E98" s="4" t="inlineStr">
@@ -3488,7 +3488,7 @@
       </c>
       <c r="D99" s="5" t="inlineStr">
         <is>
-          <t>*maa://29094 (61.29), maa://28904 (86.36), **maa://20931 (42.31)</t>
+          <t>*maa://29094 (62.5), maa://28904 (86.36), **maa://20931 (42.31)</t>
         </is>
       </c>
       <c r="E99" s="4" t="inlineStr">
@@ -3623,7 +3623,7 @@
       </c>
       <c r="D104" s="5" t="inlineStr">
         <is>
-          <t>maa://25018 (95.97), maa://25776 (90.0), maa://28361 (96.55), maa://25772 (91.89), *maa://25161 (78.57), maa://32653 (85.71)</t>
+          <t>maa://25018 (96.02), maa://25776 (90.0), maa://28361 (96.55), maa://25772 (92.11), *maa://25161 (78.57), maa://32653 (85.71)</t>
         </is>
       </c>
       <c r="E104" s="4" t="inlineStr">
@@ -3758,7 +3758,7 @@
       </c>
       <c r="D109" s="5" t="inlineStr">
         <is>
-          <t>maa://29037 (96.55)</t>
+          <t>maa://29037 (96.67)</t>
         </is>
       </c>
       <c r="E109" s="4" t="inlineStr">
@@ -3812,7 +3812,7 @@
       </c>
       <c r="D111" s="5" t="inlineStr">
         <is>
-          <t>maa://20908 (98.16), *maa://23346 (77.78), maa://35723 (96.97), maa://38822 (100.0)</t>
+          <t>maa://20908 (98.17), *maa://23346 (77.78), maa://35723 (96.97), maa://38822 (100.0)</t>
         </is>
       </c>
       <c r="E111" s="4" t="inlineStr">
@@ -4136,7 +4136,7 @@
       </c>
       <c r="D123" s="5" t="inlineStr">
         <is>
-          <t>maa://37484 (92.86), maa://24611 (88.0)</t>
+          <t>maa://37484 (92.86), maa://24611 (88.46)</t>
         </is>
       </c>
       <c r="E123" s="4" t="inlineStr">
@@ -4244,7 +4244,7 @@
       </c>
       <c r="D127" s="5" t="inlineStr">
         <is>
-          <t>maa://23019 (100.0), maa://20837 (100.0), maa://37113 (100.0), maa://40517 (85.71), *maa://37666 (75.0)</t>
+          <t>maa://23019 (100.0), maa://20837 (100.0), maa://37113 (100.0), maa://40517 (87.5), *maa://37666 (75.0)</t>
         </is>
       </c>
       <c r="E127" s="4" t="inlineStr">
@@ -4271,7 +4271,7 @@
       </c>
       <c r="D128" s="5" t="inlineStr">
         <is>
-          <t>maa://23020 (95.65), maa://29023 (100.0), maa://34319 (100.0), *maa://39515 (66.67)</t>
+          <t>maa://23020 (95.77), maa://29023 (100.0), maa://34319 (100.0), *maa://39515 (66.67)</t>
         </is>
       </c>
       <c r="E128" s="4" t="inlineStr">
@@ -4541,7 +4541,7 @@
       </c>
       <c r="D138" s="5" t="inlineStr">
         <is>
-          <t>maa://30670 (97.56), maa://31470 (94.44), ***maa://30867 (25.0)</t>
+          <t>maa://30670 (97.62), maa://31470 (94.44), ***maa://30867 (25.0)</t>
         </is>
       </c>
       <c r="E138" s="4" t="inlineStr">
@@ -4703,7 +4703,7 @@
       </c>
       <c r="D144" s="5" t="inlineStr">
         <is>
-          <t>maa://36641 (98.09), maa://36865 (95.19), maa://37300 (100.0)</t>
+          <t>maa://36641 (98.12), maa://36865 (95.24), maa://37300 (100.0)</t>
         </is>
       </c>
       <c r="E144" s="4" t="inlineStr">
@@ -5135,7 +5135,7 @@
       </c>
       <c r="D160" s="5" t="inlineStr">
         <is>
-          <t>maa://29627 (93.04), maa://29633 (91.48), maa://29659 (82.14), maa://29861 (100.0)</t>
+          <t>maa://29627 (93.04), maa://29633 (91.53), maa://29659 (82.14), maa://29861 (100.0)</t>
         </is>
       </c>
       <c r="E160" s="4" t="inlineStr">
@@ -5378,7 +5378,7 @@
       </c>
       <c r="D169" s="5" t="inlineStr">
         <is>
-          <t>maa://20911 (90.91), *maa://29012 (66.67)</t>
+          <t>maa://20911 (91.67), *maa://29012 (66.67)</t>
         </is>
       </c>
       <c r="E169" s="4" t="inlineStr">
@@ -5675,7 +5675,7 @@
       </c>
       <c r="D180" s="5" t="inlineStr">
         <is>
-          <t>maa://34866 (84.21), maa://34714 (95.24)</t>
+          <t>maa://34866 (85.0), maa://34714 (95.24)</t>
         </is>
       </c>
       <c r="E180" s="4" t="inlineStr">
@@ -5864,7 +5864,7 @@
       </c>
       <c r="D187" s="5" t="inlineStr">
         <is>
-          <t>maa://25760 (82.14), *maa://35854 (72.22), *maa://20872 (52.17)</t>
+          <t>maa://25760 (82.14), *maa://35854 (70.0), *maa://20872 (52.17)</t>
         </is>
       </c>
       <c r="E187" s="4" t="inlineStr">
@@ -6242,7 +6242,7 @@
       </c>
       <c r="D201" s="5" t="inlineStr">
         <is>
-          <t>maa://39238 (98.72)</t>
+          <t>maa://39238 (98.75)</t>
         </is>
       </c>
       <c r="E201" s="4" t="inlineStr">
@@ -6372,12 +6372,12 @@
       </c>
       <c r="C206" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D206" s="5" t="inlineStr">
         <is>
-          <t>**maa://20995 (44.44)</t>
+          <t>**maa://20995 (44.44), ***maa://26496 (20.0)</t>
         </is>
       </c>
       <c r="E206" s="4" t="inlineStr">
@@ -6917,7 +6917,7 @@
       </c>
       <c r="D226" s="5" t="inlineStr">
         <is>
-          <t>*maa://30667 (75.0), maa://30666 (82.7), *maa://26836 (74.63), **maa://30739 (45.71), *maa://34428 (67.65), *maa://30723 (50.98), maa://37607 (90.48), maa://39588 (88.0), *maa://37850 (66.67)</t>
+          <t>*maa://30667 (75.08), maa://30666 (82.8), *maa://26836 (74.63), **maa://30739 (45.71), *maa://34428 (67.65), maa://37607 (90.91), *maa://30723 (50.98), maa://39588 (88.46), *maa://37850 (66.67)</t>
         </is>
       </c>
       <c r="E226" s="4" t="inlineStr">
@@ -7106,7 +7106,7 @@
       </c>
       <c r="D233" s="5" t="inlineStr">
         <is>
-          <t>maa://28923 (91.28), maa://28906 (96.77), ***maa://28825 (12.5)</t>
+          <t>maa://28923 (91.28), maa://28906 (96.88), ***maa://28825 (12.5)</t>
         </is>
       </c>
       <c r="E233" s="4" t="inlineStr">
@@ -7187,7 +7187,7 @@
       </c>
       <c r="D236" s="5" t="inlineStr">
         <is>
-          <t>maa://24093 (100.0), maa://31559 (92.86), maa://20924 (94.12)</t>
+          <t>maa://24093 (100.0), maa://31559 (93.33), maa://20924 (94.12)</t>
         </is>
       </c>
       <c r="E236" s="4" t="inlineStr">
@@ -7916,7 +7916,7 @@
       </c>
       <c r="D263" s="5" t="inlineStr">
         <is>
-          <t>maa://38296 (85.71)</t>
+          <t>maa://38296 (87.5)</t>
         </is>
       </c>
       <c r="E263" s="4" t="inlineStr">
@@ -7997,7 +7997,7 @@
       </c>
       <c r="D266" s="5" t="inlineStr">
         <is>
-          <t>maa://30710 (96.7), maa://36845 (94.74), maa://31558 (96.3), ***maa://39217 (25.0), maa://30668 (83.33)</t>
+          <t>maa://30710 (96.74), maa://36845 (94.74), maa://31558 (96.3), ***maa://39217 (25.0), maa://30668 (83.33)</t>
         </is>
       </c>
       <c r="E266" s="4" t="inlineStr">
@@ -8105,7 +8105,7 @@
       </c>
       <c r="D270" s="5" t="inlineStr">
         <is>
-          <t>maa://32414 (98.39), maa://32505 (100.0), maa://39155 (94.44)</t>
+          <t>maa://32414 (98.4), maa://32505 (100.0), maa://39155 (94.44)</t>
         </is>
       </c>
       <c r="E270" s="4" t="inlineStr">
@@ -8429,7 +8429,7 @@
       </c>
       <c r="D282" s="5" t="inlineStr">
         <is>
-          <t>maa://35859 (96.08)</t>
+          <t>maa://35859 (96.15)</t>
         </is>
       </c>
       <c r="E282" s="4" t="inlineStr">
@@ -8618,7 +8618,7 @@
       </c>
       <c r="D289" s="5" t="inlineStr">
         <is>
-          <t>maa://31559 (92.86), maa://28241 (100.0)</t>
+          <t>maa://31559 (93.33), maa://28241 (100.0)</t>
         </is>
       </c>
       <c r="E289" s="4" t="inlineStr">
@@ -8645,7 +8645,7 @@
       </c>
       <c r="D290" s="5" t="inlineStr">
         <is>
-          <t>maa://25773 (100.0), *maa://26088 (80.0)</t>
+          <t>maa://25773 (100.0), *maa://26088 (66.67)</t>
         </is>
       </c>
       <c r="E290" s="4" t="inlineStr">
@@ -8699,7 +8699,7 @@
       </c>
       <c r="D292" s="5" t="inlineStr">
         <is>
-          <t>maa://39692 (99.3), *maa://39810 (76.92)</t>
+          <t>maa://39692 (99.3), *maa://39810 (78.57)</t>
         </is>
       </c>
       <c r="E292" s="4" t="inlineStr">
@@ -9023,7 +9023,7 @@
       </c>
       <c r="D304" s="5" t="inlineStr">
         <is>
-          <t>maa://30671 (80.47), maa://30669 (98.18), maa://37275 (81.82), *maa://32410 (63.64), maa://33671 (100.0)</t>
+          <t>maa://30671 (80.77), maa://30669 (98.18), maa://37275 (81.82), *maa://32410 (63.64), maa://33671 (100.0)</t>
         </is>
       </c>
       <c r="E304" s="4" t="inlineStr">
@@ -9050,7 +9050,7 @@
       </c>
       <c r="D305" s="5" t="inlineStr">
         <is>
-          <t>maa://38295 (97.3)</t>
+          <t>maa://38295 (94.74)</t>
         </is>
       </c>
       <c r="E305" s="4" t="inlineStr">
@@ -9158,7 +9158,7 @@
       </c>
       <c r="D309" s="5" t="inlineStr">
         <is>
-          <t>maa://32647 (97.05), maa://32415 (96.23), maa://34677 (100.0), maa://32892 (100.0)</t>
+          <t>maa://32647 (97.06), maa://32415 (96.23), maa://34677 (100.0), maa://32892 (100.0)</t>
         </is>
       </c>
       <c r="E309" s="4" t="inlineStr">
@@ -9293,7 +9293,7 @@
       </c>
       <c r="D314" s="5" t="inlineStr">
         <is>
-          <t>maa://34865 (96.3), maa://34717 (94.34)</t>
+          <t>maa://34865 (96.35), maa://34717 (94.34)</t>
         </is>
       </c>
       <c r="E314" s="4" t="inlineStr">
@@ -9428,7 +9428,7 @@
       </c>
       <c r="D319" s="5" t="inlineStr">
         <is>
-          <t>maa://36646 (97.98), maa://36845 (94.74), ***maa://39217 (25.0)</t>
+          <t>maa://36646 (98.0), maa://36845 (94.74), ***maa://39217 (25.0)</t>
         </is>
       </c>
       <c r="E319" s="4" t="inlineStr">
@@ -9455,7 +9455,7 @@
       </c>
       <c r="D320" s="5" t="inlineStr">
         <is>
-          <t>maa://36645 (98.17), maa://36841 (93.18), maa://37484 (92.86), maa://37858 (90.48)</t>
+          <t>maa://36645 (98.17), maa://36841 (93.18), maa://37484 (92.86), maa://37858 (90.91)</t>
         </is>
       </c>
       <c r="E320" s="4" t="inlineStr">
@@ -9563,7 +9563,7 @@
       </c>
       <c r="D324" s="5" t="inlineStr">
         <is>
-          <t>*maa://40957 (63.64), *maa://41128 (77.78), maa://41035 (83.33)</t>
+          <t>*maa://40957 (71.43), *maa://41128 (80.0), maa://41035 (83.33)</t>
         </is>
       </c>
       <c r="E324" s="4" t="inlineStr">
@@ -9725,7 +9725,7 @@
       </c>
       <c r="D330" s="5" t="inlineStr">
         <is>
-          <t>maa://41110 (94.74)</t>
+          <t>maa://41110 (95.65)</t>
         </is>
       </c>
       <c r="E330" s="4" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -494,7 +494,7 @@
     <row r="1">
       <c r="A1" s="10" t="inlineStr">
         <is>
-          <t>更新日期：2024.09.28 13:17:02</t>
+          <t>更新日期：2024.09.30 13:18:17</t>
         </is>
       </c>
       <c r="E1" s="8" t="inlineStr">
@@ -632,7 +632,7 @@
       </c>
       <c r="D5" s="5" t="inlineStr">
         <is>
-          <t>**maa://20903 (33.33)</t>
+          <t>***maa://20903 (25.0)</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -1679,7 +1679,7 @@
       </c>
       <c r="D32" s="5" t="inlineStr">
         <is>
-          <t>maa://30500 (98.04), *maa://27290 (70.59)</t>
+          <t>maa://30500 (98.08), *maa://27290 (70.59)</t>
         </is>
       </c>
       <c r="E32" s="4" t="inlineStr">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="D51" s="5" t="inlineStr">
         <is>
-          <t>maa://20953 (94.12), maa://31173 (85.71)</t>
+          <t>maa://20953 (94.44), maa://31173 (85.71)</t>
         </is>
       </c>
       <c r="E51" s="4" t="inlineStr">
@@ -2246,7 +2246,7 @@
       </c>
       <c r="D53" s="5" t="inlineStr">
         <is>
-          <t>maa://20932 (96.69), maa://40838 (100.0)</t>
+          <t>maa://20932 (96.71), maa://40838 (100.0)</t>
         </is>
       </c>
       <c r="E53" s="4" t="inlineStr">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="D58" s="5" t="inlineStr">
         <is>
-          <t>maa://20841 (100.0), maa://24093 (100.0), maa://31559 (93.33), maa://25777 (100.0), maa://20631 (100.0)</t>
+          <t>maa://20841 (100.0), maa://24093 (100.0), maa://31559 (93.75), maa://25777 (100.0), maa://20631 (100.0)</t>
         </is>
       </c>
       <c r="E58" s="4" t="inlineStr">
@@ -2597,7 +2597,7 @@
       </c>
       <c r="D66" s="5" t="inlineStr">
         <is>
-          <t>maa://28784 (93.78), maa://29088 (91.67), maa://20974 (94.87), maa://31124 (95.93), maa://28950 (90.91), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67)</t>
+          <t>maa://28784 (93.8), maa://29088 (91.67), maa://20974 (95.0), maa://31124 (95.93), maa://28950 (90.91), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67)</t>
         </is>
       </c>
       <c r="E66" s="4" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="D68" s="5" t="inlineStr">
         <is>
-          <t>maa://20943 (99.58)</t>
+          <t>maa://20943 (99.59)</t>
         </is>
       </c>
       <c r="E68" s="4" t="inlineStr">
@@ -2678,7 +2678,7 @@
       </c>
       <c r="D69" s="5" t="inlineStr">
         <is>
-          <t>maa://36643 (97.36), maa://36864 (100.0), maa://39140 (100.0)</t>
+          <t>maa://36643 (97.39), maa://36864 (100.0), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E69" s="4" t="inlineStr">
@@ -3137,7 +3137,7 @@
       </c>
       <c r="D86" s="5" t="inlineStr">
         <is>
-          <t>*maa://28190 (55.17), maa://20880 (88.24)</t>
+          <t>*maa://28190 (56.67), maa://20880 (88.89)</t>
         </is>
       </c>
       <c r="E86" s="4" t="inlineStr">
@@ -3623,7 +3623,7 @@
       </c>
       <c r="D104" s="5" t="inlineStr">
         <is>
-          <t>maa://25018 (96.02), maa://25776 (90.0), maa://28361 (96.55), maa://25772 (92.11), *maa://25161 (78.57), maa://32653 (85.71)</t>
+          <t>maa://25018 (96.02), maa://25776 (90.16), maa://28361 (96.55), maa://25772 (92.11), *maa://25161 (78.57), maa://32653 (85.71)</t>
         </is>
       </c>
       <c r="E104" s="4" t="inlineStr">
@@ -3704,7 +3704,7 @@
       </c>
       <c r="D107" s="5" t="inlineStr">
         <is>
-          <t>*maa://28554 (77.78)</t>
+          <t>*maa://28554 (78.95)</t>
         </is>
       </c>
       <c r="E107" s="4" t="inlineStr">
@@ -4136,7 +4136,7 @@
       </c>
       <c r="D123" s="5" t="inlineStr">
         <is>
-          <t>maa://37484 (92.86), maa://24611 (88.46)</t>
+          <t>maa://37484 (92.86), maa://24611 (88.89)</t>
         </is>
       </c>
       <c r="E123" s="4" t="inlineStr">
@@ -4239,12 +4239,12 @@
       </c>
       <c r="C127" s="7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D127" s="5" t="inlineStr">
         <is>
-          <t>maa://23019 (100.0), maa://20837 (100.0), maa://37113 (100.0), maa://40517 (87.5), *maa://37666 (75.0)</t>
+          <t>maa://23019 (100.0), maa://20837 (100.0), maa://37113 (100.0), maa://40517 (87.5), *maa://37666 (75.0), maa://41686 (100.0)</t>
         </is>
       </c>
       <c r="E127" s="4" t="inlineStr">
@@ -4406,7 +4406,7 @@
       </c>
       <c r="D133" s="5" t="inlineStr">
         <is>
-          <t>**maa://21000 (42.86), *maa://29025 (76.47)</t>
+          <t>**maa://21000 (41.38), *maa://29025 (76.47)</t>
         </is>
       </c>
       <c r="E133" s="4" t="inlineStr">
@@ -4514,7 +4514,7 @@
       </c>
       <c r="D137" s="5" t="inlineStr">
         <is>
-          <t>maa://28484 (96.97), **maa://23736 (42.19), *maa://31185 (75.0), maa://30306 (100.0)</t>
+          <t>maa://28484 (97.01), **maa://23736 (42.19), *maa://31185 (75.0), maa://30306 (100.0)</t>
         </is>
       </c>
       <c r="E137" s="4" t="inlineStr">
@@ -4541,7 +4541,7 @@
       </c>
       <c r="D138" s="5" t="inlineStr">
         <is>
-          <t>maa://30670 (97.62), maa://31470 (94.44), ***maa://30867 (25.0)</t>
+          <t>maa://30670 (97.65), maa://31470 (94.44), ***maa://30867 (25.0)</t>
         </is>
       </c>
       <c r="E138" s="4" t="inlineStr">
@@ -4703,7 +4703,7 @@
       </c>
       <c r="D144" s="5" t="inlineStr">
         <is>
-          <t>maa://36641 (98.12), maa://36865 (95.24), maa://37300 (100.0)</t>
+          <t>maa://36641 (98.13), maa://36865 (95.28), maa://37300 (100.0)</t>
         </is>
       </c>
       <c r="E144" s="4" t="inlineStr">
@@ -5135,7 +5135,7 @@
       </c>
       <c r="D160" s="5" t="inlineStr">
         <is>
-          <t>maa://29627 (93.04), maa://29633 (91.53), maa://29659 (82.14), maa://29861 (100.0)</t>
+          <t>maa://29627 (93.04), maa://29633 (91.62), maa://29659 (82.14), maa://29861 (100.0)</t>
         </is>
       </c>
       <c r="E160" s="4" t="inlineStr">
@@ -5810,7 +5810,7 @@
       </c>
       <c r="D185" s="5" t="inlineStr">
         <is>
-          <t>*maa://28190 (55.17), maa://20994 (100.0)</t>
+          <t>*maa://28190 (56.67), maa://20994 (100.0)</t>
         </is>
       </c>
       <c r="E185" s="4" t="inlineStr">
@@ -5864,7 +5864,7 @@
       </c>
       <c r="D187" s="5" t="inlineStr">
         <is>
-          <t>maa://25760 (82.14), *maa://35854 (70.0), *maa://20872 (52.17)</t>
+          <t>maa://25760 (82.46), *maa://35854 (70.0), *maa://20872 (52.17)</t>
         </is>
       </c>
       <c r="E187" s="4" t="inlineStr">
@@ -5891,7 +5891,7 @@
       </c>
       <c r="D188" s="5" t="inlineStr">
         <is>
-          <t>**maa://38297 (40.0), maa://39156 (100.0), maa://39550 (100.0)</t>
+          <t>**maa://38297 (38.46), maa://39156 (100.0), maa://39550 (100.0)</t>
         </is>
       </c>
       <c r="E188" s="4" t="inlineStr">
@@ -5918,7 +5918,7 @@
       </c>
       <c r="D189" s="5" t="inlineStr">
         <is>
-          <t>maa://27823 (80.77), *maa://28190 (55.17), maa://22894 (90.62), *maa://20906 (72.22), **maa://20907 (33.33)</t>
+          <t>maa://27823 (80.77), *maa://28190 (56.67), maa://22894 (90.62), *maa://20906 (72.22), **maa://20907 (33.33)</t>
         </is>
       </c>
       <c r="E189" s="4" t="inlineStr">
@@ -5945,7 +5945,7 @@
       </c>
       <c r="D190" s="5" t="inlineStr">
         <is>
-          <t>maa://27823 (80.77), *maa://28190 (55.17), maa://22894 (90.62), *maa://20906 (72.22), **maa://20907 (33.33)</t>
+          <t>maa://27823 (80.77), *maa://28190 (56.67), maa://22894 (90.62), *maa://20906 (72.22), **maa://20907 (33.33)</t>
         </is>
       </c>
       <c r="E190" s="4" t="inlineStr">
@@ -6188,7 +6188,7 @@
       </c>
       <c r="D199" s="5" t="inlineStr">
         <is>
-          <t>maa://20956 (94.96), *maa://20830 (77.78)</t>
+          <t>maa://20956 (95.04), *maa://20830 (77.78)</t>
         </is>
       </c>
       <c r="E199" s="4" t="inlineStr">
@@ -6215,7 +6215,7 @@
       </c>
       <c r="D200" s="5" t="inlineStr">
         <is>
-          <t>*maa://20955 (77.78)</t>
+          <t>*maa://20955 (78.57)</t>
         </is>
       </c>
       <c r="E200" s="4" t="inlineStr">
@@ -6377,7 +6377,7 @@
       </c>
       <c r="D206" s="5" t="inlineStr">
         <is>
-          <t>**maa://20995 (44.44), ***maa://26496 (20.0)</t>
+          <t>**maa://20995 (44.44), **maa://26496 (33.33)</t>
         </is>
       </c>
       <c r="E206" s="4" t="inlineStr">
@@ -6917,7 +6917,7 @@
       </c>
       <c r="D226" s="5" t="inlineStr">
         <is>
-          <t>*maa://30667 (75.08), maa://30666 (82.8), *maa://26836 (74.63), **maa://30739 (45.71), *maa://34428 (67.65), maa://37607 (90.91), *maa://30723 (50.98), maa://39588 (88.46), *maa://37850 (66.67)</t>
+          <t>*maa://30667 (75.08), maa://30666 (82.8), *maa://26836 (74.63), **maa://30739 (45.71), *maa://34428 (67.65), maa://37607 (91.07), *maa://30723 (50.98), maa://39588 (88.46), *maa://37850 (66.67)</t>
         </is>
       </c>
       <c r="E226" s="4" t="inlineStr">
@@ -7106,7 +7106,7 @@
       </c>
       <c r="D233" s="5" t="inlineStr">
         <is>
-          <t>maa://28923 (91.28), maa://28906 (96.88), ***maa://28825 (12.5)</t>
+          <t>maa://28923 (91.28), maa://28906 (96.88), ***maa://28825 (12.0)</t>
         </is>
       </c>
       <c r="E233" s="4" t="inlineStr">
@@ -7187,7 +7187,7 @@
       </c>
       <c r="D236" s="5" t="inlineStr">
         <is>
-          <t>maa://24093 (100.0), maa://31559 (93.33), maa://20924 (94.12)</t>
+          <t>maa://24093 (100.0), maa://31559 (93.75), maa://20924 (94.12)</t>
         </is>
       </c>
       <c r="E236" s="4" t="inlineStr">
@@ -7295,7 +7295,7 @@
       </c>
       <c r="D240" s="5" t="inlineStr">
         <is>
-          <t>maa://20879 (83.78), maa://20834 (100.0)</t>
+          <t>maa://20879 (84.21), maa://20834 (100.0)</t>
         </is>
       </c>
       <c r="E240" s="4" t="inlineStr">
@@ -7511,7 +7511,7 @@
       </c>
       <c r="D248" s="5" t="inlineStr">
         <is>
-          <t>maa://22467 (92.59)</t>
+          <t>maa://22467 (92.86)</t>
         </is>
       </c>
       <c r="E248" s="4" t="inlineStr">
@@ -7619,7 +7619,7 @@
       </c>
       <c r="D252" s="5" t="inlineStr">
         <is>
-          <t>maa://27794 (100.0), *maa://20862 (66.67)</t>
+          <t>maa://27794 (100.0), *maa://20862 (75.0)</t>
         </is>
       </c>
       <c r="E252" s="4" t="inlineStr">
@@ -8564,7 +8564,7 @@
       </c>
       <c r="D287" s="5" t="inlineStr">
         <is>
-          <t>maa://25367 (98.96)</t>
+          <t>maa://25367 (98.97)</t>
         </is>
       </c>
       <c r="E287" s="4" t="inlineStr">
@@ -8618,7 +8618,7 @@
       </c>
       <c r="D289" s="5" t="inlineStr">
         <is>
-          <t>maa://31559 (93.33), maa://28241 (100.0)</t>
+          <t>maa://31559 (93.75), maa://28241 (100.0)</t>
         </is>
       </c>
       <c r="E289" s="4" t="inlineStr">
@@ -8699,7 +8699,7 @@
       </c>
       <c r="D292" s="5" t="inlineStr">
         <is>
-          <t>maa://39692 (99.3), *maa://39810 (78.57)</t>
+          <t>maa://39692 (99.31), *maa://39810 (78.57)</t>
         </is>
       </c>
       <c r="E292" s="4" t="inlineStr">
@@ -8969,7 +8969,7 @@
       </c>
       <c r="D302" s="5" t="inlineStr">
         <is>
-          <t>maa://40162 (100.0)</t>
+          <t>*maa://40162 (66.67)</t>
         </is>
       </c>
       <c r="E302" s="4" t="inlineStr">
@@ -9018,12 +9018,12 @@
       </c>
       <c r="C304" s="7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D304" s="5" t="inlineStr">
         <is>
-          <t>maa://30671 (80.77), maa://30669 (98.18), maa://37275 (81.82), *maa://32410 (63.64), maa://33671 (100.0)</t>
+          <t>maa://30671 (80.92), maa://30669 (98.18), maa://37275 (81.82), *maa://32410 (63.64), maa://33671 (100.0), maa://41605 (100.0)</t>
         </is>
       </c>
       <c r="E304" s="4" t="inlineStr">
@@ -9293,7 +9293,7 @@
       </c>
       <c r="D314" s="5" t="inlineStr">
         <is>
-          <t>maa://34865 (96.35), maa://34717 (94.34)</t>
+          <t>maa://34865 (96.38), maa://34717 (94.34)</t>
         </is>
       </c>
       <c r="E314" s="4" t="inlineStr">
@@ -9428,7 +9428,7 @@
       </c>
       <c r="D319" s="5" t="inlineStr">
         <is>
-          <t>maa://36646 (98.0), maa://36845 (94.74), ***maa://39217 (25.0)</t>
+          <t>maa://36646 (98.03), maa://36845 (94.74), ***maa://39217 (25.0)</t>
         </is>
       </c>
       <c r="E319" s="4" t="inlineStr">
@@ -9455,7 +9455,7 @@
       </c>
       <c r="D320" s="5" t="inlineStr">
         <is>
-          <t>maa://36645 (98.17), maa://36841 (93.18), maa://37484 (92.86), maa://37858 (90.91)</t>
+          <t>maa://36645 (98.18), maa://36841 (93.18), maa://37484 (92.86), maa://37858 (90.91)</t>
         </is>
       </c>
       <c r="E320" s="4" t="inlineStr">
@@ -9563,7 +9563,7 @@
       </c>
       <c r="D324" s="5" t="inlineStr">
         <is>
-          <t>*maa://40957 (71.43), *maa://41128 (80.0), maa://41035 (83.33)</t>
+          <t>*maa://40957 (71.43), *maa://41128 (72.73), maa://41035 (83.33)</t>
         </is>
       </c>
       <c r="E324" s="4" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -494,7 +494,7 @@
     <row r="1">
       <c r="A1" s="10" t="inlineStr">
         <is>
-          <t>更新日期：2024.09.30 13:18:17</t>
+          <t>更新日期：2024.10.01 08:00:38</t>
         </is>
       </c>
       <c r="E1" s="8" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>内容</t>
+          <t>&gt; 由非助战夜烟累计造成80000点伤害&gt; 3星通关主题曲S2-4；必须编入非助战夜烟并上场，且使用夜烟歼灭至少2名重装防御者</t>
         </is>
       </c>
       <c r="J3" s="2" t="n"/>
@@ -600,7 +600,7 @@
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战夜烟累计造成80000点伤害&gt; 3星通关主题曲S2-4；必须编入非助战夜烟并上场，且使用夜烟歼灭至少2名重装防御者</t>
+          <t>&gt; 完成5次战斗；必须编入非助战远山并上场，且使用远山歼灭至少8名敌人&gt; 3星通关主题曲1-10；必须编入非助战远山并上场，且使用远山歼灭至少10名敌人</t>
         </is>
       </c>
       <c r="J4" s="2" t="n"/>
@@ -632,12 +632,12 @@
       </c>
       <c r="D5" s="5" t="inlineStr">
         <is>
-          <t>***maa://20903 (25.0)</t>
+          <t>***maa://20903 (20.0)</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战远山并上场，且使用远山歼灭至少8名敌人&gt; 3星通关主题曲1-10；必须编入非助战远山并上场，且使用远山歼灭至少10名敌人</t>
+          <t>&gt; 战斗中非助战杰西卡累计使用掩护烟幕5次&gt; 3星通关插曲SV-4；必须编入非助战杰西卡并上场，且使用1次掩护烟幕</t>
         </is>
       </c>
       <c r="F5" s="9" t="n"/>
@@ -672,12 +672,12 @@
       </c>
       <c r="D6" s="5" t="inlineStr">
         <is>
-          <t>maa://20925 (100.0)</t>
+          <t>maa://20925 (83.33)</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战杰西卡累计使用掩护烟幕5次&gt; 3星通关插曲SV-4；必须编入非助战杰西卡并上场，且使用1次掩护烟幕</t>
+          <t>&gt; 由非助战流星累计造成30歼灭数&gt; 3星通关主题曲2-7；必须编入非助战流星并上场，且使用流星歼灭至少2个御4</t>
         </is>
       </c>
       <c r="F6" s="9" t="n"/>
@@ -717,7 +717,7 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战流星累计造成30歼灭数&gt; 3星通关主题曲2-7；必须编入非助战流星并上场，且使用流星歼灭至少2个御4</t>
+          <t>&gt; 由非助战白雪累计造成120000点伤害&gt; 3星通关主题曲S2-11; 必须编入非助战白雪并上场，且使用白雪歼灭至少至少15名敌人</t>
         </is>
       </c>
       <c r="F7" s="9" t="n"/>
@@ -757,7 +757,7 @@
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战白雪累计造成120000点伤害&gt; 3星通关主题曲S2-11; 必须编入非助战白雪并上场，且使用白雪歼灭至少至少15名敌人</t>
+          <t>&gt; 完成5次战斗；必须编入非助战讯使，并确定第一位部署的干员是讯使&gt; 3星通关主题曲S2-2；必须编入非助战讯使并上场，其他成员仅可编入远程位干员</t>
         </is>
       </c>
       <c r="F8" s="6" t="n"/>
@@ -797,7 +797,7 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战讯使，并确定第一位部署的干员是讯使&gt; 3星通关主题曲S2-2；必须编入非助战讯使并上场，其他成员仅可编入远程位干员</t>
+          <t>&gt; 由非助战清道夫累计造成30歼灭数&gt; 3星通关主题曲1-3；必须编入非助战清道夫并上场，且使用清道夫歼灭12个敌人</t>
         </is>
       </c>
       <c r="F9" s="6" t="n"/>
@@ -837,7 +837,7 @@
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战清道夫累计造成30歼灭数&gt; 3星通关主题曲1-3；必须编入非助战清道夫并上场，且使用清道夫歼灭12个敌人</t>
+          <t>&gt; 完成5次战斗；必须编入非助战红豆，并确定第一位部署的干员是红豆&gt; 3星通关主题曲3-3；必须编入非助战红豆并上场，且使用红豆歼灭8个敌人</t>
         </is>
       </c>
       <c r="F10" s="6" t="n"/>
@@ -877,7 +877,7 @@
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战红豆，并确定第一位部署的干员是红豆&gt; 3星通关主题曲3-3；必须编入非助战红豆并上场，且使用红豆歼灭8个敌人</t>
+          <t>&gt; 非助战杜宾上场完成5次战斗；队伍中除杜宾外，其他成员仅可编入3星干员&gt; 3星通关主题曲1-12；必须编入非助战杜宾并上场，其他成员仅可编入3星干员</t>
         </is>
       </c>
       <c r="F11" s="2" t="n"/>
@@ -916,7 +916,7 @@
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>&gt; 非助战杜宾上场完成5次战斗；队伍中除杜宾外，其他成员仅可编入3星干员&gt; 3星通关主题曲1-12；必须编入非助战杜宾并上场，其他成员仅可编入3星干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战缠丸并上场，且使用缠丸造成至少15000点伤害&gt; 3星通关主题曲S2-10；必须编入非助战缠丸并上场，且使用缠丸歼灭至少2个高阶术师</t>
         </is>
       </c>
       <c r="F12" s="2" t="n"/>
@@ -955,7 +955,7 @@
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战缠丸并上场，且使用缠丸造成至少15000点伤害&gt; 3星通关主题曲S2-10；必须编入非助战缠丸并上场，且使用缠丸歼灭至少2个高阶术师</t>
+          <t>&gt; 战斗中非助战霜叶累计使用凝冰枪刃8次&gt; 3星通关主题曲4-2；必须编入非助战霜叶并上场，且不编入其他近卫干员</t>
         </is>
       </c>
       <c r="F13" s="2" t="n"/>
@@ -994,7 +994,7 @@
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战霜叶累计使用凝冰枪刃8次&gt; 3星通关主题曲4-2；必须编入非助战霜叶并上场，且不编入其他近卫干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战艾丝黛尔并上场，且使用艾丝黛尔造成至少12000点伤害&gt; 3星通关主题曲7-4；必须编入非助战艾丝黛尔并上场，且使用艾丝黛尔至少歼灭15个敌人</t>
         </is>
       </c>
       <c r="F14" s="2" t="n"/>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战艾丝黛尔并上场，且使用艾丝黛尔造成至少12000点伤害&gt; 3星通关主题曲7-4；必须编入非助战艾丝黛尔并上场，且使用艾丝黛尔至少歼灭15个敌人</t>
+          <t>&gt; 完成5次战斗；每次战斗至少部署4次非助战的砾&gt; 3星通关主题曲4-8；必须编入非助战砾并上场，且所有干员不被击倒</t>
         </is>
       </c>
       <c r="F15" s="2" t="n"/>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；每次战斗至少部署4次非助战的砾&gt; 3星通关主题曲4-8；必须编入非助战砾并上场，且所有干员不被击倒</t>
+          <t>&gt; 战斗中非助战暗索累计使用复式勾爪10次&gt; 3星通关主题曲3-3；必须编入非助战暗索，且使弑君者坠落地穴</t>
         </is>
       </c>
       <c r="F16" s="2" t="n"/>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战暗索累计使用复式勾爪10次&gt; 3星通关主题曲3-3；必须编入非助战暗索，且使弑君者坠落地穴</t>
+          <t>&gt; 战斗中非助战末药累计使用医疗力场5次&gt; 3星通关主题曲6-11；且仅可编入非助战末药1名医疗干员并上场</t>
         </is>
       </c>
       <c r="F17" s="2" t="n"/>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战末药累计使用医疗力场5次&gt; 3星通关主题曲6-11；且仅可编入非助战末药1名医疗干员并上场</t>
+          <t>&gt; 战斗中非助战嘉维尔累计使用活力再生·广域12次&gt; 3星通关主题曲S4-5；必须编入非助战嘉维尔并上场，且使用2次活力再生·广域</t>
         </is>
       </c>
       <c r="F18" s="2" t="n"/>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战嘉维尔累计使用活力再生·广域12次&gt; 3星通关主题曲S4-5；必须编入非助战嘉维尔并上场，且使用2次活力再生·广域</t>
+          <t>&gt; 完成5次战斗；每次战斗中至少部署1次非助战调香师&gt; 3星通关主题曲3-4；且仅可编入非助战调香师1名医疗干员并上场</t>
         </is>
       </c>
       <c r="F19" s="2" t="n"/>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；每次战斗中至少部署1次非助战调香师&gt; 3星通关主题曲3-4；且仅可编入非助战调香师1名医疗干员并上场</t>
+          <t>&gt; 战斗中非助战角峰累计使用抗寒体质8次&gt; 3星通关主题曲3-6；且仅可编入非助战角峰1名重装干员并上场</t>
         </is>
       </c>
       <c r="F20" s="2" t="n"/>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战角峰累计使用抗寒体质8次&gt; 3星通关主题曲3-6；且仅可编入非助战角峰1名重装干员并上场</t>
+          <t>&gt; 战斗中非助战蛇屠箱累计使用壳状防御8次&gt; 3星通关主题曲2-10；必须编入非助战蛇屠箱并上场，且不编入其他重装干员</t>
         </is>
       </c>
       <c r="F21" s="2" t="n"/>
@@ -1301,12 +1301,12 @@
       </c>
       <c r="D22" s="5" t="inlineStr">
         <is>
-          <t>maa://20876 (88.89)</t>
+          <t>maa://20876 (90.0)</t>
         </is>
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战蛇屠箱累计使用壳状防御8次&gt; 3星通关主题曲2-10；必须编入非助战蛇屠箱并上场，且不编入其他重装干员</t>
+          <t>&gt; 战斗中非助战古米累计使用食粮烹制6次&gt; 3星通关主题曲4-2；必须编入非助战古米并上场，且不编入其他重装干员</t>
         </is>
       </c>
       <c r="F22" s="2" t="n"/>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战古米累计使用食粮烹制6次&gt; 3星通关主题曲4-2；必须编入非助战古米并上场，且不编入其他重装干员</t>
+          <t>&gt; 战斗中累计召唤非助战深海色的召唤物20回&gt; 使用至多1人的队伍3星通关主题曲2-4；队伍中仅可编入非助战深海色</t>
         </is>
       </c>
       <c r="F23" s="2" t="n"/>
@@ -1384,7 +1384,7 @@
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中累计召唤非助战深海色的召唤物20回&gt; 使用至多1人的队伍3星通关主题曲2-4；队伍中仅可编入非助战深海色</t>
+          <t>&gt; 由非助战地灵累计使用流沙化6次&gt; 3星通关插曲DM-2；必须编入非助战地灵并上场，其他成员仅可编入先锋与狙击干员</t>
         </is>
       </c>
       <c r="F24" s="2" t="n"/>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战地灵累计使用流沙化6次&gt; 3星通关插曲DM-2；必须编入非助战地灵并上场，其他成员仅可编入先锋与狙击干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战阿消，且每次战斗至少使2名敌人坠落地穴&gt; 3星通关主题曲2-8；必须编入非助战阿消，且本场战斗至少使2个磐蟹坠落地穴</t>
         </is>
       </c>
       <c r="F25" s="2" t="n"/>
@@ -1462,7 +1462,7 @@
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战阿消，且每次战斗至少使2名敌人坠落地穴&gt; 3星通关主题曲2-8；必须编入非助战阿消，且本场战斗至少使2个磐蟹坠落地穴</t>
+          <t>&gt; 战斗中非助战白面鸮累计使用脑啡肽8次&gt; 3星通关主题曲4-9；必须编入非助战白面鸮并上场，且不编入其他医疗和重装干员</t>
         </is>
       </c>
       <c r="F26" s="2" t="n"/>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战白面鸮累计使用脑啡肽8次&gt; 3星通关主题曲4-9；必须编入非助战白面鸮并上场，且不编入其他医疗和重装干员</t>
+          <t>&gt; 战斗中非助战凛冬累计使用乌萨斯战吼5次&gt; 3星通关主题曲1-5；必须编入非助战凛冬并上场，其他成员仅可编入先锋与狙击干员</t>
         </is>
       </c>
       <c r="F27" s="2" t="n"/>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战凛冬累计使用乌萨斯战吼5次&gt; 3星通关主题曲1-5；必须编入非助战凛冬并上场，其他成员仅可编入先锋与狙击干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战德克萨斯并上场，且每次战斗至少释放一次剑雨&gt; 3星通关别传CB-3；必须编入非助战德克萨斯并上场，其他成员不可编入先锋干员</t>
         </is>
       </c>
       <c r="F28" s="2" t="n"/>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战德克萨斯并上场，且每次战斗至少释放一次剑雨&gt; 3星通关别传CB-3；必须编入非助战德克萨斯并上场，其他成员不可编入先锋干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战芙兰卡并上场，且使用芙兰卡造成至少18000点伤害&gt; 3星通关主题曲9-3标准实战环境；必须编入非助战芙兰卡并上场，且使用芙兰卡歼灭至少1个深池重甲卫士</t>
         </is>
       </c>
       <c r="F29" s="2" t="n"/>
@@ -1618,7 +1618,7 @@
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战芙兰卡并上场，且使用芙兰卡造成至少18000点伤害&gt; 3星通关主题曲9-3标准实战环境；必须编入非助战芙兰卡并上场，且使用芙兰卡歼灭至少1个深池重甲卫士</t>
+          <t>&gt; 由非助战因陀罗累计造成30歼灭数&gt; 3星通关主题曲11-5标准作战环境；必须携带并部署非助战因陀罗，其他成员仅可编入6名干员</t>
         </is>
       </c>
       <c r="F30" s="2" t="n"/>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战因陀罗累计造成30歼灭数&gt; 3星通关主题曲11-5标准作战环境；必须携带并部署非助战因陀罗，其他成员仅可编入6名干员</t>
+          <t>&gt; 由非助战拉普兰德累计造成80000点伤害&gt; 3星通关主题曲4-7；必须编入非助战拉普兰德并上场，并使用拉普兰德至少击败10名高能源石虫</t>
         </is>
       </c>
     </row>
@@ -1684,7 +1684,7 @@
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战拉普兰德累计造成80000点伤害&gt; 3星通关主题曲4-7；必须编入非助战拉普兰德并上场，并使用拉普兰德至少击败10名高能源石虫</t>
+          <t>&gt; 完成5次战斗；必须编入非助战幽灵鲨并上场，且每次战斗至少释放1次肉斩骨断&gt; 3星通关插曲SN-EX-1；必须编入非助战幽灵鲨并上场，且使用幽灵鲨击败至少10名富营养的滑动者</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战幽灵鲨并上场，且每次战斗至少释放1次肉斩骨断&gt; 3星通关插曲SN-EX-1；必须编入非助战幽灵鲨并上场，且使用幽灵鲨击败至少10名富营养的滑动者</t>
+          <t>&gt; 由非助战蓝毒累计造成80000点伤害&gt; 3星通关主题曲3-4；必须编入非助战蓝毒并上场，其他成员仅可编入近卫干员</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战蓝毒累计造成80000点伤害&gt; 3星通关主题曲3-4；必须编入非助战蓝毒并上场，其他成员仅可编入近卫干员</t>
+          <t>&gt; 由非助战白金累计造成30歼灭数&gt; 3星通关主题曲5-7；必须编入非助战白金并上场，且使用白金歼灭至少2个寒霜</t>
         </is>
       </c>
     </row>
@@ -1765,7 +1765,7 @@
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战白金累计造成30歼灭数&gt; 3星通关主题曲5-7；必须编入非助战白金并上场，且使用白金歼灭至少2个寒霜</t>
+          <t>&gt; 完成5次战斗；必须编入非助战陨星并上场，且使用陨星歼灭至少10名敌人&gt; 3星通关主题曲2-4；必须编入非助战陨星并上场，其他成员仅可编入先锋与医疗干员</t>
         </is>
       </c>
     </row>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战陨星并上场，且使用陨星歼灭至少10名敌人&gt; 3星通关主题曲2-4；必须编入非助战陨星并上场，其他成员仅可编入先锋与医疗干员</t>
+          <t>&gt; 由非助战阿米娅累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲3-8；必须编入非助战中坚术师状态的阿米娅并上场，且使用中坚术师状态的阿米娅歼灭碎骨</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战阿米娅累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲3-8；必须编入非助战中坚术师状态的阿米娅并上场，且使用中坚术师状态的阿米娅歼灭碎骨</t>
+          <t>&gt; 完成5次战斗；必须编入非助战天火并上场，且每次战斗至少释放一次天坠之火&gt; 3星通关主题曲S3-5；必须编入非助战天火并上场，且使用天火歼灭至少10名敌人、其中包括至少2名屠夫</t>
         </is>
       </c>
     </row>
@@ -1846,7 +1846,7 @@
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战天火并上场，且每次战斗至少释放一次天坠之火&gt; 3星通关主题曲S3-5；必须编入非助战天火并上场，且使用天火歼灭至少10名敌人、其中包括至少2名屠夫</t>
+          <t>&gt; 完成5次战斗；每次战斗至少召唤5回非助战梅尔的召唤物&gt; 使用至多3人（包含助战）的队伍3星通关主题曲2-9；必须编入非助战梅尔并上场，其他成员仅可编入狙击干员</t>
         </is>
       </c>
     </row>
@@ -1873,7 +1873,7 @@
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；每次战斗至少召唤5回非助战梅尔的召唤物&gt; 使用至多3人（包含助战）的队伍3星通关主题曲2-9；必须编入非助战梅尔并上场，其他成员仅可编入狙击干员</t>
+          <t>&gt; 战斗中非助战赫默累计使用医疗无人机14次&gt; 3星通关主题曲4-8；且仅可编入非助战赫默1名医疗干员并上场</t>
         </is>
       </c>
     </row>
@@ -1900,7 +1900,7 @@
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战赫默累计使用医疗无人机14次&gt; 3星通关主题曲4-8；且仅可编入非助战赫默1名医疗干员并上场</t>
+          <t>&gt; 战斗中非助战华法琳累计使用不稳定血浆12次&gt; 使用至多7人（包含助战）的队伍3星通关主题曲2-10；必须编入非助战华法琳并上场，其他成员仅可编入近卫干员</t>
         </is>
       </c>
     </row>
@@ -1927,7 +1927,7 @@
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战华法琳累计使用不稳定血浆12次&gt; 使用至多7人（包含助战）的队伍3星通关主题曲2-10；必须编入非助战华法琳并上场，其他成员仅可编入近卫干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战临光并上场，且每次战斗至少释放1次急救模式&gt; 3星通关主题曲1-12；必须编入非助战临光并上场，且所有干员不被击倒</t>
         </is>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战临光并上场，且每次战斗至少释放1次急救模式&gt; 3星通关主题曲1-12；必须编入非助战临光并上场，且所有干员不被击倒</t>
+          <t>&gt; 完成5次战斗；每次战斗至少部署3次非助战的红&gt; 3星通关主题曲S4-5；必须编入非助战红并上场，且使用红至少歼灭4个高能源石虫</t>
         </is>
       </c>
     </row>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；每次战斗至少部署3次非助战的红&gt; 3星通关主题曲S4-5；必须编入非助战红并上场，且使用红至少歼灭4个高能源石虫</t>
+          <t>&gt; 战斗中非助战雷蛇累计使用反击电弧8次&gt; 3星通关主题曲4-6；必须编入非助战雷蛇并上场，且不编入其他重装干员</t>
         </is>
       </c>
     </row>
@@ -2008,7 +2008,7 @@
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战雷蛇累计使用反击电弧8次&gt; 3星通关主题曲4-6；必须编入非助战雷蛇并上场，且不编入其他重装干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战可颂，且每次战斗至少使3名敌人坠落地穴&gt; 3星通关主题曲2-8；必须编入非助战可颂并上场，且使用2次磁暴锤</t>
         </is>
       </c>
     </row>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战可颂，且每次战斗至少使3名敌人坠落地穴&gt; 3星通关主题曲2-8；必须编入非助战可颂并上场，且使用2次磁暴锤</t>
+          <t>&gt; 由非助战火神累计造成30歼灭数&gt; 3星通关主题曲S4-4；必须编入非助战火神并上场，且使用火神至少歼灭6个敌人</t>
         </is>
       </c>
     </row>
@@ -2062,7 +2062,7 @@
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战火神累计造成30歼灭数&gt; 3星通关主题曲S4-4；必须编入非助战火神并上场，且使用火神至少歼灭6个敌人</t>
+          <t>&gt; 完成5次战斗；必须编入非助战普罗旺斯并上场，且使用普罗旺斯歼灭至少5名敌人&gt; 3星通关主题曲S5-1；必须编入非助战普罗旺斯并上场，且使用普罗旺斯歼灭至少6名敌人，其中包括至少1个伐木老手</t>
         </is>
       </c>
     </row>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战普罗旺斯并上场，且使用普罗旺斯歼灭至少5名敌人&gt; 3星通关主题曲S5-1；必须编入非助战普罗旺斯并上场，且使用普罗旺斯歼灭至少6名敌人，其中包括至少1个伐木老手</t>
+          <t>&gt; 由非助战守林人累计歼灭25名使用远程武器的敌人&gt; 3星通关主题曲2-10；必须编入非助战守林人并上场，且使用守林人歼灭碎骨</t>
         </is>
       </c>
     </row>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战守林人累计歼灭25名使用远程武器的敌人&gt; 3星通关主题曲2-10；必须编入非助战守林人并上场，且使用守林人歼灭碎骨</t>
+          <t>&gt; 完成5次战斗；必须编入非助战崖心，且每次战斗至少使2名敌人坠落地穴&gt; 3星通关别传MN-4；必须编入非助战崖心并上场，且不编入其他特种干员</t>
         </is>
       </c>
     </row>
@@ -2143,7 +2143,7 @@
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战崖心，且每次战斗至少使2名敌人坠落地穴&gt; 3星通关别传MN-4；必须编入非助战崖心并上场，且不编入其他特种干员</t>
+          <t>&gt; 由非助战初雪累计造成60000点伤害&gt; 3星通关主题曲2-3；必须编入非助战初雪并上场，其他成员仅可编入6名干员</t>
         </is>
       </c>
     </row>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战初雪累计造成60000点伤害&gt; 3星通关主题曲2-3；必须编入非助战初雪并上场，其他成员仅可编入6名干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战真理并上场，且使用真理造成至少25000点伤害&gt; 3星通关主题曲2-3；必须编入非助战真理并上场，其他成员仅可编入6名干员</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战真理并上场，且使用真理造成至少25000点伤害&gt; 3星通关主题曲2-3；必须编入非助战真理并上场，其他成员仅可编入6名干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战狮蝎并上场，且每次战斗至少释放1次蓄力毒尾击&gt; 3星通关主题曲1-9；必须编入非助战狮蝎并上场，其他成员仅可编入1名干员</t>
         </is>
       </c>
     </row>
@@ -2224,7 +2224,7 @@
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战狮蝎并上场，且每次战斗至少释放1次蓄力毒尾击&gt; 3星通关主题曲1-9；必须编入非助战狮蝎并上场，其他成员仅可编入1名干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战食铁兽，且每次战斗至少使2名敌人坠落地穴&gt; 3星通关别传WR-7；必须编入非助战食铁兽并上场，且至少使用2次崩拳式</t>
         </is>
       </c>
     </row>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战食铁兽，且每次战斗至少使2名敌人坠落地穴&gt; 3星通关别传WR-7；必须编入非助战食铁兽并上场，且至少使用2次崩拳式</t>
+          <t>&gt; 由非助战能天使累计造成100000点伤害&gt; 3星通关主题曲4-10；必须编入非助战能天使并上场，且使用能天使歼灭霜星</t>
         </is>
       </c>
     </row>
@@ -2278,7 +2278,7 @@
       </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战能天使累计造成100000点伤害&gt; 3星通关主题曲4-10；必须编入非助战能天使并上场，且使用能天使歼灭霜星</t>
+          <t>&gt; 由非助战推进之王累计造成60歼灭数&gt; 3星通关主题曲1-7；必须编入非助战推进之王并上场，其他成员仅可编入先锋干员</t>
         </is>
       </c>
     </row>
@@ -2305,7 +2305,7 @@
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战推进之王累计造成60歼灭数&gt; 3星通关主题曲1-7；必须编入非助战推进之王并上场，其他成员仅可编入先锋干员</t>
+          <t>&gt; 战斗中非助战推进之王累计使用跃空锤40次&gt; 3星通关主题曲11-2标准实战环境；必须编入非助战推进之王，且第一位部署推进之王、推进之王全程不撤退或被击倒</t>
         </is>
       </c>
     </row>
@@ -2332,7 +2332,7 @@
       </c>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战推进之王累计使用跃空锤40次&gt; 3星通关主题曲11-2标准实战环境；必须编入非助战推进之王，且第一位部署推进之王、推进之王全程不撤退或被击倒</t>
+          <t>&gt; 由非助战伊芙利特累计造成80歼灭数&gt; 3星通关主题曲1-5；必须编入非助战伊芙利特并上场，且不编入其他狙击、术师与辅助干员</t>
         </is>
       </c>
     </row>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战伊芙利特累计造成80歼灭数&gt; 3星通关主题曲1-5；必须编入非助战伊芙利特并上场，且不编入其他狙击、术师与辅助干员</t>
+          <t>&gt; 战斗中非助战伊芙利特累计使用灼地10次&gt; 3星通关插曲CW-3；必须编入非助战伊芙利特并上场，且使用伊芙利特至少歼灭6个敌人</t>
         </is>
       </c>
     </row>
@@ -2386,7 +2386,7 @@
       </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战伊芙利特累计使用灼地10次&gt; 3星通关插曲CW-3；必须编入非助战伊芙利特并上场，且使用伊芙利特至少歼灭6个敌人</t>
+          <t>&gt; 由非助战艾雅法拉累计造成100000点伤害&gt; 3星通关别传OF-5；必须编入非助战艾雅法拉并上场，其他成员仅可编入3名干员</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战艾雅法拉累计造成100000点伤害&gt; 3星通关别传OF-5；必须编入非助战艾雅法拉并上场，其他成员仅可编入3名干员</t>
+          <t>&gt; 由非助战安洁莉娜累计造成120000点伤害&gt; 3星通关主题曲2-7；必须编入非助战安洁莉娜并上场，其他成员仅可编入4名干员</t>
         </is>
       </c>
     </row>
@@ -2440,7 +2440,7 @@
       </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战安洁莉娜累计造成120000点伤害&gt; 3星通关主题曲2-7；必须编入非助战安洁莉娜并上场，其他成员仅可编入4名干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战安洁莉娜并上场，且使用安洁莉娜歼灭至少7名敌人&gt; 3星通关主题曲4-4；必须编入非助战安洁莉娜并上场，其他成员仅可编入2名特种干员</t>
         </is>
       </c>
     </row>
@@ -2467,7 +2467,7 @@
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战安洁莉娜并上场，且使用安洁莉娜歼灭至少7名敌人&gt; 3星通关主题曲4-4；必须编入非助战安洁莉娜并上场，其他成员仅可编入2名特种干员</t>
+          <t>&gt; 战斗中非助战闪灵累计使用自动掩护35次&gt; 3星通关别传NL-5；必须编入非助战闪灵并上场，且所有干员不被击倒</t>
         </is>
       </c>
     </row>
@@ -2494,7 +2494,7 @@
       </c>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战闪灵累计使用自动掩护35次&gt; 3星通关别传NL-5；必须编入非助战闪灵并上场，且所有干员不被击倒</t>
+          <t>&gt; 战斗中非助战闪灵累计使用教条力场6次&gt; 3星通关主题曲5-8；且仅可编入非助战闪灵1名医疗干员并上场</t>
         </is>
       </c>
     </row>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战闪灵累计使用教条力场6次&gt; 3星通关主题曲5-8；且仅可编入非助战闪灵1名医疗干员并上场</t>
+          <t>&gt; 战斗中累计召唤非助战夜莺的召唤物10回&gt; 3星通关主题曲3-6；必须编入非助战夜莺并上场，且使用10次法术护盾</t>
         </is>
       </c>
     </row>
@@ -2548,7 +2548,7 @@
       </c>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中累计召唤非助战夜莺的召唤物10回&gt; 3星通关主题曲3-6；必须编入非助战夜莺并上场，且使用10次法术护盾</t>
+          <t>&gt; 战斗中非助战夜莺累计使用圣域6次&gt; 3星通关别传TW-3；必须编入非助战夜莺并上场，且所有干员不被击倒</t>
         </is>
       </c>
     </row>
@@ -2575,7 +2575,7 @@
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战夜莺累计使用圣域6次&gt; 3星通关别传TW-3；必须编入非助战夜莺并上场，且所有干员不被击倒</t>
+          <t>&gt; 由非助战星熊累计造成60000点伤害&gt; 3星通关主题曲6-4；必须编入非助战星熊并上场，其他成员不可编入重装干员</t>
         </is>
       </c>
     </row>
@@ -2597,12 +2597,12 @@
       </c>
       <c r="D66" s="5" t="inlineStr">
         <is>
-          <t>maa://28784 (93.8), maa://29088 (91.67), maa://20974 (95.0), maa://31124 (95.93), maa://28950 (90.91), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67)</t>
+          <t>maa://28784 (93.81), maa://29088 (91.67), maa://20974 (95.0), maa://31124 (95.93), maa://28950 (90.91), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67)</t>
         </is>
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战星熊累计造成60000点伤害&gt; 3星通关主题曲6-4；必须编入非助战星熊并上场，其他成员不可编入重装干员</t>
+          <t>&gt; 由非助战星熊累计造成60歼灭数&gt; 3星通关主题曲3-1；必须编入非助战星熊并上场，其他成员仅可编入4名干员</t>
         </is>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战星熊累计造成60歼灭数&gt; 3星通关主题曲3-1；必须编入非助战星熊并上场，其他成员仅可编入4名干员</t>
+          <t>&gt; 战斗中非助战塞雷娅累计使用钙质化5次&gt; 3星通关别传MB-3；必须编入非助战塞雷娅并上场，且所有干员不被击倒</t>
         </is>
       </c>
     </row>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="E68" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战塞雷娅累计使用钙质化5次&gt; 3星通关别传MB-3；必须编入非助战塞雷娅并上场，且所有干员不被击倒</t>
+          <t>&gt; 完成5次战斗；必须编入非助战塞雷娅并上场，且每次战斗至少释放3次药物配置&gt; 3星通关主题曲4-6；必须编入非助战塞雷娅并上场，且不编入医疗干员</t>
         </is>
       </c>
     </row>
@@ -2683,7 +2683,7 @@
       </c>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战塞雷娅并上场，且每次战斗至少释放3次药物配置&gt; 3星通关主题曲4-6；必须编入非助战塞雷娅并上场，且不编入医疗干员</t>
+          <t>&gt; 战斗中非助战银灰累计使用真银斩10次&gt; 3星通关别传BI-7；必须编入非助战银灰并上场，且使用银灰至少击败1名山雪鬼</t>
         </is>
       </c>
     </row>
@@ -2710,7 +2710,7 @@
       </c>
       <c r="E70" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战银灰累计使用真银斩10次&gt; 3星通关别传BI-7；必须编入非助战银灰并上场，且使用银灰至少击败1名山雪鬼</t>
+          <t>&gt; 战斗中非助战暴行累计使用微差爆破10次&gt; 3星通关主题曲4-5；必须编入非助战暴行并上场，其他成员仅可编入4名干员</t>
         </is>
       </c>
     </row>
@@ -2737,7 +2737,7 @@
       </c>
       <c r="E71" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战暴行累计使用微差爆破10次&gt; 3星通关主题曲4-5；必须编入非助战暴行并上场，其他成员仅可编入4名干员</t>
+          <t>&gt; 战斗中非助战猎蜂累计使用急速拳8次&gt; 3星通关主题曲7-4；必须编入非助战猎蜂并上场，且使用猎蜂至少歼灭10个敌人</t>
         </is>
       </c>
     </row>
@@ -2764,7 +2764,7 @@
       </c>
       <c r="E72" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战猎蜂累计使用急速拳8次&gt; 3星通关主题曲7-4；必须编入非助战猎蜂并上场，且使用猎蜂至少歼灭10个敌人</t>
+          <t>&gt; 战斗中非助战夜魔累计使用夜魇魔影12次&gt; 3星通关主题曲S4-1；必须编入非助战夜魔并上场，且不编入其他术师干员</t>
         </is>
       </c>
     </row>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战夜魔累计使用夜魇魔影12次&gt; 3星通关主题曲S4-1；必须编入非助战夜魔并上场，且不编入其他术师干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战格拉尼，并确定第一位部署的干员是格拉尼&gt; 3星通关别传GT-6；必须编入非助战格拉尼并上场，且使用格拉尼歼灭8个敌人</t>
         </is>
       </c>
     </row>
@@ -2818,7 +2818,7 @@
       </c>
       <c r="E74" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战格拉尼，并确定第一位部署的干员是格拉尼&gt; 3星通关别传GT-6；必须编入非助战格拉尼并上场，且使用格拉尼歼灭8个敌人</t>
+          <t>&gt; 由非助战斯卡蒂累计造成30歼灭数&gt; 3星通关别传GT-4；必须编入非助战斯卡蒂并上场，且使用斯卡蒂歼灭至少2个伐木机</t>
         </is>
       </c>
     </row>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战斯卡蒂累计造成30歼灭数&gt; 3星通关别传GT-4；必须编入非助战斯卡蒂并上场，且使用斯卡蒂歼灭至少2个伐木机</t>
+          <t>&gt; 完成5次战斗；必须编入非助战斯卡蒂并上场，且使用斯卡蒂歼灭至少5个敌人&gt; 3星通关别传GT-6；必须编入非助战斯卡蒂并上场，且使用斯卡蒂歼灭至少1个大鲍勃</t>
         </is>
       </c>
     </row>
@@ -2872,7 +2872,7 @@
       </c>
       <c r="E76" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战斯卡蒂并上场，且使用斯卡蒂歼灭至少5个敌人&gt; 3星通关别传GT-6；必须编入非助战斯卡蒂并上场，且使用斯卡蒂歼灭至少1个大鲍勃</t>
+          <t>&gt; 完成5次战斗；必须编入非助战格雷伊并上场，且使用格雷伊歼灭至少8名敌人&gt; 使用至多4人（包含助战）的队伍3星通关主题曲2-3；必须编入非助战格雷伊并上场，其他成员仅可编入先锋干员</t>
         </is>
       </c>
     </row>
@@ -2899,7 +2899,7 @@
       </c>
       <c r="E77" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战格雷伊并上场，且使用格雷伊歼灭至少8名敌人&gt; 使用至多4人（包含助战）的队伍3星通关主题曲2-3；必须编入非助战格雷伊并上场，其他成员仅可编入先锋干员</t>
+          <t>&gt; 非助战诗怀雅上场完成5次战斗；其他成员仅可编入近卫干员&gt; 使用至多2人（包含助战）的队伍3星通关主题曲S2-3；必须编入非助战诗怀雅并上场，其他成员仅可编入近战位干员</t>
         </is>
       </c>
     </row>
@@ -2926,7 +2926,7 @@
       </c>
       <c r="E78" s="4" t="inlineStr">
         <is>
-          <t>&gt; 非助战诗怀雅上场完成5次战斗；其他成员仅可编入近卫干员&gt; 使用至多2人（包含助战）的队伍3星通关主题曲S2-3；必须编入非助战诗怀雅并上场，其他成员仅可编入近战位干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战陈并上场，且每次战斗至少释放一次赤霄·拔刀或赤霄·绝影&gt; 3星通关主题曲5-8；必须编入非助战陈并上场，且使用陈至少歼灭16名敌人</t>
         </is>
       </c>
     </row>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="E79" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战陈并上场，且每次战斗至少释放一次赤霄·拔刀或赤霄·绝影&gt; 3星通关主题曲5-8；必须编入非助战陈并上场，且使用陈至少歼灭16名敌人</t>
+          <t>&gt; 由非助战陈累计造成100000点伤害&gt; 3星通关主题曲5-9；必须携带并部署非助战陈，其他成员仅可编入7名干员</t>
         </is>
       </c>
     </row>
@@ -2980,7 +2980,7 @@
       </c>
       <c r="E80" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战陈累计造成100000点伤害&gt; 3星通关主题曲5-9；必须携带并部署非助战陈，其他成员仅可编入7名干员</t>
+          <t>&gt; 战斗中非助战苏苏洛累计使用深度治疗6次&gt; 3星通关主题曲4-7；且仅可编入非助战苏苏洛1名医疗干员并上场</t>
         </is>
       </c>
     </row>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="E81" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战苏苏洛累计使用深度治疗6次&gt; 3星通关主题曲4-7；且仅可编入非助战苏苏洛1名医疗干员并上场</t>
+          <t>&gt; 由非助战锡兰累计使用水灵庇护3次&gt; 3星通关别传OF-3；且仅可编入非助战锡兰1名医疗干员并上场</t>
         </is>
       </c>
     </row>
@@ -3034,7 +3034,7 @@
       </c>
       <c r="E82" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战锡兰累计使用水灵庇护3次&gt; 3星通关别传OF-3；且仅可编入非助战锡兰1名医疗干员并上场</t>
+          <t>&gt; 由非助战格劳克斯累计歼灭20个无人机敌人&gt; 3星通关主题曲5-7；必须编入非助战格劳克斯并上场，且使用格劳克斯歼灭至少2个法术大师A1</t>
         </is>
       </c>
     </row>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="E83" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战格劳克斯累计歼灭20个无人机敌人&gt; 3星通关主题曲5-7；必须编入非助战格劳克斯并上场，且使用格劳克斯歼灭至少2个法术大师A1</t>
+          <t>&gt; 完成5次战斗；必须编入非助战黑并上场，且每次战斗至少释放2次战术的终结&gt; 3星通关别传OF-7；必须编入非助战黑并上场，且使用黑歼灭至少2个碎岩者</t>
         </is>
       </c>
     </row>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="E84" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战黑并上场，且每次战斗至少释放2次战术的终结&gt; 3星通关别传OF-7；必须编入非助战黑并上场，且使用黑歼灭至少2个碎岩者</t>
+          <t>&gt; 由非助战黑累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲2-1；必须编入非助战黑并上场，其他成员仅可编入狙击干员</t>
         </is>
       </c>
     </row>
@@ -3115,7 +3115,7 @@
       </c>
       <c r="E85" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战黑累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲2-1；必须编入非助战黑并上场，其他成员仅可编入狙击干员</t>
+          <t>&gt; 战斗中非助战桃金娘累计使用支援号令·β型10次&gt; 3星通关主题曲6-3；必须编入非助战桃金娘并上场，且不编入其他先锋干员</t>
         </is>
       </c>
     </row>
@@ -3142,7 +3142,7 @@
       </c>
       <c r="E86" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战桃金娘累计使用支援号令·β型10次&gt; 3星通关主题曲6-3；必须编入非助战桃金娘并上场，且不编入其他先锋干员</t>
+          <t>&gt; 由非助战赫拉格累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲5-10；必须编入非助战赫拉格并上场，且使用赫拉格歼灭梅菲斯特</t>
         </is>
       </c>
     </row>
@@ -3169,7 +3169,7 @@
       </c>
       <c r="E87" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战赫拉格累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲5-10；必须编入非助战赫拉格并上场，且使用赫拉格歼灭梅菲斯特</t>
+          <t>&gt; 由非助战赫拉格累计造成30歼灭数&gt; 3星通关主题曲7-10；必须编入非助战赫拉格并上场，其他成员仅可编入3名干员</t>
         </is>
       </c>
     </row>
@@ -3196,7 +3196,7 @@
       </c>
       <c r="E88" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战赫拉格累计造成30歼灭数&gt; 3星通关主题曲7-10；必须编入非助战赫拉格并上场，其他成员仅可编入3名干员</t>
+          <t>&gt; 由非助战红云累计造成60000点伤害&gt; 3星通关主题曲3-1；必须编入非助战红云并上场，其他成员仅可编入先锋干员</t>
         </is>
       </c>
     </row>
@@ -3223,7 +3223,7 @@
       </c>
       <c r="E89" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战红云累计造成60000点伤害&gt; 3星通关主题曲3-1；必须编入非助战红云并上场，其他成员仅可编入先锋干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战炎客并上场，且使用炎客发动至少1次刃鬼&gt; 3星通关主题曲S4-3；必须编入非助战炎客并上场，且使用炎客歼灭至少3个萨卡兹敌人</t>
         </is>
       </c>
     </row>
@@ -3250,7 +3250,7 @@
       </c>
       <c r="E90" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战炎客并上场，且使用炎客发动至少1次刃鬼&gt; 3星通关主题曲S4-3；必须编入非助战炎客并上场，且使用炎客歼灭至少3个萨卡兹敌人</t>
+          <t>&gt; 由非助战送葬人累计造成80000伤害&gt; 3星通关别传IW-8；必须编入非助战送葬人并上场，且使用送葬人至少歼灭30个敌人</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="E91" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战送葬人累计造成80000伤害&gt; 3星通关别传IW-8；必须编入非助战送葬人并上场，且使用送葬人至少歼灭30个敌人</t>
+          <t>&gt; 完成5次战斗；每次战斗至少召唤5回非助战麦哲伦的召唤物&gt; 使用至多2人（包含助战）的队伍3星通关主题曲2-5；必须编入非助战麦哲伦并上场，其他成员仅可编入先锋干员</t>
         </is>
       </c>
     </row>
@@ -3304,7 +3304,7 @@
       </c>
       <c r="E92" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；每次战斗至少召唤5回非助战麦哲伦的召唤物&gt; 使用至多2人（包含助战）的队伍3星通关主题曲2-5；必须编入非助战麦哲伦并上场，其他成员仅可编入先锋干员</t>
+          <t>&gt; 战斗中累计召唤非助战麦哲伦的召唤物45回&gt; 3星通关主题曲2-2；必须编入非助战麦哲伦并上场，其他成员仅可编入先锋干员</t>
         </is>
       </c>
     </row>
@@ -3331,7 +3331,7 @@
       </c>
       <c r="E93" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中累计召唤非助战麦哲伦的召唤物45回&gt; 3星通关主题曲2-2；必须编入非助战麦哲伦并上场，其他成员仅可编入先锋干员</t>
+          <t>&gt; 战斗中非助战伊桑累计使用十字悬挂5次&gt; 3星通关别传TW-3；必须编入非助战伊桑并上场，其他成员仅可编入4名干员</t>
         </is>
       </c>
     </row>
@@ -3358,7 +3358,7 @@
       </c>
       <c r="E94" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战伊桑累计使用十字悬挂5次&gt; 3星通关别传TW-3；必须编入非助战伊桑并上场，其他成员仅可编入4名干员</t>
+          <t>&gt; 战斗中非助战微风累计发射50枚医疗弹&gt; 3星通关主题曲4-1；必须编入非助战微风并上场，其他成员仅可编入7名干员</t>
         </is>
       </c>
     </row>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="E95" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战微风累计发射50枚医疗弹&gt; 3星通关主题曲4-1；必须编入非助战微风并上场，其他成员仅可编入7名干员</t>
+          <t>&gt; 战斗中非助战梅累计使用束缚电击5次&gt; 3星通关主题曲4-4；必须编入非助战梅并上场，且不编入其他狙击干员</t>
         </is>
       </c>
     </row>
@@ -3412,7 +3412,7 @@
       </c>
       <c r="E96" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战梅累计使用束缚电击5次&gt; 3星通关主题曲4-4；必须编入非助战梅并上场，且不编入其他狙击干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战拜松并上场，且每次战斗至少释放2次深化阵线&gt; 3星通关主题曲3-7；且仅可编入非助战拜松1名重装干员并上场</t>
         </is>
       </c>
     </row>
@@ -3434,12 +3434,12 @@
       </c>
       <c r="D97" s="5" t="inlineStr">
         <is>
-          <t>maa://27794 (100.0), *maa://20893 (75.0)</t>
+          <t>maa://27794 (100.0), *maa://20893 (76.47)</t>
         </is>
       </c>
       <c r="E97" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战拜松并上场，且每次战斗至少释放2次深化阵线&gt; 3星通关主题曲3-7；且仅可编入非助战拜松1名重装干员并上场</t>
+          <t>&gt; 由非助战槐琥使用技能七武掠阵踢累计歼灭50只感染生物&gt; 3星通关主题曲4-7；必须编入非助战槐琥并上场，其他成员仅可编入6名干员</t>
         </is>
       </c>
     </row>
@@ -3466,7 +3466,7 @@
       </c>
       <c r="E98" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战槐琥使用技能七武掠阵踢累计歼灭50只感染生物&gt; 3星通关主题曲4-7；必须编入非助战槐琥并上场，其他成员仅可编入6名干员</t>
+          <t>&gt; 战斗中非助战莫斯提马累计使用序时之匙5次&gt; 3星通关插曲DM-3；必须编入非助战莫斯提马并上场，并使用莫斯提马至少击败3名萨卡兹穿刺手</t>
         </is>
       </c>
     </row>
@@ -3493,7 +3493,7 @@
       </c>
       <c r="E99" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战莫斯提马累计使用序时之匙5次&gt; 3星通关插曲DM-3；必须编入非助战莫斯提马并上场，并使用莫斯提马至少击败3名萨卡兹穿刺手</t>
+          <t>&gt; 由非助战莫斯提马累计造成100歼灭数&gt; 3星通关别传CB-5；必须编入非助战莫斯提马并上场，且使用莫斯提马歼灭至少8名敌人、其中包括至少1名欺凌者</t>
         </is>
       </c>
     </row>
@@ -3520,7 +3520,7 @@
       </c>
       <c r="E100" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战莫斯提马累计造成100歼灭数&gt; 3星通关别传CB-5；必须编入非助战莫斯提马并上场，且使用莫斯提马歼灭至少8名敌人、其中包括至少1名欺凌者</t>
+          <t>&gt; 由非助战苇草累计造成70歼灭数&gt; 3星通关主题曲9-5标准实战环境；必须编入非助战苇草并上场，其他成员不可编入先锋干员</t>
         </is>
       </c>
     </row>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="E101" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战苇草累计造成70歼灭数&gt; 3星通关主题曲9-5标准实战环境；必须编入非助战苇草并上场，其他成员不可编入先锋干员</t>
+          <t>&gt; 由非助战布洛卡累计造成80000点伤害&gt; 3星通关主题曲7-8；必须编入非助战布洛卡并上场，且至少使用2次高压电流</t>
         </is>
       </c>
     </row>
@@ -3574,7 +3574,7 @@
       </c>
       <c r="E102" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战布洛卡累计造成80000点伤害&gt; 3星通关主题曲7-8；必须编入非助战布洛卡并上场，且至少使用2次高压电流</t>
+          <t>&gt; 由非助战安比尔使用雷达定位累计歼灭30名敌人&gt; 3星通关主题曲4-7；必须编入非助战安比尔并上场，且使用安比尔至少歼灭6只高能源石虫</t>
         </is>
       </c>
     </row>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="E103" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战安比尔使用雷达定位累计歼灭30名敌人&gt; 3星通关主题曲4-7；必须编入非助战安比尔并上场，且使用安比尔至少歼灭6只高能源石虫</t>
+          <t>&gt; 战斗中非助战灰喉累计使用回流5次&gt; 3星通关主题曲2-10；必须编入非助战灰喉并上场，且使用灰喉歼灭碎骨</t>
         </is>
       </c>
     </row>
@@ -3623,12 +3623,12 @@
       </c>
       <c r="D104" s="5" t="inlineStr">
         <is>
-          <t>maa://25018 (96.02), maa://25776 (90.16), maa://28361 (96.55), maa://25772 (92.11), *maa://25161 (78.57), maa://32653 (85.71)</t>
+          <t>maa://25018 (96.03), maa://25776 (90.16), maa://28361 (96.55), maa://25772 (92.11), *maa://25161 (78.57), maa://32653 (85.71)</t>
         </is>
       </c>
       <c r="E104" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战灰喉累计使用回流5次&gt; 3星通关主题曲2-10；必须编入非助战灰喉并上场，且使用灰喉歼灭碎骨</t>
+          <t>&gt; 由非助战煌累计造成80歼灭数&gt; 3星通关主题曲11-13标准实战环境；必须编入非助战煌并上场，且不编入其他近卫干员</t>
         </is>
       </c>
     </row>
@@ -3655,7 +3655,7 @@
       </c>
       <c r="E105" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战煌累计造成80歼灭数&gt; 3星通关主题曲11-13标准实战环境；必须编入非助战煌并上场，且不编入其他近卫干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战雪雉，且每次战斗至少使2名敌人坠落地穴&gt; 3星通关主题曲4-6；必须编入非助战雪雉并上场，且至少使用2次伸缩式电捕网</t>
         </is>
       </c>
     </row>
@@ -3682,7 +3682,7 @@
       </c>
       <c r="E106" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战雪雉，且每次战斗至少使2名敌人坠落地穴&gt; 3星通关主题曲4-6；必须编入非助战雪雉并上场，且至少使用2次伸缩式电捕网</t>
+          <t>&gt; 战斗中非助战吽累计使用反制医疗模式5次&gt; 使用至多3人（包含助战）的队伍3星通关主题曲S2-4；必须编入非助战吽并上场，其他成员仅可编入术师干员</t>
         </is>
       </c>
     </row>
@@ -3709,7 +3709,7 @@
       </c>
       <c r="E107" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战吽累计使用反制医疗模式5次&gt; 使用至多3人（包含助战）的队伍3星通关主题曲S2-4；必须编入非助战吽并上场，其他成员仅可编入术师干员</t>
+          <t>&gt; 战斗中非助战阿累计使用爆发剂·榴莲味10次&gt; 3星通关主题曲2-8；必须编入非助战阿并上场，且不编入狙击干员</t>
         </is>
       </c>
     </row>
@@ -3736,7 +3736,7 @@
       </c>
       <c r="E108" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战阿累计使用爆发剂·榴莲味10次&gt; 3星通关主题曲2-8；必须编入非助战阿并上场，且不编入狙击干员</t>
+          <t>&gt; 由非助战年累计造成60000点伤害&gt; 3星通关别传WR-9；必须编入非助战年并上场，且使用年至少歼灭10名敌人</t>
         </is>
       </c>
     </row>
@@ -3763,7 +3763,7 @@
       </c>
       <c r="E109" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战年累计造成60000点伤害&gt; 3星通关别传WR-9；必须编入非助战年并上场，且使用年至少歼灭10名敌人</t>
+          <t>&gt; 完成5次战斗；必须编入非助战年并上场，且每次战斗至少释放1次铁御&gt; 3星通关主题曲S6-2；必须编入非助战年并上场，且所有干员不被击倒</t>
         </is>
       </c>
     </row>
@@ -3790,7 +3790,7 @@
       </c>
       <c r="E110" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战年并上场，且每次战斗至少释放1次铁御&gt; 3星通关主题曲S6-2；必须编入非助战年并上场，且所有干员不被击倒</t>
+          <t>&gt; 由非助战惊蛰使用技能初雷累计歼灭50名敌人&gt; 3星通关主题曲S3-6；必须编入非助战惊蛰并上场，且使用惊蛰至少歼灭1个屠夫</t>
         </is>
       </c>
     </row>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="E111" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战惊蛰使用技能初雷累计歼灭50名敌人&gt; 3星通关主题曲S3-6；必须编入非助战惊蛰并上场，且使用惊蛰至少歼灭1个屠夫</t>
+          <t>&gt; 由非助战刻俄柏累计歼灭10个精英或领袖敌人&gt; 3星通关别传RI-6；必须编入非助战刻俄柏并上场，且使用刻俄柏歼灭至少2个提亚卡乌破坏者</t>
         </is>
       </c>
     </row>
@@ -3844,7 +3844,7 @@
       </c>
       <c r="E112" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战刻俄柏累计歼灭10个精英或领袖敌人&gt; 3星通关别传RI-6；必须编入非助战刻俄柏并上场，且使用刻俄柏歼灭至少2个提亚卡乌破坏者</t>
+          <t>&gt; 由非助战刻俄柏累计造成120000点伤害&gt; 3星通关主题曲11-7标准实战环境；必须编入非助战刻俄柏并上场，且使用刻俄柏歼灭食腐使徒</t>
         </is>
       </c>
     </row>
@@ -3871,7 +3871,7 @@
       </c>
       <c r="E113" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战刻俄柏累计造成120000点伤害&gt; 3星通关主题曲11-7标准实战环境；必须编入非助战刻俄柏并上场，且使用刻俄柏歼灭食腐使徒</t>
+          <t>&gt; 由非助战清流累计使用涌泉5次&gt; 3星通关主题曲3-7；且仅可编入非助战清流1名医疗干员并上场</t>
         </is>
       </c>
     </row>
@@ -3898,7 +3898,7 @@
       </c>
       <c r="E114" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战清流累计使用涌泉5次&gt; 3星通关主题曲3-7；且仅可编入非助战清流1名医疗干员并上场</t>
+          <t>&gt; 战斗中非助战宴累计使用落地斩·破门5次&gt; 3星通关主题曲1-12；必须编入非助战宴并上场，其他成员不可编入近卫干员</t>
         </is>
       </c>
     </row>
@@ -3925,7 +3925,7 @@
       </c>
       <c r="E115" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战宴累计使用落地斩·破门5次&gt; 3星通关主题曲1-12；必须编入非助战宴并上场，其他成员不可编入近卫干员</t>
+          <t>&gt; 战斗中非助战柏喙累计使用异刃斩16次&gt; 3星通关主题曲3-7；必须编入非助战柏喙并上场，且使用柏喙歼灭至少1个重装防御组长</t>
         </is>
       </c>
     </row>
@@ -3952,7 +3952,7 @@
       </c>
       <c r="E116" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战柏喙累计使用异刃斩16次&gt; 3星通关主题曲3-7；必须编入非助战柏喙并上场，且使用柏喙歼灭至少1个重装防御组长</t>
+          <t>&gt; 完成5次战斗；必须编入非助战慑砂并上场，且使用慑砂造成至少25000点伤害&gt; 3星通关主题曲S3-6; 必须编入非助战慑砂并上场，且使用慑砂歼灭至少10个源石虫·β</t>
         </is>
       </c>
     </row>
@@ -3979,7 +3979,7 @@
       </c>
       <c r="E117" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战慑砂并上场，且使用慑砂造成至少25000点伤害&gt; 3星通关主题曲S3-6; 必须编入非助战慑砂并上场，且使用慑砂歼灭至少10个源石虫·β</t>
+          <t>&gt; 由非助战风笛累计造成80歼灭数&gt; 3星通关主题曲4-5；必须编入非助战风笛并上场，且使用风笛歼灭至少4个法术近卫</t>
         </is>
       </c>
     </row>
@@ -4006,7 +4006,7 @@
       </c>
       <c r="E118" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战风笛累计造成80歼灭数&gt; 3星通关主题曲4-5；必须编入非助战风笛并上场，且使用风笛歼灭至少4个法术近卫</t>
+          <t>&gt; 完成5次战斗；必须编入非助战风笛并上场，且使用风笛歼灭至少3个敌人&gt; 3星通关主题曲9-5标准实战环境；必须编入非助战风笛并上场，且使用风笛至少歼灭8个敌人</t>
         </is>
       </c>
     </row>
@@ -4033,7 +4033,7 @@
       </c>
       <c r="E119" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战风笛并上场，且使用风笛歼灭至少3个敌人&gt; 3星通关主题曲9-5标准实战环境；必须编入非助战风笛并上场，且使用风笛至少歼灭8个敌人</t>
+          <t>&gt; 完成5次战斗；必须编入非助战断罪者并上场，且使用断罪者造成至少15000点伤害&gt; 3星通关主题曲2-4；必须编入非助战断罪者并上场，其他成员仅可编入特种干员</t>
         </is>
       </c>
     </row>
@@ -4060,7 +4060,7 @@
       </c>
       <c r="E120" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战断罪者并上场，且使用断罪者造成至少15000点伤害&gt; 3星通关主题曲2-4；必须编入非助战断罪者并上场，其他成员仅可编入特种干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战刻刀并上场，且每次战斗刻刀至少歼灭3个无人机敌人&gt; 3星通关主题曲2-7；必须编入非助战刻刀并上场，且刻刀使用技能绯红刺刀歼灭至少2个御4</t>
         </is>
       </c>
     </row>
@@ -4087,7 +4087,7 @@
       </c>
       <c r="E121" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战刻刀并上场，且每次战斗刻刀至少歼灭3个无人机敌人&gt; 3星通关主题曲2-7；必须编入非助战刻刀并上场，且刻刀使用技能绯红刺刀歼灭至少2个御4</t>
+          <t>&gt; 战斗中非助战巫恋累计使用诅咒娃娃10次&gt; 3星通关主题曲6-5；必须编入非助战巫恋并上场，且不编入其他辅助干员</t>
         </is>
       </c>
     </row>
@@ -4114,7 +4114,7 @@
       </c>
       <c r="E122" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战巫恋累计使用诅咒娃娃10次&gt; 3星通关主题曲6-5；必须编入非助战巫恋并上场，且不编入其他辅助干员</t>
+          <t>&gt; 由非助战傀影累计造成70歼灭数&gt; 3星通关主题曲3-6；必须编入非助战傀影并上场，且使用傀影至少歼灭6个隐形术师</t>
         </is>
       </c>
     </row>
@@ -4141,7 +4141,7 @@
       </c>
       <c r="E123" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战傀影累计造成70歼灭数&gt; 3星通关主题曲3-6；必须编入非助战傀影并上场，且使用傀影至少歼灭6个隐形术师</t>
+          <t>&gt; 完成5次战斗；每次战斗至少部署2次非助战的傀影&gt; 3星通关插曲DM-5；必须编入非助战傀影并上场，且使用傀影击败至少两名萨卡兹哨兵</t>
         </is>
       </c>
     </row>
@@ -4168,7 +4168,7 @@
       </c>
       <c r="E124" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；每次战斗至少部署2次非助战的傀影&gt; 3星通关插曲DM-5；必须编入非助战傀影并上场，且使用傀影击败至少两名萨卡兹哨兵</t>
+          <t>&gt; 战斗中非助战极境累计使用支援号令·γ型10次&gt; 3星通关主题曲S3-6；必须编入非助战极境并上场，且不编入其他先锋干员</t>
         </is>
       </c>
     </row>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="E125" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战极境累计使用支援号令·γ型10次&gt; 3星通关主题曲S3-6；必须编入非助战极境并上场，且不编入其他先锋干员</t>
+          <t>&gt; 由非助战温蒂累计造成100000点伤害※工程蓄水炮造成的伤害可计数&gt; 3星通关别传BI-5；必须编入非助战温蒂并上场，且不编入其他特种干员</t>
         </is>
       </c>
     </row>
@@ -4222,7 +4222,7 @@
       </c>
       <c r="E126" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战温蒂累计造成100000点伤害※工程蓄水炮造成的伤害可计数&gt; 3星通关别传BI-5；必须编入非助战温蒂并上场，且不编入其他特种干员</t>
+          <t>&gt; 战斗中累计部署非助战温蒂的“工程蓄水炮”10次&gt; 3星通关别传IC-6；必须编入非助战温蒂，且本场战斗至少使6个酒类爱好者坠落地穴</t>
         </is>
       </c>
     </row>
@@ -4249,7 +4249,7 @@
       </c>
       <c r="E127" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中累计部署非助战温蒂的“工程蓄水炮”10次&gt; 3星通关别传IC-6；必须编入非助战温蒂，且本场战斗至少使6个酒类爱好者坠落地穴</t>
+          <t>&gt; 由非助战W累计造成80歼灭数※此面向敌和通过D12的炸弹击倒的敌人可计数&gt; 3星通关插曲DM-3；必须编入非助战W并上场，且使用W歼灭至少2个萨卡兹穿刺手※允许使用此面向敌或通过D12的炸弹击倒相应目标</t>
         </is>
       </c>
     </row>
@@ -4276,7 +4276,7 @@
       </c>
       <c r="E128" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战W累计造成80歼灭数※此面向敌和通过D12的炸弹击倒的敌人可计数&gt; 3星通关插曲DM-3；必须编入非助战W并上场，且使用W歼灭至少2个萨卡兹穿刺手※允许使用此面向敌或通过D12的炸弹击倒相应目标</t>
+          <t>&gt; 战斗中非助战W累计使用惊吓盒子10次&gt; 3星通关插曲DM-7；必须编入非助战W并上场，且不编入特种干员</t>
         </is>
       </c>
     </row>
@@ -4303,7 +4303,7 @@
       </c>
       <c r="E129" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战W累计使用惊吓盒子10次&gt; 3星通关插曲DM-7；必须编入非助战W并上场，且不编入特种干员</t>
+          <t>&gt; 战斗中非助战月禾累计使用迹无8次&gt; 3星通关主题曲S3-6；必须编入非助战月禾并上场，且所有干员不被击倒</t>
         </is>
       </c>
     </row>
@@ -4330,7 +4330,7 @@
       </c>
       <c r="E130" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战月禾累计使用迹无8次&gt; 3星通关主题曲S3-6；必须编入非助战月禾并上场，且所有干员不被击倒</t>
+          <t>&gt; 完成5次战斗；必须编入非助战波登可并上场，且每次战斗至少释放2次孢子扩散&gt; 3星通关主题曲4-6；必须编入非助战波登可并上场，且使用波登可歼灭至少2个高能源石虫</t>
         </is>
       </c>
     </row>
@@ -4357,7 +4357,7 @@
       </c>
       <c r="E131" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战波登可并上场，且每次战斗至少释放2次孢子扩散&gt; 3星通关主题曲4-6；必须编入非助战波登可并上场，且使用波登可歼灭至少2个高能源石虫</t>
+          <t>&gt; 完成5次战斗；必须编入非助战苦艾并上场，且每次战斗至少释放1次终结连射&gt; 3星通关主题曲3-4；必须编入非助战苦艾并上场，且不编入其他术师干员</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4384,7 @@
       </c>
       <c r="E132" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战苦艾并上场，且每次战斗至少释放1次终结连射&gt; 3星通关主题曲3-4；必须编入非助战苦艾并上场，且不编入其他术师干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战莱恩哈特并上场，且每次战斗至少释放4次解构与爆破&gt; 3星通关主题曲3-5；必须编入非助战莱恩哈特并上场，且莱恩哈特使用技能解构与爆破歼灭至少10名敌人</t>
         </is>
       </c>
     </row>
@@ -4411,7 +4411,7 @@
       </c>
       <c r="E133" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战莱恩哈特并上场，且每次战斗至少释放4次解构与爆破&gt; 3星通关主题曲3-5；必须编入非助战莱恩哈特并上场，且莱恩哈特使用技能解构与爆破歼灭至少10名敌人</t>
+          <t>&gt; 由非助战早露累计造成80000点伤害&gt; 3星通关主题曲7-9；必须编入非助战早露并上场，其他成员不可编入狙击干员</t>
         </is>
       </c>
     </row>
@@ -4438,7 +4438,7 @@
       </c>
       <c r="E134" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战早露累计造成80000点伤害&gt; 3星通关主题曲7-9；必须编入非助战早露并上场，其他成员不可编入狙击干员</t>
+          <t>&gt; 战斗中非助战卡达累计使用同步索敌攻击10次&gt; 3星通关主题曲11-7标准实战环境；必须编入非助战卡达并上场，且使用卡达歼灭至少1名食腐使徒</t>
         </is>
       </c>
     </row>
@@ -4465,7 +4465,7 @@
       </c>
       <c r="E135" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战卡达累计使用同步索敌攻击10次&gt; 3星通关主题曲11-7标准实战环境；必须编入非助战卡达并上场，且使用卡达歼灭至少1名食腐使徒</t>
+          <t>&gt; 由非助战亚叶累计造成80000点伤害&gt; 3星通关主题曲5-2；必须编入非助战亚叶并上场，且使用亚叶至少歼灭8名敌人</t>
         </is>
       </c>
     </row>
@@ -4492,7 +4492,7 @@
       </c>
       <c r="E136" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战亚叶累计造成80000点伤害&gt; 3星通关主题曲5-2；必须编入非助战亚叶并上场，且使用亚叶至少歼灭8名敌人</t>
+          <t>&gt; 由非助战断崖累计造成80000点伤害&gt; 3星通关主题曲5-8；必须编入非助战断崖并上场，且使用断崖使用至少2次浮游刃启动</t>
         </is>
       </c>
     </row>
@@ -4519,7 +4519,7 @@
       </c>
       <c r="E137" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战断崖累计造成80000点伤害&gt; 3星通关主题曲5-8；必须编入非助战断崖并上场，且使用断崖使用至少2次浮游刃启动</t>
+          <t>&gt; 战斗中非助战铃兰累计使用狐火渺然6次&gt; 3星通关别传TW-7；且仅可编入非助战铃兰1名辅助干员并上场</t>
         </is>
       </c>
     </row>
@@ -4546,7 +4546,7 @@
       </c>
       <c r="E138" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战铃兰累计使用狐火渺然6次&gt; 3星通关别传TW-7；且仅可编入非助战铃兰1名辅助干员并上场</t>
+          <t>&gt; 完成5次战斗；必须编入非助战铃兰并上场，且每次战斗至少释放1次狐火渺然&gt; 3星通关插曲DM-EX-1；必须编入非助战铃兰并上场，其他成员仅可编入6名干员</t>
         </is>
       </c>
     </row>
@@ -4573,7 +4573,7 @@
       </c>
       <c r="E139" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战铃兰并上场，且每次战斗至少释放1次狐火渺然&gt; 3星通关插曲DM-EX-1；必须编入非助战铃兰并上场，其他成员仅可编入6名干员</t>
+          <t>&gt; 完成5次战斗；每次战斗至少召唤5回非助战稀音的召唤物&gt; 使用至多2人（包含助战）的队伍3星通关主题曲3-1；必须编入非助战稀音并上场，其他成员仅可编入狙击干员</t>
         </is>
       </c>
     </row>
@@ -4600,7 +4600,7 @@
       </c>
       <c r="E140" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；每次战斗至少召唤5回非助战稀音的召唤物&gt; 使用至多2人（包含助战）的队伍3星通关主题曲3-1；必须编入非助战稀音并上场，其他成员仅可编入狙击干员</t>
+          <t>&gt; 战斗中非助战蜜蜡累计使用守卫尖碑8次&gt; 3星通关别传DH-6；必须编入非助战蜜蜡并上场，且不编入重装干员</t>
         </is>
       </c>
     </row>
@@ -4627,7 +4627,7 @@
       </c>
       <c r="E141" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战蜜蜡累计使用守卫尖碑8次&gt; 3星通关别传DH-6；必须编入非助战蜜蜡并上场，且不编入重装干员</t>
+          <t>&gt; 战斗中非助战贾维累计使用火焰剥离5次&gt; 3星通关主题曲1-1；必须编入非助战贾维并上场，其他成员仅可编入1星干员</t>
         </is>
       </c>
     </row>
@@ -4654,7 +4654,7 @@
       </c>
       <c r="E142" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战贾维累计使用火焰剥离5次&gt; 3星通关主题曲1-1；必须编入非助战贾维并上场，其他成员仅可编入1星干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战孑并部署至少2次，且使用孑歼灭至少3名敌人&gt; 3星通关主题曲S3-2；必须编入非助战孑并上场，且使用孑歼灭至少8个源石虫·β</t>
         </is>
       </c>
     </row>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="E143" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战孑并部署至少2次，且使用孑歼灭至少3名敌人&gt; 3星通关主题曲S3-2；必须编入非助战孑并上场，且使用孑歼灭至少8个源石虫·β</t>
+          <t>&gt; 由非助战安哲拉累计造成150000点伤害&gt; 3星通关主题曲3-2；必须编入非助战安哲拉并上场，且使用安哲拉至少歼灭15名敌人</t>
         </is>
       </c>
     </row>
@@ -4708,7 +4708,7 @@
       </c>
       <c r="E144" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战安哲拉累计造成150000点伤害&gt; 3星通关主题曲3-2；必须编入非助战安哲拉并上场，且使用安哲拉至少歼灭15名敌人</t>
+          <t>&gt; 由非助战棘刺累计造成100000点伤害&gt; 3星通关插曲SV-6；必须编入非助战棘刺并上场，且使用棘刺至少歼灭20个敌人</t>
         </is>
       </c>
     </row>
@@ -4735,7 +4735,7 @@
       </c>
       <c r="E145" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战棘刺累计造成100000点伤害&gt; 3星通关插曲SV-6；必须编入非助战棘刺并上场，且使用棘刺至少歼灭20个敌人</t>
+          <t>&gt; 由非助战酸糖累计造成50歼灭数&gt; 3星通关主题曲2-8；必须编入非助战酸糖并上场，且使用酸糖歼灭至少1个磐蟹</t>
         </is>
       </c>
     </row>
@@ -4762,7 +4762,7 @@
       </c>
       <c r="E146" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战酸糖累计造成50歼灭数&gt; 3星通关主题曲2-8；必须编入非助战酸糖并上场，且使用酸糖歼灭至少1个磐蟹</t>
+          <t>&gt; 完成5次战斗；必须编入非助战特米米并上场，且每次战斗至少释放1次嘉维尔保护方案&gt; 3星通关别传RI-2；必须编入非助战特米米并上场，且不编入其他术师干员</t>
         </is>
       </c>
     </row>
@@ -4789,7 +4789,7 @@
       </c>
       <c r="E147" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战特米米并上场，且每次战斗至少释放1次嘉维尔保护方案&gt; 3星通关别传RI-2；必须编入非助战特米米并上场，且不编入其他术师干员</t>
+          <t>&gt; 战斗中非助战燧石累计使用锋芒毕露8次&gt; 3星通关别传RI-9；必须编入非助战燧石并上场，且使用燧石至少歼灭10个敌人</t>
         </is>
       </c>
     </row>
@@ -4816,7 +4816,7 @@
       </c>
       <c r="E148" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战燧石累计使用锋芒毕露8次&gt; 3星通关别传RI-9；必须编入非助战燧石并上场，且使用燧石至少歼灭10个敌人</t>
+          <t>&gt; 由非助战森蚺累计造成60000点伤害&gt; 3星通关别传RI-EX-4；必须编入非助战森蚺并上场，且使用森蚺歼灭至少1个提亚卡乌冠军</t>
         </is>
       </c>
     </row>
@@ -4843,7 +4843,7 @@
       </c>
       <c r="E149" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战森蚺累计造成60000点伤害&gt; 3星通关别传RI-EX-4；必须编入非助战森蚺并上场，且使用森蚺歼灭至少1个提亚卡乌冠军</t>
+          <t>&gt; 由非助战森蚺累计歼灭10个精英或领袖敌人&gt; 3星通关别传RI-7；必须编入非助战森蚺并上场，且使用森蚺歼灭至少2名提亚卡乌勇士</t>
         </is>
       </c>
     </row>
@@ -4870,7 +4870,7 @@
       </c>
       <c r="E150" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战森蚺累计歼灭10个精英或领袖敌人&gt; 3星通关别传RI-7；必须编入非助战森蚺并上场，且使用森蚺歼灭至少2名提亚卡乌勇士</t>
+          <t>&gt; 完成5次战斗；必须编入非助战芳汀并上场，且每次战斗至少释放1次致命恶作剧&gt; 3星通关主题曲2-8；必须编入非助战芳汀并上场，且不编入其他狙击干员</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="E151" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战芳汀并上场，且每次战斗至少释放1次致命恶作剧&gt; 3星通关主题曲2-8；必须编入非助战芳汀并上场，且不编入其他狙击干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战薄绿，且每次战斗至少使2名敌人坠落地穴&gt; 3星通关别传BI-2；必须编入非助战薄绿，且本次战斗有至少4名冰原战士坠落地穴</t>
         </is>
       </c>
     </row>
@@ -4924,7 +4924,7 @@
       </c>
       <c r="E152" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战薄绿，且每次战斗至少使2名敌人坠落地穴&gt; 3星通关别传BI-2；必须编入非助战薄绿，且本次战斗有至少4名冰原战士坠落地穴</t>
+          <t>&gt; 战斗中累计部署非助战四月8次&gt; 3星通关主题曲5-3；必须编入非助战四月并上场，且使用四月歼灭至少2个特战术师组长</t>
         </is>
       </c>
     </row>
@@ -4951,7 +4951,7 @@
       </c>
       <c r="E153" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中累计部署非助战四月8次&gt; 3星通关主题曲5-3；必须编入非助战四月并上场，且使用四月歼灭至少2个特战术师组长</t>
+          <t>&gt; 完成5次战斗；必须编入非助战泡泡并上场，且每次战斗至少释放1次挨打&gt; 3星通关主题曲4-6；必须编入非助战泡泡并上场，且使用泡泡灭8个敌人</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="E154" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战泡泡并上场，且每次战斗至少释放1次挨打&gt; 3星通关主题曲4-6；必须编入非助战泡泡并上场，且使用泡泡灭8个敌人</t>
+          <t>&gt; 由非助战鞭刃累计造成50歼灭数&gt; 3星通关主题曲S3-6；必须编入非助战鞭刃并上场，其他成员仅可编入重装干员</t>
         </is>
       </c>
     </row>
@@ -5005,7 +5005,7 @@
       </c>
       <c r="E155" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战鞭刃累计造成50歼灭数&gt; 3星通关主题曲S3-6；必须编入非助战鞭刃并上场，其他成员仅可编入重装干员</t>
+          <t>&gt; 战斗中非助战奥斯塔累计使用影钉8次&gt; 3星通关主题曲6-8；必须编入非助战奥斯塔并上场，且使用奥斯塔至少歼灭10个敌人</t>
         </is>
       </c>
     </row>
@@ -5032,7 +5032,7 @@
       </c>
       <c r="E156" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战奥斯塔累计使用影钉8次&gt; 3星通关主题曲6-8；必须编入非助战奥斯塔并上场，且使用奥斯塔至少歼灭10个敌人</t>
+          <t>&gt; 由非助战瑕光累计造成80000点伤害&gt; 3星通关别传MN-4；必须编入非助战瑕光并上场，且使用瑕光歼灭至少2名持盾独立骑士</t>
         </is>
       </c>
     </row>
@@ -5059,7 +5059,7 @@
       </c>
       <c r="E157" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战瑕光累计造成80000点伤害&gt; 3星通关别传MN-4；必须编入非助战瑕光并上场，且使用瑕光歼灭至少2名持盾独立骑士</t>
+          <t>&gt; 完成5次战斗；必须编入非助战瑕光并上场，且每次战斗至少释放1次先贤化身&gt; 3星通关别传MN-2；必须编入非助战瑕光并上场，其他成员仅可编入重装干员</t>
         </is>
       </c>
     </row>
@@ -5086,7 +5086,7 @@
       </c>
       <c r="E158" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战瑕光并上场，且每次战斗至少释放1次先贤化身&gt; 3星通关别传MN-2；必须编入非助战瑕光并上场，其他成员仅可编入重装干员</t>
+          <t>&gt; 战斗中非助战杰克累计使用全神贯注！8次&gt; 3星通关别传CB-4；必须编入非助战杰克并上场，其他成员仅可编入6名干员</t>
         </is>
       </c>
     </row>
@@ -5113,7 +5113,7 @@
       </c>
       <c r="E159" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战杰克累计使用全神贯注！8次&gt; 3星通关别传CB-4；必须编入非助战杰克并上场，其他成员仅可编入6名干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战絮雨并上场，且每次战斗至少释放1次痛觉抑制&gt; 3星通关主题曲2-5；且仅可编入非助战絮雨1名医疗干员并上场</t>
         </is>
       </c>
     </row>
@@ -5135,12 +5135,12 @@
       </c>
       <c r="D160" s="5" t="inlineStr">
         <is>
-          <t>maa://29627 (93.04), maa://29633 (91.62), maa://29659 (82.14), maa://29861 (100.0)</t>
+          <t>maa://29627 (92.45), maa://29633 (91.62), maa://29659 (82.14), maa://29861 (100.0)</t>
         </is>
       </c>
       <c r="E160" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战絮雨并上场，且每次战斗至少释放1次痛觉抑制&gt; 3星通关主题曲2-5；且仅可编入非助战絮雨1名医疗干员并上场</t>
+          <t>&gt; 战斗中非助战泥岩累计使用岩崩锤40次&gt; 3星通关主题曲11-7标准实战环境；必须编入非助战泥岩并上场，且不编入其他重装干员</t>
         </is>
       </c>
     </row>
@@ -5167,7 +5167,7 @@
       </c>
       <c r="E161" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战泥岩累计使用岩崩锤40次&gt; 3星通关主题曲11-7标准实战环境；必须编入非助战泥岩并上场，且不编入其他重装干员</t>
+          <t>&gt; 由非助战迷迭香累计造成120000点伤害&gt; 3星通关主题曲4-1；必须编入非助战迷迭香并上场，且使用迷迭香歼灭至少10个敌人</t>
         </is>
       </c>
     </row>
@@ -5194,7 +5194,7 @@
       </c>
       <c r="E162" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战迷迭香累计造成120000点伤害&gt; 3星通关主题曲4-1；必须编入非助战迷迭香并上场，且使用迷迭香歼灭至少10个敌人</t>
+          <t>&gt; 战斗中非助战松果累计使用电能过载8次&gt; 3星通关主题曲3-6；必须编入非助战松果并上场，且至少使用3次电能过载</t>
         </is>
       </c>
     </row>
@@ -5221,7 +5221,7 @@
       </c>
       <c r="E163" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战松果累计使用电能过载8次&gt; 3星通关主题曲3-6；必须编入非助战松果并上场，且至少使用3次电能过载</t>
+          <t>&gt; 完成5次战斗；必须编入非助战罗宾，且每次战斗至少使2名敌人坠落地穴&gt; 3星通关别传BI-EX-2；必须编入非助战罗宾，且本次战斗有至少6名冰原御法者坠落地穴</t>
         </is>
       </c>
     </row>
@@ -5248,7 +5248,7 @@
       </c>
       <c r="E164" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战罗宾，且每次战斗至少使2名敌人坠落地穴&gt; 3星通关别传BI-EX-2；必须编入非助战罗宾，且本次战斗有至少6名冰原御法者坠落地穴</t>
+          <t>&gt; 由非助战卡夫卡使用技能累计歼灭50名敌人&gt; 3星通关主题曲2-7；必须编入非助战卡夫卡并上场，且使用卡夫卡技能至少歼灭10名敌人</t>
         </is>
       </c>
     </row>
@@ -5275,7 +5275,7 @@
       </c>
       <c r="E165" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战卡夫卡使用技能累计歼灭50名敌人&gt; 3星通关主题曲2-7；必须编入非助战卡夫卡并上场，且使用卡夫卡技能至少歼灭10名敌人</t>
+          <t>&gt; 由非助战山累计造成40歼灭数&gt; 3星通关别传MB-EX-3；必须编入非助战山并上场，且不编入其他近卫干员</t>
         </is>
       </c>
     </row>
@@ -5302,7 +5302,7 @@
       </c>
       <c r="E166" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战山累计造成40歼灭数&gt; 3星通关别传MB-EX-3；必须编入非助战山并上场，且不编入其他近卫干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战豆苗，并确定第一位部署的干员是豆苗&gt; 3星通关主题曲S3-7；必须编入非助战豆苗并上场，且至少使用1次“大家一起上”</t>
         </is>
       </c>
     </row>
@@ -5329,7 +5329,7 @@
       </c>
       <c r="E167" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战豆苗，并确定第一位部署的干员是豆苗&gt; 3星通关主题曲S3-7；必须编入非助战豆苗并上场，且至少使用1次“大家一起上”</t>
+          <t>&gt; 由非助战爱丽丝累计造成30歼灭数&gt; 3星通关主题曲2-2；必须编入非助战爱丽丝并上场，且使用爱丽丝歼灭至少2个重装防御者</t>
         </is>
       </c>
     </row>
@@ -5356,7 +5356,7 @@
       </c>
       <c r="E168" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战爱丽丝累计造成30歼灭数&gt; 3星通关主题曲2-2；必须编入非助战爱丽丝并上场，且使用爱丽丝歼灭至少2个重装防御者</t>
+          <t>&gt; 由非助战空弦累计造成100000点伤害&gt; 3星通关插曲SV-4；必须编入非助战空弦并上场，其他成员不可编入狙击干员</t>
         </is>
       </c>
     </row>
@@ -5383,7 +5383,7 @@
       </c>
       <c r="E169" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战空弦累计造成100000点伤害&gt; 3星通关插曲SV-4；必须编入非助战空弦并上场，其他成员不可编入狙击干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战空弦并上场，且使用空弦歼灭至少5名敌人&gt; 3星通关主题曲2-9；必须编入非助战空弦并上场，且不编入其他狙击干员</t>
         </is>
       </c>
     </row>
@@ -5410,7 +5410,7 @@
       </c>
       <c r="E170" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战空弦并上场，且使用空弦歼灭至少5名敌人&gt; 3星通关主题曲2-9；必须编入非助战空弦并上场，且不编入其他狙击干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战图耶并上场，且每次战斗至少释放1次强心剂&gt; 3星通关主题曲4-6；必须编入非助战图耶并上场，其他成员仅可编入6名干员</t>
         </is>
       </c>
     </row>
@@ -5437,7 +5437,7 @@
       </c>
       <c r="E171" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战图耶并上场，且每次战斗至少释放1次强心剂&gt; 3星通关主题曲4-6；必须编入非助战图耶并上场，其他成员仅可编入6名干员</t>
+          <t>&gt; 由非助战炎狱炎熔累计造成80歼灭数&gt; 3星通关别传WR-4； 必须编入非助战炎狱炎熔并上场，且使用炎狱炎熔歼灭至少8名敌人、其中包括至少1名“偷闲”</t>
         </is>
       </c>
     </row>
@@ -5464,7 +5464,7 @@
       </c>
       <c r="E172" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战炎狱炎熔累计造成80歼灭数&gt; 3星通关别传WR-4； 必须编入非助战炎狱炎熔并上场，且使用炎狱炎熔歼灭至少8名敌人、其中包括至少1名“偷闲”</t>
+          <t>&gt; 完成5次战斗；必须编入非助战乌有并部署至少2次，且使用乌有歼灭至少4名敌人&gt; 3星通关主题曲3-7；必须编入非助战乌有并上场，且使用乌有歼灭至少2个炮手</t>
         </is>
       </c>
     </row>
@@ -5491,7 +5491,7 @@
       </c>
       <c r="E173" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战乌有并部署至少2次，且使用乌有歼灭至少4名敌人&gt; 3星通关主题曲3-7；必须编入非助战乌有并上场，且使用乌有歼灭至少2个炮手</t>
+          <t>&gt; 由非助战嵯峨累计造成80000点伤害&gt; 3星通关别传WR-3；必须编入非助战嵯峨，且第一位部署嵯峨、嵯峨全程不撤退或被击倒</t>
         </is>
       </c>
     </row>
@@ -5518,7 +5518,7 @@
       </c>
       <c r="E174" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战嵯峨累计造成80000点伤害&gt; 3星通关别传WR-3；必须编入非助战嵯峨，且第一位部署嵯峨、嵯峨全程不撤退或被击倒</t>
+          <t>&gt; 完成5次战斗；必须编入非助战嵯峨，并确定第一位部署的干员是嵯峨&gt; 3星通关别传WR-1；必须编入非助战嵯峨并上场，其他成员仅可编入2名干员</t>
         </is>
       </c>
     </row>
@@ -5545,7 +5545,7 @@
       </c>
       <c r="E175" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战嵯峨，并确定第一位部署的干员是嵯峨&gt; 3星通关别传WR-1；必须编入非助战嵯峨并上场，其他成员仅可编入2名干员</t>
+          <t>&gt; 战斗中累计召唤非助战夕的召唤物20回&gt; 使用至多2人（包含助战）的队伍3星通关主题曲1-6；必须编入非助战夕并上场，其他成员仅可编入重装干员</t>
         </is>
       </c>
     </row>
@@ -5572,7 +5572,7 @@
       </c>
       <c r="E176" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中累计召唤非助战夕的召唤物20回&gt; 使用至多2人（包含助战）的队伍3星通关主题曲1-6；必须编入非助战夕并上场，其他成员仅可编入重装干员</t>
+          <t>&gt; 由非助战夕累计造成80歼灭数&gt; 3星通关主题曲4-3；必须编入非助战夕并上场，其他成员仅可编入先锋干员</t>
         </is>
       </c>
     </row>
@@ -5599,7 +5599,7 @@
       </c>
       <c r="E177" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战夕累计造成80歼灭数&gt; 3星通关主题曲4-3；必须编入非助战夕并上场，其他成员仅可编入先锋干员</t>
+          <t>&gt; 由非助战战车累计造成150000点伤害&gt; 使用至多2人（包含助战）的队伍3星通关主题曲S2-3；必须编入非助战战车并上场，其他成员仅可编入重装干员</t>
         </is>
       </c>
     </row>
@@ -5626,7 +5626,7 @@
       </c>
       <c r="E178" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战战车累计造成150000点伤害&gt; 使用至多2人（包含助战）的队伍3星通关主题曲S2-3；必须编入非助战战车并上场，其他成员仅可编入重装干员</t>
+          <t>&gt; 由非助战闪击累计造成30歼灭数&gt; 3星通关主题曲3-4；必须编入非助战闪击并上场，且使用闪击歼灭至少2名屠夫</t>
         </is>
       </c>
     </row>
@@ -5653,7 +5653,7 @@
       </c>
       <c r="E179" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战闪击累计造成30歼灭数&gt; 3星通关主题曲3-4；必须编入非助战闪击并上场，且使用闪击歼灭至少2名屠夫</t>
+          <t>&gt; 由非助战霜华累计造成100000点伤害※迎宾踏垫造成的伤害可计数&gt; 3星通关主题曲4-4；必须编入非助战霜华并上场，且使用霜华歼灭弑君者※允许使用迎宾踏垫歼灭弑君者</t>
         </is>
       </c>
     </row>
@@ -5680,7 +5680,7 @@
       </c>
       <c r="E180" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战霜华累计造成100000点伤害※迎宾踏垫造成的伤害可计数&gt; 3星通关主题曲4-4；必须编入非助战霜华并上场，且使用霜华歼灭弑君者※允许使用迎宾踏垫歼灭弑君者</t>
+          <t>&gt; 由非助战灰烬累计造成100000点伤害&gt; 3星通关插曲SV-8；必须编入非助战灰烬并上场，且使用灰烬歼灭至少2名囊海爬行者</t>
         </is>
       </c>
     </row>
@@ -5707,7 +5707,7 @@
       </c>
       <c r="E181" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战灰烬累计造成100000点伤害&gt; 3星通关插曲SV-8；必须编入非助战灰烬并上场，且使用灰烬歼灭至少2名囊海爬行者</t>
+          <t>&gt; 由非助战灰烬累计歼灭10个精英敌人&gt; 3星通关主题曲1-12；必须编入非助战灰烬并上场，且使用灰烬歼灭W</t>
         </is>
       </c>
     </row>
@@ -5734,7 +5734,7 @@
       </c>
       <c r="E182" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战灰烬累计歼灭10个精英敌人&gt; 3星通关主题曲1-12；必须编入非助战灰烬并上场，且使用灰烬歼灭W</t>
+          <t>&gt; 战斗中非助战暴雨累计使用应急迷彩30次&gt; 3星通关主题曲2-7；必须编入非助战暴雨并上场，且所有干员不被击倒</t>
         </is>
       </c>
     </row>
@@ -5761,7 +5761,7 @@
       </c>
       <c r="E183" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战暴雨累计使用应急迷彩30次&gt; 3星通关主题曲2-7；必须编入非助战暴雨并上场，且所有干员不被击倒</t>
+          <t>&gt; 由非助战熔泉累计歼灭20个萨卡兹敌人&gt; 3星通关主题曲4-6；必须编入非助战熔泉并上场，其他成员仅可编入6名干员</t>
         </is>
       </c>
     </row>
@@ -5788,7 +5788,7 @@
       </c>
       <c r="E184" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战熔泉累计歼灭20个萨卡兹敌人&gt; 3星通关主题曲4-6；必须编入非助战熔泉并上场，其他成员仅可编入6名干员</t>
+          <t>&gt; 战斗中非助战异客累计使用辉煌裂片30次&gt; 3星通关主题曲2-2；必须编入非助战异客并上场，其他成员仅可编入先锋和重装干员</t>
         </is>
       </c>
     </row>
@@ -5815,7 +5815,7 @@
       </c>
       <c r="E185" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战异客累计使用辉煌裂片30次&gt; 3星通关主题曲2-2；必须编入非助战异客并上场，其他成员仅可编入先锋和重装干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战异客并上场，且使用异客造成至少30000点伤害&gt; 3星通关主题曲5-10；必须编入非助战异客并上场，且使用异客歼灭至少2个粉碎攻坚手</t>
         </is>
       </c>
     </row>
@@ -5842,7 +5842,7 @@
       </c>
       <c r="E186" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战异客并上场，且使用异客造成至少30000点伤害&gt; 3星通关主题曲5-10；必须编入非助战异客并上场，且使用异客歼灭至少2个粉碎攻坚手</t>
+          <t>&gt; 战斗中非助战赤冬累计使用信影流·十文字胜5次&gt; 3星通关主题曲3-8；必须编入非助战赤冬并上场，且使用赤冬歼灭碎骨</t>
         </is>
       </c>
     </row>
@@ -5869,7 +5869,7 @@
       </c>
       <c r="E187" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战赤冬累计使用信影流·十文字胜5次&gt; 3星通关主题曲3-8；必须编入非助战赤冬并上场，且使用赤冬歼灭碎骨</t>
+          <t>&gt; 完成5次战斗；必须编入非助战歌蕾蒂娅并上场，且每次战斗至少释放1次缺水的碎漩狂舞&gt; 3星通关插曲SV-EX-5；必须编入非助战歌蕾蒂娅，且至少使1个富营养的收割者坠落地穴</t>
         </is>
       </c>
     </row>
@@ -5896,7 +5896,7 @@
       </c>
       <c r="E188" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战歌蕾蒂娅并上场，且每次战斗至少释放1次缺水的碎漩狂舞&gt; 3星通关插曲SV-EX-5；必须编入非助战歌蕾蒂娅，且至少使1个富营养的收割者坠落地穴</t>
+          <t>&gt; 完成5次战斗；必须编入非助战歌蕾蒂娅，且每次战斗至少使2名敌人坠落地穴&gt; 3星通关插曲SN-EX-3；必须编入非助战歌蕾蒂娅并上场，且使用至少2次缺水的掌握怒海或缺水的碎漩狂舞</t>
         </is>
       </c>
     </row>
@@ -5923,7 +5923,7 @@
       </c>
       <c r="E189" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战歌蕾蒂娅，且每次战斗至少使2名敌人坠落地穴&gt; 3星通关插曲SN-EX-3；必须编入非助战歌蕾蒂娅并上场，且使用至少2次缺水的掌握怒海或缺水的碎漩狂舞</t>
+          <t>&gt; 由非助战凯尔希累计造成150000点伤害※Mon3tr造成的伤害会计数&gt; 3星通关主题曲5-10；必须编入非助战凯尔希并上场，且使用4次指令：熔毁</t>
         </is>
       </c>
     </row>
@@ -5950,7 +5950,7 @@
       </c>
       <c r="E190" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战凯尔希累计造成150000点伤害※Mon3tr造成的伤害会计数&gt; 3星通关主题曲5-10；必须编入非助战凯尔希并上场，且使用4次指令：熔毁</t>
+          <t>&gt; 战斗中非助战凯尔希累计使用指令：熔毁10次&gt; 3星通关主题曲5-10；必须编入非助战凯尔希并上场，且使用Mon3tr歼灭梅菲斯特</t>
         </is>
       </c>
     </row>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="E191" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战凯尔希累计使用指令：熔毁10次&gt; 3星通关主题曲5-10；必须编入非助战凯尔希并上场，且使用Mon3tr歼灭梅菲斯特</t>
+          <t>&gt; 由非助战深靛累计造成60000点伤害&gt; 3星通关插曲SV-5；必须编入非助战深靛并上场，且使用2次光影迷宫</t>
         </is>
       </c>
     </row>
@@ -6004,7 +6004,7 @@
       </c>
       <c r="E192" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战深靛累计造成60000点伤害&gt; 3星通关插曲SV-5；必须编入非助战深靛并上场，且使用2次光影迷宫</t>
+          <t>&gt; 完成5次战斗；必须编入非助战贝娜并上场，且每次战斗至少释放1次快速修剪&gt; 3星通关主题曲2-3；必须编入非助战贝娜并上场，且使用贝娜歼灭至少1个重装防御者</t>
         </is>
       </c>
     </row>
@@ -6031,7 +6031,7 @@
       </c>
       <c r="E193" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战贝娜并上场，且每次战斗至少释放1次快速修剪&gt; 3星通关主题曲2-3；必须编入非助战贝娜并上场，且使用贝娜歼灭至少1个重装防御者</t>
+          <t>&gt; 战斗中非助战绮良累计使用锚点捕捉5次&gt; 3星通关主题曲3-1；必须编入非助战绮良并上场，且使用绮良歼灭20个敌人</t>
         </is>
       </c>
     </row>
@@ -6058,7 +6058,7 @@
       </c>
       <c r="E194" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战绮良累计使用锚点捕捉5次&gt; 3星通关主题曲3-1；必须编入非助战绮良并上场，且使用绮良歼灭20个敌人</t>
+          <t>&gt; 由非助战卡涅利安累计造成120000点伤害&gt; 3星通关主题曲7-3；必须编入非助战卡涅利安并上场，且不编入重装干员</t>
         </is>
       </c>
     </row>
@@ -6085,7 +6085,7 @@
       </c>
       <c r="E195" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战卡涅利安累计造成120000点伤害&gt; 3星通关主题曲7-3；必须编入非助战卡涅利安并上场，且不编入重装干员</t>
+          <t>&gt; 由非助战卡涅利安累计造成80歼灭数&gt; 3星通关主题曲4-6；必须编入非助战卡涅利安并上场，其他成员仅可编入6名干员</t>
         </is>
       </c>
     </row>
@@ -6112,7 +6112,7 @@
       </c>
       <c r="E196" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战卡涅利安累计造成80歼灭数&gt; 3星通关主题曲4-6；必须编入非助战卡涅利安并上场，其他成员仅可编入6名干员</t>
+          <t>&gt; 由非助战帕拉斯累计造成50歼灭数&gt; 使用至多2人（包含助战）的队伍3星通关主题曲3-6；必须编入非助战帕拉斯并上场，其他成员仅可编入医疗干员</t>
         </is>
       </c>
     </row>
@@ -6139,7 +6139,7 @@
       </c>
       <c r="E197" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战帕拉斯累计造成50歼灭数&gt; 使用至多2人（包含助战）的队伍3星通关主题曲3-6；必须编入非助战帕拉斯并上场，其他成员仅可编入医疗干员</t>
+          <t>&gt; 战斗中非助战帕拉斯累计使用英勇的祝福5次&gt; 3星通关主题曲4-3；必须编入非助战帕拉斯并上场，其他成员仅可编入重装干员</t>
         </is>
       </c>
     </row>
@@ -6166,7 +6166,7 @@
       </c>
       <c r="E198" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战帕拉斯累计使用英勇的祝福5次&gt; 3星通关主题曲4-3；必须编入非助战帕拉斯并上场，其他成员仅可编入重装干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战羽毛笔并上场，且使用羽毛笔造成至少12000点伤害&gt; 3星通关主题曲11-6标准实战环境；必须编入非助战羽毛笔并上场，且使用羽毛笔至少歼灭15个敌人</t>
         </is>
       </c>
     </row>
@@ -6193,7 +6193,7 @@
       </c>
       <c r="E199" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战羽毛笔并上场，且使用羽毛笔造成至少12000点伤害&gt; 3星通关主题曲11-6标准实战环境；必须编入非助战羽毛笔并上场，且使用羽毛笔至少歼灭15个敌人</t>
+          <t>&gt; 由非助战水月累计造成150000点伤害&gt; 3星通关主题曲4-3；必须编入非助战水月并上场，且使用水月歼灭至少2名萨卡兹狙击手</t>
         </is>
       </c>
     </row>
@@ -6220,7 +6220,7 @@
       </c>
       <c r="E200" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战水月累计造成150000点伤害&gt; 3星通关主题曲4-3；必须编入非助战水月并上场，且使用水月歼灭至少2名萨卡兹狙击手</t>
+          <t>&gt; 由非助战水月累计造成50歼灭数&gt; 3星通关主题曲4-5；必须编入非助战水月并上场，且使用水月歼灭10个敌人</t>
         </is>
       </c>
     </row>
@@ -6247,7 +6247,7 @@
       </c>
       <c r="E201" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战水月累计造成50歼灭数&gt; 3星通关主题曲4-5；必须编入非助战水月并上场，且使用水月歼灭10个敌人</t>
+          <t>&gt; 由非助战假日威龙陈累计造成120000伤害&gt; 3星通关主题曲9-13标准实战环境；必须编入非助战假日威龙陈并上场，且使用假日威龙陈至少歼灭20个敌人</t>
         </is>
       </c>
     </row>
@@ -6274,7 +6274,7 @@
       </c>
       <c r="E202" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战假日威龙陈累计造成120000伤害&gt; 3星通关主题曲9-13标准实战环境；必须编入非助战假日威龙陈并上场，且使用假日威龙陈至少歼灭20个敌人</t>
+          <t>&gt; 战斗中非助战罗比菈塔累计部署支援装置25个&gt; 3星通关主题曲3-8；必须编入非助战罗比菈塔并上场，且所有干员不被击倒</t>
         </is>
       </c>
     </row>
@@ -6301,7 +6301,7 @@
       </c>
       <c r="E203" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战罗比菈塔累计部署支援装置25个&gt; 3星通关主题曲3-8；必须编入非助战罗比菈塔并上场，且所有干员不被击倒</t>
+          <t>&gt; 完成5次战斗；必须编入非助战桑葚并上场，且每次战斗至少释放1次安全区域&gt; 3星通关插曲SV-5；必须编入非助战桑葚并上场，其他成员仅可编入7名干员</t>
         </is>
       </c>
     </row>
@@ -6328,7 +6328,7 @@
       </c>
       <c r="E204" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战桑葚并上场，且每次战斗至少释放1次安全区域&gt; 3星通关插曲SV-5；必须编入非助战桑葚并上场，其他成员仅可编入7名干员</t>
+          <t>&gt; 战斗中非助战琴柳累计使用信仰传承10次&gt; 3星通关主题曲9-2；必须编入非助战琴柳并上场，且不编入其他先锋干员</t>
         </is>
       </c>
     </row>
@@ -6355,7 +6355,7 @@
       </c>
       <c r="E205" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战琴柳累计使用信仰传承10次&gt; 3星通关主题曲9-2；必须编入非助战琴柳并上场，且不编入其他先锋干员</t>
+          <t>&gt; 由非助战灰毫累计造成100000点伤害&gt; 3星通关主题曲7-9；必须编入非助战灰毫并上场，且使用灰毫歼灭至少2名游击队传令兵</t>
         </is>
       </c>
     </row>
@@ -6382,7 +6382,7 @@
       </c>
       <c r="E206" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战灰毫累计造成100000点伤害&gt; 3星通关主题曲7-9；必须编入非助战灰毫并上场，且使用灰毫歼灭至少2名游击队传令兵</t>
+          <t>&gt; 由非助战远牙累计造成80歼灭数&gt; 3星通关主题曲S2-2；必须编入非助战远牙并上场，且远牙使用光羽箭至少歼灭8名敌人</t>
         </is>
       </c>
     </row>
@@ -6409,7 +6409,7 @@
       </c>
       <c r="E207" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战远牙累计造成80歼灭数&gt; 3星通关主题曲S2-2；必须编入非助战远牙并上场，且远牙使用光羽箭至少歼灭8名敌人</t>
+          <t>&gt; 完成5次战斗；必须编入非助战远牙并上场，且每次战斗至少释放2次光羽箭&gt; 3星通关主题曲2-5；必须编入非助战远牙并上场，且使用远牙歼灭至少2名高阶术师</t>
         </is>
       </c>
     </row>
@@ -6436,7 +6436,7 @@
       </c>
       <c r="E208" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战远牙并上场，且每次战斗至少释放2次光羽箭&gt; 3星通关主题曲2-5；必须编入非助战远牙并上场，且使用远牙歼灭至少2名高阶术师</t>
+          <t>&gt; 由非助战布丁累计造成150000点伤害&gt; 3星通关主题曲2-10；必须编入非助战布丁并上场，且布丁使用技能扩散电流至少歼灭2个重装防御者</t>
         </is>
       </c>
     </row>
@@ -6463,7 +6463,7 @@
       </c>
       <c r="E209" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战布丁累计造成150000点伤害&gt; 3星通关主题曲2-10；必须编入非助战布丁并上场，且布丁使用技能扩散电流至少歼灭2个重装防御者</t>
+          <t>&gt; 战斗中非助战蜜莓累计使用振奋8次&gt; 3星通关别传GA-2；必须编入非助战蜜莓并上场，且不编入其他医疗干员</t>
         </is>
       </c>
     </row>
@@ -6490,7 +6490,7 @@
       </c>
       <c r="E210" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战蜜莓累计使用振奋8次&gt; 3星通关别传GA-2；必须编入非助战蜜莓并上场，且不编入其他医疗干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战野鬃，并确定第一位部署的干员是野鬃&gt; 3星通关别传MN-2；必须编入非助战野鬃并上场，其他成员不可编入先锋干员</t>
         </is>
       </c>
     </row>
@@ -6517,7 +6517,7 @@
       </c>
       <c r="E211" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战野鬃，并确定第一位部署的干员是野鬃&gt; 3星通关别传MN-2；必须编入非助战野鬃并上场，其他成员不可编入先锋干员</t>
+          <t>&gt; 由非助战蚀清累计造成100000点伤害&gt; 3星通关别传BI-6；必须编入非助战蚀清并上场，且至少使用2次传导蚀滞弹</t>
         </is>
       </c>
     </row>
@@ -6544,7 +6544,7 @@
       </c>
       <c r="E212" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战蚀清累计造成100000点伤害&gt; 3星通关别传BI-6；必须编入非助战蚀清并上场，且至少使用2次传导蚀滞弹</t>
+          <t>&gt; 完成5次战斗；必须编入非助战焰尾并上场，且每次战斗至少释放2次焰心&gt; 3星通关别传NL-5；必须编入非助战焰尾，且第一位部署焰尾、焰尾全程不撤退或被击倒</t>
         </is>
       </c>
     </row>
@@ -6571,7 +6571,7 @@
       </c>
       <c r="E213" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战焰尾并上场，且每次战斗至少释放2次焰心&gt; 3星通关别传NL-5；必须编入非助战焰尾，且第一位部署焰尾、焰尾全程不撤退或被击倒</t>
+          <t>&gt; 由非助战焰尾累计造成40000点伤害&gt; 3星通关别传NL-3；必须编入非助战焰尾并上场，其他成员仅可编入4名干员</t>
         </is>
       </c>
     </row>
@@ -6598,7 +6598,7 @@
       </c>
       <c r="E214" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战焰尾累计造成40000点伤害&gt; 3星通关别传NL-3；必须编入非助战焰尾并上场，其他成员仅可编入4名干员</t>
+          <t>&gt; 由非助战耀骑士临光累计造成100歼灭数&gt; 3星通关别传MN-8；必须编入非助战耀骑士临光并上场，且使用耀骑士临光歼灭至少1个腐败骑士或凋零骑士</t>
         </is>
       </c>
     </row>
@@ -6625,7 +6625,7 @@
       </c>
       <c r="E215" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战耀骑士临光累计造成100歼灭数&gt; 3星通关别传MN-8；必须编入非助战耀骑士临光并上场，且使用耀骑士临光歼灭至少1个腐败骑士或凋零骑士</t>
+          <t>&gt; 完成5次战斗；必须编入非助战耀骑士临光并上场，且每次战斗至少释放1次耀阳颔首&gt; 3星通关别传NL-10；必须编入非助战耀骑士临光并上场，且使用耀骑士临光击败血骑士狄开俄波利斯</t>
         </is>
       </c>
     </row>
@@ -6652,7 +6652,7 @@
       </c>
       <c r="E216" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战耀骑士临光并上场，且每次战斗至少释放1次耀阳颔首&gt; 3星通关别传NL-10；必须编入非助战耀骑士临光并上场，且使用耀骑士临光击败血骑士狄开俄波利斯</t>
+          <t>&gt; 由非助战耶拉累计造成80000点伤害&gt; 3星通关别传BI-7；必须编入非助战耶拉并上场，且至少使用2次心随意动</t>
         </is>
       </c>
     </row>
@@ -6679,7 +6679,7 @@
       </c>
       <c r="E217" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战耶拉累计造成80000点伤害&gt; 3星通关别传BI-7；必须编入非助战耶拉并上场，且至少使用2次心随意动</t>
+          <t>&gt; 由非助战极光累计造成40000点伤害&gt; 3星通关主题曲3-8；必须编入非助战极光并上场，且使用极光歼灭碎骨</t>
         </is>
       </c>
     </row>
@@ -6706,7 +6706,7 @@
       </c>
       <c r="E218" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战极光累计造成40000点伤害&gt; 3星通关主题曲3-8；必须编入非助战极光并上场，且使用极光歼灭碎骨</t>
+          <t>&gt; 完成5次战斗；必须编入非助战灵知并上场，且每次战斗至少释放1次失温症&gt; 3星通关别传BI-7，必须编入非助战灵知并上场，且不编入其他辅助干员</t>
         </is>
       </c>
     </row>
@@ -6733,7 +6733,7 @@
       </c>
       <c r="E219" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战灵知并上场，且每次战斗至少释放1次失温症&gt; 3星通关别传BI-7，必须编入非助战灵知并上场，且不编入其他辅助干员</t>
+          <t>&gt; 战斗中非助战九色鹿累计使用仙山去远8次&gt; 3星通关别传IW-3；必须编入非助战九色鹿并上场，且不编入其他辅助干员</t>
         </is>
       </c>
     </row>
@@ -6760,7 +6760,7 @@
       </c>
       <c r="E220" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战九色鹿累计使用仙山去远8次&gt; 3星通关别传IW-3；必须编入非助战九色鹿并上场，且不编入其他辅助干员</t>
+          <t>&gt; 战斗中非助战寒芒克洛丝累计使用封喉5次&gt; 3星通关主题曲3-8；必须编入非助战寒芒克洛丝并上场，且使用寒芒克洛丝歼灭碎骨</t>
         </is>
       </c>
     </row>
@@ -6787,7 +6787,7 @@
       </c>
       <c r="E221" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战寒芒克洛丝累计使用封喉5次&gt; 3星通关主题曲3-8；必须编入非助战寒芒克洛丝并上场，且使用寒芒克洛丝歼灭碎骨</t>
+          <t>&gt; 战斗中非助战夜半累计使用安眠10次&gt; 3星通关主题曲3-1；必须编入非助战夜半并上场，且至少使用3次安眠</t>
         </is>
       </c>
     </row>
@@ -6814,7 +6814,7 @@
       </c>
       <c r="E222" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战夜半累计使用安眠10次&gt; 3星通关主题曲3-1；必须编入非助战夜半并上场，且至少使用3次安眠</t>
+          <t>&gt; 由非助战老鲤累计造成80歼灭数&gt; 3星通关主题曲3-1；必须编入非助战老鲤并上场，其他成员仅可编入狙击、先锋与医疗干员</t>
         </is>
       </c>
     </row>
@@ -6841,7 +6841,7 @@
       </c>
       <c r="E223" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战老鲤累计造成80歼灭数&gt; 3星通关主题曲3-1；必须编入非助战老鲤并上场，其他成员仅可编入狙击、先锋与医疗干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战老鲤并上场，且每次战斗至少释放1次贵客盈门&gt; 3星通关别传IW-EX-1；必须编入非助战老鲤并上场，且使用老鲤至少歼灭10个敌人</t>
         </is>
       </c>
     </row>
@@ -6868,7 +6868,7 @@
       </c>
       <c r="E224" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战老鲤并上场，且每次战斗至少释放1次贵客盈门&gt; 3星通关别传IW-EX-1；必须编入非助战老鲤并上场，且使用老鲤至少歼灭10个敌人</t>
+          <t>&gt; 完成5次战斗；必须编入非助战令并上场，且使用令与令的召唤物歼灭至少7名敌人&gt; 3星通关主题曲3-4；必须编入非助战令并上场，且整场战斗仅部署过令与至多4位其他干员</t>
         </is>
       </c>
     </row>
@@ -6895,7 +6895,7 @@
       </c>
       <c r="E225" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战令并上场，且使用令与令的召唤物歼灭至少7名敌人&gt; 3星通关主题曲3-4；必须编入非助战令并上场，且整场战斗仅部署过令与至多4位其他干员</t>
+          <t>&gt; 战斗中非助战夏栎累计使用生灵的回响8次&gt; 3星通关主题曲9-2标准实战环境；必须编入非助战夏栎并上场，且不编入其他医疗干员</t>
         </is>
       </c>
     </row>
@@ -6917,12 +6917,12 @@
       </c>
       <c r="D226" s="5" t="inlineStr">
         <is>
-          <t>*maa://30667 (75.08), maa://30666 (82.8), *maa://26836 (74.63), **maa://30739 (45.71), *maa://34428 (67.65), maa://37607 (91.07), *maa://30723 (50.98), maa://39588 (88.46), *maa://37850 (66.67)</t>
+          <t>*maa://30667 (75.08), maa://30666 (82.8), *maa://26836 (74.63), **maa://30739 (45.71), maa://37607 (91.07), *maa://34428 (67.65), *maa://30723 (50.98), maa://39588 (88.46), *maa://37850 (66.67)</t>
         </is>
       </c>
       <c r="E226" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战夏栎累计使用生灵的回响8次&gt; 3星通关主题曲9-2标准实战环境；必须编入非助战夏栎并上场，且不编入其他医疗干员</t>
+          <t>&gt; 由非助战澄闪累计造成100000点伤害&gt; 3星通关主题曲R8-8；必须编入非助战澄闪并上场，且使用澄闪歼灭至少2名帝国炮火先兆者</t>
         </is>
       </c>
     </row>
@@ -6949,7 +6949,7 @@
       </c>
       <c r="E227" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战澄闪累计造成100000点伤害&gt; 3星通关主题曲R8-8；必须编入非助战澄闪并上场，且使用澄闪歼灭至少2名帝国炮火先兆者</t>
+          <t>&gt; 完成5次战斗；必须编入非助战见行者并上场，且每次战斗至少释放2次惊爆射击&gt; 3星通关别传GA-EX-1；必须编入非助战见行者，且本场战斗至少使3个寻路者精锐狙击手坠落地穴</t>
         </is>
       </c>
     </row>
@@ -6976,7 +6976,7 @@
       </c>
       <c r="E228" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战见行者并上场，且每次战斗至少释放2次惊爆射击&gt; 3星通关别传GA-EX-1；必须编入非助战见行者，且本场战斗至少使3个寻路者精锐狙击手坠落地穴</t>
+          <t>&gt; 由非助战风丸累计使用纸艺·双影10次&gt; 3星通关主题曲3-1；必须编入非助战风丸并上场，且使用风丸歼灭至少30名敌人</t>
         </is>
       </c>
     </row>
@@ -7003,7 +7003,7 @@
       </c>
       <c r="E229" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战风丸累计使用纸艺·双影10次&gt; 3星通关主题曲3-1；必须编入非助战风丸并上场，且使用风丸歼灭至少30名敌人</t>
+          <t>&gt; 完成5次战斗；必须编入非助战菲亚梅塔并上场，且使用菲亚梅塔歼灭至少10个敌人&gt; 3星通关别传GA-4；必须编入非助战菲亚梅塔并上场，且队伍中不能有其他狙击干员</t>
         </is>
       </c>
     </row>
@@ -7030,7 +7030,7 @@
       </c>
       <c r="E230" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战菲亚梅塔并上场，且使用菲亚梅塔歼灭至少10个敌人&gt; 3星通关别传GA-4；必须编入非助战菲亚梅塔并上场，且队伍中不能有其他狙击干员</t>
+          <t>&gt; 由非助战菲亚梅塔累计造成180000点伤害&gt; 3星通关主题曲S5-9；必须编入非助战菲亚梅塔并上场，且使用菲亚梅塔造成至少60000点伤害</t>
         </is>
       </c>
     </row>
@@ -7057,7 +7057,7 @@
       </c>
       <c r="E231" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战菲亚梅塔累计造成180000点伤害&gt; 3星通关主题曲S5-9；必须编入非助战菲亚梅塔并上场，且使用菲亚梅塔造成至少60000点伤害</t>
+          <t>&gt; 完成5次战斗；必须编入非助战褐果并上场，且每次战斗至少释放1次厚土迸发&gt; 3星通关插曲SV-3；必须编入非助战褐果并上场，且不编入其他医疗干员</t>
         </is>
       </c>
     </row>
@@ -7084,7 +7084,7 @@
       </c>
       <c r="E232" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战褐果并上场，且每次战斗至少释放1次厚土迸发&gt; 3星通关插曲SV-3；必须编入非助战褐果并上场，且不编入其他医疗干员</t>
+          <t>&gt; 战斗中非助战洛洛累计使用自负此轭10次&gt; 3星通关别传RI-EX-4；必须编入非助战洛洛并上场，且使用洛洛歼灭至少2名提亚卡乌冠军</t>
         </is>
       </c>
     </row>
@@ -7111,7 +7111,7 @@
       </c>
       <c r="E233" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战洛洛累计使用自负此轭10次&gt; 3星通关别传RI-EX-4；必须编入非助战洛洛并上场，且使用洛洛歼灭至少2名提亚卡乌冠军</t>
+          <t>&gt; 战斗中非助战号角累计使用终极防线10次&gt; 3星通关主题曲7-15；必须编入非助战号角并上场，且使用号角至少歼灭10个敌人</t>
         </is>
       </c>
     </row>
@@ -7138,7 +7138,7 @@
       </c>
       <c r="E234" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战号角累计使用终极防线10次&gt; 3星通关主题曲7-15；必须编入非助战号角并上场，且使用号角至少歼灭10个敌人</t>
+          <t>&gt; 战斗中非助战掠风累计使用此身为源10次&gt; 3星通关主题曲11-9标准实战环境；必须编入非助战掠风并上场，其他成员仅可编入术师、重装与医疗干员</t>
         </is>
       </c>
     </row>
@@ -7165,7 +7165,7 @@
       </c>
       <c r="E235" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战掠风累计使用此身为源10次&gt; 3星通关主题曲11-9标准实战环境；必须编入非助战掠风并上场，其他成员仅可编入术师、重装与医疗干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战流明并上场，且每次战斗至少释放2次灯火不灭&gt; 3星通关主题曲6-9；且仅可编入非助战流明1名医疗干员并上场</t>
         </is>
       </c>
     </row>
@@ -7192,7 +7192,7 @@
       </c>
       <c r="E236" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战流明并上场，且每次战斗至少释放2次灯火不灭&gt; 3星通关主题曲6-9；且仅可编入非助战流明1名医疗干员并上场</t>
+          <t>&gt; 战斗中非助战流明累计使用沛霖10次&gt; 3星通关别传OF-5；必须编入非助战流明并上场，且不编入其他医疗干员</t>
         </is>
       </c>
     </row>
@@ -7219,7 +7219,7 @@
       </c>
       <c r="E237" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战流明累计使用沛霖10次&gt; 3星通关别传OF-5；必须编入非助战流明并上场，且不编入其他医疗干员</t>
+          <t>&gt; 由非助战艾丽妮累计造成100000点伤害&gt; 3星通关插曲SV-EX-1；必须编入非助战艾丽妮并上场，且使用2次判决</t>
         </is>
       </c>
     </row>
@@ -7246,7 +7246,7 @@
       </c>
       <c r="E238" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战艾丽妮累计造成100000点伤害&gt; 3星通关插曲SV-EX-1；必须编入非助战艾丽妮并上场，且使用2次判决</t>
+          <t>&gt; 由非助战艾丽妮使用技能累计造成50歼灭数&gt; 3星通关插曲SV-4；必须编入非助战艾丽妮并上场，且使用艾丽妮歼灭15个敌人</t>
         </is>
       </c>
     </row>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="D239" s="5" t="inlineStr">
         <is>
-          <t>maa://20877 (98.15), maa://20836 (100.0)</t>
+          <t>maa://20877 (98.18), maa://20836 (100.0)</t>
         </is>
       </c>
       <c r="E239" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战艾丽妮使用技能累计造成50歼灭数&gt; 3星通关插曲SV-4；必须编入非助战艾丽妮并上场，且使用艾丽妮歼灭15个敌人</t>
+          <t>&gt; 由非助战归溟幽灵鲨累计造成30歼灭数&gt; 3星通关插曲SV-EX-1；必须编入非助战归溟幽灵鲨并上场，且使用归溟幽灵鲨歼灭至少1个囊海爬行者</t>
         </is>
       </c>
     </row>
@@ -7300,7 +7300,7 @@
       </c>
       <c r="E240" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战归溟幽灵鲨累计造成30歼灭数&gt; 3星通关插曲SV-EX-1；必须编入非助战归溟幽灵鲨并上场，且使用归溟幽灵鲨歼灭至少1个囊海爬行者</t>
+          <t>&gt; 完成5次战斗；必须编入非助战归溟幽灵鲨并上场，且每次战斗至少释放1次生存的重压&gt; 3星通关主题曲S4-1；必须编入非助战归溟幽灵鲨并上场，且使用归溟幽灵鲨歼灭10个敌人</t>
         </is>
       </c>
     </row>
@@ -7327,7 +7327,7 @@
       </c>
       <c r="E241" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战归溟幽灵鲨并上场，且每次战斗至少释放1次生存的重压&gt; 3星通关主题曲S4-1；必须编入非助战归溟幽灵鲨并上场，且使用归溟幽灵鲨歼灭10个敌人</t>
+          <t>&gt; 战斗中非助战埃拉托累计使用英雄赞歌5次&gt; 3星通关主题曲S5-9；必须编入非助战埃拉托并上场，其他成员不可编入狙击干员</t>
         </is>
       </c>
     </row>
@@ -7354,7 +7354,7 @@
       </c>
       <c r="E242" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战埃拉托累计使用英雄赞歌5次&gt; 3星通关主题曲S5-9；必须编入非助战埃拉托并上场，其他成员不可编入狙击干员</t>
+          <t>&gt; 战斗中非助战濯尘芙蓉累计使用抚业之触10次&gt; 3星通关别传LE-4；必须编入非助战濯尘芙蓉并上场，且至少使用2次抚业之触</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="E243" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战濯尘芙蓉累计使用抚业之触10次&gt; 3星通关别传LE-4；必须编入非助战濯尘芙蓉并上场，且至少使用2次抚业之触</t>
+          <t>&gt; 由非助战黑键累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲3-7；必须编入非助战黑键并上场，且使用黑键歼灭至少1个重装防御组长</t>
         </is>
       </c>
     </row>
@@ -7408,7 +7408,7 @@
       </c>
       <c r="E244" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战黑键累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲3-7；必须编入非助战黑键并上场，且使用黑键歼灭至少1个重装防御组长</t>
+          <t>&gt; 完成5次战斗；必须编入非助战黑键并上场，且使用黑键歼灭至少6个敌人&gt; 3星通关主题曲3-6；必须编入非助战黑键并上场，且使用黑键歼灭屠宰老手</t>
         </is>
       </c>
     </row>
@@ -7435,7 +7435,7 @@
       </c>
       <c r="E245" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战黑键并上场，且使用黑键歼灭至少6个敌人&gt; 3星通关主题曲3-6；必须编入非助战黑键并上场，且使用黑键歼灭屠宰老手</t>
+          <t>&gt; 战斗中非助战黑键累计使用寂静之声10次&gt; 3星通关主题曲11-12标准实战环境；必须编入非助战黑键并上场，且使用黑键歼灭至少2名伦蒂尼姆城防自行炮</t>
         </is>
       </c>
     </row>
@@ -7462,7 +7462,7 @@
       </c>
       <c r="E246" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战黑键累计使用寂静之声10次&gt; 3星通关主题曲11-12标准实战环境；必须编入非助战黑键并上场，且使用黑键歼灭至少2名伦蒂尼姆城防自行炮</t>
+          <t>&gt; 由非助战星源累计造成40歼灭数&gt; 3星通关主题曲4-3；必须编入非助战星源并上场，其他成员仅可编入重装干员</t>
         </is>
       </c>
     </row>
@@ -7489,7 +7489,7 @@
       </c>
       <c r="E247" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战星源累计造成40歼灭数&gt; 3星通关主题曲4-3；必须编入非助战星源并上场，其他成员仅可编入重装干员</t>
+          <t>&gt; 战斗中非助战承曦格雷伊累计使用晨曦信标10次&gt; 3星通关主题曲1-3；必须编入非助战承曦格雷伊并上场，其他成员仅可编入先锋干员</t>
         </is>
       </c>
     </row>
@@ -7511,12 +7511,12 @@
       </c>
       <c r="D248" s="5" t="inlineStr">
         <is>
-          <t>maa://22467 (92.86)</t>
+          <t>maa://22467 (93.1)</t>
         </is>
       </c>
       <c r="E248" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战承曦格雷伊累计使用晨曦信标10次&gt; 3星通关主题曲1-3；必须编入非助战承曦格雷伊并上场，其他成员仅可编入先锋干员</t>
+          <t>&gt; 战斗中非助战多萝西累计部署共振装置50个&gt; 3星通关主题曲4-5；必须编入非助战多萝西并上场，其他成员仅可编入3名干员</t>
         </is>
       </c>
     </row>
@@ -7543,7 +7543,7 @@
       </c>
       <c r="E249" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战多萝西累计部署共振装置50个&gt; 3星通关主题曲4-5；必须编入非助战多萝西并上场，其他成员仅可编入3名干员</t>
+          <t>&gt; 战斗中非助战至简累计使用神工意匠20次&gt; 3星通关别传IC-8；必须编入非助战至简并上场，且使用至简歼灭至少2名蜜酿级醒酒助手</t>
         </is>
       </c>
     </row>
@@ -7565,12 +7565,12 @@
       </c>
       <c r="D250" s="5" t="inlineStr">
         <is>
-          <t>*maa://20825 (69.57), *maa://21445 (76.92), ***maa://20891 (30.0), *maa://35726 (66.67)</t>
+          <t>*maa://20825 (69.57), *maa://21445 (76.92), ***maa://20891 (30.0), *maa://35726 (57.14)</t>
         </is>
       </c>
       <c r="E250" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战至简累计使用神工意匠20次&gt; 3星通关别传IC-8；必须编入非助战至简并上场，且使用至简歼灭至少2名蜜酿级醒酒助手</t>
+          <t>&gt; 战斗中累计部署非助战鸿雪的“打字机”10次&gt; 3星通关主题曲2-10；必须编入非助战鸿雪并上场，且使用鸿雪或“打字机”歼灭碎骨</t>
         </is>
       </c>
     </row>
@@ -7597,7 +7597,7 @@
       </c>
       <c r="E251" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中累计部署非助战鸿雪的“打字机”10次&gt; 3星通关主题曲2-10；必须编入非助战鸿雪并上场，且使用鸿雪或“打字机”歼灭碎骨</t>
+          <t>&gt; 战斗中非助战百炼嘉维尔累计使用链锯强袭10次&gt; 3星通关主题曲9-2标准实战环境；必须编入非助战百炼嘉维尔并上场，且使用百炼嘉维尔至少歼灭15个敌人</t>
         </is>
       </c>
     </row>
@@ -7624,7 +7624,7 @@
       </c>
       <c r="E252" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战百炼嘉维尔累计使用链锯强袭10次&gt; 3星通关主题曲9-2标准实战环境；必须编入非助战百炼嘉维尔并上场，且使用百炼嘉维尔至少歼灭15个敌人</t>
+          <t>&gt; 战斗中非助战但书累计使用致胜立论14次&gt; 3星通关主题曲4-7；必须编入非助战但书并上场，且使用但书至少歼灭3只高能源石虫</t>
         </is>
       </c>
     </row>
@@ -7651,7 +7651,7 @@
       </c>
       <c r="E253" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战但书累计使用致胜立论14次&gt; 3星通关主题曲4-7；必须编入非助战但书并上场，且使用但书至少歼灭3只高能源石虫</t>
+          <t>&gt; 完成5次战斗；必须编入非助战罗小黑并上场，且每次战斗至少释放1次碎金为刃&gt; 3星通关别传IW-4；必须编入非助战罗小黑并上场，其他成员仅可编入6名干员</t>
         </is>
       </c>
     </row>
@@ -7678,7 +7678,7 @@
       </c>
       <c r="E254" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战罗小黑并上场，且每次战斗至少释放1次碎金为刃&gt; 3星通关别传IW-4；必须编入非助战罗小黑并上场，其他成员仅可编入6名干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战海沫并上场，且使用海沫造成至少12000点伤害&gt; 3星通关插曲SN-2；必须携带并部署非助战海沫，其他成员仅可编入2名干员</t>
         </is>
       </c>
     </row>
@@ -7705,7 +7705,7 @@
       </c>
       <c r="E255" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战海沫并上场，且使用海沫造成至少12000点伤害&gt; 3星通关插曲SN-2；必须携带并部署非助战海沫，其他成员仅可编入2名干员</t>
+          <t>&gt; 由非助战铅踝累计造成30歼灭数&gt; 3星通关主题曲S3-5；必须编入非助战铅踝并上场，且使用铅踝歼灭至少2个隐形弩手</t>
         </is>
       </c>
     </row>
@@ -7732,7 +7732,7 @@
       </c>
       <c r="E256" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战铅踝累计造成30歼灭数&gt; 3星通关主题曲S3-5；必须编入非助战铅踝并上场，且使用铅踝歼灭至少2个隐形弩手</t>
+          <t>&gt; 由非助战达格达累计造成30歼灭数&gt; 3星通关主题曲11-5标准实战环境；必须编入非助战达格达并上场，且使用达格达至少歼灭10个敌人</t>
         </is>
       </c>
     </row>
@@ -7759,7 +7759,7 @@
       </c>
       <c r="E257" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战达格达累计造成30歼灭数&gt; 3星通关主题曲11-5标准实战环境；必须编入非助战达格达并上场，且使用达格达至少歼灭10个敌人</t>
+          <t>&gt; 战斗中非助战白铁累计部署支援装置25个&gt; 3星通关主题曲11-6标准实战环境；必须编入非助战白铁并上场，且使用白铁或白铁的支援装置歼灭至少15名萨卡兹枯朽战士</t>
         </is>
       </c>
     </row>
@@ -7786,7 +7786,7 @@
       </c>
       <c r="E258" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战白铁累计部署支援装置25个&gt; 3星通关主题曲11-6标准实战环境；必须编入非助战白铁并上场，且使用白铁或白铁的支援装置歼灭至少15名萨卡兹枯朽战士</t>
+          <t>&gt; 完成3次战斗；必须编入非助战石英并上场，且每次战斗至少释放1次全力相搏&gt; 3星通关别传DH-4；必须编入非助战石英并上场，并使用石英至少击败2名控潮术师</t>
         </is>
       </c>
     </row>
@@ -7813,7 +7813,7 @@
       </c>
       <c r="E259" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成3次战斗；必须编入非助战石英并上场，且每次战斗至少释放1次全力相搏&gt; 3星通关别传DH-4；必须编入非助战石英并上场，并使用石英至少击败2名控潮术师</t>
+          <t>&gt; 战斗中非助战雪绒累计使用坠雪10次&gt; 3星通关主题曲2-3；必须编入非助战雪绒并上场，且使用雪绒歼灭至少2名重装防御者</t>
         </is>
       </c>
     </row>
@@ -7840,7 +7840,7 @@
       </c>
       <c r="E260" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战雪绒累计使用坠雪10次&gt; 3星通关主题曲2-3；必须编入非助战雪绒并上场，且使用雪绒歼灭至少2名重装防御者</t>
+          <t>&gt; 由非助战子月累计造成30歼灭数&gt; 3星通关主题曲2-5；必须编入非助战子月并上场，且使用子月歼灭至少2个高阶术师</t>
         </is>
       </c>
     </row>
@@ -7867,7 +7867,7 @@
       </c>
       <c r="E261" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战子月累计造成30歼灭数&gt; 3星通关主题曲2-5；必须编入非助战子月并上场，且使用子月歼灭至少2个高阶术师</t>
+          <t>&gt; 完成5次战斗；必须编入非助战伺夜并上场，且每次战斗至少释放1次领袖的尊严&gt; 3星通关主题曲3-8；必须编入非助战伺夜并上场，且使用伺夜歼灭碎骨</t>
         </is>
       </c>
     </row>
@@ -7894,7 +7894,7 @@
       </c>
       <c r="E262" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战伺夜并上场，且每次战斗至少释放1次领袖的尊严&gt; 3星通关主题曲3-8；必须编入非助战伺夜并上场，且使用伺夜歼灭碎骨</t>
+          <t>&gt; 由非助战斥罪累计造成40歼灭数&gt; 3星通关别传CB-4；必须携带并部署非助战斥罪，其他成员仅可编入4名干员</t>
         </is>
       </c>
     </row>
@@ -7921,7 +7921,7 @@
       </c>
       <c r="E263" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战斥罪累计造成40歼灭数&gt; 3星通关别传CB-4；必须携带并部署非助战斥罪，其他成员仅可编入4名干员</t>
+          <t>&gt; 战斗中非助战斥罪累计使用披荆斩棘5次&gt; 3星通关别传IS-7；必须编入非助战斥罪并上场，且不编入其他医疗干员</t>
         </is>
       </c>
     </row>
@@ -7948,7 +7948,7 @@
       </c>
       <c r="E264" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战斥罪累计使用披荆斩棘5次&gt; 3星通关别传IS-7；必须编入非助战斥罪并上场，且不编入其他医疗干员</t>
+          <t>&gt; 由非助战缄默德克萨斯累计歼灭10个精英或领袖敌人&gt; 3星通关别传CB-8；必须编入非助战缄默德克萨斯并上场，且使用缄默德克萨斯歼灭至少2个灰尾</t>
         </is>
       </c>
     </row>
@@ -7975,7 +7975,7 @@
       </c>
       <c r="E265" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战缄默德克萨斯累计歼灭10个精英或领袖敌人&gt; 3星通关别传CB-8；必须编入非助战缄默德克萨斯并上场，且使用缄默德克萨斯歼灭至少2个灰尾</t>
+          <t>&gt; 完成5次战斗；必须编入非助战和弦并上场，且每次战斗至少释放一次沉溺之灾&gt; 3星通关主题曲6-5；必须编入非助战和弦并上场，且使用和弦歼灭至少2个宿主重装士兵</t>
         </is>
       </c>
     </row>
@@ -8002,7 +8002,7 @@
       </c>
       <c r="E266" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战和弦并上场，且每次战斗至少释放一次沉溺之灾&gt; 3星通关主题曲6-5；必须编入非助战和弦并上场，且使用和弦歼灭至少2个宿主重装士兵</t>
+          <t>&gt; 战斗中非助战焰影苇草累计使用枯荣共息10次&gt; 3星通关主题曲11-6标准实战环境；必须编入非助战焰影苇草并上场，且使用焰影苇草至少歼灭40个敌人</t>
         </is>
       </c>
     </row>
@@ -8029,7 +8029,7 @@
       </c>
       <c r="E267" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战焰影苇草累计使用枯荣共息10次&gt; 3星通关主题曲11-6标准实战环境；必须编入非助战焰影苇草并上场，且使用焰影苇草至少歼灭40个敌人</t>
+          <t>&gt; 由非助战截云累计造成100000点伤害&gt; 3星通关主题曲S2-2；必须编入非助战截云并上场，且使用截云至少歼灭10名敌人</t>
         </is>
       </c>
     </row>
@@ -8056,7 +8056,7 @@
       </c>
       <c r="E268" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战截云累计造成100000点伤害&gt; 3星通关主题曲S2-2；必须编入非助战截云并上场，且使用截云至少歼灭10名敌人</t>
+          <t>&gt; 战斗中非助战火哨累计使用焦土8次&gt; 3星通关主题曲S4-6；必须携带并部署非助战火哨，其他成员仅可编入远程位干员</t>
         </is>
       </c>
     </row>
@@ -8083,7 +8083,7 @@
       </c>
       <c r="E269" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战火哨累计使用焦土8次&gt; 3星通关主题曲S4-6；必须携带并部署非助战火哨，其他成员仅可编入远程位干员</t>
+          <t>&gt; 由非助战林累计歼灭80个敌人&gt; 3星通关主题曲11-6标准实战环境；必须编入非助战林并上场，且不编入重装干员</t>
         </is>
       </c>
     </row>
@@ -8110,7 +8110,7 @@
       </c>
       <c r="E270" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战林累计歼灭80个敌人&gt; 3星通关主题曲11-6标准实战环境；必须编入非助战林并上场，且不编入重装干员</t>
+          <t>&gt; 由非助战重岳累计造成120000点伤害&gt; 3星通关别传WB-7；必须携带并部署非助战重岳，其他成员仅可编入4名干员</t>
         </is>
       </c>
     </row>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="E271" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战重岳累计造成120000点伤害&gt; 3星通关别传WB-7；必须携带并部署非助战重岳，其他成员仅可编入4名干员</t>
+          <t>&gt; 战斗中非助战铎铃累计使用乡心无改6次&gt; 3星通关主题曲2-1；必须编入非助战铎铃并上场，且使用3次乡心无改</t>
         </is>
       </c>
     </row>
@@ -8164,7 +8164,7 @@
       </c>
       <c r="E272" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战铎铃累计使用乡心无改6次&gt; 3星通关主题曲2-1；必须编入非助战铎铃并上场，且使用3次乡心无改</t>
+          <t>&gt; 由非助战仇白累计造成40歼灭数&gt; 3星通关别传WB-7；必须编入非助战仇白并上场，并使用仇白至少击败3名“破坚”</t>
         </is>
       </c>
     </row>
@@ -8191,7 +8191,7 @@
       </c>
       <c r="E273" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战仇白累计造成40歼灭数&gt; 3星通关别传WB-7；必须编入非助战仇白并上场，并使用仇白至少击败3名“破坚”</t>
+          <t>&gt; 由非助战火龙S黑角累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲3-8；必须编入非助战火龙S黑角并上场，且使用火龙S黑角歼灭碎骨</t>
         </is>
       </c>
     </row>
@@ -8218,7 +8218,7 @@
       </c>
       <c r="E274" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战火龙S黑角累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲3-8；必须编入非助战火龙S黑角并上场，且使用火龙S黑角歼灭碎骨</t>
+          <t>&gt; 完成5次战斗；每次战斗至少部署3次非助战的麒麟R夜刀&gt; 3星通关主题曲3-7；必须编入非助战麒麟R夜刀并上场，且使用麒麟R夜刀歼灭至少2名炮手</t>
         </is>
       </c>
     </row>
@@ -8245,7 +8245,7 @@
       </c>
       <c r="E275" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；每次战斗至少部署3次非助战的麒麟R夜刀&gt; 3星通关主题曲3-7；必须编入非助战麒麟R夜刀并上场，且使用麒麟R夜刀歼灭至少2名炮手</t>
+          <t>&gt; 完成5次战斗；必须编入非助战休谟斯并上场，且每次战斗至少释放1次高效处理&gt; 3星通关主题曲7-8；必须编入非助战休谟斯并上场，其他成员仅可编入近战位干员</t>
         </is>
       </c>
     </row>
@@ -8272,7 +8272,7 @@
       </c>
       <c r="E276" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战休谟斯并上场，且每次战斗至少释放1次高效处理&gt; 3星通关主题曲7-8；必须编入非助战休谟斯并上场，其他成员仅可编入近战位干员</t>
+          <t>&gt; 由非助战摩根累计造成80000点伤害&gt; 3星通关主题曲4-5，必须编入非助战摩根并上场，且使用摩根至少歼灭10名敌人</t>
         </is>
       </c>
     </row>
@@ -8299,7 +8299,7 @@
       </c>
       <c r="E277" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战摩根累计造成80000点伤害&gt; 3星通关主题曲4-5，必须编入非助战摩根并上场，且使用摩根至少歼灭10名敌人</t>
+          <t>&gt; 完成5次战斗；必须编入非助战洋灰并上场，且每次战斗至少释放1次结构加固&gt; 3星通关别传IW-EX-6，必须编入非助战洋灰并上场，且不编入其他重装干员</t>
         </is>
       </c>
     </row>
@@ -8326,7 +8326,7 @@
       </c>
       <c r="E278" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战洋灰并上场，且每次战斗至少释放1次结构加固&gt; 3星通关别传IW-EX-6，必须编入非助战洋灰并上场，且不编入其他重装干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战玫拉并上场，且每次战斗至少释放1次临界爆发&gt; 3星通关主题曲S3-5；必须编入非助战玫拉并上场，其他成员仅可编入6名干员</t>
         </is>
       </c>
     </row>
@@ -8353,7 +8353,7 @@
       </c>
       <c r="E279" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战玫拉并上场，且每次战斗至少释放1次临界爆发&gt; 3星通关主题曲S3-5；必须编入非助战玫拉并上场，其他成员仅可编入6名干员</t>
+          <t>&gt; 战斗中非助战淬羽赫默累计使用无畏者协议8次&gt; 3星通关主题曲6-3；必须编入非助战淬羽赫默并上场，且所有干员不被击倒</t>
         </is>
       </c>
     </row>
@@ -8380,7 +8380,7 @@
       </c>
       <c r="E280" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战淬羽赫默累计使用无畏者协议8次&gt; 3星通关主题曲6-3；必须编入非助战淬羽赫默并上场，且所有干员不被击倒</t>
+          <t>&gt; 由非助战霍尔海雅累计造成120000点伤害&gt; 3星通关别传OF-7；必须编入非助战霍尔海雅并上场，且至少使用2次博览者的狂语</t>
         </is>
       </c>
     </row>
@@ -8407,7 +8407,7 @@
       </c>
       <c r="E281" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战霍尔海雅累计造成120000点伤害&gt; 3星通关别传OF-7；必须编入非助战霍尔海雅并上场，且至少使用2次博览者的狂语</t>
+          <t>&gt; 完成5次战斗；必须编入非助战霍尔海雅并上场，且每次战斗至少释放1次博览者的狂语&gt; 3星通关主题曲4-3；必须编入非助战霍尔海雅并上场，且使用霍尔海雅至少歼灭10个敌人</t>
         </is>
       </c>
     </row>
@@ -8434,7 +8434,7 @@
       </c>
       <c r="E282" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战霍尔海雅并上场，且每次战斗至少释放1次博览者的狂语&gt; 3星通关主题曲4-3；必须编入非助战霍尔海雅并上场，且使用霍尔海雅至少歼灭10个敌人</t>
+          <t>&gt; 完成5次战斗；必须编入非助战缪尔赛思，并确定第一位部署的干员是缪尔赛思&gt; 3星通关主题曲3-4；必须编入非助战缪尔赛思并上场，其他成员仅可编入4名干员</t>
         </is>
       </c>
     </row>
@@ -8461,7 +8461,7 @@
       </c>
       <c r="E283" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战缪尔赛思，并确定第一位部署的干员是缪尔赛思&gt; 3星通关主题曲3-4；必须编入非助战缪尔赛思并上场，其他成员仅可编入4名干员</t>
+          <t>&gt; 由非助战隐现累计造成30歼灭数&gt; 3星通关主题曲3-4；必须编入非助战隐现并上场，且不编入其他狙击干员</t>
         </is>
       </c>
     </row>
@@ -8488,7 +8488,7 @@
       </c>
       <c r="E284" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战隐现累计造成30歼灭数&gt; 3星通关主题曲3-4；必须编入非助战隐现并上场，且不编入其他狙击干员</t>
+          <t>&gt; 由非助战空构累计造成60000点伤害&gt; 3星通关插曲DM-2；必须编入非助战空构并上场，且至少使用1次临场铳械改装</t>
         </is>
       </c>
     </row>
@@ -8510,12 +8510,12 @@
       </c>
       <c r="D285" s="5" t="inlineStr">
         <is>
-          <t>maa://25775 (92.45), maa://25393 (83.33)</t>
+          <t>maa://25775 (92.45), *maa://25393 (76.92)</t>
         </is>
       </c>
       <c r="E285" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战空构累计造成60000点伤害&gt; 3星通关插曲DM-2；必须编入非助战空构并上场，且至少使用1次临场铳械改装</t>
+          <t>&gt; 由非助战圣约送葬人累计造成80000点伤害&gt; 3星通关主题曲7-14；必须编入非助战圣约送葬人并上场，且使用圣约送葬人歼灭至少2名游击队盾卫</t>
         </is>
       </c>
     </row>
@@ -8542,7 +8542,7 @@
       </c>
       <c r="E286" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战圣约送葬人累计造成80000点伤害&gt; 3星通关主题曲7-14；必须编入非助战圣约送葬人并上场，且使用圣约送葬人歼灭至少2名游击队盾卫</t>
+          <t>&gt; 完成5次战斗；必须编入非助战寒檀并上场，且每次战斗至少释放1次“女巫之泪”&gt; 3星通关别传BI-2；必须编入非助战寒檀并上场，且使用寒檀至少歼灭8个敌人</t>
         </is>
       </c>
     </row>
@@ -8569,7 +8569,7 @@
       </c>
       <c r="E287" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战寒檀并上场，且每次战斗至少释放1次“女巫之泪”&gt; 3星通关别传BI-2；必须编入非助战寒檀并上场，且使用寒檀至少歼灭8个敌人</t>
+          <t>&gt; 由非助战提丰累计造成120000点伤害&gt; 3星通关主题曲S2-1；必须编入非助战提丰并上场，其他成员仅可编入近战位干员</t>
         </is>
       </c>
     </row>
@@ -8596,7 +8596,7 @@
       </c>
       <c r="E288" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战提丰累计造成120000点伤害&gt; 3星通关主题曲S2-1；必须编入非助战提丰并上场，其他成员仅可编入近战位干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战苍苔并上场，且每次战斗至少释放1次土石的恒心&gt; 3星通关主题曲9-3标准实战环境；必须编入非助战苍苔并上场，且所有干员不被击倒</t>
         </is>
       </c>
     </row>
@@ -8623,7 +8623,7 @@
       </c>
       <c r="E289" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战苍苔并上场，且每次战斗至少释放1次土石的恒心&gt; 3星通关主题曲9-3标准实战环境；必须编入非助战苍苔并上场，且所有干员不被击倒</t>
+          <t>&gt; 完成5次战斗；必须编入非助战青枳，并确定第一位部署的干员是青枳&gt; 3星通关别传OF-5；必须编入非助战青枳并上场，且不编入其他先锋干员</t>
         </is>
       </c>
     </row>
@@ -8650,7 +8650,7 @@
       </c>
       <c r="E290" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战青枳，并确定第一位部署的干员是青枳&gt; 3星通关别传OF-5；必须编入非助战青枳并上场，且不编入其他先锋干员</t>
+          <t>&gt; 由非助战琳琅诗怀雅累计造成60000点伤害※香槟炸弹造成的伤害也会参与计数&gt; 3星通关主题曲5-2；必须编入非助战琳琅诗怀雅并上场，且使用琳琅诗怀雅至少歼灭15个敌人</t>
         </is>
       </c>
     </row>
@@ -8677,7 +8677,7 @@
       </c>
       <c r="E291" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战琳琅诗怀雅累计造成60000点伤害※香槟炸弹造成的伤害也会参与计数&gt; 3星通关主题曲5-2；必须编入非助战琳琅诗怀雅并上场，且使用琳琅诗怀雅至少歼灭15个敌人</t>
+          <t>&gt; 由非助战琳琅诗怀雅累计造成40歼灭数&gt; 3星通关主题曲11-16标准实战环境；必须编入非助战琳琅诗怀雅并上场，其他成员仅可编入4名干员</t>
         </is>
       </c>
     </row>
@@ -8704,7 +8704,7 @@
       </c>
       <c r="E292" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战琳琅诗怀雅累计造成40歼灭数&gt; 3星通关主题曲11-16标准实战环境；必须编入非助战琳琅诗怀雅并上场，其他成员仅可编入4名干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战纯烬艾雅法拉并上场，且每次战斗至少释放1次火山回响&gt; 3星通关别传FC-5；必须编入非助战纯烬艾雅法拉并上场，且不编入其他医疗干员</t>
         </is>
       </c>
     </row>
@@ -8731,7 +8731,7 @@
       </c>
       <c r="E293" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战纯烬艾雅法拉并上场，且每次战斗至少释放1次火山回响&gt; 3星通关别传FC-5；必须编入非助战纯烬艾雅法拉并上场，且不编入其他医疗干员</t>
+          <t>&gt; 由非助战冰酿累计造成80000伤害&gt; 3星通关主题曲S3-3；必须编入非助战冰酿并上场，且使用冰酿至少歼灭8个敌人</t>
         </is>
       </c>
     </row>
@@ -8758,7 +8758,7 @@
       </c>
       <c r="E294" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战冰酿累计造成80000伤害&gt; 3星通关主题曲S3-3；必须编入非助战冰酿并上场，且使用冰酿至少歼灭8个敌人</t>
+          <t>&gt; 战斗中非助战杏仁累计使用强力牵引10次&gt; 3星通关别传BI-2；必须编入非助战杏仁并上场，且至少使用2次强力牵引</t>
         </is>
       </c>
     </row>
@@ -8785,7 +8785,7 @@
       </c>
       <c r="E295" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战杏仁累计使用强力牵引10次&gt; 3星通关别传BI-2；必须编入非助战杏仁并上场，且至少使用2次强力牵引</t>
+          <t>&gt; 由非助战涤火杰西卡累计造成30歼灭数&gt; 3星通关主题曲3-8；必须编入非助战涤火杰西卡并上场，且使用涤火杰西卡歼灭碎骨</t>
         </is>
       </c>
     </row>
@@ -8812,7 +8812,7 @@
       </c>
       <c r="E296" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战涤火杰西卡累计造成30歼灭数&gt; 3星通关主题曲3-8；必须编入非助战涤火杰西卡并上场，且使用涤火杰西卡歼灭碎骨</t>
+          <t>&gt; 由非助战维荻累计造成60000点伤害&gt; 3星通关主题曲9-3标准实战环境；必须编入非助战维荻并上场，且至少使用2次双刃毒藤</t>
         </is>
       </c>
     </row>
@@ -8839,7 +8839,7 @@
       </c>
       <c r="E297" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战维荻累计造成60000点伤害&gt; 3星通关主题曲9-3标准实战环境；必须编入非助战维荻并上场，且至少使用2次双刃毒藤</t>
+          <t>&gt; 由非助战戴菲恩累计造成30歼灭数&gt; 3星通关插曲WD-6；必须携带且部署非助战戴菲恩，且至少使用2次抢攻</t>
         </is>
       </c>
     </row>
@@ -8866,7 +8866,7 @@
       </c>
       <c r="E298" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战戴菲恩累计造成30歼灭数&gt; 3星通关插曲WD-6；必须携带且部署非助战戴菲恩，且至少使用2次抢攻</t>
+          <t>&gt; 战斗中非助战刺玫累计使用荆藤庇荫10次&gt; 3星通关别传IC-2；必须编入非助战刺玫并上场，且不编入其他医疗干员</t>
         </is>
       </c>
     </row>
@@ -8893,7 +8893,7 @@
       </c>
       <c r="E299" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战刺玫累计使用荆藤庇荫10次&gt; 3星通关别传IC-2；必须编入非助战刺玫并上场，且不编入其他医疗干员</t>
+          <t>&gt; 由非助战赫德雷累计歼灭5个精英或领袖敌人&gt; 3星通关别传IW-7；必须编入非助战赫德雷并上场，并使用赫德雷至少击败2名沉沙</t>
         </is>
       </c>
     </row>
@@ -8920,7 +8920,7 @@
       </c>
       <c r="E300" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战赫德雷累计歼灭5个精英或领袖敌人&gt; 3星通关别传IW-7；必须编入非助战赫德雷并上场，并使用赫德雷至少击败2名沉沙</t>
+          <t>&gt; 完成5次战斗；必须编入非助战深律并上场，且每次战斗至少释放1次沉音宁神&gt; 3星通关别传LE-4；必须编入非助战深律并上场，且所有干员不被击倒</t>
         </is>
       </c>
     </row>
@@ -8947,7 +8947,7 @@
       </c>
       <c r="E301" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战深律并上场，且每次战斗至少释放1次沉音宁神&gt; 3星通关别传LE-4；必须编入非助战深律并上场，且所有干员不被击倒</t>
+          <t>&gt; 由非助战止颂累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲7-11；必须编入非助战止颂并上场，且使用止颂歼灭至少2名雇佣军萨卡兹战士</t>
         </is>
       </c>
     </row>
@@ -8974,7 +8974,7 @@
       </c>
       <c r="E302" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战止颂累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲7-11；必须编入非助战止颂并上场，且使用止颂歼灭至少2名雇佣军萨卡兹战士</t>
+          <t>&gt; 战斗中非助战哈洛德累计使用重症优先8次&gt; 3星通关主题曲9-13标准实战环境；必须编入非助战哈洛德并上场，且所有干员不被击倒</t>
         </is>
       </c>
     </row>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="E303" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战哈洛德累计使用重症优先8次&gt; 3星通关主题曲9-13标准实战环境；必须编入非助战哈洛德并上场，且所有干员不被击倒</t>
+          <t>&gt; 由非助战烈夏累计造成30歼灭数&gt; 3星通关主题曲4-3；必须编入非助战烈夏并上场，且不编入其他近卫干员</t>
         </is>
       </c>
     </row>
@@ -9028,7 +9028,7 @@
       </c>
       <c r="E304" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战烈夏累计造成30歼灭数&gt; 3星通关主题曲4-3；必须编入非助战烈夏并上场，且不编入其他近卫干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战锏并上场，且每次战斗至少释放1次归于宁静&gt; 3星通关别传BI-6；必须编入非助战锏并上场，且使用锏至少歼灭10个敌人</t>
         </is>
       </c>
     </row>
@@ -9055,7 +9055,7 @@
       </c>
       <c r="E305" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战锏并上场，且每次战斗至少释放1次归于宁静&gt; 3星通关别传BI-6；必须编入非助战锏并上场，且使用锏至少歼灭10个敌人</t>
+          <t>&gt; 由非助战莱伊累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲S9-1标准实战环境；必须编入非助战莱伊并上场，且使用莱伊使用至少2次“得见光芒”</t>
         </is>
       </c>
     </row>
@@ -9082,7 +9082,7 @@
       </c>
       <c r="E306" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战莱伊累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲S9-1标准实战环境；必须编入非助战莱伊并上场，且使用莱伊使用至少2次“得见光芒”</t>
+          <t>&gt; 战斗中非助战万顷累计使用支援号令·γ型10次&gt; 3星通关主题曲9-13标准实战环境；必须编入非助战万顷并上场，且至少使用2次应东风</t>
         </is>
       </c>
     </row>
@@ -9109,7 +9109,7 @@
       </c>
       <c r="E307" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战万顷累计使用支援号令·γ型10次&gt; 3星通关主题曲9-13标准实战环境；必须编入非助战万顷并上场，且至少使用2次应东风</t>
+          <t>&gt; 由非助战小满累计造成60000点伤害&gt; 3星通关主题曲9-11标准实战环境；必须编入非助战小满并上场，且至少使用2次乡音沉沉</t>
         </is>
       </c>
     </row>
@@ -9136,7 +9136,7 @@
       </c>
       <c r="E308" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战小满累计造成60000点伤害&gt; 3星通关主题曲9-11标准实战环境；必须编入非助战小满并上场，且至少使用2次乡音沉沉</t>
+          <t>&gt; 由非助战左乐累计造成40歼灭数&gt; 3星通关别传WB-5；必须编入非助战左乐并上场，且使用左乐至少歼灭8个敌人</t>
         </is>
       </c>
     </row>
@@ -9163,7 +9163,7 @@
       </c>
       <c r="E309" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战左乐累计造成40歼灭数&gt; 3星通关别传WB-5；必须编入非助战左乐并上场，且使用左乐至少歼灭8个敌人</t>
+          <t>&gt; 完成5次战斗；必须编入非助战黍并上场，且每次战斗至少释放1次离离枯荣&gt; 3星通关主题曲11-11标准实战环境；必须编入非助战黍并上场，且所有干员不被击倒</t>
         </is>
       </c>
     </row>
@@ -9190,7 +9190,7 @@
       </c>
       <c r="E310" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战黍并上场，且每次战斗至少释放1次离离枯荣&gt; 3星通关主题曲11-11标准实战环境；必须编入非助战黍并上场，且所有干员不被击倒</t>
+          <t>&gt; 完成5次战斗；必须编入非助战红隼并上场，且每次战斗至少释放2次醉刃乱舞&gt; 3星通关主题曲11-18标准实战环境；必须编入非助战红隼，且第一位部署红隼、红隼全程不撤退或被击倒</t>
         </is>
       </c>
     </row>
@@ -9217,7 +9217,7 @@
       </c>
       <c r="E311" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战红隼并上场，且每次战斗至少释放2次醉刃乱舞&gt; 3星通关主题曲11-18标准实战环境；必须编入非助战红隼，且第一位部署红隼、红隼全程不撤退或被击倒</t>
+          <t>&gt; 由非助战导火索累计造成80000点伤害&gt; 3星通关主题曲3-1；必须编入非助战导火索并上场，且使用导火索至少歼灭30个敌人</t>
         </is>
       </c>
     </row>
@@ -9244,7 +9244,7 @@
       </c>
       <c r="E312" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战导火索累计造成80000点伤害&gt; 3星通关主题曲3-1；必须编入非助战导火索并上场，且使用导火索至少歼灭30个敌人</t>
+          <t>&gt; 战斗中非助战双月累计使用全知者的战术10次&gt; 3星通关主题曲3-7；必须编入非助战双月并上场，且至少使用2次全知者的战术</t>
         </is>
       </c>
     </row>
@@ -9271,7 +9271,7 @@
       </c>
       <c r="E313" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战双月累计使用全知者的战术10次&gt; 3星通关主题曲3-7；必须编入非助战双月并上场，且至少使用2次全知者的战术</t>
+          <t>&gt; 战斗中非助战医生累计使用激素手枪8次&gt; 3星通关主题曲2-5；必须编入非助战医生并上场，且不编入医疗干员</t>
         </is>
       </c>
     </row>
@@ -9298,7 +9298,7 @@
       </c>
       <c r="E314" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战医生累计使用激素手枪8次&gt; 3星通关主题曲2-5；必须编入非助战医生并上场，且不编入医疗干员</t>
+          <t>&gt; 战斗中非助战艾拉累计部署雷鸣地雷30个&gt; 3星通关插曲DM-EX-1；必须编入非助战艾拉并上场，且使用艾拉歼灭至少2名萨卡兹穿刺手</t>
         </is>
       </c>
     </row>
@@ -9325,7 +9325,7 @@
       </c>
       <c r="E315" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战艾拉累计部署雷鸣地雷30个&gt; 3星通关插曲DM-EX-1；必须编入非助战艾拉并上场，且使用艾拉歼灭至少2名萨卡兹穿刺手</t>
+          <t>&gt; 战斗中非助战露托累计使用强磁防卫8次&gt; 3星通关主题曲3-1；必须编入非助战露托并上场，且不编入其他重装干员</t>
         </is>
       </c>
     </row>
@@ -9352,7 +9352,7 @@
       </c>
       <c r="E316" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战露托累计使用强磁防卫8次&gt; 3星通关主题曲3-1；必须编入非助战露托并上场，且不编入其他重装干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战阿罗玛并上场，且每次战斗至少释放1次小心地滑&gt; 3星通关别传GT-HX-3；必须编入非助战阿罗玛并上场，且使用阿罗玛至少歼灭20个敌人</t>
         </is>
       </c>
     </row>
@@ -9379,7 +9379,7 @@
       </c>
       <c r="E317" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战阿罗玛并上场，且每次战斗至少释放1次小心地滑&gt; 3星通关别传GT-HX-3；必须编入非助战阿罗玛并上场，且使用阿罗玛至少歼灭20个敌人</t>
+          <t>&gt; 由非助战阿斯卡纶累计造成180000点伤害&gt; 3星通关主题曲11-6标准实战环境；必须编入非助战阿斯卡纶并上场，且使用阿斯卡纶至少歼灭30个敌人</t>
         </is>
       </c>
     </row>
@@ -9406,7 +9406,7 @@
       </c>
       <c r="E318" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战阿斯卡纶累计造成180000点伤害&gt; 3星通关主题曲11-6标准实战环境；必须编入非助战阿斯卡纶并上场，且使用阿斯卡纶至少歼灭30个敌人</t>
+          <t>&gt; 完成5次战斗；必须编入非助战历阵锐枪芬，并确定第一位部署的干员是历阵锐枪芬&gt; 3星通关主题曲4-2；必须编入非助战历阵锐枪芬并上场，且不编入其他先锋干员</t>
         </is>
       </c>
     </row>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="D319" s="5" t="inlineStr">
         <is>
-          <t>maa://36646 (98.03), maa://36845 (94.74), ***maa://39217 (25.0)</t>
+          <t>maa://36646 (98.04), maa://36845 (94.74), ***maa://39217 (25.0)</t>
         </is>
       </c>
       <c r="E319" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战历阵锐枪芬，并确定第一位部署的干员是历阵锐枪芬&gt; 3星通关主题曲4-2；必须编入非助战历阵锐枪芬并上场，且不编入其他先锋干员</t>
+          <t>&gt; 由非助战逻各斯累计造成100000点伤害&gt; 3星通关主题曲11-6标准实战环境，必须编入非助战逻各斯并上场，其他成员仅可编入4名干员</t>
         </is>
       </c>
     </row>
@@ -9460,7 +9460,7 @@
       </c>
       <c r="E320" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战逻各斯累计造成100000点伤害&gt; 3星通关主题曲11-6标准实战环境，必须编入非助战逻各斯并上场，其他成员仅可编入4名干员</t>
+          <t>&gt; 由非助战维什戴尔累计造成120000伤害&gt; 3星通关插曲DM-5；必须编入非助战维什戴尔并上场，且使用维什戴尔至少歼灭20个敌人</t>
         </is>
       </c>
     </row>
@@ -9487,7 +9487,7 @@
       </c>
       <c r="E321" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战维什戴尔累计造成120000伤害&gt; 3星通关插曲DM-5；必须编入非助战维什戴尔并上场，且使用维什戴尔至少歼灭20个敌人</t>
+          <t>&gt; 战斗中非助战医疗职业的阿米娅累计使用慈悲愿景5次&gt; 3星通关主题曲3-8；必须编入非助战医疗职业的阿米娅并上场，且不编入其他医疗干员</t>
         </is>
       </c>
     </row>
@@ -9514,7 +9514,7 @@
       </c>
       <c r="E322" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战医疗职业的阿米娅累计使用慈悲愿景5次&gt; 3星通关主题曲3-8；必须编入非助战医疗职业的阿米娅并上场，且不编入其他医疗干员</t>
+          <t>&gt; 战斗中非助战深巡累计使用行动能力剥夺8次&gt; 3星通关插曲SN-5，必须编入非助战深巡并上场，其他成员仅可编入4名干员</t>
         </is>
       </c>
     </row>
@@ -9541,7 +9541,7 @@
       </c>
       <c r="E323" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战深巡累计使用行动能力剥夺8次&gt; 3星通关插曲SN-5，必须编入非助战深巡并上场，其他成员仅可编入4名干员</t>
+          <t>&gt; 战斗中非助战海霓累计使用阻滞性显色剂8次&gt; 3星通关插曲SV-4；必须编入非助战海霓并上场，且不编入其他辅助干员</t>
         </is>
       </c>
     </row>
@@ -9568,7 +9568,7 @@
       </c>
       <c r="E324" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战海霓累计使用阻滞性显色剂8次&gt; 3星通关插曲SV-4；必须编入非助战海霓并上场，且不编入其他辅助干员</t>
+          <t>&gt; 战斗中非助战乌尔比安累计使用必须开辟的通路10次&gt; 3星通关插曲SV-6；必须编入非助战乌尔比安并上场，并使用乌尔比安至少击败2名囊海爬行者</t>
         </is>
       </c>
     </row>
@@ -9595,7 +9595,7 @@
       </c>
       <c r="E325" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战乌尔比安累计使用必须开辟的通路10次&gt; 3星通关插曲SV-6；必须编入非助战乌尔比安并上场，并使用乌尔比安至少击败2名囊海爬行者</t>
+          <t>&gt; 战斗中非助战渡桥累计使用承压功率8次&gt; 3星通关主题曲3-1；必须编入非助战渡桥并上场，且至少使用3次承压功率</t>
         </is>
       </c>
     </row>
@@ -9622,7 +9622,7 @@
       </c>
       <c r="E326" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战渡桥累计使用承压功率8次&gt; 3星通关主题曲3-1；必须编入非助战渡桥并上场，且至少使用3次承压功率</t>
+          <t>&gt; 战斗中累计召唤非助战衡沙的召唤物20回&gt; 3星通关别传DV-2；必须编入非助战衡沙并上场，其他成员仅可编入4名干员</t>
         </is>
       </c>
     </row>
@@ -9649,7 +9649,7 @@
       </c>
       <c r="E327" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中累计召唤非助战衡沙的召唤物20回&gt; 3星通关别传DV-2；必须编入非助战衡沙并上场，其他成员仅可编入4名干员</t>
+          <t>&gt; 战斗中非助战森西累计使用团体魔物大餐6次&gt; 3星通关主题曲1-12；必须编入非助战森西并上场，且所有干员不被击倒</t>
         </is>
       </c>
     </row>
@@ -9676,7 +9676,7 @@
       </c>
       <c r="E328" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战森西累计使用团体魔物大餐6次&gt; 3星通关主题曲1-12；必须编入非助战森西并上场，且所有干员不被击倒</t>
+          <t>&gt; 战斗中非助战齐尔查克累计使用随机应变6次&gt; 3星通关主题曲4-3；必须编入非助战齐尔查克并上场，其他成员不可编入先锋干员</t>
         </is>
       </c>
     </row>
@@ -9703,7 +9703,7 @@
       </c>
       <c r="E329" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战齐尔查克累计使用随机应变6次&gt; 3星通关主题曲4-3；必须编入非助战齐尔查克并上场，其他成员不可编入先锋干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战莱欧斯并上场，且每次战斗至少释放1次威吓战法&gt; 3星通关主题曲2-4；必须编入非助战莱欧斯并上场，并使用莱欧斯至少击败1名高阶术师</t>
         </is>
       </c>
     </row>
@@ -9730,7 +9730,7 @@
       </c>
       <c r="E330" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战莱欧斯并上场，且每次战斗至少释放1次威吓战法&gt; 3星通关主题曲2-4；必须编入非助战莱欧斯并上场，并使用莱欧斯至少击败1名高阶术师</t>
+          <t>&gt; 由非助战玛露西尔累计造成100000点伤害&gt; 3星通关主题曲5-10；必须编入非助战玛露西尔并上场，且使用玛露西尔至少歼灭10名敌人</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -494,7 +494,7 @@
     <row r="1">
       <c r="A1" s="10" t="inlineStr">
         <is>
-          <t>更新日期：2024.10.01 08:00:38</t>
+          <t>更新日期：2024.10.02 13:18:00</t>
         </is>
       </c>
       <c r="E1" s="8" t="inlineStr">
@@ -632,7 +632,7 @@
       </c>
       <c r="D5" s="5" t="inlineStr">
         <is>
-          <t>***maa://20903 (20.0)</t>
+          <t>maa://41855 (100.0)</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="D16" s="5" t="inlineStr">
         <is>
-          <t>maa://20848 (100.0)</t>
+          <t>*maa://20848 (66.67)</t>
         </is>
       </c>
       <c r="E16" s="4" t="inlineStr">
@@ -1535,7 +1535,7 @@
       </c>
       <c r="D28" s="5" t="inlineStr">
         <is>
-          <t>maa://20863 (86.14), maa://20832 (98.11), maa://20727 (100.0)</t>
+          <t>maa://20863 (86.14), maa://20832 (98.15), maa://20727 (100.0)</t>
         </is>
       </c>
       <c r="E28" s="4" t="inlineStr">
@@ -1652,7 +1652,7 @@
       </c>
       <c r="D31" s="5" t="inlineStr">
         <is>
-          <t>maa://36644 (88.18), maa://36866 (96.43), maa://27794 (100.0)</t>
+          <t>maa://36644 (87.5), maa://36866 (96.43), maa://27794 (100.0)</t>
         </is>
       </c>
       <c r="E31" s="4" t="inlineStr">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="D36" s="5" t="inlineStr">
         <is>
-          <t>maa://27376 (86.96), **maa://20838 (50.0), **maa://40163 (40.0)</t>
+          <t>maa://27376 (87.5), **maa://20838 (50.0), **maa://40163 (40.0)</t>
         </is>
       </c>
       <c r="E36" s="4" t="inlineStr">
@@ -2354,7 +2354,7 @@
       </c>
       <c r="D57" s="5" t="inlineStr">
         <is>
-          <t>maa://38298 (80.77)</t>
+          <t>maa://38298 (81.48)</t>
         </is>
       </c>
       <c r="E57" s="4" t="inlineStr">
@@ -2597,7 +2597,7 @@
       </c>
       <c r="D66" s="5" t="inlineStr">
         <is>
-          <t>maa://28784 (93.81), maa://29088 (91.67), maa://20974 (95.0), maa://31124 (95.93), maa://28950 (90.91), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67)</t>
+          <t>maa://28784 (93.82), maa://29088 (91.67), maa://20974 (95.0), maa://31124 (95.93), maa://28950 (90.91), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67)</t>
         </is>
       </c>
       <c r="E66" s="4" t="inlineStr">
@@ -4374,12 +4374,12 @@
       </c>
       <c r="C132" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D132" s="5" t="inlineStr">
         <is>
-          <t>**maa://20915 (50.0)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E132" s="4" t="inlineStr">
@@ -4514,7 +4514,7 @@
       </c>
       <c r="D137" s="5" t="inlineStr">
         <is>
-          <t>maa://28484 (97.01), **maa://23736 (42.19), *maa://31185 (75.0), maa://30306 (100.0)</t>
+          <t>maa://28484 (97.06), **maa://23736 (42.19), *maa://31185 (75.0), maa://30306 (100.0)</t>
         </is>
       </c>
       <c r="E137" s="4" t="inlineStr">
@@ -4541,7 +4541,7 @@
       </c>
       <c r="D138" s="5" t="inlineStr">
         <is>
-          <t>maa://30670 (97.65), maa://31470 (94.44), ***maa://30867 (25.0)</t>
+          <t>maa://30670 (96.55), maa://31470 (94.44), ***maa://30867 (25.0)</t>
         </is>
       </c>
       <c r="E138" s="4" t="inlineStr">
@@ -4703,7 +4703,7 @@
       </c>
       <c r="D144" s="5" t="inlineStr">
         <is>
-          <t>maa://36641 (98.13), maa://36865 (95.28), maa://37300 (100.0)</t>
+          <t>maa://36641 (98.14), maa://36865 (95.28), maa://37300 (100.0)</t>
         </is>
       </c>
       <c r="E144" s="4" t="inlineStr">
@@ -5675,7 +5675,7 @@
       </c>
       <c r="D180" s="5" t="inlineStr">
         <is>
-          <t>maa://34866 (85.0), maa://34714 (95.24)</t>
+          <t>maa://34866 (85.71), maa://34714 (95.45)</t>
         </is>
       </c>
       <c r="E180" s="4" t="inlineStr">
@@ -5864,7 +5864,7 @@
       </c>
       <c r="D187" s="5" t="inlineStr">
         <is>
-          <t>maa://25760 (82.46), *maa://35854 (70.0), *maa://20872 (52.17)</t>
+          <t>maa://25760 (81.03), *maa://35854 (66.67), **maa://20872 (50.0)</t>
         </is>
       </c>
       <c r="E187" s="4" t="inlineStr">
@@ -6836,7 +6836,7 @@
       </c>
       <c r="D223" s="5" t="inlineStr">
         <is>
-          <t>maa://30714 (96.97), maa://30675 (100.0)</t>
+          <t>maa://30714 (97.06), maa://30675 (100.0)</t>
         </is>
       </c>
       <c r="E223" s="4" t="inlineStr">
@@ -6863,7 +6863,7 @@
       </c>
       <c r="D224" s="5" t="inlineStr">
         <is>
-          <t>maa://20922 (92.0), *maa://32623 (58.33), *maa://34242 (80.0), maa://34900 (87.5)</t>
+          <t>maa://20922 (92.16), *maa://32623 (58.33), *maa://34242 (80.0), maa://34900 (87.5)</t>
         </is>
       </c>
       <c r="E224" s="4" t="inlineStr">
@@ -6917,7 +6917,7 @@
       </c>
       <c r="D226" s="5" t="inlineStr">
         <is>
-          <t>*maa://30667 (75.08), maa://30666 (82.8), *maa://26836 (74.63), **maa://30739 (45.71), maa://37607 (91.07), *maa://34428 (67.65), *maa://30723 (50.98), maa://39588 (88.46), *maa://37850 (66.67)</t>
+          <t>*maa://30667 (75.08), maa://30666 (82.8), *maa://26836 (74.63), **maa://30739 (45.71), maa://37607 (91.3), *maa://34428 (67.65), *maa://30723 (50.98), maa://39588 (88.46), *maa://37850 (66.67)</t>
         </is>
       </c>
       <c r="E226" s="4" t="inlineStr">
@@ -7209,12 +7209,12 @@
       </c>
       <c r="C237" s="7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>***maa://40958 (25.0)</t>
         </is>
       </c>
       <c r="E237" s="4" t="inlineStr">
@@ -7565,7 +7565,7 @@
       </c>
       <c r="D250" s="5" t="inlineStr">
         <is>
-          <t>*maa://20825 (69.57), *maa://21445 (76.92), ***maa://20891 (30.0), *maa://35726 (57.14)</t>
+          <t>*maa://20825 (66.67), *maa://21445 (76.92), ***maa://20891 (30.0), *maa://35726 (57.14)</t>
         </is>
       </c>
       <c r="E250" s="4" t="inlineStr">
@@ -7776,12 +7776,12 @@
       </c>
       <c r="C258" s="7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D258" s="5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://41362 (100.0)</t>
         </is>
       </c>
       <c r="E258" s="4" t="inlineStr">
@@ -7997,7 +7997,7 @@
       </c>
       <c r="D266" s="5" t="inlineStr">
         <is>
-          <t>maa://30710 (96.74), maa://36845 (94.74), maa://31558 (96.3), ***maa://39217 (25.0), maa://30668 (83.33)</t>
+          <t>maa://30710 (96.74), maa://36845 (94.81), maa://31558 (96.3), ***maa://39217 (25.0), maa://30668 (83.33)</t>
         </is>
       </c>
       <c r="E266" s="4" t="inlineStr">
@@ -8699,7 +8699,7 @@
       </c>
       <c r="D292" s="5" t="inlineStr">
         <is>
-          <t>maa://39692 (99.31), *maa://39810 (78.57)</t>
+          <t>maa://39692 (99.32), *maa://39810 (78.57)</t>
         </is>
       </c>
       <c r="E292" s="4" t="inlineStr">
@@ -8834,7 +8834,7 @@
       </c>
       <c r="D297" s="5" t="inlineStr">
         <is>
-          <t>**maa://39177 (50.0)</t>
+          <t>**maa://39177 (33.33)</t>
         </is>
       </c>
       <c r="E297" s="4" t="inlineStr">
@@ -9023,7 +9023,7 @@
       </c>
       <c r="D304" s="5" t="inlineStr">
         <is>
-          <t>maa://30671 (80.92), maa://30669 (98.18), maa://37275 (81.82), *maa://32410 (63.64), maa://33671 (100.0), maa://41605 (100.0)</t>
+          <t>maa://30671 (81.06), maa://30669 (98.18), maa://37275 (81.82), *maa://32410 (63.64), maa://33671 (100.0), maa://41605 (100.0)</t>
         </is>
       </c>
       <c r="E304" s="4" t="inlineStr">
@@ -9158,7 +9158,7 @@
       </c>
       <c r="D309" s="5" t="inlineStr">
         <is>
-          <t>maa://32647 (97.06), maa://32415 (96.23), maa://34677 (100.0), maa://32892 (100.0)</t>
+          <t>maa://32647 (97.08), maa://32415 (96.23), maa://34677 (100.0), maa://32892 (100.0)</t>
         </is>
       </c>
       <c r="E309" s="4" t="inlineStr">
@@ -9293,7 +9293,7 @@
       </c>
       <c r="D314" s="5" t="inlineStr">
         <is>
-          <t>maa://34865 (96.38), maa://34717 (94.34)</t>
+          <t>maa://34865 (96.38), maa://34717 (92.59)</t>
         </is>
       </c>
       <c r="E314" s="4" t="inlineStr">
@@ -9428,7 +9428,7 @@
       </c>
       <c r="D319" s="5" t="inlineStr">
         <is>
-          <t>maa://36646 (98.04), maa://36845 (94.74), ***maa://39217 (25.0)</t>
+          <t>maa://36646 (98.06), maa://36845 (94.81), ***maa://39217 (25.0)</t>
         </is>
       </c>
       <c r="E319" s="4" t="inlineStr">
@@ -9563,7 +9563,7 @@
       </c>
       <c r="D324" s="5" t="inlineStr">
         <is>
-          <t>*maa://40957 (71.43), *maa://41128 (72.73), maa://41035 (83.33)</t>
+          <t>*maa://40957 (66.67), *maa://41128 (69.23), maa://41035 (83.33)</t>
         </is>
       </c>
       <c r="E324" s="4" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -494,7 +494,7 @@
     <row r="1">
       <c r="A1" s="10" t="inlineStr">
         <is>
-          <t>更新日期：2024.10.02 13:18:00</t>
+          <t>更新日期：2024.10.03 13:18:27</t>
         </is>
       </c>
       <c r="E1" s="8" t="inlineStr">
@@ -1652,7 +1652,7 @@
       </c>
       <c r="D31" s="5" t="inlineStr">
         <is>
-          <t>maa://36644 (87.5), maa://36866 (96.43), maa://27794 (100.0)</t>
+          <t>maa://36644 (87.61), maa://36866 (96.43), maa://27794 (100.0)</t>
         </is>
       </c>
       <c r="E31" s="4" t="inlineStr">
@@ -1679,7 +1679,7 @@
       </c>
       <c r="D32" s="5" t="inlineStr">
         <is>
-          <t>maa://30500 (98.08), *maa://27290 (70.59)</t>
+          <t>maa://30500 (98.11), *maa://27290 (70.59)</t>
         </is>
       </c>
       <c r="E32" s="4" t="inlineStr">
@@ -2592,12 +2592,12 @@
       </c>
       <c r="C66" s="7" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D66" s="5" t="inlineStr">
         <is>
-          <t>maa://28784 (93.82), maa://29088 (91.67), maa://20974 (95.0), maa://31124 (95.93), maa://28950 (90.91), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67)</t>
+          <t>maa://28784 (93.82), maa://29088 (91.71), maa://20974 (95.0), maa://31124 (96.0), maa://28950 (90.91), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67), maa://41832 (100.0)</t>
         </is>
       </c>
       <c r="E66" s="4" t="inlineStr">
@@ -2678,7 +2678,7 @@
       </c>
       <c r="D69" s="5" t="inlineStr">
         <is>
-          <t>maa://36643 (97.39), maa://36864 (100.0), maa://39140 (100.0)</t>
+          <t>maa://36643 (96.98), maa://36864 (100.0), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E69" s="4" t="inlineStr">
@@ -3623,7 +3623,7 @@
       </c>
       <c r="D104" s="5" t="inlineStr">
         <is>
-          <t>maa://25018 (96.03), maa://25776 (90.16), maa://28361 (96.55), maa://25772 (92.11), *maa://25161 (78.57), maa://32653 (85.71)</t>
+          <t>maa://25018 (96.05), maa://25776 (90.16), maa://28361 (96.55), maa://25772 (92.11), *maa://25161 (78.57), maa://32653 (85.71)</t>
         </is>
       </c>
       <c r="E104" s="4" t="inlineStr">
@@ -4136,7 +4136,7 @@
       </c>
       <c r="D123" s="5" t="inlineStr">
         <is>
-          <t>maa://37484 (92.86), maa://24611 (88.89)</t>
+          <t>maa://37484 (92.86), maa://24611 (89.29)</t>
         </is>
       </c>
       <c r="E123" s="4" t="inlineStr">
@@ -5135,7 +5135,7 @@
       </c>
       <c r="D160" s="5" t="inlineStr">
         <is>
-          <t>maa://29627 (92.45), maa://29633 (91.62), maa://29659 (82.14), maa://29861 (100.0)</t>
+          <t>maa://29627 (92.45), maa://29633 (91.67), maa://29659 (82.14), maa://29861 (100.0)</t>
         </is>
       </c>
       <c r="E160" s="4" t="inlineStr">
@@ -5864,7 +5864,7 @@
       </c>
       <c r="D187" s="5" t="inlineStr">
         <is>
-          <t>maa://25760 (81.03), *maa://35854 (66.67), **maa://20872 (50.0)</t>
+          <t>maa://25760 (81.67), *maa://35854 (68.18), **maa://20872 (50.0)</t>
         </is>
       </c>
       <c r="E187" s="4" t="inlineStr">
@@ -5891,7 +5891,7 @@
       </c>
       <c r="D188" s="5" t="inlineStr">
         <is>
-          <t>**maa://38297 (38.46), maa://39156 (100.0), maa://39550 (100.0)</t>
+          <t>**maa://38297 (38.46), maa://39156 (88.89), maa://39550 (100.0)</t>
         </is>
       </c>
       <c r="E188" s="4" t="inlineStr">
@@ -5918,7 +5918,7 @@
       </c>
       <c r="D189" s="5" t="inlineStr">
         <is>
-          <t>maa://27823 (80.77), *maa://28190 (56.67), maa://22894 (90.62), *maa://20906 (72.22), **maa://20907 (33.33)</t>
+          <t>maa://27823 (81.13), *maa://28190 (56.67), maa://22894 (90.62), *maa://20906 (72.22), **maa://20907 (33.33)</t>
         </is>
       </c>
       <c r="E189" s="4" t="inlineStr">
@@ -5945,7 +5945,7 @@
       </c>
       <c r="D190" s="5" t="inlineStr">
         <is>
-          <t>maa://27823 (80.77), *maa://28190 (56.67), maa://22894 (90.62), *maa://20906 (72.22), **maa://20907 (33.33)</t>
+          <t>maa://27823 (81.13), *maa://28190 (56.67), maa://22894 (90.62), *maa://20906 (72.22), **maa://20907 (33.33)</t>
         </is>
       </c>
       <c r="E190" s="4" t="inlineStr">
@@ -6242,7 +6242,7 @@
       </c>
       <c r="D201" s="5" t="inlineStr">
         <is>
-          <t>maa://39238 (98.75)</t>
+          <t>maa://39238 (98.78)</t>
         </is>
       </c>
       <c r="E201" s="4" t="inlineStr">
@@ -6593,7 +6593,7 @@
       </c>
       <c r="D214" s="5" t="inlineStr">
         <is>
-          <t>maa://20987 (91.04), *maa://35801 (75.0)</t>
+          <t>maa://20987 (91.18), *maa://35801 (75.0)</t>
         </is>
       </c>
       <c r="E214" s="4" t="inlineStr">
@@ -6917,7 +6917,7 @@
       </c>
       <c r="D226" s="5" t="inlineStr">
         <is>
-          <t>*maa://30667 (75.08), maa://30666 (82.8), *maa://26836 (74.63), **maa://30739 (45.71), maa://37607 (91.3), *maa://34428 (67.65), *maa://30723 (50.98), maa://39588 (88.46), *maa://37850 (66.67)</t>
+          <t>*maa://30667 (75.08), maa://30666 (82.8), *maa://26836 (74.81), **maa://30739 (45.71), maa://37607 (91.45), *maa://34428 (67.65), *maa://30723 (50.98), maa://39588 (88.46), *maa://37850 (66.67)</t>
         </is>
       </c>
       <c r="E226" s="4" t="inlineStr">
@@ -7106,7 +7106,7 @@
       </c>
       <c r="D233" s="5" t="inlineStr">
         <is>
-          <t>maa://28923 (91.28), maa://28906 (96.88), ***maa://28825 (12.0)</t>
+          <t>maa://28923 (91.28), maa://28906 (96.97), ***maa://28825 (12.0)</t>
         </is>
       </c>
       <c r="E233" s="4" t="inlineStr">
@@ -7997,7 +7997,7 @@
       </c>
       <c r="D266" s="5" t="inlineStr">
         <is>
-          <t>maa://30710 (96.74), maa://36845 (94.81), maa://31558 (96.3), ***maa://39217 (25.0), maa://30668 (83.33)</t>
+          <t>maa://30710 (96.77), maa://36845 (93.59), maa://31558 (96.3), ***maa://39217 (25.0), maa://30668 (83.33)</t>
         </is>
       </c>
       <c r="E266" s="4" t="inlineStr">
@@ -9023,7 +9023,7 @@
       </c>
       <c r="D304" s="5" t="inlineStr">
         <is>
-          <t>maa://30671 (81.06), maa://30669 (98.18), maa://37275 (81.82), *maa://32410 (63.64), maa://33671 (100.0), maa://41605 (100.0)</t>
+          <t>maa://30671 (81.2), maa://30669 (98.18), maa://37275 (81.82), *maa://32410 (63.64), maa://33671 (100.0), maa://41605 (100.0)</t>
         </is>
       </c>
       <c r="E304" s="4" t="inlineStr">
@@ -9428,7 +9428,7 @@
       </c>
       <c r="D319" s="5" t="inlineStr">
         <is>
-          <t>maa://36646 (98.06), maa://36845 (94.81), ***maa://39217 (25.0)</t>
+          <t>maa://36646 (98.08), maa://36845 (93.59), ***maa://39217 (25.0)</t>
         </is>
       </c>
       <c r="E319" s="4" t="inlineStr">
@@ -9563,7 +9563,7 @@
       </c>
       <c r="D324" s="5" t="inlineStr">
         <is>
-          <t>*maa://40957 (66.67), *maa://41128 (69.23), maa://41035 (83.33)</t>
+          <t>*maa://40957 (68.75), *maa://41128 (69.23), *maa://41035 (71.43)</t>
         </is>
       </c>
       <c r="E324" s="4" t="inlineStr">
@@ -9725,7 +9725,7 @@
       </c>
       <c r="D330" s="5" t="inlineStr">
         <is>
-          <t>maa://41110 (95.65)</t>
+          <t>maa://41110 (95.83)</t>
         </is>
       </c>
       <c r="E330" s="4" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -494,7 +494,7 @@
     <row r="1">
       <c r="A1" s="10" t="inlineStr">
         <is>
-          <t>更新日期：2024.10.03 13:18:27</t>
+          <t>更新日期：2024.10.06 13:17:02</t>
         </is>
       </c>
       <c r="E1" s="8" t="inlineStr">
@@ -832,7 +832,7 @@
       </c>
       <c r="D10" s="5" t="inlineStr">
         <is>
-          <t>maa://20888 (83.33)</t>
+          <t>maa://20888 (85.71)</t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="D26" s="5" t="inlineStr">
         <is>
-          <t>*maa://20849 (60.0), *maa://28758 (53.57), maa://29036 (93.75), maa://30285 (100.0)</t>
+          <t>*maa://20849 (60.0), *maa://28758 (53.57), maa://29036 (94.12), maa://30285 (100.0)</t>
         </is>
       </c>
       <c r="E26" s="4" t="inlineStr">
@@ -1535,7 +1535,7 @@
       </c>
       <c r="D28" s="5" t="inlineStr">
         <is>
-          <t>maa://20863 (86.14), maa://20832 (98.15), maa://20727 (100.0)</t>
+          <t>maa://20863 (86.31), maa://20832 (98.15), maa://20727 (100.0)</t>
         </is>
       </c>
       <c r="E28" s="4" t="inlineStr">
@@ -1652,7 +1652,7 @@
       </c>
       <c r="D31" s="5" t="inlineStr">
         <is>
-          <t>maa://36644 (87.61), maa://36866 (96.43), maa://27794 (100.0)</t>
+          <t>maa://36644 (87.72), maa://36866 (96.43), maa://27794 (100.0)</t>
         </is>
       </c>
       <c r="E31" s="4" t="inlineStr">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="D36" s="5" t="inlineStr">
         <is>
-          <t>maa://27376 (87.5), **maa://20838 (50.0), **maa://40163 (40.0)</t>
+          <t>maa://27376 (88.0), **maa://20838 (50.0), **maa://40163 (36.36)</t>
         </is>
       </c>
       <c r="E36" s="4" t="inlineStr">
@@ -1895,7 +1895,7 @@
       </c>
       <c r="D40" s="5" t="inlineStr">
         <is>
-          <t>*maa://20892 (76.47)</t>
+          <t>*maa://20892 (76.81)</t>
         </is>
       </c>
       <c r="E40" s="4" t="inlineStr">
@@ -2489,7 +2489,7 @@
       </c>
       <c r="D62" s="5" t="inlineStr">
         <is>
-          <t>maa://28567 (97.14), **maa://20947 (44.12), maa://30525 (100.0), *maa://28188 (75.0), maa://38735 (100.0), maa://30524 (100.0)</t>
+          <t>maa://28567 (97.22), **maa://20947 (44.12), maa://30525 (100.0), *maa://28188 (75.0), maa://38735 (100.0), maa://30524 (100.0)</t>
         </is>
       </c>
       <c r="E62" s="4" t="inlineStr">
@@ -2570,7 +2570,7 @@
       </c>
       <c r="D65" s="5" t="inlineStr">
         <is>
-          <t>maa://20976 (97.5), maa://20815 (100.0)</t>
+          <t>maa://20976 (97.52), maa://20815 (100.0)</t>
         </is>
       </c>
       <c r="E65" s="4" t="inlineStr">
@@ -2597,7 +2597,7 @@
       </c>
       <c r="D66" s="5" t="inlineStr">
         <is>
-          <t>maa://28784 (93.82), maa://29088 (91.71), maa://20974 (95.0), maa://31124 (96.0), maa://28950 (90.91), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67), maa://41832 (100.0)</t>
+          <t>maa://28784 (93.82), maa://29088 (91.71), maa://20974 (95.24), maa://31124 (96.06), maa://28950 (90.91), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67), *maa://41832 (80.0)</t>
         </is>
       </c>
       <c r="E66" s="4" t="inlineStr">
@@ -2678,7 +2678,7 @@
       </c>
       <c r="D69" s="5" t="inlineStr">
         <is>
-          <t>maa://36643 (96.98), maa://36864 (100.0), maa://39140 (100.0)</t>
+          <t>maa://36643 (97.11), maa://36864 (100.0), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E69" s="4" t="inlineStr">
@@ -3137,7 +3137,7 @@
       </c>
       <c r="D86" s="5" t="inlineStr">
         <is>
-          <t>*maa://28190 (56.67), maa://20880 (88.89)</t>
+          <t>*maa://28190 (56.67), maa://20880 (89.47)</t>
         </is>
       </c>
       <c r="E86" s="4" t="inlineStr">
@@ -3623,7 +3623,7 @@
       </c>
       <c r="D104" s="5" t="inlineStr">
         <is>
-          <t>maa://25018 (96.05), maa://25776 (90.16), maa://28361 (96.55), maa://25772 (92.11), *maa://25161 (78.57), maa://32653 (85.71)</t>
+          <t>maa://25018 (96.11), maa://25776 (90.32), maa://28361 (96.55), maa://25772 (92.11), *maa://25161 (78.57), maa://32653 (85.71)</t>
         </is>
       </c>
       <c r="E104" s="4" t="inlineStr">
@@ -3650,7 +3650,7 @@
       </c>
       <c r="D105" s="5" t="inlineStr">
         <is>
-          <t>*maa://20979 (66.67)</t>
+          <t>**maa://20979 (50.0)</t>
         </is>
       </c>
       <c r="E105" s="4" t="inlineStr">
@@ -3812,7 +3812,7 @@
       </c>
       <c r="D111" s="5" t="inlineStr">
         <is>
-          <t>maa://20908 (98.17), *maa://23346 (77.78), maa://35723 (96.97), maa://38822 (100.0)</t>
+          <t>maa://20908 (98.19), *maa://23346 (77.78), maa://35723 (96.97), maa://38822 (100.0)</t>
         </is>
       </c>
       <c r="E111" s="4" t="inlineStr">
@@ -4136,7 +4136,7 @@
       </c>
       <c r="D123" s="5" t="inlineStr">
         <is>
-          <t>maa://37484 (92.86), maa://24611 (89.29)</t>
+          <t>maa://37484 (93.02), maa://24611 (89.29)</t>
         </is>
       </c>
       <c r="E123" s="4" t="inlineStr">
@@ -4190,7 +4190,7 @@
       </c>
       <c r="D125" s="5" t="inlineStr">
         <is>
-          <t>maa://21422 (98.36)</t>
+          <t>maa://21422 (98.39)</t>
         </is>
       </c>
       <c r="E125" s="4" t="inlineStr">
@@ -4514,7 +4514,7 @@
       </c>
       <c r="D137" s="5" t="inlineStr">
         <is>
-          <t>maa://28484 (97.06), **maa://23736 (42.19), *maa://31185 (75.0), maa://30306 (100.0)</t>
+          <t>maa://28484 (97.1), **maa://23736 (42.19), *maa://31185 (75.0), maa://30306 (100.0)</t>
         </is>
       </c>
       <c r="E137" s="4" t="inlineStr">
@@ -4703,7 +4703,7 @@
       </c>
       <c r="D144" s="5" t="inlineStr">
         <is>
-          <t>maa://36641 (98.14), maa://36865 (95.28), maa://37300 (100.0)</t>
+          <t>maa://36641 (98.15), maa://36865 (95.33), maa://37300 (100.0)</t>
         </is>
       </c>
       <c r="E144" s="4" t="inlineStr">
@@ -5135,7 +5135,7 @@
       </c>
       <c r="D160" s="5" t="inlineStr">
         <is>
-          <t>maa://29627 (92.45), maa://29633 (91.67), maa://29659 (82.14), maa://29861 (100.0)</t>
+          <t>maa://29627 (92.5), maa://29633 (91.76), maa://29659 (82.14), maa://29861 (100.0)</t>
         </is>
       </c>
       <c r="E160" s="4" t="inlineStr">
@@ -5864,7 +5864,7 @@
       </c>
       <c r="D187" s="5" t="inlineStr">
         <is>
-          <t>maa://25760 (81.67), *maa://35854 (68.18), **maa://20872 (50.0)</t>
+          <t>maa://25760 (81.97), *maa://35854 (68.0), **maa://20872 (50.0)</t>
         </is>
       </c>
       <c r="E187" s="4" t="inlineStr">
@@ -6161,7 +6161,7 @@
       </c>
       <c r="D198" s="5" t="inlineStr">
         <is>
-          <t>maa://28133 (89.74), *maa://28277 (79.17), maa://25369 (92.31), ***maa://39217 (25.0), *maa://33132 (66.67)</t>
+          <t>maa://28133 (89.74), *maa://28277 (79.17), maa://25369 (92.59), ***maa://39217 (22.22), *maa://33132 (66.67)</t>
         </is>
       </c>
       <c r="E198" s="4" t="inlineStr">
@@ -6593,7 +6593,7 @@
       </c>
       <c r="D214" s="5" t="inlineStr">
         <is>
-          <t>maa://20987 (91.18), *maa://35801 (75.0)</t>
+          <t>maa://20987 (91.3), *maa://35801 (75.0)</t>
         </is>
       </c>
       <c r="E214" s="4" t="inlineStr">
@@ -6809,7 +6809,7 @@
       </c>
       <c r="D222" s="5" t="inlineStr">
         <is>
-          <t>maa://20917 (96.97)</t>
+          <t>maa://20917 (97.06)</t>
         </is>
       </c>
       <c r="E222" s="4" t="inlineStr">
@@ -6917,7 +6917,7 @@
       </c>
       <c r="D226" s="5" t="inlineStr">
         <is>
-          <t>*maa://30667 (75.08), maa://30666 (82.8), *maa://26836 (74.81), **maa://30739 (45.71), maa://37607 (91.45), *maa://34428 (67.65), *maa://30723 (50.98), maa://39588 (88.46), *maa://37850 (66.67)</t>
+          <t>*maa://30667 (75.23), maa://30666 (82.98), *maa://26836 (74.81), **maa://30739 (45.71), maa://37607 (91.6), *maa://34428 (67.14), *maa://30723 (50.98), maa://39588 (85.19), *maa://37850 (66.67)</t>
         </is>
       </c>
       <c r="E226" s="4" t="inlineStr">
@@ -7106,7 +7106,7 @@
       </c>
       <c r="D233" s="5" t="inlineStr">
         <is>
-          <t>maa://28923 (91.28), maa://28906 (96.97), ***maa://28825 (12.0)</t>
+          <t>maa://28923 (91.39), maa://28906 (96.97), ***maa://28825 (12.0)</t>
         </is>
       </c>
       <c r="E233" s="4" t="inlineStr">
@@ -7187,7 +7187,7 @@
       </c>
       <c r="D236" s="5" t="inlineStr">
         <is>
-          <t>maa://24093 (100.0), maa://31559 (93.75), maa://20924 (94.12)</t>
+          <t>maa://24093 (100.0), maa://31559 (93.75), maa://20924 (94.44)</t>
         </is>
       </c>
       <c r="E236" s="4" t="inlineStr">
@@ -7214,7 +7214,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>***maa://40958 (25.0)</t>
+          <t>**maa://40958 (40.0)</t>
         </is>
       </c>
       <c r="E237" s="4" t="inlineStr">
@@ -7565,7 +7565,7 @@
       </c>
       <c r="D250" s="5" t="inlineStr">
         <is>
-          <t>*maa://20825 (66.67), *maa://21445 (76.92), ***maa://20891 (30.0), *maa://35726 (57.14)</t>
+          <t>*maa://20825 (66.67), *maa://21445 (76.92), ***maa://20891 (30.0), *maa://35726 (62.5)</t>
         </is>
       </c>
       <c r="E250" s="4" t="inlineStr">
@@ -7943,7 +7943,7 @@
       </c>
       <c r="D264" s="5" t="inlineStr">
         <is>
-          <t>maa://20899 (91.24)</t>
+          <t>maa://20899 (90.71)</t>
         </is>
       </c>
       <c r="E264" s="4" t="inlineStr">
@@ -7997,7 +7997,7 @@
       </c>
       <c r="D266" s="5" t="inlineStr">
         <is>
-          <t>maa://30710 (96.77), maa://36845 (93.59), maa://31558 (96.3), ***maa://39217 (25.0), maa://30668 (83.33)</t>
+          <t>maa://30710 (96.81), maa://36845 (93.59), maa://31558 (96.3), ***maa://39217 (22.22), maa://30668 (83.33)</t>
         </is>
       </c>
       <c r="E266" s="4" t="inlineStr">
@@ -8078,7 +8078,7 @@
       </c>
       <c r="D269" s="5" t="inlineStr">
         <is>
-          <t>maa://25774 (100.0), maa://28133 (89.74), maa://22469 (90.91), ***maa://39217 (25.0), **maa://31349 (50.0)</t>
+          <t>maa://25774 (100.0), maa://28133 (89.74), maa://22469 (90.91), ***maa://39217 (22.22), **maa://31349 (50.0)</t>
         </is>
       </c>
       <c r="E269" s="4" t="inlineStr">
@@ -8699,7 +8699,7 @@
       </c>
       <c r="D292" s="5" t="inlineStr">
         <is>
-          <t>maa://39692 (99.32), *maa://39810 (78.57)</t>
+          <t>maa://39692 (99.35), *maa://39810 (78.57)</t>
         </is>
       </c>
       <c r="E292" s="4" t="inlineStr">
@@ -8942,7 +8942,7 @@
       </c>
       <c r="D301" s="5" t="inlineStr">
         <is>
-          <t>*maa://34205 (80.0)</t>
+          <t>maa://34205 (83.33)</t>
         </is>
       </c>
       <c r="E301" s="4" t="inlineStr">
@@ -9023,7 +9023,7 @@
       </c>
       <c r="D304" s="5" t="inlineStr">
         <is>
-          <t>maa://30671 (81.2), maa://30669 (98.18), maa://37275 (81.82), *maa://32410 (63.64), maa://33671 (100.0), maa://41605 (100.0)</t>
+          <t>maa://30671 (81.34), maa://30669 (98.18), maa://37275 (81.82), *maa://32410 (63.64), maa://33671 (100.0), maa://41605 (100.0)</t>
         </is>
       </c>
       <c r="E304" s="4" t="inlineStr">
@@ -9050,7 +9050,7 @@
       </c>
       <c r="D305" s="5" t="inlineStr">
         <is>
-          <t>maa://38295 (94.74)</t>
+          <t>maa://38295 (94.87)</t>
         </is>
       </c>
       <c r="E305" s="4" t="inlineStr">
@@ -9158,7 +9158,7 @@
       </c>
       <c r="D309" s="5" t="inlineStr">
         <is>
-          <t>maa://32647 (97.08), maa://32415 (96.23), maa://34677 (100.0), maa://32892 (100.0)</t>
+          <t>maa://32647 (96.84), maa://32415 (96.26), maa://34677 (100.0), maa://32892 (100.0)</t>
         </is>
       </c>
       <c r="E309" s="4" t="inlineStr">
@@ -9374,7 +9374,7 @@
       </c>
       <c r="D317" s="5" t="inlineStr">
         <is>
-          <t>maa://36868 (100.0), maa://35996 (94.29), ***maa://39217 (25.0)</t>
+          <t>maa://36868 (100.0), maa://35996 (94.44), ***maa://39217 (22.22)</t>
         </is>
       </c>
       <c r="E317" s="4" t="inlineStr">
@@ -9428,7 +9428,7 @@
       </c>
       <c r="D319" s="5" t="inlineStr">
         <is>
-          <t>maa://36646 (98.08), maa://36845 (93.59), ***maa://39217 (25.0)</t>
+          <t>maa://36646 (98.1), maa://36845 (93.59), ***maa://39217 (22.22)</t>
         </is>
       </c>
       <c r="E319" s="4" t="inlineStr">
@@ -9455,7 +9455,7 @@
       </c>
       <c r="D320" s="5" t="inlineStr">
         <is>
-          <t>maa://36645 (98.18), maa://36841 (93.18), maa://37484 (92.86), maa://37858 (90.91)</t>
+          <t>maa://36645 (98.19), maa://36841 (93.33), maa://37484 (93.02), maa://37858 (90.91)</t>
         </is>
       </c>
       <c r="E320" s="4" t="inlineStr">
@@ -9563,7 +9563,7 @@
       </c>
       <c r="D324" s="5" t="inlineStr">
         <is>
-          <t>*maa://40957 (68.75), *maa://41128 (69.23), *maa://41035 (71.43)</t>
+          <t>*maa://40957 (71.43), *maa://41128 (69.23), *maa://41035 (71.43)</t>
         </is>
       </c>
       <c r="E324" s="4" t="inlineStr">
@@ -9725,7 +9725,7 @@
       </c>
       <c r="D330" s="5" t="inlineStr">
         <is>
-          <t>maa://41110 (95.83)</t>
+          <t>maa://41110 (96.0)</t>
         </is>
       </c>
       <c r="E330" s="4" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -494,7 +494,7 @@
     <row r="1">
       <c r="A1" s="10" t="inlineStr">
         <is>
-          <t>更新日期：2024.10.06 13:17:02</t>
+          <t>更新日期：2024.10.07 09:07:26</t>
         </is>
       </c>
       <c r="E1" s="8" t="inlineStr">
@@ -1652,7 +1652,7 @@
       </c>
       <c r="D31" s="5" t="inlineStr">
         <is>
-          <t>maa://36644 (87.72), maa://36866 (96.43), maa://27794 (100.0)</t>
+          <t>maa://36644 (87.72), maa://36866 (96.55), maa://27794 (100.0)</t>
         </is>
       </c>
       <c r="E31" s="4" t="inlineStr">
@@ -1679,7 +1679,7 @@
       </c>
       <c r="D32" s="5" t="inlineStr">
         <is>
-          <t>maa://30500 (98.11), *maa://27290 (70.59)</t>
+          <t>maa://30500 (98.15), *maa://27290 (70.59)</t>
         </is>
       </c>
       <c r="E32" s="4" t="inlineStr">
@@ -2597,7 +2597,7 @@
       </c>
       <c r="D66" s="5" t="inlineStr">
         <is>
-          <t>maa://28784 (93.82), maa://29088 (91.71), maa://20974 (95.24), maa://31124 (96.06), maa://28950 (90.91), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67), *maa://41832 (80.0)</t>
+          <t>maa://28784 (93.82), maa://29088 (91.71), maa://20974 (95.24), maa://31124 (96.06), maa://28950 (90.91), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67), *maa://41832 (71.43)</t>
         </is>
       </c>
       <c r="E66" s="4" t="inlineStr">
@@ -2678,7 +2678,7 @@
       </c>
       <c r="D69" s="5" t="inlineStr">
         <is>
-          <t>maa://36643 (97.11), maa://36864 (100.0), maa://39140 (100.0)</t>
+          <t>maa://36643 (97.12), maa://36864 (100.0), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E69" s="4" t="inlineStr">
@@ -4433,7 +4433,7 @@
       </c>
       <c r="D134" s="5" t="inlineStr">
         <is>
-          <t>*maa://30679 (52.63)</t>
+          <t>**maa://30679 (50.0)</t>
         </is>
       </c>
       <c r="E134" s="4" t="inlineStr">
@@ -4568,7 +4568,7 @@
       </c>
       <c r="D139" s="5" t="inlineStr">
         <is>
-          <t>maa://20971 (100.0)</t>
+          <t>*maa://20971 (75.0)</t>
         </is>
       </c>
       <c r="E139" s="4" t="inlineStr">
@@ -6269,7 +6269,7 @@
       </c>
       <c r="D202" s="5" t="inlineStr">
         <is>
-          <t>**maa://24556 (50.0)</t>
+          <t>**maa://24556 (33.33)</t>
         </is>
       </c>
       <c r="E202" s="4" t="inlineStr">
@@ -6809,7 +6809,7 @@
       </c>
       <c r="D222" s="5" t="inlineStr">
         <is>
-          <t>maa://20917 (97.06)</t>
+          <t>maa://20917 (97.14)</t>
         </is>
       </c>
       <c r="E222" s="4" t="inlineStr">
@@ -6863,7 +6863,7 @@
       </c>
       <c r="D224" s="5" t="inlineStr">
         <is>
-          <t>maa://20922 (92.16), *maa://32623 (58.33), *maa://34242 (80.0), maa://34900 (87.5)</t>
+          <t>maa://20922 (92.31), *maa://32623 (58.33), *maa://34242 (80.0), maa://34900 (87.5)</t>
         </is>
       </c>
       <c r="E224" s="4" t="inlineStr">
@@ -6917,7 +6917,7 @@
       </c>
       <c r="D226" s="5" t="inlineStr">
         <is>
-          <t>*maa://30667 (75.23), maa://30666 (82.98), *maa://26836 (74.81), **maa://30739 (45.71), maa://37607 (91.6), *maa://34428 (67.14), *maa://30723 (50.98), maa://39588 (85.19), *maa://37850 (66.67)</t>
+          <t>*maa://30667 (75.31), maa://30666 (83.07), *maa://26836 (74.81), **maa://30739 (45.71), maa://37607 (91.67), *maa://34428 (67.14), *maa://30723 (50.98), maa://39588 (85.19), *maa://37850 (66.67)</t>
         </is>
       </c>
       <c r="E226" s="4" t="inlineStr">
@@ -7943,7 +7943,7 @@
       </c>
       <c r="D264" s="5" t="inlineStr">
         <is>
-          <t>maa://20899 (90.71)</t>
+          <t>maa://20899 (90.07)</t>
         </is>
       </c>
       <c r="E264" s="4" t="inlineStr">
@@ -9023,7 +9023,7 @@
       </c>
       <c r="D304" s="5" t="inlineStr">
         <is>
-          <t>maa://30671 (81.34), maa://30669 (98.18), maa://37275 (81.82), *maa://32410 (63.64), maa://33671 (100.0), maa://41605 (100.0)</t>
+          <t>maa://30671 (81.34), maa://30669 (98.18), maa://37275 (81.82), *maa://32410 (63.64), maa://41605 (100.0), maa://33671 (100.0)</t>
         </is>
       </c>
       <c r="E304" s="4" t="inlineStr">
@@ -9158,7 +9158,7 @@
       </c>
       <c r="D309" s="5" t="inlineStr">
         <is>
-          <t>maa://32647 (96.84), maa://32415 (96.26), maa://34677 (100.0), maa://32892 (100.0)</t>
+          <t>maa://32647 (96.85), maa://32415 (96.26), maa://34677 (100.0), maa://32892 (100.0)</t>
         </is>
       </c>
       <c r="E309" s="4" t="inlineStr">
@@ -9428,7 +9428,7 @@
       </c>
       <c r="D319" s="5" t="inlineStr">
         <is>
-          <t>maa://36646 (98.1), maa://36845 (93.59), ***maa://39217 (22.22)</t>
+          <t>maa://36646 (98.11), maa://36845 (93.59), ***maa://39217 (22.22)</t>
         </is>
       </c>
       <c r="E319" s="4" t="inlineStr">
@@ -9563,7 +9563,7 @@
       </c>
       <c r="D324" s="5" t="inlineStr">
         <is>
-          <t>*maa://40957 (71.43), *maa://41128 (69.23), *maa://41035 (71.43)</t>
+          <t>*maa://40957 (72.73), *maa://41128 (69.23), *maa://41035 (75.0)</t>
         </is>
       </c>
       <c r="E324" s="4" t="inlineStr">
@@ -9725,7 +9725,7 @@
       </c>
       <c r="D330" s="5" t="inlineStr">
         <is>
-          <t>maa://41110 (96.0)</t>
+          <t>maa://41110 (96.15)</t>
         </is>
       </c>
       <c r="E330" s="4" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -494,7 +494,7 @@
     <row r="1">
       <c r="A1" s="10" t="inlineStr">
         <is>
-          <t>更新日期：2024.10.06 13:17:02</t>
+          <t>更新日期：2024.10.07 09:14:47</t>
         </is>
       </c>
       <c r="E1" s="8" t="inlineStr">
@@ -1652,7 +1652,7 @@
       </c>
       <c r="D31" s="5" t="inlineStr">
         <is>
-          <t>maa://36644 (87.72), maa://36866 (96.43), maa://27794 (100.0)</t>
+          <t>maa://36644 (87.72), maa://36866 (96.55), maa://27794 (100.0)</t>
         </is>
       </c>
       <c r="E31" s="4" t="inlineStr">
@@ -1679,7 +1679,7 @@
       </c>
       <c r="D32" s="5" t="inlineStr">
         <is>
-          <t>maa://30500 (98.11), *maa://27290 (70.59)</t>
+          <t>maa://30500 (98.15), *maa://27290 (70.59)</t>
         </is>
       </c>
       <c r="E32" s="4" t="inlineStr">
@@ -2597,7 +2597,7 @@
       </c>
       <c r="D66" s="5" t="inlineStr">
         <is>
-          <t>maa://28784 (93.82), maa://29088 (91.71), maa://20974 (95.24), maa://31124 (96.06), maa://28950 (90.91), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67), *maa://41832 (80.0)</t>
+          <t>maa://28784 (93.82), maa://29088 (91.71), maa://20974 (95.24), maa://31124 (96.06), maa://28950 (90.91), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67), *maa://41832 (71.43)</t>
         </is>
       </c>
       <c r="E66" s="4" t="inlineStr">
@@ -2678,7 +2678,7 @@
       </c>
       <c r="D69" s="5" t="inlineStr">
         <is>
-          <t>maa://36643 (97.11), maa://36864 (100.0), maa://39140 (100.0)</t>
+          <t>maa://36643 (97.12), maa://36864 (100.0), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E69" s="4" t="inlineStr">
@@ -4433,7 +4433,7 @@
       </c>
       <c r="D134" s="5" t="inlineStr">
         <is>
-          <t>*maa://30679 (52.63)</t>
+          <t>**maa://30679 (50.0)</t>
         </is>
       </c>
       <c r="E134" s="4" t="inlineStr">
@@ -4568,7 +4568,7 @@
       </c>
       <c r="D139" s="5" t="inlineStr">
         <is>
-          <t>maa://20971 (100.0)</t>
+          <t>*maa://20971 (75.0)</t>
         </is>
       </c>
       <c r="E139" s="4" t="inlineStr">
@@ -6269,7 +6269,7 @@
       </c>
       <c r="D202" s="5" t="inlineStr">
         <is>
-          <t>**maa://24556 (50.0)</t>
+          <t>**maa://24556 (33.33)</t>
         </is>
       </c>
       <c r="E202" s="4" t="inlineStr">
@@ -6809,7 +6809,7 @@
       </c>
       <c r="D222" s="5" t="inlineStr">
         <is>
-          <t>maa://20917 (97.06)</t>
+          <t>maa://20917 (97.14)</t>
         </is>
       </c>
       <c r="E222" s="4" t="inlineStr">
@@ -6863,7 +6863,7 @@
       </c>
       <c r="D224" s="5" t="inlineStr">
         <is>
-          <t>maa://20922 (92.16), *maa://32623 (58.33), *maa://34242 (80.0), maa://34900 (87.5)</t>
+          <t>maa://20922 (92.31), *maa://32623 (58.33), *maa://34242 (80.0), maa://34900 (87.5)</t>
         </is>
       </c>
       <c r="E224" s="4" t="inlineStr">
@@ -6917,7 +6917,7 @@
       </c>
       <c r="D226" s="5" t="inlineStr">
         <is>
-          <t>*maa://30667 (75.23), maa://30666 (82.98), *maa://26836 (74.81), **maa://30739 (45.71), maa://37607 (91.6), *maa://34428 (67.14), *maa://30723 (50.98), maa://39588 (85.19), *maa://37850 (66.67)</t>
+          <t>*maa://30667 (75.31), maa://30666 (83.07), *maa://26836 (74.81), **maa://30739 (45.71), maa://37607 (91.67), *maa://34428 (67.14), *maa://30723 (50.98), maa://39588 (85.19), *maa://37850 (66.67)</t>
         </is>
       </c>
       <c r="E226" s="4" t="inlineStr">
@@ -7943,7 +7943,7 @@
       </c>
       <c r="D264" s="5" t="inlineStr">
         <is>
-          <t>maa://20899 (90.71)</t>
+          <t>maa://20899 (90.07)</t>
         </is>
       </c>
       <c r="E264" s="4" t="inlineStr">
@@ -9023,7 +9023,7 @@
       </c>
       <c r="D304" s="5" t="inlineStr">
         <is>
-          <t>maa://30671 (81.34), maa://30669 (98.18), maa://37275 (81.82), *maa://32410 (63.64), maa://33671 (100.0), maa://41605 (100.0)</t>
+          <t>maa://30671 (81.34), maa://30669 (98.18), maa://37275 (81.82), *maa://32410 (63.64), maa://41605 (100.0), maa://33671 (100.0)</t>
         </is>
       </c>
       <c r="E304" s="4" t="inlineStr">
@@ -9158,7 +9158,7 @@
       </c>
       <c r="D309" s="5" t="inlineStr">
         <is>
-          <t>maa://32647 (96.84), maa://32415 (96.26), maa://34677 (100.0), maa://32892 (100.0)</t>
+          <t>maa://32647 (96.85), maa://32415 (96.26), maa://34677 (100.0), maa://32892 (100.0)</t>
         </is>
       </c>
       <c r="E309" s="4" t="inlineStr">
@@ -9428,7 +9428,7 @@
       </c>
       <c r="D319" s="5" t="inlineStr">
         <is>
-          <t>maa://36646 (98.1), maa://36845 (93.59), ***maa://39217 (22.22)</t>
+          <t>maa://36646 (98.11), maa://36845 (93.59), ***maa://39217 (22.22)</t>
         </is>
       </c>
       <c r="E319" s="4" t="inlineStr">
@@ -9563,7 +9563,7 @@
       </c>
       <c r="D324" s="5" t="inlineStr">
         <is>
-          <t>*maa://40957 (71.43), *maa://41128 (69.23), *maa://41035 (71.43)</t>
+          <t>*maa://40957 (72.73), *maa://41128 (69.23), *maa://41035 (75.0)</t>
         </is>
       </c>
       <c r="E324" s="4" t="inlineStr">
@@ -9725,7 +9725,7 @@
       </c>
       <c r="D330" s="5" t="inlineStr">
         <is>
-          <t>maa://41110 (96.0)</t>
+          <t>maa://41110 (96.15)</t>
         </is>
       </c>
       <c r="E330" s="4" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB330"/>
+  <dimension ref="A1:AB337"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -494,7 +494,7 @@
     <row r="1">
       <c r="A1" s="10" t="inlineStr">
         <is>
-          <t>更新日期：2024.10.06 13:17:02</t>
+          <t>更新日期：2024.10.09 13:19:18</t>
         </is>
       </c>
       <c r="E1" s="8" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="D6" s="5" t="inlineStr">
         <is>
-          <t>maa://20925 (83.33)</t>
+          <t>maa://20925 (85.71)</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="D15" s="5" t="inlineStr">
         <is>
-          <t>maa://20919 (100.0), **maa://24873 (50.0)</t>
+          <t>maa://20919 (100.0), **maa://24873 (44.44)</t>
         </is>
       </c>
       <c r="E15" s="4" t="inlineStr">
@@ -1652,7 +1652,7 @@
       </c>
       <c r="D31" s="5" t="inlineStr">
         <is>
-          <t>maa://36644 (87.72), maa://36866 (96.43), maa://27794 (100.0)</t>
+          <t>maa://36644 (87.72), maa://36866 (96.55), maa://27794 (100.0)</t>
         </is>
       </c>
       <c r="E31" s="4" t="inlineStr">
@@ -1679,7 +1679,7 @@
       </c>
       <c r="D32" s="5" t="inlineStr">
         <is>
-          <t>maa://30500 (98.11), *maa://27290 (70.59)</t>
+          <t>maa://30500 (98.15), *maa://27290 (70.59)</t>
         </is>
       </c>
       <c r="E32" s="4" t="inlineStr">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="D36" s="5" t="inlineStr">
         <is>
-          <t>maa://27376 (88.0), **maa://20838 (50.0), **maa://40163 (36.36)</t>
+          <t>maa://27376 (88.0), **maa://20838 (50.0), **maa://40163 (33.33)</t>
         </is>
       </c>
       <c r="E36" s="4" t="inlineStr">
@@ -2177,108 +2177,108 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>狮蝎</t>
+          <t>空</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>1-9</t>
+          <t>CB-7</t>
         </is>
       </c>
       <c r="C51" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D51" s="5" t="inlineStr">
         <is>
-          <t>maa://20953 (94.44), maa://31173 (85.71)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战狮蝎并上场，且每次战斗至少释放1次蓄力毒尾击&gt; 3星通关主题曲1-9；必须编入非助战狮蝎并上场，其他成员仅可编入1名干员</t>
+          <t>&gt; 战斗中非助战空累计使用8次“战斗之歌”&gt; 3星通关别传CB-7；必须编入非助战空并上场，且不编入其他辅助干员</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>食铁兽</t>
+          <t>狮蝎</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>WR-7</t>
+          <t>1-9</t>
         </is>
       </c>
       <c r="C52" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D52" s="5" t="inlineStr">
         <is>
-          <t>maa://30502 (100.0)</t>
+          <t>maa://20953 (94.44), maa://31173 (85.71)</t>
         </is>
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战食铁兽，且每次战斗至少使2名敌人坠落地穴&gt; 3星通关别传WR-7；必须编入非助战食铁兽并上场，且至少使用2次崩拳式</t>
+          <t>&gt; 完成5次战斗；必须编入非助战狮蝎并上场，且每次战斗至少释放1次蓄力毒尾击&gt; 3星通关主题曲1-9；必须编入非助战狮蝎并上场，其他成员仅可编入1名干员</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>能天使</t>
+          <t>食铁兽</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>4-10</t>
+          <t>WR-7</t>
         </is>
       </c>
       <c r="C53" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D53" s="5" t="inlineStr">
         <is>
-          <t>maa://20932 (96.71), maa://40838 (100.0)</t>
+          <t>maa://30502 (100.0)</t>
         </is>
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战能天使累计造成100000点伤害&gt; 3星通关主题曲4-10；必须编入非助战能天使并上场，且使用能天使歼灭霜星</t>
+          <t>&gt; 完成5次战斗；必须编入非助战食铁兽，且每次战斗至少使2名敌人坠落地穴&gt; 3星通关别传WR-7；必须编入非助战食铁兽并上场，且至少使用2次崩拳式</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>推进之王</t>
+          <t>能天使</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>1-7</t>
+          <t>4-10</t>
         </is>
       </c>
       <c r="C54" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D54" s="5" t="inlineStr">
         <is>
-          <t>*maa://20965 (69.23)</t>
+          <t>maa://20932 (96.71), maa://40838 (100.0)</t>
         </is>
       </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战推进之王累计造成60歼灭数&gt; 3星通关主题曲1-7；必须编入非助战推进之王并上场，其他成员仅可编入先锋干员</t>
+          <t>&gt; 由非助战能天使累计造成100000点伤害&gt; 3星通关主题曲4-10；必须编入非助战能天使并上场，且使用能天使歼灭霜星</t>
         </is>
       </c>
     </row>
@@ -2290,34 +2290,34 @@
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>11-2</t>
+          <t>1-7</t>
         </is>
       </c>
       <c r="C55" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D55" s="5" t="inlineStr">
         <is>
-          <t>maa://28900 (95.31), maa://30126 (100.0)</t>
+          <t>*maa://20965 (69.23)</t>
         </is>
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战推进之王累计使用跃空锤40次&gt; 3星通关主题曲11-2标准实战环境；必须编入非助战推进之王，且第一位部署推进之王、推进之王全程不撤退或被击倒</t>
+          <t>&gt; 由非助战推进之王累计造成60歼灭数&gt; 3星通关主题曲1-7；必须编入非助战推进之王并上场，其他成员仅可编入先锋干员</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>伊芙利特</t>
+          <t>推进之王</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>1-5</t>
+          <t>11-2</t>
         </is>
       </c>
       <c r="C56" s="7" t="inlineStr">
@@ -2327,12 +2327,12 @@
       </c>
       <c r="D56" s="5" t="inlineStr">
         <is>
-          <t>maa://27970 (98.15), maa://41118 (100.0)</t>
+          <t>maa://28900 (95.31), maa://30126 (100.0)</t>
         </is>
       </c>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战伊芙利特累计造成80歼灭数&gt; 3星通关主题曲1-5；必须编入非助战伊芙利特并上场，且不编入其他狙击、术师与辅助干员</t>
+          <t>&gt; 战斗中非助战推进之王累计使用跃空锤40次&gt; 3星通关主题曲11-2标准实战环境；必须编入非助战推进之王，且第一位部署推进之王、推进之王全程不撤退或被击倒</t>
         </is>
       </c>
     </row>
@@ -2344,76 +2344,76 @@
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>CW-3</t>
+          <t>1-5</t>
         </is>
       </c>
       <c r="C57" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D57" s="5" t="inlineStr">
         <is>
-          <t>maa://38298 (81.48)</t>
+          <t>maa://27970 (98.15), maa://41118 (100.0)</t>
         </is>
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战伊芙利特累计使用灼地10次&gt; 3星通关插曲CW-3；必须编入非助战伊芙利特并上场，且使用伊芙利特至少歼灭6个敌人</t>
+          <t>&gt; 由非助战伊芙利特累计造成80歼灭数&gt; 3星通关主题曲1-5；必须编入非助战伊芙利特并上场，且不编入其他狙击、术师与辅助干员</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>艾雅法拉</t>
+          <t>伊芙利特</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>OF-5</t>
+          <t>CW-3</t>
         </is>
       </c>
       <c r="C58" s="7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D58" s="5" t="inlineStr">
         <is>
-          <t>maa://20841 (100.0), maa://24093 (100.0), maa://31559 (93.75), maa://25777 (100.0), maa://20631 (100.0)</t>
+          <t>maa://38298 (82.14)</t>
         </is>
       </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战艾雅法拉累计造成100000点伤害&gt; 3星通关别传OF-5；必须编入非助战艾雅法拉并上场，其他成员仅可编入3名干员</t>
+          <t>&gt; 战斗中非助战伊芙利特累计使用灼地10次&gt; 3星通关插曲CW-3；必须编入非助战伊芙利特并上场，且使用伊芙利特至少歼灭6个敌人</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>安洁莉娜</t>
+          <t>艾雅法拉</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>2-7</t>
+          <t>OF-5</t>
         </is>
       </c>
       <c r="C59" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D59" s="5" t="inlineStr">
         <is>
-          <t>maa://20844 (95.83)</t>
+          <t>maa://20841 (100.0), maa://24093 (100.0), maa://31559 (93.75), maa://25777 (100.0), maa://20631 (100.0)</t>
         </is>
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战安洁莉娜累计造成120000点伤害&gt; 3星通关主题曲2-7；必须编入非助战安洁莉娜并上场，其他成员仅可编入4名干员</t>
+          <t>&gt; 由非助战艾雅法拉累计造成100000点伤害&gt; 3星通关别传OF-5；必须编入非助战艾雅法拉并上场，其他成员仅可编入3名干员</t>
         </is>
       </c>
     </row>
@@ -2425,49 +2425,49 @@
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>2-7</t>
         </is>
       </c>
       <c r="C60" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D60" s="5" t="inlineStr">
         <is>
-          <t>*maa://20845 (73.91), **maa://38727 (50.0)</t>
+          <t>maa://20844 (95.83)</t>
         </is>
       </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战安洁莉娜并上场，且使用安洁莉娜歼灭至少7名敌人&gt; 3星通关主题曲4-4；必须编入非助战安洁莉娜并上场，其他成员仅可编入2名特种干员</t>
+          <t>&gt; 由非助战安洁莉娜累计造成120000点伤害&gt; 3星通关主题曲2-7；必须编入非助战安洁莉娜并上场，其他成员仅可编入4名干员</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>闪灵</t>
+          <t>安洁莉娜</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>NL-5</t>
+          <t>4-4</t>
         </is>
       </c>
       <c r="C61" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D61" s="5" t="inlineStr">
         <is>
-          <t>maa://28187 (96.67), maa://33504 (100.0), maa://39520 (100.0)</t>
+          <t>*maa://20845 (73.91), **maa://38727 (50.0)</t>
         </is>
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战闪灵累计使用自动掩护35次&gt; 3星通关别传NL-5；必须编入非助战闪灵并上场，且所有干员不被击倒</t>
+          <t>&gt; 完成5次战斗；必须编入非助战安洁莉娜并上场，且使用安洁莉娜歼灭至少7名敌人&gt; 3星通关主题曲4-4；必须编入非助战安洁莉娜并上场，其他成员仅可编入2名特种干员</t>
         </is>
       </c>
     </row>
@@ -2479,49 +2479,49 @@
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>NL-5</t>
         </is>
       </c>
       <c r="C62" s="7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D62" s="5" t="inlineStr">
         <is>
-          <t>maa://28567 (97.22), **maa://20947 (44.12), maa://30525 (100.0), *maa://28188 (75.0), maa://38735 (100.0), maa://30524 (100.0)</t>
+          <t>maa://28187 (96.67), maa://33504 (100.0), maa://39520 (100.0)</t>
         </is>
       </c>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战闪灵累计使用教条力场6次&gt; 3星通关主题曲5-8；且仅可编入非助战闪灵1名医疗干员并上场</t>
+          <t>&gt; 战斗中非助战闪灵累计使用自动掩护35次&gt; 3星通关别传NL-5；必须编入非助战闪灵并上场，且所有干员不被击倒</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>夜莺</t>
+          <t>闪灵</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="C63" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D63" s="5" t="inlineStr">
         <is>
-          <t>maa://20993 (100.0), maa://20829 (100.0)</t>
+          <t>maa://28567 (97.22), **maa://20947 (44.12), maa://30525 (100.0), *maa://28188 (75.0), maa://38735 (100.0), maa://30524 (100.0)</t>
         </is>
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中累计召唤非助战夜莺的召唤物10回&gt; 3星通关主题曲3-6；必须编入非助战夜莺并上场，且使用10次法术护盾</t>
+          <t>&gt; 战斗中非助战闪灵累计使用教条力场6次&gt; 3星通关主题曲5-8；且仅可编入非助战闪灵1名医疗干员并上场</t>
         </is>
       </c>
     </row>
@@ -2533,49 +2533,49 @@
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>TW-3</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C64" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D64" s="5" t="inlineStr">
         <is>
-          <t>maa://39693 (100.0)</t>
+          <t>maa://20993 (100.0), maa://20829 (100.0)</t>
         </is>
       </c>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战夜莺累计使用圣域6次&gt; 3星通关别传TW-3；必须编入非助战夜莺并上场，且所有干员不被击倒</t>
+          <t>&gt; 战斗中累计召唤非助战夜莺的召唤物10回&gt; 3星通关主题曲3-6；必须编入非助战夜莺并上场，且使用10次法术护盾</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>星熊</t>
+          <t>夜莺</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>6-4</t>
+          <t>TW-3</t>
         </is>
       </c>
       <c r="C65" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D65" s="5" t="inlineStr">
         <is>
-          <t>maa://20976 (97.52), maa://20815 (100.0)</t>
+          <t>maa://39693 (100.0)</t>
         </is>
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战星熊累计造成60000点伤害&gt; 3星通关主题曲6-4；必须编入非助战星熊并上场，其他成员不可编入重装干员</t>
+          <t>&gt; 战斗中非助战夜莺累计使用圣域6次&gt; 3星通关别传TW-3；必须编入非助战夜莺并上场，且所有干员不被击倒</t>
         </is>
       </c>
     </row>
@@ -2587,49 +2587,49 @@
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>6-4</t>
         </is>
       </c>
       <c r="C66" s="7" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D66" s="5" t="inlineStr">
         <is>
-          <t>maa://28784 (93.82), maa://29088 (91.71), maa://20974 (95.24), maa://31124 (96.06), maa://28950 (90.91), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67), *maa://41832 (80.0)</t>
+          <t>maa://20976 (97.53), maa://20815 (100.0)</t>
         </is>
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战星熊累计造成60歼灭数&gt; 3星通关主题曲3-1；必须编入非助战星熊并上场，其他成员仅可编入4名干员</t>
+          <t>&gt; 由非助战星熊累计造成60000点伤害&gt; 3星通关主题曲6-4；必须编入非助战星熊并上场，其他成员不可编入重装干员</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>塞雷娅</t>
+          <t>星熊</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>MB-3</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C67" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D67" s="5" t="inlineStr">
         <is>
-          <t>maa://20944 (94.44), maa://35393 (100.0)</t>
+          <t>maa://28784 (93.82), maa://29088 (91.76), maa://20974 (95.24), maa://31124 (96.06), maa://28950 (90.91), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67), *maa://41832 (71.43)</t>
         </is>
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战塞雷娅累计使用钙质化5次&gt; 3星通关别传MB-3；必须编入非助战塞雷娅并上场，且所有干员不被击倒</t>
+          <t>&gt; 由非助战星熊累计造成60歼灭数&gt; 3星通关主题曲3-1；必须编入非助战星熊并上场，其他成员仅可编入4名干员</t>
         </is>
       </c>
     </row>
@@ -2641,88 +2641,88 @@
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>MB-3</t>
         </is>
       </c>
       <c r="C68" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D68" s="5" t="inlineStr">
         <is>
-          <t>maa://20943 (99.59)</t>
+          <t>maa://20944 (94.44), maa://35393 (100.0)</t>
         </is>
       </c>
       <c r="E68" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战塞雷娅并上场，且每次战斗至少释放3次药物配置&gt; 3星通关主题曲4-6；必须编入非助战塞雷娅并上场，且不编入医疗干员</t>
+          <t>&gt; 战斗中非助战塞雷娅累计使用钙质化5次&gt; 3星通关别传MB-3；必须编入非助战塞雷娅并上场，且所有干员不被击倒</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>银灰</t>
+          <t>塞雷娅</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>BI-7</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C69" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D69" s="5" t="inlineStr">
         <is>
-          <t>maa://36643 (97.11), maa://36864 (100.0), maa://39140 (100.0)</t>
+          <t>maa://20943 (99.59)</t>
         </is>
       </c>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战银灰累计使用真银斩10次&gt; 3星通关别传BI-7；必须编入非助战银灰并上场，且使用银灰至少击败1名山雪鬼</t>
+          <t>&gt; 完成5次战斗；必须编入非助战塞雷娅并上场，且每次战斗至少释放3次药物配置&gt; 3星通关主题曲4-6；必须编入非助战塞雷娅并上场，且不编入医疗干员</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>暴行</t>
+          <t>银灰</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>BI-7</t>
         </is>
       </c>
       <c r="C70" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D70" s="5" t="inlineStr">
         <is>
-          <t>maa://39139 (100.0)</t>
+          <t>maa://36643 (97.18), maa://36864 (100.0), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E70" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战暴行累计使用微差爆破10次&gt; 3星通关主题曲4-5；必须编入非助战暴行并上场，其他成员仅可编入4名干员</t>
+          <t>&gt; 战斗中非助战银灰累计使用真银斩10次&gt; 3星通关别传BI-7；必须编入非助战银灰并上场，且使用银灰至少击败1名山雪鬼</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>猎蜂</t>
+          <t>暴行</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>7-4</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C71" s="7" t="inlineStr">
@@ -2732,24 +2732,24 @@
       </c>
       <c r="D71" s="5" t="inlineStr">
         <is>
-          <t>maa://39142 (100.0)</t>
+          <t>maa://39139 (100.0)</t>
         </is>
       </c>
       <c r="E71" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战猎蜂累计使用急速拳8次&gt; 3星通关主题曲7-4；必须编入非助战猎蜂并上场，且使用猎蜂至少歼灭10个敌人</t>
+          <t>&gt; 战斗中非助战暴行累计使用微差爆破10次&gt; 3星通关主题曲4-5；必须编入非助战暴行并上场，其他成员仅可编入4名干员</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>夜魔</t>
+          <t>猎蜂</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>S4-1</t>
+          <t>7-4</t>
         </is>
       </c>
       <c r="C72" s="7" t="inlineStr">
@@ -2759,24 +2759,24 @@
       </c>
       <c r="D72" s="5" t="inlineStr">
         <is>
-          <t>maa://20989 (100.0)</t>
+          <t>maa://39142 (100.0)</t>
         </is>
       </c>
       <c r="E72" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战夜魔累计使用夜魇魔影12次&gt; 3星通关主题曲S4-1；必须编入非助战夜魔并上场，且不编入其他术师干员</t>
+          <t>&gt; 战斗中非助战猎蜂累计使用急速拳8次&gt; 3星通关主题曲7-4；必须编入非助战猎蜂并上场，且使用猎蜂至少歼灭10个敌人</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>格拉尼</t>
+          <t>夜魔</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>GT-6</t>
+          <t>S4-1</t>
         </is>
       </c>
       <c r="C73" s="7" t="inlineStr">
@@ -2786,24 +2786,24 @@
       </c>
       <c r="D73" s="5" t="inlineStr">
         <is>
-          <t>maa://20873 (100.0)</t>
+          <t>maa://20989 (100.0)</t>
         </is>
       </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战格拉尼，并确定第一位部署的干员是格拉尼&gt; 3星通关别传GT-6；必须编入非助战格拉尼并上场，且使用格拉尼歼灭8个敌人</t>
+          <t>&gt; 战斗中非助战夜魔累计使用夜魇魔影12次&gt; 3星通关主题曲S4-1；必须编入非助战夜魔并上场，且不编入其他术师干员</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>斯卡蒂</t>
+          <t>格拉尼</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>GT-4</t>
+          <t>GT-6</t>
         </is>
       </c>
       <c r="C74" s="7" t="inlineStr">
@@ -2813,12 +2813,12 @@
       </c>
       <c r="D74" s="5" t="inlineStr">
         <is>
-          <t>maa://20958 (92.59)</t>
+          <t>maa://20873 (100.0)</t>
         </is>
       </c>
       <c r="E74" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战斯卡蒂累计造成30歼灭数&gt; 3星通关别传GT-4；必须编入非助战斯卡蒂并上场，且使用斯卡蒂歼灭至少2个伐木机</t>
+          <t>&gt; 完成5次战斗；必须编入非助战格拉尼，并确定第一位部署的干员是格拉尼&gt; 3星通关别传GT-6；必须编入非助战格拉尼并上场，且使用格拉尼歼灭8个敌人</t>
         </is>
       </c>
     </row>
@@ -2830,7 +2830,7 @@
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>GT-6</t>
+          <t>GT-4</t>
         </is>
       </c>
       <c r="C75" s="7" t="inlineStr">
@@ -2840,24 +2840,24 @@
       </c>
       <c r="D75" s="5" t="inlineStr">
         <is>
-          <t>maa://20957 (100.0)</t>
+          <t>maa://20958 (92.59)</t>
         </is>
       </c>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战斯卡蒂并上场，且使用斯卡蒂歼灭至少5个敌人&gt; 3星通关别传GT-6；必须编入非助战斯卡蒂并上场，且使用斯卡蒂歼灭至少1个大鲍勃</t>
+          <t>&gt; 由非助战斯卡蒂累计造成30歼灭数&gt; 3星通关别传GT-4；必须编入非助战斯卡蒂并上场，且使用斯卡蒂歼灭至少2个伐木机</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>格雷伊</t>
+          <t>斯卡蒂</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>GT-6</t>
         </is>
       </c>
       <c r="C76" s="7" t="inlineStr">
@@ -2867,24 +2867,24 @@
       </c>
       <c r="D76" s="5" t="inlineStr">
         <is>
-          <t>maa://20875 (100.0)</t>
+          <t>maa://20957 (100.0)</t>
         </is>
       </c>
       <c r="E76" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战格雷伊并上场，且使用格雷伊歼灭至少8名敌人&gt; 使用至多4人（包含助战）的队伍3星通关主题曲2-3；必须编入非助战格雷伊并上场，其他成员仅可编入先锋干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战斯卡蒂并上场，且使用斯卡蒂歼灭至少5个敌人&gt; 3星通关别传GT-6；必须编入非助战斯卡蒂并上场，且使用斯卡蒂歼灭至少1个大鲍勃</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>诗怀雅</t>
+          <t>格雷伊</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>S2-3</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="C77" s="7" t="inlineStr">
@@ -2894,39 +2894,39 @@
       </c>
       <c r="D77" s="5" t="inlineStr">
         <is>
-          <t>maa://20952 (100.0)</t>
+          <t>maa://20875 (100.0)</t>
         </is>
       </c>
       <c r="E77" s="4" t="inlineStr">
         <is>
-          <t>&gt; 非助战诗怀雅上场完成5次战斗；其他成员仅可编入近卫干员&gt; 使用至多2人（包含助战）的队伍3星通关主题曲S2-3；必须编入非助战诗怀雅并上场，其他成员仅可编入近战位干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战格雷伊并上场，且使用格雷伊歼灭至少8名敌人&gt; 使用至多4人（包含助战）的队伍3星通关主题曲2-3；必须编入非助战格雷伊并上场，其他成员仅可编入先锋干员</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>陈</t>
+          <t>诗怀雅</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>S2-3</t>
         </is>
       </c>
       <c r="C78" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D78" s="5" t="inlineStr">
         <is>
-          <t>maa://30525 (100.0), maa://20859 (100.0), *maa://28188 (75.0), maa://30524 (100.0)</t>
+          <t>maa://20952 (100.0)</t>
         </is>
       </c>
       <c r="E78" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战陈并上场，且每次战斗至少释放一次赤霄·拔刀或赤霄·绝影&gt; 3星通关主题曲5-8；必须编入非助战陈并上场，且使用陈至少歼灭16名敌人</t>
+          <t>&gt; 非助战诗怀雅上场完成5次战斗；其他成员仅可编入近卫干员&gt; 使用至多2人（包含助战）的队伍3星通关主题曲S2-3；必须编入非助战诗怀雅并上场，其他成员仅可编入近战位干员</t>
         </is>
       </c>
     </row>
@@ -2938,88 +2938,88 @@
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="C79" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D79" s="5" t="inlineStr">
         <is>
-          <t>maa://28072 (100.0)</t>
+          <t>maa://30525 (100.0), maa://20859 (100.0), *maa://28188 (75.0), maa://30524 (100.0)</t>
         </is>
       </c>
       <c r="E79" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战陈累计造成100000点伤害&gt; 3星通关主题曲5-9；必须携带并部署非助战陈，其他成员仅可编入7名干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战陈并上场，且每次战斗至少释放一次赤霄·拔刀或赤霄·绝影&gt; 3星通关主题曲5-8；必须编入非助战陈并上场，且使用陈至少歼灭16名敌人</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>苏苏洛</t>
+          <t>陈</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="C80" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D80" s="5" t="inlineStr">
         <is>
-          <t>maa://27794 (100.0), maa://20960 (100.0)</t>
+          <t>maa://28072 (100.0)</t>
         </is>
       </c>
       <c r="E80" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战苏苏洛累计使用深度治疗6次&gt; 3星通关主题曲4-7；且仅可编入非助战苏苏洛1名医疗干员并上场</t>
+          <t>&gt; 由非助战陈累计造成100000点伤害&gt; 3星通关主题曲5-9；必须携带并部署非助战陈，其他成员仅可编入7名干员</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>锡兰</t>
+          <t>苏苏洛</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>OF-3</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="C81" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D81" s="5" t="inlineStr">
         <is>
-          <t>maa://20972 (100.0)</t>
+          <t>maa://27794 (100.0), maa://20960 (100.0)</t>
         </is>
       </c>
       <c r="E81" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战锡兰累计使用水灵庇护3次&gt; 3星通关别传OF-3；且仅可编入非助战锡兰1名医疗干员并上场</t>
+          <t>&gt; 战斗中非助战苏苏洛累计使用深度治疗6次&gt; 3星通关主题曲4-7；且仅可编入非助战苏苏洛1名医疗干员并上场</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>格劳克斯</t>
+          <t>锡兰</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>OF-3</t>
         </is>
       </c>
       <c r="C82" s="7" t="inlineStr">
@@ -3029,24 +3029,24 @@
       </c>
       <c r="D82" s="5" t="inlineStr">
         <is>
-          <t>maa://20874 (100.0)</t>
+          <t>maa://20972 (100.0)</t>
         </is>
       </c>
       <c r="E82" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战格劳克斯累计歼灭20个无人机敌人&gt; 3星通关主题曲5-7；必须编入非助战格劳克斯并上场，且使用格劳克斯歼灭至少2个法术大师A1</t>
+          <t>&gt; 由非助战锡兰累计使用水灵庇护3次&gt; 3星通关别传OF-3；且仅可编入非助战锡兰1名医疗干员并上场</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>黑</t>
+          <t>格劳克斯</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>OF-7</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="C83" s="7" t="inlineStr">
@@ -3056,12 +3056,12 @@
       </c>
       <c r="D83" s="5" t="inlineStr">
         <is>
-          <t>maa://20885 (100.0)</t>
+          <t>maa://20874 (100.0)</t>
         </is>
       </c>
       <c r="E83" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战黑并上场，且每次战斗至少释放2次战术的终结&gt; 3星通关别传OF-7；必须编入非助战黑并上场，且使用黑歼灭至少2个碎岩者</t>
+          <t>&gt; 由非助战格劳克斯累计歼灭20个无人机敌人&gt; 3星通关主题曲5-7；必须编入非助战格劳克斯并上场，且使用格劳克斯歼灭至少2个法术大师A1</t>
         </is>
       </c>
     </row>
@@ -3073,34 +3073,34 @@
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>2-1</t>
+          <t>OF-7</t>
         </is>
       </c>
       <c r="C84" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D84" s="5" t="inlineStr">
         <is>
-          <t>maa://20886 (88.24), maa://25136 (92.86)</t>
+          <t>maa://20885 (100.0)</t>
         </is>
       </c>
       <c r="E84" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战黑累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲2-1；必须编入非助战黑并上场，其他成员仅可编入狙击干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战黑并上场，且每次战斗至少释放2次战术的终结&gt; 3星通关别传OF-7；必须编入非助战黑并上场，且使用黑歼灭至少2个碎岩者</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>桃金娘</t>
+          <t>黑</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>6-3</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="C85" s="7" t="inlineStr">
@@ -3110,24 +3110,24 @@
       </c>
       <c r="D85" s="5" t="inlineStr">
         <is>
-          <t>maa://24472 (84.67), *maa://35841 (60.0)</t>
+          <t>maa://20886 (88.24), maa://25136 (92.86)</t>
         </is>
       </c>
       <c r="E85" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战桃金娘累计使用支援号令·β型10次&gt; 3星通关主题曲6-3；必须编入非助战桃金娘并上场，且不编入其他先锋干员</t>
+          <t>&gt; 由非助战黑累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲2-1；必须编入非助战黑并上场，其他成员仅可编入狙击干员</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>赫拉格</t>
+          <t>桃金娘</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>6-3</t>
         </is>
       </c>
       <c r="C86" s="7" t="inlineStr">
@@ -3137,12 +3137,12 @@
       </c>
       <c r="D86" s="5" t="inlineStr">
         <is>
-          <t>*maa://28190 (56.67), maa://20880 (89.47)</t>
+          <t>maa://24472 (84.67), *maa://35841 (54.55)</t>
         </is>
       </c>
       <c r="E86" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战赫拉格累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲5-10；必须编入非助战赫拉格并上场，且使用赫拉格歼灭梅菲斯特</t>
+          <t>&gt; 战斗中非助战桃金娘累计使用支援号令·β型10次&gt; 3星通关主题曲6-3；必须编入非助战桃金娘并上场，且不编入其他先锋干员</t>
         </is>
       </c>
     </row>
@@ -3154,34 +3154,34 @@
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C87" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D87" s="5" t="inlineStr">
         <is>
-          <t>maa://24609 (86.67)</t>
+          <t>*maa://28190 (56.67), maa://20880 (89.47)</t>
         </is>
       </c>
       <c r="E87" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战赫拉格累计造成30歼灭数&gt; 3星通关主题曲7-10；必须编入非助战赫拉格并上场，其他成员仅可编入3名干员</t>
+          <t>&gt; 由非助战赫拉格累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲5-10；必须编入非助战赫拉格并上场，且使用赫拉格歼灭梅菲斯特</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>红云</t>
+          <t>赫拉格</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>7-10</t>
         </is>
       </c>
       <c r="C88" s="7" t="inlineStr">
@@ -3191,24 +3191,24 @@
       </c>
       <c r="D88" s="5" t="inlineStr">
         <is>
-          <t>maa://20890 (100.0)</t>
+          <t>maa://24609 (87.5)</t>
         </is>
       </c>
       <c r="E88" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战红云累计造成60000点伤害&gt; 3星通关主题曲3-1；必须编入非助战红云并上场，其他成员仅可编入先锋干员</t>
+          <t>&gt; 由非助战赫拉格累计造成30歼灭数&gt; 3星通关主题曲7-10；必须编入非助战赫拉格并上场，其他成员仅可编入3名干员</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>炎客</t>
+          <t>红云</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>S4-3</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C89" s="7" t="inlineStr">
@@ -3218,24 +3218,24 @@
       </c>
       <c r="D89" s="5" t="inlineStr">
         <is>
-          <t>maa://20984 (100.0)</t>
+          <t>maa://20890 (100.0)</t>
         </is>
       </c>
       <c r="E89" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战炎客并上场，且使用炎客发动至少1次刃鬼&gt; 3星通关主题曲S4-3；必须编入非助战炎客并上场，且使用炎客歼灭至少3个萨卡兹敌人</t>
+          <t>&gt; 由非助战红云累计造成60000点伤害&gt; 3星通关主题曲3-1；必须编入非助战红云并上场，其他成员仅可编入先锋干员</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>送葬人</t>
+          <t>炎客</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>IW-8</t>
+          <t>S4-3</t>
         </is>
       </c>
       <c r="C90" s="7" t="inlineStr">
@@ -3245,24 +3245,24 @@
       </c>
       <c r="D90" s="5" t="inlineStr">
         <is>
-          <t>maa://40157 (100.0)</t>
+          <t>maa://20984 (100.0)</t>
         </is>
       </c>
       <c r="E90" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战送葬人累计造成80000伤害&gt; 3星通关别传IW-8；必须编入非助战送葬人并上场，且使用送葬人至少歼灭30个敌人</t>
+          <t>&gt; 完成5次战斗；必须编入非助战炎客并上场，且使用炎客发动至少1次刃鬼&gt; 3星通关主题曲S4-3；必须编入非助战炎客并上场，且使用炎客歼灭至少3个萨卡兹敌人</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>麦哲伦</t>
+          <t>送葬人</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>IW-8</t>
         </is>
       </c>
       <c r="C91" s="7" t="inlineStr">
@@ -3272,12 +3272,12 @@
       </c>
       <c r="D91" s="5" t="inlineStr">
         <is>
-          <t>maa://20927 (90.0)</t>
+          <t>maa://40157 (100.0)</t>
         </is>
       </c>
       <c r="E91" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；每次战斗至少召唤5回非助战麦哲伦的召唤物&gt; 使用至多2人（包含助战）的队伍3星通关主题曲2-5；必须编入非助战麦哲伦并上场，其他成员仅可编入先锋干员</t>
+          <t>&gt; 由非助战送葬人累计造成80000伤害&gt; 3星通关别传IW-8；必须编入非助战送葬人并上场，且使用送葬人至少歼灭30个敌人</t>
         </is>
       </c>
     </row>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>2-2</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C92" s="7" t="inlineStr">
@@ -3299,24 +3299,24 @@
       </c>
       <c r="D92" s="5" t="inlineStr">
         <is>
-          <t>*maa://20926 (71.43)</t>
+          <t>maa://20927 (90.0)</t>
         </is>
       </c>
       <c r="E92" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中累计召唤非助战麦哲伦的召唤物45回&gt; 3星通关主题曲2-2；必须编入非助战麦哲伦并上场，其他成员仅可编入先锋干员</t>
+          <t>&gt; 完成5次战斗；每次战斗至少召唤5回非助战麦哲伦的召唤物&gt; 使用至多2人（包含助战）的队伍3星通关主题曲2-5；必须编入非助战麦哲伦并上场，其他成员仅可编入先锋干员</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>伊桑</t>
+          <t>麦哲伦</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>TW-3</t>
+          <t>2-2</t>
         </is>
       </c>
       <c r="C93" s="7" t="inlineStr">
@@ -3326,24 +3326,24 @@
       </c>
       <c r="D93" s="5" t="inlineStr">
         <is>
-          <t>maa://20991 (100.0)</t>
+          <t>*maa://20926 (71.43)</t>
         </is>
       </c>
       <c r="E93" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战伊桑累计使用十字悬挂5次&gt; 3星通关别传TW-3；必须编入非助战伊桑并上场，其他成员仅可编入4名干员</t>
+          <t>&gt; 战斗中累计召唤非助战麦哲伦的召唤物45回&gt; 3星通关主题曲2-2；必须编入非助战麦哲伦并上场，其他成员仅可编入先锋干员</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>微风</t>
+          <t>伊桑</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>4-1</t>
+          <t>TW-3</t>
         </is>
       </c>
       <c r="C94" s="7" t="inlineStr">
@@ -3353,24 +3353,24 @@
       </c>
       <c r="D94" s="5" t="inlineStr">
         <is>
-          <t>maa://20967 (100.0)</t>
+          <t>maa://20991 (100.0)</t>
         </is>
       </c>
       <c r="E94" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战微风累计发射50枚医疗弹&gt; 3星通关主题曲4-1；必须编入非助战微风并上场，其他成员仅可编入7名干员</t>
+          <t>&gt; 战斗中非助战伊桑累计使用十字悬挂5次&gt; 3星通关别传TW-3；必须编入非助战伊桑并上场，其他成员仅可编入4名干员</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>梅</t>
+          <t>微风</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>4-1</t>
         </is>
       </c>
       <c r="C95" s="7" t="inlineStr">
@@ -3380,51 +3380,51 @@
       </c>
       <c r="D95" s="5" t="inlineStr">
         <is>
-          <t>maa://20929 (100.0)</t>
+          <t>maa://20967 (100.0)</t>
         </is>
       </c>
       <c r="E95" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战梅累计使用束缚电击5次&gt; 3星通关主题曲4-4；必须编入非助战梅并上场，且不编入其他狙击干员</t>
+          <t>&gt; 战斗中非助战微风累计发射50枚医疗弹&gt; 3星通关主题曲4-1；必须编入非助战微风并上场，其他成员仅可编入7名干员</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>拜松</t>
+          <t>梅</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>4-4</t>
         </is>
       </c>
       <c r="C96" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D96" s="5" t="inlineStr">
         <is>
-          <t>maa://31560 (83.33), maa://20852 (100.0)</t>
+          <t>maa://20929 (100.0)</t>
         </is>
       </c>
       <c r="E96" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战拜松并上场，且每次战斗至少释放2次深化阵线&gt; 3星通关主题曲3-7；且仅可编入非助战拜松1名重装干员并上场</t>
+          <t>&gt; 战斗中非助战梅累计使用束缚电击5次&gt; 3星通关主题曲4-4；必须编入非助战梅并上场，且不编入其他狙击干员</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>槐琥</t>
+          <t>拜松</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C97" s="7" t="inlineStr">
@@ -3434,24 +3434,24 @@
       </c>
       <c r="D97" s="5" t="inlineStr">
         <is>
-          <t>maa://27794 (100.0), *maa://20893 (76.47)</t>
+          <t>maa://31560 (83.33), maa://20852 (100.0)</t>
         </is>
       </c>
       <c r="E97" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战槐琥使用技能七武掠阵踢累计歼灭50只感染生物&gt; 3星通关主题曲4-7；必须编入非助战槐琥并上场，其他成员仅可编入6名干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战拜松并上场，且每次战斗至少释放2次深化阵线&gt; 3星通关主题曲3-7；且仅可编入非助战拜松1名重装干员并上场</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>莫斯提马</t>
+          <t>槐琥</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>DM-3</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="C98" s="7" t="inlineStr">
@@ -3461,12 +3461,12 @@
       </c>
       <c r="D98" s="5" t="inlineStr">
         <is>
-          <t>*maa://39240 (57.14), maa://40517 (87.5)</t>
+          <t>maa://27794 (100.0), *maa://20893 (76.47)</t>
         </is>
       </c>
       <c r="E98" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战莫斯提马累计使用序时之匙5次&gt; 3星通关插曲DM-3；必须编入非助战莫斯提马并上场，并使用莫斯提马至少击败3名萨卡兹穿刺手</t>
+          <t>&gt; 由非助战槐琥使用技能七武掠阵踢累计歼灭50只感染生物&gt; 3星通关主题曲4-7；必须编入非助战槐琥并上场，其他成员仅可编入6名干员</t>
         </is>
       </c>
     </row>
@@ -3478,61 +3478,61 @@
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>CB-5</t>
+          <t>DM-3</t>
         </is>
       </c>
       <c r="C99" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D99" s="5" t="inlineStr">
         <is>
-          <t>*maa://29094 (62.5), maa://28904 (86.36), **maa://20931 (42.31)</t>
+          <t>*maa://39240 (57.14), maa://40517 (87.5)</t>
         </is>
       </c>
       <c r="E99" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战莫斯提马累计造成100歼灭数&gt; 3星通关别传CB-5；必须编入非助战莫斯提马并上场，且使用莫斯提马歼灭至少8名敌人、其中包括至少1名欺凌者</t>
+          <t>&gt; 战斗中非助战莫斯提马累计使用序时之匙5次&gt; 3星通关插曲DM-3；必须编入非助战莫斯提马并上场，并使用莫斯提马至少击败3名萨卡兹穿刺手</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>苇草</t>
+          <t>莫斯提马</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>9-5</t>
+          <t>CB-5</t>
         </is>
       </c>
       <c r="C100" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D100" s="5" t="inlineStr">
         <is>
-          <t>maa://20966 (100.0)</t>
+          <t>*maa://29094 (60.61), maa://28904 (86.36), **maa://20931 (42.31)</t>
         </is>
       </c>
       <c r="E100" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战苇草累计造成70歼灭数&gt; 3星通关主题曲9-5标准实战环境；必须编入非助战苇草并上场，其他成员不可编入先锋干员</t>
+          <t>&gt; 由非助战莫斯提马累计造成100歼灭数&gt; 3星通关别传CB-5；必须编入非助战莫斯提马并上场，且使用莫斯提马歼灭至少8名敌人、其中包括至少1名欺凌者</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>布洛卡</t>
+          <t>苇草</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>7-8</t>
+          <t>9-5</t>
         </is>
       </c>
       <c r="C101" s="7" t="inlineStr">
@@ -3542,132 +3542,132 @@
       </c>
       <c r="D101" s="5" t="inlineStr">
         <is>
-          <t>maa://39143 (100.0)</t>
+          <t>maa://20966 (100.0)</t>
         </is>
       </c>
       <c r="E101" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战布洛卡累计造成80000点伤害&gt; 3星通关主题曲7-8；必须编入非助战布洛卡并上场，且至少使用2次高压电流</t>
+          <t>&gt; 由非助战苇草累计造成70歼灭数&gt; 3星通关主题曲9-5标准实战环境；必须编入非助战苇草并上场，其他成员不可编入先锋干员</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>安比尔</t>
+          <t>布洛卡</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>7-8</t>
         </is>
       </c>
       <c r="C102" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D102" s="5" t="inlineStr">
         <is>
-          <t>maa://27794 (100.0), maa://20843 (100.0), **maa://24483 (50.0)</t>
+          <t>maa://39143 (100.0)</t>
         </is>
       </c>
       <c r="E102" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战安比尔使用雷达定位累计歼灭30名敌人&gt; 3星通关主题曲4-7；必须编入非助战安比尔并上场，且使用安比尔至少歼灭6只高能源石虫</t>
+          <t>&gt; 由非助战布洛卡累计造成80000点伤害&gt; 3星通关主题曲7-8；必须编入非助战布洛卡并上场，且至少使用2次高压电流</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>灰喉</t>
+          <t>安比尔</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="C103" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D103" s="5" t="inlineStr">
         <is>
-          <t>maa://20894 (100.0)</t>
+          <t>maa://27794 (100.0), maa://20843 (100.0), **maa://24483 (50.0)</t>
         </is>
       </c>
       <c r="E103" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战灰喉累计使用回流5次&gt; 3星通关主题曲2-10；必须编入非助战灰喉并上场，且使用灰喉歼灭碎骨</t>
+          <t>&gt; 由非助战安比尔使用雷达定位累计歼灭30名敌人&gt; 3星通关主题曲4-7；必须编入非助战安比尔并上场，且使用安比尔至少歼灭6只高能源石虫</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>煌</t>
+          <t>灰喉</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>11-13</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C104" s="7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D104" s="5" t="inlineStr">
         <is>
-          <t>maa://25018 (96.11), maa://25776 (90.32), maa://28361 (96.55), maa://25772 (92.11), *maa://25161 (78.57), maa://32653 (85.71)</t>
+          <t>maa://20894 (100.0)</t>
         </is>
       </c>
       <c r="E104" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战煌累计造成80歼灭数&gt; 3星通关主题曲11-13标准实战环境；必须编入非助战煌并上场，且不编入其他近卫干员</t>
+          <t>&gt; 战斗中非助战灰喉累计使用回流5次&gt; 3星通关主题曲2-10；必须编入非助战灰喉并上场，且使用灰喉歼灭碎骨</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>雪雉</t>
+          <t>煌</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>11-13</t>
         </is>
       </c>
       <c r="C105" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D105" s="5" t="inlineStr">
         <is>
-          <t>**maa://20979 (50.0)</t>
+          <t>maa://25018 (96.11), maa://25776 (90.32), maa://28361 (96.55), maa://25772 (92.11), *maa://25161 (78.57), maa://32653 (85.71)</t>
         </is>
       </c>
       <c r="E105" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战雪雉，且每次战斗至少使2名敌人坠落地穴&gt; 3星通关主题曲4-6；必须编入非助战雪雉并上场，且至少使用2次伸缩式电捕网</t>
+          <t>&gt; 由非助战煌累计造成80歼灭数&gt; 3星通关主题曲11-13标准实战环境；必须编入非助战煌并上场，且不编入其他近卫干员</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>吽</t>
+          <t>雪雉</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>S2-4</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C106" s="7" t="inlineStr">
@@ -3677,24 +3677,24 @@
       </c>
       <c r="D106" s="5" t="inlineStr">
         <is>
-          <t>maa://20887 (100.0)</t>
+          <t>**maa://20979 (40.0)</t>
         </is>
       </c>
       <c r="E106" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战吽累计使用反制医疗模式5次&gt; 使用至多3人（包含助战）的队伍3星通关主题曲S2-4；必须编入非助战吽并上场，其他成员仅可编入术师干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战雪雉，且每次战斗至少使2名敌人坠落地穴&gt; 3星通关主题曲4-6；必须编入非助战雪雉并上场，且至少使用2次伸缩式电捕网</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>阿</t>
+          <t>吽</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>2-8</t>
+          <t>S2-4</t>
         </is>
       </c>
       <c r="C107" s="7" t="inlineStr">
@@ -3704,39 +3704,39 @@
       </c>
       <c r="D107" s="5" t="inlineStr">
         <is>
-          <t>*maa://28554 (78.95)</t>
+          <t>maa://20887 (100.0)</t>
         </is>
       </c>
       <c r="E107" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战阿累计使用爆发剂·榴莲味10次&gt; 3星通关主题曲2-8；必须编入非助战阿并上场，且不编入狙击干员</t>
+          <t>&gt; 战斗中非助战吽累计使用反制医疗模式5次&gt; 使用至多3人（包含助战）的队伍3星通关主题曲S2-4；必须编入非助战吽并上场，其他成员仅可编入术师干员</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>年</t>
+          <t>阿</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>WR-9</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="C108" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D108" s="5" t="inlineStr">
         <is>
-          <t>*maa://20933 (76.09), maa://20822 (100.0)</t>
+          <t>*maa://28554 (78.95)</t>
         </is>
       </c>
       <c r="E108" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战年累计造成60000点伤害&gt; 3星通关别传WR-9；必须编入非助战年并上场，且使用年至少歼灭10名敌人</t>
+          <t>&gt; 战斗中非助战阿累计使用爆发剂·榴莲味10次&gt; 3星通关主题曲2-8；必须编入非助战阿并上场，且不编入狙击干员</t>
         </is>
       </c>
     </row>
@@ -3748,34 +3748,34 @@
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>S6-2</t>
+          <t>WR-9</t>
         </is>
       </c>
       <c r="C109" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D109" s="5" t="inlineStr">
         <is>
-          <t>maa://29037 (96.67)</t>
+          <t>*maa://20933 (76.09), maa://20822 (100.0)</t>
         </is>
       </c>
       <c r="E109" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战年并上场，且每次战斗至少释放1次铁御&gt; 3星通关主题曲S6-2；必须编入非助战年并上场，且所有干员不被击倒</t>
+          <t>&gt; 由非助战年累计造成60000点伤害&gt; 3星通关别传WR-9；必须编入非助战年并上场，且使用年至少歼灭10名敌人</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>惊蛰</t>
+          <t>年</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>S6-2</t>
         </is>
       </c>
       <c r="C110" s="7" t="inlineStr">
@@ -3785,39 +3785,39 @@
       </c>
       <c r="D110" s="5" t="inlineStr">
         <is>
-          <t>maa://20904 (100.0)</t>
+          <t>maa://29037 (96.67)</t>
         </is>
       </c>
       <c r="E110" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战惊蛰使用技能初雷累计歼灭50名敌人&gt; 3星通关主题曲S3-6；必须编入非助战惊蛰并上场，且使用惊蛰至少歼灭1个屠夫</t>
+          <t>&gt; 完成5次战斗；必须编入非助战年并上场，且每次战斗至少释放1次铁御&gt; 3星通关主题曲S6-2；必须编入非助战年并上场，且所有干员不被击倒</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>刻俄柏</t>
+          <t>惊蛰</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>RI-6</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C111" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D111" s="5" t="inlineStr">
         <is>
-          <t>maa://20908 (98.19), *maa://23346 (77.78), maa://35723 (96.97), maa://38822 (100.0)</t>
+          <t>maa://20904 (100.0)</t>
         </is>
       </c>
       <c r="E111" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战刻俄柏累计歼灭10个精英或领袖敌人&gt; 3星通关别传RI-6；必须编入非助战刻俄柏并上场，且使用刻俄柏歼灭至少2个提亚卡乌破坏者</t>
+          <t>&gt; 由非助战惊蛰使用技能初雷累计歼灭50名敌人&gt; 3星通关主题曲S3-6；必须编入非助战惊蛰并上场，且使用惊蛰至少歼灭1个屠夫</t>
         </is>
       </c>
     </row>
@@ -3829,34 +3829,34 @@
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>11-7</t>
+          <t>RI-6</t>
         </is>
       </c>
       <c r="C112" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D112" s="5" t="inlineStr">
         <is>
-          <t>maa://29659 (82.14), maa://29031 (100.0)</t>
+          <t>maa://20908 (98.19), *maa://23346 (77.78), maa://35723 (96.97), maa://38822 (100.0)</t>
         </is>
       </c>
       <c r="E112" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战刻俄柏累计造成120000点伤害&gt; 3星通关主题曲11-7标准实战环境；必须编入非助战刻俄柏并上场，且使用刻俄柏歼灭食腐使徒</t>
+          <t>&gt; 由非助战刻俄柏累计歼灭10个精英或领袖敌人&gt; 3星通关别传RI-6；必须编入非助战刻俄柏并上场，且使用刻俄柏歼灭至少2个提亚卡乌破坏者</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>清流</t>
+          <t>刻俄柏</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>11-7</t>
         </is>
       </c>
       <c r="C113" s="7" t="inlineStr">
@@ -3866,105 +3866,105 @@
       </c>
       <c r="D113" s="5" t="inlineStr">
         <is>
-          <t>maa://31560 (83.33), maa://20940 (100.0)</t>
+          <t>maa://29659 (82.14), maa://29031 (100.0)</t>
         </is>
       </c>
       <c r="E113" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战清流累计使用涌泉5次&gt; 3星通关主题曲3-7；且仅可编入非助战清流1名医疗干员并上场</t>
+          <t>&gt; 由非助战刻俄柏累计造成120000点伤害&gt; 3星通关主题曲11-7标准实战环境；必须编入非助战刻俄柏并上场，且使用刻俄柏歼灭食腐使徒</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>宴</t>
+          <t>清流</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C114" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D114" s="5" t="inlineStr">
         <is>
-          <t>maa://20986 (92.86)</t>
+          <t>maa://31560 (83.33), maa://20940 (100.0)</t>
         </is>
       </c>
       <c r="E114" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战宴累计使用落地斩·破门5次&gt; 3星通关主题曲1-12；必须编入非助战宴并上场，其他成员不可编入近卫干员</t>
+          <t>&gt; 由非助战清流累计使用涌泉5次&gt; 3星通关主题曲3-7；且仅可编入非助战清流1名医疗干员并上场</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>柏喙</t>
+          <t>宴</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>1-12</t>
         </is>
       </c>
       <c r="C115" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D115" s="5" t="inlineStr">
         <is>
-          <t>maa://31560 (83.33), maa://20851 (100.0)</t>
+          <t>maa://20986 (93.33)</t>
         </is>
       </c>
       <c r="E115" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战柏喙累计使用异刃斩16次&gt; 3星通关主题曲3-7；必须编入非助战柏喙并上场，且使用柏喙歼灭至少1个重装防御组长</t>
+          <t>&gt; 战斗中非助战宴累计使用落地斩·破门5次&gt; 3星通关主题曲1-12；必须编入非助战宴并上场，其他成员不可编入近卫干员</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>慑砂</t>
+          <t>柏喙</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C116" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D116" s="5" t="inlineStr">
         <is>
-          <t>maa://20949 (92.31)</t>
+          <t>maa://31560 (83.33), maa://20851 (100.0)</t>
         </is>
       </c>
       <c r="E116" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战慑砂并上场，且使用慑砂造成至少25000点伤害&gt; 3星通关主题曲S3-6; 必须编入非助战慑砂并上场，且使用慑砂歼灭至少10个源石虫·β</t>
+          <t>&gt; 战斗中非助战柏喙累计使用异刃斩16次&gt; 3星通关主题曲3-7；必须编入非助战柏喙并上场，且使用柏喙歼灭至少1个重装防御组长</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>风笛</t>
+          <t>慑砂</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C117" s="7" t="inlineStr">
@@ -3974,12 +3974,12 @@
       </c>
       <c r="D117" s="5" t="inlineStr">
         <is>
-          <t>maa://20869 (100.0)</t>
+          <t>maa://20949 (92.31)</t>
         </is>
       </c>
       <c r="E117" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战风笛累计造成80歼灭数&gt; 3星通关主题曲4-5；必须编入非助战风笛并上场，且使用风笛歼灭至少4个法术近卫</t>
+          <t>&gt; 完成5次战斗；必须编入非助战慑砂并上场，且使用慑砂造成至少25000点伤害&gt; 3星通关主题曲S3-6; 必须编入非助战慑砂并上场，且使用慑砂歼灭至少10个源石虫·β</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>9-5</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C118" s="7" t="inlineStr">
@@ -4001,24 +4001,24 @@
       </c>
       <c r="D118" s="5" t="inlineStr">
         <is>
-          <t>maa://29650 (97.3)</t>
+          <t>maa://20869 (100.0)</t>
         </is>
       </c>
       <c r="E118" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战风笛并上场，且使用风笛歼灭至少3个敌人&gt; 3星通关主题曲9-5标准实战环境；必须编入非助战风笛并上场，且使用风笛至少歼灭8个敌人</t>
+          <t>&gt; 由非助战风笛累计造成80歼灭数&gt; 3星通关主题曲4-5；必须编入非助战风笛并上场，且使用风笛歼灭至少4个法术近卫</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>断罪者</t>
+          <t>风笛</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>9-5</t>
         </is>
       </c>
       <c r="C119" s="7" t="inlineStr">
@@ -4028,24 +4028,24 @@
       </c>
       <c r="D119" s="5" t="inlineStr">
         <is>
-          <t>maa://20868 (100.0)</t>
+          <t>maa://29650 (97.37)</t>
         </is>
       </c>
       <c r="E119" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战断罪者并上场，且使用断罪者造成至少15000点伤害&gt; 3星通关主题曲2-4；必须编入非助战断罪者并上场，其他成员仅可编入特种干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战风笛并上场，且使用风笛歼灭至少3个敌人&gt; 3星通关主题曲9-5标准实战环境；必须编入非助战风笛并上场，且使用风笛至少歼灭8个敌人</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>刻刀</t>
+          <t>断罪者</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>2-7</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="C120" s="7" t="inlineStr">
@@ -4055,24 +4055,24 @@
       </c>
       <c r="D120" s="5" t="inlineStr">
         <is>
-          <t>*maa://20909 (72.22)</t>
+          <t>maa://20868 (100.0)</t>
         </is>
       </c>
       <c r="E120" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战刻刀并上场，且每次战斗刻刀至少歼灭3个无人机敌人&gt; 3星通关主题曲2-7；必须编入非助战刻刀并上场，且刻刀使用技能绯红刺刀歼灭至少2个御4</t>
+          <t>&gt; 完成5次战斗；必须编入非助战断罪者并上场，且使用断罪者造成至少15000点伤害&gt; 3星通关主题曲2-4；必须编入非助战断罪者并上场，其他成员仅可编入特种干员</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>巫恋</t>
+          <t>刻刀</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>6-5</t>
+          <t>2-7</t>
         </is>
       </c>
       <c r="C121" s="7" t="inlineStr">
@@ -4082,39 +4082,39 @@
       </c>
       <c r="D121" s="5" t="inlineStr">
         <is>
-          <t>maa://30501 (100.0)</t>
+          <t>*maa://20909 (72.22)</t>
         </is>
       </c>
       <c r="E121" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战巫恋累计使用诅咒娃娃10次&gt; 3星通关主题曲6-5；必须编入非助战巫恋并上场，且不编入其他辅助干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战刻刀并上场，且每次战斗刻刀至少歼灭3个无人机敌人&gt; 3星通关主题曲2-7；必须编入非助战刻刀并上场，且刻刀使用技能绯红刺刀歼灭至少2个御4</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>傀影</t>
+          <t>巫恋</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>6-5</t>
         </is>
       </c>
       <c r="C122" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D122" s="5" t="inlineStr">
         <is>
-          <t>maa://20914 (100.0), maa://20829 (100.0), maa://31937 (100.0)</t>
+          <t>maa://30501 (100.0)</t>
         </is>
       </c>
       <c r="E122" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战傀影累计造成70歼灭数&gt; 3星通关主题曲3-6；必须编入非助战傀影并上场，且使用傀影至少歼灭6个隐形术师</t>
+          <t>&gt; 战斗中非助战巫恋累计使用诅咒娃娃10次&gt; 3星通关主题曲6-5；必须编入非助战巫恋并上场，且不编入其他辅助干员</t>
         </is>
       </c>
     </row>
@@ -4126,34 +4126,34 @@
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>DM-5</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C123" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D123" s="5" t="inlineStr">
         <is>
-          <t>maa://37484 (93.02), maa://24611 (89.29)</t>
+          <t>maa://20914 (100.0), maa://20829 (100.0), maa://31937 (100.0)</t>
         </is>
       </c>
       <c r="E123" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；每次战斗至少部署2次非助战的傀影&gt; 3星通关插曲DM-5；必须编入非助战傀影并上场，且使用傀影击败至少两名萨卡兹哨兵</t>
+          <t>&gt; 由非助战傀影累计造成70歼灭数&gt; 3星通关主题曲3-6；必须编入非助战傀影并上场，且使用傀影至少歼灭6个隐形术师</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>极境</t>
+          <t>傀影</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>DM-5</t>
         </is>
       </c>
       <c r="C124" s="7" t="inlineStr">
@@ -4163,39 +4163,39 @@
       </c>
       <c r="D124" s="5" t="inlineStr">
         <is>
-          <t>maa://24491 (100.0), maa://24493 (100.0)</t>
+          <t>maa://37484 (93.02), maa://24611 (89.29)</t>
         </is>
       </c>
       <c r="E124" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战极境累计使用支援号令·γ型10次&gt; 3星通关主题曲S3-6；必须编入非助战极境并上场，且不编入其他先锋干员</t>
+          <t>&gt; 完成5次战斗；每次战斗至少部署2次非助战的傀影&gt; 3星通关插曲DM-5；必须编入非助战傀影并上场，且使用傀影击败至少两名萨卡兹哨兵</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>温蒂</t>
+          <t>极境</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>BI-5</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C125" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D125" s="5" t="inlineStr">
         <is>
-          <t>maa://21422 (98.39)</t>
+          <t>maa://24491 (100.0), maa://24493 (100.0)</t>
         </is>
       </c>
       <c r="E125" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战温蒂累计造成100000点伤害※工程蓄水炮造成的伤害可计数&gt; 3星通关别传BI-5；必须编入非助战温蒂并上场，且不编入其他特种干员</t>
+          <t>&gt; 战斗中非助战极境累计使用支援号令·γ型10次&gt; 3星通关主题曲S3-6；必须编入非助战极境并上场，且不编入其他先锋干员</t>
         </is>
       </c>
     </row>
@@ -4207,7 +4207,7 @@
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>IC-6</t>
+          <t>BI-5</t>
         </is>
       </c>
       <c r="C126" s="7" t="inlineStr">
@@ -4217,39 +4217,39 @@
       </c>
       <c r="D126" s="5" t="inlineStr">
         <is>
-          <t>maa://30719 (100.0)</t>
+          <t>maa://21422 (98.41)</t>
         </is>
       </c>
       <c r="E126" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中累计部署非助战温蒂的“工程蓄水炮”10次&gt; 3星通关别传IC-6；必须编入非助战温蒂，且本场战斗至少使6个酒类爱好者坠落地穴</t>
+          <t>&gt; 由非助战温蒂累计造成100000点伤害※工程蓄水炮造成的伤害可计数&gt; 3星通关别传BI-5；必须编入非助战温蒂并上场，且不编入其他特种干员</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>温蒂</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>DM-3</t>
+          <t>IC-6</t>
         </is>
       </c>
       <c r="C127" s="7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D127" s="5" t="inlineStr">
         <is>
-          <t>maa://23019 (100.0), maa://20837 (100.0), maa://37113 (100.0), maa://40517 (87.5), *maa://37666 (75.0), maa://41686 (100.0)</t>
+          <t>maa://30719 (100.0)</t>
         </is>
       </c>
       <c r="E127" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战W累计造成80歼灭数※此面向敌和通过D12的炸弹击倒的敌人可计数&gt; 3星通关插曲DM-3；必须编入非助战W并上场，且使用W歼灭至少2个萨卡兹穿刺手※允许使用此面向敌或通过D12的炸弹击倒相应目标</t>
+          <t>&gt; 战斗中累计部署非助战温蒂的“工程蓄水炮”10次&gt; 3星通关别传IC-6；必须编入非助战温蒂，且本场战斗至少使6个酒类爱好者坠落地穴</t>
         </is>
       </c>
     </row>
@@ -4261,61 +4261,61 @@
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>DM-7</t>
+          <t>DM-3</t>
         </is>
       </c>
       <c r="C128" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D128" s="5" t="inlineStr">
         <is>
-          <t>maa://23020 (95.77), maa://29023 (100.0), maa://34319 (100.0), *maa://39515 (66.67)</t>
+          <t>maa://23019 (100.0), maa://20837 (100.0), maa://37113 (100.0), maa://40517 (87.5), *maa://37666 (75.0), maa://41686 (100.0)</t>
         </is>
       </c>
       <c r="E128" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战W累计使用惊吓盒子10次&gt; 3星通关插曲DM-7；必须编入非助战W并上场，且不编入特种干员</t>
+          <t>&gt; 由非助战W累计造成80歼灭数※此面向敌和通过D12的炸弹击倒的敌人可计数&gt; 3星通关插曲DM-3；必须编入非助战W并上场，且使用W歼灭至少2个萨卡兹穿刺手※允许使用此面向敌或通过D12的炸弹击倒相应目标</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>月禾</t>
+          <t>W</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>DM-7</t>
         </is>
       </c>
       <c r="C129" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D129" s="5" t="inlineStr">
         <is>
-          <t>maa://39146 (100.0)</t>
+          <t>maa://23020 (95.77), maa://29023 (100.0), maa://34319 (100.0), *maa://39515 (66.67)</t>
         </is>
       </c>
       <c r="E129" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战月禾累计使用迹无8次&gt; 3星通关主题曲S3-6；必须编入非助战月禾并上场，且所有干员不被击倒</t>
+          <t>&gt; 战斗中非助战W累计使用惊吓盒子10次&gt; 3星通关插曲DM-7；必须编入非助战W并上场，且不编入特种干员</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>波登可</t>
+          <t>月禾</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C130" s="7" t="inlineStr">
@@ -4325,24 +4325,24 @@
       </c>
       <c r="D130" s="5" t="inlineStr">
         <is>
-          <t>maa://20856 (100.0)</t>
+          <t>maa://39146 (100.0)</t>
         </is>
       </c>
       <c r="E130" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战波登可并上场，且每次战斗至少释放2次孢子扩散&gt; 3星通关主题曲4-6；必须编入非助战波登可并上场，且使用波登可歼灭至少2个高能源石虫</t>
+          <t>&gt; 战斗中非助战月禾累计使用迹无8次&gt; 3星通关主题曲S3-6；必须编入非助战月禾并上场，且所有干员不被击倒</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>苦艾</t>
+          <t>波登可</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C131" s="7" t="inlineStr">
@@ -4352,105 +4352,105 @@
       </c>
       <c r="D131" s="5" t="inlineStr">
         <is>
-          <t>maa://20913 (100.0)</t>
+          <t>maa://20856 (100.0)</t>
         </is>
       </c>
       <c r="E131" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战苦艾并上场，且每次战斗至少释放1次终结连射&gt; 3星通关主题曲3-4；必须编入非助战苦艾并上场，且不编入其他术师干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战波登可并上场，且每次战斗至少释放2次孢子扩散&gt; 3星通关主题曲4-6；必须编入非助战波登可并上场，且使用波登可歼灭至少2个高能源石虫</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>莱恩哈特</t>
+          <t>苦艾</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C132" s="7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D132" s="5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://20913 (100.0)</t>
         </is>
       </c>
       <c r="E132" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战莱恩哈特并上场，且每次战斗至少释放4次解构与爆破&gt; 3星通关主题曲3-5；必须编入非助战莱恩哈特并上场，且莱恩哈特使用技能解构与爆破歼灭至少10名敌人</t>
+          <t>&gt; 完成5次战斗；必须编入非助战苦艾并上场，且每次战斗至少释放1次终结连射&gt; 3星通关主题曲3-4；必须编入非助战苦艾并上场，且不编入其他术师干员</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>早露</t>
+          <t>莱恩哈特</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="C133" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D133" s="5" t="inlineStr">
         <is>
-          <t>**maa://21000 (41.38), *maa://29025 (76.47)</t>
+          <t>maa://41856 (100.0)</t>
         </is>
       </c>
       <c r="E133" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战早露累计造成80000点伤害&gt; 3星通关主题曲7-9；必须编入非助战早露并上场，其他成员不可编入狙击干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战莱恩哈特并上场，且每次战斗至少释放4次解构与爆破&gt; 3星通关主题曲3-5；必须编入非助战莱恩哈特并上场，且莱恩哈特使用技能解构与爆破歼灭至少10名敌人</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>卡达</t>
+          <t>早露</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>11-7</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="C134" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D134" s="5" t="inlineStr">
         <is>
-          <t>*maa://30679 (52.63)</t>
+          <t>**maa://21000 (41.38), *maa://29025 (76.47)</t>
         </is>
       </c>
       <c r="E134" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战卡达累计使用同步索敌攻击10次&gt; 3星通关主题曲11-7标准实战环境；必须编入非助战卡达并上场，且使用卡达歼灭至少1名食腐使徒</t>
+          <t>&gt; 由非助战早露累计造成80000点伤害&gt; 3星通关主题曲7-9；必须编入非助战早露并上场，其他成员不可编入狙击干员</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>亚叶</t>
+          <t>卡达</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>5-2</t>
+          <t>11-7</t>
         </is>
       </c>
       <c r="C135" s="7" t="inlineStr">
@@ -4460,24 +4460,24 @@
       </c>
       <c r="D135" s="5" t="inlineStr">
         <is>
-          <t>maa://20981 (100.0)</t>
+          <t>**maa://30679 (50.0)</t>
         </is>
       </c>
       <c r="E135" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战亚叶累计造成80000点伤害&gt; 3星通关主题曲5-2；必须编入非助战亚叶并上场，且使用亚叶至少歼灭8名敌人</t>
+          <t>&gt; 战斗中非助战卡达累计使用同步索敌攻击10次&gt; 3星通关主题曲11-7标准实战环境；必须编入非助战卡达并上场，且使用卡达歼灭至少1名食腐使徒</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>断崖</t>
+          <t>亚叶</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>5-2</t>
         </is>
       </c>
       <c r="C136" s="7" t="inlineStr">
@@ -4487,39 +4487,39 @@
       </c>
       <c r="D136" s="5" t="inlineStr">
         <is>
-          <t>maa://37689 (100.0)</t>
+          <t>maa://20981 (100.0)</t>
         </is>
       </c>
       <c r="E136" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战断崖累计造成80000点伤害&gt; 3星通关主题曲5-8；必须编入非助战断崖并上场，且使用断崖使用至少2次浮游刃启动</t>
+          <t>&gt; 由非助战亚叶累计造成80000点伤害&gt; 3星通关主题曲5-2；必须编入非助战亚叶并上场，且使用亚叶至少歼灭8名敌人</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>铃兰</t>
+          <t>断崖</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>TW-7</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="C137" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D137" s="5" t="inlineStr">
         <is>
-          <t>maa://28484 (97.1), **maa://23736 (42.19), *maa://31185 (75.0), maa://30306 (100.0)</t>
+          <t>maa://37689 (100.0)</t>
         </is>
       </c>
       <c r="E137" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战铃兰累计使用狐火渺然6次&gt; 3星通关别传TW-7；且仅可编入非助战铃兰1名辅助干员并上场</t>
+          <t>&gt; 由非助战断崖累计造成80000点伤害&gt; 3星通关主题曲5-8；必须编入非助战断崖并上场，且使用断崖使用至少2次浮游刃启动</t>
         </is>
       </c>
     </row>
@@ -4531,61 +4531,61 @@
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>DM-EX-1</t>
+          <t>TW-7</t>
         </is>
       </c>
       <c r="C138" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D138" s="5" t="inlineStr">
         <is>
-          <t>maa://30670 (96.55), maa://31470 (94.44), ***maa://30867 (25.0)</t>
+          <t>maa://28484 (97.1), **maa://23736 (42.19), *maa://31185 (75.0), maa://30306 (100.0)</t>
         </is>
       </c>
       <c r="E138" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战铃兰并上场，且每次战斗至少释放1次狐火渺然&gt; 3星通关插曲DM-EX-1；必须编入非助战铃兰并上场，其他成员仅可编入6名干员</t>
+          <t>&gt; 战斗中非助战铃兰累计使用狐火渺然6次&gt; 3星通关别传TW-7；且仅可编入非助战铃兰1名辅助干员并上场</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>稀音</t>
+          <t>铃兰</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>DM-EX-1</t>
         </is>
       </c>
       <c r="C139" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D139" s="5" t="inlineStr">
         <is>
-          <t>maa://20971 (100.0)</t>
+          <t>maa://30670 (96.55), maa://31470 (94.44), ***maa://30867 (25.0)</t>
         </is>
       </c>
       <c r="E139" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；每次战斗至少召唤5回非助战稀音的召唤物&gt; 使用至多2人（包含助战）的队伍3星通关主题曲3-1；必须编入非助战稀音并上场，其他成员仅可编入狙击干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战铃兰并上场，且每次战斗至少释放1次狐火渺然&gt; 3星通关插曲DM-EX-1；必须编入非助战铃兰并上场，其他成员仅可编入6名干员</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>蜜蜡</t>
+          <t>稀音</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>DH-6</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C140" s="7" t="inlineStr">
@@ -4595,24 +4595,24 @@
       </c>
       <c r="D140" s="5" t="inlineStr">
         <is>
-          <t>maa://39147 (100.0)</t>
+          <t>*maa://20971 (75.0)</t>
         </is>
       </c>
       <c r="E140" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战蜜蜡累计使用守卫尖碑8次&gt; 3星通关别传DH-6；必须编入非助战蜜蜡并上场，且不编入重装干员</t>
+          <t>&gt; 完成5次战斗；每次战斗至少召唤5回非助战稀音的召唤物&gt; 使用至多2人（包含助战）的队伍3星通关主题曲3-1；必须编入非助战稀音并上场，其他成员仅可编入狙击干员</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>贾维</t>
+          <t>蜜蜡</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>1-1</t>
+          <t>DH-6</t>
         </is>
       </c>
       <c r="C141" s="7" t="inlineStr">
@@ -4622,132 +4622,132 @@
       </c>
       <c r="D141" s="5" t="inlineStr">
         <is>
-          <t>maa://20898 (100.0)</t>
+          <t>maa://39147 (100.0)</t>
         </is>
       </c>
       <c r="E141" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战贾维累计使用火焰剥离5次&gt; 3星通关主题曲1-1；必须编入非助战贾维并上场，其他成员仅可编入1星干员</t>
+          <t>&gt; 战斗中非助战蜜蜡累计使用守卫尖碑8次&gt; 3星通关别传DH-6；必须编入非助战蜜蜡并上场，且不编入重装干员</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>孑</t>
+          <t>贾维</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>S3-2</t>
+          <t>1-1</t>
         </is>
       </c>
       <c r="C142" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D142" s="5" t="inlineStr">
         <is>
-          <t>maa://29056 (100.0), ***maa://20901 (9.09)</t>
+          <t>maa://20898 (100.0)</t>
         </is>
       </c>
       <c r="E142" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战孑并部署至少2次，且使用孑歼灭至少3名敌人&gt; 3星通关主题曲S3-2；必须编入非助战孑并上场，且使用孑歼灭至少8个源石虫·β</t>
+          <t>&gt; 战斗中非助战贾维累计使用火焰剥离5次&gt; 3星通关主题曲1-1；必须编入非助战贾维并上场，其他成员仅可编入1星干员</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>安哲拉</t>
+          <t>孑</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>3-2</t>
+          <t>S3-2</t>
         </is>
       </c>
       <c r="C143" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D143" s="5" t="inlineStr">
         <is>
-          <t>maa://20846 (95.0)</t>
+          <t>maa://29056 (100.0), ***maa://20901 (9.09)</t>
         </is>
       </c>
       <c r="E143" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战安哲拉累计造成150000点伤害&gt; 3星通关主题曲3-2；必须编入非助战安哲拉并上场，且使用安哲拉至少歼灭15名敌人</t>
+          <t>&gt; 完成5次战斗；必须编入非助战孑并部署至少2次，且使用孑歼灭至少3名敌人&gt; 3星通关主题曲S3-2；必须编入非助战孑并上场，且使用孑歼灭至少8个源石虫·β</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>棘刺</t>
+          <t>安哲拉</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>SV-6</t>
+          <t>3-2</t>
         </is>
       </c>
       <c r="C144" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D144" s="5" t="inlineStr">
         <is>
-          <t>maa://36641 (98.15), maa://36865 (95.33), maa://37300 (100.0)</t>
+          <t>maa://20846 (95.0)</t>
         </is>
       </c>
       <c r="E144" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战棘刺累计造成100000点伤害&gt; 3星通关插曲SV-6；必须编入非助战棘刺并上场，且使用棘刺至少歼灭20个敌人</t>
+          <t>&gt; 由非助战安哲拉累计造成150000点伤害&gt; 3星通关主题曲3-2；必须编入非助战安哲拉并上场，且使用安哲拉至少歼灭15名敌人</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>酸糖</t>
+          <t>棘刺</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>2-8</t>
+          <t>SV-6</t>
         </is>
       </c>
       <c r="C145" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D145" s="5" t="inlineStr">
         <is>
-          <t>maa://20961 (100.0)</t>
+          <t>maa://36641 (98.16), maa://36865 (95.33), maa://37300 (100.0)</t>
         </is>
       </c>
       <c r="E145" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战酸糖累计造成50歼灭数&gt; 3星通关主题曲2-8；必须编入非助战酸糖并上场，且使用酸糖歼灭至少1个磐蟹</t>
+          <t>&gt; 由非助战棘刺累计造成100000点伤害&gt; 3星通关插曲SV-6；必须编入非助战棘刺并上场，且使用棘刺至少歼灭20个敌人</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>特米米</t>
+          <t>酸糖</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>RI-2</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="C146" s="7" t="inlineStr">
@@ -4757,24 +4757,24 @@
       </c>
       <c r="D146" s="5" t="inlineStr">
         <is>
-          <t>maa://20963 (100.0)</t>
+          <t>maa://20961 (100.0)</t>
         </is>
       </c>
       <c r="E146" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战特米米并上场，且每次战斗至少释放1次嘉维尔保护方案&gt; 3星通关别传RI-2；必须编入非助战特米米并上场，且不编入其他术师干员</t>
+          <t>&gt; 由非助战酸糖累计造成50歼灭数&gt; 3星通关主题曲2-8；必须编入非助战酸糖并上场，且使用酸糖歼灭至少1个磐蟹</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>燧石</t>
+          <t>特米米</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>RI-9</t>
+          <t>RI-2</t>
         </is>
       </c>
       <c r="C147" s="7" t="inlineStr">
@@ -4784,39 +4784,39 @@
       </c>
       <c r="D147" s="5" t="inlineStr">
         <is>
-          <t>maa://39148 (100.0)</t>
+          <t>maa://20963 (100.0)</t>
         </is>
       </c>
       <c r="E147" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战燧石累计使用锋芒毕露8次&gt; 3星通关别传RI-9；必须编入非助战燧石并上场，且使用燧石至少歼灭10个敌人</t>
+          <t>&gt; 完成5次战斗；必须编入非助战特米米并上场，且每次战斗至少释放1次嘉维尔保护方案&gt; 3星通关别传RI-2；必须编入非助战特米米并上场，且不编入其他术师干员</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>森蚺</t>
+          <t>燧石</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>RI-EX-4</t>
+          <t>RI-9</t>
         </is>
       </c>
       <c r="C148" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D148" s="5" t="inlineStr">
         <is>
-          <t>maa://20946 (100.0), maa://20833 (100.0)</t>
+          <t>maa://39148 (100.0)</t>
         </is>
       </c>
       <c r="E148" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战森蚺累计造成60000点伤害&gt; 3星通关别传RI-EX-4；必须编入非助战森蚺并上场，且使用森蚺歼灭至少1个提亚卡乌冠军</t>
+          <t>&gt; 战斗中非助战燧石累计使用锋芒毕露8次&gt; 3星通关别传RI-9；必须编入非助战燧石并上场，且使用燧石至少歼灭10个敌人</t>
         </is>
       </c>
     </row>
@@ -4828,34 +4828,34 @@
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>RI-7</t>
+          <t>RI-EX-4</t>
         </is>
       </c>
       <c r="C149" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D149" s="5" t="inlineStr">
         <is>
-          <t>maa://20945 (89.47)</t>
+          <t>maa://20946 (100.0), maa://20833 (100.0)</t>
         </is>
       </c>
       <c r="E149" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战森蚺累计歼灭10个精英或领袖敌人&gt; 3星通关别传RI-7；必须编入非助战森蚺并上场，且使用森蚺歼灭至少2名提亚卡乌勇士</t>
+          <t>&gt; 由非助战森蚺累计造成60000点伤害&gt; 3星通关别传RI-EX-4；必须编入非助战森蚺并上场，且使用森蚺歼灭至少1个提亚卡乌冠军</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>芳汀</t>
+          <t>森蚺</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>2-8</t>
+          <t>RI-7</t>
         </is>
       </c>
       <c r="C150" s="7" t="inlineStr">
@@ -4865,24 +4865,24 @@
       </c>
       <c r="D150" s="5" t="inlineStr">
         <is>
-          <t>maa://37694 (100.0)</t>
+          <t>maa://20945 (89.47)</t>
         </is>
       </c>
       <c r="E150" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战芳汀并上场，且每次战斗至少释放1次致命恶作剧&gt; 3星通关主题曲2-8；必须编入非助战芳汀并上场，且不编入其他狙击干员</t>
+          <t>&gt; 由非助战森蚺累计歼灭10个精英或领袖敌人&gt; 3星通关别传RI-7；必须编入非助战森蚺并上场，且使用森蚺歼灭至少2名提亚卡乌勇士</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>薄绿</t>
+          <t>芳汀</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>BI-2</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="C151" s="7" t="inlineStr">
@@ -4892,24 +4892,24 @@
       </c>
       <c r="D151" s="5" t="inlineStr">
         <is>
-          <t>**maa://39149 (50.0)</t>
+          <t>maa://37694 (100.0)</t>
         </is>
       </c>
       <c r="E151" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战薄绿，且每次战斗至少使2名敌人坠落地穴&gt; 3星通关别传BI-2；必须编入非助战薄绿，且本次战斗有至少4名冰原战士坠落地穴</t>
+          <t>&gt; 完成5次战斗；必须编入非助战芳汀并上场，且每次战斗至少释放1次致命恶作剧&gt; 3星通关主题曲2-8；必须编入非助战芳汀并上场，且不编入其他狙击干员</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>四月</t>
+          <t>薄绿</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>5-3</t>
+          <t>BI-2</t>
         </is>
       </c>
       <c r="C152" s="7" t="inlineStr">
@@ -4919,24 +4919,24 @@
       </c>
       <c r="D152" s="5" t="inlineStr">
         <is>
-          <t>maa://20959 (100.0)</t>
+          <t>**maa://39149 (50.0)</t>
         </is>
       </c>
       <c r="E152" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中累计部署非助战四月8次&gt; 3星通关主题曲5-3；必须编入非助战四月并上场，且使用四月歼灭至少2个特战术师组长</t>
+          <t>&gt; 完成5次战斗；必须编入非助战薄绿，且每次战斗至少使2名敌人坠落地穴&gt; 3星通关别传BI-2；必须编入非助战薄绿，且本次战斗有至少4名冰原战士坠落地穴</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>泡泡</t>
+          <t>四月</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>5-3</t>
         </is>
       </c>
       <c r="C153" s="7" t="inlineStr">
@@ -4946,24 +4946,24 @@
       </c>
       <c r="D153" s="5" t="inlineStr">
         <is>
-          <t>maa://20936 (100.0)</t>
+          <t>maa://20959 (100.0)</t>
         </is>
       </c>
       <c r="E153" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战泡泡并上场，且每次战斗至少释放1次挨打&gt; 3星通关主题曲4-6；必须编入非助战泡泡并上场，且使用泡泡灭8个敌人</t>
+          <t>&gt; 战斗中累计部署非助战四月8次&gt; 3星通关主题曲5-3；必须编入非助战四月并上场，且使用四月歼灭至少2个特战术师组长</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>鞭刃</t>
+          <t>泡泡</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C154" s="7" t="inlineStr">
@@ -4973,24 +4973,24 @@
       </c>
       <c r="D154" s="5" t="inlineStr">
         <is>
-          <t>maa://20855 (92.86)</t>
+          <t>maa://20936 (100.0)</t>
         </is>
       </c>
       <c r="E154" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战鞭刃累计造成50歼灭数&gt; 3星通关主题曲S3-6；必须编入非助战鞭刃并上场，其他成员仅可编入重装干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战泡泡并上场，且每次战斗至少释放1次挨打&gt; 3星通关主题曲4-6；必须编入非助战泡泡并上场，且使用泡泡灭8个敌人</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>奥斯塔</t>
+          <t>鞭刃</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C155" s="7" t="inlineStr">
@@ -5000,39 +5000,39 @@
       </c>
       <c r="D155" s="5" t="inlineStr">
         <is>
-          <t>maa://40158 (100.0)</t>
+          <t>maa://20855 (92.86)</t>
         </is>
       </c>
       <c r="E155" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战奥斯塔累计使用影钉8次&gt; 3星通关主题曲6-8；必须编入非助战奥斯塔并上场，且使用奥斯塔至少歼灭10个敌人</t>
+          <t>&gt; 由非助战鞭刃累计造成50歼灭数&gt; 3星通关主题曲S3-6；必须编入非助战鞭刃并上场，其他成员仅可编入重装干员</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>瑕光</t>
+          <t>奥斯塔</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>MN-4</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="C156" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D156" s="5" t="inlineStr">
         <is>
-          <t>maa://29054 (100.0), maa://32845 (100.0)</t>
+          <t>maa://40158 (100.0)</t>
         </is>
       </c>
       <c r="E156" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战瑕光累计造成80000点伤害&gt; 3星通关别传MN-4；必须编入非助战瑕光并上场，且使用瑕光歼灭至少2名持盾独立骑士</t>
+          <t>&gt; 战斗中非助战奥斯塔累计使用影钉8次&gt; 3星通关主题曲6-8；必须编入非助战奥斯塔并上场，且使用奥斯塔至少歼灭10个敌人</t>
         </is>
       </c>
     </row>
@@ -5044,34 +5044,34 @@
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t>MN-2</t>
+          <t>MN-4</t>
         </is>
       </c>
       <c r="C157" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D157" s="5" t="inlineStr">
         <is>
-          <t>maa://20973 (100.0)</t>
+          <t>maa://29054 (100.0), maa://32845 (100.0)</t>
         </is>
       </c>
       <c r="E157" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战瑕光并上场，且每次战斗至少释放1次先贤化身&gt; 3星通关别传MN-2；必须编入非助战瑕光并上场，其他成员仅可编入重装干员</t>
+          <t>&gt; 由非助战瑕光累计造成80000点伤害&gt; 3星通关别传MN-4；必须编入非助战瑕光并上场，且使用瑕光歼灭至少2名持盾独立骑士</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>杰克</t>
+          <t>瑕光</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>CB-4</t>
+          <t>MN-2</t>
         </is>
       </c>
       <c r="C158" s="7" t="inlineStr">
@@ -5081,105 +5081,105 @@
       </c>
       <c r="D158" s="5" t="inlineStr">
         <is>
-          <t>maa://39150 (100.0)</t>
+          <t>maa://20973 (100.0)</t>
         </is>
       </c>
       <c r="E158" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战杰克累计使用全神贯注！8次&gt; 3星通关别传CB-4；必须编入非助战杰克并上场，其他成员仅可编入6名干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战瑕光并上场，且每次战斗至少释放1次先贤化身&gt; 3星通关别传MN-2；必须编入非助战瑕光并上场，其他成员仅可编入重装干员</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>絮雨</t>
+          <t>杰克</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>CB-4</t>
         </is>
       </c>
       <c r="C159" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D159" s="5" t="inlineStr">
         <is>
-          <t>maa://20975 (90.0), maa://30806 (100.0)</t>
+          <t>maa://39150 (100.0)</t>
         </is>
       </c>
       <c r="E159" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战絮雨并上场，且每次战斗至少释放1次痛觉抑制&gt; 3星通关主题曲2-5；且仅可编入非助战絮雨1名医疗干员并上场</t>
+          <t>&gt; 战斗中非助战杰克累计使用全神贯注！8次&gt; 3星通关别传CB-4；必须编入非助战杰克并上场，其他成员仅可编入6名干员</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>泥岩</t>
+          <t>絮雨</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>11-7</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C160" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D160" s="5" t="inlineStr">
         <is>
-          <t>maa://29627 (92.5), maa://29633 (91.76), maa://29659 (82.14), maa://29861 (100.0)</t>
+          <t>maa://20975 (90.0), maa://30806 (100.0)</t>
         </is>
       </c>
       <c r="E160" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战泥岩累计使用岩崩锤40次&gt; 3星通关主题曲11-7标准实战环境；必须编入非助战泥岩并上场，且不编入其他重装干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战絮雨并上场，且每次战斗至少释放1次痛觉抑制&gt; 3星通关主题曲2-5；且仅可编入非助战絮雨1名医疗干员并上场</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>迷迭香</t>
+          <t>泥岩</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>4-1</t>
+          <t>11-7</t>
         </is>
       </c>
       <c r="C161" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D161" s="5" t="inlineStr">
         <is>
-          <t>maa://29059 (100.0)</t>
+          <t>maa://29627 (92.5), maa://29633 (91.85), maa://29659 (82.14), maa://29861 (100.0)</t>
         </is>
       </c>
       <c r="E161" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战迷迭香累计造成120000点伤害&gt; 3星通关主题曲4-1；必须编入非助战迷迭香并上场，且使用迷迭香歼灭至少10个敌人</t>
+          <t>&gt; 战斗中非助战泥岩累计使用岩崩锤40次&gt; 3星通关主题曲11-7标准实战环境；必须编入非助战泥岩并上场，且不编入其他重装干员</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>松果</t>
+          <t>迷迭香</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>4-1</t>
         </is>
       </c>
       <c r="C162" s="7" t="inlineStr">
@@ -5189,24 +5189,24 @@
       </c>
       <c r="D162" s="5" t="inlineStr">
         <is>
-          <t>maa://40159 (100.0)</t>
+          <t>maa://29059 (100.0)</t>
         </is>
       </c>
       <c r="E162" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战松果累计使用电能过载8次&gt; 3星通关主题曲3-6；必须编入非助战松果并上场，且至少使用3次电能过载</t>
+          <t>&gt; 由非助战迷迭香累计造成120000点伤害&gt; 3星通关主题曲4-1；必须编入非助战迷迭香并上场，且使用迷迭香歼灭至少10个敌人</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>罗宾</t>
+          <t>松果</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>BI-EX-2</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C163" s="7" t="inlineStr">
@@ -5216,24 +5216,24 @@
       </c>
       <c r="D163" s="5" t="inlineStr">
         <is>
-          <t>maa://39152 (100.0)</t>
+          <t>maa://40159 (100.0)</t>
         </is>
       </c>
       <c r="E163" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战罗宾，且每次战斗至少使2名敌人坠落地穴&gt; 3星通关别传BI-EX-2；必须编入非助战罗宾，且本次战斗有至少6名冰原御法者坠落地穴</t>
+          <t>&gt; 战斗中非助战松果累计使用电能过载8次&gt; 3星通关主题曲3-6；必须编入非助战松果并上场，且至少使用3次电能过载</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>卡夫卡</t>
+          <t>罗宾</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>2-7</t>
+          <t>BI-EX-2</t>
         </is>
       </c>
       <c r="C164" s="7" t="inlineStr">
@@ -5243,24 +5243,24 @@
       </c>
       <c r="D164" s="5" t="inlineStr">
         <is>
-          <t>*maa://20905 (80.0)</t>
+          <t>maa://39152 (100.0)</t>
         </is>
       </c>
       <c r="E164" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战卡夫卡使用技能累计歼灭50名敌人&gt; 3星通关主题曲2-7；必须编入非助战卡夫卡并上场，且使用卡夫卡技能至少歼灭10名敌人</t>
+          <t>&gt; 完成5次战斗；必须编入非助战罗宾，且每次战斗至少使2名敌人坠落地穴&gt; 3星通关别传BI-EX-2；必须编入非助战罗宾，且本次战斗有至少6名冰原御法者坠落地穴</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>山</t>
+          <t>卡夫卡</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>MB-EX-3</t>
+          <t>2-7</t>
         </is>
       </c>
       <c r="C165" s="7" t="inlineStr">
@@ -5270,24 +5270,24 @@
       </c>
       <c r="D165" s="5" t="inlineStr">
         <is>
-          <t>maa://32418 (99.71)</t>
+          <t>*maa://20905 (75.0)</t>
         </is>
       </c>
       <c r="E165" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战山累计造成40歼灭数&gt; 3星通关别传MB-EX-3；必须编入非助战山并上场，且不编入其他近卫干员</t>
+          <t>&gt; 由非助战卡夫卡使用技能累计歼灭50名敌人&gt; 3星通关主题曲2-7；必须编入非助战卡夫卡并上场，且使用卡夫卡技能至少歼灭10名敌人</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>豆苗</t>
+          <t>山</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>S3-7</t>
+          <t>MB-EX-3</t>
         </is>
       </c>
       <c r="C166" s="7" t="inlineStr">
@@ -5297,24 +5297,24 @@
       </c>
       <c r="D166" s="5" t="inlineStr">
         <is>
-          <t>*maa://37690 (80.0)</t>
+          <t>maa://32418 (99.72)</t>
         </is>
       </c>
       <c r="E166" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战豆苗，并确定第一位部署的干员是豆苗&gt; 3星通关主题曲S3-7；必须编入非助战豆苗并上场，且至少使用1次“大家一起上”</t>
+          <t>&gt; 由非助战山累计造成40歼灭数&gt; 3星通关别传MB-EX-3；必须编入非助战山并上场，且不编入其他近卫干员</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>爱丽丝</t>
+          <t>豆苗</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>2-2</t>
+          <t>S3-7</t>
         </is>
       </c>
       <c r="C167" s="7" t="inlineStr">
@@ -5324,24 +5324,24 @@
       </c>
       <c r="D167" s="5" t="inlineStr">
         <is>
-          <t>maa://20842 (92.31)</t>
+          <t>*maa://37690 (80.0)</t>
         </is>
       </c>
       <c r="E167" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战爱丽丝累计造成30歼灭数&gt; 3星通关主题曲2-2；必须编入非助战爱丽丝并上场，且使用爱丽丝歼灭至少2个重装防御者</t>
+          <t>&gt; 完成5次战斗；必须编入非助战豆苗，并确定第一位部署的干员是豆苗&gt; 3星通关主题曲S3-7；必须编入非助战豆苗并上场，且至少使用1次“大家一起上”</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>空弦</t>
+          <t>爱丽丝</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>2-2</t>
         </is>
       </c>
       <c r="C168" s="7" t="inlineStr">
@@ -5351,12 +5351,12 @@
       </c>
       <c r="D168" s="5" t="inlineStr">
         <is>
-          <t>maa://20912 (100.0)</t>
+          <t>maa://20842 (92.31)</t>
         </is>
       </c>
       <c r="E168" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战空弦累计造成100000点伤害&gt; 3星通关插曲SV-4；必须编入非助战空弦并上场，其他成员不可编入狙击干员</t>
+          <t>&gt; 由非助战爱丽丝累计造成30歼灭数&gt; 3星通关主题曲2-2；必须编入非助战爱丽丝并上场，且使用爱丽丝歼灭至少2个重装防御者</t>
         </is>
       </c>
     </row>
@@ -5368,61 +5368,61 @@
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>2-9</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C169" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D169" s="5" t="inlineStr">
         <is>
-          <t>maa://20911 (91.67), *maa://29012 (66.67)</t>
+          <t>maa://20912 (100.0)</t>
         </is>
       </c>
       <c r="E169" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战空弦并上场，且使用空弦歼灭至少5名敌人&gt; 3星通关主题曲2-9；必须编入非助战空弦并上场，且不编入其他狙击干员</t>
+          <t>&gt; 由非助战空弦累计造成100000点伤害&gt; 3星通关插曲SV-4；必须编入非助战空弦并上场，其他成员不可编入狙击干员</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>图耶</t>
+          <t>空弦</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>2-9</t>
         </is>
       </c>
       <c r="C170" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D170" s="5" t="inlineStr">
         <is>
-          <t>maa://20964 (100.0)</t>
+          <t>maa://20911 (91.67), *maa://29012 (66.67)</t>
         </is>
       </c>
       <c r="E170" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战图耶并上场，且每次战斗至少释放1次强心剂&gt; 3星通关主题曲4-6；必须编入非助战图耶并上场，其他成员仅可编入6名干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战空弦并上场，且使用空弦歼灭至少5名敌人&gt; 3星通关主题曲2-9；必须编入非助战空弦并上场，且不编入其他狙击干员</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>炎狱炎熔</t>
+          <t>图耶</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>WR-4</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C171" s="7" t="inlineStr">
@@ -5432,66 +5432,66 @@
       </c>
       <c r="D171" s="5" t="inlineStr">
         <is>
-          <t>maa://20983 (100.0)</t>
+          <t>maa://20964 (100.0)</t>
         </is>
       </c>
       <c r="E171" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战炎狱炎熔累计造成80歼灭数&gt; 3星通关别传WR-4； 必须编入非助战炎狱炎熔并上场，且使用炎狱炎熔歼灭至少8名敌人、其中包括至少1名“偷闲”</t>
+          <t>&gt; 完成5次战斗；必须编入非助战图耶并上场，且每次战斗至少释放1次强心剂&gt; 3星通关主题曲4-6；必须编入非助战图耶并上场，其他成员仅可编入6名干员</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>乌有</t>
+          <t>炎狱炎熔</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>WR-4</t>
         </is>
       </c>
       <c r="C172" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D172" s="5" t="inlineStr">
         <is>
-          <t>maa://31560 (83.33), **maa://20968 (50.0)</t>
+          <t>maa://20983 (100.0)</t>
         </is>
       </c>
       <c r="E172" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战乌有并部署至少2次，且使用乌有歼灭至少4名敌人&gt; 3星通关主题曲3-7；必须编入非助战乌有并上场，且使用乌有歼灭至少2个炮手</t>
+          <t>&gt; 由非助战炎狱炎熔累计造成80歼灭数&gt; 3星通关别传WR-4； 必须编入非助战炎狱炎熔并上场，且使用炎狱炎熔歼灭至少8名敌人、其中包括至少1名“偷闲”</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>嵯峨</t>
+          <t>乌有</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
         <is>
-          <t>WR-3</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C173" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D173" s="5" t="inlineStr">
         <is>
-          <t>maa://28104 (100.0)</t>
+          <t>maa://31560 (83.33), **maa://20968 (50.0)</t>
         </is>
       </c>
       <c r="E173" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战嵯峨累计造成80000点伤害&gt; 3星通关别传WR-3；必须编入非助战嵯峨，且第一位部署嵯峨、嵯峨全程不撤退或被击倒</t>
+          <t>&gt; 完成5次战斗；必须编入非助战乌有并部署至少2次，且使用乌有歼灭至少4名敌人&gt; 3星通关主题曲3-7；必须编入非助战乌有并上场，且使用乌有歼灭至少2个炮手</t>
         </is>
       </c>
     </row>
@@ -5503,7 +5503,7 @@
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>WR-1</t>
+          <t>WR-3</t>
         </is>
       </c>
       <c r="C174" s="7" t="inlineStr">
@@ -5513,24 +5513,24 @@
       </c>
       <c r="D174" s="5" t="inlineStr">
         <is>
-          <t>maa://20861 (100.0)</t>
+          <t>maa://28104 (100.0)</t>
         </is>
       </c>
       <c r="E174" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战嵯峨，并确定第一位部署的干员是嵯峨&gt; 3星通关别传WR-1；必须编入非助战嵯峨并上场，其他成员仅可编入2名干员</t>
+          <t>&gt; 由非助战嵯峨累计造成80000点伤害&gt; 3星通关别传WR-3；必须编入非助战嵯峨，且第一位部署嵯峨、嵯峨全程不撤退或被击倒</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>夕</t>
+          <t>嵯峨</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
         <is>
-          <t>1-6</t>
+          <t>WR-1</t>
         </is>
       </c>
       <c r="C175" s="7" t="inlineStr">
@@ -5540,12 +5540,12 @@
       </c>
       <c r="D175" s="5" t="inlineStr">
         <is>
-          <t>maa://20970 (100.0)</t>
+          <t>maa://20861 (100.0)</t>
         </is>
       </c>
       <c r="E175" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中累计召唤非助战夕的召唤物20回&gt; 使用至多2人（包含助战）的队伍3星通关主题曲1-6；必须编入非助战夕并上场，其他成员仅可编入重装干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战嵯峨，并确定第一位部署的干员是嵯峨&gt; 3星通关别传WR-1；必须编入非助战嵯峨并上场，其他成员仅可编入2名干员</t>
         </is>
       </c>
     </row>
@@ -5557,61 +5557,61 @@
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>1-6</t>
         </is>
       </c>
       <c r="C176" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D176" s="5" t="inlineStr">
         <is>
-          <t>maa://20969 (85.19), maa://41303 (100.0)</t>
+          <t>maa://20970 (100.0)</t>
         </is>
       </c>
       <c r="E176" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战夕累计造成80歼灭数&gt; 3星通关主题曲4-3；必须编入非助战夕并上场，其他成员仅可编入先锋干员</t>
+          <t>&gt; 战斗中累计召唤非助战夕的召唤物20回&gt; 使用至多2人（包含助战）的队伍3星通关主题曲1-6；必须编入非助战夕并上场，其他成员仅可编入重装干员</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="inlineStr">
         <is>
-          <t>战车</t>
+          <t>夕</t>
         </is>
       </c>
       <c r="B177" s="2" t="inlineStr">
         <is>
-          <t>S2-3</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C177" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D177" s="5" t="inlineStr">
         <is>
-          <t>maa://20999 (100.0)</t>
+          <t>maa://20969 (85.19), maa://41303 (100.0)</t>
         </is>
       </c>
       <c r="E177" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战战车累计造成150000点伤害&gt; 使用至多2人（包含助战）的队伍3星通关主题曲S2-3；必须编入非助战战车并上场，其他成员仅可编入重装干员</t>
+          <t>&gt; 由非助战夕累计造成80歼灭数&gt; 3星通关主题曲4-3；必须编入非助战夕并上场，其他成员仅可编入先锋干员</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>闪击</t>
+          <t>战车</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>S2-3</t>
         </is>
       </c>
       <c r="C178" s="7" t="inlineStr">
@@ -5621,24 +5621,24 @@
       </c>
       <c r="D178" s="5" t="inlineStr">
         <is>
-          <t>maa://35198 (100.0)</t>
+          <t>maa://20999 (100.0)</t>
         </is>
       </c>
       <c r="E178" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战闪击累计造成30歼灭数&gt; 3星通关主题曲3-4；必须编入非助战闪击并上场，且使用闪击歼灭至少2名屠夫</t>
+          <t>&gt; 由非助战战车累计造成150000点伤害&gt; 使用至多2人（包含助战）的队伍3星通关主题曲S2-3；必须编入非助战战车并上场，其他成员仅可编入重装干员</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>霜华</t>
+          <t>闪击</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C179" s="7" t="inlineStr">
@@ -5648,39 +5648,39 @@
       </c>
       <c r="D179" s="5" t="inlineStr">
         <is>
-          <t>maa://39153 (100.0)</t>
+          <t>maa://35198 (100.0)</t>
         </is>
       </c>
       <c r="E179" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战霜华累计造成100000点伤害※迎宾踏垫造成的伤害可计数&gt; 3星通关主题曲4-4；必须编入非助战霜华并上场，且使用霜华歼灭弑君者※允许使用迎宾踏垫歼灭弑君者</t>
+          <t>&gt; 由非助战闪击累计造成30歼灭数&gt; 3星通关主题曲3-4；必须编入非助战闪击并上场，且使用闪击歼灭至少2名屠夫</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>灰烬</t>
+          <t>霜华</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>SV-8</t>
+          <t>4-4</t>
         </is>
       </c>
       <c r="C180" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D180" s="5" t="inlineStr">
         <is>
-          <t>maa://34866 (85.71), maa://34714 (95.45)</t>
+          <t>maa://39153 (100.0)</t>
         </is>
       </c>
       <c r="E180" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战灰烬累计造成100000点伤害&gt; 3星通关插曲SV-8；必须编入非助战灰烬并上场，且使用灰烬歼灭至少2名囊海爬行者</t>
+          <t>&gt; 由非助战霜华累计造成100000点伤害※迎宾踏垫造成的伤害可计数&gt; 3星通关主题曲4-4；必须编入非助战霜华并上场，且使用霜华歼灭弑君者※允许使用迎宾踏垫歼灭弑君者</t>
         </is>
       </c>
     </row>
@@ -5692,7 +5692,7 @@
       </c>
       <c r="B181" s="2" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>SV-8</t>
         </is>
       </c>
       <c r="C181" s="7" t="inlineStr">
@@ -5702,51 +5702,51 @@
       </c>
       <c r="D181" s="5" t="inlineStr">
         <is>
-          <t>maa://20895 (100.0), maa://34883 (100.0)</t>
+          <t>maa://34866 (86.36), maa://34714 (95.45)</t>
         </is>
       </c>
       <c r="E181" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战灰烬累计歼灭10个精英敌人&gt; 3星通关主题曲1-12；必须编入非助战灰烬并上场，且使用灰烬歼灭W</t>
+          <t>&gt; 由非助战灰烬累计造成100000点伤害&gt; 3星通关插曲SV-8；必须编入非助战灰烬并上场，且使用灰烬歼灭至少2名囊海爬行者</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>暴雨</t>
+          <t>灰烬</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t>2-7</t>
+          <t>1-12</t>
         </is>
       </c>
       <c r="C182" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D182" s="5" t="inlineStr">
         <is>
-          <t>maa://20853 (100.0)</t>
+          <t>maa://20895 (100.0), maa://34883 (100.0)</t>
         </is>
       </c>
       <c r="E182" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战暴雨累计使用应急迷彩30次&gt; 3星通关主题曲2-7；必须编入非助战暴雨并上场，且所有干员不被击倒</t>
+          <t>&gt; 由非助战灰烬累计歼灭10个精英敌人&gt; 3星通关主题曲1-12；必须编入非助战灰烬并上场，且使用灰烬歼灭W</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="inlineStr">
         <is>
-          <t>熔泉</t>
+          <t>暴雨</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>2-7</t>
         </is>
       </c>
       <c r="C183" s="7" t="inlineStr">
@@ -5756,24 +5756,24 @@
       </c>
       <c r="D183" s="5" t="inlineStr">
         <is>
-          <t>maa://20942 (100.0)</t>
+          <t>maa://20853 (100.0)</t>
         </is>
       </c>
       <c r="E183" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战熔泉累计歼灭20个萨卡兹敌人&gt; 3星通关主题曲4-6；必须编入非助战熔泉并上场，其他成员仅可编入6名干员</t>
+          <t>&gt; 战斗中非助战暴雨累计使用应急迷彩30次&gt; 3星通关主题曲2-7；必须编入非助战暴雨并上场，且所有干员不被击倒</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>异客</t>
+          <t>熔泉</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
         <is>
-          <t>2-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C184" s="7" t="inlineStr">
@@ -5783,12 +5783,12 @@
       </c>
       <c r="D184" s="5" t="inlineStr">
         <is>
-          <t>maa://20992 (100.0)</t>
+          <t>maa://20942 (100.0)</t>
         </is>
       </c>
       <c r="E184" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战异客累计使用辉煌裂片30次&gt; 3星通关主题曲2-2；必须编入非助战异客并上场，其他成员仅可编入先锋和重装干员</t>
+          <t>&gt; 由非助战熔泉累计歼灭20个萨卡兹敌人&gt; 3星通关主题曲4-6；必须编入非助战熔泉并上场，其他成员仅可编入6名干员</t>
         </is>
       </c>
     </row>
@@ -5800,76 +5800,76 @@
       </c>
       <c r="B185" s="2" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>2-2</t>
         </is>
       </c>
       <c r="C185" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D185" s="5" t="inlineStr">
         <is>
-          <t>*maa://28190 (56.67), maa://20994 (100.0)</t>
+          <t>maa://20992 (100.0)</t>
         </is>
       </c>
       <c r="E185" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战异客并上场，且使用异客造成至少30000点伤害&gt; 3星通关主题曲5-10；必须编入非助战异客并上场，且使用异客歼灭至少2个粉碎攻坚手</t>
+          <t>&gt; 战斗中非助战异客累计使用辉煌裂片30次&gt; 3星通关主题曲2-2；必须编入非助战异客并上场，其他成员仅可编入先锋和重装干员</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>赤冬</t>
+          <t>异客</t>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C186" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D186" s="5" t="inlineStr">
         <is>
-          <t>maa://20860 (100.0)</t>
+          <t>*maa://28190 (56.67), maa://20994 (100.0)</t>
         </is>
       </c>
       <c r="E186" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战赤冬累计使用信影流·十文字胜5次&gt; 3星通关主题曲3-8；必须编入非助战赤冬并上场，且使用赤冬歼灭碎骨</t>
+          <t>&gt; 完成5次战斗；必须编入非助战异客并上场，且使用异客造成至少30000点伤害&gt; 3星通关主题曲5-10；必须编入非助战异客并上场，且使用异客歼灭至少2个粉碎攻坚手</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>歌蕾蒂娅</t>
+          <t>赤冬</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
         <is>
-          <t>SV-EX-5</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C187" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D187" s="5" t="inlineStr">
         <is>
-          <t>maa://25760 (81.97), *maa://35854 (68.0), **maa://20872 (50.0)</t>
+          <t>maa://20860 (100.0)</t>
         </is>
       </c>
       <c r="E187" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战歌蕾蒂娅并上场，且每次战斗至少释放1次缺水的碎漩狂舞&gt; 3星通关插曲SV-EX-5；必须编入非助战歌蕾蒂娅，且至少使1个富营养的收割者坠落地穴</t>
+          <t>&gt; 战斗中非助战赤冬累计使用信影流·十文字胜5次&gt; 3星通关主题曲3-8；必须编入非助战赤冬并上场，且使用赤冬歼灭碎骨</t>
         </is>
       </c>
     </row>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="B188" s="2" t="inlineStr">
         <is>
-          <t>SN-EX-3</t>
+          <t>SV-EX-5</t>
         </is>
       </c>
       <c r="C188" s="7" t="inlineStr">
@@ -5891,39 +5891,39 @@
       </c>
       <c r="D188" s="5" t="inlineStr">
         <is>
-          <t>**maa://38297 (38.46), maa://39156 (88.89), maa://39550 (100.0)</t>
+          <t>maa://25760 (81.97), *maa://35854 (69.23), **maa://20872 (50.0)</t>
         </is>
       </c>
       <c r="E188" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战歌蕾蒂娅，且每次战斗至少使2名敌人坠落地穴&gt; 3星通关插曲SN-EX-3；必须编入非助战歌蕾蒂娅并上场，且使用至少2次缺水的掌握怒海或缺水的碎漩狂舞</t>
+          <t>&gt; 完成5次战斗；必须编入非助战歌蕾蒂娅并上场，且每次战斗至少释放1次缺水的碎漩狂舞&gt; 3星通关插曲SV-EX-5；必须编入非助战歌蕾蒂娅，且至少使1个富营养的收割者坠落地穴</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="inlineStr">
         <is>
-          <t>凯尔希</t>
+          <t>歌蕾蒂娅</t>
         </is>
       </c>
       <c r="B189" s="2" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>SN-EX-3</t>
         </is>
       </c>
       <c r="C189" s="7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D189" s="5" t="inlineStr">
         <is>
-          <t>maa://27823 (81.13), *maa://28190 (56.67), maa://22894 (90.62), *maa://20906 (72.22), **maa://20907 (33.33)</t>
+          <t>**maa://38297 (33.33), maa://39156 (88.89), maa://39550 (100.0)</t>
         </is>
       </c>
       <c r="E189" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战凯尔希累计造成150000点伤害※Mon3tr造成的伤害会计数&gt; 3星通关主题曲5-10；必须编入非助战凯尔希并上场，且使用4次指令：熔毁</t>
+          <t>&gt; 完成5次战斗；必须编入非助战歌蕾蒂娅，且每次战斗至少使2名敌人坠落地穴&gt; 3星通关插曲SN-EX-3；必须编入非助战歌蕾蒂娅并上场，且使用至少2次缺水的掌握怒海或缺水的碎漩狂舞</t>
         </is>
       </c>
     </row>
@@ -5950,73 +5950,73 @@
       </c>
       <c r="E190" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战凯尔希累计使用指令：熔毁10次&gt; 3星通关主题曲5-10；必须编入非助战凯尔希并上场，且使用Mon3tr歼灭梅菲斯特</t>
+          <t>&gt; 由非助战凯尔希累计造成150000点伤害※Mon3tr造成的伤害会计数&gt; 3星通关主题曲5-10；必须编入非助战凯尔希并上场，且使用4次指令：熔毁</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>深靛</t>
+          <t>凯尔希</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t>SV-5</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C191" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D191" s="5" t="inlineStr">
         <is>
-          <t>maa://39154 (100.0)</t>
+          <t>maa://27823 (81.13), *maa://28190 (56.67), maa://22894 (90.62), *maa://20906 (72.22), **maa://20907 (33.33)</t>
         </is>
       </c>
       <c r="E191" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战深靛累计造成60000点伤害&gt; 3星通关插曲SV-5；必须编入非助战深靛并上场，且使用2次光影迷宫</t>
+          <t>&gt; 战斗中非助战凯尔希累计使用指令：熔毁10次&gt; 3星通关主题曲5-10；必须编入非助战凯尔希并上场，且使用Mon3tr歼灭梅菲斯特</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>贝娜</t>
+          <t>浊心斯卡蒂</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>SV-5</t>
         </is>
       </c>
       <c r="C192" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D192" s="5" t="inlineStr">
         <is>
-          <t>maa://20854 (92.31)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E192" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战贝娜并上场，且每次战斗至少释放1次快速修剪&gt; 3星通关主题曲2-3；必须编入非助战贝娜并上场，且使用贝娜歼灭至少1个重装防御者</t>
+          <t>&gt; 携带非助战浊心斯卡蒂完成5次战斗，且每次战斗至少发动一次“同葬无光之愿”&gt; 3星通关插曲SV-5；必须编入非助战浊心斯卡蒂并上场，且队伍中不能有医疗干员</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="inlineStr">
         <is>
-          <t>绮良</t>
+          <t>深靛</t>
         </is>
       </c>
       <c r="B193" s="2" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>SV-5</t>
         </is>
       </c>
       <c r="C193" s="7" t="inlineStr">
@@ -6026,24 +6026,24 @@
       </c>
       <c r="D193" s="5" t="inlineStr">
         <is>
-          <t>maa://20937 (100.0)</t>
+          <t>maa://39154 (100.0)</t>
         </is>
       </c>
       <c r="E193" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战绮良累计使用锚点捕捉5次&gt; 3星通关主题曲3-1；必须编入非助战绮良并上场，且使用绮良歼灭20个敌人</t>
+          <t>&gt; 由非助战深靛累计造成60000点伤害&gt; 3星通关插曲SV-5；必须编入非助战深靛并上场，且使用2次光影迷宫</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>卡涅利安</t>
+          <t>贝娜</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
         <is>
-          <t>7-3</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="C194" s="7" t="inlineStr">
@@ -6053,127 +6053,127 @@
       </c>
       <c r="D194" s="5" t="inlineStr">
         <is>
-          <t>maa://22468 (100.0)</t>
+          <t>maa://20854 (92.31)</t>
         </is>
       </c>
       <c r="E194" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战卡涅利安累计造成120000点伤害&gt; 3星通关主题曲7-3；必须编入非助战卡涅利安并上场，且不编入重装干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战贝娜并上场，且每次战斗至少释放1次快速修剪&gt; 3星通关主题曲2-3；必须编入非助战贝娜并上场，且使用贝娜歼灭至少1个重装防御者</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="inlineStr">
         <is>
-          <t>卡涅利安</t>
+          <t>绮良</t>
         </is>
       </c>
       <c r="B195" s="2" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C195" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D195" s="5" t="inlineStr">
         <is>
-          <t>maa://30673 (100.0), maa://30672 (100.0)</t>
+          <t>maa://20937 (100.0)</t>
         </is>
       </c>
       <c r="E195" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战卡涅利安累计造成80歼灭数&gt; 3星通关主题曲4-6；必须编入非助战卡涅利安并上场，其他成员仅可编入6名干员</t>
+          <t>&gt; 战斗中非助战绮良累计使用锚点捕捉5次&gt; 3星通关主题曲3-1；必须编入非助战绮良并上场，且使用绮良歼灭20个敌人</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>帕拉斯</t>
+          <t>卡涅利安</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>7-3</t>
         </is>
       </c>
       <c r="C196" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D196" s="5" t="inlineStr">
         <is>
-          <t>maa://20934 (100.0), maa://20827 (100.0), maa://20828 (100.0)</t>
+          <t>maa://22468 (100.0)</t>
         </is>
       </c>
       <c r="E196" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战帕拉斯累计造成50歼灭数&gt; 使用至多2人（包含助战）的队伍3星通关主题曲3-6；必须编入非助战帕拉斯并上场，其他成员仅可编入医疗干员</t>
+          <t>&gt; 由非助战卡涅利安累计造成120000点伤害&gt; 3星通关主题曲7-3；必须编入非助战卡涅利安并上场，且不编入重装干员</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="inlineStr">
         <is>
-          <t>帕拉斯</t>
+          <t>卡涅利安</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C197" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D197" s="5" t="inlineStr">
         <is>
-          <t>maa://20935 (100.0)</t>
+          <t>maa://30673 (100.0), maa://30672 (100.0)</t>
         </is>
       </c>
       <c r="E197" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战帕拉斯累计使用英勇的祝福5次&gt; 3星通关主题曲4-3；必须编入非助战帕拉斯并上场，其他成员仅可编入重装干员</t>
+          <t>&gt; 由非助战卡涅利安累计造成80歼灭数&gt; 3星通关主题曲4-6；必须编入非助战卡涅利安并上场，其他成员仅可编入6名干员</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>羽毛笔</t>
+          <t>帕拉斯</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C198" s="7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D198" s="5" t="inlineStr">
         <is>
-          <t>maa://28133 (89.74), *maa://28277 (79.17), maa://25369 (92.59), ***maa://39217 (22.22), *maa://33132 (66.67)</t>
+          <t>maa://20934 (100.0), maa://20827 (100.0), maa://20828 (100.0)</t>
         </is>
       </c>
       <c r="E198" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战羽毛笔并上场，且使用羽毛笔造成至少12000点伤害&gt; 3星通关主题曲11-6标准实战环境；必须编入非助战羽毛笔并上场，且使用羽毛笔至少歼灭15个敌人</t>
+          <t>&gt; 由非助战帕拉斯累计造成50歼灭数&gt; 使用至多2人（包含助战）的队伍3星通关主题曲3-6；必须编入非助战帕拉斯并上场，其他成员仅可编入医疗干员</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="inlineStr">
         <is>
-          <t>水月</t>
+          <t>帕拉斯</t>
         </is>
       </c>
       <c r="B199" s="2" t="inlineStr">
@@ -6183,83 +6183,83 @@
       </c>
       <c r="C199" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D199" s="5" t="inlineStr">
         <is>
-          <t>maa://20956 (95.04), *maa://20830 (77.78)</t>
+          <t>maa://20935 (100.0)</t>
         </is>
       </c>
       <c r="E199" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战水月累计造成150000点伤害&gt; 3星通关主题曲4-3；必须编入非助战水月并上场，且使用水月歼灭至少2名萨卡兹狙击手</t>
+          <t>&gt; 战斗中非助战帕拉斯累计使用英勇的祝福5次&gt; 3星通关主题曲4-3；必须编入非助战帕拉斯并上场，其他成员仅可编入重装干员</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="inlineStr">
         <is>
-          <t>水月</t>
+          <t>羽毛笔</t>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C200" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D200" s="5" t="inlineStr">
         <is>
-          <t>*maa://20955 (78.57)</t>
+          <t>maa://28133 (89.74), *maa://28277 (79.17), maa://25369 (92.59), ***maa://39217 (22.22), *maa://33132 (66.67)</t>
         </is>
       </c>
       <c r="E200" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战水月累计造成50歼灭数&gt; 3星通关主题曲4-5；必须编入非助战水月并上场，且使用水月歼灭10个敌人</t>
+          <t>&gt; 完成5次战斗；必须编入非助战羽毛笔并上场，且使用羽毛笔造成至少12000点伤害&gt; 3星通关主题曲11-6标准实战环境；必须编入非助战羽毛笔并上场，且使用羽毛笔至少歼灭15个敌人</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="inlineStr">
         <is>
-          <t>假日威龙陈</t>
+          <t>水月</t>
         </is>
       </c>
       <c r="B201" s="2" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C201" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D201" s="5" t="inlineStr">
         <is>
-          <t>maa://39238 (98.78)</t>
+          <t>maa://20956 (95.07), *maa://20830 (77.78)</t>
         </is>
       </c>
       <c r="E201" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战假日威龙陈累计造成120000伤害&gt; 3星通关主题曲9-13标准实战环境；必须编入非助战假日威龙陈并上场，且使用假日威龙陈至少歼灭20个敌人</t>
+          <t>&gt; 由非助战水月累计造成150000点伤害&gt; 3星通关主题曲4-3；必须编入非助战水月并上场，且使用水月歼灭至少2名萨卡兹狙击手</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="inlineStr">
         <is>
-          <t>罗比菈塔</t>
+          <t>水月</t>
         </is>
       </c>
       <c r="B202" s="2" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C202" s="7" t="inlineStr">
@@ -6269,24 +6269,24 @@
       </c>
       <c r="D202" s="5" t="inlineStr">
         <is>
-          <t>**maa://24556 (50.0)</t>
+          <t>*maa://20955 (75.86)</t>
         </is>
       </c>
       <c r="E202" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战罗比菈塔累计部署支援装置25个&gt; 3星通关主题曲3-8；必须编入非助战罗比菈塔并上场，且所有干员不被击倒</t>
+          <t>&gt; 由非助战水月累计造成50歼灭数&gt; 3星通关主题曲4-5；必须编入非助战水月并上场，且使用水月歼灭10个敌人</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="inlineStr">
         <is>
-          <t>桑葚</t>
+          <t>假日威龙陈</t>
         </is>
       </c>
       <c r="B203" s="2" t="inlineStr">
         <is>
-          <t>SV-5</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C203" s="7" t="inlineStr">
@@ -6296,51 +6296,51 @@
       </c>
       <c r="D203" s="5" t="inlineStr">
         <is>
-          <t>maa://39694 (100.0)</t>
+          <t>maa://39238 (98.8)</t>
         </is>
       </c>
       <c r="E203" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战桑葚并上场，且每次战斗至少释放1次安全区域&gt; 3星通关插曲SV-5；必须编入非助战桑葚并上场，其他成员仅可编入7名干员</t>
+          <t>&gt; 由非助战假日威龙陈累计造成120000伤害&gt; 3星通关主题曲9-13标准实战环境；必须编入非助战假日威龙陈并上场，且使用假日威龙陈至少歼灭20个敌人</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="inlineStr">
         <is>
-          <t>琴柳</t>
+          <t>罗比菈塔</t>
         </is>
       </c>
       <c r="B204" s="2" t="inlineStr">
         <is>
-          <t>9-2</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C204" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D204" s="5" t="inlineStr">
         <is>
-          <t>maa://24636 (100.0), maa://25778 (100.0)</t>
+          <t>**maa://24556 (33.33)</t>
         </is>
       </c>
       <c r="E204" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战琴柳累计使用信仰传承10次&gt; 3星通关主题曲9-2；必须编入非助战琴柳并上场，且不编入其他先锋干员</t>
+          <t>&gt; 战斗中非助战罗比菈塔累计部署支援装置25个&gt; 3星通关主题曲3-8；必须编入非助战罗比菈塔并上场，且所有干员不被击倒</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="inlineStr">
         <is>
-          <t>灰毫</t>
+          <t>桑葚</t>
         </is>
       </c>
       <c r="B205" s="2" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>SV-5</t>
         </is>
       </c>
       <c r="C205" s="7" t="inlineStr">
@@ -6350,24 +6350,24 @@
       </c>
       <c r="D205" s="5" t="inlineStr">
         <is>
-          <t>maa://39157 (100.0)</t>
+          <t>maa://39694 (100.0)</t>
         </is>
       </c>
       <c r="E205" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战灰毫累计造成100000点伤害&gt; 3星通关主题曲7-9；必须编入非助战灰毫并上场，且使用灰毫歼灭至少2名游击队传令兵</t>
+          <t>&gt; 完成5次战斗；必须编入非助战桑葚并上场，且每次战斗至少释放1次安全区域&gt; 3星通关插曲SV-5；必须编入非助战桑葚并上场，其他成员仅可编入7名干员</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="inlineStr">
         <is>
-          <t>远牙</t>
+          <t>琴柳</t>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
         <is>
-          <t>S2-2</t>
+          <t>9-2</t>
         </is>
       </c>
       <c r="C206" s="7" t="inlineStr">
@@ -6377,105 +6377,105 @@
       </c>
       <c r="D206" s="5" t="inlineStr">
         <is>
-          <t>**maa://20995 (44.44), **maa://26496 (33.33)</t>
+          <t>maa://24636 (100.0), maa://25778 (100.0)</t>
         </is>
       </c>
       <c r="E206" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战远牙累计造成80歼灭数&gt; 3星通关主题曲S2-2；必须编入非助战远牙并上场，且远牙使用光羽箭至少歼灭8名敌人</t>
+          <t>&gt; 战斗中非助战琴柳累计使用信仰传承10次&gt; 3星通关主题曲9-2；必须编入非助战琴柳并上场，且不编入其他先锋干员</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="inlineStr">
         <is>
-          <t>远牙</t>
+          <t>灰毫</t>
         </is>
       </c>
       <c r="B207" s="2" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="C207" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D207" s="5" t="inlineStr">
         <is>
-          <t>maa://26499 (100.0), ***maa://20998 (12.5)</t>
+          <t>maa://39157 (100.0)</t>
         </is>
       </c>
       <c r="E207" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战远牙并上场，且每次战斗至少释放2次光羽箭&gt; 3星通关主题曲2-5；必须编入非助战远牙并上场，且使用远牙歼灭至少2名高阶术师</t>
+          <t>&gt; 由非助战灰毫累计造成100000点伤害&gt; 3星通关主题曲7-9；必须编入非助战灰毫并上场，且使用灰毫歼灭至少2名游击队传令兵</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="inlineStr">
         <is>
-          <t>布丁</t>
+          <t>远牙</t>
         </is>
       </c>
       <c r="B208" s="2" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>S2-2</t>
         </is>
       </c>
       <c r="C208" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D208" s="5" t="inlineStr">
         <is>
-          <t>maa://20858 (100.0)</t>
+          <t>**maa://20995 (44.44), **maa://26496 (33.33)</t>
         </is>
       </c>
       <c r="E208" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战布丁累计造成150000点伤害&gt; 3星通关主题曲2-10；必须编入非助战布丁并上场，且布丁使用技能扩散电流至少歼灭2个重装防御者</t>
+          <t>&gt; 由非助战远牙累计造成80歼灭数&gt; 3星通关主题曲S2-2；必须编入非助战远牙并上场，且远牙使用光羽箭至少歼灭8名敌人</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="inlineStr">
         <is>
-          <t>蜜莓</t>
+          <t>远牙</t>
         </is>
       </c>
       <c r="B209" s="2" t="inlineStr">
         <is>
-          <t>GA-2</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C209" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D209" s="5" t="inlineStr">
         <is>
-          <t>maa://39695 (100.0)</t>
+          <t>maa://26499 (100.0), ***maa://20998 (12.5)</t>
         </is>
       </c>
       <c r="E209" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战蜜莓累计使用振奋8次&gt; 3星通关别传GA-2；必须编入非助战蜜莓并上场，且不编入其他医疗干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战远牙并上场，且每次战斗至少释放2次光羽箭&gt; 3星通关主题曲2-5；必须编入非助战远牙并上场，且使用远牙歼灭至少2名高阶术师</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="inlineStr">
         <is>
-          <t>野鬃</t>
+          <t>布丁</t>
         </is>
       </c>
       <c r="B210" s="2" t="inlineStr">
         <is>
-          <t>MN-2</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C210" s="7" t="inlineStr">
@@ -6485,24 +6485,24 @@
       </c>
       <c r="D210" s="5" t="inlineStr">
         <is>
-          <t>maa://20988 (83.33)</t>
+          <t>maa://20858 (100.0)</t>
         </is>
       </c>
       <c r="E210" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战野鬃，并确定第一位部署的干员是野鬃&gt; 3星通关别传MN-2；必须编入非助战野鬃并上场，其他成员不可编入先锋干员</t>
+          <t>&gt; 由非助战布丁累计造成150000点伤害&gt; 3星通关主题曲2-10；必须编入非助战布丁并上场，且布丁使用技能扩散电流至少歼灭2个重装防御者</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="inlineStr">
         <is>
-          <t>蚀清</t>
+          <t>蜜莓</t>
         </is>
       </c>
       <c r="B211" s="2" t="inlineStr">
         <is>
-          <t>BI-6</t>
+          <t>GA-2</t>
         </is>
       </c>
       <c r="C211" s="7" t="inlineStr">
@@ -6512,51 +6512,51 @@
       </c>
       <c r="D211" s="5" t="inlineStr">
         <is>
-          <t>maa://39158 (100.0)</t>
+          <t>maa://39695 (100.0)</t>
         </is>
       </c>
       <c r="E211" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战蚀清累计造成100000点伤害&gt; 3星通关别传BI-6；必须编入非助战蚀清并上场，且至少使用2次传导蚀滞弹</t>
+          <t>&gt; 战斗中非助战蜜莓累计使用振奋8次&gt; 3星通关别传GA-2；必须编入非助战蜜莓并上场，且不编入其他医疗干员</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="inlineStr">
         <is>
-          <t>焰尾</t>
+          <t>野鬃</t>
         </is>
       </c>
       <c r="B212" s="2" t="inlineStr">
         <is>
-          <t>NL-5</t>
+          <t>MN-2</t>
         </is>
       </c>
       <c r="C212" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D212" s="5" t="inlineStr">
         <is>
-          <t>maa://28187 (96.67), maa://39520 (100.0)</t>
+          <t>maa://20988 (83.33)</t>
         </is>
       </c>
       <c r="E212" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战焰尾并上场，且每次战斗至少释放2次焰心&gt; 3星通关别传NL-5；必须编入非助战焰尾，且第一位部署焰尾、焰尾全程不撤退或被击倒</t>
+          <t>&gt; 完成5次战斗；必须编入非助战野鬃，并确定第一位部署的干员是野鬃&gt; 3星通关别传MN-2；必须编入非助战野鬃并上场，其他成员不可编入先锋干员</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="inlineStr">
         <is>
-          <t>焰尾</t>
+          <t>蚀清</t>
         </is>
       </c>
       <c r="B213" s="2" t="inlineStr">
         <is>
-          <t>NL-3</t>
+          <t>BI-6</t>
         </is>
       </c>
       <c r="C213" s="7" t="inlineStr">
@@ -6566,24 +6566,24 @@
       </c>
       <c r="D213" s="5" t="inlineStr">
         <is>
-          <t>maa://20985 (100.0)</t>
+          <t>maa://39158 (100.0)</t>
         </is>
       </c>
       <c r="E213" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战焰尾累计造成40000点伤害&gt; 3星通关别传NL-3；必须编入非助战焰尾并上场，其他成员仅可编入4名干员</t>
+          <t>&gt; 由非助战蚀清累计造成100000点伤害&gt; 3星通关别传BI-6；必须编入非助战蚀清并上场，且至少使用2次传导蚀滞弹</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="inlineStr">
         <is>
-          <t>耀骑士临光</t>
+          <t>焰尾</t>
         </is>
       </c>
       <c r="B214" s="2" t="inlineStr">
         <is>
-          <t>MN-8</t>
+          <t>NL-5</t>
         </is>
       </c>
       <c r="C214" s="7" t="inlineStr">
@@ -6593,24 +6593,24 @@
       </c>
       <c r="D214" s="5" t="inlineStr">
         <is>
-          <t>maa://20987 (91.3), *maa://35801 (75.0)</t>
+          <t>maa://28187 (96.67), maa://39520 (100.0)</t>
         </is>
       </c>
       <c r="E214" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战耀骑士临光累计造成100歼灭数&gt; 3星通关别传MN-8；必须编入非助战耀骑士临光并上场，且使用耀骑士临光歼灭至少1个腐败骑士或凋零骑士</t>
+          <t>&gt; 完成5次战斗；必须编入非助战焰尾并上场，且每次战斗至少释放2次焰心&gt; 3星通关别传NL-5；必须编入非助战焰尾，且第一位部署焰尾、焰尾全程不撤退或被击倒</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="inlineStr">
         <is>
-          <t>耀骑士临光</t>
+          <t>焰尾</t>
         </is>
       </c>
       <c r="B215" s="2" t="inlineStr">
         <is>
-          <t>NL-10</t>
+          <t>NL-3</t>
         </is>
       </c>
       <c r="C215" s="7" t="inlineStr">
@@ -6620,24 +6620,24 @@
       </c>
       <c r="D215" s="5" t="inlineStr">
         <is>
-          <t>maa://39159 (90.91)</t>
+          <t>maa://20985 (100.0)</t>
         </is>
       </c>
       <c r="E215" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战耀骑士临光并上场，且每次战斗至少释放1次耀阳颔首&gt; 3星通关别传NL-10；必须编入非助战耀骑士临光并上场，且使用耀骑士临光击败血骑士狄开俄波利斯</t>
+          <t>&gt; 由非助战焰尾累计造成40000点伤害&gt; 3星通关别传NL-3；必须编入非助战焰尾并上场，其他成员仅可编入4名干员</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="inlineStr">
         <is>
-          <t>耶拉</t>
+          <t>耀骑士临光</t>
         </is>
       </c>
       <c r="B216" s="2" t="inlineStr">
         <is>
-          <t>BI-7</t>
+          <t>MN-8</t>
         </is>
       </c>
       <c r="C216" s="7" t="inlineStr">
@@ -6647,24 +6647,24 @@
       </c>
       <c r="D216" s="5" t="inlineStr">
         <is>
-          <t>maa://39140 (100.0), maa://30677 (100.0)</t>
+          <t>maa://20987 (91.3), *maa://35801 (75.0)</t>
         </is>
       </c>
       <c r="E216" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战耶拉累计造成80000点伤害&gt; 3星通关别传BI-7；必须编入非助战耶拉并上场，且至少使用2次心随意动</t>
+          <t>&gt; 由非助战耀骑士临光累计造成100歼灭数&gt; 3星通关别传MN-8；必须编入非助战耀骑士临光并上场，且使用耀骑士临光歼灭至少1个腐败骑士或凋零骑士</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="inlineStr">
         <is>
-          <t>极光</t>
+          <t>耀骑士临光</t>
         </is>
       </c>
       <c r="B217" s="2" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>NL-10</t>
         </is>
       </c>
       <c r="C217" s="7" t="inlineStr">
@@ -6674,19 +6674,19 @@
       </c>
       <c r="D217" s="5" t="inlineStr">
         <is>
-          <t>maa://20896 (100.0)</t>
+          <t>maa://39159 (91.67)</t>
         </is>
       </c>
       <c r="E217" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战极光累计造成40000点伤害&gt; 3星通关主题曲3-8；必须编入非助战极光并上场，且使用极光歼灭碎骨</t>
+          <t>&gt; 完成5次战斗；必须编入非助战耀骑士临光并上场，且每次战斗至少释放1次耀阳颔首&gt; 3星通关别传NL-10；必须编入非助战耀骑士临光并上场，且使用耀骑士临光击败血骑士狄开俄波利斯</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="inlineStr">
         <is>
-          <t>灵知</t>
+          <t>耶拉</t>
         </is>
       </c>
       <c r="B218" s="2" t="inlineStr">
@@ -6696,29 +6696,29 @@
       </c>
       <c r="C218" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D218" s="5" t="inlineStr">
         <is>
-          <t>maa://29058 (93.33), maa://39140 (100.0), maa://38723 (100.0)</t>
+          <t>maa://39140 (100.0), maa://30677 (100.0)</t>
         </is>
       </c>
       <c r="E218" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战灵知并上场，且每次战斗至少释放1次失温症&gt; 3星通关别传BI-7，必须编入非助战灵知并上场，且不编入其他辅助干员</t>
+          <t>&gt; 由非助战耶拉累计造成80000点伤害&gt; 3星通关别传BI-7；必须编入非助战耶拉并上场，且至少使用2次心随意动</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="inlineStr">
         <is>
-          <t>九色鹿</t>
+          <t>极光</t>
         </is>
       </c>
       <c r="B219" s="2" t="inlineStr">
         <is>
-          <t>IW-3</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C219" s="7" t="inlineStr">
@@ -6728,51 +6728,51 @@
       </c>
       <c r="D219" s="5" t="inlineStr">
         <is>
-          <t>maa://39160 (100.0)</t>
+          <t>maa://20896 (100.0)</t>
         </is>
       </c>
       <c r="E219" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战九色鹿累计使用仙山去远8次&gt; 3星通关别传IW-3；必须编入非助战九色鹿并上场，且不编入其他辅助干员</t>
+          <t>&gt; 由非助战极光累计造成40000点伤害&gt; 3星通关主题曲3-8；必须编入非助战极光并上场，且使用极光歼灭碎骨</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="inlineStr">
         <is>
-          <t>寒芒克洛丝</t>
+          <t>灵知</t>
         </is>
       </c>
       <c r="B220" s="2" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>BI-7</t>
         </is>
       </c>
       <c r="C220" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D220" s="5" t="inlineStr">
         <is>
-          <t>maa://20878 (87.5)</t>
+          <t>maa://29058 (93.33), maa://39140 (100.0), maa://38723 (100.0)</t>
         </is>
       </c>
       <c r="E220" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战寒芒克洛丝累计使用封喉5次&gt; 3星通关主题曲3-8；必须编入非助战寒芒克洛丝并上场，且使用寒芒克洛丝歼灭碎骨</t>
+          <t>&gt; 完成5次战斗；必须编入非助战灵知并上场，且每次战斗至少释放1次失温症&gt; 3星通关别传BI-7，必须编入非助战灵知并上场，且不编入其他辅助干员</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="inlineStr">
         <is>
-          <t>夜半</t>
+          <t>九色鹿</t>
         </is>
       </c>
       <c r="B221" s="2" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>IW-3</t>
         </is>
       </c>
       <c r="C221" s="7" t="inlineStr">
@@ -6782,24 +6782,24 @@
       </c>
       <c r="D221" s="5" t="inlineStr">
         <is>
-          <t>maa://35952 (100.0)</t>
+          <t>maa://39160 (100.0)</t>
         </is>
       </c>
       <c r="E221" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战夜半累计使用安眠10次&gt; 3星通关主题曲3-1；必须编入非助战夜半并上场，且至少使用3次安眠</t>
+          <t>&gt; 战斗中非助战九色鹿累计使用仙山去远8次&gt; 3星通关别传IW-3；必须编入非助战九色鹿并上场，且不编入其他辅助干员</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="inlineStr">
         <is>
-          <t>老鲤</t>
+          <t>寒芒克洛丝</t>
         </is>
       </c>
       <c r="B222" s="2" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C222" s="7" t="inlineStr">
@@ -6809,132 +6809,132 @@
       </c>
       <c r="D222" s="5" t="inlineStr">
         <is>
-          <t>maa://20917 (97.06)</t>
+          <t>maa://20878 (87.5)</t>
         </is>
       </c>
       <c r="E222" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战老鲤累计造成80歼灭数&gt; 3星通关主题曲3-1；必须编入非助战老鲤并上场，其他成员仅可编入狙击、先锋与医疗干员</t>
+          <t>&gt; 战斗中非助战寒芒克洛丝累计使用封喉5次&gt; 3星通关主题曲3-8；必须编入非助战寒芒克洛丝并上场，且使用寒芒克洛丝歼灭碎骨</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="inlineStr">
         <is>
-          <t>老鲤</t>
+          <t>夜半</t>
         </is>
       </c>
       <c r="B223" s="2" t="inlineStr">
         <is>
-          <t>IW-EX-1</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C223" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D223" s="5" t="inlineStr">
         <is>
-          <t>maa://30714 (97.06), maa://30675 (100.0)</t>
+          <t>maa://35952 (100.0)</t>
         </is>
       </c>
       <c r="E223" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战老鲤并上场，且每次战斗至少释放1次贵客盈门&gt; 3星通关别传IW-EX-1；必须编入非助战老鲤并上场，且使用老鲤至少歼灭10个敌人</t>
+          <t>&gt; 战斗中非助战夜半累计使用安眠10次&gt; 3星通关主题曲3-1；必须编入非助战夜半并上场，且至少使用3次安眠</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="inlineStr">
         <is>
-          <t>令</t>
+          <t>老鲤</t>
         </is>
       </c>
       <c r="B224" s="2" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C224" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D224" s="5" t="inlineStr">
         <is>
-          <t>maa://20922 (92.16), *maa://32623 (58.33), *maa://34242 (80.0), maa://34900 (87.5)</t>
+          <t>maa://20917 (97.14)</t>
         </is>
       </c>
       <c r="E224" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战令并上场，且使用令与令的召唤物歼灭至少7名敌人&gt; 3星通关主题曲3-4；必须编入非助战令并上场，且整场战斗仅部署过令与至多4位其他干员</t>
+          <t>&gt; 由非助战老鲤累计造成80歼灭数&gt; 3星通关主题曲3-1；必须编入非助战老鲤并上场，其他成员仅可编入狙击、先锋与医疗干员</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="inlineStr">
         <is>
-          <t>夏栎</t>
+          <t>老鲤</t>
         </is>
       </c>
       <c r="B225" s="2" t="inlineStr">
         <is>
-          <t>9-2</t>
+          <t>IW-EX-1</t>
         </is>
       </c>
       <c r="C225" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D225" s="5" t="inlineStr">
         <is>
-          <t>maa://32999 (100.0)</t>
+          <t>maa://30714 (97.06), maa://30675 (100.0)</t>
         </is>
       </c>
       <c r="E225" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战夏栎累计使用生灵的回响8次&gt; 3星通关主题曲9-2标准实战环境；必须编入非助战夏栎并上场，且不编入其他医疗干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战老鲤并上场，且每次战斗至少释放1次贵客盈门&gt; 3星通关别传IW-EX-1；必须编入非助战老鲤并上场，且使用老鲤至少歼灭10个敌人</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="inlineStr">
         <is>
-          <t>澄闪</t>
+          <t>令</t>
         </is>
       </c>
       <c r="B226" s="2" t="inlineStr">
         <is>
-          <t>R8-8</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C226" s="7" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D226" s="5" t="inlineStr">
         <is>
-          <t>*maa://30667 (75.23), maa://30666 (82.98), *maa://26836 (74.81), **maa://30739 (45.71), maa://37607 (91.6), *maa://34428 (67.14), *maa://30723 (50.98), maa://39588 (85.19), *maa://37850 (66.67)</t>
+          <t>maa://20922 (92.31), *maa://32623 (58.33), *maa://34242 (80.0), maa://34900 (87.5)</t>
         </is>
       </c>
       <c r="E226" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战澄闪累计造成100000点伤害&gt; 3星通关主题曲R8-8；必须编入非助战澄闪并上场，且使用澄闪歼灭至少2名帝国炮火先兆者</t>
+          <t>&gt; 完成5次战斗；必须编入非助战令并上场，且使用令与令的召唤物歼灭至少7名敌人&gt; 3星通关主题曲3-4；必须编入非助战令并上场，且整场战斗仅部署过令与至多4位其他干员</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="inlineStr">
         <is>
-          <t>见行者</t>
+          <t>夏栎</t>
         </is>
       </c>
       <c r="B227" s="2" t="inlineStr">
         <is>
-          <t>GA-EX-1</t>
+          <t>9-2</t>
         </is>
       </c>
       <c r="C227" s="7" t="inlineStr">
@@ -6944,51 +6944,51 @@
       </c>
       <c r="D227" s="5" t="inlineStr">
         <is>
-          <t>maa://30512 (100.0)</t>
+          <t>maa://32999 (100.0)</t>
         </is>
       </c>
       <c r="E227" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战见行者并上场，且每次战斗至少释放2次惊爆射击&gt; 3星通关别传GA-EX-1；必须编入非助战见行者，且本场战斗至少使3个寻路者精锐狙击手坠落地穴</t>
+          <t>&gt; 战斗中非助战夏栎累计使用生灵的回响8次&gt; 3星通关主题曲9-2标准实战环境；必须编入非助战夏栎并上场，且不编入其他医疗干员</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="inlineStr">
         <is>
-          <t>风丸</t>
+          <t>澄闪</t>
         </is>
       </c>
       <c r="B228" s="2" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>R8-8</t>
         </is>
       </c>
       <c r="C228" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D228" s="5" t="inlineStr">
         <is>
-          <t>maa://20870 (100.0)</t>
+          <t>*maa://30667 (75.54), maa://30666 (83.07), *maa://26836 (75.0), **maa://30739 (45.71), maa://37607 (91.74), *maa://34428 (67.14), *maa://30723 (50.98), maa://39588 (85.19), *maa://37850 (66.67)</t>
         </is>
       </c>
       <c r="E228" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战风丸累计使用纸艺·双影10次&gt; 3星通关主题曲3-1；必须编入非助战风丸并上场，且使用风丸歼灭至少30名敌人</t>
+          <t>&gt; 由非助战澄闪累计造成100000点伤害&gt; 3星通关主题曲R8-8；必须编入非助战澄闪并上场，且使用澄闪歼灭至少2名帝国炮火先兆者</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="inlineStr">
         <is>
-          <t>菲亚梅塔</t>
+          <t>见行者</t>
         </is>
       </c>
       <c r="B229" s="2" t="inlineStr">
         <is>
-          <t>GA-4</t>
+          <t>GA-EX-1</t>
         </is>
       </c>
       <c r="C229" s="7" t="inlineStr">
@@ -6998,51 +6998,51 @@
       </c>
       <c r="D229" s="5" t="inlineStr">
         <is>
-          <t>maa://29024 (100.0)</t>
+          <t>maa://30512 (100.0)</t>
         </is>
       </c>
       <c r="E229" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战菲亚梅塔并上场，且使用菲亚梅塔歼灭至少10个敌人&gt; 3星通关别传GA-4；必须编入非助战菲亚梅塔并上场，且队伍中不能有其他狙击干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战见行者并上场，且每次战斗至少释放2次惊爆射击&gt; 3星通关别传GA-EX-1；必须编入非助战见行者，且本场战斗至少使3个寻路者精锐狙击手坠落地穴</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="inlineStr">
         <is>
-          <t>菲亚梅塔</t>
+          <t>风丸</t>
         </is>
       </c>
       <c r="B230" s="2" t="inlineStr">
         <is>
-          <t>S5-9</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C230" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D230" s="5" t="inlineStr">
         <is>
-          <t>maa://20867 (92.86), *maa://32202 (80.0), *maa://38485 (66.67)</t>
+          <t>maa://20870 (100.0)</t>
         </is>
       </c>
       <c r="E230" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战菲亚梅塔累计造成180000点伤害&gt; 3星通关主题曲S5-9；必须编入非助战菲亚梅塔并上场，且使用菲亚梅塔造成至少60000点伤害</t>
+          <t>&gt; 由非助战风丸累计使用纸艺·双影10次&gt; 3星通关主题曲3-1；必须编入非助战风丸并上场，且使用风丸歼灭至少30名敌人</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="inlineStr">
         <is>
-          <t>褐果</t>
+          <t>菲亚梅塔</t>
         </is>
       </c>
       <c r="B231" s="2" t="inlineStr">
         <is>
-          <t>SV-3</t>
+          <t>GA-4</t>
         </is>
       </c>
       <c r="C231" s="7" t="inlineStr">
@@ -7052,105 +7052,105 @@
       </c>
       <c r="D231" s="5" t="inlineStr">
         <is>
-          <t>maa://40160 (100.0)</t>
+          <t>maa://29024 (100.0)</t>
         </is>
       </c>
       <c r="E231" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战褐果并上场，且每次战斗至少释放1次厚土迸发&gt; 3星通关插曲SV-3；必须编入非助战褐果并上场，且不编入其他医疗干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战菲亚梅塔并上场，且使用菲亚梅塔歼灭至少10个敌人&gt; 3星通关别传GA-4；必须编入非助战菲亚梅塔并上场，且队伍中不能有其他狙击干员</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="inlineStr">
         <is>
-          <t>洛洛</t>
+          <t>菲亚梅塔</t>
         </is>
       </c>
       <c r="B232" s="2" t="inlineStr">
         <is>
-          <t>RI-EX-4</t>
+          <t>S5-9</t>
         </is>
       </c>
       <c r="C232" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D232" s="5" t="inlineStr">
         <is>
-          <t>maa://30674 (85.71)</t>
+          <t>maa://20867 (92.86), *maa://32202 (80.0), *maa://38485 (75.0)</t>
         </is>
       </c>
       <c r="E232" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战洛洛累计使用自负此轭10次&gt; 3星通关别传RI-EX-4；必须编入非助战洛洛并上场，且使用洛洛歼灭至少2名提亚卡乌冠军</t>
+          <t>&gt; 由非助战菲亚梅塔累计造成180000点伤害&gt; 3星通关主题曲S5-9；必须编入非助战菲亚梅塔并上场，且使用菲亚梅塔造成至少60000点伤害</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="inlineStr">
         <is>
-          <t>号角</t>
+          <t>褐果</t>
         </is>
       </c>
       <c r="B233" s="2" t="inlineStr">
         <is>
-          <t>7-15</t>
+          <t>SV-3</t>
         </is>
       </c>
       <c r="C233" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D233" s="5" t="inlineStr">
         <is>
-          <t>maa://28923 (91.39), maa://28906 (96.97), ***maa://28825 (12.0)</t>
+          <t>maa://40160 (100.0)</t>
         </is>
       </c>
       <c r="E233" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战号角累计使用终极防线10次&gt; 3星通关主题曲7-15；必须编入非助战号角并上场，且使用号角至少歼灭10个敌人</t>
+          <t>&gt; 完成5次战斗；必须编入非助战褐果并上场，且每次战斗至少释放1次厚土迸发&gt; 3星通关插曲SV-3；必须编入非助战褐果并上场，且不编入其他医疗干员</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="inlineStr">
         <is>
-          <t>掠风</t>
+          <t>海蒂</t>
         </is>
       </c>
       <c r="B234" s="2" t="inlineStr">
         <is>
-          <t>11-9</t>
+          <t>9-7</t>
         </is>
       </c>
       <c r="C234" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D234" s="5" t="inlineStr">
         <is>
-          <t>maa://39161 (100.0)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E234" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战掠风累计使用此身为源10次&gt; 3星通关主题曲11-9标准实战环境；必须编入非助战掠风并上场，其他成员仅可编入术师、重装与医疗干员</t>
+          <t>&gt; 战斗中非助战海蒂累计使用8次“虚构故事·怒士”&gt; 3星通关主题曲9-7标准实战环境；必须编入非助战海蒂并上场，且海蒂使用至少3次“虚构故事·锈城”</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="inlineStr">
         <is>
-          <t>流明</t>
+          <t>洛洛</t>
         </is>
       </c>
       <c r="B235" s="2" t="inlineStr">
         <is>
-          <t>6-9</t>
+          <t>RI-EX-4</t>
         </is>
       </c>
       <c r="C235" s="7" t="inlineStr">
@@ -7160,24 +7160,24 @@
       </c>
       <c r="D235" s="5" t="inlineStr">
         <is>
-          <t>maa://20923 (88.89)</t>
+          <t>maa://30674 (85.71)</t>
         </is>
       </c>
       <c r="E235" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战流明并上场，且每次战斗至少释放2次灯火不灭&gt; 3星通关主题曲6-9；且仅可编入非助战流明1名医疗干员并上场</t>
+          <t>&gt; 战斗中非助战洛洛累计使用自负此轭10次&gt; 3星通关别传RI-EX-4；必须编入非助战洛洛并上场，且使用洛洛歼灭至少2名提亚卡乌冠军</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="inlineStr">
         <is>
-          <t>流明</t>
+          <t>号角</t>
         </is>
       </c>
       <c r="B236" s="2" t="inlineStr">
         <is>
-          <t>OF-5</t>
+          <t>7-15</t>
         </is>
       </c>
       <c r="C236" s="7" t="inlineStr">
@@ -7187,51 +7187,51 @@
       </c>
       <c r="D236" s="5" t="inlineStr">
         <is>
-          <t>maa://24093 (100.0), maa://31559 (93.75), maa://20924 (94.44)</t>
+          <t>maa://28923 (91.39), maa://28906 (96.97), ***maa://28825 (12.0)</t>
         </is>
       </c>
       <c r="E236" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战流明累计使用沛霖10次&gt; 3星通关别传OF-5；必须编入非助战流明并上场，且不编入其他医疗干员</t>
+          <t>&gt; 战斗中非助战号角累计使用终极防线10次&gt; 3星通关主题曲7-15；必须编入非助战号角并上场，且使用号角至少歼灭10个敌人</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="inlineStr">
         <is>
-          <t>艾丽妮</t>
+          <t>号角</t>
         </is>
       </c>
       <c r="B237" s="2" t="inlineStr">
         <is>
-          <t>SV-EX-1</t>
+          <t>9-5</t>
         </is>
       </c>
       <c r="C237" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>**maa://40958 (40.0)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E237" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战艾丽妮累计造成100000点伤害&gt; 3星通关插曲SV-EX-1；必须编入非助战艾丽妮并上场，且使用2次判决</t>
+          <t>&gt; 由非助战号角累计造成100000点伤害&gt; 3星通关主题曲9-5标准实战环境；必须编入非助战号角并上场，其他成员仅可编入4名干员</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="inlineStr">
         <is>
-          <t>艾丽妮</t>
+          <t>掠风</t>
         </is>
       </c>
       <c r="B238" s="2" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>11-9</t>
         </is>
       </c>
       <c r="C238" s="7" t="inlineStr">
@@ -7241,78 +7241,78 @@
       </c>
       <c r="D238" s="5" t="inlineStr">
         <is>
-          <t>maa://20840 (100.0)</t>
+          <t>maa://39161 (100.0)</t>
         </is>
       </c>
       <c r="E238" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战艾丽妮使用技能累计造成50歼灭数&gt; 3星通关插曲SV-4；必须编入非助战艾丽妮并上场，且使用艾丽妮歼灭15个敌人</t>
+          <t>&gt; 战斗中非助战掠风累计使用此身为源10次&gt; 3星通关主题曲11-9标准实战环境；必须编入非助战掠风并上场，其他成员仅可编入术师、重装与医疗干员</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="inlineStr">
         <is>
-          <t>归溟幽灵鲨</t>
+          <t>流明</t>
         </is>
       </c>
       <c r="B239" s="2" t="inlineStr">
         <is>
-          <t>SV-EX-1</t>
+          <t>6-9</t>
         </is>
       </c>
       <c r="C239" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D239" s="5" t="inlineStr">
         <is>
-          <t>maa://20877 (98.18), maa://20836 (100.0)</t>
+          <t>maa://20923 (88.89)</t>
         </is>
       </c>
       <c r="E239" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战归溟幽灵鲨累计造成30歼灭数&gt; 3星通关插曲SV-EX-1；必须编入非助战归溟幽灵鲨并上场，且使用归溟幽灵鲨歼灭至少1个囊海爬行者</t>
+          <t>&gt; 完成5次战斗；必须编入非助战流明并上场，且每次战斗至少释放2次灯火不灭&gt; 3星通关主题曲6-9；且仅可编入非助战流明1名医疗干员并上场</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="inlineStr">
         <is>
-          <t>归溟幽灵鲨</t>
+          <t>流明</t>
         </is>
       </c>
       <c r="B240" s="2" t="inlineStr">
         <is>
-          <t>S4-1</t>
+          <t>OF-5</t>
         </is>
       </c>
       <c r="C240" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D240" s="5" t="inlineStr">
         <is>
-          <t>maa://20879 (84.21), maa://20834 (100.0)</t>
+          <t>maa://24093 (100.0), maa://31559 (93.75), maa://20924 (94.74)</t>
         </is>
       </c>
       <c r="E240" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战归溟幽灵鲨并上场，且每次战斗至少释放1次生存的重压&gt; 3星通关主题曲S4-1；必须编入非助战归溟幽灵鲨并上场，且使用归溟幽灵鲨歼灭10个敌人</t>
+          <t>&gt; 战斗中非助战流明累计使用沛霖10次&gt; 3星通关别传OF-5；必须编入非助战流明并上场，且不编入其他医疗干员</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="inlineStr">
         <is>
-          <t>埃拉托</t>
+          <t>艾丽妮</t>
         </is>
       </c>
       <c r="B241" s="2" t="inlineStr">
         <is>
-          <t>S5-9</t>
+          <t>SV-EX-1</t>
         </is>
       </c>
       <c r="C241" s="7" t="inlineStr">
@@ -7322,24 +7322,24 @@
       </c>
       <c r="D241" s="5" t="inlineStr">
         <is>
-          <t>maa://20839 (100.0)</t>
+          <t>**maa://40958 (40.0)</t>
         </is>
       </c>
       <c r="E241" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战埃拉托累计使用英雄赞歌5次&gt; 3星通关主题曲S5-9；必须编入非助战埃拉托并上场，其他成员不可编入狙击干员</t>
+          <t>&gt; 由非助战艾丽妮累计造成100000点伤害&gt; 3星通关插曲SV-EX-1；必须编入非助战艾丽妮并上场，且使用2次判决</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="inlineStr">
         <is>
-          <t>濯尘芙蓉</t>
+          <t>艾丽妮</t>
         </is>
       </c>
       <c r="B242" s="2" t="inlineStr">
         <is>
-          <t>LE-4</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C242" s="7" t="inlineStr">
@@ -7349,24 +7349,24 @@
       </c>
       <c r="D242" s="5" t="inlineStr">
         <is>
-          <t>maa://30676 (100.0)</t>
+          <t>maa://20840 (100.0)</t>
         </is>
       </c>
       <c r="E242" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战濯尘芙蓉累计使用抚业之触10次&gt; 3星通关别传LE-4；必须编入非助战濯尘芙蓉并上场，且至少使用2次抚业之触</t>
+          <t>&gt; 由非助战艾丽妮使用技能累计造成50歼灭数&gt; 3星通关插曲SV-4；必须编入非助战艾丽妮并上场，且使用艾丽妮歼灭15个敌人</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="inlineStr">
         <is>
-          <t>黑键</t>
+          <t>归溟幽灵鲨</t>
         </is>
       </c>
       <c r="B243" s="2" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>SV-EX-1</t>
         </is>
       </c>
       <c r="C243" s="7" t="inlineStr">
@@ -7376,51 +7376,51 @@
       </c>
       <c r="D243" s="5" t="inlineStr">
         <is>
-          <t>maa://31560 (83.33), maa://20884 (92.86)</t>
+          <t>maa://20877 (98.18), maa://20836 (100.0)</t>
         </is>
       </c>
       <c r="E243" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战黑键累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲3-7；必须编入非助战黑键并上场，且使用黑键歼灭至少1个重装防御组长</t>
+          <t>&gt; 由非助战归溟幽灵鲨累计造成30歼灭数&gt; 3星通关插曲SV-EX-1；必须编入非助战归溟幽灵鲨并上场，且使用归溟幽灵鲨歼灭至少1个囊海爬行者</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="inlineStr">
         <is>
-          <t>黑键</t>
+          <t>归溟幽灵鲨</t>
         </is>
       </c>
       <c r="B244" s="2" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>S4-1</t>
         </is>
       </c>
       <c r="C244" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D244" s="5" t="inlineStr">
         <is>
-          <t>**maa://20883 (46.15)</t>
+          <t>maa://20879 (84.21), maa://20834 (100.0)</t>
         </is>
       </c>
       <c r="E244" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战黑键并上场，且使用黑键歼灭至少6个敌人&gt; 3星通关主题曲3-6；必须编入非助战黑键并上场，且使用黑键歼灭屠宰老手</t>
+          <t>&gt; 完成5次战斗；必须编入非助战归溟幽灵鲨并上场，且每次战斗至少释放1次生存的重压&gt; 3星通关主题曲S4-1；必须编入非助战归溟幽灵鲨并上场，且使用归溟幽灵鲨歼灭10个敌人</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="inlineStr">
         <is>
-          <t>黑键</t>
+          <t>埃拉托</t>
         </is>
       </c>
       <c r="B245" s="2" t="inlineStr">
         <is>
-          <t>11-12</t>
+          <t>S5-9</t>
         </is>
       </c>
       <c r="C245" s="7" t="inlineStr">
@@ -7430,24 +7430,24 @@
       </c>
       <c r="D245" s="5" t="inlineStr">
         <is>
-          <t>maa://29027 (97.3)</t>
+          <t>maa://20839 (100.0)</t>
         </is>
       </c>
       <c r="E245" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战黑键累计使用寂静之声10次&gt; 3星通关主题曲11-12标准实战环境；必须编入非助战黑键并上场，且使用黑键歼灭至少2名伦蒂尼姆城防自行炮</t>
+          <t>&gt; 战斗中非助战埃拉托累计使用英雄赞歌5次&gt; 3星通关主题曲S5-9；必须编入非助战埃拉托并上场，其他成员不可编入狙击干员</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="inlineStr">
         <is>
-          <t>星源</t>
+          <t>濯尘芙蓉</t>
         </is>
       </c>
       <c r="B246" s="2" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>LE-4</t>
         </is>
       </c>
       <c r="C246" s="7" t="inlineStr">
@@ -7457,51 +7457,51 @@
       </c>
       <c r="D246" s="5" t="inlineStr">
         <is>
-          <t>maa://20977 (100.0)</t>
+          <t>maa://30676 (100.0)</t>
         </is>
       </c>
       <c r="E246" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战星源累计造成40歼灭数&gt; 3星通关主题曲4-3；必须编入非助战星源并上场，其他成员仅可编入重装干员</t>
+          <t>&gt; 战斗中非助战濯尘芙蓉累计使用抚业之触10次&gt; 3星通关别传LE-4；必须编入非助战濯尘芙蓉并上场，且至少使用2次抚业之触</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="inlineStr">
         <is>
-          <t>承曦格雷伊</t>
+          <t>黑键</t>
         </is>
       </c>
       <c r="B247" s="2" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C247" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D247" s="5" t="inlineStr">
         <is>
-          <t>maa://39162 (100.0)</t>
+          <t>maa://31560 (83.33), maa://20884 (92.86)</t>
         </is>
       </c>
       <c r="E247" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战承曦格雷伊累计使用晨曦信标10次&gt; 3星通关主题曲1-3；必须编入非助战承曦格雷伊并上场，其他成员仅可编入先锋干员</t>
+          <t>&gt; 由非助战黑键累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲3-7；必须编入非助战黑键并上场，且使用黑键歼灭至少1个重装防御组长</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="inlineStr">
         <is>
-          <t>多萝西</t>
+          <t>黑键</t>
         </is>
       </c>
       <c r="B248" s="2" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C248" s="7" t="inlineStr">
@@ -7511,24 +7511,24 @@
       </c>
       <c r="D248" s="5" t="inlineStr">
         <is>
-          <t>maa://22467 (93.1)</t>
+          <t>**maa://20883 (46.15)</t>
         </is>
       </c>
       <c r="E248" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战多萝西累计部署共振装置50个&gt; 3星通关主题曲4-5；必须编入非助战多萝西并上场，其他成员仅可编入3名干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战黑键并上场，且使用黑键歼灭至少6个敌人&gt; 3星通关主题曲3-6；必须编入非助战黑键并上场，且使用黑键歼灭屠宰老手</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="inlineStr">
         <is>
-          <t>至简</t>
+          <t>黑键</t>
         </is>
       </c>
       <c r="B249" s="2" t="inlineStr">
         <is>
-          <t>IC-8</t>
+          <t>11-12</t>
         </is>
       </c>
       <c r="C249" s="7" t="inlineStr">
@@ -7538,51 +7538,51 @@
       </c>
       <c r="D249" s="5" t="inlineStr">
         <is>
-          <t>**maa://30678 (42.86)</t>
+          <t>maa://29027 (97.3)</t>
         </is>
       </c>
       <c r="E249" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战至简累计使用神工意匠20次&gt; 3星通关别传IC-8；必须编入非助战至简并上场，且使用至简歼灭至少2名蜜酿级醒酒助手</t>
+          <t>&gt; 战斗中非助战黑键累计使用寂静之声10次&gt; 3星通关主题曲11-12标准实战环境；必须编入非助战黑键并上场，且使用黑键歼灭至少2名伦蒂尼姆城防自行炮</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="inlineStr">
         <is>
-          <t>鸿雪</t>
+          <t>星源</t>
         </is>
       </c>
       <c r="B250" s="2" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C250" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D250" s="5" t="inlineStr">
         <is>
-          <t>*maa://20825 (66.67), *maa://21445 (76.92), ***maa://20891 (30.0), *maa://35726 (62.5)</t>
+          <t>maa://20977 (100.0)</t>
         </is>
       </c>
       <c r="E250" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中累计部署非助战鸿雪的“打字机”10次&gt; 3星通关主题曲2-10；必须编入非助战鸿雪并上场，且使用鸿雪或“打字机”歼灭碎骨</t>
+          <t>&gt; 由非助战星源累计造成40歼灭数&gt; 3星通关主题曲4-3；必须编入非助战星源并上场，其他成员仅可编入重装干员</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="inlineStr">
         <is>
-          <t>百炼嘉维尔</t>
+          <t>承曦格雷伊</t>
         </is>
       </c>
       <c r="B251" s="2" t="inlineStr">
         <is>
-          <t>9-2</t>
+          <t>1-3</t>
         </is>
       </c>
       <c r="C251" s="7" t="inlineStr">
@@ -7592,51 +7592,51 @@
       </c>
       <c r="D251" s="5" t="inlineStr">
         <is>
-          <t>maa://25769 (96.33)</t>
+          <t>maa://39162 (100.0)</t>
         </is>
       </c>
       <c r="E251" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战百炼嘉维尔累计使用链锯强袭10次&gt; 3星通关主题曲9-2标准实战环境；必须编入非助战百炼嘉维尔并上场，且使用百炼嘉维尔至少歼灭15个敌人</t>
+          <t>&gt; 战斗中非助战承曦格雷伊累计使用晨曦信标10次&gt; 3星通关主题曲1-3；必须编入非助战承曦格雷伊并上场，其他成员仅可编入先锋干员</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="inlineStr">
         <is>
-          <t>但书</t>
+          <t>多萝西</t>
         </is>
       </c>
       <c r="B252" s="2" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C252" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D252" s="5" t="inlineStr">
         <is>
-          <t>maa://27794 (100.0), *maa://20862 (75.0)</t>
+          <t>maa://22467 (93.1)</t>
         </is>
       </c>
       <c r="E252" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战但书累计使用致胜立论14次&gt; 3星通关主题曲4-7；必须编入非助战但书并上场，且使用但书至少歼灭3只高能源石虫</t>
+          <t>&gt; 战斗中非助战多萝西累计部署共振装置50个&gt; 3星通关主题曲4-5；必须编入非助战多萝西并上场，其他成员仅可编入3名干员</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="inlineStr">
         <is>
-          <t>罗小黑</t>
+          <t>至简</t>
         </is>
       </c>
       <c r="B253" s="2" t="inlineStr">
         <is>
-          <t>IW-4</t>
+          <t>IC-8</t>
         </is>
       </c>
       <c r="C253" s="7" t="inlineStr">
@@ -7646,51 +7646,51 @@
       </c>
       <c r="D253" s="5" t="inlineStr">
         <is>
-          <t>maa://39163 (100.0)</t>
+          <t>**maa://30678 (42.86)</t>
         </is>
       </c>
       <c r="E253" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战罗小黑并上场，且每次战斗至少释放1次碎金为刃&gt; 3星通关别传IW-4；必须编入非助战罗小黑并上场，其他成员仅可编入6名干员</t>
+          <t>&gt; 战斗中非助战至简累计使用神工意匠20次&gt; 3星通关别传IC-8；必须编入非助战至简并上场，且使用至简歼灭至少2名蜜酿级醒酒助手</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="inlineStr">
         <is>
-          <t>海沫</t>
+          <t>鸿雪</t>
         </is>
       </c>
       <c r="B254" s="2" t="inlineStr">
         <is>
-          <t>SN-2</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C254" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D254" s="5" t="inlineStr">
         <is>
-          <t>maa://29061 (100.0)</t>
+          <t>*maa://20825 (66.67), *maa://21445 (76.92), ***maa://20891 (30.0), *maa://35726 (62.5)</t>
         </is>
       </c>
       <c r="E254" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战海沫并上场，且使用海沫造成至少12000点伤害&gt; 3星通关插曲SN-2；必须携带并部署非助战海沫，其他成员仅可编入2名干员</t>
+          <t>&gt; 战斗中累计部署非助战鸿雪的“打字机”10次&gt; 3星通关主题曲2-10；必须编入非助战鸿雪并上场，且使用鸿雪或“打字机”歼灭碎骨</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="inlineStr">
         <is>
-          <t>铅踝</t>
+          <t>百炼嘉维尔</t>
         </is>
       </c>
       <c r="B255" s="2" t="inlineStr">
         <is>
-          <t>S3-5</t>
+          <t>9-2</t>
         </is>
       </c>
       <c r="C255" s="7" t="inlineStr">
@@ -7700,78 +7700,78 @@
       </c>
       <c r="D255" s="5" t="inlineStr">
         <is>
-          <t>*maa://20939 (71.43)</t>
+          <t>maa://25769 (96.33)</t>
         </is>
       </c>
       <c r="E255" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战铅踝累计造成30歼灭数&gt; 3星通关主题曲S3-5；必须编入非助战铅踝并上场，且使用铅踝歼灭至少2个隐形弩手</t>
+          <t>&gt; 战斗中非助战百炼嘉维尔累计使用链锯强袭10次&gt; 3星通关主题曲9-2标准实战环境；必须编入非助战百炼嘉维尔并上场，且使用百炼嘉维尔至少歼灭15个敌人</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="inlineStr">
         <is>
-          <t>达格达</t>
+          <t>但书</t>
         </is>
       </c>
       <c r="B256" s="2" t="inlineStr">
         <is>
-          <t>11-5</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="C256" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D256" s="5" t="inlineStr">
         <is>
-          <t>maa://39164 (100.0)</t>
+          <t>maa://27794 (100.0), *maa://20862 (75.0)</t>
         </is>
       </c>
       <c r="E256" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战达格达累计造成30歼灭数&gt; 3星通关主题曲11-5标准实战环境；必须编入非助战达格达并上场，且使用达格达至少歼灭10个敌人</t>
+          <t>&gt; 战斗中非助战但书累计使用致胜立论14次&gt; 3星通关主题曲4-7；必须编入非助战但书并上场，且使用但书至少歼灭3只高能源石虫</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="inlineStr">
         <is>
-          <t>白铁</t>
+          <t>罗小黑</t>
         </is>
       </c>
       <c r="B257" s="2" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>IW-4</t>
         </is>
       </c>
       <c r="C257" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D257" s="5" t="inlineStr">
         <is>
-          <t>maa://28133 (89.74), maa://33394 (100.0)</t>
+          <t>maa://39163 (100.0)</t>
         </is>
       </c>
       <c r="E257" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战白铁累计部署支援装置25个&gt; 3星通关主题曲11-6标准实战环境；必须编入非助战白铁并上场，且使用白铁或白铁的支援装置歼灭至少15名萨卡兹枯朽战士</t>
+          <t>&gt; 完成5次战斗；必须编入非助战罗小黑并上场，且每次战斗至少释放1次碎金为刃&gt; 3星通关别传IW-4；必须编入非助战罗小黑并上场，其他成员仅可编入6名干员</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="inlineStr">
         <is>
-          <t>石英</t>
+          <t>海沫</t>
         </is>
       </c>
       <c r="B258" s="2" t="inlineStr">
         <is>
-          <t>DH-4</t>
+          <t>SN-2</t>
         </is>
       </c>
       <c r="C258" s="7" t="inlineStr">
@@ -7781,24 +7781,24 @@
       </c>
       <c r="D258" s="5" t="inlineStr">
         <is>
-          <t>maa://41362 (100.0)</t>
+          <t>maa://29061 (100.0)</t>
         </is>
       </c>
       <c r="E258" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成3次战斗；必须编入非助战石英并上场，且每次战斗至少释放1次全力相搏&gt; 3星通关别传DH-4；必须编入非助战石英并上场，并使用石英至少击败2名控潮术师</t>
+          <t>&gt; 完成5次战斗；必须编入非助战海沫并上场，且使用海沫造成至少12000点伤害&gt; 3星通关插曲SN-2；必须携带并部署非助战海沫，其他成员仅可编入2名干员</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="inlineStr">
         <is>
-          <t>雪绒</t>
+          <t>铅踝</t>
         </is>
       </c>
       <c r="B259" s="2" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>S3-5</t>
         </is>
       </c>
       <c r="C259" s="7" t="inlineStr">
@@ -7808,24 +7808,24 @@
       </c>
       <c r="D259" s="5" t="inlineStr">
         <is>
-          <t>maa://20978 (100.0)</t>
+          <t>*maa://20939 (71.43)</t>
         </is>
       </c>
       <c r="E259" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战雪绒累计使用坠雪10次&gt; 3星通关主题曲2-3；必须编入非助战雪绒并上场，且使用雪绒歼灭至少2名重装防御者</t>
+          <t>&gt; 由非助战铅踝累计造成30歼灭数&gt; 3星通关主题曲S3-5；必须编入非助战铅踝并上场，且使用铅踝歼灭至少2个隐形弩手</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="inlineStr">
         <is>
-          <t>子月</t>
+          <t>达格达</t>
         </is>
       </c>
       <c r="B260" s="2" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>11-5</t>
         </is>
       </c>
       <c r="C260" s="7" t="inlineStr">
@@ -7835,24 +7835,24 @@
       </c>
       <c r="D260" s="5" t="inlineStr">
         <is>
-          <t>maa://21002 (100.0)</t>
+          <t>maa://39164 (100.0)</t>
         </is>
       </c>
       <c r="E260" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战子月累计造成30歼灭数&gt; 3星通关主题曲2-5；必须编入非助战子月并上场，且使用子月歼灭至少2个高阶术师</t>
+          <t>&gt; 由非助战达格达累计造成30歼灭数&gt; 3星通关主题曲11-5标准实战环境；必须编入非助战达格达并上场，且使用达格达至少歼灭10个敌人</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="inlineStr">
         <is>
-          <t>伺夜</t>
+          <t>白铁</t>
         </is>
       </c>
       <c r="B261" s="2" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C261" s="7" t="inlineStr">
@@ -7862,51 +7862,51 @@
       </c>
       <c r="D261" s="5" t="inlineStr">
         <is>
-          <t>**maa://35860 (38.46), **maa://39165 (50.0)</t>
+          <t>maa://28133 (89.74), maa://33394 (100.0)</t>
         </is>
       </c>
       <c r="E261" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战伺夜并上场，且每次战斗至少释放1次领袖的尊严&gt; 3星通关主题曲3-8；必须编入非助战伺夜并上场，且使用伺夜歼灭碎骨</t>
+          <t>&gt; 战斗中非助战白铁累计部署支援装置25个&gt; 3星通关主题曲11-6标准实战环境；必须编入非助战白铁并上场，且使用白铁或白铁的支援装置歼灭至少15名萨卡兹枯朽战士</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="inlineStr">
         <is>
-          <t>斥罪</t>
+          <t>白铁</t>
         </is>
       </c>
       <c r="B262" s="2" t="inlineStr">
         <is>
-          <t>CB-4</t>
+          <t>9-6</t>
         </is>
       </c>
       <c r="C262" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D262" s="5" t="inlineStr">
         <is>
-          <t>maa://29635 (100.0)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E262" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战斥罪累计造成40歼灭数&gt; 3星通关别传CB-4；必须携带并部署非助战斥罪，其他成员仅可编入4名干员</t>
+          <t>&gt; 战斗中非助战白铁累计使用8次“铁钳号·原型机”&gt; 3星通关主题曲9-6标准实战环境；必须编入非助战白铁并上场，且使用白铁至少歼灭10个敌人</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="inlineStr">
         <is>
-          <t>斥罪</t>
+          <t>石英</t>
         </is>
       </c>
       <c r="B263" s="2" t="inlineStr">
         <is>
-          <t>IS-7</t>
+          <t>DH-4</t>
         </is>
       </c>
       <c r="C263" s="7" t="inlineStr">
@@ -7916,24 +7916,24 @@
       </c>
       <c r="D263" s="5" t="inlineStr">
         <is>
-          <t>maa://38296 (87.5)</t>
+          <t>maa://41362 (100.0)</t>
         </is>
       </c>
       <c r="E263" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战斥罪累计使用披荆斩棘5次&gt; 3星通关别传IS-7；必须编入非助战斥罪并上场，且不编入其他医疗干员</t>
+          <t>&gt; 完成3次战斗；必须编入非助战石英并上场，且每次战斗至少释放1次全力相搏&gt; 3星通关别传DH-4；必须编入非助战石英并上场，并使用石英至少击败2名控潮术师</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="inlineStr">
         <is>
-          <t>缄默德克萨斯</t>
+          <t>雪绒</t>
         </is>
       </c>
       <c r="B264" s="2" t="inlineStr">
         <is>
-          <t>CB-8</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="C264" s="7" t="inlineStr">
@@ -7943,24 +7943,24 @@
       </c>
       <c r="D264" s="5" t="inlineStr">
         <is>
-          <t>maa://20899 (90.71)</t>
+          <t>maa://20978 (100.0)</t>
         </is>
       </c>
       <c r="E264" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战缄默德克萨斯累计歼灭10个精英或领袖敌人&gt; 3星通关别传CB-8；必须编入非助战缄默德克萨斯并上场，且使用缄默德克萨斯歼灭至少2个灰尾</t>
+          <t>&gt; 战斗中非助战雪绒累计使用坠雪10次&gt; 3星通关主题曲2-3；必须编入非助战雪绒并上场，且使用雪绒歼灭至少2名重装防御者</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="inlineStr">
         <is>
-          <t>和弦</t>
+          <t>子月</t>
         </is>
       </c>
       <c r="B265" s="2" t="inlineStr">
         <is>
-          <t>6-5</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C265" s="7" t="inlineStr">
@@ -7970,51 +7970,51 @@
       </c>
       <c r="D265" s="5" t="inlineStr">
         <is>
-          <t>maa://20881 (100.0)</t>
+          <t>maa://21002 (100.0)</t>
         </is>
       </c>
       <c r="E265" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战和弦并上场，且每次战斗至少释放一次沉溺之灾&gt; 3星通关主题曲6-5；必须编入非助战和弦并上场，且使用和弦歼灭至少2个宿主重装士兵</t>
+          <t>&gt; 由非助战子月累计造成30歼灭数&gt; 3星通关主题曲2-5；必须编入非助战子月并上场，且使用子月歼灭至少2个高阶术师</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="inlineStr">
         <is>
-          <t>焰影苇草</t>
+          <t>伺夜</t>
         </is>
       </c>
       <c r="B266" s="2" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C266" s="7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D266" s="5" t="inlineStr">
         <is>
-          <t>maa://30710 (96.81), maa://36845 (93.59), maa://31558 (96.3), ***maa://39217 (22.22), maa://30668 (83.33)</t>
+          <t>**maa://35860 (38.46), **maa://39165 (50.0)</t>
         </is>
       </c>
       <c r="E266" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战焰影苇草累计使用枯荣共息10次&gt; 3星通关主题曲11-6标准实战环境；必须编入非助战焰影苇草并上场，且使用焰影苇草至少歼灭40个敌人</t>
+          <t>&gt; 完成5次战斗；必须编入非助战伺夜并上场，且每次战斗至少释放1次领袖的尊严&gt; 3星通关主题曲3-8；必须编入非助战伺夜并上场，且使用伺夜歼灭碎骨</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="inlineStr">
         <is>
-          <t>截云</t>
+          <t>斥罪</t>
         </is>
       </c>
       <c r="B267" s="2" t="inlineStr">
         <is>
-          <t>S2-2</t>
+          <t>CB-4</t>
         </is>
       </c>
       <c r="C267" s="7" t="inlineStr">
@@ -8024,24 +8024,24 @@
       </c>
       <c r="D267" s="5" t="inlineStr">
         <is>
-          <t>maa://20902 (100.0)</t>
+          <t>maa://29635 (100.0)</t>
         </is>
       </c>
       <c r="E267" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战截云累计造成100000点伤害&gt; 3星通关主题曲S2-2；必须编入非助战截云并上场，且使用截云至少歼灭10名敌人</t>
+          <t>&gt; 由非助战斥罪累计造成40歼灭数&gt; 3星通关别传CB-4；必须携带并部署非助战斥罪，其他成员仅可编入4名干员</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="inlineStr">
         <is>
-          <t>火哨</t>
+          <t>斥罪</t>
         </is>
       </c>
       <c r="B268" s="2" t="inlineStr">
         <is>
-          <t>S4-6</t>
+          <t>IS-7</t>
         </is>
       </c>
       <c r="C268" s="7" t="inlineStr">
@@ -8051,321 +8051,321 @@
       </c>
       <c r="D268" s="5" t="inlineStr">
         <is>
-          <t>maa://29159 (100.0)</t>
+          <t>maa://38296 (87.5)</t>
         </is>
       </c>
       <c r="E268" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战火哨累计使用焦土8次&gt; 3星通关主题曲S4-6；必须携带并部署非助战火哨，其他成员仅可编入远程位干员</t>
+          <t>&gt; 战斗中非助战斥罪累计使用披荆斩棘5次&gt; 3星通关别传IS-7；必须编入非助战斥罪并上场，且不编入其他医疗干员</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="inlineStr">
         <is>
-          <t>林</t>
+          <t>缄默德克萨斯</t>
         </is>
       </c>
       <c r="B269" s="2" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>CB-8</t>
         </is>
       </c>
       <c r="C269" s="7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D269" s="5" t="inlineStr">
         <is>
-          <t>maa://25774 (100.0), maa://28133 (89.74), maa://22469 (90.91), ***maa://39217 (22.22), **maa://31349 (50.0)</t>
+          <t>maa://20899 (90.07)</t>
         </is>
       </c>
       <c r="E269" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战林累计歼灭80个敌人&gt; 3星通关主题曲11-6标准实战环境；必须编入非助战林并上场，且不编入重装干员</t>
+          <t>&gt; 由非助战缄默德克萨斯累计歼灭10个精英或领袖敌人&gt; 3星通关别传CB-8；必须编入非助战缄默德克萨斯并上场，且使用缄默德克萨斯歼灭至少2个灰尾</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="inlineStr">
         <is>
-          <t>重岳</t>
+          <t>和弦</t>
         </is>
       </c>
       <c r="B270" s="2" t="inlineStr">
         <is>
-          <t>WB-7</t>
+          <t>6-5</t>
         </is>
       </c>
       <c r="C270" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D270" s="5" t="inlineStr">
         <is>
-          <t>maa://32414 (98.4), maa://32505 (100.0), maa://39155 (94.44)</t>
+          <t>maa://20881 (100.0)</t>
         </is>
       </c>
       <c r="E270" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战重岳累计造成120000点伤害&gt; 3星通关别传WB-7；必须携带并部署非助战重岳，其他成员仅可编入4名干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战和弦并上场，且每次战斗至少释放一次沉溺之灾&gt; 3星通关主题曲6-5；必须编入非助战和弦并上场，且使用和弦歼灭至少2个宿主重装士兵</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="inlineStr">
         <is>
-          <t>铎铃</t>
+          <t>焰影苇草</t>
         </is>
       </c>
       <c r="B271" s="2" t="inlineStr">
         <is>
-          <t>2-1</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C271" s="7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D271" s="5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://30710 (96.81), maa://36845 (93.67), maa://31558 (96.3), ***maa://39217 (22.22), maa://30668 (83.33)</t>
         </is>
       </c>
       <c r="E271" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战铎铃累计使用乡心无改6次&gt; 3星通关主题曲2-1；必须编入非助战铎铃并上场，且使用3次乡心无改</t>
+          <t>&gt; 战斗中非助战焰影苇草累计使用枯荣共息10次&gt; 3星通关主题曲11-6标准实战环境；必须编入非助战焰影苇草并上场，且使用焰影苇草至少歼灭40个敌人</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="inlineStr">
         <is>
-          <t>仇白</t>
+          <t>截云</t>
         </is>
       </c>
       <c r="B272" s="2" t="inlineStr">
         <is>
-          <t>WB-7</t>
+          <t>S2-2</t>
         </is>
       </c>
       <c r="C272" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D272" s="5" t="inlineStr">
         <is>
-          <t>maa://36642 (100.0), maa://36867 (100.0), maa://39155 (94.44)</t>
+          <t>maa://20902 (100.0)</t>
         </is>
       </c>
       <c r="E272" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战仇白累计造成40歼灭数&gt; 3星通关别传WB-7；必须编入非助战仇白并上场，并使用仇白至少击败3名“破坚”</t>
+          <t>&gt; 由非助战截云累计造成100000点伤害&gt; 3星通关主题曲S2-2；必须编入非助战截云并上场，且使用截云至少歼灭10名敌人</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="inlineStr">
         <is>
-          <t>火龙S黑角</t>
+          <t>火哨</t>
         </is>
       </c>
       <c r="B273" s="2" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>S4-6</t>
         </is>
       </c>
       <c r="C273" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D273" s="5" t="inlineStr">
         <is>
-          <t>maa://39166 (100.0), maa://39167 (100.0)</t>
+          <t>maa://29159 (100.0)</t>
         </is>
       </c>
       <c r="E273" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战火龙S黑角累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲3-8；必须编入非助战火龙S黑角并上场，且使用火龙S黑角歼灭碎骨</t>
+          <t>&gt; 战斗中非助战火哨累计使用焦土8次&gt; 3星通关主题曲S4-6；必须携带并部署非助战火哨，其他成员仅可编入远程位干员</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="inlineStr">
         <is>
-          <t>麒麟R夜刀</t>
+          <t>林</t>
         </is>
       </c>
       <c r="B274" s="2" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C274" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D274" s="5" t="inlineStr">
         <is>
-          <t>maa://29005 (97.67), maa://31560 (83.33)</t>
+          <t>maa://25774 (100.0), maa://28133 (89.74), maa://22469 (90.91), ***maa://39217 (22.22), **maa://31349 (50.0)</t>
         </is>
       </c>
       <c r="E274" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；每次战斗至少部署3次非助战的麒麟R夜刀&gt; 3星通关主题曲3-7；必须编入非助战麒麟R夜刀并上场，且使用麒麟R夜刀歼灭至少2名炮手</t>
+          <t>&gt; 由非助战林累计歼灭80个敌人&gt; 3星通关主题曲11-6标准实战环境；必须编入非助战林并上场，且不编入重装干员</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="inlineStr">
         <is>
-          <t>休谟斯</t>
+          <t>重岳</t>
         </is>
       </c>
       <c r="B275" s="2" t="inlineStr">
         <is>
-          <t>7-8</t>
+          <t>WB-7</t>
         </is>
       </c>
       <c r="C275" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D275" s="5" t="inlineStr">
         <is>
-          <t>maa://39168 (100.0)</t>
+          <t>maa://32414 (98.41), maa://32505 (100.0), maa://39155 (94.44)</t>
         </is>
       </c>
       <c r="E275" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战休谟斯并上场，且每次战斗至少释放1次高效处理&gt; 3星通关主题曲7-8；必须编入非助战休谟斯并上场，其他成员仅可编入近战位干员</t>
+          <t>&gt; 由非助战重岳累计造成120000点伤害&gt; 3星通关别传WB-7；必须携带并部署非助战重岳，其他成员仅可编入4名干员</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="inlineStr">
         <is>
-          <t>摩根</t>
+          <t>铎铃</t>
         </is>
       </c>
       <c r="B276" s="2" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="C276" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D276" s="5" t="inlineStr">
         <is>
-          <t>maa://39169 (100.0)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E276" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战摩根累计造成80000点伤害&gt; 3星通关主题曲4-5，必须编入非助战摩根并上场，且使用摩根至少歼灭10名敌人</t>
+          <t>&gt; 战斗中非助战铎铃累计使用乡心无改6次&gt; 3星通关主题曲2-1；必须编入非助战铎铃并上场，且使用3次乡心无改</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="inlineStr">
         <is>
-          <t>洋灰</t>
+          <t>仇白</t>
         </is>
       </c>
       <c r="B277" s="2" t="inlineStr">
         <is>
-          <t>IW-EX-6</t>
+          <t>WB-7</t>
         </is>
       </c>
       <c r="C277" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D277" s="5" t="inlineStr">
         <is>
-          <t>maa://39170 (100.0)</t>
+          <t>maa://36642 (100.0), maa://36867 (100.0), maa://39155 (94.44)</t>
         </is>
       </c>
       <c r="E277" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战洋灰并上场，且每次战斗至少释放1次结构加固&gt; 3星通关别传IW-EX-6，必须编入非助战洋灰并上场，且不编入其他重装干员</t>
+          <t>&gt; 由非助战仇白累计造成40歼灭数&gt; 3星通关别传WB-7；必须编入非助战仇白并上场，并使用仇白至少击败3名“破坚”</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="inlineStr">
         <is>
-          <t>玫拉</t>
+          <t>火龙S黑角</t>
         </is>
       </c>
       <c r="B278" s="2" t="inlineStr">
         <is>
-          <t>S3-5</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C278" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D278" s="5" t="inlineStr">
         <is>
-          <t>maa://39171 (100.0)</t>
+          <t>maa://39166 (100.0), maa://39167 (100.0)</t>
         </is>
       </c>
       <c r="E278" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战玫拉并上场，且每次战斗至少释放1次临界爆发&gt; 3星通关主题曲S3-5；必须编入非助战玫拉并上场，其他成员仅可编入6名干员</t>
+          <t>&gt; 由非助战火龙S黑角累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲3-8；必须编入非助战火龙S黑角并上场，且使用火龙S黑角歼灭碎骨</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="inlineStr">
         <is>
-          <t>淬羽赫默</t>
+          <t>麒麟R夜刀</t>
         </is>
       </c>
       <c r="B279" s="2" t="inlineStr">
         <is>
-          <t>6-3</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C279" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D279" s="5" t="inlineStr">
         <is>
-          <t>maa://27939 (100.0)</t>
+          <t>maa://29005 (97.67), maa://31560 (83.33)</t>
         </is>
       </c>
       <c r="E279" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战淬羽赫默累计使用无畏者协议8次&gt; 3星通关主题曲6-3；必须编入非助战淬羽赫默并上场，且所有干员不被击倒</t>
+          <t>&gt; 完成5次战斗；每次战斗至少部署3次非助战的麒麟R夜刀&gt; 3星通关主题曲3-7；必须编入非助战麒麟R夜刀并上场，且使用麒麟R夜刀歼灭至少2名炮手</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="inlineStr">
         <is>
-          <t>霍尔海雅</t>
+          <t>休谟斯</t>
         </is>
       </c>
       <c r="B280" s="2" t="inlineStr">
         <is>
-          <t>OF-7</t>
+          <t>7-8</t>
         </is>
       </c>
       <c r="C280" s="7" t="inlineStr">
@@ -8375,24 +8375,24 @@
       </c>
       <c r="D280" s="5" t="inlineStr">
         <is>
-          <t>maa://29129 (100.0)</t>
+          <t>maa://39168 (100.0)</t>
         </is>
       </c>
       <c r="E280" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战霍尔海雅累计造成120000点伤害&gt; 3星通关别传OF-7；必须编入非助战霍尔海雅并上场，且至少使用2次博览者的狂语</t>
+          <t>&gt; 完成5次战斗；必须编入非助战休谟斯并上场，且每次战斗至少释放1次高效处理&gt; 3星通关主题曲7-8；必须编入非助战休谟斯并上场，其他成员仅可编入近战位干员</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="inlineStr">
         <is>
-          <t>霍尔海雅</t>
+          <t>摩根</t>
         </is>
       </c>
       <c r="B281" s="2" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C281" s="7" t="inlineStr">
@@ -8402,24 +8402,24 @@
       </c>
       <c r="D281" s="5" t="inlineStr">
         <is>
-          <t>maa://36005 (100.0)</t>
+          <t>maa://39169 (100.0)</t>
         </is>
       </c>
       <c r="E281" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战霍尔海雅并上场，且每次战斗至少释放1次博览者的狂语&gt; 3星通关主题曲4-3；必须编入非助战霍尔海雅并上场，且使用霍尔海雅至少歼灭10个敌人</t>
+          <t>&gt; 由非助战摩根累计造成80000点伤害&gt; 3星通关主题曲4-5，必须编入非助战摩根并上场，且使用摩根至少歼灭10名敌人</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="inlineStr">
         <is>
-          <t>缪尔赛思</t>
+          <t>洋灰</t>
         </is>
       </c>
       <c r="B282" s="2" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>IW-EX-6</t>
         </is>
       </c>
       <c r="C282" s="7" t="inlineStr">
@@ -8429,24 +8429,24 @@
       </c>
       <c r="D282" s="5" t="inlineStr">
         <is>
-          <t>maa://35859 (96.15)</t>
+          <t>maa://39170 (100.0)</t>
         </is>
       </c>
       <c r="E282" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战缪尔赛思，并确定第一位部署的干员是缪尔赛思&gt; 3星通关主题曲3-4；必须编入非助战缪尔赛思并上场，其他成员仅可编入4名干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战洋灰并上场，且每次战斗至少释放1次结构加固&gt; 3星通关别传IW-EX-6，必须编入非助战洋灰并上场，且不编入其他重装干员</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="inlineStr">
         <is>
-          <t>隐现</t>
+          <t>玫拉</t>
         </is>
       </c>
       <c r="B283" s="2" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>S3-5</t>
         </is>
       </c>
       <c r="C283" s="7" t="inlineStr">
@@ -8456,24 +8456,24 @@
       </c>
       <c r="D283" s="5" t="inlineStr">
         <is>
-          <t>**maa://39172 (50.0)</t>
+          <t>maa://39171 (100.0)</t>
         </is>
       </c>
       <c r="E283" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战隐现累计造成30歼灭数&gt; 3星通关主题曲3-4；必须编入非助战隐现并上场，且不编入其他狙击干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战玫拉并上场，且每次战斗至少释放1次临界爆发&gt; 3星通关主题曲S3-5；必须编入非助战玫拉并上场，其他成员仅可编入6名干员</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="inlineStr">
         <is>
-          <t>空构</t>
+          <t>淬羽赫默</t>
         </is>
       </c>
       <c r="B284" s="2" t="inlineStr">
         <is>
-          <t>DM-2</t>
+          <t>6-3</t>
         </is>
       </c>
       <c r="C284" s="7" t="inlineStr">
@@ -8483,51 +8483,51 @@
       </c>
       <c r="D284" s="5" t="inlineStr">
         <is>
-          <t>maa://39173 (100.0)</t>
+          <t>maa://27939 (100.0)</t>
         </is>
       </c>
       <c r="E284" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战空构累计造成60000点伤害&gt; 3星通关插曲DM-2；必须编入非助战空构并上场，且至少使用1次临场铳械改装</t>
+          <t>&gt; 战斗中非助战淬羽赫默累计使用无畏者协议8次&gt; 3星通关主题曲6-3；必须编入非助战淬羽赫默并上场，且所有干员不被击倒</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="inlineStr">
         <is>
-          <t>圣约送葬人</t>
+          <t>霍尔海雅</t>
         </is>
       </c>
       <c r="B285" s="2" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>OF-7</t>
         </is>
       </c>
       <c r="C285" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D285" s="5" t="inlineStr">
         <is>
-          <t>maa://25775 (92.45), *maa://25393 (76.92)</t>
+          <t>maa://29129 (100.0)</t>
         </is>
       </c>
       <c r="E285" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战圣约送葬人累计造成80000点伤害&gt; 3星通关主题曲7-14；必须编入非助战圣约送葬人并上场，且使用圣约送葬人歼灭至少2名游击队盾卫</t>
+          <t>&gt; 由非助战霍尔海雅累计造成120000点伤害&gt; 3星通关别传OF-7；必须编入非助战霍尔海雅并上场，且至少使用2次博览者的狂语</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="inlineStr">
         <is>
-          <t>寒檀</t>
+          <t>霍尔海雅</t>
         </is>
       </c>
       <c r="B286" s="2" t="inlineStr">
         <is>
-          <t>BI-2</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C286" s="7" t="inlineStr">
@@ -8537,24 +8537,24 @@
       </c>
       <c r="D286" s="5" t="inlineStr">
         <is>
-          <t>maa://40161 (100.0)</t>
+          <t>maa://36005 (100.0)</t>
         </is>
       </c>
       <c r="E286" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战寒檀并上场，且每次战斗至少释放1次“女巫之泪”&gt; 3星通关别传BI-2；必须编入非助战寒檀并上场，且使用寒檀至少歼灭8个敌人</t>
+          <t>&gt; 完成5次战斗；必须编入非助战霍尔海雅并上场，且每次战斗至少释放1次博览者的狂语&gt; 3星通关主题曲4-3；必须编入非助战霍尔海雅并上场，且使用霍尔海雅至少歼灭10个敌人</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="inlineStr">
         <is>
-          <t>提丰</t>
+          <t>缪尔赛思</t>
         </is>
       </c>
       <c r="B287" s="2" t="inlineStr">
         <is>
-          <t>S2-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C287" s="7" t="inlineStr">
@@ -8564,24 +8564,24 @@
       </c>
       <c r="D287" s="5" t="inlineStr">
         <is>
-          <t>maa://25367 (98.97)</t>
+          <t>maa://35859 (96.23)</t>
         </is>
       </c>
       <c r="E287" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战提丰累计造成120000点伤害&gt; 3星通关主题曲S2-1；必须编入非助战提丰并上场，其他成员仅可编入近战位干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战缪尔赛思，并确定第一位部署的干员是缪尔赛思&gt; 3星通关主题曲3-4；必须编入非助战缪尔赛思并上场，其他成员仅可编入4名干员</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="inlineStr">
         <is>
-          <t>苍苔</t>
+          <t>隐现</t>
         </is>
       </c>
       <c r="B288" s="2" t="inlineStr">
         <is>
-          <t>9-3</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C288" s="7" t="inlineStr">
@@ -8591,51 +8591,51 @@
       </c>
       <c r="D288" s="5" t="inlineStr">
         <is>
-          <t>maa://28070 (100.0)</t>
+          <t>**maa://39172 (50.0)</t>
         </is>
       </c>
       <c r="E288" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战苍苔并上场，且每次战斗至少释放1次土石的恒心&gt; 3星通关主题曲9-3标准实战环境；必须编入非助战苍苔并上场，且所有干员不被击倒</t>
+          <t>&gt; 由非助战隐现累计造成30歼灭数&gt; 3星通关主题曲3-4；必须编入非助战隐现并上场，且不编入其他狙击干员</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="inlineStr">
         <is>
-          <t>青枳</t>
+          <t>空构</t>
         </is>
       </c>
       <c r="B289" s="2" t="inlineStr">
         <is>
-          <t>OF-5</t>
+          <t>DM-2</t>
         </is>
       </c>
       <c r="C289" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D289" s="5" t="inlineStr">
         <is>
-          <t>maa://31559 (93.75), maa://28241 (100.0)</t>
+          <t>maa://39173 (100.0)</t>
         </is>
       </c>
       <c r="E289" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战青枳，并确定第一位部署的干员是青枳&gt; 3星通关别传OF-5；必须编入非助战青枳并上场，且不编入其他先锋干员</t>
+          <t>&gt; 由非助战空构累计造成60000点伤害&gt; 3星通关插曲DM-2；必须编入非助战空构并上场，且至少使用1次临场铳械改装</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="inlineStr">
         <is>
-          <t>琳琅诗怀雅</t>
+          <t>圣约送葬人</t>
         </is>
       </c>
       <c r="B290" s="2" t="inlineStr">
         <is>
-          <t>5-2</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="C290" s="7" t="inlineStr">
@@ -8645,24 +8645,24 @@
       </c>
       <c r="D290" s="5" t="inlineStr">
         <is>
-          <t>maa://25773 (100.0), *maa://26088 (66.67)</t>
+          <t>maa://25775 (92.45), *maa://25393 (76.92)</t>
         </is>
       </c>
       <c r="E290" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战琳琅诗怀雅累计造成60000点伤害※香槟炸弹造成的伤害也会参与计数&gt; 3星通关主题曲5-2；必须编入非助战琳琅诗怀雅并上场，且使用琳琅诗怀雅至少歼灭15个敌人</t>
+          <t>&gt; 由非助战圣约送葬人累计造成80000点伤害&gt; 3星通关主题曲7-14；必须编入非助战圣约送葬人并上场，且使用圣约送葬人歼灭至少2名游击队盾卫</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="inlineStr">
         <is>
-          <t>琳琅诗怀雅</t>
+          <t>寒檀</t>
         </is>
       </c>
       <c r="B291" s="2" t="inlineStr">
         <is>
-          <t>11-16</t>
+          <t>BI-2</t>
         </is>
       </c>
       <c r="C291" s="7" t="inlineStr">
@@ -8672,51 +8672,51 @@
       </c>
       <c r="D291" s="5" t="inlineStr">
         <is>
-          <t>maa://39239 (100.0)</t>
+          <t>maa://40161 (100.0)</t>
         </is>
       </c>
       <c r="E291" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战琳琅诗怀雅累计造成40歼灭数&gt; 3星通关主题曲11-16标准实战环境；必须编入非助战琳琅诗怀雅并上场，其他成员仅可编入4名干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战寒檀并上场，且每次战斗至少释放1次“女巫之泪”&gt; 3星通关别传BI-2；必须编入非助战寒檀并上场，且使用寒檀至少歼灭8个敌人</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="inlineStr">
         <is>
-          <t>纯烬艾雅法拉</t>
+          <t>提丰</t>
         </is>
       </c>
       <c r="B292" s="2" t="inlineStr">
         <is>
-          <t>FC-5</t>
+          <t>S2-1</t>
         </is>
       </c>
       <c r="C292" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D292" s="5" t="inlineStr">
         <is>
-          <t>maa://39692 (99.35), *maa://39810 (78.57)</t>
+          <t>maa://25367 (98.97)</t>
         </is>
       </c>
       <c r="E292" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战纯烬艾雅法拉并上场，且每次战斗至少释放1次火山回响&gt; 3星通关别传FC-5；必须编入非助战纯烬艾雅法拉并上场，且不编入其他医疗干员</t>
+          <t>&gt; 由非助战提丰累计造成120000点伤害&gt; 3星通关主题曲S2-1；必须编入非助战提丰并上场，其他成员仅可编入近战位干员</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="inlineStr">
         <is>
-          <t>冰酿</t>
+          <t>苍苔</t>
         </is>
       </c>
       <c r="B293" s="2" t="inlineStr">
         <is>
-          <t>S3-3</t>
+          <t>9-3</t>
         </is>
       </c>
       <c r="C293" s="7" t="inlineStr">
@@ -8726,51 +8726,51 @@
       </c>
       <c r="D293" s="5" t="inlineStr">
         <is>
-          <t>maa://39174 (100.0)</t>
+          <t>maa://28070 (100.0)</t>
         </is>
       </c>
       <c r="E293" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战冰酿累计造成80000伤害&gt; 3星通关主题曲S3-3；必须编入非助战冰酿并上场，且使用冰酿至少歼灭8个敌人</t>
+          <t>&gt; 完成5次战斗；必须编入非助战苍苔并上场，且每次战斗至少释放1次土石的恒心&gt; 3星通关主题曲9-3标准实战环境；必须编入非助战苍苔并上场，且所有干员不被击倒</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="inlineStr">
         <is>
-          <t>杏仁</t>
+          <t>青枳</t>
         </is>
       </c>
       <c r="B294" s="2" t="inlineStr">
         <is>
-          <t>BI-2</t>
+          <t>OF-5</t>
         </is>
       </c>
       <c r="C294" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D294" s="5" t="inlineStr">
         <is>
-          <t>maa://39175 (100.0)</t>
+          <t>maa://31559 (93.75), maa://28241 (100.0)</t>
         </is>
       </c>
       <c r="E294" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战杏仁累计使用强力牵引10次&gt; 3星通关别传BI-2；必须编入非助战杏仁并上场，且至少使用2次强力牵引</t>
+          <t>&gt; 完成5次战斗；必须编入非助战青枳，并确定第一位部署的干员是青枳&gt; 3星通关别传OF-5；必须编入非助战青枳并上场，且不编入其他先锋干员</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="inlineStr">
         <is>
-          <t>涤火杰西卡</t>
+          <t>琳琅诗怀雅</t>
         </is>
       </c>
       <c r="B295" s="2" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>5-2</t>
         </is>
       </c>
       <c r="C295" s="7" t="inlineStr">
@@ -8780,24 +8780,24 @@
       </c>
       <c r="D295" s="5" t="inlineStr">
         <is>
-          <t>maa://34867 (100.0), maa://34715 (100.0)</t>
+          <t>maa://25773 (100.0), *maa://26088 (66.67)</t>
         </is>
       </c>
       <c r="E295" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战涤火杰西卡累计造成30歼灭数&gt; 3星通关主题曲3-8；必须编入非助战涤火杰西卡并上场，且使用涤火杰西卡歼灭碎骨</t>
+          <t>&gt; 由非助战琳琅诗怀雅累计造成60000点伤害※香槟炸弹造成的伤害也会参与计数&gt; 3星通关主题曲5-2；必须编入非助战琳琅诗怀雅并上场，且使用琳琅诗怀雅至少歼灭15个敌人</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="inlineStr">
         <is>
-          <t>维荻</t>
+          <t>琳琅诗怀雅</t>
         </is>
       </c>
       <c r="B296" s="2" t="inlineStr">
         <is>
-          <t>9-3</t>
+          <t>11-16</t>
         </is>
       </c>
       <c r="C296" s="7" t="inlineStr">
@@ -8807,51 +8807,51 @@
       </c>
       <c r="D296" s="5" t="inlineStr">
         <is>
-          <t>maa://39176 (100.0)</t>
+          <t>maa://39239 (100.0)</t>
         </is>
       </c>
       <c r="E296" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战维荻累计造成60000点伤害&gt; 3星通关主题曲9-3标准实战环境；必须编入非助战维荻并上场，且至少使用2次双刃毒藤</t>
+          <t>&gt; 由非助战琳琅诗怀雅累计造成40歼灭数&gt; 3星通关主题曲11-16标准实战环境；必须编入非助战琳琅诗怀雅并上场，其他成员仅可编入4名干员</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="inlineStr">
         <is>
-          <t>戴菲恩</t>
+          <t>纯烬艾雅法拉</t>
         </is>
       </c>
       <c r="B297" s="2" t="inlineStr">
         <is>
-          <t>WD-6</t>
+          <t>FC-5</t>
         </is>
       </c>
       <c r="C297" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D297" s="5" t="inlineStr">
         <is>
-          <t>**maa://39177 (33.33)</t>
+          <t>maa://39692 (99.37), *maa://39810 (78.57)</t>
         </is>
       </c>
       <c r="E297" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战戴菲恩累计造成30歼灭数&gt; 3星通关插曲WD-6；必须携带且部署非助战戴菲恩，且至少使用2次抢攻</t>
+          <t>&gt; 完成5次战斗；必须编入非助战纯烬艾雅法拉并上场，且每次战斗至少释放1次火山回响&gt; 3星通关别传FC-5；必须编入非助战纯烬艾雅法拉并上场，且不编入其他医疗干员</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="inlineStr">
         <is>
-          <t>刺玫</t>
+          <t>冰酿</t>
         </is>
       </c>
       <c r="B298" s="2" t="inlineStr">
         <is>
-          <t>IC-2</t>
+          <t>S3-3</t>
         </is>
       </c>
       <c r="C298" s="7" t="inlineStr">
@@ -8861,24 +8861,24 @@
       </c>
       <c r="D298" s="5" t="inlineStr">
         <is>
-          <t>maa://30680 (100.0)</t>
+          <t>maa://39174 (100.0)</t>
         </is>
       </c>
       <c r="E298" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战刺玫累计使用荆藤庇荫10次&gt; 3星通关别传IC-2；必须编入非助战刺玫并上场，且不编入其他医疗干员</t>
+          <t>&gt; 由非助战冰酿累计造成80000伤害&gt; 3星通关主题曲S3-3；必须编入非助战冰酿并上场，且使用冰酿至少歼灭8个敌人</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="inlineStr">
         <is>
-          <t>赫德雷</t>
+          <t>杏仁</t>
         </is>
       </c>
       <c r="B299" s="2" t="inlineStr">
         <is>
-          <t>IW-7</t>
+          <t>BI-2</t>
         </is>
       </c>
       <c r="C299" s="7" t="inlineStr">
@@ -8888,51 +8888,51 @@
       </c>
       <c r="D299" s="5" t="inlineStr">
         <is>
-          <t>maa://40956 (100.0)</t>
+          <t>maa://39175 (100.0)</t>
         </is>
       </c>
       <c r="E299" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战赫德雷累计歼灭5个精英或领袖敌人&gt; 3星通关别传IW-7；必须编入非助战赫德雷并上场，并使用赫德雷至少击败2名沉沙</t>
+          <t>&gt; 战斗中非助战杏仁累计使用强力牵引10次&gt; 3星通关别传BI-2；必须编入非助战杏仁并上场，且至少使用2次强力牵引</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="inlineStr">
         <is>
-          <t>深律</t>
+          <t>涤火杰西卡</t>
         </is>
       </c>
       <c r="B300" s="2" t="inlineStr">
         <is>
-          <t>LE-4</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C300" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D300" s="5" t="inlineStr">
         <is>
-          <t>**maa://39178 (50.0)</t>
+          <t>maa://34867 (100.0), maa://34715 (100.0)</t>
         </is>
       </c>
       <c r="E300" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战深律并上场，且每次战斗至少释放1次沉音宁神&gt; 3星通关别传LE-4；必须编入非助战深律并上场，且所有干员不被击倒</t>
+          <t>&gt; 由非助战涤火杰西卡累计造成30歼灭数&gt; 3星通关主题曲3-8；必须编入非助战涤火杰西卡并上场，且使用涤火杰西卡歼灭碎骨</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="inlineStr">
         <is>
-          <t>止颂</t>
+          <t>维荻</t>
         </is>
       </c>
       <c r="B301" s="2" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>9-3</t>
         </is>
       </c>
       <c r="C301" s="7" t="inlineStr">
@@ -8942,24 +8942,24 @@
       </c>
       <c r="D301" s="5" t="inlineStr">
         <is>
-          <t>maa://34205 (83.33)</t>
+          <t>maa://39176 (100.0)</t>
         </is>
       </c>
       <c r="E301" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战止颂累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲7-11；必须编入非助战止颂并上场，且使用止颂歼灭至少2名雇佣军萨卡兹战士</t>
+          <t>&gt; 由非助战维荻累计造成60000点伤害&gt; 3星通关主题曲9-3标准实战环境；必须编入非助战维荻并上场，且至少使用2次双刃毒藤</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="inlineStr">
         <is>
-          <t>哈洛德</t>
+          <t>戴菲恩</t>
         </is>
       </c>
       <c r="B302" s="2" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>WD-6</t>
         </is>
       </c>
       <c r="C302" s="7" t="inlineStr">
@@ -8969,24 +8969,24 @@
       </c>
       <c r="D302" s="5" t="inlineStr">
         <is>
-          <t>*maa://40162 (66.67)</t>
+          <t>**maa://39177 (33.33)</t>
         </is>
       </c>
       <c r="E302" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战哈洛德累计使用重症优先8次&gt; 3星通关主题曲9-13标准实战环境；必须编入非助战哈洛德并上场，且所有干员不被击倒</t>
+          <t>&gt; 由非助战戴菲恩累计造成30歼灭数&gt; 3星通关插曲WD-6；必须携带且部署非助战戴菲恩，且至少使用2次抢攻</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="inlineStr">
         <is>
-          <t>烈夏</t>
+          <t>刺玫</t>
         </is>
       </c>
       <c r="B303" s="2" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>IC-2</t>
         </is>
       </c>
       <c r="C303" s="7" t="inlineStr">
@@ -8996,51 +8996,51 @@
       </c>
       <c r="D303" s="5" t="inlineStr">
         <is>
-          <t>maa://37692 (100.0)</t>
+          <t>maa://30680 (100.0)</t>
         </is>
       </c>
       <c r="E303" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战烈夏累计造成30歼灭数&gt; 3星通关主题曲4-3；必须编入非助战烈夏并上场，且不编入其他近卫干员</t>
+          <t>&gt; 战斗中非助战刺玫累计使用荆藤庇荫10次&gt; 3星通关别传IC-2；必须编入非助战刺玫并上场，且不编入其他医疗干员</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="inlineStr">
         <is>
-          <t>锏</t>
+          <t>赫德雷</t>
         </is>
       </c>
       <c r="B304" s="2" t="inlineStr">
         <is>
-          <t>BI-6</t>
+          <t>IW-7</t>
         </is>
       </c>
       <c r="C304" s="7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D304" s="5" t="inlineStr">
         <is>
-          <t>maa://30671 (81.34), maa://30669 (98.18), maa://37275 (81.82), *maa://32410 (63.64), maa://33671 (100.0), maa://41605 (100.0)</t>
+          <t>maa://40956 (100.0)</t>
         </is>
       </c>
       <c r="E304" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战锏并上场，且每次战斗至少释放1次归于宁静&gt; 3星通关别传BI-6；必须编入非助战锏并上场，且使用锏至少歼灭10个敌人</t>
+          <t>&gt; 由非助战赫德雷累计歼灭5个精英或领袖敌人&gt; 3星通关别传IW-7；必须编入非助战赫德雷并上场，并使用赫德雷至少击败2名沉沙</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="inlineStr">
         <is>
-          <t>莱伊</t>
+          <t>深律</t>
         </is>
       </c>
       <c r="B305" s="2" t="inlineStr">
         <is>
-          <t>S9-1</t>
+          <t>LE-4</t>
         </is>
       </c>
       <c r="C305" s="7" t="inlineStr">
@@ -9050,24 +9050,24 @@
       </c>
       <c r="D305" s="5" t="inlineStr">
         <is>
-          <t>maa://38295 (94.87)</t>
+          <t>**maa://39178 (50.0)</t>
         </is>
       </c>
       <c r="E305" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战莱伊累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲S9-1标准实战环境；必须编入非助战莱伊并上场，且使用莱伊使用至少2次“得见光芒”</t>
+          <t>&gt; 完成5次战斗；必须编入非助战深律并上场，且每次战斗至少释放1次沉音宁神&gt; 3星通关别传LE-4；必须编入非助战深律并上场，且所有干员不被击倒</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="inlineStr">
         <is>
-          <t>万顷</t>
+          <t>止颂</t>
         </is>
       </c>
       <c r="B306" s="2" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="C306" s="7" t="inlineStr">
@@ -9077,24 +9077,24 @@
       </c>
       <c r="D306" s="5" t="inlineStr">
         <is>
-          <t>maa://32417 (100.0)</t>
+          <t>maa://34205 (83.33)</t>
         </is>
       </c>
       <c r="E306" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战万顷累计使用支援号令·γ型10次&gt; 3星通关主题曲9-13标准实战环境；必须编入非助战万顷并上场，且至少使用2次应东风</t>
+          <t>&gt; 由非助战止颂累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲7-11；必须编入非助战止颂并上场，且使用止颂歼灭至少2名雇佣军萨卡兹战士</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="inlineStr">
         <is>
-          <t>小满</t>
+          <t>哈洛德</t>
         </is>
       </c>
       <c r="B307" s="2" t="inlineStr">
         <is>
-          <t>9-11</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C307" s="7" t="inlineStr">
@@ -9104,24 +9104,24 @@
       </c>
       <c r="D307" s="5" t="inlineStr">
         <is>
-          <t>maa://32419 (100.0)</t>
+          <t>*maa://40162 (66.67)</t>
         </is>
       </c>
       <c r="E307" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战小满累计造成60000点伤害&gt; 3星通关主题曲9-11标准实战环境；必须编入非助战小满并上场，且至少使用2次乡音沉沉</t>
+          <t>&gt; 战斗中非助战哈洛德累计使用重症优先8次&gt; 3星通关主题曲9-13标准实战环境；必须编入非助战哈洛德并上场，且所有干员不被击倒</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="inlineStr">
         <is>
-          <t>左乐</t>
+          <t>烈夏</t>
         </is>
       </c>
       <c r="B308" s="2" t="inlineStr">
         <is>
-          <t>WB-5</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C308" s="7" t="inlineStr">
@@ -9131,51 +9131,51 @@
       </c>
       <c r="D308" s="5" t="inlineStr">
         <is>
-          <t>maa://32416 (85.29)</t>
+          <t>maa://37692 (100.0)</t>
         </is>
       </c>
       <c r="E308" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战左乐累计造成40歼灭数&gt; 3星通关别传WB-5；必须编入非助战左乐并上场，且使用左乐至少歼灭8个敌人</t>
+          <t>&gt; 由非助战烈夏累计造成30歼灭数&gt; 3星通关主题曲4-3；必须编入非助战烈夏并上场，且不编入其他近卫干员</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="inlineStr">
         <is>
-          <t>黍</t>
+          <t>锏</t>
         </is>
       </c>
       <c r="B309" s="2" t="inlineStr">
         <is>
-          <t>11-11</t>
+          <t>BI-6</t>
         </is>
       </c>
       <c r="C309" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D309" s="5" t="inlineStr">
         <is>
-          <t>maa://32647 (96.84), maa://32415 (96.26), maa://34677 (100.0), maa://32892 (100.0)</t>
+          <t>maa://30671 (81.34), maa://30669 (98.18), maa://37275 (81.82), *maa://32410 (63.64), maa://41605 (100.0), maa://33671 (100.0)</t>
         </is>
       </c>
       <c r="E309" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战黍并上场，且每次战斗至少释放1次离离枯荣&gt; 3星通关主题曲11-11标准实战环境；必须编入非助战黍并上场，且所有干员不被击倒</t>
+          <t>&gt; 完成5次战斗；必须编入非助战锏并上场，且每次战斗至少释放1次归于宁静&gt; 3星通关别传BI-6；必须编入非助战锏并上场，且使用锏至少歼灭10个敌人</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="inlineStr">
         <is>
-          <t>红隼</t>
+          <t>莱伊</t>
         </is>
       </c>
       <c r="B310" s="2" t="inlineStr">
         <is>
-          <t>11-18</t>
+          <t>S9-1</t>
         </is>
       </c>
       <c r="C310" s="7" t="inlineStr">
@@ -9185,24 +9185,24 @@
       </c>
       <c r="D310" s="5" t="inlineStr">
         <is>
-          <t>maa://32420 (100.0)</t>
+          <t>maa://38295 (95.12)</t>
         </is>
       </c>
       <c r="E310" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战红隼并上场，且每次战斗至少释放2次醉刃乱舞&gt; 3星通关主题曲11-18标准实战环境；必须编入非助战红隼，且第一位部署红隼、红隼全程不撤退或被击倒</t>
+          <t>&gt; 由非助战莱伊累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲S9-1标准实战环境；必须编入非助战莱伊并上场，且使用莱伊使用至少2次“得见光芒”</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="inlineStr">
         <is>
-          <t>导火索</t>
+          <t>万顷</t>
         </is>
       </c>
       <c r="B311" s="2" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C311" s="7" t="inlineStr">
@@ -9212,24 +9212,24 @@
       </c>
       <c r="D311" s="5" t="inlineStr">
         <is>
-          <t>maa://35606 (100.0)</t>
+          <t>maa://32417 (100.0)</t>
         </is>
       </c>
       <c r="E311" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战导火索累计造成80000点伤害&gt; 3星通关主题曲3-1；必须编入非助战导火索并上场，且使用导火索至少歼灭30个敌人</t>
+          <t>&gt; 战斗中非助战万顷累计使用支援号令·γ型10次&gt; 3星通关主题曲9-13标准实战环境；必须编入非助战万顷并上场，且至少使用2次应东风</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="inlineStr">
         <is>
-          <t>双月</t>
+          <t>小满</t>
         </is>
       </c>
       <c r="B312" s="2" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>9-11</t>
         </is>
       </c>
       <c r="C312" s="7" t="inlineStr">
@@ -9239,24 +9239,24 @@
       </c>
       <c r="D312" s="5" t="inlineStr">
         <is>
-          <t>maa://34716 (85.71)</t>
+          <t>maa://32419 (100.0)</t>
         </is>
       </c>
       <c r="E312" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战双月累计使用全知者的战术10次&gt; 3星通关主题曲3-7；必须编入非助战双月并上场，且至少使用2次全知者的战术</t>
+          <t>&gt; 由非助战小满累计造成60000点伤害&gt; 3星通关主题曲9-11标准实战环境；必须编入非助战小满并上场，且至少使用2次乡音沉沉</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="inlineStr">
         <is>
-          <t>医生</t>
+          <t>左乐</t>
         </is>
       </c>
       <c r="B313" s="2" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>WB-5</t>
         </is>
       </c>
       <c r="C313" s="7" t="inlineStr">
@@ -9266,51 +9266,51 @@
       </c>
       <c r="D313" s="5" t="inlineStr">
         <is>
-          <t>maa://39179 (100.0)</t>
+          <t>maa://32416 (85.29)</t>
         </is>
       </c>
       <c r="E313" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战医生累计使用激素手枪8次&gt; 3星通关主题曲2-5；必须编入非助战医生并上场，且不编入医疗干员</t>
+          <t>&gt; 由非助战左乐累计造成40歼灭数&gt; 3星通关别传WB-5；必须编入非助战左乐并上场，且使用左乐至少歼灭8个敌人</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="inlineStr">
         <is>
-          <t>艾拉</t>
+          <t>黍</t>
         </is>
       </c>
       <c r="B314" s="2" t="inlineStr">
         <is>
-          <t>DM-EX-1</t>
+          <t>11-11</t>
         </is>
       </c>
       <c r="C314" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D314" s="5" t="inlineStr">
         <is>
-          <t>maa://34865 (96.38), maa://34717 (92.59)</t>
+          <t>maa://32647 (96.86), maa://32415 (96.26), maa://34677 (100.0), maa://32892 (100.0)</t>
         </is>
       </c>
       <c r="E314" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战艾拉累计部署雷鸣地雷30个&gt; 3星通关插曲DM-EX-1；必须编入非助战艾拉并上场，且使用艾拉歼灭至少2名萨卡兹穿刺手</t>
+          <t>&gt; 完成5次战斗；必须编入非助战黍并上场，且每次战斗至少释放1次离离枯荣&gt; 3星通关主题曲11-11标准实战环境；必须编入非助战黍并上场，且所有干员不被击倒</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="inlineStr">
         <is>
-          <t>露托</t>
+          <t>红隼</t>
         </is>
       </c>
       <c r="B315" s="2" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>11-18</t>
         </is>
       </c>
       <c r="C315" s="7" t="inlineStr">
@@ -9320,24 +9320,24 @@
       </c>
       <c r="D315" s="5" t="inlineStr">
         <is>
-          <t>maa://39180 (100.0)</t>
+          <t>maa://32420 (100.0)</t>
         </is>
       </c>
       <c r="E315" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战露托累计使用强磁防卫8次&gt; 3星通关主题曲3-1；必须编入非助战露托并上场，且不编入其他重装干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战红隼并上场，且每次战斗至少释放2次醉刃乱舞&gt; 3星通关主题曲11-18标准实战环境；必须编入非助战红隼，且第一位部署红隼、红隼全程不撤退或被击倒</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="inlineStr">
         <is>
-          <t>阿罗玛</t>
+          <t>导火索</t>
         </is>
       </c>
       <c r="B316" s="2" t="inlineStr">
         <is>
-          <t>GT-HX-3</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C316" s="7" t="inlineStr">
@@ -9347,51 +9347,51 @@
       </c>
       <c r="D316" s="5" t="inlineStr">
         <is>
-          <t>*maa://39181 (66.67)</t>
+          <t>maa://35606 (100.0)</t>
         </is>
       </c>
       <c r="E316" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战阿罗玛并上场，且每次战斗至少释放1次小心地滑&gt; 3星通关别传GT-HX-3；必须编入非助战阿罗玛并上场，且使用阿罗玛至少歼灭20个敌人</t>
+          <t>&gt; 由非助战导火索累计造成80000点伤害&gt; 3星通关主题曲3-1；必须编入非助战导火索并上场，且使用导火索至少歼灭30个敌人</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="inlineStr">
         <is>
-          <t>阿斯卡纶</t>
+          <t>双月</t>
         </is>
       </c>
       <c r="B317" s="2" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C317" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D317" s="5" t="inlineStr">
         <is>
-          <t>maa://36868 (100.0), maa://35996 (94.44), ***maa://39217 (22.22)</t>
+          <t>maa://34716 (85.71)</t>
         </is>
       </c>
       <c r="E317" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战阿斯卡纶累计造成180000点伤害&gt; 3星通关主题曲11-6标准实战环境；必须编入非助战阿斯卡纶并上场，且使用阿斯卡纶至少歼灭30个敌人</t>
+          <t>&gt; 战斗中非助战双月累计使用全知者的战术10次&gt; 3星通关主题曲3-7；必须编入非助战双月并上场，且至少使用2次全知者的战术</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="inlineStr">
         <is>
-          <t>历阵锐枪芬</t>
+          <t>医生</t>
         </is>
       </c>
       <c r="B318" s="2" t="inlineStr">
         <is>
-          <t>4-2</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C318" s="7" t="inlineStr">
@@ -9401,132 +9401,132 @@
       </c>
       <c r="D318" s="5" t="inlineStr">
         <is>
-          <t>maa://36647 (100.0)</t>
+          <t>maa://39179 (100.0)</t>
         </is>
       </c>
       <c r="E318" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战历阵锐枪芬，并确定第一位部署的干员是历阵锐枪芬&gt; 3星通关主题曲4-2；必须编入非助战历阵锐枪芬并上场，且不编入其他先锋干员</t>
+          <t>&gt; 战斗中非助战医生累计使用激素手枪8次&gt; 3星通关主题曲2-5；必须编入非助战医生并上场，且不编入医疗干员</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="inlineStr">
         <is>
-          <t>逻各斯</t>
+          <t>艾拉</t>
         </is>
       </c>
       <c r="B319" s="2" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>DM-EX-1</t>
         </is>
       </c>
       <c r="C319" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D319" s="5" t="inlineStr">
         <is>
-          <t>maa://36646 (98.1), maa://36845 (93.59), ***maa://39217 (22.22)</t>
+          <t>maa://34865 (96.38), maa://34717 (92.73)</t>
         </is>
       </c>
       <c r="E319" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战逻各斯累计造成100000点伤害&gt; 3星通关主题曲11-6标准实战环境，必须编入非助战逻各斯并上场，其他成员仅可编入4名干员</t>
+          <t>&gt; 战斗中非助战艾拉累计部署雷鸣地雷30个&gt; 3星通关插曲DM-EX-1；必须编入非助战艾拉并上场，且使用艾拉歼灭至少2名萨卡兹穿刺手</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="inlineStr">
         <is>
-          <t>维什戴尔</t>
+          <t>露托</t>
         </is>
       </c>
       <c r="B320" s="2" t="inlineStr">
         <is>
-          <t>DM-5</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C320" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D320" s="5" t="inlineStr">
         <is>
-          <t>maa://36645 (98.19), maa://36841 (93.33), maa://37484 (93.02), maa://37858 (90.91)</t>
+          <t>maa://39180 (100.0)</t>
         </is>
       </c>
       <c r="E320" s="4" t="inlineStr">
         <is>
-          <t>&gt; 由非助战维什戴尔累计造成120000伤害&gt; 3星通关插曲DM-5；必须编入非助战维什戴尔并上场，且使用维什戴尔至少歼灭20个敌人</t>
+          <t>&gt; 战斗中非助战露托累计使用强磁防卫8次&gt; 3星通关主题曲3-1；必须编入非助战露托并上场，且不编入其他重装干员</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="inlineStr">
         <is>
-          <t>阿米娅(医疗)</t>
+          <t>阿罗玛</t>
         </is>
       </c>
       <c r="B321" s="2" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>GT-HX-3</t>
         </is>
       </c>
       <c r="C321" s="7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D321" s="5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>*maa://39181 (66.67)</t>
         </is>
       </c>
       <c r="E321" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战医疗职业的阿米娅累计使用慈悲愿景5次&gt; 3星通关主题曲3-8；必须编入非助战医疗职业的阿米娅并上场，且不编入其他医疗干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战阿罗玛并上场，且每次战斗至少释放1次小心地滑&gt; 3星通关别传GT-HX-3；必须编入非助战阿罗玛并上场，且使用阿罗玛至少歼灭20个敌人</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="inlineStr">
         <is>
-          <t>深巡</t>
+          <t>阿斯卡纶</t>
         </is>
       </c>
       <c r="B322" s="2" t="inlineStr">
         <is>
-          <t>SN-5</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C322" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D322" s="5" t="inlineStr">
         <is>
-          <t>maa://39183 (100.0)</t>
+          <t>maa://36868 (100.0), maa://35996 (94.44), ***maa://39217 (22.22)</t>
         </is>
       </c>
       <c r="E322" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战深巡累计使用行动能力剥夺8次&gt; 3星通关插曲SN-5，必须编入非助战深巡并上场，其他成员仅可编入4名干员</t>
+          <t>&gt; 由非助战阿斯卡纶累计造成180000点伤害&gt; 3星通关主题曲11-6标准实战环境；必须编入非助战阿斯卡纶并上场，且使用阿斯卡纶至少歼灭30个敌人</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="inlineStr">
         <is>
-          <t>海霓</t>
+          <t>历阵锐枪芬</t>
         </is>
       </c>
       <c r="B323" s="2" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>4-2</t>
         </is>
       </c>
       <c r="C323" s="7" t="inlineStr">
@@ -9536,105 +9536,105 @@
       </c>
       <c r="D323" s="5" t="inlineStr">
         <is>
-          <t>maa://39184 (100.0)</t>
+          <t>maa://36647 (100.0)</t>
         </is>
       </c>
       <c r="E323" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战海霓累计使用阻滞性显色剂8次&gt; 3星通关插曲SV-4；必须编入非助战海霓并上场，且不编入其他辅助干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战历阵锐枪芬，并确定第一位部署的干员是历阵锐枪芬&gt; 3星通关主题曲4-2；必须编入非助战历阵锐枪芬并上场，且不编入其他先锋干员</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="inlineStr">
         <is>
-          <t>乌尔比安</t>
+          <t>魔王</t>
         </is>
       </c>
       <c r="B324" s="2" t="inlineStr">
         <is>
-          <t>SV-6</t>
+          <t>14-5</t>
         </is>
       </c>
       <c r="C324" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D324" s="5" t="inlineStr">
         <is>
-          <t>*maa://40957 (71.43), *maa://41128 (69.23), *maa://41035 (71.43)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E324" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战乌尔比安累计使用必须开辟的通路10次&gt; 3星通关插曲SV-6；必须编入非助战乌尔比安并上场，并使用乌尔比安至少击败2名囊海爬行者</t>
+          <t>&gt; 携带非助战魔王完成5次战斗，且每次战斗至少发动一次“编织重构现世”&gt; 3星通关主题曲14-5标准实战环境；必须编入非助战魔王并上场，其他成员仅可编入近战位干员</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="inlineStr">
         <is>
-          <t>渡桥</t>
+          <t>逻各斯</t>
         </is>
       </c>
       <c r="B325" s="2" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C325" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D325" s="5" t="inlineStr">
         <is>
-          <t>maa://40164 (100.0)</t>
+          <t>maa://36646 (98.11), maa://36845 (93.67), ***maa://39217 (22.22)</t>
         </is>
       </c>
       <c r="E325" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战渡桥累计使用承压功率8次&gt; 3星通关主题曲3-1；必须编入非助战渡桥并上场，且至少使用3次承压功率</t>
+          <t>&gt; 由非助战逻各斯累计造成100000点伤害&gt; 3星通关主题曲11-6标准实战环境，必须编入非助战逻各斯并上场，其他成员仅可编入4名干员</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="inlineStr">
         <is>
-          <t>衡沙</t>
+          <t>维什戴尔</t>
         </is>
       </c>
       <c r="B326" s="2" t="inlineStr">
         <is>
-          <t>DV-2</t>
+          <t>DM-5</t>
         </is>
       </c>
       <c r="C326" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D326" s="5" t="inlineStr">
         <is>
-          <t>maa://40165 (100.0)</t>
+          <t>maa://36645 (98.2), maa://36841 (93.33), maa://37484 (93.02), maa://37858 (90.91)</t>
         </is>
       </c>
       <c r="E326" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中累计召唤非助战衡沙的召唤物20回&gt; 3星通关别传DV-2；必须编入非助战衡沙并上场，其他成员仅可编入4名干员</t>
+          <t>&gt; 由非助战维什戴尔累计造成120000伤害&gt; 3星通关插曲DM-5；必须编入非助战维什戴尔并上场，且使用维什戴尔至少歼灭20个敌人</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="inlineStr">
         <is>
-          <t>森西</t>
+          <t>阿米娅(医疗)</t>
         </is>
       </c>
       <c r="B327" s="2" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C327" s="7" t="inlineStr">
@@ -9649,88 +9649,277 @@
       </c>
       <c r="E327" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战森西累计使用团体魔物大餐6次&gt; 3星通关主题曲1-12；必须编入非助战森西并上场，且所有干员不被击倒</t>
+          <t>&gt; 战斗中非助战医疗职业的阿米娅累计使用慈悲愿景5次&gt; 3星通关主题曲3-8；必须编入非助战医疗职业的阿米娅并上场，且不编入其他医疗干员</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="inlineStr">
         <is>
-          <t>齐尔查克</t>
+          <t>深巡</t>
         </is>
       </c>
       <c r="B328" s="2" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>SN-5</t>
         </is>
       </c>
       <c r="C328" s="7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D328" s="5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://39183 (100.0)</t>
         </is>
       </c>
       <c r="E328" s="4" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战齐尔查克累计使用随机应变6次&gt; 3星通关主题曲4-3；必须编入非助战齐尔查克并上场，其他成员不可编入先锋干员</t>
+          <t>&gt; 战斗中非助战深巡累计使用行动能力剥夺8次&gt; 3星通关插曲SN-5，必须编入非助战深巡并上场，其他成员仅可编入4名干员</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="inlineStr">
         <is>
-          <t>莱欧斯</t>
+          <t>海霓</t>
         </is>
       </c>
       <c r="B329" s="2" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C329" s="7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D329" s="5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://39184 (100.0)</t>
         </is>
       </c>
       <c r="E329" s="4" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战莱欧斯并上场，且每次战斗至少释放1次威吓战法&gt; 3星通关主题曲2-4；必须编入非助战莱欧斯并上场，并使用莱欧斯至少击败1名高阶术师</t>
+          <t>&gt; 战斗中非助战海霓累计使用阻滞性显色剂8次&gt; 3星通关插曲SV-4；必须编入非助战海霓并上场，且不编入其他辅助干员</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="inlineStr">
         <is>
+          <t>乌尔比安</t>
+        </is>
+      </c>
+      <c r="B330" s="2" t="inlineStr">
+        <is>
+          <t>SV-6</t>
+        </is>
+      </c>
+      <c r="C330" s="7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D330" s="5" t="inlineStr">
+        <is>
+          <t>*maa://40957 (76.0), *maa://41128 (69.23), *maa://41035 (75.0)</t>
+        </is>
+      </c>
+      <c r="E330" s="4" t="inlineStr">
+        <is>
+          <t>&gt; 战斗中非助战乌尔比安累计使用必须开辟的通路10次&gt; 3星通关插曲SV-6；必须编入非助战乌尔比安并上场，并使用乌尔比安至少击败2名囊海爬行者</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>渡桥</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>3-1</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>maa://40164 (100.0)</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>&gt; 战斗中非助战渡桥累计使用承压功率8次&gt; 3星通关主题曲3-1；必须编入非助战渡桥并上场，且至少使用3次承压功率</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>衡沙</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>DV-2</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>maa://40165 (100.0)</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>&gt; 战斗中累计召唤非助战衡沙的召唤物20回&gt; 3星通关别传DV-2；必须编入非助战衡沙并上场，其他成员仅可编入4名干员</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>森西</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>1-12</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>&gt; 战斗中非助战森西累计使用团体魔物大餐6次&gt; 3星通关主题曲1-12；必须编入非助战森西并上场，且所有干员不被击倒</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>齐尔查克</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>4-3</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>&gt; 战斗中非助战齐尔查克累计使用随机应变6次&gt; 3星通关主题曲4-3；必须编入非助战齐尔查克并上场，其他成员不可编入先锋干员</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>莱欧斯</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>2-4</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>&gt; 完成5次战斗；必须编入非助战莱欧斯并上场，且每次战斗至少释放1次威吓战法&gt; 3星通关主题曲2-4；必须编入非助战莱欧斯并上场，并使用莱欧斯至少击败1名高阶术师</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
           <t>玛露西尔</t>
         </is>
       </c>
-      <c r="B330" s="2" t="inlineStr">
+      <c r="B336" t="inlineStr">
         <is>
           <t>5-10</t>
         </is>
       </c>
-      <c r="C330" s="7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D330" s="5" t="inlineStr">
-        <is>
-          <t>maa://41110 (96.0)</t>
-        </is>
-      </c>
-      <c r="E330" s="4" t="inlineStr">
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>maa://41110 (96.43)</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
         <is>
           <t>&gt; 由非助战玛露西尔累计造成100000点伤害&gt; 3星通关主题曲5-10；必须编入非助战玛露西尔并上场，且使用玛露西尔至少歼灭10名敌人</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>凯瑟琳</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>11-7</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>&gt; 使用非助战凯瑟琳累计部署15个“支援装置”&gt; 3星通关主题曲11-7标准实战环境；必须编入非助战凯瑟琳并上场，且凯瑟琳使用至少2次“战火淬炼”</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -507,7 +507,7 @@
     <row r="1">
       <c r="A1" s="9" t="inlineStr">
         <is>
-          <t>更新日期：2024.10.10 07:31:09</t>
+          <t>更新日期：2024.10.11 13:17:47</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="D22" s="12" t="inlineStr">
         <is>
-          <t>maa://20876 (90.0)</t>
+          <t>maa://20876 (90.91)</t>
         </is>
       </c>
       <c r="E22" s="3" t="inlineStr">
@@ -2394,7 +2394,7 @@
       </c>
       <c r="D58" s="12" t="inlineStr">
         <is>
-          <t>maa://38298 (82.14)</t>
+          <t>maa://38298 (82.76)</t>
         </is>
       </c>
       <c r="E58" s="3" t="inlineStr">
@@ -2637,7 +2637,7 @@
       </c>
       <c r="D67" s="12" t="inlineStr">
         <is>
-          <t>maa://28784 (93.82), maa://29088 (91.76), maa://20974 (95.35), maa://31124 (96.06), maa://28950 (90.91), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67), *maa://41832 (71.43)</t>
+          <t>maa://28784 (93.83), maa://29088 (91.76), maa://20974 (95.45), maa://31124 (96.06), maa://28950 (90.91), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67), *maa://41832 (71.43)</t>
         </is>
       </c>
       <c r="E67" s="3" t="inlineStr">
@@ -3123,7 +3123,7 @@
       </c>
       <c r="D85" s="12" t="inlineStr">
         <is>
-          <t>maa://20886 (88.24), maa://25136 (92.86)</t>
+          <t>maa://20886 (88.89), maa://25136 (92.86)</t>
         </is>
       </c>
       <c r="E85" s="3" t="inlineStr">
@@ -3501,7 +3501,7 @@
       </c>
       <c r="D99" s="12" t="inlineStr">
         <is>
-          <t>*maa://39240 (57.14), maa://40517 (87.5)</t>
+          <t>*maa://39240 (57.14), maa://40517 (88.89)</t>
         </is>
       </c>
       <c r="E99" s="3" t="inlineStr">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="D112" s="12" t="inlineStr">
         <is>
-          <t>maa://20908 (98.19), *maa://23346 (77.78), maa://35723 (96.97), maa://38822 (100.0)</t>
+          <t>maa://20908 (98.2), *maa://23346 (77.78), maa://35723 (96.97), maa://38822 (100.0)</t>
         </is>
       </c>
       <c r="E112" s="3" t="inlineStr">
@@ -4176,7 +4176,7 @@
       </c>
       <c r="D124" s="12" t="inlineStr">
         <is>
-          <t>maa://37484 (93.02), maa://24611 (89.29)</t>
+          <t>maa://37484 (93.18), maa://24611 (89.29)</t>
         </is>
       </c>
       <c r="E124" s="3" t="inlineStr">
@@ -4284,7 +4284,7 @@
       </c>
       <c r="D128" s="12" t="inlineStr">
         <is>
-          <t>maa://23019 (100.0), maa://20837 (100.0), maa://37113 (100.0), maa://40517 (87.5), *maa://37666 (75.0), maa://41686 (100.0)</t>
+          <t>maa://23019 (100.0), maa://20837 (100.0), maa://37113 (100.0), maa://40517 (88.89), *maa://37666 (75.0), maa://41686 (100.0)</t>
         </is>
       </c>
       <c r="E128" s="3" t="inlineStr">
@@ -4306,12 +4306,12 @@
       </c>
       <c r="C129" s="11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D129" s="12" t="inlineStr">
         <is>
-          <t>maa://23020 (95.77), maa://29023 (100.0), maa://34319 (100.0), *maa://39515 (66.67)</t>
+          <t>maa://23020 (95.77), maa://29023 (100.0), maa://34319 (100.0), *maa://39515 (66.67), maa://41690 (100.0)</t>
         </is>
       </c>
       <c r="E129" s="3" t="inlineStr">
@@ -6007,12 +6007,12 @@
       </c>
       <c r="C192" s="11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D192" s="12" t="inlineStr">
         <is>
-          <t>maa://42223 (100.0), maa://42292 (100.0)</t>
+          <t>maa://42223 (100.0), maa://42292 (100.0), maa://42402 (100.0)</t>
         </is>
       </c>
       <c r="E192" s="3" t="inlineStr">
@@ -6228,7 +6228,7 @@
       </c>
       <c r="D200" s="12" t="inlineStr">
         <is>
-          <t>maa://28133 (89.74), *maa://28277 (79.17), maa://25369 (92.59), ***maa://39217 (22.22), *maa://33132 (66.67)</t>
+          <t>maa://28133 (89.74), *maa://28277 (79.17), maa://25369 (92.59), ***maa://39217 (30.0), *maa://33132 (66.67)</t>
         </is>
       </c>
       <c r="E200" s="3" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="D216" s="12" t="inlineStr">
         <is>
-          <t>maa://20987 (91.3), *maa://35801 (75.0)</t>
+          <t>maa://20987 (91.43), *maa://35801 (75.0)</t>
         </is>
       </c>
       <c r="E216" s="3" t="inlineStr">
@@ -6984,7 +6984,7 @@
       </c>
       <c r="D228" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (75.54), maa://30666 (83.07), *maa://26836 (75.0), **maa://30739 (45.71), maa://37607 (91.8), *maa://34428 (67.14), *maa://30723 (50.98), maa://39588 (85.19), *maa://37850 (66.67)</t>
+          <t>*maa://30667 (75.54), maa://30666 (83.07), *maa://26836 (75.0), **maa://30739 (45.71), maa://37607 (92.0), *maa://34428 (67.14), *maa://30723 (50.98), maa://39588 (85.19), *maa://37850 (66.67)</t>
         </is>
       </c>
       <c r="E228" s="3" t="inlineStr">
@@ -8145,7 +8145,7 @@
       </c>
       <c r="D271" s="12" t="inlineStr">
         <is>
-          <t>maa://30710 (96.81), maa://36845 (93.75), maa://31558 (96.3), ***maa://39217 (22.22), maa://30668 (83.33)</t>
+          <t>maa://30710 (96.81), maa://36845 (93.75), maa://31558 (96.3), ***maa://39217 (30.0), maa://30668 (83.33)</t>
         </is>
       </c>
       <c r="E271" s="3" t="inlineStr">
@@ -8226,7 +8226,7 @@
       </c>
       <c r="D274" s="12" t="inlineStr">
         <is>
-          <t>maa://25774 (100.0), maa://28133 (89.74), maa://22469 (90.91), ***maa://39217 (22.22), **maa://31349 (50.0)</t>
+          <t>maa://25774 (100.0), maa://28133 (89.74), maa://22469 (90.91), ***maa://39217 (30.0), **maa://31349 (50.0)</t>
         </is>
       </c>
       <c r="E274" s="3" t="inlineStr">
@@ -8253,7 +8253,7 @@
       </c>
       <c r="D275" s="12" t="inlineStr">
         <is>
-          <t>maa://32414 (98.41), maa://32505 (100.0), maa://39155 (94.44)</t>
+          <t>maa://32414 (98.42), maa://32505 (100.0), maa://39155 (94.44)</t>
         </is>
       </c>
       <c r="E275" s="3" t="inlineStr">
@@ -9306,7 +9306,7 @@
       </c>
       <c r="D314" s="12" t="inlineStr">
         <is>
-          <t>maa://32647 (96.86), maa://32415 (96.26), maa://34677 (100.0), maa://32892 (100.0)</t>
+          <t>maa://32647 (96.87), maa://32415 (96.26), maa://34677 (100.0), maa://32892 (100.0)</t>
         </is>
       </c>
       <c r="E314" s="3" t="inlineStr">
@@ -9522,7 +9522,7 @@
       </c>
       <c r="D322" s="12" t="inlineStr">
         <is>
-          <t>maa://36868 (100.0), maa://35996 (94.44), ***maa://39217 (22.22)</t>
+          <t>maa://36868 (100.0), maa://35996 (94.44), ***maa://39217 (30.0)</t>
         </is>
       </c>
       <c r="E322" s="3" t="inlineStr">
@@ -9603,7 +9603,7 @@
       </c>
       <c r="D325" s="12" t="inlineStr">
         <is>
-          <t>maa://36646 (98.13), maa://36845 (93.75), ***maa://39217 (22.22)</t>
+          <t>maa://36646 (98.14), maa://36845 (93.75), ***maa://39217 (30.0)</t>
         </is>
       </c>
       <c r="E325" s="3" t="inlineStr">
@@ -9630,7 +9630,7 @@
       </c>
       <c r="D326" s="12" t="inlineStr">
         <is>
-          <t>maa://36645 (98.2), maa://36841 (93.33), maa://37484 (93.02), maa://37858 (90.91)</t>
+          <t>maa://36645 (98.21), maa://36841 (93.33), maa://37484 (93.18), maa://37858 (90.91)</t>
         </is>
       </c>
       <c r="E326" s="3" t="inlineStr">
@@ -9738,7 +9738,7 @@
       </c>
       <c r="D330" s="12" t="inlineStr">
         <is>
-          <t>*maa://40957 (76.92), *maa://41128 (69.23), *maa://41035 (75.0)</t>
+          <t>*maa://40957 (77.78), *maa://41128 (69.23), *maa://41035 (75.0)</t>
         </is>
       </c>
       <c r="E330" s="3" t="inlineStr">
@@ -9900,7 +9900,7 @@
       </c>
       <c r="D336" s="14" t="inlineStr">
         <is>
-          <t>maa://41110 (96.43)</t>
+          <t>maa://41110 (96.55)</t>
         </is>
       </c>
       <c r="E336" s="14" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -507,7 +507,7 @@
     <row r="1">
       <c r="A1" s="9" t="inlineStr">
         <is>
-          <t>更新日期：2024.10.11 13:17:47</t>
+          <t>更新日期：2024.10.14 13:18:38</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -571,7 +571,7 @@
       </c>
       <c r="D3" s="12" t="inlineStr">
         <is>
-          <t>*maa://20990 (75.0)</t>
+          <t>*maa://20990 (80.0)</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>maa://36644 (87.72), maa://36866 (96.55), maa://27794 (100.0)</t>
+          <t>maa://36644 (87.83), maa://36866 (96.67), maa://27794 (100.0)</t>
         </is>
       </c>
       <c r="E31" s="3" t="inlineStr">
@@ -1800,7 +1800,7 @@
       </c>
       <c r="D36" s="12" t="inlineStr">
         <is>
-          <t>maa://27376 (88.0), **maa://20838 (50.0), **maa://40163 (30.77)</t>
+          <t>maa://27376 (88.0), **maa://20838 (50.0), ***maa://40163 (28.57)</t>
         </is>
       </c>
       <c r="E36" s="3" t="inlineStr">
@@ -2281,12 +2281,12 @@
       </c>
       <c r="C54" s="11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D54" s="12" t="inlineStr">
         <is>
-          <t>maa://20932 (96.71), maa://40838 (100.0)</t>
+          <t>maa://20932 (96.71), maa://40838 (100.0), maa://42415 (100.0)</t>
         </is>
       </c>
       <c r="E54" s="3" t="inlineStr">
@@ -2637,7 +2637,7 @@
       </c>
       <c r="D67" s="12" t="inlineStr">
         <is>
-          <t>maa://28784 (93.83), maa://29088 (91.76), maa://20974 (95.45), maa://31124 (96.06), maa://28950 (90.91), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67), *maa://41832 (71.43)</t>
+          <t>maa://28784 (93.83), maa://29088 (91.76), maa://20974 (95.45), maa://31124 (96.09), maa://28950 (90.91), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67), *maa://41832 (71.43)</t>
         </is>
       </c>
       <c r="E67" s="3" t="inlineStr">
@@ -2718,7 +2718,7 @@
       </c>
       <c r="D70" s="12" t="inlineStr">
         <is>
-          <t>maa://36643 (97.18), maa://36864 (100.0), maa://39140 (100.0)</t>
+          <t>maa://36643 (97.19), maa://36864 (100.0), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E70" s="3" t="inlineStr">
@@ -2853,7 +2853,7 @@
       </c>
       <c r="D75" s="12" t="inlineStr">
         <is>
-          <t>maa://20958 (92.59)</t>
+          <t>maa://20958 (92.86)</t>
         </is>
       </c>
       <c r="E75" s="3" t="inlineStr">
@@ -4311,7 +4311,7 @@
       </c>
       <c r="D129" s="12" t="inlineStr">
         <is>
-          <t>maa://23020 (95.77), maa://29023 (100.0), maa://34319 (100.0), *maa://39515 (66.67), maa://41690 (100.0)</t>
+          <t>maa://23020 (95.77), maa://29023 (100.0), maa://34319 (100.0), *maa://39515 (75.0), maa://41690 (100.0)</t>
         </is>
       </c>
       <c r="E129" s="3" t="inlineStr">
@@ -4581,7 +4581,7 @@
       </c>
       <c r="D139" s="12" t="inlineStr">
         <is>
-          <t>maa://30670 (96.59), maa://31470 (94.44), ***maa://30867 (25.0)</t>
+          <t>maa://30670 (95.51), maa://31470 (94.44), ***maa://30867 (25.0)</t>
         </is>
       </c>
       <c r="E139" s="3" t="inlineStr">
@@ -6228,7 +6228,7 @@
       </c>
       <c r="D200" s="12" t="inlineStr">
         <is>
-          <t>maa://28133 (89.74), *maa://28277 (79.17), maa://25369 (92.59), ***maa://39217 (30.0), *maa://33132 (66.67)</t>
+          <t>maa://28133 (89.74), *maa://28277 (79.17), maa://25369 (92.86), ***maa://39217 (30.0), *maa://33132 (66.67)</t>
         </is>
       </c>
       <c r="E200" s="3" t="inlineStr">
@@ -6255,7 +6255,7 @@
       </c>
       <c r="D201" s="12" t="inlineStr">
         <is>
-          <t>maa://20956 (95.07), *maa://20830 (77.78)</t>
+          <t>maa://20956 (95.1), *maa://20830 (77.78)</t>
         </is>
       </c>
       <c r="E201" s="3" t="inlineStr">
@@ -6687,7 +6687,7 @@
       </c>
       <c r="D217" s="12" t="inlineStr">
         <is>
-          <t>maa://39159 (91.67)</t>
+          <t>maa://39159 (92.31)</t>
         </is>
       </c>
       <c r="E217" s="3" t="inlineStr">
@@ -6984,7 +6984,7 @@
       </c>
       <c r="D228" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (75.54), maa://30666 (83.07), *maa://26836 (75.0), **maa://30739 (45.71), maa://37607 (92.0), *maa://34428 (67.14), *maa://30723 (50.98), maa://39588 (85.19), *maa://37850 (66.67)</t>
+          <t>*maa://30667 (75.61), maa://30666 (83.07), *maa://26836 (75.0), **maa://30739 (45.71), maa://37607 (92.06), *maa://34428 (66.2), *maa://30723 (51.92), maa://39588 (85.71), *maa://37850 (66.67)</t>
         </is>
       </c>
       <c r="E228" s="3" t="inlineStr">
@@ -7200,7 +7200,7 @@
       </c>
       <c r="D236" s="12" t="inlineStr">
         <is>
-          <t>maa://28923 (91.45), maa://28906 (96.97), ***maa://28825 (12.0)</t>
+          <t>maa://28923 (91.5), maa://28906 (96.97), ***maa://28825 (12.0)</t>
         </is>
       </c>
       <c r="E236" s="3" t="inlineStr">
@@ -8010,7 +8010,7 @@
       </c>
       <c r="D266" s="12" t="inlineStr">
         <is>
-          <t>**maa://35860 (38.46), **maa://39165 (50.0)</t>
+          <t>**maa://35860 (38.46), **maa://39165 (33.33)</t>
         </is>
       </c>
       <c r="E266" s="3" t="inlineStr">
@@ -8253,7 +8253,7 @@
       </c>
       <c r="D275" s="12" t="inlineStr">
         <is>
-          <t>maa://32414 (98.42), maa://32505 (100.0), maa://39155 (94.44)</t>
+          <t>maa://32414 (98.42), maa://32505 (100.0), maa://39155 (94.74)</t>
         </is>
       </c>
       <c r="E275" s="3" t="inlineStr">
@@ -8307,7 +8307,7 @@
       </c>
       <c r="D277" s="12" t="inlineStr">
         <is>
-          <t>maa://36642 (100.0), maa://36867 (100.0), maa://39155 (94.44)</t>
+          <t>maa://36642 (100.0), maa://36867 (100.0), maa://39155 (94.74)</t>
         </is>
       </c>
       <c r="E277" s="3" t="inlineStr">
@@ -8361,7 +8361,7 @@
       </c>
       <c r="D279" s="12" t="inlineStr">
         <is>
-          <t>maa://29005 (97.78), maa://31560 (83.33)</t>
+          <t>maa://29005 (97.83), maa://31560 (83.33)</t>
         </is>
       </c>
       <c r="E279" s="3" t="inlineStr">
@@ -8577,7 +8577,7 @@
       </c>
       <c r="D287" s="12" t="inlineStr">
         <is>
-          <t>maa://35859 (96.23)</t>
+          <t>maa://35859 (96.3)</t>
         </is>
       </c>
       <c r="E287" s="3" t="inlineStr">
@@ -9441,7 +9441,7 @@
       </c>
       <c r="D319" s="12" t="inlineStr">
         <is>
-          <t>maa://34865 (96.38), maa://34717 (92.73)</t>
+          <t>maa://34865 (96.4), maa://34717 (92.73)</t>
         </is>
       </c>
       <c r="E319" s="3" t="inlineStr">
@@ -9738,7 +9738,7 @@
       </c>
       <c r="D330" s="12" t="inlineStr">
         <is>
-          <t>*maa://40957 (77.78), *maa://41128 (69.23), *maa://41035 (75.0)</t>
+          <t>*maa://40957 (80.0), *maa://41128 (71.43), *maa://41035 (77.78)</t>
         </is>
       </c>
       <c r="E330" s="3" t="inlineStr">
@@ -9900,7 +9900,7 @@
       </c>
       <c r="D336" s="14" t="inlineStr">
         <is>
-          <t>maa://41110 (96.55)</t>
+          <t>maa://41110 (96.88)</t>
         </is>
       </c>
       <c r="E336" s="14" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -507,7 +507,7 @@
     <row r="1">
       <c r="A1" s="9" t="inlineStr">
         <is>
-          <t>更新日期：2024.10.14 13:18:38</t>
+          <t>更新日期：2024.10.15 13:18:52</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -2718,7 +2718,7 @@
       </c>
       <c r="D70" s="12" t="inlineStr">
         <is>
-          <t>maa://36643 (97.19), maa://36864 (100.0), maa://39140 (100.0)</t>
+          <t>maa://36643 (97.2), maa://36864 (100.0), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E70" s="3" t="inlineStr">
@@ -4554,7 +4554,7 @@
       </c>
       <c r="D138" s="12" t="inlineStr">
         <is>
-          <t>maa://28484 (97.1), **maa://23736 (42.19), *maa://31185 (75.0), maa://30306 (100.0)</t>
+          <t>maa://28484 (97.1), **maa://23736 (41.54), *maa://31185 (75.0), maa://30306 (100.0)</t>
         </is>
       </c>
       <c r="E138" s="3" t="inlineStr">
@@ -5175,7 +5175,7 @@
       </c>
       <c r="D161" s="12" t="inlineStr">
         <is>
-          <t>maa://29627 (92.5), maa://29633 (91.85), maa://29659 (82.14), maa://29861 (100.0)</t>
+          <t>maa://29627 (92.5), maa://29633 (91.89), maa://29659 (82.14), maa://29861 (100.0)</t>
         </is>
       </c>
       <c r="E161" s="3" t="inlineStr">
@@ -6309,7 +6309,7 @@
       </c>
       <c r="D203" s="12" t="inlineStr">
         <is>
-          <t>maa://39238 (98.8)</t>
+          <t>maa://39238 (98.81)</t>
         </is>
       </c>
       <c r="E203" s="3" t="inlineStr">
@@ -9738,7 +9738,7 @@
       </c>
       <c r="D330" s="12" t="inlineStr">
         <is>
-          <t>*maa://40957 (80.0), *maa://41128 (71.43), *maa://41035 (77.78)</t>
+          <t>maa://40957 (80.65), *maa://41128 (71.43), *maa://41035 (77.78)</t>
         </is>
       </c>
       <c r="E330" s="3" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -507,7 +507,7 @@
     <row r="1">
       <c r="A1" s="9" t="inlineStr">
         <is>
-          <t>更新日期：2024.10.15 13:18:52</t>
+          <t>更新日期：2024.10.17 12:52:30</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="D28" s="12" t="inlineStr">
         <is>
-          <t>maa://20863 (86.31), maa://20832 (98.15), maa://20727 (100.0)</t>
+          <t>maa://20863 (85.88), maa://20832 (98.15), maa://20727 (100.0)</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="D66" s="12" t="inlineStr">
         <is>
-          <t>maa://20976 (97.53), maa://20815 (100.0)</t>
+          <t>maa://20976 (97.55), maa://20815 (100.0)</t>
         </is>
       </c>
       <c r="E66" s="3" t="inlineStr">
@@ -2637,7 +2637,7 @@
       </c>
       <c r="D67" s="12" t="inlineStr">
         <is>
-          <t>maa://28784 (93.83), maa://29088 (91.76), maa://20974 (95.45), maa://31124 (96.09), maa://28950 (90.91), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67), *maa://41832 (71.43)</t>
+          <t>maa://28784 (93.83), maa://29088 (91.76), maa://20974 (95.45), maa://31124 (96.09), maa://28950 (90.91), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67), *maa://41832 (75.0)</t>
         </is>
       </c>
       <c r="E67" s="3" t="inlineStr">
@@ -2718,7 +2718,7 @@
       </c>
       <c r="D70" s="12" t="inlineStr">
         <is>
-          <t>maa://36643 (97.2), maa://36864 (100.0), maa://39140 (100.0)</t>
+          <t>maa://36643 (97.22), maa://36864 (100.0), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E70" s="3" t="inlineStr">
@@ -3663,7 +3663,7 @@
       </c>
       <c r="D105" s="12" t="inlineStr">
         <is>
-          <t>maa://25018 (96.11), maa://25776 (90.32), maa://28361 (96.55), maa://25772 (92.11), *maa://25161 (78.57), maa://32653 (85.71)</t>
+          <t>maa://25018 (96.14), maa://25776 (90.32), maa://28361 (96.55), maa://25772 (92.11), *maa://25161 (78.57), maa://32653 (85.71)</t>
         </is>
       </c>
       <c r="E105" s="3" t="inlineStr">
@@ -4554,7 +4554,7 @@
       </c>
       <c r="D138" s="12" t="inlineStr">
         <is>
-          <t>maa://28484 (97.1), **maa://23736 (41.54), *maa://31185 (75.0), maa://30306 (100.0)</t>
+          <t>maa://28484 (97.1), **maa://23736 (41.54), *maa://31185 (80.0), maa://30306 (100.0)</t>
         </is>
       </c>
       <c r="E138" s="3" t="inlineStr">
@@ -4581,7 +4581,7 @@
       </c>
       <c r="D139" s="12" t="inlineStr">
         <is>
-          <t>maa://30670 (95.51), maa://31470 (94.44), ***maa://30867 (25.0)</t>
+          <t>maa://30670 (95.56), maa://31470 (94.44), ***maa://30867 (25.0)</t>
         </is>
       </c>
       <c r="E139" s="3" t="inlineStr">
@@ -4743,7 +4743,7 @@
       </c>
       <c r="D145" s="12" t="inlineStr">
         <is>
-          <t>maa://36641 (98.16), maa://36865 (95.33), maa://37300 (100.0)</t>
+          <t>maa://36641 (98.17), maa://36865 (95.33), maa://37300 (100.0)</t>
         </is>
       </c>
       <c r="E145" s="3" t="inlineStr">
@@ -5175,7 +5175,7 @@
       </c>
       <c r="D161" s="12" t="inlineStr">
         <is>
-          <t>maa://29627 (92.5), maa://29633 (91.89), maa://29659 (82.14), maa://29861 (100.0)</t>
+          <t>maa://29627 (92.5), maa://29633 (91.94), maa://29659 (82.14), maa://29861 (100.0)</t>
         </is>
       </c>
       <c r="E161" s="3" t="inlineStr">
@@ -8064,7 +8064,7 @@
       </c>
       <c r="D268" s="12" t="inlineStr">
         <is>
-          <t>maa://38296 (87.5)</t>
+          <t>maa://38296 (88.89)</t>
         </is>
       </c>
       <c r="E268" s="3" t="inlineStr">
@@ -8145,7 +8145,7 @@
       </c>
       <c r="D271" s="12" t="inlineStr">
         <is>
-          <t>maa://30710 (96.81), maa://36845 (93.75), maa://31558 (96.3), ***maa://39217 (30.0), maa://30668 (83.33)</t>
+          <t>maa://30710 (96.81), maa://36845 (93.9), maa://31558 (96.3), ***maa://39217 (30.0), maa://30668 (83.33)</t>
         </is>
       </c>
       <c r="E271" s="3" t="inlineStr">
@@ -8361,7 +8361,7 @@
       </c>
       <c r="D279" s="12" t="inlineStr">
         <is>
-          <t>maa://29005 (97.83), maa://31560 (83.33)</t>
+          <t>maa://29005 (97.87), maa://31560 (83.33)</t>
         </is>
       </c>
       <c r="E279" s="3" t="inlineStr">
@@ -8847,7 +8847,7 @@
       </c>
       <c r="D297" s="12" t="inlineStr">
         <is>
-          <t>maa://39692 (99.37), *maa://39810 (78.57)</t>
+          <t>maa://39692 (99.39), *maa://39810 (80.0)</t>
         </is>
       </c>
       <c r="E297" s="3" t="inlineStr">
@@ -9306,7 +9306,7 @@
       </c>
       <c r="D314" s="12" t="inlineStr">
         <is>
-          <t>maa://32647 (96.87), maa://32415 (96.26), maa://34677 (100.0), maa://32892 (100.0)</t>
+          <t>maa://32647 (96.88), maa://32415 (96.26), maa://34677 (100.0), maa://32892 (100.0)</t>
         </is>
       </c>
       <c r="E314" s="3" t="inlineStr">
@@ -9441,7 +9441,7 @@
       </c>
       <c r="D319" s="12" t="inlineStr">
         <is>
-          <t>maa://34865 (96.4), maa://34717 (92.73)</t>
+          <t>maa://34865 (96.43), maa://34717 (92.73)</t>
         </is>
       </c>
       <c r="E319" s="3" t="inlineStr">
@@ -9603,7 +9603,7 @@
       </c>
       <c r="D325" s="12" t="inlineStr">
         <is>
-          <t>maa://36646 (98.14), maa://36845 (93.75), ***maa://39217 (30.0)</t>
+          <t>maa://36646 (98.17), maa://36845 (93.9), ***maa://39217 (30.0)</t>
         </is>
       </c>
       <c r="E325" s="3" t="inlineStr">
@@ -9630,7 +9630,7 @@
       </c>
       <c r="D326" s="12" t="inlineStr">
         <is>
-          <t>maa://36645 (98.21), maa://36841 (93.33), maa://37484 (93.18), maa://37858 (90.91)</t>
+          <t>maa://36645 (98.22), maa://36841 (93.33), maa://37484 (93.18), maa://37858 (90.91)</t>
         </is>
       </c>
       <c r="E326" s="3" t="inlineStr">
@@ -9738,7 +9738,7 @@
       </c>
       <c r="D330" s="12" t="inlineStr">
         <is>
-          <t>maa://40957 (80.65), *maa://41128 (71.43), *maa://41035 (77.78)</t>
+          <t>maa://40957 (83.78), *maa://41128 (71.43), *maa://41035 (77.78)</t>
         </is>
       </c>
       <c r="E330" s="3" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -507,7 +507,7 @@
     <row r="1">
       <c r="A1" s="9" t="inlineStr">
         <is>
-          <t>更新日期：2024.10.17 12:52:30</t>
+          <t>更新日期：2024.10.18 13:18:38</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="D28" s="12" t="inlineStr">
         <is>
-          <t>maa://20863 (85.88), maa://20832 (98.15), maa://20727 (100.0)</t>
+          <t>maa://20863 (85.88), maa://20832 (98.18), maa://20727 (100.0)</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>maa://36644 (87.83), maa://36866 (96.67), maa://27794 (100.0)</t>
+          <t>maa://36644 (87.93), maa://36866 (96.77), maa://27794 (100.0)</t>
         </is>
       </c>
       <c r="E31" s="3" t="inlineStr">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="D66" s="12" t="inlineStr">
         <is>
-          <t>maa://20976 (97.55), maa://20815 (100.0)</t>
+          <t>maa://20976 (97.56), maa://20815 (100.0)</t>
         </is>
       </c>
       <c r="E66" s="3" t="inlineStr">
@@ -2637,7 +2637,7 @@
       </c>
       <c r="D67" s="12" t="inlineStr">
         <is>
-          <t>maa://28784 (93.83), maa://29088 (91.76), maa://20974 (95.45), maa://31124 (96.09), maa://28950 (90.91), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67), *maa://41832 (75.0)</t>
+          <t>maa://28784 (93.83), maa://29088 (91.76), maa://20974 (95.45), maa://31124 (96.12), maa://28950 (90.91), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67), *maa://41832 (75.0)</t>
         </is>
       </c>
       <c r="E67" s="3" t="inlineStr">
@@ -4716,7 +4716,7 @@
       </c>
       <c r="D144" s="12" t="inlineStr">
         <is>
-          <t>maa://20846 (95.0)</t>
+          <t>maa://20846 (95.24)</t>
         </is>
       </c>
       <c r="E144" s="3" t="inlineStr">
@@ -4743,7 +4743,7 @@
       </c>
       <c r="D145" s="12" t="inlineStr">
         <is>
-          <t>maa://36641 (98.17), maa://36865 (95.33), maa://37300 (100.0)</t>
+          <t>maa://36641 (98.18), maa://36865 (95.33), maa://37300 (100.0)</t>
         </is>
       </c>
       <c r="E145" s="3" t="inlineStr">
@@ -5175,7 +5175,7 @@
       </c>
       <c r="D161" s="12" t="inlineStr">
         <is>
-          <t>maa://29627 (92.5), maa://29633 (91.94), maa://29659 (82.14), maa://29861 (100.0)</t>
+          <t>maa://29627 (92.5), maa://29633 (91.98), maa://29659 (82.14), maa://29861 (100.0)</t>
         </is>
       </c>
       <c r="E161" s="3" t="inlineStr">
@@ -6228,7 +6228,7 @@
       </c>
       <c r="D200" s="12" t="inlineStr">
         <is>
-          <t>maa://28133 (89.74), *maa://28277 (79.17), maa://25369 (92.86), ***maa://39217 (30.0), *maa://33132 (66.67)</t>
+          <t>maa://28133 (89.74), *maa://28277 (79.17), maa://25369 (92.86), **maa://39217 (36.36), *maa://33132 (66.67)</t>
         </is>
       </c>
       <c r="E200" s="3" t="inlineStr">
@@ -8145,7 +8145,7 @@
       </c>
       <c r="D271" s="12" t="inlineStr">
         <is>
-          <t>maa://30710 (96.81), maa://36845 (93.9), maa://31558 (96.3), ***maa://39217 (30.0), maa://30668 (83.33)</t>
+          <t>maa://30710 (96.84), maa://36845 (94.05), maa://31558 (96.3), **maa://39217 (36.36), maa://30668 (83.33)</t>
         </is>
       </c>
       <c r="E271" s="3" t="inlineStr">
@@ -8226,7 +8226,7 @@
       </c>
       <c r="D274" s="12" t="inlineStr">
         <is>
-          <t>maa://25774 (100.0), maa://28133 (89.74), maa://22469 (90.91), ***maa://39217 (30.0), **maa://31349 (50.0)</t>
+          <t>maa://25774 (100.0), maa://28133 (89.74), maa://22469 (90.91), **maa://39217 (36.36), **maa://31349 (50.0)</t>
         </is>
       </c>
       <c r="E274" s="3" t="inlineStr">
@@ -8712,7 +8712,7 @@
       </c>
       <c r="D292" s="12" t="inlineStr">
         <is>
-          <t>maa://25367 (98.97)</t>
+          <t>maa://25367 (98.98)</t>
         </is>
       </c>
       <c r="E292" s="3" t="inlineStr">
@@ -8847,7 +8847,7 @@
       </c>
       <c r="D297" s="12" t="inlineStr">
         <is>
-          <t>maa://39692 (99.39), *maa://39810 (80.0)</t>
+          <t>maa://39692 (99.4), *maa://39810 (80.0)</t>
         </is>
       </c>
       <c r="E297" s="3" t="inlineStr">
@@ -9171,7 +9171,7 @@
       </c>
       <c r="D309" s="12" t="inlineStr">
         <is>
-          <t>maa://30671 (81.34), maa://30669 (98.25), maa://37275 (81.82), *maa://32410 (63.64), maa://41605 (100.0), maa://33671 (100.0)</t>
+          <t>maa://30671 (81.34), maa://30669 (98.28), maa://37275 (82.35), *maa://32410 (63.64), maa://41605 (100.0), maa://33671 (100.0)</t>
         </is>
       </c>
       <c r="E309" s="3" t="inlineStr">
@@ -9306,7 +9306,7 @@
       </c>
       <c r="D314" s="12" t="inlineStr">
         <is>
-          <t>maa://32647 (96.88), maa://32415 (96.26), maa://34677 (100.0), maa://32892 (100.0)</t>
+          <t>maa://32647 (96.89), maa://32415 (96.26), maa://34677 (100.0), maa://32892 (100.0)</t>
         </is>
       </c>
       <c r="E314" s="3" t="inlineStr">
@@ -9522,7 +9522,7 @@
       </c>
       <c r="D322" s="12" t="inlineStr">
         <is>
-          <t>maa://36868 (100.0), maa://35996 (94.44), ***maa://39217 (30.0)</t>
+          <t>maa://36868 (100.0), maa://35996 (94.44), **maa://39217 (36.36)</t>
         </is>
       </c>
       <c r="E322" s="3" t="inlineStr">
@@ -9603,7 +9603,7 @@
       </c>
       <c r="D325" s="12" t="inlineStr">
         <is>
-          <t>maa://36646 (98.17), maa://36845 (93.9), ***maa://39217 (30.0)</t>
+          <t>maa://36646 (98.21), maa://36845 (94.05), **maa://39217 (36.36)</t>
         </is>
       </c>
       <c r="E325" s="3" t="inlineStr">
@@ -9738,7 +9738,7 @@
       </c>
       <c r="D330" s="12" t="inlineStr">
         <is>
-          <t>maa://40957 (83.78), *maa://41128 (71.43), *maa://41035 (77.78)</t>
+          <t>*maa://40957 (78.57), *maa://41128 (71.43), *maa://41035 (77.78)</t>
         </is>
       </c>
       <c r="E330" s="3" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -507,7 +507,7 @@
     <row r="1">
       <c r="A1" s="9" t="inlineStr">
         <is>
-          <t>更新日期：2024.10.18 13:18:38</t>
+          <t>更新日期：2024.10.19 13:16:59</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>maa://36644 (87.93), maa://36866 (96.77), maa://27794 (100.0)</t>
+          <t>maa://36644 (88.24), maa://36866 (96.77), maa://27794 (100.0)</t>
         </is>
       </c>
       <c r="E31" s="3" t="inlineStr">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="D59" s="12" t="inlineStr">
         <is>
-          <t>maa://20841 (100.0), maa://24093 (100.0), maa://31559 (93.75), maa://25777 (100.0), maa://20631 (100.0)</t>
+          <t>maa://20841 (100.0), maa://24093 (100.0), maa://31559 (94.12), maa://25777 (100.0), maa://20631 (100.0)</t>
         </is>
       </c>
       <c r="E59" s="3" t="inlineStr">
@@ -2529,7 +2529,7 @@
       </c>
       <c r="D63" s="12" t="inlineStr">
         <is>
-          <t>maa://28567 (97.22), **maa://20947 (44.12), maa://30525 (100.0), *maa://28188 (75.0), maa://38735 (100.0), maa://30524 (100.0)</t>
+          <t>maa://28567 (97.3), **maa://20947 (44.12), maa://30525 (100.0), *maa://28188 (75.0), maa://38735 (100.0), maa://30524 (100.0)</t>
         </is>
       </c>
       <c r="E63" s="3" t="inlineStr">
@@ -4743,7 +4743,7 @@
       </c>
       <c r="D145" s="12" t="inlineStr">
         <is>
-          <t>maa://36641 (98.18), maa://36865 (95.33), maa://37300 (100.0)</t>
+          <t>maa://36641 (98.19), maa://36865 (95.33), maa://37300 (100.0)</t>
         </is>
       </c>
       <c r="E145" s="3" t="inlineStr">
@@ -5175,7 +5175,7 @@
       </c>
       <c r="D161" s="12" t="inlineStr">
         <is>
-          <t>maa://29627 (92.5), maa://29633 (91.98), maa://29659 (82.14), maa://29861 (100.0)</t>
+          <t>maa://29627 (92.55), maa://29633 (92.02), maa://29659 (82.14), maa://29861 (100.0)</t>
         </is>
       </c>
       <c r="E161" s="3" t="inlineStr">
@@ -5904,7 +5904,7 @@
       </c>
       <c r="D188" s="12" t="inlineStr">
         <is>
-          <t>maa://25760 (81.97), *maa://35854 (69.23), **maa://20872 (50.0)</t>
+          <t>maa://25760 (82.26), *maa://35854 (69.23), **maa://20872 (50.0)</t>
         </is>
       </c>
       <c r="E188" s="3" t="inlineStr">
@@ -6309,7 +6309,7 @@
       </c>
       <c r="D203" s="12" t="inlineStr">
         <is>
-          <t>maa://39238 (98.81)</t>
+          <t>maa://39238 (98.82)</t>
         </is>
       </c>
       <c r="E203" s="3" t="inlineStr">
@@ -7308,7 +7308,7 @@
       </c>
       <c r="D240" s="12" t="inlineStr">
         <is>
-          <t>maa://24093 (100.0), maa://31559 (93.75), maa://20924 (94.74)</t>
+          <t>maa://24093 (100.0), maa://31559 (94.12), maa://20924 (94.74)</t>
         </is>
       </c>
       <c r="E240" s="3" t="inlineStr">
@@ -8253,7 +8253,7 @@
       </c>
       <c r="D275" s="12" t="inlineStr">
         <is>
-          <t>maa://32414 (98.42), maa://32505 (100.0), maa://39155 (94.74)</t>
+          <t>maa://32414 (98.43), maa://32505 (100.0), maa://39155 (94.74)</t>
         </is>
       </c>
       <c r="E275" s="3" t="inlineStr">
@@ -8766,7 +8766,7 @@
       </c>
       <c r="D294" s="12" t="inlineStr">
         <is>
-          <t>maa://31559 (93.75), maa://28241 (100.0)</t>
+          <t>maa://31559 (94.12), maa://28241 (100.0)</t>
         </is>
       </c>
       <c r="E294" s="3" t="inlineStr">
@@ -8847,7 +8847,7 @@
       </c>
       <c r="D297" s="12" t="inlineStr">
         <is>
-          <t>maa://39692 (99.4), *maa://39810 (80.0)</t>
+          <t>maa://39692 (99.42), *maa://39810 (80.0)</t>
         </is>
       </c>
       <c r="E297" s="3" t="inlineStr">
@@ -9306,7 +9306,7 @@
       </c>
       <c r="D314" s="12" t="inlineStr">
         <is>
-          <t>maa://32647 (96.89), maa://32415 (96.26), maa://34677 (100.0), maa://32892 (100.0)</t>
+          <t>maa://32647 (96.9), maa://32415 (96.26), maa://34677 (100.0), maa://32892 (100.0)</t>
         </is>
       </c>
       <c r="E314" s="3" t="inlineStr">
@@ -9441,7 +9441,7 @@
       </c>
       <c r="D319" s="12" t="inlineStr">
         <is>
-          <t>maa://34865 (96.43), maa://34717 (92.73)</t>
+          <t>maa://34865 (96.45), maa://34717 (92.73)</t>
         </is>
       </c>
       <c r="E319" s="3" t="inlineStr">
@@ -9576,7 +9576,7 @@
       </c>
       <c r="D324" s="12" t="inlineStr">
         <is>
-          <t>*maa://42224 (66.67), maa://42299 (100.0)</t>
+          <t>*maa://42224 (75.0), maa://42299 (100.0)</t>
         </is>
       </c>
       <c r="E324" s="3" t="inlineStr">
@@ -9603,7 +9603,7 @@
       </c>
       <c r="D325" s="12" t="inlineStr">
         <is>
-          <t>maa://36646 (98.21), maa://36845 (94.05), **maa://39217 (36.36)</t>
+          <t>maa://36646 (98.25), maa://36845 (94.05), **maa://39217 (36.36)</t>
         </is>
       </c>
       <c r="E325" s="3" t="inlineStr">
@@ -9630,7 +9630,7 @@
       </c>
       <c r="D326" s="12" t="inlineStr">
         <is>
-          <t>maa://36645 (98.22), maa://36841 (93.33), maa://37484 (93.18), maa://37858 (90.91)</t>
+          <t>maa://36645 (98.24), maa://36841 (93.33), maa://37484 (93.18), maa://37858 (90.91)</t>
         </is>
       </c>
       <c r="E326" s="3" t="inlineStr">
@@ -9738,7 +9738,7 @@
       </c>
       <c r="D330" s="12" t="inlineStr">
         <is>
-          <t>*maa://40957 (78.57), *maa://41128 (71.43), *maa://41035 (77.78)</t>
+          <t>*maa://40957 (78.26), *maa://41128 (71.43), *maa://41035 (80.0)</t>
         </is>
       </c>
       <c r="E330" s="3" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -507,7 +507,7 @@
     <row r="1">
       <c r="A1" s="9" t="inlineStr">
         <is>
-          <t>更新日期：2024.10.19 13:16:59</t>
+          <t>更新日期：2024.10.20 13:17:20</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="D26" s="12" t="inlineStr">
         <is>
-          <t>*maa://20849 (60.0), *maa://28758 (53.57), maa://29036 (94.12), maa://30285 (100.0)</t>
+          <t>*maa://20849 (60.0), *maa://28758 (55.17), maa://29036 (94.12), maa://30285 (100.0)</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="D28" s="12" t="inlineStr">
         <is>
-          <t>maa://20863 (85.88), maa://20832 (98.18), maa://20727 (100.0)</t>
+          <t>maa://20863 (85.96), maa://20832 (98.21), maa://20727 (100.0)</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
@@ -1687,12 +1687,12 @@
       </c>
       <c r="C32" s="11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D32" s="12" t="inlineStr">
         <is>
-          <t>maa://30500 (98.15), *maa://27290 (70.59)</t>
+          <t>maa://30500 (98.15), *maa://27290 (70.59), maa://42154 (100.0)</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
@@ -1795,12 +1795,12 @@
       </c>
       <c r="C36" s="11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D36" s="12" t="inlineStr">
         <is>
-          <t>maa://27376 (88.0), **maa://20838 (50.0), ***maa://40163 (28.57)</t>
+          <t>maa://27376 (88.0), **maa://20838 (50.0)</t>
         </is>
       </c>
       <c r="E36" s="3" t="inlineStr">
@@ -2529,7 +2529,7 @@
       </c>
       <c r="D63" s="12" t="inlineStr">
         <is>
-          <t>maa://28567 (97.3), **maa://20947 (44.12), maa://30525 (100.0), *maa://28188 (75.0), maa://38735 (100.0), maa://30524 (100.0)</t>
+          <t>maa://28567 (97.37), **maa://20947 (44.12), maa://30525 (100.0), *maa://28188 (75.0), maa://38735 (100.0), maa://30524 (100.0)</t>
         </is>
       </c>
       <c r="E63" s="3" t="inlineStr">
@@ -2718,7 +2718,7 @@
       </c>
       <c r="D70" s="12" t="inlineStr">
         <is>
-          <t>maa://36643 (97.22), maa://36864 (100.0), maa://39140 (100.0)</t>
+          <t>maa://36643 (97.23), maa://36864 (100.0), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E70" s="3" t="inlineStr">
@@ -3663,7 +3663,7 @@
       </c>
       <c r="D105" s="12" t="inlineStr">
         <is>
-          <t>maa://25018 (96.14), maa://25776 (90.32), maa://28361 (96.55), maa://25772 (92.11), *maa://25161 (78.57), maa://32653 (85.71)</t>
+          <t>maa://25018 (96.14), maa://25776 (90.32), maa://28361 (96.55), maa://25772 (92.31), *maa://25161 (78.57), maa://32653 (85.71)</t>
         </is>
       </c>
       <c r="E105" s="3" t="inlineStr">
@@ -4743,7 +4743,7 @@
       </c>
       <c r="D145" s="12" t="inlineStr">
         <is>
-          <t>maa://36641 (98.19), maa://36865 (95.33), maa://37300 (100.0)</t>
+          <t>maa://36641 (98.2), maa://36865 (95.33), maa://37300 (100.0)</t>
         </is>
       </c>
       <c r="E145" s="3" t="inlineStr">
@@ -5958,7 +5958,7 @@
       </c>
       <c r="D190" s="12" t="inlineStr">
         <is>
-          <t>maa://27823 (81.13), *maa://28190 (56.67), maa://22894 (90.62), *maa://20906 (72.22), **maa://20907 (33.33)</t>
+          <t>maa://27823 (81.48), *maa://28190 (56.67), maa://22894 (90.62), *maa://20906 (72.22), **maa://20907 (33.33)</t>
         </is>
       </c>
       <c r="E190" s="3" t="inlineStr">
@@ -5985,7 +5985,7 @@
       </c>
       <c r="D191" s="12" t="inlineStr">
         <is>
-          <t>maa://27823 (81.13), *maa://28190 (56.67), maa://22894 (90.62), *maa://20906 (72.22), **maa://20907 (33.33)</t>
+          <t>maa://27823 (81.48), *maa://28190 (56.67), maa://22894 (90.62), *maa://20906 (72.22), **maa://20907 (33.33)</t>
         </is>
       </c>
       <c r="E191" s="3" t="inlineStr">
@@ -6228,7 +6228,7 @@
       </c>
       <c r="D200" s="12" t="inlineStr">
         <is>
-          <t>maa://28133 (89.74), *maa://28277 (79.17), maa://25369 (92.86), **maa://39217 (36.36), *maa://33132 (66.67)</t>
+          <t>maa://28133 (89.74), *maa://28277 (79.17), maa://25369 (92.86), **maa://39217 (41.67), *maa://33132 (66.67)</t>
         </is>
       </c>
       <c r="E200" s="3" t="inlineStr">
@@ -6255,7 +6255,7 @@
       </c>
       <c r="D201" s="12" t="inlineStr">
         <is>
-          <t>maa://20956 (95.1), *maa://20830 (77.78)</t>
+          <t>maa://20956 (95.14), *maa://20830 (77.78)</t>
         </is>
       </c>
       <c r="E201" s="3" t="inlineStr">
@@ -6309,7 +6309,7 @@
       </c>
       <c r="D203" s="12" t="inlineStr">
         <is>
-          <t>maa://39238 (98.82)</t>
+          <t>maa://39238 (98.84)</t>
         </is>
       </c>
       <c r="E203" s="3" t="inlineStr">
@@ -6984,7 +6984,7 @@
       </c>
       <c r="D228" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (75.61), maa://30666 (83.07), *maa://26836 (75.0), **maa://30739 (45.71), maa://37607 (92.06), *maa://34428 (66.2), *maa://30723 (51.92), maa://39588 (85.71), *maa://37850 (66.67)</t>
+          <t>*maa://30667 (75.61), maa://30666 (83.07), *maa://26836 (75.0), **maa://30739 (45.71), maa://37607 (92.13), *maa://34428 (66.2), *maa://30723 (51.92), maa://39588 (85.71), *maa://37850 (66.67)</t>
         </is>
       </c>
       <c r="E228" s="3" t="inlineStr">
@@ -7200,7 +7200,7 @@
       </c>
       <c r="D236" s="12" t="inlineStr">
         <is>
-          <t>maa://28923 (91.5), maa://28906 (96.97), ***maa://28825 (12.0)</t>
+          <t>maa://28923 (91.56), maa://28906 (96.97), ***maa://28825 (12.0)</t>
         </is>
       </c>
       <c r="E236" s="3" t="inlineStr">
@@ -7551,7 +7551,7 @@
       </c>
       <c r="D249" s="12" t="inlineStr">
         <is>
-          <t>maa://29027 (97.3)</t>
+          <t>maa://29027 (97.37)</t>
         </is>
       </c>
       <c r="E249" s="3" t="inlineStr">
@@ -8145,7 +8145,7 @@
       </c>
       <c r="D271" s="12" t="inlineStr">
         <is>
-          <t>maa://30710 (96.84), maa://36845 (94.05), maa://31558 (96.3), **maa://39217 (36.36), maa://30668 (83.33)</t>
+          <t>maa://30710 (96.84), maa://36845 (94.19), maa://31558 (96.3), **maa://39217 (41.67), maa://30668 (83.33)</t>
         </is>
       </c>
       <c r="E271" s="3" t="inlineStr">
@@ -8226,7 +8226,7 @@
       </c>
       <c r="D274" s="12" t="inlineStr">
         <is>
-          <t>maa://25774 (100.0), maa://28133 (89.74), maa://22469 (90.91), **maa://39217 (36.36), **maa://31349 (50.0)</t>
+          <t>maa://25774 (100.0), maa://28133 (89.74), maa://22469 (90.91), **maa://39217 (41.67), **maa://31349 (50.0)</t>
         </is>
       </c>
       <c r="E274" s="3" t="inlineStr">
@@ -8253,7 +8253,7 @@
       </c>
       <c r="D275" s="12" t="inlineStr">
         <is>
-          <t>maa://32414 (98.43), maa://32505 (100.0), maa://39155 (94.74)</t>
+          <t>maa://32414 (98.44), maa://32505 (100.0), maa://39155 (94.74)</t>
         </is>
       </c>
       <c r="E275" s="3" t="inlineStr">
@@ -8847,7 +8847,7 @@
       </c>
       <c r="D297" s="12" t="inlineStr">
         <is>
-          <t>maa://39692 (99.42), *maa://39810 (80.0)</t>
+          <t>maa://39692 (99.43), *maa://39810 (80.0)</t>
         </is>
       </c>
       <c r="E297" s="3" t="inlineStr">
@@ -9306,7 +9306,7 @@
       </c>
       <c r="D314" s="12" t="inlineStr">
         <is>
-          <t>maa://32647 (96.9), maa://32415 (96.26), maa://34677 (100.0), maa://32892 (100.0)</t>
+          <t>maa://32647 (96.93), maa://32415 (96.3), maa://34677 (100.0), maa://32892 (100.0)</t>
         </is>
       </c>
       <c r="E314" s="3" t="inlineStr">
@@ -9441,7 +9441,7 @@
       </c>
       <c r="D319" s="12" t="inlineStr">
         <is>
-          <t>maa://34865 (96.45), maa://34717 (92.73)</t>
+          <t>maa://34865 (96.48), maa://34717 (92.73)</t>
         </is>
       </c>
       <c r="E319" s="3" t="inlineStr">
@@ -9522,7 +9522,7 @@
       </c>
       <c r="D322" s="12" t="inlineStr">
         <is>
-          <t>maa://36868 (100.0), maa://35996 (94.44), **maa://39217 (36.36)</t>
+          <t>maa://36868 (100.0), maa://35996 (94.44), **maa://39217 (41.67)</t>
         </is>
       </c>
       <c r="E322" s="3" t="inlineStr">
@@ -9603,7 +9603,7 @@
       </c>
       <c r="D325" s="12" t="inlineStr">
         <is>
-          <t>maa://36646 (98.25), maa://36845 (94.05), **maa://39217 (36.36)</t>
+          <t>maa://36646 (98.26), maa://36845 (94.19), **maa://39217 (41.67)</t>
         </is>
       </c>
       <c r="E325" s="3" t="inlineStr">
@@ -9738,7 +9738,7 @@
       </c>
       <c r="D330" s="12" t="inlineStr">
         <is>
-          <t>*maa://40957 (78.26), *maa://41128 (71.43), *maa://41035 (80.0)</t>
+          <t>*maa://40957 (78.18), *maa://41128 (73.33), *maa://41035 (80.0)</t>
         </is>
       </c>
       <c r="E330" s="3" t="inlineStr">
@@ -9900,7 +9900,7 @@
       </c>
       <c r="D336" s="14" t="inlineStr">
         <is>
-          <t>maa://41110 (96.88)</t>
+          <t>maa://41110 (96.97)</t>
         </is>
       </c>
       <c r="E336" s="14" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -507,7 +507,7 @@
     <row r="1">
       <c r="A1" s="9" t="inlineStr">
         <is>
-          <t>更新日期：2024.10.20 13:17:20</t>
+          <t>更新日期：2024.10.23 13:18:28</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="D59" s="12" t="inlineStr">
         <is>
-          <t>maa://20841 (100.0), maa://24093 (100.0), maa://31559 (94.12), maa://25777 (100.0), maa://20631 (100.0)</t>
+          <t>maa://20841 (100.0), maa://24093 (100.0), maa://31559 (94.44), maa://25777 (100.0), maa://20631 (100.0)</t>
         </is>
       </c>
       <c r="E59" s="3" t="inlineStr">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="D66" s="12" t="inlineStr">
         <is>
-          <t>maa://20976 (97.56), maa://20815 (100.0)</t>
+          <t>maa://20976 (97.63), maa://20815 (100.0)</t>
         </is>
       </c>
       <c r="E66" s="3" t="inlineStr">
@@ -2664,7 +2664,7 @@
       </c>
       <c r="D68" s="12" t="inlineStr">
         <is>
-          <t>maa://20944 (94.44), maa://35393 (100.0)</t>
+          <t>maa://20944 (94.59), maa://35393 (100.0)</t>
         </is>
       </c>
       <c r="E68" s="3" t="inlineStr">
@@ -2718,7 +2718,7 @@
       </c>
       <c r="D70" s="12" t="inlineStr">
         <is>
-          <t>maa://36643 (97.23), maa://36864 (100.0), maa://39140 (100.0)</t>
+          <t>maa://36643 (97.24), maa://36864 (100.0), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E70" s="3" t="inlineStr">
@@ -3150,7 +3150,7 @@
       </c>
       <c r="D86" s="12" t="inlineStr">
         <is>
-          <t>maa://24472 (84.67), *maa://35841 (54.55)</t>
+          <t>maa://24472 (84.78), *maa://35841 (54.55)</t>
         </is>
       </c>
       <c r="E86" s="3" t="inlineStr">
@@ -3663,7 +3663,7 @@
       </c>
       <c r="D105" s="12" t="inlineStr">
         <is>
-          <t>maa://25018 (96.14), maa://25776 (90.32), maa://28361 (96.55), maa://25772 (92.31), *maa://25161 (78.57), maa://32653 (85.71)</t>
+          <t>maa://25018 (96.15), maa://25776 (90.32), maa://28361 (96.55), maa://25772 (92.31), *maa://25161 (78.57), maa://32653 (85.71)</t>
         </is>
       </c>
       <c r="E105" s="3" t="inlineStr">
@@ -4581,7 +4581,7 @@
       </c>
       <c r="D139" s="12" t="inlineStr">
         <is>
-          <t>maa://30670 (95.56), maa://31470 (94.44), ***maa://30867 (25.0)</t>
+          <t>maa://30670 (95.6), maa://31470 (94.44), ***maa://30867 (25.0)</t>
         </is>
       </c>
       <c r="E139" s="3" t="inlineStr">
@@ -5175,7 +5175,7 @@
       </c>
       <c r="D161" s="12" t="inlineStr">
         <is>
-          <t>maa://29627 (92.55), maa://29633 (92.02), maa://29659 (82.14), maa://29861 (100.0)</t>
+          <t>maa://29627 (92.59), maa://29633 (92.19), maa://29659 (82.14), maa://29861 (100.0)</t>
         </is>
       </c>
       <c r="E161" s="3" t="inlineStr">
@@ -5904,7 +5904,7 @@
       </c>
       <c r="D188" s="12" t="inlineStr">
         <is>
-          <t>maa://25760 (82.26), *maa://35854 (69.23), **maa://20872 (50.0)</t>
+          <t>maa://25760 (82.81), *maa://35854 (69.23), **maa://20872 (50.0)</t>
         </is>
       </c>
       <c r="E188" s="3" t="inlineStr">
@@ -6228,7 +6228,7 @@
       </c>
       <c r="D200" s="12" t="inlineStr">
         <is>
-          <t>maa://28133 (89.74), *maa://28277 (79.17), maa://25369 (92.86), **maa://39217 (41.67), *maa://33132 (66.67)</t>
+          <t>maa://28133 (89.74), *maa://28277 (79.17), maa://25369 (93.1), **maa://39217 (41.67), *maa://33132 (66.67)</t>
         </is>
       </c>
       <c r="E200" s="3" t="inlineStr">
@@ -6255,7 +6255,7 @@
       </c>
       <c r="D201" s="12" t="inlineStr">
         <is>
-          <t>maa://20956 (95.14), *maa://20830 (77.78)</t>
+          <t>maa://20956 (95.21), *maa://20830 (77.78)</t>
         </is>
       </c>
       <c r="E201" s="3" t="inlineStr">
@@ -6309,7 +6309,7 @@
       </c>
       <c r="D203" s="12" t="inlineStr">
         <is>
-          <t>maa://39238 (98.84)</t>
+          <t>maa://39238 (98.86)</t>
         </is>
       </c>
       <c r="E203" s="3" t="inlineStr">
@@ -6984,7 +6984,7 @@
       </c>
       <c r="D228" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (75.61), maa://30666 (83.07), *maa://26836 (75.0), **maa://30739 (45.71), maa://37607 (92.13), *maa://34428 (66.2), *maa://30723 (51.92), maa://39588 (85.71), *maa://37850 (66.67)</t>
+          <t>*maa://30667 (75.76), maa://30666 (83.16), *maa://26836 (75.18), **maa://30739 (45.71), maa://37607 (92.25), *maa://34428 (66.2), *maa://30723 (51.92), maa://39588 (85.71), *maa://37850 (66.67)</t>
         </is>
       </c>
       <c r="E228" s="3" t="inlineStr">
@@ -7200,7 +7200,7 @@
       </c>
       <c r="D236" s="12" t="inlineStr">
         <is>
-          <t>maa://28923 (91.56), maa://28906 (96.97), ***maa://28825 (12.0)</t>
+          <t>maa://28923 (91.61), maa://28906 (97.06), ***maa://28825 (12.0)</t>
         </is>
       </c>
       <c r="E236" s="3" t="inlineStr">
@@ -7222,12 +7222,12 @@
       </c>
       <c r="C237" s="11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D237" s="14" t="inlineStr">
         <is>
-          <t>maa://42287 (100.0)</t>
+          <t>maa://42287 (100.0), maa://42225 (100.0)</t>
         </is>
       </c>
       <c r="E237" s="3" t="inlineStr">
@@ -7308,7 +7308,7 @@
       </c>
       <c r="D240" s="12" t="inlineStr">
         <is>
-          <t>maa://24093 (100.0), maa://31559 (94.12), maa://20924 (94.74)</t>
+          <t>maa://24093 (100.0), maa://31559 (94.44), maa://20924 (94.74)</t>
         </is>
       </c>
       <c r="E240" s="3" t="inlineStr">
@@ -8145,7 +8145,7 @@
       </c>
       <c r="D271" s="12" t="inlineStr">
         <is>
-          <t>maa://30710 (96.84), maa://36845 (94.19), maa://31558 (96.3), **maa://39217 (41.67), maa://30668 (83.33)</t>
+          <t>maa://30710 (96.88), maa://36845 (94.25), maa://31558 (96.3), **maa://39217 (41.67), maa://30668 (83.33)</t>
         </is>
       </c>
       <c r="E271" s="3" t="inlineStr">
@@ -8253,7 +8253,7 @@
       </c>
       <c r="D275" s="12" t="inlineStr">
         <is>
-          <t>maa://32414 (98.44), maa://32505 (100.0), maa://39155 (94.74)</t>
+          <t>maa://32414 (98.45), maa://32505 (100.0), maa://39155 (94.74)</t>
         </is>
       </c>
       <c r="E275" s="3" t="inlineStr">
@@ -8361,7 +8361,7 @@
       </c>
       <c r="D279" s="12" t="inlineStr">
         <is>
-          <t>maa://29005 (97.87), maa://31560 (83.33)</t>
+          <t>maa://29005 (97.92), maa://31560 (83.33)</t>
         </is>
       </c>
       <c r="E279" s="3" t="inlineStr">
@@ -8766,7 +8766,7 @@
       </c>
       <c r="D294" s="12" t="inlineStr">
         <is>
-          <t>maa://31559 (94.12), maa://28241 (100.0)</t>
+          <t>maa://31559 (94.44), maa://28241 (100.0)</t>
         </is>
       </c>
       <c r="E294" s="3" t="inlineStr">
@@ -8847,7 +8847,7 @@
       </c>
       <c r="D297" s="12" t="inlineStr">
         <is>
-          <t>maa://39692 (99.43), *maa://39810 (80.0)</t>
+          <t>maa://39692 (99.45), *maa://39810 (80.0)</t>
         </is>
       </c>
       <c r="E297" s="3" t="inlineStr">
@@ -9171,7 +9171,7 @@
       </c>
       <c r="D309" s="12" t="inlineStr">
         <is>
-          <t>maa://30671 (81.34), maa://30669 (98.28), maa://37275 (82.35), *maa://32410 (63.64), maa://41605 (100.0), maa://33671 (100.0)</t>
+          <t>maa://30671 (81.34), maa://30669 (98.31), maa://37275 (82.35), *maa://32410 (63.64), maa://41605 (100.0), maa://33671 (100.0)</t>
         </is>
       </c>
       <c r="E309" s="3" t="inlineStr">
@@ -9279,7 +9279,7 @@
       </c>
       <c r="D313" s="12" t="inlineStr">
         <is>
-          <t>maa://32416 (85.29)</t>
+          <t>maa://32416 (85.71)</t>
         </is>
       </c>
       <c r="E313" s="3" t="inlineStr">
@@ -9306,7 +9306,7 @@
       </c>
       <c r="D314" s="12" t="inlineStr">
         <is>
-          <t>maa://32647 (96.93), maa://32415 (96.3), maa://34677 (100.0), maa://32892 (100.0)</t>
+          <t>maa://32647 (96.97), maa://32415 (96.3), maa://34677 (100.0), maa://32892 (100.0)</t>
         </is>
       </c>
       <c r="E314" s="3" t="inlineStr">
@@ -9576,7 +9576,7 @@
       </c>
       <c r="D324" s="12" t="inlineStr">
         <is>
-          <t>*maa://42224 (75.0), maa://42299 (100.0)</t>
+          <t>**maa://42224 (50.0), maa://42299 (100.0)</t>
         </is>
       </c>
       <c r="E324" s="3" t="inlineStr">
@@ -9603,7 +9603,7 @@
       </c>
       <c r="D325" s="12" t="inlineStr">
         <is>
-          <t>maa://36646 (98.26), maa://36845 (94.19), **maa://39217 (41.67)</t>
+          <t>maa://36646 (98.3), maa://36845 (94.25), **maa://39217 (41.67)</t>
         </is>
       </c>
       <c r="E325" s="3" t="inlineStr">
@@ -9630,7 +9630,7 @@
       </c>
       <c r="D326" s="12" t="inlineStr">
         <is>
-          <t>maa://36645 (98.24), maa://36841 (93.33), maa://37484 (93.18), maa://37858 (90.91)</t>
+          <t>maa://36645 (98.25), maa://36841 (93.33), maa://37484 (93.18), maa://37858 (90.91)</t>
         </is>
       </c>
       <c r="E326" s="3" t="inlineStr">
@@ -9738,7 +9738,7 @@
       </c>
       <c r="D330" s="12" t="inlineStr">
         <is>
-          <t>*maa://40957 (78.18), *maa://41128 (73.33), *maa://41035 (80.0)</t>
+          <t>*maa://40957 (79.66), *maa://41128 (75.0), *maa://41035 (80.0)</t>
         </is>
       </c>
       <c r="E330" s="3" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -507,7 +507,7 @@
     <row r="1">
       <c r="A1" s="9" t="inlineStr">
         <is>
-          <t>更新日期：2024.10.23 13:18:28</t>
+          <t>更新日期：2024.10.26 13:17:09</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="D22" s="12" t="inlineStr">
         <is>
-          <t>maa://20876 (90.91)</t>
+          <t>maa://20876 (91.67)</t>
         </is>
       </c>
       <c r="E22" s="3" t="inlineStr">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>maa://36644 (88.24), maa://36866 (96.77), maa://27794 (100.0)</t>
+          <t>maa://36644 (88.33), maa://36866 (96.77), maa://27794 (100.0)</t>
         </is>
       </c>
       <c r="E31" s="3" t="inlineStr">
@@ -1692,7 +1692,7 @@
       </c>
       <c r="D32" s="12" t="inlineStr">
         <is>
-          <t>maa://30500 (98.15), *maa://27290 (70.59), maa://42154 (100.0)</t>
+          <t>maa://30500 (98.18), *maa://27290 (70.59), maa://42154 (100.0)</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
@@ -1719,7 +1719,7 @@
       </c>
       <c r="D33" s="12" t="inlineStr">
         <is>
-          <t>*maa://20916 (79.17)</t>
+          <t>*maa://20916 (76.92)</t>
         </is>
       </c>
       <c r="E33" s="3" t="inlineStr">
@@ -2232,7 +2232,7 @@
       </c>
       <c r="D52" s="12" t="inlineStr">
         <is>
-          <t>maa://20953 (94.44), maa://31173 (85.71)</t>
+          <t>maa://20953 (94.44), maa://31173 (87.5)</t>
         </is>
       </c>
       <c r="E52" s="3" t="inlineStr">
@@ -2313,7 +2313,7 @@
       </c>
       <c r="D55" s="12" t="inlineStr">
         <is>
-          <t>*maa://20965 (69.23)</t>
+          <t>*maa://20965 (67.86)</t>
         </is>
       </c>
       <c r="E55" s="3" t="inlineStr">
@@ -2340,7 +2340,7 @@
       </c>
       <c r="D56" s="12" t="inlineStr">
         <is>
-          <t>maa://28900 (95.31), maa://30126 (100.0)</t>
+          <t>maa://28900 (95.38), maa://30126 (100.0)</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
@@ -2394,7 +2394,7 @@
       </c>
       <c r="D58" s="12" t="inlineStr">
         <is>
-          <t>maa://38298 (82.76)</t>
+          <t>maa://38298 (83.33)</t>
         </is>
       </c>
       <c r="E58" s="3" t="inlineStr">
@@ -2448,7 +2448,7 @@
       </c>
       <c r="D60" s="12" t="inlineStr">
         <is>
-          <t>maa://20844 (95.83)</t>
+          <t>maa://20844 (96.0)</t>
         </is>
       </c>
       <c r="E60" s="3" t="inlineStr">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="D62" s="12" t="inlineStr">
         <is>
-          <t>maa://28187 (96.67), maa://33504 (100.0), maa://39520 (100.0)</t>
+          <t>maa://28187 (96.88), maa://33504 (100.0), maa://39520 (100.0)</t>
         </is>
       </c>
       <c r="E62" s="3" t="inlineStr">
@@ -2529,7 +2529,7 @@
       </c>
       <c r="D63" s="12" t="inlineStr">
         <is>
-          <t>maa://28567 (97.37), **maa://20947 (44.12), maa://30525 (100.0), *maa://28188 (75.0), maa://38735 (100.0), maa://30524 (100.0)</t>
+          <t>maa://28567 (97.5), **maa://20947 (44.12), maa://30525 (100.0), *maa://28188 (75.0), maa://38735 (100.0), maa://30524 (100.0)</t>
         </is>
       </c>
       <c r="E63" s="3" t="inlineStr">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="D66" s="12" t="inlineStr">
         <is>
-          <t>maa://20976 (97.63), maa://20815 (100.0)</t>
+          <t>maa://20976 (97.65), maa://20815 (100.0)</t>
         </is>
       </c>
       <c r="E66" s="3" t="inlineStr">
@@ -2637,7 +2637,7 @@
       </c>
       <c r="D67" s="12" t="inlineStr">
         <is>
-          <t>maa://28784 (93.83), maa://29088 (91.76), maa://20974 (95.45), maa://31124 (96.12), maa://28950 (90.91), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67), *maa://41832 (75.0)</t>
+          <t>maa://28784 (93.83), maa://29088 (91.76), maa://20974 (95.45), maa://31124 (96.15), maa://28950 (90.91), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67), *maa://41832 (75.0)</t>
         </is>
       </c>
       <c r="E67" s="3" t="inlineStr">
@@ -2718,7 +2718,7 @@
       </c>
       <c r="D70" s="12" t="inlineStr">
         <is>
-          <t>maa://36643 (97.24), maa://36864 (100.0), maa://39140 (100.0)</t>
+          <t>maa://36643 (97.3), maa://36864 (100.0), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E70" s="3" t="inlineStr">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="D87" s="12" t="inlineStr">
         <is>
-          <t>*maa://28190 (56.67), maa://20880 (89.47)</t>
+          <t>*maa://28190 (56.67), maa://20880 (90.0)</t>
         </is>
       </c>
       <c r="E87" s="3" t="inlineStr">
@@ -3204,7 +3204,7 @@
       </c>
       <c r="D88" s="12" t="inlineStr">
         <is>
-          <t>maa://24609 (87.5)</t>
+          <t>maa://24609 (88.24)</t>
         </is>
       </c>
       <c r="E88" s="3" t="inlineStr">
@@ -3501,7 +3501,7 @@
       </c>
       <c r="D99" s="12" t="inlineStr">
         <is>
-          <t>*maa://39240 (57.14), maa://40517 (88.89)</t>
+          <t>*maa://39240 (57.14), maa://40517 (90.91)</t>
         </is>
       </c>
       <c r="E99" s="3" t="inlineStr">
@@ -3528,7 +3528,7 @@
       </c>
       <c r="D100" s="12" t="inlineStr">
         <is>
-          <t>*maa://29094 (60.61), maa://28904 (86.36), **maa://20931 (42.31)</t>
+          <t>*maa://29094 (60.61), maa://28904 (83.33), **maa://20931 (42.31)</t>
         </is>
       </c>
       <c r="E100" s="3" t="inlineStr">
@@ -3663,7 +3663,7 @@
       </c>
       <c r="D105" s="12" t="inlineStr">
         <is>
-          <t>maa://25018 (96.15), maa://25776 (90.32), maa://28361 (96.55), maa://25772 (92.31), *maa://25161 (78.57), maa://32653 (85.71)</t>
+          <t>maa://25018 (96.17), maa://25776 (90.32), maa://28361 (96.55), maa://25772 (92.31), *maa://25161 (78.57), maa://32653 (85.71)</t>
         </is>
       </c>
       <c r="E105" s="3" t="inlineStr">
@@ -3771,7 +3771,7 @@
       </c>
       <c r="D109" s="12" t="inlineStr">
         <is>
-          <t>*maa://20933 (76.09), maa://20822 (100.0)</t>
+          <t>*maa://20933 (76.6), maa://20822 (100.0)</t>
         </is>
       </c>
       <c r="E109" s="3" t="inlineStr">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="D112" s="12" t="inlineStr">
         <is>
-          <t>maa://20908 (98.2), *maa://23346 (77.78), maa://35723 (96.97), maa://38822 (100.0)</t>
+          <t>maa://20908 (98.21), *maa://23346 (77.78), maa://35723 (96.97), maa://38822 (100.0)</t>
         </is>
       </c>
       <c r="E112" s="3" t="inlineStr">
@@ -4041,7 +4041,7 @@
       </c>
       <c r="D119" s="12" t="inlineStr">
         <is>
-          <t>maa://29650 (97.37)</t>
+          <t>maa://29650 (97.5)</t>
         </is>
       </c>
       <c r="E119" s="3" t="inlineStr">
@@ -4230,7 +4230,7 @@
       </c>
       <c r="D126" s="12" t="inlineStr">
         <is>
-          <t>maa://21422 (98.44)</t>
+          <t>maa://21422 (98.48)</t>
         </is>
       </c>
       <c r="E126" s="3" t="inlineStr">
@@ -4284,7 +4284,7 @@
       </c>
       <c r="D128" s="12" t="inlineStr">
         <is>
-          <t>maa://23019 (100.0), maa://20837 (100.0), maa://37113 (100.0), maa://40517 (88.89), *maa://37666 (75.0), maa://41686 (100.0)</t>
+          <t>maa://23019 (100.0), maa://20837 (100.0), maa://37113 (100.0), maa://40517 (90.91), *maa://37666 (75.0), maa://41686 (100.0)</t>
         </is>
       </c>
       <c r="E128" s="3" t="inlineStr">
@@ -4311,7 +4311,7 @@
       </c>
       <c r="D129" s="12" t="inlineStr">
         <is>
-          <t>maa://23020 (95.77), maa://29023 (100.0), maa://34319 (100.0), *maa://39515 (75.0), maa://41690 (100.0)</t>
+          <t>maa://23020 (95.83), maa://29023 (100.0), maa://34319 (100.0), *maa://39515 (75.0), maa://41690 (100.0)</t>
         </is>
       </c>
       <c r="E129" s="3" t="inlineStr">
@@ -4554,7 +4554,7 @@
       </c>
       <c r="D138" s="12" t="inlineStr">
         <is>
-          <t>maa://28484 (97.1), **maa://23736 (41.54), *maa://31185 (80.0), maa://30306 (100.0)</t>
+          <t>maa://28484 (97.22), **maa://23736 (41.54), *maa://31185 (80.0), maa://30306 (100.0)</t>
         </is>
       </c>
       <c r="E138" s="3" t="inlineStr">
@@ -4581,7 +4581,7 @@
       </c>
       <c r="D139" s="12" t="inlineStr">
         <is>
-          <t>maa://30670 (95.6), maa://31470 (94.44), ***maa://30867 (25.0)</t>
+          <t>maa://30670 (95.65), maa://31470 (94.44), ***maa://30867 (25.0)</t>
         </is>
       </c>
       <c r="E139" s="3" t="inlineStr">
@@ -4689,7 +4689,7 @@
       </c>
       <c r="D143" s="12" t="inlineStr">
         <is>
-          <t>maa://29056 (100.0), ***maa://20901 (9.09)</t>
+          <t>maa://29056 (100.0), ***maa://20901 (8.33)</t>
         </is>
       </c>
       <c r="E143" s="3" t="inlineStr">
@@ -4743,7 +4743,7 @@
       </c>
       <c r="D145" s="12" t="inlineStr">
         <is>
-          <t>maa://36641 (98.2), maa://36865 (95.33), maa://37300 (100.0)</t>
+          <t>maa://36641 (98.21), maa://36865 (95.37), maa://37300 (100.0)</t>
         </is>
       </c>
       <c r="E145" s="3" t="inlineStr">
@@ -5175,7 +5175,7 @@
       </c>
       <c r="D161" s="12" t="inlineStr">
         <is>
-          <t>maa://29627 (92.59), maa://29633 (92.19), maa://29659 (82.14), maa://29861 (100.0)</t>
+          <t>maa://29627 (92.64), maa://29633 (92.23), maa://29659 (82.14), maa://29861 (100.0)</t>
         </is>
       </c>
       <c r="E161" s="3" t="inlineStr">
@@ -5904,7 +5904,7 @@
       </c>
       <c r="D188" s="12" t="inlineStr">
         <is>
-          <t>maa://25760 (82.81), *maa://35854 (69.23), **maa://20872 (50.0)</t>
+          <t>maa://25760 (83.08), *maa://35854 (69.23), **maa://20872 (50.0)</t>
         </is>
       </c>
       <c r="E188" s="3" t="inlineStr">
@@ -6255,7 +6255,7 @@
       </c>
       <c r="D201" s="12" t="inlineStr">
         <is>
-          <t>maa://20956 (95.21), *maa://20830 (77.78)</t>
+          <t>maa://20956 (95.3), *maa://20830 (77.78)</t>
         </is>
       </c>
       <c r="E201" s="3" t="inlineStr">
@@ -6309,7 +6309,7 @@
       </c>
       <c r="D203" s="12" t="inlineStr">
         <is>
-          <t>maa://39238 (98.86)</t>
+          <t>maa://39238 (98.9)</t>
         </is>
       </c>
       <c r="E203" s="3" t="inlineStr">
@@ -6606,7 +6606,7 @@
       </c>
       <c r="D214" s="12" t="inlineStr">
         <is>
-          <t>maa://28187 (96.67), maa://39520 (100.0)</t>
+          <t>maa://28187 (96.88), maa://39520 (100.0)</t>
         </is>
       </c>
       <c r="E214" s="3" t="inlineStr">
@@ -6903,7 +6903,7 @@
       </c>
       <c r="D225" s="12" t="inlineStr">
         <is>
-          <t>maa://30714 (97.06), maa://30675 (100.0)</t>
+          <t>maa://30714 (97.14), maa://30675 (100.0)</t>
         </is>
       </c>
       <c r="E225" s="3" t="inlineStr">
@@ -6984,7 +6984,7 @@
       </c>
       <c r="D228" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (75.76), maa://30666 (83.16), *maa://26836 (75.18), **maa://30739 (45.71), maa://37607 (92.25), *maa://34428 (66.2), *maa://30723 (51.92), maa://39588 (85.71), *maa://37850 (66.67)</t>
+          <t>*maa://30667 (75.82), maa://30666 (83.25), *maa://26836 (75.36), **maa://30739 (45.71), maa://37607 (92.48), *maa://34428 (66.2), *maa://30723 (51.92), maa://39588 (83.87), *maa://37850 (66.67)</t>
         </is>
       </c>
       <c r="E228" s="3" t="inlineStr">
@@ -7092,7 +7092,7 @@
       </c>
       <c r="D232" s="12" t="inlineStr">
         <is>
-          <t>maa://20867 (92.86), *maa://32202 (80.0), *maa://38485 (75.0)</t>
+          <t>maa://20867 (92.86), *maa://32202 (80.0), *maa://38485 (80.0)</t>
         </is>
       </c>
       <c r="E232" s="3" t="inlineStr">
@@ -7200,7 +7200,7 @@
       </c>
       <c r="D236" s="12" t="inlineStr">
         <is>
-          <t>maa://28923 (91.61), maa://28906 (97.06), ***maa://28825 (12.0)</t>
+          <t>maa://28923 (91.61), maa://28906 (97.14), ***maa://28825 (12.0)</t>
         </is>
       </c>
       <c r="E236" s="3" t="inlineStr">
@@ -7227,7 +7227,7 @@
       </c>
       <c r="D237" s="14" t="inlineStr">
         <is>
-          <t>maa://42287 (100.0), maa://42225 (100.0)</t>
+          <t>maa://42287 (90.0), maa://42225 (100.0)</t>
         </is>
       </c>
       <c r="E237" s="3" t="inlineStr">
@@ -7389,7 +7389,7 @@
       </c>
       <c r="D243" s="12" t="inlineStr">
         <is>
-          <t>maa://20877 (98.18), maa://20836 (100.0)</t>
+          <t>maa://20877 (98.21), maa://20836 (100.0)</t>
         </is>
       </c>
       <c r="E243" s="3" t="inlineStr">
@@ -7632,7 +7632,7 @@
       </c>
       <c r="D252" s="12" t="inlineStr">
         <is>
-          <t>maa://22467 (93.1)</t>
+          <t>maa://22467 (93.33)</t>
         </is>
       </c>
       <c r="E252" s="3" t="inlineStr">
@@ -7821,7 +7821,7 @@
       </c>
       <c r="D259" s="12" t="inlineStr">
         <is>
-          <t>*maa://20939 (71.43)</t>
+          <t>*maa://20939 (75.0)</t>
         </is>
       </c>
       <c r="E259" s="3" t="inlineStr">
@@ -8091,7 +8091,7 @@
       </c>
       <c r="D269" s="12" t="inlineStr">
         <is>
-          <t>maa://20899 (90.07)</t>
+          <t>maa://20899 (90.14)</t>
         </is>
       </c>
       <c r="E269" s="3" t="inlineStr">
@@ -8145,7 +8145,7 @@
       </c>
       <c r="D271" s="12" t="inlineStr">
         <is>
-          <t>maa://30710 (96.88), maa://36845 (94.25), maa://31558 (96.3), **maa://39217 (41.67), maa://30668 (83.33)</t>
+          <t>maa://30710 (96.88), maa://36845 (94.38), maa://31558 (96.3), **maa://39217 (41.67), maa://30668 (83.33)</t>
         </is>
       </c>
       <c r="E271" s="3" t="inlineStr">
@@ -8253,7 +8253,7 @@
       </c>
       <c r="D275" s="12" t="inlineStr">
         <is>
-          <t>maa://32414 (98.45), maa://32505 (100.0), maa://39155 (94.74)</t>
+          <t>maa://32414 (98.47), maa://32505 (100.0), maa://39155 (95.0)</t>
         </is>
       </c>
       <c r="E275" s="3" t="inlineStr">
@@ -8307,7 +8307,7 @@
       </c>
       <c r="D277" s="12" t="inlineStr">
         <is>
-          <t>maa://36642 (100.0), maa://36867 (100.0), maa://39155 (94.74)</t>
+          <t>maa://36642 (100.0), maa://36867 (100.0), maa://39155 (95.0)</t>
         </is>
       </c>
       <c r="E277" s="3" t="inlineStr">
@@ -8658,7 +8658,7 @@
       </c>
       <c r="D290" s="12" t="inlineStr">
         <is>
-          <t>maa://25775 (92.45), *maa://25393 (76.92)</t>
+          <t>maa://25775 (92.59), *maa://25393 (76.92)</t>
         </is>
       </c>
       <c r="E290" s="3" t="inlineStr">
@@ -8847,7 +8847,7 @@
       </c>
       <c r="D297" s="12" t="inlineStr">
         <is>
-          <t>maa://39692 (99.45), *maa://39810 (80.0)</t>
+          <t>maa://39692 (99.47), *maa://39810 (80.0)</t>
         </is>
       </c>
       <c r="E297" s="3" t="inlineStr">
@@ -9171,7 +9171,7 @@
       </c>
       <c r="D309" s="12" t="inlineStr">
         <is>
-          <t>maa://30671 (81.34), maa://30669 (98.31), maa://37275 (82.35), *maa://32410 (63.64), maa://41605 (100.0), maa://33671 (100.0)</t>
+          <t>maa://30671 (81.48), maa://30669 (98.36), maa://37275 (82.35), *maa://32410 (63.64), maa://41605 (100.0), maa://33671 (100.0)</t>
         </is>
       </c>
       <c r="E309" s="3" t="inlineStr">
@@ -9198,7 +9198,7 @@
       </c>
       <c r="D310" s="12" t="inlineStr">
         <is>
-          <t>maa://38295 (95.12)</t>
+          <t>maa://38295 (95.24)</t>
         </is>
       </c>
       <c r="E310" s="3" t="inlineStr">
@@ -9306,7 +9306,7 @@
       </c>
       <c r="D314" s="12" t="inlineStr">
         <is>
-          <t>maa://32647 (96.97), maa://32415 (96.3), maa://34677 (100.0), maa://32892 (100.0)</t>
+          <t>maa://32647 (96.99), maa://32415 (96.33), maa://34677 (100.0), maa://32892 (100.0)</t>
         </is>
       </c>
       <c r="E314" s="3" t="inlineStr">
@@ -9441,7 +9441,7 @@
       </c>
       <c r="D319" s="12" t="inlineStr">
         <is>
-          <t>maa://34865 (96.48), maa://34717 (92.73)</t>
+          <t>maa://34865 (96.53), maa://34717 (92.86)</t>
         </is>
       </c>
       <c r="E319" s="3" t="inlineStr">
@@ -9576,7 +9576,7 @@
       </c>
       <c r="D324" s="12" t="inlineStr">
         <is>
-          <t>**maa://42224 (50.0), maa://42299 (100.0)</t>
+          <t>maa://42299 (100.0), **maa://42224 (50.0)</t>
         </is>
       </c>
       <c r="E324" s="3" t="inlineStr">
@@ -9603,7 +9603,7 @@
       </c>
       <c r="D325" s="12" t="inlineStr">
         <is>
-          <t>maa://36646 (98.3), maa://36845 (94.25), **maa://39217 (41.67)</t>
+          <t>maa://36646 (98.3), maa://36845 (94.38), **maa://39217 (41.67)</t>
         </is>
       </c>
       <c r="E325" s="3" t="inlineStr">
@@ -9630,7 +9630,7 @@
       </c>
       <c r="D326" s="12" t="inlineStr">
         <is>
-          <t>maa://36645 (98.25), maa://36841 (93.33), maa://37484 (93.18), maa://37858 (90.91)</t>
+          <t>maa://36645 (98.25), maa://36841 (93.33), maa://37484 (93.18), maa://37858 (91.3)</t>
         </is>
       </c>
       <c r="E326" s="3" t="inlineStr">
@@ -9738,7 +9738,7 @@
       </c>
       <c r="D330" s="12" t="inlineStr">
         <is>
-          <t>*maa://40957 (79.66), *maa://41128 (75.0), *maa://41035 (80.0)</t>
+          <t>maa://40957 (80.65), *maa://41128 (76.47), maa://41035 (83.33)</t>
         </is>
       </c>
       <c r="E330" s="3" t="inlineStr">
@@ -9900,7 +9900,7 @@
       </c>
       <c r="D336" s="14" t="inlineStr">
         <is>
-          <t>maa://41110 (96.97)</t>
+          <t>maa://41110 (97.14)</t>
         </is>
       </c>
       <c r="E336" s="14" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -507,7 +507,7 @@
     <row r="1">
       <c r="A1" s="9" t="inlineStr">
         <is>
-          <t>更新日期：2024.10.26 13:17:09</t>
+          <t>更新日期：2024.10.27 09:37:37</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -1795,12 +1795,12 @@
       </c>
       <c r="C36" s="11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D36" s="12" t="inlineStr">
         <is>
-          <t>maa://27376 (88.0), **maa://20838 (50.0)</t>
+          <t>maa://27376 (88.0), **maa://20838 (50.0), maa://42635 (100.0)</t>
         </is>
       </c>
       <c r="E36" s="3" t="inlineStr">
@@ -1962,7 +1962,7 @@
       </c>
       <c r="D42" s="12" t="inlineStr">
         <is>
-          <t>maa://20889 (85.71)</t>
+          <t>maa://20889 (87.5)</t>
         </is>
       </c>
       <c r="E42" s="3" t="inlineStr">
@@ -2637,7 +2637,7 @@
       </c>
       <c r="D67" s="12" t="inlineStr">
         <is>
-          <t>maa://28784 (93.83), maa://29088 (91.76), maa://20974 (95.45), maa://31124 (96.15), maa://28950 (90.91), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67), *maa://41832 (75.0)</t>
+          <t>maa://28784 (93.84), maa://29088 (91.76), maa://20974 (95.45), maa://31124 (96.21), maa://28950 (90.91), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67), *maa://41832 (75.0)</t>
         </is>
       </c>
       <c r="E67" s="3" t="inlineStr">
@@ -2718,7 +2718,7 @@
       </c>
       <c r="D70" s="12" t="inlineStr">
         <is>
-          <t>maa://36643 (97.3), maa://36864 (100.0), maa://39140 (100.0)</t>
+          <t>maa://36643 (97.31), maa://36864 (100.0), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E70" s="3" t="inlineStr">
@@ -4230,7 +4230,7 @@
       </c>
       <c r="D126" s="12" t="inlineStr">
         <is>
-          <t>maa://21422 (98.48)</t>
+          <t>maa://21422 (98.51)</t>
         </is>
       </c>
       <c r="E126" s="3" t="inlineStr">
@@ -4473,7 +4473,7 @@
       </c>
       <c r="D135" s="12" t="inlineStr">
         <is>
-          <t>**maa://30679 (50.0)</t>
+          <t>*maa://30679 (52.38)</t>
         </is>
       </c>
       <c r="E135" s="3" t="inlineStr">
@@ -5175,7 +5175,7 @@
       </c>
       <c r="D161" s="12" t="inlineStr">
         <is>
-          <t>maa://29627 (92.64), maa://29633 (92.23), maa://29659 (82.14), maa://29861 (100.0)</t>
+          <t>maa://29627 (92.68), maa://29633 (92.23), maa://29659 (82.14), maa://29861 (100.0)</t>
         </is>
       </c>
       <c r="E161" s="3" t="inlineStr">
@@ -6228,7 +6228,7 @@
       </c>
       <c r="D200" s="12" t="inlineStr">
         <is>
-          <t>maa://28133 (89.74), *maa://28277 (79.17), maa://25369 (93.1), **maa://39217 (41.67), *maa://33132 (66.67)</t>
+          <t>maa://28133 (89.74), *maa://28277 (79.17), **maa://39217 (41.67), maa://25369 (93.1), *maa://33132 (66.67)</t>
         </is>
       </c>
       <c r="E200" s="3" t="inlineStr">
@@ -6255,7 +6255,7 @@
       </c>
       <c r="D201" s="12" t="inlineStr">
         <is>
-          <t>maa://20956 (95.3), *maa://20830 (77.78)</t>
+          <t>maa://20956 (95.33), *maa://20830 (77.78)</t>
         </is>
       </c>
       <c r="E201" s="3" t="inlineStr">
@@ -6984,7 +6984,7 @@
       </c>
       <c r="D228" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (75.82), maa://30666 (83.25), *maa://26836 (75.36), **maa://30739 (45.71), maa://37607 (92.48), *maa://34428 (66.2), *maa://30723 (51.92), maa://39588 (83.87), *maa://37850 (66.67)</t>
+          <t>*maa://30667 (75.96), maa://30666 (83.25), *maa://26836 (75.36), **maa://30739 (45.71), maa://37607 (92.54), *maa://34428 (66.2), *maa://30723 (51.92), maa://39588 (83.87), *maa://37850 (66.67)</t>
         </is>
       </c>
       <c r="E228" s="3" t="inlineStr">
@@ -8253,7 +8253,7 @@
       </c>
       <c r="D275" s="12" t="inlineStr">
         <is>
-          <t>maa://32414 (98.47), maa://32505 (100.0), maa://39155 (95.0)</t>
+          <t>maa://32414 (98.48), maa://32505 (100.0), maa://39155 (95.0)</t>
         </is>
       </c>
       <c r="E275" s="3" t="inlineStr">
@@ -9171,7 +9171,7 @@
       </c>
       <c r="D309" s="12" t="inlineStr">
         <is>
-          <t>maa://30671 (81.48), maa://30669 (98.36), maa://37275 (82.35), *maa://32410 (63.64), maa://41605 (100.0), maa://33671 (100.0)</t>
+          <t>maa://30671 (81.02), maa://30669 (98.39), maa://37275 (82.35), *maa://32410 (63.64), maa://41605 (100.0), maa://33671 (100.0)</t>
         </is>
       </c>
       <c r="E309" s="3" t="inlineStr">
@@ -9198,7 +9198,7 @@
       </c>
       <c r="D310" s="12" t="inlineStr">
         <is>
-          <t>maa://38295 (95.24)</t>
+          <t>maa://38295 (95.45)</t>
         </is>
       </c>
       <c r="E310" s="3" t="inlineStr">
@@ -9522,7 +9522,7 @@
       </c>
       <c r="D322" s="12" t="inlineStr">
         <is>
-          <t>maa://36868 (100.0), maa://35996 (94.44), **maa://39217 (41.67)</t>
+          <t>maa://36868 (100.0), maa://35996 (94.87), **maa://39217 (41.67)</t>
         </is>
       </c>
       <c r="E322" s="3" t="inlineStr">
@@ -9603,7 +9603,7 @@
       </c>
       <c r="D325" s="12" t="inlineStr">
         <is>
-          <t>maa://36646 (98.3), maa://36845 (94.38), **maa://39217 (41.67)</t>
+          <t>maa://36646 (98.31), maa://36845 (94.38), **maa://39217 (41.67)</t>
         </is>
       </c>
       <c r="E325" s="3" t="inlineStr">
@@ -9738,7 +9738,7 @@
       </c>
       <c r="D330" s="12" t="inlineStr">
         <is>
-          <t>maa://40957 (80.65), *maa://41128 (76.47), maa://41035 (83.33)</t>
+          <t>maa://40957 (80.65), *maa://41128 (76.47), maa://41035 (84.62)</t>
         </is>
       </c>
       <c r="E330" s="3" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -507,7 +507,7 @@
     <row r="1">
       <c r="A1" s="9" t="inlineStr">
         <is>
-          <t>更新日期：2024.10.27 09:37:37</t>
+          <t>更新日期：2024.10.27 13:17:45</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -3150,7 +3150,7 @@
       </c>
       <c r="D86" s="12" t="inlineStr">
         <is>
-          <t>maa://24472 (84.78), *maa://35841 (54.55)</t>
+          <t>maa://24472 (84.89), *maa://35841 (54.55)</t>
         </is>
       </c>
       <c r="E86" s="3" t="inlineStr">
@@ -6984,7 +6984,7 @@
       </c>
       <c r="D228" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (75.96), maa://30666 (83.25), *maa://26836 (75.36), **maa://30739 (45.71), maa://37607 (92.54), *maa://34428 (66.2), *maa://30723 (51.92), maa://39588 (83.87), *maa://37850 (66.67)</t>
+          <t>*maa://30667 (75.96), maa://30666 (83.25), *maa://26836 (75.54), **maa://30739 (45.71), maa://37607 (91.85), *maa://34428 (66.2), *maa://30723 (51.92), maa://39588 (83.87), *maa://37850 (66.67)</t>
         </is>
       </c>
       <c r="E228" s="3" t="inlineStr">
@@ -8874,7 +8874,7 @@
       </c>
       <c r="D298" s="12" t="inlineStr">
         <is>
-          <t>maa://39174 (100.0)</t>
+          <t>*maa://39174 (66.67)</t>
         </is>
       </c>
       <c r="E298" s="3" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -460,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB337"/>
+  <dimension ref="A1:AB345"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -507,7 +507,7 @@
     <row r="1">
       <c r="A1" s="9" t="inlineStr">
         <is>
-          <t>更新日期：2024.10.27 13:17:45</t>
+          <t>更新日期：2024.11.02 13:17:28</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="D19" s="12" t="inlineStr">
         <is>
-          <t>maa://20865 (83.33), maa://20826 (83.33)</t>
+          <t>maa://20865 (85.71), maa://20826 (83.33)</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="D22" s="12" t="inlineStr">
         <is>
-          <t>maa://20876 (91.67)</t>
+          <t>maa://20876 (92.31)</t>
         </is>
       </c>
       <c r="E22" s="3" t="inlineStr">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="D28" s="12" t="inlineStr">
         <is>
-          <t>maa://20863 (85.96), maa://20832 (98.21), maa://20727 (100.0)</t>
+          <t>maa://20863 (86.13), maa://20832 (98.21), maa://20727 (100.0)</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>maa://36644 (88.33), maa://36866 (96.77), maa://27794 (100.0)</t>
+          <t>maa://36644 (88.43), maa://36866 (96.77), maa://27794 (100.0)</t>
         </is>
       </c>
       <c r="E31" s="3" t="inlineStr">
@@ -1692,7 +1692,7 @@
       </c>
       <c r="D32" s="12" t="inlineStr">
         <is>
-          <t>maa://30500 (98.18), *maa://27290 (70.59), maa://42154 (100.0)</t>
+          <t>maa://30500 (98.21), *maa://27290 (70.59), maa://42154 (100.0)</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="D41" s="12" t="inlineStr">
         <is>
-          <t>*maa://22339 (66.67), maa://20918 (100.0), maa://34883 (100.0), maa://20824 (100.0)</t>
+          <t>*maa://22339 (66.67), maa://20918 (100.0), maa://34883 (87.5), maa://20824 (100.0)</t>
         </is>
       </c>
       <c r="E41" s="3" t="inlineStr">
@@ -2529,7 +2529,7 @@
       </c>
       <c r="D63" s="12" t="inlineStr">
         <is>
-          <t>maa://28567 (97.5), **maa://20947 (44.12), maa://30525 (100.0), *maa://28188 (75.0), maa://38735 (100.0), maa://30524 (100.0)</t>
+          <t>maa://28567 (97.56), **maa://20947 (44.12), maa://30525 (100.0), *maa://28188 (75.0), maa://38735 (100.0), maa://30524 (100.0)</t>
         </is>
       </c>
       <c r="E63" s="3" t="inlineStr">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="D66" s="12" t="inlineStr">
         <is>
-          <t>maa://20976 (97.65), maa://20815 (100.0)</t>
+          <t>maa://20976 (97.66), maa://20815 (100.0)</t>
         </is>
       </c>
       <c r="E66" s="3" t="inlineStr">
@@ -2637,7 +2637,7 @@
       </c>
       <c r="D67" s="12" t="inlineStr">
         <is>
-          <t>maa://28784 (93.84), maa://29088 (91.76), maa://20974 (95.45), maa://31124 (96.21), maa://28950 (90.91), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67), *maa://41832 (75.0)</t>
+          <t>maa://28784 (93.86), maa://29088 (91.76), maa://20974 (95.45), maa://31124 (96.27), maa://28950 (90.91), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67), maa://41832 (81.82)</t>
         </is>
       </c>
       <c r="E67" s="3" t="inlineStr">
@@ -2691,7 +2691,7 @@
       </c>
       <c r="D69" s="12" t="inlineStr">
         <is>
-          <t>maa://20943 (99.59)</t>
+          <t>maa://20943 (99.6)</t>
         </is>
       </c>
       <c r="E69" s="3" t="inlineStr">
@@ -2718,7 +2718,7 @@
       </c>
       <c r="D70" s="12" t="inlineStr">
         <is>
-          <t>maa://36643 (97.31), maa://36864 (100.0), maa://39140 (100.0)</t>
+          <t>maa://36643 (97.36), maa://36864 (100.0), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E70" s="3" t="inlineStr">
@@ -3123,7 +3123,7 @@
       </c>
       <c r="D85" s="12" t="inlineStr">
         <is>
-          <t>maa://20886 (88.89), maa://25136 (92.86)</t>
+          <t>maa://20886 (88.89), maa://25136 (93.33)</t>
         </is>
       </c>
       <c r="E85" s="3" t="inlineStr">
@@ -3150,7 +3150,7 @@
       </c>
       <c r="D86" s="12" t="inlineStr">
         <is>
-          <t>maa://24472 (84.89), *maa://35841 (54.55)</t>
+          <t>maa://24472 (85.0), *maa://35841 (54.55)</t>
         </is>
       </c>
       <c r="E86" s="3" t="inlineStr">
@@ -3663,7 +3663,7 @@
       </c>
       <c r="D105" s="12" t="inlineStr">
         <is>
-          <t>maa://25018 (96.17), maa://25776 (90.32), maa://28361 (96.55), maa://25772 (92.31), *maa://25161 (78.57), maa://32653 (85.71)</t>
+          <t>maa://25018 (96.18), maa://25776 (90.32), maa://28361 (96.67), maa://25772 (92.31), *maa://25161 (78.57), maa://32653 (85.71)</t>
         </is>
       </c>
       <c r="E105" s="3" t="inlineStr">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="D112" s="12" t="inlineStr">
         <is>
-          <t>maa://20908 (98.21), *maa://23346 (77.78), maa://35723 (96.97), maa://38822 (100.0)</t>
+          <t>maa://20908 (98.22), *maa://23346 (77.78), maa://35723 (96.97), maa://38822 (100.0)</t>
         </is>
       </c>
       <c r="E112" s="3" t="inlineStr">
@@ -4230,7 +4230,7 @@
       </c>
       <c r="D126" s="12" t="inlineStr">
         <is>
-          <t>maa://21422 (98.51)</t>
+          <t>maa://21422 (98.61)</t>
         </is>
       </c>
       <c r="E126" s="3" t="inlineStr">
@@ -4311,7 +4311,7 @@
       </c>
       <c r="D129" s="12" t="inlineStr">
         <is>
-          <t>maa://23020 (95.83), maa://29023 (100.0), maa://34319 (100.0), *maa://39515 (75.0), maa://41690 (100.0)</t>
+          <t>maa://23020 (95.89), maa://29023 (100.0), maa://34319 (100.0), *maa://39515 (75.0), maa://41690 (100.0)</t>
         </is>
       </c>
       <c r="E129" s="3" t="inlineStr">
@@ -4581,7 +4581,7 @@
       </c>
       <c r="D139" s="12" t="inlineStr">
         <is>
-          <t>maa://30670 (95.65), maa://31470 (94.44), ***maa://30867 (25.0)</t>
+          <t>maa://30670 (95.74), maa://31470 (94.44), ***maa://30867 (25.0)</t>
         </is>
       </c>
       <c r="E139" s="3" t="inlineStr">
@@ -4738,12 +4738,12 @@
       </c>
       <c r="C145" s="11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D145" s="12" t="inlineStr">
         <is>
-          <t>maa://36641 (98.21), maa://36865 (95.37), maa://37300 (100.0)</t>
+          <t>maa://36641 (98.23), maa://36865 (95.41), maa://37300 (100.0), maa://42918 (100.0)</t>
         </is>
       </c>
       <c r="E145" s="3" t="inlineStr">
@@ -5175,7 +5175,7 @@
       </c>
       <c r="D161" s="12" t="inlineStr">
         <is>
-          <t>maa://29627 (92.68), maa://29633 (92.23), maa://29659 (82.14), maa://29861 (100.0)</t>
+          <t>maa://29633 (92.35), maa://29627 (92.77), maa://29659 (82.14), maa://29861 (100.0)</t>
         </is>
       </c>
       <c r="E161" s="3" t="inlineStr">
@@ -5310,7 +5310,7 @@
       </c>
       <c r="D166" s="12" t="inlineStr">
         <is>
-          <t>maa://32418 (99.72)</t>
+          <t>maa://32418 (99.45)</t>
         </is>
       </c>
       <c r="E166" s="3" t="inlineStr">
@@ -5337,7 +5337,7 @@
       </c>
       <c r="D167" s="12" t="inlineStr">
         <is>
-          <t>*maa://37690 (80.0)</t>
+          <t>maa://37690 (83.33)</t>
         </is>
       </c>
       <c r="E167" s="3" t="inlineStr">
@@ -5418,7 +5418,7 @@
       </c>
       <c r="D170" s="12" t="inlineStr">
         <is>
-          <t>maa://20911 (91.67), *maa://29012 (66.67)</t>
+          <t>maa://20911 (92.31), *maa://29012 (66.67)</t>
         </is>
       </c>
       <c r="E170" s="3" t="inlineStr">
@@ -5742,7 +5742,7 @@
       </c>
       <c r="D182" s="12" t="inlineStr">
         <is>
-          <t>maa://20895 (100.0), maa://34883 (100.0)</t>
+          <t>maa://20895 (100.0), maa://34883 (87.5)</t>
         </is>
       </c>
       <c r="E182" s="3" t="inlineStr">
@@ -5904,7 +5904,7 @@
       </c>
       <c r="D188" s="12" t="inlineStr">
         <is>
-          <t>maa://25760 (83.08), *maa://35854 (69.23), **maa://20872 (50.0)</t>
+          <t>maa://25760 (83.08), *maa://35854 (71.43), **maa://20872 (50.0)</t>
         </is>
       </c>
       <c r="E188" s="3" t="inlineStr">
@@ -6012,7 +6012,7 @@
       </c>
       <c r="D192" s="12" t="inlineStr">
         <is>
-          <t>maa://42223 (100.0), maa://42292 (100.0), maa://42402 (100.0)</t>
+          <t>maa://42223 (98.65), maa://42292 (90.91), maa://42402 (100.0)</t>
         </is>
       </c>
       <c r="E192" s="3" t="inlineStr">
@@ -6255,7 +6255,7 @@
       </c>
       <c r="D201" s="12" t="inlineStr">
         <is>
-          <t>maa://20956 (95.33), *maa://20830 (77.78)</t>
+          <t>maa://20956 (95.36), *maa://20830 (77.78)</t>
         </is>
       </c>
       <c r="E201" s="3" t="inlineStr">
@@ -6309,7 +6309,7 @@
       </c>
       <c r="D203" s="12" t="inlineStr">
         <is>
-          <t>maa://39238 (98.9)</t>
+          <t>maa://39238 (98.95)</t>
         </is>
       </c>
       <c r="E203" s="3" t="inlineStr">
@@ -6984,7 +6984,7 @@
       </c>
       <c r="D228" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (75.96), maa://30666 (83.25), *maa://26836 (75.54), **maa://30739 (45.71), maa://37607 (91.85), *maa://34428 (66.2), *maa://30723 (51.92), maa://39588 (83.87), *maa://37850 (66.67)</t>
+          <t>*maa://30667 (75.72), maa://30666 (83.25), *maa://26836 (75.54), **maa://30739 (45.71), maa://37607 (92.41), *maa://34428 (65.75), *maa://30723 (50.94), maa://39588 (83.87), *maa://37850 (66.67)</t>
         </is>
       </c>
       <c r="E228" s="3" t="inlineStr">
@@ -7092,7 +7092,7 @@
       </c>
       <c r="D232" s="12" t="inlineStr">
         <is>
-          <t>maa://20867 (92.86), *maa://32202 (80.0), *maa://38485 (80.0)</t>
+          <t>maa://20867 (92.86), *maa://32202 (80.0), maa://38485 (83.33)</t>
         </is>
       </c>
       <c r="E232" s="3" t="inlineStr">
@@ -7200,7 +7200,7 @@
       </c>
       <c r="D236" s="12" t="inlineStr">
         <is>
-          <t>maa://28923 (91.61), maa://28906 (97.14), ***maa://28825 (12.0)</t>
+          <t>maa://28923 (91.61), maa://28906 (97.22), ***maa://28825 (12.0)</t>
         </is>
       </c>
       <c r="E236" s="3" t="inlineStr">
@@ -7227,7 +7227,7 @@
       </c>
       <c r="D237" s="14" t="inlineStr">
         <is>
-          <t>maa://42287 (90.0), maa://42225 (100.0)</t>
+          <t>maa://42287 (91.67), maa://42225 (100.0)</t>
         </is>
       </c>
       <c r="E237" s="3" t="inlineStr">
@@ -7308,7 +7308,7 @@
       </c>
       <c r="D240" s="12" t="inlineStr">
         <is>
-          <t>maa://24093 (100.0), maa://31559 (94.44), maa://20924 (94.74)</t>
+          <t>maa://24093 (100.0), maa://31559 (94.44), maa://20924 (95.0)</t>
         </is>
       </c>
       <c r="E240" s="3" t="inlineStr">
@@ -7416,7 +7416,7 @@
       </c>
       <c r="D244" s="12" t="inlineStr">
         <is>
-          <t>maa://20879 (84.21), maa://20834 (100.0)</t>
+          <t>maa://20879 (84.62), maa://20834 (100.0)</t>
         </is>
       </c>
       <c r="E244" s="3" t="inlineStr">
@@ -7686,7 +7686,7 @@
       </c>
       <c r="D254" s="12" t="inlineStr">
         <is>
-          <t>*maa://20825 (66.67), *maa://21445 (76.92), ***maa://20891 (30.0), *maa://35726 (62.5)</t>
+          <t>*maa://20825 (66.67), *maa://21445 (76.92), ***maa://20891 (30.0), *maa://35726 (55.56)</t>
         </is>
       </c>
       <c r="E254" s="3" t="inlineStr">
@@ -7713,7 +7713,7 @@
       </c>
       <c r="D255" s="12" t="inlineStr">
         <is>
-          <t>maa://25769 (96.33)</t>
+          <t>maa://25769 (96.36)</t>
         </is>
       </c>
       <c r="E255" s="3" t="inlineStr">
@@ -8064,7 +8064,7 @@
       </c>
       <c r="D268" s="12" t="inlineStr">
         <is>
-          <t>maa://38296 (88.89)</t>
+          <t>*maa://38296 (80.0)</t>
         </is>
       </c>
       <c r="E268" s="3" t="inlineStr">
@@ -8145,7 +8145,7 @@
       </c>
       <c r="D271" s="12" t="inlineStr">
         <is>
-          <t>maa://30710 (96.88), maa://36845 (94.38), maa://31558 (96.3), **maa://39217 (41.67), maa://30668 (83.33)</t>
+          <t>maa://30710 (96.97), maa://36845 (94.38), maa://31558 (96.3), **maa://39217 (41.67), maa://30668 (83.33)</t>
         </is>
       </c>
       <c r="E271" s="3" t="inlineStr">
@@ -8307,7 +8307,7 @@
       </c>
       <c r="D277" s="12" t="inlineStr">
         <is>
-          <t>maa://36642 (100.0), maa://36867 (100.0), maa://39155 (95.0)</t>
+          <t>maa://36642 (100.0), maa://36867 (96.43), maa://39155 (95.0)</t>
         </is>
       </c>
       <c r="E277" s="3" t="inlineStr">
@@ -8577,7 +8577,7 @@
       </c>
       <c r="D287" s="12" t="inlineStr">
         <is>
-          <t>maa://35859 (96.3)</t>
+          <t>maa://35859 (96.36)</t>
         </is>
       </c>
       <c r="E287" s="3" t="inlineStr">
@@ -8724,66 +8724,66 @@
     <row r="293">
       <c r="A293" s="10" t="inlineStr">
         <is>
-          <t>苍苔</t>
+          <t>凛视</t>
         </is>
       </c>
       <c r="B293" s="10" t="inlineStr">
         <is>
-          <t>9-3</t>
+          <t>7-13</t>
         </is>
       </c>
       <c r="C293" s="11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D293" s="12" t="inlineStr">
         <is>
-          <t>maa://28070 (100.0)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E293" s="3" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战苍苔并上场，且每次战斗至少释放1次土石的恒心&gt; 3星通关主题曲9-3标准实战环境；必须编入非助战苍苔并上场，且所有干员不被击倒</t>
+          <t>&gt; 由非助战凛视累计造成30次凋亡爆发&gt; 3星通关主题曲7-13；必须编入非助战凛视并上场，且凛视造成至少1次凋亡爆发</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="10" t="inlineStr">
         <is>
-          <t>青枳</t>
+          <t>苍苔</t>
         </is>
       </c>
       <c r="B294" s="10" t="inlineStr">
         <is>
-          <t>OF-5</t>
+          <t>9-3</t>
         </is>
       </c>
       <c r="C294" s="11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D294" s="12" t="inlineStr">
         <is>
-          <t>maa://31559 (94.44), maa://28241 (100.0)</t>
+          <t>maa://28070 (100.0)</t>
         </is>
       </c>
       <c r="E294" s="3" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战青枳，并确定第一位部署的干员是青枳&gt; 3星通关别传OF-5；必须编入非助战青枳并上场，且不编入其他先锋干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战苍苔并上场，且每次战斗至少释放1次土石的恒心&gt; 3星通关主题曲9-3标准实战环境；必须编入非助战苍苔并上场，且所有干员不被击倒</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="10" t="inlineStr">
         <is>
-          <t>琳琅诗怀雅</t>
+          <t>青枳</t>
         </is>
       </c>
       <c r="B295" s="10" t="inlineStr">
         <is>
-          <t>5-2</t>
+          <t>OF-5</t>
         </is>
       </c>
       <c r="C295" s="11" t="inlineStr">
@@ -8793,12 +8793,12 @@
       </c>
       <c r="D295" s="12" t="inlineStr">
         <is>
-          <t>maa://25773 (100.0), *maa://26088 (66.67)</t>
+          <t>maa://31559 (94.44), maa://28241 (100.0)</t>
         </is>
       </c>
       <c r="E295" s="3" t="inlineStr">
         <is>
-          <t>&gt; 由非助战琳琅诗怀雅累计造成60000点伤害※香槟炸弹造成的伤害也会参与计数&gt; 3星通关主题曲5-2；必须编入非助战琳琅诗怀雅并上场，且使用琳琅诗怀雅至少歼灭15个敌人</t>
+          <t>&gt; 完成5次战斗；必须编入非助战青枳，并确定第一位部署的干员是青枳&gt; 3星通关别传OF-5；必须编入非助战青枳并上场，且不编入其他先锋干员</t>
         </is>
       </c>
     </row>
@@ -8810,88 +8810,88 @@
       </c>
       <c r="B296" s="10" t="inlineStr">
         <is>
-          <t>11-16</t>
+          <t>5-2</t>
         </is>
       </c>
       <c r="C296" s="11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D296" s="12" t="inlineStr">
         <is>
-          <t>maa://39239 (100.0)</t>
+          <t>maa://25773 (100.0), *maa://26088 (66.67)</t>
         </is>
       </c>
       <c r="E296" s="3" t="inlineStr">
         <is>
-          <t>&gt; 由非助战琳琅诗怀雅累计造成40歼灭数&gt; 3星通关主题曲11-16标准实战环境；必须编入非助战琳琅诗怀雅并上场，其他成员仅可编入4名干员</t>
+          <t>&gt; 由非助战琳琅诗怀雅累计造成60000点伤害※香槟炸弹造成的伤害也会参与计数&gt; 3星通关主题曲5-2；必须编入非助战琳琅诗怀雅并上场，且使用琳琅诗怀雅至少歼灭15个敌人</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="10" t="inlineStr">
         <is>
-          <t>纯烬艾雅法拉</t>
+          <t>琳琅诗怀雅</t>
         </is>
       </c>
       <c r="B297" s="10" t="inlineStr">
         <is>
-          <t>FC-5</t>
+          <t>11-16</t>
         </is>
       </c>
       <c r="C297" s="11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D297" s="12" t="inlineStr">
         <is>
-          <t>maa://39692 (99.47), *maa://39810 (80.0)</t>
+          <t>maa://39239 (100.0)</t>
         </is>
       </c>
       <c r="E297" s="3" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战纯烬艾雅法拉并上场，且每次战斗至少释放1次火山回响&gt; 3星通关别传FC-5；必须编入非助战纯烬艾雅法拉并上场，且不编入其他医疗干员</t>
+          <t>&gt; 由非助战琳琅诗怀雅累计造成40歼灭数&gt; 3星通关主题曲11-16标准实战环境；必须编入非助战琳琅诗怀雅并上场，其他成员仅可编入4名干员</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="10" t="inlineStr">
         <is>
-          <t>冰酿</t>
+          <t>纯烬艾雅法拉</t>
         </is>
       </c>
       <c r="B298" s="10" t="inlineStr">
         <is>
-          <t>S3-3</t>
+          <t>FC-5</t>
         </is>
       </c>
       <c r="C298" s="11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D298" s="12" t="inlineStr">
         <is>
-          <t>*maa://39174 (66.67)</t>
+          <t>maa://39692 (99.49), *maa://39810 (80.0)</t>
         </is>
       </c>
       <c r="E298" s="3" t="inlineStr">
         <is>
-          <t>&gt; 由非助战冰酿累计造成80000伤害&gt; 3星通关主题曲S3-3；必须编入非助战冰酿并上场，且使用冰酿至少歼灭8个敌人</t>
+          <t>&gt; 完成5次战斗；必须编入非助战纯烬艾雅法拉并上场，且每次战斗至少释放1次火山回响&gt; 3星通关别传FC-5；必须编入非助战纯烬艾雅法拉并上场，且不编入其他医疗干员</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="10" t="inlineStr">
         <is>
-          <t>杏仁</t>
+          <t>冰酿</t>
         </is>
       </c>
       <c r="B299" s="10" t="inlineStr">
         <is>
-          <t>BI-2</t>
+          <t>S3-3</t>
         </is>
       </c>
       <c r="C299" s="11" t="inlineStr">
@@ -8901,78 +8901,78 @@
       </c>
       <c r="D299" s="12" t="inlineStr">
         <is>
-          <t>maa://39175 (100.0)</t>
+          <t>*maa://39174 (66.67)</t>
         </is>
       </c>
       <c r="E299" s="3" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战杏仁累计使用强力牵引10次&gt; 3星通关别传BI-2；必须编入非助战杏仁并上场，且至少使用2次强力牵引</t>
+          <t>&gt; 由非助战冰酿累计造成80000伤害&gt; 3星通关主题曲S3-3；必须编入非助战冰酿并上场，且使用冰酿至少歼灭8个敌人</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="10" t="inlineStr">
         <is>
-          <t>涤火杰西卡</t>
+          <t>杏仁</t>
         </is>
       </c>
       <c r="B300" s="10" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>BI-2</t>
         </is>
       </c>
       <c r="C300" s="11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D300" s="12" t="inlineStr">
         <is>
-          <t>maa://34867 (100.0), maa://34715 (100.0)</t>
+          <t>maa://39175 (100.0)</t>
         </is>
       </c>
       <c r="E300" s="3" t="inlineStr">
         <is>
-          <t>&gt; 由非助战涤火杰西卡累计造成30歼灭数&gt; 3星通关主题曲3-8；必须编入非助战涤火杰西卡并上场，且使用涤火杰西卡歼灭碎骨</t>
+          <t>&gt; 战斗中非助战杏仁累计使用强力牵引10次&gt; 3星通关别传BI-2；必须编入非助战杏仁并上场，且至少使用2次强力牵引</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="10" t="inlineStr">
         <is>
-          <t>维荻</t>
+          <t>涤火杰西卡</t>
         </is>
       </c>
       <c r="B301" s="10" t="inlineStr">
         <is>
-          <t>9-3</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C301" s="11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D301" s="12" t="inlineStr">
         <is>
-          <t>maa://39176 (100.0)</t>
+          <t>maa://34867 (100.0), maa://34715 (100.0)</t>
         </is>
       </c>
       <c r="E301" s="3" t="inlineStr">
         <is>
-          <t>&gt; 由非助战维荻累计造成60000点伤害&gt; 3星通关主题曲9-3标准实战环境；必须编入非助战维荻并上场，且至少使用2次双刃毒藤</t>
+          <t>&gt; 由非助战涤火杰西卡累计造成30歼灭数&gt; 3星通关主题曲3-8；必须编入非助战涤火杰西卡并上场，且使用涤火杰西卡歼灭碎骨</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="10" t="inlineStr">
         <is>
-          <t>戴菲恩</t>
+          <t>维荻</t>
         </is>
       </c>
       <c r="B302" s="10" t="inlineStr">
         <is>
-          <t>WD-6</t>
+          <t>9-3</t>
         </is>
       </c>
       <c r="C302" s="11" t="inlineStr">
@@ -8982,24 +8982,24 @@
       </c>
       <c r="D302" s="12" t="inlineStr">
         <is>
-          <t>maa://42316 (100.0)</t>
+          <t>maa://39176 (100.0)</t>
         </is>
       </c>
       <c r="E302" s="3" t="inlineStr">
         <is>
-          <t>&gt; 由非助战戴菲恩累计造成30歼灭数&gt; 3星通关插曲WD-6；必须携带且部署非助战戴菲恩，且至少使用2次抢攻</t>
+          <t>&gt; 由非助战维荻累计造成60000点伤害&gt; 3星通关主题曲9-3标准实战环境；必须编入非助战维荻并上场，且至少使用2次双刃毒藤</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="10" t="inlineStr">
         <is>
-          <t>刺玫</t>
+          <t>戴菲恩</t>
         </is>
       </c>
       <c r="B303" s="10" t="inlineStr">
         <is>
-          <t>IC-2</t>
+          <t>WD-6</t>
         </is>
       </c>
       <c r="C303" s="11" t="inlineStr">
@@ -9009,24 +9009,24 @@
       </c>
       <c r="D303" s="12" t="inlineStr">
         <is>
-          <t>maa://30680 (100.0)</t>
+          <t>maa://42316 (100.0)</t>
         </is>
       </c>
       <c r="E303" s="3" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战刺玫累计使用荆藤庇荫10次&gt; 3星通关别传IC-2；必须编入非助战刺玫并上场，且不编入其他医疗干员</t>
+          <t>&gt; 由非助战戴菲恩累计造成30歼灭数&gt; 3星通关插曲WD-6；必须携带且部署非助战戴菲恩，且至少使用2次抢攻</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="10" t="inlineStr">
         <is>
-          <t>赫德雷</t>
+          <t>刺玫</t>
         </is>
       </c>
       <c r="B304" s="10" t="inlineStr">
         <is>
-          <t>IW-7</t>
+          <t>IC-2</t>
         </is>
       </c>
       <c r="C304" s="11" t="inlineStr">
@@ -9036,24 +9036,24 @@
       </c>
       <c r="D304" s="12" t="inlineStr">
         <is>
-          <t>maa://40956 (100.0)</t>
+          <t>maa://30680 (100.0)</t>
         </is>
       </c>
       <c r="E304" s="3" t="inlineStr">
         <is>
-          <t>&gt; 由非助战赫德雷累计歼灭5个精英或领袖敌人&gt; 3星通关别传IW-7；必须编入非助战赫德雷并上场，并使用赫德雷至少击败2名沉沙</t>
+          <t>&gt; 战斗中非助战刺玫累计使用荆藤庇荫10次&gt; 3星通关别传IC-2；必须编入非助战刺玫并上场，且不编入其他医疗干员</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="10" t="inlineStr">
         <is>
-          <t>深律</t>
+          <t>赫德雷</t>
         </is>
       </c>
       <c r="B305" s="10" t="inlineStr">
         <is>
-          <t>LE-4</t>
+          <t>IW-7</t>
         </is>
       </c>
       <c r="C305" s="11" t="inlineStr">
@@ -9063,24 +9063,24 @@
       </c>
       <c r="D305" s="12" t="inlineStr">
         <is>
-          <t>**maa://39178 (50.0)</t>
+          <t>maa://40956 (100.0)</t>
         </is>
       </c>
       <c r="E305" s="3" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战深律并上场，且每次战斗至少释放1次沉音宁神&gt; 3星通关别传LE-4；必须编入非助战深律并上场，且所有干员不被击倒</t>
+          <t>&gt; 由非助战赫德雷累计歼灭5个精英或领袖敌人&gt; 3星通关别传IW-7；必须编入非助战赫德雷并上场，并使用赫德雷至少击败2名沉沙</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="10" t="inlineStr">
         <is>
-          <t>止颂</t>
+          <t>深律</t>
         </is>
       </c>
       <c r="B306" s="10" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>LE-4</t>
         </is>
       </c>
       <c r="C306" s="11" t="inlineStr">
@@ -9090,24 +9090,24 @@
       </c>
       <c r="D306" s="12" t="inlineStr">
         <is>
-          <t>maa://34205 (83.33)</t>
+          <t>**maa://39178 (50.0)</t>
         </is>
       </c>
       <c r="E306" s="3" t="inlineStr">
         <is>
-          <t>&gt; 由非助战止颂累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲7-11；必须编入非助战止颂并上场，且使用止颂歼灭至少2名雇佣军萨卡兹战士</t>
+          <t>&gt; 完成5次战斗；必须编入非助战深律并上场，且每次战斗至少释放1次沉音宁神&gt; 3星通关别传LE-4；必须编入非助战深律并上场，且所有干员不被击倒</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="10" t="inlineStr">
         <is>
-          <t>哈洛德</t>
+          <t>止颂</t>
         </is>
       </c>
       <c r="B307" s="10" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="C307" s="11" t="inlineStr">
@@ -9117,78 +9117,78 @@
       </c>
       <c r="D307" s="12" t="inlineStr">
         <is>
-          <t>*maa://40162 (66.67)</t>
+          <t>maa://34205 (83.33)</t>
         </is>
       </c>
       <c r="E307" s="3" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战哈洛德累计使用重症优先8次&gt; 3星通关主题曲9-13标准实战环境；必须编入非助战哈洛德并上场，且所有干员不被击倒</t>
+          <t>&gt; 由非助战止颂累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲7-11；必须编入非助战止颂并上场，且使用止颂歼灭至少2名雇佣军萨卡兹战士</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="10" t="inlineStr">
         <is>
-          <t>烈夏</t>
+          <t>止颂</t>
         </is>
       </c>
       <c r="B308" s="10" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>TW-5</t>
         </is>
       </c>
       <c r="C308" s="11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D308" s="12" t="inlineStr">
         <is>
-          <t>maa://37692 (100.0)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E308" s="3" t="inlineStr">
         <is>
-          <t>&gt; 由非助战烈夏累计造成30歼灭数&gt; 3星通关主题曲4-3；必须编入非助战烈夏并上场，且不编入其他近卫干员</t>
+          <t>&gt; 由非助战止颂累计造成120000点伤害&gt; 3星通关别传TW-5；必须编入非助战止颂并上场，且使用止颂击败至少6名敌人</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="10" t="inlineStr">
         <is>
-          <t>锏</t>
+          <t>塑心</t>
         </is>
       </c>
       <c r="B309" s="10" t="inlineStr">
         <is>
-          <t>BI-6</t>
+          <t>GA-7</t>
         </is>
       </c>
       <c r="C309" s="11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D309" s="12" t="inlineStr">
         <is>
-          <t>maa://30671 (81.02), maa://30669 (98.39), maa://37275 (82.35), *maa://32410 (63.64), maa://41605 (100.0), maa://33671 (100.0)</t>
+          <t>maa://42968 (95.24)</t>
         </is>
       </c>
       <c r="E309" s="3" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战锏并上场，且每次战斗至少释放1次归于宁静&gt; 3星通关别传BI-6；必须编入非助战锏并上场，且使用锏至少歼灭10个敌人</t>
+          <t>&gt; 由非助战塑心累计造成75000点凋亡损伤&gt; 3星通关别传GA-7；必须编入非助战塑心并上场，且塑心造成至少15000点凋亡损伤</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="10" t="inlineStr">
         <is>
-          <t>莱伊</t>
+          <t>哈洛德</t>
         </is>
       </c>
       <c r="B310" s="10" t="inlineStr">
         <is>
-          <t>S9-1</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C310" s="11" t="inlineStr">
@@ -9198,24 +9198,24 @@
       </c>
       <c r="D310" s="12" t="inlineStr">
         <is>
-          <t>maa://38295 (95.45)</t>
+          <t>*maa://40162 (66.67)</t>
         </is>
       </c>
       <c r="E310" s="3" t="inlineStr">
         <is>
-          <t>&gt; 由非助战莱伊累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲S9-1标准实战环境；必须编入非助战莱伊并上场，且使用莱伊使用至少2次“得见光芒”</t>
+          <t>&gt; 战斗中非助战哈洛德累计使用重症优先8次&gt; 3星通关主题曲9-13标准实战环境；必须编入非助战哈洛德并上场，且所有干员不被击倒</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="10" t="inlineStr">
         <is>
-          <t>万顷</t>
+          <t>烈夏</t>
         </is>
       </c>
       <c r="B311" s="10" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C311" s="11" t="inlineStr">
@@ -9225,51 +9225,51 @@
       </c>
       <c r="D311" s="12" t="inlineStr">
         <is>
-          <t>maa://32417 (100.0)</t>
+          <t>maa://37692 (100.0)</t>
         </is>
       </c>
       <c r="E311" s="3" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战万顷累计使用支援号令·γ型10次&gt; 3星通关主题曲9-13标准实战环境；必须编入非助战万顷并上场，且至少使用2次应东风</t>
+          <t>&gt; 由非助战烈夏累计造成30歼灭数&gt; 3星通关主题曲4-3；必须编入非助战烈夏并上场，且不编入其他近卫干员</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="10" t="inlineStr">
         <is>
-          <t>小满</t>
+          <t>锏</t>
         </is>
       </c>
       <c r="B312" s="10" t="inlineStr">
         <is>
-          <t>9-11</t>
+          <t>BI-6</t>
         </is>
       </c>
       <c r="C312" s="11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D312" s="12" t="inlineStr">
         <is>
-          <t>maa://32419 (100.0)</t>
+          <t>maa://30671 (81.02), maa://30669 (98.44), maa://37275 (82.35), *maa://32410 (63.64), maa://41605 (100.0), maa://33671 (100.0)</t>
         </is>
       </c>
       <c r="E312" s="3" t="inlineStr">
         <is>
-          <t>&gt; 由非助战小满累计造成60000点伤害&gt; 3星通关主题曲9-11标准实战环境；必须编入非助战小满并上场，且至少使用2次乡音沉沉</t>
+          <t>&gt; 完成5次战斗；必须编入非助战锏并上场，且每次战斗至少释放1次归于宁静&gt; 3星通关别传BI-6；必须编入非助战锏并上场，且使用锏至少歼灭10个敌人</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="10" t="inlineStr">
         <is>
-          <t>左乐</t>
+          <t>莱伊</t>
         </is>
       </c>
       <c r="B313" s="10" t="inlineStr">
         <is>
-          <t>WB-5</t>
+          <t>S9-1</t>
         </is>
       </c>
       <c r="C313" s="11" t="inlineStr">
@@ -9279,51 +9279,51 @@
       </c>
       <c r="D313" s="12" t="inlineStr">
         <is>
-          <t>maa://32416 (85.71)</t>
+          <t>maa://38295 (95.56)</t>
         </is>
       </c>
       <c r="E313" s="3" t="inlineStr">
         <is>
-          <t>&gt; 由非助战左乐累计造成40歼灭数&gt; 3星通关别传WB-5；必须编入非助战左乐并上场，且使用左乐至少歼灭8个敌人</t>
+          <t>&gt; 由非助战莱伊累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲S9-1标准实战环境；必须编入非助战莱伊并上场，且使用莱伊使用至少2次“得见光芒”</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="10" t="inlineStr">
         <is>
-          <t>黍</t>
+          <t>万顷</t>
         </is>
       </c>
       <c r="B314" s="10" t="inlineStr">
         <is>
-          <t>11-11</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C314" s="11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D314" s="12" t="inlineStr">
         <is>
-          <t>maa://32647 (96.99), maa://32415 (96.33), maa://34677 (100.0), maa://32892 (100.0)</t>
+          <t>maa://32417 (100.0)</t>
         </is>
       </c>
       <c r="E314" s="3" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战黍并上场，且每次战斗至少释放1次离离枯荣&gt; 3星通关主题曲11-11标准实战环境；必须编入非助战黍并上场，且所有干员不被击倒</t>
+          <t>&gt; 战斗中非助战万顷累计使用支援号令·γ型10次&gt; 3星通关主题曲9-13标准实战环境；必须编入非助战万顷并上场，且至少使用2次应东风</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="10" t="inlineStr">
         <is>
-          <t>红隼</t>
+          <t>小满</t>
         </is>
       </c>
       <c r="B315" s="10" t="inlineStr">
         <is>
-          <t>11-18</t>
+          <t>9-11</t>
         </is>
       </c>
       <c r="C315" s="11" t="inlineStr">
@@ -9333,24 +9333,24 @@
       </c>
       <c r="D315" s="12" t="inlineStr">
         <is>
-          <t>maa://32420 (100.0)</t>
+          <t>maa://32419 (100.0)</t>
         </is>
       </c>
       <c r="E315" s="3" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战红隼并上场，且每次战斗至少释放2次醉刃乱舞&gt; 3星通关主题曲11-18标准实战环境；必须编入非助战红隼，且第一位部署红隼、红隼全程不撤退或被击倒</t>
+          <t>&gt; 由非助战小满累计造成60000点伤害&gt; 3星通关主题曲9-11标准实战环境；必须编入非助战小满并上场，且至少使用2次乡音沉沉</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="10" t="inlineStr">
         <is>
-          <t>导火索</t>
+          <t>左乐</t>
         </is>
       </c>
       <c r="B316" s="10" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>WB-5</t>
         </is>
       </c>
       <c r="C316" s="11" t="inlineStr">
@@ -9360,51 +9360,51 @@
       </c>
       <c r="D316" s="12" t="inlineStr">
         <is>
-          <t>maa://35606 (100.0)</t>
+          <t>maa://32416 (85.71)</t>
         </is>
       </c>
       <c r="E316" s="3" t="inlineStr">
         <is>
-          <t>&gt; 由非助战导火索累计造成80000点伤害&gt; 3星通关主题曲3-1；必须编入非助战导火索并上场，且使用导火索至少歼灭30个敌人</t>
+          <t>&gt; 由非助战左乐累计造成40歼灭数&gt; 3星通关别传WB-5；必须编入非助战左乐并上场，且使用左乐至少歼灭8个敌人</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="10" t="inlineStr">
         <is>
-          <t>双月</t>
+          <t>黍</t>
         </is>
       </c>
       <c r="B317" s="10" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>11-11</t>
         </is>
       </c>
       <c r="C317" s="11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D317" s="12" t="inlineStr">
         <is>
-          <t>maa://34716 (85.71)</t>
+          <t>maa://32647 (97.04), maa://32415 (96.36), maa://34677 (100.0), maa://32892 (100.0)</t>
         </is>
       </c>
       <c r="E317" s="3" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战双月累计使用全知者的战术10次&gt; 3星通关主题曲3-7；必须编入非助战双月并上场，且至少使用2次全知者的战术</t>
+          <t>&gt; 完成5次战斗；必须编入非助战黍并上场，且每次战斗至少释放1次离离枯荣&gt; 3星通关主题曲11-11标准实战环境；必须编入非助战黍并上场，且所有干员不被击倒</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="10" t="inlineStr">
         <is>
-          <t>医生</t>
+          <t>红隼</t>
         </is>
       </c>
       <c r="B318" s="10" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>11-18</t>
         </is>
       </c>
       <c r="C318" s="11" t="inlineStr">
@@ -9414,51 +9414,51 @@
       </c>
       <c r="D318" s="12" t="inlineStr">
         <is>
-          <t>maa://39179 (100.0)</t>
+          <t>maa://32420 (100.0)</t>
         </is>
       </c>
       <c r="E318" s="3" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战医生累计使用激素手枪8次&gt; 3星通关主题曲2-5；必须编入非助战医生并上场，且不编入医疗干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战红隼并上场，且每次战斗至少释放2次醉刃乱舞&gt; 3星通关主题曲11-18标准实战环境；必须编入非助战红隼，且第一位部署红隼、红隼全程不撤退或被击倒</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="10" t="inlineStr">
         <is>
-          <t>艾拉</t>
+          <t>导火索</t>
         </is>
       </c>
       <c r="B319" s="10" t="inlineStr">
         <is>
-          <t>DM-EX-1</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C319" s="11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D319" s="12" t="inlineStr">
         <is>
-          <t>maa://34865 (96.53), maa://34717 (92.86)</t>
+          <t>maa://35606 (100.0)</t>
         </is>
       </c>
       <c r="E319" s="3" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战艾拉累计部署雷鸣地雷30个&gt; 3星通关插曲DM-EX-1；必须编入非助战艾拉并上场，且使用艾拉歼灭至少2名萨卡兹穿刺手</t>
+          <t>&gt; 由非助战导火索累计造成80000点伤害&gt; 3星通关主题曲3-1；必须编入非助战导火索并上场，且使用导火索至少歼灭30个敌人</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="10" t="inlineStr">
         <is>
-          <t>露托</t>
+          <t>双月</t>
         </is>
       </c>
       <c r="B320" s="10" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C320" s="11" t="inlineStr">
@@ -9468,24 +9468,24 @@
       </c>
       <c r="D320" s="12" t="inlineStr">
         <is>
-          <t>maa://39180 (100.0)</t>
+          <t>maa://34716 (85.71)</t>
         </is>
       </c>
       <c r="E320" s="3" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战露托累计使用强磁防卫8次&gt; 3星通关主题曲3-1；必须编入非助战露托并上场，且不编入其他重装干员</t>
+          <t>&gt; 战斗中非助战双月累计使用全知者的战术10次&gt; 3星通关主题曲3-7；必须编入非助战双月并上场，且至少使用2次全知者的战术</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="10" t="inlineStr">
         <is>
-          <t>阿罗玛</t>
+          <t>医生</t>
         </is>
       </c>
       <c r="B321" s="10" t="inlineStr">
         <is>
-          <t>GT-HX-3</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C321" s="11" t="inlineStr">
@@ -9495,51 +9495,51 @@
       </c>
       <c r="D321" s="12" t="inlineStr">
         <is>
-          <t>*maa://39181 (66.67)</t>
+          <t>maa://39179 (100.0)</t>
         </is>
       </c>
       <c r="E321" s="3" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战阿罗玛并上场，且每次战斗至少释放1次小心地滑&gt; 3星通关别传GT-HX-3；必须编入非助战阿罗玛并上场，且使用阿罗玛至少歼灭20个敌人</t>
+          <t>&gt; 战斗中非助战医生累计使用激素手枪8次&gt; 3星通关主题曲2-5；必须编入非助战医生并上场，且不编入医疗干员</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="10" t="inlineStr">
         <is>
-          <t>阿斯卡纶</t>
+          <t>艾拉</t>
         </is>
       </c>
       <c r="B322" s="10" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>DM-EX-1</t>
         </is>
       </c>
       <c r="C322" s="11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D322" s="12" t="inlineStr">
         <is>
-          <t>maa://36868 (100.0), maa://35996 (94.87), **maa://39217 (41.67)</t>
+          <t>maa://34865 (96.6), maa://34717 (92.86)</t>
         </is>
       </c>
       <c r="E322" s="3" t="inlineStr">
         <is>
-          <t>&gt; 由非助战阿斯卡纶累计造成180000点伤害&gt; 3星通关主题曲11-6标准实战环境；必须编入非助战阿斯卡纶并上场，且使用阿斯卡纶至少歼灭30个敌人</t>
+          <t>&gt; 战斗中非助战艾拉累计部署雷鸣地雷30个&gt; 3星通关插曲DM-EX-1；必须编入非助战艾拉并上场，且使用艾拉歼灭至少2名萨卡兹穿刺手</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="10" t="inlineStr">
         <is>
-          <t>历阵锐枪芬</t>
+          <t>露托</t>
         </is>
       </c>
       <c r="B323" s="10" t="inlineStr">
         <is>
-          <t>4-2</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C323" s="11" t="inlineStr">
@@ -9549,46 +9549,46 @@
       </c>
       <c r="D323" s="12" t="inlineStr">
         <is>
-          <t>maa://36647 (100.0)</t>
+          <t>maa://39180 (100.0)</t>
         </is>
       </c>
       <c r="E323" s="3" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战历阵锐枪芬，并确定第一位部署的干员是历阵锐枪芬&gt; 3星通关主题曲4-2；必须编入非助战历阵锐枪芬并上场，且不编入其他先锋干员</t>
+          <t>&gt; 战斗中非助战露托累计使用强磁防卫8次&gt; 3星通关主题曲3-1；必须编入非助战露托并上场，且不编入其他重装干员</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="10" t="inlineStr">
         <is>
-          <t>魔王</t>
+          <t>阿罗玛</t>
         </is>
       </c>
       <c r="B324" s="10" t="inlineStr">
         <is>
-          <t>14-5</t>
+          <t>GT-HX-3</t>
         </is>
       </c>
       <c r="C324" s="11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D324" s="12" t="inlineStr">
         <is>
-          <t>maa://42299 (100.0), **maa://42224 (50.0)</t>
+          <t>*maa://39181 (66.67)</t>
         </is>
       </c>
       <c r="E324" s="3" t="inlineStr">
         <is>
-          <t>&gt; 携带非助战魔王完成5次战斗，且每次战斗至少发动一次“编织重构现世”&gt; 3星通关主题曲14-5标准实战环境；必须编入非助战魔王并上场，其他成员仅可编入近战位干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战阿罗玛并上场，且每次战斗至少释放1次小心地滑&gt; 3星通关别传GT-HX-3；必须编入非助战阿罗玛并上场，且使用阿罗玛至少歼灭20个敌人</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="10" t="inlineStr">
         <is>
-          <t>逻各斯</t>
+          <t>阿斯卡纶</t>
         </is>
       </c>
       <c r="B325" s="10" t="inlineStr">
@@ -9603,159 +9603,159 @@
       </c>
       <c r="D325" s="12" t="inlineStr">
         <is>
-          <t>maa://36646 (98.31), maa://36845 (94.38), **maa://39217 (41.67)</t>
+          <t>maa://36868 (100.0), maa://35996 (94.87), **maa://39217 (41.67)</t>
         </is>
       </c>
       <c r="E325" s="3" t="inlineStr">
         <is>
-          <t>&gt; 由非助战逻各斯累计造成100000点伤害&gt; 3星通关主题曲11-6标准实战环境，必须编入非助战逻各斯并上场，其他成员仅可编入4名干员</t>
+          <t>&gt; 由非助战阿斯卡纶累计造成180000点伤害&gt; 3星通关主题曲11-6标准实战环境；必须编入非助战阿斯卡纶并上场，且使用阿斯卡纶至少歼灭30个敌人</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="10" t="inlineStr">
         <is>
-          <t>维什戴尔</t>
+          <t>历阵锐枪芬</t>
         </is>
       </c>
       <c r="B326" s="10" t="inlineStr">
         <is>
-          <t>DM-5</t>
+          <t>4-2</t>
         </is>
       </c>
       <c r="C326" s="11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D326" s="12" t="inlineStr">
         <is>
-          <t>maa://36645 (98.25), maa://36841 (93.33), maa://37484 (93.18), maa://37858 (91.3)</t>
+          <t>maa://36647 (100.0)</t>
         </is>
       </c>
       <c r="E326" s="3" t="inlineStr">
         <is>
-          <t>&gt; 由非助战维什戴尔累计造成120000伤害&gt; 3星通关插曲DM-5；必须编入非助战维什戴尔并上场，且使用维什戴尔至少歼灭20个敌人</t>
+          <t>&gt; 完成5次战斗；必须编入非助战历阵锐枪芬，并确定第一位部署的干员是历阵锐枪芬&gt; 3星通关主题曲4-2；必须编入非助战历阵锐枪芬并上场，且不编入其他先锋干员</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="10" t="inlineStr">
         <is>
-          <t>阿米娅(医疗)</t>
+          <t>魔王</t>
         </is>
       </c>
       <c r="B327" s="10" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>14-5</t>
         </is>
       </c>
       <c r="C327" s="11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D327" s="12" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://42299 (100.0), **maa://42224 (50.0)</t>
         </is>
       </c>
       <c r="E327" s="3" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战医疗职业的阿米娅累计使用慈悲愿景5次&gt; 3星通关主题曲3-8；必须编入非助战医疗职业的阿米娅并上场，且不编入其他医疗干员</t>
+          <t>&gt; 携带非助战魔王完成5次战斗，且每次战斗至少发动一次“编织重构现世”&gt; 3星通关主题曲14-5标准实战环境；必须编入非助战魔王并上场，其他成员仅可编入近战位干员</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="10" t="inlineStr">
         <is>
-          <t>深巡</t>
+          <t>逻各斯</t>
         </is>
       </c>
       <c r="B328" s="10" t="inlineStr">
         <is>
-          <t>SN-5</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C328" s="11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D328" s="12" t="inlineStr">
         <is>
-          <t>maa://39183 (100.0)</t>
+          <t>maa://36646 (98.32), maa://36845 (94.38), **maa://39217 (41.67)</t>
         </is>
       </c>
       <c r="E328" s="3" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战深巡累计使用行动能力剥夺8次&gt; 3星通关插曲SN-5，必须编入非助战深巡并上场，其他成员仅可编入4名干员</t>
+          <t>&gt; 由非助战逻各斯累计造成100000点伤害&gt; 3星通关主题曲11-6标准实战环境，必须编入非助战逻各斯并上场，其他成员仅可编入4名干员</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="10" t="inlineStr">
         <is>
-          <t>海霓</t>
+          <t>维什戴尔</t>
         </is>
       </c>
       <c r="B329" s="10" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>DM-5</t>
         </is>
       </c>
       <c r="C329" s="11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D329" s="12" t="inlineStr">
         <is>
-          <t>maa://39184 (100.0)</t>
+          <t>maa://36645 (98.27), maa://36841 (93.33), maa://37484 (93.18), maa://37858 (91.3)</t>
         </is>
       </c>
       <c r="E329" s="3" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战海霓累计使用阻滞性显色剂8次&gt; 3星通关插曲SV-4；必须编入非助战海霓并上场，且不编入其他辅助干员</t>
+          <t>&gt; 由非助战维什戴尔累计造成120000伤害&gt; 3星通关插曲DM-5；必须编入非助战维什戴尔并上场，且使用维什戴尔至少歼灭20个敌人</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="10" t="inlineStr">
         <is>
-          <t>乌尔比安</t>
+          <t>阿米娅(医疗)</t>
         </is>
       </c>
       <c r="B330" s="10" t="inlineStr">
         <is>
-          <t>SV-6</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C330" s="11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D330" s="12" t="inlineStr">
         <is>
-          <t>maa://40957 (80.65), *maa://41128 (76.47), maa://41035 (84.62)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E330" s="3" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战乌尔比安累计使用必须开辟的通路10次&gt; 3星通关插曲SV-6；必须编入非助战乌尔比安并上场，并使用乌尔比安至少击败2名囊海爬行者</t>
+          <t>&gt; 战斗中非助战医疗职业的阿米娅累计使用慈悲愿景5次&gt; 3星通关主题曲3-8；必须编入非助战医疗职业的阿米娅并上场，且不编入其他医疗干员</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="13" t="inlineStr">
         <is>
-          <t>渡桥</t>
+          <t>深巡</t>
         </is>
       </c>
       <c r="B331" s="13" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>SN-5</t>
         </is>
       </c>
       <c r="C331" s="13" t="inlineStr">
@@ -9765,24 +9765,24 @@
       </c>
       <c r="D331" s="14" t="inlineStr">
         <is>
-          <t>maa://40164 (100.0)</t>
+          <t>maa://39183 (100.0)</t>
         </is>
       </c>
       <c r="E331" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战渡桥累计使用承压功率8次&gt; 3星通关主题曲3-1；必须编入非助战渡桥并上场，且至少使用3次承压功率</t>
+          <t>&gt; 战斗中非助战深巡累计使用行动能力剥夺8次&gt; 3星通关插曲SN-5，必须编入非助战深巡并上场，其他成员仅可编入4名干员</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="13" t="inlineStr">
         <is>
-          <t>衡沙</t>
+          <t>海霓</t>
         </is>
       </c>
       <c r="B332" s="13" t="inlineStr">
         <is>
-          <t>DV-2</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C332" s="13" t="inlineStr">
@@ -9792,105 +9792,105 @@
       </c>
       <c r="D332" s="14" t="inlineStr">
         <is>
-          <t>maa://40165 (100.0)</t>
+          <t>maa://39184 (100.0)</t>
         </is>
       </c>
       <c r="E332" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中累计召唤非助战衡沙的召唤物20回&gt; 3星通关别传DV-2；必须编入非助战衡沙并上场，其他成员仅可编入4名干员</t>
+          <t>&gt; 战斗中非助战海霓累计使用阻滞性显色剂8次&gt; 3星通关插曲SV-4；必须编入非助战海霓并上场，且不编入其他辅助干员</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="13" t="inlineStr">
         <is>
-          <t>森西</t>
+          <t>乌尔比安</t>
         </is>
       </c>
       <c r="B333" s="13" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>SV-6</t>
         </is>
       </c>
       <c r="C333" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D333" s="14" t="inlineStr">
         <is>
-          <t>maa://42331 (100.0)</t>
+          <t>*maa://40957 (78.87), *maa://41128 (77.78), maa://41035 (81.25)</t>
         </is>
       </c>
       <c r="E333" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战森西累计使用团体魔物大餐6次&gt; 3星通关主题曲1-12；必须编入非助战森西并上场，且所有干员不被击倒</t>
+          <t>&gt; 战斗中非助战乌尔比安累计使用必须开辟的通路10次&gt; 3星通关插曲SV-6；必须编入非助战乌尔比安并上场，并使用乌尔比安至少击败2名囊海爬行者</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="13" t="inlineStr">
         <is>
-          <t>齐尔查克</t>
+          <t>渡桥</t>
         </is>
       </c>
       <c r="B334" s="13" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C334" s="13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D334" s="14" t="inlineStr">
         <is>
-          <t>maa://41977 (100.0), maa://42333 (100.0)</t>
+          <t>maa://40164 (100.0)</t>
         </is>
       </c>
       <c r="E334" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战齐尔查克累计使用随机应变6次&gt; 3星通关主题曲4-3；必须编入非助战齐尔查克并上场，其他成员不可编入先锋干员</t>
+          <t>&gt; 战斗中非助战渡桥累计使用承压功率8次&gt; 3星通关主题曲3-1；必须编入非助战渡桥并上场，且至少使用3次承压功率</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="13" t="inlineStr">
         <is>
-          <t>莱欧斯</t>
+          <t>衡沙</t>
         </is>
       </c>
       <c r="B335" s="13" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>DV-2</t>
         </is>
       </c>
       <c r="C335" s="13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D335" s="14" t="inlineStr">
         <is>
-          <t>maa://41976 (100.0), maa://42338 (100.0)</t>
+          <t>maa://40165 (100.0)</t>
         </is>
       </c>
       <c r="E335" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战莱欧斯并上场，且每次战斗至少释放1次威吓战法&gt; 3星通关主题曲2-4；必须编入非助战莱欧斯并上场，并使用莱欧斯至少击败1名高阶术师</t>
+          <t>&gt; 战斗中累计召唤非助战衡沙的召唤物20回&gt; 3星通关别传DV-2；必须编入非助战衡沙并上场，其他成员仅可编入4名干员</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="13" t="inlineStr">
         <is>
-          <t>玛露西尔</t>
+          <t>森西</t>
         </is>
       </c>
       <c r="B336" s="13" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>1-12</t>
         </is>
       </c>
       <c r="C336" s="13" t="inlineStr">
@@ -9900,39 +9900,255 @@
       </c>
       <c r="D336" s="14" t="inlineStr">
         <is>
-          <t>maa://41110 (97.14)</t>
+          <t>maa://42331 (100.0)</t>
         </is>
       </c>
       <c r="E336" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战玛露西尔累计造成100000点伤害&gt; 3星通关主题曲5-10；必须编入非助战玛露西尔并上场，且使用玛露西尔至少歼灭10名敌人</t>
+          <t>&gt; 战斗中非助战森西累计使用团体魔物大餐6次&gt; 3星通关主题曲1-12；必须编入非助战森西并上场，且所有干员不被击倒</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="13" t="inlineStr">
         <is>
+          <t>齐尔查克</t>
+        </is>
+      </c>
+      <c r="B337" s="13" t="inlineStr">
+        <is>
+          <t>4-3</t>
+        </is>
+      </c>
+      <c r="C337" s="13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D337" s="14" t="inlineStr">
+        <is>
+          <t>maa://42333 (100.0), maa://41977 (100.0)</t>
+        </is>
+      </c>
+      <c r="E337" s="14" t="inlineStr">
+        <is>
+          <t>&gt; 战斗中非助战齐尔查克累计使用随机应变6次&gt; 3星通关主题曲4-3；必须编入非助战齐尔查克并上场，其他成员不可编入先锋干员</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>莱欧斯</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>2-4</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>maa://41976 (100.0), maa://42338 (100.0)</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>&gt; 完成5次战斗；必须编入非助战莱欧斯并上场，且每次战斗至少释放1次威吓战法&gt; 3星通关主题曲2-4；必须编入非助战莱欧斯并上场，并使用莱欧斯至少击败1名高阶术师</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>玛露西尔</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>maa://41110 (97.44)</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>&gt; 由非助战玛露西尔累计造成100000点伤害&gt; 3星通关主题曲5-10；必须编入非助战玛露西尔并上场，且使用玛露西尔至少歼灭10名敌人</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
           <t>凯瑟琳</t>
         </is>
       </c>
-      <c r="B337" s="13" t="inlineStr">
+      <c r="B340" t="inlineStr">
         <is>
           <t>11-7</t>
         </is>
       </c>
-      <c r="C337" s="13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D337" s="14" t="inlineStr">
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
         <is>
           <t>maa://42343 (100.0)</t>
         </is>
       </c>
-      <c r="E337" s="14" t="inlineStr">
+      <c r="E340" t="inlineStr">
         <is>
           <t>&gt; 使用非助战凯瑟琳累计部署15个“支援装置”&gt; 3星通关主题曲11-7标准实战环境；必须编入非助战凯瑟琳并上场，且凯瑟琳使用至少2次“战火淬炼”</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>波卜</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>4-8</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>&gt; 由非助战波卜累计造成30次灼燃爆发&gt; 3星通关主题曲4-8；必须编入非助战波卜并上场，且波卜使用至少2次“此路不通”</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>裁度</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>5-8</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>&gt; 完成5次战斗；必须编入非助战裁度并部署至少2次，且使用裁度击败至少4名敌人&gt; 3星通关主题曲5-8；必须编入非助战裁度并上场，且至少束缚12次敌人</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>弑君者</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>4-4</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>maa://39153 (100.0)</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>&gt; 完成5次战斗；每次战斗至少部署3次非助战弑君者&gt; 3星通关主题曲4-4；必须编入非助战弑君者并上场，且不编入其他特种干员</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>忍冬</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>S2-3</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>&gt; 由非助战忍冬累计造成80000点伤害&gt; 3星通关主题曲S2-3；必须编入非助战忍冬并上场，且使用忍冬击败至少24名敌人</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>荒芜拉普兰德</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>IS-8</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>maa://42970 (83.33)</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>&gt; 由非助战荒芜拉普兰德累计造成150000点伤害&gt; 3星通关别传IS-8；必须编入非助战荒芜拉普兰德并上场，且荒芜拉普兰德使用至少2次逐猎狂飙或终幕·浩劫</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -513,7 +513,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.02 22:47:19</t>
+          <t>更新日期：2024.11.03 01:13:15</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="D36" s="12" t="inlineStr">
         <is>
-          <t>maa://27376 (88.0), **maa://20838 (50.0), maa://42635 (100.0)</t>
+          <t>maa://27376 (88.46), **maa://20838 (50.0), maa://42635 (100.0)</t>
         </is>
       </c>
       <c r="E36" s="3" t="inlineStr">
@@ -7147,12 +7147,12 @@
       </c>
       <c r="C234" s="13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D234" s="12" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://43089 (100.0)</t>
         </is>
       </c>
       <c r="E234" s="3" t="inlineStr">
@@ -8740,12 +8740,12 @@
       </c>
       <c r="C293" s="13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D293" s="12" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://43090 (100.0)</t>
         </is>
       </c>
       <c r="E293" s="3" t="inlineStr">
@@ -9145,12 +9145,12 @@
       </c>
       <c r="C308" s="13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D308" s="12" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://43092 (100.0), maa://43093 (100.0)</t>
         </is>
       </c>
       <c r="E308" s="3" t="inlineStr">
@@ -9177,7 +9177,7 @@
       </c>
       <c r="D309" s="12" t="inlineStr">
         <is>
-          <t>maa://42968 (96.0)</t>
+          <t>maa://42968 (96.3)</t>
         </is>
       </c>
       <c r="E309" s="3" t="inlineStr">
@@ -10036,12 +10036,12 @@
       </c>
       <c r="C341" s="13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://43095 (100.0)</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
@@ -10063,12 +10063,12 @@
       </c>
       <c r="C342" s="13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://43097 (100.0)</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
@@ -10117,12 +10117,12 @@
       </c>
       <c r="C344" s="13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://43096 (100.0)</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -55,12 +55,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -75,7 +81,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -123,6 +129,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -513,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.03 01:13:15</t>
+          <t>更新日期：2024.11.03 14:53:27</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -1671,7 +1690,7 @@
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>maa://36644 (88.43), maa://36866 (96.77), maa://27794 (100.0)</t>
+          <t>maa://36644 (88.52), maa://36866 (96.88), maa://27794 (100.0)</t>
         </is>
       </c>
       <c r="E31" s="3" t="inlineStr">
@@ -2643,7 +2662,7 @@
       </c>
       <c r="D67" s="12" t="inlineStr">
         <is>
-          <t>maa://28784 (93.86), maa://29088 (91.76), maa://20974 (93.33), maa://31124 (96.27), maa://28950 (90.91), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67), maa://41832 (81.82)</t>
+          <t>maa://28784 (93.86), maa://29088 (91.76), maa://20974 (93.33), maa://31124 (96.32), maa://28950 (90.91), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67), maa://41832 (81.82)</t>
         </is>
       </c>
       <c r="E67" s="3" t="inlineStr">
@@ -2724,7 +2743,7 @@
       </c>
       <c r="D70" s="12" t="inlineStr">
         <is>
-          <t>maa://36643 (97.36), maa://36864 (100.0), maa://39140 (100.0)</t>
+          <t>maa://36643 (97.37), maa://36864 (100.0), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E70" s="3" t="inlineStr">
@@ -3669,7 +3688,7 @@
       </c>
       <c r="D105" s="12" t="inlineStr">
         <is>
-          <t>maa://25018 (96.18), maa://25776 (90.32), maa://28361 (96.67), maa://25772 (92.31), *maa://25161 (78.57), maa://32653 (85.71)</t>
+          <t>maa://25018 (96.2), maa://25776 (90.32), maa://28361 (96.67), maa://25772 (92.31), *maa://25161 (78.57), maa://32653 (85.71)</t>
         </is>
       </c>
       <c r="E105" s="3" t="inlineStr">
@@ -3679,27 +3698,27 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="16" t="inlineStr">
+      <c r="A106" s="17" t="inlineStr">
         <is>
           <t>雪雉</t>
         </is>
       </c>
-      <c r="B106" s="16" t="inlineStr">
+      <c r="B106" s="17" t="inlineStr">
         <is>
           <t>4-6</t>
         </is>
       </c>
-      <c r="C106" s="13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D106" s="12" t="inlineStr">
+      <c r="C106" s="18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D106" s="19" t="inlineStr">
         <is>
           <t>**maa://20979 (40.0)</t>
         </is>
       </c>
-      <c r="E106" s="3" t="inlineStr">
+      <c r="E106" s="20" t="inlineStr">
         <is>
           <t>&gt; 完成5次战斗；必须编入非助战雪雉，且每次战斗至少使2名敌人坠落地穴&gt; 3星通关主题曲4-6；必须编入非助战雪雉并上场，且至少使用2次伸缩式电捕网</t>
         </is>
@@ -6018,7 +6037,7 @@
       </c>
       <c r="D192" s="12" t="inlineStr">
         <is>
-          <t>maa://42223 (98.67), maa://42292 (90.91), maa://42402 (100.0)</t>
+          <t>maa://42223 (98.68), maa://42292 (90.91), maa://42402 (100.0)</t>
         </is>
       </c>
       <c r="E192" s="3" t="inlineStr">
@@ -6325,27 +6344,27 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="16" t="inlineStr">
+      <c r="A204" s="17" t="inlineStr">
         <is>
           <t>罗比菈塔</t>
         </is>
       </c>
-      <c r="B204" s="16" t="inlineStr">
+      <c r="B204" s="17" t="inlineStr">
         <is>
           <t>3-8</t>
         </is>
       </c>
-      <c r="C204" s="13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D204" s="12" t="inlineStr">
+      <c r="C204" s="18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D204" s="19" t="inlineStr">
         <is>
           <t>**maa://24556 (33.33)</t>
         </is>
       </c>
-      <c r="E204" s="3" t="inlineStr">
+      <c r="E204" s="20" t="inlineStr">
         <is>
           <t>&gt; 战斗中非助战罗比菈塔累计部署支援装置25个&gt; 3星通关主题曲3-8；必须编入非助战罗比菈塔并上场，且所有干员不被击倒</t>
         </is>
@@ -6433,27 +6452,27 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="16" t="inlineStr">
+      <c r="A208" s="17" t="inlineStr">
         <is>
           <t>远牙</t>
         </is>
       </c>
-      <c r="B208" s="16" t="inlineStr">
+      <c r="B208" s="17" t="inlineStr">
         <is>
           <t>S2-2</t>
         </is>
       </c>
-      <c r="C208" s="13" t="inlineStr">
+      <c r="C208" s="18" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D208" s="12" t="inlineStr">
+      <c r="D208" s="19" t="inlineStr">
         <is>
           <t>**maa://20995 (44.44), **maa://26496 (33.33)</t>
         </is>
       </c>
-      <c r="E208" s="3" t="inlineStr">
+      <c r="E208" s="20" t="inlineStr">
         <is>
           <t>&gt; 由非助战远牙累计造成80歼灭数&gt; 3星通关主题曲S2-2；必须编入非助战远牙并上场，且远牙使用光羽箭至少歼灭8名敌人</t>
         </is>
@@ -6990,7 +7009,7 @@
       </c>
       <c r="D228" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (75.72), maa://30666 (83.25), *maa://26836 (75.54), **maa://30739 (45.71), maa://37607 (92.41), *maa://34428 (65.75), *maa://30723 (50.94), maa://39588 (83.87), *maa://37850 (66.67)</t>
+          <t>*maa://30667 (75.72), maa://30666 (83.25), *maa://26836 (75.54), **maa://30739 (45.71), maa://37607 (92.47), *maa://34428 (65.75), *maa://30723 (50.94), maa://39588 (84.38), *maa://37850 (66.67)</t>
         </is>
       </c>
       <c r="E228" s="3" t="inlineStr">
@@ -7324,27 +7343,27 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="16" t="inlineStr">
+      <c r="A241" s="17" t="inlineStr">
         <is>
           <t>艾丽妮</t>
         </is>
       </c>
-      <c r="B241" s="16" t="inlineStr">
+      <c r="B241" s="17" t="inlineStr">
         <is>
           <t>SV-EX-1</t>
         </is>
       </c>
-      <c r="C241" s="13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D241" s="12" t="inlineStr">
+      <c r="C241" s="18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D241" s="19" t="inlineStr">
         <is>
           <t>**maa://40958 (40.0)</t>
         </is>
       </c>
-      <c r="E241" s="3" t="inlineStr">
+      <c r="E241" s="20" t="inlineStr">
         <is>
           <t>&gt; 由非助战艾丽妮累计造成100000点伤害&gt; 3星通关插曲SV-EX-1；必须编入非助战艾丽妮并上场，且使用2次判决</t>
         </is>
@@ -7513,27 +7532,27 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="16" t="inlineStr">
+      <c r="A248" s="17" t="inlineStr">
         <is>
           <t>黑键</t>
         </is>
       </c>
-      <c r="B248" s="16" t="inlineStr">
+      <c r="B248" s="17" t="inlineStr">
         <is>
           <t>3-6</t>
         </is>
       </c>
-      <c r="C248" s="13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D248" s="12" t="inlineStr">
+      <c r="C248" s="18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D248" s="19" t="inlineStr">
         <is>
           <t>**maa://20883 (46.15)</t>
         </is>
       </c>
-      <c r="E248" s="3" t="inlineStr">
+      <c r="E248" s="20" t="inlineStr">
         <is>
           <t>&gt; 完成5次战斗；必须编入非助战黑键并上场，且使用黑键歼灭至少6个敌人&gt; 3星通关主题曲3-6；必须编入非助战黑键并上场，且使用黑键歼灭屠宰老手</t>
         </is>
@@ -7648,27 +7667,27 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="16" t="inlineStr">
+      <c r="A253" s="17" t="inlineStr">
         <is>
           <t>至简</t>
         </is>
       </c>
-      <c r="B253" s="16" t="inlineStr">
+      <c r="B253" s="17" t="inlineStr">
         <is>
           <t>IC-8</t>
         </is>
       </c>
-      <c r="C253" s="13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D253" s="12" t="inlineStr">
+      <c r="C253" s="18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D253" s="19" t="inlineStr">
         <is>
           <t>**maa://30678 (42.86)</t>
         </is>
       </c>
-      <c r="E253" s="3" t="inlineStr">
+      <c r="E253" s="20" t="inlineStr">
         <is>
           <t>&gt; 战斗中非助战至简累计使用神工意匠20次&gt; 3星通关别传IC-8；必须编入非助战至简并上场，且使用至简歼灭至少2名蜜酿级醒酒助手</t>
         </is>
@@ -7999,27 +8018,27 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="16" t="inlineStr">
+      <c r="A266" s="17" t="inlineStr">
         <is>
           <t>伺夜</t>
         </is>
       </c>
-      <c r="B266" s="16" t="inlineStr">
+      <c r="B266" s="17" t="inlineStr">
         <is>
           <t>3-8</t>
         </is>
       </c>
-      <c r="C266" s="13" t="inlineStr">
+      <c r="C266" s="18" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D266" s="12" t="inlineStr">
+      <c r="D266" s="19" t="inlineStr">
         <is>
           <t>**maa://35860 (38.46), **maa://39165 (33.33)</t>
         </is>
       </c>
-      <c r="E266" s="3" t="inlineStr">
+      <c r="E266" s="20" t="inlineStr">
         <is>
           <t>&gt; 完成5次战斗；必须编入非助战伺夜并上场，且每次战斗至少释放1次领袖的尊严&gt; 3星通关主题曲3-8；必须编入非助战伺夜并上场，且使用伺夜歼灭碎骨</t>
         </is>
@@ -9177,7 +9196,7 @@
       </c>
       <c r="D309" s="12" t="inlineStr">
         <is>
-          <t>maa://42968 (96.3)</t>
+          <t>maa://42968 (96.77)</t>
         </is>
       </c>
       <c r="E309" s="3" t="inlineStr">
@@ -9393,7 +9412,7 @@
       </c>
       <c r="D317" s="12" t="inlineStr">
         <is>
-          <t>maa://32647 (97.06), maa://32415 (96.36), maa://34677 (100.0), maa://32892 (100.0)</t>
+          <t>maa://32647 (97.07), maa://32415 (96.36), maa://34677 (100.0), maa://32892 (100.0)</t>
         </is>
       </c>
       <c r="E317" s="3" t="inlineStr">
@@ -9717,7 +9736,7 @@
       </c>
       <c r="D329" s="12" t="inlineStr">
         <is>
-          <t>maa://36645 (98.27), maa://36841 (93.33), maa://37484 (93.18), maa://37858 (91.3)</t>
+          <t>maa://36645 (98.28), maa://36841 (93.33), maa://37484 (93.18), maa://37858 (91.3)</t>
         </is>
       </c>
       <c r="E329" s="3" t="inlineStr">
@@ -10122,7 +10141,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>maa://43096 (100.0)</t>
+          <t>**maa://43096 (50.0)</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
@@ -10132,27 +10151,27 @@
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="13" t="inlineStr">
+      <c r="A345" s="18" t="inlineStr">
         <is>
           <t>荒芜拉普兰德</t>
         </is>
       </c>
-      <c r="B345" s="13" t="inlineStr">
+      <c r="B345" s="18" t="inlineStr">
         <is>
           <t>IS-8</t>
         </is>
       </c>
-      <c r="C345" s="13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D345" t="inlineStr">
-        <is>
-          <t>*maa://42970 (54.55)</t>
-        </is>
-      </c>
-      <c r="E345" t="inlineStr">
+      <c r="C345" s="18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D345" s="21" t="inlineStr">
+        <is>
+          <t>**maa://42970 (46.15)</t>
+        </is>
+      </c>
+      <c r="E345" s="21" t="inlineStr">
         <is>
           <t>&gt; 由非助战荒芜拉普兰德累计造成150000点伤害&gt; 3星通关别传IS-8；必须编入非助战荒芜拉普兰德并上场，且荒芜拉普兰德使用至少2次逐猎狂飙或终幕·浩劫</t>
         </is>

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.03 14:53:27</t>
+          <t>更新日期：2024.11.09 17:55:06</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -870,7 +870,7 @@
       </c>
       <c r="D10" s="12" t="inlineStr">
         <is>
-          <t>maa://20888 (85.71)</t>
+          <t>*maa://20888 (75.0)</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="D19" s="12" t="inlineStr">
         <is>
-          <t>maa://20865 (85.71), maa://20826 (83.33)</t>
+          <t>maa://20865 (87.5), maa://20826 (83.33)</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="D26" s="12" t="inlineStr">
         <is>
-          <t>*maa://20849 (61.11), *maa://28758 (55.17), maa://29036 (94.12), maa://30285 (100.0)</t>
+          <t>*maa://20849 (62.16), *maa://28758 (55.17), maa://29036 (94.12), maa://30285 (100.0)</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="D28" s="12" t="inlineStr">
         <is>
-          <t>maa://20863 (86.13), maa://20832 (98.21), maa://20727 (100.0)</t>
+          <t>maa://20863 (86.13), maa://20832 (98.25), maa://20727 (100.0)</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>maa://36644 (88.52), maa://36866 (96.88), maa://27794 (100.0)</t>
+          <t>maa://36644 (87.9), maa://36866 (96.88), maa://27794 (100.0)</t>
         </is>
       </c>
       <c r="E31" s="3" t="inlineStr">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="D36" s="12" t="inlineStr">
         <is>
-          <t>maa://27376 (88.46), **maa://20838 (50.0), maa://42635 (100.0)</t>
+          <t>maa://27376 (88.89), **maa://20838 (50.0), maa://42635 (100.0)</t>
         </is>
       </c>
       <c r="E36" s="3" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="D56" s="12" t="inlineStr">
         <is>
-          <t>maa://28900 (95.38), maa://30126 (100.0)</t>
+          <t>maa://28900 (95.45), maa://30126 (100.0)</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="D57" s="12" t="inlineStr">
         <is>
-          <t>maa://27970 (98.15), maa://41118 (100.0)</t>
+          <t>maa://27970 (98.18), maa://41118 (100.0)</t>
         </is>
       </c>
       <c r="E57" s="3" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="D58" s="12" t="inlineStr">
         <is>
-          <t>maa://38298 (83.33)</t>
+          <t>maa://38298 (83.87)</t>
         </is>
       </c>
       <c r="E58" s="3" t="inlineStr">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="D63" s="12" t="inlineStr">
         <is>
-          <t>maa://28567 (97.56), **maa://20947 (44.12), maa://30525 (100.0), *maa://28188 (75.0), maa://38735 (100.0), maa://30524 (100.0)</t>
+          <t>maa://28567 (97.62), **maa://20947 (44.12), maa://30525 (100.0), *maa://28188 (75.0), maa://38735 (100.0), maa://30524 (100.0)</t>
         </is>
       </c>
       <c r="E63" s="3" t="inlineStr">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="D67" s="12" t="inlineStr">
         <is>
-          <t>maa://28784 (93.86), maa://29088 (91.76), maa://20974 (93.33), maa://31124 (96.32), maa://28950 (90.91), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67), maa://41832 (81.82)</t>
+          <t>maa://28784 (93.87), maa://29088 (91.76), maa://20974 (93.33), maa://31124 (96.38), maa://28950 (91.3), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67), maa://41832 (81.82)</t>
         </is>
       </c>
       <c r="E67" s="3" t="inlineStr">
@@ -2743,7 +2743,7 @@
       </c>
       <c r="D70" s="12" t="inlineStr">
         <is>
-          <t>maa://36643 (97.37), maa://36864 (100.0), maa://39140 (100.0)</t>
+          <t>maa://36643 (97.44), maa://36864 (100.0), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E70" s="3" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="D105" s="12" t="inlineStr">
         <is>
-          <t>maa://25018 (96.2), maa://25776 (90.32), maa://28361 (96.67), maa://25772 (92.31), *maa://25161 (78.57), maa://32653 (85.71)</t>
+          <t>maa://25018 (95.91), maa://25776 (90.32), maa://28361 (96.67), maa://25772 (92.31), *maa://25161 (78.57), maa://32653 (85.71)</t>
         </is>
       </c>
       <c r="E105" s="3" t="inlineStr">
@@ -3877,7 +3877,7 @@
       </c>
       <c r="D112" s="12" t="inlineStr">
         <is>
-          <t>maa://20908 (98.22), *maa://23346 (77.78), maa://35723 (96.97), maa://38822 (100.0)</t>
+          <t>maa://20908 (98.23), *maa://23346 (77.78), maa://35723 (97.14), maa://38822 (100.0)</t>
         </is>
       </c>
       <c r="E112" s="3" t="inlineStr">
@@ -4255,7 +4255,7 @@
       </c>
       <c r="D126" s="12" t="inlineStr">
         <is>
-          <t>maa://21422 (98.61)</t>
+          <t>maa://21422 (98.65)</t>
         </is>
       </c>
       <c r="E126" s="3" t="inlineStr">
@@ -4579,7 +4579,7 @@
       </c>
       <c r="D138" s="12" t="inlineStr">
         <is>
-          <t>maa://28484 (97.22), **maa://23736 (41.54), *maa://31185 (80.0), maa://30306 (100.0)</t>
+          <t>maa://28484 (97.26), **maa://23736 (41.54), *maa://31185 (80.0), maa://30306 (100.0)</t>
         </is>
       </c>
       <c r="E138" s="3" t="inlineStr">
@@ -4606,7 +4606,7 @@
       </c>
       <c r="D139" s="12" t="inlineStr">
         <is>
-          <t>maa://30670 (95.74), maa://31470 (94.44), ***maa://30867 (25.0)</t>
+          <t>maa://30670 (95.79), maa://31470 (94.44), ***maa://30867 (25.0)</t>
         </is>
       </c>
       <c r="E139" s="3" t="inlineStr">
@@ -4768,7 +4768,7 @@
       </c>
       <c r="D145" s="12" t="inlineStr">
         <is>
-          <t>maa://36641 (98.23), maa://36865 (95.41), maa://37300 (100.0), maa://42918 (100.0), maa://42917 (100.0)</t>
+          <t>maa://36641 (98.23), maa://36865 (95.45), maa://37300 (100.0), maa://42918 (100.0), maa://42917 (100.0)</t>
         </is>
       </c>
       <c r="E145" s="3" t="inlineStr">
@@ -5200,7 +5200,7 @@
       </c>
       <c r="D161" s="12" t="inlineStr">
         <is>
-          <t>maa://29633 (92.35), maa://29627 (92.77), maa://29659 (82.14), maa://29861 (100.0)</t>
+          <t>maa://29633 (92.39), maa://29627 (92.77), maa://29659 (82.14), maa://29861 (100.0)</t>
         </is>
       </c>
       <c r="E161" s="3" t="inlineStr">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="D166" s="12" t="inlineStr">
         <is>
-          <t>maa://32418 (99.45)</t>
+          <t>maa://32418 (99.46)</t>
         </is>
       </c>
       <c r="E166" s="3" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="D188" s="12" t="inlineStr">
         <is>
-          <t>maa://25760 (83.08), *maa://35854 (71.43), **maa://20872 (50.0)</t>
+          <t>maa://25760 (84.29), *maa://35854 (72.41), **maa://20872 (50.0)</t>
         </is>
       </c>
       <c r="E188" s="3" t="inlineStr">
@@ -5956,7 +5956,7 @@
       </c>
       <c r="D189" s="12" t="inlineStr">
         <is>
-          <t>**maa://38297 (33.33), maa://39156 (88.89), maa://39550 (100.0)</t>
+          <t>**maa://38297 (31.25), maa://39156 (88.89), maa://39550 (100.0)</t>
         </is>
       </c>
       <c r="E189" s="3" t="inlineStr">
@@ -6037,7 +6037,7 @@
       </c>
       <c r="D192" s="12" t="inlineStr">
         <is>
-          <t>maa://42223 (98.68), maa://42292 (90.91), maa://42402 (100.0)</t>
+          <t>maa://42223 (98.73), maa://42292 (91.67), maa://42402 (100.0)</t>
         </is>
       </c>
       <c r="E192" s="3" t="inlineStr">
@@ -6253,7 +6253,7 @@
       </c>
       <c r="D200" s="12" t="inlineStr">
         <is>
-          <t>maa://28133 (89.74), *maa://28277 (79.17), **maa://39217 (41.67), maa://25369 (93.1), *maa://33132 (66.67)</t>
+          <t>maa://28133 (90.0), *maa://28277 (79.17), **maa://39217 (41.67), maa://25369 (93.1), *maa://33132 (66.67)</t>
         </is>
       </c>
       <c r="E200" s="3" t="inlineStr">
@@ -6334,7 +6334,7 @@
       </c>
       <c r="D203" s="12" t="inlineStr">
         <is>
-          <t>maa://39238 (98.95)</t>
+          <t>maa://39238 (98.96)</t>
         </is>
       </c>
       <c r="E203" s="3" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="D220" s="12" t="inlineStr">
         <is>
-          <t>maa://29058 (93.33), maa://39140 (100.0), maa://38723 (100.0)</t>
+          <t>maa://29058 (93.62), maa://39140 (100.0), maa://38723 (100.0)</t>
         </is>
       </c>
       <c r="E220" s="3" t="inlineStr">
@@ -6928,7 +6928,7 @@
       </c>
       <c r="D225" s="12" t="inlineStr">
         <is>
-          <t>maa://30714 (97.14), maa://30675 (100.0)</t>
+          <t>maa://30714 (97.22), maa://30675 (100.0)</t>
         </is>
       </c>
       <c r="E225" s="3" t="inlineStr">
@@ -6955,7 +6955,7 @@
       </c>
       <c r="D226" s="12" t="inlineStr">
         <is>
-          <t>maa://20922 (92.31), *maa://32623 (58.33), *maa://34242 (80.0), maa://34900 (87.5)</t>
+          <t>maa://20922 (92.31), *maa://32623 (58.33), *maa://34242 (80.0), maa://34900 (88.89)</t>
         </is>
       </c>
       <c r="E226" s="3" t="inlineStr">
@@ -7009,7 +7009,7 @@
       </c>
       <c r="D228" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (75.72), maa://30666 (83.25), *maa://26836 (75.54), **maa://30739 (45.71), maa://37607 (92.47), *maa://34428 (65.75), *maa://30723 (50.94), maa://39588 (84.38), *maa://37850 (66.67)</t>
+          <t>*maa://30667 (75.86), maa://30666 (83.42), *maa://26836 (75.71), **maa://30739 (44.44), maa://37607 (92.57), *maa://34428 (65.75), *maa://30723 (50.94), maa://39588 (85.29), *maa://37850 (66.67)</t>
         </is>
       </c>
       <c r="E228" s="3" t="inlineStr">
@@ -7252,7 +7252,7 @@
       </c>
       <c r="D237" s="14" t="inlineStr">
         <is>
-          <t>maa://42287 (92.31), maa://42225 (100.0)</t>
+          <t>maa://42287 (93.75), maa://42225 (100.0)</t>
         </is>
       </c>
       <c r="E237" s="3" t="inlineStr">
@@ -7441,7 +7441,7 @@
       </c>
       <c r="D244" s="12" t="inlineStr">
         <is>
-          <t>maa://20879 (84.62), maa://20834 (100.0)</t>
+          <t>maa://20879 (85.0), maa://20834 (100.0)</t>
         </is>
       </c>
       <c r="E244" s="3" t="inlineStr">
@@ -7522,7 +7522,7 @@
       </c>
       <c r="D247" s="12" t="inlineStr">
         <is>
-          <t>maa://31560 (83.33), maa://20884 (92.86)</t>
+          <t>maa://31560 (83.33), maa://20884 (93.33)</t>
         </is>
       </c>
       <c r="E247" s="3" t="inlineStr">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="D252" s="12" t="inlineStr">
         <is>
-          <t>maa://22467 (93.33)</t>
+          <t>maa://22467 (93.55)</t>
         </is>
       </c>
       <c r="E252" s="3" t="inlineStr">
@@ -7900,7 +7900,7 @@
       </c>
       <c r="D261" s="12" t="inlineStr">
         <is>
-          <t>maa://28133 (89.74), maa://33394 (100.0)</t>
+          <t>maa://28133 (90.0), maa://33394 (100.0)</t>
         </is>
       </c>
       <c r="E261" s="3" t="inlineStr">
@@ -8116,7 +8116,7 @@
       </c>
       <c r="D269" s="12" t="inlineStr">
         <is>
-          <t>maa://20899 (90.14)</t>
+          <t>maa://20899 (90.28)</t>
         </is>
       </c>
       <c r="E269" s="3" t="inlineStr">
@@ -8251,7 +8251,7 @@
       </c>
       <c r="D274" s="12" t="inlineStr">
         <is>
-          <t>maa://25774 (100.0), maa://28133 (89.74), maa://22469 (90.91), **maa://39217 (41.67), **maa://31349 (50.0)</t>
+          <t>maa://25774 (100.0), maa://28133 (90.0), maa://22469 (90.91), **maa://39217 (41.67), **maa://31349 (50.0)</t>
         </is>
       </c>
       <c r="E274" s="3" t="inlineStr">
@@ -8386,7 +8386,7 @@
       </c>
       <c r="D279" s="12" t="inlineStr">
         <is>
-          <t>maa://29005 (97.96), maa://31560 (83.33)</t>
+          <t>maa://29005 (98.04), maa://31560 (83.33)</t>
         </is>
       </c>
       <c r="E279" s="3" t="inlineStr">
@@ -8737,7 +8737,7 @@
       </c>
       <c r="D292" s="12" t="inlineStr">
         <is>
-          <t>maa://25367 (98.98)</t>
+          <t>maa://25367 (99.0)</t>
         </is>
       </c>
       <c r="E292" s="3" t="inlineStr">
@@ -8899,7 +8899,7 @@
       </c>
       <c r="D298" s="12" t="inlineStr">
         <is>
-          <t>maa://39692 (99.49), *maa://39810 (80.0)</t>
+          <t>maa://39692 (99.51), *maa://39810 (80.0)</t>
         </is>
       </c>
       <c r="E298" s="3" t="inlineStr">
@@ -9196,7 +9196,7 @@
       </c>
       <c r="D309" s="12" t="inlineStr">
         <is>
-          <t>maa://42968 (96.77)</t>
+          <t>maa://42968 (98.96)</t>
         </is>
       </c>
       <c r="E309" s="3" t="inlineStr">
@@ -9277,7 +9277,7 @@
       </c>
       <c r="D312" s="12" t="inlineStr">
         <is>
-          <t>maa://30671 (81.02), maa://30669 (98.44), maa://37275 (82.35), *maa://32410 (63.64), maa://41605 (100.0), maa://33671 (100.0)</t>
+          <t>maa://30671 (80.43), maa://30669 (98.48), maa://37275 (82.35), *maa://32410 (63.64), maa://41605 (100.0), maa://33671 (100.0)</t>
         </is>
       </c>
       <c r="E312" s="3" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="D313" s="12" t="inlineStr">
         <is>
-          <t>maa://38295 (95.56)</t>
+          <t>maa://38295 (95.65)</t>
         </is>
       </c>
       <c r="E313" s="3" t="inlineStr">
@@ -9412,7 +9412,7 @@
       </c>
       <c r="D317" s="12" t="inlineStr">
         <is>
-          <t>maa://32647 (97.07), maa://32415 (96.36), maa://34677 (100.0), maa://32892 (100.0)</t>
+          <t>maa://32647 (97.08), maa://32415 (96.4), maa://34677 (100.0), maa://32892 (100.0)</t>
         </is>
       </c>
       <c r="E317" s="3" t="inlineStr">
@@ -9547,7 +9547,7 @@
       </c>
       <c r="D322" s="12" t="inlineStr">
         <is>
-          <t>maa://34865 (96.6), maa://34717 (92.86)</t>
+          <t>maa://34865 (96.67), maa://34717 (92.86)</t>
         </is>
       </c>
       <c r="E322" s="3" t="inlineStr">
@@ -9709,7 +9709,7 @@
       </c>
       <c r="D328" s="12" t="inlineStr">
         <is>
-          <t>maa://36646 (98.33), maa://36845 (94.38), **maa://39217 (41.67)</t>
+          <t>maa://36646 (98.35), maa://36845 (94.38), **maa://39217 (41.67)</t>
         </is>
       </c>
       <c r="E328" s="3" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="D329" s="12" t="inlineStr">
         <is>
-          <t>maa://36645 (98.28), maa://36841 (93.33), maa://37484 (93.18), maa://37858 (91.3)</t>
+          <t>maa://36645 (97.73), maa://36841 (93.33), maa://37484 (93.18), maa://37858 (91.3)</t>
         </is>
       </c>
       <c r="E329" s="3" t="inlineStr">
@@ -9844,7 +9844,7 @@
       </c>
       <c r="D333" s="14" t="inlineStr">
         <is>
-          <t>*maa://40957 (78.87), *maa://41128 (77.78), maa://41035 (81.25)</t>
+          <t>maa://40957 (81.48), *maa://41128 (78.95), maa://41035 (86.36)</t>
         </is>
       </c>
       <c r="E333" s="14" t="inlineStr">
@@ -10006,7 +10006,7 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>maa://41110 (97.44)</t>
+          <t>maa://41110 (97.56)</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="D345" s="21" t="inlineStr">
         <is>
-          <t>**maa://42970 (46.15)</t>
+          <t>*maa://42970 (57.14)</t>
         </is>
       </c>
       <c r="E345" s="21" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.09 17:55:06</t>
+          <t>更新日期：2024.11.10 13:16:41</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="D28" s="12" t="inlineStr">
         <is>
-          <t>maa://20863 (86.13), maa://20832 (98.25), maa://20727 (100.0)</t>
+          <t>maa://20863 (86.13), maa://20832 (98.28), maa://20727 (100.0)</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="D56" s="12" t="inlineStr">
         <is>
-          <t>maa://28900 (95.45), maa://30126 (100.0)</t>
+          <t>maa://28900 (95.52), maa://30126 (100.0)</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="D63" s="12" t="inlineStr">
         <is>
-          <t>maa://28567 (97.62), **maa://20947 (44.12), maa://30525 (100.0), *maa://28188 (75.0), maa://38735 (100.0), maa://30524 (100.0)</t>
+          <t>maa://28567 (97.62), **maa://20947 (44.12), maa://30525 (100.0), *maa://28188 (66.67), maa://38735 (100.0), maa://30524 (100.0)</t>
         </is>
       </c>
       <c r="E63" s="3" t="inlineStr">
@@ -2635,7 +2635,7 @@
       </c>
       <c r="D66" s="12" t="inlineStr">
         <is>
-          <t>maa://20976 (97.66), maa://20815 (100.0)</t>
+          <t>maa://20976 (97.67), maa://20815 (100.0)</t>
         </is>
       </c>
       <c r="E66" s="3" t="inlineStr">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="D67" s="12" t="inlineStr">
         <is>
-          <t>maa://28784 (93.87), maa://29088 (91.76), maa://20974 (93.33), maa://31124 (96.38), maa://28950 (91.3), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67), maa://41832 (81.82)</t>
+          <t>maa://28784 (93.87), maa://29088 (91.76), maa://20974 (93.48), maa://31124 (96.38), maa://28950 (91.3), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67), maa://41832 (81.82)</t>
         </is>
       </c>
       <c r="E67" s="3" t="inlineStr">
@@ -2743,7 +2743,7 @@
       </c>
       <c r="D70" s="12" t="inlineStr">
         <is>
-          <t>maa://36643 (97.44), maa://36864 (100.0), maa://39140 (100.0)</t>
+          <t>maa://36643 (97.45), maa://36864 (100.0), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E70" s="3" t="inlineStr">
@@ -2986,7 +2986,7 @@
       </c>
       <c r="D79" s="12" t="inlineStr">
         <is>
-          <t>maa://30525 (100.0), maa://20859 (100.0), *maa://28188 (75.0), maa://30524 (100.0)</t>
+          <t>maa://30525 (100.0), maa://20859 (100.0), *maa://28188 (66.67), maa://30524 (100.0)</t>
         </is>
       </c>
       <c r="E79" s="3" t="inlineStr">
@@ -3175,7 +3175,7 @@
       </c>
       <c r="D86" s="12" t="inlineStr">
         <is>
-          <t>maa://24472 (85.0), *maa://35841 (54.55)</t>
+          <t>maa://24472 (85.11), *maa://35841 (54.55)</t>
         </is>
       </c>
       <c r="E86" s="3" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="D105" s="12" t="inlineStr">
         <is>
-          <t>maa://25018 (95.91), maa://25776 (90.32), maa://28361 (96.67), maa://25772 (92.31), *maa://25161 (78.57), maa://32653 (85.71)</t>
+          <t>maa://25018 (95.94), maa://25776 (90.32), maa://28361 (96.77), maa://25772 (92.31), *maa://25161 (78.57), maa://32653 (85.71)</t>
         </is>
       </c>
       <c r="E105" s="3" t="inlineStr">
@@ -5200,7 +5200,7 @@
       </c>
       <c r="D161" s="12" t="inlineStr">
         <is>
-          <t>maa://29633 (92.39), maa://29627 (92.77), maa://29659 (82.14), maa://29861 (100.0)</t>
+          <t>maa://29633 (92.42), maa://29627 (92.77), maa://29659 (82.14), maa://29861 (100.0)</t>
         </is>
       </c>
       <c r="E161" s="3" t="inlineStr">
@@ -5740,7 +5740,7 @@
       </c>
       <c r="D181" s="12" t="inlineStr">
         <is>
-          <t>maa://34866 (86.36), maa://34714 (95.45)</t>
+          <t>maa://34866 (86.36), maa://34714 (95.65)</t>
         </is>
       </c>
       <c r="E181" s="3" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="D188" s="12" t="inlineStr">
         <is>
-          <t>maa://25760 (84.29), *maa://35854 (72.41), **maa://20872 (50.0)</t>
+          <t>maa://25760 (85.33), *maa://35854 (72.41), **maa://20872 (50.0)</t>
         </is>
       </c>
       <c r="E188" s="3" t="inlineStr">
@@ -5956,7 +5956,7 @@
       </c>
       <c r="D189" s="12" t="inlineStr">
         <is>
-          <t>**maa://38297 (31.25), maa://39156 (88.89), maa://39550 (100.0)</t>
+          <t>**maa://38297 (31.25), *maa://39156 (80.0), maa://39550 (100.0)</t>
         </is>
       </c>
       <c r="E189" s="3" t="inlineStr">
@@ -6037,7 +6037,7 @@
       </c>
       <c r="D192" s="12" t="inlineStr">
         <is>
-          <t>maa://42223 (98.73), maa://42292 (91.67), maa://42402 (100.0)</t>
+          <t>maa://42223 (98.75), maa://42292 (91.67), maa://42402 (100.0)</t>
         </is>
       </c>
       <c r="E192" s="3" t="inlineStr">
@@ -7009,7 +7009,7 @@
       </c>
       <c r="D228" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (75.86), maa://30666 (83.42), *maa://26836 (75.71), **maa://30739 (44.44), maa://37607 (92.57), *maa://34428 (65.75), *maa://30723 (50.94), maa://39588 (85.29), *maa://37850 (66.67)</t>
+          <t>*maa://30667 (76.0), maa://30666 (83.42), *maa://26836 (75.71), **maa://30739 (44.44), maa://37607 (92.62), *maa://34428 (65.75), *maa://30723 (50.94), maa://39588 (85.29), *maa://37850 (66.67)</t>
         </is>
       </c>
       <c r="E228" s="3" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="D236" s="12" t="inlineStr">
         <is>
-          <t>maa://28923 (91.61), maa://28906 (97.22), ***maa://28825 (12.0)</t>
+          <t>maa://28923 (91.67), maa://28906 (97.3), ***maa://28825 (12.0)</t>
         </is>
       </c>
       <c r="E236" s="3" t="inlineStr">
@@ -7252,7 +7252,7 @@
       </c>
       <c r="D237" s="14" t="inlineStr">
         <is>
-          <t>maa://42287 (93.75), maa://42225 (100.0)</t>
+          <t>maa://42287 (94.12), maa://42225 (100.0)</t>
         </is>
       </c>
       <c r="E237" s="3" t="inlineStr">
@@ -8764,7 +8764,7 @@
       </c>
       <c r="D293" s="12" t="inlineStr">
         <is>
-          <t>maa://43090 (100.0)</t>
+          <t>**maa://43090 (50.0)</t>
         </is>
       </c>
       <c r="E293" s="3" t="inlineStr">
@@ -9196,7 +9196,7 @@
       </c>
       <c r="D309" s="12" t="inlineStr">
         <is>
-          <t>maa://42968 (98.96)</t>
+          <t>maa://42968 (98.36)</t>
         </is>
       </c>
       <c r="E309" s="3" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="D313" s="12" t="inlineStr">
         <is>
-          <t>maa://38295 (95.65)</t>
+          <t>maa://38295 (95.74)</t>
         </is>
       </c>
       <c r="E313" s="3" t="inlineStr">
@@ -9412,7 +9412,7 @@
       </c>
       <c r="D317" s="12" t="inlineStr">
         <is>
-          <t>maa://32647 (97.08), maa://32415 (96.4), maa://34677 (100.0), maa://32892 (100.0)</t>
+          <t>maa://32647 (97.09), maa://32415 (96.43), maa://34677 (100.0), maa://32892 (100.0)</t>
         </is>
       </c>
       <c r="E317" s="3" t="inlineStr">
@@ -9709,7 +9709,7 @@
       </c>
       <c r="D328" s="12" t="inlineStr">
         <is>
-          <t>maa://36646 (98.35), maa://36845 (94.38), **maa://39217 (41.67)</t>
+          <t>maa://36646 (98.37), maa://36845 (94.38), **maa://39217 (41.67)</t>
         </is>
       </c>
       <c r="E328" s="3" t="inlineStr">
@@ -9844,7 +9844,7 @@
       </c>
       <c r="D333" s="14" t="inlineStr">
         <is>
-          <t>maa://40957 (81.48), *maa://41128 (78.95), maa://41035 (86.36)</t>
+          <t>maa://40957 (83.15), *maa://41128 (78.95), maa://41035 (82.61)</t>
         </is>
       </c>
       <c r="E333" s="14" t="inlineStr">
@@ -10151,27 +10151,27 @@
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="18" t="inlineStr">
+      <c r="A345" s="13" t="inlineStr">
         <is>
           <t>荒芜拉普兰德</t>
         </is>
       </c>
-      <c r="B345" s="18" t="inlineStr">
+      <c r="B345" s="13" t="inlineStr">
         <is>
           <t>IS-8</t>
         </is>
       </c>
-      <c r="C345" s="18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D345" s="21" t="inlineStr">
-        <is>
-          <t>*maa://42970 (57.14)</t>
-        </is>
-      </c>
-      <c r="E345" s="21" t="inlineStr">
+      <c r="C345" s="13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>*maa://42970 (58.33)</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
         <is>
           <t>&gt; 由非助战荒芜拉普兰德累计造成150000点伤害&gt; 3星通关别传IS-8；必须编入非助战荒芜拉普兰德并上场，且荒芜拉普兰德使用至少2次逐猎狂飙或终幕·浩劫</t>
         </is>

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.10 13:16:41</t>
+          <t>更新日期：2024.11.13 13:18:25</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>maa://36644 (87.9), maa://36866 (96.88), maa://27794 (100.0)</t>
+          <t>maa://36644 (87.9), maa://36866 (96.97), maa://27794 (100.0)</t>
         </is>
       </c>
       <c r="E31" s="3" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="D57" s="12" t="inlineStr">
         <is>
-          <t>maa://27970 (98.18), maa://41118 (100.0)</t>
+          <t>maa://27970 (98.21), maa://41118 (100.0)</t>
         </is>
       </c>
       <c r="E57" s="3" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="D58" s="12" t="inlineStr">
         <is>
-          <t>maa://38298 (83.87)</t>
+          <t>maa://38298 (84.38)</t>
         </is>
       </c>
       <c r="E58" s="3" t="inlineStr">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="D59" s="12" t="inlineStr">
         <is>
-          <t>maa://20841 (100.0), maa://24093 (100.0), maa://31559 (94.44), maa://25777 (100.0), maa://20631 (100.0)</t>
+          <t>maa://20841 (100.0), maa://24093 (100.0), maa://31559 (94.74), maa://25777 (100.0), maa://20631 (100.0)</t>
         </is>
       </c>
       <c r="E59" s="3" t="inlineStr">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="D67" s="12" t="inlineStr">
         <is>
-          <t>maa://28784 (93.87), maa://29088 (91.76), maa://20974 (93.48), maa://31124 (96.38), maa://28950 (91.3), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67), maa://41832 (81.82)</t>
+          <t>maa://28784 (93.87), maa://29088 (91.76), maa://20974 (93.62), maa://31124 (96.4), maa://28950 (91.3), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67), maa://41832 (81.82)</t>
         </is>
       </c>
       <c r="E67" s="3" t="inlineStr">
@@ -2743,7 +2743,7 @@
       </c>
       <c r="D70" s="12" t="inlineStr">
         <is>
-          <t>maa://36643 (97.45), maa://36864 (100.0), maa://39140 (100.0)</t>
+          <t>maa://36643 (97.47), maa://36864 (100.0), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E70" s="3" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="D105" s="12" t="inlineStr">
         <is>
-          <t>maa://25018 (95.94), maa://25776 (90.32), maa://28361 (96.77), maa://25772 (92.31), *maa://25161 (78.57), maa://32653 (85.71)</t>
+          <t>maa://25018 (95.96), maa://25776 (90.32), maa://28361 (96.77), maa://25772 (92.31), *maa://25161 (78.57), maa://32653 (85.71)</t>
         </is>
       </c>
       <c r="E105" s="3" t="inlineStr">
@@ -3877,7 +3877,7 @@
       </c>
       <c r="D112" s="12" t="inlineStr">
         <is>
-          <t>maa://20908 (98.23), *maa://23346 (77.78), maa://35723 (97.14), maa://38822 (100.0)</t>
+          <t>maa://20908 (98.24), *maa://23346 (77.78), maa://35723 (94.44), maa://38822 (100.0)</t>
         </is>
       </c>
       <c r="E112" s="3" t="inlineStr">
@@ -4255,7 +4255,7 @@
       </c>
       <c r="D126" s="12" t="inlineStr">
         <is>
-          <t>maa://21422 (98.65)</t>
+          <t>maa://21422 (98.67)</t>
         </is>
       </c>
       <c r="E126" s="3" t="inlineStr">
@@ -5200,7 +5200,7 @@
       </c>
       <c r="D161" s="12" t="inlineStr">
         <is>
-          <t>maa://29633 (92.42), maa://29627 (92.77), maa://29659 (82.14), maa://29861 (100.0)</t>
+          <t>maa://29633 (92.42), maa://29627 (92.81), maa://29659 (82.14), maa://29861 (100.0)</t>
         </is>
       </c>
       <c r="E161" s="3" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="D188" s="12" t="inlineStr">
         <is>
-          <t>maa://25760 (85.33), *maa://35854 (72.41), **maa://20872 (50.0)</t>
+          <t>maa://25760 (85.71), *maa://35854 (70.97), **maa://20872 (50.0)</t>
         </is>
       </c>
       <c r="E188" s="3" t="inlineStr">
@@ -6037,7 +6037,7 @@
       </c>
       <c r="D192" s="12" t="inlineStr">
         <is>
-          <t>maa://42223 (98.75), maa://42292 (91.67), maa://42402 (100.0)</t>
+          <t>maa://42223 (98.82), maa://42292 (92.86), maa://42402 (100.0)</t>
         </is>
       </c>
       <c r="E192" s="3" t="inlineStr">
@@ -6469,7 +6469,7 @@
       </c>
       <c r="D208" s="19" t="inlineStr">
         <is>
-          <t>**maa://20995 (44.44), **maa://26496 (33.33)</t>
+          <t>**maa://26496 (33.33), **maa://20995 (44.44)</t>
         </is>
       </c>
       <c r="E208" s="20" t="inlineStr">
@@ -6847,7 +6847,7 @@
       </c>
       <c r="D222" s="12" t="inlineStr">
         <is>
-          <t>maa://20878 (87.5)</t>
+          <t>maa://20878 (88.24)</t>
         </is>
       </c>
       <c r="E222" s="3" t="inlineStr">
@@ -7009,7 +7009,7 @@
       </c>
       <c r="D228" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (76.0), maa://30666 (83.42), *maa://26836 (75.71), **maa://30739 (44.44), maa://37607 (92.62), *maa://34428 (65.75), *maa://30723 (50.94), maa://39588 (85.29), *maa://37850 (66.67)</t>
+          <t>*maa://30667 (76.2), maa://30666 (83.42), *maa://26836 (75.89), maa://37607 (92.72), **maa://30739 (44.44), *maa://34428 (66.22), *maa://30723 (50.94), maa://39588 (85.29), *maa://37850 (66.67)</t>
         </is>
       </c>
       <c r="E228" s="3" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="D236" s="12" t="inlineStr">
         <is>
-          <t>maa://28923 (91.67), maa://28906 (97.3), ***maa://28825 (12.0)</t>
+          <t>maa://28923 (91.67), maa://28906 (97.44), ***maa://28825 (12.0)</t>
         </is>
       </c>
       <c r="E236" s="3" t="inlineStr">
@@ -7252,7 +7252,7 @@
       </c>
       <c r="D237" s="14" t="inlineStr">
         <is>
-          <t>maa://42287 (94.12), maa://42225 (100.0)</t>
+          <t>maa://42287 (90.0), maa://42225 (100.0)</t>
         </is>
       </c>
       <c r="E237" s="3" t="inlineStr">
@@ -7333,7 +7333,7 @@
       </c>
       <c r="D240" s="12" t="inlineStr">
         <is>
-          <t>maa://24093 (100.0), maa://31559 (94.44), maa://20924 (95.0)</t>
+          <t>maa://24093 (100.0), maa://31559 (94.74), maa://20924 (95.0)</t>
         </is>
       </c>
       <c r="E240" s="3" t="inlineStr">
@@ -8116,7 +8116,7 @@
       </c>
       <c r="D269" s="12" t="inlineStr">
         <is>
-          <t>maa://20899 (90.28)</t>
+          <t>maa://20899 (89.66)</t>
         </is>
       </c>
       <c r="E269" s="3" t="inlineStr">
@@ -8170,7 +8170,7 @@
       </c>
       <c r="D271" s="12" t="inlineStr">
         <is>
-          <t>maa://30710 (96.97), maa://36845 (94.38), maa://31558 (96.3), **maa://39217 (41.67), maa://30668 (83.33)</t>
+          <t>maa://30710 (97.0), maa://36845 (94.38), maa://31558 (96.3), **maa://39217 (41.67), maa://30668 (83.33)</t>
         </is>
       </c>
       <c r="E271" s="3" t="inlineStr">
@@ -8251,7 +8251,7 @@
       </c>
       <c r="D274" s="12" t="inlineStr">
         <is>
-          <t>maa://25774 (100.0), maa://28133 (90.0), maa://22469 (90.91), **maa://39217 (41.67), **maa://31349 (50.0)</t>
+          <t>maa://25774 (100.0), maa://28133 (90.0), maa://22469 (91.11), **maa://39217 (41.67), **maa://31349 (50.0)</t>
         </is>
       </c>
       <c r="E274" s="3" t="inlineStr">
@@ -8737,7 +8737,7 @@
       </c>
       <c r="D292" s="12" t="inlineStr">
         <is>
-          <t>maa://25367 (99.0)</t>
+          <t>maa://25367 (99.01)</t>
         </is>
       </c>
       <c r="E292" s="3" t="inlineStr">
@@ -8818,7 +8818,7 @@
       </c>
       <c r="D295" s="12" t="inlineStr">
         <is>
-          <t>maa://31559 (94.44), maa://28241 (100.0)</t>
+          <t>maa://31559 (94.74), maa://28241 (100.0)</t>
         </is>
       </c>
       <c r="E295" s="3" t="inlineStr">
@@ -8899,7 +8899,7 @@
       </c>
       <c r="D298" s="12" t="inlineStr">
         <is>
-          <t>maa://39692 (99.51), *maa://39810 (80.0)</t>
+          <t>maa://39692 (99.54), *maa://39810 (80.0)</t>
         </is>
       </c>
       <c r="E298" s="3" t="inlineStr">
@@ -9196,7 +9196,7 @@
       </c>
       <c r="D309" s="12" t="inlineStr">
         <is>
-          <t>maa://42968 (98.36)</t>
+          <t>maa://42968 (98.83)</t>
         </is>
       </c>
       <c r="E309" s="3" t="inlineStr">
@@ -9277,7 +9277,7 @@
       </c>
       <c r="D312" s="12" t="inlineStr">
         <is>
-          <t>maa://30671 (80.43), maa://30669 (98.48), maa://37275 (82.35), *maa://32410 (63.64), maa://41605 (100.0), maa://33671 (100.0)</t>
+          <t>maa://30671 (80.58), maa://30669 (98.48), maa://37275 (82.86), *maa://32410 (63.64), maa://41605 (100.0), maa://33671 (100.0)</t>
         </is>
       </c>
       <c r="E312" s="3" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="D313" s="12" t="inlineStr">
         <is>
-          <t>maa://38295 (95.74)</t>
+          <t>maa://38295 (95.92)</t>
         </is>
       </c>
       <c r="E313" s="3" t="inlineStr">
@@ -9385,7 +9385,7 @@
       </c>
       <c r="D316" s="12" t="inlineStr">
         <is>
-          <t>maa://32416 (85.71)</t>
+          <t>maa://32416 (86.11)</t>
         </is>
       </c>
       <c r="E316" s="3" t="inlineStr">
@@ -9412,7 +9412,7 @@
       </c>
       <c r="D317" s="12" t="inlineStr">
         <is>
-          <t>maa://32647 (97.09), maa://32415 (96.43), maa://34677 (100.0), maa://32892 (100.0)</t>
+          <t>maa://32647 (97.11), maa://32415 (96.49), maa://34677 (100.0), maa://32892 (100.0)</t>
         </is>
       </c>
       <c r="E317" s="3" t="inlineStr">
@@ -9709,7 +9709,7 @@
       </c>
       <c r="D328" s="12" t="inlineStr">
         <is>
-          <t>maa://36646 (98.37), maa://36845 (94.38), **maa://39217 (41.67)</t>
+          <t>maa://36646 (98.4), maa://36845 (94.38), **maa://39217 (41.67)</t>
         </is>
       </c>
       <c r="E328" s="3" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="D329" s="12" t="inlineStr">
         <is>
-          <t>maa://36645 (97.73), maa://36841 (93.33), maa://37484 (93.18), maa://37858 (91.3)</t>
+          <t>maa://36645 (97.74), maa://36841 (93.33), maa://37484 (93.18), maa://37858 (91.3)</t>
         </is>
       </c>
       <c r="E329" s="3" t="inlineStr">
@@ -9844,7 +9844,7 @@
       </c>
       <c r="D333" s="14" t="inlineStr">
         <is>
-          <t>maa://40957 (83.15), *maa://41128 (78.95), maa://41035 (82.61)</t>
+          <t>maa://40957 (83.17), maa://41128 (80.95), maa://41035 (85.71)</t>
         </is>
       </c>
       <c r="E333" s="14" t="inlineStr">
@@ -10124,27 +10124,27 @@
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="13" t="inlineStr">
+      <c r="A344" s="18" t="inlineStr">
         <is>
           <t>忍冬</t>
         </is>
       </c>
-      <c r="B344" s="13" t="inlineStr">
+      <c r="B344" s="18" t="inlineStr">
         <is>
           <t>S2-3</t>
         </is>
       </c>
-      <c r="C344" s="13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D344" t="inlineStr">
-        <is>
-          <t>**maa://43096 (50.0)</t>
-        </is>
-      </c>
-      <c r="E344" t="inlineStr">
+      <c r="C344" s="18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D344" s="21" t="inlineStr">
+        <is>
+          <t>**maa://43096 (37.5)</t>
+        </is>
+      </c>
+      <c r="E344" s="21" t="inlineStr">
         <is>
           <t>&gt; 由非助战忍冬累计造成80000点伤害&gt; 3星通关主题曲S2-3；必须编入非助战忍冬并上场，且使用忍冬击败至少24名敌人</t>
         </is>
@@ -10168,7 +10168,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>*maa://42970 (58.33)</t>
+          <t>*maa://42970 (60.53)</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.13 13:18:25</t>
+          <t>更新日期：2024.11.14 13:18:07</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="D57" s="12" t="inlineStr">
         <is>
-          <t>maa://27970 (98.21), maa://41118 (100.0)</t>
+          <t>maa://27970 (98.25), maa://41118 (100.0)</t>
         </is>
       </c>
       <c r="E57" s="3" t="inlineStr">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="D67" s="12" t="inlineStr">
         <is>
-          <t>maa://28784 (93.87), maa://29088 (91.76), maa://20974 (93.62), maa://31124 (96.4), maa://28950 (91.3), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67), maa://41832 (81.82)</t>
+          <t>maa://28784 (93.87), maa://29088 (91.76), maa://20974 (93.62), maa://31124 (96.45), maa://28950 (91.3), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67), maa://41832 (81.82)</t>
         </is>
       </c>
       <c r="E67" s="3" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="D188" s="12" t="inlineStr">
         <is>
-          <t>maa://25760 (85.71), *maa://35854 (70.97), **maa://20872 (50.0)</t>
+          <t>maa://25760 (85.9), *maa://35854 (70.97), **maa://20872 (50.0)</t>
         </is>
       </c>
       <c r="E188" s="3" t="inlineStr">
@@ -6037,7 +6037,7 @@
       </c>
       <c r="D192" s="12" t="inlineStr">
         <is>
-          <t>maa://42223 (98.82), maa://42292 (92.86), maa://42402 (100.0)</t>
+          <t>maa://42223 (98.84), maa://42292 (92.86), maa://42402 (100.0)</t>
         </is>
       </c>
       <c r="E192" s="3" t="inlineStr">
@@ -7009,7 +7009,7 @@
       </c>
       <c r="D228" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (76.2), maa://30666 (83.42), *maa://26836 (75.89), maa://37607 (92.72), **maa://30739 (44.44), *maa://34428 (66.22), *maa://30723 (50.94), maa://39588 (85.29), *maa://37850 (66.67)</t>
+          <t>*maa://30667 (76.27), maa://30666 (83.51), *maa://26836 (75.89), maa://37607 (92.72), **maa://30739 (44.44), *maa://34428 (66.67), *maa://30723 (50.94), maa://39588 (85.29), *maa://37850 (66.67)</t>
         </is>
       </c>
       <c r="E228" s="3" t="inlineStr">
@@ -8116,7 +8116,7 @@
       </c>
       <c r="D269" s="12" t="inlineStr">
         <is>
-          <t>maa://20899 (89.66)</t>
+          <t>maa://20899 (89.73)</t>
         </is>
       </c>
       <c r="E269" s="3" t="inlineStr">
@@ -8170,7 +8170,7 @@
       </c>
       <c r="D271" s="12" t="inlineStr">
         <is>
-          <t>maa://30710 (97.0), maa://36845 (94.38), maa://31558 (96.3), **maa://39217 (41.67), maa://30668 (83.33)</t>
+          <t>maa://30710 (97.0), maa://36845 (94.44), maa://31558 (96.3), **maa://39217 (41.67), maa://30668 (83.33)</t>
         </is>
       </c>
       <c r="E271" s="3" t="inlineStr">
@@ -9196,7 +9196,7 @@
       </c>
       <c r="D309" s="12" t="inlineStr">
         <is>
-          <t>maa://42968 (98.83)</t>
+          <t>maa://42968 (98.86)</t>
         </is>
       </c>
       <c r="E309" s="3" t="inlineStr">
@@ -9709,7 +9709,7 @@
       </c>
       <c r="D328" s="12" t="inlineStr">
         <is>
-          <t>maa://36646 (98.4), maa://36845 (94.38), **maa://39217 (41.67)</t>
+          <t>maa://36646 (98.4), maa://36845 (94.44), **maa://39217 (41.67)</t>
         </is>
       </c>
       <c r="E328" s="3" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="D329" s="12" t="inlineStr">
         <is>
-          <t>maa://36645 (97.74), maa://36841 (93.33), maa://37484 (93.18), maa://37858 (91.3)</t>
+          <t>maa://36645 (97.75), maa://36841 (93.33), maa://37484 (93.18), maa://37858 (91.3)</t>
         </is>
       </c>
       <c r="E329" s="3" t="inlineStr">
@@ -9844,7 +9844,7 @@
       </c>
       <c r="D333" s="14" t="inlineStr">
         <is>
-          <t>maa://40957 (83.17), maa://41128 (80.95), maa://41035 (85.71)</t>
+          <t>maa://40957 (83.33), maa://41128 (80.95), maa://41035 (85.71)</t>
         </is>
       </c>
       <c r="E333" s="14" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.14 13:18:07</t>
+          <t>更新日期：2024.11.15 13:19:01</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="D33" s="12" t="inlineStr">
         <is>
-          <t>*maa://20916 (76.92)</t>
+          <t>*maa://20916 (77.78)</t>
         </is>
       </c>
       <c r="E33" s="3" t="inlineStr">
@@ -2743,7 +2743,7 @@
       </c>
       <c r="D70" s="12" t="inlineStr">
         <is>
-          <t>maa://36643 (97.47), maa://36864 (100.0), maa://39140 (100.0)</t>
+          <t>maa://36643 (97.49), maa://36864 (100.0), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E70" s="3" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="D105" s="12" t="inlineStr">
         <is>
-          <t>maa://25018 (95.96), maa://25776 (90.32), maa://28361 (96.77), maa://25772 (92.31), *maa://25161 (78.57), maa://32653 (85.71)</t>
+          <t>maa://25018 (95.97), maa://25776 (90.32), maa://28361 (96.77), maa://25772 (92.31), *maa://25161 (78.57), maa://32653 (85.71)</t>
         </is>
       </c>
       <c r="E105" s="3" t="inlineStr">
@@ -4768,7 +4768,7 @@
       </c>
       <c r="D145" s="12" t="inlineStr">
         <is>
-          <t>maa://36641 (98.23), maa://36865 (95.45), maa://37300 (100.0), maa://42918 (100.0), maa://42917 (100.0)</t>
+          <t>maa://36641 (98.23), maa://36865 (95.5), maa://37300 (100.0), maa://42918 (100.0), maa://42917 (100.0)</t>
         </is>
       </c>
       <c r="E145" s="3" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="D188" s="12" t="inlineStr">
         <is>
-          <t>maa://25760 (85.9), *maa://35854 (70.97), **maa://20872 (50.0)</t>
+          <t>maa://25760 (85.9), *maa://35854 (71.88), **maa://20872 (50.0)</t>
         </is>
       </c>
       <c r="E188" s="3" t="inlineStr">
@@ -6037,7 +6037,7 @@
       </c>
       <c r="D192" s="12" t="inlineStr">
         <is>
-          <t>maa://42223 (98.84), maa://42292 (92.86), maa://42402 (100.0)</t>
+          <t>maa://42223 (98.86), maa://42292 (93.33), maa://42402 (100.0)</t>
         </is>
       </c>
       <c r="E192" s="3" t="inlineStr">
@@ -6685,7 +6685,7 @@
       </c>
       <c r="D216" s="12" t="inlineStr">
         <is>
-          <t>maa://20987 (91.43), *maa://35801 (75.0)</t>
+          <t>maa://20987 (91.55), *maa://35801 (75.0)</t>
         </is>
       </c>
       <c r="E216" s="3" t="inlineStr">
@@ -7414,7 +7414,7 @@
       </c>
       <c r="D243" s="12" t="inlineStr">
         <is>
-          <t>maa://20877 (98.21), maa://20836 (100.0)</t>
+          <t>maa://20877 (98.25), maa://20836 (100.0)</t>
         </is>
       </c>
       <c r="E243" s="3" t="inlineStr">
@@ -8899,7 +8899,7 @@
       </c>
       <c r="D298" s="12" t="inlineStr">
         <is>
-          <t>maa://39692 (99.54), *maa://39810 (80.0)</t>
+          <t>maa://39692 (99.55), *maa://39810 (80.0)</t>
         </is>
       </c>
       <c r="E298" s="3" t="inlineStr">
@@ -9196,7 +9196,7 @@
       </c>
       <c r="D309" s="12" t="inlineStr">
         <is>
-          <t>maa://42968 (98.86)</t>
+          <t>maa://42968 (98.92)</t>
         </is>
       </c>
       <c r="E309" s="3" t="inlineStr">
@@ -9547,7 +9547,7 @@
       </c>
       <c r="D322" s="12" t="inlineStr">
         <is>
-          <t>maa://34865 (96.67), maa://34717 (92.86)</t>
+          <t>maa://34865 (96.69), maa://34717 (92.86)</t>
         </is>
       </c>
       <c r="E322" s="3" t="inlineStr">
@@ -9844,7 +9844,7 @@
       </c>
       <c r="D333" s="14" t="inlineStr">
         <is>
-          <t>maa://40957 (83.33), maa://41128 (80.95), maa://41035 (85.71)</t>
+          <t>maa://40957 (83.02), maa://41128 (80.95), maa://41035 (85.71)</t>
         </is>
       </c>
       <c r="E333" s="14" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>*maa://42970 (60.53)</t>
+          <t>*maa://42970 (61.9)</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.15 13:19:01</t>
+          <t>更新日期：2024.11.16 13:18:21</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>maa://36644 (87.9), maa://36866 (96.97), maa://27794 (100.0)</t>
+          <t>maa://36644 (88.0), maa://36866 (96.97), maa://27794 (100.0)</t>
         </is>
       </c>
       <c r="E31" s="3" t="inlineStr">
@@ -2257,7 +2257,7 @@
       </c>
       <c r="D52" s="12" t="inlineStr">
         <is>
-          <t>maa://20953 (94.44), maa://31173 (87.5)</t>
+          <t>maa://20953 (94.44), maa://31173 (88.89)</t>
         </is>
       </c>
       <c r="E52" s="3" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="D57" s="12" t="inlineStr">
         <is>
-          <t>maa://27970 (98.25), maa://41118 (100.0)</t>
+          <t>maa://27970 (98.31), maa://41118 (100.0)</t>
         </is>
       </c>
       <c r="E57" s="3" t="inlineStr">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="D59" s="12" t="inlineStr">
         <is>
-          <t>maa://20841 (100.0), maa://24093 (100.0), maa://31559 (94.74), maa://25777 (100.0), maa://20631 (100.0)</t>
+          <t>maa://20841 (100.0), maa://24093 (100.0), maa://31559 (95.0), maa://25777 (100.0), maa://20631 (100.0)</t>
         </is>
       </c>
       <c r="E59" s="3" t="inlineStr">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="D67" s="12" t="inlineStr">
         <is>
-          <t>maa://28784 (93.87), maa://29088 (91.76), maa://20974 (93.62), maa://31124 (96.45), maa://28950 (91.3), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67), maa://41832 (81.82)</t>
+          <t>maa://28784 (93.87), maa://29088 (91.76), maa://20974 (94.23), maa://31124 (96.45), maa://28950 (91.3), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67), maa://41832 (81.82)</t>
         </is>
       </c>
       <c r="E67" s="3" t="inlineStr">
@@ -2743,7 +2743,7 @@
       </c>
       <c r="D70" s="12" t="inlineStr">
         <is>
-          <t>maa://36643 (97.49), maa://36864 (100.0), maa://39140 (100.0)</t>
+          <t>maa://36643 (97.5), maa://36864 (100.0), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E70" s="3" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="D105" s="12" t="inlineStr">
         <is>
-          <t>maa://25018 (95.97), maa://25776 (90.32), maa://28361 (96.77), maa://25772 (92.31), *maa://25161 (78.57), maa://32653 (85.71)</t>
+          <t>maa://25018 (95.99), maa://25776 (90.32), maa://28361 (96.77), maa://25772 (92.31), *maa://25161 (78.57), maa://32653 (85.71)</t>
         </is>
       </c>
       <c r="E105" s="3" t="inlineStr">
@@ -5924,12 +5924,12 @@
       </c>
       <c r="C188" s="13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D188" s="12" t="inlineStr">
         <is>
-          <t>maa://25760 (85.9), *maa://35854 (71.88), **maa://20872 (50.0)</t>
+          <t>maa://25760 (86.08), *maa://35854 (71.88), **maa://20872 (50.0), ***maa://43443 (16.67)</t>
         </is>
       </c>
       <c r="E188" s="3" t="inlineStr">
@@ -6037,7 +6037,7 @@
       </c>
       <c r="D192" s="12" t="inlineStr">
         <is>
-          <t>maa://42223 (98.86), maa://42292 (93.33), maa://42402 (100.0)</t>
+          <t>maa://42223 (98.9), maa://42292 (93.33), maa://42402 (100.0)</t>
         </is>
       </c>
       <c r="E192" s="3" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="D201" s="12" t="inlineStr">
         <is>
-          <t>maa://20956 (95.36), *maa://20830 (77.78)</t>
+          <t>maa://20956 (95.42), *maa://20830 (77.78)</t>
         </is>
       </c>
       <c r="E201" s="3" t="inlineStr">
@@ -7333,7 +7333,7 @@
       </c>
       <c r="D240" s="12" t="inlineStr">
         <is>
-          <t>maa://24093 (100.0), maa://31559 (94.74), maa://20924 (95.0)</t>
+          <t>maa://24093 (100.0), maa://31559 (95.0), maa://20924 (95.0)</t>
         </is>
       </c>
       <c r="E240" s="3" t="inlineStr">
@@ -8170,7 +8170,7 @@
       </c>
       <c r="D271" s="12" t="inlineStr">
         <is>
-          <t>maa://30710 (97.0), maa://36845 (94.44), maa://31558 (96.3), **maa://39217 (41.67), maa://30668 (83.33)</t>
+          <t>maa://30710 (97.03), maa://36845 (94.51), maa://31558 (96.3), **maa://39217 (41.67), maa://30668 (83.33)</t>
         </is>
       </c>
       <c r="E271" s="3" t="inlineStr">
@@ -8818,7 +8818,7 @@
       </c>
       <c r="D295" s="12" t="inlineStr">
         <is>
-          <t>maa://31559 (94.74), maa://28241 (100.0)</t>
+          <t>maa://31559 (95.0), maa://28241 (100.0)</t>
         </is>
       </c>
       <c r="E295" s="3" t="inlineStr">
@@ -8899,7 +8899,7 @@
       </c>
       <c r="D298" s="12" t="inlineStr">
         <is>
-          <t>maa://39692 (99.55), *maa://39810 (80.0)</t>
+          <t>maa://39692 (99.56), *maa://39810 (80.0)</t>
         </is>
       </c>
       <c r="E298" s="3" t="inlineStr">
@@ -9196,7 +9196,7 @@
       </c>
       <c r="D309" s="12" t="inlineStr">
         <is>
-          <t>maa://42968 (98.92)</t>
+          <t>maa://42968 (99.11)</t>
         </is>
       </c>
       <c r="E309" s="3" t="inlineStr">
@@ -9412,7 +9412,7 @@
       </c>
       <c r="D317" s="12" t="inlineStr">
         <is>
-          <t>maa://32647 (97.11), maa://32415 (96.49), maa://34677 (100.0), maa://32892 (100.0)</t>
+          <t>maa://32647 (97.12), maa://32415 (96.55), maa://34677 (100.0), maa://32892 (100.0)</t>
         </is>
       </c>
       <c r="E317" s="3" t="inlineStr">
@@ -9547,7 +9547,7 @@
       </c>
       <c r="D322" s="12" t="inlineStr">
         <is>
-          <t>maa://34865 (96.69), maa://34717 (92.86)</t>
+          <t>maa://34865 (96.71), maa://34717 (92.86)</t>
         </is>
       </c>
       <c r="E322" s="3" t="inlineStr">
@@ -9628,7 +9628,7 @@
       </c>
       <c r="D325" s="12" t="inlineStr">
         <is>
-          <t>maa://36868 (100.0), maa://35996 (94.87), **maa://39217 (41.67)</t>
+          <t>maa://36868 (100.0), maa://35996 (95.12), **maa://39217 (41.67)</t>
         </is>
       </c>
       <c r="E325" s="3" t="inlineStr">
@@ -9709,7 +9709,7 @@
       </c>
       <c r="D328" s="12" t="inlineStr">
         <is>
-          <t>maa://36646 (98.4), maa://36845 (94.44), **maa://39217 (41.67)</t>
+          <t>maa://36646 (98.42), maa://36845 (94.51), **maa://39217 (41.67)</t>
         </is>
       </c>
       <c r="E328" s="3" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="D329" s="12" t="inlineStr">
         <is>
-          <t>maa://36645 (97.75), maa://36841 (93.33), maa://37484 (93.18), maa://37858 (91.3)</t>
+          <t>maa://36645 (97.77), maa://36841 (93.48), maa://37484 (93.18), maa://37858 (91.3)</t>
         </is>
       </c>
       <c r="E329" s="3" t="inlineStr">
@@ -9844,7 +9844,7 @@
       </c>
       <c r="D333" s="14" t="inlineStr">
         <is>
-          <t>maa://40957 (83.02), maa://41128 (80.95), maa://41035 (85.71)</t>
+          <t>maa://40957 (83.33), maa://41128 (80.95), maa://41035 (85.71)</t>
         </is>
       </c>
       <c r="E333" s="14" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.16 13:18:21</t>
+          <t>更新日期：2024.11.17 00:06:00</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>maa://36644 (88.0), maa://36866 (96.97), maa://27794 (100.0)</t>
+          <t>maa://36644 (88.1), maa://36866 (97.06), maa://27794 (100.0)</t>
         </is>
       </c>
       <c r="E31" s="3" t="inlineStr">
@@ -2257,7 +2257,7 @@
       </c>
       <c r="D52" s="12" t="inlineStr">
         <is>
-          <t>maa://20953 (94.44), maa://31173 (88.89)</t>
+          <t>maa://20953 (94.74), maa://31173 (88.89)</t>
         </is>
       </c>
       <c r="E52" s="3" t="inlineStr">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="D67" s="12" t="inlineStr">
         <is>
-          <t>maa://28784 (93.87), maa://29088 (91.76), maa://20974 (94.23), maa://31124 (96.45), maa://28950 (91.3), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67), maa://41832 (81.82)</t>
+          <t>maa://28784 (93.87), maa://29088 (91.76), maa://20974 (94.83), maa://31124 (96.45), maa://28950 (91.3), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67), maa://41832 (81.82)</t>
         </is>
       </c>
       <c r="E67" s="3" t="inlineStr">
@@ -2743,7 +2743,7 @@
       </c>
       <c r="D70" s="12" t="inlineStr">
         <is>
-          <t>maa://36643 (97.5), maa://36864 (100.0), maa://39140 (100.0)</t>
+          <t>maa://36643 (97.51), maa://36864 (100.0), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E70" s="3" t="inlineStr">
@@ -3148,7 +3148,7 @@
       </c>
       <c r="D85" s="12" t="inlineStr">
         <is>
-          <t>maa://20886 (88.89), maa://25136 (93.33)</t>
+          <t>maa://20886 (88.89), maa://25136 (93.75)</t>
         </is>
       </c>
       <c r="E85" s="3" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="D105" s="12" t="inlineStr">
         <is>
-          <t>maa://25018 (95.99), maa://25776 (90.32), maa://28361 (96.77), maa://25772 (92.31), *maa://25161 (78.57), maa://32653 (85.71)</t>
+          <t>maa://25018 (95.99), maa://25776 (90.48), maa://28361 (96.77), maa://25772 (92.5), *maa://25161 (78.57), maa://32653 (85.71)</t>
         </is>
       </c>
       <c r="E105" s="3" t="inlineStr">
@@ -5200,7 +5200,7 @@
       </c>
       <c r="D161" s="12" t="inlineStr">
         <is>
-          <t>maa://29633 (92.42), maa://29627 (92.81), maa://29659 (82.14), maa://29861 (100.0)</t>
+          <t>maa://29633 (92.46), maa://29627 (92.81), maa://29659 (82.14), maa://29861 (100.0)</t>
         </is>
       </c>
       <c r="E161" s="3" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="D188" s="12" t="inlineStr">
         <is>
-          <t>maa://25760 (86.08), *maa://35854 (71.88), **maa://20872 (50.0), ***maa://43443 (16.67)</t>
+          <t>*maa://35854 (72.73), maa://25760 (86.08), **maa://20872 (50.0), ***maa://43443 (16.67)</t>
         </is>
       </c>
       <c r="E188" s="3" t="inlineStr">
@@ -5983,7 +5983,7 @@
       </c>
       <c r="D190" s="12" t="inlineStr">
         <is>
-          <t>maa://27823 (81.48), *maa://28190 (56.67), maa://22894 (90.62), *maa://20906 (72.22), **maa://20907 (33.33)</t>
+          <t>maa://27823 (81.82), *maa://28190 (56.67), maa://22894 (90.62), *maa://20906 (72.22), **maa://20907 (33.33)</t>
         </is>
       </c>
       <c r="E190" s="3" t="inlineStr">
@@ -6010,7 +6010,7 @@
       </c>
       <c r="D191" s="12" t="inlineStr">
         <is>
-          <t>maa://27823 (81.48), *maa://28190 (56.67), maa://22894 (90.62), *maa://20906 (72.22), **maa://20907 (33.33)</t>
+          <t>maa://27823 (81.82), *maa://28190 (56.67), maa://22894 (90.62), *maa://20906 (72.22), **maa://20907 (33.33)</t>
         </is>
       </c>
       <c r="E191" s="3" t="inlineStr">
@@ -6037,7 +6037,7 @@
       </c>
       <c r="D192" s="12" t="inlineStr">
         <is>
-          <t>maa://42223 (98.9), maa://42292 (93.33), maa://42402 (100.0)</t>
+          <t>maa://42223 (98.91), maa://42292 (93.33), maa://42402 (100.0)</t>
         </is>
       </c>
       <c r="E192" s="3" t="inlineStr">
@@ -7009,7 +7009,7 @@
       </c>
       <c r="D228" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (76.27), maa://30666 (83.51), *maa://26836 (75.89), maa://37607 (92.72), **maa://30739 (44.44), *maa://34428 (66.67), *maa://30723 (50.94), maa://39588 (85.29), *maa://37850 (66.67)</t>
+          <t>*maa://30667 (76.12), maa://30666 (83.51), *maa://26836 (75.89), maa://37607 (92.76), **maa://30739 (44.44), *maa://34428 (66.67), *maa://30723 (50.94), maa://39588 (85.29), *maa://37850 (66.67)</t>
         </is>
       </c>
       <c r="E228" s="3" t="inlineStr">
@@ -7252,7 +7252,7 @@
       </c>
       <c r="D237" s="14" t="inlineStr">
         <is>
-          <t>maa://42287 (90.0), maa://42225 (100.0)</t>
+          <t>maa://42287 (90.48), maa://42225 (100.0)</t>
         </is>
       </c>
       <c r="E237" s="3" t="inlineStr">
@@ -8170,7 +8170,7 @@
       </c>
       <c r="D271" s="12" t="inlineStr">
         <is>
-          <t>maa://30710 (97.03), maa://36845 (94.51), maa://31558 (96.3), **maa://39217 (41.67), maa://30668 (83.33)</t>
+          <t>maa://30710 (97.03), maa://36845 (94.57), maa://31558 (96.3), **maa://39217 (41.67), maa://30668 (84.0)</t>
         </is>
       </c>
       <c r="E271" s="3" t="inlineStr">
@@ -8899,7 +8899,7 @@
       </c>
       <c r="D298" s="12" t="inlineStr">
         <is>
-          <t>maa://39692 (99.56), *maa://39810 (80.0)</t>
+          <t>maa://39692 (99.58), *maa://39810 (80.0)</t>
         </is>
       </c>
       <c r="E298" s="3" t="inlineStr">
@@ -9196,7 +9196,7 @@
       </c>
       <c r="D309" s="12" t="inlineStr">
         <is>
-          <t>maa://42968 (99.11)</t>
+          <t>maa://42968 (99.3)</t>
         </is>
       </c>
       <c r="E309" s="3" t="inlineStr">
@@ -9277,7 +9277,7 @@
       </c>
       <c r="D312" s="12" t="inlineStr">
         <is>
-          <t>maa://30671 (80.58), maa://30669 (98.48), maa://37275 (82.86), *maa://32410 (63.64), maa://41605 (100.0), maa://33671 (100.0)</t>
+          <t>maa://30671 (80.71), maa://30669 (98.48), maa://37275 (82.86), *maa://32410 (63.64), maa://41605 (100.0), maa://33671 (100.0)</t>
         </is>
       </c>
       <c r="E312" s="3" t="inlineStr">
@@ -9412,7 +9412,7 @@
       </c>
       <c r="D317" s="12" t="inlineStr">
         <is>
-          <t>maa://32647 (97.12), maa://32415 (96.55), maa://34677 (100.0), maa://32892 (100.0)</t>
+          <t>maa://32647 (97.16), maa://32415 (96.55), maa://34677 (100.0), maa://32892 (100.0)</t>
         </is>
       </c>
       <c r="E317" s="3" t="inlineStr">
@@ -9628,7 +9628,7 @@
       </c>
       <c r="D325" s="12" t="inlineStr">
         <is>
-          <t>maa://36868 (100.0), maa://35996 (95.12), **maa://39217 (41.67)</t>
+          <t>maa://36868 (100.0), maa://35996 (95.35), **maa://39217 (41.67)</t>
         </is>
       </c>
       <c r="E325" s="3" t="inlineStr">
@@ -9709,7 +9709,7 @@
       </c>
       <c r="D328" s="12" t="inlineStr">
         <is>
-          <t>maa://36646 (98.42), maa://36845 (94.51), **maa://39217 (41.67)</t>
+          <t>maa://36646 (98.43), maa://36845 (94.57), **maa://39217 (41.67)</t>
         </is>
       </c>
       <c r="E328" s="3" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="D329" s="12" t="inlineStr">
         <is>
-          <t>maa://36645 (97.77), maa://36841 (93.48), maa://37484 (93.18), maa://37858 (91.3)</t>
+          <t>maa://36645 (97.77), maa://36841 (93.62), maa://37484 (93.18), maa://37858 (91.3)</t>
         </is>
       </c>
       <c r="E329" s="3" t="inlineStr">
@@ -9844,7 +9844,7 @@
       </c>
       <c r="D333" s="14" t="inlineStr">
         <is>
-          <t>maa://40957 (83.33), maa://41128 (80.95), maa://41035 (85.71)</t>
+          <t>maa://40957 (82.73), maa://41128 (80.95), maa://41035 (85.71)</t>
         </is>
       </c>
       <c r="E333" s="14" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>*maa://42970 (61.9)</t>
+          <t>*maa://42970 (66.67)</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.17 00:06:00</t>
+          <t>更新日期：2024.11.17 13:18:12</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -2257,7 +2257,7 @@
       </c>
       <c r="D52" s="12" t="inlineStr">
         <is>
-          <t>maa://20953 (94.74), maa://31173 (88.89)</t>
+          <t>maa://20953 (94.74), maa://31173 (90.0)</t>
         </is>
       </c>
       <c r="E52" s="3" t="inlineStr">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="D67" s="12" t="inlineStr">
         <is>
-          <t>maa://28784 (93.87), maa://29088 (91.76), maa://20974 (94.83), maa://31124 (96.45), maa://28950 (91.3), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67), maa://41832 (81.82)</t>
+          <t>maa://28784 (93.87), maa://29088 (91.76), maa://20974 (94.92), maa://31124 (96.45), maa://28950 (91.3), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67), maa://41832 (81.82)</t>
         </is>
       </c>
       <c r="E67" s="3" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="D105" s="12" t="inlineStr">
         <is>
-          <t>maa://25018 (95.99), maa://25776 (90.48), maa://28361 (96.77), maa://25772 (92.5), *maa://25161 (78.57), maa://32653 (85.71)</t>
+          <t>maa://25018 (96.0), maa://25776 (90.48), maa://28361 (96.77), maa://25772 (92.5), *maa://25161 (78.57), maa://32653 (85.71)</t>
         </is>
       </c>
       <c r="E105" s="3" t="inlineStr">
@@ -4768,7 +4768,7 @@
       </c>
       <c r="D145" s="12" t="inlineStr">
         <is>
-          <t>maa://36641 (98.23), maa://36865 (95.5), maa://37300 (100.0), maa://42918 (100.0), maa://42917 (100.0)</t>
+          <t>maa://36641 (98.23), maa://36865 (95.5), maa://42918 (100.0), maa://37300 (100.0), maa://42917 (100.0)</t>
         </is>
       </c>
       <c r="E145" s="3" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="D188" s="12" t="inlineStr">
         <is>
-          <t>*maa://35854 (72.73), maa://25760 (86.08), **maa://20872 (50.0), ***maa://43443 (16.67)</t>
+          <t>*maa://35854 (73.53), maa://25760 (86.25), **maa://20872 (50.0), ***maa://43443 (16.67)</t>
         </is>
       </c>
       <c r="E188" s="3" t="inlineStr">
@@ -6037,7 +6037,7 @@
       </c>
       <c r="D192" s="12" t="inlineStr">
         <is>
-          <t>maa://42223 (98.91), maa://42292 (93.33), maa://42402 (100.0)</t>
+          <t>maa://42223 (98.95), maa://42292 (93.33), maa://42402 (100.0)</t>
         </is>
       </c>
       <c r="E192" s="3" t="inlineStr">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="D202" s="12" t="inlineStr">
         <is>
-          <t>*maa://20955 (75.86)</t>
+          <t>*maa://20955 (76.67)</t>
         </is>
       </c>
       <c r="E202" s="3" t="inlineStr">
@@ -6334,7 +6334,7 @@
       </c>
       <c r="D203" s="12" t="inlineStr">
         <is>
-          <t>maa://39238 (98.96)</t>
+          <t>maa://39238 (98.97)</t>
         </is>
       </c>
       <c r="E203" s="3" t="inlineStr">
@@ -6928,7 +6928,7 @@
       </c>
       <c r="D225" s="12" t="inlineStr">
         <is>
-          <t>maa://30714 (97.22), maa://30675 (100.0)</t>
+          <t>maa://30714 (97.3), maa://30675 (100.0)</t>
         </is>
       </c>
       <c r="E225" s="3" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="D236" s="12" t="inlineStr">
         <is>
-          <t>maa://28923 (91.67), maa://28906 (97.44), ***maa://28825 (12.0)</t>
+          <t>maa://28923 (91.72), maa://28906 (97.44), ***maa://28825 (12.0)</t>
         </is>
       </c>
       <c r="E236" s="3" t="inlineStr">
@@ -8170,7 +8170,7 @@
       </c>
       <c r="D271" s="12" t="inlineStr">
         <is>
-          <t>maa://30710 (97.03), maa://36845 (94.57), maa://31558 (96.3), **maa://39217 (41.67), maa://30668 (84.0)</t>
+          <t>maa://30710 (97.03), maa://36845 (94.62), maa://31558 (96.3), **maa://39217 (41.67), maa://30668 (84.0)</t>
         </is>
       </c>
       <c r="E271" s="3" t="inlineStr">
@@ -9196,7 +9196,7 @@
       </c>
       <c r="D309" s="12" t="inlineStr">
         <is>
-          <t>maa://42968 (99.3)</t>
+          <t>maa://42968 (99.35)</t>
         </is>
       </c>
       <c r="E309" s="3" t="inlineStr">
@@ -9709,7 +9709,7 @@
       </c>
       <c r="D328" s="12" t="inlineStr">
         <is>
-          <t>maa://36646 (98.43), maa://36845 (94.57), **maa://39217 (41.67)</t>
+          <t>maa://36646 (98.43), maa://36845 (94.62), **maa://39217 (41.67)</t>
         </is>
       </c>
       <c r="E328" s="3" t="inlineStr">
@@ -9844,7 +9844,7 @@
       </c>
       <c r="D333" s="14" t="inlineStr">
         <is>
-          <t>maa://40957 (82.73), maa://41128 (80.95), maa://41035 (85.71)</t>
+          <t>maa://40957 (83.04), maa://41128 (81.82), maa://41035 (86.67)</t>
         </is>
       </c>
       <c r="E333" s="14" t="inlineStr">
@@ -10141,7 +10141,7 @@
       </c>
       <c r="D344" s="21" t="inlineStr">
         <is>
-          <t>**maa://43096 (37.5)</t>
+          <t>**maa://43096 (44.44)</t>
         </is>
       </c>
       <c r="E344" s="21" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>*maa://42970 (66.67)</t>
+          <t>*maa://42970 (68.0)</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.17 13:18:12</t>
+          <t>更新日期：2024.11.19 13:18:32</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="D22" s="12" t="inlineStr">
         <is>
-          <t>maa://20876 (92.31)</t>
+          <t>maa://20876 (92.86)</t>
         </is>
       </c>
       <c r="E22" s="3" t="inlineStr">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="D23" s="12" t="inlineStr">
         <is>
-          <t>maa://20951 (100.0)</t>
+          <t>*maa://20951 (66.67)</t>
         </is>
       </c>
       <c r="E23" s="3" t="inlineStr">
@@ -1490,12 +1490,12 @@
       </c>
       <c r="C26" s="13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D26" s="12" t="inlineStr">
         <is>
-          <t>*maa://20849 (62.16), *maa://28758 (55.17), maa://29036 (94.12), maa://30285 (100.0)</t>
+          <t>*maa://20849 (62.16), *maa://28758 (55.17), maa://29036 (94.12), maa://30285 (100.0), maa://42172 (100.0)</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>maa://36644 (88.1), maa://36866 (97.06), maa://27794 (100.0)</t>
+          <t>maa://36644 (88.19), maa://36866 (97.22), maa://27794 (100.0)</t>
         </is>
       </c>
       <c r="E31" s="3" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="D32" s="12" t="inlineStr">
         <is>
-          <t>maa://30500 (98.21), *maa://27290 (70.59), maa://42154 (100.0)</t>
+          <t>maa://30500 (98.21), *maa://27290 (70.59), **maa://42154 (50.0)</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
@@ -2257,7 +2257,7 @@
       </c>
       <c r="D52" s="12" t="inlineStr">
         <is>
-          <t>maa://20953 (94.74), maa://31173 (90.0)</t>
+          <t>maa://20953 (94.74), maa://31173 (91.67)</t>
         </is>
       </c>
       <c r="E52" s="3" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="D58" s="12" t="inlineStr">
         <is>
-          <t>maa://38298 (84.38)</t>
+          <t>maa://38298 (81.82)</t>
         </is>
       </c>
       <c r="E58" s="3" t="inlineStr">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="D67" s="12" t="inlineStr">
         <is>
-          <t>maa://28784 (93.87), maa://29088 (91.76), maa://20974 (94.92), maa://31124 (96.45), maa://28950 (91.3), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67), maa://41832 (81.82)</t>
+          <t>maa://28784 (93.87), maa://29088 (91.76), maa://20974 (95.24), maa://31124 (96.45), maa://28950 (91.3), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67), maa://41832 (81.82)</t>
         </is>
       </c>
       <c r="E67" s="3" t="inlineStr">
@@ -2743,7 +2743,7 @@
       </c>
       <c r="D70" s="12" t="inlineStr">
         <is>
-          <t>maa://36643 (97.51), maa://36864 (100.0), maa://39140 (100.0)</t>
+          <t>maa://36643 (97.56), maa://36864 (100.0), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E70" s="3" t="inlineStr">
@@ -3175,7 +3175,7 @@
       </c>
       <c r="D86" s="12" t="inlineStr">
         <is>
-          <t>maa://24472 (85.11), *maa://35841 (54.55)</t>
+          <t>maa://24472 (85.21), *maa://35841 (54.55)</t>
         </is>
       </c>
       <c r="E86" s="3" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="D105" s="12" t="inlineStr">
         <is>
-          <t>maa://25018 (96.0), maa://25776 (90.48), maa://28361 (96.77), maa://25772 (92.5), *maa://25161 (78.57), maa://32653 (85.71)</t>
+          <t>maa://25018 (96.03), maa://25776 (90.48), maa://28361 (96.77), maa://25772 (92.5), *maa://25161 (78.57), maa://32653 (85.71)</t>
         </is>
       </c>
       <c r="E105" s="3" t="inlineStr">
@@ -3823,7 +3823,7 @@
       </c>
       <c r="D110" s="12" t="inlineStr">
         <is>
-          <t>maa://29037 (96.67)</t>
+          <t>maa://29037 (96.97)</t>
         </is>
       </c>
       <c r="E110" s="3" t="inlineStr">
@@ -3877,7 +3877,7 @@
       </c>
       <c r="D112" s="12" t="inlineStr">
         <is>
-          <t>maa://20908 (98.24), *maa://23346 (77.78), maa://35723 (94.44), maa://38822 (100.0)</t>
+          <t>maa://20908 (98.25), *maa://23346 (77.78), maa://35723 (94.44), maa://38822 (100.0)</t>
         </is>
       </c>
       <c r="E112" s="3" t="inlineStr">
@@ -4255,7 +4255,7 @@
       </c>
       <c r="D126" s="12" t="inlineStr">
         <is>
-          <t>maa://21422 (98.67)</t>
+          <t>maa://21422 (98.72)</t>
         </is>
       </c>
       <c r="E126" s="3" t="inlineStr">
@@ -4579,7 +4579,7 @@
       </c>
       <c r="D138" s="12" t="inlineStr">
         <is>
-          <t>maa://28484 (97.26), **maa://23736 (41.54), *maa://31185 (80.0), maa://30306 (100.0)</t>
+          <t>maa://28484 (97.3), **maa://23736 (41.54), *maa://31185 (80.0), maa://30306 (100.0)</t>
         </is>
       </c>
       <c r="E138" s="3" t="inlineStr">
@@ -4606,7 +4606,7 @@
       </c>
       <c r="D139" s="12" t="inlineStr">
         <is>
-          <t>maa://30670 (95.79), maa://31470 (94.44), ***maa://30867 (25.0)</t>
+          <t>maa://30670 (95.83), maa://31470 (94.44), ***maa://30867 (25.0)</t>
         </is>
       </c>
       <c r="E139" s="3" t="inlineStr">
@@ -4768,7 +4768,7 @@
       </c>
       <c r="D145" s="12" t="inlineStr">
         <is>
-          <t>maa://36641 (98.23), maa://36865 (95.5), maa://42918 (100.0), maa://37300 (100.0), maa://42917 (100.0)</t>
+          <t>maa://36641 (98.25), maa://36865 (95.5), maa://42918 (100.0), maa://37300 (100.0), maa://42917 (100.0)</t>
         </is>
       </c>
       <c r="E145" s="3" t="inlineStr">
@@ -5200,7 +5200,7 @@
       </c>
       <c r="D161" s="12" t="inlineStr">
         <is>
-          <t>maa://29633 (92.46), maa://29627 (92.81), maa://29659 (82.14), maa://29861 (100.0)</t>
+          <t>maa://29633 (92.5), maa://29627 (92.81), maa://29659 (82.14), maa://29861 (100.0)</t>
         </is>
       </c>
       <c r="E161" s="3" t="inlineStr">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="D166" s="12" t="inlineStr">
         <is>
-          <t>maa://32418 (99.46)</t>
+          <t>maa://32418 (99.47)</t>
         </is>
       </c>
       <c r="E166" s="3" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="D188" s="12" t="inlineStr">
         <is>
-          <t>*maa://35854 (73.53), maa://25760 (86.25), **maa://20872 (50.0), ***maa://43443 (16.67)</t>
+          <t>*maa://35854 (73.53), maa://25760 (86.42), **maa://20872 (50.0), ***maa://43443 (16.67)</t>
         </is>
       </c>
       <c r="E188" s="3" t="inlineStr">
@@ -6037,7 +6037,7 @@
       </c>
       <c r="D192" s="12" t="inlineStr">
         <is>
-          <t>maa://42223 (98.95), maa://42292 (93.33), maa://42402 (100.0)</t>
+          <t>maa://42223 (98.98), maa://42292 (93.33), maa://42402 (100.0)</t>
         </is>
       </c>
       <c r="E192" s="3" t="inlineStr">
@@ -6253,7 +6253,7 @@
       </c>
       <c r="D200" s="12" t="inlineStr">
         <is>
-          <t>maa://28133 (90.0), *maa://28277 (79.17), **maa://39217 (41.67), maa://25369 (93.1), *maa://33132 (66.67)</t>
+          <t>maa://28133 (90.0), *maa://28277 (79.17), **maa://39217 (38.46), maa://25369 (93.1), *maa://33132 (66.67)</t>
         </is>
       </c>
       <c r="E200" s="3" t="inlineStr">
@@ -7009,7 +7009,7 @@
       </c>
       <c r="D228" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (76.12), maa://30666 (83.51), *maa://26836 (75.89), maa://37607 (92.76), **maa://30739 (44.44), *maa://34428 (66.67), *maa://30723 (50.94), maa://39588 (85.29), *maa://37850 (66.67)</t>
+          <t>*maa://30667 (76.32), maa://30666 (83.51), *maa://26836 (76.06), maa://37607 (92.76), **maa://30739 (44.44), *maa://34428 (66.67), *maa://30723 (50.94), maa://39588 (85.29), *maa://37850 (66.67)</t>
         </is>
       </c>
       <c r="E228" s="3" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="D236" s="12" t="inlineStr">
         <is>
-          <t>maa://28923 (91.72), maa://28906 (97.44), ***maa://28825 (12.0)</t>
+          <t>maa://28923 (91.77), maa://28906 (97.44), ***maa://28825 (12.0)</t>
         </is>
       </c>
       <c r="E236" s="3" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="D249" s="12" t="inlineStr">
         <is>
-          <t>maa://29027 (97.37)</t>
+          <t>maa://29027 (97.44)</t>
         </is>
       </c>
       <c r="E249" s="3" t="inlineStr">
@@ -8116,7 +8116,7 @@
       </c>
       <c r="D269" s="12" t="inlineStr">
         <is>
-          <t>maa://20899 (89.73)</t>
+          <t>maa://20899 (89.8)</t>
         </is>
       </c>
       <c r="E269" s="3" t="inlineStr">
@@ -8170,7 +8170,7 @@
       </c>
       <c r="D271" s="12" t="inlineStr">
         <is>
-          <t>maa://30710 (97.03), maa://36845 (94.62), maa://31558 (96.3), **maa://39217 (41.67), maa://30668 (84.0)</t>
+          <t>maa://30710 (97.03), maa://36845 (94.74), maa://31558 (96.43), **maa://39217 (38.46), maa://30668 (84.0)</t>
         </is>
       </c>
       <c r="E271" s="3" t="inlineStr">
@@ -8251,7 +8251,7 @@
       </c>
       <c r="D274" s="12" t="inlineStr">
         <is>
-          <t>maa://25774 (100.0), maa://28133 (90.0), maa://22469 (91.11), **maa://39217 (41.67), **maa://31349 (50.0)</t>
+          <t>maa://25774 (100.0), maa://28133 (90.0), maa://22469 (91.11), **maa://39217 (38.46), **maa://31349 (50.0)</t>
         </is>
       </c>
       <c r="E274" s="3" t="inlineStr">
@@ -8278,7 +8278,7 @@
       </c>
       <c r="D275" s="12" t="inlineStr">
         <is>
-          <t>maa://32414 (98.48), maa://32505 (100.0), maa://39155 (95.0)</t>
+          <t>maa://32414 (98.49), maa://32505 (100.0), maa://39155 (95.0)</t>
         </is>
       </c>
       <c r="E275" s="3" t="inlineStr">
@@ -8737,7 +8737,7 @@
       </c>
       <c r="D292" s="12" t="inlineStr">
         <is>
-          <t>maa://25367 (99.01)</t>
+          <t>maa://25367 (99.02)</t>
         </is>
       </c>
       <c r="E292" s="3" t="inlineStr">
@@ -8899,7 +8899,7 @@
       </c>
       <c r="D298" s="12" t="inlineStr">
         <is>
-          <t>maa://39692 (99.58), *maa://39810 (80.0)</t>
+          <t>maa://39692 (99.61), maa://39810 (81.25)</t>
         </is>
       </c>
       <c r="E298" s="3" t="inlineStr">
@@ -9196,7 +9196,7 @@
       </c>
       <c r="D309" s="12" t="inlineStr">
         <is>
-          <t>maa://42968 (99.35)</t>
+          <t>maa://42968 (99.23)</t>
         </is>
       </c>
       <c r="E309" s="3" t="inlineStr">
@@ -9412,7 +9412,7 @@
       </c>
       <c r="D317" s="12" t="inlineStr">
         <is>
-          <t>maa://32647 (97.16), maa://32415 (96.55), maa://34677 (100.0), maa://32892 (100.0)</t>
+          <t>maa://32647 (97.21), maa://32415 (96.55), maa://34677 (100.0), maa://32892 (100.0)</t>
         </is>
       </c>
       <c r="E317" s="3" t="inlineStr">
@@ -9628,7 +9628,7 @@
       </c>
       <c r="D325" s="12" t="inlineStr">
         <is>
-          <t>maa://36868 (100.0), maa://35996 (95.35), **maa://39217 (41.67)</t>
+          <t>maa://36868 (100.0), maa://35996 (95.65), **maa://39217 (38.46)</t>
         </is>
       </c>
       <c r="E325" s="3" t="inlineStr">
@@ -9709,7 +9709,7 @@
       </c>
       <c r="D328" s="12" t="inlineStr">
         <is>
-          <t>maa://36646 (98.43), maa://36845 (94.62), **maa://39217 (41.67)</t>
+          <t>maa://36646 (98.47), maa://36845 (94.74), **maa://39217 (38.46)</t>
         </is>
       </c>
       <c r="E328" s="3" t="inlineStr">
@@ -9844,7 +9844,7 @@
       </c>
       <c r="D333" s="14" t="inlineStr">
         <is>
-          <t>maa://40957 (83.04), maa://41128 (81.82), maa://41035 (86.67)</t>
+          <t>maa://40957 (83.9), maa://41035 (87.1), *maa://41128 (78.26)</t>
         </is>
       </c>
       <c r="E333" s="14" t="inlineStr">
@@ -10006,7 +10006,7 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>maa://41110 (97.56)</t>
+          <t>maa://41110 (97.62)</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
@@ -10124,27 +10124,27 @@
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="18" t="inlineStr">
+      <c r="A344" s="13" t="inlineStr">
         <is>
           <t>忍冬</t>
         </is>
       </c>
-      <c r="B344" s="18" t="inlineStr">
+      <c r="B344" s="13" t="inlineStr">
         <is>
           <t>S2-3</t>
         </is>
       </c>
-      <c r="C344" s="18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D344" s="21" t="inlineStr">
-        <is>
-          <t>**maa://43096 (44.44)</t>
-        </is>
-      </c>
-      <c r="E344" s="21" t="inlineStr">
+      <c r="C344" s="13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>**maa://43096 (50.0)</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
         <is>
           <t>&gt; 由非助战忍冬累计造成80000点伤害&gt; 3星通关主题曲S2-3；必须编入非助战忍冬并上场，且使用忍冬击败至少24名敌人</t>
         </is>
@@ -10168,7 +10168,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>*maa://42970 (68.0)</t>
+          <t>*maa://42970 (67.92)</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.19 13:18:32</t>
+          <t>更新日期：2024.11.20 13:18:41</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="D19" s="12" t="inlineStr">
         <is>
-          <t>maa://20865 (87.5), maa://20826 (83.33)</t>
+          <t>maa://20865 (88.89), maa://20826 (83.33)</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
@@ -1987,7 +1987,7 @@
       </c>
       <c r="D42" s="12" t="inlineStr">
         <is>
-          <t>maa://20889 (87.5)</t>
+          <t>maa://20889 (88.89)</t>
         </is>
       </c>
       <c r="E42" s="3" t="inlineStr">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="D59" s="12" t="inlineStr">
         <is>
-          <t>maa://20841 (100.0), maa://24093 (100.0), maa://31559 (95.0), maa://25777 (100.0), maa://20631 (100.0)</t>
+          <t>maa://20841 (100.0), maa://24093 (100.0), maa://31559 (95.24), maa://25777 (100.0), maa://20631 (100.0)</t>
         </is>
       </c>
       <c r="E59" s="3" t="inlineStr">
@@ -2527,7 +2527,7 @@
       </c>
       <c r="D62" s="12" t="inlineStr">
         <is>
-          <t>maa://28187 (96.88), maa://33504 (100.0), maa://39520 (100.0)</t>
+          <t>maa://28187 (96.97), maa://33504 (100.0), maa://39520 (100.0)</t>
         </is>
       </c>
       <c r="E62" s="3" t="inlineStr">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="D67" s="12" t="inlineStr">
         <is>
-          <t>maa://28784 (93.87), maa://29088 (91.76), maa://20974 (95.24), maa://31124 (96.45), maa://28950 (91.3), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67), maa://41832 (81.82)</t>
+          <t>maa://28784 (93.87), maa://29088 (91.76), maa://20974 (95.24), maa://31124 (96.48), maa://28950 (91.3), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67), maa://41832 (83.33)</t>
         </is>
       </c>
       <c r="E67" s="3" t="inlineStr">
@@ -2743,7 +2743,7 @@
       </c>
       <c r="D70" s="12" t="inlineStr">
         <is>
-          <t>maa://36643 (97.56), maa://36864 (100.0), maa://39140 (100.0)</t>
+          <t>maa://36643 (97.57), maa://36864 (100.0), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E70" s="3" t="inlineStr">
@@ -3148,7 +3148,7 @@
       </c>
       <c r="D85" s="12" t="inlineStr">
         <is>
-          <t>maa://20886 (88.89), maa://25136 (93.75)</t>
+          <t>maa://20886 (88.89), maa://25136 (94.12)</t>
         </is>
       </c>
       <c r="E85" s="3" t="inlineStr">
@@ -3175,7 +3175,7 @@
       </c>
       <c r="D86" s="12" t="inlineStr">
         <is>
-          <t>maa://24472 (85.21), *maa://35841 (54.55)</t>
+          <t>maa://24472 (85.31), *maa://35841 (54.55)</t>
         </is>
       </c>
       <c r="E86" s="3" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="D124" s="12" t="inlineStr">
         <is>
-          <t>maa://37484 (93.18), maa://24611 (89.29)</t>
+          <t>maa://37484 (93.33), maa://24611 (89.29)</t>
         </is>
       </c>
       <c r="E124" s="3" t="inlineStr">
@@ -4579,7 +4579,7 @@
       </c>
       <c r="D138" s="12" t="inlineStr">
         <is>
-          <t>maa://28484 (97.3), **maa://23736 (41.54), *maa://31185 (80.0), maa://30306 (100.0)</t>
+          <t>maa://28484 (97.33), **maa://23736 (41.54), *maa://31185 (80.0), maa://30306 (100.0)</t>
         </is>
       </c>
       <c r="E138" s="3" t="inlineStr">
@@ -4606,7 +4606,7 @@
       </c>
       <c r="D139" s="12" t="inlineStr">
         <is>
-          <t>maa://30670 (95.83), maa://31470 (94.44), ***maa://30867 (25.0)</t>
+          <t>maa://30670 (95.88), maa://31470 (94.44), ***maa://30867 (25.0)</t>
         </is>
       </c>
       <c r="E139" s="3" t="inlineStr">
@@ -5200,7 +5200,7 @@
       </c>
       <c r="D161" s="12" t="inlineStr">
         <is>
-          <t>maa://29633 (92.5), maa://29627 (92.81), maa://29659 (82.14), maa://29861 (100.0)</t>
+          <t>maa://29633 (92.65), maa://29627 (92.81), maa://29659 (82.14), maa://29861 (100.0)</t>
         </is>
       </c>
       <c r="E161" s="3" t="inlineStr">
@@ -5740,7 +5740,7 @@
       </c>
       <c r="D181" s="12" t="inlineStr">
         <is>
-          <t>maa://34866 (86.36), maa://34714 (95.65)</t>
+          <t>maa://34866 (86.36), maa://34714 (95.83)</t>
         </is>
       </c>
       <c r="E181" s="3" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="D188" s="12" t="inlineStr">
         <is>
-          <t>*maa://35854 (73.53), maa://25760 (86.42), **maa://20872 (50.0), ***maa://43443 (16.67)</t>
+          <t>*maa://35854 (73.53), maa://25760 (86.59), **maa://20872 (50.0), ***maa://43443 (16.67)</t>
         </is>
       </c>
       <c r="E188" s="3" t="inlineStr">
@@ -5956,7 +5956,7 @@
       </c>
       <c r="D189" s="12" t="inlineStr">
         <is>
-          <t>**maa://38297 (31.25), *maa://39156 (80.0), maa://39550 (100.0)</t>
+          <t>**maa://38297 (31.25), maa://39156 (81.82), maa://39550 (100.0)</t>
         </is>
       </c>
       <c r="E189" s="3" t="inlineStr">
@@ -6631,7 +6631,7 @@
       </c>
       <c r="D214" s="12" t="inlineStr">
         <is>
-          <t>maa://28187 (96.88), maa://39520 (100.0)</t>
+          <t>maa://28187 (96.97), maa://39520 (100.0)</t>
         </is>
       </c>
       <c r="E214" s="3" t="inlineStr">
@@ -7009,7 +7009,7 @@
       </c>
       <c r="D228" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (76.32), maa://30666 (83.51), *maa://26836 (76.06), maa://37607 (92.76), **maa://30739 (44.44), *maa://34428 (66.67), *maa://30723 (50.94), maa://39588 (85.29), *maa://37850 (66.67)</t>
+          <t>*maa://30667 (76.39), maa://30666 (83.51), *maa://26836 (76.06), maa://37607 (92.76), **maa://30739 (44.44), *maa://34428 (66.67), *maa://30723 (51.85), maa://39588 (85.29), *maa://37850 (66.67)</t>
         </is>
       </c>
       <c r="E228" s="3" t="inlineStr">
@@ -7117,7 +7117,7 @@
       </c>
       <c r="D232" s="12" t="inlineStr">
         <is>
-          <t>maa://20867 (92.86), *maa://32202 (80.0), maa://38485 (83.33)</t>
+          <t>maa://20867 (92.86), *maa://32202 (80.0), maa://38485 (85.71)</t>
         </is>
       </c>
       <c r="E232" s="3" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="D236" s="12" t="inlineStr">
         <is>
-          <t>maa://28923 (91.77), maa://28906 (97.44), ***maa://28825 (12.0)</t>
+          <t>maa://28923 (91.82), maa://28906 (97.44), ***maa://28825 (12.0)</t>
         </is>
       </c>
       <c r="E236" s="3" t="inlineStr">
@@ -7252,7 +7252,7 @@
       </c>
       <c r="D237" s="14" t="inlineStr">
         <is>
-          <t>maa://42287 (90.48), maa://42225 (100.0)</t>
+          <t>maa://42287 (90.91), maa://42225 (100.0)</t>
         </is>
       </c>
       <c r="E237" s="3" t="inlineStr">
@@ -7333,7 +7333,7 @@
       </c>
       <c r="D240" s="12" t="inlineStr">
         <is>
-          <t>maa://24093 (100.0), maa://31559 (95.0), maa://20924 (95.0)</t>
+          <t>maa://24093 (100.0), maa://31559 (95.24), maa://20924 (95.0)</t>
         </is>
       </c>
       <c r="E240" s="3" t="inlineStr">
@@ -8170,7 +8170,7 @@
       </c>
       <c r="D271" s="12" t="inlineStr">
         <is>
-          <t>maa://30710 (97.03), maa://36845 (94.74), maa://31558 (96.43), **maa://39217 (38.46), maa://30668 (84.0)</t>
+          <t>maa://30710 (97.06), maa://36845 (94.74), maa://31558 (96.43), **maa://39217 (38.46), maa://30668 (84.0)</t>
         </is>
       </c>
       <c r="E271" s="3" t="inlineStr">
@@ -8278,7 +8278,7 @@
       </c>
       <c r="D275" s="12" t="inlineStr">
         <is>
-          <t>maa://32414 (98.49), maa://32505 (100.0), maa://39155 (95.0)</t>
+          <t>maa://32414 (98.51), maa://32505 (100.0), maa://39155 (95.0)</t>
         </is>
       </c>
       <c r="E275" s="3" t="inlineStr">
@@ -8818,7 +8818,7 @@
       </c>
       <c r="D295" s="12" t="inlineStr">
         <is>
-          <t>maa://31559 (95.0), maa://28241 (100.0)</t>
+          <t>maa://31559 (95.24), maa://28241 (100.0)</t>
         </is>
       </c>
       <c r="E295" s="3" t="inlineStr">
@@ -9196,7 +9196,7 @@
       </c>
       <c r="D309" s="12" t="inlineStr">
         <is>
-          <t>maa://42968 (99.23)</t>
+          <t>maa://42968 (99.29)</t>
         </is>
       </c>
       <c r="E309" s="3" t="inlineStr">
@@ -9412,7 +9412,7 @@
       </c>
       <c r="D317" s="12" t="inlineStr">
         <is>
-          <t>maa://32647 (97.21), maa://32415 (96.55), maa://34677 (100.0), maa://32892 (100.0)</t>
+          <t>maa://32647 (97.24), maa://32415 (96.61), maa://34677 (100.0), maa://32892 (100.0)</t>
         </is>
       </c>
       <c r="E317" s="3" t="inlineStr">
@@ -9709,7 +9709,7 @@
       </c>
       <c r="D328" s="12" t="inlineStr">
         <is>
-          <t>maa://36646 (98.47), maa://36845 (94.74), **maa://39217 (38.46)</t>
+          <t>maa://36646 (98.5), maa://36845 (94.74), **maa://39217 (38.46)</t>
         </is>
       </c>
       <c r="E328" s="3" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="D329" s="12" t="inlineStr">
         <is>
-          <t>maa://36645 (97.77), maa://36841 (93.62), maa://37484 (93.18), maa://37858 (91.3)</t>
+          <t>maa://36645 (97.78), maa://36841 (93.62), maa://37484 (93.33), maa://37858 (91.3)</t>
         </is>
       </c>
       <c r="E329" s="3" t="inlineStr">
@@ -9844,7 +9844,7 @@
       </c>
       <c r="D333" s="14" t="inlineStr">
         <is>
-          <t>maa://40957 (83.9), maa://41035 (87.1), *maa://41128 (78.26)</t>
+          <t>maa://40957 (84.03), maa://41035 (87.1), *maa://41128 (79.17)</t>
         </is>
       </c>
       <c r="E333" s="14" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>*maa://42970 (67.92)</t>
+          <t>*maa://42970 (71.19)</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.20 13:18:41</t>
+          <t>更新日期：2024.11.21 13:18:54</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -2338,7 +2338,7 @@
       </c>
       <c r="D55" s="12" t="inlineStr">
         <is>
-          <t>*maa://20965 (67.86)</t>
+          <t>*maa://20965 (68.97)</t>
         </is>
       </c>
       <c r="E55" s="3" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="D58" s="12" t="inlineStr">
         <is>
-          <t>maa://38298 (81.82)</t>
+          <t>maa://38298 (82.35)</t>
         </is>
       </c>
       <c r="E58" s="3" t="inlineStr">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="D67" s="12" t="inlineStr">
         <is>
-          <t>maa://28784 (93.87), maa://29088 (91.76), maa://20974 (95.24), maa://31124 (96.48), maa://28950 (91.3), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67), maa://41832 (83.33)</t>
+          <t>maa://28784 (93.87), maa://29088 (91.76), maa://20974 (95.38), maa://31124 (96.48), maa://28950 (91.3), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67), maa://41832 (83.33)</t>
         </is>
       </c>
       <c r="E67" s="3" t="inlineStr">
@@ -2743,7 +2743,7 @@
       </c>
       <c r="D70" s="12" t="inlineStr">
         <is>
-          <t>maa://36643 (97.57), maa://36864 (100.0), maa://39140 (100.0)</t>
+          <t>maa://36643 (97.58), maa://36864 (100.0), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E70" s="3" t="inlineStr">
@@ -3175,7 +3175,7 @@
       </c>
       <c r="D86" s="12" t="inlineStr">
         <is>
-          <t>maa://24472 (85.31), *maa://35841 (54.55)</t>
+          <t>maa://24472 (85.52), *maa://35841 (54.55)</t>
         </is>
       </c>
       <c r="E86" s="3" t="inlineStr">
@@ -4579,7 +4579,7 @@
       </c>
       <c r="D138" s="12" t="inlineStr">
         <is>
-          <t>maa://28484 (97.33), **maa://23736 (41.54), *maa://31185 (80.0), maa://30306 (100.0)</t>
+          <t>maa://28484 (97.37), **maa://23736 (41.54), *maa://31185 (80.0), maa://30306 (100.0)</t>
         </is>
       </c>
       <c r="E138" s="3" t="inlineStr">
@@ -5200,7 +5200,7 @@
       </c>
       <c r="D161" s="12" t="inlineStr">
         <is>
-          <t>maa://29633 (92.65), maa://29627 (92.81), maa://29659 (82.14), maa://29861 (100.0)</t>
+          <t>maa://29633 (92.79), maa://29627 (92.86), maa://29659 (82.14), maa://29861 (100.0)</t>
         </is>
       </c>
       <c r="E161" s="3" t="inlineStr">
@@ -5956,7 +5956,7 @@
       </c>
       <c r="D189" s="12" t="inlineStr">
         <is>
-          <t>**maa://38297 (31.25), maa://39156 (81.82), maa://39550 (100.0)</t>
+          <t>**maa://38297 (31.25), maa://39156 (83.33), maa://39550 (100.0)</t>
         </is>
       </c>
       <c r="E189" s="3" t="inlineStr">
@@ -6037,7 +6037,7 @@
       </c>
       <c r="D192" s="12" t="inlineStr">
         <is>
-          <t>maa://42223 (98.98), maa://42292 (93.33), maa://42402 (100.0)</t>
+          <t>maa://42223 (99.0), maa://42292 (93.33), maa://42402 (100.0)</t>
         </is>
       </c>
       <c r="E192" s="3" t="inlineStr">
@@ -6334,7 +6334,7 @@
       </c>
       <c r="D203" s="12" t="inlineStr">
         <is>
-          <t>maa://39238 (98.97)</t>
+          <t>maa://39238 (99.01)</t>
         </is>
       </c>
       <c r="E203" s="3" t="inlineStr">
@@ -7009,7 +7009,7 @@
       </c>
       <c r="D228" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (76.39), maa://30666 (83.51), *maa://26836 (76.06), maa://37607 (92.76), **maa://30739 (44.44), *maa://34428 (66.67), *maa://30723 (51.85), maa://39588 (85.29), *maa://37850 (66.67)</t>
+          <t>*maa://30667 (76.45), maa://30666 (83.67), *maa://26836 (76.06), maa://37607 (92.76), **maa://30739 (44.44), *maa://34428 (66.67), *maa://30723 (51.85), maa://39588 (85.71), *maa://37850 (66.67)</t>
         </is>
       </c>
       <c r="E228" s="3" t="inlineStr">
@@ -7252,7 +7252,7 @@
       </c>
       <c r="D237" s="14" t="inlineStr">
         <is>
-          <t>maa://42287 (90.91), maa://42225 (100.0)</t>
+          <t>maa://42287 (87.5), maa://42225 (100.0)</t>
         </is>
       </c>
       <c r="E237" s="3" t="inlineStr">
@@ -7343,27 +7343,27 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="17" t="inlineStr">
+      <c r="A241" s="16" t="inlineStr">
         <is>
           <t>艾丽妮</t>
         </is>
       </c>
-      <c r="B241" s="17" t="inlineStr">
+      <c r="B241" s="16" t="inlineStr">
         <is>
           <t>SV-EX-1</t>
         </is>
       </c>
-      <c r="C241" s="18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D241" s="19" t="inlineStr">
-        <is>
-          <t>**maa://40958 (40.0)</t>
-        </is>
-      </c>
-      <c r="E241" s="20" t="inlineStr">
+      <c r="C241" s="13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D241" s="12" t="inlineStr">
+        <is>
+          <t>**maa://40958 (50.0)</t>
+        </is>
+      </c>
+      <c r="E241" s="3" t="inlineStr">
         <is>
           <t>&gt; 由非助战艾丽妮累计造成100000点伤害&gt; 3星通关插曲SV-EX-1；必须编入非助战艾丽妮并上场，且使用2次判决</t>
         </is>
@@ -8018,27 +8018,27 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="17" t="inlineStr">
+      <c r="A266" s="16" t="inlineStr">
         <is>
           <t>伺夜</t>
         </is>
       </c>
-      <c r="B266" s="17" t="inlineStr">
+      <c r="B266" s="16" t="inlineStr">
         <is>
           <t>3-8</t>
         </is>
       </c>
-      <c r="C266" s="18" t="inlineStr">
+      <c r="C266" s="13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D266" s="19" t="inlineStr">
-        <is>
-          <t>**maa://35860 (38.46), **maa://39165 (33.33)</t>
-        </is>
-      </c>
-      <c r="E266" s="20" t="inlineStr">
+      <c r="D266" s="12" t="inlineStr">
+        <is>
+          <t>**maa://35860 (38.46), **maa://39165 (50.0)</t>
+        </is>
+      </c>
+      <c r="E266" s="3" t="inlineStr">
         <is>
           <t>&gt; 完成5次战斗；必须编入非助战伺夜并上场，且每次战斗至少释放1次领袖的尊严&gt; 3星通关主题曲3-8；必须编入非助战伺夜并上场，且使用伺夜歼灭碎骨</t>
         </is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="D268" s="12" t="inlineStr">
         <is>
-          <t>*maa://38296 (80.0)</t>
+          <t>maa://38296 (81.82)</t>
         </is>
       </c>
       <c r="E268" s="3" t="inlineStr">
@@ -8116,7 +8116,7 @@
       </c>
       <c r="D269" s="12" t="inlineStr">
         <is>
-          <t>maa://20899 (89.8)</t>
+          <t>maa://20899 (89.86)</t>
         </is>
       </c>
       <c r="E269" s="3" t="inlineStr">
@@ -8170,7 +8170,7 @@
       </c>
       <c r="D271" s="12" t="inlineStr">
         <is>
-          <t>maa://30710 (97.06), maa://36845 (94.74), maa://31558 (96.43), **maa://39217 (38.46), maa://30668 (84.0)</t>
+          <t>maa://30710 (97.06), maa://36845 (94.79), maa://31558 (96.43), **maa://39217 (38.46), maa://30668 (84.0)</t>
         </is>
       </c>
       <c r="E271" s="3" t="inlineStr">
@@ -8602,7 +8602,7 @@
       </c>
       <c r="D287" s="12" t="inlineStr">
         <is>
-          <t>maa://35859 (96.36)</t>
+          <t>maa://35859 (96.43)</t>
         </is>
       </c>
       <c r="E287" s="3" t="inlineStr">
@@ -9142,7 +9142,7 @@
       </c>
       <c r="D307" s="12" t="inlineStr">
         <is>
-          <t>maa://34205 (83.33)</t>
+          <t>maa://34205 (85.71)</t>
         </is>
       </c>
       <c r="E307" s="3" t="inlineStr">
@@ -9196,7 +9196,7 @@
       </c>
       <c r="D309" s="12" t="inlineStr">
         <is>
-          <t>maa://42968 (99.29)</t>
+          <t>maa://42968 (99.35)</t>
         </is>
       </c>
       <c r="E309" s="3" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="D313" s="12" t="inlineStr">
         <is>
-          <t>maa://38295 (95.92)</t>
+          <t>maa://38295 (96.0)</t>
         </is>
       </c>
       <c r="E313" s="3" t="inlineStr">
@@ -9412,7 +9412,7 @@
       </c>
       <c r="D317" s="12" t="inlineStr">
         <is>
-          <t>maa://32647 (97.24), maa://32415 (96.61), maa://34677 (100.0), maa://32892 (100.0)</t>
+          <t>maa://32647 (97.25), maa://32415 (96.61), maa://34677 (100.0), maa://32892 (100.0)</t>
         </is>
       </c>
       <c r="E317" s="3" t="inlineStr">
@@ -9628,7 +9628,7 @@
       </c>
       <c r="D325" s="12" t="inlineStr">
         <is>
-          <t>maa://36868 (100.0), maa://35996 (95.65), **maa://39217 (38.46)</t>
+          <t>maa://36868 (100.0), maa://35996 (95.74), **maa://39217 (38.46)</t>
         </is>
       </c>
       <c r="E325" s="3" t="inlineStr">
@@ -9709,7 +9709,7 @@
       </c>
       <c r="D328" s="12" t="inlineStr">
         <is>
-          <t>maa://36646 (98.5), maa://36845 (94.74), **maa://39217 (38.46)</t>
+          <t>maa://36646 (98.51), maa://36845 (94.79), **maa://39217 (38.46)</t>
         </is>
       </c>
       <c r="E328" s="3" t="inlineStr">
@@ -9844,7 +9844,7 @@
       </c>
       <c r="D333" s="14" t="inlineStr">
         <is>
-          <t>maa://40957 (84.03), maa://41035 (87.1), *maa://41128 (79.17)</t>
+          <t>maa://40957 (84.43), maa://41035 (88.24), *maa://41128 (79.17)</t>
         </is>
       </c>
       <c r="E333" s="14" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>*maa://42970 (71.19)</t>
+          <t>*maa://42970 (72.58)</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.21 13:18:54</t>
+          <t>更新日期：2024.11.22 13:18:20</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="D26" s="12" t="inlineStr">
         <is>
-          <t>*maa://20849 (62.16), *maa://28758 (55.17), maa://29036 (94.12), maa://30285 (100.0), maa://42172 (100.0)</t>
+          <t>*maa://20849 (62.16), *maa://28758 (55.17), maa://29036 (94.12), maa://30285 (100.0), **maa://42172 (50.0)</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="D28" s="12" t="inlineStr">
         <is>
-          <t>maa://20863 (86.13), maa://20832 (98.28), maa://20727 (100.0)</t>
+          <t>maa://20863 (86.13), maa://20832 (98.31), maa://20727 (100.0)</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>maa://36644 (88.19), maa://36866 (97.22), maa://27794 (100.0)</t>
+          <t>maa://36644 (88.28), maa://36866 (97.22), maa://27794 (100.0)</t>
         </is>
       </c>
       <c r="E31" s="3" t="inlineStr">
@@ -2257,7 +2257,7 @@
       </c>
       <c r="D52" s="12" t="inlineStr">
         <is>
-          <t>maa://20953 (94.74), maa://31173 (91.67)</t>
+          <t>maa://20953 (94.74), maa://31173 (92.86)</t>
         </is>
       </c>
       <c r="E52" s="3" t="inlineStr">
@@ -2743,7 +2743,7 @@
       </c>
       <c r="D70" s="12" t="inlineStr">
         <is>
-          <t>maa://36643 (97.58), maa://36864 (100.0), maa://39140 (100.0)</t>
+          <t>maa://36643 (97.59), maa://36864 (100.0), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E70" s="3" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="D105" s="12" t="inlineStr">
         <is>
-          <t>maa://25018 (96.03), maa://25776 (90.48), maa://28361 (96.77), maa://25772 (92.5), *maa://25161 (78.57), maa://32653 (85.71)</t>
+          <t>maa://25018 (96.06), maa://25776 (90.48), maa://28361 (96.77), maa://25772 (92.5), *maa://25161 (78.57), maa://32653 (85.71)</t>
         </is>
       </c>
       <c r="E105" s="3" t="inlineStr">
@@ -4066,7 +4066,7 @@
       </c>
       <c r="D119" s="12" t="inlineStr">
         <is>
-          <t>maa://29650 (97.5)</t>
+          <t>maa://29650 (97.56)</t>
         </is>
       </c>
       <c r="E119" s="3" t="inlineStr">
@@ -4255,7 +4255,7 @@
       </c>
       <c r="D126" s="12" t="inlineStr">
         <is>
-          <t>maa://21422 (98.72)</t>
+          <t>maa://21422 (98.75)</t>
         </is>
       </c>
       <c r="E126" s="3" t="inlineStr">
@@ -4309,7 +4309,7 @@
       </c>
       <c r="D128" s="12" t="inlineStr">
         <is>
-          <t>maa://23019 (100.0), maa://20837 (100.0), maa://37113 (100.0), maa://40517 (90.91), *maa://37666 (75.0), maa://41686 (100.0)</t>
+          <t>maa://23019 (100.0), maa://20837 (100.0), maa://40517 (90.91), maa://37113 (100.0), *maa://37666 (75.0), maa://41686 (100.0)</t>
         </is>
       </c>
       <c r="E128" s="3" t="inlineStr">
@@ -4768,7 +4768,7 @@
       </c>
       <c r="D145" s="12" t="inlineStr">
         <is>
-          <t>maa://36641 (98.25), maa://36865 (95.5), maa://42918 (100.0), maa://37300 (100.0), maa://42917 (100.0)</t>
+          <t>maa://36641 (98.25), maa://36865 (95.54), maa://42918 (100.0), maa://37300 (100.0), maa://42917 (100.0)</t>
         </is>
       </c>
       <c r="E145" s="3" t="inlineStr">
@@ -5200,7 +5200,7 @@
       </c>
       <c r="D161" s="12" t="inlineStr">
         <is>
-          <t>maa://29633 (92.79), maa://29627 (92.86), maa://29659 (82.14), maa://29861 (100.0)</t>
+          <t>maa://29633 (92.89), maa://29627 (92.86), maa://29659 (82.14), maa://29861 (100.0)</t>
         </is>
       </c>
       <c r="E161" s="3" t="inlineStr">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="D166" s="12" t="inlineStr">
         <is>
-          <t>maa://32418 (99.47)</t>
+          <t>maa://32418 (99.48)</t>
         </is>
       </c>
       <c r="E166" s="3" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="D188" s="12" t="inlineStr">
         <is>
-          <t>*maa://35854 (73.53), maa://25760 (86.59), **maa://20872 (50.0), ***maa://43443 (16.67)</t>
+          <t>*maa://35854 (73.53), maa://25760 (86.75), **maa://20872 (50.0), ***maa://43443 (14.29)</t>
         </is>
       </c>
       <c r="E188" s="3" t="inlineStr">
@@ -6037,7 +6037,7 @@
       </c>
       <c r="D192" s="12" t="inlineStr">
         <is>
-          <t>maa://42223 (99.0), maa://42292 (93.33), maa://42402 (100.0)</t>
+          <t>maa://42223 (99.02), maa://42292 (93.33), maa://42402 (100.0)</t>
         </is>
       </c>
       <c r="E192" s="3" t="inlineStr">
@@ -6253,7 +6253,7 @@
       </c>
       <c r="D200" s="12" t="inlineStr">
         <is>
-          <t>maa://28133 (90.0), *maa://28277 (79.17), **maa://39217 (38.46), maa://25369 (93.1), *maa://33132 (66.67)</t>
+          <t>maa://28133 (90.48), *maa://28277 (79.17), **maa://39217 (38.46), maa://25369 (93.1), *maa://33132 (66.67)</t>
         </is>
       </c>
       <c r="E200" s="3" t="inlineStr">
@@ -6334,7 +6334,7 @@
       </c>
       <c r="D203" s="12" t="inlineStr">
         <is>
-          <t>maa://39238 (99.01)</t>
+          <t>maa://39238 (99.02)</t>
         </is>
       </c>
       <c r="E203" s="3" t="inlineStr">
@@ -7009,7 +7009,7 @@
       </c>
       <c r="D228" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (76.45), maa://30666 (83.67), *maa://26836 (76.06), maa://37607 (92.76), **maa://30739 (44.44), *maa://34428 (66.67), *maa://30723 (51.85), maa://39588 (85.71), *maa://37850 (66.67)</t>
+          <t>*maa://30667 (76.52), maa://30666 (83.67), *maa://26836 (76.06), maa://37607 (92.81), **maa://30739 (44.44), *maa://34428 (66.67), *maa://30723 (51.85), maa://39588 (85.71), *maa://37850 (66.67)</t>
         </is>
       </c>
       <c r="E228" s="3" t="inlineStr">
@@ -7117,7 +7117,7 @@
       </c>
       <c r="D232" s="12" t="inlineStr">
         <is>
-          <t>maa://20867 (92.86), *maa://32202 (80.0), maa://38485 (85.71)</t>
+          <t>maa://20867 (92.86), *maa://32202 (80.0), maa://38485 (87.5)</t>
         </is>
       </c>
       <c r="E232" s="3" t="inlineStr">
@@ -7441,7 +7441,7 @@
       </c>
       <c r="D244" s="12" t="inlineStr">
         <is>
-          <t>maa://20879 (85.0), maa://20834 (100.0)</t>
+          <t>maa://20879 (82.93), maa://20834 (100.0)</t>
         </is>
       </c>
       <c r="E244" s="3" t="inlineStr">
@@ -7900,7 +7900,7 @@
       </c>
       <c r="D261" s="12" t="inlineStr">
         <is>
-          <t>maa://28133 (90.0), maa://33394 (100.0)</t>
+          <t>maa://28133 (90.48), maa://33394 (100.0)</t>
         </is>
       </c>
       <c r="E261" s="3" t="inlineStr">
@@ -8089,7 +8089,7 @@
       </c>
       <c r="D268" s="12" t="inlineStr">
         <is>
-          <t>maa://38296 (81.82)</t>
+          <t>maa://38296 (83.33)</t>
         </is>
       </c>
       <c r="E268" s="3" t="inlineStr">
@@ -8170,7 +8170,7 @@
       </c>
       <c r="D271" s="12" t="inlineStr">
         <is>
-          <t>maa://30710 (97.06), maa://36845 (94.79), maa://31558 (96.43), **maa://39217 (38.46), maa://30668 (84.0)</t>
+          <t>maa://30710 (97.06), maa://36845 (94.85), maa://31558 (96.43), **maa://39217 (38.46), maa://30668 (84.0)</t>
         </is>
       </c>
       <c r="E271" s="3" t="inlineStr">
@@ -8251,7 +8251,7 @@
       </c>
       <c r="D274" s="12" t="inlineStr">
         <is>
-          <t>maa://25774 (100.0), maa://28133 (90.0), maa://22469 (91.11), **maa://39217 (38.46), **maa://31349 (50.0)</t>
+          <t>maa://25774 (100.0), maa://28133 (90.48), maa://22469 (91.11), **maa://39217 (38.46), **maa://31349 (50.0)</t>
         </is>
       </c>
       <c r="E274" s="3" t="inlineStr">
@@ -8899,7 +8899,7 @@
       </c>
       <c r="D298" s="12" t="inlineStr">
         <is>
-          <t>maa://39692 (99.61), maa://39810 (81.25)</t>
+          <t>maa://39692 (99.62), maa://39810 (81.25)</t>
         </is>
       </c>
       <c r="E298" s="3" t="inlineStr">
@@ -9196,7 +9196,7 @@
       </c>
       <c r="D309" s="12" t="inlineStr">
         <is>
-          <t>maa://42968 (99.35)</t>
+          <t>maa://42968 (99.38)</t>
         </is>
       </c>
       <c r="E309" s="3" t="inlineStr">
@@ -9277,7 +9277,7 @@
       </c>
       <c r="D312" s="12" t="inlineStr">
         <is>
-          <t>maa://30671 (80.71), maa://30669 (98.48), maa://37275 (82.86), *maa://32410 (63.64), maa://41605 (100.0), maa://33671 (100.0)</t>
+          <t>maa://30671 (80.85), maa://30669 (98.53), maa://37275 (82.86), *maa://32410 (63.64), maa://41605 (100.0), maa://33671 (100.0)</t>
         </is>
       </c>
       <c r="E312" s="3" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="D313" s="12" t="inlineStr">
         <is>
-          <t>maa://38295 (96.0)</t>
+          <t>maa://38295 (96.08)</t>
         </is>
       </c>
       <c r="E313" s="3" t="inlineStr">
@@ -9412,7 +9412,7 @@
       </c>
       <c r="D317" s="12" t="inlineStr">
         <is>
-          <t>maa://32647 (97.25), maa://32415 (96.61), maa://34677 (100.0), maa://32892 (100.0)</t>
+          <t>maa://32647 (97.26), maa://32415 (96.61), maa://34677 (100.0), maa://32892 (100.0)</t>
         </is>
       </c>
       <c r="E317" s="3" t="inlineStr">
@@ -9547,7 +9547,7 @@
       </c>
       <c r="D322" s="12" t="inlineStr">
         <is>
-          <t>maa://34865 (96.71), maa://34717 (92.86)</t>
+          <t>maa://34865 (96.73), maa://34717 (92.98)</t>
         </is>
       </c>
       <c r="E322" s="3" t="inlineStr">
@@ -9709,7 +9709,7 @@
       </c>
       <c r="D328" s="12" t="inlineStr">
         <is>
-          <t>maa://36646 (98.51), maa://36845 (94.79), **maa://39217 (38.46)</t>
+          <t>maa://36646 (98.52), maa://36845 (94.85), **maa://39217 (38.46)</t>
         </is>
       </c>
       <c r="E328" s="3" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="D329" s="12" t="inlineStr">
         <is>
-          <t>maa://36645 (97.78), maa://36841 (93.62), maa://37484 (93.33), maa://37858 (91.3)</t>
+          <t>maa://36645 (97.78), maa://36841 (93.75), maa://37484 (93.33), maa://37858 (91.3)</t>
         </is>
       </c>
       <c r="E329" s="3" t="inlineStr">
@@ -9844,7 +9844,7 @@
       </c>
       <c r="D333" s="14" t="inlineStr">
         <is>
-          <t>maa://40957 (84.43), maa://41035 (88.24), *maa://41128 (79.17)</t>
+          <t>maa://40957 (84.68), maa://41035 (88.89), *maa://41128 (80.0)</t>
         </is>
       </c>
       <c r="E333" s="14" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>*maa://42970 (72.58)</t>
+          <t>*maa://42970 (73.85)</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.22 13:18:20</t>
+          <t>更新日期：2024.11.23 13:18:17</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="D28" s="12" t="inlineStr">
         <is>
-          <t>maa://20863 (86.13), maa://20832 (98.31), maa://20727 (100.0)</t>
+          <t>maa://20863 (86.21), maa://20832 (98.33), maa://20727 (100.0)</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>maa://36644 (88.28), maa://36866 (97.22), maa://27794 (100.0)</t>
+          <t>maa://36644 (87.69), maa://36866 (97.3), maa://27794 (100.0)</t>
         </is>
       </c>
       <c r="E31" s="3" t="inlineStr">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="D36" s="12" t="inlineStr">
         <is>
-          <t>maa://27376 (88.89), **maa://20838 (50.0), maa://42635 (100.0)</t>
+          <t>maa://27376 (88.89), **maa://20838 (50.0), *maa://42635 (66.67)</t>
         </is>
       </c>
       <c r="E36" s="3" t="inlineStr">
@@ -2257,7 +2257,7 @@
       </c>
       <c r="D52" s="12" t="inlineStr">
         <is>
-          <t>maa://20953 (94.74), maa://31173 (92.86)</t>
+          <t>maa://20953 (94.74), maa://31173 (93.33)</t>
         </is>
       </c>
       <c r="E52" s="3" t="inlineStr">
@@ -2338,7 +2338,7 @@
       </c>
       <c r="D55" s="12" t="inlineStr">
         <is>
-          <t>*maa://20965 (68.97)</t>
+          <t>*maa://20965 (70.0)</t>
         </is>
       </c>
       <c r="E55" s="3" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="D58" s="12" t="inlineStr">
         <is>
-          <t>maa://38298 (82.35)</t>
+          <t>maa://38298 (82.86)</t>
         </is>
       </c>
       <c r="E58" s="3" t="inlineStr">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="D59" s="12" t="inlineStr">
         <is>
-          <t>maa://20841 (100.0), maa://24093 (100.0), maa://31559 (95.24), maa://25777 (100.0), maa://20631 (100.0)</t>
+          <t>maa://20841 (100.0), maa://24093 (100.0), maa://31559 (95.65), maa://25777 (100.0), maa://20631 (100.0)</t>
         </is>
       </c>
       <c r="E59" s="3" t="inlineStr">
@@ -2527,7 +2527,7 @@
       </c>
       <c r="D62" s="12" t="inlineStr">
         <is>
-          <t>maa://28187 (96.97), maa://33504 (100.0), maa://39520 (100.0)</t>
+          <t>maa://28187 (97.06), maa://33504 (100.0), maa://39520 (100.0)</t>
         </is>
       </c>
       <c r="E62" s="3" t="inlineStr">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="D67" s="12" t="inlineStr">
         <is>
-          <t>maa://28784 (93.87), maa://29088 (91.76), maa://20974 (95.38), maa://31124 (96.48), maa://28950 (91.3), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67), maa://41832 (83.33)</t>
+          <t>maa://28784 (93.88), maa://29088 (91.76), maa://20974 (95.45), maa://31124 (96.5), maa://28950 (91.3), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67), maa://41832 (83.33)</t>
         </is>
       </c>
       <c r="E67" s="3" t="inlineStr">
@@ -2743,7 +2743,7 @@
       </c>
       <c r="D70" s="12" t="inlineStr">
         <is>
-          <t>maa://36643 (97.59), maa://36864 (100.0), maa://39140 (100.0)</t>
+          <t>maa://36643 (97.62), maa://36864 (100.0), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E70" s="3" t="inlineStr">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="D75" s="12" t="inlineStr">
         <is>
-          <t>maa://20958 (92.86)</t>
+          <t>maa://20958 (93.1)</t>
         </is>
       </c>
       <c r="E75" s="3" t="inlineStr">
@@ -3175,7 +3175,7 @@
       </c>
       <c r="D86" s="12" t="inlineStr">
         <is>
-          <t>maa://24472 (85.52), *maa://35841 (54.55)</t>
+          <t>maa://24472 (85.71), *maa://35841 (54.55)</t>
         </is>
       </c>
       <c r="E86" s="3" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="D92" s="12" t="inlineStr">
         <is>
-          <t>maa://20927 (90.0)</t>
+          <t>maa://20927 (90.91)</t>
         </is>
       </c>
       <c r="E92" s="3" t="inlineStr">
@@ -3553,7 +3553,7 @@
       </c>
       <c r="D100" s="12" t="inlineStr">
         <is>
-          <t>*maa://29094 (60.61), maa://28904 (83.33), **maa://20931 (42.31)</t>
+          <t>*maa://29094 (60.61), maa://28904 (84.0), **maa://20931 (42.31)</t>
         </is>
       </c>
       <c r="E100" s="3" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="D105" s="12" t="inlineStr">
         <is>
-          <t>maa://25018 (96.06), maa://25776 (90.48), maa://28361 (96.77), maa://25772 (92.5), *maa://25161 (78.57), maa://32653 (85.71)</t>
+          <t>maa://25018 (96.07), maa://25776 (90.48), maa://28361 (96.77), maa://25772 (92.5), *maa://25161 (78.57), maa://32653 (85.71)</t>
         </is>
       </c>
       <c r="E105" s="3" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="D108" s="12" t="inlineStr">
         <is>
-          <t>*maa://28554 (78.95)</t>
+          <t>*maa://28554 (80.0)</t>
         </is>
       </c>
       <c r="E108" s="3" t="inlineStr">
@@ -3904,7 +3904,7 @@
       </c>
       <c r="D113" s="12" t="inlineStr">
         <is>
-          <t>maa://29659 (82.14), maa://29031 (100.0)</t>
+          <t>maa://29659 (82.76), maa://29031 (100.0)</t>
         </is>
       </c>
       <c r="E113" s="3" t="inlineStr">
@@ -4066,7 +4066,7 @@
       </c>
       <c r="D119" s="12" t="inlineStr">
         <is>
-          <t>maa://29650 (97.56)</t>
+          <t>maa://29650 (97.62)</t>
         </is>
       </c>
       <c r="E119" s="3" t="inlineStr">
@@ -4255,7 +4255,7 @@
       </c>
       <c r="D126" s="12" t="inlineStr">
         <is>
-          <t>maa://21422 (98.75)</t>
+          <t>maa://21422 (98.78)</t>
         </is>
       </c>
       <c r="E126" s="3" t="inlineStr">
@@ -4579,7 +4579,7 @@
       </c>
       <c r="D138" s="12" t="inlineStr">
         <is>
-          <t>maa://28484 (97.37), **maa://23736 (41.54), *maa://31185 (80.0), maa://30306 (100.0)</t>
+          <t>maa://28484 (97.44), **maa://23736 (41.54), *maa://31185 (80.0), maa://30306 (100.0)</t>
         </is>
       </c>
       <c r="E138" s="3" t="inlineStr">
@@ -4606,7 +4606,7 @@
       </c>
       <c r="D139" s="12" t="inlineStr">
         <is>
-          <t>maa://30670 (95.88), maa://31470 (94.44), ***maa://30867 (25.0)</t>
+          <t>maa://30670 (95.88), maa://31470 (95.0), ***maa://30867 (25.0)</t>
         </is>
       </c>
       <c r="E139" s="3" t="inlineStr">
@@ -4768,7 +4768,7 @@
       </c>
       <c r="D145" s="12" t="inlineStr">
         <is>
-          <t>maa://36641 (98.25), maa://36865 (95.54), maa://42918 (100.0), maa://37300 (100.0), maa://42917 (100.0)</t>
+          <t>maa://36641 (98.26), maa://36865 (95.65), maa://42918 (100.0), maa://37300 (100.0), maa://42917 (100.0)</t>
         </is>
       </c>
       <c r="E145" s="3" t="inlineStr">
@@ -5200,7 +5200,7 @@
       </c>
       <c r="D161" s="12" t="inlineStr">
         <is>
-          <t>maa://29633 (92.89), maa://29627 (92.86), maa://29659 (82.14), maa://29861 (100.0)</t>
+          <t>maa://29633 (92.96), maa://29627 (92.35), maa://29659 (82.76), maa://29861 (100.0)</t>
         </is>
       </c>
       <c r="E161" s="3" t="inlineStr">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="D166" s="12" t="inlineStr">
         <is>
-          <t>maa://32418 (99.48)</t>
+          <t>maa://32418 (99.49)</t>
         </is>
       </c>
       <c r="E166" s="3" t="inlineStr">
@@ -5740,7 +5740,7 @@
       </c>
       <c r="D181" s="12" t="inlineStr">
         <is>
-          <t>maa://34866 (86.36), maa://34714 (95.83)</t>
+          <t>maa://34866 (86.96), maa://34714 (95.83)</t>
         </is>
       </c>
       <c r="E181" s="3" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="D188" s="12" t="inlineStr">
         <is>
-          <t>*maa://35854 (73.53), maa://25760 (86.75), **maa://20872 (50.0), ***maa://43443 (14.29)</t>
+          <t>*maa://35854 (74.29), maa://25760 (86.75), **maa://20872 (50.0), ***maa://43443 (14.29)</t>
         </is>
       </c>
       <c r="E188" s="3" t="inlineStr">
@@ -5983,7 +5983,7 @@
       </c>
       <c r="D190" s="12" t="inlineStr">
         <is>
-          <t>maa://27823 (81.82), *maa://28190 (56.67), maa://22894 (90.62), *maa://20906 (72.22), **maa://20907 (33.33)</t>
+          <t>maa://27823 (82.14), *maa://28190 (56.67), maa://22894 (90.62), *maa://20906 (72.22), **maa://20907 (33.33)</t>
         </is>
       </c>
       <c r="E190" s="3" t="inlineStr">
@@ -6010,7 +6010,7 @@
       </c>
       <c r="D191" s="12" t="inlineStr">
         <is>
-          <t>maa://27823 (81.82), *maa://28190 (56.67), maa://22894 (90.62), *maa://20906 (72.22), **maa://20907 (33.33)</t>
+          <t>maa://27823 (82.14), *maa://28190 (56.67), maa://22894 (90.62), *maa://20906 (72.22), **maa://20907 (33.33)</t>
         </is>
       </c>
       <c r="E191" s="3" t="inlineStr">
@@ -6037,7 +6037,7 @@
       </c>
       <c r="D192" s="12" t="inlineStr">
         <is>
-          <t>maa://42223 (99.02), maa://42292 (93.33), maa://42402 (100.0)</t>
+          <t>maa://42223 (99.08), maa://42292 (93.33), maa://42402 (100.0)</t>
         </is>
       </c>
       <c r="E192" s="3" t="inlineStr">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="D202" s="12" t="inlineStr">
         <is>
-          <t>*maa://20955 (76.67)</t>
+          <t>*maa://20955 (77.42)</t>
         </is>
       </c>
       <c r="E202" s="3" t="inlineStr">
@@ -6334,7 +6334,7 @@
       </c>
       <c r="D203" s="12" t="inlineStr">
         <is>
-          <t>maa://39238 (99.02)</t>
+          <t>maa://39238 (99.04)</t>
         </is>
       </c>
       <c r="E203" s="3" t="inlineStr">
@@ -6631,7 +6631,7 @@
       </c>
       <c r="D214" s="12" t="inlineStr">
         <is>
-          <t>maa://28187 (96.97), maa://39520 (100.0)</t>
+          <t>maa://28187 (97.06), maa://39520 (100.0)</t>
         </is>
       </c>
       <c r="E214" s="3" t="inlineStr">
@@ -6685,7 +6685,7 @@
       </c>
       <c r="D216" s="12" t="inlineStr">
         <is>
-          <t>maa://20987 (91.55), *maa://35801 (75.0)</t>
+          <t>maa://20987 (91.67), *maa://35801 (75.0)</t>
         </is>
       </c>
       <c r="E216" s="3" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="D217" s="12" t="inlineStr">
         <is>
-          <t>maa://39159 (92.31)</t>
+          <t>maa://39159 (92.86)</t>
         </is>
       </c>
       <c r="E217" s="3" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="D220" s="12" t="inlineStr">
         <is>
-          <t>maa://29058 (93.62), maa://39140 (100.0), maa://38723 (100.0)</t>
+          <t>maa://29058 (93.75), maa://39140 (100.0), maa://38723 (100.0)</t>
         </is>
       </c>
       <c r="E220" s="3" t="inlineStr">
@@ -7009,7 +7009,7 @@
       </c>
       <c r="D228" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (76.52), maa://30666 (83.67), *maa://26836 (76.06), maa://37607 (92.81), **maa://30739 (44.44), *maa://34428 (66.67), *maa://30723 (51.85), maa://39588 (85.71), *maa://37850 (66.67)</t>
+          <t>*maa://30667 (76.65), maa://30666 (83.76), *maa://26836 (76.06), maa://37607 (92.9), **maa://30739 (44.44), *maa://34428 (66.67), *maa://30723 (51.85), maa://39588 (85.71), *maa://37850 (66.67)</t>
         </is>
       </c>
       <c r="E228" s="3" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="D236" s="12" t="inlineStr">
         <is>
-          <t>maa://28923 (91.82), maa://28906 (97.44), ***maa://28825 (12.0)</t>
+          <t>maa://28923 (91.88), maa://28906 (97.44), ***maa://28825 (12.0)</t>
         </is>
       </c>
       <c r="E236" s="3" t="inlineStr">
@@ -7252,7 +7252,7 @@
       </c>
       <c r="D237" s="14" t="inlineStr">
         <is>
-          <t>maa://42287 (87.5), maa://42225 (100.0)</t>
+          <t>maa://42287 (88.0), maa://42225 (100.0)</t>
         </is>
       </c>
       <c r="E237" s="3" t="inlineStr">
@@ -7306,7 +7306,7 @@
       </c>
       <c r="D239" s="12" t="inlineStr">
         <is>
-          <t>maa://20923 (88.89)</t>
+          <t>maa://20923 (89.47)</t>
         </is>
       </c>
       <c r="E239" s="3" t="inlineStr">
@@ -7333,7 +7333,7 @@
       </c>
       <c r="D240" s="12" t="inlineStr">
         <is>
-          <t>maa://24093 (100.0), maa://31559 (95.24), maa://20924 (95.0)</t>
+          <t>maa://24093 (100.0), maa://31559 (95.65), maa://20924 (95.0)</t>
         </is>
       </c>
       <c r="E240" s="3" t="inlineStr">
@@ -7360,7 +7360,7 @@
       </c>
       <c r="D241" s="12" t="inlineStr">
         <is>
-          <t>**maa://40958 (50.0)</t>
+          <t>*maa://40958 (57.14)</t>
         </is>
       </c>
       <c r="E241" s="3" t="inlineStr">
@@ -7414,7 +7414,7 @@
       </c>
       <c r="D243" s="12" t="inlineStr">
         <is>
-          <t>maa://20877 (98.25), maa://20836 (100.0)</t>
+          <t>maa://20877 (98.28), maa://20836 (100.0)</t>
         </is>
       </c>
       <c r="E243" s="3" t="inlineStr">
@@ -7549,7 +7549,7 @@
       </c>
       <c r="D248" s="19" t="inlineStr">
         <is>
-          <t>**maa://20883 (46.15)</t>
+          <t>**maa://20883 (42.86)</t>
         </is>
       </c>
       <c r="E248" s="20" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="D249" s="12" t="inlineStr">
         <is>
-          <t>maa://29027 (97.44)</t>
+          <t>maa://29027 (97.56)</t>
         </is>
       </c>
       <c r="E249" s="3" t="inlineStr">
@@ -7738,7 +7738,7 @@
       </c>
       <c r="D255" s="12" t="inlineStr">
         <is>
-          <t>maa://25769 (96.36)</t>
+          <t>maa://25769 (96.4)</t>
         </is>
       </c>
       <c r="E255" s="3" t="inlineStr">
@@ -8089,7 +8089,7 @@
       </c>
       <c r="D268" s="12" t="inlineStr">
         <is>
-          <t>maa://38296 (83.33)</t>
+          <t>*maa://38296 (78.57)</t>
         </is>
       </c>
       <c r="E268" s="3" t="inlineStr">
@@ -8116,7 +8116,7 @@
       </c>
       <c r="D269" s="12" t="inlineStr">
         <is>
-          <t>maa://20899 (89.86)</t>
+          <t>maa://20899 (89.93)</t>
         </is>
       </c>
       <c r="E269" s="3" t="inlineStr">
@@ -8170,7 +8170,7 @@
       </c>
       <c r="D271" s="12" t="inlineStr">
         <is>
-          <t>maa://30710 (97.06), maa://36845 (94.85), maa://31558 (96.43), **maa://39217 (38.46), maa://30668 (84.0)</t>
+          <t>maa://30710 (97.09), maa://36845 (94.85), maa://31558 (96.43), **maa://39217 (38.46), maa://30668 (84.62)</t>
         </is>
       </c>
       <c r="E271" s="3" t="inlineStr">
@@ -8278,7 +8278,7 @@
       </c>
       <c r="D275" s="12" t="inlineStr">
         <is>
-          <t>maa://32414 (98.51), maa://32505 (100.0), maa://39155 (95.0)</t>
+          <t>maa://32414 (98.52), maa://32505 (100.0), maa://39155 (95.0)</t>
         </is>
       </c>
       <c r="E275" s="3" t="inlineStr">
@@ -8386,7 +8386,7 @@
       </c>
       <c r="D279" s="12" t="inlineStr">
         <is>
-          <t>maa://29005 (98.04), maa://31560 (83.33)</t>
+          <t>maa://29005 (98.08), maa://31560 (83.33)</t>
         </is>
       </c>
       <c r="E279" s="3" t="inlineStr">
@@ -8602,7 +8602,7 @@
       </c>
       <c r="D287" s="12" t="inlineStr">
         <is>
-          <t>maa://35859 (96.43)</t>
+          <t>maa://35859 (96.55)</t>
         </is>
       </c>
       <c r="E287" s="3" t="inlineStr">
@@ -8737,7 +8737,7 @@
       </c>
       <c r="D292" s="12" t="inlineStr">
         <is>
-          <t>maa://25367 (99.02)</t>
+          <t>maa://25367 (99.03)</t>
         </is>
       </c>
       <c r="E292" s="3" t="inlineStr">
@@ -8818,7 +8818,7 @@
       </c>
       <c r="D295" s="12" t="inlineStr">
         <is>
-          <t>maa://31559 (95.24), maa://28241 (100.0)</t>
+          <t>maa://31559 (95.65), maa://28241 (100.0)</t>
         </is>
       </c>
       <c r="E295" s="3" t="inlineStr">
@@ -8899,7 +8899,7 @@
       </c>
       <c r="D298" s="12" t="inlineStr">
         <is>
-          <t>maa://39692 (99.62), maa://39810 (81.25)</t>
+          <t>maa://39692 (99.63), maa://39810 (81.25)</t>
         </is>
       </c>
       <c r="E298" s="3" t="inlineStr">
@@ -9196,7 +9196,7 @@
       </c>
       <c r="D309" s="12" t="inlineStr">
         <is>
-          <t>maa://42968 (99.38)</t>
+          <t>maa://42968 (99.39)</t>
         </is>
       </c>
       <c r="E309" s="3" t="inlineStr">
@@ -9277,7 +9277,7 @@
       </c>
       <c r="D312" s="12" t="inlineStr">
         <is>
-          <t>maa://30671 (80.85), maa://30669 (98.53), maa://37275 (82.86), *maa://32410 (63.64), maa://41605 (100.0), maa://33671 (100.0)</t>
+          <t>maa://30671 (80.99), maa://30669 (98.55), maa://37275 (82.86), *maa://32410 (63.64), maa://41605 (100.0), maa://33671 (100.0)</t>
         </is>
       </c>
       <c r="E312" s="3" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="D313" s="12" t="inlineStr">
         <is>
-          <t>maa://38295 (96.08)</t>
+          <t>maa://38295 (96.15)</t>
         </is>
       </c>
       <c r="E313" s="3" t="inlineStr">
@@ -9547,7 +9547,7 @@
       </c>
       <c r="D322" s="12" t="inlineStr">
         <is>
-          <t>maa://34865 (96.73), maa://34717 (92.98)</t>
+          <t>maa://34865 (96.77), maa://34717 (92.98)</t>
         </is>
       </c>
       <c r="E322" s="3" t="inlineStr">
@@ -9628,7 +9628,7 @@
       </c>
       <c r="D325" s="12" t="inlineStr">
         <is>
-          <t>maa://36868 (100.0), maa://35996 (95.74), **maa://39217 (38.46)</t>
+          <t>maa://36868 (100.0), maa://35996 (95.83), **maa://39217 (38.46)</t>
         </is>
       </c>
       <c r="E325" s="3" t="inlineStr">
@@ -9709,7 +9709,7 @@
       </c>
       <c r="D328" s="12" t="inlineStr">
         <is>
-          <t>maa://36646 (98.52), maa://36845 (94.85), **maa://39217 (38.46)</t>
+          <t>maa://36646 (98.53), maa://36845 (94.85), **maa://39217 (38.46)</t>
         </is>
       </c>
       <c r="E328" s="3" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="D329" s="12" t="inlineStr">
         <is>
-          <t>maa://36645 (97.78), maa://36841 (93.75), maa://37484 (93.33), maa://37858 (91.3)</t>
+          <t>maa://36645 (97.8), maa://36841 (93.75), maa://37484 (93.33), maa://37858 (91.3)</t>
         </is>
       </c>
       <c r="E329" s="3" t="inlineStr">
@@ -9844,7 +9844,7 @@
       </c>
       <c r="D333" s="14" t="inlineStr">
         <is>
-          <t>maa://40957 (84.68), maa://41035 (88.89), *maa://41128 (80.0)</t>
+          <t>maa://40957 (85.04), maa://41035 (88.89), maa://41128 (80.77)</t>
         </is>
       </c>
       <c r="E333" s="14" t="inlineStr">
@@ -10006,7 +10006,7 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>maa://41110 (97.62)</t>
+          <t>maa://41110 (97.83)</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
@@ -10109,12 +10109,12 @@
       </c>
       <c r="C343" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>maa://39153 (100.0)</t>
+          <t>maa://39153 (100.0), maa://43872 (100.0)</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
@@ -10141,7 +10141,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>**maa://43096 (50.0)</t>
+          <t>maa://43875 (95.24)</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>*maa://42970 (73.85)</t>
+          <t>*maa://42970 (77.33)</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.23 13:18:17</t>
+          <t>更新日期：2024.11.23 17:16:53</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="D67" s="12" t="inlineStr">
         <is>
-          <t>maa://28784 (93.88), maa://29088 (91.76), maa://20974 (95.45), maa://31124 (96.5), maa://28950 (91.3), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67), maa://41832 (83.33)</t>
+          <t>maa://28784 (93.88), maa://29088 (91.76), maa://20974 (95.45), maa://31124 (96.53), maa://28950 (91.3), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67), maa://41832 (83.33)</t>
         </is>
       </c>
       <c r="E67" s="3" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="D105" s="12" t="inlineStr">
         <is>
-          <t>maa://25018 (96.07), maa://25776 (90.48), maa://28361 (96.77), maa://25772 (92.5), *maa://25161 (78.57), maa://32653 (85.71)</t>
+          <t>maa://25018 (96.09), maa://25776 (90.48), maa://28361 (96.77), maa://25772 (92.5), *maa://25161 (78.57), maa://32653 (85.71)</t>
         </is>
       </c>
       <c r="E105" s="3" t="inlineStr">
@@ -3796,7 +3796,7 @@
       </c>
       <c r="D109" s="12" t="inlineStr">
         <is>
-          <t>*maa://20933 (76.6), maa://20822 (100.0)</t>
+          <t>*maa://20933 (77.08), maa://20822 (100.0)</t>
         </is>
       </c>
       <c r="E109" s="3" t="inlineStr">
@@ -3823,7 +3823,7 @@
       </c>
       <c r="D110" s="12" t="inlineStr">
         <is>
-          <t>maa://29037 (96.97)</t>
+          <t>maa://29037 (97.06)</t>
         </is>
       </c>
       <c r="E110" s="3" t="inlineStr">
@@ -5200,7 +5200,7 @@
       </c>
       <c r="D161" s="12" t="inlineStr">
         <is>
-          <t>maa://29633 (92.96), maa://29627 (92.35), maa://29659 (82.76), maa://29861 (100.0)</t>
+          <t>maa://29633 (92.99), maa://29627 (92.35), maa://29659 (82.76), maa://29861 (100.0)</t>
         </is>
       </c>
       <c r="E161" s="3" t="inlineStr">
@@ -6253,7 +6253,7 @@
       </c>
       <c r="D200" s="12" t="inlineStr">
         <is>
-          <t>maa://28133 (90.48), *maa://28277 (79.17), **maa://39217 (38.46), maa://25369 (93.1), *maa://33132 (66.67)</t>
+          <t>maa://28133 (90.48), *maa://28277 (79.17), **maa://39217 (35.71), maa://25369 (93.1), *maa://33132 (66.67)</t>
         </is>
       </c>
       <c r="E200" s="3" t="inlineStr">
@@ -8170,7 +8170,7 @@
       </c>
       <c r="D271" s="12" t="inlineStr">
         <is>
-          <t>maa://30710 (97.09), maa://36845 (94.85), maa://31558 (96.43), **maa://39217 (38.46), maa://30668 (84.62)</t>
+          <t>maa://30710 (97.12), maa://36845 (94.85), maa://31558 (96.43), **maa://39217 (35.71), maa://30668 (84.62)</t>
         </is>
       </c>
       <c r="E271" s="3" t="inlineStr">
@@ -8251,7 +8251,7 @@
       </c>
       <c r="D274" s="12" t="inlineStr">
         <is>
-          <t>maa://25774 (100.0), maa://28133 (90.48), maa://22469 (91.11), **maa://39217 (38.46), **maa://31349 (50.0)</t>
+          <t>maa://25774 (100.0), maa://28133 (90.48), maa://22469 (91.11), **maa://39217 (35.71), **maa://31349 (50.0)</t>
         </is>
       </c>
       <c r="E274" s="3" t="inlineStr">
@@ -8278,7 +8278,7 @@
       </c>
       <c r="D275" s="12" t="inlineStr">
         <is>
-          <t>maa://32414 (98.52), maa://32505 (100.0), maa://39155 (95.0)</t>
+          <t>maa://32414 (98.52), maa://32505 (100.0), maa://39155 (95.24)</t>
         </is>
       </c>
       <c r="E275" s="3" t="inlineStr">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="D277" s="12" t="inlineStr">
         <is>
-          <t>maa://36642 (100.0), maa://36867 (96.43), maa://39155 (95.0)</t>
+          <t>maa://36642 (100.0), maa://36867 (96.43), maa://39155 (95.24)</t>
         </is>
       </c>
       <c r="E277" s="3" t="inlineStr">
@@ -9277,7 +9277,7 @@
       </c>
       <c r="D312" s="12" t="inlineStr">
         <is>
-          <t>maa://30671 (80.99), maa://30669 (98.55), maa://37275 (82.86), *maa://32410 (63.64), maa://41605 (100.0), maa://33671 (100.0)</t>
+          <t>maa://30671 (81.12), maa://30669 (98.55), maa://37275 (82.86), *maa://32410 (63.64), maa://41605 (100.0), maa://33671 (100.0)</t>
         </is>
       </c>
       <c r="E312" s="3" t="inlineStr">
@@ -9412,7 +9412,7 @@
       </c>
       <c r="D317" s="12" t="inlineStr">
         <is>
-          <t>maa://32647 (97.26), maa://32415 (96.61), maa://34677 (100.0), maa://32892 (100.0)</t>
+          <t>maa://32647 (97.28), maa://32415 (96.61), maa://34677 (100.0), maa://32892 (100.0)</t>
         </is>
       </c>
       <c r="E317" s="3" t="inlineStr">
@@ -9628,7 +9628,7 @@
       </c>
       <c r="D325" s="12" t="inlineStr">
         <is>
-          <t>maa://36868 (100.0), maa://35996 (95.83), **maa://39217 (38.46)</t>
+          <t>maa://36868 (100.0), maa://35996 (95.83), **maa://39217 (35.71)</t>
         </is>
       </c>
       <c r="E325" s="3" t="inlineStr">
@@ -9709,7 +9709,7 @@
       </c>
       <c r="D328" s="12" t="inlineStr">
         <is>
-          <t>maa://36646 (98.53), maa://36845 (94.85), **maa://39217 (38.46)</t>
+          <t>maa://36646 (98.53), maa://36845 (94.85), **maa://39217 (35.71)</t>
         </is>
       </c>
       <c r="E328" s="3" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="D329" s="12" t="inlineStr">
         <is>
-          <t>maa://36645 (97.8), maa://36841 (93.75), maa://37484 (93.33), maa://37858 (91.3)</t>
+          <t>maa://36645 (97.81), maa://36841 (93.75), maa://37484 (93.33), maa://37858 (91.3)</t>
         </is>
       </c>
       <c r="E329" s="3" t="inlineStr">
@@ -9844,7 +9844,7 @@
       </c>
       <c r="D333" s="14" t="inlineStr">
         <is>
-          <t>maa://40957 (85.04), maa://41035 (88.89), maa://41128 (80.77)</t>
+          <t>maa://40957 (85.16), maa://41035 (88.89), maa://41128 (80.77)</t>
         </is>
       </c>
       <c r="E333" s="14" t="inlineStr">
@@ -10141,7 +10141,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>maa://43875 (95.24)</t>
+          <t>maa://43875 (95.45)</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.23 13:18:17</t>
+          <t>更新日期：2024.11.24 12:07:34</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -870,7 +870,7 @@
       </c>
       <c r="D10" s="12" t="inlineStr">
         <is>
-          <t>*maa://20888 (75.0)</t>
+          <t>*maa://20888 (77.78)</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="D30" s="12" t="inlineStr">
         <is>
-          <t>*maa://39024 (66.67)</t>
+          <t>**maa://39024 (50.0)</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>maa://36644 (87.69), maa://36866 (97.3), maa://27794 (100.0)</t>
+          <t>maa://36644 (87.79), maa://36866 (97.3), maa://27794 (100.0)</t>
         </is>
       </c>
       <c r="E31" s="3" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="D32" s="12" t="inlineStr">
         <is>
-          <t>maa://30500 (98.21), *maa://27290 (70.59), **maa://42154 (50.0)</t>
+          <t>maa://30500 (98.21), *maa://27290 (70.59), **maa://42154 (33.33)</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="D36" s="12" t="inlineStr">
         <is>
-          <t>maa://27376 (88.89), **maa://20838 (50.0), *maa://42635 (66.67)</t>
+          <t>maa://27376 (89.29), **maa://20838 (50.0), *maa://42635 (75.0)</t>
         </is>
       </c>
       <c r="E36" s="3" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="D41" s="12" t="inlineStr">
         <is>
-          <t>*maa://22339 (66.67), maa://20918 (100.0), maa://34883 (87.5), maa://20824 (100.0)</t>
+          <t>*maa://22339 (66.67), maa://20918 (100.0), maa://34883 (88.89), maa://20824 (100.0)</t>
         </is>
       </c>
       <c r="E41" s="3" t="inlineStr">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="D45" s="12" t="inlineStr">
         <is>
-          <t>maa://39025 (100.0)</t>
+          <t>*maa://39025 (66.67)</t>
         </is>
       </c>
       <c r="E45" s="3" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="D56" s="12" t="inlineStr">
         <is>
-          <t>maa://28900 (95.52), maa://30126 (100.0)</t>
+          <t>maa://28900 (95.59), maa://30126 (100.0)</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="D60" s="12" t="inlineStr">
         <is>
-          <t>maa://20844 (96.0)</t>
+          <t>maa://20844 (96.15)</t>
         </is>
       </c>
       <c r="E60" s="3" t="inlineStr">
@@ -2635,7 +2635,7 @@
       </c>
       <c r="D66" s="12" t="inlineStr">
         <is>
-          <t>maa://20976 (97.67), maa://20815 (100.0)</t>
+          <t>maa://20976 (97.7), maa://20815 (100.0)</t>
         </is>
       </c>
       <c r="E66" s="3" t="inlineStr">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="D67" s="12" t="inlineStr">
         <is>
-          <t>maa://28784 (93.88), maa://29088 (91.76), maa://20974 (95.45), maa://31124 (96.5), maa://28950 (91.3), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67), maa://41832 (83.33)</t>
+          <t>maa://28784 (93.88), maa://29088 (91.76), maa://20974 (95.45), maa://31124 (96.55), maa://28950 (91.3), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67), maa://41832 (83.33)</t>
         </is>
       </c>
       <c r="E67" s="3" t="inlineStr">
@@ -2743,7 +2743,7 @@
       </c>
       <c r="D70" s="12" t="inlineStr">
         <is>
-          <t>maa://36643 (97.62), maa://36864 (100.0), maa://39140 (100.0)</t>
+          <t>maa://36643 (97.64), maa://36864 (100.0), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E70" s="3" t="inlineStr">
@@ -3175,7 +3175,7 @@
       </c>
       <c r="D86" s="12" t="inlineStr">
         <is>
-          <t>maa://24472 (85.71), *maa://35841 (54.55)</t>
+          <t>maa://24472 (85.81), *maa://35841 (54.55)</t>
         </is>
       </c>
       <c r="E86" s="3" t="inlineStr">
@@ -3310,7 +3310,7 @@
       </c>
       <c r="D91" s="12" t="inlineStr">
         <is>
-          <t>maa://40157 (100.0)</t>
+          <t>*maa://40157 (80.0)</t>
         </is>
       </c>
       <c r="E91" s="3" t="inlineStr">
@@ -3553,7 +3553,7 @@
       </c>
       <c r="D100" s="12" t="inlineStr">
         <is>
-          <t>*maa://29094 (60.61), maa://28904 (84.0), **maa://20931 (42.31)</t>
+          <t>*maa://29094 (61.76), maa://28904 (84.0), **maa://20931 (42.31)</t>
         </is>
       </c>
       <c r="E100" s="3" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="D105" s="12" t="inlineStr">
         <is>
-          <t>maa://25018 (96.07), maa://25776 (90.48), maa://28361 (96.77), maa://25772 (92.5), *maa://25161 (78.57), maa://32653 (85.71)</t>
+          <t>maa://25018 (96.1), maa://25776 (90.48), maa://28361 (96.77), maa://25772 (92.5), *maa://25161 (80.0), maa://32653 (85.71)</t>
         </is>
       </c>
       <c r="E105" s="3" t="inlineStr">
@@ -3796,7 +3796,7 @@
       </c>
       <c r="D109" s="12" t="inlineStr">
         <is>
-          <t>*maa://20933 (76.6), maa://20822 (100.0)</t>
+          <t>*maa://20933 (77.55), maa://20822 (100.0)</t>
         </is>
       </c>
       <c r="E109" s="3" t="inlineStr">
@@ -3823,7 +3823,7 @@
       </c>
       <c r="D110" s="12" t="inlineStr">
         <is>
-          <t>maa://29037 (96.97)</t>
+          <t>maa://29037 (97.3)</t>
         </is>
       </c>
       <c r="E110" s="3" t="inlineStr">
@@ -4606,7 +4606,7 @@
       </c>
       <c r="D139" s="12" t="inlineStr">
         <is>
-          <t>maa://30670 (95.88), maa://31470 (95.0), ***maa://30867 (25.0)</t>
+          <t>maa://30670 (95.92), maa://31470 (95.0), ***maa://30867 (25.0)</t>
         </is>
       </c>
       <c r="E139" s="3" t="inlineStr">
@@ -4768,7 +4768,7 @@
       </c>
       <c r="D145" s="12" t="inlineStr">
         <is>
-          <t>maa://36641 (98.26), maa://36865 (95.65), maa://42918 (100.0), maa://37300 (100.0), maa://42917 (100.0)</t>
+          <t>maa://36641 (98.26), maa://36865 (95.69), maa://42918 (100.0), maa://37300 (100.0), maa://42917 (100.0)</t>
         </is>
       </c>
       <c r="E145" s="3" t="inlineStr">
@@ -5200,7 +5200,7 @@
       </c>
       <c r="D161" s="12" t="inlineStr">
         <is>
-          <t>maa://29633 (92.96), maa://29627 (92.35), maa://29659 (82.76), maa://29861 (100.0)</t>
+          <t>maa://29633 (93.09), maa://29627 (92.4), maa://29659 (82.76), maa://29861 (100.0)</t>
         </is>
       </c>
       <c r="E161" s="3" t="inlineStr">
@@ -5443,7 +5443,7 @@
       </c>
       <c r="D170" s="12" t="inlineStr">
         <is>
-          <t>maa://20911 (92.31), *maa://29012 (66.67)</t>
+          <t>maa://20911 (92.86), *maa://29012 (66.67)</t>
         </is>
       </c>
       <c r="E170" s="3" t="inlineStr">
@@ -5767,7 +5767,7 @@
       </c>
       <c r="D182" s="12" t="inlineStr">
         <is>
-          <t>maa://34883 (87.5), maa://20895 (100.0)</t>
+          <t>maa://34883 (88.89), maa://20895 (100.0)</t>
         </is>
       </c>
       <c r="E182" s="3" t="inlineStr">
@@ -6037,7 +6037,7 @@
       </c>
       <c r="D192" s="12" t="inlineStr">
         <is>
-          <t>maa://42223 (99.08), maa://42292 (93.33), maa://42402 (100.0)</t>
+          <t>maa://42223 (99.11), maa://42292 (93.33), maa://42402 (100.0)</t>
         </is>
       </c>
       <c r="E192" s="3" t="inlineStr">
@@ -6253,7 +6253,7 @@
       </c>
       <c r="D200" s="12" t="inlineStr">
         <is>
-          <t>maa://28133 (90.48), *maa://28277 (79.17), **maa://39217 (38.46), maa://25369 (93.1), *maa://33132 (66.67)</t>
+          <t>maa://28133 (90.48), *maa://28277 (79.17), **maa://39217 (35.71), maa://25369 (93.1), *maa://33132 (66.67)</t>
         </is>
       </c>
       <c r="E200" s="3" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="D201" s="12" t="inlineStr">
         <is>
-          <t>maa://20956 (95.42), *maa://20830 (77.78)</t>
+          <t>maa://20956 (95.45), *maa://20830 (77.78)</t>
         </is>
       </c>
       <c r="E201" s="3" t="inlineStr">
@@ -6334,7 +6334,7 @@
       </c>
       <c r="D203" s="12" t="inlineStr">
         <is>
-          <t>maa://39238 (99.04)</t>
+          <t>maa://39238 (99.06)</t>
         </is>
       </c>
       <c r="E203" s="3" t="inlineStr">
@@ -6469,7 +6469,7 @@
       </c>
       <c r="D208" s="19" t="inlineStr">
         <is>
-          <t>**maa://26496 (33.33), **maa://20995 (44.44)</t>
+          <t>**maa://20995 (44.44), **maa://26496 (33.33)</t>
         </is>
       </c>
       <c r="E208" s="20" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="D217" s="12" t="inlineStr">
         <is>
-          <t>maa://39159 (92.86)</t>
+          <t>maa://39159 (93.75)</t>
         </is>
       </c>
       <c r="E217" s="3" t="inlineStr">
@@ -6928,7 +6928,7 @@
       </c>
       <c r="D225" s="12" t="inlineStr">
         <is>
-          <t>maa://30714 (97.3), maa://30675 (100.0)</t>
+          <t>maa://30714 (97.37), maa://30675 (100.0)</t>
         </is>
       </c>
       <c r="E225" s="3" t="inlineStr">
@@ -7009,7 +7009,7 @@
       </c>
       <c r="D228" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (76.65), maa://30666 (83.76), *maa://26836 (76.06), maa://37607 (92.9), **maa://30739 (44.44), *maa://34428 (66.67), *maa://30723 (51.85), maa://39588 (85.71), *maa://37850 (66.67)</t>
+          <t>*maa://30667 (76.78), maa://30666 (83.76), *maa://26836 (76.06), maa://37607 (92.99), **maa://30739 (44.44), *maa://34428 (66.67), *maa://30723 (51.85), maa://39588 (85.71), *maa://37850 (66.67)</t>
         </is>
       </c>
       <c r="E228" s="3" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="D236" s="12" t="inlineStr">
         <is>
-          <t>maa://28923 (91.88), maa://28906 (97.44), ***maa://28825 (12.0)</t>
+          <t>maa://28923 (91.93), maa://28906 (97.44), ***maa://28825 (12.0)</t>
         </is>
       </c>
       <c r="E236" s="3" t="inlineStr">
@@ -7252,7 +7252,7 @@
       </c>
       <c r="D237" s="14" t="inlineStr">
         <is>
-          <t>maa://42287 (88.0), maa://42225 (100.0)</t>
+          <t>maa://42287 (88.89), maa://42225 (100.0)</t>
         </is>
       </c>
       <c r="E237" s="3" t="inlineStr">
@@ -7846,7 +7846,7 @@
       </c>
       <c r="D259" s="12" t="inlineStr">
         <is>
-          <t>*maa://20939 (75.0)</t>
+          <t>*maa://20939 (77.78)</t>
         </is>
       </c>
       <c r="E259" s="3" t="inlineStr">
@@ -8116,7 +8116,7 @@
       </c>
       <c r="D269" s="12" t="inlineStr">
         <is>
-          <t>maa://20899 (89.93)</t>
+          <t>maa://20899 (90.0)</t>
         </is>
       </c>
       <c r="E269" s="3" t="inlineStr">
@@ -8170,7 +8170,7 @@
       </c>
       <c r="D271" s="12" t="inlineStr">
         <is>
-          <t>maa://30710 (97.09), maa://36845 (94.85), maa://31558 (96.43), **maa://39217 (38.46), maa://30668 (84.62)</t>
+          <t>maa://30710 (97.12), maa://36845 (94.85), maa://31558 (96.43), **maa://39217 (35.71), maa://30668 (84.62)</t>
         </is>
       </c>
       <c r="E271" s="3" t="inlineStr">
@@ -8251,7 +8251,7 @@
       </c>
       <c r="D274" s="12" t="inlineStr">
         <is>
-          <t>maa://25774 (100.0), maa://28133 (90.48), maa://22469 (91.11), **maa://39217 (38.46), **maa://31349 (50.0)</t>
+          <t>maa://25774 (100.0), maa://28133 (90.48), maa://22469 (91.11), **maa://39217 (35.71), **maa://31349 (50.0)</t>
         </is>
       </c>
       <c r="E274" s="3" t="inlineStr">
@@ -8278,7 +8278,7 @@
       </c>
       <c r="D275" s="12" t="inlineStr">
         <is>
-          <t>maa://32414 (98.52), maa://32505 (100.0), maa://39155 (95.0)</t>
+          <t>maa://32414 (98.53), maa://32505 (100.0), maa://39155 (95.24)</t>
         </is>
       </c>
       <c r="E275" s="3" t="inlineStr">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="D277" s="12" t="inlineStr">
         <is>
-          <t>maa://36642 (100.0), maa://36867 (96.43), maa://39155 (95.0)</t>
+          <t>maa://36642 (100.0), maa://36867 (96.43), maa://39155 (95.24)</t>
         </is>
       </c>
       <c r="E277" s="3" t="inlineStr">
@@ -8899,7 +8899,7 @@
       </c>
       <c r="D298" s="12" t="inlineStr">
         <is>
-          <t>maa://39692 (99.63), maa://39810 (81.25)</t>
+          <t>maa://39692 (99.64), maa://39810 (81.25)</t>
         </is>
       </c>
       <c r="E298" s="3" t="inlineStr">
@@ -9196,7 +9196,7 @@
       </c>
       <c r="D309" s="12" t="inlineStr">
         <is>
-          <t>maa://42968 (99.39)</t>
+          <t>maa://42968 (99.4)</t>
         </is>
       </c>
       <c r="E309" s="3" t="inlineStr">
@@ -9277,7 +9277,7 @@
       </c>
       <c r="D312" s="12" t="inlineStr">
         <is>
-          <t>maa://30671 (80.99), maa://30669 (98.55), maa://37275 (82.86), *maa://32410 (63.64), maa://41605 (100.0), maa://33671 (100.0)</t>
+          <t>maa://30671 (81.25), maa://30669 (98.57), maa://37275 (82.86), *maa://32410 (63.64), maa://41605 (100.0), maa://33671 (100.0)</t>
         </is>
       </c>
       <c r="E312" s="3" t="inlineStr">
@@ -9412,7 +9412,7 @@
       </c>
       <c r="D317" s="12" t="inlineStr">
         <is>
-          <t>maa://32647 (97.26), maa://32415 (96.61), maa://34677 (100.0), maa://32892 (100.0)</t>
+          <t>maa://32647 (97.28), maa://32415 (96.61), maa://34677 (100.0), maa://32892 (100.0)</t>
         </is>
       </c>
       <c r="E317" s="3" t="inlineStr">
@@ -9628,7 +9628,7 @@
       </c>
       <c r="D325" s="12" t="inlineStr">
         <is>
-          <t>maa://36868 (100.0), maa://35996 (95.83), **maa://39217 (38.46)</t>
+          <t>maa://36868 (100.0), maa://35996 (95.83), **maa://39217 (35.71)</t>
         </is>
       </c>
       <c r="E325" s="3" t="inlineStr">
@@ -9709,7 +9709,7 @@
       </c>
       <c r="D328" s="12" t="inlineStr">
         <is>
-          <t>maa://36646 (98.53), maa://36845 (94.85), **maa://39217 (38.46)</t>
+          <t>maa://36646 (98.54), maa://36845 (94.85), **maa://39217 (35.71)</t>
         </is>
       </c>
       <c r="E328" s="3" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="D329" s="12" t="inlineStr">
         <is>
-          <t>maa://36645 (97.8), maa://36841 (93.75), maa://37484 (93.33), maa://37858 (91.3)</t>
+          <t>maa://36645 (97.81), maa://36841 (93.75), maa://37484 (93.33), maa://37858 (91.3)</t>
         </is>
       </c>
       <c r="E329" s="3" t="inlineStr">
@@ -9844,7 +9844,7 @@
       </c>
       <c r="D333" s="14" t="inlineStr">
         <is>
-          <t>maa://40957 (85.04), maa://41035 (88.89), maa://41128 (80.77)</t>
+          <t>maa://40957 (85.38), maa://41035 (88.89), maa://41128 (80.77)</t>
         </is>
       </c>
       <c r="E333" s="14" t="inlineStr">
@@ -10141,7 +10141,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>maa://43875 (95.24)</t>
+          <t>maa://43875 (95.45)</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>*maa://42970 (77.33)</t>
+          <t>*maa://42970 (77.63)</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.24 12:07:34</t>
+          <t>更新日期：2024.11.24 13:17:50</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -2743,7 +2743,7 @@
       </c>
       <c r="D70" s="12" t="inlineStr">
         <is>
-          <t>maa://36643 (97.64), maa://36864 (100.0), maa://39140 (100.0)</t>
+          <t>maa://36643 (97.65), maa://36864 (100.0), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E70" s="3" t="inlineStr">
@@ -3175,7 +3175,7 @@
       </c>
       <c r="D86" s="12" t="inlineStr">
         <is>
-          <t>maa://24472 (85.81), *maa://35841 (54.55)</t>
+          <t>maa://24472 (85.91), *maa://35841 (54.55)</t>
         </is>
       </c>
       <c r="E86" s="3" t="inlineStr">
@@ -6334,7 +6334,7 @@
       </c>
       <c r="D203" s="12" t="inlineStr">
         <is>
-          <t>maa://39238 (99.06)</t>
+          <t>maa://39238 (99.07)</t>
         </is>
       </c>
       <c r="E203" s="3" t="inlineStr">
@@ -7009,7 +7009,7 @@
       </c>
       <c r="D228" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (76.78), maa://30666 (83.76), *maa://26836 (76.06), maa://37607 (92.99), **maa://30739 (44.44), *maa://34428 (66.67), *maa://30723 (51.85), maa://39588 (85.71), *maa://37850 (66.67)</t>
+          <t>*maa://30667 (76.78), maa://30666 (83.76), *maa://26836 (76.06), maa://37607 (92.99), **maa://30739 (44.44), *maa://34428 (67.11), *maa://30723 (51.85), maa://39588 (85.71), *maa://37850 (66.67)</t>
         </is>
       </c>
       <c r="E228" s="3" t="inlineStr">
@@ -7360,7 +7360,7 @@
       </c>
       <c r="D241" s="12" t="inlineStr">
         <is>
-          <t>*maa://40958 (57.14)</t>
+          <t>*maa://40958 (62.5)</t>
         </is>
       </c>
       <c r="E241" s="3" t="inlineStr">
@@ -7738,7 +7738,7 @@
       </c>
       <c r="D255" s="12" t="inlineStr">
         <is>
-          <t>maa://25769 (96.4)</t>
+          <t>maa://25769 (96.43)</t>
         </is>
       </c>
       <c r="E255" s="3" t="inlineStr">
@@ -8116,7 +8116,7 @@
       </c>
       <c r="D269" s="12" t="inlineStr">
         <is>
-          <t>maa://20899 (90.0)</t>
+          <t>maa://20899 (90.07)</t>
         </is>
       </c>
       <c r="E269" s="3" t="inlineStr">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="D277" s="12" t="inlineStr">
         <is>
-          <t>maa://36642 (100.0), maa://36867 (96.43), maa://39155 (95.24)</t>
+          <t>maa://36642 (100.0), maa://36867 (96.55), maa://39155 (95.24)</t>
         </is>
       </c>
       <c r="E277" s="3" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.24 12:07:34</t>
+          <t>更新日期：2024.11.24 15:31:26</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="D67" s="12" t="inlineStr">
         <is>
-          <t>maa://28784 (93.88), maa://29088 (91.76), maa://20974 (95.45), maa://31124 (96.55), maa://28950 (91.3), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67), maa://41832 (83.33)</t>
+          <t>maa://28784 (93.88), maa://29088 (91.8), maa://20974 (95.45), maa://31124 (96.55), maa://28950 (91.3), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67), maa://41832 (83.33)</t>
         </is>
       </c>
       <c r="E67" s="3" t="inlineStr">
@@ -2743,7 +2743,7 @@
       </c>
       <c r="D70" s="12" t="inlineStr">
         <is>
-          <t>maa://36643 (97.64), maa://36864 (100.0), maa://39140 (100.0)</t>
+          <t>maa://36643 (97.65), maa://36864 (100.0), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E70" s="3" t="inlineStr">
@@ -3175,7 +3175,7 @@
       </c>
       <c r="D86" s="12" t="inlineStr">
         <is>
-          <t>maa://24472 (85.81), *maa://35841 (54.55)</t>
+          <t>maa://24472 (85.91), *maa://35841 (54.55)</t>
         </is>
       </c>
       <c r="E86" s="3" t="inlineStr">
@@ -6334,7 +6334,7 @@
       </c>
       <c r="D203" s="12" t="inlineStr">
         <is>
-          <t>maa://39238 (99.06)</t>
+          <t>maa://39238 (99.07)</t>
         </is>
       </c>
       <c r="E203" s="3" t="inlineStr">
@@ -7009,7 +7009,7 @@
       </c>
       <c r="D228" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (76.78), maa://30666 (83.76), *maa://26836 (76.06), maa://37607 (92.99), **maa://30739 (44.44), *maa://34428 (66.67), *maa://30723 (51.85), maa://39588 (85.71), *maa://37850 (66.67)</t>
+          <t>*maa://30667 (76.78), maa://30666 (83.76), *maa://26836 (76.06), maa://37607 (92.99), **maa://30739 (44.44), *maa://34428 (67.11), *maa://30723 (51.85), maa://39588 (85.71), *maa://37850 (66.67)</t>
         </is>
       </c>
       <c r="E228" s="3" t="inlineStr">
@@ -7360,7 +7360,7 @@
       </c>
       <c r="D241" s="12" t="inlineStr">
         <is>
-          <t>*maa://40958 (57.14)</t>
+          <t>*maa://40958 (62.5)</t>
         </is>
       </c>
       <c r="E241" s="3" t="inlineStr">
@@ -7738,7 +7738,7 @@
       </c>
       <c r="D255" s="12" t="inlineStr">
         <is>
-          <t>maa://25769 (96.4)</t>
+          <t>maa://25769 (96.43)</t>
         </is>
       </c>
       <c r="E255" s="3" t="inlineStr">
@@ -8116,7 +8116,7 @@
       </c>
       <c r="D269" s="12" t="inlineStr">
         <is>
-          <t>maa://20899 (90.0)</t>
+          <t>maa://20899 (90.07)</t>
         </is>
       </c>
       <c r="E269" s="3" t="inlineStr">
@@ -8278,7 +8278,7 @@
       </c>
       <c r="D275" s="12" t="inlineStr">
         <is>
-          <t>maa://32414 (98.53), maa://32505 (100.0), maa://39155 (95.24)</t>
+          <t>maa://32414 (98.54), maa://32505 (100.0), maa://39155 (95.24)</t>
         </is>
       </c>
       <c r="E275" s="3" t="inlineStr">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="D277" s="12" t="inlineStr">
         <is>
-          <t>maa://36642 (100.0), maa://36867 (96.43), maa://39155 (95.24)</t>
+          <t>maa://36642 (100.0), maa://36867 (96.55), maa://39155 (95.24)</t>
         </is>
       </c>
       <c r="E277" s="3" t="inlineStr">
@@ -8386,7 +8386,7 @@
       </c>
       <c r="D279" s="12" t="inlineStr">
         <is>
-          <t>maa://29005 (98.08), maa://31560 (83.33)</t>
+          <t>maa://29005 (98.11), maa://31560 (83.33)</t>
         </is>
       </c>
       <c r="E279" s="3" t="inlineStr">
@@ -9844,7 +9844,7 @@
       </c>
       <c r="D333" s="14" t="inlineStr">
         <is>
-          <t>maa://40957 (85.38), maa://41035 (88.89), maa://41128 (80.77)</t>
+          <t>maa://40957 (85.5), maa://41035 (88.89), maa://41128 (80.77)</t>
         </is>
       </c>
       <c r="E333" s="14" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>*maa://42970 (77.63)</t>
+          <t>*maa://42970 (77.92)</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.24 15:31:26</t>
+          <t>更新日期：2024.11.30 13:17:44</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="D23" s="12" t="inlineStr">
         <is>
-          <t>*maa://20951 (66.67)</t>
+          <t>**maa://20951 (50.0)</t>
         </is>
       </c>
       <c r="E23" s="3" t="inlineStr">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>maa://36644 (87.79), maa://36866 (97.3), maa://27794 (100.0)</t>
+          <t>maa://36644 (87.88), maa://36866 (97.3), maa://27794 (100.0)</t>
         </is>
       </c>
       <c r="E31" s="3" t="inlineStr">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="D36" s="12" t="inlineStr">
         <is>
-          <t>maa://27376 (89.29), **maa://20838 (50.0), *maa://42635 (75.0)</t>
+          <t>maa://27376 (89.66), **maa://20838 (50.0), *maa://42635 (75.0)</t>
         </is>
       </c>
       <c r="E36" s="3" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="D54" s="12" t="inlineStr">
         <is>
-          <t>maa://20932 (96.71), maa://40838 (100.0), maa://42415 (100.0)</t>
+          <t>maa://20932 (96.71), maa://42415 (100.0), maa://40838 (100.0)</t>
         </is>
       </c>
       <c r="E54" s="3" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="D60" s="12" t="inlineStr">
         <is>
-          <t>maa://20844 (96.15)</t>
+          <t>maa://20844 (96.3)</t>
         </is>
       </c>
       <c r="E60" s="3" t="inlineStr">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="D63" s="12" t="inlineStr">
         <is>
-          <t>maa://28567 (97.62), **maa://20947 (44.12), maa://30525 (100.0), *maa://28188 (66.67), maa://38735 (100.0), maa://30524 (100.0)</t>
+          <t>maa://28567 (97.67), **maa://20947 (44.12), maa://30525 (100.0), *maa://28188 (66.67), maa://38735 (100.0), maa://30524 (100.0)</t>
         </is>
       </c>
       <c r="E63" s="3" t="inlineStr">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="D67" s="12" t="inlineStr">
         <is>
-          <t>maa://28784 (93.88), maa://29088 (91.8), maa://20974 (95.45), maa://31124 (96.55), maa://28950 (91.3), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67), maa://41832 (83.33)</t>
+          <t>maa://28784 (93.88), maa://29088 (91.8), maa://20974 (95.45), maa://31124 (96.62), maa://28950 (91.3), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67), maa://41832 (83.33)</t>
         </is>
       </c>
       <c r="E67" s="3" t="inlineStr">
@@ -2743,7 +2743,7 @@
       </c>
       <c r="D70" s="12" t="inlineStr">
         <is>
-          <t>maa://36643 (97.65), maa://36864 (100.0), maa://39140 (100.0)</t>
+          <t>maa://36643 (97.36), maa://36864 (100.0), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E70" s="3" t="inlineStr">
@@ -3148,7 +3148,7 @@
       </c>
       <c r="D85" s="12" t="inlineStr">
         <is>
-          <t>maa://20886 (88.89), maa://25136 (94.12)</t>
+          <t>maa://20886 (88.89), maa://25136 (94.44)</t>
         </is>
       </c>
       <c r="E85" s="3" t="inlineStr">
@@ -3175,7 +3175,7 @@
       </c>
       <c r="D86" s="12" t="inlineStr">
         <is>
-          <t>maa://24472 (85.91), *maa://35841 (54.55)</t>
+          <t>maa://24472 (86.0), *maa://35841 (54.55)</t>
         </is>
       </c>
       <c r="E86" s="3" t="inlineStr">
@@ -3202,7 +3202,7 @@
       </c>
       <c r="D87" s="12" t="inlineStr">
         <is>
-          <t>*maa://28190 (56.67), maa://20880 (90.0)</t>
+          <t>*maa://28190 (56.67), maa://20880 (90.48)</t>
         </is>
       </c>
       <c r="E87" s="3" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="D105" s="12" t="inlineStr">
         <is>
-          <t>maa://25018 (96.1), maa://25776 (90.48), maa://28361 (96.77), maa://25772 (92.5), *maa://25161 (80.0), maa://32653 (85.71)</t>
+          <t>maa://25018 (96.18), maa://25776 (90.48), maa://28361 (96.77), maa://25772 (92.5), *maa://25161 (80.0), maa://32653 (85.71)</t>
         </is>
       </c>
       <c r="E105" s="3" t="inlineStr">
@@ -3796,7 +3796,7 @@
       </c>
       <c r="D109" s="12" t="inlineStr">
         <is>
-          <t>*maa://20933 (77.55), maa://20822 (100.0)</t>
+          <t>*maa://20933 (78.0), maa://20822 (100.0)</t>
         </is>
       </c>
       <c r="E109" s="3" t="inlineStr">
@@ -3877,7 +3877,7 @@
       </c>
       <c r="D112" s="12" t="inlineStr">
         <is>
-          <t>maa://20908 (98.25), *maa://23346 (77.78), maa://35723 (94.44), maa://38822 (100.0)</t>
+          <t>maa://20908 (98.26), *maa://23346 (77.78), maa://35723 (94.44), maa://38822 (100.0)</t>
         </is>
       </c>
       <c r="E112" s="3" t="inlineStr">
@@ -4255,7 +4255,7 @@
       </c>
       <c r="D126" s="12" t="inlineStr">
         <is>
-          <t>maa://21422 (98.78)</t>
+          <t>maa://21422 (98.8)</t>
         </is>
       </c>
       <c r="E126" s="3" t="inlineStr">
@@ -4606,7 +4606,7 @@
       </c>
       <c r="D139" s="12" t="inlineStr">
         <is>
-          <t>maa://30670 (95.92), maa://31470 (95.0), ***maa://30867 (25.0)</t>
+          <t>maa://30670 (95.96), maa://31470 (95.0), ***maa://30867 (25.0)</t>
         </is>
       </c>
       <c r="E139" s="3" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="D140" s="12" t="inlineStr">
         <is>
-          <t>*maa://20971 (75.0)</t>
+          <t>*maa://20971 (80.0)</t>
         </is>
       </c>
       <c r="E140" s="3" t="inlineStr">
@@ -4763,12 +4763,12 @@
       </c>
       <c r="C145" s="13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D145" s="12" t="inlineStr">
         <is>
-          <t>maa://36641 (98.26), maa://36865 (95.69), maa://42918 (100.0), maa://37300 (100.0), maa://42917 (100.0)</t>
+          <t>maa://36641 (98.27), maa://36865 (95.69), maa://42918 (100.0), maa://37300 (100.0), maa://42917 (100.0), maa://44119 (100.0)</t>
         </is>
       </c>
       <c r="E145" s="3" t="inlineStr">
@@ -5200,7 +5200,7 @@
       </c>
       <c r="D161" s="12" t="inlineStr">
         <is>
-          <t>maa://29633 (93.09), maa://29627 (92.4), maa://29659 (82.76), maa://29861 (100.0)</t>
+          <t>maa://29633 (93.15), maa://29627 (92.44), maa://29659 (82.76), maa://29861 (100.0)</t>
         </is>
       </c>
       <c r="E161" s="3" t="inlineStr">
@@ -5740,7 +5740,7 @@
       </c>
       <c r="D181" s="12" t="inlineStr">
         <is>
-          <t>maa://34866 (86.96), maa://34714 (95.83)</t>
+          <t>maa://34866 (87.5), maa://34714 (95.83)</t>
         </is>
       </c>
       <c r="E181" s="3" t="inlineStr">
@@ -6037,7 +6037,7 @@
       </c>
       <c r="D192" s="12" t="inlineStr">
         <is>
-          <t>maa://42223 (99.11), maa://42292 (93.33), maa://42402 (100.0)</t>
+          <t>maa://42223 (99.19), maa://42292 (93.75), maa://42402 (100.0)</t>
         </is>
       </c>
       <c r="E192" s="3" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="D201" s="12" t="inlineStr">
         <is>
-          <t>maa://20956 (95.45), *maa://20830 (77.78)</t>
+          <t>maa://20956 (95.51), *maa://20830 (77.78)</t>
         </is>
       </c>
       <c r="E201" s="3" t="inlineStr">
@@ -6334,7 +6334,7 @@
       </c>
       <c r="D203" s="12" t="inlineStr">
         <is>
-          <t>maa://39238 (99.07)</t>
+          <t>maa://39238 (99.09)</t>
         </is>
       </c>
       <c r="E203" s="3" t="inlineStr">
@@ -6955,7 +6955,7 @@
       </c>
       <c r="D226" s="12" t="inlineStr">
         <is>
-          <t>maa://20922 (92.31), *maa://32623 (58.33), *maa://34242 (80.0), maa://34900 (88.89)</t>
+          <t>maa://20922 (92.31), *maa://32623 (58.33), *maa://34242 (80.0), maa://34900 (90.0)</t>
         </is>
       </c>
       <c r="E226" s="3" t="inlineStr">
@@ -7009,7 +7009,7 @@
       </c>
       <c r="D228" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (76.78), maa://30666 (83.76), *maa://26836 (76.06), maa://37607 (92.99), **maa://30739 (44.44), *maa://34428 (67.11), *maa://30723 (51.85), maa://39588 (85.71), *maa://37850 (66.67)</t>
+          <t>*maa://30667 (76.9), maa://30666 (83.76), *maa://26836 (76.06), maa://37607 (93.04), **maa://30739 (44.44), *maa://34428 (67.11), *maa://30723 (51.85), maa://39588 (85.71), *maa://37850 (66.67)</t>
         </is>
       </c>
       <c r="E228" s="3" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="D236" s="12" t="inlineStr">
         <is>
-          <t>maa://28923 (91.93), maa://28906 (97.44), ***maa://28825 (12.0)</t>
+          <t>maa://28923 (91.93), maa://28906 (97.56), ***maa://28825 (12.0)</t>
         </is>
       </c>
       <c r="E236" s="3" t="inlineStr">
@@ -7252,7 +7252,7 @@
       </c>
       <c r="D237" s="14" t="inlineStr">
         <is>
-          <t>maa://42287 (88.89), maa://42225 (100.0)</t>
+          <t>maa://42287 (89.66), maa://42225 (100.0)</t>
         </is>
       </c>
       <c r="E237" s="3" t="inlineStr">
@@ -7333,7 +7333,7 @@
       </c>
       <c r="D240" s="12" t="inlineStr">
         <is>
-          <t>maa://24093 (100.0), maa://31559 (95.65), maa://20924 (95.0)</t>
+          <t>maa://24093 (100.0), maa://31559 (95.65), maa://20924 (95.24)</t>
         </is>
       </c>
       <c r="E240" s="3" t="inlineStr">
@@ -7360,7 +7360,7 @@
       </c>
       <c r="D241" s="12" t="inlineStr">
         <is>
-          <t>*maa://40958 (62.5)</t>
+          <t>*maa://40958 (66.67)</t>
         </is>
       </c>
       <c r="E241" s="3" t="inlineStr">
@@ -7409,12 +7409,12 @@
       </c>
       <c r="C243" s="13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D243" s="12" t="inlineStr">
         <is>
-          <t>maa://20877 (98.28), maa://20836 (100.0)</t>
+          <t>maa://20877 (98.28), maa://20836 (100.0), maa://20632 (100.0)</t>
         </is>
       </c>
       <c r="E243" s="3" t="inlineStr">
@@ -7711,7 +7711,7 @@
       </c>
       <c r="D254" s="12" t="inlineStr">
         <is>
-          <t>*maa://20825 (66.67), *maa://21445 (76.92), ***maa://20891 (30.0), *maa://35726 (55.56)</t>
+          <t>*maa://20825 (66.67), *maa://21445 (76.92), *maa://35726 (60.0), ***maa://20891 (30.0)</t>
         </is>
       </c>
       <c r="E254" s="3" t="inlineStr">
@@ -7738,7 +7738,7 @@
       </c>
       <c r="D255" s="12" t="inlineStr">
         <is>
-          <t>maa://25769 (96.43)</t>
+          <t>maa://25769 (96.46)</t>
         </is>
       </c>
       <c r="E255" s="3" t="inlineStr">
@@ -8089,7 +8089,7 @@
       </c>
       <c r="D268" s="12" t="inlineStr">
         <is>
-          <t>*maa://38296 (78.57)</t>
+          <t>*maa://38296 (80.0)</t>
         </is>
       </c>
       <c r="E268" s="3" t="inlineStr">
@@ -8116,7 +8116,7 @@
       </c>
       <c r="D269" s="12" t="inlineStr">
         <is>
-          <t>maa://20899 (90.07)</t>
+          <t>maa://20899 (90.13)</t>
         </is>
       </c>
       <c r="E269" s="3" t="inlineStr">
@@ -8899,7 +8899,7 @@
       </c>
       <c r="D298" s="12" t="inlineStr">
         <is>
-          <t>maa://39692 (99.64), maa://39810 (81.25)</t>
+          <t>maa://39692 (99.65), maa://39810 (81.25)</t>
         </is>
       </c>
       <c r="E298" s="3" t="inlineStr">
@@ -9196,7 +9196,7 @@
       </c>
       <c r="D309" s="12" t="inlineStr">
         <is>
-          <t>maa://42968 (99.4)</t>
+          <t>maa://42968 (99.41)</t>
         </is>
       </c>
       <c r="E309" s="3" t="inlineStr">
@@ -9412,7 +9412,7 @@
       </c>
       <c r="D317" s="12" t="inlineStr">
         <is>
-          <t>maa://32647 (97.28), maa://32415 (96.61), maa://34677 (100.0), maa://32892 (100.0)</t>
+          <t>maa://32647 (97.29), maa://32415 (96.61), maa://34677 (100.0), maa://32892 (100.0)</t>
         </is>
       </c>
       <c r="E317" s="3" t="inlineStr">
@@ -9547,7 +9547,7 @@
       </c>
       <c r="D322" s="12" t="inlineStr">
         <is>
-          <t>maa://34865 (96.77), maa://34717 (92.98)</t>
+          <t>maa://34865 (96.82), maa://34717 (92.98)</t>
         </is>
       </c>
       <c r="E322" s="3" t="inlineStr">
@@ -9709,7 +9709,7 @@
       </c>
       <c r="D328" s="12" t="inlineStr">
         <is>
-          <t>maa://36646 (98.54), maa://36845 (94.85), **maa://39217 (35.71)</t>
+          <t>maa://36646 (98.55), maa://36845 (94.85), **maa://39217 (35.71)</t>
         </is>
       </c>
       <c r="E328" s="3" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="D329" s="12" t="inlineStr">
         <is>
-          <t>maa://36645 (97.81), maa://36841 (93.75), maa://37484 (93.33), maa://37858 (91.3)</t>
+          <t>maa://36645 (97.83), maa://36841 (93.75), maa://37484 (93.33), maa://37858 (91.3)</t>
         </is>
       </c>
       <c r="E329" s="3" t="inlineStr">
@@ -9844,7 +9844,7 @@
       </c>
       <c r="D333" s="14" t="inlineStr">
         <is>
-          <t>maa://40957 (85.5), maa://41035 (88.89), maa://41128 (80.77)</t>
+          <t>maa://40957 (85.4), maa://41035 (88.89), maa://41128 (80.77)</t>
         </is>
       </c>
       <c r="E333" s="14" t="inlineStr">
@@ -10141,7 +10141,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>maa://43875 (95.45)</t>
+          <t>maa://43875 (95.65)</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>*maa://42970 (77.92)</t>
+          <t>*maa://42970 (77.78)</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.30 13:17:44</t>
+          <t>更新日期：2024.11.30 17:56:43</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -7009,7 +7009,7 @@
       </c>
       <c r="D228" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (76.9), maa://30666 (83.76), *maa://26836 (76.06), maa://37607 (93.04), **maa://30739 (44.44), *maa://34428 (67.11), *maa://30723 (51.85), maa://39588 (85.71), *maa://37850 (66.67)</t>
+          <t>*maa://30667 (76.9), maa://30666 (83.76), *maa://26836 (76.06), maa://37607 (93.08), **maa://30739 (44.44), *maa://34428 (67.11), *maa://30723 (51.85), maa://39588 (85.71), *maa://37850 (66.67)</t>
         </is>
       </c>
       <c r="E228" s="3" t="inlineStr">
@@ -7414,7 +7414,7 @@
       </c>
       <c r="D243" s="12" t="inlineStr">
         <is>
-          <t>maa://20877 (98.28), maa://20836 (100.0), maa://20632 (100.0)</t>
+          <t>maa://20877 (98.31), maa://20836 (100.0), maa://20632 (100.0)</t>
         </is>
       </c>
       <c r="E243" s="3" t="inlineStr">
@@ -7522,7 +7522,7 @@
       </c>
       <c r="D247" s="12" t="inlineStr">
         <is>
-          <t>maa://31560 (83.33), maa://20884 (93.33)</t>
+          <t>maa://31560 (83.33), maa://20884 (93.75)</t>
         </is>
       </c>
       <c r="E247" s="3" t="inlineStr">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="D252" s="12" t="inlineStr">
         <is>
-          <t>maa://22467 (93.55)</t>
+          <t>maa://22467 (93.75)</t>
         </is>
       </c>
       <c r="E252" s="3" t="inlineStr">
@@ -9547,7 +9547,7 @@
       </c>
       <c r="D322" s="12" t="inlineStr">
         <is>
-          <t>maa://34865 (96.82), maa://34717 (92.98)</t>
+          <t>maa://34865 (96.82), maa://34717 (93.1)</t>
         </is>
       </c>
       <c r="E322" s="3" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.30 17:56:43</t>
+          <t>更新日期：2024.11.30 23:36:59</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>maa://36644 (87.88), maa://36866 (97.3), maa://27794 (100.0)</t>
+          <t>maa://36644 (87.97), maa://36866 (97.3), maa://27794 (100.0)</t>
         </is>
       </c>
       <c r="E31" s="3" t="inlineStr">
@@ -3553,7 +3553,7 @@
       </c>
       <c r="D100" s="12" t="inlineStr">
         <is>
-          <t>*maa://29094 (61.76), maa://28904 (84.0), **maa://20931 (42.31)</t>
+          <t>*maa://29094 (62.86), maa://28904 (84.0), **maa://20931 (42.31)</t>
         </is>
       </c>
       <c r="E100" s="3" t="inlineStr">
@@ -5200,7 +5200,7 @@
       </c>
       <c r="D161" s="12" t="inlineStr">
         <is>
-          <t>maa://29633 (93.15), maa://29627 (92.44), maa://29659 (82.76), maa://29861 (100.0)</t>
+          <t>maa://29633 (93.15), maa://29627 (92.49), maa://29659 (82.76), maa://29861 (100.0)</t>
         </is>
       </c>
       <c r="E161" s="3" t="inlineStr">
@@ -7009,7 +7009,7 @@
       </c>
       <c r="D228" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (76.9), maa://30666 (83.76), *maa://26836 (76.06), maa://37607 (93.08), **maa://30739 (44.44), *maa://34428 (67.11), *maa://30723 (51.85), maa://39588 (85.71), *maa://37850 (66.67)</t>
+          <t>*maa://30667 (76.9), maa://30666 (83.76), *maa://26836 (76.06), maa://37607 (93.12), **maa://30739 (44.44), *maa://34428 (67.11), *maa://30723 (51.85), maa://39588 (85.71), *maa://37850 (66.67)</t>
         </is>
       </c>
       <c r="E228" s="3" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="D249" s="12" t="inlineStr">
         <is>
-          <t>maa://29027 (97.56)</t>
+          <t>maa://29027 (97.62)</t>
         </is>
       </c>
       <c r="E249" s="3" t="inlineStr">
@@ -8737,7 +8737,7 @@
       </c>
       <c r="D292" s="12" t="inlineStr">
         <is>
-          <t>maa://25367 (99.03)</t>
+          <t>maa://25367 (99.04)</t>
         </is>
       </c>
       <c r="E292" s="3" t="inlineStr">
@@ -10141,7 +10141,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>maa://43875 (95.65)</t>
+          <t>maa://43875 (95.83)</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>*maa://42970 (77.78)</t>
+          <t>*maa://42970 (78.31)</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.30 23:36:59</t>
+          <t>更新日期：2024.12.01 15:12:11</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -1361,27 +1361,27 @@
       <c r="AB22" s="11" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="16" t="inlineStr">
+      <c r="A23" s="17" t="inlineStr">
         <is>
           <t>深海色</t>
         </is>
       </c>
-      <c r="B23" s="16" t="inlineStr">
+      <c r="B23" s="17" t="inlineStr">
         <is>
           <t>2-4</t>
         </is>
       </c>
-      <c r="C23" s="13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D23" s="12" t="inlineStr">
-        <is>
-          <t>**maa://20951 (50.0)</t>
-        </is>
-      </c>
-      <c r="E23" s="3" t="inlineStr">
+      <c r="C23" s="18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D23" s="19" t="inlineStr">
+        <is>
+          <t>**maa://20951 (40.0)</t>
+        </is>
+      </c>
+      <c r="E23" s="20" t="inlineStr">
         <is>
           <t>&gt; 战斗中累计召唤非助战深海色的召唤物20回&gt; 使用至多1人的队伍3星通关主题曲2-4；队伍中仅可编入非助战深海色</t>
         </is>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="D67" s="12" t="inlineStr">
         <is>
-          <t>maa://28784 (93.88), maa://29088 (91.8), maa://20974 (95.45), maa://31124 (96.62), maa://28950 (91.3), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67), maa://41832 (83.33)</t>
+          <t>maa://28784 (93.88), maa://29088 (91.85), maa://20974 (95.45), maa://31124 (96.62), maa://28950 (91.3), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (66.67), maa://41832 (83.33)</t>
         </is>
       </c>
       <c r="E67" s="3" t="inlineStr">
@@ -7009,7 +7009,7 @@
       </c>
       <c r="D228" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (76.9), maa://30666 (83.76), *maa://26836 (76.06), maa://37607 (93.12), **maa://30739 (44.44), *maa://34428 (67.11), *maa://30723 (51.85), maa://39588 (85.71), *maa://37850 (66.67)</t>
+          <t>*maa://30667 (76.96), maa://30666 (83.76), *maa://26836 (76.06), maa://37607 (93.12), **maa://30739 (44.44), *maa://34428 (67.11), *maa://30723 (51.85), maa://39588 (85.71), *maa://37850 (66.67)</t>
         </is>
       </c>
       <c r="E228" s="3" t="inlineStr">
@@ -9682,7 +9682,7 @@
       </c>
       <c r="D327" s="12" t="inlineStr">
         <is>
-          <t>maa://42299 (100.0), **maa://42224 (50.0)</t>
+          <t>maa://42299 (93.33), **maa://42224 (50.0)</t>
         </is>
       </c>
       <c r="E327" s="3" t="inlineStr">
@@ -10114,7 +10114,7 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>maa://39153 (100.0), maa://43872 (100.0)</t>
+          <t>maa://43872 (100.0), maa://39153 (100.0)</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>*maa://42970 (78.31)</t>
+          <t>*maa://42970 (78.57)</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.01 15:12:11</t>
+          <t>更新日期：2024.12.01 15:16:43</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.07 13:18:04</t>
+          <t>更新日期：2024.12.07 23:48:34</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="D3" s="12" t="inlineStr">
         <is>
-          <t>*maa://20990 (80.0)</t>
+          <t>maa://20990 (83.33)</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="D32" s="12" t="inlineStr">
         <is>
-          <t>maa://36644 (88.24), maa://36866 (97.3), maa://27794 (100.0)</t>
+          <t>maa://36644 (88.32), maa://36866 (97.37), maa://27794 (100.0)</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="D56" s="12" t="inlineStr">
         <is>
-          <t>maa://44235 (81.25)</t>
+          <t>maa://44235 (83.33)</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="D60" s="12" t="inlineStr">
         <is>
-          <t>maa://38298 (83.33)</t>
+          <t>maa://38298 (83.78)</t>
         </is>
       </c>
       <c r="E60" s="3" t="inlineStr">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="D69" s="12" t="inlineStr">
         <is>
-          <t>maa://28784 (93.89), maa://29088 (91.98), maa://20974 (95.59), maa://31124 (96.67), maa://28950 (91.3), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (75.0), maa://41832 (84.62)</t>
+          <t>maa://28784 (93.9), maa://29088 (91.98), maa://20974 (95.59), maa://31124 (96.67), maa://28950 (91.3), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (75.0), maa://41832 (84.62)</t>
         </is>
       </c>
       <c r="E69" s="3" t="inlineStr">
@@ -2797,7 +2797,7 @@
       </c>
       <c r="D72" s="12" t="inlineStr">
         <is>
-          <t>maa://36643 (97.39), maa://36864 (98.48), maa://39140 (100.0)</t>
+          <t>maa://36643 (97.39), maa://36864 (98.51), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E72" s="3" t="inlineStr">
@@ -3607,7 +3607,7 @@
       </c>
       <c r="D102" s="12" t="inlineStr">
         <is>
-          <t>*maa://39240 (57.14), maa://40517 (90.91)</t>
+          <t>*maa://39240 (57.14), maa://40517 (91.67)</t>
         </is>
       </c>
       <c r="E102" s="3" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="D108" s="12" t="inlineStr">
         <is>
-          <t>maa://25018 (96.19), maa://25776 (90.48), maa://28361 (96.77), maa://25772 (92.5), *maa://25161 (80.0), maa://32653 (85.71)</t>
+          <t>maa://25018 (96.21), maa://25776 (90.48), maa://28361 (96.77), maa://25772 (92.5), *maa://25161 (80.0), maa://32653 (85.71)</t>
         </is>
       </c>
       <c r="E108" s="3" t="inlineStr">
@@ -4417,7 +4417,7 @@
       </c>
       <c r="D132" s="12" t="inlineStr">
         <is>
-          <t>maa://23019 (100.0), maa://20837 (100.0), maa://40517 (90.91), maa://37113 (100.0), *maa://37666 (75.0), maa://41686 (100.0)</t>
+          <t>maa://23019 (100.0), maa://20837 (100.0), maa://40517 (91.67), maa://37113 (100.0), *maa://37666 (75.0), maa://41686 (100.0)</t>
         </is>
       </c>
       <c r="E132" s="3" t="inlineStr">
@@ -5119,7 +5119,7 @@
       </c>
       <c r="D158" s="12" t="inlineStr">
         <is>
-          <t>maa://44232 (97.06), maa://44305 (100.0)</t>
+          <t>maa://44232 (94.87), maa://44305 (100.0)</t>
         </is>
       </c>
       <c r="E158" s="3" t="inlineStr">
@@ -5902,7 +5902,7 @@
       </c>
       <c r="D187" s="12" t="inlineStr">
         <is>
-          <t>maa://34866 (87.5), maa://34714 (95.83)</t>
+          <t>maa://34866 (88.0), maa://34714 (95.83)</t>
         </is>
       </c>
       <c r="E187" s="3" t="inlineStr">
@@ -6442,7 +6442,7 @@
       </c>
       <c r="D207" s="12" t="inlineStr">
         <is>
-          <t>maa://20956 (95.51), *maa://20830 (77.78)</t>
+          <t>maa://20956 (95.57), *maa://20830 (77.78)</t>
         </is>
       </c>
       <c r="E207" s="3" t="inlineStr">
@@ -7171,7 +7171,7 @@
       </c>
       <c r="D234" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (77.15), maa://30666 (83.84), *maa://26836 (76.06), maa://37607 (93.33), **maa://30739 (44.44), *maa://34428 (67.53), *maa://30723 (51.85), maa://39588 (85.71), *maa://37850 (66.67)</t>
+          <t>*maa://30667 (77.21), maa://30666 (83.84), *maa://26836 (76.06), maa://37607 (93.33), **maa://30739 (44.44), *maa://34428 (67.53), *maa://30723 (51.85), maa://39588 (85.71), *maa://37850 (66.67)</t>
         </is>
       </c>
       <c r="E234" s="3" t="inlineStr">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="D277" s="12" t="inlineStr">
         <is>
-          <t>maa://30710 (97.17), maa://36845 (94.85), maa://31558 (96.43), **maa://39217 (35.71), maa://30668 (84.62)</t>
+          <t>maa://30710 (97.17), maa://36845 (94.85), maa://31558 (96.55), **maa://39217 (35.71), maa://30668 (84.62)</t>
         </is>
       </c>
       <c r="E277" s="3" t="inlineStr">
@@ -8764,7 +8764,7 @@
       </c>
       <c r="D293" s="12" t="inlineStr">
         <is>
-          <t>maa://35859 (96.67)</t>
+          <t>maa://35859 (96.72)</t>
         </is>
       </c>
       <c r="E293" s="3" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.07 23:48:34</t>
+          <t>更新日期：2024.12.08 13:18:47</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="D56" s="12" t="inlineStr">
         <is>
-          <t>maa://44235 (83.33)</t>
+          <t>maa://44235 (84.21)</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
@@ -2797,7 +2797,7 @@
       </c>
       <c r="D72" s="12" t="inlineStr">
         <is>
-          <t>maa://36643 (97.39), maa://36864 (98.51), maa://39140 (100.0)</t>
+          <t>maa://36643 (97.4), maa://36864 (97.06), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E72" s="3" t="inlineStr">
@@ -4876,7 +4876,7 @@
       </c>
       <c r="D149" s="12" t="inlineStr">
         <is>
-          <t>maa://36641 (98.27), maa://36865 (95.69), maa://42918 (100.0), maa://37300 (100.0), maa://42917 (100.0), maa://44119 (100.0)</t>
+          <t>maa://36641 (98.27), maa://36865 (95.69), maa://42918 (100.0), maa://37300 (100.0), maa://44119 (100.0), maa://42917 (100.0)</t>
         </is>
       </c>
       <c r="E149" s="3" t="inlineStr">
@@ -5119,7 +5119,7 @@
       </c>
       <c r="D158" s="12" t="inlineStr">
         <is>
-          <t>maa://44232 (94.87), maa://44305 (100.0)</t>
+          <t>maa://44232 (95.35), maa://44305 (100.0)</t>
         </is>
       </c>
       <c r="E158" s="3" t="inlineStr">
@@ -9466,7 +9466,7 @@
       </c>
       <c r="D319" s="12" t="inlineStr">
         <is>
-          <t>maa://30671 (81.51), maa://30669 (98.57), maa://37275 (82.86), *maa://32410 (63.64), maa://41605 (100.0), maa://33671 (100.0)</t>
+          <t>maa://30671 (80.95), maa://30669 (98.57), maa://37275 (82.86), *maa://32410 (63.64), maa://41605 (100.0), maa://33671 (100.0)</t>
         </is>
       </c>
       <c r="E319" s="3" t="inlineStr">
@@ -10033,7 +10033,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>maa://40957 (85.0), maa://41035 (88.89), maa://41128 (80.77)</t>
+          <t>maa://40957 (85.11), maa://41035 (88.89), maa://41128 (80.77)</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -10406,12 +10406,12 @@
       </c>
       <c r="C354" s="13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://44389 (100.0)</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.08 13:18:47</t>
+          <t>更新日期：2024.12.08 15:46:46</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -1049,27 +1049,27 @@
       <c r="AB14" s="11" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="16" t="inlineStr">
+      <c r="A15" s="17" t="inlineStr">
         <is>
           <t>慕斯</t>
         </is>
       </c>
-      <c r="B15" s="16" t="inlineStr">
+      <c r="B15" s="17" t="inlineStr">
         <is>
           <t>2-2</t>
         </is>
       </c>
-      <c r="C15" s="13" t="inlineStr">
+      <c r="C15" s="18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D15" s="12" t="inlineStr">
+      <c r="D15" s="19" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="E15" s="3" t="inlineStr">
+      <c r="E15" s="20" t="inlineStr">
         <is>
           <t>&gt; 完成5次战斗；必须编入非助战慕斯并上场，且每次战斗至少释放1次炸毛&gt; 3星通关主题曲2-2；必须编入非助战慕斯并上场，且队伍中不能有术师干员</t>
         </is>
@@ -3251,12 +3251,12 @@
       </c>
       <c r="C89" s="13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D89" s="12" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://44402 (100.0)</t>
         </is>
       </c>
       <c r="E89" s="3" t="inlineStr">
@@ -4223,12 +4223,12 @@
       </c>
       <c r="C125" s="13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D125" s="12" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://44403 (100.0)</t>
         </is>
       </c>
       <c r="E125" s="3" t="inlineStr">
@@ -5119,7 +5119,7 @@
       </c>
       <c r="D158" s="12" t="inlineStr">
         <is>
-          <t>maa://44232 (95.35), maa://44305 (100.0)</t>
+          <t>maa://44232 (95.45), maa://44305 (100.0)</t>
         </is>
       </c>
       <c r="E158" s="3" t="inlineStr">
@@ -6199,7 +6199,7 @@
       </c>
       <c r="D198" s="12" t="inlineStr">
         <is>
-          <t>maa://42223 (99.26), maa://42292 (94.12), maa://42402 (100.0)</t>
+          <t>maa://42223 (99.27), maa://42292 (94.12), maa://42402 (100.0)</t>
         </is>
       </c>
       <c r="E198" s="3" t="inlineStr">
@@ -7414,7 +7414,7 @@
       </c>
       <c r="D243" s="12" t="inlineStr">
         <is>
-          <t>maa://42287 (89.66), maa://42225 (100.0)</t>
+          <t>maa://42287 (90.0), maa://42225 (100.0)</t>
         </is>
       </c>
       <c r="E243" s="3" t="inlineStr">
@@ -9358,7 +9358,7 @@
       </c>
       <c r="D315" s="12" t="inlineStr">
         <is>
-          <t>maa://44234 (95.0)</t>
+          <t>maa://44234 (95.24)</t>
         </is>
       </c>
       <c r="E315" s="3" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.08 15:46:46</t>
+          <t>更新日期：2024.12.12 13:20:00</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -1049,27 +1049,27 @@
       <c r="AB14" s="11" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="17" t="inlineStr">
+      <c r="A15" s="16" t="inlineStr">
         <is>
           <t>慕斯</t>
         </is>
       </c>
-      <c r="B15" s="17" t="inlineStr">
+      <c r="B15" s="16" t="inlineStr">
         <is>
           <t>2-2</t>
         </is>
       </c>
-      <c r="C15" s="18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D15" s="19" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E15" s="20" t="inlineStr">
+      <c r="C15" s="13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" s="12" t="inlineStr">
+        <is>
+          <t>maa://44401 (100.0)</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
         <is>
           <t>&gt; 完成5次战斗；必须编入非助战慕斯并上场，且每次战斗至少释放1次炸毛&gt; 3星通关主题曲2-2；必须编入非助战慕斯并上场，且队伍中不能有术师干员</t>
         </is>
@@ -1744,7 +1744,7 @@
       </c>
       <c r="D33" s="12" t="inlineStr">
         <is>
-          <t>maa://30500 (98.21), *maa://27290 (70.59), ***maa://42154 (25.0)</t>
+          <t>maa://30500 (98.25), *maa://27290 (70.59), ***maa://42154 (25.0)</t>
         </is>
       </c>
       <c r="E33" s="3" t="inlineStr">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="D37" s="12" t="inlineStr">
         <is>
-          <t>maa://27376 (89.66), **maa://20838 (50.0), *maa://42635 (80.0)</t>
+          <t>maa://27376 (90.0), **maa://20838 (50.0), *maa://42635 (80.0)</t>
         </is>
       </c>
       <c r="E37" s="3" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="D41" s="12" t="inlineStr">
         <is>
-          <t>*maa://20892 (76.81)</t>
+          <t>*maa://20892 (77.14)</t>
         </is>
       </c>
       <c r="E41" s="3" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="D56" s="12" t="inlineStr">
         <is>
-          <t>maa://44235 (84.21)</t>
+          <t>maa://44235 (86.36)</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
@@ -2689,7 +2689,7 @@
       </c>
       <c r="D68" s="12" t="inlineStr">
         <is>
-          <t>maa://20976 (97.73), maa://20815 (100.0)</t>
+          <t>maa://20976 (97.75), maa://20815 (100.0)</t>
         </is>
       </c>
       <c r="E68" s="3" t="inlineStr">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="D69" s="12" t="inlineStr">
         <is>
-          <t>maa://28784 (93.9), maa://29088 (91.98), maa://20974 (95.59), maa://31124 (96.67), maa://28950 (91.3), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (75.0), maa://41832 (84.62)</t>
+          <t>maa://28784 (93.91), maa://29088 (91.98), maa://20974 (95.59), maa://31124 (96.67), maa://28950 (91.3), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (75.0), maa://41832 (84.62)</t>
         </is>
       </c>
       <c r="E69" s="3" t="inlineStr">
@@ -2797,7 +2797,7 @@
       </c>
       <c r="D72" s="12" t="inlineStr">
         <is>
-          <t>maa://36643 (97.4), maa://36864 (97.06), maa://39140 (100.0)</t>
+          <t>maa://36643 (97.44), maa://36864 (97.1), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E72" s="3" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="D108" s="12" t="inlineStr">
         <is>
-          <t>maa://25018 (96.21), maa://25776 (90.48), maa://28361 (96.77), maa://25772 (92.5), *maa://25161 (80.0), maa://32653 (85.71)</t>
+          <t>maa://25018 (96.25), maa://25776 (90.48), maa://28361 (96.77), maa://25772 (92.5), *maa://25161 (80.0), maa://32653 (85.71)</t>
         </is>
       </c>
       <c r="E108" s="3" t="inlineStr">
@@ -4363,7 +4363,7 @@
       </c>
       <c r="D130" s="12" t="inlineStr">
         <is>
-          <t>maa://21422 (98.82)</t>
+          <t>maa://21422 (98.84)</t>
         </is>
       </c>
       <c r="E130" s="3" t="inlineStr">
@@ -4687,7 +4687,7 @@
       </c>
       <c r="D142" s="12" t="inlineStr">
         <is>
-          <t>maa://28484 (97.47), **maa://23736 (41.54), *maa://31185 (80.0), maa://30306 (100.0)</t>
+          <t>maa://28484 (97.5), **maa://23736 (41.54), *maa://31185 (80.0), maa://30306 (100.0)</t>
         </is>
       </c>
       <c r="E142" s="3" t="inlineStr">
@@ -4714,7 +4714,7 @@
       </c>
       <c r="D143" s="12" t="inlineStr">
         <is>
-          <t>maa://30670 (96.04), maa://31470 (95.24), ***maa://30867 (25.0)</t>
+          <t>maa://30670 (96.12), maa://31470 (95.24), ***maa://30867 (25.0)</t>
         </is>
       </c>
       <c r="E143" s="3" t="inlineStr">
@@ -5119,7 +5119,7 @@
       </c>
       <c r="D158" s="12" t="inlineStr">
         <is>
-          <t>maa://44232 (95.45), maa://44305 (100.0)</t>
+          <t>maa://44232 (96.3), maa://44305 (100.0)</t>
         </is>
       </c>
       <c r="E158" s="3" t="inlineStr">
@@ -5308,7 +5308,7 @@
       </c>
       <c r="D165" s="12" t="inlineStr">
         <is>
-          <t>maa://20975 (90.0), maa://30806 (100.0)</t>
+          <t>maa://20975 (90.91), maa://30806 (100.0)</t>
         </is>
       </c>
       <c r="E165" s="3" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="D172" s="12" t="inlineStr">
         <is>
-          <t>maa://32418 (99.5)</t>
+          <t>maa://32418 (99.51)</t>
         </is>
       </c>
       <c r="E172" s="3" t="inlineStr">
@@ -5902,7 +5902,7 @@
       </c>
       <c r="D187" s="12" t="inlineStr">
         <is>
-          <t>maa://34866 (88.0), maa://34714 (95.83)</t>
+          <t>maa://34866 (88.46), maa://34714 (95.83)</t>
         </is>
       </c>
       <c r="E187" s="3" t="inlineStr">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="D194" s="12" t="inlineStr">
         <is>
-          <t>*maa://35854 (74.29), maa://25760 (85.88), **maa://20872 (50.0), ***maa://43443 (12.5), **maa://43911 (33.33), maa://44224 (100.0)</t>
+          <t>*maa://35854 (74.29), maa://25760 (86.05), **maa://20872 (50.0), ***maa://43443 (12.5), **maa://43911 (33.33), maa://44224 (100.0)</t>
         </is>
       </c>
       <c r="E194" s="3" t="inlineStr">
@@ -6199,7 +6199,7 @@
       </c>
       <c r="D198" s="12" t="inlineStr">
         <is>
-          <t>maa://42223 (99.27), maa://42292 (94.12), maa://42402 (100.0)</t>
+          <t>maa://42223 (99.28), maa://42292 (94.12), maa://42402 (100.0)</t>
         </is>
       </c>
       <c r="E198" s="3" t="inlineStr">
@@ -8251,7 +8251,7 @@
       </c>
       <c r="D274" s="12" t="inlineStr">
         <is>
-          <t>*maa://38296 (80.0)</t>
+          <t>maa://38296 (81.25)</t>
         </is>
       </c>
       <c r="E274" s="3" t="inlineStr">
@@ -8278,7 +8278,7 @@
       </c>
       <c r="D275" s="12" t="inlineStr">
         <is>
-          <t>maa://20899 (89.54)</t>
+          <t>maa://20899 (89.61)</t>
         </is>
       </c>
       <c r="E275" s="3" t="inlineStr">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="D277" s="12" t="inlineStr">
         <is>
-          <t>maa://30710 (97.17), maa://36845 (94.85), maa://31558 (96.55), **maa://39217 (35.71), maa://30668 (84.62)</t>
+          <t>maa://30710 (97.2), maa://36845 (94.85), maa://31558 (96.77), **maa://39217 (35.71), maa://30668 (84.62)</t>
         </is>
       </c>
       <c r="E277" s="3" t="inlineStr">
@@ -8548,7 +8548,7 @@
       </c>
       <c r="D285" s="12" t="inlineStr">
         <is>
-          <t>maa://29005 (98.15), maa://31560 (83.33)</t>
+          <t>maa://29005 (98.18), maa://31560 (83.33)</t>
         </is>
       </c>
       <c r="E285" s="3" t="inlineStr">
@@ -9061,7 +9061,7 @@
       </c>
       <c r="D304" s="12" t="inlineStr">
         <is>
-          <t>maa://39692 (99.65), maa://39810 (81.25)</t>
+          <t>maa://39692 (99.66), maa://39810 (81.25)</t>
         </is>
       </c>
       <c r="E304" s="3" t="inlineStr">
@@ -9358,7 +9358,7 @@
       </c>
       <c r="D315" s="12" t="inlineStr">
         <is>
-          <t>maa://44234 (95.24)</t>
+          <t>maa://44234 (96.15)</t>
         </is>
       </c>
       <c r="E315" s="3" t="inlineStr">
@@ -9385,7 +9385,7 @@
       </c>
       <c r="D316" s="12" t="inlineStr">
         <is>
-          <t>maa://42968 (99.41)</t>
+          <t>maa://42968 (99.42)</t>
         </is>
       </c>
       <c r="E316" s="3" t="inlineStr">
@@ -9466,7 +9466,7 @@
       </c>
       <c r="D319" s="12" t="inlineStr">
         <is>
-          <t>maa://30671 (80.95), maa://30669 (98.57), maa://37275 (82.86), *maa://32410 (63.64), maa://41605 (100.0), maa://33671 (100.0)</t>
+          <t>maa://30671 (80.95), maa://30669 (98.59), maa://37275 (82.86), *maa://32410 (63.64), maa://41605 (100.0), maa://33671 (100.0)</t>
         </is>
       </c>
       <c r="E319" s="3" t="inlineStr">
@@ -9493,7 +9493,7 @@
       </c>
       <c r="D320" s="12" t="inlineStr">
         <is>
-          <t>maa://38295 (96.3)</t>
+          <t>maa://38295 (96.36)</t>
         </is>
       </c>
       <c r="E320" s="3" t="inlineStr">
@@ -9601,7 +9601,7 @@
       </c>
       <c r="D324" s="12" t="inlineStr">
         <is>
-          <t>maa://32647 (97.32), maa://32415 (95.83), maa://34677 (100.0), maa://32892 (100.0)</t>
+          <t>maa://32647 (97.34), maa://32415 (95.83), maa://34677 (100.0), maa://32892 (100.0)</t>
         </is>
       </c>
       <c r="E324" s="3" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="D329" s="12" t="inlineStr">
         <is>
-          <t>maa://34865 (96.89), maa://34717 (93.1)</t>
+          <t>maa://34865 (96.91), maa://34717 (93.1)</t>
         </is>
       </c>
       <c r="E329" s="3" t="inlineStr">
@@ -9871,7 +9871,7 @@
       </c>
       <c r="D334" s="14" t="inlineStr">
         <is>
-          <t>maa://42299 (93.33), **maa://42224 (50.0)</t>
+          <t>maa://42299 (94.12), **maa://42224 (50.0)</t>
         </is>
       </c>
       <c r="E334" s="14" t="inlineStr">
@@ -9898,7 +9898,7 @@
       </c>
       <c r="D335" s="14" t="inlineStr">
         <is>
-          <t>maa://36646 (98.56), maa://36845 (94.85), **maa://39217 (35.71)</t>
+          <t>maa://36646 (98.57), maa://36845 (94.85), **maa://39217 (35.71)</t>
         </is>
       </c>
       <c r="E335" s="14" t="inlineStr">
@@ -10033,7 +10033,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>maa://40957 (85.11), maa://41035 (88.89), maa://41128 (80.77)</t>
+          <t>maa://40957 (85.42), maa://41035 (89.19), maa://41128 (80.77)</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -10195,7 +10195,7 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>maa://41110 (97.87)</t>
+          <t>maa://41110 (97.96)</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
@@ -10384,7 +10384,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>*maa://42970 (79.31)</t>
+          <t>maa://42970 (80.65)</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.12 13:20:00</t>
+          <t>更新日期：2024.12.13 13:19:35</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="D22" s="12" t="inlineStr">
         <is>
-          <t>maa://20948 (87.5), maa://30844 (100.0)</t>
+          <t>maa://20948 (88.89), maa://30844 (100.0)</t>
         </is>
       </c>
       <c r="E22" s="3" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="D32" s="12" t="inlineStr">
         <is>
-          <t>maa://36644 (88.32), maa://36866 (97.37), maa://27794 (100.0)</t>
+          <t>maa://36644 (88.41), maa://36866 (97.44), maa://27794 (100.0)</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
@@ -1798,7 +1798,7 @@
       </c>
       <c r="D35" s="12" t="inlineStr">
         <is>
-          <t>maa://20847 (100.0)</t>
+          <t>maa://20847 (95.45)</t>
         </is>
       </c>
       <c r="E35" s="3" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="D56" s="12" t="inlineStr">
         <is>
-          <t>maa://44235 (86.36)</t>
+          <t>maa://44235 (88.46)</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
@@ -2689,7 +2689,7 @@
       </c>
       <c r="D68" s="12" t="inlineStr">
         <is>
-          <t>maa://20976 (97.75), maa://20815 (100.0)</t>
+          <t>maa://20976 (97.79), maa://20815 (100.0)</t>
         </is>
       </c>
       <c r="E68" s="3" t="inlineStr">
@@ -3904,7 +3904,7 @@
       </c>
       <c r="D113" s="12" t="inlineStr">
         <is>
-          <t>maa://29037 (97.3)</t>
+          <t>maa://29037 (97.37)</t>
         </is>
       </c>
       <c r="E113" s="3" t="inlineStr">
@@ -4417,7 +4417,7 @@
       </c>
       <c r="D132" s="12" t="inlineStr">
         <is>
-          <t>maa://23019 (100.0), maa://20837 (100.0), maa://40517 (91.67), maa://37113 (100.0), *maa://37666 (75.0), maa://41686 (100.0)</t>
+          <t>maa://23019 (100.0), maa://20837 (100.0), maa://40517 (91.67), maa://37113 (100.0), *maa://37666 (80.0), maa://41686 (100.0)</t>
         </is>
       </c>
       <c r="E132" s="3" t="inlineStr">
@@ -4876,7 +4876,7 @@
       </c>
       <c r="D149" s="12" t="inlineStr">
         <is>
-          <t>maa://36641 (98.27), maa://36865 (95.69), maa://42918 (100.0), maa://37300 (100.0), maa://44119 (100.0), maa://42917 (100.0)</t>
+          <t>maa://36641 (98.27), maa://36865 (95.73), maa://42918 (100.0), maa://37300 (100.0), maa://44119 (100.0), maa://42917 (100.0)</t>
         </is>
       </c>
       <c r="E149" s="3" t="inlineStr">
@@ -5119,7 +5119,7 @@
       </c>
       <c r="D158" s="12" t="inlineStr">
         <is>
-          <t>maa://44232 (96.3), maa://44305 (100.0)</t>
+          <t>maa://44232 (96.92), maa://44305 (100.0)</t>
         </is>
       </c>
       <c r="E158" s="3" t="inlineStr">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="D194" s="12" t="inlineStr">
         <is>
-          <t>*maa://35854 (74.29), maa://25760 (86.05), **maa://20872 (50.0), ***maa://43443 (12.5), **maa://43911 (33.33), maa://44224 (100.0)</t>
+          <t>*maa://35854 (74.29), maa://25760 (86.21), **maa://20872 (50.0), ***maa://43443 (12.5), maa://44224 (100.0), **maa://43911 (33.33)</t>
         </is>
       </c>
       <c r="E194" s="3" t="inlineStr">
@@ -6145,7 +6145,7 @@
       </c>
       <c r="D196" s="12" t="inlineStr">
         <is>
-          <t>maa://27823 (82.14), *maa://28190 (56.67), maa://22894 (90.62), *maa://20906 (72.22), **maa://20907 (33.33)</t>
+          <t>maa://27823 (80.7), *maa://28190 (56.67), maa://22894 (90.62), *maa://20906 (72.22), **maa://20907 (35.48)</t>
         </is>
       </c>
       <c r="E196" s="3" t="inlineStr">
@@ -6172,7 +6172,7 @@
       </c>
       <c r="D197" s="12" t="inlineStr">
         <is>
-          <t>maa://27823 (82.14), *maa://28190 (56.67), maa://22894 (90.62), *maa://20906 (72.22), **maa://20907 (33.33)</t>
+          <t>maa://27823 (80.7), *maa://28190 (56.67), maa://22894 (90.62), *maa://20906 (72.22), **maa://20907 (35.48)</t>
         </is>
       </c>
       <c r="E197" s="3" t="inlineStr">
@@ -6199,7 +6199,7 @@
       </c>
       <c r="D198" s="12" t="inlineStr">
         <is>
-          <t>maa://42223 (99.28), maa://42292 (94.12), maa://42402 (100.0)</t>
+          <t>maa://42223 (99.29), maa://42292 (94.44), maa://42402 (100.0)</t>
         </is>
       </c>
       <c r="E198" s="3" t="inlineStr">
@@ -6496,7 +6496,7 @@
       </c>
       <c r="D209" s="12" t="inlineStr">
         <is>
-          <t>maa://39238 (99.12)</t>
+          <t>maa://39238 (99.13)</t>
         </is>
       </c>
       <c r="E209" s="3" t="inlineStr">
@@ -6631,7 +6631,7 @@
       </c>
       <c r="D214" s="19" t="inlineStr">
         <is>
-          <t>**maa://20995 (44.44), **maa://26496 (33.33)</t>
+          <t>**maa://26496 (33.33), **maa://20995 (44.44)</t>
         </is>
       </c>
       <c r="E214" s="20" t="inlineStr">
@@ -6955,7 +6955,7 @@
       </c>
       <c r="D226" s="12" t="inlineStr">
         <is>
-          <t>maa://29058 (93.88), maa://39140 (100.0), maa://38723 (100.0)</t>
+          <t>maa://29058 (94.0), maa://39140 (100.0), maa://38723 (100.0)</t>
         </is>
       </c>
       <c r="E226" s="3" t="inlineStr">
@@ -7171,7 +7171,7 @@
       </c>
       <c r="D234" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (77.21), maa://30666 (83.84), *maa://26836 (76.06), maa://37607 (93.33), **maa://30739 (44.44), *maa://34428 (67.53), *maa://30723 (51.85), maa://39588 (85.71), *maa://37850 (66.67)</t>
+          <t>*maa://30667 (77.27), maa://30666 (83.84), *maa://26836 (76.06), maa://37607 (93.41), **maa://30739 (44.44), *maa://34428 (67.53), *maa://30723 (51.85), maa://39588 (85.71), *maa://37850 (66.67)</t>
         </is>
       </c>
       <c r="E234" s="3" t="inlineStr">
@@ -7414,7 +7414,7 @@
       </c>
       <c r="D243" s="12" t="inlineStr">
         <is>
-          <t>maa://42287 (90.0), maa://42225 (100.0)</t>
+          <t>maa://42287 (90.91), maa://42225 (100.0)</t>
         </is>
       </c>
       <c r="E243" s="3" t="inlineStr">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="D277" s="12" t="inlineStr">
         <is>
-          <t>maa://30710 (97.2), maa://36845 (94.85), maa://31558 (96.77), **maa://39217 (35.71), maa://30668 (84.62)</t>
+          <t>maa://30710 (97.2), maa://36845 (94.85), maa://31558 (96.88), **maa://39217 (35.71), maa://30668 (84.62)</t>
         </is>
       </c>
       <c r="E277" s="3" t="inlineStr">
@@ -9142,7 +9142,7 @@
       </c>
       <c r="D307" s="12" t="inlineStr">
         <is>
-          <t>maa://34867 (100.0), maa://34715 (100.0)</t>
+          <t>maa://34867 (96.77), maa://34715 (100.0)</t>
         </is>
       </c>
       <c r="E307" s="3" t="inlineStr">
@@ -9358,7 +9358,7 @@
       </c>
       <c r="D315" s="12" t="inlineStr">
         <is>
-          <t>maa://44234 (96.15)</t>
+          <t>maa://44234 (96.3)</t>
         </is>
       </c>
       <c r="E315" s="3" t="inlineStr">
@@ -9601,7 +9601,7 @@
       </c>
       <c r="D324" s="12" t="inlineStr">
         <is>
-          <t>maa://32647 (97.34), maa://32415 (95.83), maa://34677 (100.0), maa://32892 (100.0)</t>
+          <t>maa://32647 (97.36), maa://32415 (95.83), maa://34677 (100.0), maa://32892 (100.0)</t>
         </is>
       </c>
       <c r="E324" s="3" t="inlineStr">
@@ -9812,12 +9812,12 @@
       </c>
       <c r="C332" s="13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D332" s="14" t="inlineStr">
         <is>
-          <t>maa://36868 (100.0), maa://35996 (95.83), **maa://39217 (35.71)</t>
+          <t>maa://36868 (100.0), maa://35996 (95.83), **maa://39217 (35.71), maa://44463 (100.0)</t>
         </is>
       </c>
       <c r="E332" s="14" t="inlineStr">
@@ -10033,7 +10033,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>maa://40957 (85.42), maa://41035 (89.19), maa://41128 (80.77)</t>
+          <t>maa://40957 (85.23), maa://41035 (87.8), maa://41128 (81.48)</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -10195,7 +10195,7 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>maa://41110 (97.96)</t>
+          <t>maa://41110 (98.11)</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
@@ -10384,7 +10384,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>maa://42970 (80.65)</t>
+          <t>maa://42970 (81.44)</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.13 13:19:35</t>
+          <t>更新日期：2024.12.14 13:22:12</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>maa://20863 (86.21), maa://20832 (98.33), maa://20727 (100.0)</t>
+          <t>maa://20863 (86.36), maa://20832 (98.36), maa://20727 (100.0)</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="D56" s="12" t="inlineStr">
         <is>
-          <t>maa://44235 (88.46)</t>
+          <t>maa://44235 (91.18)</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="D60" s="12" t="inlineStr">
         <is>
-          <t>maa://38298 (83.78)</t>
+          <t>maa://38298 (84.62)</t>
         </is>
       </c>
       <c r="E60" s="3" t="inlineStr">
@@ -2608,7 +2608,7 @@
       </c>
       <c r="D65" s="12" t="inlineStr">
         <is>
-          <t>maa://28567 (97.67), **maa://20947 (44.12), maa://30525 (100.0), *maa://28188 (66.67), maa://38735 (100.0), maa://30524 (100.0)</t>
+          <t>maa://28567 (97.73), **maa://20947 (44.12), maa://30525 (100.0), *maa://28188 (66.67), maa://38735 (100.0), maa://30524 (100.0)</t>
         </is>
       </c>
       <c r="E65" s="3" t="inlineStr">
@@ -2689,7 +2689,7 @@
       </c>
       <c r="D68" s="12" t="inlineStr">
         <is>
-          <t>maa://20976 (97.79), maa://20815 (100.0)</t>
+          <t>maa://20976 (97.83), maa://20815 (100.0)</t>
         </is>
       </c>
       <c r="E68" s="3" t="inlineStr">
@@ -2797,7 +2797,7 @@
       </c>
       <c r="D72" s="12" t="inlineStr">
         <is>
-          <t>maa://36643 (97.44), maa://36864 (97.1), maa://39140 (100.0)</t>
+          <t>maa://36643 (97.47), maa://36864 (97.1), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E72" s="3" t="inlineStr">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="D88" s="12" t="inlineStr">
         <is>
-          <t>maa://24472 (86.18), *maa://35841 (54.55)</t>
+          <t>maa://24472 (86.27), *maa://35841 (54.55)</t>
         </is>
       </c>
       <c r="E88" s="3" t="inlineStr">
@@ -3607,7 +3607,7 @@
       </c>
       <c r="D102" s="12" t="inlineStr">
         <is>
-          <t>*maa://39240 (57.14), maa://40517 (91.67)</t>
+          <t>*maa://39240 (57.14), maa://40517 (92.31)</t>
         </is>
       </c>
       <c r="E102" s="3" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="D108" s="12" t="inlineStr">
         <is>
-          <t>maa://25018 (96.25), maa://25776 (90.48), maa://28361 (96.77), maa://25772 (92.5), *maa://25161 (80.0), maa://32653 (85.71)</t>
+          <t>maa://25018 (96.26), maa://25776 (90.48), maa://28361 (96.77), maa://25772 (92.5), *maa://25161 (80.0), maa://32653 (85.71)</t>
         </is>
       </c>
       <c r="E108" s="3" t="inlineStr">
@@ -3904,7 +3904,7 @@
       </c>
       <c r="D113" s="12" t="inlineStr">
         <is>
-          <t>maa://29037 (97.37)</t>
+          <t>maa://29037 (97.44)</t>
         </is>
       </c>
       <c r="E113" s="3" t="inlineStr">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="D122" s="12" t="inlineStr">
         <is>
-          <t>maa://29650 (97.62)</t>
+          <t>maa://29650 (97.67)</t>
         </is>
       </c>
       <c r="E122" s="3" t="inlineStr">
@@ -4363,7 +4363,7 @@
       </c>
       <c r="D130" s="12" t="inlineStr">
         <is>
-          <t>maa://21422 (98.84)</t>
+          <t>maa://21422 (98.85)</t>
         </is>
       </c>
       <c r="E130" s="3" t="inlineStr">
@@ -4417,7 +4417,7 @@
       </c>
       <c r="D132" s="12" t="inlineStr">
         <is>
-          <t>maa://23019 (100.0), maa://20837 (100.0), maa://40517 (91.67), maa://37113 (100.0), *maa://37666 (80.0), maa://41686 (100.0)</t>
+          <t>maa://23019 (100.0), maa://20837 (100.0), maa://40517 (92.31), maa://37113 (100.0), *maa://37666 (80.0), maa://41686 (100.0)</t>
         </is>
       </c>
       <c r="E132" s="3" t="inlineStr">
@@ -4876,7 +4876,7 @@
       </c>
       <c r="D149" s="12" t="inlineStr">
         <is>
-          <t>maa://36641 (98.27), maa://36865 (95.73), maa://42918 (100.0), maa://37300 (100.0), maa://44119 (100.0), maa://42917 (100.0)</t>
+          <t>maa://36641 (98.27), maa://36865 (95.76), maa://42918 (100.0), maa://37300 (100.0), maa://44119 (100.0), maa://42917 (100.0)</t>
         </is>
       </c>
       <c r="E149" s="3" t="inlineStr">
@@ -5119,7 +5119,7 @@
       </c>
       <c r="D158" s="12" t="inlineStr">
         <is>
-          <t>maa://44232 (96.92), maa://44305 (100.0)</t>
+          <t>maa://44232 (97.62), maa://44305 (100.0)</t>
         </is>
       </c>
       <c r="E158" s="3" t="inlineStr">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="D166" s="12" t="inlineStr">
         <is>
-          <t>maa://29633 (93.33), maa://29627 (92.49), maa://29659 (82.76), maa://29861 (100.0)</t>
+          <t>maa://29633 (93.33), maa://29627 (92.53), maa://29659 (82.76), maa://29861 (100.0)</t>
         </is>
       </c>
       <c r="E166" s="3" t="inlineStr">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="D194" s="12" t="inlineStr">
         <is>
-          <t>*maa://35854 (74.29), maa://25760 (86.21), **maa://20872 (50.0), ***maa://43443 (12.5), maa://44224 (100.0), **maa://43911 (33.33)</t>
+          <t>*maa://35854 (74.29), maa://25760 (86.36), **maa://20872 (50.0), maa://44224 (92.31), ***maa://43443 (12.5), ***maa://43911 (25.0)</t>
         </is>
       </c>
       <c r="E194" s="3" t="inlineStr">
@@ -6118,7 +6118,7 @@
       </c>
       <c r="D195" s="12" t="inlineStr">
         <is>
-          <t>**maa://38297 (31.25), maa://39156 (83.33), maa://39550 (100.0)</t>
+          <t>***maa://38297 (27.78), maa://39156 (83.33), maa://39550 (100.0)</t>
         </is>
       </c>
       <c r="E195" s="3" t="inlineStr">
@@ -6496,7 +6496,7 @@
       </c>
       <c r="D209" s="12" t="inlineStr">
         <is>
-          <t>maa://39238 (99.13)</t>
+          <t>maa://39238 (99.14)</t>
         </is>
       </c>
       <c r="E209" s="3" t="inlineStr">
@@ -7171,7 +7171,7 @@
       </c>
       <c r="D234" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (77.27), maa://30666 (83.84), *maa://26836 (76.06), maa://37607 (93.41), **maa://30739 (44.44), *maa://34428 (67.53), *maa://30723 (51.85), maa://39588 (85.71), *maa://37850 (66.67)</t>
+          <t>*maa://30667 (77.27), maa://30666 (83.84), *maa://26836 (76.06), maa://37607 (93.45), **maa://30739 (44.44), *maa://34428 (67.53), *maa://30723 (51.85), maa://39588 (85.71), *maa://37850 (66.67)</t>
         </is>
       </c>
       <c r="E234" s="3" t="inlineStr">
@@ -7603,7 +7603,7 @@
       </c>
       <c r="D250" s="12" t="inlineStr">
         <is>
-          <t>maa://20879 (82.93), maa://20834 (100.0)</t>
+          <t>maa://20879 (83.33), maa://20834 (100.0)</t>
         </is>
       </c>
       <c r="E250" s="3" t="inlineStr">
@@ -8845,7 +8845,7 @@
       </c>
       <c r="D296" s="12" t="inlineStr">
         <is>
-          <t>maa://25775 (92.73), *maa://25393 (76.92)</t>
+          <t>maa://25775 (92.86), *maa://25393 (76.92)</t>
         </is>
       </c>
       <c r="E296" s="3" t="inlineStr">
@@ -9385,7 +9385,7 @@
       </c>
       <c r="D316" s="12" t="inlineStr">
         <is>
-          <t>maa://42968 (99.42)</t>
+          <t>maa://42968 (99.43)</t>
         </is>
       </c>
       <c r="E316" s="3" t="inlineStr">
@@ -9466,7 +9466,7 @@
       </c>
       <c r="D319" s="12" t="inlineStr">
         <is>
-          <t>maa://30671 (80.95), maa://30669 (98.59), maa://37275 (82.86), *maa://32410 (63.64), maa://41605 (100.0), maa://33671 (100.0)</t>
+          <t>maa://30671 (80.95), maa://30669 (98.63), maa://37275 (82.86), *maa://32410 (63.64), maa://41605 (100.0), maa://33671 (100.0)</t>
         </is>
       </c>
       <c r="E319" s="3" t="inlineStr">
@@ -9601,7 +9601,7 @@
       </c>
       <c r="D324" s="12" t="inlineStr">
         <is>
-          <t>maa://32647 (97.36), maa://32415 (95.83), maa://34677 (100.0), maa://32892 (100.0)</t>
+          <t>maa://32647 (97.41), maa://32415 (95.87), maa://34677 (100.0), maa://32892 (100.0)</t>
         </is>
       </c>
       <c r="E324" s="3" t="inlineStr">
@@ -9898,7 +9898,7 @@
       </c>
       <c r="D335" s="14" t="inlineStr">
         <is>
-          <t>maa://36646 (98.57), maa://36845 (94.85), **maa://39217 (35.71)</t>
+          <t>maa://36646 (98.58), maa://36845 (94.85), **maa://39217 (35.71)</t>
         </is>
       </c>
       <c r="E335" s="14" t="inlineStr">
@@ -9925,7 +9925,7 @@
       </c>
       <c r="D336" s="14" t="inlineStr">
         <is>
-          <t>maa://36645 (97.84), maa://36841 (93.75), maa://37484 (93.48), maa://37858 (91.3)</t>
+          <t>maa://36645 (97.85), maa://36841 (93.75), maa://37484 (93.48), maa://37858 (91.3)</t>
         </is>
       </c>
       <c r="E336" s="14" t="inlineStr">
@@ -10033,7 +10033,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>maa://40957 (85.23), maa://41035 (87.8), maa://41128 (81.48)</t>
+          <t>maa://40957 (85.54), maa://41035 (89.13), *maa://41128 (79.31)</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -10195,7 +10195,7 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>maa://41110 (98.11)</t>
+          <t>maa://41110 (98.39)</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
@@ -10384,7 +10384,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>maa://42970 (81.44)</t>
+          <t>maa://42970 (83.04)</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.14 13:22:12</t>
+          <t>更新日期：2024.12.15 13:19:36</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="D56" s="12" t="inlineStr">
         <is>
-          <t>maa://44235 (91.18)</t>
+          <t>maa://44235 (92.68)</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="D60" s="12" t="inlineStr">
         <is>
-          <t>maa://38298 (84.62)</t>
+          <t>maa://38298 (85.0)</t>
         </is>
       </c>
       <c r="E60" s="3" t="inlineStr">
@@ -2689,7 +2689,7 @@
       </c>
       <c r="D68" s="12" t="inlineStr">
         <is>
-          <t>maa://20976 (97.83), maa://20815 (100.0)</t>
+          <t>maa://20976 (97.85), maa://20815 (100.0)</t>
         </is>
       </c>
       <c r="E68" s="3" t="inlineStr">
@@ -2797,7 +2797,7 @@
       </c>
       <c r="D72" s="12" t="inlineStr">
         <is>
-          <t>maa://36643 (97.47), maa://36864 (97.1), maa://39140 (100.0)</t>
+          <t>maa://36643 (97.49), maa://36864 (97.14), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E72" s="3" t="inlineStr">
@@ -3607,7 +3607,7 @@
       </c>
       <c r="D102" s="12" t="inlineStr">
         <is>
-          <t>*maa://39240 (57.14), maa://40517 (92.31)</t>
+          <t>*maa://39240 (57.14), maa://40517 (92.86)</t>
         </is>
       </c>
       <c r="E102" s="3" t="inlineStr">
@@ -4363,7 +4363,7 @@
       </c>
       <c r="D130" s="12" t="inlineStr">
         <is>
-          <t>maa://21422 (98.85)</t>
+          <t>maa://21422 (98.86)</t>
         </is>
       </c>
       <c r="E130" s="3" t="inlineStr">
@@ -4417,7 +4417,7 @@
       </c>
       <c r="D132" s="12" t="inlineStr">
         <is>
-          <t>maa://23019 (100.0), maa://20837 (100.0), maa://40517 (92.31), maa://37113 (100.0), *maa://37666 (80.0), maa://41686 (100.0)</t>
+          <t>maa://23019 (100.0), maa://20837 (100.0), maa://40517 (92.86), maa://37113 (100.0), *maa://37666 (80.0), maa://41686 (100.0)</t>
         </is>
       </c>
       <c r="E132" s="3" t="inlineStr">
@@ -4444,7 +4444,7 @@
       </c>
       <c r="D133" s="12" t="inlineStr">
         <is>
-          <t>maa://23020 (95.89), maa://29023 (100.0), maa://34319 (100.0), *maa://39515 (75.0), maa://41690 (100.0)</t>
+          <t>maa://23020 (95.89), maa://29023 (100.0), *maa://39515 (75.0), maa://34319 (100.0), maa://41690 (100.0)</t>
         </is>
       </c>
       <c r="E133" s="3" t="inlineStr">
@@ -4876,7 +4876,7 @@
       </c>
       <c r="D149" s="12" t="inlineStr">
         <is>
-          <t>maa://36641 (98.27), maa://36865 (95.76), maa://42918 (100.0), maa://37300 (100.0), maa://44119 (100.0), maa://42917 (100.0)</t>
+          <t>maa://36641 (98.28), maa://36865 (95.76), maa://42918 (100.0), maa://37300 (100.0), maa://44119 (100.0), maa://42917 (100.0)</t>
         </is>
       </c>
       <c r="E149" s="3" t="inlineStr">
@@ -5119,7 +5119,7 @@
       </c>
       <c r="D158" s="12" t="inlineStr">
         <is>
-          <t>maa://44232 (97.62), maa://44305 (100.0)</t>
+          <t>maa://44232 (98.0), maa://44305 (100.0)</t>
         </is>
       </c>
       <c r="E158" s="3" t="inlineStr">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="D166" s="12" t="inlineStr">
         <is>
-          <t>maa://29633 (93.33), maa://29627 (92.53), maa://29659 (82.76), maa://29861 (100.0)</t>
+          <t>maa://29633 (93.42), maa://29627 (92.53), maa://29659 (82.76), maa://29861 (100.0)</t>
         </is>
       </c>
       <c r="E166" s="3" t="inlineStr">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="D194" s="12" t="inlineStr">
         <is>
-          <t>*maa://35854 (74.29), maa://25760 (86.36), **maa://20872 (50.0), maa://44224 (92.31), ***maa://43443 (12.5), ***maa://43911 (25.0)</t>
+          <t>*maa://35854 (74.29), maa://25760 (86.36), **maa://20872 (50.0), maa://44224 (92.86), ***maa://43443 (22.22), **maa://43911 (33.33)</t>
         </is>
       </c>
       <c r="E194" s="3" t="inlineStr">
@@ -6118,7 +6118,7 @@
       </c>
       <c r="D195" s="12" t="inlineStr">
         <is>
-          <t>***maa://38297 (27.78), maa://39156 (83.33), maa://39550 (100.0)</t>
+          <t>***maa://38297 (30.0), maa://39156 (84.62), maa://39550 (100.0)</t>
         </is>
       </c>
       <c r="E195" s="3" t="inlineStr">
@@ -6199,7 +6199,7 @@
       </c>
       <c r="D198" s="12" t="inlineStr">
         <is>
-          <t>maa://42223 (99.29), maa://42292 (94.44), maa://42402 (100.0)</t>
+          <t>maa://42223 (99.3), maa://42292 (94.44), maa://42402 (100.0)</t>
         </is>
       </c>
       <c r="E198" s="3" t="inlineStr">
@@ -7171,7 +7171,7 @@
       </c>
       <c r="D234" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (77.27), maa://30666 (83.84), *maa://26836 (76.06), maa://37607 (93.45), **maa://30739 (44.44), *maa://34428 (67.53), *maa://30723 (51.85), maa://39588 (85.71), *maa://37850 (66.67)</t>
+          <t>*maa://30667 (77.39), maa://30666 (83.84), *maa://26836 (76.06), maa://37607 (93.53), **maa://30739 (44.44), *maa://34428 (67.53), *maa://30723 (51.85), maa://39588 (85.71), *maa://37850 (66.67)</t>
         </is>
       </c>
       <c r="E234" s="3" t="inlineStr">
@@ -7387,7 +7387,7 @@
       </c>
       <c r="D242" s="12" t="inlineStr">
         <is>
-          <t>maa://28923 (91.93), maa://28906 (97.56), ***maa://28825 (12.0)</t>
+          <t>maa://28923 (91.98), maa://28906 (97.62), ***maa://28825 (12.0)</t>
         </is>
       </c>
       <c r="E242" s="3" t="inlineStr">
@@ -7603,7 +7603,7 @@
       </c>
       <c r="D250" s="12" t="inlineStr">
         <is>
-          <t>maa://20879 (83.33), maa://20834 (100.0)</t>
+          <t>maa://20879 (84.09), maa://20834 (100.0)</t>
         </is>
       </c>
       <c r="E250" s="3" t="inlineStr">
@@ -9061,7 +9061,7 @@
       </c>
       <c r="D304" s="12" t="inlineStr">
         <is>
-          <t>maa://39692 (99.66), maa://39810 (81.25)</t>
+          <t>maa://39692 (99.67), maa://39810 (81.25)</t>
         </is>
       </c>
       <c r="E304" s="3" t="inlineStr">
@@ -9142,7 +9142,7 @@
       </c>
       <c r="D307" s="12" t="inlineStr">
         <is>
-          <t>maa://34867 (96.77), maa://34715 (100.0)</t>
+          <t>maa://34867 (96.88), maa://34715 (100.0)</t>
         </is>
       </c>
       <c r="E307" s="3" t="inlineStr">
@@ -9358,7 +9358,7 @@
       </c>
       <c r="D315" s="12" t="inlineStr">
         <is>
-          <t>maa://44234 (96.3)</t>
+          <t>maa://44234 (96.43)</t>
         </is>
       </c>
       <c r="E315" s="3" t="inlineStr">
@@ -9466,7 +9466,7 @@
       </c>
       <c r="D319" s="12" t="inlineStr">
         <is>
-          <t>maa://30671 (80.95), maa://30669 (98.63), maa://37275 (82.86), *maa://32410 (63.64), maa://41605 (100.0), maa://33671 (100.0)</t>
+          <t>maa://30671 (81.08), maa://30669 (98.63), maa://37275 (82.86), *maa://32410 (63.64), maa://41605 (100.0), maa://33671 (100.0)</t>
         </is>
       </c>
       <c r="E319" s="3" t="inlineStr">
@@ -9601,7 +9601,7 @@
       </c>
       <c r="D324" s="12" t="inlineStr">
         <is>
-          <t>maa://32647 (97.41), maa://32415 (95.87), maa://34677 (100.0), maa://32892 (100.0)</t>
+          <t>maa://32647 (97.45), maa://32415 (95.9), maa://34677 (100.0), maa://32892 (100.0)</t>
         </is>
       </c>
       <c r="E324" s="3" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="D329" s="12" t="inlineStr">
         <is>
-          <t>maa://34865 (96.91), maa://34717 (93.1)</t>
+          <t>maa://34865 (96.91), maa://34717 (93.22)</t>
         </is>
       </c>
       <c r="E329" s="3" t="inlineStr">
@@ -9898,7 +9898,7 @@
       </c>
       <c r="D335" s="14" t="inlineStr">
         <is>
-          <t>maa://36646 (98.58), maa://36845 (94.85), **maa://39217 (35.71)</t>
+          <t>maa://36646 (98.6), maa://36845 (94.85), **maa://39217 (35.71)</t>
         </is>
       </c>
       <c r="E335" s="14" t="inlineStr">
@@ -9925,7 +9925,7 @@
       </c>
       <c r="D336" s="14" t="inlineStr">
         <is>
-          <t>maa://36645 (97.85), maa://36841 (93.75), maa://37484 (93.48), maa://37858 (91.3)</t>
+          <t>maa://36645 (97.86), maa://36841 (93.75), maa://37484 (93.48), maa://37858 (91.3)</t>
         </is>
       </c>
       <c r="E336" s="14" t="inlineStr">
@@ -10028,12 +10028,12 @@
       </c>
       <c r="C340" s="13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>maa://40957 (85.54), maa://41035 (89.13), *maa://41128 (79.31)</t>
+          <t>maa://40957 (85.96), maa://41035 (89.13), *maa://41128 (80.0), maa://44635 (100.0), maa://44660 (100.0)</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -10195,7 +10195,7 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>maa://41110 (98.39)</t>
+          <t>maa://41110 (98.44)</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
@@ -10384,7 +10384,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>maa://42970 (83.04)</t>
+          <t>maa://42970 (83.87)</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.15 13:19:36</t>
+          <t>更新日期：2024.12.18 13:18:43</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="D16" s="12" t="inlineStr">
         <is>
-          <t>maa://20919 (100.0), **maa://24873 (44.44)</t>
+          <t>maa://20919 (100.0), **maa://24873 (40.0)</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>maa://20863 (86.36), maa://20832 (98.36), maa://20727 (100.0)</t>
+          <t>maa://20863 (86.36), maa://20832 (98.41), maa://20727 (100.0)</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="D32" s="12" t="inlineStr">
         <is>
-          <t>maa://36644 (88.41), maa://36866 (97.44), maa://27794 (100.0)</t>
+          <t>maa://36644 (88.57), maa://36866 (97.44), maa://27794 (100.0)</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="D33" s="12" t="inlineStr">
         <is>
-          <t>maa://30500 (98.25), *maa://27290 (70.59), ***maa://42154 (25.0)</t>
+          <t>maa://30500 (98.28), *maa://27290 (70.59), ***maa://42154 (16.67)</t>
         </is>
       </c>
       <c r="E33" s="3" t="inlineStr">
@@ -1798,7 +1798,7 @@
       </c>
       <c r="D35" s="12" t="inlineStr">
         <is>
-          <t>maa://20847 (95.45)</t>
+          <t>maa://20847 (95.65)</t>
         </is>
       </c>
       <c r="E35" s="3" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="D56" s="12" t="inlineStr">
         <is>
-          <t>maa://44235 (92.68)</t>
+          <t>maa://44235 (94.0)</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="D60" s="12" t="inlineStr">
         <is>
-          <t>maa://38298 (85.0)</t>
+          <t>maa://38298 (83.33)</t>
         </is>
       </c>
       <c r="E60" s="3" t="inlineStr">
@@ -2689,7 +2689,7 @@
       </c>
       <c r="D68" s="12" t="inlineStr">
         <is>
-          <t>maa://20976 (97.85), maa://20815 (100.0)</t>
+          <t>maa://20976 (97.86), maa://20815 (100.0)</t>
         </is>
       </c>
       <c r="E68" s="3" t="inlineStr">
@@ -2711,12 +2711,12 @@
       </c>
       <c r="C69" s="13" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D69" s="12" t="inlineStr">
         <is>
-          <t>maa://28784 (93.91), maa://29088 (91.98), maa://20974 (95.59), maa://31124 (96.67), maa://28950 (91.3), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (75.0), maa://41832 (84.62)</t>
+          <t>maa://28784 (93.91), maa://29088 (91.98), maa://20974 (95.59), maa://31124 (96.05), maa://28950 (91.3), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (75.0), maa://41832 (84.62), **maa://42200 (50.0)</t>
         </is>
       </c>
       <c r="E69" s="3" t="inlineStr">
@@ -2797,7 +2797,7 @@
       </c>
       <c r="D72" s="12" t="inlineStr">
         <is>
-          <t>maa://36643 (97.49), maa://36864 (97.14), maa://39140 (100.0)</t>
+          <t>maa://36643 (97.5), maa://36864 (97.18), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E72" s="3" t="inlineStr">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="D88" s="12" t="inlineStr">
         <is>
-          <t>maa://24472 (86.27), *maa://35841 (54.55)</t>
+          <t>maa://24472 (86.36), *maa://35841 (54.55)</t>
         </is>
       </c>
       <c r="E88" s="3" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="D108" s="12" t="inlineStr">
         <is>
-          <t>maa://25018 (96.26), maa://25776 (90.48), maa://28361 (96.77), maa://25772 (92.5), *maa://25161 (80.0), maa://32653 (85.71)</t>
+          <t>maa://25018 (96.27), maa://25776 (90.48), maa://28361 (96.77), maa://25772 (92.5), *maa://25161 (80.0), maa://32653 (85.71)</t>
         </is>
       </c>
       <c r="E108" s="3" t="inlineStr">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="D122" s="12" t="inlineStr">
         <is>
-          <t>maa://29650 (97.67)</t>
+          <t>maa://29650 (97.73)</t>
         </is>
       </c>
       <c r="E122" s="3" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="D124" s="12" t="inlineStr">
         <is>
-          <t>*maa://20909 (72.22)</t>
+          <t>*maa://20909 (68.42)</t>
         </is>
       </c>
       <c r="E124" s="3" t="inlineStr">
@@ -4876,7 +4876,7 @@
       </c>
       <c r="D149" s="12" t="inlineStr">
         <is>
-          <t>maa://36641 (98.28), maa://36865 (95.76), maa://42918 (100.0), maa://37300 (100.0), maa://44119 (100.0), maa://42917 (100.0)</t>
+          <t>maa://36641 (98.28), maa://36865 (95.76), maa://42918 (100.0), maa://44119 (100.0), maa://37300 (100.0), maa://42917 (100.0)</t>
         </is>
       </c>
       <c r="E149" s="3" t="inlineStr">
@@ -5119,7 +5119,7 @@
       </c>
       <c r="D158" s="12" t="inlineStr">
         <is>
-          <t>maa://44232 (98.0), maa://44305 (100.0)</t>
+          <t>maa://44232 (98.54), maa://44305 (100.0)</t>
         </is>
       </c>
       <c r="E158" s="3" t="inlineStr">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="D166" s="12" t="inlineStr">
         <is>
-          <t>maa://29633 (93.42), maa://29627 (92.53), maa://29659 (82.76), maa://29861 (100.0)</t>
+          <t>maa://29633 (93.48), maa://29627 (92.66), maa://29659 (82.76), maa://29861 (100.0)</t>
         </is>
       </c>
       <c r="E166" s="3" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="D172" s="12" t="inlineStr">
         <is>
-          <t>maa://32418 (99.51)</t>
+          <t>maa://32418 (99.52)</t>
         </is>
       </c>
       <c r="E172" s="3" t="inlineStr">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="D194" s="12" t="inlineStr">
         <is>
-          <t>*maa://35854 (74.29), maa://25760 (86.36), **maa://20872 (50.0), maa://44224 (92.86), ***maa://43443 (22.22), **maa://43911 (33.33)</t>
+          <t>*maa://35854 (75.68), maa://25760 (86.52), maa://44224 (92.16), **maa://20872 (50.0), ***maa://43443 (22.22), ***maa://43911 (25.0)</t>
         </is>
       </c>
       <c r="E194" s="3" t="inlineStr">
@@ -6118,7 +6118,7 @@
       </c>
       <c r="D195" s="12" t="inlineStr">
         <is>
-          <t>***maa://38297 (30.0), maa://39156 (84.62), maa://39550 (100.0)</t>
+          <t>***maa://38297 (30.0), maa://39156 (85.71), maa://39550 (100.0)</t>
         </is>
       </c>
       <c r="E195" s="3" t="inlineStr">
@@ -6199,7 +6199,7 @@
       </c>
       <c r="D198" s="12" t="inlineStr">
         <is>
-          <t>maa://42223 (99.3), maa://42292 (94.44), maa://42402 (100.0)</t>
+          <t>maa://42223 (99.33), maa://42292 (94.44), maa://42402 (100.0)</t>
         </is>
       </c>
       <c r="E198" s="3" t="inlineStr">
@@ -7171,7 +7171,7 @@
       </c>
       <c r="D234" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (77.39), maa://30666 (83.84), *maa://26836 (76.06), maa://37607 (93.53), **maa://30739 (44.44), *maa://34428 (67.53), *maa://30723 (51.85), maa://39588 (85.71), *maa://37850 (66.67)</t>
+          <t>*maa://30667 (77.69), maa://30666 (83.92), *maa://26836 (76.06), maa://37607 (93.64), **maa://30739 (44.44), *maa://34428 (67.95), *maa://30723 (51.85), maa://39588 (85.71), *maa://37850 (66.67)</t>
         </is>
       </c>
       <c r="E234" s="3" t="inlineStr">
@@ -7414,7 +7414,7 @@
       </c>
       <c r="D243" s="12" t="inlineStr">
         <is>
-          <t>maa://42287 (90.91), maa://42225 (100.0)</t>
+          <t>maa://42287 (91.67), maa://42225 (100.0)</t>
         </is>
       </c>
       <c r="E243" s="3" t="inlineStr">
@@ -7603,7 +7603,7 @@
       </c>
       <c r="D250" s="12" t="inlineStr">
         <is>
-          <t>maa://20879 (84.09), maa://20834 (100.0)</t>
+          <t>maa://20879 (84.44), maa://20834 (100.0)</t>
         </is>
       </c>
       <c r="E250" s="3" t="inlineStr">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="D277" s="12" t="inlineStr">
         <is>
-          <t>maa://30710 (97.2), maa://36845 (94.85), maa://31558 (96.88), **maa://39217 (35.71), maa://30668 (84.62)</t>
+          <t>maa://30710 (97.2), maa://36845 (94.9), maa://31558 (96.88), **maa://39217 (35.71), maa://30668 (84.62)</t>
         </is>
       </c>
       <c r="E277" s="3" t="inlineStr">
@@ -8548,7 +8548,7 @@
       </c>
       <c r="D285" s="12" t="inlineStr">
         <is>
-          <t>maa://29005 (98.18), maa://31560 (83.33)</t>
+          <t>maa://29005 (98.21), maa://31560 (83.33)</t>
         </is>
       </c>
       <c r="E285" s="3" t="inlineStr">
@@ -8764,7 +8764,7 @@
       </c>
       <c r="D293" s="12" t="inlineStr">
         <is>
-          <t>maa://35859 (96.72)</t>
+          <t>maa://35859 (96.77)</t>
         </is>
       </c>
       <c r="E293" s="3" t="inlineStr">
@@ -9061,7 +9061,7 @@
       </c>
       <c r="D304" s="12" t="inlineStr">
         <is>
-          <t>maa://39692 (99.67), maa://39810 (81.25)</t>
+          <t>maa://39692 (99.68), maa://39810 (81.25)</t>
         </is>
       </c>
       <c r="E304" s="3" t="inlineStr">
@@ -9358,7 +9358,7 @@
       </c>
       <c r="D315" s="12" t="inlineStr">
         <is>
-          <t>maa://44234 (96.43)</t>
+          <t>maa://44234 (96.77)</t>
         </is>
       </c>
       <c r="E315" s="3" t="inlineStr">
@@ -9385,7 +9385,7 @@
       </c>
       <c r="D316" s="12" t="inlineStr">
         <is>
-          <t>maa://42968 (99.43)</t>
+          <t>maa://42968 (99.44)</t>
         </is>
       </c>
       <c r="E316" s="3" t="inlineStr">
@@ -9466,7 +9466,7 @@
       </c>
       <c r="D319" s="12" t="inlineStr">
         <is>
-          <t>maa://30671 (81.08), maa://30669 (98.63), maa://37275 (82.86), *maa://32410 (63.64), maa://41605 (100.0), maa://33671 (100.0)</t>
+          <t>maa://30671 (81.33), maa://30669 (98.65), maa://37275 (82.86), *maa://32410 (63.64), maa://41605 (100.0), maa://33671 (100.0)</t>
         </is>
       </c>
       <c r="E319" s="3" t="inlineStr">
@@ -9601,7 +9601,7 @@
       </c>
       <c r="D324" s="12" t="inlineStr">
         <is>
-          <t>maa://32647 (97.45), maa://32415 (95.9), maa://34677 (100.0), maa://32892 (100.0)</t>
+          <t>maa://32647 (97.33), maa://32415 (95.97), maa://34677 (100.0), maa://32892 (100.0)</t>
         </is>
       </c>
       <c r="E324" s="3" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="D329" s="12" t="inlineStr">
         <is>
-          <t>maa://34865 (96.91), maa://34717 (93.22)</t>
+          <t>maa://34865 (96.93), maa://34717 (93.22)</t>
         </is>
       </c>
       <c r="E329" s="3" t="inlineStr">
@@ -9871,7 +9871,7 @@
       </c>
       <c r="D334" s="14" t="inlineStr">
         <is>
-          <t>maa://42299 (94.12), **maa://42224 (50.0)</t>
+          <t>maa://42299 (94.44), **maa://42224 (50.0)</t>
         </is>
       </c>
       <c r="E334" s="14" t="inlineStr">
@@ -9898,7 +9898,7 @@
       </c>
       <c r="D335" s="14" t="inlineStr">
         <is>
-          <t>maa://36646 (98.6), maa://36845 (94.85), **maa://39217 (35.71)</t>
+          <t>maa://36646 (98.38), maa://36845 (94.9), **maa://39217 (35.71)</t>
         </is>
       </c>
       <c r="E335" s="14" t="inlineStr">
@@ -9925,7 +9925,7 @@
       </c>
       <c r="D336" s="14" t="inlineStr">
         <is>
-          <t>maa://36645 (97.86), maa://36841 (93.75), maa://37484 (93.48), maa://37858 (91.3)</t>
+          <t>maa://36645 (97.87), maa://36841 (94.23), maa://37484 (93.48), maa://37858 (91.3)</t>
         </is>
       </c>
       <c r="E336" s="14" t="inlineStr">
@@ -10033,7 +10033,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>maa://40957 (85.96), maa://41035 (89.13), *maa://41128 (80.0), maa://44635 (100.0), maa://44660 (100.0)</t>
+          <t>maa://40957 (86.36), maa://41035 (89.36), *maa://41128 (80.0), maa://44635 (86.67), maa://44660 (87.5)</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -10195,7 +10195,7 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>maa://41110 (98.44)</t>
+          <t>maa://41110 (98.61)</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
@@ -10384,7 +10384,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>maa://42970 (83.87)</t>
+          <t>maa://42970 (84.67)</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.18 13:18:43</t>
+          <t>更新日期：2024.12.19 13:19:06</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="D33" s="12" t="inlineStr">
         <is>
-          <t>maa://30500 (98.28), *maa://27290 (70.59), ***maa://42154 (16.67)</t>
+          <t>maa://30500 (98.33), *maa://27290 (70.59), ***maa://42154 (16.67)</t>
         </is>
       </c>
       <c r="E33" s="3" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="D56" s="12" t="inlineStr">
         <is>
-          <t>maa://44235 (94.0)</t>
+          <t>maa://44235 (94.23)</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="D59" s="12" t="inlineStr">
         <is>
-          <t>maa://27970 (98.31), maa://41118 (100.0)</t>
+          <t>maa://27970 (98.31), *maa://41118 (75.0)</t>
         </is>
       </c>
       <c r="E59" s="3" t="inlineStr">
@@ -2689,7 +2689,7 @@
       </c>
       <c r="D68" s="12" t="inlineStr">
         <is>
-          <t>maa://20976 (97.86), maa://20815 (100.0)</t>
+          <t>maa://20976 (97.87), maa://20815 (100.0)</t>
         </is>
       </c>
       <c r="E68" s="3" t="inlineStr">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="D69" s="12" t="inlineStr">
         <is>
-          <t>maa://28784 (93.91), maa://29088 (91.98), maa://20974 (95.59), maa://31124 (96.05), maa://28950 (91.3), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (75.0), maa://41832 (84.62), **maa://42200 (50.0)</t>
+          <t>maa://28784 (93.92), maa://29088 (91.98), maa://20974 (95.59), maa://31124 (96.05), maa://28950 (91.3), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (75.0), maa://41832 (84.62), **maa://42200 (50.0)</t>
         </is>
       </c>
       <c r="E69" s="3" t="inlineStr">
@@ -2797,7 +2797,7 @@
       </c>
       <c r="D72" s="12" t="inlineStr">
         <is>
-          <t>maa://36643 (97.5), maa://36864 (97.18), maa://39140 (100.0)</t>
+          <t>maa://36643 (97.52), maa://36864 (97.22), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E72" s="3" t="inlineStr">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="D88" s="12" t="inlineStr">
         <is>
-          <t>maa://24472 (86.36), *maa://35841 (54.55)</t>
+          <t>maa://24472 (86.45), *maa://35841 (54.55)</t>
         </is>
       </c>
       <c r="E88" s="3" t="inlineStr">
@@ -5119,7 +5119,7 @@
       </c>
       <c r="D158" s="12" t="inlineStr">
         <is>
-          <t>maa://44232 (98.54), maa://44305 (100.0)</t>
+          <t>maa://44232 (98.66), maa://44305 (100.0)</t>
         </is>
       </c>
       <c r="E158" s="3" t="inlineStr">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="D166" s="12" t="inlineStr">
         <is>
-          <t>maa://29633 (93.48), maa://29627 (92.66), maa://29659 (82.76), maa://29861 (100.0)</t>
+          <t>maa://29633 (93.51), maa://29627 (92.66), maa://29659 (82.76), maa://29861 (100.0)</t>
         </is>
       </c>
       <c r="E166" s="3" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="D172" s="12" t="inlineStr">
         <is>
-          <t>maa://32418 (99.52)</t>
+          <t>maa://32418 (99.53)</t>
         </is>
       </c>
       <c r="E172" s="3" t="inlineStr">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="D194" s="12" t="inlineStr">
         <is>
-          <t>*maa://35854 (75.68), maa://25760 (86.52), maa://44224 (92.16), **maa://20872 (50.0), ***maa://43443 (22.22), ***maa://43911 (25.0)</t>
+          <t>*maa://35854 (76.32), maa://25760 (86.52), maa://44224 (91.07), **maa://20872 (50.0), ***maa://43443 (22.22), ***maa://43911 (25.0)</t>
         </is>
       </c>
       <c r="E194" s="3" t="inlineStr">
@@ -6118,7 +6118,7 @@
       </c>
       <c r="D195" s="12" t="inlineStr">
         <is>
-          <t>***maa://38297 (30.0), maa://39156 (85.71), maa://39550 (100.0)</t>
+          <t>***maa://38297 (30.0), maa://39156 (86.67), maa://39550 (100.0)</t>
         </is>
       </c>
       <c r="E195" s="3" t="inlineStr">
@@ -6469,7 +6469,7 @@
       </c>
       <c r="D208" s="12" t="inlineStr">
         <is>
-          <t>*maa://20955 (77.42)</t>
+          <t>*maa://20955 (75.0)</t>
         </is>
       </c>
       <c r="E208" s="3" t="inlineStr">
@@ -6847,7 +6847,7 @@
       </c>
       <c r="D222" s="12" t="inlineStr">
         <is>
-          <t>maa://20987 (91.89), *maa://35801 (75.0)</t>
+          <t>maa://20987 (92.0), *maa://35801 (75.0)</t>
         </is>
       </c>
       <c r="E222" s="3" t="inlineStr">
@@ -7171,7 +7171,7 @@
       </c>
       <c r="D234" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (77.69), maa://30666 (83.92), *maa://26836 (76.06), maa://37607 (93.64), **maa://30739 (44.44), *maa://34428 (67.95), *maa://30723 (51.85), maa://39588 (85.71), *maa://37850 (66.67)</t>
+          <t>*maa://30667 (77.55), maa://30666 (83.92), *maa://26836 (76.22), maa://37607 (93.68), **maa://30739 (44.44), *maa://34428 (67.95), *maa://30723 (51.85), maa://39588 (85.71), *maa://37850 (66.67)</t>
         </is>
       </c>
       <c r="E234" s="3" t="inlineStr">
@@ -7387,7 +7387,7 @@
       </c>
       <c r="D242" s="12" t="inlineStr">
         <is>
-          <t>maa://28923 (91.98), maa://28906 (97.62), ***maa://28825 (12.0)</t>
+          <t>maa://28923 (91.98), maa://28906 (97.67), ***maa://28825 (12.0)</t>
         </is>
       </c>
       <c r="E242" s="3" t="inlineStr">
@@ -7414,7 +7414,7 @@
       </c>
       <c r="D243" s="12" t="inlineStr">
         <is>
-          <t>maa://42287 (91.67), maa://42225 (100.0)</t>
+          <t>maa://42287 (91.89), maa://42225 (100.0)</t>
         </is>
       </c>
       <c r="E243" s="3" t="inlineStr">
@@ -8251,7 +8251,7 @@
       </c>
       <c r="D274" s="12" t="inlineStr">
         <is>
-          <t>maa://38296 (81.25)</t>
+          <t>maa://38296 (83.33)</t>
         </is>
       </c>
       <c r="E274" s="3" t="inlineStr">
@@ -9061,7 +9061,7 @@
       </c>
       <c r="D304" s="12" t="inlineStr">
         <is>
-          <t>maa://39692 (99.68), maa://39810 (81.25)</t>
+          <t>maa://39692 (99.69), maa://39810 (81.25)</t>
         </is>
       </c>
       <c r="E304" s="3" t="inlineStr">
@@ -9260,27 +9260,27 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="16" t="inlineStr">
+      <c r="A312" s="17" t="inlineStr">
         <is>
           <t>深律</t>
         </is>
       </c>
-      <c r="B312" s="16" t="inlineStr">
+      <c r="B312" s="17" t="inlineStr">
         <is>
           <t>LE-4</t>
         </is>
       </c>
-      <c r="C312" s="13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D312" s="12" t="inlineStr">
-        <is>
-          <t>**maa://39178 (50.0)</t>
-        </is>
-      </c>
-      <c r="E312" s="3" t="inlineStr">
+      <c r="C312" s="18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D312" s="19" t="inlineStr">
+        <is>
+          <t>**maa://39178 (33.33)</t>
+        </is>
+      </c>
+      <c r="E312" s="20" t="inlineStr">
         <is>
           <t>&gt; 完成5次战斗；必须编入非助战深律并上场，且每次战斗至少释放1次沉音宁神&gt; 3星通关别传LE-4；必须编入非助战深律并上场，且所有干员不被击倒</t>
         </is>
@@ -9358,7 +9358,7 @@
       </c>
       <c r="D315" s="12" t="inlineStr">
         <is>
-          <t>maa://44234 (96.77)</t>
+          <t>maa://44234 (96.88)</t>
         </is>
       </c>
       <c r="E315" s="3" t="inlineStr">
@@ -9601,7 +9601,7 @@
       </c>
       <c r="D324" s="12" t="inlineStr">
         <is>
-          <t>maa://32647 (97.33), maa://32415 (95.97), maa://34677 (100.0), maa://32892 (100.0)</t>
+          <t>maa://32647 (97.37), maa://32415 (96.0), maa://34677 (100.0), maa://32892 (100.0)</t>
         </is>
       </c>
       <c r="E324" s="3" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="D329" s="12" t="inlineStr">
         <is>
-          <t>maa://34865 (96.93), maa://34717 (93.22)</t>
+          <t>maa://34865 (96.97), maa://34717 (93.22)</t>
         </is>
       </c>
       <c r="E329" s="3" t="inlineStr">
@@ -9898,7 +9898,7 @@
       </c>
       <c r="D335" s="14" t="inlineStr">
         <is>
-          <t>maa://36646 (98.38), maa://36845 (94.9), **maa://39217 (35.71)</t>
+          <t>maa://36646 (98.39), maa://36845 (94.9), **maa://39217 (35.71)</t>
         </is>
       </c>
       <c r="E335" s="14" t="inlineStr">
@@ -9925,7 +9925,7 @@
       </c>
       <c r="D336" s="14" t="inlineStr">
         <is>
-          <t>maa://36645 (97.87), maa://36841 (94.23), maa://37484 (93.48), maa://37858 (91.3)</t>
+          <t>maa://36645 (97.87), maa://36841 (94.34), maa://37484 (93.48), maa://37858 (91.3)</t>
         </is>
       </c>
       <c r="E336" s="14" t="inlineStr">
@@ -10033,7 +10033,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>maa://40957 (86.36), maa://41035 (89.36), *maa://41128 (80.0), maa://44635 (86.67), maa://44660 (87.5)</t>
+          <t>maa://40957 (86.52), maa://41035 (89.36), maa://41128 (80.65), maa://44635 (90.0), maa://44660 (90.0)</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -10357,7 +10357,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>maa://43875 (96.3)</t>
+          <t>maa://43875 (96.43)</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
@@ -10384,7 +10384,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>maa://42970 (84.67)</t>
+          <t>maa://42970 (85.11)</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.19 13:19:06</t>
+          <t>更新日期：2024.12.20 08:28:42</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="D33" s="12" t="inlineStr">
         <is>
-          <t>maa://30500 (98.33), *maa://27290 (70.59), ***maa://42154 (16.67)</t>
+          <t>maa://30500 (98.36), *maa://27290 (70.59), ***maa://42154 (16.67)</t>
         </is>
       </c>
       <c r="E33" s="3" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="D56" s="12" t="inlineStr">
         <is>
-          <t>maa://44235 (94.23)</t>
+          <t>maa://44235 (94.44)</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
@@ -2797,7 +2797,7 @@
       </c>
       <c r="D72" s="12" t="inlineStr">
         <is>
-          <t>maa://36643 (97.52), maa://36864 (97.22), maa://39140 (100.0)</t>
+          <t>maa://36643 (97.52), maa://36864 (97.3), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E72" s="3" t="inlineStr">
@@ -4363,7 +4363,7 @@
       </c>
       <c r="D130" s="12" t="inlineStr">
         <is>
-          <t>maa://21422 (98.86)</t>
+          <t>maa://21422 (98.89)</t>
         </is>
       </c>
       <c r="E130" s="3" t="inlineStr">
@@ -4444,7 +4444,7 @@
       </c>
       <c r="D133" s="12" t="inlineStr">
         <is>
-          <t>maa://23020 (95.89), maa://29023 (100.0), *maa://39515 (75.0), maa://34319 (100.0), maa://41690 (100.0)</t>
+          <t>maa://23020 (95.89), maa://29023 (100.0), *maa://39515 (75.0), maa://41690 (100.0), maa://34319 (100.0)</t>
         </is>
       </c>
       <c r="E133" s="3" t="inlineStr">
@@ -5119,7 +5119,7 @@
       </c>
       <c r="D158" s="12" t="inlineStr">
         <is>
-          <t>maa://44232 (98.66), maa://44305 (100.0)</t>
+          <t>maa://44232 (98.72), maa://44305 (100.0)</t>
         </is>
       </c>
       <c r="E158" s="3" t="inlineStr">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="D194" s="12" t="inlineStr">
         <is>
-          <t>*maa://35854 (76.32), maa://25760 (86.52), maa://44224 (91.07), **maa://20872 (50.0), ***maa://43443 (22.22), ***maa://43911 (25.0)</t>
+          <t>*maa://35854 (76.32), maa://25760 (86.52), maa://44224 (91.07), **maa://20872 (50.0), ***maa://43443 (20.0), ***maa://43911 (25.0)</t>
         </is>
       </c>
       <c r="E194" s="3" t="inlineStr">
@@ -6199,7 +6199,7 @@
       </c>
       <c r="D198" s="12" t="inlineStr">
         <is>
-          <t>maa://42223 (99.33), maa://42292 (94.44), maa://42402 (100.0)</t>
+          <t>maa://42223 (99.33), maa://42292 (94.74), maa://42402 (100.0)</t>
         </is>
       </c>
       <c r="E198" s="3" t="inlineStr">
@@ -7171,7 +7171,7 @@
       </c>
       <c r="D234" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (77.55), maa://30666 (83.92), *maa://26836 (76.22), maa://37607 (93.68), **maa://30739 (44.44), *maa://34428 (67.95), *maa://30723 (51.85), maa://39588 (85.71), *maa://37850 (66.67)</t>
+          <t>*maa://30667 (77.55), maa://30666 (83.92), *maa://26836 (76.55), maa://37607 (93.75), **maa://30739 (44.44), *maa://34428 (67.95), *maa://30723 (51.85), maa://39588 (85.71), *maa://37850 (66.67)</t>
         </is>
       </c>
       <c r="E234" s="3" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="D281" s="12" t="inlineStr">
         <is>
-          <t>maa://32414 (98.54), maa://32505 (100.0), maa://39155 (95.24)</t>
+          <t>maa://32414 (98.55), maa://32505 (100.0), maa://39155 (95.24)</t>
         </is>
       </c>
       <c r="E281" s="3" t="inlineStr">
@@ -9358,7 +9358,7 @@
       </c>
       <c r="D315" s="12" t="inlineStr">
         <is>
-          <t>maa://44234 (96.88)</t>
+          <t>maa://44234 (97.14)</t>
         </is>
       </c>
       <c r="E315" s="3" t="inlineStr">
@@ -9466,7 +9466,7 @@
       </c>
       <c r="D319" s="12" t="inlineStr">
         <is>
-          <t>maa://30671 (81.33), maa://30669 (98.65), maa://37275 (82.86), *maa://32410 (63.64), maa://41605 (100.0), maa://33671 (100.0)</t>
+          <t>maa://30671 (81.33), maa://30669 (98.68), maa://37275 (82.86), *maa://32410 (63.64), maa://41605 (100.0), maa://33671 (100.0)</t>
         </is>
       </c>
       <c r="E319" s="3" t="inlineStr">
@@ -9601,7 +9601,7 @@
       </c>
       <c r="D324" s="12" t="inlineStr">
         <is>
-          <t>maa://32647 (97.37), maa://32415 (96.0), maa://34677 (100.0), maa://32892 (100.0)</t>
+          <t>maa://32647 (97.38), maa://32415 (96.0), maa://34677 (100.0), maa://32892 (100.0)</t>
         </is>
       </c>
       <c r="E324" s="3" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="D329" s="12" t="inlineStr">
         <is>
-          <t>maa://34865 (96.97), maa://34717 (93.22)</t>
+          <t>maa://34865 (97.01), maa://34717 (93.22)</t>
         </is>
       </c>
       <c r="E329" s="3" t="inlineStr">
@@ -9871,7 +9871,7 @@
       </c>
       <c r="D334" s="14" t="inlineStr">
         <is>
-          <t>maa://42299 (94.44), **maa://42224 (50.0)</t>
+          <t>maa://42299 (94.74), **maa://42224 (50.0)</t>
         </is>
       </c>
       <c r="E334" s="14" t="inlineStr">
@@ -9898,7 +9898,7 @@
       </c>
       <c r="D335" s="14" t="inlineStr">
         <is>
-          <t>maa://36646 (98.39), maa://36845 (94.9), **maa://39217 (35.71)</t>
+          <t>maa://36646 (98.4), maa://36845 (94.9), **maa://39217 (35.71)</t>
         </is>
       </c>
       <c r="E335" s="14" t="inlineStr">
@@ -10033,7 +10033,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>maa://40957 (86.52), maa://41035 (89.36), maa://41128 (80.65), maa://44635 (90.0), maa://44660 (90.0)</t>
+          <t>maa://40957 (86.59), maa://41035 (89.36), maa://41128 (80.65), maa://44635 (90.48), maa://44660 (90.0)</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -10357,7 +10357,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>maa://43875 (96.43)</t>
+          <t>maa://43875 (96.55)</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
@@ -10379,12 +10379,12 @@
       </c>
       <c r="C353" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>maa://42970 (85.11)</t>
+          <t>maa://42970 (85.21), **maa://44745 (50.0)</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.19 13:19:06</t>
+          <t>更新日期：2024.12.20 08:32:28</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="D33" s="12" t="inlineStr">
         <is>
-          <t>maa://30500 (98.33), *maa://27290 (70.59), ***maa://42154 (16.67)</t>
+          <t>maa://30500 (98.36), *maa://27290 (70.59), ***maa://42154 (16.67)</t>
         </is>
       </c>
       <c r="E33" s="3" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="D56" s="12" t="inlineStr">
         <is>
-          <t>maa://44235 (94.23)</t>
+          <t>maa://44235 (94.44)</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
@@ -2797,7 +2797,7 @@
       </c>
       <c r="D72" s="12" t="inlineStr">
         <is>
-          <t>maa://36643 (97.52), maa://36864 (97.22), maa://39140 (100.0)</t>
+          <t>maa://36643 (97.52), maa://36864 (97.3), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E72" s="3" t="inlineStr">
@@ -4363,7 +4363,7 @@
       </c>
       <c r="D130" s="12" t="inlineStr">
         <is>
-          <t>maa://21422 (98.86)</t>
+          <t>maa://21422 (98.89)</t>
         </is>
       </c>
       <c r="E130" s="3" t="inlineStr">
@@ -4444,7 +4444,7 @@
       </c>
       <c r="D133" s="12" t="inlineStr">
         <is>
-          <t>maa://23020 (95.89), maa://29023 (100.0), *maa://39515 (75.0), maa://34319 (100.0), maa://41690 (100.0)</t>
+          <t>maa://23020 (95.89), maa://29023 (100.0), *maa://39515 (75.0), maa://41690 (100.0), maa://34319 (100.0)</t>
         </is>
       </c>
       <c r="E133" s="3" t="inlineStr">
@@ -5119,7 +5119,7 @@
       </c>
       <c r="D158" s="12" t="inlineStr">
         <is>
-          <t>maa://44232 (98.66), maa://44305 (100.0)</t>
+          <t>maa://44232 (98.72), maa://44305 (100.0)</t>
         </is>
       </c>
       <c r="E158" s="3" t="inlineStr">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="D194" s="12" t="inlineStr">
         <is>
-          <t>*maa://35854 (76.32), maa://25760 (86.52), maa://44224 (91.07), **maa://20872 (50.0), ***maa://43443 (22.22), ***maa://43911 (25.0)</t>
+          <t>*maa://35854 (76.32), maa://25760 (86.52), maa://44224 (91.07), **maa://20872 (50.0), ***maa://43443 (20.0), ***maa://43911 (25.0)</t>
         </is>
       </c>
       <c r="E194" s="3" t="inlineStr">
@@ -6199,7 +6199,7 @@
       </c>
       <c r="D198" s="12" t="inlineStr">
         <is>
-          <t>maa://42223 (99.33), maa://42292 (94.44), maa://42402 (100.0)</t>
+          <t>maa://42223 (99.33), maa://42292 (94.74), maa://42402 (100.0)</t>
         </is>
       </c>
       <c r="E198" s="3" t="inlineStr">
@@ -7171,7 +7171,7 @@
       </c>
       <c r="D234" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (77.55), maa://30666 (83.92), *maa://26836 (76.22), maa://37607 (93.68), **maa://30739 (44.44), *maa://34428 (67.95), *maa://30723 (51.85), maa://39588 (85.71), *maa://37850 (66.67)</t>
+          <t>*maa://30667 (77.55), maa://30666 (83.92), *maa://26836 (76.55), maa://37607 (93.75), **maa://30739 (44.44), *maa://34428 (67.95), *maa://30723 (51.85), maa://39588 (85.71), *maa://37850 (66.67)</t>
         </is>
       </c>
       <c r="E234" s="3" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="D281" s="12" t="inlineStr">
         <is>
-          <t>maa://32414 (98.54), maa://32505 (100.0), maa://39155 (95.24)</t>
+          <t>maa://32414 (98.55), maa://32505 (100.0), maa://39155 (95.24)</t>
         </is>
       </c>
       <c r="E281" s="3" t="inlineStr">
@@ -9358,7 +9358,7 @@
       </c>
       <c r="D315" s="12" t="inlineStr">
         <is>
-          <t>maa://44234 (96.88)</t>
+          <t>maa://44234 (97.14)</t>
         </is>
       </c>
       <c r="E315" s="3" t="inlineStr">
@@ -9466,7 +9466,7 @@
       </c>
       <c r="D319" s="12" t="inlineStr">
         <is>
-          <t>maa://30671 (81.33), maa://30669 (98.65), maa://37275 (82.86), *maa://32410 (63.64), maa://41605 (100.0), maa://33671 (100.0)</t>
+          <t>maa://30671 (81.33), maa://30669 (98.68), maa://37275 (82.86), *maa://32410 (63.64), maa://41605 (100.0), maa://33671 (100.0)</t>
         </is>
       </c>
       <c r="E319" s="3" t="inlineStr">
@@ -9601,7 +9601,7 @@
       </c>
       <c r="D324" s="12" t="inlineStr">
         <is>
-          <t>maa://32647 (97.37), maa://32415 (96.0), maa://34677 (100.0), maa://32892 (100.0)</t>
+          <t>maa://32647 (97.38), maa://32415 (96.0), maa://34677 (100.0), maa://32892 (100.0)</t>
         </is>
       </c>
       <c r="E324" s="3" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="D329" s="12" t="inlineStr">
         <is>
-          <t>maa://34865 (96.97), maa://34717 (93.22)</t>
+          <t>maa://34865 (97.01), maa://34717 (93.22)</t>
         </is>
       </c>
       <c r="E329" s="3" t="inlineStr">
@@ -9871,7 +9871,7 @@
       </c>
       <c r="D334" s="14" t="inlineStr">
         <is>
-          <t>maa://42299 (94.44), **maa://42224 (50.0)</t>
+          <t>maa://42299 (94.74), **maa://42224 (50.0)</t>
         </is>
       </c>
       <c r="E334" s="14" t="inlineStr">
@@ -9898,7 +9898,7 @@
       </c>
       <c r="D335" s="14" t="inlineStr">
         <is>
-          <t>maa://36646 (98.39), maa://36845 (94.9), **maa://39217 (35.71)</t>
+          <t>maa://36646 (98.4), maa://36845 (94.9), **maa://39217 (35.71)</t>
         </is>
       </c>
       <c r="E335" s="14" t="inlineStr">
@@ -10033,7 +10033,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>maa://40957 (86.52), maa://41035 (89.36), maa://41128 (80.65), maa://44635 (90.0), maa://44660 (90.0)</t>
+          <t>maa://40957 (86.59), maa://41035 (89.36), maa://41128 (80.65), maa://44635 (90.48), maa://44660 (90.0)</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -10357,7 +10357,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>maa://43875 (96.43)</t>
+          <t>maa://43875 (96.55)</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
@@ -10379,12 +10379,12 @@
       </c>
       <c r="C353" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>maa://42970 (85.11)</t>
+          <t>maa://42970 (85.21), **maa://44745 (50.0)</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.20 08:32:28</t>
+          <t>更新日期：2024.12.21 13:17:14</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="D32" s="12" t="inlineStr">
         <is>
-          <t>maa://36644 (88.57), maa://36866 (97.44), maa://27794 (100.0)</t>
+          <t>maa://36644 (87.94), maa://36866 (97.44), maa://27794 (100.0)</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="D37" s="12" t="inlineStr">
         <is>
-          <t>maa://27376 (90.0), **maa://20838 (50.0), *maa://42635 (80.0)</t>
+          <t>maa://27376 (90.0), **maa://20838 (50.0), maa://42635 (83.33)</t>
         </is>
       </c>
       <c r="E37" s="3" t="inlineStr">
@@ -2689,7 +2689,7 @@
       </c>
       <c r="D68" s="12" t="inlineStr">
         <is>
-          <t>maa://20976 (97.87), maa://20815 (100.0)</t>
+          <t>maa://20976 (97.88), maa://20815 (100.0)</t>
         </is>
       </c>
       <c r="E68" s="3" t="inlineStr">
@@ -2797,7 +2797,7 @@
       </c>
       <c r="D72" s="12" t="inlineStr">
         <is>
-          <t>maa://36643 (97.52), maa://36864 (97.3), maa://39140 (100.0)</t>
+          <t>maa://36643 (97.54), maa://36864 (97.3), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E72" s="3" t="inlineStr">
@@ -3202,7 +3202,7 @@
       </c>
       <c r="D87" s="12" t="inlineStr">
         <is>
-          <t>maa://20886 (88.89), maa://25136 (94.74)</t>
+          <t>maa://20886 (89.47), maa://25136 (94.74)</t>
         </is>
       </c>
       <c r="E87" s="3" t="inlineStr">
@@ -3283,7 +3283,7 @@
       </c>
       <c r="D90" s="12" t="inlineStr">
         <is>
-          <t>*maa://28190 (56.67), maa://20880 (90.91)</t>
+          <t>*maa://28190 (56.67), maa://20880 (91.3)</t>
         </is>
       </c>
       <c r="E90" s="3" t="inlineStr">
@@ -3418,7 +3418,7 @@
       </c>
       <c r="D95" s="12" t="inlineStr">
         <is>
-          <t>maa://20927 (90.91)</t>
+          <t>maa://20927 (91.67)</t>
         </is>
       </c>
       <c r="E95" s="3" t="inlineStr">
@@ -3958,7 +3958,7 @@
       </c>
       <c r="D115" s="12" t="inlineStr">
         <is>
-          <t>maa://20908 (98.26), *maa://23346 (77.78), maa://35723 (94.44), maa://38822 (100.0)</t>
+          <t>maa://20908 (98.27), *maa://23346 (77.78), maa://35723 (94.44), maa://38822 (100.0)</t>
         </is>
       </c>
       <c r="E115" s="3" t="inlineStr">
@@ -4115,12 +4115,12 @@
       </c>
       <c r="C121" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D121" s="12" t="inlineStr">
         <is>
-          <t>maa://20869 (100.0)</t>
+          <t>maa://20869 (100.0), maa://44690 (100.0)</t>
         </is>
       </c>
       <c r="E121" s="3" t="inlineStr">
@@ -4876,7 +4876,7 @@
       </c>
       <c r="D149" s="12" t="inlineStr">
         <is>
-          <t>maa://36641 (98.28), maa://36865 (95.76), maa://42918 (100.0), maa://44119 (100.0), maa://37300 (100.0), maa://42917 (100.0)</t>
+          <t>maa://36641 (98.28), maa://36865 (95.8), maa://42918 (100.0), maa://44119 (100.0), maa://37300 (100.0), maa://42917 (100.0)</t>
         </is>
       </c>
       <c r="E149" s="3" t="inlineStr">
@@ -5119,7 +5119,7 @@
       </c>
       <c r="D158" s="12" t="inlineStr">
         <is>
-          <t>maa://44232 (98.72), maa://44305 (100.0)</t>
+          <t>maa://44232 (98.76), maa://44305 (100.0)</t>
         </is>
       </c>
       <c r="E158" s="3" t="inlineStr">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="D166" s="12" t="inlineStr">
         <is>
-          <t>maa://29633 (93.51), maa://29627 (92.66), maa://29659 (82.76), maa://29861 (100.0)</t>
+          <t>maa://29633 (93.53), maa://29627 (92.7), maa://29659 (82.76), maa://29861 (100.0)</t>
         </is>
       </c>
       <c r="E166" s="3" t="inlineStr">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="D194" s="12" t="inlineStr">
         <is>
-          <t>*maa://35854 (76.32), maa://25760 (86.52), maa://44224 (91.07), **maa://20872 (50.0), ***maa://43443 (20.0), ***maa://43911 (25.0)</t>
+          <t>*maa://35854 (76.32), maa://25760 (86.52), maa://44224 (91.23), **maa://20872 (50.0), ***maa://43443 (20.0), ***maa://43911 (25.0)</t>
         </is>
       </c>
       <c r="E194" s="3" t="inlineStr">
@@ -6145,7 +6145,7 @@
       </c>
       <c r="D196" s="12" t="inlineStr">
         <is>
-          <t>maa://27823 (80.7), *maa://28190 (56.67), maa://22894 (90.62), *maa://20906 (72.22), **maa://20907 (35.48)</t>
+          <t>maa://27823 (81.03), *maa://28190 (56.67), maa://22894 (90.62), *maa://20906 (72.22), **maa://20907 (35.48)</t>
         </is>
       </c>
       <c r="E196" s="3" t="inlineStr">
@@ -6172,7 +6172,7 @@
       </c>
       <c r="D197" s="12" t="inlineStr">
         <is>
-          <t>maa://27823 (80.7), *maa://28190 (56.67), maa://22894 (90.62), *maa://20906 (72.22), **maa://20907 (35.48)</t>
+          <t>maa://27823 (81.03), *maa://28190 (56.67), maa://22894 (90.62), *maa://20906 (72.22), **maa://20907 (35.48)</t>
         </is>
       </c>
       <c r="E197" s="3" t="inlineStr">
@@ -6199,7 +6199,7 @@
       </c>
       <c r="D198" s="12" t="inlineStr">
         <is>
-          <t>maa://42223 (99.33), maa://42292 (94.74), maa://42402 (100.0)</t>
+          <t>maa://42223 (99.33), maa://42292 (95.0), maa://42402 (100.0)</t>
         </is>
       </c>
       <c r="E198" s="3" t="inlineStr">
@@ -7009,7 +7009,7 @@
       </c>
       <c r="D228" s="12" t="inlineStr">
         <is>
-          <t>maa://20878 (88.89)</t>
+          <t>maa://20878 (84.21)</t>
         </is>
       </c>
       <c r="E228" s="3" t="inlineStr">
@@ -7063,7 +7063,7 @@
       </c>
       <c r="D230" s="12" t="inlineStr">
         <is>
-          <t>maa://20917 (97.22)</t>
+          <t>maa://20917 (97.3)</t>
         </is>
       </c>
       <c r="E230" s="3" t="inlineStr">
@@ -7171,7 +7171,7 @@
       </c>
       <c r="D234" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (77.55), maa://30666 (83.92), *maa://26836 (76.55), maa://37607 (93.75), **maa://30739 (44.44), *maa://34428 (67.95), *maa://30723 (51.85), maa://39588 (85.71), *maa://37850 (66.67)</t>
+          <t>*maa://30667 (77.6), maa://30666 (83.92), *maa://26836 (76.55), maa://37607 (93.79), **maa://30739 (44.44), *maa://34428 (67.95), *maa://30723 (51.85), maa://39588 (85.71), *maa://37850 (66.67)</t>
         </is>
       </c>
       <c r="E234" s="3" t="inlineStr">
@@ -7684,7 +7684,7 @@
       </c>
       <c r="D253" s="12" t="inlineStr">
         <is>
-          <t>maa://31560 (83.33), maa://20884 (93.75)</t>
+          <t>maa://31560 (83.33), maa://20884 (94.12)</t>
         </is>
       </c>
       <c r="E253" s="3" t="inlineStr">
@@ -7900,7 +7900,7 @@
       </c>
       <c r="D261" s="12" t="inlineStr">
         <is>
-          <t>maa://25769 (96.46)</t>
+          <t>maa://25769 (96.49)</t>
         </is>
       </c>
       <c r="E261" s="3" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="D281" s="12" t="inlineStr">
         <is>
-          <t>maa://32414 (98.55), maa://32505 (100.0), maa://39155 (95.24)</t>
+          <t>maa://32414 (98.56), maa://32505 (100.0), maa://39155 (95.24)</t>
         </is>
       </c>
       <c r="E281" s="3" t="inlineStr">
@@ -8764,7 +8764,7 @@
       </c>
       <c r="D293" s="12" t="inlineStr">
         <is>
-          <t>maa://35859 (96.77)</t>
+          <t>maa://35859 (96.83)</t>
         </is>
       </c>
       <c r="E293" s="3" t="inlineStr">
@@ -9358,7 +9358,7 @@
       </c>
       <c r="D315" s="12" t="inlineStr">
         <is>
-          <t>maa://44234 (97.14)</t>
+          <t>maa://44234 (97.3)</t>
         </is>
       </c>
       <c r="E315" s="3" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="D329" s="12" t="inlineStr">
         <is>
-          <t>maa://34865 (97.01), maa://34717 (93.22)</t>
+          <t>maa://34865 (97.02), maa://34717 (93.22)</t>
         </is>
       </c>
       <c r="E329" s="3" t="inlineStr">
@@ -10033,7 +10033,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>maa://40957 (86.59), maa://41035 (89.36), maa://41128 (80.65), maa://44635 (90.48), maa://44660 (90.0)</t>
+          <t>maa://40957 (86.67), maa://41035 (89.36), maa://41128 (80.65), maa://44635 (86.36), maa://44660 (90.0)</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.21 13:17:14</t>
+          <t>更新日期：2024.12.22 13:16:54</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="D33" s="12" t="inlineStr">
         <is>
-          <t>maa://30500 (98.36), *maa://27290 (70.59), ***maa://42154 (16.67)</t>
+          <t>maa://30500 (98.36), *maa://27290 (70.59), ***maa://42154 (14.29)</t>
         </is>
       </c>
       <c r="E33" s="3" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="D56" s="12" t="inlineStr">
         <is>
-          <t>maa://44235 (94.44)</t>
+          <t>maa://44235 (94.74)</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="D69" s="12" t="inlineStr">
         <is>
-          <t>maa://28784 (93.92), maa://29088 (91.98), maa://20974 (95.59), maa://31124 (96.05), maa://28950 (91.3), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (75.0), maa://41832 (84.62), **maa://42200 (50.0)</t>
+          <t>maa://28784 (93.92), maa://29088 (91.98), maa://20974 (95.59), maa://31124 (96.08), maa://28950 (91.3), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (75.0), maa://41832 (84.62), **maa://42200 (50.0)</t>
         </is>
       </c>
       <c r="E69" s="3" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="D108" s="12" t="inlineStr">
         <is>
-          <t>maa://25018 (96.27), maa://25776 (90.48), maa://28361 (96.77), maa://25772 (92.5), *maa://25161 (80.0), maa://32653 (85.71)</t>
+          <t>maa://25018 (96.27), maa://25776 (90.48), maa://28361 (96.77), maa://25772 (92.68), *maa://25161 (80.0), maa://32653 (85.71)</t>
         </is>
       </c>
       <c r="E108" s="3" t="inlineStr">
@@ -4363,7 +4363,7 @@
       </c>
       <c r="D130" s="12" t="inlineStr">
         <is>
-          <t>maa://21422 (98.89)</t>
+          <t>maa://21422 (98.9)</t>
         </is>
       </c>
       <c r="E130" s="3" t="inlineStr">
@@ -4606,7 +4606,7 @@
       </c>
       <c r="D139" s="12" t="inlineStr">
         <is>
-          <t>*maa://30679 (52.38)</t>
+          <t>**maa://30679 (50.0)</t>
         </is>
       </c>
       <c r="E139" s="3" t="inlineStr">
@@ -4687,7 +4687,7 @@
       </c>
       <c r="D142" s="12" t="inlineStr">
         <is>
-          <t>maa://28484 (97.5), **maa://23736 (41.54), *maa://31185 (80.0), maa://30306 (100.0)</t>
+          <t>maa://28484 (97.53), **maa://23736 (41.54), *maa://31185 (80.0), maa://30306 (100.0)</t>
         </is>
       </c>
       <c r="E142" s="3" t="inlineStr">
@@ -5119,7 +5119,7 @@
       </c>
       <c r="D158" s="12" t="inlineStr">
         <is>
-          <t>maa://44232 (98.76), maa://44305 (100.0)</t>
+          <t>maa://44232 (98.78), maa://44305 (100.0)</t>
         </is>
       </c>
       <c r="E158" s="3" t="inlineStr">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="D166" s="12" t="inlineStr">
         <is>
-          <t>maa://29633 (93.53), maa://29627 (92.7), maa://29659 (82.76), maa://29861 (100.0)</t>
+          <t>maa://29633 (93.56), maa://29627 (92.7), maa://29659 (82.76), maa://29861 (100.0)</t>
         </is>
       </c>
       <c r="E166" s="3" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="D172" s="12" t="inlineStr">
         <is>
-          <t>maa://32418 (99.53)</t>
+          <t>maa://32418 (99.54)</t>
         </is>
       </c>
       <c r="E172" s="3" t="inlineStr">
@@ -5902,7 +5902,7 @@
       </c>
       <c r="D187" s="12" t="inlineStr">
         <is>
-          <t>maa://34866 (88.46), maa://34714 (95.83)</t>
+          <t>maa://34866 (88.89), maa://34714 (95.83)</t>
         </is>
       </c>
       <c r="E187" s="3" t="inlineStr">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="D194" s="12" t="inlineStr">
         <is>
-          <t>*maa://35854 (76.32), maa://25760 (86.52), maa://44224 (91.23), **maa://20872 (50.0), ***maa://43443 (20.0), ***maa://43911 (25.0)</t>
+          <t>*maa://35854 (76.92), maa://25760 (86.52), maa://44224 (91.53), **maa://20872 (50.0), ***maa://43443 (20.0), ***maa://43911 (25.0)</t>
         </is>
       </c>
       <c r="E194" s="3" t="inlineStr">
@@ -6496,7 +6496,7 @@
       </c>
       <c r="D209" s="12" t="inlineStr">
         <is>
-          <t>maa://39238 (99.14)</t>
+          <t>maa://39238 (99.15)</t>
         </is>
       </c>
       <c r="E209" s="3" t="inlineStr">
@@ -6955,7 +6955,7 @@
       </c>
       <c r="D226" s="12" t="inlineStr">
         <is>
-          <t>maa://29058 (94.0), maa://39140 (100.0), maa://38723 (100.0)</t>
+          <t>maa://29058 (94.12), maa://39140 (100.0), maa://38723 (100.0)</t>
         </is>
       </c>
       <c r="E226" s="3" t="inlineStr">
@@ -7171,7 +7171,7 @@
       </c>
       <c r="D234" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (77.6), maa://30666 (83.92), *maa://26836 (76.55), maa://37607 (93.79), **maa://30739 (44.44), *maa://34428 (67.95), *maa://30723 (51.85), maa://39588 (85.71), *maa://37850 (66.67)</t>
+          <t>*maa://30667 (77.66), maa://30666 (83.92), *maa://26836 (76.55), maa://37607 (93.79), **maa://30739 (44.44), *maa://34428 (67.95), *maa://30723 (51.85), maa://39588 (85.71), *maa://37850 (66.67)</t>
         </is>
       </c>
       <c r="E234" s="3" t="inlineStr">
@@ -7603,7 +7603,7 @@
       </c>
       <c r="D250" s="12" t="inlineStr">
         <is>
-          <t>maa://20879 (84.44), maa://20834 (100.0)</t>
+          <t>maa://20879 (84.78), maa://20834 (100.0)</t>
         </is>
       </c>
       <c r="E250" s="3" t="inlineStr">
@@ -7900,7 +7900,7 @@
       </c>
       <c r="D261" s="12" t="inlineStr">
         <is>
-          <t>maa://25769 (96.49)</t>
+          <t>maa://25769 (96.52)</t>
         </is>
       </c>
       <c r="E261" s="3" t="inlineStr">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="D277" s="12" t="inlineStr">
         <is>
-          <t>maa://30710 (97.2), maa://36845 (94.9), maa://31558 (96.88), **maa://39217 (35.71), maa://30668 (84.62)</t>
+          <t>maa://30710 (97.22), maa://36845 (94.9), maa://31558 (96.88), **maa://39217 (35.71), maa://30668 (84.62)</t>
         </is>
       </c>
       <c r="E277" s="3" t="inlineStr">
@@ -9142,7 +9142,7 @@
       </c>
       <c r="D307" s="12" t="inlineStr">
         <is>
-          <t>maa://34867 (96.88), maa://34715 (100.0)</t>
+          <t>maa://34867 (96.97), maa://34715 (100.0)</t>
         </is>
       </c>
       <c r="E307" s="3" t="inlineStr">
@@ -9466,7 +9466,7 @@
       </c>
       <c r="D319" s="12" t="inlineStr">
         <is>
-          <t>maa://30671 (81.33), maa://30669 (98.68), maa://37275 (82.86), *maa://32410 (63.64), maa://41605 (100.0), maa://33671 (100.0)</t>
+          <t>maa://30671 (81.46), maa://30669 (98.68), maa://37275 (82.86), *maa://32410 (63.64), maa://41605 (100.0), maa://33671 (100.0)</t>
         </is>
       </c>
       <c r="E319" s="3" t="inlineStr">
@@ -9493,7 +9493,7 @@
       </c>
       <c r="D320" s="12" t="inlineStr">
         <is>
-          <t>maa://38295 (96.36)</t>
+          <t>maa://38295 (96.49)</t>
         </is>
       </c>
       <c r="E320" s="3" t="inlineStr">
@@ -9574,7 +9574,7 @@
       </c>
       <c r="D323" s="12" t="inlineStr">
         <is>
-          <t>maa://32416 (86.11)</t>
+          <t>maa://32416 (86.49)</t>
         </is>
       </c>
       <c r="E323" s="3" t="inlineStr">
@@ -9601,7 +9601,7 @@
       </c>
       <c r="D324" s="12" t="inlineStr">
         <is>
-          <t>maa://32647 (97.38), maa://32415 (96.0), maa://34677 (100.0), maa://32892 (100.0)</t>
+          <t>maa://32647 (97.39), maa://32415 (96.03), maa://34677 (100.0), maa://32892 (100.0)</t>
         </is>
       </c>
       <c r="E324" s="3" t="inlineStr">
@@ -10033,7 +10033,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>maa://40957 (86.67), maa://41035 (89.36), maa://41128 (80.65), maa://44635 (86.36), maa://44660 (90.0)</t>
+          <t>maa://40957 (86.67), maa://41035 (89.36), maa://41128 (80.65), maa://44635 (87.5), maa://44660 (90.0)</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -10357,7 +10357,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>maa://43875 (96.55)</t>
+          <t>maa://43875 (96.67)</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
@@ -10384,7 +10384,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>maa://42970 (85.21), **maa://44745 (50.0)</t>
+          <t>maa://42970 (85.31), *maa://44745 (75.0)</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.22 13:16:54</t>
+          <t>更新日期：2024.12.23 13:18:33</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="D24" s="19" t="inlineStr">
         <is>
-          <t>**maa://20951 (33.33)</t>
+          <t>***maa://20951 (28.57)</t>
         </is>
       </c>
       <c r="E24" s="20" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="D32" s="12" t="inlineStr">
         <is>
-          <t>maa://36644 (87.94), maa://36866 (97.44), maa://27794 (100.0)</t>
+          <t>maa://36644 (88.03), maa://36866 (97.44), maa://27794 (100.0)</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="D56" s="12" t="inlineStr">
         <is>
-          <t>maa://44235 (94.74)</t>
+          <t>maa://44235 (94.83)</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
@@ -2797,7 +2797,7 @@
       </c>
       <c r="D72" s="12" t="inlineStr">
         <is>
-          <t>maa://36643 (97.54), maa://36864 (97.3), maa://39140 (100.0)</t>
+          <t>maa://36643 (97.55), maa://36864 (97.3), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E72" s="3" t="inlineStr">
@@ -4363,7 +4363,7 @@
       </c>
       <c r="D130" s="12" t="inlineStr">
         <is>
-          <t>maa://21422 (98.9)</t>
+          <t>maa://21422 (98.92)</t>
         </is>
       </c>
       <c r="E130" s="3" t="inlineStr">
@@ -4444,7 +4444,7 @@
       </c>
       <c r="D133" s="12" t="inlineStr">
         <is>
-          <t>maa://23020 (95.89), maa://29023 (100.0), *maa://39515 (75.0), maa://41690 (100.0), maa://34319 (100.0)</t>
+          <t>maa://23020 (95.89), maa://29023 (100.0), maa://41690 (100.0), *maa://39515 (75.0), maa://34319 (100.0)</t>
         </is>
       </c>
       <c r="E133" s="3" t="inlineStr">
@@ -4876,7 +4876,7 @@
       </c>
       <c r="D149" s="12" t="inlineStr">
         <is>
-          <t>maa://36641 (98.28), maa://36865 (95.8), maa://42918 (100.0), maa://44119 (100.0), maa://37300 (100.0), maa://42917 (100.0)</t>
+          <t>maa://36641 (98.28), maa://36865 (95.83), maa://42918 (100.0), maa://44119 (100.0), maa://37300 (100.0), maa://42917 (100.0)</t>
         </is>
       </c>
       <c r="E149" s="3" t="inlineStr">
@@ -5119,7 +5119,7 @@
       </c>
       <c r="D158" s="12" t="inlineStr">
         <is>
-          <t>maa://44232 (98.78), maa://44305 (100.0)</t>
+          <t>maa://44232 (98.81), maa://44305 (100.0)</t>
         </is>
       </c>
       <c r="E158" s="3" t="inlineStr">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="D194" s="12" t="inlineStr">
         <is>
-          <t>*maa://35854 (76.92), maa://25760 (86.52), maa://44224 (91.53), **maa://20872 (50.0), ***maa://43443 (20.0), ***maa://43911 (25.0)</t>
+          <t>*maa://35854 (76.92), maa://25760 (86.52), maa://44224 (91.67), **maa://20872 (50.0), ***maa://43443 (20.0), ***maa://43911 (25.0)</t>
         </is>
       </c>
       <c r="E194" s="3" t="inlineStr">
@@ -6415,7 +6415,7 @@
       </c>
       <c r="D206" s="12" t="inlineStr">
         <is>
-          <t>maa://28133 (90.48), *maa://28277 (79.17), **maa://39217 (35.71), maa://25369 (93.1), *maa://33132 (66.67)</t>
+          <t>maa://28133 (90.48), *maa://28277 (79.17), **maa://39217 (33.33), maa://25369 (93.1), *maa://33132 (66.67)</t>
         </is>
       </c>
       <c r="E206" s="3" t="inlineStr">
@@ -6437,12 +6437,12 @@
       </c>
       <c r="C207" s="13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D207" s="12" t="inlineStr">
         <is>
-          <t>maa://20956 (95.57), *maa://20830 (77.78)</t>
+          <t>maa://20956 (95.57), *maa://20830 (77.78), maa://44703 (100.0)</t>
         </is>
       </c>
       <c r="E207" s="3" t="inlineStr">
@@ -7063,7 +7063,7 @@
       </c>
       <c r="D230" s="12" t="inlineStr">
         <is>
-          <t>maa://20917 (97.3)</t>
+          <t>maa://20917 (97.37)</t>
         </is>
       </c>
       <c r="E230" s="3" t="inlineStr">
@@ -7171,7 +7171,7 @@
       </c>
       <c r="D234" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (77.66), maa://30666 (83.92), *maa://26836 (76.55), maa://37607 (93.79), **maa://30739 (44.44), *maa://34428 (67.95), *maa://30723 (51.85), maa://39588 (85.71), *maa://37850 (66.67)</t>
+          <t>*maa://30667 (77.66), maa://30666 (83.92), *maa://26836 (76.55), maa://37607 (93.82), **maa://30739 (44.44), *maa://34428 (67.95), *maa://30723 (51.85), maa://39588 (85.71), *maa://37850 (66.67)</t>
         </is>
       </c>
       <c r="E234" s="3" t="inlineStr">
@@ -7819,7 +7819,7 @@
       </c>
       <c r="D258" s="12" t="inlineStr">
         <is>
-          <t>maa://22467 (93.75)</t>
+          <t>maa://22467 (93.94)</t>
         </is>
       </c>
       <c r="E258" s="3" t="inlineStr">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="D277" s="12" t="inlineStr">
         <is>
-          <t>maa://30710 (97.22), maa://36845 (94.9), maa://31558 (96.88), **maa://39217 (35.71), maa://30668 (84.62)</t>
+          <t>maa://30710 (97.22), maa://36845 (94.9), maa://31558 (96.88), **maa://39217 (33.33), maa://30668 (84.62)</t>
         </is>
       </c>
       <c r="E277" s="3" t="inlineStr">
@@ -8413,7 +8413,7 @@
       </c>
       <c r="D280" s="12" t="inlineStr">
         <is>
-          <t>maa://25774 (100.0), maa://28133 (90.48), maa://22469 (91.11), **maa://39217 (35.71), **maa://31349 (50.0)</t>
+          <t>maa://25774 (100.0), maa://28133 (90.48), maa://22469 (91.11), **maa://39217 (33.33), **maa://31349 (50.0)</t>
         </is>
       </c>
       <c r="E280" s="3" t="inlineStr">
@@ -9358,7 +9358,7 @@
       </c>
       <c r="D315" s="12" t="inlineStr">
         <is>
-          <t>maa://44234 (97.3)</t>
+          <t>maa://44234 (97.37)</t>
         </is>
       </c>
       <c r="E315" s="3" t="inlineStr">
@@ -9466,7 +9466,7 @@
       </c>
       <c r="D319" s="12" t="inlineStr">
         <is>
-          <t>maa://30671 (81.46), maa://30669 (98.68), maa://37275 (82.86), *maa://32410 (63.64), maa://41605 (100.0), maa://33671 (100.0)</t>
+          <t>maa://30671 (81.46), maa://30669 (98.7), maa://37275 (82.86), *maa://32410 (63.64), maa://41605 (100.0), maa://33671 (100.0)</t>
         </is>
       </c>
       <c r="E319" s="3" t="inlineStr">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="D332" s="14" t="inlineStr">
         <is>
-          <t>maa://36868 (100.0), maa://35996 (95.83), **maa://39217 (35.71), maa://44463 (100.0)</t>
+          <t>maa://36868 (100.0), maa://35996 (95.83), **maa://39217 (33.33), maa://44463 (100.0)</t>
         </is>
       </c>
       <c r="E332" s="14" t="inlineStr">
@@ -9898,7 +9898,7 @@
       </c>
       <c r="D335" s="14" t="inlineStr">
         <is>
-          <t>maa://36646 (98.4), maa://36845 (94.9), **maa://39217 (35.71)</t>
+          <t>maa://36646 (98.4), maa://36845 (94.9), **maa://39217 (33.33)</t>
         </is>
       </c>
       <c r="E335" s="14" t="inlineStr">
@@ -10033,7 +10033,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>maa://40957 (86.67), maa://41035 (89.36), maa://41128 (80.65), maa://44635 (87.5), maa://44660 (90.0)</t>
+          <t>maa://40957 (86.67), maa://41035 (89.36), maa://41128 (80.65), maa://44635 (84.0), maa://44660 (90.0)</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -10357,7 +10357,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>maa://43875 (96.67)</t>
+          <t>maa://43875 (96.77)</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
@@ -10384,7 +10384,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>maa://42970 (85.31), *maa://44745 (75.0)</t>
+          <t>maa://42970 (85.42), *maa://44745 (75.0)</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.23 13:18:33</t>
+          <t>更新日期：2024.12.24 13:17:51</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="D32" s="12" t="inlineStr">
         <is>
-          <t>maa://36644 (88.03), maa://36866 (97.44), maa://27794 (100.0)</t>
+          <t>maa://36644 (88.11), maa://36866 (97.44), maa://27794 (100.0)</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
@@ -2608,7 +2608,7 @@
       </c>
       <c r="D65" s="12" t="inlineStr">
         <is>
-          <t>maa://28567 (97.73), **maa://20947 (44.12), maa://30525 (100.0), *maa://28188 (66.67), maa://38735 (100.0), maa://30524 (100.0)</t>
+          <t>maa://28567 (97.78), **maa://20947 (44.12), maa://30525 (100.0), *maa://28188 (66.67), maa://38735 (100.0), maa://30524 (100.0)</t>
         </is>
       </c>
       <c r="E65" s="3" t="inlineStr">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="D69" s="12" t="inlineStr">
         <is>
-          <t>maa://28784 (93.92), maa://29088 (91.98), maa://20974 (95.59), maa://31124 (96.08), maa://28950 (91.3), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (75.0), maa://41832 (84.62), **maa://42200 (50.0)</t>
+          <t>maa://28784 (93.92), maa://29088 (91.98), maa://20974 (95.59), maa://31124 (96.13), maa://28950 (91.3), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (75.0), **maa://42200 (50.0), maa://41832 (84.62)</t>
         </is>
       </c>
       <c r="E69" s="3" t="inlineStr">
@@ -2797,7 +2797,7 @@
       </c>
       <c r="D72" s="12" t="inlineStr">
         <is>
-          <t>maa://36643 (97.55), maa://36864 (97.3), maa://39140 (100.0)</t>
+          <t>maa://36643 (97.56), maa://36864 (97.33), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E72" s="3" t="inlineStr">
@@ -3877,7 +3877,7 @@
       </c>
       <c r="D112" s="12" t="inlineStr">
         <is>
-          <t>*maa://20933 (78.43), maa://20822 (100.0)</t>
+          <t>*maa://20933 (78.85), maa://20822 (100.0)</t>
         </is>
       </c>
       <c r="E112" s="3" t="inlineStr">
@@ -3904,7 +3904,7 @@
       </c>
       <c r="D113" s="12" t="inlineStr">
         <is>
-          <t>maa://29037 (97.44)</t>
+          <t>maa://29037 (97.62)</t>
         </is>
       </c>
       <c r="E113" s="3" t="inlineStr">
@@ -4363,7 +4363,7 @@
       </c>
       <c r="D130" s="12" t="inlineStr">
         <is>
-          <t>maa://21422 (98.92)</t>
+          <t>maa://21422 (98.94)</t>
         </is>
       </c>
       <c r="E130" s="3" t="inlineStr">
@@ -5119,7 +5119,7 @@
       </c>
       <c r="D158" s="12" t="inlineStr">
         <is>
-          <t>maa://44232 (98.81), maa://44305 (100.0)</t>
+          <t>maa://44232 (98.84), maa://44305 (100.0)</t>
         </is>
       </c>
       <c r="E158" s="3" t="inlineStr">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="D194" s="12" t="inlineStr">
         <is>
-          <t>*maa://35854 (76.92), maa://25760 (86.52), maa://44224 (91.67), **maa://20872 (50.0), ***maa://43443 (20.0), ***maa://43911 (25.0)</t>
+          <t>*maa://35854 (76.92), maa://25760 (86.81), maa://44224 (88.71), **maa://20872 (50.0), ***maa://43443 (27.27), ***maa://43911 (25.0)</t>
         </is>
       </c>
       <c r="E194" s="3" t="inlineStr">
@@ -7171,7 +7171,7 @@
       </c>
       <c r="D234" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (77.66), maa://30666 (83.92), *maa://26836 (76.55), maa://37607 (93.82), **maa://30739 (44.44), *maa://34428 (67.95), *maa://30723 (51.85), maa://39588 (85.71), *maa://37850 (66.67)</t>
+          <t>*maa://30667 (77.66), maa://30666 (83.92), *maa://26836 (76.55), maa://37607 (93.89), **maa://30739 (44.44), *maa://34428 (68.35), *maa://30723 (51.85), maa://39588 (85.71), *maa://37850 (66.67)</t>
         </is>
       </c>
       <c r="E234" s="3" t="inlineStr">
@@ -7900,7 +7900,7 @@
       </c>
       <c r="D261" s="12" t="inlineStr">
         <is>
-          <t>maa://25769 (96.52)</t>
+          <t>maa://25769 (96.58)</t>
         </is>
       </c>
       <c r="E261" s="3" t="inlineStr">
@@ -9358,7 +9358,7 @@
       </c>
       <c r="D315" s="12" t="inlineStr">
         <is>
-          <t>maa://44234 (97.37)</t>
+          <t>maa://44234 (97.44)</t>
         </is>
       </c>
       <c r="E315" s="3" t="inlineStr">
@@ -9466,7 +9466,7 @@
       </c>
       <c r="D319" s="12" t="inlineStr">
         <is>
-          <t>maa://30671 (81.46), maa://30669 (98.7), maa://37275 (82.86), *maa://32410 (63.64), maa://41605 (100.0), maa://33671 (100.0)</t>
+          <t>maa://30671 (81.58), maa://30669 (98.72), maa://37275 (82.86), *maa://32410 (63.64), maa://41605 (100.0), maa://33671 (100.0)</t>
         </is>
       </c>
       <c r="E319" s="3" t="inlineStr">
@@ -9601,7 +9601,7 @@
       </c>
       <c r="D324" s="12" t="inlineStr">
         <is>
-          <t>maa://32647 (97.39), maa://32415 (96.03), maa://34677 (100.0), maa://32892 (100.0)</t>
+          <t>maa://32647 (97.17), maa://32415 (96.03), maa://34677 (100.0), maa://32892 (100.0)</t>
         </is>
       </c>
       <c r="E324" s="3" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="D329" s="12" t="inlineStr">
         <is>
-          <t>maa://34865 (97.02), maa://34717 (93.22)</t>
+          <t>maa://34865 (97.04), maa://34717 (93.22)</t>
         </is>
       </c>
       <c r="E329" s="3" t="inlineStr">
@@ -9925,7 +9925,7 @@
       </c>
       <c r="D336" s="14" t="inlineStr">
         <is>
-          <t>maa://36645 (97.87), maa://36841 (94.34), maa://37484 (93.48), maa://37858 (91.3)</t>
+          <t>maa://36645 (97.88), maa://36841 (94.34), maa://37484 (93.48), maa://37858 (91.3)</t>
         </is>
       </c>
       <c r="E336" s="14" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.24 13:17:51</t>
+          <t>更新日期：2024.12.29 14:56:16</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="D24" s="19" t="inlineStr">
         <is>
-          <t>***maa://20951 (28.57)</t>
+          <t>**maa://20951 (37.5)</t>
         </is>
       </c>
       <c r="E24" s="20" t="inlineStr">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>maa://20863 (86.36), maa://20832 (98.41), maa://20727 (100.0)</t>
+          <t>maa://20863 (86.36), maa://20832 (98.46), maa://20727 (100.0)</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="D32" s="12" t="inlineStr">
         <is>
-          <t>maa://36644 (88.11), maa://36866 (97.44), maa://27794 (100.0)</t>
+          <t>maa://36644 (88.19), maa://36866 (97.5), maa://27794 (100.0)</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="D33" s="12" t="inlineStr">
         <is>
-          <t>maa://30500 (98.36), *maa://27290 (70.59), ***maa://42154 (14.29)</t>
+          <t>maa://30500 (98.44), *maa://27290 (70.59), ***maa://42154 (14.29)</t>
         </is>
       </c>
       <c r="E33" s="3" t="inlineStr">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="D37" s="12" t="inlineStr">
         <is>
-          <t>maa://27376 (90.0), **maa://20838 (50.0), maa://42635 (83.33)</t>
+          <t>maa://27376 (90.0), **maa://20838 (50.0), maa://42635 (90.91)</t>
         </is>
       </c>
       <c r="E37" s="3" t="inlineStr">
@@ -2176,7 +2176,7 @@
       </c>
       <c r="D49" s="12" t="inlineStr">
         <is>
-          <t>maa://32845 (85.71), *maa://20982 (66.67)</t>
+          <t>*maa://32845 (75.0), *maa://20982 (66.67)</t>
         </is>
       </c>
       <c r="E49" s="3" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="D56" s="12" t="inlineStr">
         <is>
-          <t>maa://44235 (94.83)</t>
+          <t>maa://44235 (95.31)</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
@@ -2689,7 +2689,7 @@
       </c>
       <c r="D68" s="12" t="inlineStr">
         <is>
-          <t>maa://20976 (97.88), maa://20815 (100.0)</t>
+          <t>maa://20976 (97.89), maa://20815 (100.0)</t>
         </is>
       </c>
       <c r="E68" s="3" t="inlineStr">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="D69" s="12" t="inlineStr">
         <is>
-          <t>maa://28784 (93.92), maa://29088 (91.98), maa://20974 (95.59), maa://31124 (96.13), maa://28950 (91.3), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (75.0), **maa://42200 (50.0), maa://41832 (84.62)</t>
+          <t>maa://28784 (93.96), maa://29088 (91.53), maa://20974 (95.65), maa://31124 (96.23), maa://28950 (91.3), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (80.0), **maa://42200 (50.0), maa://41832 (84.62)</t>
         </is>
       </c>
       <c r="E69" s="3" t="inlineStr">
@@ -2770,7 +2770,7 @@
       </c>
       <c r="D71" s="12" t="inlineStr">
         <is>
-          <t>maa://20943 (99.6)</t>
+          <t>maa://20943 (99.21)</t>
         </is>
       </c>
       <c r="E71" s="3" t="inlineStr">
@@ -2797,7 +2797,7 @@
       </c>
       <c r="D72" s="12" t="inlineStr">
         <is>
-          <t>maa://36643 (97.56), maa://36864 (97.33), maa://39140 (100.0)</t>
+          <t>maa://36643 (97.61), maa://36864 (97.4), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E72" s="3" t="inlineStr">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="D88" s="12" t="inlineStr">
         <is>
-          <t>maa://24472 (86.45), *maa://35841 (54.55)</t>
+          <t>maa://24472 (86.71), *maa://35841 (54.55)</t>
         </is>
       </c>
       <c r="E88" s="3" t="inlineStr">
@@ -3283,7 +3283,7 @@
       </c>
       <c r="D90" s="12" t="inlineStr">
         <is>
-          <t>*maa://28190 (56.67), maa://20880 (91.3)</t>
+          <t>*maa://28190 (58.06), maa://20880 (91.3)</t>
         </is>
       </c>
       <c r="E90" s="3" t="inlineStr">
@@ -3553,7 +3553,7 @@
       </c>
       <c r="D100" s="12" t="inlineStr">
         <is>
-          <t>maa://31560 (83.33), maa://20852 (100.0)</t>
+          <t>maa://31560 (85.71), maa://20852 (100.0)</t>
         </is>
       </c>
       <c r="E100" s="3" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="D108" s="12" t="inlineStr">
         <is>
-          <t>maa://25018 (96.27), maa://25776 (90.48), maa://28361 (96.77), maa://25772 (92.68), *maa://25161 (80.0), maa://32653 (85.71)</t>
+          <t>maa://25018 (96.0), maa://25776 (90.48), maa://28361 (96.77), maa://25772 (92.68), *maa://25161 (80.0), maa://32653 (85.71)</t>
         </is>
       </c>
       <c r="E108" s="3" t="inlineStr">
@@ -3904,7 +3904,7 @@
       </c>
       <c r="D113" s="12" t="inlineStr">
         <is>
-          <t>maa://29037 (97.62)</t>
+          <t>maa://29037 (97.67)</t>
         </is>
       </c>
       <c r="E113" s="3" t="inlineStr">
@@ -3958,7 +3958,7 @@
       </c>
       <c r="D115" s="12" t="inlineStr">
         <is>
-          <t>maa://20908 (98.27), *maa://23346 (77.78), maa://35723 (94.44), maa://38822 (100.0)</t>
+          <t>maa://20908 (98.28), *maa://23346 (77.78), maa://35723 (94.44), maa://38822 (100.0)</t>
         </is>
       </c>
       <c r="E115" s="3" t="inlineStr">
@@ -4012,7 +4012,7 @@
       </c>
       <c r="D117" s="12" t="inlineStr">
         <is>
-          <t>maa://31560 (83.33), maa://20940 (100.0)</t>
+          <t>maa://31560 (85.71), maa://20940 (100.0)</t>
         </is>
       </c>
       <c r="E117" s="3" t="inlineStr">
@@ -4066,7 +4066,7 @@
       </c>
       <c r="D119" s="12" t="inlineStr">
         <is>
-          <t>maa://31560 (83.33), maa://20851 (100.0)</t>
+          <t>maa://31560 (85.71), maa://20851 (100.0)</t>
         </is>
       </c>
       <c r="E119" s="3" t="inlineStr">
@@ -4363,7 +4363,7 @@
       </c>
       <c r="D130" s="12" t="inlineStr">
         <is>
-          <t>maa://21422 (98.94)</t>
+          <t>maa://21422 (98.98)</t>
         </is>
       </c>
       <c r="E130" s="3" t="inlineStr">
@@ -4687,7 +4687,7 @@
       </c>
       <c r="D142" s="12" t="inlineStr">
         <is>
-          <t>maa://28484 (97.53), **maa://23736 (41.54), *maa://31185 (80.0), maa://30306 (100.0)</t>
+          <t>maa://28484 (97.56), **maa://23736 (41.54), *maa://31185 (80.0), maa://30306 (100.0)</t>
         </is>
       </c>
       <c r="E142" s="3" t="inlineStr">
@@ -4714,7 +4714,7 @@
       </c>
       <c r="D143" s="12" t="inlineStr">
         <is>
-          <t>maa://30670 (96.12), maa://31470 (95.24), ***maa://30867 (25.0)</t>
+          <t>maa://30670 (96.19), maa://31470 (95.24), ***maa://30867 (25.0)</t>
         </is>
       </c>
       <c r="E143" s="3" t="inlineStr">
@@ -4876,7 +4876,7 @@
       </c>
       <c r="D149" s="12" t="inlineStr">
         <is>
-          <t>maa://36641 (98.28), maa://36865 (95.83), maa://42918 (100.0), maa://44119 (100.0), maa://37300 (100.0), maa://42917 (100.0)</t>
+          <t>maa://36641 (98.29), maa://36865 (95.87), maa://42918 (100.0), maa://44119 (95.83), maa://37300 (100.0), maa://42917 (100.0)</t>
         </is>
       </c>
       <c r="E149" s="3" t="inlineStr">
@@ -5119,7 +5119,7 @@
       </c>
       <c r="D158" s="12" t="inlineStr">
         <is>
-          <t>maa://44232 (98.84), maa://44305 (100.0)</t>
+          <t>maa://44232 (98.94), maa://44305 (100.0)</t>
         </is>
       </c>
       <c r="E158" s="3" t="inlineStr">
@@ -5227,7 +5227,7 @@
       </c>
       <c r="D162" s="12" t="inlineStr">
         <is>
-          <t>maa://29054 (100.0), maa://32845 (85.71)</t>
+          <t>maa://29054 (100.0), *maa://32845 (75.0)</t>
         </is>
       </c>
       <c r="E162" s="3" t="inlineStr">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="D166" s="12" t="inlineStr">
         <is>
-          <t>maa://29633 (93.56), maa://29627 (92.7), maa://29659 (82.76), maa://29861 (100.0)</t>
+          <t>maa://29633 (93.64), maa://29627 (92.74), maa://29659 (82.76), maa://29861 (100.0)</t>
         </is>
       </c>
       <c r="E166" s="3" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="D172" s="12" t="inlineStr">
         <is>
-          <t>maa://32418 (99.54)</t>
+          <t>maa://32418 (99.55)</t>
         </is>
       </c>
       <c r="E172" s="3" t="inlineStr">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="D179" s="12" t="inlineStr">
         <is>
-          <t>maa://31560 (83.33), **maa://20968 (50.0)</t>
+          <t>maa://31560 (85.71), **maa://20968 (50.0)</t>
         </is>
       </c>
       <c r="E179" s="3" t="inlineStr">
@@ -5902,7 +5902,7 @@
       </c>
       <c r="D187" s="12" t="inlineStr">
         <is>
-          <t>maa://34866 (88.89), maa://34714 (95.83)</t>
+          <t>maa://34866 (88.89), maa://34714 (96.0)</t>
         </is>
       </c>
       <c r="E187" s="3" t="inlineStr">
@@ -6037,7 +6037,7 @@
       </c>
       <c r="D192" s="12" t="inlineStr">
         <is>
-          <t>*maa://28190 (56.67), maa://20994 (100.0)</t>
+          <t>*maa://28190 (58.06), maa://20994 (100.0)</t>
         </is>
       </c>
       <c r="E192" s="3" t="inlineStr">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="D194" s="12" t="inlineStr">
         <is>
-          <t>*maa://35854 (76.92), maa://25760 (86.81), maa://44224 (88.71), **maa://20872 (50.0), ***maa://43443 (27.27), ***maa://43911 (25.0)</t>
+          <t>*maa://35854 (76.92), maa://25760 (86.81), maa://44224 (89.06), **maa://20872 (50.0), ***maa://43443 (27.27), ***maa://43911 (22.22)</t>
         </is>
       </c>
       <c r="E194" s="3" t="inlineStr">
@@ -6145,7 +6145,7 @@
       </c>
       <c r="D196" s="12" t="inlineStr">
         <is>
-          <t>maa://27823 (81.03), *maa://28190 (56.67), maa://22894 (90.62), *maa://20906 (72.22), **maa://20907 (35.48)</t>
+          <t>maa://27823 (81.03), *maa://28190 (58.06), maa://22894 (90.62), *maa://20906 (72.22), **maa://20907 (35.48)</t>
         </is>
       </c>
       <c r="E196" s="3" t="inlineStr">
@@ -6172,7 +6172,7 @@
       </c>
       <c r="D197" s="12" t="inlineStr">
         <is>
-          <t>maa://27823 (81.03), *maa://28190 (56.67), maa://22894 (90.62), *maa://20906 (72.22), **maa://20907 (35.48)</t>
+          <t>maa://27823 (81.03), *maa://28190 (58.06), maa://22894 (90.62), *maa://20906 (72.22), **maa://20907 (35.48)</t>
         </is>
       </c>
       <c r="E197" s="3" t="inlineStr">
@@ -6199,7 +6199,7 @@
       </c>
       <c r="D198" s="12" t="inlineStr">
         <is>
-          <t>maa://42223 (99.33), maa://42292 (95.0), maa://42402 (100.0)</t>
+          <t>maa://42223 (99.35), maa://42292 (95.24), maa://42402 (100.0)</t>
         </is>
       </c>
       <c r="E198" s="3" t="inlineStr">
@@ -6415,7 +6415,7 @@
       </c>
       <c r="D206" s="12" t="inlineStr">
         <is>
-          <t>maa://28133 (90.48), *maa://28277 (79.17), **maa://39217 (33.33), maa://25369 (93.1), *maa://33132 (66.67)</t>
+          <t>maa://28133 (90.48), *maa://28277 (79.17), **maa://39217 (33.33), maa://25369 (93.33), *maa://33132 (66.67)</t>
         </is>
       </c>
       <c r="E206" s="3" t="inlineStr">
@@ -6442,7 +6442,7 @@
       </c>
       <c r="D207" s="12" t="inlineStr">
         <is>
-          <t>maa://20956 (95.57), *maa://20830 (77.78), maa://44703 (100.0)</t>
+          <t>maa://20956 (95.62), *maa://20830 (77.78), maa://44703 (100.0)</t>
         </is>
       </c>
       <c r="E207" s="3" t="inlineStr">
@@ -6469,7 +6469,7 @@
       </c>
       <c r="D208" s="12" t="inlineStr">
         <is>
-          <t>*maa://20955 (75.0)</t>
+          <t>*maa://20955 (75.76)</t>
         </is>
       </c>
       <c r="E208" s="3" t="inlineStr">
@@ -6496,7 +6496,7 @@
       </c>
       <c r="D209" s="12" t="inlineStr">
         <is>
-          <t>maa://39238 (99.15)</t>
+          <t>maa://39238 (99.17)</t>
         </is>
       </c>
       <c r="E209" s="3" t="inlineStr">
@@ -6955,7 +6955,7 @@
       </c>
       <c r="D226" s="12" t="inlineStr">
         <is>
-          <t>maa://29058 (94.12), maa://39140 (100.0), maa://38723 (100.0)</t>
+          <t>maa://29058 (94.34), maa://39140 (100.0), maa://38723 (100.0)</t>
         </is>
       </c>
       <c r="E226" s="3" t="inlineStr">
@@ -7009,7 +7009,7 @@
       </c>
       <c r="D228" s="12" t="inlineStr">
         <is>
-          <t>maa://20878 (84.21)</t>
+          <t>maa://20878 (85.71)</t>
         </is>
       </c>
       <c r="E228" s="3" t="inlineStr">
@@ -7063,7 +7063,7 @@
       </c>
       <c r="D230" s="12" t="inlineStr">
         <is>
-          <t>maa://20917 (97.37)</t>
+          <t>maa://20917 (97.44)</t>
         </is>
       </c>
       <c r="E230" s="3" t="inlineStr">
@@ -7171,7 +7171,7 @@
       </c>
       <c r="D234" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (77.66), maa://30666 (83.92), *maa://26836 (76.55), maa://37607 (93.89), **maa://30739 (44.44), *maa://34428 (68.35), *maa://30723 (51.85), maa://39588 (85.71), *maa://37850 (66.67)</t>
+          <t>*maa://30667 (77.49), maa://30666 (83.92), *maa://26836 (76.87), maa://37607 (94.03), **maa://30739 (44.44), *maa://34428 (69.51), *maa://30723 (51.85), maa://39588 (86.84), *maa://37850 (66.67)</t>
         </is>
       </c>
       <c r="E234" s="3" t="inlineStr">
@@ -7387,7 +7387,7 @@
       </c>
       <c r="D242" s="12" t="inlineStr">
         <is>
-          <t>maa://28923 (91.98), maa://28906 (97.67), ***maa://28825 (12.0)</t>
+          <t>maa://28923 (91.98), maa://28906 (97.73), ***maa://28825 (12.0)</t>
         </is>
       </c>
       <c r="E242" s="3" t="inlineStr">
@@ -7414,7 +7414,7 @@
       </c>
       <c r="D243" s="12" t="inlineStr">
         <is>
-          <t>maa://42287 (91.89), maa://42225 (100.0)</t>
+          <t>maa://42287 (92.31), maa://42225 (100.0)</t>
         </is>
       </c>
       <c r="E243" s="3" t="inlineStr">
@@ -7684,7 +7684,7 @@
       </c>
       <c r="D253" s="12" t="inlineStr">
         <is>
-          <t>maa://31560 (83.33), maa://20884 (94.12)</t>
+          <t>maa://31560 (85.71), maa://20884 (94.12)</t>
         </is>
       </c>
       <c r="E253" s="3" t="inlineStr">
@@ -8251,7 +8251,7 @@
       </c>
       <c r="D274" s="12" t="inlineStr">
         <is>
-          <t>maa://38296 (83.33)</t>
+          <t>maa://38296 (84.21)</t>
         </is>
       </c>
       <c r="E274" s="3" t="inlineStr">
@@ -8273,12 +8273,12 @@
       </c>
       <c r="C275" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D275" s="12" t="inlineStr">
         <is>
-          <t>maa://20899 (89.61)</t>
+          <t>maa://20899 (89.61), maa://44744 (100.0)</t>
         </is>
       </c>
       <c r="E275" s="3" t="inlineStr">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="D277" s="12" t="inlineStr">
         <is>
-          <t>maa://30710 (97.22), maa://36845 (94.9), maa://31558 (96.88), **maa://39217 (33.33), maa://30668 (84.62)</t>
+          <t>maa://30710 (97.25), maa://36845 (94.95), maa://31558 (96.88), **maa://39217 (33.33), maa://30668 (84.62)</t>
         </is>
       </c>
       <c r="E277" s="3" t="inlineStr">
@@ -8413,7 +8413,7 @@
       </c>
       <c r="D280" s="12" t="inlineStr">
         <is>
-          <t>maa://25774 (100.0), maa://28133 (90.48), maa://22469 (91.11), **maa://39217 (33.33), **maa://31349 (50.0)</t>
+          <t>maa://25774 (100.0), maa://28133 (90.48), maa://22469 (91.3), **maa://39217 (33.33), **maa://31349 (50.0)</t>
         </is>
       </c>
       <c r="E280" s="3" t="inlineStr">
@@ -8548,7 +8548,7 @@
       </c>
       <c r="D285" s="12" t="inlineStr">
         <is>
-          <t>maa://29005 (98.21), maa://31560 (83.33)</t>
+          <t>maa://29005 (98.21), maa://31560 (85.71)</t>
         </is>
       </c>
       <c r="E285" s="3" t="inlineStr">
@@ -8899,7 +8899,7 @@
       </c>
       <c r="D298" s="12" t="inlineStr">
         <is>
-          <t>maa://25367 (99.05)</t>
+          <t>maa://25367 (99.06)</t>
         </is>
       </c>
       <c r="E298" s="3" t="inlineStr">
@@ -9358,7 +9358,7 @@
       </c>
       <c r="D315" s="12" t="inlineStr">
         <is>
-          <t>maa://44234 (97.44)</t>
+          <t>maa://44234 (97.67)</t>
         </is>
       </c>
       <c r="E315" s="3" t="inlineStr">
@@ -9385,7 +9385,7 @@
       </c>
       <c r="D316" s="12" t="inlineStr">
         <is>
-          <t>maa://42968 (99.44)</t>
+          <t>maa://42968 (99.45)</t>
         </is>
       </c>
       <c r="E316" s="3" t="inlineStr">
@@ -9466,7 +9466,7 @@
       </c>
       <c r="D319" s="12" t="inlineStr">
         <is>
-          <t>maa://30671 (81.58), maa://30669 (98.72), maa://37275 (82.86), *maa://32410 (63.64), maa://41605 (100.0), maa://33671 (100.0)</t>
+          <t>maa://30671 (81.58), maa://30669 (98.75), maa://37275 (82.86), *maa://32410 (66.67), maa://41605 (100.0), maa://33671 (100.0)</t>
         </is>
       </c>
       <c r="E319" s="3" t="inlineStr">
@@ -9493,7 +9493,7 @@
       </c>
       <c r="D320" s="12" t="inlineStr">
         <is>
-          <t>maa://38295 (96.49)</t>
+          <t>maa://38295 (96.67)</t>
         </is>
       </c>
       <c r="E320" s="3" t="inlineStr">
@@ -9601,7 +9601,7 @@
       </c>
       <c r="D324" s="12" t="inlineStr">
         <is>
-          <t>maa://32647 (97.17), maa://32415 (96.03), maa://34677 (100.0), maa://32892 (100.0)</t>
+          <t>maa://32647 (97.19), maa://32415 (96.03), maa://34677 (100.0), maa://32892 (100.0)</t>
         </is>
       </c>
       <c r="E324" s="3" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="D329" s="12" t="inlineStr">
         <is>
-          <t>maa://34865 (97.04), maa://34717 (93.22)</t>
+          <t>maa://34865 (97.08), maa://34717 (93.33)</t>
         </is>
       </c>
       <c r="E329" s="3" t="inlineStr">
@@ -9871,7 +9871,7 @@
       </c>
       <c r="D334" s="14" t="inlineStr">
         <is>
-          <t>maa://42299 (94.74), **maa://42224 (50.0)</t>
+          <t>maa://42299 (95.45), **maa://42224 (50.0)</t>
         </is>
       </c>
       <c r="E334" s="14" t="inlineStr">
@@ -9898,7 +9898,7 @@
       </c>
       <c r="D335" s="14" t="inlineStr">
         <is>
-          <t>maa://36646 (98.4), maa://36845 (94.9), **maa://39217 (33.33)</t>
+          <t>maa://36646 (98.41), maa://36845 (94.95), **maa://39217 (33.33)</t>
         </is>
       </c>
       <c r="E335" s="14" t="inlineStr">
@@ -9925,7 +9925,7 @@
       </c>
       <c r="D336" s="14" t="inlineStr">
         <is>
-          <t>maa://36645 (97.88), maa://36841 (94.34), maa://37484 (93.48), maa://37858 (91.3)</t>
+          <t>maa://36645 (97.89), maa://36841 (94.34), maa://37484 (93.48), maa://37858 (91.3)</t>
         </is>
       </c>
       <c r="E336" s="14" t="inlineStr">
@@ -10033,7 +10033,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>maa://40957 (86.67), maa://41035 (89.36), maa://41128 (80.65), maa://44635 (84.0), maa://44660 (90.0)</t>
+          <t>maa://40957 (86.74), maa://41035 (89.58), maa://41128 (80.65), maa://44635 (84.62), maa://44660 (91.67)</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -10195,7 +10195,7 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>maa://41110 (98.61)</t>
+          <t>maa://41110 (98.63)</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
@@ -10357,7 +10357,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>maa://43875 (96.77)</t>
+          <t>maa://43875 (96.88)</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
@@ -10379,12 +10379,12 @@
       </c>
       <c r="C353" s="13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>maa://42970 (85.42), *maa://44745 (75.0)</t>
+          <t>maa://42970 (86.18), maa://44745 (87.5), maa://44896 (100.0)</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.29 14:56:16</t>
+          <t>更新日期：2024.12.31 13:17:57</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="D3" s="12" t="inlineStr">
         <is>
-          <t>maa://20990 (83.33)</t>
+          <t>maa://20990 (85.71)</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>maa://20863 (86.36), maa://20832 (98.46), maa://20727 (100.0)</t>
+          <t>maa://20863 (86.44), maa://20832 (98.46), maa://20727 (100.0)</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="D33" s="12" t="inlineStr">
         <is>
-          <t>maa://30500 (98.44), *maa://27290 (70.59), ***maa://42154 (14.29)</t>
+          <t>maa://30500 (98.46), *maa://27290 (70.59), ***maa://42154 (12.5)</t>
         </is>
       </c>
       <c r="E33" s="3" t="inlineStr">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="D34" s="12" t="inlineStr">
         <is>
-          <t>*maa://20916 (78.57)</t>
+          <t>*maa://20916 (79.31)</t>
         </is>
       </c>
       <c r="E34" s="3" t="inlineStr">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="D37" s="12" t="inlineStr">
         <is>
-          <t>maa://27376 (90.0), **maa://20838 (50.0), maa://42635 (90.91)</t>
+          <t>maa://27376 (90.32), *maa://20838 (52.94), maa://42635 (92.86)</t>
         </is>
       </c>
       <c r="E37" s="3" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="D56" s="12" t="inlineStr">
         <is>
-          <t>maa://44235 (95.31)</t>
+          <t>maa://44235 (95.71)</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="D58" s="12" t="inlineStr">
         <is>
-          <t>maa://28900 (95.65), maa://30126 (100.0)</t>
+          <t>maa://28900 (95.71), maa://30126 (100.0)</t>
         </is>
       </c>
       <c r="E58" s="3" t="inlineStr">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="D59" s="12" t="inlineStr">
         <is>
-          <t>maa://27970 (98.31), *maa://41118 (75.0)</t>
+          <t>maa://27970 (98.33), *maa://41118 (80.0)</t>
         </is>
       </c>
       <c r="E59" s="3" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="D60" s="12" t="inlineStr">
         <is>
-          <t>maa://38298 (83.33)</t>
+          <t>maa://38298 (84.0)</t>
         </is>
       </c>
       <c r="E60" s="3" t="inlineStr">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="D69" s="12" t="inlineStr">
         <is>
-          <t>maa://28784 (93.96), maa://29088 (91.53), maa://20974 (95.65), maa://31124 (96.23), maa://28950 (91.3), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (80.0), **maa://42200 (50.0), maa://41832 (84.62)</t>
+          <t>maa://28784 (93.98), maa://29088 (91.53), maa://20974 (95.65), maa://31124 (96.3), maa://28950 (91.3), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (80.0), **maa://42200 (50.0), maa://41832 (84.62)</t>
         </is>
       </c>
       <c r="E69" s="3" t="inlineStr">
@@ -2770,7 +2770,7 @@
       </c>
       <c r="D71" s="12" t="inlineStr">
         <is>
-          <t>maa://20943 (99.21)</t>
+          <t>maa://20943 (99.22)</t>
         </is>
       </c>
       <c r="E71" s="3" t="inlineStr">
@@ -2797,7 +2797,7 @@
       </c>
       <c r="D72" s="12" t="inlineStr">
         <is>
-          <t>maa://36643 (97.61), maa://36864 (97.4), maa://39140 (100.0)</t>
+          <t>maa://36643 (97.65), maa://36864 (97.5), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E72" s="3" t="inlineStr">
@@ -3202,7 +3202,7 @@
       </c>
       <c r="D87" s="12" t="inlineStr">
         <is>
-          <t>maa://20886 (89.47), maa://25136 (94.74)</t>
+          <t>maa://20886 (90.0), maa://25136 (94.74)</t>
         </is>
       </c>
       <c r="E87" s="3" t="inlineStr">
@@ -3310,7 +3310,7 @@
       </c>
       <c r="D91" s="12" t="inlineStr">
         <is>
-          <t>maa://24609 (88.24)</t>
+          <t>maa://24609 (88.89)</t>
         </is>
       </c>
       <c r="E91" s="3" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="D108" s="12" t="inlineStr">
         <is>
-          <t>maa://25018 (96.0), maa://25776 (90.48), maa://28361 (96.77), maa://25772 (92.68), *maa://25161 (80.0), maa://32653 (85.71)</t>
+          <t>maa://25018 (96.01), maa://25776 (90.48), maa://28361 (96.77), maa://25772 (92.68), *maa://25161 (80.0), maa://32653 (85.71)</t>
         </is>
       </c>
       <c r="E108" s="3" t="inlineStr">
@@ -3877,7 +3877,7 @@
       </c>
       <c r="D112" s="12" t="inlineStr">
         <is>
-          <t>*maa://20933 (78.85), maa://20822 (100.0)</t>
+          <t>*maa://20933 (79.25), maa://20822 (100.0)</t>
         </is>
       </c>
       <c r="E112" s="3" t="inlineStr">
@@ -3985,7 +3985,7 @@
       </c>
       <c r="D116" s="12" t="inlineStr">
         <is>
-          <t>maa://29659 (82.76), maa://29031 (100.0)</t>
+          <t>maa://29659 (83.33), maa://29031 (100.0)</t>
         </is>
       </c>
       <c r="E116" s="3" t="inlineStr">
@@ -4363,7 +4363,7 @@
       </c>
       <c r="D130" s="12" t="inlineStr">
         <is>
-          <t>maa://21422 (98.98)</t>
+          <t>maa://21422 (99.01)</t>
         </is>
       </c>
       <c r="E130" s="3" t="inlineStr">
@@ -4876,7 +4876,7 @@
       </c>
       <c r="D149" s="12" t="inlineStr">
         <is>
-          <t>maa://36641 (98.29), maa://36865 (95.87), maa://42918 (100.0), maa://44119 (95.83), maa://37300 (100.0), maa://42917 (100.0)</t>
+          <t>maa://36641 (98.31), maa://36865 (95.87), maa://42918 (100.0), maa://44119 (95.83), maa://37300 (100.0), maa://42917 (100.0)</t>
         </is>
       </c>
       <c r="E149" s="3" t="inlineStr">
@@ -5119,7 +5119,7 @@
       </c>
       <c r="D158" s="12" t="inlineStr">
         <is>
-          <t>maa://44232 (98.94), maa://44305 (100.0)</t>
+          <t>maa://44232 (99.0), maa://44305 (100.0)</t>
         </is>
       </c>
       <c r="E158" s="3" t="inlineStr">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="D166" s="12" t="inlineStr">
         <is>
-          <t>maa://29633 (93.64), maa://29627 (92.74), maa://29659 (82.76), maa://29861 (100.0)</t>
+          <t>maa://29633 (93.64), maa://29627 (92.86), maa://29659 (83.33), maa://29861 (100.0)</t>
         </is>
       </c>
       <c r="E166" s="3" t="inlineStr">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="D194" s="12" t="inlineStr">
         <is>
-          <t>*maa://35854 (76.92), maa://25760 (86.81), maa://44224 (89.06), **maa://20872 (50.0), ***maa://43443 (27.27), ***maa://43911 (22.22)</t>
+          <t>*maa://35854 (76.92), maa://25760 (85.87), maa://44224 (88.24), **maa://20872 (50.0), ***maa://43443 (27.27), ***maa://43911 (20.0)</t>
         </is>
       </c>
       <c r="E194" s="3" t="inlineStr">
@@ -6118,7 +6118,7 @@
       </c>
       <c r="D195" s="12" t="inlineStr">
         <is>
-          <t>***maa://38297 (30.0), maa://39156 (86.67), maa://39550 (100.0)</t>
+          <t>***maa://38297 (30.0), maa://39156 (88.89), maa://39550 (100.0)</t>
         </is>
       </c>
       <c r="E195" s="3" t="inlineStr">
@@ -6199,7 +6199,7 @@
       </c>
       <c r="D198" s="12" t="inlineStr">
         <is>
-          <t>maa://42223 (99.35), maa://42292 (95.24), maa://42402 (100.0)</t>
+          <t>maa://42223 (99.36), maa://42292 (95.24), maa://42402 (100.0)</t>
         </is>
       </c>
       <c r="E198" s="3" t="inlineStr">
@@ -6415,7 +6415,7 @@
       </c>
       <c r="D206" s="12" t="inlineStr">
         <is>
-          <t>maa://28133 (90.48), *maa://28277 (79.17), **maa://39217 (33.33), maa://25369 (93.33), *maa://33132 (66.67)</t>
+          <t>maa://28133 (90.48), *maa://28277 (80.0), **maa://39217 (33.33), maa://25369 (93.33), *maa://33132 (66.67)</t>
         </is>
       </c>
       <c r="E206" s="3" t="inlineStr">
@@ -6496,7 +6496,7 @@
       </c>
       <c r="D209" s="12" t="inlineStr">
         <is>
-          <t>maa://39238 (99.17)</t>
+          <t>maa://39238 (99.19)</t>
         </is>
       </c>
       <c r="E209" s="3" t="inlineStr">
@@ -6955,7 +6955,7 @@
       </c>
       <c r="D226" s="12" t="inlineStr">
         <is>
-          <t>maa://29058 (94.34), maa://39140 (100.0), maa://38723 (100.0)</t>
+          <t>maa://29058 (94.44), maa://39140 (100.0), maa://38723 (100.0)</t>
         </is>
       </c>
       <c r="E226" s="3" t="inlineStr">
@@ -7063,7 +7063,7 @@
       </c>
       <c r="D230" s="12" t="inlineStr">
         <is>
-          <t>maa://20917 (97.44)</t>
+          <t>maa://20917 (97.5)</t>
         </is>
       </c>
       <c r="E230" s="3" t="inlineStr">
@@ -7171,7 +7171,7 @@
       </c>
       <c r="D234" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (77.49), maa://30666 (83.92), *maa://26836 (76.87), maa://37607 (94.03), **maa://30739 (44.44), *maa://34428 (69.51), *maa://30723 (51.85), maa://39588 (86.84), *maa://37850 (66.67)</t>
+          <t>*maa://30667 (77.47), maa://30666 (84.0), *maa://26836 (76.87), maa://37607 (94.29), **maa://30739 (44.44), *maa://34428 (69.77), *maa://30723 (51.85), maa://39588 (86.84), *maa://37850 (66.67)</t>
         </is>
       </c>
       <c r="E234" s="3" t="inlineStr">
@@ -7414,7 +7414,7 @@
       </c>
       <c r="D243" s="12" t="inlineStr">
         <is>
-          <t>maa://42287 (92.31), maa://42225 (100.0)</t>
+          <t>maa://42287 (92.5), maa://42225 (100.0)</t>
         </is>
       </c>
       <c r="E243" s="3" t="inlineStr">
@@ -7517,12 +7517,12 @@
       </c>
       <c r="C247" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D247" s="12" t="inlineStr">
         <is>
-          <t>*maa://40958 (72.73)</t>
+          <t>*maa://40958 (72.73), maa://45067 (100.0)</t>
         </is>
       </c>
       <c r="E247" s="3" t="inlineStr">
@@ -7571,12 +7571,12 @@
       </c>
       <c r="C249" s="13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D249" s="12" t="inlineStr">
         <is>
-          <t>maa://20877 (98.31), maa://20836 (100.0), maa://20632 (100.0)</t>
+          <t>maa://20877 (98.31), maa://20836 (100.0), maa://20632 (100.0), maa://45067 (100.0)</t>
         </is>
       </c>
       <c r="E249" s="3" t="inlineStr">
@@ -7603,7 +7603,7 @@
       </c>
       <c r="D250" s="12" t="inlineStr">
         <is>
-          <t>maa://20879 (84.78), maa://20834 (100.0)</t>
+          <t>maa://20879 (85.11), maa://20834 (92.86)</t>
         </is>
       </c>
       <c r="E250" s="3" t="inlineStr">
@@ -7900,7 +7900,7 @@
       </c>
       <c r="D261" s="12" t="inlineStr">
         <is>
-          <t>maa://25769 (96.58)</t>
+          <t>maa://25769 (96.61)</t>
         </is>
       </c>
       <c r="E261" s="3" t="inlineStr">
@@ -8197,7 +8197,7 @@
       </c>
       <c r="D272" s="12" t="inlineStr">
         <is>
-          <t>**maa://35860 (38.46), **maa://39165 (50.0)</t>
+          <t>**maa://35860 (42.86), **maa://39165 (50.0)</t>
         </is>
       </c>
       <c r="E272" s="3" t="inlineStr">
@@ -8278,7 +8278,7 @@
       </c>
       <c r="D275" s="12" t="inlineStr">
         <is>
-          <t>maa://20899 (89.61), maa://44744 (100.0)</t>
+          <t>maa://20899 (89.68), maa://44744 (100.0)</t>
         </is>
       </c>
       <c r="E275" s="3" t="inlineStr">
@@ -8548,7 +8548,7 @@
       </c>
       <c r="D285" s="12" t="inlineStr">
         <is>
-          <t>maa://29005 (98.21), maa://31560 (85.71)</t>
+          <t>maa://29005 (98.25), maa://31560 (85.71)</t>
         </is>
       </c>
       <c r="E285" s="3" t="inlineStr">
@@ -8764,7 +8764,7 @@
       </c>
       <c r="D293" s="12" t="inlineStr">
         <is>
-          <t>maa://35859 (96.83)</t>
+          <t>maa://35859 (96.88)</t>
         </is>
       </c>
       <c r="E293" s="3" t="inlineStr">
@@ -8899,7 +8899,7 @@
       </c>
       <c r="D298" s="12" t="inlineStr">
         <is>
-          <t>maa://25367 (99.06)</t>
+          <t>maa://25367 (99.07)</t>
         </is>
       </c>
       <c r="E298" s="3" t="inlineStr">
@@ -8926,7 +8926,7 @@
       </c>
       <c r="D299" s="12" t="inlineStr">
         <is>
-          <t>**maa://43090 (50.0)</t>
+          <t>*maa://43090 (66.67)</t>
         </is>
       </c>
       <c r="E299" s="3" t="inlineStr">
@@ -9061,7 +9061,7 @@
       </c>
       <c r="D304" s="12" t="inlineStr">
         <is>
-          <t>maa://39692 (99.69), maa://39810 (81.25)</t>
+          <t>maa://39692 (99.7), maa://39810 (81.25)</t>
         </is>
       </c>
       <c r="E304" s="3" t="inlineStr">
@@ -9142,7 +9142,7 @@
       </c>
       <c r="D307" s="12" t="inlineStr">
         <is>
-          <t>maa://34867 (96.97), maa://34715 (100.0)</t>
+          <t>maa://34867 (97.06), maa://34715 (100.0)</t>
         </is>
       </c>
       <c r="E307" s="3" t="inlineStr">
@@ -9358,7 +9358,7 @@
       </c>
       <c r="D315" s="12" t="inlineStr">
         <is>
-          <t>maa://44234 (97.67)</t>
+          <t>maa://44234 (97.78)</t>
         </is>
       </c>
       <c r="E315" s="3" t="inlineStr">
@@ -9385,7 +9385,7 @@
       </c>
       <c r="D316" s="12" t="inlineStr">
         <is>
-          <t>maa://42968 (99.45)</t>
+          <t>maa://42968 (99.46)</t>
         </is>
       </c>
       <c r="E316" s="3" t="inlineStr">
@@ -9466,7 +9466,7 @@
       </c>
       <c r="D319" s="12" t="inlineStr">
         <is>
-          <t>maa://30671 (81.58), maa://30669 (98.75), maa://37275 (82.86), *maa://32410 (66.67), maa://41605 (100.0), maa://33671 (100.0)</t>
+          <t>maa://30671 (81.7), maa://30669 (98.78), maa://37275 (82.86), *maa://32410 (66.67), maa://41605 (100.0), maa://33671 (100.0)</t>
         </is>
       </c>
       <c r="E319" s="3" t="inlineStr">
@@ -9601,7 +9601,7 @@
       </c>
       <c r="D324" s="12" t="inlineStr">
         <is>
-          <t>maa://32647 (97.19), maa://32415 (96.03), maa://34677 (100.0), maa://32892 (100.0)</t>
+          <t>maa://32647 (97.2), maa://32415 (96.06), maa://34677 (100.0), maa://32892 (100.0)</t>
         </is>
       </c>
       <c r="E324" s="3" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="D329" s="12" t="inlineStr">
         <is>
-          <t>maa://34865 (97.08), maa://34717 (93.33)</t>
+          <t>maa://34865 (97.09), maa://34717 (93.44)</t>
         </is>
       </c>
       <c r="E329" s="3" t="inlineStr">
@@ -9898,7 +9898,7 @@
       </c>
       <c r="D335" s="14" t="inlineStr">
         <is>
-          <t>maa://36646 (98.41), maa://36845 (94.95), **maa://39217 (33.33)</t>
+          <t>maa://36646 (98.42), maa://36845 (94.95), **maa://39217 (33.33)</t>
         </is>
       </c>
       <c r="E335" s="14" t="inlineStr">
@@ -10033,7 +10033,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>maa://40957 (86.74), maa://41035 (89.58), maa://41128 (80.65), maa://44635 (84.62), maa://44660 (91.67)</t>
+          <t>maa://40957 (86.74), maa://41035 (89.58), maa://41128 (80.65), maa://44635 (81.48), maa://44660 (92.31)</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -10276,7 +10276,7 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>maa://44233 (100.0)</t>
+          <t>maa://44233 (96.15)</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
@@ -10384,7 +10384,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>maa://42970 (86.18), maa://44745 (87.5), maa://44896 (100.0)</t>
+          <t>maa://42970 (86.62), maa://44745 (88.89), maa://44896 (100.0)</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.31 13:17:57</t>
+          <t>更新日期：2025.01.01 13:19:57</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -2576,12 +2576,12 @@
       </c>
       <c r="C64" s="13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D64" s="12" t="inlineStr">
         <is>
-          <t>maa://28187 (97.06), maa://33504 (100.0), maa://39520 (100.0), maa://43531 (100.0)</t>
+          <t>maa://28187 (97.06), maa://33504 (100.0), maa://39520 (100.0), maa://43531 (100.0), maa://45144 (100.0)</t>
         </is>
       </c>
       <c r="E64" s="3" t="inlineStr">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="D69" s="12" t="inlineStr">
         <is>
-          <t>maa://28784 (93.98), maa://29088 (91.53), maa://20974 (95.65), maa://31124 (96.3), maa://28950 (91.3), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (80.0), **maa://42200 (50.0), maa://41832 (84.62)</t>
+          <t>maa://28784 (93.99), maa://29088 (91.58), maa://20974 (95.65), maa://31124 (96.32), maa://28950 (91.3), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (80.0), **maa://42200 (50.0), maa://41832 (84.62)</t>
         </is>
       </c>
       <c r="E69" s="3" t="inlineStr">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="D88" s="12" t="inlineStr">
         <is>
-          <t>maa://24472 (86.71), *maa://35841 (54.55)</t>
+          <t>maa://24472 (86.79), *maa://35841 (54.55)</t>
         </is>
       </c>
       <c r="E88" s="3" t="inlineStr">
@@ -3607,7 +3607,7 @@
       </c>
       <c r="D102" s="12" t="inlineStr">
         <is>
-          <t>*maa://39240 (57.14), maa://40517 (92.86)</t>
+          <t>maa://40517 (92.86), *maa://39240 (57.14)</t>
         </is>
       </c>
       <c r="E102" s="3" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="D108" s="12" t="inlineStr">
         <is>
-          <t>maa://25018 (96.01), maa://25776 (90.48), maa://28361 (96.77), maa://25772 (92.68), *maa://25161 (80.0), maa://32653 (85.71)</t>
+          <t>maa://25018 (96.03), maa://25776 (90.48), maa://28361 (96.77), maa://25772 (92.68), *maa://25161 (80.0), maa://32653 (85.71)</t>
         </is>
       </c>
       <c r="E108" s="3" t="inlineStr">
@@ -3796,7 +3796,7 @@
       </c>
       <c r="D109" s="19" t="inlineStr">
         <is>
-          <t>**maa://20979 (40.0)</t>
+          <t>**maa://20979 (33.33)</t>
         </is>
       </c>
       <c r="E109" s="20" t="inlineStr">
@@ -4687,7 +4687,7 @@
       </c>
       <c r="D142" s="12" t="inlineStr">
         <is>
-          <t>maa://28484 (97.56), **maa://23736 (41.54), *maa://31185 (80.0), maa://30306 (100.0)</t>
+          <t>maa://28484 (97.59), **maa://23736 (41.54), *maa://31185 (80.0), maa://30306 (100.0)</t>
         </is>
       </c>
       <c r="E142" s="3" t="inlineStr">
@@ -4714,7 +4714,7 @@
       </c>
       <c r="D143" s="12" t="inlineStr">
         <is>
-          <t>maa://30670 (96.19), maa://31470 (95.24), ***maa://30867 (25.0)</t>
+          <t>maa://30670 (96.3), maa://31470 (95.24), ***maa://30867 (25.0)</t>
         </is>
       </c>
       <c r="E143" s="3" t="inlineStr">
@@ -4876,7 +4876,7 @@
       </c>
       <c r="D149" s="12" t="inlineStr">
         <is>
-          <t>maa://36641 (98.31), maa://36865 (95.87), maa://42918 (100.0), maa://44119 (95.83), maa://37300 (100.0), maa://42917 (100.0)</t>
+          <t>maa://36641 (98.32), maa://36865 (95.87), maa://42918 (100.0), maa://44119 (95.83), maa://37300 (100.0), maa://42917 (100.0)</t>
         </is>
       </c>
       <c r="E149" s="3" t="inlineStr">
@@ -5119,7 +5119,7 @@
       </c>
       <c r="D158" s="12" t="inlineStr">
         <is>
-          <t>maa://44232 (99.0), maa://44305 (100.0)</t>
+          <t>maa://44232 (99.02), maa://44305 (100.0)</t>
         </is>
       </c>
       <c r="E158" s="3" t="inlineStr">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="D166" s="12" t="inlineStr">
         <is>
-          <t>maa://29633 (93.64), maa://29627 (92.86), maa://29659 (83.33), maa://29861 (100.0)</t>
+          <t>maa://29633 (93.67), maa://29627 (92.86), maa://29659 (83.33), maa://29861 (100.0)</t>
         </is>
       </c>
       <c r="E166" s="3" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="D172" s="12" t="inlineStr">
         <is>
-          <t>maa://32418 (99.55)</t>
+          <t>maa://32418 (99.56)</t>
         </is>
       </c>
       <c r="E172" s="3" t="inlineStr">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="D194" s="12" t="inlineStr">
         <is>
-          <t>*maa://35854 (76.92), maa://25760 (85.87), maa://44224 (88.24), **maa://20872 (50.0), ***maa://43443 (27.27), ***maa://43911 (20.0)</t>
+          <t>*maa://35854 (76.92), maa://25760 (85.87), maa://44224 (87.14), **maa://20872 (50.0), ***maa://43443 (27.27), ***maa://43911 (20.0)</t>
         </is>
       </c>
       <c r="E194" s="3" t="inlineStr">
@@ -6118,7 +6118,7 @@
       </c>
       <c r="D195" s="12" t="inlineStr">
         <is>
-          <t>***maa://38297 (30.0), maa://39156 (88.89), maa://39550 (100.0)</t>
+          <t>***maa://38297 (30.0), maa://39156 (89.47), maa://39550 (100.0)</t>
         </is>
       </c>
       <c r="E195" s="3" t="inlineStr">
@@ -6199,7 +6199,7 @@
       </c>
       <c r="D198" s="12" t="inlineStr">
         <is>
-          <t>maa://42223 (99.36), maa://42292 (95.24), maa://42402 (100.0)</t>
+          <t>maa://42223 (99.37), maa://42292 (95.24), maa://42402 (100.0)</t>
         </is>
       </c>
       <c r="E198" s="3" t="inlineStr">
@@ -6496,7 +6496,7 @@
       </c>
       <c r="D209" s="12" t="inlineStr">
         <is>
-          <t>maa://39238 (99.19)</t>
+          <t>maa://39238 (99.2)</t>
         </is>
       </c>
       <c r="E209" s="3" t="inlineStr">
@@ -7171,7 +7171,7 @@
       </c>
       <c r="D234" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (77.47), maa://30666 (84.0), *maa://26836 (76.87), maa://37607 (94.29), **maa://30739 (44.44), *maa://34428 (69.77), *maa://30723 (51.85), maa://39588 (86.84), *maa://37850 (66.67)</t>
+          <t>*maa://30667 (77.47), maa://30666 (84.0), *maa://26836 (76.87), maa://37607 (94.37), **maa://30739 (44.44), *maa://34428 (69.77), *maa://30723 (51.85), maa://39588 (86.84), *maa://37850 (66.67)</t>
         </is>
       </c>
       <c r="E234" s="3" t="inlineStr">
@@ -7387,7 +7387,7 @@
       </c>
       <c r="D242" s="12" t="inlineStr">
         <is>
-          <t>maa://28923 (91.98), maa://28906 (97.73), ***maa://28825 (12.0)</t>
+          <t>maa://28923 (92.02), maa://28906 (97.73), ***maa://28825 (12.0)</t>
         </is>
       </c>
       <c r="E242" s="3" t="inlineStr">
@@ -7414,7 +7414,7 @@
       </c>
       <c r="D243" s="12" t="inlineStr">
         <is>
-          <t>maa://42287 (92.5), maa://42225 (100.0)</t>
+          <t>maa://42287 (92.68), maa://42225 (100.0)</t>
         </is>
       </c>
       <c r="E243" s="3" t="inlineStr">
@@ -7819,7 +7819,7 @@
       </c>
       <c r="D258" s="12" t="inlineStr">
         <is>
-          <t>maa://22467 (93.94)</t>
+          <t>maa://22467 (94.12)</t>
         </is>
       </c>
       <c r="E258" s="3" t="inlineStr">
@@ -8251,7 +8251,7 @@
       </c>
       <c r="D274" s="12" t="inlineStr">
         <is>
-          <t>maa://38296 (84.21)</t>
+          <t>maa://38296 (85.0)</t>
         </is>
       </c>
       <c r="E274" s="3" t="inlineStr">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="D277" s="12" t="inlineStr">
         <is>
-          <t>maa://30710 (97.25), maa://36845 (94.95), maa://31558 (96.88), **maa://39217 (33.33), maa://30668 (84.62)</t>
+          <t>maa://30710 (97.3), maa://36845 (94.95), maa://31558 (96.88), **maa://39217 (33.33), maa://30668 (84.62)</t>
         </is>
       </c>
       <c r="E277" s="3" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="D281" s="12" t="inlineStr">
         <is>
-          <t>maa://32414 (98.56), maa://32505 (100.0), maa://39155 (95.24)</t>
+          <t>maa://32414 (98.56), maa://32505 (100.0), maa://39155 (95.45)</t>
         </is>
       </c>
       <c r="E281" s="3" t="inlineStr">
@@ -8494,7 +8494,7 @@
       </c>
       <c r="D283" s="12" t="inlineStr">
         <is>
-          <t>maa://36642 (100.0), maa://36867 (96.55), maa://39155 (95.24)</t>
+          <t>maa://36642 (100.0), maa://36867 (96.55), maa://39155 (95.45)</t>
         </is>
       </c>
       <c r="E283" s="3" t="inlineStr">
@@ -8926,7 +8926,7 @@
       </c>
       <c r="D299" s="12" t="inlineStr">
         <is>
-          <t>*maa://43090 (66.67)</t>
+          <t>**maa://43090 (50.0)</t>
         </is>
       </c>
       <c r="E299" s="3" t="inlineStr">
@@ -9142,7 +9142,7 @@
       </c>
       <c r="D307" s="12" t="inlineStr">
         <is>
-          <t>maa://34867 (97.06), maa://34715 (100.0)</t>
+          <t>maa://34867 (97.14), maa://34715 (100.0)</t>
         </is>
       </c>
       <c r="E307" s="3" t="inlineStr">
@@ -9466,7 +9466,7 @@
       </c>
       <c r="D319" s="12" t="inlineStr">
         <is>
-          <t>maa://30671 (81.7), maa://30669 (98.78), maa://37275 (82.86), *maa://32410 (66.67), maa://41605 (100.0), maa://33671 (100.0)</t>
+          <t>maa://30671 (81.94), maa://30669 (98.78), maa://37275 (82.86), *maa://32410 (66.67), maa://41605 (100.0), maa://33671 (100.0)</t>
         </is>
       </c>
       <c r="E319" s="3" t="inlineStr">
@@ -9493,7 +9493,7 @@
       </c>
       <c r="D320" s="12" t="inlineStr">
         <is>
-          <t>maa://38295 (96.67)</t>
+          <t>maa://38295 (96.72)</t>
         </is>
       </c>
       <c r="E320" s="3" t="inlineStr">
@@ -9898,7 +9898,7 @@
       </c>
       <c r="D335" s="14" t="inlineStr">
         <is>
-          <t>maa://36646 (98.42), maa://36845 (94.95), **maa://39217 (33.33)</t>
+          <t>maa://36646 (98.43), maa://36845 (94.95), **maa://39217 (33.33)</t>
         </is>
       </c>
       <c r="E335" s="14" t="inlineStr">
@@ -9925,7 +9925,7 @@
       </c>
       <c r="D336" s="14" t="inlineStr">
         <is>
-          <t>maa://36645 (97.89), maa://36841 (94.34), maa://37484 (93.48), maa://37858 (91.3)</t>
+          <t>maa://36645 (97.89), maa://36841 (94.44), maa://37484 (93.48), maa://37858 (91.3)</t>
         </is>
       </c>
       <c r="E336" s="14" t="inlineStr">
@@ -10033,7 +10033,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>maa://40957 (86.74), maa://41035 (89.58), maa://41128 (80.65), maa://44635 (81.48), maa://44660 (92.31)</t>
+          <t>maa://40957 (86.81), maa://41035 (89.58), maa://41128 (80.65), maa://44635 (81.48), maa://44660 (92.31)</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -10195,7 +10195,7 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>maa://41110 (98.63)</t>
+          <t>maa://41110 (98.65)</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
@@ -10276,7 +10276,7 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>maa://44233 (96.15)</t>
+          <t>maa://44233 (92.59)</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
@@ -10357,7 +10357,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>maa://43875 (96.88)</t>
+          <t>maa://43875 (97.06)</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
@@ -10384,7 +10384,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>maa://42970 (86.62), maa://44745 (88.89), maa://44896 (100.0)</t>
+          <t>maa://42970 (86.79), maa://44745 (88.89), maa://44896 (100.0)</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.01 13:19:57</t>
+          <t>更新日期：2025.01.03 13:17:45</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>maa://20863 (86.44), maa://20832 (98.46), maa://20727 (100.0)</t>
+          <t>maa://20863 (86.44), maa://20832 (98.48), maa://20727 (100.0)</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="D33" s="12" t="inlineStr">
         <is>
-          <t>maa://30500 (98.46), *maa://27290 (70.59), ***maa://42154 (12.5)</t>
+          <t>maa://30500 (98.48), *maa://27290 (70.59), ***maa://42154 (11.11)</t>
         </is>
       </c>
       <c r="E33" s="3" t="inlineStr">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="D37" s="12" t="inlineStr">
         <is>
-          <t>maa://27376 (90.32), *maa://20838 (52.94), maa://42635 (92.86)</t>
+          <t>maa://27376 (90.32), *maa://20838 (52.94), maa://42635 (93.33)</t>
         </is>
       </c>
       <c r="E37" s="3" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="D41" s="12" t="inlineStr">
         <is>
-          <t>*maa://20892 (77.14)</t>
+          <t>*maa://20892 (77.46)</t>
         </is>
       </c>
       <c r="E41" s="3" t="inlineStr">
@@ -1987,7 +1987,7 @@
       </c>
       <c r="D42" s="12" t="inlineStr">
         <is>
-          <t>*maa://22339 (66.67), maa://20918 (100.0), maa://34883 (88.89), maa://20824 (100.0)</t>
+          <t>*maa://22339 (66.67), maa://20918 (100.0), maa://34883 (90.0), maa://20824 (100.0)</t>
         </is>
       </c>
       <c r="E42" s="3" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="D56" s="12" t="inlineStr">
         <is>
-          <t>maa://44235 (95.71)</t>
+          <t>maa://44235 (95.77)</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="D58" s="12" t="inlineStr">
         <is>
-          <t>maa://28900 (95.71), maa://30126 (100.0)</t>
+          <t>maa://28900 (95.89), maa://30126 (100.0)</t>
         </is>
       </c>
       <c r="E58" s="3" t="inlineStr">
@@ -2689,7 +2689,7 @@
       </c>
       <c r="D68" s="12" t="inlineStr">
         <is>
-          <t>maa://20976 (97.89), maa://20815 (100.0)</t>
+          <t>maa://20976 (97.41), maa://20815 (100.0)</t>
         </is>
       </c>
       <c r="E68" s="3" t="inlineStr">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="D69" s="12" t="inlineStr">
         <is>
-          <t>maa://28784 (93.99), maa://29088 (91.58), maa://20974 (95.65), maa://31124 (96.32), maa://28950 (91.3), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (80.0), **maa://42200 (50.0), maa://41832 (84.62)</t>
+          <t>maa://28784 (94.01), maa://29088 (91.58), maa://20974 (95.71), maa://31124 (96.34), maa://28950 (91.3), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (80.0), **maa://42200 (50.0), maa://41832 (84.62)</t>
         </is>
       </c>
       <c r="E69" s="3" t="inlineStr">
@@ -2797,7 +2797,7 @@
       </c>
       <c r="D72" s="12" t="inlineStr">
         <is>
-          <t>maa://36643 (97.65), maa://36864 (97.5), maa://39140 (100.0)</t>
+          <t>maa://36643 (97.69), maa://36864 (97.53), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E72" s="3" t="inlineStr">
@@ -2932,7 +2932,7 @@
       </c>
       <c r="D77" s="12" t="inlineStr">
         <is>
-          <t>maa://20958 (93.1)</t>
+          <t>maa://20958 (93.33)</t>
         </is>
       </c>
       <c r="E77" s="3" t="inlineStr">
@@ -3634,7 +3634,7 @@
       </c>
       <c r="D103" s="12" t="inlineStr">
         <is>
-          <t>*maa://29094 (62.86), maa://28904 (84.0), **maa://20931 (42.31)</t>
+          <t>*maa://29094 (63.89), maa://28904 (84.0), **maa://20931 (42.31)</t>
         </is>
       </c>
       <c r="E103" s="3" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="D108" s="12" t="inlineStr">
         <is>
-          <t>maa://25018 (96.03), maa://25776 (90.48), maa://28361 (96.77), maa://25772 (92.68), *maa://25161 (80.0), maa://32653 (85.71)</t>
+          <t>maa://25018 (96.04), maa://25776 (90.48), maa://28361 (96.77), maa://25772 (92.68), *maa://25161 (80.0), maa://32653 (85.71)</t>
         </is>
       </c>
       <c r="E108" s="3" t="inlineStr">
@@ -3877,7 +3877,7 @@
       </c>
       <c r="D112" s="12" t="inlineStr">
         <is>
-          <t>*maa://20933 (79.25), maa://20822 (100.0)</t>
+          <t>*maa://20933 (79.63), maa://20822 (100.0)</t>
         </is>
       </c>
       <c r="E112" s="3" t="inlineStr">
@@ -4363,7 +4363,7 @@
       </c>
       <c r="D130" s="12" t="inlineStr">
         <is>
-          <t>maa://21422 (99.01)</t>
+          <t>maa://21422 (99.06)</t>
         </is>
       </c>
       <c r="E130" s="3" t="inlineStr">
@@ -4417,7 +4417,7 @@
       </c>
       <c r="D132" s="12" t="inlineStr">
         <is>
-          <t>maa://23019 (100.0), maa://20837 (100.0), maa://40517 (92.86), maa://37113 (100.0), *maa://37666 (80.0), maa://41686 (100.0)</t>
+          <t>maa://23019 (100.0), maa://20837 (100.0), maa://40517 (92.86), maa://37113 (100.0), maa://37666 (83.33), maa://41686 (100.0)</t>
         </is>
       </c>
       <c r="E132" s="3" t="inlineStr">
@@ -4444,7 +4444,7 @@
       </c>
       <c r="D133" s="12" t="inlineStr">
         <is>
-          <t>maa://23020 (95.89), maa://29023 (100.0), maa://41690 (100.0), *maa://39515 (75.0), maa://34319 (100.0)</t>
+          <t>maa://23020 (95.89), maa://29023 (100.0), maa://41690 (100.0), *maa://39515 (80.0), maa://34319 (100.0)</t>
         </is>
       </c>
       <c r="E133" s="3" t="inlineStr">
@@ -4589,27 +4589,27 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="16" t="inlineStr">
+      <c r="A139" s="17" t="inlineStr">
         <is>
           <t>卡达</t>
         </is>
       </c>
-      <c r="B139" s="16" t="inlineStr">
+      <c r="B139" s="17" t="inlineStr">
         <is>
           <t>11-7</t>
         </is>
       </c>
-      <c r="C139" s="13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D139" s="12" t="inlineStr">
-        <is>
-          <t>**maa://30679 (50.0)</t>
-        </is>
-      </c>
-      <c r="E139" s="3" t="inlineStr">
+      <c r="C139" s="18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D139" s="19" t="inlineStr">
+        <is>
+          <t>**maa://30679 (47.83)</t>
+        </is>
+      </c>
+      <c r="E139" s="20" t="inlineStr">
         <is>
           <t>&gt; 战斗中非助战卡达累计使用同步索敌攻击10次&gt; 3星通关主题曲11-7标准实战环境；必须编入非助战卡达并上场，且使用卡达歼灭至少1名食腐使徒</t>
         </is>
@@ -4687,7 +4687,7 @@
       </c>
       <c r="D142" s="12" t="inlineStr">
         <is>
-          <t>maa://28484 (97.59), **maa://23736 (41.54), *maa://31185 (80.0), maa://30306 (100.0)</t>
+          <t>maa://28484 (97.7), **maa://23736 (41.54), *maa://31185 (80.0), maa://30306 (100.0)</t>
         </is>
       </c>
       <c r="E142" s="3" t="inlineStr">
@@ -4714,7 +4714,7 @@
       </c>
       <c r="D143" s="12" t="inlineStr">
         <is>
-          <t>maa://30670 (96.3), maa://31470 (95.24), ***maa://30867 (25.0)</t>
+          <t>maa://30670 (96.4), maa://31470 (95.45), ***maa://30867 (25.0)</t>
         </is>
       </c>
       <c r="E143" s="3" t="inlineStr">
@@ -5119,7 +5119,7 @@
       </c>
       <c r="D158" s="12" t="inlineStr">
         <is>
-          <t>maa://44232 (99.02), maa://44305 (100.0)</t>
+          <t>maa://44232 (99.05), maa://44305 (100.0)</t>
         </is>
       </c>
       <c r="E158" s="3" t="inlineStr">
@@ -5227,7 +5227,7 @@
       </c>
       <c r="D162" s="12" t="inlineStr">
         <is>
-          <t>maa://29054 (100.0), *maa://32845 (75.0)</t>
+          <t>*maa://32845 (75.0), maa://29054 (100.0)</t>
         </is>
       </c>
       <c r="E162" s="3" t="inlineStr">
@@ -5605,7 +5605,7 @@
       </c>
       <c r="D176" s="12" t="inlineStr">
         <is>
-          <t>maa://20911 (92.86), *maa://29012 (66.67)</t>
+          <t>maa://20911 (93.33), *maa://29012 (66.67)</t>
         </is>
       </c>
       <c r="E176" s="3" t="inlineStr">
@@ -5902,7 +5902,7 @@
       </c>
       <c r="D187" s="12" t="inlineStr">
         <is>
-          <t>maa://34866 (88.89), maa://34714 (96.0)</t>
+          <t>maa://34866 (89.66), maa://34714 (96.0)</t>
         </is>
       </c>
       <c r="E187" s="3" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="D188" s="12" t="inlineStr">
         <is>
-          <t>maa://34883 (88.89), maa://20895 (100.0)</t>
+          <t>maa://34883 (90.0), maa://20895 (100.0)</t>
         </is>
       </c>
       <c r="E188" s="3" t="inlineStr">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="D194" s="12" t="inlineStr">
         <is>
-          <t>*maa://35854 (76.92), maa://25760 (85.87), maa://44224 (87.14), **maa://20872 (50.0), ***maa://43443 (27.27), ***maa://43911 (20.0)</t>
+          <t>*maa://35854 (76.92), maa://25760 (85.87), maa://44224 (87.67), **maa://20872 (50.0), ***maa://43443 (27.27), ***maa://43911 (20.0)</t>
         </is>
       </c>
       <c r="E194" s="3" t="inlineStr">
@@ -6118,7 +6118,7 @@
       </c>
       <c r="D195" s="12" t="inlineStr">
         <is>
-          <t>***maa://38297 (30.0), maa://39156 (89.47), maa://39550 (100.0)</t>
+          <t>***maa://38297 (30.0), maa://39156 (90.0), maa://39550 (100.0)</t>
         </is>
       </c>
       <c r="E195" s="3" t="inlineStr">
@@ -6199,7 +6199,7 @@
       </c>
       <c r="D198" s="12" t="inlineStr">
         <is>
-          <t>maa://42223 (99.37), maa://42292 (95.24), maa://42402 (100.0)</t>
+          <t>maa://42223 (99.38), maa://42292 (95.45), maa://42402 (100.0)</t>
         </is>
       </c>
       <c r="E198" s="3" t="inlineStr">
@@ -6496,7 +6496,7 @@
       </c>
       <c r="D209" s="12" t="inlineStr">
         <is>
-          <t>maa://39238 (99.2)</t>
+          <t>maa://39238 (99.21)</t>
         </is>
       </c>
       <c r="E209" s="3" t="inlineStr">
@@ -6874,7 +6874,7 @@
       </c>
       <c r="D223" s="12" t="inlineStr">
         <is>
-          <t>maa://39159 (94.44)</t>
+          <t>maa://39159 (94.74)</t>
         </is>
       </c>
       <c r="E223" s="3" t="inlineStr">
@@ -7171,7 +7171,7 @@
       </c>
       <c r="D234" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (77.47), maa://30666 (84.0), *maa://26836 (76.87), maa://37607 (94.37), **maa://30739 (44.44), *maa://34428 (69.77), *maa://30723 (51.85), maa://39588 (86.84), *maa://37850 (66.67)</t>
+          <t>*maa://30667 (77.39), maa://30666 (84.08), *maa://26836 (77.18), maa://37607 (94.14), **maa://30739 (44.44), *maa://34428 (69.77), *maa://30723 (51.85), maa://39588 (86.84), *maa://37850 (66.67)</t>
         </is>
       </c>
       <c r="E234" s="3" t="inlineStr">
@@ -7387,7 +7387,7 @@
       </c>
       <c r="D242" s="12" t="inlineStr">
         <is>
-          <t>maa://28923 (92.02), maa://28906 (97.73), ***maa://28825 (12.0)</t>
+          <t>maa://28923 (91.52), maa://28906 (97.73), ***maa://28825 (12.0)</t>
         </is>
       </c>
       <c r="E242" s="3" t="inlineStr">
@@ -7468,7 +7468,7 @@
       </c>
       <c r="D245" s="12" t="inlineStr">
         <is>
-          <t>maa://20923 (89.47)</t>
+          <t>maa://20923 (90.0)</t>
         </is>
       </c>
       <c r="E245" s="3" t="inlineStr">
@@ -7684,7 +7684,7 @@
       </c>
       <c r="D253" s="12" t="inlineStr">
         <is>
-          <t>maa://31560 (85.71), maa://20884 (94.12)</t>
+          <t>maa://31560 (85.71), maa://20884 (94.44)</t>
         </is>
       </c>
       <c r="E253" s="3" t="inlineStr">
@@ -7819,7 +7819,7 @@
       </c>
       <c r="D258" s="12" t="inlineStr">
         <is>
-          <t>maa://22467 (94.12)</t>
+          <t>maa://22467 (94.29)</t>
         </is>
       </c>
       <c r="E258" s="3" t="inlineStr">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="D277" s="12" t="inlineStr">
         <is>
-          <t>maa://30710 (97.3), maa://36845 (94.95), maa://31558 (96.88), **maa://39217 (33.33), maa://30668 (84.62)</t>
+          <t>maa://30710 (97.32), maa://36845 (95.0), maa://31558 (96.88), **maa://39217 (33.33), maa://30668 (84.62)</t>
         </is>
       </c>
       <c r="E277" s="3" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="D281" s="12" t="inlineStr">
         <is>
-          <t>maa://32414 (98.56), maa://32505 (100.0), maa://39155 (95.45)</t>
+          <t>maa://32414 (98.57), maa://32505 (100.0), maa://39155 (95.45)</t>
         </is>
       </c>
       <c r="E281" s="3" t="inlineStr">
@@ -9358,7 +9358,7 @@
       </c>
       <c r="D315" s="12" t="inlineStr">
         <is>
-          <t>maa://44234 (97.78)</t>
+          <t>maa://44234 (97.92)</t>
         </is>
       </c>
       <c r="E315" s="3" t="inlineStr">
@@ -9466,7 +9466,7 @@
       </c>
       <c r="D319" s="12" t="inlineStr">
         <is>
-          <t>maa://30671 (81.94), maa://30669 (98.78), maa://37275 (82.86), *maa://32410 (66.67), maa://41605 (100.0), maa://33671 (100.0)</t>
+          <t>maa://30671 (82.28), maa://30669 (98.81), maa://37275 (83.33), *maa://32410 (66.67), maa://41605 (100.0), maa://33671 (100.0)</t>
         </is>
       </c>
       <c r="E319" s="3" t="inlineStr">
@@ -9493,7 +9493,7 @@
       </c>
       <c r="D320" s="12" t="inlineStr">
         <is>
-          <t>maa://38295 (96.72)</t>
+          <t>maa://38295 (96.83)</t>
         </is>
       </c>
       <c r="E320" s="3" t="inlineStr">
@@ -9574,7 +9574,7 @@
       </c>
       <c r="D323" s="12" t="inlineStr">
         <is>
-          <t>maa://32416 (86.49)</t>
+          <t>maa://32416 (86.84)</t>
         </is>
       </c>
       <c r="E323" s="3" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="D329" s="12" t="inlineStr">
         <is>
-          <t>maa://34865 (97.09), maa://34717 (93.44)</t>
+          <t>maa://34865 (97.11), maa://34717 (93.44)</t>
         </is>
       </c>
       <c r="E329" s="3" t="inlineStr">
@@ -9898,7 +9898,7 @@
       </c>
       <c r="D335" s="14" t="inlineStr">
         <is>
-          <t>maa://36646 (98.43), maa://36845 (94.95), **maa://39217 (33.33)</t>
+          <t>maa://36646 (98.43), maa://36845 (95.0), **maa://39217 (33.33)</t>
         </is>
       </c>
       <c r="E335" s="14" t="inlineStr">
@@ -10033,7 +10033,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>maa://40957 (86.81), maa://41035 (89.58), maa://41128 (80.65), maa://44635 (81.48), maa://44660 (92.31)</t>
+          <t>maa://40957 (86.96), maa://41035 (89.58), maa://41128 (80.65), maa://44635 (81.48), maa://44660 (92.86)</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -10195,7 +10195,7 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>maa://41110 (98.65)</t>
+          <t>maa://41110 (98.72)</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
@@ -10276,7 +10276,7 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>maa://44233 (92.59)</t>
+          <t>maa://44233 (92.86)</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
@@ -10384,7 +10384,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>maa://42970 (86.79), maa://44745 (88.89), maa://44896 (100.0)</t>
+          <t>maa://42970 (87.27), maa://44745 (88.89), maa://44896 (100.0)</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.03 13:17:45</t>
+          <t>更新日期：2025.01.04 13:16:59</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="D23" s="12" t="inlineStr">
         <is>
-          <t>maa://20876 (93.33)</t>
+          <t>maa://20876 (93.75)</t>
         </is>
       </c>
       <c r="E23" s="3" t="inlineStr">
@@ -1400,27 +1400,27 @@
       <c r="AB23" s="11" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="17" t="inlineStr">
+      <c r="A24" s="16" t="inlineStr">
         <is>
           <t>深海色</t>
         </is>
       </c>
-      <c r="B24" s="17" t="inlineStr">
+      <c r="B24" s="16" t="inlineStr">
         <is>
           <t>2-4</t>
         </is>
       </c>
-      <c r="C24" s="18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D24" s="19" t="inlineStr">
-        <is>
-          <t>**maa://20951 (37.5)</t>
-        </is>
-      </c>
-      <c r="E24" s="20" t="inlineStr">
+      <c r="C24" s="13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D24" s="12" t="inlineStr">
+        <is>
+          <t>maa://45260 (100.0)</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
         <is>
           <t>&gt; 战斗中累计召唤非助战深海色的召唤物20回&gt; 使用至多1人的队伍3星通关主题曲2-4；队伍中仅可编入非助战深海色</t>
         </is>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>maa://20863 (86.44), maa://20832 (98.48), maa://20727 (100.0)</t>
+          <t>maa://20863 (86.44), maa://20832 (98.51), maa://20727 (100.0)</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
@@ -3310,7 +3310,7 @@
       </c>
       <c r="D91" s="12" t="inlineStr">
         <is>
-          <t>maa://24609 (88.89)</t>
+          <t>maa://24609 (89.47)</t>
         </is>
       </c>
       <c r="E91" s="3" t="inlineStr">
@@ -3779,27 +3779,27 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="17" t="inlineStr">
+      <c r="A109" s="16" t="inlineStr">
         <is>
           <t>雪雉</t>
         </is>
       </c>
-      <c r="B109" s="17" t="inlineStr">
+      <c r="B109" s="16" t="inlineStr">
         <is>
           <t>4-6</t>
         </is>
       </c>
-      <c r="C109" s="18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D109" s="19" t="inlineStr">
-        <is>
-          <t>**maa://20979 (33.33)</t>
-        </is>
-      </c>
-      <c r="E109" s="20" t="inlineStr">
+      <c r="C109" s="13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D109" s="12" t="inlineStr">
+        <is>
+          <t>maa://45259 (100.0)</t>
+        </is>
+      </c>
+      <c r="E109" s="3" t="inlineStr">
         <is>
           <t>&gt; 完成5次战斗；必须编入非助战雪雉，且每次战斗至少使2名敌人坠落地穴&gt; 3星通关主题曲4-6；必须编入非助战雪雉并上场，且至少使用2次伸缩式电捕网</t>
         </is>
@@ -3904,7 +3904,7 @@
       </c>
       <c r="D113" s="12" t="inlineStr">
         <is>
-          <t>maa://29037 (97.67)</t>
+          <t>maa://29037 (97.73)</t>
         </is>
       </c>
       <c r="E113" s="3" t="inlineStr">
@@ -4589,27 +4589,27 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="17" t="inlineStr">
+      <c r="A139" s="16" t="inlineStr">
         <is>
           <t>卡达</t>
         </is>
       </c>
-      <c r="B139" s="17" t="inlineStr">
+      <c r="B139" s="16" t="inlineStr">
         <is>
           <t>11-7</t>
         </is>
       </c>
-      <c r="C139" s="18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D139" s="19" t="inlineStr">
-        <is>
-          <t>**maa://30679 (47.83)</t>
-        </is>
-      </c>
-      <c r="E139" s="20" t="inlineStr">
+      <c r="C139" s="13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D139" s="12" t="inlineStr">
+        <is>
+          <t>**maa://30679 (47.83), maa://45258 (100.0)</t>
+        </is>
+      </c>
+      <c r="E139" s="3" t="inlineStr">
         <is>
           <t>&gt; 战斗中非助战卡达累计使用同步索敌攻击10次&gt; 3星通关主题曲11-7标准实战环境；必须编入非助战卡达并上场，且使用卡达歼灭至少1名食腐使徒</t>
         </is>
@@ -4876,7 +4876,7 @@
       </c>
       <c r="D149" s="12" t="inlineStr">
         <is>
-          <t>maa://36641 (98.32), maa://36865 (95.87), maa://42918 (100.0), maa://44119 (95.83), maa://37300 (100.0), maa://42917 (100.0)</t>
+          <t>maa://36641 (98.32), maa://36865 (95.97), maa://42918 (100.0), maa://44119 (95.83), maa://37300 (100.0), maa://42917 (100.0)</t>
         </is>
       </c>
       <c r="E149" s="3" t="inlineStr">
@@ -5119,7 +5119,7 @@
       </c>
       <c r="D158" s="12" t="inlineStr">
         <is>
-          <t>maa://44232 (99.05), maa://44305 (100.0)</t>
+          <t>maa://44232 (99.07), maa://44305 (100.0)</t>
         </is>
       </c>
       <c r="E158" s="3" t="inlineStr">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="D166" s="12" t="inlineStr">
         <is>
-          <t>maa://29633 (93.67), maa://29627 (92.86), maa://29659 (83.33), maa://29861 (100.0)</t>
+          <t>maa://29633 (93.72), maa://29627 (92.9), maa://29659 (83.33), maa://29861 (100.0)</t>
         </is>
       </c>
       <c r="E166" s="3" t="inlineStr">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="D194" s="12" t="inlineStr">
         <is>
-          <t>*maa://35854 (76.92), maa://25760 (85.87), maa://44224 (87.67), **maa://20872 (50.0), ***maa://43443 (27.27), ***maa://43911 (20.0)</t>
+          <t>*maa://35854 (76.92), maa://25760 (85.87), maa://44224 (87.84), **maa://20872 (50.0), ***maa://43443 (27.27), ***maa://43911 (20.0)</t>
         </is>
       </c>
       <c r="E194" s="3" t="inlineStr">
@@ -6113,12 +6113,12 @@
       </c>
       <c r="C195" s="13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D195" s="12" t="inlineStr">
         <is>
-          <t>***maa://38297 (30.0), maa://39156 (90.0), maa://39550 (100.0)</t>
+          <t>maa://39156 (90.0), maa://39550 (100.0)</t>
         </is>
       </c>
       <c r="E195" s="3" t="inlineStr">
@@ -6415,7 +6415,7 @@
       </c>
       <c r="D206" s="12" t="inlineStr">
         <is>
-          <t>maa://28133 (90.48), *maa://28277 (80.0), **maa://39217 (33.33), maa://25369 (93.33), *maa://33132 (66.67)</t>
+          <t>maa://28133 (90.48), *maa://28277 (80.0), **maa://39217 (37.5), maa://25369 (93.33), *maa://33132 (66.67)</t>
         </is>
       </c>
       <c r="E206" s="3" t="inlineStr">
@@ -6506,27 +6506,27 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="17" t="inlineStr">
+      <c r="A210" s="16" t="inlineStr">
         <is>
           <t>罗比菈塔</t>
         </is>
       </c>
-      <c r="B210" s="17" t="inlineStr">
+      <c r="B210" s="16" t="inlineStr">
         <is>
           <t>3-8</t>
         </is>
       </c>
-      <c r="C210" s="18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D210" s="19" t="inlineStr">
-        <is>
-          <t>**maa://24556 (33.33)</t>
-        </is>
-      </c>
-      <c r="E210" s="20" t="inlineStr">
+      <c r="C210" s="13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D210" s="12" t="inlineStr">
+        <is>
+          <t>maa://45261 (100.0)</t>
+        </is>
+      </c>
+      <c r="E210" s="3" t="inlineStr">
         <is>
           <t>&gt; 战斗中非助战罗比菈塔累计部署支援装置25个&gt; 3星通关主题曲3-8；必须编入非助战罗比菈塔并上场，且所有干员不被击倒</t>
         </is>
@@ -6847,7 +6847,7 @@
       </c>
       <c r="D222" s="12" t="inlineStr">
         <is>
-          <t>maa://20987 (92.0), *maa://35801 (75.0)</t>
+          <t>maa://20987 (92.0), *maa://35801 (77.78)</t>
         </is>
       </c>
       <c r="E222" s="3" t="inlineStr">
@@ -6955,7 +6955,7 @@
       </c>
       <c r="D226" s="12" t="inlineStr">
         <is>
-          <t>maa://29058 (94.44), maa://39140 (100.0), maa://38723 (100.0)</t>
+          <t>maa://29058 (94.55), maa://39140 (100.0), maa://38723 (100.0)</t>
         </is>
       </c>
       <c r="E226" s="3" t="inlineStr">
@@ -7171,7 +7171,7 @@
       </c>
       <c r="D234" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (77.39), maa://30666 (84.08), *maa://26836 (77.18), maa://37607 (94.14), **maa://30739 (44.44), *maa://34428 (69.77), *maa://30723 (51.85), maa://39588 (86.84), *maa://37850 (66.67)</t>
+          <t>*maa://30667 (77.44), maa://30666 (84.08), *maa://26836 (77.33), maa://37607 (93.97), **maa://30739 (44.44), *maa://34428 (69.77), *maa://30723 (52.73), maa://39588 (86.84), *maa://37850 (66.67)</t>
         </is>
       </c>
       <c r="E234" s="3" t="inlineStr">
@@ -7900,7 +7900,7 @@
       </c>
       <c r="D261" s="12" t="inlineStr">
         <is>
-          <t>maa://25769 (96.61)</t>
+          <t>maa://25769 (96.64)</t>
         </is>
       </c>
       <c r="E261" s="3" t="inlineStr">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="D277" s="12" t="inlineStr">
         <is>
-          <t>maa://30710 (97.32), maa://36845 (95.0), maa://31558 (96.88), **maa://39217 (33.33), maa://30668 (84.62)</t>
+          <t>maa://30710 (97.39), maa://36845 (95.05), maa://31558 (96.88), **maa://39217 (37.5), maa://30668 (84.62)</t>
         </is>
       </c>
       <c r="E277" s="3" t="inlineStr">
@@ -8413,7 +8413,7 @@
       </c>
       <c r="D280" s="12" t="inlineStr">
         <is>
-          <t>maa://25774 (100.0), maa://28133 (90.48), maa://22469 (91.3), **maa://39217 (33.33), **maa://31349 (50.0)</t>
+          <t>maa://25774 (100.0), maa://28133 (90.48), maa://22469 (91.3), **maa://39217 (37.5), **maa://31349 (50.0)</t>
         </is>
       </c>
       <c r="E280" s="3" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="D281" s="12" t="inlineStr">
         <is>
-          <t>maa://32414 (98.57), maa://32505 (100.0), maa://39155 (95.45)</t>
+          <t>maa://32414 (98.57), maa://32505 (100.0), maa://39155 (95.65)</t>
         </is>
       </c>
       <c r="E281" s="3" t="inlineStr">
@@ -8494,7 +8494,7 @@
       </c>
       <c r="D283" s="12" t="inlineStr">
         <is>
-          <t>maa://36642 (100.0), maa://36867 (96.55), maa://39155 (95.45)</t>
+          <t>maa://36642 (100.0), maa://36867 (96.55), maa://39155 (95.65)</t>
         </is>
       </c>
       <c r="E283" s="3" t="inlineStr">
@@ -8764,7 +8764,7 @@
       </c>
       <c r="D293" s="12" t="inlineStr">
         <is>
-          <t>maa://35859 (96.88)</t>
+          <t>maa://35859 (96.92)</t>
         </is>
       </c>
       <c r="E293" s="3" t="inlineStr">
@@ -9142,7 +9142,7 @@
       </c>
       <c r="D307" s="12" t="inlineStr">
         <is>
-          <t>maa://34867 (97.14), maa://34715 (100.0)</t>
+          <t>maa://34867 (97.22), maa://34715 (100.0)</t>
         </is>
       </c>
       <c r="E307" s="3" t="inlineStr">
@@ -9358,7 +9358,7 @@
       </c>
       <c r="D315" s="12" t="inlineStr">
         <is>
-          <t>maa://44234 (97.92)</t>
+          <t>maa://44234 (98.0)</t>
         </is>
       </c>
       <c r="E315" s="3" t="inlineStr">
@@ -9466,7 +9466,7 @@
       </c>
       <c r="D319" s="12" t="inlineStr">
         <is>
-          <t>maa://30671 (82.28), maa://30669 (98.81), maa://37275 (83.33), *maa://32410 (66.67), maa://41605 (100.0), maa://33671 (100.0)</t>
+          <t>maa://30671 (81.76), maa://30669 (98.81), maa://37275 (83.33), *maa://32410 (66.67), maa://41605 (100.0), maa://33671 (100.0)</t>
         </is>
       </c>
       <c r="E319" s="3" t="inlineStr">
@@ -9601,7 +9601,7 @@
       </c>
       <c r="D324" s="12" t="inlineStr">
         <is>
-          <t>maa://32647 (97.2), maa://32415 (96.06), maa://34677 (100.0), maa://32892 (100.0)</t>
+          <t>maa://32647 (97.21), maa://32415 (96.06), maa://34677 (100.0), maa://32892 (100.0)</t>
         </is>
       </c>
       <c r="E324" s="3" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="D329" s="12" t="inlineStr">
         <is>
-          <t>maa://34865 (97.11), maa://34717 (93.44)</t>
+          <t>maa://34865 (97.13), maa://34717 (93.44)</t>
         </is>
       </c>
       <c r="E329" s="3" t="inlineStr">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="D332" s="14" t="inlineStr">
         <is>
-          <t>maa://36868 (100.0), maa://35996 (95.83), **maa://39217 (33.33), maa://44463 (100.0)</t>
+          <t>maa://36868 (100.0), maa://35996 (95.83), **maa://39217 (37.5), maa://44463 (100.0)</t>
         </is>
       </c>
       <c r="E332" s="14" t="inlineStr">
@@ -9871,7 +9871,7 @@
       </c>
       <c r="D334" s="14" t="inlineStr">
         <is>
-          <t>maa://42299 (95.45), **maa://42224 (50.0)</t>
+          <t>maa://42299 (95.65), **maa://42224 (50.0)</t>
         </is>
       </c>
       <c r="E334" s="14" t="inlineStr">
@@ -9898,7 +9898,7 @@
       </c>
       <c r="D335" s="14" t="inlineStr">
         <is>
-          <t>maa://36646 (98.43), maa://36845 (95.0), **maa://39217 (33.33)</t>
+          <t>maa://36646 (98.44), maa://36845 (95.05), **maa://39217 (37.5)</t>
         </is>
       </c>
       <c r="E335" s="14" t="inlineStr">
@@ -10357,7 +10357,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>maa://43875 (97.06)</t>
+          <t>maa://43875 (97.14)</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
@@ -10384,7 +10384,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>maa://42970 (87.27), maa://44745 (88.89), maa://44896 (100.0)</t>
+          <t>maa://42970 (87.43), maa://44745 (88.89), maa://44896 (100.0)</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.04 13:16:59</t>
+          <t>更新日期：2025.01.05 13:20:09</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>maa://20863 (86.44), maa://20832 (98.51), maa://20727 (100.0)</t>
+          <t>maa://20863 (86.44), maa://20832 (98.53), maa://20727 (100.0)</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="D69" s="12" t="inlineStr">
         <is>
-          <t>maa://28784 (94.01), maa://29088 (91.58), maa://20974 (95.71), maa://31124 (96.34), maa://28950 (91.3), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (80.0), **maa://42200 (50.0), maa://41832 (84.62)</t>
+          <t>maa://28784 (94.02), maa://29088 (91.58), maa://20974 (95.71), maa://31124 (96.34), maa://28950 (91.3), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (80.0), **maa://42200 (50.0), maa://41832 (85.71)</t>
         </is>
       </c>
       <c r="E69" s="3" t="inlineStr">
@@ -2797,7 +2797,7 @@
       </c>
       <c r="D72" s="12" t="inlineStr">
         <is>
-          <t>maa://36643 (97.69), maa://36864 (97.53), maa://39140 (100.0)</t>
+          <t>maa://36643 (97.7), maa://36864 (97.53), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E72" s="3" t="inlineStr">
@@ -3904,7 +3904,7 @@
       </c>
       <c r="D113" s="12" t="inlineStr">
         <is>
-          <t>maa://29037 (97.73)</t>
+          <t>maa://29037 (97.78)</t>
         </is>
       </c>
       <c r="E113" s="3" t="inlineStr">
@@ -4363,7 +4363,7 @@
       </c>
       <c r="D130" s="12" t="inlineStr">
         <is>
-          <t>maa://21422 (99.06)</t>
+          <t>maa://21422 (99.07)</t>
         </is>
       </c>
       <c r="E130" s="3" t="inlineStr">
@@ -4714,7 +4714,7 @@
       </c>
       <c r="D143" s="12" t="inlineStr">
         <is>
-          <t>maa://30670 (96.4), maa://31470 (95.45), ***maa://30867 (25.0)</t>
+          <t>maa://30670 (96.43), maa://31470 (95.45), ***maa://30867 (25.0)</t>
         </is>
       </c>
       <c r="E143" s="3" t="inlineStr">
@@ -5011,7 +5011,7 @@
       </c>
       <c r="D154" s="12" t="inlineStr">
         <is>
-          <t>maa://20945 (89.47)</t>
+          <t>maa://20945 (90.0)</t>
         </is>
       </c>
       <c r="E154" s="3" t="inlineStr">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="D166" s="12" t="inlineStr">
         <is>
-          <t>maa://29633 (93.72), maa://29627 (92.9), maa://29659 (83.33), maa://29861 (100.0)</t>
+          <t>maa://29633 (93.8), maa://29627 (92.9), maa://29659 (83.33), maa://29861 (100.0)</t>
         </is>
       </c>
       <c r="E166" s="3" t="inlineStr">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="D194" s="12" t="inlineStr">
         <is>
-          <t>*maa://35854 (76.92), maa://25760 (85.87), maa://44224 (87.84), **maa://20872 (50.0), ***maa://43443 (27.27), ***maa://43911 (20.0)</t>
+          <t>*maa://35854 (77.5), maa://25760 (85.87), maa://44224 (87.84), **maa://20872 (50.0), ***maa://43443 (27.27), ***maa://43911 (20.0)</t>
         </is>
       </c>
       <c r="E194" s="3" t="inlineStr">
@@ -6145,7 +6145,7 @@
       </c>
       <c r="D196" s="12" t="inlineStr">
         <is>
-          <t>maa://27823 (81.03), *maa://28190 (58.06), maa://22894 (90.62), *maa://20906 (72.22), **maa://20907 (35.48)</t>
+          <t>maa://27823 (81.36), *maa://28190 (58.06), maa://22894 (90.62), *maa://20906 (72.22), **maa://20907 (35.48)</t>
         </is>
       </c>
       <c r="E196" s="3" t="inlineStr">
@@ -6172,7 +6172,7 @@
       </c>
       <c r="D197" s="12" t="inlineStr">
         <is>
-          <t>maa://27823 (81.03), *maa://28190 (58.06), maa://22894 (90.62), *maa://20906 (72.22), **maa://20907 (35.48)</t>
+          <t>maa://27823 (81.36), *maa://28190 (58.06), maa://22894 (90.62), *maa://20906 (72.22), **maa://20907 (35.48)</t>
         </is>
       </c>
       <c r="E197" s="3" t="inlineStr">
@@ -7009,7 +7009,7 @@
       </c>
       <c r="D228" s="12" t="inlineStr">
         <is>
-          <t>maa://20878 (85.71)</t>
+          <t>maa://20878 (86.36)</t>
         </is>
       </c>
       <c r="E228" s="3" t="inlineStr">
@@ -7171,7 +7171,7 @@
       </c>
       <c r="D234" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (77.44), maa://30666 (84.08), *maa://26836 (77.33), maa://37607 (93.97), **maa://30739 (44.44), *maa://34428 (69.77), *maa://30723 (52.73), maa://39588 (86.84), *maa://37850 (66.67)</t>
+          <t>*maa://30667 (77.5), maa://30666 (84.08), *maa://26836 (77.48), maa://37607 (94.02), **maa://30739 (44.44), *maa://34428 (69.77), *maa://30723 (52.73), maa://39588 (86.84), *maa://37850 (66.67)</t>
         </is>
       </c>
       <c r="E234" s="3" t="inlineStr">
@@ -7414,7 +7414,7 @@
       </c>
       <c r="D243" s="12" t="inlineStr">
         <is>
-          <t>maa://42287 (92.68), maa://42225 (100.0)</t>
+          <t>maa://42287 (90.48), maa://42225 (100.0)</t>
         </is>
       </c>
       <c r="E243" s="3" t="inlineStr">
@@ -8278,7 +8278,7 @@
       </c>
       <c r="D275" s="12" t="inlineStr">
         <is>
-          <t>maa://20899 (89.68), maa://44744 (100.0)</t>
+          <t>maa://20899 (89.68), **maa://44744 (50.0)</t>
         </is>
       </c>
       <c r="E275" s="3" t="inlineStr">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="D277" s="12" t="inlineStr">
         <is>
-          <t>maa://30710 (97.39), maa://36845 (95.05), maa://31558 (96.88), **maa://39217 (37.5), maa://30668 (84.62)</t>
+          <t>maa://30710 (97.39), maa://36845 (95.1), maa://31558 (96.88), **maa://39217 (37.5), maa://30668 (84.62)</t>
         </is>
       </c>
       <c r="E277" s="3" t="inlineStr">
@@ -8899,7 +8899,7 @@
       </c>
       <c r="D298" s="12" t="inlineStr">
         <is>
-          <t>maa://25367 (99.07)</t>
+          <t>maa://25367 (99.08)</t>
         </is>
       </c>
       <c r="E298" s="3" t="inlineStr">
@@ -9358,7 +9358,7 @@
       </c>
       <c r="D315" s="12" t="inlineStr">
         <is>
-          <t>maa://44234 (98.0)</t>
+          <t>maa://44234 (98.04)</t>
         </is>
       </c>
       <c r="E315" s="3" t="inlineStr">
@@ -9466,7 +9466,7 @@
       </c>
       <c r="D319" s="12" t="inlineStr">
         <is>
-          <t>maa://30671 (81.76), maa://30669 (98.81), maa://37275 (83.33), *maa://32410 (66.67), maa://41605 (100.0), maa://33671 (100.0)</t>
+          <t>maa://30671 (81.88), maa://30669 (98.84), maa://37275 (83.33), *maa://32410 (66.67), maa://41605 (100.0), maa://33671 (100.0)</t>
         </is>
       </c>
       <c r="E319" s="3" t="inlineStr">
@@ -9493,7 +9493,7 @@
       </c>
       <c r="D320" s="12" t="inlineStr">
         <is>
-          <t>maa://38295 (96.83)</t>
+          <t>maa://38295 (96.88)</t>
         </is>
       </c>
       <c r="E320" s="3" t="inlineStr">
@@ -9601,7 +9601,7 @@
       </c>
       <c r="D324" s="12" t="inlineStr">
         <is>
-          <t>maa://32647 (97.21), maa://32415 (96.06), maa://34677 (100.0), maa://32892 (100.0)</t>
+          <t>maa://32647 (97.22), maa://32415 (96.06), maa://34677 (100.0), maa://32892 (100.0)</t>
         </is>
       </c>
       <c r="E324" s="3" t="inlineStr">
@@ -9898,7 +9898,7 @@
       </c>
       <c r="D335" s="14" t="inlineStr">
         <is>
-          <t>maa://36646 (98.44), maa://36845 (95.05), **maa://39217 (37.5)</t>
+          <t>maa://36646 (98.44), maa://36845 (95.1), **maa://39217 (37.5)</t>
         </is>
       </c>
       <c r="E335" s="14" t="inlineStr">
@@ -10033,7 +10033,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>maa://40957 (86.96), maa://41035 (89.58), maa://41128 (80.65), maa://44635 (81.48), maa://44660 (92.86)</t>
+          <t>maa://40957 (86.96), maa://41035 (89.58), maa://41128 (80.65), maa://44635 (81.48), maa://44660 (86.67)</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -10330,7 +10330,7 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>maa://43872 (100.0), maa://39153 (100.0)</t>
+          <t>*maa://43872 (80.0), maa://39153 (100.0)</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
@@ -10384,7 +10384,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>maa://42970 (87.43), maa://44745 (88.89), maa://44896 (100.0)</t>
+          <t>maa://42970 (87.79), maa://44745 (90.0), maa://44896 (100.0)</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.05 13:20:09</t>
+          <t>更新日期：2025.01.06 13:18:43</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="D53" s="12" t="inlineStr">
         <is>
-          <t>maa://20953 (94.74), maa://31173 (93.33)</t>
+          <t>maa://20953 (94.74), maa://31173 (93.75)</t>
         </is>
       </c>
       <c r="E53" s="3" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="D56" s="12" t="inlineStr">
         <is>
-          <t>maa://44235 (95.77)</t>
+          <t>maa://44235 (95.83)</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="D59" s="12" t="inlineStr">
         <is>
-          <t>maa://27970 (98.33), *maa://41118 (80.0)</t>
+          <t>maa://27970 (98.36), *maa://41118 (80.0)</t>
         </is>
       </c>
       <c r="E59" s="3" t="inlineStr">
@@ -3202,7 +3202,7 @@
       </c>
       <c r="D87" s="12" t="inlineStr">
         <is>
-          <t>maa://20886 (90.0), maa://25136 (94.74)</t>
+          <t>maa://20886 (90.0), maa://25136 (95.0)</t>
         </is>
       </c>
       <c r="E87" s="3" t="inlineStr">
@@ -3764,12 +3764,12 @@
       </c>
       <c r="C108" s="13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D108" s="12" t="inlineStr">
         <is>
-          <t>maa://25018 (96.04), maa://25776 (90.48), maa://28361 (96.77), maa://25772 (92.68), *maa://25161 (80.0), maa://32653 (85.71)</t>
+          <t>maa://25018 (96.04), maa://25776 (90.62), maa://28361 (96.77), maa://25772 (92.86), *maa://25161 (80.0), maa://32653 (85.71), maa://45194 (100.0)</t>
         </is>
       </c>
       <c r="E108" s="3" t="inlineStr">
@@ -4709,12 +4709,12 @@
       </c>
       <c r="C143" s="13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D143" s="12" t="inlineStr">
         <is>
-          <t>maa://30670 (96.43), maa://31470 (95.45), ***maa://30867 (25.0)</t>
+          <t>maa://30670 (96.43), maa://31470 (95.45), ***maa://30867 (25.0), maa://45066 (100.0)</t>
         </is>
       </c>
       <c r="E143" s="3" t="inlineStr">
@@ -4876,7 +4876,7 @@
       </c>
       <c r="D149" s="12" t="inlineStr">
         <is>
-          <t>maa://36641 (98.32), maa://36865 (95.97), maa://42918 (100.0), maa://44119 (95.83), maa://37300 (100.0), maa://42917 (100.0)</t>
+          <t>maa://36641 (98.32), maa://36865 (96.0), maa://42918 (100.0), maa://44119 (96.0), maa://37300 (100.0), maa://42917 (100.0)</t>
         </is>
       </c>
       <c r="E149" s="3" t="inlineStr">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="D166" s="12" t="inlineStr">
         <is>
-          <t>maa://29633 (93.8), maa://29627 (92.9), maa://29659 (83.33), maa://29861 (100.0)</t>
+          <t>maa://29633 (93.85), maa://29627 (92.9), maa://29659 (83.33), maa://29861 (100.0)</t>
         </is>
       </c>
       <c r="E166" s="3" t="inlineStr">
@@ -6118,7 +6118,7 @@
       </c>
       <c r="D195" s="12" t="inlineStr">
         <is>
-          <t>maa://39156 (90.0), maa://39550 (100.0)</t>
+          <t>maa://39156 (85.71), maa://39550 (100.0)</t>
         </is>
       </c>
       <c r="E195" s="3" t="inlineStr">
@@ -6145,7 +6145,7 @@
       </c>
       <c r="D196" s="12" t="inlineStr">
         <is>
-          <t>maa://27823 (81.36), *maa://28190 (58.06), maa://22894 (90.62), *maa://20906 (72.22), **maa://20907 (35.48)</t>
+          <t>maa://27823 (81.67), *maa://28190 (58.06), maa://22894 (90.62), *maa://20906 (72.22), **maa://20907 (35.48)</t>
         </is>
       </c>
       <c r="E196" s="3" t="inlineStr">
@@ -6172,7 +6172,7 @@
       </c>
       <c r="D197" s="12" t="inlineStr">
         <is>
-          <t>maa://27823 (81.36), *maa://28190 (58.06), maa://22894 (90.62), *maa://20906 (72.22), **maa://20907 (35.48)</t>
+          <t>maa://27823 (81.67), *maa://28190 (58.06), maa://22894 (90.62), *maa://20906 (72.22), **maa://20907 (35.48)</t>
         </is>
       </c>
       <c r="E197" s="3" t="inlineStr">
@@ -7738,7 +7738,7 @@
       </c>
       <c r="D255" s="12" t="inlineStr">
         <is>
-          <t>maa://29027 (97.62)</t>
+          <t>maa://29027 (97.67)</t>
         </is>
       </c>
       <c r="E255" s="3" t="inlineStr">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="D277" s="12" t="inlineStr">
         <is>
-          <t>maa://30710 (97.39), maa://36845 (95.1), maa://31558 (96.88), **maa://39217 (37.5), maa://30668 (84.62)</t>
+          <t>maa://30710 (97.39), maa://36845 (95.15), maa://31558 (96.88), **maa://39217 (37.5), maa://30668 (84.62)</t>
         </is>
       </c>
       <c r="E277" s="3" t="inlineStr">
@@ -9358,7 +9358,7 @@
       </c>
       <c r="D315" s="12" t="inlineStr">
         <is>
-          <t>maa://44234 (98.04)</t>
+          <t>maa://44234 (98.08)</t>
         </is>
       </c>
       <c r="E315" s="3" t="inlineStr">
@@ -9385,7 +9385,7 @@
       </c>
       <c r="D316" s="12" t="inlineStr">
         <is>
-          <t>maa://42968 (99.46)</t>
+          <t>maa://42968 (99.47)</t>
         </is>
       </c>
       <c r="E316" s="3" t="inlineStr">
@@ -9466,7 +9466,7 @@
       </c>
       <c r="D319" s="12" t="inlineStr">
         <is>
-          <t>maa://30671 (81.88), maa://30669 (98.84), maa://37275 (83.33), *maa://32410 (66.67), maa://41605 (100.0), maa://33671 (100.0)</t>
+          <t>maa://30671 (81.88), maa://30669 (98.85), maa://37275 (83.33), *maa://32410 (66.67), maa://41605 (100.0), maa://33671 (100.0)</t>
         </is>
       </c>
       <c r="E319" s="3" t="inlineStr">
@@ -9493,7 +9493,7 @@
       </c>
       <c r="D320" s="12" t="inlineStr">
         <is>
-          <t>maa://38295 (96.88)</t>
+          <t>maa://38295 (96.92)</t>
         </is>
       </c>
       <c r="E320" s="3" t="inlineStr">
@@ -9601,7 +9601,7 @@
       </c>
       <c r="D324" s="12" t="inlineStr">
         <is>
-          <t>maa://32647 (97.22), maa://32415 (96.06), maa://34677 (100.0), maa://32892 (100.0)</t>
+          <t>maa://32647 (97.23), maa://32415 (96.06), maa://34677 (100.0), maa://32892 (100.0)</t>
         </is>
       </c>
       <c r="E324" s="3" t="inlineStr">
@@ -9731,12 +9731,12 @@
       </c>
       <c r="C329" s="13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D329" s="12" t="inlineStr">
         <is>
-          <t>maa://34865 (97.13), maa://34717 (93.44)</t>
+          <t>maa://34865 (97.13), maa://34717 (93.44), maa://45066 (100.0)</t>
         </is>
       </c>
       <c r="E329" s="3" t="inlineStr">
@@ -9898,7 +9898,7 @@
       </c>
       <c r="D335" s="14" t="inlineStr">
         <is>
-          <t>maa://36646 (98.44), maa://36845 (95.1), **maa://39217 (37.5)</t>
+          <t>maa://36646 (98.44), maa://36845 (95.15), **maa://39217 (37.5)</t>
         </is>
       </c>
       <c r="E335" s="14" t="inlineStr">
@@ -10195,7 +10195,7 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>maa://41110 (98.72)</t>
+          <t>maa://41110 (98.73)</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
@@ -10384,7 +10384,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>maa://42970 (87.79), maa://44745 (90.0), maa://44896 (100.0)</t>
+          <t>maa://42970 (87.86), maa://44745 (90.0), maa://44896 (100.0)</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.06 13:18:43</t>
+          <t>更新日期：2025.01.07 13:17:31</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="D32" s="12" t="inlineStr">
         <is>
-          <t>maa://36644 (88.19), maa://36866 (97.5), maa://27794 (100.0)</t>
+          <t>maa://36644 (88.28), maa://36866 (97.5), maa://27794 (100.0)</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
@@ -1798,7 +1798,7 @@
       </c>
       <c r="D35" s="12" t="inlineStr">
         <is>
-          <t>maa://20847 (95.65)</t>
+          <t>maa://20847 (95.83)</t>
         </is>
       </c>
       <c r="E35" s="3" t="inlineStr">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="D37" s="12" t="inlineStr">
         <is>
-          <t>maa://27376 (90.32), *maa://20838 (52.94), maa://42635 (93.33)</t>
+          <t>maa://27376 (90.32), *maa://20838 (52.94), maa://42635 (93.75)</t>
         </is>
       </c>
       <c r="E37" s="3" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="D56" s="12" t="inlineStr">
         <is>
-          <t>maa://44235 (95.83)</t>
+          <t>maa://44235 (95.89)</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="D108" s="12" t="inlineStr">
         <is>
-          <t>maa://25018 (96.04), maa://25776 (90.62), maa://28361 (96.77), maa://25772 (92.86), *maa://25161 (80.0), maa://32653 (85.71), maa://45194 (100.0)</t>
+          <t>maa://25018 (96.05), maa://25776 (90.62), maa://28361 (96.77), maa://25772 (92.86), *maa://25161 (80.0), maa://32653 (85.71), maa://45194 (100.0)</t>
         </is>
       </c>
       <c r="E108" s="3" t="inlineStr">
@@ -3958,7 +3958,7 @@
       </c>
       <c r="D115" s="12" t="inlineStr">
         <is>
-          <t>maa://20908 (98.28), *maa://23346 (77.78), maa://35723 (94.44), maa://38822 (100.0)</t>
+          <t>maa://20908 (98.29), *maa://23346 (77.78), maa://35723 (94.44), maa://38822 (100.0)</t>
         </is>
       </c>
       <c r="E115" s="3" t="inlineStr">
@@ -4849,7 +4849,7 @@
       </c>
       <c r="D148" s="12" t="inlineStr">
         <is>
-          <t>maa://20846 (95.24)</t>
+          <t>maa://20846 (95.45)</t>
         </is>
       </c>
       <c r="E148" s="3" t="inlineStr">
@@ -5119,7 +5119,7 @@
       </c>
       <c r="D158" s="12" t="inlineStr">
         <is>
-          <t>maa://44232 (99.07), maa://44305 (100.0)</t>
+          <t>maa://44232 (99.1), maa://44305 (100.0)</t>
         </is>
       </c>
       <c r="E158" s="3" t="inlineStr">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="D166" s="12" t="inlineStr">
         <is>
-          <t>maa://29633 (93.85), maa://29627 (92.9), maa://29659 (83.33), maa://29861 (100.0)</t>
+          <t>maa://29633 (93.9), maa://29627 (92.9), maa://29659 (83.33), maa://29861 (100.0)</t>
         </is>
       </c>
       <c r="E166" s="3" t="inlineStr">
@@ -5551,7 +5551,7 @@
       </c>
       <c r="D174" s="12" t="inlineStr">
         <is>
-          <t>maa://20842 (92.31)</t>
+          <t>maa://20842 (92.86)</t>
         </is>
       </c>
       <c r="E174" s="3" t="inlineStr">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="D194" s="12" t="inlineStr">
         <is>
-          <t>*maa://35854 (77.5), maa://25760 (85.87), maa://44224 (87.84), **maa://20872 (50.0), ***maa://43443 (27.27), ***maa://43911 (20.0)</t>
+          <t>*maa://35854 (77.5), maa://25760 (85.87), maa://44224 (88.16), **maa://20872 (50.0), ***maa://43443 (27.27), ***maa://43911 (20.0)</t>
         </is>
       </c>
       <c r="E194" s="3" t="inlineStr">
@@ -6496,7 +6496,7 @@
       </c>
       <c r="D209" s="12" t="inlineStr">
         <is>
-          <t>maa://39238 (99.21)</t>
+          <t>maa://39238 (99.22)</t>
         </is>
       </c>
       <c r="E209" s="3" t="inlineStr">
@@ -7171,7 +7171,7 @@
       </c>
       <c r="D234" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (77.5), maa://30666 (84.08), *maa://26836 (77.48), maa://37607 (94.02), **maa://30739 (44.44), *maa://34428 (69.77), *maa://30723 (52.73), maa://39588 (86.84), *maa://37850 (66.67)</t>
+          <t>*maa://30667 (77.56), maa://30666 (84.08), *maa://26836 (77.48), maa://37607 (94.07), **maa://30739 (44.44), *maa://34428 (70.11), *maa://30723 (52.73), maa://39588 (87.5), *maa://37850 (66.67)</t>
         </is>
       </c>
       <c r="E234" s="3" t="inlineStr">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="D277" s="12" t="inlineStr">
         <is>
-          <t>maa://30710 (97.39), maa://36845 (95.15), maa://31558 (96.88), **maa://39217 (37.5), maa://30668 (84.62)</t>
+          <t>maa://30710 (97.39), maa://36845 (95.15), maa://31558 (96.97), **maa://39217 (37.5), maa://30668 (84.62)</t>
         </is>
       </c>
       <c r="E277" s="3" t="inlineStr">
@@ -8845,7 +8845,7 @@
       </c>
       <c r="D296" s="12" t="inlineStr">
         <is>
-          <t>maa://25775 (92.86), *maa://25393 (76.92)</t>
+          <t>maa://25775 (92.98), *maa://25393 (76.92)</t>
         </is>
       </c>
       <c r="E296" s="3" t="inlineStr">
@@ -9601,7 +9601,7 @@
       </c>
       <c r="D324" s="12" t="inlineStr">
         <is>
-          <t>maa://32647 (97.23), maa://32415 (96.06), maa://34677 (100.0), maa://32892 (100.0)</t>
+          <t>maa://32647 (97.25), maa://32415 (96.06), maa://34677 (100.0), maa://32892 (100.0)</t>
         </is>
       </c>
       <c r="E324" s="3" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="D329" s="12" t="inlineStr">
         <is>
-          <t>maa://34865 (97.13), maa://34717 (93.44), maa://45066 (100.0)</t>
+          <t>maa://34865 (97.14), maa://34717 (93.44), maa://45066 (100.0)</t>
         </is>
       </c>
       <c r="E329" s="3" t="inlineStr">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="D332" s="14" t="inlineStr">
         <is>
-          <t>maa://36868 (100.0), maa://35996 (95.83), **maa://39217 (37.5), maa://44463 (100.0)</t>
+          <t>maa://36868 (100.0), maa://35996 (95.83), **maa://39217 (37.5), maa://44463 (83.33)</t>
         </is>
       </c>
       <c r="E332" s="14" t="inlineStr">
@@ -10033,7 +10033,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>maa://40957 (86.96), maa://41035 (89.58), maa://41128 (80.65), maa://44635 (81.48), maa://44660 (86.67)</t>
+          <t>maa://40957 (86.96), maa://41035 (89.58), maa://41128 (80.65), maa://44635 (81.48), maa://44660 (87.5)</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -10384,7 +10384,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>maa://42970 (87.86), maa://44745 (90.0), maa://44896 (100.0)</t>
+          <t>maa://42970 (87.93), maa://44745 (90.0), maa://44896 (100.0)</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.07 13:17:31</t>
+          <t>更新日期：2025.01.09 13:18:22</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>maa://20863 (86.44), maa://20832 (98.53), maa://20727 (100.0)</t>
+          <t>maa://20863 (86.44), maa://20832 (98.55), maa://20727 (100.0)</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="D34" s="12" t="inlineStr">
         <is>
-          <t>*maa://20916 (79.31)</t>
+          <t>*maa://20916 (80.0)</t>
         </is>
       </c>
       <c r="E34" s="3" t="inlineStr">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="D37" s="12" t="inlineStr">
         <is>
-          <t>maa://27376 (90.32), *maa://20838 (52.94), maa://42635 (93.75)</t>
+          <t>maa://27376 (90.62), *maa://20838 (52.94), maa://42635 (93.75)</t>
         </is>
       </c>
       <c r="E37" s="3" t="inlineStr">
@@ -2527,7 +2527,7 @@
       </c>
       <c r="D62" s="12" t="inlineStr">
         <is>
-          <t>maa://20844 (96.43)</t>
+          <t>maa://20844 (96.55)</t>
         </is>
       </c>
       <c r="E62" s="3" t="inlineStr">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="D63" s="12" t="inlineStr">
         <is>
-          <t>*maa://20845 (73.91), **maa://38727 (50.0)</t>
+          <t>*maa://20845 (73.91), *maa://38727 (66.67)</t>
         </is>
       </c>
       <c r="E63" s="3" t="inlineStr">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="D69" s="12" t="inlineStr">
         <is>
-          <t>maa://28784 (94.02), maa://29088 (91.58), maa://20974 (95.71), maa://31124 (96.34), maa://28950 (91.3), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (80.0), **maa://42200 (50.0), maa://41832 (85.71)</t>
+          <t>maa://28784 (94.02), maa://29088 (91.62), maa://20974 (95.71), maa://31124 (96.34), maa://28950 (91.67), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (80.0), **maa://42200 (50.0), maa://41832 (85.71)</t>
         </is>
       </c>
       <c r="E69" s="3" t="inlineStr">
@@ -2797,7 +2797,7 @@
       </c>
       <c r="D72" s="12" t="inlineStr">
         <is>
-          <t>maa://36643 (97.7), maa://36864 (97.53), maa://39140 (100.0)</t>
+          <t>maa://36643 (97.72), maa://36864 (97.53), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E72" s="3" t="inlineStr">
@@ -3283,7 +3283,7 @@
       </c>
       <c r="D90" s="12" t="inlineStr">
         <is>
-          <t>*maa://28190 (58.06), maa://20880 (91.3)</t>
+          <t>*maa://28190 (59.38), maa://20880 (91.67)</t>
         </is>
       </c>
       <c r="E90" s="3" t="inlineStr">
@@ -3310,7 +3310,7 @@
       </c>
       <c r="D91" s="12" t="inlineStr">
         <is>
-          <t>maa://24609 (89.47)</t>
+          <t>maa://24609 (90.48)</t>
         </is>
       </c>
       <c r="E91" s="3" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="D108" s="12" t="inlineStr">
         <is>
-          <t>maa://25018 (96.05), maa://25776 (90.62), maa://28361 (96.77), maa://25772 (92.86), *maa://25161 (80.0), maa://32653 (85.71), maa://45194 (100.0)</t>
+          <t>maa://25018 (96.07), maa://25776 (90.62), maa://28361 (96.77), maa://25772 (92.86), *maa://25161 (80.0), maa://32653 (85.71), *maa://45194 (75.0)</t>
         </is>
       </c>
       <c r="E108" s="3" t="inlineStr">
@@ -3958,7 +3958,7 @@
       </c>
       <c r="D115" s="12" t="inlineStr">
         <is>
-          <t>maa://20908 (98.29), *maa://23346 (77.78), maa://35723 (94.44), maa://38822 (100.0)</t>
+          <t>maa://20908 (98.3), *maa://23346 (77.78), maa://35723 (94.44), maa://38822 (100.0)</t>
         </is>
       </c>
       <c r="E115" s="3" t="inlineStr">
@@ -4444,7 +4444,7 @@
       </c>
       <c r="D133" s="12" t="inlineStr">
         <is>
-          <t>maa://23020 (95.89), maa://29023 (100.0), maa://41690 (100.0), *maa://39515 (80.0), maa://34319 (100.0)</t>
+          <t>maa://23020 (95.89), maa://29023 (100.0), maa://41690 (100.0), maa://39515 (83.33), maa://34319 (100.0)</t>
         </is>
       </c>
       <c r="E133" s="3" t="inlineStr">
@@ -4741,7 +4741,7 @@
       </c>
       <c r="D144" s="12" t="inlineStr">
         <is>
-          <t>*maa://20971 (80.0)</t>
+          <t>maa://20971 (83.33)</t>
         </is>
       </c>
       <c r="E144" s="3" t="inlineStr">
@@ -5119,7 +5119,7 @@
       </c>
       <c r="D158" s="12" t="inlineStr">
         <is>
-          <t>maa://44232 (99.1), maa://44305 (100.0)</t>
+          <t>maa://44232 (99.11), maa://44305 (100.0)</t>
         </is>
       </c>
       <c r="E158" s="3" t="inlineStr">
@@ -5902,7 +5902,7 @@
       </c>
       <c r="D187" s="12" t="inlineStr">
         <is>
-          <t>maa://34866 (89.66), maa://34714 (96.0)</t>
+          <t>maa://34866 (90.0), maa://34714 (96.0)</t>
         </is>
       </c>
       <c r="E187" s="3" t="inlineStr">
@@ -6037,7 +6037,7 @@
       </c>
       <c r="D192" s="12" t="inlineStr">
         <is>
-          <t>*maa://28190 (58.06), maa://20994 (100.0)</t>
+          <t>*maa://28190 (59.38), maa://20994 (100.0)</t>
         </is>
       </c>
       <c r="E192" s="3" t="inlineStr">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="D194" s="12" t="inlineStr">
         <is>
-          <t>*maa://35854 (77.5), maa://25760 (85.87), maa://44224 (88.16), **maa://20872 (50.0), ***maa://43443 (27.27), ***maa://43911 (20.0)</t>
+          <t>*maa://35854 (77.5), maa://25760 (85.87), maa://44224 (88.31), **maa://20872 (50.0), ***maa://43443 (27.27), ***maa://43911 (20.0)</t>
         </is>
       </c>
       <c r="E194" s="3" t="inlineStr">
@@ -6118,7 +6118,7 @@
       </c>
       <c r="D195" s="12" t="inlineStr">
         <is>
-          <t>maa://39156 (85.71), maa://39550 (100.0)</t>
+          <t>maa://39156 (85.71), *maa://39550 (80.0)</t>
         </is>
       </c>
       <c r="E195" s="3" t="inlineStr">
@@ -6145,7 +6145,7 @@
       </c>
       <c r="D196" s="12" t="inlineStr">
         <is>
-          <t>maa://27823 (81.67), *maa://28190 (58.06), maa://22894 (90.62), *maa://20906 (72.22), **maa://20907 (35.48)</t>
+          <t>maa://27823 (81.67), *maa://28190 (59.38), maa://22894 (90.62), *maa://20906 (72.22), **maa://20907 (35.48)</t>
         </is>
       </c>
       <c r="E196" s="3" t="inlineStr">
@@ -6172,7 +6172,7 @@
       </c>
       <c r="D197" s="12" t="inlineStr">
         <is>
-          <t>maa://27823 (81.67), *maa://28190 (58.06), maa://22894 (90.62), *maa://20906 (72.22), **maa://20907 (35.48)</t>
+          <t>maa://27823 (81.67), *maa://28190 (59.38), maa://22894 (90.62), *maa://20906 (72.22), **maa://20907 (35.48)</t>
         </is>
       </c>
       <c r="E197" s="3" t="inlineStr">
@@ -6199,7 +6199,7 @@
       </c>
       <c r="D198" s="12" t="inlineStr">
         <is>
-          <t>maa://42223 (99.38), maa://42292 (95.45), maa://42402 (100.0)</t>
+          <t>maa://42223 (99.39), maa://42292 (95.45), maa://42402 (100.0)</t>
         </is>
       </c>
       <c r="E198" s="3" t="inlineStr">
@@ -6631,7 +6631,7 @@
       </c>
       <c r="D214" s="19" t="inlineStr">
         <is>
-          <t>**maa://26496 (33.33), **maa://20995 (44.44)</t>
+          <t>**maa://26496 (42.86), **maa://20995 (44.44)</t>
         </is>
       </c>
       <c r="E214" s="20" t="inlineStr">
@@ -7063,7 +7063,7 @@
       </c>
       <c r="D230" s="12" t="inlineStr">
         <is>
-          <t>maa://20917 (97.5)</t>
+          <t>maa://20917 (97.56)</t>
         </is>
       </c>
       <c r="E230" s="3" t="inlineStr">
@@ -7171,7 +7171,7 @@
       </c>
       <c r="D234" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (77.56), maa://30666 (84.08), *maa://26836 (77.48), maa://37607 (94.07), **maa://30739 (44.44), *maa://34428 (70.11), *maa://30723 (52.73), maa://39588 (87.5), *maa://37850 (66.67)</t>
+          <t>*maa://30667 (77.67), maa://30666 (83.66), *maa://26836 (77.48), maa://37607 (94.24), **maa://30739 (44.44), *maa://34428 (70.11), *maa://30723 (52.73), maa://39588 (87.5), *maa://37850 (75.0)</t>
         </is>
       </c>
       <c r="E234" s="3" t="inlineStr">
@@ -7414,7 +7414,7 @@
       </c>
       <c r="D243" s="12" t="inlineStr">
         <is>
-          <t>maa://42287 (90.48), maa://42225 (100.0)</t>
+          <t>maa://42287 (90.7), maa://42225 (100.0)</t>
         </is>
       </c>
       <c r="E243" s="3" t="inlineStr">
@@ -8278,7 +8278,7 @@
       </c>
       <c r="D275" s="12" t="inlineStr">
         <is>
-          <t>maa://20899 (89.68), **maa://44744 (50.0)</t>
+          <t>maa://20899 (89.74), **maa://44744 (50.0)</t>
         </is>
       </c>
       <c r="E275" s="3" t="inlineStr">
@@ -8899,7 +8899,7 @@
       </c>
       <c r="D298" s="12" t="inlineStr">
         <is>
-          <t>maa://25367 (99.08)</t>
+          <t>maa://25367 (99.09)</t>
         </is>
       </c>
       <c r="E298" s="3" t="inlineStr">
@@ -9466,7 +9466,7 @@
       </c>
       <c r="D319" s="12" t="inlineStr">
         <is>
-          <t>maa://30671 (81.88), maa://30669 (98.85), maa://37275 (83.33), *maa://32410 (66.67), maa://41605 (100.0), maa://33671 (100.0)</t>
+          <t>maa://30671 (81.99), maa://30669 (98.85), maa://37275 (83.33), *maa://32410 (66.67), maa://41605 (100.0), maa://33671 (100.0)</t>
         </is>
       </c>
       <c r="E319" s="3" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="D329" s="12" t="inlineStr">
         <is>
-          <t>maa://34865 (97.14), maa://34717 (93.44), maa://45066 (100.0)</t>
+          <t>maa://34865 (97.19), maa://34717 (93.44), maa://45066 (100.0)</t>
         </is>
       </c>
       <c r="E329" s="3" t="inlineStr">
@@ -9898,7 +9898,7 @@
       </c>
       <c r="D335" s="14" t="inlineStr">
         <is>
-          <t>maa://36646 (98.44), maa://36845 (95.15), **maa://39217 (37.5)</t>
+          <t>maa://36646 (98.45), maa://36845 (95.15), **maa://39217 (37.5)</t>
         </is>
       </c>
       <c r="E335" s="14" t="inlineStr">
@@ -10033,7 +10033,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>maa://40957 (86.96), maa://41035 (89.58), maa://41128 (80.65), maa://44635 (81.48), maa://44660 (87.5)</t>
+          <t>maa://40957 (87.03), maa://41035 (89.58), maa://41128 (80.65), maa://44635 (82.14), maa://44660 (88.24)</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -10195,7 +10195,7 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>maa://41110 (98.73)</t>
+          <t>maa://41110 (98.75)</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
@@ -10303,7 +10303,7 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>maa://43097 (100.0)</t>
+          <t>**maa://43097 (50.0)</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
@@ -10384,7 +10384,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>maa://42970 (87.93), maa://44745 (90.0), maa://44896 (100.0)</t>
+          <t>maa://42970 (88.27), maa://44745 (90.0), maa://44896 (100.0)</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.09 13:18:22</t>
+          <t>更新日期：2025.01.11 13:17:38</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="D7" s="12" t="inlineStr">
         <is>
-          <t>maa://20850 (92.86)</t>
+          <t>maa://20850 (86.67)</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="D37" s="12" t="inlineStr">
         <is>
-          <t>maa://27376 (90.62), *maa://20838 (52.94), maa://42635 (93.75)</t>
+          <t>maa://27376 (90.62), *maa://20838 (52.94), maa://42635 (94.12)</t>
         </is>
       </c>
       <c r="E37" s="3" t="inlineStr">
@@ -1987,7 +1987,7 @@
       </c>
       <c r="D42" s="12" t="inlineStr">
         <is>
-          <t>*maa://22339 (66.67), maa://20918 (100.0), maa://34883 (90.0), maa://20824 (100.0)</t>
+          <t>maa://20918 (100.0), *maa://22339 (66.67), maa://34883 (90.0), maa://20824 (100.0)</t>
         </is>
       </c>
       <c r="E42" s="3" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="D56" s="12" t="inlineStr">
         <is>
-          <t>maa://44235 (95.89)</t>
+          <t>maa://44235 (95.95)</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
@@ -2527,7 +2527,7 @@
       </c>
       <c r="D62" s="12" t="inlineStr">
         <is>
-          <t>maa://20844 (96.55)</t>
+          <t>maa://20844 (96.67)</t>
         </is>
       </c>
       <c r="E62" s="3" t="inlineStr">
@@ -2689,7 +2689,7 @@
       </c>
       <c r="D68" s="12" t="inlineStr">
         <is>
-          <t>maa://20976 (97.41), maa://20815 (100.0)</t>
+          <t>maa://20976 (97.42), maa://20815 (100.0)</t>
         </is>
       </c>
       <c r="E68" s="3" t="inlineStr">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="D69" s="12" t="inlineStr">
         <is>
-          <t>maa://28784 (94.02), maa://29088 (91.62), maa://20974 (95.71), maa://31124 (96.34), maa://28950 (91.67), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (80.0), **maa://42200 (50.0), maa://41832 (85.71)</t>
+          <t>maa://28784 (94.03), maa://29088 (91.62), maa://20974 (95.71), maa://31124 (96.34), maa://28950 (92.0), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (80.0), **maa://42200 (50.0), maa://41832 (85.71)</t>
         </is>
       </c>
       <c r="E69" s="3" t="inlineStr">
@@ -2797,7 +2797,7 @@
       </c>
       <c r="D72" s="12" t="inlineStr">
         <is>
-          <t>maa://36643 (97.72), maa://36864 (97.53), maa://39140 (100.0)</t>
+          <t>maa://36643 (97.73), maa://36864 (97.53), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E72" s="3" t="inlineStr">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="D88" s="12" t="inlineStr">
         <is>
-          <t>maa://24472 (86.79), *maa://35841 (54.55)</t>
+          <t>maa://24472 (86.25), *maa://35841 (54.55)</t>
         </is>
       </c>
       <c r="E88" s="3" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="D108" s="12" t="inlineStr">
         <is>
-          <t>maa://25018 (96.07), maa://25776 (90.62), maa://28361 (96.77), maa://25772 (92.86), *maa://25161 (80.0), maa://32653 (85.71), *maa://45194 (75.0)</t>
+          <t>maa://25018 (96.09), maa://25776 (90.62), maa://28361 (96.77), maa://25772 (92.86), *maa://25161 (80.0), maa://32653 (85.71), *maa://45194 (75.0)</t>
         </is>
       </c>
       <c r="E108" s="3" t="inlineStr">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="D122" s="12" t="inlineStr">
         <is>
-          <t>maa://29650 (97.73)</t>
+          <t>maa://29650 (97.78)</t>
         </is>
       </c>
       <c r="E122" s="3" t="inlineStr">
@@ -4309,7 +4309,7 @@
       </c>
       <c r="D128" s="12" t="inlineStr">
         <is>
-          <t>maa://37484 (93.48), maa://24611 (89.29)</t>
+          <t>maa://37484 (93.62), maa://24611 (89.29)</t>
         </is>
       </c>
       <c r="E128" s="3" t="inlineStr">
@@ -4363,7 +4363,7 @@
       </c>
       <c r="D130" s="12" t="inlineStr">
         <is>
-          <t>maa://21422 (99.07)</t>
+          <t>maa://21422 (99.08)</t>
         </is>
       </c>
       <c r="E130" s="3" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="D140" s="12" t="inlineStr">
         <is>
-          <t>maa://20981 (100.0)</t>
+          <t>maa://20981 (92.31)</t>
         </is>
       </c>
       <c r="E140" s="3" t="inlineStr">
@@ -4687,7 +4687,7 @@
       </c>
       <c r="D142" s="12" t="inlineStr">
         <is>
-          <t>maa://28484 (97.7), **maa://23736 (41.54), *maa://31185 (80.0), maa://30306 (100.0)</t>
+          <t>maa://28484 (97.73), **maa://23736 (41.54), *maa://31185 (80.0), maa://30306 (100.0)</t>
         </is>
       </c>
       <c r="E142" s="3" t="inlineStr">
@@ -5011,7 +5011,7 @@
       </c>
       <c r="D154" s="12" t="inlineStr">
         <is>
-          <t>maa://20945 (90.0)</t>
+          <t>maa://20945 (90.48)</t>
         </is>
       </c>
       <c r="E154" s="3" t="inlineStr">
@@ -5146,7 +5146,7 @@
       </c>
       <c r="D159" s="12" t="inlineStr">
         <is>
-          <t>maa://20936 (100.0)</t>
+          <t>maa://20936 (92.86)</t>
         </is>
       </c>
       <c r="E159" s="3" t="inlineStr">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="D194" s="12" t="inlineStr">
         <is>
-          <t>*maa://35854 (77.5), maa://25760 (85.87), maa://44224 (88.31), **maa://20872 (50.0), ***maa://43443 (27.27), ***maa://43911 (20.0)</t>
+          <t>*maa://35854 (77.5), maa://25760 (85.87), maa://44224 (88.46), **maa://20872 (50.0), ***maa://43443 (27.27), ***maa://43911 (20.0)</t>
         </is>
       </c>
       <c r="E194" s="3" t="inlineStr">
@@ -6415,7 +6415,7 @@
       </c>
       <c r="D206" s="12" t="inlineStr">
         <is>
-          <t>maa://28133 (90.48), *maa://28277 (80.0), **maa://39217 (37.5), maa://25369 (93.33), *maa://33132 (66.67)</t>
+          <t>maa://28133 (90.7), *maa://28277 (80.0), **maa://39217 (37.5), maa://25369 (93.33), *maa://33132 (66.67)</t>
         </is>
       </c>
       <c r="E206" s="3" t="inlineStr">
@@ -6496,7 +6496,7 @@
       </c>
       <c r="D209" s="12" t="inlineStr">
         <is>
-          <t>maa://39238 (99.22)</t>
+          <t>maa://39238 (99.23)</t>
         </is>
       </c>
       <c r="E209" s="3" t="inlineStr">
@@ -6604,7 +6604,7 @@
       </c>
       <c r="D213" s="12" t="inlineStr">
         <is>
-          <t>maa://39157 (100.0)</t>
+          <t>*maa://39157 (66.67)</t>
         </is>
       </c>
       <c r="E213" s="3" t="inlineStr">
@@ -6955,7 +6955,7 @@
       </c>
       <c r="D226" s="12" t="inlineStr">
         <is>
-          <t>maa://29058 (94.55), maa://39140 (100.0), maa://38723 (100.0)</t>
+          <t>maa://29058 (94.64), maa://39140 (100.0), maa://38723 (100.0)</t>
         </is>
       </c>
       <c r="E226" s="3" t="inlineStr">
@@ -7009,7 +7009,7 @@
       </c>
       <c r="D228" s="12" t="inlineStr">
         <is>
-          <t>maa://20878 (86.36)</t>
+          <t>maa://20878 (86.96)</t>
         </is>
       </c>
       <c r="E228" s="3" t="inlineStr">
@@ -7063,7 +7063,7 @@
       </c>
       <c r="D230" s="12" t="inlineStr">
         <is>
-          <t>maa://20917 (97.56)</t>
+          <t>maa://20917 (97.62)</t>
         </is>
       </c>
       <c r="E230" s="3" t="inlineStr">
@@ -7171,7 +7171,7 @@
       </c>
       <c r="D234" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (77.67), maa://30666 (83.66), *maa://26836 (77.48), maa://37607 (94.24), **maa://30739 (44.44), *maa://34428 (70.11), *maa://30723 (52.73), maa://39588 (87.5), *maa://37850 (75.0)</t>
+          <t>*maa://30667 (77.67), maa://30666 (83.66), *maa://26836 (77.48), maa://37607 (93.93), **maa://30739 (44.44), *maa://34428 (70.11), *maa://30723 (52.73), maa://39588 (87.5), *maa://37850 (75.0)</t>
         </is>
       </c>
       <c r="E234" s="3" t="inlineStr">
@@ -7279,7 +7279,7 @@
       </c>
       <c r="D238" s="12" t="inlineStr">
         <is>
-          <t>maa://20867 (92.86), *maa://32202 (80.0), maa://38485 (87.5)</t>
+          <t>maa://20867 (92.86), maa://38485 (87.5), *maa://32202 (80.0)</t>
         </is>
       </c>
       <c r="E238" s="3" t="inlineStr">
@@ -7711,7 +7711,7 @@
       </c>
       <c r="D254" s="19" t="inlineStr">
         <is>
-          <t>**maa://20883 (42.86)</t>
+          <t>**maa://20883 (40.0)</t>
         </is>
       </c>
       <c r="E254" s="20" t="inlineStr">
@@ -8062,7 +8062,7 @@
       </c>
       <c r="D267" s="12" t="inlineStr">
         <is>
-          <t>maa://28133 (90.48), maa://33394 (100.0)</t>
+          <t>maa://28133 (90.7), maa://33394 (100.0)</t>
         </is>
       </c>
       <c r="E267" s="3" t="inlineStr">
@@ -8413,7 +8413,7 @@
       </c>
       <c r="D280" s="12" t="inlineStr">
         <is>
-          <t>maa://25774 (100.0), maa://28133 (90.48), maa://22469 (91.3), **maa://39217 (37.5), **maa://31349 (50.0)</t>
+          <t>maa://25774 (100.0), maa://28133 (90.7), maa://22469 (91.3), **maa://39217 (37.5), **maa://31349 (50.0)</t>
         </is>
       </c>
       <c r="E280" s="3" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="D281" s="12" t="inlineStr">
         <is>
-          <t>maa://32414 (98.57), maa://32505 (100.0), maa://39155 (95.65)</t>
+          <t>maa://32414 (98.58), maa://32505 (100.0), maa://39155 (95.65)</t>
         </is>
       </c>
       <c r="E281" s="3" t="inlineStr">
@@ -8494,7 +8494,7 @@
       </c>
       <c r="D283" s="12" t="inlineStr">
         <is>
-          <t>maa://36642 (100.0), maa://36867 (96.55), maa://39155 (95.65)</t>
+          <t>maa://36642 (100.0), maa://36867 (96.67), maa://39155 (95.65)</t>
         </is>
       </c>
       <c r="E283" s="3" t="inlineStr">
@@ -9466,7 +9466,7 @@
       </c>
       <c r="D319" s="12" t="inlineStr">
         <is>
-          <t>maa://30671 (81.99), maa://30669 (98.85), maa://37275 (83.33), *maa://32410 (66.67), maa://41605 (100.0), maa://33671 (100.0)</t>
+          <t>maa://30671 (81.99), maa://30669 (98.86), maa://37275 (83.78), *maa://32410 (66.67), maa://41605 (100.0), maa://33671 (100.0)</t>
         </is>
       </c>
       <c r="E319" s="3" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="D329" s="12" t="inlineStr">
         <is>
-          <t>maa://34865 (97.19), maa://34717 (93.44), maa://45066 (100.0)</t>
+          <t>maa://34865 (97.21), maa://34717 (93.44), maa://45066 (100.0)</t>
         </is>
       </c>
       <c r="E329" s="3" t="inlineStr">
@@ -9925,7 +9925,7 @@
       </c>
       <c r="D336" s="14" t="inlineStr">
         <is>
-          <t>maa://36645 (97.89), maa://36841 (94.44), maa://37484 (93.48), maa://37858 (91.3)</t>
+          <t>maa://36645 (97.89), maa://36841 (94.44), maa://37484 (93.62), maa://37858 (91.3)</t>
         </is>
       </c>
       <c r="E336" s="14" t="inlineStr">
@@ -10033,7 +10033,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>maa://40957 (87.03), maa://41035 (89.58), maa://41128 (80.65), maa://44635 (82.14), maa://44660 (88.24)</t>
+          <t>maa://40957 (87.1), maa://41035 (89.58), maa://41128 (80.65), maa://44635 (82.14), maa://44660 (88.89)</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -10384,7 +10384,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>maa://42970 (88.27), maa://44745 (90.0), maa://44896 (100.0)</t>
+          <t>maa://42970 (88.33), maa://44745 (90.0), maa://44896 (100.0)</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.11 13:17:38</t>
+          <t>更新日期：2025.01.12 13:18:28</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="D7" s="12" t="inlineStr">
         <is>
-          <t>maa://20850 (86.67)</t>
+          <t>maa://20850 (87.5)</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="D27" s="12" t="inlineStr">
         <is>
-          <t>*maa://20849 (62.16), *maa://28758 (55.17), maa://29036 (94.12), maa://30285 (100.0), **maa://42172 (50.0)</t>
+          <t>*maa://20849 (62.16), *maa://28758 (55.17), maa://29036 (94.44), maa://30285 (100.0), **maa://42172 (50.0)</t>
         </is>
       </c>
       <c r="E27" s="3" t="inlineStr">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>maa://20863 (86.44), maa://20832 (98.55), maa://20727 (100.0)</t>
+          <t>maa://20863 (86.52), maa://20832 (98.55), maa://20727 (100.0)</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="D56" s="12" t="inlineStr">
         <is>
-          <t>maa://44235 (95.95)</t>
+          <t>maa://44235 (96.0)</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="D59" s="12" t="inlineStr">
         <is>
-          <t>maa://27970 (98.36), *maa://41118 (80.0)</t>
+          <t>maa://27970 (98.39), *maa://41118 (80.0)</t>
         </is>
       </c>
       <c r="E59" s="3" t="inlineStr">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="D63" s="12" t="inlineStr">
         <is>
-          <t>*maa://20845 (73.91), *maa://38727 (66.67)</t>
+          <t>*maa://20845 (73.91), *maa://38727 (75.0)</t>
         </is>
       </c>
       <c r="E63" s="3" t="inlineStr">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="D69" s="12" t="inlineStr">
         <is>
-          <t>maa://28784 (94.03), maa://29088 (91.62), maa://20974 (95.71), maa://31124 (96.34), maa://28950 (92.0), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (80.0), **maa://42200 (50.0), maa://41832 (85.71)</t>
+          <t>maa://28784 (94.04), maa://29088 (91.62), maa://20974 (95.71), maa://31124 (96.34), maa://28950 (92.0), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (80.0), **maa://42200 (50.0), maa://41832 (85.71)</t>
         </is>
       </c>
       <c r="E69" s="3" t="inlineStr">
@@ -3958,7 +3958,7 @@
       </c>
       <c r="D115" s="12" t="inlineStr">
         <is>
-          <t>maa://20908 (98.3), *maa://23346 (77.78), maa://35723 (94.44), maa://38822 (100.0)</t>
+          <t>maa://20908 (98.31), *maa://23346 (77.78), maa://35723 (94.44), maa://38822 (100.0)</t>
         </is>
       </c>
       <c r="E115" s="3" t="inlineStr">
@@ -4714,7 +4714,7 @@
       </c>
       <c r="D143" s="12" t="inlineStr">
         <is>
-          <t>maa://30670 (96.43), maa://31470 (95.45), ***maa://30867 (25.0), maa://45066 (100.0)</t>
+          <t>maa://30670 (96.43), maa://31470 (95.65), ***maa://30867 (25.0), maa://45066 (100.0)</t>
         </is>
       </c>
       <c r="E143" s="3" t="inlineStr">
@@ -5119,7 +5119,7 @@
       </c>
       <c r="D158" s="12" t="inlineStr">
         <is>
-          <t>maa://44232 (99.11), maa://44305 (100.0)</t>
+          <t>maa://44232 (99.12), maa://44305 (100.0)</t>
         </is>
       </c>
       <c r="E158" s="3" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="D172" s="12" t="inlineStr">
         <is>
-          <t>maa://32418 (99.56)</t>
+          <t>maa://32418 (99.57)</t>
         </is>
       </c>
       <c r="E172" s="3" t="inlineStr">
@@ -6442,7 +6442,7 @@
       </c>
       <c r="D207" s="12" t="inlineStr">
         <is>
-          <t>maa://20956 (95.62), *maa://20830 (77.78), maa://44703 (100.0)</t>
+          <t>maa://20956 (95.65), *maa://20830 (77.78), maa://44703 (100.0)</t>
         </is>
       </c>
       <c r="E207" s="3" t="inlineStr">
@@ -7009,7 +7009,7 @@
       </c>
       <c r="D228" s="12" t="inlineStr">
         <is>
-          <t>maa://20878 (86.96)</t>
+          <t>maa://20878 (87.5)</t>
         </is>
       </c>
       <c r="E228" s="3" t="inlineStr">
@@ -7063,7 +7063,7 @@
       </c>
       <c r="D230" s="12" t="inlineStr">
         <is>
-          <t>maa://20917 (97.62)</t>
+          <t>maa://20917 (97.67)</t>
         </is>
       </c>
       <c r="E230" s="3" t="inlineStr">
@@ -7171,7 +7171,7 @@
       </c>
       <c r="D234" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (77.67), maa://30666 (83.66), *maa://26836 (77.48), maa://37607 (93.93), **maa://30739 (44.44), *maa://34428 (70.11), *maa://30723 (52.73), maa://39588 (87.5), *maa://37850 (75.0)</t>
+          <t>*maa://30667 (77.72), maa://30666 (83.74), *maa://26836 (77.48), maa://37607 (94.02), **maa://30739 (44.44), *maa://34428 (70.11), *maa://30723 (52.73), maa://39588 (87.5), *maa://37850 (75.0)</t>
         </is>
       </c>
       <c r="E234" s="3" t="inlineStr">
@@ -7900,7 +7900,7 @@
       </c>
       <c r="D261" s="12" t="inlineStr">
         <is>
-          <t>maa://25769 (96.64)</t>
+          <t>maa://25769 (96.67)</t>
         </is>
       </c>
       <c r="E261" s="3" t="inlineStr">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="D277" s="12" t="inlineStr">
         <is>
-          <t>maa://30710 (97.39), maa://36845 (95.15), maa://31558 (96.97), **maa://39217 (37.5), maa://30668 (84.62)</t>
+          <t>maa://30710 (97.41), maa://36845 (95.15), maa://31558 (96.97), **maa://39217 (37.5), maa://30668 (84.62)</t>
         </is>
       </c>
       <c r="E277" s="3" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="D281" s="12" t="inlineStr">
         <is>
-          <t>maa://32414 (98.58), maa://32505 (100.0), maa://39155 (95.65)</t>
+          <t>maa://32414 (98.59), maa://32505 (100.0), maa://39155 (95.65)</t>
         </is>
       </c>
       <c r="E281" s="3" t="inlineStr">
@@ -8899,7 +8899,7 @@
       </c>
       <c r="D298" s="12" t="inlineStr">
         <is>
-          <t>maa://25367 (99.09)</t>
+          <t>maa://25367 (99.1)</t>
         </is>
       </c>
       <c r="E298" s="3" t="inlineStr">
@@ -9493,7 +9493,7 @@
       </c>
       <c r="D320" s="12" t="inlineStr">
         <is>
-          <t>maa://38295 (96.92)</t>
+          <t>maa://38295 (96.97)</t>
         </is>
       </c>
       <c r="E320" s="3" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="D329" s="12" t="inlineStr">
         <is>
-          <t>maa://34865 (97.21), maa://34717 (93.44), maa://45066 (100.0)</t>
+          <t>maa://34865 (97.22), maa://34717 (93.55), maa://45066 (100.0)</t>
         </is>
       </c>
       <c r="E329" s="3" t="inlineStr">
@@ -9925,7 +9925,7 @@
       </c>
       <c r="D336" s="14" t="inlineStr">
         <is>
-          <t>maa://36645 (97.89), maa://36841 (94.44), maa://37484 (93.62), maa://37858 (91.3)</t>
+          <t>maa://36645 (97.9), maa://36841 (94.55), maa://37484 (93.62), maa://37858 (91.3)</t>
         </is>
       </c>
       <c r="E336" s="14" t="inlineStr">
@@ -10195,7 +10195,7 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>maa://41110 (98.75)</t>
+          <t>maa://41110 (98.78)</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
@@ -10384,7 +10384,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>maa://42970 (88.33), maa://44745 (90.0), maa://44896 (100.0)</t>
+          <t>maa://42970 (88.33), maa://44745 (90.91), maa://44896 (100.0)</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.12 13:18:28</t>
+          <t>更新日期：2025.01.17 13:17:18</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="D23" s="12" t="inlineStr">
         <is>
-          <t>maa://20876 (93.75)</t>
+          <t>maa://20876 (94.12)</t>
         </is>
       </c>
       <c r="E23" s="3" t="inlineStr">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="D37" s="12" t="inlineStr">
         <is>
-          <t>maa://27376 (90.62), *maa://20838 (52.94), maa://42635 (94.12)</t>
+          <t>maa://27376 (91.18), *maa://20838 (52.94), maa://42635 (94.12)</t>
         </is>
       </c>
       <c r="E37" s="3" t="inlineStr">
@@ -2176,7 +2176,7 @@
       </c>
       <c r="D49" s="12" t="inlineStr">
         <is>
-          <t>*maa://32845 (75.0), *maa://20982 (66.67)</t>
+          <t>*maa://32845 (66.67), *maa://20982 (66.67)</t>
         </is>
       </c>
       <c r="E49" s="3" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="D56" s="12" t="inlineStr">
         <is>
-          <t>maa://44235 (96.0)</t>
+          <t>maa://44235 (96.1)</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="D58" s="12" t="inlineStr">
         <is>
-          <t>maa://28900 (95.89), maa://30126 (100.0)</t>
+          <t>maa://28900 (95.95), maa://30126 (100.0)</t>
         </is>
       </c>
       <c r="E58" s="3" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="D60" s="12" t="inlineStr">
         <is>
-          <t>maa://38298 (84.0)</t>
+          <t>maa://38298 (84.62)</t>
         </is>
       </c>
       <c r="E60" s="3" t="inlineStr">
@@ -2689,7 +2689,7 @@
       </c>
       <c r="D68" s="12" t="inlineStr">
         <is>
-          <t>maa://20976 (97.42), maa://20815 (100.0)</t>
+          <t>maa://20976 (97.44), maa://20815 (100.0)</t>
         </is>
       </c>
       <c r="E68" s="3" t="inlineStr">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="D69" s="12" t="inlineStr">
         <is>
-          <t>maa://28784 (94.04), maa://29088 (91.62), maa://20974 (95.71), maa://31124 (96.34), maa://28950 (92.0), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (80.0), **maa://42200 (50.0), maa://41832 (85.71)</t>
+          <t>maa://28784 (94.04), maa://29088 (91.62), maa://20974 (95.71), maa://31124 (96.43), maa://28950 (92.0), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (80.0), **maa://42200 (50.0), maa://41832 (85.71)</t>
         </is>
       </c>
       <c r="E69" s="3" t="inlineStr">
@@ -2797,7 +2797,7 @@
       </c>
       <c r="D72" s="12" t="inlineStr">
         <is>
-          <t>maa://36643 (97.73), maa://36864 (97.53), maa://39140 (100.0)</t>
+          <t>maa://36643 (97.5), maa://36864 (97.53), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E72" s="3" t="inlineStr">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="D88" s="12" t="inlineStr">
         <is>
-          <t>maa://24472 (86.25), *maa://35841 (54.55)</t>
+          <t>maa://24472 (86.34), *maa://35841 (54.55)</t>
         </is>
       </c>
       <c r="E88" s="3" t="inlineStr">
@@ -3310,7 +3310,7 @@
       </c>
       <c r="D91" s="12" t="inlineStr">
         <is>
-          <t>maa://24609 (90.48)</t>
+          <t>maa://24609 (90.91)</t>
         </is>
       </c>
       <c r="E91" s="3" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="D108" s="12" t="inlineStr">
         <is>
-          <t>maa://25018 (96.09), maa://25776 (90.62), maa://28361 (96.77), maa://25772 (92.86), *maa://25161 (80.0), maa://32653 (85.71), *maa://45194 (75.0)</t>
+          <t>maa://25018 (96.1), maa://25776 (90.62), maa://28361 (96.77), maa://25772 (92.86), *maa://25161 (80.0), maa://32653 (85.71), *maa://45194 (75.0)</t>
         </is>
       </c>
       <c r="E108" s="3" t="inlineStr">
@@ -4363,7 +4363,7 @@
       </c>
       <c r="D130" s="12" t="inlineStr">
         <is>
-          <t>maa://21422 (99.08)</t>
+          <t>maa://21422 (99.13)</t>
         </is>
       </c>
       <c r="E130" s="3" t="inlineStr">
@@ -4714,7 +4714,7 @@
       </c>
       <c r="D143" s="12" t="inlineStr">
         <is>
-          <t>maa://30670 (96.43), maa://31470 (95.65), ***maa://30867 (25.0), maa://45066 (100.0)</t>
+          <t>maa://30670 (96.46), maa://31470 (95.65), ***maa://30867 (25.0), maa://45066 (100.0)</t>
         </is>
       </c>
       <c r="E143" s="3" t="inlineStr">
@@ -4876,7 +4876,7 @@
       </c>
       <c r="D149" s="12" t="inlineStr">
         <is>
-          <t>maa://36641 (98.32), maa://36865 (96.0), maa://42918 (100.0), maa://44119 (96.0), maa://37300 (100.0), maa://42917 (100.0)</t>
+          <t>maa://36641 (98.33), maa://36865 (96.0), maa://42918 (100.0), maa://44119 (96.0), maa://37300 (100.0), maa://42917 (100.0)</t>
         </is>
       </c>
       <c r="E149" s="3" t="inlineStr">
@@ -5119,7 +5119,7 @@
       </c>
       <c r="D158" s="12" t="inlineStr">
         <is>
-          <t>maa://44232 (99.12), maa://44305 (100.0)</t>
+          <t>maa://44232 (99.13), maa://44305 (100.0)</t>
         </is>
       </c>
       <c r="E158" s="3" t="inlineStr">
@@ -5227,7 +5227,7 @@
       </c>
       <c r="D162" s="12" t="inlineStr">
         <is>
-          <t>*maa://32845 (75.0), maa://29054 (100.0)</t>
+          <t>*maa://32845 (66.67), maa://29054 (100.0)</t>
         </is>
       </c>
       <c r="E162" s="3" t="inlineStr">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="D166" s="12" t="inlineStr">
         <is>
-          <t>maa://29633 (93.9), maa://29627 (92.9), maa://29659 (83.33), maa://29861 (100.0)</t>
+          <t>maa://29633 (93.95), maa://29627 (92.93), maa://29659 (83.33), maa://29861 (100.0)</t>
         </is>
       </c>
       <c r="E166" s="3" t="inlineStr">
@@ -5902,7 +5902,7 @@
       </c>
       <c r="D187" s="12" t="inlineStr">
         <is>
-          <t>maa://34866 (90.0), maa://34714 (96.0)</t>
+          <t>maa://34866 (90.0), maa://34714 (96.15)</t>
         </is>
       </c>
       <c r="E187" s="3" t="inlineStr">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="D194" s="12" t="inlineStr">
         <is>
-          <t>*maa://35854 (77.5), maa://25760 (85.87), maa://44224 (88.46), **maa://20872 (50.0), ***maa://43443 (27.27), ***maa://43911 (20.0)</t>
+          <t>*maa://35854 (77.5), maa://25760 (85.87), maa://44224 (88.75), **maa://20872 (50.0), ***maa://43443 (27.27), ***maa://43911 (20.0)</t>
         </is>
       </c>
       <c r="E194" s="3" t="inlineStr">
@@ -6118,7 +6118,7 @@
       </c>
       <c r="D195" s="12" t="inlineStr">
         <is>
-          <t>maa://39156 (85.71), *maa://39550 (80.0)</t>
+          <t>maa://39156 (86.36), *maa://39550 (80.0)</t>
         </is>
       </c>
       <c r="E195" s="3" t="inlineStr">
@@ -6199,7 +6199,7 @@
       </c>
       <c r="D198" s="12" t="inlineStr">
         <is>
-          <t>maa://42223 (99.39), maa://42292 (95.45), maa://42402 (100.0)</t>
+          <t>maa://42223 (99.39), maa://42292 (95.65), maa://42402 (100.0)</t>
         </is>
       </c>
       <c r="E198" s="3" t="inlineStr">
@@ -6496,7 +6496,7 @@
       </c>
       <c r="D209" s="12" t="inlineStr">
         <is>
-          <t>maa://39238 (99.23)</t>
+          <t>maa://39238 (99.24)</t>
         </is>
       </c>
       <c r="E209" s="3" t="inlineStr">
@@ -6955,7 +6955,7 @@
       </c>
       <c r="D226" s="12" t="inlineStr">
         <is>
-          <t>maa://29058 (94.64), maa://39140 (100.0), maa://38723 (100.0)</t>
+          <t>maa://29058 (94.74), maa://39140 (100.0), maa://38723 (100.0)</t>
         </is>
       </c>
       <c r="E226" s="3" t="inlineStr">
@@ -7009,7 +7009,7 @@
       </c>
       <c r="D228" s="12" t="inlineStr">
         <is>
-          <t>maa://20878 (87.5)</t>
+          <t>maa://20878 (85.71)</t>
         </is>
       </c>
       <c r="E228" s="3" t="inlineStr">
@@ -7063,7 +7063,7 @@
       </c>
       <c r="D230" s="12" t="inlineStr">
         <is>
-          <t>maa://20917 (97.67)</t>
+          <t>maa://20917 (97.73)</t>
         </is>
       </c>
       <c r="E230" s="3" t="inlineStr">
@@ -7171,7 +7171,7 @@
       </c>
       <c r="D234" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (77.72), maa://30666 (83.74), *maa://26836 (77.48), maa://37607 (94.02), **maa://30739 (44.44), *maa://34428 (70.11), *maa://30723 (52.73), maa://39588 (87.5), *maa://37850 (75.0)</t>
+          <t>*maa://30667 (77.72), maa://30666 (83.82), *maa://26836 (77.48), maa://37607 (94.16), **maa://30739 (44.44), *maa://34428 (70.45), *maa://30723 (52.73), maa://39588 (87.5), *maa://37850 (75.0)</t>
         </is>
       </c>
       <c r="E234" s="3" t="inlineStr">
@@ -7387,7 +7387,7 @@
       </c>
       <c r="D242" s="12" t="inlineStr">
         <is>
-          <t>maa://28923 (91.52), maa://28906 (97.73), ***maa://28825 (12.0)</t>
+          <t>maa://28923 (91.62), maa://28906 (97.73), ***maa://28825 (12.0)</t>
         </is>
       </c>
       <c r="E242" s="3" t="inlineStr">
@@ -7468,7 +7468,7 @@
       </c>
       <c r="D245" s="12" t="inlineStr">
         <is>
-          <t>maa://20923 (90.0)</t>
+          <t>maa://20923 (90.48)</t>
         </is>
       </c>
       <c r="E245" s="3" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="D249" s="12" t="inlineStr">
         <is>
-          <t>maa://20877 (98.31), maa://20836 (100.0), maa://20632 (100.0), maa://45067 (100.0)</t>
+          <t>maa://20877 (98.36), maa://20836 (100.0), maa://20632 (100.0), maa://45067 (100.0)</t>
         </is>
       </c>
       <c r="E249" s="3" t="inlineStr">
@@ -7603,7 +7603,7 @@
       </c>
       <c r="D250" s="12" t="inlineStr">
         <is>
-          <t>maa://20879 (85.11), maa://20834 (92.86)</t>
+          <t>maa://20879 (85.42), maa://20834 (92.86)</t>
         </is>
       </c>
       <c r="E250" s="3" t="inlineStr">
@@ -7900,7 +7900,7 @@
       </c>
       <c r="D261" s="12" t="inlineStr">
         <is>
-          <t>maa://25769 (96.67)</t>
+          <t>maa://25769 (96.72)</t>
         </is>
       </c>
       <c r="E261" s="3" t="inlineStr">
@@ -8278,7 +8278,7 @@
       </c>
       <c r="D275" s="12" t="inlineStr">
         <is>
-          <t>maa://20899 (89.74), **maa://44744 (50.0)</t>
+          <t>maa://20899 (89.81), **maa://44744 (33.33)</t>
         </is>
       </c>
       <c r="E275" s="3" t="inlineStr">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="D277" s="12" t="inlineStr">
         <is>
-          <t>maa://30710 (97.41), maa://36845 (95.15), maa://31558 (96.97), **maa://39217 (37.5), maa://30668 (84.62)</t>
+          <t>maa://30710 (97.41), maa://36845 (95.15), maa://31558 (97.06), **maa://39217 (37.5), maa://30668 (85.19)</t>
         </is>
       </c>
       <c r="E277" s="3" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="D281" s="12" t="inlineStr">
         <is>
-          <t>maa://32414 (98.59), maa://32505 (100.0), maa://39155 (95.65)</t>
+          <t>maa://32414 (98.6), maa://32505 (100.0), maa://39155 (95.83)</t>
         </is>
       </c>
       <c r="E281" s="3" t="inlineStr">
@@ -8494,7 +8494,7 @@
       </c>
       <c r="D283" s="12" t="inlineStr">
         <is>
-          <t>maa://36642 (100.0), maa://36867 (96.67), maa://39155 (95.65)</t>
+          <t>maa://36642 (100.0), maa://36867 (96.77), maa://39155 (95.83)</t>
         </is>
       </c>
       <c r="E283" s="3" t="inlineStr">
@@ -8548,7 +8548,7 @@
       </c>
       <c r="D285" s="12" t="inlineStr">
         <is>
-          <t>maa://29005 (98.25), maa://31560 (85.71)</t>
+          <t>maa://29005 (98.31), maa://31560 (85.71)</t>
         </is>
       </c>
       <c r="E285" s="3" t="inlineStr">
@@ -8764,7 +8764,7 @@
       </c>
       <c r="D293" s="12" t="inlineStr">
         <is>
-          <t>maa://35859 (96.92)</t>
+          <t>maa://35859 (97.01)</t>
         </is>
       </c>
       <c r="E293" s="3" t="inlineStr">
@@ -8845,7 +8845,7 @@
       </c>
       <c r="D296" s="12" t="inlineStr">
         <is>
-          <t>maa://25775 (92.98), *maa://25393 (76.92)</t>
+          <t>maa://25775 (93.1), *maa://25393 (71.43)</t>
         </is>
       </c>
       <c r="E296" s="3" t="inlineStr">
@@ -9358,7 +9358,7 @@
       </c>
       <c r="D315" s="12" t="inlineStr">
         <is>
-          <t>maa://44234 (98.08)</t>
+          <t>maa://44234 (98.15)</t>
         </is>
       </c>
       <c r="E315" s="3" t="inlineStr">
@@ -9466,7 +9466,7 @@
       </c>
       <c r="D319" s="12" t="inlineStr">
         <is>
-          <t>maa://30671 (81.99), maa://30669 (98.86), maa://37275 (83.78), *maa://32410 (66.67), maa://41605 (100.0), maa://33671 (100.0)</t>
+          <t>maa://30671 (82.1), maa://30669 (98.89), maa://37275 (83.78), *maa://32410 (66.67), maa://41605 (100.0), maa://33671 (100.0)</t>
         </is>
       </c>
       <c r="E319" s="3" t="inlineStr">
@@ -9493,7 +9493,7 @@
       </c>
       <c r="D320" s="12" t="inlineStr">
         <is>
-          <t>maa://38295 (96.97)</t>
+          <t>maa://38295 (95.52)</t>
         </is>
       </c>
       <c r="E320" s="3" t="inlineStr">
@@ -9574,7 +9574,7 @@
       </c>
       <c r="D323" s="12" t="inlineStr">
         <is>
-          <t>maa://32416 (86.84)</t>
+          <t>maa://32416 (87.18)</t>
         </is>
       </c>
       <c r="E323" s="3" t="inlineStr">
@@ -9601,7 +9601,7 @@
       </c>
       <c r="D324" s="12" t="inlineStr">
         <is>
-          <t>maa://32647 (97.25), maa://32415 (96.06), maa://34677 (100.0), maa://32892 (100.0)</t>
+          <t>maa://32647 (97.26), maa://32415 (96.06), maa://34677 (100.0), maa://32892 (100.0)</t>
         </is>
       </c>
       <c r="E324" s="3" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="D329" s="12" t="inlineStr">
         <is>
-          <t>maa://34865 (97.22), maa://34717 (93.55), maa://45066 (100.0)</t>
+          <t>maa://34865 (97.25), maa://34717 (93.65), maa://45066 (100.0)</t>
         </is>
       </c>
       <c r="E329" s="3" t="inlineStr">
@@ -9898,7 +9898,7 @@
       </c>
       <c r="D335" s="14" t="inlineStr">
         <is>
-          <t>maa://36646 (98.45), maa://36845 (95.15), **maa://39217 (37.5)</t>
+          <t>maa://36646 (98.46), maa://36845 (95.15), **maa://39217 (37.5)</t>
         </is>
       </c>
       <c r="E335" s="14" t="inlineStr">
@@ -9925,7 +9925,7 @@
       </c>
       <c r="D336" s="14" t="inlineStr">
         <is>
-          <t>maa://36645 (97.9), maa://36841 (94.55), maa://37484 (93.62), maa://37858 (91.3)</t>
+          <t>maa://36645 (97.91), maa://36841 (94.55), maa://37484 (93.62), maa://37858 (91.3)</t>
         </is>
       </c>
       <c r="E336" s="14" t="inlineStr">
@@ -10033,7 +10033,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>maa://40957 (87.1), maa://41035 (89.58), maa://41128 (80.65), maa://44635 (82.14), maa://44660 (88.89)</t>
+          <t>maa://40957 (87.1), maa://41035 (89.58), maa://41128 (80.65), maa://44635 (82.76), maa://44660 (89.47)</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>maa://41976 (100.0), maa://42338 (100.0)</t>
+          <t>maa://42338 (100.0), maa://41976 (100.0)</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
@@ -10276,7 +10276,7 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>maa://44233 (92.86)</t>
+          <t>maa://44233 (93.1)</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
@@ -10384,7 +10384,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>maa://42970 (88.33), maa://44745 (90.91), maa://44896 (100.0)</t>
+          <t>maa://42970 (88.17), maa://44745 (91.67), maa://44896 (100.0)</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.17 13:17:18</t>
+          <t>更新日期：2025.01.18 13:16:09</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="D60" s="12" t="inlineStr">
         <is>
-          <t>maa://38298 (84.62)</t>
+          <t>maa://38298 (84.91)</t>
         </is>
       </c>
       <c r="E60" s="3" t="inlineStr">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="D69" s="12" t="inlineStr">
         <is>
-          <t>maa://28784 (94.04), maa://29088 (91.62), maa://20974 (95.71), maa://31124 (96.43), maa://28950 (92.0), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (80.0), **maa://42200 (50.0), maa://41832 (85.71)</t>
+          <t>maa://28784 (94.04), maa://29088 (91.62), maa://20974 (95.71), maa://31124 (96.45), maa://28950 (92.0), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (80.0), **maa://42200 (50.0), maa://41832 (85.71)</t>
         </is>
       </c>
       <c r="E69" s="3" t="inlineStr">
@@ -4363,7 +4363,7 @@
       </c>
       <c r="D130" s="12" t="inlineStr">
         <is>
-          <t>maa://21422 (99.13)</t>
+          <t>maa://21422 (99.14)</t>
         </is>
       </c>
       <c r="E130" s="3" t="inlineStr">
@@ -4417,7 +4417,7 @@
       </c>
       <c r="D132" s="12" t="inlineStr">
         <is>
-          <t>maa://23019 (100.0), maa://20837 (100.0), maa://40517 (92.86), maa://37113 (100.0), maa://37666 (83.33), maa://41686 (100.0)</t>
+          <t>maa://23019 (100.0), maa://20837 (100.0), maa://40517 (92.86), maa://37113 (100.0), maa://37666 (85.71), maa://41686 (100.0)</t>
         </is>
       </c>
       <c r="E132" s="3" t="inlineStr">
@@ -4444,7 +4444,7 @@
       </c>
       <c r="D133" s="12" t="inlineStr">
         <is>
-          <t>maa://23020 (95.89), maa://29023 (100.0), maa://41690 (100.0), maa://39515 (83.33), maa://34319 (100.0)</t>
+          <t>maa://23020 (95.89), maa://29023 (100.0), maa://41690 (100.0), maa://39515 (85.71), maa://34319 (100.0)</t>
         </is>
       </c>
       <c r="E133" s="3" t="inlineStr">
@@ -4714,7 +4714,7 @@
       </c>
       <c r="D143" s="12" t="inlineStr">
         <is>
-          <t>maa://30670 (96.46), maa://31470 (95.65), ***maa://30867 (25.0), maa://45066 (100.0)</t>
+          <t>maa://30670 (96.49), maa://31470 (95.65), ***maa://30867 (25.0), maa://45066 (100.0)</t>
         </is>
       </c>
       <c r="E143" s="3" t="inlineStr">
@@ -5011,7 +5011,7 @@
       </c>
       <c r="D154" s="12" t="inlineStr">
         <is>
-          <t>maa://20945 (90.48)</t>
+          <t>maa://20945 (90.91)</t>
         </is>
       </c>
       <c r="E154" s="3" t="inlineStr">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="D166" s="12" t="inlineStr">
         <is>
-          <t>maa://29633 (93.95), maa://29627 (92.93), maa://29659 (83.33), maa://29861 (100.0)</t>
+          <t>maa://29633 (93.98), maa://29627 (92.93), maa://29659 (83.33), maa://29861 (100.0)</t>
         </is>
       </c>
       <c r="E166" s="3" t="inlineStr">
@@ -6118,7 +6118,7 @@
       </c>
       <c r="D195" s="12" t="inlineStr">
         <is>
-          <t>maa://39156 (86.36), *maa://39550 (80.0)</t>
+          <t>maa://39156 (86.36), maa://39550 (83.33)</t>
         </is>
       </c>
       <c r="E195" s="3" t="inlineStr">
@@ -6145,7 +6145,7 @@
       </c>
       <c r="D196" s="12" t="inlineStr">
         <is>
-          <t>maa://27823 (81.67), *maa://28190 (59.38), maa://22894 (90.62), *maa://20906 (72.22), **maa://20907 (35.48)</t>
+          <t>maa://27823 (81.67), *maa://28190 (59.38), maa://22894 (90.91), *maa://20906 (72.22), **maa://20907 (35.48)</t>
         </is>
       </c>
       <c r="E196" s="3" t="inlineStr">
@@ -6172,7 +6172,7 @@
       </c>
       <c r="D197" s="12" t="inlineStr">
         <is>
-          <t>maa://27823 (81.67), *maa://28190 (59.38), maa://22894 (90.62), *maa://20906 (72.22), **maa://20907 (35.48)</t>
+          <t>maa://27823 (81.67), *maa://28190 (59.38), maa://22894 (90.91), *maa://20906 (72.22), **maa://20907 (35.48)</t>
         </is>
       </c>
       <c r="E197" s="3" t="inlineStr">
@@ -6199,7 +6199,7 @@
       </c>
       <c r="D198" s="12" t="inlineStr">
         <is>
-          <t>maa://42223 (99.39), maa://42292 (95.65), maa://42402 (100.0)</t>
+          <t>maa://42223 (99.4), maa://42292 (95.65), maa://42402 (100.0)</t>
         </is>
       </c>
       <c r="E198" s="3" t="inlineStr">
@@ -7171,7 +7171,7 @@
       </c>
       <c r="D234" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (77.72), maa://30666 (83.82), *maa://26836 (77.48), maa://37607 (94.16), **maa://30739 (44.44), *maa://34428 (70.45), *maa://30723 (52.73), maa://39588 (87.5), *maa://37850 (75.0)</t>
+          <t>*maa://30667 (77.72), maa://30666 (83.82), *maa://26836 (77.48), maa://37607 (94.16), **maa://30739 (44.44), *maa://34428 (70.0), *maa://30723 (52.73), maa://39588 (87.5), *maa://37850 (75.0)</t>
         </is>
       </c>
       <c r="E234" s="3" t="inlineStr">
@@ -7279,7 +7279,7 @@
       </c>
       <c r="D238" s="12" t="inlineStr">
         <is>
-          <t>maa://20867 (92.86), maa://38485 (87.5), *maa://32202 (80.0)</t>
+          <t>maa://20867 (92.86), maa://38485 (88.89), *maa://32202 (80.0)</t>
         </is>
       </c>
       <c r="E238" s="3" t="inlineStr">
@@ -7387,7 +7387,7 @@
       </c>
       <c r="D242" s="12" t="inlineStr">
         <is>
-          <t>maa://28923 (91.62), maa://28906 (97.73), ***maa://28825 (12.0)</t>
+          <t>maa://28923 (91.67), maa://28906 (97.73), ***maa://28825 (12.0)</t>
         </is>
       </c>
       <c r="E242" s="3" t="inlineStr">
@@ -7873,7 +7873,7 @@
       </c>
       <c r="D260" s="12" t="inlineStr">
         <is>
-          <t>*maa://20825 (66.67), *maa://21445 (76.92), *maa://35726 (60.0), ***maa://20891 (30.0)</t>
+          <t>*maa://20825 (66.67), *maa://21445 (76.92), *maa://35726 (63.64), ***maa://20891 (30.0)</t>
         </is>
       </c>
       <c r="E260" s="3" t="inlineStr">
@@ -9358,7 +9358,7 @@
       </c>
       <c r="D315" s="12" t="inlineStr">
         <is>
-          <t>maa://44234 (98.15)</t>
+          <t>maa://44234 (98.18)</t>
         </is>
       </c>
       <c r="E315" s="3" t="inlineStr">
@@ -10033,7 +10033,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>maa://40957 (87.1), maa://41035 (89.58), maa://41128 (80.65), maa://44635 (82.76), maa://44660 (89.47)</t>
+          <t>maa://40957 (87.17), maa://41035 (89.58), maa://41128 (80.65), maa://44635 (82.76), maa://44660 (90.0)</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -10195,7 +10195,7 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>maa://41110 (98.78)</t>
+          <t>maa://41110 (97.59)</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
@@ -10384,7 +10384,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>maa://42970 (88.17), maa://44745 (91.67), maa://44896 (100.0)</t>
+          <t>maa://42970 (88.36), maa://44745 (91.67), maa://44896 (100.0)</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.18 13:16:09</t>
+          <t>更新日期：2025.01.18 14:49:21</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -5384,12 +5384,12 @@
       </c>
       <c r="C168" s="13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D168" s="12" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://45556 (100.0)</t>
         </is>
       </c>
       <c r="E168" s="3" t="inlineStr">
@@ -7063,7 +7063,7 @@
       </c>
       <c r="D230" s="12" t="inlineStr">
         <is>
-          <t>maa://20917 (97.73)</t>
+          <t>maa://20917 (97.78)</t>
         </is>
       </c>
       <c r="E230" s="3" t="inlineStr">
@@ -9947,12 +9947,12 @@
       </c>
       <c r="C337" s="13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D337" s="14" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://42635 (94.12)</t>
         </is>
       </c>
       <c r="E337" s="14" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -485,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB354"/>
+  <dimension ref="A1:AB361"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.18 14:49:21</t>
+          <t>更新日期：2025.01.25 08:45:24</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="D23" s="12" t="inlineStr">
         <is>
-          <t>maa://20876 (94.12)</t>
+          <t>maa://20876 (94.44)</t>
         </is>
       </c>
       <c r="E23" s="3" t="inlineStr">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>maa://20863 (86.52), maa://20832 (98.55), maa://20727 (100.0)</t>
+          <t>maa://20863 (86.67), maa://20832 (98.59), maa://20727 (100.0)</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="D32" s="12" t="inlineStr">
         <is>
-          <t>maa://36644 (88.28), maa://36866 (97.5), maa://27794 (100.0)</t>
+          <t>maa://36644 (88.36), maa://36866 (97.5), maa://27794 (100.0)</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="D37" s="12" t="inlineStr">
         <is>
-          <t>maa://27376 (91.18), *maa://20838 (52.94), maa://42635 (94.12)</t>
+          <t>maa://27376 (91.18), *maa://20838 (52.94), maa://42635 (94.44)</t>
         </is>
       </c>
       <c r="E37" s="3" t="inlineStr">
@@ -2338,7 +2338,7 @@
       </c>
       <c r="D55" s="12" t="inlineStr">
         <is>
-          <t>maa://20932 (96.71), maa://42415 (100.0), maa://40838 (100.0)</t>
+          <t>maa://20932 (96.73), maa://42415 (100.0), maa://40838 (100.0)</t>
         </is>
       </c>
       <c r="E55" s="3" t="inlineStr">
@@ -2360,12 +2360,12 @@
       </c>
       <c r="C56" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D56" s="12" t="inlineStr">
         <is>
-          <t>maa://44235 (96.1)</t>
+          <t>maa://44235 (96.15), maa://45604 (100.0)</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="D57" s="12" t="inlineStr">
         <is>
-          <t>*maa://20965 (70.0)</t>
+          <t>*maa://20965 (70.97)</t>
         </is>
       </c>
       <c r="E57" s="3" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="D58" s="12" t="inlineStr">
         <is>
-          <t>maa://28900 (95.95), maa://30126 (100.0)</t>
+          <t>maa://28900 (96.05), maa://30126 (100.0)</t>
         </is>
       </c>
       <c r="E58" s="3" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="D60" s="12" t="inlineStr">
         <is>
-          <t>maa://38298 (84.91)</t>
+          <t>maa://38298 (85.45)</t>
         </is>
       </c>
       <c r="E60" s="3" t="inlineStr">
@@ -2581,7 +2581,7 @@
       </c>
       <c r="D64" s="12" t="inlineStr">
         <is>
-          <t>maa://28187 (97.06), maa://33504 (100.0), maa://39520 (100.0), maa://43531 (100.0), maa://45144 (100.0)</t>
+          <t>maa://28187 (97.14), maa://33504 (100.0), maa://39520 (100.0), maa://43531 (100.0), maa://45144 (100.0)</t>
         </is>
       </c>
       <c r="E64" s="3" t="inlineStr">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="D69" s="12" t="inlineStr">
         <is>
-          <t>maa://28784 (94.04), maa://29088 (91.62), maa://20974 (95.71), maa://31124 (96.45), maa://28950 (92.0), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (80.0), **maa://42200 (50.0), maa://41832 (85.71)</t>
+          <t>maa://28784 (94.07), maa://29088 (91.67), maa://20974 (95.71), maa://31124 (96.55), maa://28950 (92.0), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (80.0), **maa://42200 (50.0), maa://41832 (85.71)</t>
         </is>
       </c>
       <c r="E69" s="3" t="inlineStr">
@@ -2743,7 +2743,7 @@
       </c>
       <c r="D70" s="12" t="inlineStr">
         <is>
-          <t>maa://20944 (94.59), maa://35393 (100.0)</t>
+          <t>maa://20944 (94.74), maa://35393 (100.0)</t>
         </is>
       </c>
       <c r="E70" s="3" t="inlineStr">
@@ -2770,7 +2770,7 @@
       </c>
       <c r="D71" s="12" t="inlineStr">
         <is>
-          <t>maa://20943 (99.22)</t>
+          <t>maa://20943 (99.23)</t>
         </is>
       </c>
       <c r="E71" s="3" t="inlineStr">
@@ -2797,7 +2797,7 @@
       </c>
       <c r="D72" s="12" t="inlineStr">
         <is>
-          <t>maa://36643 (97.5), maa://36864 (97.53), maa://39140 (100.0)</t>
+          <t>maa://36643 (97.52), maa://36864 (97.53), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E72" s="3" t="inlineStr">
@@ -3202,7 +3202,7 @@
       </c>
       <c r="D87" s="12" t="inlineStr">
         <is>
-          <t>maa://20886 (90.0), maa://25136 (95.0)</t>
+          <t>maa://20886 (90.0), maa://25136 (95.45)</t>
         </is>
       </c>
       <c r="E87" s="3" t="inlineStr">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="D88" s="12" t="inlineStr">
         <is>
-          <t>maa://24472 (86.34), *maa://35841 (54.55)</t>
+          <t>maa://24472 (86.42), *maa://35841 (54.55)</t>
         </is>
       </c>
       <c r="E88" s="3" t="inlineStr">
@@ -3607,7 +3607,7 @@
       </c>
       <c r="D102" s="12" t="inlineStr">
         <is>
-          <t>maa://40517 (92.86), *maa://39240 (57.14)</t>
+          <t>maa://40517 (94.12), *maa://39240 (57.14)</t>
         </is>
       </c>
       <c r="E102" s="3" t="inlineStr">
@@ -3634,7 +3634,7 @@
       </c>
       <c r="D103" s="12" t="inlineStr">
         <is>
-          <t>*maa://29094 (63.89), maa://28904 (84.0), **maa://20931 (42.31)</t>
+          <t>*maa://29094 (63.89), maa://28904 (84.62), **maa://20931 (42.31)</t>
         </is>
       </c>
       <c r="E103" s="3" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="D108" s="12" t="inlineStr">
         <is>
-          <t>maa://25018 (96.1), maa://25776 (90.62), maa://28361 (96.77), maa://25772 (92.86), *maa://25161 (80.0), maa://32653 (85.71), *maa://45194 (75.0)</t>
+          <t>maa://25018 (96.12), maa://25776 (90.77), maa://28361 (96.88), maa://25772 (93.02), *maa://25161 (80.0), maa://32653 (85.71), *maa://45194 (66.67)</t>
         </is>
       </c>
       <c r="E108" s="3" t="inlineStr">
@@ -3850,7 +3850,7 @@
       </c>
       <c r="D111" s="12" t="inlineStr">
         <is>
-          <t>*maa://28554 (80.0)</t>
+          <t>*maa://28554 (76.19)</t>
         </is>
       </c>
       <c r="E111" s="3" t="inlineStr">
@@ -3904,7 +3904,7 @@
       </c>
       <c r="D113" s="12" t="inlineStr">
         <is>
-          <t>maa://29037 (97.78)</t>
+          <t>maa://29037 (97.83)</t>
         </is>
       </c>
       <c r="E113" s="3" t="inlineStr">
@@ -4142,12 +4142,12 @@
       </c>
       <c r="C122" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D122" s="12" t="inlineStr">
         <is>
-          <t>maa://29650 (97.78)</t>
+          <t>maa://29650 (97.78), maa://45570 (100.0)</t>
         </is>
       </c>
       <c r="E122" s="3" t="inlineStr">
@@ -4363,7 +4363,7 @@
       </c>
       <c r="D130" s="12" t="inlineStr">
         <is>
-          <t>maa://21422 (99.14)</t>
+          <t>maa://21422 (99.15)</t>
         </is>
       </c>
       <c r="E130" s="3" t="inlineStr">
@@ -4417,7 +4417,7 @@
       </c>
       <c r="D132" s="12" t="inlineStr">
         <is>
-          <t>maa://23019 (100.0), maa://20837 (100.0), maa://40517 (92.86), maa://37113 (100.0), maa://37666 (85.71), maa://41686 (100.0)</t>
+          <t>maa://23019 (100.0), maa://40517 (94.12), maa://20837 (100.0), maa://37113 (100.0), maa://37666 (85.71), maa://41686 (100.0)</t>
         </is>
       </c>
       <c r="E132" s="3" t="inlineStr">
@@ -4579,7 +4579,7 @@
       </c>
       <c r="D138" s="12" t="inlineStr">
         <is>
-          <t>**maa://21000 (41.38), *maa://29025 (76.47)</t>
+          <t>**maa://21000 (41.38), *maa://29025 (77.78)</t>
         </is>
       </c>
       <c r="E138" s="3" t="inlineStr">
@@ -4687,7 +4687,7 @@
       </c>
       <c r="D142" s="12" t="inlineStr">
         <is>
-          <t>maa://28484 (97.73), **maa://23736 (41.54), *maa://31185 (80.0), maa://30306 (100.0)</t>
+          <t>maa://28484 (97.75), **maa://23736 (41.54), *maa://31185 (80.0), maa://30306 (100.0)</t>
         </is>
       </c>
       <c r="E142" s="3" t="inlineStr">
@@ -4714,7 +4714,7 @@
       </c>
       <c r="D143" s="12" t="inlineStr">
         <is>
-          <t>maa://30670 (96.49), maa://31470 (95.65), ***maa://30867 (25.0), maa://45066 (100.0)</t>
+          <t>maa://30670 (96.55), maa://31470 (95.65), maa://45066 (100.0), ***maa://30867 (25.0)</t>
         </is>
       </c>
       <c r="E143" s="3" t="inlineStr">
@@ -4876,7 +4876,7 @@
       </c>
       <c r="D149" s="12" t="inlineStr">
         <is>
-          <t>maa://36641 (98.33), maa://36865 (96.0), maa://42918 (100.0), maa://44119 (96.0), maa://37300 (100.0), maa://42917 (100.0)</t>
+          <t>maa://36641 (98.33), maa://36865 (96.03), maa://42918 (100.0), maa://44119 (96.15), maa://37300 (100.0), maa://42917 (100.0)</t>
         </is>
       </c>
       <c r="E149" s="3" t="inlineStr">
@@ -5114,12 +5114,12 @@
       </c>
       <c r="C158" s="13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D158" s="12" t="inlineStr">
         <is>
-          <t>maa://44232 (99.13), maa://44305 (100.0)</t>
+          <t>maa://44232 (99.16), maa://44305 (100.0), maa://45603 (100.0)</t>
         </is>
       </c>
       <c r="E158" s="3" t="inlineStr">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="D166" s="12" t="inlineStr">
         <is>
-          <t>maa://29633 (93.98), maa://29627 (92.93), maa://29659 (83.33), maa://29861 (100.0)</t>
+          <t>maa://29633 (94.0), maa://29627 (92.97), maa://29659 (83.33), maa://29861 (100.0)</t>
         </is>
       </c>
       <c r="E166" s="3" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="D172" s="12" t="inlineStr">
         <is>
-          <t>maa://32418 (99.57)</t>
+          <t>maa://32418 (99.58)</t>
         </is>
       </c>
       <c r="E172" s="3" t="inlineStr">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="D194" s="12" t="inlineStr">
         <is>
-          <t>*maa://35854 (77.5), maa://25760 (85.87), maa://44224 (88.75), **maa://20872 (50.0), ***maa://43443 (27.27), ***maa://43911 (20.0)</t>
+          <t>*maa://35854 (77.5), maa://25760 (85.87), maa://44224 (88.89), **maa://20872 (50.0), ***maa://43443 (27.27), ***maa://43911 (18.18)</t>
         </is>
       </c>
       <c r="E194" s="3" t="inlineStr">
@@ -6118,7 +6118,7 @@
       </c>
       <c r="D195" s="12" t="inlineStr">
         <is>
-          <t>maa://39156 (86.36), maa://39550 (83.33)</t>
+          <t>maa://39156 (86.96), maa://39550 (83.33)</t>
         </is>
       </c>
       <c r="E195" s="3" t="inlineStr">
@@ -6145,7 +6145,7 @@
       </c>
       <c r="D196" s="12" t="inlineStr">
         <is>
-          <t>maa://27823 (81.67), *maa://28190 (59.38), maa://22894 (90.91), *maa://20906 (72.22), **maa://20907 (35.48)</t>
+          <t>maa://27823 (82.26), *maa://28190 (59.38), maa://22894 (90.91), *maa://20906 (72.22), **maa://20907 (35.48)</t>
         </is>
       </c>
       <c r="E196" s="3" t="inlineStr">
@@ -6172,7 +6172,7 @@
       </c>
       <c r="D197" s="12" t="inlineStr">
         <is>
-          <t>maa://27823 (81.67), *maa://28190 (59.38), maa://22894 (90.91), *maa://20906 (72.22), **maa://20907 (35.48)</t>
+          <t>maa://27823 (82.26), *maa://28190 (59.38), maa://22894 (90.91), *maa://20906 (72.22), **maa://20907 (35.48)</t>
         </is>
       </c>
       <c r="E197" s="3" t="inlineStr">
@@ -6199,7 +6199,7 @@
       </c>
       <c r="D198" s="12" t="inlineStr">
         <is>
-          <t>maa://42223 (99.4), maa://42292 (95.65), maa://42402 (100.0)</t>
+          <t>maa://42223 (99.41), maa://42292 (95.83), maa://42402 (100.0)</t>
         </is>
       </c>
       <c r="E198" s="3" t="inlineStr">
@@ -6415,7 +6415,7 @@
       </c>
       <c r="D206" s="12" t="inlineStr">
         <is>
-          <t>maa://28133 (90.7), *maa://28277 (80.0), **maa://39217 (37.5), maa://25369 (93.33), *maa://33132 (66.67)</t>
+          <t>maa://28133 (90.7), maa://28277 (80.77), **maa://39217 (37.5), maa://25369 (93.75), *maa://33132 (66.67)</t>
         </is>
       </c>
       <c r="E206" s="3" t="inlineStr">
@@ -6496,7 +6496,7 @@
       </c>
       <c r="D209" s="12" t="inlineStr">
         <is>
-          <t>maa://39238 (99.24)</t>
+          <t>maa://39238 (99.25)</t>
         </is>
       </c>
       <c r="E209" s="3" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="D220" s="12" t="inlineStr">
         <is>
-          <t>maa://28187 (97.06), maa://39520 (100.0), maa://43531 (100.0)</t>
+          <t>maa://28187 (97.14), maa://39520 (100.0), maa://43531 (100.0)</t>
         </is>
       </c>
       <c r="E220" s="3" t="inlineStr">
@@ -7009,7 +7009,7 @@
       </c>
       <c r="D228" s="12" t="inlineStr">
         <is>
-          <t>maa://20878 (85.71)</t>
+          <t>maa://20878 (86.67)</t>
         </is>
       </c>
       <c r="E228" s="3" t="inlineStr">
@@ -7171,7 +7171,7 @@
       </c>
       <c r="D234" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (77.72), maa://30666 (83.82), *maa://26836 (77.48), maa://37607 (94.16), **maa://30739 (44.44), *maa://34428 (70.0), *maa://30723 (52.73), maa://39588 (87.5), *maa://37850 (75.0)</t>
+          <t>*maa://30667 (77.59), maa://30666 (83.9), *maa://26836 (77.63), maa://37607 (94.38), **maa://30739 (44.44), *maa://34428 (70.33), *maa://30723 (52.73), maa://39588 (88.64), *maa://37850 (75.0)</t>
         </is>
       </c>
       <c r="E234" s="3" t="inlineStr">
@@ -7279,7 +7279,7 @@
       </c>
       <c r="D238" s="12" t="inlineStr">
         <is>
-          <t>maa://20867 (92.86), maa://38485 (88.89), *maa://32202 (80.0)</t>
+          <t>maa://20867 (92.86), maa://38485 (90.0), *maa://32202 (80.0)</t>
         </is>
       </c>
       <c r="E238" s="3" t="inlineStr">
@@ -7409,12 +7409,12 @@
       </c>
       <c r="C243" s="13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D243" s="12" t="inlineStr">
         <is>
-          <t>maa://42287 (90.7), maa://42225 (100.0)</t>
+          <t>maa://42287 (91.49), maa://42225 (100.0), maa://45570 (100.0)</t>
         </is>
       </c>
       <c r="E243" s="3" t="inlineStr">
@@ -7522,7 +7522,7 @@
       </c>
       <c r="D247" s="12" t="inlineStr">
         <is>
-          <t>*maa://40958 (72.73), maa://45067 (100.0)</t>
+          <t>*maa://40958 (76.92), maa://45067 (100.0)</t>
         </is>
       </c>
       <c r="E247" s="3" t="inlineStr">
@@ -7819,7 +7819,7 @@
       </c>
       <c r="D258" s="12" t="inlineStr">
         <is>
-          <t>maa://22467 (94.29)</t>
+          <t>maa://22467 (94.44)</t>
         </is>
       </c>
       <c r="E258" s="3" t="inlineStr">
@@ -7900,7 +7900,7 @@
       </c>
       <c r="D261" s="12" t="inlineStr">
         <is>
-          <t>maa://25769 (96.72)</t>
+          <t>maa://25769 (96.8)</t>
         </is>
       </c>
       <c r="E261" s="3" t="inlineStr">
@@ -8251,7 +8251,7 @@
       </c>
       <c r="D274" s="12" t="inlineStr">
         <is>
-          <t>maa://38296 (85.0)</t>
+          <t>maa://38296 (85.71)</t>
         </is>
       </c>
       <c r="E274" s="3" t="inlineStr">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="D277" s="12" t="inlineStr">
         <is>
-          <t>maa://30710 (97.41), maa://36845 (95.15), maa://31558 (97.06), **maa://39217 (37.5), maa://30668 (85.19)</t>
+          <t>maa://30710 (97.44), maa://36845 (95.15), maa://31558 (97.06), **maa://39217 (37.5), maa://30668 (85.19)</t>
         </is>
       </c>
       <c r="E277" s="3" t="inlineStr">
@@ -8425,201 +8425,201 @@
     <row r="281">
       <c r="A281" s="16" t="inlineStr">
         <is>
-          <t>重岳</t>
+          <t>林</t>
         </is>
       </c>
       <c r="B281" s="16" t="inlineStr">
         <is>
-          <t>WB-7</t>
+          <t>6-5</t>
         </is>
       </c>
       <c r="C281" s="13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D281" s="12" t="inlineStr">
         <is>
-          <t>maa://32414 (98.6), maa://32505 (100.0), maa://39155 (95.83)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E281" s="3" t="inlineStr">
         <is>
-          <t>&gt; 由非助战重岳累计造成120000点伤害&gt; 3星通关别传WB-7；必须携带并部署非助战重岳，其他成员仅可编入4名干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战林并上场，且每次战斗至少释放1次流光乍裂&gt; 3星通关主题曲6-5；必须携带且部署非助战林，且至少释放3次流光乍裂</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="16" t="inlineStr">
         <is>
-          <t>铎铃</t>
+          <t>重岳</t>
         </is>
       </c>
       <c r="B282" s="16" t="inlineStr">
         <is>
-          <t>2-1</t>
+          <t>WB-7</t>
         </is>
       </c>
       <c r="C282" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D282" s="12" t="inlineStr">
         <is>
-          <t>maa://42312 (100.0)</t>
+          <t>maa://32414 (98.62), maa://32505 (100.0), maa://39155 (95.83)</t>
         </is>
       </c>
       <c r="E282" s="3" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战铎铃累计使用乡心无改6次&gt; 3星通关主题曲2-1；必须编入非助战铎铃并上场，且使用3次乡心无改</t>
+          <t>&gt; 由非助战重岳累计造成120000点伤害&gt; 3星通关别传WB-7；必须携带并部署非助战重岳，其他成员仅可编入4名干员</t>
         </is>
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="16" t="inlineStr">
-        <is>
-          <t>仇白</t>
-        </is>
-      </c>
-      <c r="B283" s="16" t="inlineStr">
-        <is>
-          <t>WB-7</t>
-        </is>
-      </c>
-      <c r="C283" s="13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D283" s="12" t="inlineStr">
-        <is>
-          <t>maa://36642 (100.0), maa://36867 (96.77), maa://39155 (95.83)</t>
-        </is>
-      </c>
-      <c r="E283" s="3" t="inlineStr">
-        <is>
-          <t>&gt; 由非助战仇白累计造成40歼灭数&gt; 3星通关别传WB-7；必须编入非助战仇白并上场，并使用仇白至少击败3名“破坚”</t>
+      <c r="A283" s="17" t="inlineStr">
+        <is>
+          <t>重岳</t>
+        </is>
+      </c>
+      <c r="B283" s="17" t="inlineStr">
+        <is>
+          <t>GA-5</t>
+        </is>
+      </c>
+      <c r="C283" s="18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D283" s="19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E283" s="20" t="inlineStr">
+        <is>
+          <t>&gt; 使用非助战重岳累计使用50次我无&gt; 3星通关别传GA-5；必须携带且部署非助战重岳，其他成员仅可编入4名干员</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="16" t="inlineStr">
         <is>
-          <t>火龙S黑角</t>
+          <t>铎铃</t>
         </is>
       </c>
       <c r="B284" s="16" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="C284" s="13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D284" s="12" t="inlineStr">
         <is>
-          <t>maa://39166 (100.0), maa://39167 (100.0)</t>
+          <t>maa://42312 (100.0)</t>
         </is>
       </c>
       <c r="E284" s="3" t="inlineStr">
         <is>
-          <t>&gt; 由非助战火龙S黑角累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲3-8；必须编入非助战火龙S黑角并上场，且使用火龙S黑角歼灭碎骨</t>
+          <t>&gt; 战斗中非助战铎铃累计使用乡心无改6次&gt; 3星通关主题曲2-1；必须编入非助战铎铃并上场，且使用3次乡心无改</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="16" t="inlineStr">
         <is>
-          <t>麒麟R夜刀</t>
+          <t>仇白</t>
         </is>
       </c>
       <c r="B285" s="16" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>WB-7</t>
         </is>
       </c>
       <c r="C285" s="13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D285" s="12" t="inlineStr">
         <is>
-          <t>maa://29005 (98.31), maa://31560 (85.71)</t>
+          <t>maa://36642 (100.0), maa://36867 (96.77), maa://39155 (95.83)</t>
         </is>
       </c>
       <c r="E285" s="3" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；每次战斗至少部署3次非助战的麒麟R夜刀&gt; 3星通关主题曲3-7；必须编入非助战麒麟R夜刀并上场，且使用麒麟R夜刀歼灭至少2名炮手</t>
+          <t>&gt; 由非助战仇白累计造成40歼灭数&gt; 3星通关别传WB-7；必须编入非助战仇白并上场，并使用仇白至少击败3名“破坚”</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="16" t="inlineStr">
         <is>
-          <t>休谟斯</t>
+          <t>火龙S黑角</t>
         </is>
       </c>
       <c r="B286" s="16" t="inlineStr">
         <is>
-          <t>7-8</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C286" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D286" s="12" t="inlineStr">
         <is>
-          <t>maa://39168 (100.0)</t>
+          <t>maa://39166 (100.0), maa://39167 (100.0)</t>
         </is>
       </c>
       <c r="E286" s="3" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战休谟斯并上场，且每次战斗至少释放1次高效处理&gt; 3星通关主题曲7-8；必须编入非助战休谟斯并上场，其他成员仅可编入近战位干员</t>
+          <t>&gt; 由非助战火龙S黑角累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲3-8；必须编入非助战火龙S黑角并上场，且使用火龙S黑角歼灭碎骨</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="16" t="inlineStr">
         <is>
-          <t>摩根</t>
+          <t>麒麟R夜刀</t>
         </is>
       </c>
       <c r="B287" s="16" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C287" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D287" s="12" t="inlineStr">
         <is>
-          <t>maa://39169 (100.0)</t>
+          <t>maa://29005 (98.31), maa://31560 (85.71)</t>
         </is>
       </c>
       <c r="E287" s="3" t="inlineStr">
         <is>
-          <t>&gt; 由非助战摩根累计造成80000点伤害&gt; 3星通关主题曲4-5，必须编入非助战摩根并上场，且使用摩根至少歼灭10名敌人</t>
+          <t>&gt; 完成5次战斗；每次战斗至少部署3次非助战的麒麟R夜刀&gt; 3星通关主题曲3-7；必须编入非助战麒麟R夜刀并上场，且使用麒麟R夜刀歼灭至少2名炮手</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="16" t="inlineStr">
         <is>
-          <t>洋灰</t>
+          <t>休谟斯</t>
         </is>
       </c>
       <c r="B288" s="16" t="inlineStr">
         <is>
-          <t>IW-EX-6</t>
+          <t>7-8</t>
         </is>
       </c>
       <c r="C288" s="13" t="inlineStr">
@@ -8629,24 +8629,24 @@
       </c>
       <c r="D288" s="12" t="inlineStr">
         <is>
-          <t>maa://39170 (100.0)</t>
+          <t>maa://39168 (100.0)</t>
         </is>
       </c>
       <c r="E288" s="3" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战洋灰并上场，且每次战斗至少释放1次结构加固&gt; 3星通关别传IW-EX-6，必须编入非助战洋灰并上场，且不编入其他重装干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战休谟斯并上场，且每次战斗至少释放1次高效处理&gt; 3星通关主题曲7-8；必须编入非助战休谟斯并上场，其他成员仅可编入近战位干员</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="16" t="inlineStr">
         <is>
-          <t>玫拉</t>
+          <t>摩根</t>
         </is>
       </c>
       <c r="B289" s="16" t="inlineStr">
         <is>
-          <t>S3-5</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C289" s="13" t="inlineStr">
@@ -8656,24 +8656,24 @@
       </c>
       <c r="D289" s="12" t="inlineStr">
         <is>
-          <t>maa://39171 (100.0)</t>
+          <t>maa://39169 (100.0)</t>
         </is>
       </c>
       <c r="E289" s="3" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战玫拉并上场，且每次战斗至少释放1次临界爆发&gt; 3星通关主题曲S3-5；必须编入非助战玫拉并上场，其他成员仅可编入6名干员</t>
+          <t>&gt; 由非助战摩根累计造成80000点伤害&gt; 3星通关主题曲4-5，必须编入非助战摩根并上场，且使用摩根至少歼灭10名敌人</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="16" t="inlineStr">
         <is>
-          <t>淬羽赫默</t>
+          <t>洋灰</t>
         </is>
       </c>
       <c r="B290" s="16" t="inlineStr">
         <is>
-          <t>6-3</t>
+          <t>IW-EX-6</t>
         </is>
       </c>
       <c r="C290" s="13" t="inlineStr">
@@ -8683,24 +8683,24 @@
       </c>
       <c r="D290" s="12" t="inlineStr">
         <is>
-          <t>maa://27939 (100.0)</t>
+          <t>maa://39170 (100.0)</t>
         </is>
       </c>
       <c r="E290" s="3" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战淬羽赫默累计使用无畏者协议8次&gt; 3星通关主题曲6-3；必须编入非助战淬羽赫默并上场，且所有干员不被击倒</t>
+          <t>&gt; 完成5次战斗；必须编入非助战洋灰并上场，且每次战斗至少释放1次结构加固&gt; 3星通关别传IW-EX-6，必须编入非助战洋灰并上场，且不编入其他重装干员</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="16" t="inlineStr">
         <is>
-          <t>霍尔海雅</t>
+          <t>玫拉</t>
         </is>
       </c>
       <c r="B291" s="16" t="inlineStr">
         <is>
-          <t>OF-7</t>
+          <t>S3-5</t>
         </is>
       </c>
       <c r="C291" s="13" t="inlineStr">
@@ -8710,24 +8710,24 @@
       </c>
       <c r="D291" s="12" t="inlineStr">
         <is>
-          <t>maa://29129 (100.0)</t>
+          <t>maa://39171 (100.0)</t>
         </is>
       </c>
       <c r="E291" s="3" t="inlineStr">
         <is>
-          <t>&gt; 由非助战霍尔海雅累计造成120000点伤害&gt; 3星通关别传OF-7；必须编入非助战霍尔海雅并上场，且至少使用2次博览者的狂语</t>
+          <t>&gt; 完成5次战斗；必须编入非助战玫拉并上场，且每次战斗至少释放1次临界爆发&gt; 3星通关主题曲S3-5；必须编入非助战玫拉并上场，其他成员仅可编入6名干员</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="16" t="inlineStr">
         <is>
-          <t>霍尔海雅</t>
+          <t>淬羽赫默</t>
         </is>
       </c>
       <c r="B292" s="16" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>6-3</t>
         </is>
       </c>
       <c r="C292" s="13" t="inlineStr">
@@ -8737,24 +8737,24 @@
       </c>
       <c r="D292" s="12" t="inlineStr">
         <is>
-          <t>maa://36005 (100.0)</t>
+          <t>maa://27939 (100.0)</t>
         </is>
       </c>
       <c r="E292" s="3" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战霍尔海雅并上场，且每次战斗至少释放1次博览者的狂语&gt; 3星通关主题曲4-3；必须编入非助战霍尔海雅并上场，且使用霍尔海雅至少歼灭10个敌人</t>
+          <t>&gt; 战斗中非助战淬羽赫默累计使用无畏者协议8次&gt; 3星通关主题曲6-3；必须编入非助战淬羽赫默并上场，且所有干员不被击倒</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="16" t="inlineStr">
         <is>
-          <t>缪尔赛思</t>
+          <t>霍尔海雅</t>
         </is>
       </c>
       <c r="B293" s="16" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>OF-7</t>
         </is>
       </c>
       <c r="C293" s="13" t="inlineStr">
@@ -8764,24 +8764,24 @@
       </c>
       <c r="D293" s="12" t="inlineStr">
         <is>
-          <t>maa://35859 (97.01)</t>
+          <t>maa://29129 (100.0)</t>
         </is>
       </c>
       <c r="E293" s="3" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战缪尔赛思，并确定第一位部署的干员是缪尔赛思&gt; 3星通关主题曲3-4；必须编入非助战缪尔赛思并上场，其他成员仅可编入4名干员</t>
+          <t>&gt; 由非助战霍尔海雅累计造成120000点伤害&gt; 3星通关别传OF-7；必须编入非助战霍尔海雅并上场，且至少使用2次博览者的狂语</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="16" t="inlineStr">
         <is>
-          <t>隐现</t>
+          <t>霍尔海雅</t>
         </is>
       </c>
       <c r="B294" s="16" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C294" s="13" t="inlineStr">
@@ -8791,24 +8791,24 @@
       </c>
       <c r="D294" s="12" t="inlineStr">
         <is>
-          <t>**maa://39172 (50.0)</t>
+          <t>maa://36005 (100.0)</t>
         </is>
       </c>
       <c r="E294" s="3" t="inlineStr">
         <is>
-          <t>&gt; 由非助战隐现累计造成30歼灭数&gt; 3星通关主题曲3-4；必须编入非助战隐现并上场，且不编入其他狙击干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战霍尔海雅并上场，且每次战斗至少释放1次博览者的狂语&gt; 3星通关主题曲4-3；必须编入非助战霍尔海雅并上场，且使用霍尔海雅至少歼灭10个敌人</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="16" t="inlineStr">
         <is>
-          <t>空构</t>
+          <t>缪尔赛思</t>
         </is>
       </c>
       <c r="B295" s="16" t="inlineStr">
         <is>
-          <t>DM-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C295" s="13" t="inlineStr">
@@ -8818,51 +8818,51 @@
       </c>
       <c r="D295" s="12" t="inlineStr">
         <is>
-          <t>maa://39173 (100.0)</t>
+          <t>maa://35859 (97.06)</t>
         </is>
       </c>
       <c r="E295" s="3" t="inlineStr">
         <is>
-          <t>&gt; 由非助战空构累计造成60000点伤害&gt; 3星通关插曲DM-2；必须编入非助战空构并上场，且至少使用1次临场铳械改装</t>
+          <t>&gt; 完成5次战斗；必须编入非助战缪尔赛思，并确定第一位部署的干员是缪尔赛思&gt; 3星通关主题曲3-4；必须编入非助战缪尔赛思并上场，其他成员仅可编入4名干员</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="16" t="inlineStr">
         <is>
-          <t>圣约送葬人</t>
+          <t>隐现</t>
         </is>
       </c>
       <c r="B296" s="16" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C296" s="13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D296" s="12" t="inlineStr">
         <is>
-          <t>maa://25775 (93.1), *maa://25393 (71.43)</t>
+          <t>**maa://39172 (50.0)</t>
         </is>
       </c>
       <c r="E296" s="3" t="inlineStr">
         <is>
-          <t>&gt; 由非助战圣约送葬人累计造成80000点伤害&gt; 3星通关主题曲7-14；必须编入非助战圣约送葬人并上场，且使用圣约送葬人歼灭至少2名游击队盾卫</t>
+          <t>&gt; 由非助战隐现累计造成30歼灭数&gt; 3星通关主题曲3-4；必须编入非助战隐现并上场，且不编入其他狙击干员</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="16" t="inlineStr">
         <is>
-          <t>寒檀</t>
+          <t>空构</t>
         </is>
       </c>
       <c r="B297" s="16" t="inlineStr">
         <is>
-          <t>BI-2</t>
+          <t>DM-2</t>
         </is>
       </c>
       <c r="C297" s="13" t="inlineStr">
@@ -8872,51 +8872,51 @@
       </c>
       <c r="D297" s="12" t="inlineStr">
         <is>
-          <t>maa://40161 (100.0)</t>
+          <t>maa://39173 (100.0)</t>
         </is>
       </c>
       <c r="E297" s="3" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战寒檀并上场，且每次战斗至少释放1次“女巫之泪”&gt; 3星通关别传BI-2；必须编入非助战寒檀并上场，且使用寒檀至少歼灭8个敌人</t>
+          <t>&gt; 由非助战空构累计造成60000点伤害&gt; 3星通关插曲DM-2；必须编入非助战空构并上场，且至少使用1次临场铳械改装</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="16" t="inlineStr">
         <is>
-          <t>提丰</t>
+          <t>圣约送葬人</t>
         </is>
       </c>
       <c r="B298" s="16" t="inlineStr">
         <is>
-          <t>S2-1</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="C298" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D298" s="12" t="inlineStr">
         <is>
-          <t>maa://25367 (99.1)</t>
+          <t>maa://25775 (93.1), *maa://25393 (71.43)</t>
         </is>
       </c>
       <c r="E298" s="3" t="inlineStr">
         <is>
-          <t>&gt; 由非助战提丰累计造成120000点伤害&gt; 3星通关主题曲S2-1；必须编入非助战提丰并上场，其他成员仅可编入近战位干员</t>
+          <t>&gt; 由非助战圣约送葬人累计造成80000点伤害&gt; 3星通关主题曲7-14；必须编入非助战圣约送葬人并上场，且使用圣约送葬人歼灭至少2名游击队盾卫</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="16" t="inlineStr">
         <is>
-          <t>凛视</t>
+          <t>寒檀</t>
         </is>
       </c>
       <c r="B299" s="16" t="inlineStr">
         <is>
-          <t>7-13</t>
+          <t>BI-2</t>
         </is>
       </c>
       <c r="C299" s="13" t="inlineStr">
@@ -8926,24 +8926,24 @@
       </c>
       <c r="D299" s="12" t="inlineStr">
         <is>
-          <t>**maa://43090 (50.0)</t>
+          <t>maa://40161 (100.0)</t>
         </is>
       </c>
       <c r="E299" s="3" t="inlineStr">
         <is>
-          <t>&gt; 由非助战凛视累计造成30次凋亡爆发&gt; 3星通关主题曲7-13；必须编入非助战凛视并上场，且凛视造成至少1次凋亡爆发</t>
+          <t>&gt; 完成5次战斗；必须编入非助战寒檀并上场，且每次战斗至少释放1次“女巫之泪”&gt; 3星通关别传BI-2；必须编入非助战寒檀并上场，且使用寒檀至少歼灭8个敌人</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="16" t="inlineStr">
         <is>
-          <t>苍苔</t>
+          <t>提丰</t>
         </is>
       </c>
       <c r="B300" s="16" t="inlineStr">
         <is>
-          <t>9-3</t>
+          <t>S2-1</t>
         </is>
       </c>
       <c r="C300" s="13" t="inlineStr">
@@ -8953,105 +8953,105 @@
       </c>
       <c r="D300" s="12" t="inlineStr">
         <is>
-          <t>maa://28070 (100.0)</t>
+          <t>maa://25367 (99.1)</t>
         </is>
       </c>
       <c r="E300" s="3" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战苍苔并上场，且每次战斗至少释放1次土石的恒心&gt; 3星通关主题曲9-3标准实战环境；必须编入非助战苍苔并上场，且所有干员不被击倒</t>
+          <t>&gt; 由非助战提丰累计造成120000点伤害&gt; 3星通关主题曲S2-1；必须编入非助战提丰并上场，其他成员仅可编入近战位干员</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="16" t="inlineStr">
         <is>
-          <t>青枳</t>
+          <t>凛视</t>
         </is>
       </c>
       <c r="B301" s="16" t="inlineStr">
         <is>
-          <t>OF-5</t>
+          <t>7-13</t>
         </is>
       </c>
       <c r="C301" s="13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D301" s="12" t="inlineStr">
         <is>
-          <t>maa://31559 (95.83), maa://28241 (100.0)</t>
+          <t>*maa://43090 (60.0)</t>
         </is>
       </c>
       <c r="E301" s="3" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战青枳，并确定第一位部署的干员是青枳&gt; 3星通关别传OF-5；必须编入非助战青枳并上场，且不编入其他先锋干员</t>
+          <t>&gt; 由非助战凛视累计造成30次凋亡爆发&gt; 3星通关主题曲7-13；必须编入非助战凛视并上场，且凛视造成至少1次凋亡爆发</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="16" t="inlineStr">
         <is>
-          <t>琳琅诗怀雅</t>
+          <t>苍苔</t>
         </is>
       </c>
       <c r="B302" s="16" t="inlineStr">
         <is>
-          <t>5-2</t>
+          <t>9-3</t>
         </is>
       </c>
       <c r="C302" s="13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D302" s="12" t="inlineStr">
         <is>
-          <t>maa://25773 (100.0), *maa://26088 (66.67)</t>
+          <t>maa://28070 (100.0)</t>
         </is>
       </c>
       <c r="E302" s="3" t="inlineStr">
         <is>
-          <t>&gt; 由非助战琳琅诗怀雅累计造成60000点伤害※香槟炸弹造成的伤害也会参与计数&gt; 3星通关主题曲5-2；必须编入非助战琳琅诗怀雅并上场，且使用琳琅诗怀雅至少歼灭15个敌人</t>
+          <t>&gt; 完成5次战斗；必须编入非助战苍苔并上场，且每次战斗至少释放1次土石的恒心&gt; 3星通关主题曲9-3标准实战环境；必须编入非助战苍苔并上场，且所有干员不被击倒</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="16" t="inlineStr">
         <is>
-          <t>琳琅诗怀雅</t>
+          <t>青枳</t>
         </is>
       </c>
       <c r="B303" s="16" t="inlineStr">
         <is>
-          <t>11-16</t>
+          <t>OF-5</t>
         </is>
       </c>
       <c r="C303" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D303" s="12" t="inlineStr">
         <is>
-          <t>maa://39239 (100.0)</t>
+          <t>maa://31559 (95.83), maa://28241 (100.0)</t>
         </is>
       </c>
       <c r="E303" s="3" t="inlineStr">
         <is>
-          <t>&gt; 由非助战琳琅诗怀雅累计造成40歼灭数&gt; 3星通关主题曲11-16标准实战环境；必须编入非助战琳琅诗怀雅并上场，其他成员仅可编入4名干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战青枳，并确定第一位部署的干员是青枳&gt; 3星通关别传OF-5；必须编入非助战青枳并上场，且不编入其他先锋干员</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="16" t="inlineStr">
         <is>
-          <t>纯烬艾雅法拉</t>
+          <t>琳琅诗怀雅</t>
         </is>
       </c>
       <c r="B304" s="16" t="inlineStr">
         <is>
-          <t>FC-5</t>
+          <t>5-2</t>
         </is>
       </c>
       <c r="C304" s="13" t="inlineStr">
@@ -9061,24 +9061,24 @@
       </c>
       <c r="D304" s="12" t="inlineStr">
         <is>
-          <t>maa://39692 (99.7), maa://39810 (81.25)</t>
+          <t>maa://25773 (100.0), *maa://26088 (66.67)</t>
         </is>
       </c>
       <c r="E304" s="3" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战纯烬艾雅法拉并上场，且每次战斗至少释放1次火山回响&gt; 3星通关别传FC-5；必须编入非助战纯烬艾雅法拉并上场，且不编入其他医疗干员</t>
+          <t>&gt; 由非助战琳琅诗怀雅累计造成60000点伤害※香槟炸弹造成的伤害也会参与计数&gt; 3星通关主题曲5-2；必须编入非助战琳琅诗怀雅并上场，且使用琳琅诗怀雅至少歼灭15个敌人</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="16" t="inlineStr">
         <is>
-          <t>冰酿</t>
+          <t>琳琅诗怀雅</t>
         </is>
       </c>
       <c r="B305" s="16" t="inlineStr">
         <is>
-          <t>S3-3</t>
+          <t>11-16</t>
         </is>
       </c>
       <c r="C305" s="13" t="inlineStr">
@@ -9088,78 +9088,78 @@
       </c>
       <c r="D305" s="12" t="inlineStr">
         <is>
-          <t>*maa://39174 (66.67)</t>
+          <t>maa://39239 (100.0)</t>
         </is>
       </c>
       <c r="E305" s="3" t="inlineStr">
         <is>
-          <t>&gt; 由非助战冰酿累计造成80000伤害&gt; 3星通关主题曲S3-3；必须编入非助战冰酿并上场，且使用冰酿至少歼灭8个敌人</t>
+          <t>&gt; 由非助战琳琅诗怀雅累计造成40歼灭数&gt; 3星通关主题曲11-16标准实战环境；必须编入非助战琳琅诗怀雅并上场，其他成员仅可编入4名干员</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="16" t="inlineStr">
         <is>
-          <t>杏仁</t>
+          <t>纯烬艾雅法拉</t>
         </is>
       </c>
       <c r="B306" s="16" t="inlineStr">
         <is>
-          <t>BI-2</t>
+          <t>FC-5</t>
         </is>
       </c>
       <c r="C306" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D306" s="12" t="inlineStr">
         <is>
-          <t>maa://39175 (100.0)</t>
+          <t>maa://39692 (99.71), maa://39810 (81.25)</t>
         </is>
       </c>
       <c r="E306" s="3" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战杏仁累计使用强力牵引10次&gt; 3星通关别传BI-2；必须编入非助战杏仁并上场，且至少使用2次强力牵引</t>
+          <t>&gt; 完成5次战斗；必须编入非助战纯烬艾雅法拉并上场，且每次战斗至少释放1次火山回响&gt; 3星通关别传FC-5；必须编入非助战纯烬艾雅法拉并上场，且不编入其他医疗干员</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="16" t="inlineStr">
         <is>
-          <t>涤火杰西卡</t>
+          <t>冰酿</t>
         </is>
       </c>
       <c r="B307" s="16" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>S3-3</t>
         </is>
       </c>
       <c r="C307" s="13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D307" s="12" t="inlineStr">
         <is>
-          <t>maa://34867 (97.22), maa://34715 (100.0)</t>
+          <t>*maa://39174 (66.67)</t>
         </is>
       </c>
       <c r="E307" s="3" t="inlineStr">
         <is>
-          <t>&gt; 由非助战涤火杰西卡累计造成30歼灭数&gt; 3星通关主题曲3-8；必须编入非助战涤火杰西卡并上场，且使用涤火杰西卡歼灭碎骨</t>
+          <t>&gt; 由非助战冰酿累计造成80000伤害&gt; 3星通关主题曲S3-3；必须编入非助战冰酿并上场，且使用冰酿至少歼灭8个敌人</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="16" t="inlineStr">
         <is>
-          <t>维荻</t>
+          <t>杏仁</t>
         </is>
       </c>
       <c r="B308" s="16" t="inlineStr">
         <is>
-          <t>9-3</t>
+          <t>BI-2</t>
         </is>
       </c>
       <c r="C308" s="13" t="inlineStr">
@@ -9169,78 +9169,78 @@
       </c>
       <c r="D308" s="12" t="inlineStr">
         <is>
-          <t>maa://39176 (100.0)</t>
+          <t>maa://39175 (100.0)</t>
         </is>
       </c>
       <c r="E308" s="3" t="inlineStr">
         <is>
-          <t>&gt; 由非助战维荻累计造成60000点伤害&gt; 3星通关主题曲9-3标准实战环境；必须编入非助战维荻并上场，且至少使用2次双刃毒藤</t>
+          <t>&gt; 战斗中非助战杏仁累计使用强力牵引10次&gt; 3星通关别传BI-2；必须编入非助战杏仁并上场，且至少使用2次强力牵引</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="16" t="inlineStr">
         <is>
-          <t>戴菲恩</t>
+          <t>涤火杰西卡</t>
         </is>
       </c>
       <c r="B309" s="16" t="inlineStr">
         <is>
-          <t>WD-6</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C309" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D309" s="12" t="inlineStr">
         <is>
-          <t>maa://42316 (100.0)</t>
+          <t>maa://34867 (97.22), maa://34715 (100.0)</t>
         </is>
       </c>
       <c r="E309" s="3" t="inlineStr">
         <is>
-          <t>&gt; 由非助战戴菲恩累计造成30歼灭数&gt; 3星通关插曲WD-6；必须携带且部署非助战戴菲恩，且至少使用2次抢攻</t>
+          <t>&gt; 由非助战涤火杰西卡累计造成30歼灭数&gt; 3星通关主题曲3-8；必须编入非助战涤火杰西卡并上场，且使用涤火杰西卡歼灭碎骨</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="16" t="inlineStr">
         <is>
-          <t>刺玫</t>
+          <t>涤火杰西卡</t>
         </is>
       </c>
       <c r="B310" s="16" t="inlineStr">
         <is>
-          <t>IC-2</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C310" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D310" s="12" t="inlineStr">
         <is>
-          <t>maa://30680 (100.0)</t>
+          <t>maa://34867 (97.22), maa://34715 (100.0)</t>
         </is>
       </c>
       <c r="E310" s="3" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战刺玫累计使用荆藤庇荫10次&gt; 3星通关别传IC-2；必须编入非助战刺玫并上场，且不编入其他医疗干员</t>
+          <t>&gt; 由非助战涤火杰西卡累计造成30歼灭数&gt; 3星通关主题曲3-8；必须编入非助战涤火杰西卡并上场，且使用涤火杰西卡歼灭碎骨</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="16" t="inlineStr">
         <is>
-          <t>赫德雷</t>
+          <t>维荻</t>
         </is>
       </c>
       <c r="B311" s="16" t="inlineStr">
         <is>
-          <t>IW-7</t>
+          <t>9-3</t>
         </is>
       </c>
       <c r="C311" s="13" t="inlineStr">
@@ -9250,51 +9250,51 @@
       </c>
       <c r="D311" s="12" t="inlineStr">
         <is>
-          <t>maa://40956 (100.0)</t>
+          <t>maa://39176 (100.0)</t>
         </is>
       </c>
       <c r="E311" s="3" t="inlineStr">
         <is>
-          <t>&gt; 由非助战赫德雷累计歼灭5个精英或领袖敌人&gt; 3星通关别传IW-7；必须编入非助战赫德雷并上场，并使用赫德雷至少击败2名沉沙</t>
+          <t>&gt; 由非助战维荻累计造成60000点伤害&gt; 3星通关主题曲9-3标准实战环境；必须编入非助战维荻并上场，且至少使用2次双刃毒藤</t>
         </is>
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="17" t="inlineStr">
-        <is>
-          <t>深律</t>
-        </is>
-      </c>
-      <c r="B312" s="17" t="inlineStr">
-        <is>
-          <t>LE-4</t>
-        </is>
-      </c>
-      <c r="C312" s="18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D312" s="19" t="inlineStr">
-        <is>
-          <t>**maa://39178 (33.33)</t>
-        </is>
-      </c>
-      <c r="E312" s="20" t="inlineStr">
-        <is>
-          <t>&gt; 完成5次战斗；必须编入非助战深律并上场，且每次战斗至少释放1次沉音宁神&gt; 3星通关别传LE-4；必须编入非助战深律并上场，且所有干员不被击倒</t>
+      <c r="A312" s="16" t="inlineStr">
+        <is>
+          <t>戴菲恩</t>
+        </is>
+      </c>
+      <c r="B312" s="16" t="inlineStr">
+        <is>
+          <t>WD-6</t>
+        </is>
+      </c>
+      <c r="C312" s="13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D312" s="12" t="inlineStr">
+        <is>
+          <t>maa://42316 (100.0)</t>
+        </is>
+      </c>
+      <c r="E312" s="3" t="inlineStr">
+        <is>
+          <t>&gt; 由非助战戴菲恩累计造成30歼灭数&gt; 3星通关插曲WD-6；必须携带且部署非助战戴菲恩，且至少使用2次抢攻</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="16" t="inlineStr">
         <is>
-          <t>止颂</t>
+          <t>刺玫</t>
         </is>
       </c>
       <c r="B313" s="16" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>IC-2</t>
         </is>
       </c>
       <c r="C313" s="13" t="inlineStr">
@@ -9304,78 +9304,78 @@
       </c>
       <c r="D313" s="12" t="inlineStr">
         <is>
-          <t>maa://34205 (85.71)</t>
+          <t>maa://30680 (100.0)</t>
         </is>
       </c>
       <c r="E313" s="3" t="inlineStr">
         <is>
-          <t>&gt; 由非助战止颂累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲7-11；必须编入非助战止颂并上场，且使用止颂歼灭至少2名雇佣军萨卡兹战士</t>
+          <t>&gt; 战斗中非助战刺玫累计使用荆藤庇荫10次&gt; 3星通关别传IC-2；必须编入非助战刺玫并上场，且不编入其他医疗干员</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="16" t="inlineStr">
         <is>
-          <t>止颂</t>
+          <t>赫德雷</t>
         </is>
       </c>
       <c r="B314" s="16" t="inlineStr">
         <is>
-          <t>TW-5</t>
+          <t>IW-7</t>
         </is>
       </c>
       <c r="C314" s="13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D314" s="12" t="inlineStr">
         <is>
-          <t>maa://43092 (100.0), maa://43093 (100.0)</t>
+          <t>maa://40956 (100.0)</t>
         </is>
       </c>
       <c r="E314" s="3" t="inlineStr">
         <is>
-          <t>&gt; 由非助战止颂累计造成120000点伤害&gt; 3星通关别传TW-5；必须编入非助战止颂并上场，且使用止颂击败至少6名敌人</t>
+          <t>&gt; 由非助战赫德雷累计歼灭5个精英或领袖敌人&gt; 3星通关别传IW-7；必须编入非助战赫德雷并上场，并使用赫德雷至少击败2名沉沙</t>
         </is>
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="16" t="inlineStr">
-        <is>
-          <t>薇薇安娜</t>
-        </is>
-      </c>
-      <c r="B315" s="16" t="inlineStr">
-        <is>
-          <t>MN-3</t>
-        </is>
-      </c>
-      <c r="C315" s="13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D315" s="12" t="inlineStr">
-        <is>
-          <t>maa://44234 (98.18)</t>
-        </is>
-      </c>
-      <c r="E315" s="3" t="inlineStr">
-        <is>
-          <t>&gt; 由非助战薇薇安娜累计歼灭10个精英或领袖敌人&gt; 3星通关别传MN-3；必须编入非助战薇薇安娜并上场，且使用薇薇安娜歼灭“锈铜”奥尔默·英格拉</t>
+      <c r="A315" s="17" t="inlineStr">
+        <is>
+          <t>深律</t>
+        </is>
+      </c>
+      <c r="B315" s="17" t="inlineStr">
+        <is>
+          <t>LE-4</t>
+        </is>
+      </c>
+      <c r="C315" s="18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D315" s="19" t="inlineStr">
+        <is>
+          <t>**maa://39178 (33.33)</t>
+        </is>
+      </c>
+      <c r="E315" s="20" t="inlineStr">
+        <is>
+          <t>&gt; 完成5次战斗；必须编入非助战深律并上场，且每次战斗至少释放1次沉音宁神&gt; 3星通关别传LE-4；必须编入非助战深律并上场，且所有干员不被击倒</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="16" t="inlineStr">
         <is>
-          <t>塑心</t>
+          <t>止颂</t>
         </is>
       </c>
       <c r="B316" s="16" t="inlineStr">
         <is>
-          <t>GA-7</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="C316" s="13" t="inlineStr">
@@ -9385,51 +9385,51 @@
       </c>
       <c r="D316" s="12" t="inlineStr">
         <is>
-          <t>maa://42968 (99.47)</t>
+          <t>maa://34205 (85.71)</t>
         </is>
       </c>
       <c r="E316" s="3" t="inlineStr">
         <is>
-          <t>&gt; 由非助战塑心累计造成75000点凋亡损伤&gt; 3星通关别传GA-7；必须编入非助战塑心并上场，且塑心造成至少15000点凋亡损伤</t>
+          <t>&gt; 由非助战止颂累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲7-11；必须编入非助战止颂并上场，且使用止颂歼灭至少2名雇佣军萨卡兹战士</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="16" t="inlineStr">
         <is>
-          <t>哈洛德</t>
+          <t>止颂</t>
         </is>
       </c>
       <c r="B317" s="16" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>TW-5</t>
         </is>
       </c>
       <c r="C317" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D317" s="12" t="inlineStr">
         <is>
-          <t>*maa://40162 (66.67)</t>
+          <t>maa://43092 (100.0), maa://43093 (100.0)</t>
         </is>
       </c>
       <c r="E317" s="3" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战哈洛德累计使用重症优先8次&gt; 3星通关主题曲9-13标准实战环境；必须编入非助战哈洛德并上场，且所有干员不被击倒</t>
+          <t>&gt; 由非助战止颂累计造成120000点伤害&gt; 3星通关别传TW-5；必须编入非助战止颂并上场，且使用止颂击败至少6名敌人</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="16" t="inlineStr">
         <is>
-          <t>烈夏</t>
+          <t>薇薇安娜</t>
         </is>
       </c>
       <c r="B318" s="16" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>MN-3</t>
         </is>
       </c>
       <c r="C318" s="13" t="inlineStr">
@@ -9439,51 +9439,51 @@
       </c>
       <c r="D318" s="12" t="inlineStr">
         <is>
-          <t>maa://37692 (100.0)</t>
+          <t>maa://44234 (98.18)</t>
         </is>
       </c>
       <c r="E318" s="3" t="inlineStr">
         <is>
-          <t>&gt; 由非助战烈夏累计造成30歼灭数&gt; 3星通关主题曲4-3；必须编入非助战烈夏并上场，且不编入其他近卫干员</t>
+          <t>&gt; 由非助战薇薇安娜累计歼灭10个精英或领袖敌人&gt; 3星通关别传MN-3；必须编入非助战薇薇安娜并上场，且使用薇薇安娜歼灭“锈铜”奥尔默·英格拉</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="16" t="inlineStr">
         <is>
-          <t>锏</t>
+          <t>塑心</t>
         </is>
       </c>
       <c r="B319" s="16" t="inlineStr">
         <is>
-          <t>BI-6</t>
+          <t>GA-7</t>
         </is>
       </c>
       <c r="C319" s="13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D319" s="12" t="inlineStr">
         <is>
-          <t>maa://30671 (82.1), maa://30669 (98.89), maa://37275 (83.78), *maa://32410 (66.67), maa://41605 (100.0), maa://33671 (100.0)</t>
+          <t>maa://42968 (99.48)</t>
         </is>
       </c>
       <c r="E319" s="3" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战锏并上场，且每次战斗至少释放1次归于宁静&gt; 3星通关别传BI-6；必须编入非助战锏并上场，且使用锏至少歼灭10个敌人</t>
+          <t>&gt; 由非助战塑心累计造成75000点凋亡损伤&gt; 3星通关别传GA-7；必须编入非助战塑心并上场，且塑心造成至少15000点凋亡损伤</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="16" t="inlineStr">
         <is>
-          <t>莱伊</t>
+          <t>哈洛德</t>
         </is>
       </c>
       <c r="B320" s="16" t="inlineStr">
         <is>
-          <t>S9-1</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C320" s="13" t="inlineStr">
@@ -9493,24 +9493,24 @@
       </c>
       <c r="D320" s="12" t="inlineStr">
         <is>
-          <t>maa://38295 (95.52)</t>
+          <t>*maa://40162 (66.67)</t>
         </is>
       </c>
       <c r="E320" s="3" t="inlineStr">
         <is>
-          <t>&gt; 由非助战莱伊累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲S9-1标准实战环境；必须编入非助战莱伊并上场，且使用莱伊使用至少2次“得见光芒”</t>
+          <t>&gt; 战斗中非助战哈洛德累计使用重症优先8次&gt; 3星通关主题曲9-13标准实战环境；必须编入非助战哈洛德并上场，且所有干员不被击倒</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="16" t="inlineStr">
         <is>
-          <t>万顷</t>
+          <t>烈夏</t>
         </is>
       </c>
       <c r="B321" s="16" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C321" s="13" t="inlineStr">
@@ -9520,51 +9520,51 @@
       </c>
       <c r="D321" s="12" t="inlineStr">
         <is>
-          <t>maa://32417 (100.0)</t>
+          <t>maa://37692 (100.0)</t>
         </is>
       </c>
       <c r="E321" s="3" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战万顷累计使用支援号令·γ型10次&gt; 3星通关主题曲9-13标准实战环境；必须编入非助战万顷并上场，且至少使用2次应东风</t>
+          <t>&gt; 由非助战烈夏累计造成30歼灭数&gt; 3星通关主题曲4-3；必须编入非助战烈夏并上场，且不编入其他近卫干员</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="16" t="inlineStr">
         <is>
-          <t>小满</t>
+          <t>锏</t>
         </is>
       </c>
       <c r="B322" s="16" t="inlineStr">
         <is>
-          <t>9-11</t>
+          <t>BI-6</t>
         </is>
       </c>
       <c r="C322" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D322" s="12" t="inlineStr">
         <is>
-          <t>maa://32419 (100.0)</t>
+          <t>maa://30671 (81.6), maa://30669 (98.9), maa://37275 (83.78), *maa://32410 (66.67), maa://41605 (100.0), maa://33671 (100.0)</t>
         </is>
       </c>
       <c r="E322" s="3" t="inlineStr">
         <is>
-          <t>&gt; 由非助战小满累计造成60000点伤害&gt; 3星通关主题曲9-11标准实战环境；必须编入非助战小满并上场，且至少使用2次乡音沉沉</t>
+          <t>&gt; 完成5次战斗；必须编入非助战锏并上场，且每次战斗至少释放1次归于宁静&gt; 3星通关别传BI-6；必须编入非助战锏并上场，且使用锏至少歼灭10个敌人</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="16" t="inlineStr">
         <is>
-          <t>左乐</t>
+          <t>莱伊</t>
         </is>
       </c>
       <c r="B323" s="16" t="inlineStr">
         <is>
-          <t>WB-5</t>
+          <t>S9-1</t>
         </is>
       </c>
       <c r="C323" s="13" t="inlineStr">
@@ -9574,51 +9574,51 @@
       </c>
       <c r="D323" s="12" t="inlineStr">
         <is>
-          <t>maa://32416 (87.18)</t>
+          <t>maa://38295 (95.59)</t>
         </is>
       </c>
       <c r="E323" s="3" t="inlineStr">
         <is>
-          <t>&gt; 由非助战左乐累计造成40歼灭数&gt; 3星通关别传WB-5；必须编入非助战左乐并上场，且使用左乐至少歼灭8个敌人</t>
+          <t>&gt; 由非助战莱伊累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲S9-1标准实战环境；必须编入非助战莱伊并上场，且使用莱伊使用至少2次“得见光芒”</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="16" t="inlineStr">
         <is>
-          <t>黍</t>
+          <t>万顷</t>
         </is>
       </c>
       <c r="B324" s="16" t="inlineStr">
         <is>
-          <t>11-11</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C324" s="13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D324" s="12" t="inlineStr">
         <is>
-          <t>maa://32647 (97.26), maa://32415 (96.06), maa://34677 (100.0), maa://32892 (100.0)</t>
+          <t>maa://32417 (100.0)</t>
         </is>
       </c>
       <c r="E324" s="3" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战黍并上场，且每次战斗至少释放1次离离枯荣&gt; 3星通关主题曲11-11标准实战环境；必须编入非助战黍并上场，且所有干员不被击倒</t>
+          <t>&gt; 战斗中非助战万顷累计使用支援号令·γ型10次&gt; 3星通关主题曲9-13标准实战环境；必须编入非助战万顷并上场，且至少使用2次应东风</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="16" t="inlineStr">
         <is>
-          <t>红隼</t>
+          <t>小满</t>
         </is>
       </c>
       <c r="B325" s="16" t="inlineStr">
         <is>
-          <t>11-18</t>
+          <t>9-11</t>
         </is>
       </c>
       <c r="C325" s="13" t="inlineStr">
@@ -9628,24 +9628,24 @@
       </c>
       <c r="D325" s="12" t="inlineStr">
         <is>
-          <t>maa://32420 (100.0)</t>
+          <t>maa://32419 (100.0)</t>
         </is>
       </c>
       <c r="E325" s="3" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战红隼并上场，且每次战斗至少释放2次醉刃乱舞&gt; 3星通关主题曲11-18标准实战环境；必须编入非助战红隼，且第一位部署红隼、红隼全程不撤退或被击倒</t>
+          <t>&gt; 由非助战小满累计造成60000点伤害&gt; 3星通关主题曲9-11标准实战环境；必须编入非助战小满并上场，且至少使用2次乡音沉沉</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="16" t="inlineStr">
         <is>
-          <t>导火索</t>
+          <t>左乐</t>
         </is>
       </c>
       <c r="B326" s="16" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>WB-5</t>
         </is>
       </c>
       <c r="C326" s="13" t="inlineStr">
@@ -9655,100 +9655,100 @@
       </c>
       <c r="D326" s="12" t="inlineStr">
         <is>
-          <t>maa://35606 (100.0)</t>
+          <t>maa://32416 (87.18)</t>
         </is>
       </c>
       <c r="E326" s="3" t="inlineStr">
         <is>
-          <t>&gt; 由非助战导火索累计造成80000点伤害&gt; 3星通关主题曲3-1；必须编入非助战导火索并上场，且使用导火索至少歼灭30个敌人</t>
+          <t>&gt; 由非助战左乐累计造成40歼灭数&gt; 3星通关别传WB-5；必须编入非助战左乐并上场，且使用左乐至少歼灭8个敌人</t>
         </is>
       </c>
     </row>
     <row r="327">
-      <c r="A327" s="16" t="inlineStr">
-        <is>
-          <t>双月</t>
-        </is>
-      </c>
-      <c r="B327" s="16" t="inlineStr">
-        <is>
-          <t>3-7</t>
-        </is>
-      </c>
-      <c r="C327" s="13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D327" s="12" t="inlineStr">
-        <is>
-          <t>maa://34716 (85.71)</t>
-        </is>
-      </c>
-      <c r="E327" s="3" t="inlineStr">
-        <is>
-          <t>&gt; 战斗中非助战双月累计使用全知者的战术10次&gt; 3星通关主题曲3-7；必须编入非助战双月并上场，且至少使用2次全知者的战术</t>
+      <c r="A327" s="17" t="inlineStr">
+        <is>
+          <t>左乐</t>
+        </is>
+      </c>
+      <c r="B327" s="17" t="inlineStr">
+        <is>
+          <t>RI-7</t>
+        </is>
+      </c>
+      <c r="C327" s="18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D327" s="19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E327" s="20" t="inlineStr">
+        <is>
+          <t>&gt; 使用非助战左乐累计造成100000点伤害&gt; 3星通关别传RI-7；必须携带且部署非助战左乐，且至少释放3次佑序有炎</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="16" t="inlineStr">
         <is>
-          <t>医生</t>
+          <t>黍</t>
         </is>
       </c>
       <c r="B328" s="16" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>11-11</t>
         </is>
       </c>
       <c r="C328" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D328" s="12" t="inlineStr">
         <is>
-          <t>maa://39179 (100.0)</t>
+          <t>maa://32647 (97.29), maa://32415 (96.06), maa://34677 (100.0), maa://32892 (100.0)</t>
         </is>
       </c>
       <c r="E328" s="3" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战医生累计使用激素手枪8次&gt; 3星通关主题曲2-5；必须编入非助战医生并上场，且不编入医疗干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战黍并上场，且每次战斗至少释放1次离离枯荣&gt; 3星通关主题曲11-11标准实战环境；必须编入非助战黍并上场，且所有干员不被击倒</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="16" t="inlineStr">
         <is>
-          <t>艾拉</t>
+          <t>红隼</t>
         </is>
       </c>
       <c r="B329" s="16" t="inlineStr">
         <is>
-          <t>DM-EX-1</t>
+          <t>11-18</t>
         </is>
       </c>
       <c r="C329" s="13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D329" s="12" t="inlineStr">
         <is>
-          <t>maa://34865 (97.25), maa://34717 (93.65), maa://45066 (100.0)</t>
+          <t>maa://32420 (100.0)</t>
         </is>
       </c>
       <c r="E329" s="3" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战艾拉累计部署雷鸣地雷30个&gt; 3星通关插曲DM-EX-1；必须编入非助战艾拉并上场，且使用艾拉歼灭至少2名萨卡兹穿刺手</t>
+          <t>&gt; 完成5次战斗；必须编入非助战红隼并上场，且每次战斗至少释放2次醉刃乱舞&gt; 3星通关主题曲11-18标准实战环境；必须编入非助战红隼，且第一位部署红隼、红隼全程不撤退或被击倒</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="16" t="inlineStr">
         <is>
-          <t>露托</t>
+          <t>导火索</t>
         </is>
       </c>
       <c r="B330" s="16" t="inlineStr">
@@ -9763,24 +9763,24 @@
       </c>
       <c r="D330" s="12" t="inlineStr">
         <is>
-          <t>maa://39180 (100.0)</t>
+          <t>maa://35606 (100.0)</t>
         </is>
       </c>
       <c r="E330" s="3" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战露托累计使用强磁防卫8次&gt; 3星通关主题曲3-1；必须编入非助战露托并上场，且不编入其他重装干员</t>
+          <t>&gt; 由非助战导火索累计造成80000点伤害&gt; 3星通关主题曲3-1；必须编入非助战导火索并上场，且使用导火索至少歼灭30个敌人</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="13" t="inlineStr">
         <is>
-          <t>阿罗玛</t>
+          <t>双月</t>
         </is>
       </c>
       <c r="B331" s="13" t="inlineStr">
         <is>
-          <t>GT-HX-3</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C331" s="13" t="inlineStr">
@@ -9790,186 +9790,186 @@
       </c>
       <c r="D331" s="14" t="inlineStr">
         <is>
-          <t>*maa://39181 (66.67)</t>
+          <t>maa://34716 (85.71)</t>
         </is>
       </c>
       <c r="E331" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战阿罗玛并上场，且每次战斗至少释放1次小心地滑&gt; 3星通关别传GT-HX-3；必须编入非助战阿罗玛并上场，且使用阿罗玛至少歼灭20个敌人</t>
+          <t>&gt; 战斗中非助战双月累计使用全知者的战术10次&gt; 3星通关主题曲3-7；必须编入非助战双月并上场，且至少使用2次全知者的战术</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="13" t="inlineStr">
         <is>
-          <t>阿斯卡纶</t>
+          <t>医生</t>
         </is>
       </c>
       <c r="B332" s="13" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C332" s="13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D332" s="14" t="inlineStr">
         <is>
-          <t>maa://36868 (100.0), maa://35996 (95.83), **maa://39217 (37.5), maa://44463 (83.33)</t>
+          <t>maa://39179 (100.0)</t>
         </is>
       </c>
       <c r="E332" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战阿斯卡纶累计造成180000点伤害&gt; 3星通关主题曲11-6标准实战环境；必须编入非助战阿斯卡纶并上场，且使用阿斯卡纶至少歼灭30个敌人</t>
+          <t>&gt; 战斗中非助战医生累计使用激素手枪8次&gt; 3星通关主题曲2-5；必须编入非助战医生并上场，且不编入医疗干员</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="13" t="inlineStr">
         <is>
-          <t>历阵锐枪芬</t>
+          <t>艾拉</t>
         </is>
       </c>
       <c r="B333" s="13" t="inlineStr">
         <is>
-          <t>4-2</t>
+          <t>DM-EX-1</t>
         </is>
       </c>
       <c r="C333" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D333" s="14" t="inlineStr">
         <is>
-          <t>maa://36647 (100.0)</t>
+          <t>maa://34865 (97.27), maa://34717 (93.65), maa://45066 (100.0)</t>
         </is>
       </c>
       <c r="E333" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战历阵锐枪芬，并确定第一位部署的干员是历阵锐枪芬&gt; 3星通关主题曲4-2；必须编入非助战历阵锐枪芬并上场，且不编入其他先锋干员</t>
+          <t>&gt; 战斗中非助战艾拉累计部署雷鸣地雷30个&gt; 3星通关插曲DM-EX-1；必须编入非助战艾拉并上场，且使用艾拉歼灭至少2名萨卡兹穿刺手</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="13" t="inlineStr">
         <is>
-          <t>魔王</t>
+          <t>露托</t>
         </is>
       </c>
       <c r="B334" s="13" t="inlineStr">
         <is>
-          <t>14-5</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C334" s="13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D334" s="14" t="inlineStr">
         <is>
-          <t>maa://42299 (95.65), **maa://42224 (50.0)</t>
+          <t>maa://39180 (100.0)</t>
         </is>
       </c>
       <c r="E334" s="14" t="inlineStr">
         <is>
-          <t>&gt; 携带非助战魔王完成5次战斗，且每次战斗至少发动一次“编织重构现世”&gt; 3星通关主题曲14-5标准实战环境；必须编入非助战魔王并上场，其他成员仅可编入近战位干员</t>
+          <t>&gt; 战斗中非助战露托累计使用强磁防卫8次&gt; 3星通关主题曲3-1；必须编入非助战露托并上场，且不编入其他重装干员</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="13" t="inlineStr">
         <is>
-          <t>逻各斯</t>
+          <t>奥达</t>
         </is>
       </c>
       <c r="B335" s="13" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C335" s="13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D335" s="14" t="inlineStr">
         <is>
-          <t>maa://36646 (98.46), maa://36845 (95.15), **maa://39217 (37.5)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E335" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战逻各斯累计造成100000点伤害&gt; 3星通关主题曲11-6标准实战环境，必须编入非助战逻各斯并上场，其他成员仅可编入4名干员</t>
+          <t>&gt; 使用非助战奥达累计使用4次锻锤之力&gt; 3星通关主题曲S3-6；必须携带且部署非助战奥达，其他成员仅可编入4名干员</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="13" t="inlineStr">
         <is>
-          <t>维什戴尔</t>
+          <t>阿罗玛</t>
         </is>
       </c>
       <c r="B336" s="13" t="inlineStr">
         <is>
-          <t>DM-5</t>
+          <t>GT-HX-3</t>
         </is>
       </c>
       <c r="C336" s="13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D336" s="14" t="inlineStr">
         <is>
-          <t>maa://36645 (97.91), maa://36841 (94.55), maa://37484 (93.62), maa://37858 (91.3)</t>
+          <t>*maa://39181 (66.67)</t>
         </is>
       </c>
       <c r="E336" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战维什戴尔累计造成120000伤害&gt; 3星通关插曲DM-5；必须编入非助战维什戴尔并上场，且使用维什戴尔至少歼灭20个敌人</t>
+          <t>&gt; 完成5次战斗；必须编入非助战阿罗玛并上场，且每次战斗至少释放1次小心地滑&gt; 3星通关别传GT-HX-3；必须编入非助战阿罗玛并上场，且使用阿罗玛至少歼灭20个敌人</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="13" t="inlineStr">
         <is>
-          <t>阿米娅(医疗)</t>
+          <t>阿斯卡纶</t>
         </is>
       </c>
       <c r="B337" s="13" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C337" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D337" s="14" t="inlineStr">
         <is>
-          <t>maa://42635 (94.12)</t>
+          <t>maa://36868 (100.0), maa://35996 (95.83), **maa://39217 (37.5), maa://44463 (83.33)</t>
         </is>
       </c>
       <c r="E337" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战医疗职业的阿米娅累计使用慈悲愿景5次&gt; 3星通关主题曲3-8；必须编入非助战医疗职业的阿米娅并上场，且不编入其他医疗干员</t>
+          <t>&gt; 由非助战阿斯卡纶累计造成180000点伤害&gt; 3星通关主题曲11-6标准实战环境；必须编入非助战阿斯卡纶并上场，且使用阿斯卡纶至少歼灭30个敌人</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="13" t="inlineStr">
         <is>
-          <t>深巡</t>
+          <t>历阵锐枪芬</t>
         </is>
       </c>
       <c r="B338" s="13" t="inlineStr">
         <is>
-          <t>SN-5</t>
+          <t>4-2</t>
         </is>
       </c>
       <c r="C338" s="13" t="inlineStr">
@@ -9979,105 +9979,105 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>maa://39183 (100.0)</t>
+          <t>maa://36647 (100.0)</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战深巡累计使用行动能力剥夺8次&gt; 3星通关插曲SN-5，必须编入非助战深巡并上场，其他成员仅可编入4名干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战历阵锐枪芬，并确定第一位部署的干员是历阵锐枪芬&gt; 3星通关主题曲4-2；必须编入非助战历阵锐枪芬并上场，且不编入其他先锋干员</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="13" t="inlineStr">
         <is>
-          <t>海霓</t>
+          <t>魔王</t>
         </is>
       </c>
       <c r="B339" s="13" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>14-5</t>
         </is>
       </c>
       <c r="C339" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>maa://39184 (100.0)</t>
+          <t>maa://42299 (96.0), **maa://42224 (50.0)</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战海霓累计使用阻滞性显色剂8次&gt; 3星通关插曲SV-4；必须编入非助战海霓并上场，且不编入其他辅助干员</t>
+          <t>&gt; 携带非助战魔王完成5次战斗，且每次战斗至少发动一次“编织重构现世”&gt; 3星通关主题曲14-5标准实战环境；必须编入非助战魔王并上场，其他成员仅可编入近战位干员</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="13" t="inlineStr">
         <is>
-          <t>乌尔比安</t>
+          <t>逻各斯</t>
         </is>
       </c>
       <c r="B340" s="13" t="inlineStr">
         <is>
-          <t>SV-6</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C340" s="13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>maa://40957 (87.17), maa://41035 (89.58), maa://41128 (80.65), maa://44635 (82.76), maa://44660 (90.0)</t>
+          <t>maa://36646 (98.46), maa://36845 (95.15), **maa://39217 (37.5)</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战乌尔比安累计使用必须开辟的通路10次&gt; 3星通关插曲SV-6；必须编入非助战乌尔比安并上场，并使用乌尔比安至少击败2名囊海爬行者</t>
+          <t>&gt; 由非助战逻各斯累计造成100000点伤害&gt; 3星通关主题曲11-6标准实战环境，必须编入非助战逻各斯并上场，其他成员仅可编入4名干员</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="13" t="inlineStr">
         <is>
-          <t>渡桥</t>
+          <t>维什戴尔</t>
         </is>
       </c>
       <c r="B341" s="13" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>DM-5</t>
         </is>
       </c>
       <c r="C341" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>maa://40164 (100.0)</t>
+          <t>maa://36645 (97.92), maa://36841 (94.55), maa://37484 (93.62), maa://37858 (91.3)</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战渡桥累计使用承压功率8次&gt; 3星通关主题曲3-1；必须编入非助战渡桥并上场，且至少使用3次承压功率</t>
+          <t>&gt; 由非助战维什戴尔累计造成120000伤害&gt; 3星通关插曲DM-5；必须编入非助战维什戴尔并上场，且使用维什戴尔至少歼灭20个敌人</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="13" t="inlineStr">
         <is>
-          <t>衡沙</t>
+          <t>阿米娅(医疗)</t>
         </is>
       </c>
       <c r="B342" s="13" t="inlineStr">
         <is>
-          <t>DV-2</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C342" s="13" t="inlineStr">
@@ -10087,24 +10087,24 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>maa://40165 (100.0)</t>
+          <t>maa://42635 (94.44)</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>&gt; 战斗中累计召唤非助战衡沙的召唤物20回&gt; 3星通关别传DV-2；必须编入非助战衡沙并上场，其他成员仅可编入4名干员</t>
+          <t>&gt; 战斗中非助战医疗职业的阿米娅累计使用慈悲愿景5次&gt; 3星通关主题曲3-8；必须编入非助战医疗职业的阿米娅并上场，且不编入其他医疗干员</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="13" t="inlineStr">
         <is>
-          <t>森西</t>
+          <t>深巡</t>
         </is>
       </c>
       <c r="B343" s="13" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>SN-5</t>
         </is>
       </c>
       <c r="C343" s="13" t="inlineStr">
@@ -10114,78 +10114,78 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>maa://42331 (100.0)</t>
+          <t>maa://39183 (100.0)</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战森西累计使用团体魔物大餐6次&gt; 3星通关主题曲1-12；必须编入非助战森西并上场，且所有干员不被击倒</t>
+          <t>&gt; 战斗中非助战深巡累计使用行动能力剥夺8次&gt; 3星通关插曲SN-5，必须编入非助战深巡并上场，其他成员仅可编入4名干员</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="13" t="inlineStr">
         <is>
-          <t>齐尔查克</t>
+          <t>海霓</t>
         </is>
       </c>
       <c r="B344" s="13" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C344" s="13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>maa://42333 (100.0), maa://41977 (100.0)</t>
+          <t>maa://39184 (100.0)</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战齐尔查克累计使用随机应变6次&gt; 3星通关主题曲4-3；必须编入非助战齐尔查克并上场，其他成员不可编入先锋干员</t>
+          <t>&gt; 战斗中非助战海霓累计使用阻滞性显色剂8次&gt; 3星通关插曲SV-4；必须编入非助战海霓并上场，且不编入其他辅助干员</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="13" t="inlineStr">
         <is>
-          <t>莱欧斯</t>
+          <t>乌尔比安</t>
         </is>
       </c>
       <c r="B345" s="13" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>SV-6</t>
         </is>
       </c>
       <c r="C345" s="13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>maa://42338 (100.0), maa://41976 (100.0)</t>
+          <t>maa://40957 (87.23), maa://41035 (89.58), maa://41128 (80.65), maa://44635 (83.33), maa://44660 (90.0)</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战莱欧斯并上场，且每次战斗至少释放1次威吓战法&gt; 3星通关主题曲2-4；必须编入非助战莱欧斯并上场，并使用莱欧斯至少击败1名高阶术师</t>
+          <t>&gt; 战斗中非助战乌尔比安累计使用必须开辟的通路10次&gt; 3星通关插曲SV-6；必须编入非助战乌尔比安并上场，并使用乌尔比安至少击败2名囊海爬行者</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="13" t="inlineStr">
         <is>
-          <t>玛露西尔</t>
+          <t>渡桥</t>
         </is>
       </c>
       <c r="B346" s="13" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C346" s="13" t="inlineStr">
@@ -10195,24 +10195,24 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>maa://41110 (97.59)</t>
+          <t>maa://40164 (100.0)</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>&gt; 由非助战玛露西尔累计造成100000点伤害&gt; 3星通关主题曲5-10；必须编入非助战玛露西尔并上场，且使用玛露西尔至少歼灭10名敌人</t>
+          <t>&gt; 战斗中非助战渡桥累计使用承压功率8次&gt; 3星通关主题曲3-1；必须编入非助战渡桥并上场，且至少使用3次承压功率</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="13" t="inlineStr">
         <is>
-          <t>凯瑟琳</t>
+          <t>衡沙</t>
         </is>
       </c>
       <c r="B347" s="13" t="inlineStr">
         <is>
-          <t>11-7</t>
+          <t>DV-2</t>
         </is>
       </c>
       <c r="C347" s="13" t="inlineStr">
@@ -10222,51 +10222,51 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>maa://42343 (100.0)</t>
+          <t>maa://40165 (100.0)</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>&gt; 使用非助战凯瑟琳累计部署15个“支援装置”&gt; 3星通关主题曲11-7标准实战环境；必须编入非助战凯瑟琳并上场，且凯瑟琳使用至少2次“战火淬炼”</t>
+          <t>&gt; 战斗中累计召唤非助战衡沙的召唤物20回&gt; 3星通关别传DV-2；必须编入非助战衡沙并上场，其他成员仅可编入4名干员</t>
         </is>
       </c>
     </row>
     <row r="348">
-      <c r="A348" s="13" t="inlineStr">
-        <is>
-          <t>波卜</t>
-        </is>
-      </c>
-      <c r="B348" s="13" t="inlineStr">
-        <is>
-          <t>4-8</t>
-        </is>
-      </c>
-      <c r="C348" s="13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D348" t="inlineStr">
-        <is>
-          <t>maa://43095 (100.0)</t>
-        </is>
-      </c>
-      <c r="E348" t="inlineStr">
-        <is>
-          <t>&gt; 由非助战波卜累计造成30次灼燃爆发&gt; 3星通关主题曲4-8；必须编入非助战波卜并上场，且波卜使用至少2次“此路不通”</t>
+      <c r="A348" s="18" t="inlineStr">
+        <is>
+          <t>佩佩</t>
+        </is>
+      </c>
+      <c r="B348" s="18" t="inlineStr">
+        <is>
+          <t>3-8</t>
+        </is>
+      </c>
+      <c r="C348" s="18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D348" s="21" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E348" s="21" t="inlineStr">
+        <is>
+          <t>&gt; 由非助战佩佩累计造成40歼灭数&gt; 3星通关主题曲3-8；必须编入非助战佩佩并上场，且使用佩佩歼灭碎骨</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="13" t="inlineStr">
         <is>
-          <t>维娜·维多利亚</t>
+          <t>森西</t>
         </is>
       </c>
       <c r="B349" s="13" t="inlineStr">
         <is>
-          <t>9-5</t>
+          <t>1-12</t>
         </is>
       </c>
       <c r="C349" s="13" t="inlineStr">
@@ -10276,51 +10276,51 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>maa://44233 (93.1)</t>
+          <t>maa://42331 (100.0)</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>&gt; 由非助战维娜·维多利亚累计造成120000点伤害&gt; 3星通关主题曲9-5标准实战环境；必须编入非助战维娜·维多利亚并上场，其他成员仅可编入5名干员</t>
+          <t>&gt; 战斗中非助战森西累计使用团体魔物大餐6次&gt; 3星通关主题曲1-12；必须编入非助战森西并上场，且所有干员不被击倒</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="13" t="inlineStr">
         <is>
-          <t>裁度</t>
+          <t>齐尔查克</t>
         </is>
       </c>
       <c r="B350" s="13" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C350" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>**maa://43097 (50.0)</t>
+          <t>maa://42333 (100.0), maa://41977 (100.0)</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战裁度并部署至少2次，且使用裁度击败至少4名敌人&gt; 3星通关主题曲5-8；必须编入非助战裁度并上场，且至少束缚12次敌人</t>
+          <t>&gt; 战斗中非助战齐尔查克累计使用随机应变6次&gt; 3星通关主题曲4-3；必须编入非助战齐尔查克并上场，其他成员不可编入先锋干员</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="13" t="inlineStr">
         <is>
-          <t>弑君者</t>
+          <t>莱欧斯</t>
         </is>
       </c>
       <c r="B351" s="13" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="C351" s="13" t="inlineStr">
@@ -10330,24 +10330,24 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>*maa://43872 (80.0), maa://39153 (100.0)</t>
+          <t>maa://42338 (100.0), maa://41976 (100.0)</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；每次战斗至少部署3次非助战弑君者&gt; 3星通关主题曲4-4；必须编入非助战弑君者并上场，且不编入其他特种干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战莱欧斯并上场，且每次战斗至少释放1次威吓战法&gt; 3星通关主题曲2-4；必须编入非助战莱欧斯并上场，并使用莱欧斯至少击败1名高阶术师</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="13" t="inlineStr">
         <is>
-          <t>忍冬</t>
+          <t>玛露西尔</t>
         </is>
       </c>
       <c r="B352" s="13" t="inlineStr">
         <is>
-          <t>S2-3</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C352" s="13" t="inlineStr">
@@ -10357,66 +10357,255 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>maa://43875 (97.14)</t>
+          <t>maa://41110 (97.65)</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>&gt; 由非助战忍冬累计造成80000点伤害&gt; 3星通关主题曲S2-3；必须编入非助战忍冬并上场，且使用忍冬击败至少24名敌人</t>
+          <t>&gt; 由非助战玛露西尔累计造成100000点伤害&gt; 3星通关主题曲5-10；必须编入非助战玛露西尔并上场，且使用玛露西尔至少歼灭10名敌人</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="13" t="inlineStr">
         <is>
-          <t>荒芜拉普兰德</t>
+          <t>凯瑟琳</t>
         </is>
       </c>
       <c r="B353" s="13" t="inlineStr">
         <is>
-          <t>IS-8</t>
+          <t>11-7</t>
         </is>
       </c>
       <c r="C353" s="13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>maa://42970 (88.36), maa://44745 (91.67), maa://44896 (100.0)</t>
+          <t>maa://42343 (100.0)</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>&gt; 由非助战荒芜拉普兰德累计造成150000点伤害&gt; 3星通关别传IS-8；必须编入非助战荒芜拉普兰德并上场，且荒芜拉普兰德使用至少2次逐猎狂飙或终幕·浩劫</t>
+          <t>&gt; 使用非助战凯瑟琳累计部署15个“支援装置”&gt; 3星通关主题曲11-7标准实战环境；必须编入非助战凯瑟琳并上场，且凯瑟琳使用至少2次“战火淬炼”</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="13" t="inlineStr">
         <is>
+          <t>波卜</t>
+        </is>
+      </c>
+      <c r="B354" s="13" t="inlineStr">
+        <is>
+          <t>4-8</t>
+        </is>
+      </c>
+      <c r="C354" s="13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>maa://43095 (100.0)</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>&gt; 由非助战波卜累计造成30次灼燃爆发&gt; 3星通关主题曲4-8；必须编入非助战波卜并上场，且波卜使用至少2次“此路不通”</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="13" t="inlineStr">
+        <is>
+          <t>维娜·维多利亚</t>
+        </is>
+      </c>
+      <c r="B355" s="13" t="inlineStr">
+        <is>
+          <t>9-5</t>
+        </is>
+      </c>
+      <c r="C355" s="13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>maa://44233 (93.33)</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>&gt; 由非助战维娜·维多利亚累计造成120000点伤害&gt; 3星通关主题曲9-5标准实战环境；必须编入非助战维娜·维多利亚并上场，其他成员仅可编入5名干员</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="13" t="inlineStr">
+        <is>
+          <t>裁度</t>
+        </is>
+      </c>
+      <c r="B356" s="13" t="inlineStr">
+        <is>
+          <t>5-8</t>
+        </is>
+      </c>
+      <c r="C356" s="13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>*maa://43097 (66.67)</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>&gt; 完成5次战斗；必须编入非助战裁度并部署至少2次，且使用裁度击败至少4名敌人&gt; 3星通关主题曲5-8；必须编入非助战裁度并上场，且至少束缚12次敌人</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="13" t="inlineStr">
+        <is>
+          <t>弑君者</t>
+        </is>
+      </c>
+      <c r="B357" s="13" t="inlineStr">
+        <is>
+          <t>4-4</t>
+        </is>
+      </c>
+      <c r="C357" s="13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>*maa://43872 (80.0), maa://39153 (100.0)</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>&gt; 完成5次战斗；每次战斗至少部署3次非助战弑君者&gt; 3星通关主题曲4-4；必须编入非助战弑君者并上场，且不编入其他特种干员</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="13" t="inlineStr">
+        <is>
+          <t>忍冬</t>
+        </is>
+      </c>
+      <c r="B358" s="13" t="inlineStr">
+        <is>
+          <t>S2-3</t>
+        </is>
+      </c>
+      <c r="C358" s="13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>maa://43875 (97.3)</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>&gt; 由非助战忍冬累计造成80000点伤害&gt; 3星通关主题曲S2-3；必须编入非助战忍冬并上场，且使用忍冬击败至少24名敌人</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="13" t="inlineStr">
+        <is>
+          <t>荒芜拉普兰德</t>
+        </is>
+      </c>
+      <c r="B359" s="13" t="inlineStr">
+        <is>
+          <t>IS-8</t>
+        </is>
+      </c>
+      <c r="C359" s="13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>maa://42970 (88.54), maa://44745 (93.33), maa://44896 (100.0)</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>&gt; 由非助战荒芜拉普兰德累计造成150000点伤害&gt; 3星通关别传IS-8；必须编入非助战荒芜拉普兰德并上场，且荒芜拉普兰德使用至少2次逐猎狂飙或终幕·浩劫</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="13" t="inlineStr">
+        <is>
           <t>瑰盐</t>
         </is>
       </c>
-      <c r="B354" s="13" t="inlineStr">
+      <c r="B360" s="13" t="inlineStr">
         <is>
           <t>4-6</t>
         </is>
       </c>
-      <c r="C354" s="13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D354" t="inlineStr">
+      <c r="C360" s="13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
         <is>
           <t>maa://44389 (100.0)</t>
         </is>
       </c>
-      <c r="E354" t="inlineStr">
+      <c r="E360" t="inlineStr">
         <is>
           <t>&gt; 战斗中非助战瑰盐累计使用绝妙的长效药呀8次&gt; 3星通关主题曲4-6；必须编入非助战瑰盐并上场，且至少使用1次绝妙的长效药呀</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="18" t="inlineStr">
+        <is>
+          <t>行箸</t>
+        </is>
+      </c>
+      <c r="B361" s="18" t="inlineStr">
+        <is>
+          <t>3-2</t>
+        </is>
+      </c>
+      <c r="C361" s="18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D361" s="21" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E361" s="21" t="inlineStr">
+        <is>
+          <t>&gt; 使用非助战行箸累计使用8次食不厌精&gt; 3星通关主题曲3-2，编入非助战行箸且所有干员不能被击倒</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.25 08:45:24</t>
+          <t>更新日期：2025.01.26 08:43:45</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="D32" s="12" t="inlineStr">
         <is>
-          <t>maa://36644 (88.36), maa://36866 (97.5), maa://27794 (100.0)</t>
+          <t>maa://36644 (88.44), maa://36866 (97.5), maa://27794 (100.0)</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="D37" s="12" t="inlineStr">
         <is>
-          <t>maa://27376 (91.18), *maa://20838 (52.94), maa://42635 (94.44)</t>
+          <t>maa://27376 (91.18), maa://42635 (95.83), *maa://20838 (52.94)</t>
         </is>
       </c>
       <c r="E37" s="3" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="D108" s="12" t="inlineStr">
         <is>
-          <t>maa://25018 (96.12), maa://25776 (90.77), maa://28361 (96.88), maa://25772 (93.02), *maa://25161 (80.0), maa://32653 (85.71), *maa://45194 (66.67)</t>
+          <t>maa://25018 (96.13), maa://25776 (90.77), maa://28361 (96.88), maa://25772 (93.02), *maa://25161 (80.0), maa://32653 (85.71), *maa://45194 (66.67)</t>
         </is>
       </c>
       <c r="E108" s="3" t="inlineStr">
@@ -4687,7 +4687,7 @@
       </c>
       <c r="D142" s="12" t="inlineStr">
         <is>
-          <t>maa://28484 (97.75), **maa://23736 (41.54), *maa://31185 (80.0), maa://30306 (100.0)</t>
+          <t>maa://28484 (97.78), **maa://23736 (41.54), *maa://31185 (80.0), maa://30306 (100.0)</t>
         </is>
       </c>
       <c r="E142" s="3" t="inlineStr">
@@ -5119,7 +5119,7 @@
       </c>
       <c r="D158" s="12" t="inlineStr">
         <is>
-          <t>maa://44232 (99.16), maa://44305 (100.0), maa://45603 (100.0)</t>
+          <t>maa://44232 (99.16), maa://44305 (100.0), maa://45603 (87.5)</t>
         </is>
       </c>
       <c r="E158" s="3" t="inlineStr">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="D166" s="12" t="inlineStr">
         <is>
-          <t>maa://29633 (94.0), maa://29627 (92.97), maa://29659 (83.33), maa://29861 (100.0)</t>
+          <t>maa://29633 (94.02), maa://29627 (92.97), maa://29659 (83.33), maa://29861 (100.0)</t>
         </is>
       </c>
       <c r="E166" s="3" t="inlineStr">
@@ -6199,7 +6199,7 @@
       </c>
       <c r="D198" s="12" t="inlineStr">
         <is>
-          <t>maa://42223 (99.41), maa://42292 (95.83), maa://42402 (100.0)</t>
+          <t>maa://42223 (99.41), maa://42292 (96.43), maa://42402 (100.0)</t>
         </is>
       </c>
       <c r="E198" s="3" t="inlineStr">
@@ -6631,7 +6631,7 @@
       </c>
       <c r="D214" s="19" t="inlineStr">
         <is>
-          <t>**maa://26496 (42.86), **maa://20995 (44.44)</t>
+          <t>**maa://26496 (37.5), **maa://20995 (44.44)</t>
         </is>
       </c>
       <c r="E214" s="20" t="inlineStr">
@@ -7117,7 +7117,7 @@
       </c>
       <c r="D232" s="12" t="inlineStr">
         <is>
-          <t>maa://20922 (92.45), *maa://32623 (58.33), *maa://34242 (80.0), maa://34900 (90.0)</t>
+          <t>maa://20922 (92.59), *maa://32623 (58.33), *maa://34242 (80.0), maa://34900 (90.0)</t>
         </is>
       </c>
       <c r="E232" s="3" t="inlineStr">
@@ -7171,7 +7171,7 @@
       </c>
       <c r="D234" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (77.59), maa://30666 (83.9), *maa://26836 (77.63), maa://37607 (94.38), **maa://30739 (44.44), *maa://34428 (70.33), *maa://30723 (52.73), maa://39588 (88.64), *maa://37850 (75.0)</t>
+          <t>*maa://30667 (77.4), maa://30666 (83.5), *maa://26836 (77.63), maa://37607 (94.38), **maa://30739 (44.44), *maa://34428 (70.33), *maa://30723 (52.73), maa://39588 (88.64), *maa://37850 (75.0)</t>
         </is>
       </c>
       <c r="E234" s="3" t="inlineStr">
@@ -7414,7 +7414,7 @@
       </c>
       <c r="D243" s="12" t="inlineStr">
         <is>
-          <t>maa://42287 (91.49), maa://42225 (100.0), maa://45570 (100.0)</t>
+          <t>maa://42287 (92.16), maa://42225 (100.0), maa://45570 (100.0)</t>
         </is>
       </c>
       <c r="E243" s="3" t="inlineStr">
@@ -8435,12 +8435,12 @@
       </c>
       <c r="C281" s="13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D281" s="12" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://45842 (100.0)</t>
         </is>
       </c>
       <c r="E281" s="3" t="inlineStr">
@@ -8477,27 +8477,27 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="17" t="inlineStr">
+      <c r="A283" s="16" t="inlineStr">
         <is>
           <t>重岳</t>
         </is>
       </c>
-      <c r="B283" s="17" t="inlineStr">
+      <c r="B283" s="16" t="inlineStr">
         <is>
           <t>GA-5</t>
         </is>
       </c>
-      <c r="C283" s="18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D283" s="19" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E283" s="20" t="inlineStr">
+      <c r="C283" s="13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D283" s="12" t="inlineStr">
+        <is>
+          <t>maa://45799 (100.0)</t>
+        </is>
+      </c>
+      <c r="E283" s="3" t="inlineStr">
         <is>
           <t>&gt; 使用非助战重岳累计使用50次我无&gt; 3星通关别传GA-5；必须携带且部署非助战重岳，其他成员仅可编入4名干员</t>
         </is>
@@ -8953,7 +8953,7 @@
       </c>
       <c r="D300" s="12" t="inlineStr">
         <is>
-          <t>maa://25367 (99.1)</t>
+          <t>maa://25367 (99.11)</t>
         </is>
       </c>
       <c r="E300" s="3" t="inlineStr">
@@ -8980,7 +8980,7 @@
       </c>
       <c r="D301" s="12" t="inlineStr">
         <is>
-          <t>*maa://43090 (60.0)</t>
+          <t>*maa://43090 (80.0)</t>
         </is>
       </c>
       <c r="E301" s="3" t="inlineStr">
@@ -9466,7 +9466,7 @@
       </c>
       <c r="D319" s="12" t="inlineStr">
         <is>
-          <t>maa://42968 (99.48)</t>
+          <t>maa://42968 (99.31)</t>
         </is>
       </c>
       <c r="E319" s="3" t="inlineStr">
@@ -9547,7 +9547,7 @@
       </c>
       <c r="D322" s="12" t="inlineStr">
         <is>
-          <t>maa://30671 (81.6), maa://30669 (98.9), maa://37275 (83.78), *maa://32410 (66.67), maa://41605 (100.0), maa://33671 (100.0)</t>
+          <t>maa://30671 (81.6), maa://30669 (98.91), maa://37275 (83.78), *maa://32410 (66.67), maa://41605 (100.0), maa://33671 (100.0)</t>
         </is>
       </c>
       <c r="E322" s="3" t="inlineStr">
@@ -9665,27 +9665,27 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" s="17" t="inlineStr">
+      <c r="A327" s="16" t="inlineStr">
         <is>
           <t>左乐</t>
         </is>
       </c>
-      <c r="B327" s="17" t="inlineStr">
+      <c r="B327" s="16" t="inlineStr">
         <is>
           <t>RI-7</t>
         </is>
       </c>
-      <c r="C327" s="18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D327" s="19" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E327" s="20" t="inlineStr">
+      <c r="C327" s="13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D327" s="12" t="inlineStr">
+        <is>
+          <t>maa://45800 (100.0)</t>
+        </is>
+      </c>
+      <c r="E327" s="3" t="inlineStr">
         <is>
           <t>&gt; 使用非助战左乐累计造成100000点伤害&gt; 3星通关别传RI-7；必须携带且部署非助战左乐，且至少释放3次佑序有炎</t>
         </is>
@@ -9709,7 +9709,7 @@
       </c>
       <c r="D328" s="12" t="inlineStr">
         <is>
-          <t>maa://32647 (97.29), maa://32415 (96.06), maa://34677 (100.0), maa://32892 (100.0)</t>
+          <t>maa://32647 (97.3), maa://32415 (96.09), maa://34677 (100.0), maa://32892 (100.0)</t>
         </is>
       </c>
       <c r="E328" s="3" t="inlineStr">
@@ -9893,12 +9893,12 @@
       </c>
       <c r="C335" s="13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D335" s="14" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://45834 (100.0), maa://45833 (100.0)</t>
         </is>
       </c>
       <c r="E335" s="14" t="inlineStr">
@@ -10006,7 +10006,7 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>maa://42299 (96.0), **maa://42224 (50.0)</t>
+          <t>maa://42299 (96.55), **maa://42224 (50.0)</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
@@ -10087,7 +10087,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>maa://42635 (94.44)</t>
+          <t>maa://42635 (95.83)</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>maa://40957 (87.23), maa://41035 (89.58), maa://41128 (80.65), maa://44635 (83.33), maa://44660 (90.0)</t>
+          <t>maa://40957 (87.3), maa://41035 (89.58), maa://41128 (80.65), maa://44635 (83.33), maa://44660 (90.0)</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
@@ -10232,27 +10232,27 @@
       </c>
     </row>
     <row r="348">
-      <c r="A348" s="18" t="inlineStr">
+      <c r="A348" s="13" t="inlineStr">
         <is>
           <t>佩佩</t>
         </is>
       </c>
-      <c r="B348" s="18" t="inlineStr">
+      <c r="B348" s="13" t="inlineStr">
         <is>
           <t>3-8</t>
         </is>
       </c>
-      <c r="C348" s="18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D348" s="21" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E348" s="21" t="inlineStr">
+      <c r="C348" s="13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>maa://45798 (100.0)</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
         <is>
           <t>&gt; 由非助战佩佩累计造成40歼灭数&gt; 3星通关主题曲3-8；必须编入非助战佩佩并上场，且使用佩佩歼灭碎骨</t>
         </is>
@@ -10465,7 +10465,7 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>*maa://43097 (66.67)</t>
+          <t>maa://43097 (87.5)</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
@@ -10546,7 +10546,7 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>maa://42970 (88.54), maa://44745 (93.33), maa://44896 (100.0)</t>
+          <t>maa://42970 (88.6), maa://44745 (93.33), maa://44896 (100.0)</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
@@ -10583,27 +10583,27 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" s="18" t="inlineStr">
+      <c r="A361" s="13" t="inlineStr">
         <is>
           <t>行箸</t>
         </is>
       </c>
-      <c r="B361" s="18" t="inlineStr">
+      <c r="B361" s="13" t="inlineStr">
         <is>
           <t>3-2</t>
         </is>
       </c>
-      <c r="C361" s="18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D361" s="21" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E361" s="21" t="inlineStr">
+      <c r="C361" s="13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>maa://45807 (100.0)</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
         <is>
           <t>&gt; 使用非助战行箸累计使用8次食不厌精&gt; 3星通关主题曲3-2，编入非助战行箸且所有干员不能被击倒</t>
         </is>

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.26 08:43:45</t>
+          <t>更新日期：2025.01.27 13:17:55</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>maa://20863 (86.67), maa://20832 (98.59), maa://20727 (100.0)</t>
+          <t>maa://20863 (86.74), maa://20832 (98.59), maa://20727 (100.0)</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
@@ -2581,7 +2581,7 @@
       </c>
       <c r="D64" s="12" t="inlineStr">
         <is>
-          <t>maa://28187 (97.14), maa://33504 (100.0), maa://39520 (100.0), maa://43531 (100.0), maa://45144 (100.0)</t>
+          <t>maa://28187 (97.14), maa://33504 (100.0), maa://39520 (100.0), maa://45144 (100.0), maa://43531 (100.0)</t>
         </is>
       </c>
       <c r="E64" s="3" t="inlineStr">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="D69" s="12" t="inlineStr">
         <is>
-          <t>maa://28784 (94.07), maa://29088 (91.67), maa://20974 (95.71), maa://31124 (96.55), maa://28950 (92.0), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (80.0), **maa://42200 (50.0), maa://41832 (85.71)</t>
+          <t>maa://28784 (94.07), maa://29088 (91.67), maa://20974 (95.71), maa://31124 (96.57), maa://28950 (92.0), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (80.0), **maa://42200 (50.0), maa://41832 (85.71)</t>
         </is>
       </c>
       <c r="E69" s="3" t="inlineStr">
@@ -3607,7 +3607,7 @@
       </c>
       <c r="D102" s="12" t="inlineStr">
         <is>
-          <t>maa://40517 (94.12), *maa://39240 (57.14)</t>
+          <t>maa://40517 (94.44), *maa://39240 (57.14)</t>
         </is>
       </c>
       <c r="E102" s="3" t="inlineStr">
@@ -4417,7 +4417,7 @@
       </c>
       <c r="D132" s="12" t="inlineStr">
         <is>
-          <t>maa://23019 (100.0), maa://40517 (94.12), maa://20837 (100.0), maa://37113 (100.0), maa://37666 (85.71), maa://41686 (100.0)</t>
+          <t>maa://23019 (100.0), maa://40517 (94.44), maa://20837 (100.0), maa://37113 (100.0), maa://37666 (85.71), maa://41686 (100.0)</t>
         </is>
       </c>
       <c r="E132" s="3" t="inlineStr">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="D166" s="12" t="inlineStr">
         <is>
-          <t>maa://29633 (94.02), maa://29627 (92.97), maa://29659 (83.33), maa://29861 (100.0)</t>
+          <t>maa://29633 (93.68), maa://29627 (92.47), maa://29659 (83.33), maa://29861 (100.0)</t>
         </is>
       </c>
       <c r="E166" s="3" t="inlineStr">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="D194" s="12" t="inlineStr">
         <is>
-          <t>*maa://35854 (77.5), maa://25760 (85.87), maa://44224 (88.89), **maa://20872 (50.0), ***maa://43443 (27.27), ***maa://43911 (18.18)</t>
+          <t>*maa://35854 (77.5), maa://25760 (85.87), maa://44224 (89.02), **maa://20872 (50.0), ***maa://43443 (27.27), ***maa://43911 (18.18)</t>
         </is>
       </c>
       <c r="E194" s="3" t="inlineStr">
@@ -7171,7 +7171,7 @@
       </c>
       <c r="D234" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (77.4), maa://30666 (83.5), *maa://26836 (77.63), maa://37607 (94.38), **maa://30739 (44.44), *maa://34428 (70.33), *maa://30723 (52.73), maa://39588 (88.64), *maa://37850 (75.0)</t>
+          <t>*maa://30667 (77.45), maa://30666 (83.5), *maa://26836 (77.63), maa://37607 (94.38), **maa://30739 (44.44), *maa://34428 (70.33), *maa://30723 (52.73), maa://39588 (88.64), *maa://37850 (75.0)</t>
         </is>
       </c>
       <c r="E234" s="3" t="inlineStr">
@@ -8278,7 +8278,7 @@
       </c>
       <c r="D275" s="12" t="inlineStr">
         <is>
-          <t>maa://20899 (89.81), **maa://44744 (33.33)</t>
+          <t>maa://20899 (89.24), **maa://44744 (33.33)</t>
         </is>
       </c>
       <c r="E275" s="3" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="D281" s="12" t="inlineStr">
         <is>
-          <t>maa://45842 (100.0)</t>
+          <t>**maa://45842 (50.0)</t>
         </is>
       </c>
       <c r="E281" s="3" t="inlineStr">
@@ -9709,7 +9709,7 @@
       </c>
       <c r="D328" s="12" t="inlineStr">
         <is>
-          <t>maa://32647 (97.3), maa://32415 (96.09), maa://34677 (100.0), maa://32892 (100.0)</t>
+          <t>maa://32647 (97.31), maa://32415 (96.09), maa://34677 (100.0), maa://32892 (100.0)</t>
         </is>
       </c>
       <c r="E328" s="3" t="inlineStr">
@@ -9844,7 +9844,7 @@
       </c>
       <c r="D333" s="14" t="inlineStr">
         <is>
-          <t>maa://34865 (97.27), maa://34717 (93.65), maa://45066 (100.0)</t>
+          <t>maa://34865 (97.27), maa://34717 (93.75), maa://45066 (100.0)</t>
         </is>
       </c>
       <c r="E333" s="14" t="inlineStr">
@@ -10546,7 +10546,7 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>maa://42970 (88.6), maa://44745 (93.33), maa://44896 (100.0)</t>
+          <t>maa://42970 (88.66), maa://44745 (93.75), maa://44896 (100.0)</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.27 13:17:55</t>
+          <t>更新日期：2025.01.28 13:17:19</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -1847,12 +1847,12 @@
       </c>
       <c r="C37" s="13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D37" s="12" t="inlineStr">
         <is>
-          <t>maa://27376 (91.18), maa://42635 (95.83), *maa://20838 (52.94)</t>
+          <t>maa://27376 (91.18), *maa://20838 (52.94)</t>
         </is>
       </c>
       <c r="E37" s="3" t="inlineStr">
@@ -3202,7 +3202,7 @@
       </c>
       <c r="D87" s="12" t="inlineStr">
         <is>
-          <t>maa://20886 (90.0), maa://25136 (95.45)</t>
+          <t>maa://20886 (90.0), maa://25136 (95.65)</t>
         </is>
       </c>
       <c r="E87" s="3" t="inlineStr">
@@ -6496,7 +6496,7 @@
       </c>
       <c r="D209" s="12" t="inlineStr">
         <is>
-          <t>maa://39238 (99.25)</t>
+          <t>maa://39238 (99.26)</t>
         </is>
       </c>
       <c r="E209" s="3" t="inlineStr">
@@ -9547,7 +9547,7 @@
       </c>
       <c r="D322" s="12" t="inlineStr">
         <is>
-          <t>maa://30671 (81.6), maa://30669 (98.91), maa://37275 (83.78), *maa://32410 (66.67), maa://41605 (100.0), maa://33671 (100.0)</t>
+          <t>maa://30671 (81.6), maa://30669 (98.91), maa://37275 (81.58), *maa://32410 (66.67), maa://41605 (100.0), maa://33671 (100.0)</t>
         </is>
       </c>
       <c r="E322" s="3" t="inlineStr">
@@ -10546,7 +10546,7 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>maa://42970 (88.66), maa://44745 (93.75), maa://44896 (100.0)</t>
+          <t>maa://42970 (88.72), maa://44745 (93.75), maa://44896 (100.0)</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.28 13:17:19</t>
+          <t>更新日期：2025.01.30 13:18:46</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>maa://20863 (86.74), maa://20832 (98.59), maa://20727 (100.0)</t>
+          <t>maa://20863 (86.81), maa://20832 (98.61), maa://20727 (100.0)</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
@@ -1712,12 +1712,12 @@
       </c>
       <c r="C32" s="13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D32" s="12" t="inlineStr">
         <is>
-          <t>maa://36644 (88.44), maa://36866 (97.5), maa://27794 (100.0)</t>
+          <t>maa://36644 (88.44), maa://36866 (97.5), maa://27794 (100.0), maa://45572 (100.0)</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
@@ -2176,7 +2176,7 @@
       </c>
       <c r="D49" s="12" t="inlineStr">
         <is>
-          <t>*maa://32845 (66.67), *maa://20982 (66.67)</t>
+          <t>*maa://32845 (70.0), *maa://20982 (66.67)</t>
         </is>
       </c>
       <c r="E49" s="3" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="D56" s="12" t="inlineStr">
         <is>
-          <t>maa://44235 (96.15), maa://45604 (100.0)</t>
+          <t>maa://44235 (96.2), maa://45604 (100.0)</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
@@ -2500,7 +2500,7 @@
       </c>
       <c r="D61" s="12" t="inlineStr">
         <is>
-          <t>maa://20841 (100.0), maa://24093 (100.0), maa://31559 (95.83), maa://25777 (100.0), maa://20631 (100.0)</t>
+          <t>maa://20841 (100.0), maa://24093 (100.0), maa://31559 (96.0), maa://25777 (100.0), maa://20631 (100.0)</t>
         </is>
       </c>
       <c r="E61" s="3" t="inlineStr">
@@ -2630,12 +2630,12 @@
       </c>
       <c r="C66" s="13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D66" s="12" t="inlineStr">
         <is>
-          <t>maa://20993 (100.0), maa://20829 (100.0)</t>
+          <t>maa://20993 (100.0), maa://20829 (100.0), maa://45606 (100.0)</t>
         </is>
       </c>
       <c r="E66" s="3" t="inlineStr">
@@ -2797,7 +2797,7 @@
       </c>
       <c r="D72" s="12" t="inlineStr">
         <is>
-          <t>maa://36643 (97.52), maa://36864 (97.53), maa://39140 (100.0)</t>
+          <t>maa://36643 (97.53), maa://36864 (97.53), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E72" s="3" t="inlineStr">
@@ -3089,12 +3089,12 @@
       </c>
       <c r="C83" s="13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D83" s="12" t="inlineStr">
         <is>
-          <t>maa://27794 (100.0), maa://20960 (100.0)</t>
+          <t>maa://27794 (100.0), maa://20960 (100.0), maa://45572 (100.0)</t>
         </is>
       </c>
       <c r="E83" s="3" t="inlineStr">
@@ -3575,12 +3575,12 @@
       </c>
       <c r="C101" s="13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D101" s="12" t="inlineStr">
         <is>
-          <t>maa://27794 (100.0), *maa://20893 (76.47)</t>
+          <t>maa://27794 (100.0), *maa://20893 (76.47), maa://45572 (100.0)</t>
         </is>
       </c>
       <c r="E101" s="3" t="inlineStr">
@@ -3710,12 +3710,12 @@
       </c>
       <c r="C106" s="13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D106" s="12" t="inlineStr">
         <is>
-          <t>maa://27794 (100.0), maa://20843 (100.0), **maa://24483 (50.0)</t>
+          <t>maa://27794 (100.0), maa://20843 (100.0), **maa://24483 (50.0), maa://45572 (100.0)</t>
         </is>
       </c>
       <c r="E106" s="3" t="inlineStr">
@@ -4876,7 +4876,7 @@
       </c>
       <c r="D149" s="12" t="inlineStr">
         <is>
-          <t>maa://36641 (98.33), maa://36865 (96.03), maa://42918 (100.0), maa://44119 (96.15), maa://37300 (100.0), maa://42917 (100.0)</t>
+          <t>maa://36641 (98.35), maa://36865 (96.03), maa://42918 (100.0), maa://44119 (96.15), maa://37300 (100.0), maa://42917 (100.0)</t>
         </is>
       </c>
       <c r="E149" s="3" t="inlineStr">
@@ -5227,7 +5227,7 @@
       </c>
       <c r="D162" s="12" t="inlineStr">
         <is>
-          <t>*maa://32845 (66.67), maa://29054 (100.0)</t>
+          <t>*maa://32845 (70.0), maa://29054 (100.0)</t>
         </is>
       </c>
       <c r="E162" s="3" t="inlineStr">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="D166" s="12" t="inlineStr">
         <is>
-          <t>maa://29633 (93.68), maa://29627 (92.47), maa://29659 (83.33), maa://29861 (100.0)</t>
+          <t>maa://29633 (93.7), maa://29627 (92.47), maa://29659 (83.33), maa://29861 (100.0)</t>
         </is>
       </c>
       <c r="E166" s="3" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="D172" s="12" t="inlineStr">
         <is>
-          <t>maa://32418 (99.58)</t>
+          <t>maa://32418 (99.59)</t>
         </is>
       </c>
       <c r="E172" s="3" t="inlineStr">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="D194" s="12" t="inlineStr">
         <is>
-          <t>*maa://35854 (77.5), maa://25760 (85.87), maa://44224 (89.02), **maa://20872 (50.0), ***maa://43443 (27.27), ***maa://43911 (18.18)</t>
+          <t>*maa://35854 (77.5), maa://25760 (85.87), maa://44224 (89.41), **maa://20872 (50.0), ***maa://43443 (27.27), ***maa://43911 (18.18)</t>
         </is>
       </c>
       <c r="E194" s="3" t="inlineStr">
@@ -6199,7 +6199,7 @@
       </c>
       <c r="D198" s="12" t="inlineStr">
         <is>
-          <t>maa://42223 (99.41), maa://42292 (96.43), maa://42402 (100.0)</t>
+          <t>maa://42223 (99.42), maa://42292 (96.43), maa://42402 (100.0)</t>
         </is>
       </c>
       <c r="E198" s="3" t="inlineStr">
@@ -7117,7 +7117,7 @@
       </c>
       <c r="D232" s="12" t="inlineStr">
         <is>
-          <t>maa://20922 (92.59), *maa://32623 (58.33), *maa://34242 (80.0), maa://34900 (90.0)</t>
+          <t>maa://20922 (92.73), *maa://32623 (58.33), *maa://34242 (80.0), maa://34900 (90.0)</t>
         </is>
       </c>
       <c r="E232" s="3" t="inlineStr">
@@ -7171,7 +7171,7 @@
       </c>
       <c r="D234" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (77.45), maa://30666 (83.5), *maa://26836 (77.63), maa://37607 (94.38), **maa://30739 (44.44), *maa://34428 (70.33), *maa://30723 (52.73), maa://39588 (88.64), *maa://37850 (75.0)</t>
+          <t>*maa://30667 (77.51), maa://30666 (83.5), *maa://26836 (77.78), maa://37607 (94.03), **maa://30739 (44.44), *maa://34428 (70.33), *maa://30723 (52.73), maa://39588 (88.64), *maa://37850 (75.0)</t>
         </is>
       </c>
       <c r="E234" s="3" t="inlineStr">
@@ -7495,7 +7495,7 @@
       </c>
       <c r="D246" s="12" t="inlineStr">
         <is>
-          <t>maa://24093 (100.0), maa://31559 (95.83), maa://20924 (95.24)</t>
+          <t>maa://24093 (100.0), maa://31559 (96.0), maa://20924 (95.24)</t>
         </is>
       </c>
       <c r="E246" s="3" t="inlineStr">
@@ -7603,7 +7603,7 @@
       </c>
       <c r="D250" s="12" t="inlineStr">
         <is>
-          <t>maa://20879 (85.42), maa://20834 (92.86)</t>
+          <t>maa://20879 (85.71), maa://20834 (92.86)</t>
         </is>
       </c>
       <c r="E250" s="3" t="inlineStr">
@@ -7922,12 +7922,12 @@
       </c>
       <c r="C262" s="13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D262" s="12" t="inlineStr">
         <is>
-          <t>maa://27794 (100.0), *maa://20862 (75.0)</t>
+          <t>maa://27794 (100.0), *maa://20862 (75.0), maa://45572 (100.0)</t>
         </is>
       </c>
       <c r="E262" s="3" t="inlineStr">
@@ -8602,7 +8602,7 @@
       </c>
       <c r="D287" s="12" t="inlineStr">
         <is>
-          <t>maa://29005 (98.31), maa://31560 (85.71)</t>
+          <t>maa://29005 (98.33), maa://31560 (85.71)</t>
         </is>
       </c>
       <c r="E287" s="3" t="inlineStr">
@@ -8953,7 +8953,7 @@
       </c>
       <c r="D300" s="12" t="inlineStr">
         <is>
-          <t>maa://25367 (99.11)</t>
+          <t>maa://25367 (99.12)</t>
         </is>
       </c>
       <c r="E300" s="3" t="inlineStr">
@@ -9034,7 +9034,7 @@
       </c>
       <c r="D303" s="12" t="inlineStr">
         <is>
-          <t>maa://31559 (95.83), maa://28241 (100.0)</t>
+          <t>maa://31559 (96.0), maa://28241 (100.0)</t>
         </is>
       </c>
       <c r="E303" s="3" t="inlineStr">
@@ -9709,7 +9709,7 @@
       </c>
       <c r="D328" s="12" t="inlineStr">
         <is>
-          <t>maa://32647 (97.31), maa://32415 (96.09), maa://34677 (100.0), maa://32892 (100.0)</t>
+          <t>maa://32647 (97.33), maa://32415 (96.15), maa://34677 (100.0), maa://32892 (100.0)</t>
         </is>
       </c>
       <c r="E328" s="3" t="inlineStr">
@@ -9952,7 +9952,7 @@
       </c>
       <c r="D337" s="14" t="inlineStr">
         <is>
-          <t>maa://36868 (100.0), maa://35996 (95.83), **maa://39217 (37.5), maa://44463 (83.33)</t>
+          <t>maa://36868 (100.0), maa://35996 (95.83), **maa://39217 (37.5), maa://44463 (85.71)</t>
         </is>
       </c>
       <c r="E337" s="14" t="inlineStr">
@@ -10033,7 +10033,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>maa://36646 (98.46), maa://36845 (95.15), **maa://39217 (37.5)</t>
+          <t>maa://36646 (98.47), maa://36845 (95.15), **maa://39217 (37.5)</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>maa://40957 (87.3), maa://41035 (89.58), maa://41128 (80.65), maa://44635 (83.33), maa://44660 (90.0)</t>
+          <t>maa://40957 (87.05), maa://41035 (89.58), maa://41128 (80.65), maa://44635 (82.35), maa://44660 (90.0)</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
@@ -10541,12 +10541,12 @@
       </c>
       <c r="C359" s="13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>maa://42970 (88.72), maa://44745 (93.75), maa://44896 (100.0)</t>
+          <t>maa://42970 (88.32), maa://44745 (93.75), maa://44896 (100.0), maa://45952 (100.0)</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.30 13:18:46</t>
+          <t>更新日期：2025.01.31 13:17:43</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>maa://20863 (86.81), maa://20832 (98.61), maa://20727 (100.0)</t>
+          <t>maa://20863 (87.03), maa://20832 (98.68), maa://20727 (100.0)</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="D59" s="12" t="inlineStr">
         <is>
-          <t>maa://27970 (98.39), *maa://41118 (80.0)</t>
+          <t>maa://27970 (98.41), *maa://41118 (80.0)</t>
         </is>
       </c>
       <c r="E59" s="3" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="D60" s="12" t="inlineStr">
         <is>
-          <t>maa://38298 (85.45)</t>
+          <t>maa://38298 (85.71)</t>
         </is>
       </c>
       <c r="E60" s="3" t="inlineStr">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="D88" s="12" t="inlineStr">
         <is>
-          <t>maa://24472 (86.42), *maa://35841 (54.55)</t>
+          <t>maa://24472 (85.89), *maa://35841 (54.55)</t>
         </is>
       </c>
       <c r="E88" s="3" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="D108" s="12" t="inlineStr">
         <is>
-          <t>maa://25018 (96.13), maa://25776 (90.77), maa://28361 (96.88), maa://25772 (93.02), *maa://25161 (80.0), maa://32653 (85.71), *maa://45194 (66.67)</t>
+          <t>maa://25018 (95.82), maa://25776 (90.77), maa://28361 (96.88), maa://25772 (93.02), *maa://25161 (80.0), maa://32653 (85.71), *maa://45194 (66.67)</t>
         </is>
       </c>
       <c r="E108" s="3" t="inlineStr">
@@ -4876,7 +4876,7 @@
       </c>
       <c r="D149" s="12" t="inlineStr">
         <is>
-          <t>maa://36641 (98.35), maa://36865 (96.03), maa://42918 (100.0), maa://44119 (96.15), maa://37300 (100.0), maa://42917 (100.0)</t>
+          <t>maa://36641 (98.36), maa://36865 (96.03), maa://42918 (100.0), maa://44119 (96.3), maa://37300 (100.0), maa://42917 (100.0)</t>
         </is>
       </c>
       <c r="E149" s="3" t="inlineStr">
@@ -5119,7 +5119,7 @@
       </c>
       <c r="D158" s="12" t="inlineStr">
         <is>
-          <t>maa://44232 (99.16), maa://44305 (100.0), maa://45603 (87.5)</t>
+          <t>maa://44232 (99.16), maa://44305 (100.0), maa://45603 (88.89)</t>
         </is>
       </c>
       <c r="E158" s="3" t="inlineStr">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="D194" s="12" t="inlineStr">
         <is>
-          <t>*maa://35854 (77.5), maa://25760 (85.87), maa://44224 (89.41), **maa://20872 (50.0), ***maa://43443 (27.27), ***maa://43911 (18.18)</t>
+          <t>*maa://35854 (78.05), maa://25760 (86.02), maa://44224 (89.53), **maa://20872 (50.0), ***maa://43443 (27.27), ***maa://43911 (18.18)</t>
         </is>
       </c>
       <c r="E194" s="3" t="inlineStr">
@@ -6118,7 +6118,7 @@
       </c>
       <c r="D195" s="12" t="inlineStr">
         <is>
-          <t>maa://39156 (86.96), maa://39550 (83.33)</t>
+          <t>maa://39156 (86.96), maa://39550 (85.71)</t>
         </is>
       </c>
       <c r="E195" s="3" t="inlineStr">
@@ -6199,7 +6199,7 @@
       </c>
       <c r="D198" s="12" t="inlineStr">
         <is>
-          <t>maa://42223 (99.42), maa://42292 (96.43), maa://42402 (100.0)</t>
+          <t>maa://42223 (99.42), maa://42292 (96.55), maa://42402 (100.0)</t>
         </is>
       </c>
       <c r="E198" s="3" t="inlineStr">
@@ -7171,7 +7171,7 @@
       </c>
       <c r="D234" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (77.51), maa://30666 (83.5), *maa://26836 (77.78), maa://37607 (94.03), **maa://30739 (44.44), *maa://34428 (70.33), *maa://30723 (52.73), maa://39588 (88.64), *maa://37850 (75.0)</t>
+          <t>*maa://30667 (77.56), maa://30666 (83.5), *maa://26836 (77.78), maa://37607 (94.03), **maa://30739 (44.44), *maa://34428 (70.33), *maa://30723 (52.73), maa://39588 (88.64), *maa://37850 (75.0)</t>
         </is>
       </c>
       <c r="E234" s="3" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="D281" s="12" t="inlineStr">
         <is>
-          <t>**maa://45842 (50.0)</t>
+          <t>*maa://45842 (66.67)</t>
         </is>
       </c>
       <c r="E281" s="3" t="inlineStr">
@@ -8467,7 +8467,7 @@
       </c>
       <c r="D282" s="12" t="inlineStr">
         <is>
-          <t>maa://32414 (98.62), maa://32505 (100.0), maa://39155 (95.83)</t>
+          <t>maa://32414 (98.63), maa://32505 (100.0), maa://39155 (95.83)</t>
         </is>
       </c>
       <c r="E282" s="3" t="inlineStr">
@@ -9115,7 +9115,7 @@
       </c>
       <c r="D306" s="12" t="inlineStr">
         <is>
-          <t>maa://39692 (99.71), maa://39810 (81.25)</t>
+          <t>maa://39692 (99.72), maa://39810 (81.25)</t>
         </is>
       </c>
       <c r="E306" s="3" t="inlineStr">
@@ -9208,39 +9208,39 @@
     <row r="310">
       <c r="A310" s="16" t="inlineStr">
         <is>
-          <t>涤火杰西卡</t>
+          <t>维荻</t>
         </is>
       </c>
       <c r="B310" s="16" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>9-3</t>
         </is>
       </c>
       <c r="C310" s="13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D310" s="12" t="inlineStr">
         <is>
-          <t>maa://34867 (97.22), maa://34715 (100.0)</t>
+          <t>maa://39176 (100.0)</t>
         </is>
       </c>
       <c r="E310" s="3" t="inlineStr">
         <is>
-          <t>&gt; 由非助战涤火杰西卡累计造成30歼灭数&gt; 3星通关主题曲3-8；必须编入非助战涤火杰西卡并上场，且使用涤火杰西卡歼灭碎骨</t>
+          <t>&gt; 由非助战维荻累计造成60000点伤害&gt; 3星通关主题曲9-3标准实战环境；必须编入非助战维荻并上场，且至少使用2次双刃毒藤</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="16" t="inlineStr">
         <is>
-          <t>维荻</t>
+          <t>戴菲恩</t>
         </is>
       </c>
       <c r="B311" s="16" t="inlineStr">
         <is>
-          <t>9-3</t>
+          <t>WD-6</t>
         </is>
       </c>
       <c r="C311" s="13" t="inlineStr">
@@ -9250,24 +9250,24 @@
       </c>
       <c r="D311" s="12" t="inlineStr">
         <is>
-          <t>maa://39176 (100.0)</t>
+          <t>maa://42316 (100.0)</t>
         </is>
       </c>
       <c r="E311" s="3" t="inlineStr">
         <is>
-          <t>&gt; 由非助战维荻累计造成60000点伤害&gt; 3星通关主题曲9-3标准实战环境；必须编入非助战维荻并上场，且至少使用2次双刃毒藤</t>
+          <t>&gt; 由非助战戴菲恩累计造成30歼灭数&gt; 3星通关插曲WD-6；必须携带且部署非助战戴菲恩，且至少使用2次抢攻</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="16" t="inlineStr">
         <is>
-          <t>戴菲恩</t>
+          <t>刺玫</t>
         </is>
       </c>
       <c r="B312" s="16" t="inlineStr">
         <is>
-          <t>WD-6</t>
+          <t>IC-2</t>
         </is>
       </c>
       <c r="C312" s="13" t="inlineStr">
@@ -9277,24 +9277,24 @@
       </c>
       <c r="D312" s="12" t="inlineStr">
         <is>
-          <t>maa://42316 (100.0)</t>
+          <t>maa://30680 (100.0)</t>
         </is>
       </c>
       <c r="E312" s="3" t="inlineStr">
         <is>
-          <t>&gt; 由非助战戴菲恩累计造成30歼灭数&gt; 3星通关插曲WD-6；必须携带且部署非助战戴菲恩，且至少使用2次抢攻</t>
+          <t>&gt; 战斗中非助战刺玫累计使用荆藤庇荫10次&gt; 3星通关别传IC-2；必须编入非助战刺玫并上场，且不编入其他医疗干员</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="16" t="inlineStr">
         <is>
-          <t>刺玫</t>
+          <t>赫德雷</t>
         </is>
       </c>
       <c r="B313" s="16" t="inlineStr">
         <is>
-          <t>IC-2</t>
+          <t>IW-7</t>
         </is>
       </c>
       <c r="C313" s="13" t="inlineStr">
@@ -9304,66 +9304,66 @@
       </c>
       <c r="D313" s="12" t="inlineStr">
         <is>
-          <t>maa://30680 (100.0)</t>
+          <t>maa://40956 (100.0)</t>
         </is>
       </c>
       <c r="E313" s="3" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战刺玫累计使用荆藤庇荫10次&gt; 3星通关别传IC-2；必须编入非助战刺玫并上场，且不编入其他医疗干员</t>
+          <t>&gt; 由非助战赫德雷累计歼灭5个精英或领袖敌人&gt; 3星通关别传IW-7；必须编入非助战赫德雷并上场，并使用赫德雷至少击败2名沉沙</t>
         </is>
       </c>
     </row>
     <row r="314">
-      <c r="A314" s="16" t="inlineStr">
-        <is>
-          <t>赫德雷</t>
-        </is>
-      </c>
-      <c r="B314" s="16" t="inlineStr">
-        <is>
-          <t>IW-7</t>
-        </is>
-      </c>
-      <c r="C314" s="13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D314" s="12" t="inlineStr">
-        <is>
-          <t>maa://40956 (100.0)</t>
-        </is>
-      </c>
-      <c r="E314" s="3" t="inlineStr">
-        <is>
-          <t>&gt; 由非助战赫德雷累计歼灭5个精英或领袖敌人&gt; 3星通关别传IW-7；必须编入非助战赫德雷并上场，并使用赫德雷至少击败2名沉沙</t>
+      <c r="A314" s="17" t="inlineStr">
+        <is>
+          <t>深律</t>
+        </is>
+      </c>
+      <c r="B314" s="17" t="inlineStr">
+        <is>
+          <t>LE-4</t>
+        </is>
+      </c>
+      <c r="C314" s="18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D314" s="19" t="inlineStr">
+        <is>
+          <t>**maa://39178 (33.33)</t>
+        </is>
+      </c>
+      <c r="E314" s="20" t="inlineStr">
+        <is>
+          <t>&gt; 完成5次战斗；必须编入非助战深律并上场，且每次战斗至少释放1次沉音宁神&gt; 3星通关别传LE-4；必须编入非助战深律并上场，且所有干员不被击倒</t>
         </is>
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="17" t="inlineStr">
-        <is>
-          <t>深律</t>
-        </is>
-      </c>
-      <c r="B315" s="17" t="inlineStr">
-        <is>
-          <t>LE-4</t>
-        </is>
-      </c>
-      <c r="C315" s="18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D315" s="19" t="inlineStr">
-        <is>
-          <t>**maa://39178 (33.33)</t>
-        </is>
-      </c>
-      <c r="E315" s="20" t="inlineStr">
-        <is>
-          <t>&gt; 完成5次战斗；必须编入非助战深律并上场，且每次战斗至少释放1次沉音宁神&gt; 3星通关别传LE-4；必须编入非助战深律并上场，且所有干员不被击倒</t>
+      <c r="A315" s="16" t="inlineStr">
+        <is>
+          <t>止颂</t>
+        </is>
+      </c>
+      <c r="B315" s="16" t="inlineStr">
+        <is>
+          <t>7-11</t>
+        </is>
+      </c>
+      <c r="C315" s="13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D315" s="12" t="inlineStr">
+        <is>
+          <t>maa://34205 (85.71)</t>
+        </is>
+      </c>
+      <c r="E315" s="3" t="inlineStr">
+        <is>
+          <t>&gt; 由非助战止颂累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲7-11；必须编入非助战止颂并上场，且使用止颂歼灭至少2名雇佣军萨卡兹战士</t>
         </is>
       </c>
     </row>
@@ -9375,61 +9375,61 @@
       </c>
       <c r="B316" s="16" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>TW-5</t>
         </is>
       </c>
       <c r="C316" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D316" s="12" t="inlineStr">
         <is>
-          <t>maa://34205 (85.71)</t>
+          <t>maa://43092 (100.0), maa://43093 (100.0)</t>
         </is>
       </c>
       <c r="E316" s="3" t="inlineStr">
         <is>
-          <t>&gt; 由非助战止颂累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲7-11；必须编入非助战止颂并上场，且使用止颂歼灭至少2名雇佣军萨卡兹战士</t>
+          <t>&gt; 由非助战止颂累计造成120000点伤害&gt; 3星通关别传TW-5；必须编入非助战止颂并上场，且使用止颂击败至少6名敌人</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="16" t="inlineStr">
         <is>
-          <t>止颂</t>
+          <t>薇薇安娜</t>
         </is>
       </c>
       <c r="B317" s="16" t="inlineStr">
         <is>
-          <t>TW-5</t>
+          <t>MN-3</t>
         </is>
       </c>
       <c r="C317" s="13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D317" s="12" t="inlineStr">
         <is>
-          <t>maa://43092 (100.0), maa://43093 (100.0)</t>
+          <t>maa://44234 (98.18)</t>
         </is>
       </c>
       <c r="E317" s="3" t="inlineStr">
         <is>
-          <t>&gt; 由非助战止颂累计造成120000点伤害&gt; 3星通关别传TW-5；必须编入非助战止颂并上场，且使用止颂击败至少6名敌人</t>
+          <t>&gt; 由非助战薇薇安娜累计歼灭10个精英或领袖敌人&gt; 3星通关别传MN-3；必须编入非助战薇薇安娜并上场，且使用薇薇安娜歼灭“锈铜”奥尔默·英格拉</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="16" t="inlineStr">
         <is>
-          <t>薇薇安娜</t>
+          <t>塑心</t>
         </is>
       </c>
       <c r="B318" s="16" t="inlineStr">
         <is>
-          <t>MN-3</t>
+          <t>GA-7</t>
         </is>
       </c>
       <c r="C318" s="13" t="inlineStr">
@@ -9439,24 +9439,24 @@
       </c>
       <c r="D318" s="12" t="inlineStr">
         <is>
-          <t>maa://44234 (98.18)</t>
+          <t>maa://42968 (99.31)</t>
         </is>
       </c>
       <c r="E318" s="3" t="inlineStr">
         <is>
-          <t>&gt; 由非助战薇薇安娜累计歼灭10个精英或领袖敌人&gt; 3星通关别传MN-3；必须编入非助战薇薇安娜并上场，且使用薇薇安娜歼灭“锈铜”奥尔默·英格拉</t>
+          <t>&gt; 由非助战塑心累计造成75000点凋亡损伤&gt; 3星通关别传GA-7；必须编入非助战塑心并上场，且塑心造成至少15000点凋亡损伤</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="16" t="inlineStr">
         <is>
-          <t>塑心</t>
+          <t>哈洛德</t>
         </is>
       </c>
       <c r="B319" s="16" t="inlineStr">
         <is>
-          <t>GA-7</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C319" s="13" t="inlineStr">
@@ -9466,24 +9466,24 @@
       </c>
       <c r="D319" s="12" t="inlineStr">
         <is>
-          <t>maa://42968 (99.31)</t>
+          <t>*maa://40162 (66.67)</t>
         </is>
       </c>
       <c r="E319" s="3" t="inlineStr">
         <is>
-          <t>&gt; 由非助战塑心累计造成75000点凋亡损伤&gt; 3星通关别传GA-7；必须编入非助战塑心并上场，且塑心造成至少15000点凋亡损伤</t>
+          <t>&gt; 战斗中非助战哈洛德累计使用重症优先8次&gt; 3星通关主题曲9-13标准实战环境；必须编入非助战哈洛德并上场，且所有干员不被击倒</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="16" t="inlineStr">
         <is>
-          <t>哈洛德</t>
+          <t>烈夏</t>
         </is>
       </c>
       <c r="B320" s="16" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C320" s="13" t="inlineStr">
@@ -9493,78 +9493,78 @@
       </c>
       <c r="D320" s="12" t="inlineStr">
         <is>
-          <t>*maa://40162 (66.67)</t>
+          <t>maa://37692 (100.0)</t>
         </is>
       </c>
       <c r="E320" s="3" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战哈洛德累计使用重症优先8次&gt; 3星通关主题曲9-13标准实战环境；必须编入非助战哈洛德并上场，且所有干员不被击倒</t>
+          <t>&gt; 由非助战烈夏累计造成30歼灭数&gt; 3星通关主题曲4-3；必须编入非助战烈夏并上场，且不编入其他近卫干员</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="16" t="inlineStr">
         <is>
-          <t>烈夏</t>
+          <t>锏</t>
         </is>
       </c>
       <c r="B321" s="16" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>BI-6</t>
         </is>
       </c>
       <c r="C321" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D321" s="12" t="inlineStr">
         <is>
-          <t>maa://37692 (100.0)</t>
+          <t>maa://30671 (81.6), maa://30669 (98.91), maa://37275 (81.58), *maa://32410 (66.67), maa://41605 (100.0), maa://33671 (100.0)</t>
         </is>
       </c>
       <c r="E321" s="3" t="inlineStr">
         <is>
-          <t>&gt; 由非助战烈夏累计造成30歼灭数&gt; 3星通关主题曲4-3；必须编入非助战烈夏并上场，且不编入其他近卫干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战锏并上场，且每次战斗至少释放1次归于宁静&gt; 3星通关别传BI-6；必须编入非助战锏并上场，且使用锏至少歼灭10个敌人</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="16" t="inlineStr">
         <is>
-          <t>锏</t>
+          <t>莱伊</t>
         </is>
       </c>
       <c r="B322" s="16" t="inlineStr">
         <is>
-          <t>BI-6</t>
+          <t>S9-1</t>
         </is>
       </c>
       <c r="C322" s="13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D322" s="12" t="inlineStr">
         <is>
-          <t>maa://30671 (81.6), maa://30669 (98.91), maa://37275 (81.58), *maa://32410 (66.67), maa://41605 (100.0), maa://33671 (100.0)</t>
+          <t>maa://38295 (95.59)</t>
         </is>
       </c>
       <c r="E322" s="3" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战锏并上场，且每次战斗至少释放1次归于宁静&gt; 3星通关别传BI-6；必须编入非助战锏并上场，且使用锏至少歼灭10个敌人</t>
+          <t>&gt; 由非助战莱伊累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲S9-1标准实战环境；必须编入非助战莱伊并上场，且使用莱伊使用至少2次“得见光芒”</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="16" t="inlineStr">
         <is>
-          <t>莱伊</t>
+          <t>万顷</t>
         </is>
       </c>
       <c r="B323" s="16" t="inlineStr">
         <is>
-          <t>S9-1</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C323" s="13" t="inlineStr">
@@ -9574,24 +9574,24 @@
       </c>
       <c r="D323" s="12" t="inlineStr">
         <is>
-          <t>maa://38295 (95.59)</t>
+          <t>maa://32417 (100.0)</t>
         </is>
       </c>
       <c r="E323" s="3" t="inlineStr">
         <is>
-          <t>&gt; 由非助战莱伊累计歼灭10个精英或领袖敌人&gt; 3星通关主题曲S9-1标准实战环境；必须编入非助战莱伊并上场，且使用莱伊使用至少2次“得见光芒”</t>
+          <t>&gt; 战斗中非助战万顷累计使用支援号令·γ型10次&gt; 3星通关主题曲9-13标准实战环境；必须编入非助战万顷并上场，且至少使用2次应东风</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="16" t="inlineStr">
         <is>
-          <t>万顷</t>
+          <t>小满</t>
         </is>
       </c>
       <c r="B324" s="16" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>9-11</t>
         </is>
       </c>
       <c r="C324" s="13" t="inlineStr">
@@ -9601,24 +9601,24 @@
       </c>
       <c r="D324" s="12" t="inlineStr">
         <is>
-          <t>maa://32417 (100.0)</t>
+          <t>maa://32419 (100.0)</t>
         </is>
       </c>
       <c r="E324" s="3" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战万顷累计使用支援号令·γ型10次&gt; 3星通关主题曲9-13标准实战环境；必须编入非助战万顷并上场，且至少使用2次应东风</t>
+          <t>&gt; 由非助战小满累计造成60000点伤害&gt; 3星通关主题曲9-11标准实战环境；必须编入非助战小满并上场，且至少使用2次乡音沉沉</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="16" t="inlineStr">
         <is>
-          <t>小满</t>
+          <t>左乐</t>
         </is>
       </c>
       <c r="B325" s="16" t="inlineStr">
         <is>
-          <t>9-11</t>
+          <t>WB-5</t>
         </is>
       </c>
       <c r="C325" s="13" t="inlineStr">
@@ -9628,12 +9628,12 @@
       </c>
       <c r="D325" s="12" t="inlineStr">
         <is>
-          <t>maa://32419 (100.0)</t>
+          <t>maa://32416 (87.18)</t>
         </is>
       </c>
       <c r="E325" s="3" t="inlineStr">
         <is>
-          <t>&gt; 由非助战小满累计造成60000点伤害&gt; 3星通关主题曲9-11标准实战环境；必须编入非助战小满并上场，且至少使用2次乡音沉沉</t>
+          <t>&gt; 由非助战左乐累计造成40歼灭数&gt; 3星通关别传WB-5；必须编入非助战左乐并上场，且使用左乐至少歼灭8个敌人</t>
         </is>
       </c>
     </row>
@@ -9645,7 +9645,7 @@
       </c>
       <c r="B326" s="16" t="inlineStr">
         <is>
-          <t>WB-5</t>
+          <t>RI-7</t>
         </is>
       </c>
       <c r="C326" s="13" t="inlineStr">
@@ -9655,78 +9655,78 @@
       </c>
       <c r="D326" s="12" t="inlineStr">
         <is>
-          <t>maa://32416 (87.18)</t>
+          <t>maa://45800 (100.0)</t>
         </is>
       </c>
       <c r="E326" s="3" t="inlineStr">
         <is>
-          <t>&gt; 由非助战左乐累计造成40歼灭数&gt; 3星通关别传WB-5；必须编入非助战左乐并上场，且使用左乐至少歼灭8个敌人</t>
+          <t>&gt; 使用非助战左乐累计造成100000点伤害&gt; 3星通关别传RI-7；必须携带且部署非助战左乐，且至少释放3次佑序有炎</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="16" t="inlineStr">
         <is>
-          <t>左乐</t>
+          <t>黍</t>
         </is>
       </c>
       <c r="B327" s="16" t="inlineStr">
         <is>
-          <t>RI-7</t>
+          <t>11-11</t>
         </is>
       </c>
       <c r="C327" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D327" s="12" t="inlineStr">
         <is>
-          <t>maa://45800 (100.0)</t>
+          <t>maa://32647 (97.34), maa://32415 (96.15), maa://34677 (100.0), maa://32892 (100.0)</t>
         </is>
       </c>
       <c r="E327" s="3" t="inlineStr">
         <is>
-          <t>&gt; 使用非助战左乐累计造成100000点伤害&gt; 3星通关别传RI-7；必须携带且部署非助战左乐，且至少释放3次佑序有炎</t>
+          <t>&gt; 完成5次战斗；必须编入非助战黍并上场，且每次战斗至少释放1次离离枯荣&gt; 3星通关主题曲11-11标准实战环境；必须编入非助战黍并上场，且所有干员不被击倒</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="16" t="inlineStr">
         <is>
-          <t>黍</t>
+          <t>红隼</t>
         </is>
       </c>
       <c r="B328" s="16" t="inlineStr">
         <is>
-          <t>11-11</t>
+          <t>11-18</t>
         </is>
       </c>
       <c r="C328" s="13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D328" s="12" t="inlineStr">
         <is>
-          <t>maa://32647 (97.33), maa://32415 (96.15), maa://34677 (100.0), maa://32892 (100.0)</t>
+          <t>maa://32420 (100.0)</t>
         </is>
       </c>
       <c r="E328" s="3" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战黍并上场，且每次战斗至少释放1次离离枯荣&gt; 3星通关主题曲11-11标准实战环境；必须编入非助战黍并上场，且所有干员不被击倒</t>
+          <t>&gt; 完成5次战斗；必须编入非助战红隼并上场，且每次战斗至少释放2次醉刃乱舞&gt; 3星通关主题曲11-18标准实战环境；必须编入非助战红隼，且第一位部署红隼、红隼全程不撤退或被击倒</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="16" t="inlineStr">
         <is>
-          <t>红隼</t>
+          <t>导火索</t>
         </is>
       </c>
       <c r="B329" s="16" t="inlineStr">
         <is>
-          <t>11-18</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C329" s="13" t="inlineStr">
@@ -9736,24 +9736,24 @@
       </c>
       <c r="D329" s="12" t="inlineStr">
         <is>
-          <t>maa://32420 (100.0)</t>
+          <t>maa://35606 (100.0)</t>
         </is>
       </c>
       <c r="E329" s="3" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战红隼并上场，且每次战斗至少释放2次醉刃乱舞&gt; 3星通关主题曲11-18标准实战环境；必须编入非助战红隼，且第一位部署红隼、红隼全程不撤退或被击倒</t>
+          <t>&gt; 由非助战导火索累计造成80000点伤害&gt; 3星通关主题曲3-1；必须编入非助战导火索并上场，且使用导火索至少歼灭30个敌人</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="16" t="inlineStr">
         <is>
-          <t>导火索</t>
+          <t>双月</t>
         </is>
       </c>
       <c r="B330" s="16" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C330" s="13" t="inlineStr">
@@ -9763,24 +9763,24 @@
       </c>
       <c r="D330" s="12" t="inlineStr">
         <is>
-          <t>maa://35606 (100.0)</t>
+          <t>maa://34716 (85.71)</t>
         </is>
       </c>
       <c r="E330" s="3" t="inlineStr">
         <is>
-          <t>&gt; 由非助战导火索累计造成80000点伤害&gt; 3星通关主题曲3-1；必须编入非助战导火索并上场，且使用导火索至少歼灭30个敌人</t>
+          <t>&gt; 战斗中非助战双月累计使用全知者的战术10次&gt; 3星通关主题曲3-7；必须编入非助战双月并上场，且至少使用2次全知者的战术</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="13" t="inlineStr">
         <is>
-          <t>双月</t>
+          <t>医生</t>
         </is>
       </c>
       <c r="B331" s="13" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C331" s="13" t="inlineStr">
@@ -9790,294 +9790,294 @@
       </c>
       <c r="D331" s="14" t="inlineStr">
         <is>
-          <t>maa://34716 (85.71)</t>
+          <t>maa://39179 (100.0)</t>
         </is>
       </c>
       <c r="E331" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战双月累计使用全知者的战术10次&gt; 3星通关主题曲3-7；必须编入非助战双月并上场，且至少使用2次全知者的战术</t>
+          <t>&gt; 战斗中非助战医生累计使用激素手枪8次&gt; 3星通关主题曲2-5；必须编入非助战医生并上场，且不编入医疗干员</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="13" t="inlineStr">
         <is>
-          <t>医生</t>
+          <t>艾拉</t>
         </is>
       </c>
       <c r="B332" s="13" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>DM-EX-1</t>
         </is>
       </c>
       <c r="C332" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D332" s="14" t="inlineStr">
         <is>
-          <t>maa://39179 (100.0)</t>
+          <t>maa://34865 (97.28), maa://34717 (93.75), maa://45066 (100.0)</t>
         </is>
       </c>
       <c r="E332" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战医生累计使用激素手枪8次&gt; 3星通关主题曲2-5；必须编入非助战医生并上场，且不编入医疗干员</t>
+          <t>&gt; 战斗中非助战艾拉累计部署雷鸣地雷30个&gt; 3星通关插曲DM-EX-1；必须编入非助战艾拉并上场，且使用艾拉歼灭至少2名萨卡兹穿刺手</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="13" t="inlineStr">
         <is>
-          <t>艾拉</t>
+          <t>露托</t>
         </is>
       </c>
       <c r="B333" s="13" t="inlineStr">
         <is>
-          <t>DM-EX-1</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C333" s="13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D333" s="14" t="inlineStr">
         <is>
-          <t>maa://34865 (97.27), maa://34717 (93.75), maa://45066 (100.0)</t>
+          <t>maa://39180 (100.0)</t>
         </is>
       </c>
       <c r="E333" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战艾拉累计部署雷鸣地雷30个&gt; 3星通关插曲DM-EX-1；必须编入非助战艾拉并上场，且使用艾拉歼灭至少2名萨卡兹穿刺手</t>
+          <t>&gt; 战斗中非助战露托累计使用强磁防卫8次&gt; 3星通关主题曲3-1；必须编入非助战露托并上场，且不编入其他重装干员</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="13" t="inlineStr">
         <is>
-          <t>露托</t>
+          <t>奥达</t>
         </is>
       </c>
       <c r="B334" s="13" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C334" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D334" s="14" t="inlineStr">
         <is>
-          <t>maa://39180 (100.0)</t>
+          <t>maa://45834 (100.0), maa://45833 (100.0)</t>
         </is>
       </c>
       <c r="E334" s="14" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战露托累计使用强磁防卫8次&gt; 3星通关主题曲3-1；必须编入非助战露托并上场，且不编入其他重装干员</t>
+          <t>&gt; 使用非助战奥达累计使用4次锻锤之力&gt; 3星通关主题曲S3-6；必须携带且部署非助战奥达，其他成员仅可编入4名干员</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="13" t="inlineStr">
         <is>
-          <t>奥达</t>
+          <t>阿罗玛</t>
         </is>
       </c>
       <c r="B335" s="13" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>GT-HX-3</t>
         </is>
       </c>
       <c r="C335" s="13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D335" s="14" t="inlineStr">
         <is>
-          <t>maa://45834 (100.0), maa://45833 (100.0)</t>
+          <t>*maa://39181 (66.67)</t>
         </is>
       </c>
       <c r="E335" s="14" t="inlineStr">
         <is>
-          <t>&gt; 使用非助战奥达累计使用4次锻锤之力&gt; 3星通关主题曲S3-6；必须携带且部署非助战奥达，其他成员仅可编入4名干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战阿罗玛并上场，且每次战斗至少释放1次小心地滑&gt; 3星通关别传GT-HX-3；必须编入非助战阿罗玛并上场，且使用阿罗玛至少歼灭20个敌人</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="13" t="inlineStr">
         <is>
-          <t>阿罗玛</t>
+          <t>阿斯卡纶</t>
         </is>
       </c>
       <c r="B336" s="13" t="inlineStr">
         <is>
-          <t>GT-HX-3</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C336" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D336" s="14" t="inlineStr">
         <is>
-          <t>*maa://39181 (66.67)</t>
+          <t>maa://36868 (100.0), maa://35996 (95.83), **maa://39217 (37.5), maa://44463 (87.5)</t>
         </is>
       </c>
       <c r="E336" s="14" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战阿罗玛并上场，且每次战斗至少释放1次小心地滑&gt; 3星通关别传GT-HX-3；必须编入非助战阿罗玛并上场，且使用阿罗玛至少歼灭20个敌人</t>
+          <t>&gt; 由非助战阿斯卡纶累计造成180000点伤害&gt; 3星通关主题曲11-6标准实战环境；必须编入非助战阿斯卡纶并上场，且使用阿斯卡纶至少歼灭30个敌人</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="13" t="inlineStr">
         <is>
-          <t>阿斯卡纶</t>
+          <t>历阵锐枪芬</t>
         </is>
       </c>
       <c r="B337" s="13" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>4-2</t>
         </is>
       </c>
       <c r="C337" s="13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D337" s="14" t="inlineStr">
         <is>
-          <t>maa://36868 (100.0), maa://35996 (95.83), **maa://39217 (37.5), maa://44463 (85.71)</t>
+          <t>maa://36647 (100.0)</t>
         </is>
       </c>
       <c r="E337" s="14" t="inlineStr">
         <is>
-          <t>&gt; 由非助战阿斯卡纶累计造成180000点伤害&gt; 3星通关主题曲11-6标准实战环境；必须编入非助战阿斯卡纶并上场，且使用阿斯卡纶至少歼灭30个敌人</t>
+          <t>&gt; 完成5次战斗；必须编入非助战历阵锐枪芬，并确定第一位部署的干员是历阵锐枪芬&gt; 3星通关主题曲4-2；必须编入非助战历阵锐枪芬并上场，且不编入其他先锋干员</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="13" t="inlineStr">
         <is>
-          <t>历阵锐枪芬</t>
+          <t>魔王</t>
         </is>
       </c>
       <c r="B338" s="13" t="inlineStr">
         <is>
-          <t>4-2</t>
+          <t>14-5</t>
         </is>
       </c>
       <c r="C338" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>maa://36647 (100.0)</t>
+          <t>maa://42299 (96.55), **maa://42224 (50.0)</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战历阵锐枪芬，并确定第一位部署的干员是历阵锐枪芬&gt; 3星通关主题曲4-2；必须编入非助战历阵锐枪芬并上场，且不编入其他先锋干员</t>
+          <t>&gt; 携带非助战魔王完成5次战斗，且每次战斗至少发动一次“编织重构现世”&gt; 3星通关主题曲14-5标准实战环境；必须编入非助战魔王并上场，其他成员仅可编入近战位干员</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="13" t="inlineStr">
         <is>
-          <t>魔王</t>
+          <t>逻各斯</t>
         </is>
       </c>
       <c r="B339" s="13" t="inlineStr">
         <is>
-          <t>14-5</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C339" s="13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>maa://42299 (96.55), **maa://42224 (50.0)</t>
+          <t>maa://36646 (98.47), maa://36845 (95.15), **maa://39217 (37.5)</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>&gt; 携带非助战魔王完成5次战斗，且每次战斗至少发动一次“编织重构现世”&gt; 3星通关主题曲14-5标准实战环境；必须编入非助战魔王并上场，其他成员仅可编入近战位干员</t>
+          <t>&gt; 由非助战逻各斯累计造成100000点伤害&gt; 3星通关主题曲11-6标准实战环境，必须编入非助战逻各斯并上场，其他成员仅可编入4名干员</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="13" t="inlineStr">
         <is>
-          <t>逻各斯</t>
+          <t>维什戴尔</t>
         </is>
       </c>
       <c r="B340" s="13" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>DM-5</t>
         </is>
       </c>
       <c r="C340" s="13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>maa://36646 (98.47), maa://36845 (95.15), **maa://39217 (37.5)</t>
+          <t>maa://36645 (97.92), maa://36841 (94.74), maa://37484 (93.62), maa://37858 (91.67)</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>&gt; 由非助战逻各斯累计造成100000点伤害&gt; 3星通关主题曲11-6标准实战环境，必须编入非助战逻各斯并上场，其他成员仅可编入4名干员</t>
+          <t>&gt; 由非助战维什戴尔累计造成120000伤害&gt; 3星通关插曲DM-5；必须编入非助战维什戴尔并上场，且使用维什戴尔至少歼灭20个敌人</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="13" t="inlineStr">
         <is>
-          <t>维什戴尔</t>
+          <t>阿米娅(医疗)</t>
         </is>
       </c>
       <c r="B341" s="13" t="inlineStr">
         <is>
-          <t>DM-5</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C341" s="13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>maa://36645 (97.92), maa://36841 (94.55), maa://37484 (93.62), maa://37858 (91.3)</t>
+          <t>maa://42635 (95.83)</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>&gt; 由非助战维什戴尔累计造成120000伤害&gt; 3星通关插曲DM-5；必须编入非助战维什戴尔并上场，且使用维什戴尔至少歼灭20个敌人</t>
+          <t>&gt; 战斗中非助战医疗职业的阿米娅累计使用慈悲愿景5次&gt; 3星通关主题曲3-8；必须编入非助战医疗职业的阿米娅并上场，且不编入其他医疗干员</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="13" t="inlineStr">
         <is>
-          <t>阿米娅(医疗)</t>
+          <t>深巡</t>
         </is>
       </c>
       <c r="B342" s="13" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>SN-5</t>
         </is>
       </c>
       <c r="C342" s="13" t="inlineStr">
@@ -10087,24 +10087,24 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>maa://42635 (95.83)</t>
+          <t>maa://39183 (100.0)</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战医疗职业的阿米娅累计使用慈悲愿景5次&gt; 3星通关主题曲3-8；必须编入非助战医疗职业的阿米娅并上场，且不编入其他医疗干员</t>
+          <t>&gt; 战斗中非助战深巡累计使用行动能力剥夺8次&gt; 3星通关插曲SN-5，必须编入非助战深巡并上场，其他成员仅可编入4名干员</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="13" t="inlineStr">
         <is>
-          <t>深巡</t>
+          <t>海霓</t>
         </is>
       </c>
       <c r="B343" s="13" t="inlineStr">
         <is>
-          <t>SN-5</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C343" s="13" t="inlineStr">
@@ -10114,78 +10114,78 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>maa://39183 (100.0)</t>
+          <t>maa://39184 (100.0)</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战深巡累计使用行动能力剥夺8次&gt; 3星通关插曲SN-5，必须编入非助战深巡并上场，其他成员仅可编入4名干员</t>
+          <t>&gt; 战斗中非助战海霓累计使用阻滞性显色剂8次&gt; 3星通关插曲SV-4；必须编入非助战海霓并上场，且不编入其他辅助干员</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="13" t="inlineStr">
         <is>
-          <t>海霓</t>
+          <t>乌尔比安</t>
         </is>
       </c>
       <c r="B344" s="13" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>SV-6</t>
         </is>
       </c>
       <c r="C344" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>maa://39184 (100.0)</t>
+          <t>maa://40957 (87.11), maa://41035 (89.58), maa://41128 (81.25), maa://44635 (83.78), maa://44660 (92.0)</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战海霓累计使用阻滞性显色剂8次&gt; 3星通关插曲SV-4；必须编入非助战海霓并上场，且不编入其他辅助干员</t>
+          <t>&gt; 战斗中非助战乌尔比安累计使用必须开辟的通路10次&gt; 3星通关插曲SV-6；必须编入非助战乌尔比安并上场，并使用乌尔比安至少击败2名囊海爬行者</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="13" t="inlineStr">
         <is>
-          <t>乌尔比安</t>
+          <t>渡桥</t>
         </is>
       </c>
       <c r="B345" s="13" t="inlineStr">
         <is>
-          <t>SV-6</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C345" s="13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>maa://40957 (87.05), maa://41035 (89.58), maa://41128 (80.65), maa://44635 (82.35), maa://44660 (90.0)</t>
+          <t>maa://40164 (100.0)</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战乌尔比安累计使用必须开辟的通路10次&gt; 3星通关插曲SV-6；必须编入非助战乌尔比安并上场，并使用乌尔比安至少击败2名囊海爬行者</t>
+          <t>&gt; 战斗中非助战渡桥累计使用承压功率8次&gt; 3星通关主题曲3-1；必须编入非助战渡桥并上场，且至少使用3次承压功率</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="13" t="inlineStr">
         <is>
-          <t>渡桥</t>
+          <t>衡沙</t>
         </is>
       </c>
       <c r="B346" s="13" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>DV-2</t>
         </is>
       </c>
       <c r="C346" s="13" t="inlineStr">
@@ -10195,24 +10195,24 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>maa://40164 (100.0)</t>
+          <t>maa://40165 (100.0)</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战渡桥累计使用承压功率8次&gt; 3星通关主题曲3-1；必须编入非助战渡桥并上场，且至少使用3次承压功率</t>
+          <t>&gt; 战斗中累计召唤非助战衡沙的召唤物20回&gt; 3星通关别传DV-2；必须编入非助战衡沙并上场，其他成员仅可编入4名干员</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="13" t="inlineStr">
         <is>
-          <t>衡沙</t>
+          <t>佩佩</t>
         </is>
       </c>
       <c r="B347" s="13" t="inlineStr">
         <is>
-          <t>DV-2</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C347" s="13" t="inlineStr">
@@ -10222,24 +10222,24 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>maa://40165 (100.0)</t>
+          <t>maa://45798 (100.0)</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>&gt; 战斗中累计召唤非助战衡沙的召唤物20回&gt; 3星通关别传DV-2；必须编入非助战衡沙并上场，其他成员仅可编入4名干员</t>
+          <t>&gt; 由非助战佩佩累计造成40歼灭数&gt; 3星通关主题曲3-8；必须编入非助战佩佩并上场，且使用佩佩歼灭碎骨</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="13" t="inlineStr">
         <is>
-          <t>佩佩</t>
+          <t>森西</t>
         </is>
       </c>
       <c r="B348" s="13" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>1-12</t>
         </is>
       </c>
       <c r="C348" s="13" t="inlineStr">
@@ -10249,51 +10249,51 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>maa://45798 (100.0)</t>
+          <t>maa://42331 (100.0)</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>&gt; 由非助战佩佩累计造成40歼灭数&gt; 3星通关主题曲3-8；必须编入非助战佩佩并上场，且使用佩佩歼灭碎骨</t>
+          <t>&gt; 战斗中非助战森西累计使用团体魔物大餐6次&gt; 3星通关主题曲1-12；必须编入非助战森西并上场，且所有干员不被击倒</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="13" t="inlineStr">
         <is>
-          <t>森西</t>
+          <t>齐尔查克</t>
         </is>
       </c>
       <c r="B349" s="13" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C349" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>maa://42331 (100.0)</t>
+          <t>maa://42333 (100.0), maa://41977 (100.0)</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战森西累计使用团体魔物大餐6次&gt; 3星通关主题曲1-12；必须编入非助战森西并上场，且所有干员不被击倒</t>
+          <t>&gt; 战斗中非助战齐尔查克累计使用随机应变6次&gt; 3星通关主题曲4-3；必须编入非助战齐尔查克并上场，其他成员不可编入先锋干员</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="13" t="inlineStr">
         <is>
-          <t>齐尔查克</t>
+          <t>莱欧斯</t>
         </is>
       </c>
       <c r="B350" s="13" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="C350" s="13" t="inlineStr">
@@ -10303,24 +10303,24 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>maa://42333 (100.0), maa://41977 (100.0)</t>
+          <t>maa://42338 (100.0), maa://41976 (100.0)</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战齐尔查克累计使用随机应变6次&gt; 3星通关主题曲4-3；必须编入非助战齐尔查克并上场，其他成员不可编入先锋干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战莱欧斯并上场，且每次战斗至少释放1次威吓战法&gt; 3星通关主题曲2-4；必须编入非助战莱欧斯并上场，并使用莱欧斯至少击败1名高阶术师</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="13" t="inlineStr">
         <is>
-          <t>莱欧斯</t>
+          <t>玛露西尔</t>
         </is>
       </c>
       <c r="B351" s="13" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C351" s="13" t="inlineStr">
@@ -10330,24 +10330,24 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>maa://42338 (100.0), maa://41976 (100.0)</t>
+          <t>maa://41110 (97.65), maa://45605 (100.0)</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战莱欧斯并上场，且每次战斗至少释放1次威吓战法&gt; 3星通关主题曲2-4；必须编入非助战莱欧斯并上场，并使用莱欧斯至少击败1名高阶术师</t>
+          <t>&gt; 由非助战玛露西尔累计造成100000点伤害&gt; 3星通关主题曲5-10；必须编入非助战玛露西尔并上场，且使用玛露西尔至少歼灭10名敌人</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="13" t="inlineStr">
         <is>
-          <t>玛露西尔</t>
+          <t>凯瑟琳</t>
         </is>
       </c>
       <c r="B352" s="13" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>11-7</t>
         </is>
       </c>
       <c r="C352" s="13" t="inlineStr">
@@ -10357,24 +10357,24 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>maa://41110 (97.65)</t>
+          <t>maa://42343 (100.0)</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>&gt; 由非助战玛露西尔累计造成100000点伤害&gt; 3星通关主题曲5-10；必须编入非助战玛露西尔并上场，且使用玛露西尔至少歼灭10名敌人</t>
+          <t>&gt; 使用非助战凯瑟琳累计部署15个“支援装置”&gt; 3星通关主题曲11-7标准实战环境；必须编入非助战凯瑟琳并上场，且凯瑟琳使用至少2次“战火淬炼”</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="13" t="inlineStr">
         <is>
-          <t>凯瑟琳</t>
+          <t>波卜</t>
         </is>
       </c>
       <c r="B353" s="13" t="inlineStr">
         <is>
-          <t>11-7</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="C353" s="13" t="inlineStr">
@@ -10384,24 +10384,24 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>maa://42343 (100.0)</t>
+          <t>maa://43095 (100.0)</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>&gt; 使用非助战凯瑟琳累计部署15个“支援装置”&gt; 3星通关主题曲11-7标准实战环境；必须编入非助战凯瑟琳并上场，且凯瑟琳使用至少2次“战火淬炼”</t>
+          <t>&gt; 由非助战波卜累计造成30次灼燃爆发&gt; 3星通关主题曲4-8；必须编入非助战波卜并上场，且波卜使用至少2次“此路不通”</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="13" t="inlineStr">
         <is>
-          <t>波卜</t>
+          <t>维娜·维多利亚</t>
         </is>
       </c>
       <c r="B354" s="13" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>9-5</t>
         </is>
       </c>
       <c r="C354" s="13" t="inlineStr">
@@ -10411,24 +10411,24 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>maa://43095 (100.0)</t>
+          <t>maa://44233 (93.33)</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>&gt; 由非助战波卜累计造成30次灼燃爆发&gt; 3星通关主题曲4-8；必须编入非助战波卜并上场，且波卜使用至少2次“此路不通”</t>
+          <t>&gt; 由非助战维娜·维多利亚累计造成120000点伤害&gt; 3星通关主题曲9-5标准实战环境；必须编入非助战维娜·维多利亚并上场，其他成员仅可编入5名干员</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="13" t="inlineStr">
         <is>
-          <t>维娜·维多利亚</t>
+          <t>裁度</t>
         </is>
       </c>
       <c r="B355" s="13" t="inlineStr">
         <is>
-          <t>9-5</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="C355" s="13" t="inlineStr">
@@ -10438,132 +10438,132 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>maa://44233 (93.33)</t>
+          <t>maa://43097 (87.5)</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>&gt; 由非助战维娜·维多利亚累计造成120000点伤害&gt; 3星通关主题曲9-5标准实战环境；必须编入非助战维娜·维多利亚并上场，其他成员仅可编入5名干员</t>
+          <t>&gt; 完成5次战斗；必须编入非助战裁度并部署至少2次，且使用裁度击败至少4名敌人&gt; 3星通关主题曲5-8；必须编入非助战裁度并上场，且至少束缚12次敌人</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="13" t="inlineStr">
         <is>
-          <t>裁度</t>
+          <t>弑君者</t>
         </is>
       </c>
       <c r="B356" s="13" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>4-4</t>
         </is>
       </c>
       <c r="C356" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>maa://43097 (87.5)</t>
+          <t>*maa://43872 (80.0), maa://39153 (100.0)</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；必须编入非助战裁度并部署至少2次，且使用裁度击败至少4名敌人&gt; 3星通关主题曲5-8；必须编入非助战裁度并上场，且至少束缚12次敌人</t>
+          <t>&gt; 完成5次战斗；每次战斗至少部署3次非助战弑君者&gt; 3星通关主题曲4-4；必须编入非助战弑君者并上场，且不编入其他特种干员</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="13" t="inlineStr">
         <is>
-          <t>弑君者</t>
+          <t>忍冬</t>
         </is>
       </c>
       <c r="B357" s="13" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>S2-3</t>
         </is>
       </c>
       <c r="C357" s="13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>*maa://43872 (80.0), maa://39153 (100.0)</t>
+          <t>maa://43875 (97.3)</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>&gt; 完成5次战斗；每次战斗至少部署3次非助战弑君者&gt; 3星通关主题曲4-4；必须编入非助战弑君者并上场，且不编入其他特种干员</t>
+          <t>&gt; 由非助战忍冬累计造成80000点伤害&gt; 3星通关主题曲S2-3；必须编入非助战忍冬并上场，且使用忍冬击败至少24名敌人</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="13" t="inlineStr">
         <is>
-          <t>忍冬</t>
+          <t>荒芜拉普兰德</t>
         </is>
       </c>
       <c r="B358" s="13" t="inlineStr">
         <is>
-          <t>S2-3</t>
+          <t>IS-8</t>
         </is>
       </c>
       <c r="C358" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>maa://43875 (97.3)</t>
+          <t>maa://42970 (88.32), maa://44745 (93.75), maa://44896 (100.0), maa://45952 (100.0)</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>&gt; 由非助战忍冬累计造成80000点伤害&gt; 3星通关主题曲S2-3；必须编入非助战忍冬并上场，且使用忍冬击败至少24名敌人</t>
+          <t>&gt; 由非助战荒芜拉普兰德累计造成150000点伤害&gt; 3星通关别传IS-8；必须编入非助战荒芜拉普兰德并上场，且荒芜拉普兰德使用至少2次逐猎狂飙或终幕·浩劫</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="13" t="inlineStr">
         <is>
-          <t>荒芜拉普兰德</t>
+          <t>瑰盐</t>
         </is>
       </c>
       <c r="B359" s="13" t="inlineStr">
         <is>
-          <t>IS-8</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C359" s="13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>maa://42970 (88.32), maa://44745 (93.75), maa://44896 (100.0), maa://45952 (100.0)</t>
+          <t>maa://44389 (100.0)</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>&gt; 由非助战荒芜拉普兰德累计造成150000点伤害&gt; 3星通关别传IS-8；必须编入非助战荒芜拉普兰德并上场，且荒芜拉普兰德使用至少2次逐猎狂飙或终幕·浩劫</t>
+          <t>&gt; 战斗中非助战瑰盐累计使用绝妙的长效药呀8次&gt; 3星通关主题曲4-6；必须编入非助战瑰盐并上场，且至少使用1次绝妙的长效药呀</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="13" t="inlineStr">
         <is>
-          <t>瑰盐</t>
+          <t>行箸</t>
         </is>
       </c>
       <c r="B360" s="13" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>3-2</t>
         </is>
       </c>
       <c r="C360" s="13" t="inlineStr">
@@ -10573,12 +10573,12 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>maa://44389 (100.0)</t>
+          <t>maa://45807 (100.0)</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>&gt; 战斗中非助战瑰盐累计使用绝妙的长效药呀8次&gt; 3星通关主题曲4-6；必须编入非助战瑰盐并上场，且至少使用1次绝妙的长效药呀</t>
+          <t>&gt; 使用非助战行箸累计使用8次食不厌精&gt; 3星通关主题曲3-2，编入非助战行箸且所有干员不能被击倒</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.31 13:17:43</t>
+          <t>更新日期：2025.02.01 13:16:44</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>maa://20863 (87.03), maa://20832 (98.68), maa://20727 (100.0)</t>
+          <t>maa://20863 (87.17), maa://20832 (98.68), maa://20727 (100.0)</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="D37" s="12" t="inlineStr">
         <is>
-          <t>maa://27376 (91.18), *maa://20838 (52.94)</t>
+          <t>maa://27376 (91.43), *maa://20838 (52.94)</t>
         </is>
       </c>
       <c r="E37" s="3" t="inlineStr">
@@ -2608,7 +2608,7 @@
       </c>
       <c r="D65" s="12" t="inlineStr">
         <is>
-          <t>maa://28567 (97.78), **maa://20947 (44.12), maa://30525 (100.0), *maa://28188 (66.67), maa://38735 (100.0), maa://30524 (100.0)</t>
+          <t>maa://28567 (97.87), **maa://20947 (44.12), maa://30525 (100.0), *maa://28188 (66.67), maa://38735 (100.0), maa://30524 (100.0)</t>
         </is>
       </c>
       <c r="E65" s="3" t="inlineStr">
@@ -4876,7 +4876,7 @@
       </c>
       <c r="D149" s="12" t="inlineStr">
         <is>
-          <t>maa://36641 (98.36), maa://36865 (96.03), maa://42918 (100.0), maa://44119 (96.3), maa://37300 (100.0), maa://42917 (100.0)</t>
+          <t>maa://36641 (98.36), maa://36865 (96.09), maa://42918 (100.0), maa://44119 (96.3), maa://37300 (100.0), maa://42917 (100.0)</t>
         </is>
       </c>
       <c r="E149" s="3" t="inlineStr">
@@ -5119,7 +5119,7 @@
       </c>
       <c r="D158" s="12" t="inlineStr">
         <is>
-          <t>maa://44232 (99.16), maa://44305 (100.0), maa://45603 (88.89)</t>
+          <t>maa://44232 (99.16), maa://44305 (100.0), maa://45603 (90.0)</t>
         </is>
       </c>
       <c r="E158" s="3" t="inlineStr">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="D166" s="12" t="inlineStr">
         <is>
-          <t>maa://29633 (93.7), maa://29627 (92.47), maa://29659 (83.33), maa://29861 (100.0)</t>
+          <t>maa://29633 (93.73), maa://29627 (92.47), maa://29659 (83.33), maa://29861 (100.0)</t>
         </is>
       </c>
       <c r="E166" s="3" t="inlineStr">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="D194" s="12" t="inlineStr">
         <is>
-          <t>*maa://35854 (78.05), maa://25760 (86.02), maa://44224 (89.53), **maa://20872 (50.0), ***maa://43443 (27.27), ***maa://43911 (18.18)</t>
+          <t>*maa://35854 (78.05), maa://44224 (88.76), maa://25760 (86.02), **maa://20872 (50.0), ***maa://43443 (27.27), ***maa://43911 (18.18)</t>
         </is>
       </c>
       <c r="E194" s="3" t="inlineStr">
@@ -6631,7 +6631,7 @@
       </c>
       <c r="D214" s="19" t="inlineStr">
         <is>
-          <t>**maa://26496 (37.5), **maa://20995 (44.44)</t>
+          <t>**maa://26496 (33.33), **maa://20995 (44.44)</t>
         </is>
       </c>
       <c r="E214" s="20" t="inlineStr">
@@ -7117,7 +7117,7 @@
       </c>
       <c r="D232" s="12" t="inlineStr">
         <is>
-          <t>maa://20922 (92.73), *maa://32623 (58.33), *maa://34242 (80.0), maa://34900 (90.0)</t>
+          <t>maa://20922 (92.73), *maa://32623 (58.33), *maa://34242 (80.0), maa://34900 (90.91)</t>
         </is>
       </c>
       <c r="E232" s="3" t="inlineStr">
@@ -7171,7 +7171,7 @@
       </c>
       <c r="D234" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (77.56), maa://30666 (83.5), *maa://26836 (77.78), maa://37607 (94.03), **maa://30739 (44.44), *maa://34428 (70.33), *maa://30723 (52.73), maa://39588 (88.64), *maa://37850 (75.0)</t>
+          <t>*maa://30667 (77.56), maa://30666 (83.57), *maa://26836 (77.78), maa://37607 (94.03), **maa://30739 (44.44), *maa://34428 (70.33), *maa://30723 (52.73), maa://39588 (88.64), *maa://37850 (75.0)</t>
         </is>
       </c>
       <c r="E234" s="3" t="inlineStr">
@@ -9439,7 +9439,7 @@
       </c>
       <c r="D318" s="12" t="inlineStr">
         <is>
-          <t>maa://42968 (99.31)</t>
+          <t>maa://42968 (99.32)</t>
         </is>
       </c>
       <c r="E318" s="3" t="inlineStr">
@@ -9520,7 +9520,7 @@
       </c>
       <c r="D321" s="12" t="inlineStr">
         <is>
-          <t>maa://30671 (81.6), maa://30669 (98.91), maa://37275 (81.58), *maa://32410 (66.67), maa://41605 (100.0), maa://33671 (100.0)</t>
+          <t>maa://30671 (81.6), maa://30669 (98.92), maa://37275 (81.58), *maa://32410 (66.67), maa://41605 (100.0), maa://33671 (100.0)</t>
         </is>
       </c>
       <c r="E321" s="3" t="inlineStr">
@@ -10141,7 +10141,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>maa://40957 (87.11), maa://41035 (89.58), maa://41128 (81.25), maa://44635 (83.78), maa://44660 (92.0)</t>
+          <t>maa://40957 (87.24), maa://41035 (89.58), maa://41128 (81.25), maa://44635 (84.21), maa://44660 (89.29)</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
@@ -10519,7 +10519,7 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>maa://42970 (88.32), maa://44745 (93.75), maa://44896 (100.0), maa://45952 (100.0)</t>
+          <t>maa://42970 (88.38), maa://44745 (93.75), maa://44896 (100.0), maa://45952 (100.0)</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2025.02.01 13:16:44</t>
+          <t>更新日期：2025.02.02 13:17:29</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="D20" s="12" t="inlineStr">
         <is>
-          <t>maa://20865 (88.89), maa://20826 (83.33)</t>
+          <t>maa://20865 (90.0), maa://20826 (83.33)</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>maa://20863 (87.17), maa://20832 (98.68), maa://20727 (100.0)</t>
+          <t>maa://20863 (87.23), maa://20832 (98.68), maa://20727 (100.0)</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="D34" s="12" t="inlineStr">
         <is>
-          <t>*maa://20916 (80.0)</t>
+          <t>maa://20916 (80.65)</t>
         </is>
       </c>
       <c r="E34" s="3" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="D41" s="12" t="inlineStr">
         <is>
-          <t>*maa://20892 (77.46)</t>
+          <t>*maa://20892 (77.78)</t>
         </is>
       </c>
       <c r="E41" s="3" t="inlineStr">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="D59" s="12" t="inlineStr">
         <is>
-          <t>maa://27970 (98.41), *maa://41118 (80.0)</t>
+          <t>maa://27970 (98.44), *maa://41118 (80.0)</t>
         </is>
       </c>
       <c r="E59" s="3" t="inlineStr">
@@ -2581,7 +2581,7 @@
       </c>
       <c r="D64" s="12" t="inlineStr">
         <is>
-          <t>maa://28187 (97.14), maa://33504 (100.0), maa://39520 (100.0), maa://45144 (100.0), maa://43531 (100.0)</t>
+          <t>maa://28187 (97.14), maa://33504 (100.0), maa://45144 (100.0), maa://39520 (100.0), maa://43531 (100.0)</t>
         </is>
       </c>
       <c r="E64" s="3" t="inlineStr">
@@ -2689,7 +2689,7 @@
       </c>
       <c r="D68" s="12" t="inlineStr">
         <is>
-          <t>maa://20976 (97.44), maa://20815 (100.0)</t>
+          <t>maa://20976 (97.45), maa://20815 (100.0)</t>
         </is>
       </c>
       <c r="E68" s="3" t="inlineStr">
@@ -2797,7 +2797,7 @@
       </c>
       <c r="D72" s="12" t="inlineStr">
         <is>
-          <t>maa://36643 (97.53), maa://36864 (97.53), maa://39140 (100.0)</t>
+          <t>maa://36643 (97.55), maa://36864 (97.53), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E72" s="3" t="inlineStr">
@@ -4363,7 +4363,7 @@
       </c>
       <c r="D130" s="12" t="inlineStr">
         <is>
-          <t>maa://21422 (99.15)</t>
+          <t>maa://21422 (99.16)</t>
         </is>
       </c>
       <c r="E130" s="3" t="inlineStr">
@@ -4871,12 +4871,12 @@
       </c>
       <c r="C149" s="13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D149" s="12" t="inlineStr">
         <is>
-          <t>maa://36641 (98.36), maa://36865 (96.09), maa://42918 (100.0), maa://44119 (96.3), maa://37300 (100.0), maa://42917 (100.0)</t>
+          <t>maa://36641 (98.37), maa://36865 (96.12), maa://42918 (100.0), maa://44119 (96.43), maa://37300 (100.0), maa://42917 (100.0), maa://46108 (100.0)</t>
         </is>
       </c>
       <c r="E149" s="3" t="inlineStr">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="D194" s="12" t="inlineStr">
         <is>
-          <t>*maa://35854 (78.05), maa://44224 (88.76), maa://25760 (86.02), **maa://20872 (50.0), ***maa://43443 (27.27), ***maa://43911 (18.18)</t>
+          <t>*maa://35854 (78.57), maa://44224 (89.01), maa://25760 (86.02), **maa://20872 (50.0), ***maa://43443 (27.27), ***maa://43911 (18.18)</t>
         </is>
       </c>
       <c r="E194" s="3" t="inlineStr">
@@ -7117,7 +7117,7 @@
       </c>
       <c r="D232" s="12" t="inlineStr">
         <is>
-          <t>maa://20922 (92.73), *maa://32623 (58.33), *maa://34242 (80.0), maa://34900 (90.91)</t>
+          <t>maa://20922 (92.73), *maa://32623 (61.54), *maa://34242 (80.0), maa://34900 (90.91)</t>
         </is>
       </c>
       <c r="E232" s="3" t="inlineStr">
@@ -7171,7 +7171,7 @@
       </c>
       <c r="D234" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (77.56), maa://30666 (83.57), *maa://26836 (77.78), maa://37607 (94.03), **maa://30739 (44.44), *maa://34428 (70.33), *maa://30723 (52.73), maa://39588 (88.64), *maa://37850 (75.0)</t>
+          <t>*maa://30667 (77.62), maa://30666 (83.57), *maa://26836 (78.06), maa://37607 (94.05), **maa://30739 (44.44), *maa://34428 (70.33), *maa://30723 (52.73), maa://39588 (88.64), *maa://37850 (75.0)</t>
         </is>
       </c>
       <c r="E234" s="3" t="inlineStr">
@@ -8278,7 +8278,7 @@
       </c>
       <c r="D275" s="12" t="inlineStr">
         <is>
-          <t>maa://20899 (89.24), **maa://44744 (33.33)</t>
+          <t>maa://20899 (89.31), **maa://44744 (33.33)</t>
         </is>
       </c>
       <c r="E275" s="3" t="inlineStr">
@@ -8899,7 +8899,7 @@
       </c>
       <c r="D298" s="12" t="inlineStr">
         <is>
-          <t>maa://25775 (93.1), *maa://25393 (71.43)</t>
+          <t>maa://25775 (93.22), *maa://25393 (71.43)</t>
         </is>
       </c>
       <c r="E298" s="3" t="inlineStr">
@@ -9682,7 +9682,7 @@
       </c>
       <c r="D327" s="12" t="inlineStr">
         <is>
-          <t>maa://32647 (97.34), maa://32415 (96.15), maa://34677 (100.0), maa://32892 (100.0)</t>
+          <t>maa://32647 (97.36), maa://32415 (96.18), maa://34677 (100.0), maa://32892 (100.0)</t>
         </is>
       </c>
       <c r="E327" s="3" t="inlineStr">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="D332" s="14" t="inlineStr">
         <is>
-          <t>maa://34865 (97.28), maa://34717 (93.75), maa://45066 (100.0)</t>
+          <t>maa://34865 (97.3), maa://34717 (93.75), maa://45066 (100.0)</t>
         </is>
       </c>
       <c r="E332" s="14" t="inlineStr">
@@ -9925,7 +9925,7 @@
       </c>
       <c r="D336" s="14" t="inlineStr">
         <is>
-          <t>maa://36868 (100.0), maa://35996 (95.83), **maa://39217 (37.5), maa://44463 (87.5)</t>
+          <t>maa://36868 (100.0), maa://35996 (95.83), **maa://39217 (37.5), maa://44463 (90.0)</t>
         </is>
       </c>
       <c r="E336" s="14" t="inlineStr">
@@ -10033,7 +10033,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>maa://36645 (97.92), maa://36841 (94.74), maa://37484 (93.62), maa://37858 (91.67)</t>
+          <t>maa://36645 (97.92), maa://36841 (94.83), maa://37484 (93.62), maa://37858 (91.67)</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -10141,7 +10141,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>maa://40957 (87.24), maa://41035 (89.58), maa://41128 (81.25), maa://44635 (84.21), maa://44660 (89.29)</t>
+          <t>maa://40957 (87.24), maa://41035 (89.58), maa://41128 (81.25), maa://44635 (85.0), maa://44660 (89.66)</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
@@ -10519,7 +10519,7 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>maa://42970 (88.38), maa://44745 (93.75), maa://44896 (100.0), maa://45952 (100.0)</t>
+          <t>maa://42970 (88.44), maa://44745 (93.75), maa://44896 (100.0), maa://45952 (100.0)</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2025.02.02 13:17:29</t>
+          <t>更新日期：2025.02.08 13:16:19</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="D3" s="12" t="inlineStr">
         <is>
-          <t>maa://20990 (85.71)</t>
+          <t>maa://20990 (87.5)</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="D27" s="12" t="inlineStr">
         <is>
-          <t>*maa://20849 (62.16), *maa://28758 (55.17), maa://29036 (94.44), maa://30285 (100.0), **maa://42172 (50.0)</t>
+          <t>*maa://20849 (63.16), *maa://28758 (56.67), maa://29036 (94.74), maa://30285 (100.0), **maa://42172 (50.0)</t>
         </is>
       </c>
       <c r="E27" s="3" t="inlineStr">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>maa://20863 (87.23), maa://20832 (98.68), maa://20727 (100.0)</t>
+          <t>maa://20863 (87.37), maa://20832 (98.8), maa://20727 (100.0)</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="D32" s="12" t="inlineStr">
         <is>
-          <t>maa://36644 (88.44), maa://36866 (97.5), maa://27794 (100.0), maa://45572 (100.0)</t>
+          <t>maa://36644 (88.59), maa://36866 (97.56), maa://27794 (100.0), maa://45572 (100.0)</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="D33" s="12" t="inlineStr">
         <is>
-          <t>maa://30500 (98.48), *maa://27290 (70.59), ***maa://42154 (11.11)</t>
+          <t>maa://30500 (98.51), *maa://27290 (70.59), ***maa://42154 (11.11)</t>
         </is>
       </c>
       <c r="E33" s="3" t="inlineStr">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="D37" s="12" t="inlineStr">
         <is>
-          <t>maa://27376 (91.43), *maa://20838 (52.94)</t>
+          <t>maa://27376 (91.67), *maa://20838 (52.94)</t>
         </is>
       </c>
       <c r="E37" s="3" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="D41" s="12" t="inlineStr">
         <is>
-          <t>*maa://20892 (77.78)</t>
+          <t>*maa://20892 (78.38)</t>
         </is>
       </c>
       <c r="E41" s="3" t="inlineStr">
@@ -2176,7 +2176,7 @@
       </c>
       <c r="D49" s="12" t="inlineStr">
         <is>
-          <t>*maa://32845 (70.0), *maa://20982 (66.67)</t>
+          <t>*maa://32845 (63.64), *maa://20982 (66.67)</t>
         </is>
       </c>
       <c r="E49" s="3" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="D56" s="12" t="inlineStr">
         <is>
-          <t>maa://44235 (96.2), maa://45604 (100.0)</t>
+          <t>maa://44235 (96.47), maa://45604 (100.0)</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="D60" s="12" t="inlineStr">
         <is>
-          <t>maa://38298 (85.71)</t>
+          <t>maa://38298 (85.96)</t>
         </is>
       </c>
       <c r="E60" s="3" t="inlineStr">
@@ -2500,7 +2500,7 @@
       </c>
       <c r="D61" s="12" t="inlineStr">
         <is>
-          <t>maa://20841 (100.0), maa://24093 (100.0), maa://31559 (96.0), maa://25777 (100.0), maa://20631 (100.0)</t>
+          <t>maa://20841 (100.0), maa://24093 (100.0), maa://31559 (96.15), maa://25777 (100.0), maa://20631 (100.0)</t>
         </is>
       </c>
       <c r="E61" s="3" t="inlineStr">
@@ -2608,7 +2608,7 @@
       </c>
       <c r="D65" s="12" t="inlineStr">
         <is>
-          <t>maa://28567 (97.87), **maa://20947 (44.12), maa://30525 (100.0), *maa://28188 (66.67), maa://38735 (100.0), maa://30524 (100.0)</t>
+          <t>maa://28567 (97.92), **maa://20947 (44.12), maa://30525 (100.0), *maa://28188 (66.67), maa://38735 (100.0), maa://30524 (100.0)</t>
         </is>
       </c>
       <c r="E65" s="3" t="inlineStr">
@@ -2689,7 +2689,7 @@
       </c>
       <c r="D68" s="12" t="inlineStr">
         <is>
-          <t>maa://20976 (97.45), maa://20815 (100.0)</t>
+          <t>maa://20976 (97.46), maa://20815 (100.0)</t>
         </is>
       </c>
       <c r="E68" s="3" t="inlineStr">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="D69" s="12" t="inlineStr">
         <is>
-          <t>maa://28784 (94.07), maa://29088 (91.67), maa://20974 (95.71), maa://31124 (96.57), maa://28950 (92.0), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (80.0), **maa://42200 (50.0), maa://41832 (85.71)</t>
+          <t>maa://28784 (94.08), maa://29088 (91.71), maa://20974 (95.77), maa://31124 (96.57), maa://28950 (92.0), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (80.0), **maa://42200 (50.0), maa://41832 (85.71)</t>
         </is>
       </c>
       <c r="E69" s="3" t="inlineStr">
@@ -2770,7 +2770,7 @@
       </c>
       <c r="D71" s="12" t="inlineStr">
         <is>
-          <t>maa://20943 (99.23)</t>
+          <t>maa://20943 (99.25)</t>
         </is>
       </c>
       <c r="E71" s="3" t="inlineStr">
@@ -2797,7 +2797,7 @@
       </c>
       <c r="D72" s="12" t="inlineStr">
         <is>
-          <t>maa://36643 (97.55), maa://36864 (97.53), maa://39140 (100.0)</t>
+          <t>maa://36643 (97.57), maa://36864 (97.56), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E72" s="3" t="inlineStr">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="D88" s="12" t="inlineStr">
         <is>
-          <t>maa://24472 (85.89), *maa://35841 (54.55)</t>
+          <t>maa://24472 (86.23), *maa://35841 (58.33)</t>
         </is>
       </c>
       <c r="E88" s="3" t="inlineStr">
@@ -3634,7 +3634,7 @@
       </c>
       <c r="D103" s="12" t="inlineStr">
         <is>
-          <t>*maa://29094 (63.89), maa://28904 (84.62), **maa://20931 (42.31)</t>
+          <t>*maa://29094 (63.89), maa://28904 (85.71), **maa://20931 (42.31)</t>
         </is>
       </c>
       <c r="E103" s="3" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="D108" s="12" t="inlineStr">
         <is>
-          <t>maa://25018 (95.82), maa://25776 (90.77), maa://28361 (96.88), maa://25772 (93.02), *maa://25161 (80.0), maa://32653 (85.71), *maa://45194 (66.67)</t>
+          <t>maa://25018 (95.86), maa://25776 (90.77), maa://28361 (96.88), maa://25772 (93.18), *maa://25161 (80.0), maa://32653 (85.71), *maa://45194 (77.78)</t>
         </is>
       </c>
       <c r="E108" s="3" t="inlineStr">
@@ -3877,7 +3877,7 @@
       </c>
       <c r="D112" s="12" t="inlineStr">
         <is>
-          <t>*maa://20933 (79.63), maa://20822 (100.0)</t>
+          <t>*maa://20933 (78.18), maa://20822 (100.0)</t>
         </is>
       </c>
       <c r="E112" s="3" t="inlineStr">
@@ -3958,7 +3958,7 @@
       </c>
       <c r="D115" s="12" t="inlineStr">
         <is>
-          <t>maa://20908 (98.31), *maa://23346 (77.78), maa://35723 (94.44), maa://38822 (100.0)</t>
+          <t>maa://20908 (98.57), maa://35723 (94.87), *maa://23346 (77.78), maa://38822 (100.0)</t>
         </is>
       </c>
       <c r="E115" s="3" t="inlineStr">
@@ -3985,7 +3985,7 @@
       </c>
       <c r="D116" s="12" t="inlineStr">
         <is>
-          <t>maa://29659 (83.33), maa://29031 (100.0)</t>
+          <t>maa://29659 (83.87), maa://29031 (86.21)</t>
         </is>
       </c>
       <c r="E116" s="3" t="inlineStr">
@@ -4363,7 +4363,7 @@
       </c>
       <c r="D130" s="12" t="inlineStr">
         <is>
-          <t>maa://21422 (99.16)</t>
+          <t>maa://21422 (99.28)</t>
         </is>
       </c>
       <c r="E130" s="3" t="inlineStr">
@@ -4579,7 +4579,7 @@
       </c>
       <c r="D138" s="12" t="inlineStr">
         <is>
-          <t>**maa://21000 (41.38), *maa://29025 (77.78)</t>
+          <t>**maa://21000 (41.38), *maa://29025 (80.0)</t>
         </is>
       </c>
       <c r="E138" s="3" t="inlineStr">
@@ -4687,7 +4687,7 @@
       </c>
       <c r="D142" s="12" t="inlineStr">
         <is>
-          <t>maa://28484 (97.78), **maa://23736 (41.54), *maa://31185 (80.0), maa://30306 (100.0)</t>
+          <t>maa://28484 (96.84), **maa://23736 (42.42), *maa://31185 (80.0), maa://30306 (100.0)</t>
         </is>
       </c>
       <c r="E142" s="3" t="inlineStr">
@@ -4714,7 +4714,7 @@
       </c>
       <c r="D143" s="12" t="inlineStr">
         <is>
-          <t>maa://30670 (96.55), maa://31470 (95.65), maa://45066 (100.0), ***maa://30867 (25.0)</t>
+          <t>maa://30670 (96.67), maa://31470 (95.65), maa://45066 (100.0), ***maa://30867 (25.0)</t>
         </is>
       </c>
       <c r="E143" s="3" t="inlineStr">
@@ -4876,7 +4876,7 @@
       </c>
       <c r="D149" s="12" t="inlineStr">
         <is>
-          <t>maa://36641 (98.37), maa://36865 (96.12), maa://42918 (100.0), maa://44119 (96.43), maa://37300 (100.0), maa://42917 (100.0), maa://46108 (100.0)</t>
+          <t>maa://36641 (98.11), maa://36865 (96.21), maa://42918 (100.0), maa://44119 (96.97), maa://37300 (100.0), maa://46108 (100.0), maa://42917 (100.0)</t>
         </is>
       </c>
       <c r="E149" s="3" t="inlineStr">
@@ -5119,7 +5119,7 @@
       </c>
       <c r="D158" s="12" t="inlineStr">
         <is>
-          <t>maa://44232 (99.16), maa://44305 (100.0), maa://45603 (90.0)</t>
+          <t>maa://44232 (99.25), maa://44305 (100.0), maa://45603 (94.12)</t>
         </is>
       </c>
       <c r="E158" s="3" t="inlineStr">
@@ -5227,7 +5227,7 @@
       </c>
       <c r="D162" s="12" t="inlineStr">
         <is>
-          <t>*maa://32845 (70.0), maa://29054 (100.0)</t>
+          <t>*maa://32845 (63.64), maa://29054 (100.0)</t>
         </is>
       </c>
       <c r="E162" s="3" t="inlineStr">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="D166" s="12" t="inlineStr">
         <is>
-          <t>maa://29633 (93.73), maa://29627 (92.47), maa://29659 (83.33), maa://29861 (100.0)</t>
+          <t>maa://29633 (93.85), maa://29627 (92.71), maa://29659 (83.87), maa://29861 (100.0)</t>
         </is>
       </c>
       <c r="E166" s="3" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="D172" s="12" t="inlineStr">
         <is>
-          <t>maa://32418 (99.59)</t>
+          <t>maa://32418 (99.6)</t>
         </is>
       </c>
       <c r="E172" s="3" t="inlineStr">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="D194" s="12" t="inlineStr">
         <is>
-          <t>*maa://35854 (78.57), maa://44224 (89.01), maa://25760 (86.02), **maa://20872 (50.0), ***maa://43443 (27.27), ***maa://43911 (18.18)</t>
+          <t>maa://44224 (89.44), *maa://35854 (79.55), maa://25760 (85.26), **maa://20872 (50.0), ***maa://43443 (25.0), ***maa://43911 (15.38)</t>
         </is>
       </c>
       <c r="E194" s="3" t="inlineStr">
@@ -6118,7 +6118,7 @@
       </c>
       <c r="D195" s="12" t="inlineStr">
         <is>
-          <t>maa://39156 (86.96), maa://39550 (85.71)</t>
+          <t>maa://39156 (88.24), *maa://39550 (77.78)</t>
         </is>
       </c>
       <c r="E195" s="3" t="inlineStr">
@@ -6199,7 +6199,7 @@
       </c>
       <c r="D198" s="12" t="inlineStr">
         <is>
-          <t>maa://42223 (99.42), maa://42292 (96.55), maa://42402 (100.0)</t>
+          <t>maa://42223 (99.45), maa://42292 (96.67), maa://42402 (100.0)</t>
         </is>
       </c>
       <c r="E198" s="3" t="inlineStr">
@@ -6415,7 +6415,7 @@
       </c>
       <c r="D206" s="12" t="inlineStr">
         <is>
-          <t>maa://28133 (90.7), maa://28277 (80.77), **maa://39217 (37.5), maa://25369 (93.75), *maa://33132 (66.67)</t>
+          <t>maa://28133 (90.91), maa://28277 (80.77), **maa://39217 (37.5), maa://25369 (93.75), *maa://33132 (66.67)</t>
         </is>
       </c>
       <c r="E206" s="3" t="inlineStr">
@@ -6496,7 +6496,7 @@
       </c>
       <c r="D209" s="12" t="inlineStr">
         <is>
-          <t>maa://39238 (99.26)</t>
+          <t>maa://39238 (99.28)</t>
         </is>
       </c>
       <c r="E209" s="3" t="inlineStr">
@@ -6847,7 +6847,7 @@
       </c>
       <c r="D222" s="12" t="inlineStr">
         <is>
-          <t>maa://20987 (92.0), *maa://35801 (77.78)</t>
+          <t>maa://20987 (92.11), *maa://35801 (77.78)</t>
         </is>
       </c>
       <c r="E222" s="3" t="inlineStr">
@@ -6955,7 +6955,7 @@
       </c>
       <c r="D226" s="12" t="inlineStr">
         <is>
-          <t>maa://29058 (94.74), maa://39140 (100.0), maa://38723 (100.0)</t>
+          <t>maa://29058 (94.92), maa://39140 (100.0), maa://38723 (100.0)</t>
         </is>
       </c>
       <c r="E226" s="3" t="inlineStr">
@@ -7117,7 +7117,7 @@
       </c>
       <c r="D232" s="12" t="inlineStr">
         <is>
-          <t>maa://20922 (92.73), *maa://32623 (61.54), *maa://34242 (80.0), maa://34900 (90.91)</t>
+          <t>maa://20922 (92.86), *maa://32623 (61.54), *maa://34242 (80.0), maa://34900 (84.62)</t>
         </is>
       </c>
       <c r="E232" s="3" t="inlineStr">
@@ -7171,7 +7171,7 @@
       </c>
       <c r="D234" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (77.62), maa://30666 (83.57), *maa://26836 (78.06), maa://37607 (94.05), **maa://30739 (44.44), *maa://34428 (70.33), *maa://30723 (52.73), maa://39588 (88.64), *maa://37850 (75.0)</t>
+          <t>*maa://30667 (77.54), maa://30666 (83.65), *maa://26836 (78.34), maa://37607 (94.12), **maa://30739 (44.44), *maa://34428 (69.89), *maa://30723 (52.73), maa://39588 (88.64), *maa://37850 (75.0)</t>
         </is>
       </c>
       <c r="E234" s="3" t="inlineStr">
@@ -7387,7 +7387,7 @@
       </c>
       <c r="D242" s="12" t="inlineStr">
         <is>
-          <t>maa://28923 (91.67), maa://28906 (97.73), ***maa://28825 (12.0)</t>
+          <t>maa://28923 (91.72), maa://28906 (97.83), ***maa://28825 (12.0)</t>
         </is>
       </c>
       <c r="E242" s="3" t="inlineStr">
@@ -7468,7 +7468,7 @@
       </c>
       <c r="D245" s="12" t="inlineStr">
         <is>
-          <t>maa://20923 (90.48)</t>
+          <t>maa://20923 (90.91)</t>
         </is>
       </c>
       <c r="E245" s="3" t="inlineStr">
@@ -7495,7 +7495,7 @@
       </c>
       <c r="D246" s="12" t="inlineStr">
         <is>
-          <t>maa://24093 (100.0), maa://31559 (96.0), maa://20924 (95.24)</t>
+          <t>maa://24093 (100.0), maa://31559 (96.15), maa://20924 (95.24)</t>
         </is>
       </c>
       <c r="E246" s="3" t="inlineStr">
@@ -7522,7 +7522,7 @@
       </c>
       <c r="D247" s="12" t="inlineStr">
         <is>
-          <t>*maa://40958 (76.92), maa://45067 (100.0)</t>
+          <t>*maa://40958 (76.92), *maa://45067 (66.67)</t>
         </is>
       </c>
       <c r="E247" s="3" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="D249" s="12" t="inlineStr">
         <is>
-          <t>maa://20877 (98.36), maa://20836 (100.0), maa://20632 (100.0), maa://45067 (100.0)</t>
+          <t>maa://20877 (98.36), maa://20836 (100.0), *maa://45067 (66.67), maa://20632 (100.0)</t>
         </is>
       </c>
       <c r="E249" s="3" t="inlineStr">
@@ -7603,7 +7603,7 @@
       </c>
       <c r="D250" s="12" t="inlineStr">
         <is>
-          <t>maa://20879 (85.71), maa://20834 (92.86)</t>
+          <t>maa://20879 (84.0), maa://20834 (92.86)</t>
         </is>
       </c>
       <c r="E250" s="3" t="inlineStr">
@@ -7711,7 +7711,7 @@
       </c>
       <c r="D254" s="19" t="inlineStr">
         <is>
-          <t>**maa://20883 (40.0)</t>
+          <t>**maa://20883 (37.5)</t>
         </is>
       </c>
       <c r="E254" s="20" t="inlineStr">
@@ -7900,7 +7900,7 @@
       </c>
       <c r="D261" s="12" t="inlineStr">
         <is>
-          <t>maa://25769 (96.8)</t>
+          <t>maa://25769 (96.83)</t>
         </is>
       </c>
       <c r="E261" s="3" t="inlineStr">
@@ -8062,7 +8062,7 @@
       </c>
       <c r="D267" s="12" t="inlineStr">
         <is>
-          <t>maa://28133 (90.7), maa://33394 (100.0)</t>
+          <t>maa://28133 (90.91), maa://33394 (100.0)</t>
         </is>
       </c>
       <c r="E267" s="3" t="inlineStr">
@@ -8192,12 +8192,12 @@
       </c>
       <c r="C272" s="13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D272" s="12" t="inlineStr">
         <is>
-          <t>**maa://35860 (42.86), **maa://39165 (50.0)</t>
+          <t>**maa://39165 (50.0)</t>
         </is>
       </c>
       <c r="E272" s="3" t="inlineStr">
@@ -8273,12 +8273,12 @@
       </c>
       <c r="C275" s="13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D275" s="12" t="inlineStr">
         <is>
-          <t>maa://20899 (89.31), **maa://44744 (33.33)</t>
+          <t>maa://20899 (89.31), **maa://44744 (33.33), maa://46332 (100.0)</t>
         </is>
       </c>
       <c r="E275" s="3" t="inlineStr">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="D277" s="12" t="inlineStr">
         <is>
-          <t>maa://30710 (97.44), maa://36845 (95.15), maa://31558 (97.06), **maa://39217 (37.5), maa://30668 (85.19)</t>
+          <t>maa://30710 (97.5), maa://36845 (95.33), maa://31558 (97.06), **maa://39217 (37.5), maa://30668 (85.19)</t>
         </is>
       </c>
       <c r="E277" s="3" t="inlineStr">
@@ -8413,7 +8413,7 @@
       </c>
       <c r="D280" s="12" t="inlineStr">
         <is>
-          <t>maa://25774 (100.0), maa://28133 (90.7), maa://22469 (91.3), **maa://39217 (37.5), **maa://31349 (50.0)</t>
+          <t>maa://25774 (100.0), maa://28133 (90.91), maa://22469 (91.3), **maa://39217 (37.5), **maa://31349 (50.0)</t>
         </is>
       </c>
       <c r="E280" s="3" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="D281" s="12" t="inlineStr">
         <is>
-          <t>*maa://45842 (66.67)</t>
+          <t>*maa://45842 (55.56)</t>
         </is>
       </c>
       <c r="E281" s="3" t="inlineStr">
@@ -8467,7 +8467,7 @@
       </c>
       <c r="D282" s="12" t="inlineStr">
         <is>
-          <t>maa://32414 (98.63), maa://32505 (100.0), maa://39155 (95.83)</t>
+          <t>maa://32414 (98.63), maa://32505 (100.0), maa://39155 (96.15)</t>
         </is>
       </c>
       <c r="E282" s="3" t="inlineStr">
@@ -8548,7 +8548,7 @@
       </c>
       <c r="D285" s="12" t="inlineStr">
         <is>
-          <t>maa://36642 (100.0), maa://36867 (96.77), maa://39155 (95.83)</t>
+          <t>maa://36642 (100.0), maa://36867 (96.77), maa://39155 (96.15)</t>
         </is>
       </c>
       <c r="E285" s="3" t="inlineStr">
@@ -8602,7 +8602,7 @@
       </c>
       <c r="D287" s="12" t="inlineStr">
         <is>
-          <t>maa://29005 (98.33), maa://31560 (85.71)</t>
+          <t>maa://29005 (98.39), maa://31560 (85.71)</t>
         </is>
       </c>
       <c r="E287" s="3" t="inlineStr">
@@ -8899,7 +8899,7 @@
       </c>
       <c r="D298" s="12" t="inlineStr">
         <is>
-          <t>maa://25775 (93.22), *maa://25393 (71.43)</t>
+          <t>maa://25775 (93.33), *maa://25393 (71.43)</t>
         </is>
       </c>
       <c r="E298" s="3" t="inlineStr">
@@ -8953,7 +8953,7 @@
       </c>
       <c r="D300" s="12" t="inlineStr">
         <is>
-          <t>maa://25367 (99.12)</t>
+          <t>maa://25367 (99.13)</t>
         </is>
       </c>
       <c r="E300" s="3" t="inlineStr">
@@ -9034,7 +9034,7 @@
       </c>
       <c r="D303" s="12" t="inlineStr">
         <is>
-          <t>maa://31559 (96.0), maa://28241 (100.0)</t>
+          <t>maa://31559 (96.15), maa://28241 (100.0)</t>
         </is>
       </c>
       <c r="E303" s="3" t="inlineStr">
@@ -9115,7 +9115,7 @@
       </c>
       <c r="D306" s="12" t="inlineStr">
         <is>
-          <t>maa://39692 (99.72), maa://39810 (81.25)</t>
+          <t>maa://39692 (99.73), maa://39810 (82.35)</t>
         </is>
       </c>
       <c r="E306" s="3" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="D313" s="12" t="inlineStr">
         <is>
-          <t>maa://40956 (100.0)</t>
+          <t>maa://40956 (94.74)</t>
         </is>
       </c>
       <c r="E313" s="3" t="inlineStr">
@@ -9412,7 +9412,7 @@
       </c>
       <c r="D317" s="12" t="inlineStr">
         <is>
-          <t>maa://44234 (98.18)</t>
+          <t>maa://44234 (98.25)</t>
         </is>
       </c>
       <c r="E317" s="3" t="inlineStr">
@@ -9439,7 +9439,7 @@
       </c>
       <c r="D318" s="12" t="inlineStr">
         <is>
-          <t>maa://42968 (99.32)</t>
+          <t>maa://42968 (99.37)</t>
         </is>
       </c>
       <c r="E318" s="3" t="inlineStr">
@@ -9520,7 +9520,7 @@
       </c>
       <c r="D321" s="12" t="inlineStr">
         <is>
-          <t>maa://30671 (81.6), maa://30669 (98.92), maa://37275 (81.58), *maa://32410 (66.67), maa://41605 (100.0), maa://33671 (100.0)</t>
+          <t>maa://30671 (81.71), maa://30669 (98.94), maa://37275 (81.58), *maa://32410 (66.67), maa://41605 (100.0), maa://33671 (100.0)</t>
         </is>
       </c>
       <c r="E321" s="3" t="inlineStr">
@@ -9547,7 +9547,7 @@
       </c>
       <c r="D322" s="12" t="inlineStr">
         <is>
-          <t>maa://38295 (95.59)</t>
+          <t>maa://38295 (95.77)</t>
         </is>
       </c>
       <c r="E322" s="3" t="inlineStr">
@@ -9682,7 +9682,7 @@
       </c>
       <c r="D327" s="12" t="inlineStr">
         <is>
-          <t>maa://32647 (97.36), maa://32415 (96.18), maa://34677 (100.0), maa://32892 (100.0)</t>
+          <t>maa://32647 (97.5), maa://32415 (96.27), maa://34677 (100.0), maa://32892 (100.0)</t>
         </is>
       </c>
       <c r="E327" s="3" t="inlineStr">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="D332" s="14" t="inlineStr">
         <is>
-          <t>maa://34865 (97.3), maa://34717 (93.75), maa://45066 (100.0)</t>
+          <t>maa://34865 (97.33), maa://34717 (93.75), maa://45066 (100.0)</t>
         </is>
       </c>
       <c r="E332" s="14" t="inlineStr">
@@ -9925,7 +9925,7 @@
       </c>
       <c r="D336" s="14" t="inlineStr">
         <is>
-          <t>maa://36868 (100.0), maa://35996 (95.83), **maa://39217 (37.5), maa://44463 (90.0)</t>
+          <t>maa://36868 (100.0), maa://35996 (95.92), **maa://39217 (37.5), maa://44463 (91.67)</t>
         </is>
       </c>
       <c r="E336" s="14" t="inlineStr">
@@ -9979,7 +9979,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>maa://42299 (96.55), **maa://42224 (50.0)</t>
+          <t>maa://42299 (96.97), **maa://42224 (50.0)</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
@@ -10006,7 +10006,7 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>maa://36646 (98.47), maa://36845 (95.15), **maa://39217 (37.5)</t>
+          <t>maa://36646 (98.5), maa://36845 (95.33), **maa://39217 (37.5)</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
@@ -10033,7 +10033,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>maa://36645 (97.92), maa://36841 (94.83), maa://37484 (93.62), maa://37858 (91.67)</t>
+          <t>maa://36645 (97.95), maa://36841 (94.92), maa://37484 (93.62), maa://37858 (91.67)</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -10141,7 +10141,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>maa://40957 (87.24), maa://41035 (89.58), maa://41128 (81.25), maa://44635 (85.0), maa://44660 (89.66)</t>
+          <t>maa://40957 (88.37), maa://41035 (90.2), maa://44635 (86.89), maa://41128 (82.35), maa://44660 (90.91)</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
@@ -10330,7 +10330,7 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>maa://41110 (97.65), maa://45605 (100.0)</t>
+          <t>maa://41110 (97.67), maa://45605 (100.0)</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
@@ -10411,7 +10411,7 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>maa://44233 (93.33)</t>
+          <t>maa://44233 (93.55)</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
@@ -10465,7 +10465,7 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>*maa://43872 (80.0), maa://39153 (100.0)</t>
+          <t>maa://43872 (83.33), maa://39153 (100.0)</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
@@ -10519,7 +10519,7 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>maa://42970 (88.44), maa://44745 (93.75), maa://44896 (100.0), maa://45952 (100.0)</t>
+          <t>maa://42970 (88.56), maa://44745 (94.74), maa://45952 (100.0), maa://44896 (100.0)</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
@@ -10578,7 +10578,7 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>&gt; 使用非助战行箸累计使用8次食不厌精&gt; 3星通关主题曲3-2，编入非助战行箸且所有干员不能被击倒</t>
+          <t>&gt; 使用非助战行箸累计使用8次食不厌精&gt; 3星通关主题曲3-2；必须编入非助战行箸并上场，且所有干员不能被击倒</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2025.02.08 13:16:19</t>
+          <t>更新日期：2025.02.09 13:17:45</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="D23" s="12" t="inlineStr">
         <is>
-          <t>maa://20876 (94.44)</t>
+          <t>maa://20876 (94.74)</t>
         </is>
       </c>
       <c r="E23" s="3" t="inlineStr">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="D27" s="12" t="inlineStr">
         <is>
-          <t>*maa://20849 (63.16), *maa://28758 (56.67), maa://29036 (94.74), maa://30285 (100.0), **maa://42172 (50.0)</t>
+          <t>*maa://20849 (63.16), *maa://28758 (58.06), maa://29036 (94.74), maa://30285 (100.0), **maa://42172 (33.33)</t>
         </is>
       </c>
       <c r="E27" s="3" t="inlineStr">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>maa://20863 (87.37), maa://20832 (98.8), maa://20727 (100.0)</t>
+          <t>maa://20863 (87.43), maa://20832 (98.81), maa://20727 (100.0)</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="D33" s="12" t="inlineStr">
         <is>
-          <t>maa://30500 (98.51), *maa://27290 (70.59), ***maa://42154 (11.11)</t>
+          <t>maa://30500 (98.53), *maa://27290 (70.59), ***maa://42154 (10.0)</t>
         </is>
       </c>
       <c r="E33" s="3" t="inlineStr">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="D43" s="12" t="inlineStr">
         <is>
-          <t>maa://20889 (88.89)</t>
+          <t>maa://20889 (90.0)</t>
         </is>
       </c>
       <c r="E43" s="3" t="inlineStr">
@@ -2608,7 +2608,7 @@
       </c>
       <c r="D65" s="12" t="inlineStr">
         <is>
-          <t>maa://28567 (97.92), **maa://20947 (44.12), maa://30525 (100.0), *maa://28188 (66.67), maa://38735 (100.0), maa://30524 (100.0)</t>
+          <t>maa://28567 (97.92), **maa://20947 (44.12), maa://30525 (100.0), maa://38735 (100.0), *maa://28188 (66.67), maa://30524 (100.0)</t>
         </is>
       </c>
       <c r="E65" s="3" t="inlineStr">
@@ -2689,7 +2689,7 @@
       </c>
       <c r="D68" s="12" t="inlineStr">
         <is>
-          <t>maa://20976 (97.46), maa://20815 (100.0)</t>
+          <t>maa://20976 (97.47), maa://20815 (100.0)</t>
         </is>
       </c>
       <c r="E68" s="3" t="inlineStr">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="D69" s="12" t="inlineStr">
         <is>
-          <t>maa://28784 (94.08), maa://29088 (91.71), maa://20974 (95.77), maa://31124 (96.57), maa://28950 (92.0), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (80.0), **maa://42200 (50.0), maa://41832 (85.71)</t>
+          <t>maa://28784 (94.08), maa://29088 (91.71), maa://20974 (95.83), maa://31124 (96.57), maa://28950 (92.0), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (80.0), **maa://42200 (50.0), maa://41832 (85.71)</t>
         </is>
       </c>
       <c r="E69" s="3" t="inlineStr">
@@ -2797,7 +2797,7 @@
       </c>
       <c r="D72" s="12" t="inlineStr">
         <is>
-          <t>maa://36643 (97.57), maa://36864 (97.56), maa://39140 (100.0)</t>
+          <t>maa://36643 (97.59), maa://36864 (97.56), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E72" s="3" t="inlineStr">
@@ -3958,7 +3958,7 @@
       </c>
       <c r="D115" s="12" t="inlineStr">
         <is>
-          <t>maa://20908 (98.57), maa://35723 (94.87), *maa://23346 (77.78), maa://38822 (100.0)</t>
+          <t>maa://20908 (98.31), maa://35723 (95.0), *maa://23346 (77.78), maa://38822 (100.0)</t>
         </is>
       </c>
       <c r="E115" s="3" t="inlineStr">
@@ -4363,7 +4363,7 @@
       </c>
       <c r="D130" s="12" t="inlineStr">
         <is>
-          <t>maa://21422 (99.28)</t>
+          <t>maa://21422 (99.3)</t>
         </is>
       </c>
       <c r="E130" s="3" t="inlineStr">
@@ -4714,7 +4714,7 @@
       </c>
       <c r="D143" s="12" t="inlineStr">
         <is>
-          <t>maa://30670 (96.67), maa://31470 (95.65), maa://45066 (100.0), ***maa://30867 (25.0)</t>
+          <t>maa://30670 (96.67), maa://31470 (95.65), **maa://45066 (50.0), ***maa://30867 (25.0)</t>
         </is>
       </c>
       <c r="E143" s="3" t="inlineStr">
@@ -4876,7 +4876,7 @@
       </c>
       <c r="D149" s="12" t="inlineStr">
         <is>
-          <t>maa://36641 (98.11), maa://36865 (96.21), maa://42918 (100.0), maa://44119 (96.97), maa://37300 (100.0), maa://46108 (100.0), maa://42917 (100.0)</t>
+          <t>maa://36641 (98.12), maa://36865 (96.21), maa://42918 (100.0), maa://44119 (96.97), maa://37300 (100.0), maa://46108 (100.0), maa://42917 (100.0)</t>
         </is>
       </c>
       <c r="E149" s="3" t="inlineStr">
@@ -5119,7 +5119,7 @@
       </c>
       <c r="D158" s="12" t="inlineStr">
         <is>
-          <t>maa://44232 (99.25), maa://44305 (100.0), maa://45603 (94.12)</t>
+          <t>maa://44232 (99.25), maa://44305 (100.0), maa://45603 (94.74)</t>
         </is>
       </c>
       <c r="E158" s="3" t="inlineStr">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="D194" s="12" t="inlineStr">
         <is>
-          <t>maa://44224 (89.44), *maa://35854 (79.55), maa://25760 (85.26), **maa://20872 (50.0), ***maa://43443 (25.0), ***maa://43911 (15.38)</t>
+          <t>maa://44224 (87.84), *maa://35854 (76.6), maa://25760 (85.26), **maa://20872 (50.0), ***maa://43443 (25.0), ***maa://43911 (14.29)</t>
         </is>
       </c>
       <c r="E194" s="3" t="inlineStr">
@@ -6118,7 +6118,7 @@
       </c>
       <c r="D195" s="12" t="inlineStr">
         <is>
-          <t>maa://39156 (88.24), *maa://39550 (77.78)</t>
+          <t>maa://39156 (90.24), *maa://39550 (70.0)</t>
         </is>
       </c>
       <c r="E195" s="3" t="inlineStr">
@@ -7117,7 +7117,7 @@
       </c>
       <c r="D232" s="12" t="inlineStr">
         <is>
-          <t>maa://20922 (92.86), *maa://32623 (61.54), *maa://34242 (80.0), maa://34900 (84.62)</t>
+          <t>maa://20922 (92.86), *maa://32623 (64.29), *maa://34242 (80.0), maa://34900 (84.62)</t>
         </is>
       </c>
       <c r="E232" s="3" t="inlineStr">
@@ -7414,7 +7414,7 @@
       </c>
       <c r="D243" s="12" t="inlineStr">
         <is>
-          <t>maa://42287 (92.16), maa://42225 (100.0), maa://45570 (100.0)</t>
+          <t>maa://42287 (92.16), maa://45570 (100.0), maa://42225 (100.0)</t>
         </is>
       </c>
       <c r="E243" s="3" t="inlineStr">
@@ -7900,7 +7900,7 @@
       </c>
       <c r="D261" s="12" t="inlineStr">
         <is>
-          <t>maa://25769 (96.83)</t>
+          <t>maa://25769 (96.85)</t>
         </is>
       </c>
       <c r="E261" s="3" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="D281" s="12" t="inlineStr">
         <is>
-          <t>*maa://45842 (55.56)</t>
+          <t>**maa://45842 (50.0)</t>
         </is>
       </c>
       <c r="E281" s="3" t="inlineStr">
@@ -8548,7 +8548,7 @@
       </c>
       <c r="D285" s="12" t="inlineStr">
         <is>
-          <t>maa://36642 (100.0), maa://36867 (96.77), maa://39155 (96.15)</t>
+          <t>maa://36642 (100.0), maa://36867 (96.88), maa://39155 (96.15)</t>
         </is>
       </c>
       <c r="E285" s="3" t="inlineStr">
@@ -9115,7 +9115,7 @@
       </c>
       <c r="D306" s="12" t="inlineStr">
         <is>
-          <t>maa://39692 (99.73), maa://39810 (82.35)</t>
+          <t>maa://39692 (99.74), maa://39810 (82.35)</t>
         </is>
       </c>
       <c r="E306" s="3" t="inlineStr">
@@ -9412,7 +9412,7 @@
       </c>
       <c r="D317" s="12" t="inlineStr">
         <is>
-          <t>maa://44234 (98.25)</t>
+          <t>maa://44234 (98.28)</t>
         </is>
       </c>
       <c r="E317" s="3" t="inlineStr">
@@ -9439,7 +9439,7 @@
       </c>
       <c r="D318" s="12" t="inlineStr">
         <is>
-          <t>maa://42968 (99.37)</t>
+          <t>maa://42968 (99.38)</t>
         </is>
       </c>
       <c r="E318" s="3" t="inlineStr">
@@ -9520,7 +9520,7 @@
       </c>
       <c r="D321" s="12" t="inlineStr">
         <is>
-          <t>maa://30671 (81.71), maa://30669 (98.94), maa://37275 (81.58), *maa://32410 (66.67), maa://41605 (100.0), maa://33671 (100.0)</t>
+          <t>maa://30671 (81.71), maa://30669 (98.95), maa://37275 (81.58), *maa://32410 (66.67), maa://41605 (100.0), maa://33671 (100.0)</t>
         </is>
       </c>
       <c r="E321" s="3" t="inlineStr">
@@ -9682,7 +9682,7 @@
       </c>
       <c r="D327" s="12" t="inlineStr">
         <is>
-          <t>maa://32647 (97.5), maa://32415 (96.27), maa://34677 (100.0), maa://32892 (100.0)</t>
+          <t>maa://32647 (97.52), maa://32415 (96.27), maa://34677 (100.0), maa://32892 (100.0)</t>
         </is>
       </c>
       <c r="E327" s="3" t="inlineStr">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="D332" s="14" t="inlineStr">
         <is>
-          <t>maa://34865 (97.33), maa://34717 (93.75), maa://45066 (100.0)</t>
+          <t>maa://34865 (97.34), maa://34717 (93.75), **maa://45066 (50.0)</t>
         </is>
       </c>
       <c r="E332" s="14" t="inlineStr">
@@ -9925,7 +9925,7 @@
       </c>
       <c r="D336" s="14" t="inlineStr">
         <is>
-          <t>maa://36868 (100.0), maa://35996 (95.92), **maa://39217 (37.5), maa://44463 (91.67)</t>
+          <t>maa://36868 (100.0), maa://35996 (95.92), **maa://39217 (37.5), maa://44463 (92.86)</t>
         </is>
       </c>
       <c r="E336" s="14" t="inlineStr">
@@ -9979,7 +9979,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>maa://42299 (96.97), **maa://42224 (50.0)</t>
+          <t>maa://42299 (97.06), **maa://42224 (50.0)</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
@@ -10006,7 +10006,7 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>maa://36646 (98.5), maa://36845 (95.33), **maa://39217 (37.5)</t>
+          <t>maa://36646 (98.51), maa://36845 (95.33), **maa://39217 (37.5)</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
@@ -10141,7 +10141,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>maa://40957 (88.37), maa://41035 (90.2), maa://44635 (86.89), maa://41128 (82.35), maa://44660 (90.91)</t>
+          <t>maa://40957 (88.53), maa://44635 (87.5), maa://41035 (90.2), maa://41128 (82.35), maa://44660 (91.18)</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
@@ -10492,7 +10492,7 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>maa://43875 (97.3)</t>
+          <t>maa://43875 (97.37)</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2025.02.09 13:17:45</t>
+          <t>更新日期：2025.02.12 13:18:17</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="D23" s="12" t="inlineStr">
         <is>
-          <t>maa://20876 (94.74)</t>
+          <t>maa://20876 (95.0)</t>
         </is>
       </c>
       <c r="E23" s="3" t="inlineStr">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="D27" s="12" t="inlineStr">
         <is>
-          <t>*maa://20849 (63.16), *maa://28758 (58.06), maa://29036 (94.74), maa://30285 (100.0), **maa://42172 (33.33)</t>
+          <t>*maa://20849 (64.1), *maa://28758 (58.06), maa://29036 (95.0), *maa://42172 (60.0), maa://30285 (100.0)</t>
         </is>
       </c>
       <c r="E27" s="3" t="inlineStr">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>maa://20863 (87.43), maa://20832 (98.81), maa://20727 (100.0)</t>
+          <t>maa://20863 (87.43), maa://20832 (98.82), maa://20727 (100.0)</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="D32" s="12" t="inlineStr">
         <is>
-          <t>maa://36644 (88.59), maa://36866 (97.56), maa://27794 (100.0), maa://45572 (100.0)</t>
+          <t>maa://36644 (88.0), maa://36866 (97.56), maa://27794 (100.0), maa://45572 (100.0)</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="D41" s="12" t="inlineStr">
         <is>
-          <t>*maa://20892 (78.38)</t>
+          <t>*maa://20892 (78.67)</t>
         </is>
       </c>
       <c r="E41" s="3" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="D56" s="12" t="inlineStr">
         <is>
-          <t>maa://44235 (96.47), maa://45604 (100.0)</t>
+          <t>maa://44235 (96.55), maa://45604 (100.0)</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="D58" s="12" t="inlineStr">
         <is>
-          <t>maa://28900 (96.05), maa://30126 (100.0)</t>
+          <t>maa://28900 (96.1), maa://30126 (100.0)</t>
         </is>
       </c>
       <c r="E58" s="3" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="D60" s="12" t="inlineStr">
         <is>
-          <t>maa://38298 (85.96)</t>
+          <t>maa://38298 (86.67)</t>
         </is>
       </c>
       <c r="E60" s="3" t="inlineStr">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="D63" s="12" t="inlineStr">
         <is>
-          <t>*maa://20845 (73.91), *maa://38727 (75.0)</t>
+          <t>*maa://20845 (73.91), *maa://38727 (80.0)</t>
         </is>
       </c>
       <c r="E63" s="3" t="inlineStr">
@@ -2608,7 +2608,7 @@
       </c>
       <c r="D65" s="12" t="inlineStr">
         <is>
-          <t>maa://28567 (97.92), **maa://20947 (44.12), maa://30525 (100.0), maa://38735 (100.0), *maa://28188 (66.67), maa://30524 (100.0)</t>
+          <t>maa://28567 (97.92), **maa://20947 (44.12), maa://30525 (100.0), *maa://28188 (66.67), maa://38735 (100.0), maa://30524 (100.0)</t>
         </is>
       </c>
       <c r="E65" s="3" t="inlineStr">
@@ -2689,7 +2689,7 @@
       </c>
       <c r="D68" s="12" t="inlineStr">
         <is>
-          <t>maa://20976 (97.47), maa://20815 (100.0)</t>
+          <t>maa://20976 (97.5), maa://20815 (100.0)</t>
         </is>
       </c>
       <c r="E68" s="3" t="inlineStr">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="D69" s="12" t="inlineStr">
         <is>
-          <t>maa://28784 (94.08), maa://29088 (91.71), maa://20974 (95.83), maa://31124 (96.57), maa://28950 (92.0), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (80.0), **maa://42200 (50.0), maa://41832 (85.71)</t>
+          <t>maa://28784 (94.08), maa://29088 (91.71), maa://20974 (95.83), maa://31124 (96.59), maa://28950 (92.0), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (80.0), **maa://42200 (50.0), maa://41832 (85.71)</t>
         </is>
       </c>
       <c r="E69" s="3" t="inlineStr">
@@ -2797,7 +2797,7 @@
       </c>
       <c r="D72" s="12" t="inlineStr">
         <is>
-          <t>maa://36643 (97.59), maa://36864 (97.56), maa://39140 (100.0)</t>
+          <t>maa://36643 (97.61), maa://36864 (97.56), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E72" s="3" t="inlineStr">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="D88" s="12" t="inlineStr">
         <is>
-          <t>maa://24472 (86.23), *maa://35841 (58.33)</t>
+          <t>maa://24472 (86.86), *maa://35841 (58.33)</t>
         </is>
       </c>
       <c r="E88" s="3" t="inlineStr">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="D101" s="12" t="inlineStr">
         <is>
-          <t>maa://27794 (100.0), *maa://20893 (76.47), maa://45572 (100.0)</t>
+          <t>maa://27794 (100.0), maa://45572 (100.0), *maa://20893 (76.47)</t>
         </is>
       </c>
       <c r="E101" s="3" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="D108" s="12" t="inlineStr">
         <is>
-          <t>maa://25018 (95.86), maa://25776 (90.77), maa://28361 (96.88), maa://25772 (93.18), *maa://25161 (80.0), maa://32653 (85.71), *maa://45194 (77.78)</t>
+          <t>maa://25018 (95.89), maa://25776 (90.91), maa://28361 (96.88), maa://25772 (93.18), *maa://25161 (80.0), maa://32653 (85.71), *maa://45194 (80.0)</t>
         </is>
       </c>
       <c r="E108" s="3" t="inlineStr">
@@ -3850,7 +3850,7 @@
       </c>
       <c r="D111" s="12" t="inlineStr">
         <is>
-          <t>*maa://28554 (76.19)</t>
+          <t>*maa://28554 (77.27)</t>
         </is>
       </c>
       <c r="E111" s="3" t="inlineStr">
@@ -3904,7 +3904,7 @@
       </c>
       <c r="D113" s="12" t="inlineStr">
         <is>
-          <t>maa://29037 (97.83)</t>
+          <t>maa://29037 (97.87)</t>
         </is>
       </c>
       <c r="E113" s="3" t="inlineStr">
@@ -3958,7 +3958,7 @@
       </c>
       <c r="D115" s="12" t="inlineStr">
         <is>
-          <t>maa://20908 (98.31), maa://35723 (95.0), *maa://23346 (77.78), maa://38822 (100.0)</t>
+          <t>maa://20908 (98.44), maa://35723 (95.12), *maa://23346 (77.78), maa://38822 (100.0)</t>
         </is>
       </c>
       <c r="E115" s="3" t="inlineStr">
@@ -3985,7 +3985,7 @@
       </c>
       <c r="D116" s="12" t="inlineStr">
         <is>
-          <t>maa://29659 (83.87), maa://29031 (86.21)</t>
+          <t>maa://29659 (83.87), maa://29031 (86.67)</t>
         </is>
       </c>
       <c r="E116" s="3" t="inlineStr">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="D122" s="12" t="inlineStr">
         <is>
-          <t>maa://29650 (97.78), maa://45570 (100.0)</t>
+          <t>maa://29650 (97.83), maa://45570 (100.0)</t>
         </is>
       </c>
       <c r="E122" s="3" t="inlineStr">
@@ -4363,7 +4363,7 @@
       </c>
       <c r="D130" s="12" t="inlineStr">
         <is>
-          <t>maa://21422 (99.3)</t>
+          <t>maa://21422 (98.67)</t>
         </is>
       </c>
       <c r="E130" s="3" t="inlineStr">
@@ -4579,7 +4579,7 @@
       </c>
       <c r="D138" s="12" t="inlineStr">
         <is>
-          <t>**maa://21000 (41.38), *maa://29025 (80.0)</t>
+          <t>**maa://21000 (41.38), *maa://29025 (76.19)</t>
         </is>
       </c>
       <c r="E138" s="3" t="inlineStr">
@@ -4687,7 +4687,7 @@
       </c>
       <c r="D142" s="12" t="inlineStr">
         <is>
-          <t>maa://28484 (96.84), **maa://23736 (42.42), *maa://31185 (80.0), maa://30306 (100.0)</t>
+          <t>maa://28484 (96.88), **maa://23736 (42.42), *maa://31185 (80.0), maa://30306 (100.0)</t>
         </is>
       </c>
       <c r="E142" s="3" t="inlineStr">
@@ -4714,7 +4714,7 @@
       </c>
       <c r="D143" s="12" t="inlineStr">
         <is>
-          <t>maa://30670 (96.67), maa://31470 (95.65), **maa://45066 (50.0), ***maa://30867 (25.0)</t>
+          <t>maa://30670 (96.77), maa://31470 (96.0), *maa://45066 (66.67), ***maa://30867 (25.0)</t>
         </is>
       </c>
       <c r="E143" s="3" t="inlineStr">
@@ -4876,7 +4876,7 @@
       </c>
       <c r="D149" s="12" t="inlineStr">
         <is>
-          <t>maa://36641 (98.12), maa://36865 (96.21), maa://42918 (100.0), maa://44119 (96.97), maa://37300 (100.0), maa://46108 (100.0), maa://42917 (100.0)</t>
+          <t>maa://36641 (98.17), maa://36865 (96.27), maa://42918 (100.0), maa://44119 (97.22), maa://37300 (100.0), maa://46108 (100.0), maa://42917 (100.0)</t>
         </is>
       </c>
       <c r="E149" s="3" t="inlineStr">
@@ -5119,7 +5119,7 @@
       </c>
       <c r="D158" s="12" t="inlineStr">
         <is>
-          <t>maa://44232 (99.25), maa://44305 (100.0), maa://45603 (94.74)</t>
+          <t>maa://44232 (99.29), maa://44305 (100.0), maa://45603 (94.74)</t>
         </is>
       </c>
       <c r="E158" s="3" t="inlineStr">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="D166" s="12" t="inlineStr">
         <is>
-          <t>maa://29633 (93.85), maa://29627 (92.71), maa://29659 (83.87), maa://29861 (100.0)</t>
+          <t>maa://29633 (93.94), maa://29627 (92.78), maa://29659 (83.87), maa://29861 (100.0)</t>
         </is>
       </c>
       <c r="E166" s="3" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="D172" s="12" t="inlineStr">
         <is>
-          <t>maa://32418 (99.6)</t>
+          <t>maa://32418 (99.61)</t>
         </is>
       </c>
       <c r="E172" s="3" t="inlineStr">
@@ -5524,7 +5524,7 @@
       </c>
       <c r="D173" s="12" t="inlineStr">
         <is>
-          <t>maa://37690 (83.33)</t>
+          <t>maa://37690 (85.71)</t>
         </is>
       </c>
       <c r="E173" s="3" t="inlineStr">
@@ -6086,12 +6086,12 @@
       </c>
       <c r="C194" s="13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D194" s="12" t="inlineStr">
         <is>
-          <t>maa://44224 (87.84), *maa://35854 (76.6), maa://25760 (85.26), **maa://20872 (50.0), ***maa://43443 (25.0), ***maa://43911 (14.29)</t>
+          <t>maa://44224 (87.65), *maa://35854 (76.6), maa://25760 (85.57), **maa://20872 (50.0), ***maa://43911 (14.29)</t>
         </is>
       </c>
       <c r="E194" s="3" t="inlineStr">
@@ -6118,7 +6118,7 @@
       </c>
       <c r="D195" s="12" t="inlineStr">
         <is>
-          <t>maa://39156 (90.24), *maa://39550 (70.0)</t>
+          <t>maa://39156 (92.45), *maa://39550 (60.0)</t>
         </is>
       </c>
       <c r="E195" s="3" t="inlineStr">
@@ -6199,7 +6199,7 @@
       </c>
       <c r="D198" s="12" t="inlineStr">
         <is>
-          <t>maa://42223 (99.45), maa://42292 (96.67), maa://42402 (100.0)</t>
+          <t>maa://42223 (99.47), maa://42292 (96.67), maa://42402 (100.0)</t>
         </is>
       </c>
       <c r="E198" s="3" t="inlineStr">
@@ -6415,7 +6415,7 @@
       </c>
       <c r="D206" s="12" t="inlineStr">
         <is>
-          <t>maa://28133 (90.91), maa://28277 (80.77), **maa://39217 (37.5), maa://25369 (93.75), *maa://33132 (66.67)</t>
+          <t>maa://28133 (91.11), maa://28277 (80.77), **maa://39217 (37.5), maa://25369 (93.75), *maa://33132 (66.67)</t>
         </is>
       </c>
       <c r="E206" s="3" t="inlineStr">
@@ -6496,7 +6496,7 @@
       </c>
       <c r="D209" s="12" t="inlineStr">
         <is>
-          <t>maa://39238 (99.28)</t>
+          <t>maa://39238 (99.3)</t>
         </is>
       </c>
       <c r="E209" s="3" t="inlineStr">
@@ -6955,7 +6955,7 @@
       </c>
       <c r="D226" s="12" t="inlineStr">
         <is>
-          <t>maa://29058 (94.92), maa://39140 (100.0), maa://38723 (100.0)</t>
+          <t>maa://29058 (95.08), maa://39140 (100.0), maa://38723 (100.0)</t>
         </is>
       </c>
       <c r="E226" s="3" t="inlineStr">
@@ -7063,7 +7063,7 @@
       </c>
       <c r="D230" s="12" t="inlineStr">
         <is>
-          <t>maa://20917 (97.78)</t>
+          <t>maa://20917 (97.83)</t>
         </is>
       </c>
       <c r="E230" s="3" t="inlineStr">
@@ -7117,7 +7117,7 @@
       </c>
       <c r="D232" s="12" t="inlineStr">
         <is>
-          <t>maa://20922 (92.86), *maa://32623 (64.29), *maa://34242 (80.0), maa://34900 (84.62)</t>
+          <t>maa://20922 (92.86), *maa://32623 (66.67), *maa://34242 (80.0), maa://34900 (84.62)</t>
         </is>
       </c>
       <c r="E232" s="3" t="inlineStr">
@@ -7171,7 +7171,7 @@
       </c>
       <c r="D234" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (77.54), maa://30666 (83.65), *maa://26836 (78.34), maa://37607 (94.12), **maa://30739 (44.44), *maa://34428 (69.89), *maa://30723 (52.73), maa://39588 (88.64), *maa://37850 (75.0)</t>
+          <t>*maa://30667 (77.51), maa://30666 (83.73), *maa://26836 (78.34), maa://37607 (94.14), **maa://30739 (44.44), *maa://34428 (69.89), *maa://30723 (54.39), maa://39588 (88.64), *maa://37850 (75.0)</t>
         </is>
       </c>
       <c r="E234" s="3" t="inlineStr">
@@ -7279,7 +7279,7 @@
       </c>
       <c r="D238" s="12" t="inlineStr">
         <is>
-          <t>maa://20867 (92.86), maa://38485 (90.0), *maa://32202 (80.0)</t>
+          <t>maa://20867 (92.86), maa://38485 (90.91), *maa://32202 (80.0)</t>
         </is>
       </c>
       <c r="E238" s="3" t="inlineStr">
@@ -7387,7 +7387,7 @@
       </c>
       <c r="D242" s="12" t="inlineStr">
         <is>
-          <t>maa://28923 (91.72), maa://28906 (97.83), ***maa://28825 (12.0)</t>
+          <t>maa://28923 (91.18), maa://28906 (97.96), ***maa://28825 (12.0)</t>
         </is>
       </c>
       <c r="E242" s="3" t="inlineStr">
@@ -7414,7 +7414,7 @@
       </c>
       <c r="D243" s="12" t="inlineStr">
         <is>
-          <t>maa://42287 (92.16), maa://45570 (100.0), maa://42225 (100.0)</t>
+          <t>maa://42287 (92.59), maa://45570 (100.0), maa://42225 (100.0)</t>
         </is>
       </c>
       <c r="E243" s="3" t="inlineStr">
@@ -7522,7 +7522,7 @@
       </c>
       <c r="D247" s="12" t="inlineStr">
         <is>
-          <t>*maa://40958 (76.92), *maa://45067 (66.67)</t>
+          <t>*maa://40958 (78.57), *maa://45067 (66.67)</t>
         </is>
       </c>
       <c r="E247" s="3" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="D249" s="12" t="inlineStr">
         <is>
-          <t>maa://20877 (98.36), maa://20836 (100.0), *maa://45067 (66.67), maa://20632 (100.0)</t>
+          <t>maa://20877 (98.39), maa://20836 (100.0), *maa://45067 (66.67), maa://20632 (100.0)</t>
         </is>
       </c>
       <c r="E249" s="3" t="inlineStr">
@@ -7603,7 +7603,7 @@
       </c>
       <c r="D250" s="12" t="inlineStr">
         <is>
-          <t>maa://20879 (84.0), maa://20834 (92.86)</t>
+          <t>maa://20879 (84.31), maa://20834 (92.86)</t>
         </is>
       </c>
       <c r="E250" s="3" t="inlineStr">
@@ -7684,7 +7684,7 @@
       </c>
       <c r="D253" s="12" t="inlineStr">
         <is>
-          <t>maa://31560 (85.71), maa://20884 (94.44)</t>
+          <t>maa://31560 (85.71), maa://20884 (94.74)</t>
         </is>
       </c>
       <c r="E253" s="3" t="inlineStr">
@@ -7900,7 +7900,7 @@
       </c>
       <c r="D261" s="12" t="inlineStr">
         <is>
-          <t>maa://25769 (96.85)</t>
+          <t>maa://25769 (96.88)</t>
         </is>
       </c>
       <c r="E261" s="3" t="inlineStr">
@@ -8062,7 +8062,7 @@
       </c>
       <c r="D267" s="12" t="inlineStr">
         <is>
-          <t>maa://28133 (90.91), maa://33394 (100.0)</t>
+          <t>maa://28133 (91.11), maa://33394 (100.0)</t>
         </is>
       </c>
       <c r="E267" s="3" t="inlineStr">
@@ -8251,7 +8251,7 @@
       </c>
       <c r="D274" s="12" t="inlineStr">
         <is>
-          <t>maa://38296 (85.71)</t>
+          <t>maa://38296 (86.36)</t>
         </is>
       </c>
       <c r="E274" s="3" t="inlineStr">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="D277" s="12" t="inlineStr">
         <is>
-          <t>maa://30710 (97.5), maa://36845 (95.33), maa://31558 (97.06), **maa://39217 (37.5), maa://30668 (85.19)</t>
+          <t>maa://30710 (97.52), maa://36845 (95.45), maa://31558 (97.06), **maa://39217 (37.5), maa://30668 (85.19)</t>
         </is>
       </c>
       <c r="E277" s="3" t="inlineStr">
@@ -8413,7 +8413,7 @@
       </c>
       <c r="D280" s="12" t="inlineStr">
         <is>
-          <t>maa://25774 (100.0), maa://28133 (90.91), maa://22469 (91.3), **maa://39217 (37.5), **maa://31349 (50.0)</t>
+          <t>maa://25774 (100.0), maa://28133 (91.11), maa://22469 (91.67), **maa://39217 (37.5), **maa://31349 (50.0)</t>
         </is>
       </c>
       <c r="E280" s="3" t="inlineStr">
@@ -8423,27 +8423,27 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="16" t="inlineStr">
+      <c r="A281" s="17" t="inlineStr">
         <is>
           <t>林</t>
         </is>
       </c>
-      <c r="B281" s="16" t="inlineStr">
+      <c r="B281" s="17" t="inlineStr">
         <is>
           <t>6-5</t>
         </is>
       </c>
-      <c r="C281" s="13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D281" s="12" t="inlineStr">
-        <is>
-          <t>**maa://45842 (50.0)</t>
-        </is>
-      </c>
-      <c r="E281" s="3" t="inlineStr">
+      <c r="C281" s="18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D281" s="19" t="inlineStr">
+        <is>
+          <t>**maa://45842 (45.45)</t>
+        </is>
+      </c>
+      <c r="E281" s="20" t="inlineStr">
         <is>
           <t>&gt; 完成5次战斗；必须编入非助战林并上场，且每次战斗至少释放1次流光乍裂&gt; 3星通关主题曲6-5；必须携带且部署非助战林，且至少释放3次流光乍裂</t>
         </is>
@@ -8467,7 +8467,7 @@
       </c>
       <c r="D282" s="12" t="inlineStr">
         <is>
-          <t>maa://32414 (98.63), maa://32505 (100.0), maa://39155 (96.15)</t>
+          <t>maa://32414 (98.64), maa://32505 (100.0), maa://39155 (96.15)</t>
         </is>
       </c>
       <c r="E282" s="3" t="inlineStr">
@@ -8602,7 +8602,7 @@
       </c>
       <c r="D287" s="12" t="inlineStr">
         <is>
-          <t>maa://29005 (98.39), maa://31560 (85.71)</t>
+          <t>maa://29005 (98.41), maa://31560 (85.71)</t>
         </is>
       </c>
       <c r="E287" s="3" t="inlineStr">
@@ -8818,7 +8818,7 @@
       </c>
       <c r="D295" s="12" t="inlineStr">
         <is>
-          <t>maa://35859 (97.06)</t>
+          <t>maa://35859 (97.1)</t>
         </is>
       </c>
       <c r="E295" s="3" t="inlineStr">
@@ -8953,7 +8953,7 @@
       </c>
       <c r="D300" s="12" t="inlineStr">
         <is>
-          <t>maa://25367 (99.13)</t>
+          <t>maa://25367 (99.16)</t>
         </is>
       </c>
       <c r="E300" s="3" t="inlineStr">
@@ -9142,7 +9142,7 @@
       </c>
       <c r="D307" s="12" t="inlineStr">
         <is>
-          <t>*maa://39174 (66.67)</t>
+          <t>*maa://39174 (75.0)</t>
         </is>
       </c>
       <c r="E307" s="3" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="D313" s="12" t="inlineStr">
         <is>
-          <t>maa://40956 (94.74)</t>
+          <t>maa://40956 (95.24)</t>
         </is>
       </c>
       <c r="E313" s="3" t="inlineStr">
@@ -9412,7 +9412,7 @@
       </c>
       <c r="D317" s="12" t="inlineStr">
         <is>
-          <t>maa://44234 (98.28)</t>
+          <t>maa://44234 (98.31)</t>
         </is>
       </c>
       <c r="E317" s="3" t="inlineStr">
@@ -9439,7 +9439,7 @@
       </c>
       <c r="D318" s="12" t="inlineStr">
         <is>
-          <t>maa://42968 (99.38)</t>
+          <t>maa://42968 (98.95)</t>
         </is>
       </c>
       <c r="E318" s="3" t="inlineStr">
@@ -9520,7 +9520,7 @@
       </c>
       <c r="D321" s="12" t="inlineStr">
         <is>
-          <t>maa://30671 (81.71), maa://30669 (98.95), maa://37275 (81.58), *maa://32410 (66.67), maa://41605 (100.0), maa://33671 (100.0)</t>
+          <t>maa://30671 (81.82), maa://30669 (98.95), maa://37275 (81.58), *maa://32410 (66.67), maa://41605 (100.0), maa://33671 (100.0)</t>
         </is>
       </c>
       <c r="E321" s="3" t="inlineStr">
@@ -9547,7 +9547,7 @@
       </c>
       <c r="D322" s="12" t="inlineStr">
         <is>
-          <t>maa://38295 (95.77)</t>
+          <t>maa://38295 (95.83)</t>
         </is>
       </c>
       <c r="E322" s="3" t="inlineStr">
@@ -9628,7 +9628,7 @@
       </c>
       <c r="D325" s="12" t="inlineStr">
         <is>
-          <t>maa://32416 (87.18)</t>
+          <t>maa://32416 (87.5)</t>
         </is>
       </c>
       <c r="E325" s="3" t="inlineStr">
@@ -9682,7 +9682,7 @@
       </c>
       <c r="D327" s="12" t="inlineStr">
         <is>
-          <t>maa://32647 (97.52), maa://32415 (96.27), maa://34677 (100.0), maa://32892 (100.0)</t>
+          <t>maa://32647 (97.6), maa://32415 (96.3), maa://34677 (100.0), maa://32892 (100.0)</t>
         </is>
       </c>
       <c r="E327" s="3" t="inlineStr">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="D332" s="14" t="inlineStr">
         <is>
-          <t>maa://34865 (97.34), maa://34717 (93.75), **maa://45066 (50.0)</t>
+          <t>maa://34865 (97.34), maa://34717 (93.75), *maa://45066 (66.67)</t>
         </is>
       </c>
       <c r="E332" s="14" t="inlineStr">
@@ -9920,12 +9920,12 @@
       </c>
       <c r="C336" s="13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D336" s="14" t="inlineStr">
         <is>
-          <t>maa://36868 (100.0), maa://35996 (95.92), **maa://39217 (37.5), maa://44463 (92.86)</t>
+          <t>maa://36868 (100.0), maa://35996 (95.92), **maa://39217 (37.5)</t>
         </is>
       </c>
       <c r="E336" s="14" t="inlineStr">
@@ -9979,7 +9979,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>maa://42299 (97.06), **maa://42224 (50.0)</t>
+          <t>maa://42299 (97.06), *maa://42224 (57.14)</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
@@ -10006,7 +10006,7 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>maa://36646 (98.51), maa://36845 (95.33), **maa://39217 (37.5)</t>
+          <t>maa://36646 (98.53), maa://36845 (95.45), **maa://39217 (37.5)</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
@@ -10033,7 +10033,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>maa://36645 (97.95), maa://36841 (94.92), maa://37484 (93.62), maa://37858 (91.67)</t>
+          <t>maa://36645 (97.98), maa://36841 (94.92), maa://37484 (93.62), maa://37858 (91.67)</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -10141,7 +10141,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>maa://40957 (88.53), maa://44635 (87.5), maa://41035 (90.2), maa://41128 (82.35), maa://44660 (91.18)</t>
+          <t>maa://40957 (88.74), maa://44635 (88.89), maa://41035 (90.2), maa://41128 (82.86), maa://44660 (91.18)</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
@@ -10519,7 +10519,7 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>maa://42970 (88.56), maa://44745 (94.74), maa://45952 (100.0), maa://44896 (100.0)</t>
+          <t>maa://42970 (88.61), maa://44745 (95.0), maa://45952 (100.0), maa://44896 (100.0)</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2025.02.12 13:18:17</t>
+          <t>更新日期：2025.02.14 13:17:46</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="D27" s="12" t="inlineStr">
         <is>
-          <t>*maa://20849 (64.1), *maa://28758 (58.06), maa://29036 (95.0), *maa://42172 (60.0), maa://30285 (100.0)</t>
+          <t>*maa://20849 (64.1), *maa://28758 (58.06), maa://29036 (95.0), *maa://42172 (66.67), maa://30285 (100.0)</t>
         </is>
       </c>
       <c r="E27" s="3" t="inlineStr">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>maa://20863 (87.43), maa://20832 (98.82), maa://20727 (100.0)</t>
+          <t>maa://20863 (87.5), maa://20832 (98.84), maa://20727 (100.0)</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="D32" s="12" t="inlineStr">
         <is>
-          <t>maa://36644 (88.0), maa://36866 (97.56), maa://27794 (100.0), maa://45572 (100.0)</t>
+          <t>maa://36644 (87.5), maa://36866 (97.62), maa://27794 (100.0), maa://45572 (100.0)</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="D37" s="12" t="inlineStr">
         <is>
-          <t>maa://27376 (91.67), *maa://20838 (52.94)</t>
+          <t>maa://27376 (91.89), *maa://20838 (52.94)</t>
         </is>
       </c>
       <c r="E37" s="3" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="D56" s="12" t="inlineStr">
         <is>
-          <t>maa://44235 (96.55), maa://45604 (100.0)</t>
+          <t>maa://44235 (96.67), maa://45604 (100.0)</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="D60" s="12" t="inlineStr">
         <is>
-          <t>maa://38298 (86.67)</t>
+          <t>maa://38298 (87.1)</t>
         </is>
       </c>
       <c r="E60" s="3" t="inlineStr">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="D69" s="12" t="inlineStr">
         <is>
-          <t>maa://28784 (94.08), maa://29088 (91.71), maa://20974 (95.83), maa://31124 (96.59), maa://28950 (92.0), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (80.0), **maa://42200 (50.0), maa://41832 (85.71)</t>
+          <t>maa://28784 (94.09), maa://29088 (91.71), maa://20974 (95.83), maa://31124 (96.61), maa://28950 (92.0), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (80.0), **maa://42200 (50.0), maa://41832 (85.71)</t>
         </is>
       </c>
       <c r="E69" s="3" t="inlineStr">
@@ -2797,7 +2797,7 @@
       </c>
       <c r="D72" s="12" t="inlineStr">
         <is>
-          <t>maa://36643 (97.61), maa://36864 (97.56), maa://39140 (100.0)</t>
+          <t>maa://36643 (97.62), maa://36864 (97.56), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E72" s="3" t="inlineStr">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="D88" s="12" t="inlineStr">
         <is>
-          <t>maa://24472 (86.86), *maa://35841 (58.33)</t>
+          <t>maa://24472 (86.93), *maa://35841 (58.33)</t>
         </is>
       </c>
       <c r="E88" s="3" t="inlineStr">
@@ -3607,7 +3607,7 @@
       </c>
       <c r="D102" s="12" t="inlineStr">
         <is>
-          <t>maa://40517 (94.44), *maa://39240 (57.14)</t>
+          <t>maa://40517 (94.74), *maa://39240 (57.14)</t>
         </is>
       </c>
       <c r="E102" s="3" t="inlineStr">
@@ -3634,7 +3634,7 @@
       </c>
       <c r="D103" s="12" t="inlineStr">
         <is>
-          <t>*maa://29094 (63.89), maa://28904 (85.71), **maa://20931 (42.31)</t>
+          <t>*maa://29094 (64.86), maa://28904 (86.21), **maa://20931 (42.31)</t>
         </is>
       </c>
       <c r="E103" s="3" t="inlineStr">
@@ -3715,7 +3715,7 @@
       </c>
       <c r="D106" s="12" t="inlineStr">
         <is>
-          <t>maa://27794 (100.0), maa://20843 (100.0), **maa://24483 (50.0), maa://45572 (100.0)</t>
+          <t>maa://27794 (100.0), maa://20843 (100.0), maa://45572 (100.0), **maa://24483 (50.0)</t>
         </is>
       </c>
       <c r="E106" s="3" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="D108" s="12" t="inlineStr">
         <is>
-          <t>maa://25018 (95.89), maa://25776 (90.91), maa://28361 (96.88), maa://25772 (93.18), *maa://25161 (80.0), maa://32653 (85.71), *maa://45194 (80.0)</t>
+          <t>maa://25018 (95.94), maa://25776 (90.91), maa://28361 (96.88), maa://25772 (93.33), *maa://25161 (80.0), maa://32653 (85.71), *maa://45194 (80.0)</t>
         </is>
       </c>
       <c r="E108" s="3" t="inlineStr">
@@ -3904,7 +3904,7 @@
       </c>
       <c r="D113" s="12" t="inlineStr">
         <is>
-          <t>maa://29037 (97.87)</t>
+          <t>maa://29037 (97.92)</t>
         </is>
       </c>
       <c r="E113" s="3" t="inlineStr">
@@ -3958,7 +3958,7 @@
       </c>
       <c r="D115" s="12" t="inlineStr">
         <is>
-          <t>maa://20908 (98.44), maa://35723 (95.12), *maa://23346 (77.78), maa://38822 (100.0)</t>
+          <t>maa://20908 (98.16), maa://35723 (95.12), *maa://23346 (77.78), maa://38822 (100.0)</t>
         </is>
       </c>
       <c r="E115" s="3" t="inlineStr">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="D122" s="12" t="inlineStr">
         <is>
-          <t>maa://29650 (97.83), maa://45570 (100.0)</t>
+          <t>maa://29650 (97.87), maa://45570 (100.0)</t>
         </is>
       </c>
       <c r="E122" s="3" t="inlineStr">
@@ -4363,7 +4363,7 @@
       </c>
       <c r="D130" s="12" t="inlineStr">
         <is>
-          <t>maa://21422 (98.67)</t>
+          <t>maa://21422 (98.68)</t>
         </is>
       </c>
       <c r="E130" s="3" t="inlineStr">
@@ -4417,7 +4417,7 @@
       </c>
       <c r="D132" s="12" t="inlineStr">
         <is>
-          <t>maa://23019 (100.0), maa://40517 (94.44), maa://20837 (100.0), maa://37113 (100.0), maa://37666 (85.71), maa://41686 (100.0)</t>
+          <t>maa://23019 (100.0), maa://40517 (94.74), maa://20837 (100.0), maa://37113 (100.0), maa://37666 (87.5), maa://41686 (100.0)</t>
         </is>
       </c>
       <c r="E132" s="3" t="inlineStr">
@@ -4687,7 +4687,7 @@
       </c>
       <c r="D142" s="12" t="inlineStr">
         <is>
-          <t>maa://28484 (96.88), **maa://23736 (42.42), *maa://31185 (80.0), maa://30306 (100.0)</t>
+          <t>maa://28484 (96.91), **maa://23736 (42.42), *maa://31185 (80.0), maa://30306 (100.0)</t>
         </is>
       </c>
       <c r="E142" s="3" t="inlineStr">
@@ -4714,7 +4714,7 @@
       </c>
       <c r="D143" s="12" t="inlineStr">
         <is>
-          <t>maa://30670 (96.77), maa://31470 (96.0), *maa://45066 (66.67), ***maa://30867 (25.0)</t>
+          <t>maa://30670 (96.77), maa://31470 (96.15), *maa://45066 (66.67), ***maa://30867 (25.0)</t>
         </is>
       </c>
       <c r="E143" s="3" t="inlineStr">
@@ -4876,7 +4876,7 @@
       </c>
       <c r="D149" s="12" t="inlineStr">
         <is>
-          <t>maa://36641 (98.17), maa://36865 (96.27), maa://42918 (100.0), maa://44119 (97.22), maa://37300 (100.0), maa://46108 (100.0), maa://42917 (100.0)</t>
+          <t>maa://36641 (98.18), maa://36865 (96.27), maa://42918 (100.0), maa://44119 (97.22), maa://37300 (100.0), maa://46108 (100.0), maa://42917 (100.0)</t>
         </is>
       </c>
       <c r="E149" s="3" t="inlineStr">
@@ -5119,7 +5119,7 @@
       </c>
       <c r="D158" s="12" t="inlineStr">
         <is>
-          <t>maa://44232 (99.29), maa://44305 (100.0), maa://45603 (94.74)</t>
+          <t>maa://44232 (99.3), maa://44305 (100.0), maa://45603 (94.74)</t>
         </is>
       </c>
       <c r="E158" s="3" t="inlineStr">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="D166" s="12" t="inlineStr">
         <is>
-          <t>maa://29633 (93.94), maa://29627 (92.78), maa://29659 (83.87), maa://29861 (100.0)</t>
+          <t>maa://29633 (94.01), maa://29627 (92.86), maa://29659 (83.87), maa://29861 (100.0)</t>
         </is>
       </c>
       <c r="E166" s="3" t="inlineStr">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="D194" s="12" t="inlineStr">
         <is>
-          <t>maa://44224 (87.65), *maa://35854 (76.6), maa://25760 (85.57), **maa://20872 (50.0), ***maa://43911 (14.29)</t>
+          <t>maa://44224 (87.64), *maa://35854 (77.08), maa://25760 (85.57), **maa://20872 (50.0), ***maa://43911 (14.29)</t>
         </is>
       </c>
       <c r="E194" s="3" t="inlineStr">
@@ -6118,7 +6118,7 @@
       </c>
       <c r="D195" s="12" t="inlineStr">
         <is>
-          <t>maa://39156 (92.45), *maa://39550 (60.0)</t>
+          <t>maa://39156 (93.1), *maa://39550 (56.25)</t>
         </is>
       </c>
       <c r="E195" s="3" t="inlineStr">
@@ -6145,7 +6145,7 @@
       </c>
       <c r="D196" s="12" t="inlineStr">
         <is>
-          <t>maa://27823 (82.26), *maa://28190 (59.38), maa://22894 (90.91), *maa://20906 (72.22), **maa://20907 (35.48)</t>
+          <t>maa://27823 (82.54), *maa://28190 (59.38), maa://22894 (90.91), *maa://20906 (72.22), **maa://20907 (35.48)</t>
         </is>
       </c>
       <c r="E196" s="3" t="inlineStr">
@@ -6172,7 +6172,7 @@
       </c>
       <c r="D197" s="12" t="inlineStr">
         <is>
-          <t>maa://27823 (82.26), *maa://28190 (59.38), maa://22894 (90.91), *maa://20906 (72.22), **maa://20907 (35.48)</t>
+          <t>maa://27823 (82.54), *maa://28190 (59.38), maa://22894 (90.91), *maa://20906 (72.22), **maa://20907 (35.48)</t>
         </is>
       </c>
       <c r="E197" s="3" t="inlineStr">
@@ -6199,7 +6199,7 @@
       </c>
       <c r="D198" s="12" t="inlineStr">
         <is>
-          <t>maa://42223 (99.47), maa://42292 (96.67), maa://42402 (100.0)</t>
+          <t>maa://42223 (99.48), maa://42292 (96.67), maa://42402 (100.0)</t>
         </is>
       </c>
       <c r="E198" s="3" t="inlineStr">
@@ -6847,7 +6847,7 @@
       </c>
       <c r="D222" s="12" t="inlineStr">
         <is>
-          <t>maa://20987 (92.11), *maa://35801 (77.78)</t>
+          <t>maa://20987 (92.21), *maa://35801 (77.78)</t>
         </is>
       </c>
       <c r="E222" s="3" t="inlineStr">
@@ -6874,7 +6874,7 @@
       </c>
       <c r="D223" s="12" t="inlineStr">
         <is>
-          <t>maa://39159 (94.74)</t>
+          <t>maa://39159 (95.0)</t>
         </is>
       </c>
       <c r="E223" s="3" t="inlineStr">
@@ -7171,7 +7171,7 @@
       </c>
       <c r="D234" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (77.51), maa://30666 (83.73), *maa://26836 (78.34), maa://37607 (94.14), **maa://30739 (44.44), *maa://34428 (69.89), *maa://30723 (54.39), maa://39588 (88.64), *maa://37850 (75.0)</t>
+          <t>*maa://30667 (77.57), maa://30666 (83.73), *maa://26836 (78.34), maa://37607 (94.16), **maa://30739 (44.44), *maa://34428 (69.89), *maa://30723 (54.39), maa://39588 (88.64), *maa://37850 (75.0)</t>
         </is>
       </c>
       <c r="E234" s="3" t="inlineStr">
@@ -7279,7 +7279,7 @@
       </c>
       <c r="D238" s="12" t="inlineStr">
         <is>
-          <t>maa://20867 (92.86), maa://38485 (90.91), *maa://32202 (80.0)</t>
+          <t>maa://20867 (92.86), maa://38485 (91.67), *maa://32202 (80.0)</t>
         </is>
       </c>
       <c r="E238" s="3" t="inlineStr">
@@ -7387,7 +7387,7 @@
       </c>
       <c r="D242" s="12" t="inlineStr">
         <is>
-          <t>maa://28923 (91.18), maa://28906 (97.96), ***maa://28825 (12.0)</t>
+          <t>maa://28923 (91.23), maa://28906 (97.96), ***maa://28825 (12.0)</t>
         </is>
       </c>
       <c r="E242" s="3" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="D249" s="12" t="inlineStr">
         <is>
-          <t>maa://20877 (98.39), maa://20836 (100.0), *maa://45067 (66.67), maa://20632 (100.0)</t>
+          <t>maa://20877 (98.44), maa://20836 (100.0), *maa://45067 (66.67), maa://20632 (100.0)</t>
         </is>
       </c>
       <c r="E249" s="3" t="inlineStr">
@@ -7927,7 +7927,7 @@
       </c>
       <c r="D262" s="12" t="inlineStr">
         <is>
-          <t>maa://27794 (100.0), *maa://20862 (75.0), maa://45572 (100.0)</t>
+          <t>maa://27794 (100.0), maa://45572 (100.0), *maa://20862 (75.0)</t>
         </is>
       </c>
       <c r="E262" s="3" t="inlineStr">
@@ -8278,7 +8278,7 @@
       </c>
       <c r="D275" s="12" t="inlineStr">
         <is>
-          <t>maa://20899 (89.31), **maa://44744 (33.33), maa://46332 (100.0)</t>
+          <t>maa://20899 (89.31), ***maa://44744 (25.0), maa://46332 (100.0)</t>
         </is>
       </c>
       <c r="E275" s="3" t="inlineStr">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="D277" s="12" t="inlineStr">
         <is>
-          <t>maa://30710 (97.52), maa://36845 (95.45), maa://31558 (97.06), **maa://39217 (37.5), maa://30668 (85.19)</t>
+          <t>maa://30710 (97.54), maa://36845 (95.5), maa://31558 (97.06), **maa://39217 (37.5), maa://30668 (85.19)</t>
         </is>
       </c>
       <c r="E277" s="3" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="D281" s="19" t="inlineStr">
         <is>
-          <t>**maa://45842 (45.45)</t>
+          <t>**maa://45842 (40.0)</t>
         </is>
       </c>
       <c r="E281" s="20" t="inlineStr">
@@ -8818,7 +8818,7 @@
       </c>
       <c r="D295" s="12" t="inlineStr">
         <is>
-          <t>maa://35859 (97.1)</t>
+          <t>maa://35859 (97.14)</t>
         </is>
       </c>
       <c r="E295" s="3" t="inlineStr">
@@ -8953,7 +8953,7 @@
       </c>
       <c r="D300" s="12" t="inlineStr">
         <is>
-          <t>maa://25367 (99.16)</t>
+          <t>maa://25367 (99.17)</t>
         </is>
       </c>
       <c r="E300" s="3" t="inlineStr">
@@ -9439,7 +9439,7 @@
       </c>
       <c r="D318" s="12" t="inlineStr">
         <is>
-          <t>maa://42968 (98.95)</t>
+          <t>maa://42968 (98.96)</t>
         </is>
       </c>
       <c r="E318" s="3" t="inlineStr">
@@ -9520,7 +9520,7 @@
       </c>
       <c r="D321" s="12" t="inlineStr">
         <is>
-          <t>maa://30671 (81.82), maa://30669 (98.95), maa://37275 (81.58), *maa://32410 (66.67), maa://41605 (100.0), maa://33671 (100.0)</t>
+          <t>maa://30671 (81.82), maa://30669 (98.96), maa://37275 (81.58), *maa://32410 (66.67), maa://41605 (100.0), maa://33671 (100.0)</t>
         </is>
       </c>
       <c r="E321" s="3" t="inlineStr">
@@ -9547,7 +9547,7 @@
       </c>
       <c r="D322" s="12" t="inlineStr">
         <is>
-          <t>maa://38295 (95.83)</t>
+          <t>maa://38295 (95.89)</t>
         </is>
       </c>
       <c r="E322" s="3" t="inlineStr">
@@ -9682,7 +9682,7 @@
       </c>
       <c r="D327" s="12" t="inlineStr">
         <is>
-          <t>maa://32647 (97.6), maa://32415 (96.3), maa://34677 (100.0), maa://32892 (100.0)</t>
+          <t>maa://32647 (97.63), maa://32415 (96.3), maa://34677 (100.0), maa://32892 (100.0)</t>
         </is>
       </c>
       <c r="E327" s="3" t="inlineStr">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="D332" s="14" t="inlineStr">
         <is>
-          <t>maa://34865 (97.34), maa://34717 (93.75), *maa://45066 (66.67)</t>
+          <t>maa://34865 (97.35), maa://34717 (93.75), *maa://45066 (66.67)</t>
         </is>
       </c>
       <c r="E332" s="14" t="inlineStr">
@@ -9979,7 +9979,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>maa://42299 (97.06), *maa://42224 (57.14)</t>
+          <t>maa://42299 (97.06), *maa://42224 (62.5)</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
@@ -10006,7 +10006,7 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>maa://36646 (98.53), maa://36845 (95.45), **maa://39217 (37.5)</t>
+          <t>maa://36646 (98.54), maa://36845 (95.5), **maa://39217 (37.5)</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
@@ -10033,7 +10033,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>maa://36645 (97.98), maa://36841 (94.92), maa://37484 (93.62), maa://37858 (91.67)</t>
+          <t>maa://36645 (97.99), maa://36841 (94.92), maa://37484 (93.62), maa://37858 (91.67)</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -10060,7 +10060,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>maa://42635 (95.83)</t>
+          <t>maa://42635 (96.0)</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
@@ -10141,7 +10141,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>maa://40957 (88.74), maa://44635 (88.89), maa://41035 (90.2), maa://41128 (82.86), maa://44660 (91.18)</t>
+          <t>maa://40957 (88.74), maa://44635 (89.04), maa://41035 (90.2), maa://41128 (82.86), maa://44660 (91.43)</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
@@ -10330,7 +10330,7 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>maa://41110 (97.67), maa://45605 (100.0)</t>
+          <t>maa://41110 (97.7), maa://45605 (100.0)</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
@@ -10411,7 +10411,7 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>maa://44233 (93.55)</t>
+          <t>maa://44233 (93.75)</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
@@ -10514,12 +10514,12 @@
       </c>
       <c r="C358" s="13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>maa://42970 (88.61), maa://44745 (95.0), maa://45952 (100.0), maa://44896 (100.0)</t>
+          <t>maa://42970 (88.29), maa://44745 (95.24), maa://45952 (100.0), maa://44896 (100.0), maa://46851 (100.0)</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -485,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB361"/>
+  <dimension ref="A1:AB362"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2025.02.14 13:17:46</t>
+          <t>更新日期：2025.02.15 13:17:50</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>maa://20863 (87.5), maa://20832 (98.84), maa://20727 (100.0)</t>
+          <t>maa://20863 (87.11), maa://20832 (98.86), maa://20727 (100.0)</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="D32" s="12" t="inlineStr">
         <is>
-          <t>maa://36644 (87.5), maa://36866 (97.62), maa://27794 (100.0), maa://45572 (100.0)</t>
+          <t>maa://36644 (87.5), maa://36866 (97.67), maa://27794 (100.0), maa://45572 (100.0)</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="D41" s="12" t="inlineStr">
         <is>
-          <t>*maa://20892 (78.67)</t>
+          <t>*maa://20892 (78.95)</t>
         </is>
       </c>
       <c r="E41" s="3" t="inlineStr">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="D59" s="12" t="inlineStr">
         <is>
-          <t>maa://27970 (98.44), *maa://41118 (80.0)</t>
+          <t>maa://27970 (98.46), *maa://41118 (80.0)</t>
         </is>
       </c>
       <c r="E59" s="3" t="inlineStr">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="D69" s="12" t="inlineStr">
         <is>
-          <t>maa://28784 (94.09), maa://29088 (91.71), maa://20974 (95.83), maa://31124 (96.61), maa://28950 (92.0), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (80.0), **maa://42200 (50.0), maa://41832 (85.71)</t>
+          <t>maa://28784 (94.1), maa://29088 (91.71), maa://20974 (95.89), maa://31124 (96.63), maa://28950 (92.0), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (80.0), **maa://42200 (50.0), maa://41832 (85.71)</t>
         </is>
       </c>
       <c r="E69" s="3" t="inlineStr">
@@ -2797,7 +2797,7 @@
       </c>
       <c r="D72" s="12" t="inlineStr">
         <is>
-          <t>maa://36643 (97.62), maa://36864 (97.56), maa://39140 (100.0)</t>
+          <t>maa://36643 (97.63), maa://36864 (97.59), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E72" s="3" t="inlineStr">
@@ -3904,7 +3904,7 @@
       </c>
       <c r="D113" s="12" t="inlineStr">
         <is>
-          <t>maa://29037 (97.92)</t>
+          <t>maa://29037 (97.96)</t>
         </is>
       </c>
       <c r="E113" s="3" t="inlineStr">
@@ -3958,7 +3958,7 @@
       </c>
       <c r="D115" s="12" t="inlineStr">
         <is>
-          <t>maa://20908 (98.16), maa://35723 (95.12), *maa://23346 (77.78), maa://38822 (100.0)</t>
+          <t>maa://20908 (98.17), maa://35723 (95.12), *maa://23346 (77.78), maa://38822 (100.0)</t>
         </is>
       </c>
       <c r="E115" s="3" t="inlineStr">
@@ -4687,7 +4687,7 @@
       </c>
       <c r="D142" s="12" t="inlineStr">
         <is>
-          <t>maa://28484 (96.91), **maa://23736 (42.42), *maa://31185 (80.0), maa://30306 (100.0)</t>
+          <t>maa://28484 (96.94), **maa://23736 (42.42), *maa://31185 (80.0), maa://30306 (100.0)</t>
         </is>
       </c>
       <c r="E142" s="3" t="inlineStr">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="D166" s="12" t="inlineStr">
         <is>
-          <t>maa://29633 (94.01), maa://29627 (92.86), maa://29659 (83.87), maa://29861 (100.0)</t>
+          <t>maa://29633 (93.66), maa://29627 (92.86), maa://29659 (83.87), maa://29861 (100.0)</t>
         </is>
       </c>
       <c r="E166" s="3" t="inlineStr">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="D194" s="12" t="inlineStr">
         <is>
-          <t>maa://44224 (87.64), *maa://35854 (77.08), maa://25760 (85.57), **maa://20872 (50.0), ***maa://43911 (14.29)</t>
+          <t>maa://44224 (87.5), *maa://35854 (77.08), maa://25760 (85.57), **maa://20872 (50.0), ***maa://43911 (13.33)</t>
         </is>
       </c>
       <c r="E194" s="3" t="inlineStr">
@@ -6118,7 +6118,7 @@
       </c>
       <c r="D195" s="12" t="inlineStr">
         <is>
-          <t>maa://39156 (93.1), *maa://39550 (56.25)</t>
+          <t>maa://39156 (93.44), *maa://39550 (56.25)</t>
         </is>
       </c>
       <c r="E195" s="3" t="inlineStr">
@@ -7117,7 +7117,7 @@
       </c>
       <c r="D232" s="12" t="inlineStr">
         <is>
-          <t>maa://20922 (92.86), *maa://32623 (66.67), *maa://34242 (80.0), maa://34900 (84.62)</t>
+          <t>maa://20922 (92.86), *maa://32623 (68.75), *maa://34242 (80.0), maa://34900 (84.62)</t>
         </is>
       </c>
       <c r="E232" s="3" t="inlineStr">
@@ -7171,7 +7171,7 @@
       </c>
       <c r="D234" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (77.57), maa://30666 (83.73), *maa://26836 (78.34), maa://37607 (94.16), **maa://30739 (44.44), *maa://34428 (69.89), *maa://30723 (54.39), maa://39588 (88.64), *maa://37850 (75.0)</t>
+          <t>*maa://30667 (77.57), maa://30666 (83.73), *maa://26836 (78.34), maa://37607 (94.18), **maa://30739 (44.44), *maa://34428 (69.89), *maa://30723 (54.39), maa://39588 (88.64), *maa://37850 (75.0)</t>
         </is>
       </c>
       <c r="E234" s="3" t="inlineStr">
@@ -8818,7 +8818,7 @@
       </c>
       <c r="D295" s="12" t="inlineStr">
         <is>
-          <t>maa://35859 (97.14)</t>
+          <t>maa://35859 (97.18)</t>
         </is>
       </c>
       <c r="E295" s="3" t="inlineStr">
@@ -9115,7 +9115,7 @@
       </c>
       <c r="D306" s="12" t="inlineStr">
         <is>
-          <t>maa://39692 (99.74), maa://39810 (82.35)</t>
+          <t>maa://39692 (99.75), maa://39810 (82.35)</t>
         </is>
       </c>
       <c r="E306" s="3" t="inlineStr">
@@ -9412,7 +9412,7 @@
       </c>
       <c r="D317" s="12" t="inlineStr">
         <is>
-          <t>maa://44234 (98.31)</t>
+          <t>maa://44234 (98.36)</t>
         </is>
       </c>
       <c r="E317" s="3" t="inlineStr">
@@ -9547,7 +9547,7 @@
       </c>
       <c r="D322" s="12" t="inlineStr">
         <is>
-          <t>maa://38295 (95.89)</t>
+          <t>maa://38295 (95.95)</t>
         </is>
       </c>
       <c r="E322" s="3" t="inlineStr">
@@ -9682,7 +9682,7 @@
       </c>
       <c r="D327" s="12" t="inlineStr">
         <is>
-          <t>maa://32647 (97.63), maa://32415 (96.3), maa://34677 (100.0), maa://32892 (100.0)</t>
+          <t>maa://32647 (97.64), maa://32415 (96.3), maa://34677 (100.0), maa://32892 (100.0)</t>
         </is>
       </c>
       <c r="E327" s="3" t="inlineStr">
@@ -9925,7 +9925,7 @@
       </c>
       <c r="D336" s="14" t="inlineStr">
         <is>
-          <t>maa://36868 (100.0), maa://35996 (95.92), **maa://39217 (37.5)</t>
+          <t>maa://36868 (100.0), maa://35996 (96.0), **maa://39217 (37.5)</t>
         </is>
       </c>
       <c r="E336" s="14" t="inlineStr">
@@ -10141,7 +10141,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>maa://40957 (88.74), maa://44635 (89.04), maa://41035 (90.2), maa://41128 (82.86), maa://44660 (91.43)</t>
+          <t>maa://40957 (88.79), maa://44635 (88.16), maa://41035 (90.2), maa://41128 (82.86), maa://44660 (91.43)</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
@@ -10519,7 +10519,7 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>maa://42970 (88.29), maa://44745 (95.24), maa://45952 (100.0), maa://44896 (100.0), maa://46851 (100.0)</t>
+          <t>maa://42970 (88.35), maa://44745 (95.24), maa://45952 (100.0), maa://44896 (100.0), **maa://46851 (50.0)</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
@@ -10585,27 +10585,54 @@
     <row r="361">
       <c r="A361" s="13" t="inlineStr">
         <is>
-          <t>行箸</t>
+          <t>诺威尔</t>
         </is>
       </c>
       <c r="B361" s="13" t="inlineStr">
         <is>
-          <t>3-2</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="C361" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>maa://45807 (100.0)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>&gt; 使用非助战行箸累计使用8次食不厌精&gt; 3星通关主题曲3-2，编入非助战行箸且所有干员不能被击倒</t>
+          <t>&gt; 完成5次战斗；必须编入非助战诺威尔并上场，且每次战斗至少释放1次生命不息&gt; 3星通关主题曲5-7；必须编入非助战诺威尔并上场，且队伍中不能有其他医疗干员</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="13" t="inlineStr">
+        <is>
+          <t>隐德来希</t>
+        </is>
+      </c>
+      <c r="B362" s="13" t="inlineStr">
+        <is>
+          <t>10-12</t>
+        </is>
+      </c>
+      <c r="C362" s="13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>maa://47023 (100.0)</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>&gt; 使用非助战隐德来希累计造成100000点伤害&gt; 3星通关主题曲10-12标准实战环境；必须编入非助战隐德来希并上场，且隐德来希至少使用3次灵与欲的惜别</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2025.02.15 13:17:50</t>
+          <t>更新日期：2025.02.15 19:34:59</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -1478,27 +1478,27 @@
       <c r="AB25" s="11" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="17" t="inlineStr">
+      <c r="A26" s="16" t="inlineStr">
         <is>
           <t>阿消</t>
         </is>
       </c>
-      <c r="B26" s="17" t="inlineStr">
+      <c r="B26" s="16" t="inlineStr">
         <is>
           <t>2-8</t>
         </is>
       </c>
-      <c r="C26" s="18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D26" s="19" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E26" s="20" t="inlineStr">
+      <c r="C26" s="13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D26" s="12" t="inlineStr">
+        <is>
+          <t>**maa://45081 (50.0)</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="inlineStr">
         <is>
           <t>&gt; 完成5次战斗；必须编入非助战阿消，且每次战斗至少使2名敌人坠落地穴&gt; 3星通关主题曲2-8；必须编入非助战阿消，且本场战斗至少使2个磐蟹坠落地穴</t>
         </is>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="D56" s="12" t="inlineStr">
         <is>
-          <t>maa://44235 (96.67), maa://45604 (100.0)</t>
+          <t>maa://44235 (96.7), maa://45604 (100.0)</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="D60" s="12" t="inlineStr">
         <is>
-          <t>maa://38298 (87.1)</t>
+          <t>maa://38298 (87.3)</t>
         </is>
       </c>
       <c r="E60" s="3" t="inlineStr">
@@ -2689,7 +2689,7 @@
       </c>
       <c r="D68" s="12" t="inlineStr">
         <is>
-          <t>maa://20976 (97.5), maa://20815 (100.0)</t>
+          <t>maa://20976 (97.51), maa://20815 (100.0)</t>
         </is>
       </c>
       <c r="E68" s="3" t="inlineStr">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="D88" s="12" t="inlineStr">
         <is>
-          <t>maa://24472 (86.93), *maa://35841 (58.33)</t>
+          <t>maa://24472 (87.01), *maa://35841 (58.33)</t>
         </is>
       </c>
       <c r="E88" s="3" t="inlineStr">
@@ -3283,7 +3283,7 @@
       </c>
       <c r="D90" s="12" t="inlineStr">
         <is>
-          <t>*maa://28190 (59.38), maa://20880 (91.67)</t>
+          <t>*maa://28190 (59.38), maa://20880 (92.0)</t>
         </is>
       </c>
       <c r="E90" s="3" t="inlineStr">
@@ -3845,12 +3845,12 @@
       </c>
       <c r="C111" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D111" s="12" t="inlineStr">
         <is>
-          <t>*maa://28554 (77.27)</t>
+          <t>*maa://28554 (77.27), **maa://45081 (50.0)</t>
         </is>
       </c>
       <c r="E111" s="3" t="inlineStr">
@@ -3958,7 +3958,7 @@
       </c>
       <c r="D115" s="12" t="inlineStr">
         <is>
-          <t>maa://20908 (98.17), maa://35723 (95.12), *maa://23346 (77.78), maa://38822 (100.0)</t>
+          <t>maa://20908 (98.18), maa://35723 (95.12), *maa://23346 (77.78), maa://38822 (100.0)</t>
         </is>
       </c>
       <c r="E115" s="3" t="inlineStr">
@@ -4714,7 +4714,7 @@
       </c>
       <c r="D143" s="12" t="inlineStr">
         <is>
-          <t>maa://30670 (96.77), maa://31470 (96.15), *maa://45066 (66.67), ***maa://30867 (25.0)</t>
+          <t>maa://30670 (96.8), maa://31470 (96.15), *maa://45066 (66.67), ***maa://30867 (25.0)</t>
         </is>
       </c>
       <c r="E143" s="3" t="inlineStr">
@@ -4876,7 +4876,7 @@
       </c>
       <c r="D149" s="12" t="inlineStr">
         <is>
-          <t>maa://36641 (98.18), maa://36865 (96.27), maa://42918 (100.0), maa://44119 (97.22), maa://37300 (100.0), maa://46108 (100.0), maa://42917 (100.0)</t>
+          <t>maa://36641 (98.18), maa://36865 (96.27), maa://42918 (100.0), maa://44119 (97.3), maa://37300 (100.0), maa://46108 (100.0), maa://42917 (100.0)</t>
         </is>
       </c>
       <c r="E149" s="3" t="inlineStr">
@@ -5119,7 +5119,7 @@
       </c>
       <c r="D158" s="12" t="inlineStr">
         <is>
-          <t>maa://44232 (99.3), maa://44305 (100.0), maa://45603 (94.74)</t>
+          <t>maa://44232 (99.3), maa://44305 (100.0), maa://45603 (95.0)</t>
         </is>
       </c>
       <c r="E158" s="3" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="D172" s="12" t="inlineStr">
         <is>
-          <t>maa://32418 (99.61)</t>
+          <t>maa://32418 (99.62)</t>
         </is>
       </c>
       <c r="E172" s="3" t="inlineStr">
@@ -7522,7 +7522,7 @@
       </c>
       <c r="D247" s="12" t="inlineStr">
         <is>
-          <t>*maa://40958 (78.57), *maa://45067 (66.67)</t>
+          <t>*maa://40958 (80.0), *maa://45067 (66.67)</t>
         </is>
       </c>
       <c r="E247" s="3" t="inlineStr">
@@ -8818,7 +8818,7 @@
       </c>
       <c r="D295" s="12" t="inlineStr">
         <is>
-          <t>maa://35859 (97.18)</t>
+          <t>maa://35859 (97.26)</t>
         </is>
       </c>
       <c r="E295" s="3" t="inlineStr">
@@ -8953,7 +8953,7 @@
       </c>
       <c r="D300" s="12" t="inlineStr">
         <is>
-          <t>maa://25367 (99.17)</t>
+          <t>maa://25367 (99.18)</t>
         </is>
       </c>
       <c r="E300" s="3" t="inlineStr">
@@ -9196,7 +9196,7 @@
       </c>
       <c r="D309" s="12" t="inlineStr">
         <is>
-          <t>maa://34867 (97.22), maa://34715 (100.0)</t>
+          <t>maa://34867 (97.3), maa://34715 (100.0)</t>
         </is>
       </c>
       <c r="E309" s="3" t="inlineStr">
@@ -9682,7 +9682,7 @@
       </c>
       <c r="D327" s="12" t="inlineStr">
         <is>
-          <t>maa://32647 (97.64), maa://32415 (96.3), maa://34677 (100.0), maa://32892 (100.0)</t>
+          <t>maa://32647 (97.64), maa://32415 (96.32), maa://34677 (100.0), maa://32892 (100.0)</t>
         </is>
       </c>
       <c r="E327" s="3" t="inlineStr">
@@ -9925,7 +9925,7 @@
       </c>
       <c r="D336" s="14" t="inlineStr">
         <is>
-          <t>maa://36868 (100.0), maa://35996 (96.0), **maa://39217 (37.5)</t>
+          <t>maa://36868 (100.0), maa://35996 (96.08), **maa://39217 (37.5)</t>
         </is>
       </c>
       <c r="E336" s="14" t="inlineStr">
@@ -10595,12 +10595,12 @@
       </c>
       <c r="C361" s="13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://47175 (100.0), maa://47174 (100.0)</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2025.02.15 19:34:59</t>
+          <t>更新日期：2025.02.16 13:17:39</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>maa://20863 (87.11), maa://20832 (98.86), maa://20727 (100.0)</t>
+          <t>maa://20863 (87.18), maa://20832 (98.86), maa://20727 (100.0)</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="D56" s="12" t="inlineStr">
         <is>
-          <t>maa://44235 (96.7), maa://45604 (100.0)</t>
+          <t>maa://44235 (96.77), maa://45604 (100.0)</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="D60" s="12" t="inlineStr">
         <is>
-          <t>maa://38298 (87.3)</t>
+          <t>maa://38298 (86.57)</t>
         </is>
       </c>
       <c r="E60" s="3" t="inlineStr">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="D69" s="12" t="inlineStr">
         <is>
-          <t>maa://28784 (94.1), maa://29088 (91.71), maa://20974 (95.89), maa://31124 (96.63), maa://28950 (92.0), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (80.0), **maa://42200 (50.0), maa://41832 (85.71)</t>
+          <t>maa://28784 (94.1), maa://29088 (91.71), maa://20974 (95.89), maa://31124 (96.65), maa://28950 (92.0), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (80.0), **maa://42200 (50.0), maa://41832 (85.71)</t>
         </is>
       </c>
       <c r="E69" s="3" t="inlineStr">
@@ -2797,7 +2797,7 @@
       </c>
       <c r="D72" s="12" t="inlineStr">
         <is>
-          <t>maa://36643 (97.63), maa://36864 (97.59), maa://39140 (100.0)</t>
+          <t>maa://36643 (97.64), maa://36864 (97.59), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E72" s="3" t="inlineStr">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="D88" s="12" t="inlineStr">
         <is>
-          <t>maa://24472 (87.01), *maa://35841 (58.33)</t>
+          <t>maa://24472 (87.08), *maa://35841 (58.33)</t>
         </is>
       </c>
       <c r="E88" s="3" t="inlineStr">
@@ -3607,7 +3607,7 @@
       </c>
       <c r="D102" s="12" t="inlineStr">
         <is>
-          <t>maa://40517 (94.74), *maa://39240 (57.14)</t>
+          <t>maa://40517 (95.0), *maa://39240 (57.14)</t>
         </is>
       </c>
       <c r="E102" s="3" t="inlineStr">
@@ -3958,7 +3958,7 @@
       </c>
       <c r="D115" s="12" t="inlineStr">
         <is>
-          <t>maa://20908 (98.18), maa://35723 (95.12), *maa://23346 (77.78), maa://38822 (100.0)</t>
+          <t>maa://20908 (98.19), maa://35723 (95.12), *maa://23346 (77.78), maa://38822 (100.0)</t>
         </is>
       </c>
       <c r="E115" s="3" t="inlineStr">
@@ -3985,7 +3985,7 @@
       </c>
       <c r="D116" s="12" t="inlineStr">
         <is>
-          <t>maa://29659 (83.87), maa://29031 (86.67)</t>
+          <t>maa://29659 (83.87), maa://29031 (87.1)</t>
         </is>
       </c>
       <c r="E116" s="3" t="inlineStr">
@@ -4363,7 +4363,7 @@
       </c>
       <c r="D130" s="12" t="inlineStr">
         <is>
-          <t>maa://21422 (98.68)</t>
+          <t>maa://21422 (98.71)</t>
         </is>
       </c>
       <c r="E130" s="3" t="inlineStr">
@@ -4417,7 +4417,7 @@
       </c>
       <c r="D132" s="12" t="inlineStr">
         <is>
-          <t>maa://23019 (100.0), maa://40517 (94.74), maa://20837 (100.0), maa://37113 (100.0), maa://37666 (87.5), maa://41686 (100.0)</t>
+          <t>maa://23019 (100.0), maa://40517 (95.0), maa://20837 (100.0), maa://37113 (100.0), maa://37666 (87.5), maa://41686 (100.0)</t>
         </is>
       </c>
       <c r="E132" s="3" t="inlineStr">
@@ -4687,7 +4687,7 @@
       </c>
       <c r="D142" s="12" t="inlineStr">
         <is>
-          <t>maa://28484 (96.94), **maa://23736 (42.42), *maa://31185 (80.0), maa://30306 (100.0)</t>
+          <t>maa://28484 (96.97), **maa://23736 (42.42), *maa://31185 (80.0), maa://30306 (100.0)</t>
         </is>
       </c>
       <c r="E142" s="3" t="inlineStr">
@@ -4714,7 +4714,7 @@
       </c>
       <c r="D143" s="12" t="inlineStr">
         <is>
-          <t>maa://30670 (96.8), maa://31470 (96.15), *maa://45066 (66.67), ***maa://30867 (25.0)</t>
+          <t>maa://30670 (96.83), maa://31470 (96.15), *maa://45066 (66.67), ***maa://30867 (25.0)</t>
         </is>
       </c>
       <c r="E143" s="3" t="inlineStr">
@@ -4876,7 +4876,7 @@
       </c>
       <c r="D149" s="12" t="inlineStr">
         <is>
-          <t>maa://36641 (98.18), maa://36865 (96.27), maa://42918 (100.0), maa://44119 (97.3), maa://37300 (100.0), maa://46108 (100.0), maa://42917 (100.0)</t>
+          <t>maa://36641 (98.18), maa://36865 (96.3), maa://42918 (100.0), maa://44119 (97.3), maa://37300 (100.0), maa://46108 (100.0), maa://42917 (100.0)</t>
         </is>
       </c>
       <c r="E149" s="3" t="inlineStr">
@@ -5119,7 +5119,7 @@
       </c>
       <c r="D158" s="12" t="inlineStr">
         <is>
-          <t>maa://44232 (99.3), maa://44305 (100.0), maa://45603 (95.0)</t>
+          <t>maa://44232 (99.31), maa://44305 (100.0), maa://45603 (95.0)</t>
         </is>
       </c>
       <c r="E158" s="3" t="inlineStr">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="D194" s="12" t="inlineStr">
         <is>
-          <t>maa://44224 (87.5), *maa://35854 (77.08), maa://25760 (85.57), **maa://20872 (50.0), ***maa://43911 (13.33)</t>
+          <t>maa://44224 (87.7), *maa://35854 (77.08), maa://25760 (85.57), **maa://20872 (50.0), ***maa://43911 (13.33)</t>
         </is>
       </c>
       <c r="E194" s="3" t="inlineStr">
@@ -6118,7 +6118,7 @@
       </c>
       <c r="D195" s="12" t="inlineStr">
         <is>
-          <t>maa://39156 (93.44), *maa://39550 (56.25)</t>
+          <t>maa://39156 (93.55), *maa://39550 (56.25)</t>
         </is>
       </c>
       <c r="E195" s="3" t="inlineStr">
@@ -6496,7 +6496,7 @@
       </c>
       <c r="D209" s="12" t="inlineStr">
         <is>
-          <t>maa://39238 (99.3)</t>
+          <t>maa://39238 (99.31)</t>
         </is>
       </c>
       <c r="E209" s="3" t="inlineStr">
@@ -6955,7 +6955,7 @@
       </c>
       <c r="D226" s="12" t="inlineStr">
         <is>
-          <t>maa://29058 (95.08), maa://39140 (100.0), maa://38723 (100.0)</t>
+          <t>maa://29058 (95.24), maa://39140 (100.0), maa://38723 (100.0)</t>
         </is>
       </c>
       <c r="E226" s="3" t="inlineStr">
@@ -7171,7 +7171,7 @@
       </c>
       <c r="D234" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (77.57), maa://30666 (83.73), *maa://26836 (78.34), maa://37607 (94.18), **maa://30739 (44.44), *maa://34428 (69.89), *maa://30723 (54.39), maa://39588 (88.64), *maa://37850 (75.0)</t>
+          <t>*maa://30667 (77.57), maa://30666 (83.73), *maa://26836 (78.34), maa://37607 (94.22), **maa://30739 (44.44), *maa://34428 (70.21), *maa://30723 (54.39), maa://39588 (88.64), *maa://37850 (75.0)</t>
         </is>
       </c>
       <c r="E234" s="3" t="inlineStr">
@@ -7603,7 +7603,7 @@
       </c>
       <c r="D250" s="12" t="inlineStr">
         <is>
-          <t>maa://20879 (84.31), maa://20834 (92.86)</t>
+          <t>maa://20879 (84.62), maa://20834 (92.86)</t>
         </is>
       </c>
       <c r="E250" s="3" t="inlineStr">
@@ -7684,7 +7684,7 @@
       </c>
       <c r="D253" s="12" t="inlineStr">
         <is>
-          <t>maa://31560 (85.71), maa://20884 (94.74)</t>
+          <t>maa://31560 (85.71), maa://20884 (95.0)</t>
         </is>
       </c>
       <c r="E253" s="3" t="inlineStr">
@@ -7694,27 +7694,27 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="17" t="inlineStr">
+      <c r="A254" s="16" t="inlineStr">
         <is>
           <t>黑键</t>
         </is>
       </c>
-      <c r="B254" s="17" t="inlineStr">
+      <c r="B254" s="16" t="inlineStr">
         <is>
           <t>3-6</t>
         </is>
       </c>
-      <c r="C254" s="18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D254" s="19" t="inlineStr">
-        <is>
-          <t>**maa://20883 (37.5)</t>
-        </is>
-      </c>
-      <c r="E254" s="20" t="inlineStr">
+      <c r="C254" s="13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D254" s="12" t="inlineStr">
+        <is>
+          <t>maa://47204 (100.0)</t>
+        </is>
+      </c>
+      <c r="E254" s="3" t="inlineStr">
         <is>
           <t>&gt; 完成5次战斗；必须编入非助战黑键并上场，且使用黑键歼灭至少6个敌人&gt; 3星通关主题曲3-6；必须编入非助战黑键并上场，且使用黑键歼灭屠宰老手</t>
         </is>
@@ -8467,7 +8467,7 @@
       </c>
       <c r="D282" s="12" t="inlineStr">
         <is>
-          <t>maa://32414 (98.64), maa://32505 (100.0), maa://39155 (96.15)</t>
+          <t>maa://32414 (98.64), maa://32505 (100.0), maa://39155 (96.3)</t>
         </is>
       </c>
       <c r="E282" s="3" t="inlineStr">
@@ -8548,7 +8548,7 @@
       </c>
       <c r="D285" s="12" t="inlineStr">
         <is>
-          <t>maa://36642 (100.0), maa://36867 (96.88), maa://39155 (96.15)</t>
+          <t>maa://36642 (100.0), maa://36867 (96.88), maa://39155 (96.3)</t>
         </is>
       </c>
       <c r="E285" s="3" t="inlineStr">
@@ -8818,7 +8818,7 @@
       </c>
       <c r="D295" s="12" t="inlineStr">
         <is>
-          <t>maa://35859 (97.26)</t>
+          <t>maa://35859 (97.33)</t>
         </is>
       </c>
       <c r="E295" s="3" t="inlineStr">
@@ -8953,7 +8953,7 @@
       </c>
       <c r="D300" s="12" t="inlineStr">
         <is>
-          <t>maa://25367 (99.18)</t>
+          <t>maa://25367 (99.19)</t>
         </is>
       </c>
       <c r="E300" s="3" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="D313" s="12" t="inlineStr">
         <is>
-          <t>maa://40956 (95.24)</t>
+          <t>maa://40956 (95.45)</t>
         </is>
       </c>
       <c r="E313" s="3" t="inlineStr">
@@ -9439,7 +9439,7 @@
       </c>
       <c r="D318" s="12" t="inlineStr">
         <is>
-          <t>maa://42968 (98.96)</t>
+          <t>maa://42968 (98.97)</t>
         </is>
       </c>
       <c r="E318" s="3" t="inlineStr">
@@ -9682,7 +9682,7 @@
       </c>
       <c r="D327" s="12" t="inlineStr">
         <is>
-          <t>maa://32647 (97.64), maa://32415 (96.32), maa://34677 (100.0), maa://32892 (100.0)</t>
+          <t>maa://32647 (97.64), maa://32415 (96.35), maa://34677 (100.0), maa://32892 (100.0)</t>
         </is>
       </c>
       <c r="E327" s="3" t="inlineStr">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="D332" s="14" t="inlineStr">
         <is>
-          <t>maa://34865 (97.35), maa://34717 (93.75), *maa://45066 (66.67)</t>
+          <t>maa://34865 (97.37), maa://34717 (93.75), *maa://45066 (66.67)</t>
         </is>
       </c>
       <c r="E332" s="14" t="inlineStr">
@@ -9925,7 +9925,7 @@
       </c>
       <c r="D336" s="14" t="inlineStr">
         <is>
-          <t>maa://36868 (100.0), maa://35996 (96.08), **maa://39217 (37.5)</t>
+          <t>maa://36868 (100.0), maa://35996 (96.15), **maa://39217 (37.5)</t>
         </is>
       </c>
       <c r="E336" s="14" t="inlineStr">
@@ -9979,7 +9979,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>maa://42299 (97.06), *maa://42224 (62.5)</t>
+          <t>maa://42299 (97.06), *maa://42224 (66.67)</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
@@ -10141,7 +10141,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>maa://40957 (88.79), maa://44635 (88.16), maa://41035 (90.2), maa://41128 (82.86), maa://44660 (91.43)</t>
+          <t>maa://40957 (88.79), maa://44635 (88.31), maa://41035 (90.2), maa://41128 (82.86), maa://44660 (91.43)</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
@@ -10519,7 +10519,7 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>maa://42970 (88.35), maa://44745 (95.24), maa://45952 (100.0), maa://44896 (100.0), **maa://46851 (50.0)</t>
+          <t>maa://42970 (88.41), maa://44745 (95.24), maa://45952 (100.0), maa://44896 (100.0), ***maa://46851 (25.0)</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">

--- a/Excel/模组任务干员名单作者版.xlsx
+++ b/Excel/模组任务干员名单作者版.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2025.02.16 13:17:39</t>
+          <t>更新日期：2025.02.22 13:17:25</t>
         </is>
       </c>
       <c r="E1" s="7" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="D6" s="12" t="inlineStr">
         <is>
-          <t>*maa://20925 (75.0)</t>
+          <t>*maa://20925 (77.78)</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="D26" s="12" t="inlineStr">
         <is>
-          <t>**maa://45081 (50.0)</t>
+          <t>*maa://45081 (66.67)</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="D27" s="12" t="inlineStr">
         <is>
-          <t>*maa://20849 (64.1), *maa://28758 (58.06), maa://29036 (95.0), *maa://42172 (66.67), maa://30285 (100.0)</t>
+          <t>*maa://20849 (64.1), *maa://28758 (60.61), maa://29036 (95.0), *maa://42172 (75.0), maa://30285 (100.0)</t>
         </is>
       </c>
       <c r="E27" s="3" t="inlineStr">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>maa://20863 (87.18), maa://20832 (98.86), maa://20727 (100.0)</t>
+          <t>maa://20863 (87.37), maa://20832 (98.86), maa://20727 (100.0)</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="D32" s="12" t="inlineStr">
         <is>
-          <t>maa://36644 (87.5), maa://36866 (97.67), maa://27794 (100.0), maa://45572 (100.0)</t>
+          <t>maa://36644 (87.66), maa://36866 (97.73), maa://27794 (100.0), maa://45572 (100.0)</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="D33" s="12" t="inlineStr">
         <is>
-          <t>maa://30500 (98.53), *maa://27290 (70.59), ***maa://42154 (10.0)</t>
+          <t>maa://30500 (98.55), *maa://27290 (70.59), ***maa://42154 (9.09)</t>
         </is>
       </c>
       <c r="E33" s="3" t="inlineStr">
@@ -1798,7 +1798,7 @@
       </c>
       <c r="D35" s="12" t="inlineStr">
         <is>
-          <t>maa://20847 (95.83)</t>
+          <t>maa://20847 (96.15)</t>
         </is>
       </c>
       <c r="E35" s="3" t="inlineStr">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="D37" s="12" t="inlineStr">
         <is>
-          <t>maa://27376 (91.89), *maa://20838 (52.94)</t>
+          <t>maa://27376 (92.11), *maa://20838 (52.94)</t>
         </is>
       </c>
       <c r="E37" s="3" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="D41" s="12" t="inlineStr">
         <is>
-          <t>*maa://20892 (78.95)</t>
+          <t>*maa://20892 (79.49)</t>
         </is>
       </c>
       <c r="E41" s="3" t="inlineStr">
@@ -2176,7 +2176,7 @@
       </c>
       <c r="D49" s="12" t="inlineStr">
         <is>
-          <t>*maa://32845 (63.64), *maa://20982 (66.67)</t>
+          <t>*maa://32845 (66.67), *maa://20982 (66.67)</t>
         </is>
       </c>
       <c r="E49" s="3" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="D56" s="12" t="inlineStr">
         <is>
-          <t>maa://44235 (96.77), maa://45604 (100.0)</t>
+          <t>maa://44235 (96.94), maa://45604 (100.0)</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="D59" s="12" t="inlineStr">
         <is>
-          <t>maa://27970 (98.46), *maa://41118 (80.0)</t>
+          <t>maa://27970 (98.48), maa://41118 (83.33)</t>
         </is>
       </c>
       <c r="E59" s="3" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="D60" s="12" t="inlineStr">
         <is>
-          <t>maa://38298 (86.57)</t>
+          <t>maa://38298 (85.33)</t>
         </is>
       </c>
       <c r="E60" s="3" t="inlineStr">
@@ -2581,7 +2581,7 @@
       </c>
       <c r="D64" s="12" t="inlineStr">
         <is>
-          <t>maa://28187 (97.14), maa://33504 (100.0), maa://45144 (100.0), maa://39520 (100.0), maa://43531 (100.0)</t>
+          <t>maa://28187 (97.14), maa://33504 (100.0), maa://45144 (100.0), maa://43531 (100.0), maa://39520 (100.0)</t>
         </is>
       </c>
       <c r="E64" s="3" t="inlineStr">
@@ -2608,7 +2608,7 @@
       </c>
       <c r="D65" s="12" t="inlineStr">
         <is>
-          <t>maa://28567 (97.92), **maa://20947 (44.12), maa://30525 (100.0), *maa://28188 (66.67), maa://38735 (100.0), maa://30524 (100.0)</t>
+          <t>maa://28567 (97.92), **maa://20947 (44.12), maa://30525 (100.0), maa://38735 (100.0), *maa://28188 (66.67), maa://30524 (100.0)</t>
         </is>
       </c>
       <c r="E65" s="3" t="inlineStr">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="D69" s="12" t="inlineStr">
         <is>
-          <t>maa://28784 (94.1), maa://29088 (91.71), maa://20974 (95.89), maa://31124 (96.65), maa://28950 (92.0), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (80.0), **maa://42200 (50.0), maa://41832 (85.71)</t>
+          <t>maa://28784 (94.12), maa://29088 (91.75), maa://20974 (96.0), maa://31124 (96.72), maa://28950 (92.31), *maa://33612 (75.0), maa://29087 (100.0), *maa://20823 (80.0), **maa://42200 (50.0), maa://41832 (85.71)</t>
         </is>
       </c>
       <c r="E69" s="3" t="inlineStr">
@@ -2797,7 +2797,7 @@
       </c>
       <c r="D72" s="12" t="inlineStr">
         <is>
-          <t>maa://36643 (97.64), maa://36864 (97.59), maa://39140 (100.0)</t>
+          <t>maa://36643 (97.68), maa://36864 (97.59), maa://39140 (100.0)</t>
         </is>
       </c>
       <c r="E72" s="3" t="inlineStr">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="D83" s="12" t="inlineStr">
         <is>
-          <t>maa://27794 (100.0), maa://20960 (100.0), maa://45572 (100.0)</t>
+          <t>maa://27794 (100.0), maa://45572 (100.0), maa://20960 (100.0)</t>
         </is>
       </c>
       <c r="E83" s="3" t="inlineStr">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="D88" s="12" t="inlineStr">
         <is>
-          <t>maa://24472 (87.08), *maa://35841 (58.33)</t>
+          <t>maa://24472 (87.29), *maa://35841 (61.54)</t>
         </is>
       </c>
       <c r="E88" s="3" t="inlineStr">
@@ -3715,7 +3715,7 @@
       </c>
       <c r="D106" s="12" t="inlineStr">
         <is>
-          <t>maa://27794 (100.0), maa://20843 (100.0), maa://45572 (100.0), **maa://24483 (50.0)</t>
+          <t>maa://27794 (100.0), maa://45572 (100.0), maa://20843 (100.0), **maa://24483 (50.0)</t>
         </is>
       </c>
       <c r="E106" s="3" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="D108" s="12" t="inlineStr">
         <is>
-          <t>maa://25018 (95.94), maa://25776 (90.91), maa://28361 (96.88), maa://25772 (93.33), *maa://25161 (80.0), maa://32653 (85.71), *maa://45194 (80.0)</t>
+          <t>maa://25018 (95.99), maa://25776 (90.91), maa://28361 (96.88), maa://25772 (93.75), *maa://25161 (80.0), maa://32653 (85.71), *maa://45194 (80.0)</t>
         </is>
       </c>
       <c r="E108" s="3" t="inlineStr">
@@ -3850,7 +3850,7 @@
       </c>
       <c r="D111" s="12" t="inlineStr">
         <is>
-          <t>*maa://28554 (77.27), **maa://45081 (50.0)</t>
+          <t>*maa://28554 (77.27), *maa://45081 (66.67)</t>
         </is>
       </c>
       <c r="E111" s="3" t="inlineStr">
@@ -3877,7 +3877,7 @@
       </c>
       <c r="D112" s="12" t="inlineStr">
         <is>
-          <t>*maa://20933 (78.18), maa://20822 (100.0)</t>
+          <t>*maa://20933 (78.57), maa://20822 (100.0)</t>
         </is>
       </c>
       <c r="E112" s="3" t="inlineStr">
@@ -3958,7 +3958,7 @@
       </c>
       <c r="D115" s="12" t="inlineStr">
         <is>
-          <t>maa://20908 (98.19), maa://35723 (95.12), *maa://23346 (77.78), maa://38822 (100.0)</t>
+          <t>maa://20908 (98.22), maa://35723 (95.12), *maa://23346 (77.78), maa://38822 (100.0)</t>
         </is>
       </c>
       <c r="E115" s="3" t="inlineStr">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="D122" s="12" t="inlineStr">
         <is>
-          <t>maa://29650 (97.87), maa://45570 (100.0)</t>
+          <t>maa://29650 (97.92), maa://45570 (100.0)</t>
         </is>
       </c>
       <c r="E122" s="3" t="inlineStr">
@@ -4309,7 +4309,7 @@
       </c>
       <c r="D128" s="12" t="inlineStr">
         <is>
-          <t>maa://37484 (93.62), maa://24611 (89.29)</t>
+          <t>maa://37484 (93.75), maa://24611 (89.66)</t>
         </is>
       </c>
       <c r="E128" s="3" t="inlineStr">
@@ -4363,7 +4363,7 @@
       </c>
       <c r="D130" s="12" t="inlineStr">
         <is>
-          <t>maa://21422 (98.71)</t>
+          <t>maa://21422 (98.77)</t>
         </is>
       </c>
       <c r="E130" s="3" t="inlineStr">
@@ -4579,7 +4579,7 @@
       </c>
       <c r="D138" s="12" t="inlineStr">
         <is>
-          <t>**maa://21000 (41.38), *maa://29025 (76.19)</t>
+          <t>*maa://29025 (76.19), **maa://21000 (41.38)</t>
         </is>
       </c>
       <c r="E138" s="3" t="inlineStr">
@@ -4606,7 +4606,7 @@
       </c>
       <c r="D139" s="12" t="inlineStr">
         <is>
-          <t>**maa://30679 (47.83), maa://45258 (100.0)</t>
+          <t>**maa://30679 (47.83), maa://45258 (92.31)</t>
         </is>
       </c>
       <c r="E139" s="3" t="inlineStr">
@@ -4687,7 +4687,7 @@
       </c>
       <c r="D142" s="12" t="inlineStr">
         <is>
-          <t>maa://28484 (96.97), **maa://23736 (42.42), *maa://31185 (80.0), maa://30306 (100.0)</t>
+          <t>maa://28484 (97.06), **maa://23736 (42.42), *maa://31185 (80.0), maa://30306 (100.0)</t>
         </is>
       </c>
       <c r="E142" s="3" t="inlineStr">
@@ -4714,7 +4714,7 @@
       </c>
       <c r="D143" s="12" t="inlineStr">
         <is>
-          <t>maa://30670 (96.83), maa://31470 (96.15), *maa://45066 (66.67), ***maa://30867 (25.0)</t>
+          <t>maa://30670 (96.88), maa://31470 (96.3), **maa://45066 (50.0), ***maa://30867 (25.0)</t>
         </is>
       </c>
       <c r="E143" s="3" t="inlineStr">
@@ -4876,7 +4876,7 @@
       </c>
       <c r="D149" s="12" t="inlineStr">
         <is>
-          <t>maa://36641 (98.18), maa://36865 (96.3), maa://42918 (100.0), maa://44119 (97.3), maa://37300 (100.0), maa://46108 (100.0), maa://42917 (100.0)</t>
+          <t>maa://36641 (98.19), maa://36865 (96.3), maa://42918 (100.0), maa://44119 (97.3), maa://37300 (100.0), maa://46108 (100.0), maa://42917 (100.0)</t>
         </is>
       </c>
       <c r="E149" s="3" t="inlineStr">
@@ -5011,7 +5011,7 @@
       </c>
       <c r="D154" s="12" t="inlineStr">
         <is>
-          <t>maa://20945 (90.91)</t>
+          <t>maa://20945 (86.96)</t>
         </is>
       </c>
       <c r="E154" s="3" t="inlineStr">
@@ -5119,7 +5119,7 @@
       </c>
       <c r="D158" s="12" t="inlineStr">
         <is>
-          <t>maa://44232 (99.31), maa://44305 (100.0), maa://45603 (95.0)</t>
+          <t>maa://44232 (99.0), maa://44305 (100.0), maa://45603 (95.24)</t>
         </is>
       </c>
       <c r="E158" s="3" t="inlineStr">
@@ -5227,7 +5227,7 @@
       </c>
       <c r="D162" s="12" t="inlineStr">
         <is>
-          <t>*maa://32845 (63.64), maa://29054 (100.0)</t>
+          <t>*maa://32845 (66.67), maa://29054 (100.0)</t>
         </is>
       </c>
       <c r="E162" s="3" t="inlineStr">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="D166" s="12" t="inlineStr">
         <is>
-          <t>maa://29633 (93.66), maa://29627 (92.86), maa://29659 (83.87), maa://29861 (100.0)</t>
+          <t>maa://29633 (93.77), maa://29627 (92.96), maa://29659 (83.87), maa://29861 (100.0)</t>
         </is>
       </c>
       <c r="E166" s="3" t="inlineStr">
@@ -5524,7 +5524,7 @@
       </c>
       <c r="D173" s="12" t="inlineStr">
         <is>
-          <t>maa://37690 (85.71)</t>
+          <t>maa://37690 (87.5)</t>
         </is>
       </c>
       <c r="E173" s="3" t="inlineStr">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="D194" s="12" t="inlineStr">
         <is>
-          <t>maa://44224 (87.7), *maa://35854 (77.08), maa://25760 (85.57), **maa://20872 (50.0), ***maa://43911 (13.33)</t>
+          <t>maa://44224 (88.21), *maa://35854 (77.08), maa://25760 (85.57), **maa://20872 (50.0), ***maa://43911 (13.33)</t>
         </is>
       </c>
       <c r="E194" s="3" t="inlineStr">
@@ -6118,7 +6118,7 @@
       </c>
       <c r="D195" s="12" t="inlineStr">
         <is>
-          <t>maa://39156 (93.55), *maa://39550 (56.25)</t>
+          <t>maa://39156 (94.44), *maa://39550 (58.82)</t>
         </is>
       </c>
       <c r="E195" s="3" t="inlineStr">
@@ -6145,7 +6145,7 @@
       </c>
       <c r="D196" s="12" t="inlineStr">
         <is>
-          <t>maa://27823 (82.54), *maa://28190 (59.38), maa://22894 (90.91), *maa://20906 (72.22), **maa://20907 (35.48)</t>
+          <t>maa://27823 (82.81), *maa://28190 (59.38), maa://22894 (90.91), *maa://20906 (72.22), **maa://20907 (35.48)</t>
         </is>
       </c>
       <c r="E196" s="3" t="inlineStr">
@@ -6172,7 +6172,7 @@
       </c>
       <c r="D197" s="12" t="inlineStr">
         <is>
-          <t>maa://27823 (82.54), *maa://28190 (59.38), maa://22894 (90.91), *maa://20906 (72.22), **maa://20907 (35.48)</t>
+          <t>maa://27823 (82.81), *maa://28190 (59.38), maa://22894 (90.91), *maa://20906 (72.22), **maa://20907 (35.48)</t>
         </is>
       </c>
       <c r="E197" s="3" t="inlineStr">
@@ -6199,7 +6199,7 @@
       </c>
       <c r="D198" s="12" t="inlineStr">
         <is>
-          <t>maa://42223 (99.48), maa://42292 (96.67), maa://42402 (100.0)</t>
+          <t>maa://42223 (99.5), maa://42292 (97.06), maa://42402 (100.0)</t>
         </is>
       </c>
       <c r="E198" s="3" t="inlineStr">
@@ -6442,7 +6442,7 @@
       </c>
       <c r="D207" s="12" t="inlineStr">
         <is>
-          <t>maa://20956 (95.65), *maa://20830 (77.78), maa://44703 (100.0)</t>
+          <t>maa://20956 (95.09), *maa://20830 (77.78), maa://44703 (88.89)</t>
         </is>
       </c>
       <c r="E207" s="3" t="inlineStr">
@@ -6496,7 +6496,7 @@
       </c>
       <c r="D209" s="12" t="inlineStr">
         <is>
-          <t>maa://39238 (99.31)</t>
+          <t>maa://39238 (99.32)</t>
         </is>
       </c>
       <c r="E209" s="3" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="D220" s="12" t="inlineStr">
         <is>
-          <t>maa://28187 (97.14), maa://39520 (100.0), maa://43531 (100.0)</t>
+          <t>maa://28187 (97.14), maa://43531 (100.0), maa://39520 (100.0)</t>
         </is>
       </c>
       <c r="E220" s="3" t="inlineStr">
@@ -6955,7 +6955,7 @@
       </c>
       <c r="D226" s="12" t="inlineStr">
         <is>
-          <t>maa://29058 (95.24), maa://39140 (100.0), maa://38723 (100.0)</t>
+          <t>maa://29058 (95.45), maa://39140 (100.0), maa://38723 (100.0)</t>
         </is>
       </c>
       <c r="E226" s="3" t="inlineStr">
@@ -7009,7 +7009,7 @@
       </c>
       <c r="D228" s="12" t="inlineStr">
         <is>
-          <t>maa://20878 (86.67)</t>
+          <t>maa://20878 (87.1)</t>
         </is>
       </c>
       <c r="E228" s="3" t="inlineStr">
@@ -7063,7 +7063,7 @@
       </c>
       <c r="D230" s="12" t="inlineStr">
         <is>
-          <t>maa://20917 (97.83)</t>
+          <t>maa://20917 (97.87)</t>
         </is>
       </c>
       <c r="E230" s="3" t="inlineStr">
@@ -7117,7 +7117,7 @@
       </c>
       <c r="D232" s="12" t="inlineStr">
         <is>
-          <t>maa://20922 (92.86), *maa://32623 (68.75), *maa://34242 (80.0), maa://34900 (84.62)</t>
+          <t>maa://20922 (92.98), *maa://32623 (68.75), *maa://34242 (80.0), maa://34900 (84.62)</t>
         </is>
       </c>
       <c r="E232" s="3" t="inlineStr">
@@ -7171,7 +7171,7 @@
       </c>
       <c r="D234" s="12" t="inlineStr">
         <is>
-          <t>*maa://30667 (77.57), maa://30666 (83.73), *maa://26836 (78.34), maa://37607 (94.22), **maa://30739 (44.44), *maa://34428 (70.21), *maa://30723 (54.39), maa://39588 (88.64), *maa://37850 (75.0)</t>
+          <t>*maa://30667 (77.62), maa://30666 (83.81), *maa://26836 (78.48), maa://37607 (94.43), *maa://34428 (70.83), **maa://30739 (44.44), *maa://30723 (54.39), maa://39588 (89.13), *maa://37850 (75.0)</t>
         </is>
       </c>
       <c r="E234" s="3" t="inlineStr">
@@ -7279,7 +7279,7 @@
       </c>
       <c r="D238" s="12" t="inlineStr">
         <is>
-          <t>maa://20867 (92.86), maa://38485 (91.67), *maa://32202 (80.0)</t>
+          <t>maa://20867 (92.86), maa://38485 (92.31), *maa://32202 (80.0)</t>
         </is>
       </c>
       <c r="E238" s="3" t="inlineStr">
@@ -7387,7 +7387,7 @@
       </c>
       <c r="D242" s="12" t="inlineStr">
         <is>
-          <t>maa://28923 (91.23), maa://28906 (97.96), ***maa://28825 (12.0)</t>
+          <t>maa://28923 (91.23), maa://28906 (98.0), ***maa://28825 (12.0)</t>
         </is>
       </c>
       <c r="E242" s="3" t="inlineStr">
@@ -7414,7 +7414,7 @@
       </c>
       <c r="D243" s="12" t="inlineStr">
         <is>
-          <t>maa://42287 (92.59), maa://45570 (100.0), maa://42225 (100.0)</t>
+          <t>maa://42287 (92.73), maa://45570 (100.0), maa://42225 (100.0)</t>
         </is>
       </c>
       <c r="E243" s="3" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="D249" s="12" t="inlineStr">
         <is>
-          <t>maa://20877 (98.44), maa://20836 (100.0), *maa://45067 (66.67), maa://20632 (100.0)</t>
+          <t>maa://20877 (98.46), maa://20836 (100.0), *maa://45067 (66.67), maa://20632 (100.0)</t>
         </is>
       </c>
       <c r="E249" s="3" t="inlineStr">
@@ -7603,7 +7603,7 @@
       </c>
       <c r="D250" s="12" t="inlineStr">
         <is>
-          <t>maa://20879 (84.62), maa://20834 (92.86)</t>
+          <t>maa://20879 (84.91), maa://20834 (92.86)</t>
         </is>
       </c>
       <c r="E250" s="3" t="inlineStr">
@@ -7684,7 +7684,7 @@
       </c>
       <c r="D253" s="12" t="inlineStr">
         <is>
-          <t>maa://31560 (85.71), maa://20884 (95.0)</t>
+          <t>maa://31560 (85.71), maa://20884 (95.24)</t>
         </is>
       </c>
       <c r="E253" s="3" t="inlineStr">
@@ -7819,7 +7819,7 @@
       </c>
       <c r="D258" s="12" t="inlineStr">
         <is>
-          <t>maa://22467 (94.44)</t>
+          <t>maa://22467 (94.74)</t>
         </is>
       </c>
       <c r="E258" s="3" t="inlineStr">
@@ -7900,7 +7900,7 @@
       </c>
       <c r="D261" s="12" t="inlineStr">
         <is>
-          <t>maa://25769 (96.88)</t>
+          <t>maa://25769 (96.92)</t>
         </is>
       </c>
       <c r="E261" s="3" t="inlineStr">
@@ -7927,7 +7927,7 @@
       </c>
       <c r="D262" s="12" t="inlineStr">
         <is>
-          <t>maa://27794 (100.0), maa://45572 (100.0), *maa://20862 (75.0)</t>
+          <t>maa://27794 (100.0), maa://45572 (100.0), *maa://20862 (80.0)</t>
         </is>
       </c>
       <c r="E262" s="3" t="inlineStr">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="D277" s="12" t="inlineStr">
         <is>
-          <t>maa://30710 (97.54), maa://36845 (95.5), maa://31558 (97.06), **maa://39217 (37.5), maa://30668 (85.19)</t>
+          <t>maa://30710 (97.58), maa://36845 (95.58), maa://31558 (97.06), **maa://39217 (37.5), maa://30668 (85.19)</t>
         </is>
       </c>
       <c r="E277" s="3" t="inlineStr">
@@ -8413,7 +8413,7 @@
       </c>
       <c r="D280" s="12" t="inlineStr">
         <is>
-          <t>maa://25774 (100.0), maa://28133 (91.11), maa://22469 (91.67), **maa://39217 (37.5), **maa://31349 (50.0)</t>
+          <t>maa://25774 (98.41), maa://28133 (91.11), maa://22469 (91.84), **maa://39217 (37.5), **maa://31349 (50.0)</t>
         </is>
       </c>
       <c r="E280" s="3" t="inlineStr">
@@ -8423,27 +8423,27 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="17" t="inlineStr">
+      <c r="A281" s="16" t="inlineStr">
         <is>
           <t>林</t>
         </is>
       </c>
-      <c r="B281" s="17" t="inlineStr">
+      <c r="B281" s="16" t="inlineStr">
         <is>
           <t>6-5</t>
         </is>
       </c>
-      <c r="C281" s="18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D281" s="19" t="inlineStr">
-        <is>
-          <t>**maa://45842 (40.0)</t>
-        </is>
-      </c>
-      <c r="E281" s="20" t="inlineStr">
+      <c r="C281" s="13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D281" s="12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E281" s="3" t="inlineStr">
         <is>
           <t>&gt; 完成5次战斗；必须编入非助战林并上场，且每次战斗至少释放1次流光乍裂&gt; 3星通关主题曲6-5；必须携带且部署非助战林，且至少释放3次流光乍裂</t>
         </is>
@@ -8467,7 +8467,7 @@
       </c>
       <c r="D282" s="12" t="inlineStr">
         <is>
-          <t>maa://32414 (98.64), maa://32505 (100.0), maa://39155 (96.3)</t>
+          <t>maa://32414 (98.64), maa://32505 (100.0), maa://39155 (96.43)</t>
         </is>
       </c>
       <c r="E282" s="3" t="inlineStr">
@@ -8548,7 +8548,7 @@
       </c>
       <c r="D285" s="12" t="inlineStr">
         <is>
-          <t>maa://36642 (100.0), maa://36867 (96.88), maa://39155 (96.3)</t>
+          <t>maa://36642 (100.0), maa://36867 (96.88), maa://39155 (96.43)</t>
         </is>
       </c>
       <c r="E285" s="3" t="inlineStr">
@@ -8602,7 +8602,7 @@
       </c>
       <c r="D287" s="12" t="inlineStr">
         <is>
-          <t>maa://29005 (98.41), maa://31560 (85.71)</t>
+          <t>maa://29005 (98.44), maa://31560 (85.71)</t>
         </is>
       </c>
       <c r="E287" s="3" t="inlineStr">
@@ -8818,7 +8818,7 @@
       </c>
       <c r="D295" s="12" t="inlineStr">
         <is>
-          <t>maa://35859 (97.33)</t>
+          <t>maa://35859 (97.4)</t>
         </is>
       </c>
       <c r="E295" s="3" t="inlineStr">
@@ -8899,7 +8899,7 @@
       </c>
       <c r="D298" s="12" t="inlineStr">
         <is>
-          <t>maa://25775 (93.33), *maa://25393 (71.43)</t>
+          <t>maa://25775 (93.44), *maa://25393 (71.43)</t>
         </is>
       </c>
       <c r="E298" s="3" t="inlineStr">
@@ -8953,7 +8953,7 @@
       </c>
       <c r="D300" s="12" t="inlineStr">
         <is>
-          <t>maa://25367 (99.19)</t>
+          <t>maa://25367 (99.2)</t>
         </is>
       </c>
       <c r="E300" s="3" t="inlineStr">
@@ -8980,7 +8980,7 @@
       </c>
       <c r="D301" s="12" t="inlineStr">
         <is>
-          <t>*maa://43090 (80.0)</t>
+          <t>*maa://43090 (72.73)</t>
         </is>
       </c>
       <c r="E301" s="3" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="D313" s="12" t="inlineStr">
         <is>
-          <t>maa://40956 (95.45)</t>
+          <t>maa://40956 (95.65)</t>
         </is>
       </c>
       <c r="E313" s="3" t="inlineStr">
@@ -9412,7 +9412,7 @@
       </c>
       <c r="D317" s="12" t="inlineStr">
         <is>
-          <t>maa://44234 (98.36)</t>
+          <t>maa://44234 (98.46)</t>
         </is>
       </c>
       <c r="E317" s="3" t="inlineStr">
@@ -9439,7 +9439,7 @@
       </c>
       <c r="D318" s="12" t="inlineStr">
         <is>
-          <t>maa://42968 (98.97)</t>
+          <t>maa://42968 (98.99)</t>
         </is>
       </c>
       <c r="E318" s="3" t="inlineStr">
@@ -9520,7 +9520,7 @@
       </c>
       <c r="D321" s="12" t="inlineStr">
         <is>
-          <t>maa://30671 (81.82), maa://30669 (98.96), maa://37275 (81.58), *maa://32410 (66.67), maa://41605 (100.0), maa://33671 (100.0)</t>
+          <t>maa://30671 (81.82), maa://30669 (98.98), maa://37275 (81.58), *maa://32410 (66.67), maa://41605 (100.0), maa://33671 (100.0)</t>
         </is>
       </c>
       <c r="E321" s="3" t="inlineStr">
@@ -9547,7 +9547,7 @@
       </c>
       <c r="D322" s="12" t="inlineStr">
         <is>
-          <t>maa://38295 (95.95)</t>
+          <t>maa://38295 (96.0)</t>
         </is>
       </c>
       <c r="E322" s="3" t="inlineStr">
@@ -9628,7 +9628,7 @@
       </c>
       <c r="D325" s="12" t="inlineStr">
         <is>
-          <t>maa://32416 (87.5)</t>
+          <t>maa://32416 (87.8)</t>
         </is>
       </c>
       <c r="E325" s="3" t="inlineStr">
@@ -9682,7 +9682,7 @@
       </c>
       <c r="D327" s="12" t="inlineStr">
         <is>
-          <t>maa://32647 (97.64), maa://32415 (96.35), maa://34677 (100.0), maa://32892 (100.0)</t>
+          <t>maa://32647 (97.69), maa://32415 (96.38), maa://34677 (100.0), maa://32892 (100.0)</t>
         </is>
       </c>
       <c r="E327" s="3" t="inlineStr">
@@ -9763,7 +9763,7 @@
       </c>
       <c r="D330" s="12" t="inlineStr">
         <is>
-          <t>maa://34716 (85.71)</t>
+          <t>maa://34716 (87.5)</t>
         </is>
       </c>
       <c r="E330" s="3" t="inlineStr">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="D332" s="14" t="inlineStr">
         <is>
-          <t>maa://34865 (97.37), maa://34717 (93.75), *maa://45066 (66.67)</t>
+          <t>maa://34865 (97.4), maa://34717 (93.85), **maa://45066 (50.0)</t>
         </is>
       </c>
       <c r="E332" s="14" t="inlineStr">
@@ -9925,7 +9925,7 @@
       </c>
       <c r="D336" s="14" t="inlineStr">
         <is>
-          <t>maa://36868 (100.0), maa://35996 (96.15), **maa://39217 (37.5)</t>
+          <t>maa://36868 (100.0), maa://35996 (96.36), **maa://39217 (37.5)</t>
         </is>
       </c>
       <c r="E336" s="14" t="inlineStr">
@@ -9979,7 +9979,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>maa://42299 (97.06), *maa://42224 (66.67)</t>
+          <t>maa://42299 (97.22), *maa://42224 (70.0)</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
@@ -10006,7 +10006,7 @@
 